--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4DF697-15E7-4CF9-B2F4-743CD6725CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B35D4-FCED-48B6-96A4-2030405456AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="3" r:id="rId1"/>
     <sheet name="Monthly" sheetId="1" r:id="rId2"/>
     <sheet name="Daily" sheetId="2" r:id="rId3"/>
+    <sheet name="Information" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,34 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>NSW</t>
-  </si>
-  <si>
-    <t>VIC</t>
-  </si>
-  <si>
-    <t>QLD</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>TAS</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>DATE</t>
   </si>
@@ -74,6 +48,198 @@
   </si>
   <si>
     <t>YEAR</t>
+  </si>
+  <si>
+    <t>AUS_MONTHLY</t>
+  </si>
+  <si>
+    <t>NSW_MONTHLY</t>
+  </si>
+  <si>
+    <t>NT_MONTHLY</t>
+  </si>
+  <si>
+    <t>ACT_MONTHLY</t>
+  </si>
+  <si>
+    <t>TAS_MONTHLY</t>
+  </si>
+  <si>
+    <t>SA_MONTHLY</t>
+  </si>
+  <si>
+    <t>WA_MONTHLY</t>
+  </si>
+  <si>
+    <t>QLD_MONTHLY</t>
+  </si>
+  <si>
+    <t>VIC_MONTHLY</t>
+  </si>
+  <si>
+    <t>AUS_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>NT_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>ACT_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>TAS_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>SA_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>WA_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>QLD_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>VIC_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>NSW_MONTHLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>AUS_YEARLY</t>
+  </si>
+  <si>
+    <t>NT_YEARLY</t>
+  </si>
+  <si>
+    <t>ACT_YEARLY</t>
+  </si>
+  <si>
+    <t>TAS_YEARLY</t>
+  </si>
+  <si>
+    <t>SA_YEARLY</t>
+  </si>
+  <si>
+    <t>WA_YEARLY</t>
+  </si>
+  <si>
+    <t>QLD_YEARLY</t>
+  </si>
+  <si>
+    <t>VIC_YEARLY</t>
+  </si>
+  <si>
+    <t>NSW_YEARLY</t>
+  </si>
+  <si>
+    <t>AUS_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>NT_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>ACT_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>TAS_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>SA_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>WA_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>QLD_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>VIC_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>NSW_YEARLY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>AUS_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>NSW_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>VIC_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>QLD_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>WA_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>SA_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>TAS_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>ACT_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>NT_DAILY_CUMULATIVE</t>
+  </si>
+  <si>
+    <t>AUS_DAILY</t>
+  </si>
+  <si>
+    <t>NSW_DAILY</t>
+  </si>
+  <si>
+    <t>VIC_DAILY</t>
+  </si>
+  <si>
+    <t>QLD_DAILY</t>
+  </si>
+  <si>
+    <t>WA_DAILY</t>
+  </si>
+  <si>
+    <t>SA_DAILY</t>
+  </si>
+  <si>
+    <t>TAS_DAILY</t>
+  </si>
+  <si>
+    <t>ACT_DAILY</t>
+  </si>
+  <si>
+    <t>NT_DAILY</t>
+  </si>
+  <si>
+    <t>Data source:</t>
+  </si>
+  <si>
+    <t>Data last updated:</t>
+  </si>
+  <si>
+    <t>https://nindss.health.gov.au/pbi-dashboard/</t>
+  </si>
+  <si>
+    <t>National Communicable Disease Surveillance Dashboard</t>
+  </si>
+  <si>
+    <t>Daily data is calculated as the difference in Daily cumulative data for that date.</t>
+  </si>
+  <si>
+    <t>It will therefore include changes to cases (additions and removals) that may have occurred in the past.</t>
+  </si>
+  <si>
+    <t>For additional notes on the data, see the "Caveats" tab in the data source.</t>
+  </si>
+  <si>
+    <t>Daily cumulative data represents the values as they were on the specified date, and is not retrospectively updated.</t>
+  </si>
+  <si>
+    <t>Yearly and Monthly data may be updated retrospectively.</t>
+  </si>
+  <si>
+    <t>Yearly and Monthly cumulative data is calculated from Yearly and Monthly data, and does not come from the data source.</t>
   </si>
 </sst>
 </file>
@@ -84,10 +250,18 @@
     <numFmt numFmtId="175" formatCode="yyyy"/>
     <numFmt numFmtId="176" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,10 +284,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -151,8 +326,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,51 +642,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8849BA59-B957-42A5-9EFE-A7CA94CE3A47}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43831</v>
       </c>
@@ -540,12 +761,39 @@
       <c r="J2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>29114</v>
+      </c>
+      <c r="L2">
+        <v>5044</v>
+      </c>
+      <c r="M2">
+        <v>20728</v>
+      </c>
+      <c r="N2">
+        <v>1295</v>
+      </c>
+      <c r="O2">
+        <v>946</v>
+      </c>
+      <c r="P2">
+        <v>613</v>
+      </c>
+      <c r="Q2">
+        <v>246</v>
+      </c>
+      <c r="R2">
+        <v>162</v>
+      </c>
+      <c r="S2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44197</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="34">
         <v>538953</v>
       </c>
       <c r="C3">
@@ -572,12 +820,39 @@
       <c r="J3">
         <v>711</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>568067</v>
+      </c>
+      <c r="L3">
+        <v>285284</v>
+      </c>
+      <c r="M3">
+        <v>220127</v>
+      </c>
+      <c r="N3">
+        <v>32910</v>
+      </c>
+      <c r="O3">
+        <v>1366</v>
+      </c>
+      <c r="P3">
+        <v>19161</v>
+      </c>
+      <c r="Q3">
+        <v>1876</v>
+      </c>
+      <c r="R3">
+        <v>6552</v>
+      </c>
+      <c r="S3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44562</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="34">
         <v>10317575</v>
       </c>
       <c r="C4">
@@ -604,12 +879,39 @@
       <c r="J4">
         <v>103176</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>10885642</v>
+      </c>
+      <c r="L4">
+        <v>3653400</v>
+      </c>
+      <c r="M4">
+        <v>2841480</v>
+      </c>
+      <c r="N4">
+        <v>1619875</v>
+      </c>
+      <c r="O4">
+        <v>1289864</v>
+      </c>
+      <c r="P4">
+        <v>867176</v>
+      </c>
+      <c r="Q4">
+        <v>281543</v>
+      </c>
+      <c r="R4">
+        <v>228337</v>
+      </c>
+      <c r="S4">
+        <v>103967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44927</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="34">
         <v>788021</v>
       </c>
       <c r="C5">
@@ -635,6 +937,33 @@
       </c>
       <c r="J5">
         <v>5913</v>
+      </c>
+      <c r="K5">
+        <v>11673663</v>
+      </c>
+      <c r="L5">
+        <v>3941243</v>
+      </c>
+      <c r="M5">
+        <v>2990074</v>
+      </c>
+      <c r="N5">
+        <v>1745147</v>
+      </c>
+      <c r="O5">
+        <v>1381002</v>
+      </c>
+      <c r="P5">
+        <v>948664</v>
+      </c>
+      <c r="Q5">
+        <v>308487</v>
+      </c>
+      <c r="R5">
+        <v>249166</v>
+      </c>
+      <c r="S5">
+        <v>109880</v>
       </c>
     </row>
   </sheetData>
@@ -644,1552 +973,2865 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125DBEF1-FF0A-4137-8A02-CEAF7EA42BCB}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>43831</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>17</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="10">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4">
+        <v>4</v>
+      </c>
+      <c r="M2" s="9">
+        <v>4</v>
+      </c>
+      <c r="N2" s="6">
+        <v>3</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>43862</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="35">
         <v>122</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="35">
         <v>52</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="35">
         <v>35</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="35">
         <v>19</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="35">
         <v>4</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="35">
         <v>4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="35">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="35">
         <v>6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="35">
+        <v>139</v>
+      </c>
+      <c r="L3" s="4">
+        <v>56</v>
+      </c>
+      <c r="M3" s="9">
+        <v>39</v>
+      </c>
+      <c r="N3" s="6">
+        <v>22</v>
+      </c>
+      <c r="O3" s="10">
+        <v>4</v>
+      </c>
+      <c r="P3" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>7</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>43891</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="35">
         <v>6158</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="35">
         <v>2774</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="35">
         <v>1243</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="35">
         <v>990</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="35">
         <v>502</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="35">
         <v>429</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="35">
         <v>85</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="35">
         <v>110</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="35">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="35">
+        <v>6297</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2830</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1282</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1012</v>
+      </c>
+      <c r="O4" s="10">
+        <v>506</v>
+      </c>
+      <c r="P4" s="7">
+        <v>438</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>87</v>
+      </c>
+      <c r="R4" s="3">
+        <v>117</v>
+      </c>
+      <c r="S4" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>43922</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="35">
         <v>1038</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="35">
         <v>440</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="35">
         <v>240</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="35">
         <v>72</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="35">
         <v>99</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="35">
         <v>26</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="35">
         <v>145</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="35">
         <v>12</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="35">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="35">
+        <v>7335</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3270</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1522</v>
+      </c>
+      <c r="N5" s="6">
+        <v>1084</v>
+      </c>
+      <c r="O5" s="10">
+        <v>605</v>
+      </c>
+      <c r="P5" s="7">
+        <v>464</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>232</v>
+      </c>
+      <c r="R5" s="3">
+        <v>129</v>
+      </c>
+      <c r="S5" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>43952</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="35">
         <v>435</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="35">
         <v>66</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="35">
         <v>314</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="35">
         <v>10</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="35">
         <v>37</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="35">
         <v>2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="35">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="35">
         <v>4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="35">
+        <v>7770</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3336</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1836</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1094</v>
+      </c>
+      <c r="O6" s="10">
+        <v>642</v>
+      </c>
+      <c r="P6" s="7">
+        <v>466</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>234</v>
+      </c>
+      <c r="R6" s="3">
+        <v>133</v>
+      </c>
+      <c r="S6" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <v>43983</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="35">
         <v>1144</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="35">
         <v>133</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="35">
         <v>969</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="35">
         <v>10</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="35">
         <v>18</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="35">
         <v>5</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="35">
         <v>2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="35">
         <v>6</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="35">
+        <v>8914</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3469</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2805</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1104</v>
+      </c>
+      <c r="O7" s="10">
+        <v>660</v>
+      </c>
+      <c r="P7" s="7">
+        <v>471</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>236</v>
+      </c>
+      <c r="R7" s="3">
+        <v>139</v>
+      </c>
+      <c r="S7" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <v>44013</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="35">
         <v>10269</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="35">
         <v>392</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="35">
         <v>9785</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="35">
         <v>19</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="35">
         <v>46</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="35">
         <v>11</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="35">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="35">
         <v>11</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="35">
+        <v>19183</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3861</v>
+      </c>
+      <c r="M8" s="9">
+        <v>12590</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1123</v>
+      </c>
+      <c r="O8" s="10">
+        <v>706</v>
+      </c>
+      <c r="P8" s="7">
+        <v>482</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>240</v>
+      </c>
+      <c r="R8" s="3">
+        <v>150</v>
+      </c>
+      <c r="S8" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>44044</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="35">
         <v>7288</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="35">
         <v>276</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="35">
         <v>6939</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="35">
         <v>47</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="35">
         <v>13</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="35">
         <v>9</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="35">
         <v>2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="35">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="35">
+        <v>26471</v>
+      </c>
+      <c r="L9" s="4">
+        <v>4137</v>
+      </c>
+      <c r="M9" s="9">
+        <v>19529</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1170</v>
+      </c>
+      <c r="O9" s="10">
+        <v>719</v>
+      </c>
+      <c r="P9" s="7">
+        <v>491</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>242</v>
+      </c>
+      <c r="R9" s="3">
+        <v>152</v>
+      </c>
+      <c r="S9" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>44075</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="35">
         <v>1151</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="35">
         <v>165</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="35">
         <v>914</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="35">
         <v>27</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="35">
         <v>33</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="35">
         <v>12</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="35">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="35">
         <v>0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="35">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="35">
+        <v>27622</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4302</v>
+      </c>
+      <c r="M10" s="9">
+        <v>20443</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1197</v>
+      </c>
+      <c r="O10" s="10">
+        <v>752</v>
+      </c>
+      <c r="P10" s="7">
+        <v>503</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>242</v>
+      </c>
+      <c r="R10" s="3">
+        <v>152</v>
+      </c>
+      <c r="S10" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <v>44105</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="35">
         <v>520</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="35">
         <v>205</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="35">
         <v>170</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="35">
         <v>15</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="35">
         <v>88</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="35">
         <v>33</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="35">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="35">
         <v>3</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="35">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="35">
+        <v>28142</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4507</v>
+      </c>
+      <c r="M11" s="9">
+        <v>20613</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1212</v>
+      </c>
+      <c r="O11" s="10">
+        <v>840</v>
+      </c>
+      <c r="P11" s="7">
+        <v>536</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>242</v>
+      </c>
+      <c r="R11" s="3">
+        <v>155</v>
+      </c>
+      <c r="S11" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <v>44136</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="35">
         <v>369</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="35">
         <v>168</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="35">
         <v>25</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="35">
         <v>32</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="35">
         <v>58</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="35">
         <v>57</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="35">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="35">
         <v>6</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="35">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="35">
+        <v>28511</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4675</v>
+      </c>
+      <c r="M12" s="9">
+        <v>20638</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1244</v>
+      </c>
+      <c r="O12" s="10">
+        <v>898</v>
+      </c>
+      <c r="P12" s="7">
+        <v>593</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>242</v>
+      </c>
+      <c r="R12" s="3">
+        <v>161</v>
+      </c>
+      <c r="S12" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>44166</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="35">
         <v>603</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="35">
         <v>369</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="35">
         <v>90</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="35">
         <v>51</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="35">
         <v>48</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="35">
         <v>20</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="35">
         <v>4</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="35">
         <v>1</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="35">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="35">
+        <v>29114</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5044</v>
+      </c>
+      <c r="M13" s="9">
+        <v>20728</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1295</v>
+      </c>
+      <c r="O13" s="10">
+        <v>946</v>
+      </c>
+      <c r="P13" s="7">
+        <v>613</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>246</v>
+      </c>
+      <c r="R13" s="3">
+        <v>162</v>
+      </c>
+      <c r="S13" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <v>44197</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="35">
         <v>572</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="35">
         <v>234</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="35">
         <v>134</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="35">
         <v>72</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="35">
         <v>35</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="35">
         <v>37</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="35">
         <v>2</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="35">
         <v>28</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="35">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="35">
+        <v>29686</v>
+      </c>
+      <c r="L14" s="12">
+        <v>5278</v>
+      </c>
+      <c r="M14" s="17">
+        <v>20862</v>
+      </c>
+      <c r="N14" s="14">
+        <v>1367</v>
+      </c>
+      <c r="O14" s="18">
+        <v>981</v>
+      </c>
+      <c r="P14" s="15">
+        <v>650</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>248</v>
+      </c>
+      <c r="R14" s="11">
+        <v>190</v>
+      </c>
+      <c r="S14" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>44228</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="35">
         <v>249</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="35">
         <v>63</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="35">
         <v>101</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="35">
         <v>33</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="35">
         <v>15</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="35">
         <v>22</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="35">
         <v>1</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="35">
         <v>7</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="35">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="35">
+        <v>29935</v>
+      </c>
+      <c r="L15" s="12">
+        <v>5341</v>
+      </c>
+      <c r="M15" s="17">
+        <v>20963</v>
+      </c>
+      <c r="N15" s="14">
+        <v>1400</v>
+      </c>
+      <c r="O15" s="18">
+        <v>996</v>
+      </c>
+      <c r="P15" s="15">
+        <v>672</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>249</v>
+      </c>
+      <c r="R15" s="11">
+        <v>197</v>
+      </c>
+      <c r="S15" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <v>44256</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="35">
         <v>472</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="35">
         <v>88</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="35">
         <v>96</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="35">
         <v>158</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="35">
         <v>50</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="35">
         <v>46</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="35">
         <v>1</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="35">
         <v>28</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="35">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="35">
+        <v>30407</v>
+      </c>
+      <c r="L16" s="12">
+        <v>5429</v>
+      </c>
+      <c r="M16" s="17">
+        <v>21059</v>
+      </c>
+      <c r="N16" s="14">
+        <v>1558</v>
+      </c>
+      <c r="O16" s="18">
+        <v>1046</v>
+      </c>
+      <c r="P16" s="15">
+        <v>718</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>250</v>
+      </c>
+      <c r="R16" s="11">
+        <v>225</v>
+      </c>
+      <c r="S16" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>44287</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="35">
         <v>572</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="35">
         <v>154</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="35">
         <v>126</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="35">
         <v>73</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="35">
         <v>77</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="35">
         <v>65</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="35">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="35">
         <v>21</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="35">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="35">
+        <v>30979</v>
+      </c>
+      <c r="L17" s="12">
+        <v>5583</v>
+      </c>
+      <c r="M17" s="17">
+        <v>21185</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1631</v>
+      </c>
+      <c r="O17" s="18">
+        <v>1123</v>
+      </c>
+      <c r="P17" s="15">
+        <v>783</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>250</v>
+      </c>
+      <c r="R17" s="11">
+        <v>246</v>
+      </c>
+      <c r="S17" s="13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>44317</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="35">
         <v>386</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="35">
         <v>68</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="35">
         <v>187</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="35">
         <v>64</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="35">
         <v>31</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="35">
         <v>25</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="35">
         <v>0</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="35">
         <v>2</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="35">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="35">
+        <v>31365</v>
+      </c>
+      <c r="L18" s="12">
+        <v>5651</v>
+      </c>
+      <c r="M18" s="17">
+        <v>21372</v>
+      </c>
+      <c r="N18" s="14">
+        <v>1695</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1154</v>
+      </c>
+      <c r="P18" s="15">
+        <v>808</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>250</v>
+      </c>
+      <c r="R18" s="11">
+        <v>248</v>
+      </c>
+      <c r="S18" s="13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>44348</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="35">
         <v>640</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="35">
         <v>339</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="35">
         <v>141</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="35">
         <v>85</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="35">
         <v>22</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="35">
         <v>39</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="35">
         <v>0</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="35">
         <v>2</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="35">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="35">
+        <v>32005</v>
+      </c>
+      <c r="L19" s="12">
+        <v>5990</v>
+      </c>
+      <c r="M19" s="17">
+        <v>21513</v>
+      </c>
+      <c r="N19" s="14">
+        <v>1780</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1176</v>
+      </c>
+      <c r="P19" s="15">
+        <v>847</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>250</v>
+      </c>
+      <c r="R19" s="11">
+        <v>250</v>
+      </c>
+      <c r="S19" s="13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <v>44378</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="35">
         <v>4304</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="35">
         <v>3769</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="35">
         <v>306</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="35">
         <v>125</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="35">
         <v>34</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="35">
         <v>50</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="35">
         <v>0</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="35">
         <v>6</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="35">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="35">
+        <v>36309</v>
+      </c>
+      <c r="L20" s="12">
+        <v>9759</v>
+      </c>
+      <c r="M20" s="17">
+        <v>21819</v>
+      </c>
+      <c r="N20" s="14">
+        <v>1905</v>
+      </c>
+      <c r="O20" s="18">
+        <v>1210</v>
+      </c>
+      <c r="P20" s="15">
+        <v>897</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>250</v>
+      </c>
+      <c r="R20" s="11">
+        <v>256</v>
+      </c>
+      <c r="S20" s="13">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <v>44409</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="35">
         <v>23514</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="35">
         <v>21229</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="35">
         <v>1743</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="35">
         <v>160</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="35">
         <v>30</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="35">
         <v>11</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="35">
         <v>1</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="35">
         <v>336</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="35">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="35">
+        <v>59823</v>
+      </c>
+      <c r="L21" s="12">
+        <v>30988</v>
+      </c>
+      <c r="M21" s="17">
+        <v>23562</v>
+      </c>
+      <c r="N21" s="14">
+        <v>2065</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1240</v>
+      </c>
+      <c r="P21" s="15">
+        <v>908</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>251</v>
+      </c>
+      <c r="R21" s="11">
+        <v>592</v>
+      </c>
+      <c r="S21" s="13">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <v>44440</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="35">
         <v>54387</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="35">
         <v>33790</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="35">
         <v>19816</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="35">
         <v>59</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="35">
         <v>26</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="35">
         <v>25</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="35">
         <v>0</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="35">
         <v>660</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="35">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="35">
+        <v>114210</v>
+      </c>
+      <c r="L22" s="12">
+        <v>64778</v>
+      </c>
+      <c r="M22" s="17">
+        <v>43378</v>
+      </c>
+      <c r="N22" s="14">
+        <v>2124</v>
+      </c>
+      <c r="O22" s="18">
+        <v>1266</v>
+      </c>
+      <c r="P22" s="15">
+        <v>933</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>251</v>
+      </c>
+      <c r="R22" s="11">
+        <v>1252</v>
+      </c>
+      <c r="S22" s="13">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <v>44470</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="35">
         <v>60996</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="35">
         <v>10786</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="35">
         <v>49425</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="35">
         <v>55</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="35">
         <v>11</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="35">
         <v>19</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="35">
         <v>2</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="35">
         <v>684</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="35">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="35">
+        <v>175206</v>
+      </c>
+      <c r="L23" s="12">
+        <v>75564</v>
+      </c>
+      <c r="M23" s="17">
+        <v>92803</v>
+      </c>
+      <c r="N23" s="14">
+        <v>2179</v>
+      </c>
+      <c r="O23" s="18">
+        <v>1277</v>
+      </c>
+      <c r="P23" s="15">
+        <v>952</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>253</v>
+      </c>
+      <c r="R23" s="11">
+        <v>1936</v>
+      </c>
+      <c r="S23" s="13">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <v>44501</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="35">
         <v>40729</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="35">
         <v>6670</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="35">
         <v>33515</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="35">
         <v>50</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="35">
         <v>16</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="35">
         <v>48</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="35">
         <v>3</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="35">
         <v>357</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="35">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="35">
+        <v>215935</v>
+      </c>
+      <c r="L24" s="12">
+        <v>82234</v>
+      </c>
+      <c r="M24" s="17">
+        <v>126318</v>
+      </c>
+      <c r="N24" s="14">
+        <v>2229</v>
+      </c>
+      <c r="O24" s="18">
+        <v>1293</v>
+      </c>
+      <c r="P24" s="15">
+        <v>1000</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>256</v>
+      </c>
+      <c r="R24" s="11">
+        <v>2293</v>
+      </c>
+      <c r="S24" s="13">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <v>44531</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="35">
         <v>352132</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="35">
         <v>203050</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="35">
         <v>93809</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="35">
         <v>30681</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="35">
         <v>73</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="35">
         <v>18161</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="35">
         <v>1620</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="35">
         <v>4259</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="35">
         <v>479</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="35">
+        <v>568067</v>
+      </c>
+      <c r="L25" s="12">
+        <v>285284</v>
+      </c>
+      <c r="M25" s="17">
+        <v>220127</v>
+      </c>
+      <c r="N25" s="14">
+        <v>32910</v>
+      </c>
+      <c r="O25" s="18">
+        <v>1366</v>
+      </c>
+      <c r="P25" s="15">
+        <v>19161</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>1876</v>
+      </c>
+      <c r="R25" s="11">
+        <v>6552</v>
+      </c>
+      <c r="S25" s="13">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <v>44562</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="35">
         <v>1809538</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="35">
         <v>637166</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="35">
         <v>635279</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="35">
         <v>372399</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="35">
         <v>850</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="35">
         <v>89999</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="35">
         <v>27849</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="35">
         <v>30423</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="35">
         <v>15573</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="35">
+        <v>2377605</v>
+      </c>
+      <c r="L26" s="20">
+        <v>922450</v>
+      </c>
+      <c r="M26" s="25">
+        <v>855406</v>
+      </c>
+      <c r="N26" s="22">
+        <v>405309</v>
+      </c>
+      <c r="O26" s="26">
+        <v>2216</v>
+      </c>
+      <c r="P26" s="23">
+        <v>109160</v>
+      </c>
+      <c r="Q26" s="24">
+        <v>29725</v>
+      </c>
+      <c r="R26" s="19">
+        <v>36975</v>
+      </c>
+      <c r="S26" s="21">
+        <v>16364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <v>44593</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="35">
         <v>687502</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="35">
         <v>230228</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="35">
         <v>204528</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="35">
         <v>140753</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="35">
         <v>11817</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="35">
         <v>44377</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="35">
         <v>17719</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="35">
         <v>14605</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="35">
         <v>23475</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="35">
+        <v>3065107</v>
+      </c>
+      <c r="L27" s="20">
+        <v>1152678</v>
+      </c>
+      <c r="M27" s="25">
+        <v>1059934</v>
+      </c>
+      <c r="N27" s="22">
+        <v>546062</v>
+      </c>
+      <c r="O27" s="26">
+        <v>14033</v>
+      </c>
+      <c r="P27" s="23">
+        <v>153537</v>
+      </c>
+      <c r="Q27" s="24">
+        <v>47444</v>
+      </c>
+      <c r="R27" s="19">
+        <v>51580</v>
+      </c>
+      <c r="S27" s="21">
+        <v>39839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <v>44621</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="35">
         <v>1366746</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="35">
         <v>536608</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="35">
         <v>250086</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="35">
         <v>196227</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="35">
         <v>179287</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="35">
         <v>120461</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="35">
         <v>46426</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="35">
         <v>27534</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="35">
         <v>10117</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="35">
+        <v>4431853</v>
+      </c>
+      <c r="L28" s="20">
+        <v>1689286</v>
+      </c>
+      <c r="M28" s="25">
+        <v>1310020</v>
+      </c>
+      <c r="N28" s="22">
+        <v>742289</v>
+      </c>
+      <c r="O28" s="26">
+        <v>193320</v>
+      </c>
+      <c r="P28" s="23">
+        <v>273998</v>
+      </c>
+      <c r="Q28" s="24">
+        <v>93870</v>
+      </c>
+      <c r="R28" s="19">
+        <v>79114</v>
+      </c>
+      <c r="S28" s="21">
+        <v>49956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
         <v>44652</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="35">
         <v>1339780</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="35">
         <v>432381</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="35">
         <v>274952</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="35">
         <v>201082</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="35">
         <v>206843</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="35">
         <v>139719</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="35">
         <v>44024</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="35">
         <v>27308</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="35">
         <v>13471</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="35">
+        <v>5771633</v>
+      </c>
+      <c r="L29" s="20">
+        <v>2121667</v>
+      </c>
+      <c r="M29" s="25">
+        <v>1584972</v>
+      </c>
+      <c r="N29" s="22">
+        <v>943371</v>
+      </c>
+      <c r="O29" s="26">
+        <v>400163</v>
+      </c>
+      <c r="P29" s="23">
+        <v>413717</v>
+      </c>
+      <c r="Q29" s="24">
+        <v>137894</v>
+      </c>
+      <c r="R29" s="19">
+        <v>106422</v>
+      </c>
+      <c r="S29" s="21">
+        <v>63427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
         <v>44682</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="35">
         <v>1310346</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="35">
         <v>297269</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="35">
         <v>333308</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="35">
         <v>152930</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="35">
         <v>354088</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="35">
         <v>108119</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="35">
         <v>28269</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="35">
         <v>27707</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="35">
         <v>8656</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="35">
+        <v>7081979</v>
+      </c>
+      <c r="L30" s="20">
+        <v>2418936</v>
+      </c>
+      <c r="M30" s="25">
+        <v>1918280</v>
+      </c>
+      <c r="N30" s="22">
+        <v>1096301</v>
+      </c>
+      <c r="O30" s="26">
+        <v>754251</v>
+      </c>
+      <c r="P30" s="23">
+        <v>521836</v>
+      </c>
+      <c r="Q30" s="24">
+        <v>166163</v>
+      </c>
+      <c r="R30" s="19">
+        <v>134129</v>
+      </c>
+      <c r="S30" s="21">
+        <v>72083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
         <v>44713</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="35">
         <v>884284</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="35">
         <v>233901</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="35">
         <v>215086</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="35">
         <v>117015</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="35">
         <v>182639</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="35">
         <v>77303</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="35">
         <v>24718</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="35">
         <v>26905</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="35">
         <v>6717</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="35">
+        <v>7966263</v>
+      </c>
+      <c r="L31" s="20">
+        <v>2652837</v>
+      </c>
+      <c r="M31" s="25">
+        <v>2133366</v>
+      </c>
+      <c r="N31" s="22">
+        <v>1213316</v>
+      </c>
+      <c r="O31" s="26">
+        <v>936890</v>
+      </c>
+      <c r="P31" s="23">
+        <v>599139</v>
+      </c>
+      <c r="Q31" s="24">
+        <v>190881</v>
+      </c>
+      <c r="R31" s="19">
+        <v>161034</v>
+      </c>
+      <c r="S31" s="21">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
         <v>44743</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="35">
         <v>1250351</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="35">
         <v>378607</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="35">
         <v>312117</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="35">
         <v>197459</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="35">
         <v>158264</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="35">
         <v>117400</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="35">
         <v>42275</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="35">
         <v>31650</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="35">
         <v>12579</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="35">
+        <v>9216614</v>
+      </c>
+      <c r="L32" s="20">
+        <v>3031444</v>
+      </c>
+      <c r="M32" s="25">
+        <v>2445483</v>
+      </c>
+      <c r="N32" s="22">
+        <v>1410775</v>
+      </c>
+      <c r="O32" s="26">
+        <v>1095154</v>
+      </c>
+      <c r="P32" s="23">
+        <v>716539</v>
+      </c>
+      <c r="Q32" s="24">
+        <v>233156</v>
+      </c>
+      <c r="R32" s="19">
+        <v>192684</v>
+      </c>
+      <c r="S32" s="21">
+        <v>91379</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <v>44774</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="35">
         <v>554859</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="35">
         <v>230049</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="35">
         <v>125430</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="35">
         <v>71362</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="35">
         <v>59071</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="35">
         <v>40510</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="35">
         <v>12903</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="35">
         <v>10547</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="35">
         <v>4987</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="35">
+        <v>9771473</v>
+      </c>
+      <c r="L33" s="20">
+        <v>3261493</v>
+      </c>
+      <c r="M33" s="25">
+        <v>2570913</v>
+      </c>
+      <c r="N33" s="22">
+        <v>1482137</v>
+      </c>
+      <c r="O33" s="26">
+        <v>1154225</v>
+      </c>
+      <c r="P33" s="23">
+        <v>757049</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>246059</v>
+      </c>
+      <c r="R33" s="19">
+        <v>203231</v>
+      </c>
+      <c r="S33" s="21">
+        <v>96366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <v>44805</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="35">
         <v>194256</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="35">
         <v>68852</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="35">
         <v>46669</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="35">
         <v>30274</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="35">
         <v>24272</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="35">
         <v>15285</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="35">
         <v>3876</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="35">
         <v>3266</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="35">
         <v>1762</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="35">
+        <v>9965729</v>
+      </c>
+      <c r="L34" s="20">
+        <v>3330345</v>
+      </c>
+      <c r="M34" s="25">
+        <v>2617582</v>
+      </c>
+      <c r="N34" s="22">
+        <v>1512411</v>
+      </c>
+      <c r="O34" s="26">
+        <v>1178497</v>
+      </c>
+      <c r="P34" s="23">
+        <v>772334</v>
+      </c>
+      <c r="Q34" s="24">
+        <v>249935</v>
+      </c>
+      <c r="R34" s="19">
+        <v>206497</v>
+      </c>
+      <c r="S34" s="21">
+        <v>98128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <v>44835</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="35">
         <v>142104</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="35">
         <v>44499</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="35">
         <v>36394</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="35">
         <v>16737</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="35">
         <v>23425</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="35">
         <v>13175</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="35">
         <v>3654</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="35">
         <v>3037</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="35">
         <v>1183</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="35">
+        <v>10107833</v>
+      </c>
+      <c r="L35" s="20">
+        <v>3374844</v>
+      </c>
+      <c r="M35" s="25">
+        <v>2653976</v>
+      </c>
+      <c r="N35" s="22">
+        <v>1529148</v>
+      </c>
+      <c r="O35" s="26">
+        <v>1201922</v>
+      </c>
+      <c r="P35" s="23">
+        <v>785509</v>
+      </c>
+      <c r="Q35" s="24">
+        <v>253589</v>
+      </c>
+      <c r="R35" s="19">
+        <v>209534</v>
+      </c>
+      <c r="S35" s="21">
+        <v>99311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <v>44866</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="35">
         <v>351943</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="35">
         <v>122093</v>
       </c>
-      <c r="D36" s="25">
+      <c r="D36" s="35">
         <v>92897</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="35">
         <v>36446</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="35">
         <v>42631</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="35">
         <v>37162</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="35">
         <v>11684</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="35">
         <v>7226</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="35">
         <v>1804</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="35">
+        <v>10459776</v>
+      </c>
+      <c r="L36" s="20">
+        <v>3496937</v>
+      </c>
+      <c r="M36" s="25">
+        <v>2746873</v>
+      </c>
+      <c r="N36" s="22">
+        <v>1565594</v>
+      </c>
+      <c r="O36" s="26">
+        <v>1244553</v>
+      </c>
+      <c r="P36" s="23">
+        <v>822671</v>
+      </c>
+      <c r="Q36" s="24">
+        <v>265273</v>
+      </c>
+      <c r="R36" s="19">
+        <v>216760</v>
+      </c>
+      <c r="S36" s="21">
+        <v>101115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>44896</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="35">
         <v>425866</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="35">
         <v>156463</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37" s="35">
         <v>94607</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="35">
         <v>54281</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="35">
         <v>45311</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="35">
         <v>44505</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="35">
         <v>16270</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="35">
         <v>11577</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="35">
         <v>2852</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="35">
+        <v>10885642</v>
+      </c>
+      <c r="L37" s="20">
+        <v>3653400</v>
+      </c>
+      <c r="M37" s="25">
+        <v>2841480</v>
+      </c>
+      <c r="N37" s="22">
+        <v>1619875</v>
+      </c>
+      <c r="O37" s="26">
+        <v>1289864</v>
+      </c>
+      <c r="P37" s="23">
+        <v>867176</v>
+      </c>
+      <c r="Q37" s="24">
+        <v>281543</v>
+      </c>
+      <c r="R37" s="19">
+        <v>228337</v>
+      </c>
+      <c r="S37" s="21">
+        <v>103967</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <v>44927</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="35">
         <v>130078</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="35">
         <v>45940</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="35">
         <v>23104</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="35">
         <v>24113</v>
       </c>
       <c r="F38" s="35">
         <v>16856</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="35">
         <v>11890</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="35">
         <v>3637</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="35">
         <v>3253</v>
       </c>
-      <c r="J38" s="29">
+      <c r="J38" s="35">
         <v>1285</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="35">
+        <v>11015720</v>
+      </c>
+      <c r="L38" s="28">
+        <v>3699340</v>
+      </c>
+      <c r="M38" s="33">
+        <v>2864584</v>
+      </c>
+      <c r="N38" s="30">
+        <v>1643988</v>
+      </c>
+      <c r="O38" s="35">
+        <v>1306720</v>
+      </c>
+      <c r="P38" s="31">
+        <v>879066</v>
+      </c>
+      <c r="Q38" s="32">
+        <v>285180</v>
+      </c>
+      <c r="R38" s="27">
+        <v>231590</v>
+      </c>
+      <c r="S38" s="29">
+        <v>105252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <v>44958</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="35">
         <v>71989</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="35">
         <v>25243</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="35">
         <v>12389</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="35">
         <v>14300</v>
       </c>
       <c r="F39" s="35">
         <v>8872</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="35">
         <v>6853</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="35">
         <v>1931</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="35">
         <v>1941</v>
       </c>
-      <c r="J39" s="29">
+      <c r="J39" s="35">
         <v>460</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="35">
+        <v>11087709</v>
+      </c>
+      <c r="L39" s="28">
+        <v>3724583</v>
+      </c>
+      <c r="M39" s="33">
+        <v>2876973</v>
+      </c>
+      <c r="N39" s="30">
+        <v>1658288</v>
+      </c>
+      <c r="O39" s="35">
+        <v>1315592</v>
+      </c>
+      <c r="P39" s="31">
+        <v>885919</v>
+      </c>
+      <c r="Q39" s="32">
+        <v>287111</v>
+      </c>
+      <c r="R39" s="27">
+        <v>233531</v>
+      </c>
+      <c r="S39" s="29">
+        <v>105712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>44986</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="35">
         <v>103979</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="35">
         <v>38642</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="35">
         <v>19237</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="35">
         <v>15455</v>
       </c>
       <c r="F40" s="35">
         <v>12962</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="35">
         <v>11500</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="35">
         <v>3302</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="35">
         <v>2213</v>
       </c>
-      <c r="J40" s="29">
+      <c r="J40" s="35">
         <v>668</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="35">
+        <v>11191688</v>
+      </c>
+      <c r="L40" s="28">
+        <v>3763225</v>
+      </c>
+      <c r="M40" s="33">
+        <v>2896210</v>
+      </c>
+      <c r="N40" s="30">
+        <v>1673743</v>
+      </c>
+      <c r="O40" s="35">
+        <v>1328554</v>
+      </c>
+      <c r="P40" s="31">
+        <v>897419</v>
+      </c>
+      <c r="Q40" s="32">
+        <v>290413</v>
+      </c>
+      <c r="R40" s="27">
+        <v>235744</v>
+      </c>
+      <c r="S40" s="29">
+        <v>106380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <v>45017</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="35">
         <v>123165</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C41" s="35">
         <v>47529</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="35">
         <v>25807</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="35">
         <v>15910</v>
       </c>
       <c r="F41" s="35">
         <v>14387</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="35">
         <v>12329</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="35">
         <v>3780</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="35">
         <v>2597</v>
       </c>
-      <c r="J41" s="29">
+      <c r="J41" s="35">
         <v>826</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="35">
+        <v>11314853</v>
+      </c>
+      <c r="L41" s="28">
+        <v>3810754</v>
+      </c>
+      <c r="M41" s="33">
+        <v>2922017</v>
+      </c>
+      <c r="N41" s="30">
+        <v>1689653</v>
+      </c>
+      <c r="O41" s="35">
+        <v>1342941</v>
+      </c>
+      <c r="P41" s="31">
+        <v>909748</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>294193</v>
+      </c>
+      <c r="R41" s="27">
+        <v>238341</v>
+      </c>
+      <c r="S41" s="29">
+        <v>107206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>45047</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="35">
         <v>166253</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="35">
         <v>62095</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="35">
         <v>38375</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="35">
         <v>22310</v>
       </c>
       <c r="F42" s="35">
         <v>18088</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="35">
         <v>14913</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="35">
         <v>5204</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="35">
         <v>4334</v>
       </c>
-      <c r="J42" s="29">
+      <c r="J42" s="35">
         <v>934</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="35">
+        <v>11481106</v>
+      </c>
+      <c r="L42" s="28">
+        <v>3872849</v>
+      </c>
+      <c r="M42" s="33">
+        <v>2960392</v>
+      </c>
+      <c r="N42" s="30">
+        <v>1711963</v>
+      </c>
+      <c r="O42" s="35">
+        <v>1361029</v>
+      </c>
+      <c r="P42" s="31">
+        <v>924661</v>
+      </c>
+      <c r="Q42" s="32">
+        <v>299397</v>
+      </c>
+      <c r="R42" s="27">
+        <v>242675</v>
+      </c>
+      <c r="S42" s="29">
+        <v>108140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>45078</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="35">
         <v>77806</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C43" s="35">
         <v>28181</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="35">
         <v>14772</v>
       </c>
-      <c r="E43" s="30">
+      <c r="E43" s="35">
         <v>14251</v>
       </c>
       <c r="F43" s="35">
         <v>8418</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="35">
         <v>7214</v>
       </c>
-      <c r="H43" s="32">
+      <c r="H43" s="35">
         <v>2586</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="35">
         <v>1989</v>
       </c>
-      <c r="J43" s="29">
+      <c r="J43" s="35">
         <v>395</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="35">
+        <v>11558912</v>
+      </c>
+      <c r="L43" s="28">
+        <v>3901030</v>
+      </c>
+      <c r="M43" s="33">
+        <v>2975164</v>
+      </c>
+      <c r="N43" s="30">
+        <v>1726214</v>
+      </c>
+      <c r="O43" s="35">
+        <v>1369447</v>
+      </c>
+      <c r="P43" s="31">
+        <v>931875</v>
+      </c>
+      <c r="Q43" s="32">
+        <v>301983</v>
+      </c>
+      <c r="R43" s="27">
+        <v>244664</v>
+      </c>
+      <c r="S43" s="29">
+        <v>108535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>45108</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="35">
         <v>28219</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="35">
         <v>10283</v>
       </c>
-      <c r="D44" s="33">
+      <c r="D44" s="35">
         <v>2077</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="35">
         <v>6948</v>
       </c>
       <c r="F44" s="35">
         <v>3652</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="35">
         <v>2929</v>
       </c>
-      <c r="H44" s="32">
+      <c r="H44" s="35">
         <v>1273</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="35">
         <v>853</v>
       </c>
-      <c r="J44" s="29">
+      <c r="J44" s="35">
         <v>204</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="35">
+        <v>11587131</v>
+      </c>
+      <c r="L44" s="28">
+        <v>3911313</v>
+      </c>
+      <c r="M44" s="33">
+        <v>2977241</v>
+      </c>
+      <c r="N44" s="30">
+        <v>1733162</v>
+      </c>
+      <c r="O44" s="35">
+        <v>1373099</v>
+      </c>
+      <c r="P44" s="31">
+        <v>934804</v>
+      </c>
+      <c r="Q44" s="32">
+        <v>303256</v>
+      </c>
+      <c r="R44" s="27">
+        <v>245517</v>
+      </c>
+      <c r="S44" s="29">
+        <v>108739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>45139</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="35">
         <v>23445</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C45" s="35">
         <v>9134</v>
       </c>
-      <c r="D45" s="33">
+      <c r="D45" s="35">
         <v>2142</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="35">
         <v>4538</v>
       </c>
       <c r="F45" s="35">
         <v>2998</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="35">
         <v>2449</v>
       </c>
-      <c r="H45" s="32">
+      <c r="H45" s="35">
         <v>1164</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="35">
         <v>804</v>
       </c>
-      <c r="J45" s="29">
+      <c r="J45" s="35">
         <v>216</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="35">
+        <v>11610576</v>
+      </c>
+      <c r="L45" s="28">
+        <v>3920447</v>
+      </c>
+      <c r="M45" s="33">
+        <v>2979383</v>
+      </c>
+      <c r="N45" s="30">
+        <v>1737700</v>
+      </c>
+      <c r="O45" s="35">
+        <v>1376097</v>
+      </c>
+      <c r="P45" s="31">
+        <v>937253</v>
+      </c>
+      <c r="Q45" s="32">
+        <v>304420</v>
+      </c>
+      <c r="R45" s="27">
+        <v>246321</v>
+      </c>
+      <c r="S45" s="29">
+        <v>108955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>45170</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="35">
         <v>22126</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="35">
         <v>8963</v>
       </c>
-      <c r="D46" s="33">
+      <c r="D46" s="35">
         <v>3261</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="35">
         <v>2023</v>
       </c>
       <c r="F46" s="35">
         <v>2557</v>
       </c>
-      <c r="G46" s="31">
+      <c r="G46" s="35">
         <v>3033</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="35">
         <v>1203</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="35">
         <v>742</v>
       </c>
-      <c r="J46" s="29">
+      <c r="J46" s="35">
         <v>344</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="35">
+        <v>11632702</v>
+      </c>
+      <c r="L46" s="28">
+        <v>3929410</v>
+      </c>
+      <c r="M46" s="33">
+        <v>2982644</v>
+      </c>
+      <c r="N46" s="30">
+        <v>1739723</v>
+      </c>
+      <c r="O46" s="35">
+        <v>1378654</v>
+      </c>
+      <c r="P46" s="31">
+        <v>940286</v>
+      </c>
+      <c r="Q46" s="32">
+        <v>305623</v>
+      </c>
+      <c r="R46" s="27">
+        <v>247063</v>
+      </c>
+      <c r="S46" s="29">
+        <v>109299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>45200</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="35">
         <v>27828</v>
       </c>
-      <c r="C47" s="28">
+      <c r="C47" s="35">
         <v>7712</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D47" s="35">
         <v>5630</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="35">
         <v>3644</v>
       </c>
       <c r="F47" s="35">
         <v>1984</v>
       </c>
-      <c r="G47" s="31">
+      <c r="G47" s="35">
         <v>5069</v>
       </c>
-      <c r="H47" s="32">
+      <c r="H47" s="35">
         <v>1891</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="35">
         <v>1484</v>
       </c>
-      <c r="J47" s="29">
+      <c r="J47" s="35">
         <v>414</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="35">
+        <v>11660530</v>
+      </c>
+      <c r="L47" s="28">
+        <v>3937122</v>
+      </c>
+      <c r="M47" s="33">
+        <v>2988274</v>
+      </c>
+      <c r="N47" s="30">
+        <v>1743367</v>
+      </c>
+      <c r="O47" s="35">
+        <v>1380638</v>
+      </c>
+      <c r="P47" s="31">
+        <v>945355</v>
+      </c>
+      <c r="Q47" s="32">
+        <v>307514</v>
+      </c>
+      <c r="R47" s="27">
+        <v>248547</v>
+      </c>
+      <c r="S47" s="29">
+        <v>109713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>45231</v>
       </c>
       <c r="B48" s="35">
         <v>13133</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="35">
         <v>4121</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D48" s="35">
         <v>1800</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="35">
         <v>1780</v>
       </c>
       <c r="F48" s="35">
         <v>364</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="35">
         <v>3309</v>
       </c>
-      <c r="H48" s="32">
+      <c r="H48" s="35">
         <v>973</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="35">
         <v>619</v>
       </c>
-      <c r="J48" s="29">
+      <c r="J48" s="35">
         <v>167</v>
+      </c>
+      <c r="K48" s="35">
+        <v>11673663</v>
+      </c>
+      <c r="L48" s="28">
+        <v>3941243</v>
+      </c>
+      <c r="M48" s="33">
+        <v>2990074</v>
+      </c>
+      <c r="N48" s="30">
+        <v>1745147</v>
+      </c>
+      <c r="O48" s="35">
+        <v>1381002</v>
+      </c>
+      <c r="P48" s="31">
+        <v>948664</v>
+      </c>
+      <c r="Q48" s="32">
+        <v>308487</v>
+      </c>
+      <c r="R48" s="27">
+        <v>249166</v>
+      </c>
+      <c r="S48" s="29">
+        <v>109880</v>
       </c>
     </row>
   </sheetData>
@@ -2199,89 +3841,260 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>45240</v>
+      </c>
+      <c r="K2">
+        <v>11672052</v>
+      </c>
+      <c r="L2">
+        <v>3940761</v>
+      </c>
+      <c r="M2">
+        <v>2989802</v>
+      </c>
+      <c r="N2">
+        <v>1744922</v>
+      </c>
+      <c r="O2">
+        <v>1381002</v>
+      </c>
+      <c r="P2">
+        <v>948264</v>
+      </c>
+      <c r="Q2">
+        <v>308364</v>
+      </c>
+      <c r="R2">
+        <v>249082</v>
+      </c>
+      <c r="S2">
+        <v>109855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>45241</v>
       </c>
-      <c r="B2">
-        <v>1609</v>
-      </c>
-      <c r="C2">
+      <c r="B3" s="34">
+        <v>1611</v>
+      </c>
+      <c r="C3" s="34">
         <v>482</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="34">
         <v>272</v>
       </c>
-      <c r="E2">
-        <v>227</v>
-      </c>
-      <c r="F2">
+      <c r="E3" s="34">
+        <v>225</v>
+      </c>
+      <c r="F3" s="34">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>396</v>
-      </c>
-      <c r="H2">
+      <c r="G3" s="34">
+        <v>400</v>
+      </c>
+      <c r="H3" s="34">
         <v>123</v>
       </c>
-      <c r="I2">
+      <c r="I3" s="34">
         <v>84</v>
       </c>
-      <c r="J2">
+      <c r="J3" s="34">
         <v>25</v>
       </c>
+      <c r="K3">
+        <v>11673663</v>
+      </c>
+      <c r="L3">
+        <v>3941243</v>
+      </c>
+      <c r="M3">
+        <v>2990074</v>
+      </c>
+      <c r="N3">
+        <v>1745147</v>
+      </c>
+      <c r="O3">
+        <v>1381002</v>
+      </c>
+      <c r="P3">
+        <v>948664</v>
+      </c>
+      <c r="Q3">
+        <v>308487</v>
+      </c>
+      <c r="R3">
+        <v>249166</v>
+      </c>
+      <c r="S3">
+        <v>109880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E36B237-192B-43E1-BDD4-2460A91BB66C}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{6534327E-F6CC-42BA-AABD-8B17BD184F05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B35D4-FCED-48B6-96A4-2030405456AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFF9812-F048-415D-A83F-E731BFF6FBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -50,168 +50,6 @@
     <t>YEAR</t>
   </si>
   <si>
-    <t>AUS_MONTHLY</t>
-  </si>
-  <si>
-    <t>NSW_MONTHLY</t>
-  </si>
-  <si>
-    <t>NT_MONTHLY</t>
-  </si>
-  <si>
-    <t>ACT_MONTHLY</t>
-  </si>
-  <si>
-    <t>TAS_MONTHLY</t>
-  </si>
-  <si>
-    <t>SA_MONTHLY</t>
-  </si>
-  <si>
-    <t>WA_MONTHLY</t>
-  </si>
-  <si>
-    <t>QLD_MONTHLY</t>
-  </si>
-  <si>
-    <t>VIC_MONTHLY</t>
-  </si>
-  <si>
-    <t>AUS_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>NT_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>ACT_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>TAS_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>SA_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>WA_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>QLD_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>VIC_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>NSW_MONTHLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>AUS_YEARLY</t>
-  </si>
-  <si>
-    <t>NT_YEARLY</t>
-  </si>
-  <si>
-    <t>ACT_YEARLY</t>
-  </si>
-  <si>
-    <t>TAS_YEARLY</t>
-  </si>
-  <si>
-    <t>SA_YEARLY</t>
-  </si>
-  <si>
-    <t>WA_YEARLY</t>
-  </si>
-  <si>
-    <t>QLD_YEARLY</t>
-  </si>
-  <si>
-    <t>VIC_YEARLY</t>
-  </si>
-  <si>
-    <t>NSW_YEARLY</t>
-  </si>
-  <si>
-    <t>AUS_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>NT_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>ACT_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>TAS_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>SA_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>WA_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>QLD_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>VIC_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>NSW_YEARLY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>AUS_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>NSW_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>VIC_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>QLD_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>WA_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>SA_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>TAS_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>ACT_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>NT_DAILY_CUMULATIVE</t>
-  </si>
-  <si>
-    <t>AUS_DAILY</t>
-  </si>
-  <si>
-    <t>NSW_DAILY</t>
-  </si>
-  <si>
-    <t>VIC_DAILY</t>
-  </si>
-  <si>
-    <t>QLD_DAILY</t>
-  </si>
-  <si>
-    <t>WA_DAILY</t>
-  </si>
-  <si>
-    <t>SA_DAILY</t>
-  </si>
-  <si>
-    <t>TAS_DAILY</t>
-  </si>
-  <si>
-    <t>ACT_DAILY</t>
-  </si>
-  <si>
-    <t>NT_DAILY</t>
-  </si>
-  <si>
     <t>Data source:</t>
   </si>
   <si>
@@ -240,6 +78,168 @@
   </si>
   <si>
     <t>Yearly and Monthly cumulative data is calculated from Yearly and Monthly data, and does not come from the data source.</t>
+  </si>
+  <si>
+    <t>AUS_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>NSW_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>VIC_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>QLD_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>WA_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>SA_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>TAS_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>ACT_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>NT_YEARLY_CASES</t>
+  </si>
+  <si>
+    <t>AUS_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>NSW_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>VIC_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>QLD_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>WA_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>SA_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>TAS_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>ACT_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>NT_YEARLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>AUS_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>NSW_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>VIC_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>QLD_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>WA_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>SA_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>TAS_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>ACT_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>NT_MONTHLY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>AUS_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>NSW_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>VIC_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>QLD_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>WA_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>SA_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>TAS_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>ACT_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>NT_DAILY_CUMULATIVE_CASES</t>
+  </si>
+  <si>
+    <t>AUS_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>NSW_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>VIC_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>QLD_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>WA_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>SA_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>TAS_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>ACT_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>NT_DAILY_CASES</t>
+  </si>
+  <si>
+    <t>AUS_MONTHLY_CASES</t>
+  </si>
+  <si>
+    <t>NSW_MONTHLY_CASES</t>
+  </si>
+  <si>
+    <t>VIC_MONTHLY_CASES</t>
+  </si>
+  <si>
+    <t>QLD_MONTHLY_CASES</t>
+  </si>
+  <si>
+    <t>WA_MONTHLY_CASES</t>
+  </si>
+  <si>
+    <t>SA_MONTHLY_CASES</t>
+  </si>
+  <si>
+    <t>TAS_MONTHLY_CASES</t>
+  </si>
+  <si>
+    <t>ACT_MONTHLY_CASES</t>
+  </si>
+  <si>
+    <t>NT_MONTHLY_CASES</t>
   </si>
 </sst>
 </file>
@@ -644,31 +644,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8849BA59-B957-42A5-9EFE-A7CA94CE3A47}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -676,58 +674,58 @@
         <v>2</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -975,31 +973,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125DBEF1-FF0A-4137-8A02-CEAF7EA42BCB}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1007,58 +1003,58 @@
         <v>1</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -3843,31 +3839,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -3875,58 +3869,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4042,7 +4036,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1">
         <v>45241</v>
@@ -4050,45 +4044,45 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFF9812-F048-415D-A83F-E731BFF6FBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618A192F-DC1F-4B87-9E71-7C79512EB5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="3" r:id="rId1"/>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8849BA59-B957-42A5-9EFE-A7CA94CE3A47}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -910,25 +910,25 @@
         <v>44927</v>
       </c>
       <c r="B5" s="34">
-        <v>788021</v>
+        <v>788661</v>
       </c>
       <c r="C5">
-        <v>287843</v>
+        <v>288179</v>
       </c>
       <c r="D5">
         <v>148594</v>
       </c>
       <c r="E5">
-        <v>125272</v>
+        <v>125381</v>
       </c>
       <c r="F5">
         <v>91138</v>
       </c>
       <c r="G5">
-        <v>81488</v>
+        <v>81556</v>
       </c>
       <c r="H5">
-        <v>26944</v>
+        <v>27071</v>
       </c>
       <c r="I5">
         <v>20829</v>
@@ -937,25 +937,25 @@
         <v>5913</v>
       </c>
       <c r="K5">
-        <v>11673663</v>
+        <v>11674303</v>
       </c>
       <c r="L5">
-        <v>3941243</v>
+        <v>3941579</v>
       </c>
       <c r="M5">
         <v>2990074</v>
       </c>
       <c r="N5">
-        <v>1745147</v>
+        <v>1745256</v>
       </c>
       <c r="O5">
         <v>1381002</v>
       </c>
       <c r="P5">
-        <v>948664</v>
+        <v>948732</v>
       </c>
       <c r="Q5">
-        <v>308487</v>
+        <v>308614</v>
       </c>
       <c r="R5">
         <v>249166</v>
@@ -3717,7 +3717,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="35">
-        <v>27828</v>
+        <v>27838</v>
       </c>
       <c r="C47" s="35">
         <v>7712</v>
@@ -3735,7 +3735,7 @@
         <v>5069</v>
       </c>
       <c r="H47" s="35">
-        <v>1891</v>
+        <v>1901</v>
       </c>
       <c r="I47" s="35">
         <v>1484</v>
@@ -3744,7 +3744,7 @@
         <v>414</v>
       </c>
       <c r="K47" s="35">
-        <v>11660530</v>
+        <v>11660540</v>
       </c>
       <c r="L47" s="28">
         <v>3937122</v>
@@ -3762,7 +3762,7 @@
         <v>945355</v>
       </c>
       <c r="Q47" s="32">
-        <v>307514</v>
+        <v>307524</v>
       </c>
       <c r="R47" s="27">
         <v>248547</v>
@@ -3776,25 +3776,25 @@
         <v>45231</v>
       </c>
       <c r="B48" s="35">
-        <v>13133</v>
+        <v>13763</v>
       </c>
       <c r="C48" s="35">
-        <v>4121</v>
+        <v>4457</v>
       </c>
       <c r="D48" s="35">
         <v>1800</v>
       </c>
       <c r="E48" s="35">
-        <v>1780</v>
+        <v>1889</v>
       </c>
       <c r="F48" s="35">
         <v>364</v>
       </c>
       <c r="G48" s="35">
-        <v>3309</v>
+        <v>3377</v>
       </c>
       <c r="H48" s="35">
-        <v>973</v>
+        <v>1090</v>
       </c>
       <c r="I48" s="35">
         <v>619</v>
@@ -3803,25 +3803,25 @@
         <v>167</v>
       </c>
       <c r="K48" s="35">
-        <v>11673663</v>
+        <v>11674303</v>
       </c>
       <c r="L48" s="28">
-        <v>3941243</v>
+        <v>3941579</v>
       </c>
       <c r="M48" s="33">
         <v>2990074</v>
       </c>
       <c r="N48" s="30">
-        <v>1745147</v>
+        <v>1745256</v>
       </c>
       <c r="O48" s="35">
         <v>1381002</v>
       </c>
       <c r="P48" s="31">
-        <v>948664</v>
+        <v>948732</v>
       </c>
       <c r="Q48" s="32">
-        <v>308487</v>
+        <v>308614</v>
       </c>
       <c r="R48" s="27">
         <v>249166</v>
@@ -4015,7 +4015,63 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>45242</v>
+      </c>
+      <c r="B4">
+        <v>640</v>
+      </c>
+      <c r="C4">
+        <v>336</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>109</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>68</v>
+      </c>
+      <c r="H4">
+        <v>127</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>11674303</v>
+      </c>
+      <c r="L4">
+        <v>3941579</v>
+      </c>
+      <c r="M4">
+        <v>2990074</v>
+      </c>
+      <c r="N4">
+        <v>1745256</v>
+      </c>
+      <c r="O4">
+        <v>1381002</v>
+      </c>
+      <c r="P4">
+        <v>948732</v>
+      </c>
+      <c r="Q4">
+        <v>308614</v>
+      </c>
+      <c r="R4">
+        <v>249166</v>
+      </c>
+      <c r="S4">
+        <v>109880</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4026,7 +4082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E36B237-192B-43E1-BDD4-2460A91BB66C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4039,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45241</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618A192F-DC1F-4B87-9E71-7C79512EB5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CBCDA0-A2F6-4DBF-8555-87102786DD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly" sheetId="3" r:id="rId1"/>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8849BA59-B957-42A5-9EFE-A7CA94CE3A47}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -851,7 +851,7 @@
         <v>44562</v>
       </c>
       <c r="B4" s="34">
-        <v>10317575</v>
+        <v>10317612</v>
       </c>
       <c r="C4">
         <v>3368116</v>
@@ -866,7 +866,7 @@
         <v>1288498</v>
       </c>
       <c r="G4">
-        <v>848015</v>
+        <v>848052</v>
       </c>
       <c r="H4">
         <v>279667</v>
@@ -878,7 +878,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885642</v>
+        <v>10885679</v>
       </c>
       <c r="L4">
         <v>3653400</v>
@@ -893,7 +893,7 @@
         <v>1289864</v>
       </c>
       <c r="P4">
-        <v>867176</v>
+        <v>867213</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -910,22 +910,22 @@
         <v>44927</v>
       </c>
       <c r="B5" s="34">
-        <v>788661</v>
+        <v>789444</v>
       </c>
       <c r="C5">
-        <v>288179</v>
+        <v>288384</v>
       </c>
       <c r="D5">
         <v>148594</v>
       </c>
       <c r="E5">
-        <v>125381</v>
+        <v>125489</v>
       </c>
       <c r="F5">
         <v>91138</v>
       </c>
       <c r="G5">
-        <v>81556</v>
+        <v>82026</v>
       </c>
       <c r="H5">
         <v>27071</v>
@@ -937,22 +937,22 @@
         <v>5913</v>
       </c>
       <c r="K5">
-        <v>11674303</v>
+        <v>11675123</v>
       </c>
       <c r="L5">
-        <v>3941579</v>
+        <v>3941784</v>
       </c>
       <c r="M5">
         <v>2990074</v>
       </c>
       <c r="N5">
-        <v>1745256</v>
+        <v>1745364</v>
       </c>
       <c r="O5">
         <v>1381002</v>
       </c>
       <c r="P5">
-        <v>948732</v>
+        <v>949239</v>
       </c>
       <c r="Q5">
         <v>308614</v>
@@ -2478,7 +2478,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="35">
-        <v>1809538</v>
+        <v>1809545</v>
       </c>
       <c r="C26" s="35">
         <v>637166</v>
@@ -2493,7 +2493,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="35">
-        <v>89999</v>
+        <v>90006</v>
       </c>
       <c r="H26" s="35">
         <v>27849</v>
@@ -2505,7 +2505,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="35">
-        <v>2377605</v>
+        <v>2377612</v>
       </c>
       <c r="L26" s="20">
         <v>922450</v>
@@ -2520,7 +2520,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="23">
-        <v>109160</v>
+        <v>109167</v>
       </c>
       <c r="Q26" s="24">
         <v>29725</v>
@@ -2537,7 +2537,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="35">
-        <v>687502</v>
+        <v>687507</v>
       </c>
       <c r="C27" s="35">
         <v>230228</v>
@@ -2552,7 +2552,7 @@
         <v>11817</v>
       </c>
       <c r="G27" s="35">
-        <v>44377</v>
+        <v>44382</v>
       </c>
       <c r="H27" s="35">
         <v>17719</v>
@@ -2564,7 +2564,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="35">
-        <v>3065107</v>
+        <v>3065119</v>
       </c>
       <c r="L27" s="20">
         <v>1152678</v>
@@ -2579,7 +2579,7 @@
         <v>14033</v>
       </c>
       <c r="P27" s="23">
-        <v>153537</v>
+        <v>153549</v>
       </c>
       <c r="Q27" s="24">
         <v>47444</v>
@@ -2596,7 +2596,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="35">
-        <v>1366746</v>
+        <v>1366751</v>
       </c>
       <c r="C28" s="35">
         <v>536608</v>
@@ -2611,7 +2611,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="35">
-        <v>120461</v>
+        <v>120466</v>
       </c>
       <c r="H28" s="35">
         <v>46426</v>
@@ -2623,7 +2623,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="35">
-        <v>4431853</v>
+        <v>4431870</v>
       </c>
       <c r="L28" s="20">
         <v>1689286</v>
@@ -2638,7 +2638,7 @@
         <v>193320</v>
       </c>
       <c r="P28" s="23">
-        <v>273998</v>
+        <v>274015</v>
       </c>
       <c r="Q28" s="24">
         <v>93870</v>
@@ -2655,7 +2655,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="35">
-        <v>1339780</v>
+        <v>1339795</v>
       </c>
       <c r="C29" s="35">
         <v>432381</v>
@@ -2670,7 +2670,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="35">
-        <v>139719</v>
+        <v>139734</v>
       </c>
       <c r="H29" s="35">
         <v>44024</v>
@@ -2682,7 +2682,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="35">
-        <v>5771633</v>
+        <v>5771665</v>
       </c>
       <c r="L29" s="20">
         <v>2121667</v>
@@ -2697,7 +2697,7 @@
         <v>400163</v>
       </c>
       <c r="P29" s="23">
-        <v>413717</v>
+        <v>413749</v>
       </c>
       <c r="Q29" s="24">
         <v>137894</v>
@@ -2714,7 +2714,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="35">
-        <v>1310346</v>
+        <v>1310351</v>
       </c>
       <c r="C30" s="35">
         <v>297269</v>
@@ -2729,7 +2729,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="35">
-        <v>108119</v>
+        <v>108124</v>
       </c>
       <c r="H30" s="35">
         <v>28269</v>
@@ -2741,7 +2741,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="35">
-        <v>7081979</v>
+        <v>7082016</v>
       </c>
       <c r="L30" s="20">
         <v>2418936</v>
@@ -2756,7 +2756,7 @@
         <v>754251</v>
       </c>
       <c r="P30" s="23">
-        <v>521836</v>
+        <v>521873</v>
       </c>
       <c r="Q30" s="24">
         <v>166163</v>
@@ -2800,7 +2800,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="35">
-        <v>7966263</v>
+        <v>7966300</v>
       </c>
       <c r="L31" s="20">
         <v>2652837</v>
@@ -2815,7 +2815,7 @@
         <v>936890</v>
       </c>
       <c r="P31" s="23">
-        <v>599139</v>
+        <v>599176</v>
       </c>
       <c r="Q31" s="24">
         <v>190881</v>
@@ -2859,7 +2859,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="35">
-        <v>9216614</v>
+        <v>9216651</v>
       </c>
       <c r="L32" s="20">
         <v>3031444</v>
@@ -2874,7 +2874,7 @@
         <v>1095154</v>
       </c>
       <c r="P32" s="23">
-        <v>716539</v>
+        <v>716576</v>
       </c>
       <c r="Q32" s="24">
         <v>233156</v>
@@ -2918,7 +2918,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="35">
-        <v>9771473</v>
+        <v>9771510</v>
       </c>
       <c r="L33" s="20">
         <v>3261493</v>
@@ -2933,7 +2933,7 @@
         <v>1154225</v>
       </c>
       <c r="P33" s="23">
-        <v>757049</v>
+        <v>757086</v>
       </c>
       <c r="Q33" s="24">
         <v>246059</v>
@@ -2977,7 +2977,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="35">
-        <v>9965729</v>
+        <v>9965766</v>
       </c>
       <c r="L34" s="20">
         <v>3330345</v>
@@ -2992,7 +2992,7 @@
         <v>1178497</v>
       </c>
       <c r="P34" s="23">
-        <v>772334</v>
+        <v>772371</v>
       </c>
       <c r="Q34" s="24">
         <v>249935</v>
@@ -3036,7 +3036,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="35">
-        <v>10107833</v>
+        <v>10107870</v>
       </c>
       <c r="L35" s="20">
         <v>3374844</v>
@@ -3051,7 +3051,7 @@
         <v>1201922</v>
       </c>
       <c r="P35" s="23">
-        <v>785509</v>
+        <v>785546</v>
       </c>
       <c r="Q35" s="24">
         <v>253589</v>
@@ -3095,7 +3095,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="35">
-        <v>10459776</v>
+        <v>10459813</v>
       </c>
       <c r="L36" s="20">
         <v>3496937</v>
@@ -3110,7 +3110,7 @@
         <v>1244553</v>
       </c>
       <c r="P36" s="23">
-        <v>822671</v>
+        <v>822708</v>
       </c>
       <c r="Q36" s="24">
         <v>265273</v>
@@ -3154,7 +3154,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="35">
-        <v>10885642</v>
+        <v>10885679</v>
       </c>
       <c r="L37" s="20">
         <v>3653400</v>
@@ -3169,7 +3169,7 @@
         <v>1289864</v>
       </c>
       <c r="P37" s="23">
-        <v>867176</v>
+        <v>867213</v>
       </c>
       <c r="Q37" s="24">
         <v>281543</v>
@@ -3213,7 +3213,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="35">
-        <v>11015720</v>
+        <v>11015757</v>
       </c>
       <c r="L38" s="28">
         <v>3699340</v>
@@ -3228,7 +3228,7 @@
         <v>1306720</v>
       </c>
       <c r="P38" s="31">
-        <v>879066</v>
+        <v>879103</v>
       </c>
       <c r="Q38" s="32">
         <v>285180</v>
@@ -3272,7 +3272,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="35">
-        <v>11087709</v>
+        <v>11087746</v>
       </c>
       <c r="L39" s="28">
         <v>3724583</v>
@@ -3287,7 +3287,7 @@
         <v>1315592</v>
       </c>
       <c r="P39" s="31">
-        <v>885919</v>
+        <v>885956</v>
       </c>
       <c r="Q39" s="32">
         <v>287111</v>
@@ -3331,7 +3331,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="35">
-        <v>11191688</v>
+        <v>11191725</v>
       </c>
       <c r="L40" s="28">
         <v>3763225</v>
@@ -3346,7 +3346,7 @@
         <v>1328554</v>
       </c>
       <c r="P40" s="31">
-        <v>897419</v>
+        <v>897456</v>
       </c>
       <c r="Q40" s="32">
         <v>290413</v>
@@ -3390,7 +3390,7 @@
         <v>826</v>
       </c>
       <c r="K41" s="35">
-        <v>11314853</v>
+        <v>11314890</v>
       </c>
       <c r="L41" s="28">
         <v>3810754</v>
@@ -3405,7 +3405,7 @@
         <v>1342941</v>
       </c>
       <c r="P41" s="31">
-        <v>909748</v>
+        <v>909785</v>
       </c>
       <c r="Q41" s="32">
         <v>294193</v>
@@ -3449,7 +3449,7 @@
         <v>934</v>
       </c>
       <c r="K42" s="35">
-        <v>11481106</v>
+        <v>11481143</v>
       </c>
       <c r="L42" s="28">
         <v>3872849</v>
@@ -3464,7 +3464,7 @@
         <v>1361029</v>
       </c>
       <c r="P42" s="31">
-        <v>924661</v>
+        <v>924698</v>
       </c>
       <c r="Q42" s="32">
         <v>299397</v>
@@ -3481,10 +3481,10 @@
         <v>45078</v>
       </c>
       <c r="B43" s="35">
-        <v>77806</v>
+        <v>77807</v>
       </c>
       <c r="C43" s="35">
-        <v>28181</v>
+        <v>28182</v>
       </c>
       <c r="D43" s="35">
         <v>14772</v>
@@ -3508,10 +3508,10 @@
         <v>395</v>
       </c>
       <c r="K43" s="35">
-        <v>11558912</v>
+        <v>11558950</v>
       </c>
       <c r="L43" s="28">
-        <v>3901030</v>
+        <v>3901031</v>
       </c>
       <c r="M43" s="33">
         <v>2975164</v>
@@ -3523,7 +3523,7 @@
         <v>1369447</v>
       </c>
       <c r="P43" s="31">
-        <v>931875</v>
+        <v>931912</v>
       </c>
       <c r="Q43" s="32">
         <v>301983</v>
@@ -3567,10 +3567,10 @@
         <v>204</v>
       </c>
       <c r="K44" s="35">
-        <v>11587131</v>
+        <v>11587169</v>
       </c>
       <c r="L44" s="28">
-        <v>3911313</v>
+        <v>3911314</v>
       </c>
       <c r="M44" s="33">
         <v>2977241</v>
@@ -3582,7 +3582,7 @@
         <v>1373099</v>
       </c>
       <c r="P44" s="31">
-        <v>934804</v>
+        <v>934841</v>
       </c>
       <c r="Q44" s="32">
         <v>303256</v>
@@ -3626,10 +3626,10 @@
         <v>216</v>
       </c>
       <c r="K45" s="35">
-        <v>11610576</v>
+        <v>11610614</v>
       </c>
       <c r="L45" s="28">
-        <v>3920447</v>
+        <v>3920448</v>
       </c>
       <c r="M45" s="33">
         <v>2979383</v>
@@ -3641,7 +3641,7 @@
         <v>1376097</v>
       </c>
       <c r="P45" s="31">
-        <v>937253</v>
+        <v>937290</v>
       </c>
       <c r="Q45" s="32">
         <v>304420</v>
@@ -3685,10 +3685,10 @@
         <v>344</v>
       </c>
       <c r="K46" s="35">
-        <v>11632702</v>
+        <v>11632740</v>
       </c>
       <c r="L46" s="28">
-        <v>3929410</v>
+        <v>3929411</v>
       </c>
       <c r="M46" s="33">
         <v>2982644</v>
@@ -3700,7 +3700,7 @@
         <v>1378654</v>
       </c>
       <c r="P46" s="31">
-        <v>940286</v>
+        <v>940323</v>
       </c>
       <c r="Q46" s="32">
         <v>305623</v>
@@ -3717,7 +3717,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="35">
-        <v>27838</v>
+        <v>27839</v>
       </c>
       <c r="C47" s="35">
         <v>7712</v>
@@ -3732,7 +3732,7 @@
         <v>1984</v>
       </c>
       <c r="G47" s="35">
-        <v>5069</v>
+        <v>5070</v>
       </c>
       <c r="H47" s="35">
         <v>1901</v>
@@ -3744,10 +3744,10 @@
         <v>414</v>
       </c>
       <c r="K47" s="35">
-        <v>11660540</v>
+        <v>11660579</v>
       </c>
       <c r="L47" s="28">
-        <v>3937122</v>
+        <v>3937123</v>
       </c>
       <c r="M47" s="33">
         <v>2988274</v>
@@ -3759,7 +3759,7 @@
         <v>1380638</v>
       </c>
       <c r="P47" s="31">
-        <v>945355</v>
+        <v>945393</v>
       </c>
       <c r="Q47" s="32">
         <v>307524</v>
@@ -3776,22 +3776,22 @@
         <v>45231</v>
       </c>
       <c r="B48" s="35">
-        <v>13763</v>
+        <v>14544</v>
       </c>
       <c r="C48" s="35">
-        <v>4457</v>
+        <v>4661</v>
       </c>
       <c r="D48" s="35">
         <v>1800</v>
       </c>
       <c r="E48" s="35">
-        <v>1889</v>
+        <v>1997</v>
       </c>
       <c r="F48" s="35">
         <v>364</v>
       </c>
       <c r="G48" s="35">
-        <v>3377</v>
+        <v>3846</v>
       </c>
       <c r="H48" s="35">
         <v>1090</v>
@@ -3803,22 +3803,22 @@
         <v>167</v>
       </c>
       <c r="K48" s="35">
-        <v>11674303</v>
+        <v>11675123</v>
       </c>
       <c r="L48" s="28">
-        <v>3941579</v>
+        <v>3941784</v>
       </c>
       <c r="M48" s="33">
         <v>2990074</v>
       </c>
       <c r="N48" s="30">
-        <v>1745256</v>
+        <v>1745364</v>
       </c>
       <c r="O48" s="35">
         <v>1381002</v>
       </c>
       <c r="P48" s="31">
-        <v>948732</v>
+        <v>949239</v>
       </c>
       <c r="Q48" s="32">
         <v>308614</v>
@@ -3837,7 +3837,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4073,6 +4073,65 @@
         <v>109880</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B5">
+        <v>820</v>
+      </c>
+      <c r="C5">
+        <v>205</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>108</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>507</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>11675123</v>
+      </c>
+      <c r="L5">
+        <v>3941784</v>
+      </c>
+      <c r="M5">
+        <v>2990074</v>
+      </c>
+      <c r="N5">
+        <v>1745364</v>
+      </c>
+      <c r="O5">
+        <v>1381002</v>
+      </c>
+      <c r="P5">
+        <v>949239</v>
+      </c>
+      <c r="Q5">
+        <v>308614</v>
+      </c>
+      <c r="R5">
+        <v>249166</v>
+      </c>
+      <c r="S5">
+        <v>109880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4082,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E36B237-192B-43E1-BDD4-2460A91BB66C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4095,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45242</v>
+        <v>45243</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CBCDA0-A2F6-4DBF-8555-87102786DD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2C3EC-CA8C-4DD6-BC6F-E894F0CFBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -851,10 +851,10 @@
         <v>44562</v>
       </c>
       <c r="B4" s="34">
-        <v>10317612</v>
+        <v>10317620</v>
       </c>
       <c r="C4">
-        <v>3368116</v>
+        <v>3368115</v>
       </c>
       <c r="D4">
         <v>2621353</v>
@@ -866,7 +866,7 @@
         <v>1288498</v>
       </c>
       <c r="G4">
-        <v>848052</v>
+        <v>848061</v>
       </c>
       <c r="H4">
         <v>279667</v>
@@ -878,10 +878,10 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885679</v>
+        <v>10885687</v>
       </c>
       <c r="L4">
-        <v>3653400</v>
+        <v>3653399</v>
       </c>
       <c r="M4">
         <v>2841480</v>
@@ -893,7 +893,7 @@
         <v>1289864</v>
       </c>
       <c r="P4">
-        <v>867213</v>
+        <v>867222</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -910,58 +910,58 @@
         <v>44927</v>
       </c>
       <c r="B5" s="34">
-        <v>789444</v>
+        <v>791388</v>
       </c>
       <c r="C5">
-        <v>288384</v>
+        <v>288824</v>
       </c>
       <c r="D5">
-        <v>148594</v>
+        <v>149179</v>
       </c>
       <c r="E5">
-        <v>125489</v>
+        <v>125692</v>
       </c>
       <c r="F5">
-        <v>91138</v>
+        <v>91140</v>
       </c>
       <c r="G5">
-        <v>82026</v>
+        <v>82473</v>
       </c>
       <c r="H5">
         <v>27071</v>
       </c>
       <c r="I5">
-        <v>20829</v>
+        <v>21046</v>
       </c>
       <c r="J5">
-        <v>5913</v>
+        <v>5963</v>
       </c>
       <c r="K5">
-        <v>11675123</v>
+        <v>11677075</v>
       </c>
       <c r="L5">
-        <v>3941784</v>
+        <v>3942223</v>
       </c>
       <c r="M5">
-        <v>2990074</v>
+        <v>2990659</v>
       </c>
       <c r="N5">
-        <v>1745364</v>
+        <v>1745567</v>
       </c>
       <c r="O5">
-        <v>1381002</v>
+        <v>1381004</v>
       </c>
       <c r="P5">
-        <v>949239</v>
+        <v>949695</v>
       </c>
       <c r="Q5">
         <v>308614</v>
       </c>
       <c r="R5">
-        <v>249166</v>
+        <v>249383</v>
       </c>
       <c r="S5">
-        <v>109880</v>
+        <v>109930</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +2537,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="35">
-        <v>687507</v>
+        <v>687511</v>
       </c>
       <c r="C27" s="35">
         <v>230228</v>
@@ -2552,7 +2552,7 @@
         <v>11817</v>
       </c>
       <c r="G27" s="35">
-        <v>44382</v>
+        <v>44386</v>
       </c>
       <c r="H27" s="35">
         <v>17719</v>
@@ -2564,7 +2564,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="35">
-        <v>3065119</v>
+        <v>3065123</v>
       </c>
       <c r="L27" s="20">
         <v>1152678</v>
@@ -2579,7 +2579,7 @@
         <v>14033</v>
       </c>
       <c r="P27" s="23">
-        <v>153549</v>
+        <v>153553</v>
       </c>
       <c r="Q27" s="24">
         <v>47444</v>
@@ -2596,7 +2596,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="35">
-        <v>1366751</v>
+        <v>1366753</v>
       </c>
       <c r="C28" s="35">
         <v>536608</v>
@@ -2611,7 +2611,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="35">
-        <v>120466</v>
+        <v>120468</v>
       </c>
       <c r="H28" s="35">
         <v>46426</v>
@@ -2623,7 +2623,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="35">
-        <v>4431870</v>
+        <v>4431876</v>
       </c>
       <c r="L28" s="20">
         <v>1689286</v>
@@ -2638,7 +2638,7 @@
         <v>193320</v>
       </c>
       <c r="P28" s="23">
-        <v>274015</v>
+        <v>274021</v>
       </c>
       <c r="Q28" s="24">
         <v>93870</v>
@@ -2655,7 +2655,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="35">
-        <v>1339795</v>
+        <v>1339797</v>
       </c>
       <c r="C29" s="35">
         <v>432381</v>
@@ -2670,7 +2670,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="35">
-        <v>139734</v>
+        <v>139736</v>
       </c>
       <c r="H29" s="35">
         <v>44024</v>
@@ -2682,7 +2682,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="35">
-        <v>5771665</v>
+        <v>5771673</v>
       </c>
       <c r="L29" s="20">
         <v>2121667</v>
@@ -2697,7 +2697,7 @@
         <v>400163</v>
       </c>
       <c r="P29" s="23">
-        <v>413749</v>
+        <v>413757</v>
       </c>
       <c r="Q29" s="24">
         <v>137894</v>
@@ -2717,7 +2717,7 @@
         <v>1310351</v>
       </c>
       <c r="C30" s="35">
-        <v>297269</v>
+        <v>297268</v>
       </c>
       <c r="D30" s="35">
         <v>333308</v>
@@ -2729,7 +2729,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="35">
-        <v>108124</v>
+        <v>108125</v>
       </c>
       <c r="H30" s="35">
         <v>28269</v>
@@ -2741,10 +2741,10 @@
         <v>8656</v>
       </c>
       <c r="K30" s="35">
-        <v>7082016</v>
+        <v>7082024</v>
       </c>
       <c r="L30" s="20">
-        <v>2418936</v>
+        <v>2418935</v>
       </c>
       <c r="M30" s="25">
         <v>1918280</v>
@@ -2756,7 +2756,7 @@
         <v>754251</v>
       </c>
       <c r="P30" s="23">
-        <v>521873</v>
+        <v>521882</v>
       </c>
       <c r="Q30" s="24">
         <v>166163</v>
@@ -2800,10 +2800,10 @@
         <v>6717</v>
       </c>
       <c r="K31" s="35">
-        <v>7966300</v>
+        <v>7966308</v>
       </c>
       <c r="L31" s="20">
-        <v>2652837</v>
+        <v>2652836</v>
       </c>
       <c r="M31" s="25">
         <v>2133366</v>
@@ -2815,7 +2815,7 @@
         <v>936890</v>
       </c>
       <c r="P31" s="23">
-        <v>599176</v>
+        <v>599185</v>
       </c>
       <c r="Q31" s="24">
         <v>190881</v>
@@ -2859,10 +2859,10 @@
         <v>12579</v>
       </c>
       <c r="K32" s="35">
-        <v>9216651</v>
+        <v>9216659</v>
       </c>
       <c r="L32" s="20">
-        <v>3031444</v>
+        <v>3031443</v>
       </c>
       <c r="M32" s="25">
         <v>2445483</v>
@@ -2874,7 +2874,7 @@
         <v>1095154</v>
       </c>
       <c r="P32" s="23">
-        <v>716576</v>
+        <v>716585</v>
       </c>
       <c r="Q32" s="24">
         <v>233156</v>
@@ -2918,10 +2918,10 @@
         <v>4987</v>
       </c>
       <c r="K33" s="35">
-        <v>9771510</v>
+        <v>9771518</v>
       </c>
       <c r="L33" s="20">
-        <v>3261493</v>
+        <v>3261492</v>
       </c>
       <c r="M33" s="25">
         <v>2570913</v>
@@ -2933,7 +2933,7 @@
         <v>1154225</v>
       </c>
       <c r="P33" s="23">
-        <v>757086</v>
+        <v>757095</v>
       </c>
       <c r="Q33" s="24">
         <v>246059</v>
@@ -2977,10 +2977,10 @@
         <v>1762</v>
       </c>
       <c r="K34" s="35">
-        <v>9965766</v>
+        <v>9965774</v>
       </c>
       <c r="L34" s="20">
-        <v>3330345</v>
+        <v>3330344</v>
       </c>
       <c r="M34" s="25">
         <v>2617582</v>
@@ -2992,7 +2992,7 @@
         <v>1178497</v>
       </c>
       <c r="P34" s="23">
-        <v>772371</v>
+        <v>772380</v>
       </c>
       <c r="Q34" s="24">
         <v>249935</v>
@@ -3036,10 +3036,10 @@
         <v>1183</v>
       </c>
       <c r="K35" s="35">
-        <v>10107870</v>
+        <v>10107878</v>
       </c>
       <c r="L35" s="20">
-        <v>3374844</v>
+        <v>3374843</v>
       </c>
       <c r="M35" s="25">
         <v>2653976</v>
@@ -3051,7 +3051,7 @@
         <v>1201922</v>
       </c>
       <c r="P35" s="23">
-        <v>785546</v>
+        <v>785555</v>
       </c>
       <c r="Q35" s="24">
         <v>253589</v>
@@ -3095,10 +3095,10 @@
         <v>1804</v>
       </c>
       <c r="K36" s="35">
-        <v>10459813</v>
+        <v>10459821</v>
       </c>
       <c r="L36" s="20">
-        <v>3496937</v>
+        <v>3496936</v>
       </c>
       <c r="M36" s="25">
         <v>2746873</v>
@@ -3110,7 +3110,7 @@
         <v>1244553</v>
       </c>
       <c r="P36" s="23">
-        <v>822708</v>
+        <v>822717</v>
       </c>
       <c r="Q36" s="24">
         <v>265273</v>
@@ -3154,10 +3154,10 @@
         <v>2852</v>
       </c>
       <c r="K37" s="35">
-        <v>10885679</v>
+        <v>10885687</v>
       </c>
       <c r="L37" s="20">
-        <v>3653400</v>
+        <v>3653399</v>
       </c>
       <c r="M37" s="25">
         <v>2841480</v>
@@ -3169,7 +3169,7 @@
         <v>1289864</v>
       </c>
       <c r="P37" s="23">
-        <v>867213</v>
+        <v>867222</v>
       </c>
       <c r="Q37" s="24">
         <v>281543</v>
@@ -3213,10 +3213,10 @@
         <v>1285</v>
       </c>
       <c r="K38" s="35">
-        <v>11015757</v>
+        <v>11015765</v>
       </c>
       <c r="L38" s="28">
-        <v>3699340</v>
+        <v>3699339</v>
       </c>
       <c r="M38" s="33">
         <v>2864584</v>
@@ -3228,7 +3228,7 @@
         <v>1306720</v>
       </c>
       <c r="P38" s="31">
-        <v>879103</v>
+        <v>879112</v>
       </c>
       <c r="Q38" s="32">
         <v>285180</v>
@@ -3272,10 +3272,10 @@
         <v>460</v>
       </c>
       <c r="K39" s="35">
-        <v>11087746</v>
+        <v>11087754</v>
       </c>
       <c r="L39" s="28">
-        <v>3724583</v>
+        <v>3724582</v>
       </c>
       <c r="M39" s="33">
         <v>2876973</v>
@@ -3287,7 +3287,7 @@
         <v>1315592</v>
       </c>
       <c r="P39" s="31">
-        <v>885956</v>
+        <v>885965</v>
       </c>
       <c r="Q39" s="32">
         <v>287111</v>
@@ -3331,10 +3331,10 @@
         <v>668</v>
       </c>
       <c r="K40" s="35">
-        <v>11191725</v>
+        <v>11191733</v>
       </c>
       <c r="L40" s="28">
-        <v>3763225</v>
+        <v>3763224</v>
       </c>
       <c r="M40" s="33">
         <v>2896210</v>
@@ -3346,7 +3346,7 @@
         <v>1328554</v>
       </c>
       <c r="P40" s="31">
-        <v>897456</v>
+        <v>897465</v>
       </c>
       <c r="Q40" s="32">
         <v>290413</v>
@@ -3390,10 +3390,10 @@
         <v>826</v>
       </c>
       <c r="K41" s="35">
-        <v>11314890</v>
+        <v>11314898</v>
       </c>
       <c r="L41" s="28">
-        <v>3810754</v>
+        <v>3810753</v>
       </c>
       <c r="M41" s="33">
         <v>2922017</v>
@@ -3405,7 +3405,7 @@
         <v>1342941</v>
       </c>
       <c r="P41" s="31">
-        <v>909785</v>
+        <v>909794</v>
       </c>
       <c r="Q41" s="32">
         <v>294193</v>
@@ -3449,10 +3449,10 @@
         <v>934</v>
       </c>
       <c r="K42" s="35">
-        <v>11481143</v>
+        <v>11481151</v>
       </c>
       <c r="L42" s="28">
-        <v>3872849</v>
+        <v>3872848</v>
       </c>
       <c r="M42" s="33">
         <v>2960392</v>
@@ -3464,7 +3464,7 @@
         <v>1361029</v>
       </c>
       <c r="P42" s="31">
-        <v>924698</v>
+        <v>924707</v>
       </c>
       <c r="Q42" s="32">
         <v>299397</v>
@@ -3508,10 +3508,10 @@
         <v>395</v>
       </c>
       <c r="K43" s="35">
-        <v>11558950</v>
+        <v>11558958</v>
       </c>
       <c r="L43" s="28">
-        <v>3901031</v>
+        <v>3901030</v>
       </c>
       <c r="M43" s="33">
         <v>2975164</v>
@@ -3523,7 +3523,7 @@
         <v>1369447</v>
       </c>
       <c r="P43" s="31">
-        <v>931912</v>
+        <v>931921</v>
       </c>
       <c r="Q43" s="32">
         <v>301983</v>
@@ -3540,13 +3540,13 @@
         <v>45108</v>
       </c>
       <c r="B44" s="35">
-        <v>28219</v>
+        <v>28220</v>
       </c>
       <c r="C44" s="35">
         <v>10283</v>
       </c>
       <c r="D44" s="35">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="E44" s="35">
         <v>6948</v>
@@ -3567,13 +3567,13 @@
         <v>204</v>
       </c>
       <c r="K44" s="35">
-        <v>11587169</v>
+        <v>11587178</v>
       </c>
       <c r="L44" s="28">
-        <v>3911314</v>
+        <v>3911313</v>
       </c>
       <c r="M44" s="33">
-        <v>2977241</v>
+        <v>2977242</v>
       </c>
       <c r="N44" s="30">
         <v>1733162</v>
@@ -3582,7 +3582,7 @@
         <v>1373099</v>
       </c>
       <c r="P44" s="31">
-        <v>934841</v>
+        <v>934850</v>
       </c>
       <c r="Q44" s="32">
         <v>303256</v>
@@ -3626,13 +3626,13 @@
         <v>216</v>
       </c>
       <c r="K45" s="35">
-        <v>11610614</v>
+        <v>11610623</v>
       </c>
       <c r="L45" s="28">
-        <v>3920448</v>
+        <v>3920447</v>
       </c>
       <c r="M45" s="33">
-        <v>2979383</v>
+        <v>2979384</v>
       </c>
       <c r="N45" s="30">
         <v>1737700</v>
@@ -3641,7 +3641,7 @@
         <v>1376097</v>
       </c>
       <c r="P45" s="31">
-        <v>937290</v>
+        <v>937299</v>
       </c>
       <c r="Q45" s="32">
         <v>304420</v>
@@ -3658,13 +3658,13 @@
         <v>45170</v>
       </c>
       <c r="B46" s="35">
-        <v>22126</v>
+        <v>22128</v>
       </c>
       <c r="C46" s="35">
         <v>8963</v>
       </c>
       <c r="D46" s="35">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="E46" s="35">
         <v>2023</v>
@@ -3685,13 +3685,13 @@
         <v>344</v>
       </c>
       <c r="K46" s="35">
-        <v>11632740</v>
+        <v>11632751</v>
       </c>
       <c r="L46" s="28">
-        <v>3929411</v>
+        <v>3929410</v>
       </c>
       <c r="M46" s="33">
-        <v>2982644</v>
+        <v>2982647</v>
       </c>
       <c r="N46" s="30">
         <v>1739723</v>
@@ -3700,7 +3700,7 @@
         <v>1378654</v>
       </c>
       <c r="P46" s="31">
-        <v>940323</v>
+        <v>940332</v>
       </c>
       <c r="Q46" s="32">
         <v>305623</v>
@@ -3717,55 +3717,55 @@
         <v>45200</v>
       </c>
       <c r="B47" s="35">
-        <v>27839</v>
+        <v>27875</v>
       </c>
       <c r="C47" s="35">
         <v>7712</v>
       </c>
       <c r="D47" s="35">
-        <v>5630</v>
+        <v>5638</v>
       </c>
       <c r="E47" s="35">
-        <v>3644</v>
+        <v>3666</v>
       </c>
       <c r="F47" s="35">
         <v>1984</v>
       </c>
       <c r="G47" s="35">
-        <v>5070</v>
+        <v>5072</v>
       </c>
       <c r="H47" s="35">
         <v>1901</v>
       </c>
       <c r="I47" s="35">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="J47" s="35">
         <v>414</v>
       </c>
       <c r="K47" s="35">
-        <v>11660579</v>
+        <v>11660626</v>
       </c>
       <c r="L47" s="28">
-        <v>3937123</v>
+        <v>3937122</v>
       </c>
       <c r="M47" s="33">
-        <v>2988274</v>
+        <v>2988285</v>
       </c>
       <c r="N47" s="30">
-        <v>1743367</v>
+        <v>1743389</v>
       </c>
       <c r="O47" s="35">
         <v>1380638</v>
       </c>
       <c r="P47" s="31">
-        <v>945393</v>
+        <v>945404</v>
       </c>
       <c r="Q47" s="32">
         <v>307524</v>
       </c>
       <c r="R47" s="27">
-        <v>248547</v>
+        <v>248551</v>
       </c>
       <c r="S47" s="29">
         <v>109713</v>
@@ -3776,58 +3776,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="35">
-        <v>14544</v>
+        <v>16449</v>
       </c>
       <c r="C48" s="35">
-        <v>4661</v>
+        <v>5101</v>
       </c>
       <c r="D48" s="35">
-        <v>1800</v>
+        <v>2374</v>
       </c>
       <c r="E48" s="35">
-        <v>1997</v>
+        <v>2178</v>
       </c>
       <c r="F48" s="35">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G48" s="35">
-        <v>3846</v>
+        <v>4291</v>
       </c>
       <c r="H48" s="35">
         <v>1090</v>
       </c>
       <c r="I48" s="35">
-        <v>619</v>
+        <v>832</v>
       </c>
       <c r="J48" s="35">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="K48" s="35">
-        <v>11675123</v>
+        <v>11677075</v>
       </c>
       <c r="L48" s="28">
-        <v>3941784</v>
+        <v>3942223</v>
       </c>
       <c r="M48" s="33">
-        <v>2990074</v>
+        <v>2990659</v>
       </c>
       <c r="N48" s="30">
-        <v>1745364</v>
+        <v>1745567</v>
       </c>
       <c r="O48" s="35">
-        <v>1381002</v>
+        <v>1381004</v>
       </c>
       <c r="P48" s="31">
-        <v>949239</v>
+        <v>949695</v>
       </c>
       <c r="Q48" s="32">
         <v>308614</v>
       </c>
       <c r="R48" s="27">
-        <v>249166</v>
+        <v>249383</v>
       </c>
       <c r="S48" s="29">
-        <v>109880</v>
+        <v>109930</v>
       </c>
     </row>
   </sheetData>
@@ -3837,7 +3837,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4132,6 +4132,65 @@
         <v>109880</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B6">
+        <v>1952</v>
+      </c>
+      <c r="C6">
+        <v>439</v>
+      </c>
+      <c r="D6">
+        <v>585</v>
+      </c>
+      <c r="E6">
+        <v>203</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>456</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>217</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+      <c r="K6">
+        <v>11677075</v>
+      </c>
+      <c r="L6">
+        <v>3942223</v>
+      </c>
+      <c r="M6">
+        <v>2990659</v>
+      </c>
+      <c r="N6">
+        <v>1745567</v>
+      </c>
+      <c r="O6">
+        <v>1381004</v>
+      </c>
+      <c r="P6">
+        <v>949695</v>
+      </c>
+      <c r="Q6">
+        <v>308614</v>
+      </c>
+      <c r="R6">
+        <v>249383</v>
+      </c>
+      <c r="S6">
+        <v>109930</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4154,7 +4213,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45243</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D2C3EC-CA8C-4DD6-BC6F-E894F0CFBDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F36420-1A83-48E1-957E-E9FB542DFA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Daily" sheetId="2" r:id="rId3"/>
     <sheet name="Information" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>DATE</t>
   </si>
@@ -80,166 +80,1003 @@
     <t>Yearly and Monthly cumulative data is calculated from Yearly and Monthly data, and does not come from the data source.</t>
   </si>
   <si>
-    <t>AUS_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>NSW_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>VIC_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>QLD_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>WA_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>SA_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>TAS_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>ACT_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>NT_YEARLY_CASES</t>
-  </si>
-  <si>
-    <t>AUS_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>NSW_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>VIC_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>QLD_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>WA_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>SA_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>TAS_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>ACT_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>NT_YEARLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>AUS_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>NSW_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>VIC_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>QLD_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>WA_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>SA_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>TAS_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>ACT_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>NT_MONTHLY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>AUS_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>NSW_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>VIC_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>QLD_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>WA_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>SA_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>TAS_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>ACT_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>NT_DAILY_CUMULATIVE_CASES</t>
-  </si>
-  <si>
-    <t>AUS_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>NSW_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>VIC_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>QLD_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>WA_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>SA_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>TAS_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>ACT_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>NT_DAILY_CASES</t>
-  </si>
-  <si>
-    <t>AUS_MONTHLY_CASES</t>
-  </si>
-  <si>
-    <t>NSW_MONTHLY_CASES</t>
-  </si>
-  <si>
-    <t>VIC_MONTHLY_CASES</t>
-  </si>
-  <si>
-    <t>QLD_MONTHLY_CASES</t>
-  </si>
-  <si>
-    <t>WA_MONTHLY_CASES</t>
-  </si>
-  <si>
-    <t>SA_MONTHLY_CASES</t>
-  </si>
-  <si>
-    <t>TAS_MONTHLY_CASES</t>
-  </si>
-  <si>
-    <t>ACT_MONTHLY_CASES</t>
-  </si>
-  <si>
-    <t>NT_MONTHLY_CASES</t>
+    <t>YEARLY_CASES_AUS</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_NSW</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_VIC</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_QLD</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_WA</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_SA</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_TAS</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_ACT</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_NT</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_NSW</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_VIC</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_QLD</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_WA</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_SA</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_TAS</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_ACT</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_NT</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_00_04</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_05_09</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_10_14</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_15_19</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_20_24</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_25_29</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_30_34</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_35_39</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_40_44</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_45_49</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_50_54</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_55_59</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_60_64</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_65_69</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_70_74</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_75_79</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_80_84</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_85PLUS</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_AUS_NOAGE</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_00_04</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_05_09</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_10_14</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_15_19</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_20_24</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_25_29</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_30_34</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_35_39</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_40_44</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_45_49</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_50_54</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_55_59</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_60_64</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_65_69</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_70_74</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_75_79</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_80_84</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_85PLUS</t>
+  </si>
+  <si>
+    <t>YEARLY_CASES_CUMULATIVE_AUS_NOAGE</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_AUS</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_NSW</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_VIC</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_QLD</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_WA</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_SA</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_TAS</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_ACT</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_NT</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_AUS</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_NSW</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_VIC</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_QLD</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_WA</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_SA</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_TAS</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_ACT</t>
+  </si>
+  <si>
+    <t>MONTHLY_CASES_CUMULATIVE_NT</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_NSW</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_VIC</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_QLD</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_WA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_SA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_TAS</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_ACT</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_NT</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_NSW</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_VIC</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_QLD</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_WA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_SA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_TAS</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_ACT</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_NT</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_00_04</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_05_09</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_10_14</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_15_19</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_20_24</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_25_29</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_30_34</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_35_39</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_40_44</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_45_49</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_50_54</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_55_59</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_60_64</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_65_69</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_70_74</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_75_79</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_80_84</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_85PLUS</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_NOAGE</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_00_04_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_00_04_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_00_04_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_00_04_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_00_04_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_05_09_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_05_09_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_05_09_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_05_09_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_05_09_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_10_14_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_10_14_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_10_14_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_10_14_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_10_14_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_15_19_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_15_19_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_15_19_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_15_19_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_15_19_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_20_24_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_20_24_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_20_24_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_20_24_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_20_24_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_25_29_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_25_29_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_25_29_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_25_29_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_25_29_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_30_34_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_30_34_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_30_34_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_30_34_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_30_34_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_35_39_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_35_39_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_35_39_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_35_39_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_35_39_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_40_44_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_40_44_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_40_44_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_40_44_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_40_44_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_45_49_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_45_49_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_45_49_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_45_49_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_45_49_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_50_54_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_50_54_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_50_54_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_50_54_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_50_54_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_55_59_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_55_59_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_55_59_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_55_59_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_55_59_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_60_64_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_60_64_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_60_64_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_60_64_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_60_64_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_65_69_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_65_69_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_65_69_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_65_69_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_65_69_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_70_74_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_70_74_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_70_74_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_70_74_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_70_74_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_75_79_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_75_79_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_75_79_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_75_79_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_75_79_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_80_84_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_80_84_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_80_84_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_80_84_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_80_84_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_85PLUS_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_85PLUS_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_85PLUS_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_85PLUS_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_85PLUS_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_NOAGE_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_NOAGE_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_NOAGE_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_NOAGE_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_AUS_NOAGE_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_00_04</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_05_09</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_10_14</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_15_19</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_20_24</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_25_29</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_30_34</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_35_39</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_40_44</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_45_49</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_50_54</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_55_59</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_60_64</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_65_69</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_70_74</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_75_79</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_80_84</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_85PLUS</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_NOAGE</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_00_04_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_00_04_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_00_04_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_00_04_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_00_04_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_05_09_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_05_09_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_05_09_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_05_09_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_05_09_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_10_14_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_10_14_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_10_14_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_10_14_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_10_14_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_15_19_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_15_19_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_15_19_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_15_19_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_15_19_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_20_24_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_20_24_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_20_24_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_20_24_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_20_24_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_25_29_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_25_29_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_25_29_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_25_29_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_25_29_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_30_34_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_30_34_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_30_34_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_30_34_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_30_34_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_35_39_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_35_39_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_35_39_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_35_39_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_35_39_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_40_44_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_40_44_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_40_44_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_40_44_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_40_44_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_45_49_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_45_49_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_45_49_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_45_49_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_45_49_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_50_54_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_50_54_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_50_54_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_50_54_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_50_54_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_55_59_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_55_59_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_55_59_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_55_59_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_55_59_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_60_64_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_60_64_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_60_64_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_60_64_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_60_64_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_65_69_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_65_69_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_65_69_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_65_69_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_65_69_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_70_74_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_70_74_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_70_74_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_70_74_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_70_74_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_75_79_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_75_79_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_75_79_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_75_79_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_75_79_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_80_84_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_80_84_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_80_84_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_80_84_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_80_84_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_85PLUS_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_85PLUS_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_85PLUS_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_85PLUS_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_85PLUS_NP</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_NOAGE_M</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_NOAGE_F</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_NOAGE_X</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_NOAGE_NA</t>
+  </si>
+  <si>
+    <t>DAILY_CASES_CUMULATIVE_AUS_NOAGE_NP</t>
+  </si>
+  <si>
+    <t>X: Another term</t>
+  </si>
+  <si>
+    <t>M: Male</t>
+  </si>
+  <si>
+    <t>F: Female</t>
+  </si>
+  <si>
+    <t>NA: Not stated / Inadequately described</t>
+  </si>
+  <si>
+    <t>NP: No information provided</t>
+  </si>
+  <si>
+    <t>"Yearly" sheet</t>
+  </si>
+  <si>
+    <t>"Monthly" sheet</t>
+  </si>
+  <si>
+    <t>"Daily" sheet</t>
+  </si>
+  <si>
+    <t>Cases by state and cases by age group, per year and cumulative</t>
+  </si>
+  <si>
+    <t>Cases by state, per month and cumulative</t>
+  </si>
+  <si>
+    <t>Cases by state, cases by age group, and cases by age group &amp; sex, per day and cumulative</t>
+  </si>
+  <si>
+    <t>Cases by age group and sex use the following suffixes</t>
+  </si>
+  <si>
+    <t>Australian Department of Health and Aged Care</t>
   </si>
 </sst>
 </file>
@@ -247,8 +1084,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="175" formatCode="yyyy"/>
-    <numFmt numFmtId="176" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -288,44 +1125,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -642,62 +1447,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8849BA59-B957-42A5-9EFE-A7CA94CE3A47}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:BE5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" t="s">
         <v>21</v>
       </c>
       <c r="K1" t="s">
@@ -727,8 +1515,122 @@
       <c r="S1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43831</v>
       </c>
@@ -786,13 +1688,127 @@
       <c r="S2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>747</v>
+      </c>
+      <c r="U2">
+        <v>771</v>
+      </c>
+      <c r="V2">
+        <v>953</v>
+      </c>
+      <c r="W2">
+        <v>1509</v>
+      </c>
+      <c r="X2">
+        <v>2969</v>
+      </c>
+      <c r="Y2">
+        <v>3530</v>
+      </c>
+      <c r="Z2">
+        <v>2863</v>
+      </c>
+      <c r="AA2">
+        <v>2265</v>
+      </c>
+      <c r="AB2">
+        <v>1789</v>
+      </c>
+      <c r="AC2">
+        <v>1965</v>
+      </c>
+      <c r="AD2">
+        <v>1806</v>
+      </c>
+      <c r="AE2">
+        <v>1678</v>
+      </c>
+      <c r="AF2">
+        <v>1461</v>
+      </c>
+      <c r="AG2">
+        <v>1032</v>
+      </c>
+      <c r="AH2">
+        <v>912</v>
+      </c>
+      <c r="AI2">
+        <v>760</v>
+      </c>
+      <c r="AJ2">
+        <v>638</v>
+      </c>
+      <c r="AK2">
+        <v>1443</v>
+      </c>
+      <c r="AL2">
+        <v>23</v>
+      </c>
+      <c r="AM2">
+        <v>747</v>
+      </c>
+      <c r="AN2">
+        <v>771</v>
+      </c>
+      <c r="AO2">
+        <v>953</v>
+      </c>
+      <c r="AP2">
+        <v>1509</v>
+      </c>
+      <c r="AQ2">
+        <v>2969</v>
+      </c>
+      <c r="AR2">
+        <v>3530</v>
+      </c>
+      <c r="AS2">
+        <v>2863</v>
+      </c>
+      <c r="AT2">
+        <v>2265</v>
+      </c>
+      <c r="AU2">
+        <v>1789</v>
+      </c>
+      <c r="AV2">
+        <v>1965</v>
+      </c>
+      <c r="AW2">
+        <v>1806</v>
+      </c>
+      <c r="AX2">
+        <v>1678</v>
+      </c>
+      <c r="AY2">
+        <v>1461</v>
+      </c>
+      <c r="AZ2">
+        <v>1032</v>
+      </c>
+      <c r="BA2">
+        <v>912</v>
+      </c>
+      <c r="BB2">
+        <v>760</v>
+      </c>
+      <c r="BC2">
+        <v>638</v>
+      </c>
+      <c r="BD2">
+        <v>1443</v>
+      </c>
+      <c r="BE2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44197</v>
       </c>
-      <c r="B3" s="34">
-        <v>538953</v>
+      <c r="B3">
+        <v>538954</v>
       </c>
       <c r="C3">
         <v>280240</v>
@@ -801,7 +1817,7 @@
         <v>199399</v>
       </c>
       <c r="E3">
-        <v>31615</v>
+        <v>31616</v>
       </c>
       <c r="F3">
         <v>420</v>
@@ -819,7 +1835,7 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568067</v>
+        <v>568068</v>
       </c>
       <c r="L3">
         <v>285284</v>
@@ -828,7 +1844,7 @@
         <v>220127</v>
       </c>
       <c r="N3">
-        <v>32910</v>
+        <v>32911</v>
       </c>
       <c r="O3">
         <v>1366</v>
@@ -845,28 +1861,142 @@
       <c r="S3">
         <v>791</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>22517</v>
+      </c>
+      <c r="U3">
+        <v>32427</v>
+      </c>
+      <c r="V3">
+        <v>30556</v>
+      </c>
+      <c r="W3">
+        <v>43745</v>
+      </c>
+      <c r="X3">
+        <v>75259</v>
+      </c>
+      <c r="Y3">
+        <v>70911</v>
+      </c>
+      <c r="Z3">
+        <v>55515</v>
+      </c>
+      <c r="AA3">
+        <v>42725</v>
+      </c>
+      <c r="AB3">
+        <v>33827</v>
+      </c>
+      <c r="AC3">
+        <v>30114</v>
+      </c>
+      <c r="AD3">
+        <v>27884</v>
+      </c>
+      <c r="AE3">
+        <v>22329</v>
+      </c>
+      <c r="AF3">
+        <v>17078</v>
+      </c>
+      <c r="AG3">
+        <v>11941</v>
+      </c>
+      <c r="AH3">
+        <v>8399</v>
+      </c>
+      <c r="AI3">
+        <v>5714</v>
+      </c>
+      <c r="AJ3">
+        <v>3746</v>
+      </c>
+      <c r="AK3">
+        <v>3917</v>
+      </c>
+      <c r="AL3">
+        <v>350</v>
+      </c>
+      <c r="AM3">
+        <v>23264</v>
+      </c>
+      <c r="AN3">
+        <v>33198</v>
+      </c>
+      <c r="AO3">
+        <v>31509</v>
+      </c>
+      <c r="AP3">
+        <v>45254</v>
+      </c>
+      <c r="AQ3">
+        <v>78228</v>
+      </c>
+      <c r="AR3">
+        <v>74441</v>
+      </c>
+      <c r="AS3">
+        <v>58378</v>
+      </c>
+      <c r="AT3">
+        <v>44990</v>
+      </c>
+      <c r="AU3">
+        <v>35616</v>
+      </c>
+      <c r="AV3">
+        <v>32079</v>
+      </c>
+      <c r="AW3">
+        <v>29690</v>
+      </c>
+      <c r="AX3">
+        <v>24007</v>
+      </c>
+      <c r="AY3">
+        <v>18539</v>
+      </c>
+      <c r="AZ3">
+        <v>12973</v>
+      </c>
+      <c r="BA3">
+        <v>9311</v>
+      </c>
+      <c r="BB3">
+        <v>6474</v>
+      </c>
+      <c r="BC3">
+        <v>4384</v>
+      </c>
+      <c r="BD3">
+        <v>5360</v>
+      </c>
+      <c r="BE3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44562</v>
       </c>
-      <c r="B4" s="34">
-        <v>10317620</v>
+      <c r="B4">
+        <v>10317621</v>
       </c>
       <c r="C4">
-        <v>3368115</v>
+        <v>3368114</v>
       </c>
       <c r="D4">
         <v>2621353</v>
       </c>
       <c r="E4">
-        <v>1586965</v>
+        <v>1586964</v>
       </c>
       <c r="F4">
         <v>1288498</v>
       </c>
       <c r="G4">
-        <v>848061</v>
+        <v>848064</v>
       </c>
       <c r="H4">
         <v>279667</v>
@@ -878,10 +2008,10 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885687</v>
+        <v>10885689</v>
       </c>
       <c r="L4">
-        <v>3653399</v>
+        <v>3653398</v>
       </c>
       <c r="M4">
         <v>2841480</v>
@@ -893,7 +2023,7 @@
         <v>1289864</v>
       </c>
       <c r="P4">
-        <v>867222</v>
+        <v>867225</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -904,64 +2034,292 @@
       <c r="S4">
         <v>103967</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>450881</v>
+      </c>
+      <c r="U4">
+        <v>611168</v>
+      </c>
+      <c r="V4">
+        <v>710030</v>
+      </c>
+      <c r="W4">
+        <v>683422</v>
+      </c>
+      <c r="X4">
+        <v>812078</v>
+      </c>
+      <c r="Y4">
+        <v>899954</v>
+      </c>
+      <c r="Z4">
+        <v>916970</v>
+      </c>
+      <c r="AA4">
+        <v>908871</v>
+      </c>
+      <c r="AB4">
+        <v>810292</v>
+      </c>
+      <c r="AC4">
+        <v>717663</v>
+      </c>
+      <c r="AD4">
+        <v>658689</v>
+      </c>
+      <c r="AE4">
+        <v>544175</v>
+      </c>
+      <c r="AF4">
+        <v>471611</v>
+      </c>
+      <c r="AG4">
+        <v>349116</v>
+      </c>
+      <c r="AH4">
+        <v>274359</v>
+      </c>
+      <c r="AI4">
+        <v>197801</v>
+      </c>
+      <c r="AJ4">
+        <v>127910</v>
+      </c>
+      <c r="AK4">
+        <v>155420</v>
+      </c>
+      <c r="AL4">
+        <v>17211</v>
+      </c>
+      <c r="AM4">
+        <v>474145</v>
+      </c>
+      <c r="AN4">
+        <v>644366</v>
+      </c>
+      <c r="AO4">
+        <v>741539</v>
+      </c>
+      <c r="AP4">
+        <v>728676</v>
+      </c>
+      <c r="AQ4">
+        <v>890306</v>
+      </c>
+      <c r="AR4">
+        <v>974395</v>
+      </c>
+      <c r="AS4">
+        <v>975348</v>
+      </c>
+      <c r="AT4">
+        <v>953861</v>
+      </c>
+      <c r="AU4">
+        <v>845908</v>
+      </c>
+      <c r="AV4">
+        <v>749742</v>
+      </c>
+      <c r="AW4">
+        <v>688379</v>
+      </c>
+      <c r="AX4">
+        <v>568182</v>
+      </c>
+      <c r="AY4">
+        <v>490150</v>
+      </c>
+      <c r="AZ4">
+        <v>362089</v>
+      </c>
+      <c r="BA4">
+        <v>283670</v>
+      </c>
+      <c r="BB4">
+        <v>204275</v>
+      </c>
+      <c r="BC4">
+        <v>132294</v>
+      </c>
+      <c r="BD4">
+        <v>160780</v>
+      </c>
+      <c r="BE4">
+        <v>17584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44927</v>
       </c>
-      <c r="B5" s="34">
-        <v>791388</v>
+      <c r="B5">
+        <v>793259</v>
       </c>
       <c r="C5">
-        <v>288824</v>
+        <v>289333</v>
       </c>
       <c r="D5">
-        <v>149179</v>
+        <v>149385</v>
       </c>
       <c r="E5">
-        <v>125692</v>
+        <v>125868</v>
       </c>
       <c r="F5">
-        <v>91140</v>
+        <v>91141</v>
       </c>
       <c r="G5">
-        <v>82473</v>
+        <v>82867</v>
       </c>
       <c r="H5">
-        <v>27071</v>
+        <v>27512</v>
       </c>
       <c r="I5">
-        <v>21046</v>
+        <v>21160</v>
       </c>
       <c r="J5">
-        <v>5963</v>
+        <v>5993</v>
       </c>
       <c r="K5">
-        <v>11677075</v>
+        <v>11678948</v>
       </c>
       <c r="L5">
-        <v>3942223</v>
+        <v>3942731</v>
       </c>
       <c r="M5">
-        <v>2990659</v>
+        <v>2990865</v>
       </c>
       <c r="N5">
-        <v>1745567</v>
+        <v>1745743</v>
       </c>
       <c r="O5">
-        <v>1381004</v>
+        <v>1381005</v>
       </c>
       <c r="P5">
-        <v>949695</v>
+        <v>950092</v>
       </c>
       <c r="Q5">
-        <v>308614</v>
+        <v>309055</v>
       </c>
       <c r="R5">
-        <v>249383</v>
+        <v>249497</v>
       </c>
       <c r="S5">
-        <v>109930</v>
+        <v>109960</v>
+      </c>
+      <c r="T5">
+        <v>27606</v>
+      </c>
+      <c r="U5">
+        <v>23238</v>
+      </c>
+      <c r="V5">
+        <v>31363</v>
+      </c>
+      <c r="W5">
+        <v>30409</v>
+      </c>
+      <c r="X5">
+        <v>39075</v>
+      </c>
+      <c r="Y5">
+        <v>50550</v>
+      </c>
+      <c r="Z5">
+        <v>57335</v>
+      </c>
+      <c r="AA5">
+        <v>63378</v>
+      </c>
+      <c r="AB5">
+        <v>60914</v>
+      </c>
+      <c r="AC5">
+        <v>56071</v>
+      </c>
+      <c r="AD5">
+        <v>57132</v>
+      </c>
+      <c r="AE5">
+        <v>52361</v>
+      </c>
+      <c r="AF5">
+        <v>51401</v>
+      </c>
+      <c r="AG5">
+        <v>43815</v>
+      </c>
+      <c r="AH5">
+        <v>39807</v>
+      </c>
+      <c r="AI5">
+        <v>34506</v>
+      </c>
+      <c r="AJ5">
+        <v>27574</v>
+      </c>
+      <c r="AK5">
+        <v>46140</v>
+      </c>
+      <c r="AL5">
+        <v>584</v>
+      </c>
+      <c r="AM5">
+        <v>501751</v>
+      </c>
+      <c r="AN5">
+        <v>667604</v>
+      </c>
+      <c r="AO5">
+        <v>772902</v>
+      </c>
+      <c r="AP5">
+        <v>759085</v>
+      </c>
+      <c r="AQ5">
+        <v>929381</v>
+      </c>
+      <c r="AR5">
+        <v>1024945</v>
+      </c>
+      <c r="AS5">
+        <v>1032683</v>
+      </c>
+      <c r="AT5">
+        <v>1017239</v>
+      </c>
+      <c r="AU5">
+        <v>906822</v>
+      </c>
+      <c r="AV5">
+        <v>805813</v>
+      </c>
+      <c r="AW5">
+        <v>745511</v>
+      </c>
+      <c r="AX5">
+        <v>620543</v>
+      </c>
+      <c r="AY5">
+        <v>541551</v>
+      </c>
+      <c r="AZ5">
+        <v>405904</v>
+      </c>
+      <c r="BA5">
+        <v>323477</v>
+      </c>
+      <c r="BB5">
+        <v>238781</v>
+      </c>
+      <c r="BC5">
+        <v>159868</v>
+      </c>
+      <c r="BD5">
+        <v>206920</v>
+      </c>
+      <c r="BE5">
+        <v>18168</v>
       </c>
     </row>
   </sheetData>
@@ -978,87 +2336,70 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>66</v>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="L1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="P1" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="Q1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="R1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="S1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="4">
         <v>43831</v>
       </c>
       <c r="B2">
@@ -1088,2746 +2429,2746 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="3">
         <v>17</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <v>4</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="3">
         <v>4</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>3</v>
       </c>
-      <c r="O2" s="10">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
         <v>5</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="3">
         <v>0</v>
       </c>
       <c r="R2" s="3">
         <v>1</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="4">
         <v>43862</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="3">
         <v>122</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="3">
         <v>52</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="3">
         <v>35</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="3">
         <v>19</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="3">
         <v>6</v>
       </c>
-      <c r="J3" s="35">
-        <v>0</v>
-      </c>
-      <c r="K3" s="35">
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>139</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>56</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="3">
         <v>39</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>22</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="3">
         <v>4</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="3">
         <v>9</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
       <c r="R3" s="3">
         <v>7</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="4">
         <v>43891</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="3">
         <v>6158</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="3">
         <v>2774</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="3">
         <v>1243</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="3">
         <v>990</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="3">
         <v>502</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="3">
         <v>429</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="3">
         <v>85</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="3">
         <v>110</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="3">
         <v>25</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="3">
         <v>6297</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>2830</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="3">
         <v>1282</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>1012</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="3">
         <v>506</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="3">
         <v>438</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="3">
         <v>87</v>
       </c>
       <c r="R4" s="3">
         <v>117</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="4">
         <v>43922</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="3">
         <v>1038</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="3">
         <v>440</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="3">
         <v>240</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="3">
         <v>72</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="3">
         <v>99</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="3">
         <v>26</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="3">
         <v>145</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="3">
         <v>12</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="3">
         <v>4</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="3">
         <v>7335</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>3270</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="3">
         <v>1522</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>1084</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="3">
         <v>605</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="3">
         <v>464</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="3">
         <v>232</v>
       </c>
       <c r="R5" s="3">
         <v>129</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="4">
         <v>43952</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="3">
         <v>435</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="3">
         <v>66</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="3">
         <v>314</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="3">
         <v>37</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="35">
-        <v>0</v>
-      </c>
-      <c r="K6" s="35">
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>7770</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>3336</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="3">
         <v>1836</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="3">
         <v>1094</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="3">
         <v>642</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="3">
         <v>466</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="3">
         <v>234</v>
       </c>
       <c r="R6" s="3">
         <v>133</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="4">
         <v>43983</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="3">
         <v>1144</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="3">
         <v>133</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="3">
         <v>969</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="3">
         <v>18</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="3">
         <v>8914</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>3469</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="3">
         <v>2805</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="3">
         <v>1104</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="3">
         <v>660</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="3">
         <v>471</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="3">
         <v>236</v>
       </c>
       <c r="R7" s="3">
         <v>139</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="4">
         <v>44013</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="3">
         <v>10269</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="3">
         <v>392</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="3">
         <v>9785</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="3">
         <v>19</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="3">
         <v>46</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="3">
         <v>11</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="3">
         <v>11</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="3">
         <v>19183</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>3861</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="3">
         <v>12590</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>1123</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="3">
         <v>706</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="3">
         <v>482</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="3">
         <v>240</v>
       </c>
       <c r="R8" s="3">
         <v>150</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="4">
         <v>44044</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="3">
         <v>7288</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="3">
         <v>276</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="3">
         <v>6939</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="3">
         <v>47</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="3">
         <v>13</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="3">
         <v>9</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="3">
         <v>2</v>
       </c>
-      <c r="J9" s="35">
-        <v>0</v>
-      </c>
-      <c r="K9" s="35">
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>26471</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>4137</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="3">
         <v>19529</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="3">
         <v>1170</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="3">
         <v>719</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="3">
         <v>491</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="3">
         <v>242</v>
       </c>
       <c r="R9" s="3">
         <v>152</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="4">
         <v>44075</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="3">
         <v>1151</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="3">
         <v>165</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="3">
         <v>914</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="3">
         <v>27</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="3">
         <v>33</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="3">
         <v>12</v>
       </c>
-      <c r="H10" s="35">
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
-        <v>0</v>
-      </c>
-      <c r="J10" s="35">
-        <v>0</v>
-      </c>
-      <c r="K10" s="35">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>27622</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>4302</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="3">
         <v>20443</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>1197</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="3">
         <v>752</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="3">
         <v>503</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="3">
         <v>242</v>
       </c>
       <c r="R10" s="3">
         <v>152</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="4">
         <v>44105</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="3">
         <v>520</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="3">
         <v>205</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="3">
         <v>170</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="3">
         <v>15</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="3">
         <v>88</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="3">
         <v>33</v>
       </c>
-      <c r="H11" s="35">
-        <v>0</v>
-      </c>
-      <c r="I11" s="35">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="3">
         <v>6</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="3">
         <v>28142</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <v>4507</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="3">
         <v>20613</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="3">
         <v>1212</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="3">
         <v>840</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="3">
         <v>536</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="3">
         <v>242</v>
       </c>
       <c r="R11" s="3">
         <v>155</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="4">
         <v>44136</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="3">
         <v>369</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="3">
         <v>168</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="3">
         <v>25</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="3">
         <v>32</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="3">
         <v>58</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="3">
         <v>57</v>
       </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>6</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="3">
         <v>23</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="3">
         <v>28511</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>4675</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="3">
         <v>20638</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="3">
         <v>1244</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="3">
         <v>898</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="3">
         <v>593</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="3">
         <v>242</v>
       </c>
       <c r="R12" s="3">
         <v>161</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="4">
         <v>44166</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="3">
         <v>603</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="3">
         <v>369</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="3">
         <v>90</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="3">
         <v>51</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="3">
         <v>48</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="3">
         <v>20</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="3">
         <v>1</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="3">
         <v>20</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="3">
         <v>29114</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>5044</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="3">
         <v>20728</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="3">
         <v>1295</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="3">
         <v>946</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="3">
         <v>613</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="3">
         <v>246</v>
       </c>
       <c r="R13" s="3">
         <v>162</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="3">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="4">
         <v>44197</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="3">
         <v>572</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="3">
         <v>234</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="3">
         <v>134</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="3">
         <v>72</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="3">
         <v>35</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="3">
         <v>37</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="3">
         <v>28</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="3">
         <v>30</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="3">
         <v>29686</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="3">
         <v>5278</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="3">
         <v>20862</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="3">
         <v>1367</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="3">
         <v>981</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="3">
         <v>650</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="3">
         <v>248</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="3">
         <v>190</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="4">
         <v>44228</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="3">
         <v>249</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="3">
         <v>63</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="3">
         <v>101</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="3">
         <v>33</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="3">
         <v>15</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="3">
         <v>22</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="3">
         <v>7</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="3">
         <v>7</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="3">
         <v>29935</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="3">
         <v>5341</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="3">
         <v>20963</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="3">
         <v>1400</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="3">
         <v>996</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="3">
         <v>672</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="3">
         <v>249</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="3">
         <v>197</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="3">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="4">
         <v>44256</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="3">
         <v>472</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="3">
         <v>88</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="3">
         <v>96</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="3">
         <v>158</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="3">
         <v>50</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="3">
         <v>46</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="3">
         <v>28</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="3">
         <v>30407</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="3">
         <v>5429</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="3">
         <v>21059</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="3">
         <v>1558</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="3">
         <v>1046</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="3">
         <v>718</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="3">
         <v>250</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="3">
         <v>225</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="3">
         <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="A17" s="4">
         <v>44287</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="3">
         <v>572</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="3">
         <v>154</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="3">
         <v>126</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="3">
         <v>73</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="3">
         <v>77</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="3">
         <v>65</v>
       </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>21</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="3">
         <v>56</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="3">
         <v>30979</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="3">
         <v>5583</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="3">
         <v>21185</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="3">
         <v>1631</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="3">
         <v>1123</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="3">
         <v>783</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="3">
         <v>250</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="3">
         <v>246</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="3">
         <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="4">
         <v>44317</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="3">
         <v>386</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="3">
         <v>68</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="3">
         <v>187</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="3">
         <v>64</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="3">
         <v>31</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="3">
         <v>25</v>
       </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="3">
         <v>9</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="3">
         <v>31365</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="3">
         <v>5651</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="3">
         <v>21372</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="3">
         <v>1695</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="3">
         <v>1154</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="3">
         <v>808</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="3">
         <v>250</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="3">
         <v>248</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="3">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="4">
         <v>44348</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="3">
         <v>640</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="3">
         <v>339</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="3">
         <v>141</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="3">
         <v>85</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="3">
         <v>22</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="3">
         <v>39</v>
       </c>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-      <c r="I19" s="35">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="3">
         <v>12</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="3">
         <v>32005</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="3">
         <v>5990</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="3">
         <v>21513</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="3">
         <v>1780</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="3">
         <v>1176</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="3">
         <v>847</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="3">
         <v>250</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="3">
         <v>250</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="3">
         <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="4">
         <v>44378</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="3">
         <v>4304</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="3">
         <v>3769</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="3">
         <v>306</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="3">
         <v>125</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="3">
         <v>34</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="3">
         <v>50</v>
       </c>
-      <c r="H20" s="35">
-        <v>0</v>
-      </c>
-      <c r="I20" s="35">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>6</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="3">
         <v>14</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="3">
         <v>36309</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="3">
         <v>9759</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="3">
         <v>21819</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="3">
         <v>1905</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="3">
         <v>1210</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="3">
         <v>897</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="3">
         <v>250</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="3">
         <v>256</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="3">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="4">
         <v>44409</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="3">
         <v>23514</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="3">
         <v>21229</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="3">
         <v>1743</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="3">
         <v>160</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="3">
         <v>30</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="3">
         <v>11</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="3">
         <v>336</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="3">
         <v>4</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="3">
         <v>59823</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="3">
         <v>30988</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="3">
         <v>23562</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="3">
         <v>2065</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="3">
         <v>1240</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="3">
         <v>908</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="3">
         <v>251</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="3">
         <v>592</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="3">
         <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="4">
         <v>44440</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="3">
         <v>54387</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="3">
         <v>33790</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="3">
         <v>19816</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="3">
         <v>59</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="3">
         <v>26</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="3">
         <v>25</v>
       </c>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-      <c r="I22" s="35">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>660</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="3">
         <v>11</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="3">
         <v>114210</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="3">
         <v>64778</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="3">
         <v>43378</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="3">
         <v>2124</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="3">
         <v>1266</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="3">
         <v>933</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="3">
         <v>251</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="3">
         <v>1252</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="3">
         <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+      <c r="A23" s="4">
         <v>44470</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="3">
         <v>60996</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="3">
         <v>10786</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="3">
         <v>49425</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="3">
         <v>55</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="3">
         <v>11</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="3">
         <v>19</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="3">
         <v>2</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="3">
         <v>684</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="3">
         <v>14</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="3">
         <v>175206</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="3">
         <v>75564</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="3">
         <v>92803</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="3">
         <v>2179</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="3">
         <v>1277</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="3">
         <v>952</v>
       </c>
-      <c r="Q23" s="16">
+      <c r="Q23" s="3">
         <v>253</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="3">
         <v>1936</v>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="3">
         <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+      <c r="A24" s="4">
         <v>44501</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="3">
         <v>40729</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="3">
         <v>6670</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="3">
         <v>33515</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="3">
         <v>50</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="3">
         <v>16</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="3">
         <v>3</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="3">
         <v>357</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="3">
         <v>70</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="3">
         <v>215935</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="3">
         <v>82234</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="3">
         <v>126318</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="3">
         <v>2229</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="3">
         <v>1293</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="3">
         <v>256</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="3">
         <v>2293</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="3">
         <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+      <c r="A25" s="4">
         <v>44531</v>
       </c>
-      <c r="B25" s="35">
-        <v>352132</v>
-      </c>
-      <c r="C25" s="35">
+      <c r="B25" s="3">
+        <v>352133</v>
+      </c>
+      <c r="C25" s="3">
         <v>203050</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="3">
         <v>93809</v>
       </c>
-      <c r="E25" s="35">
-        <v>30681</v>
-      </c>
-      <c r="F25" s="35">
+      <c r="E25" s="3">
+        <v>30682</v>
+      </c>
+      <c r="F25" s="3">
         <v>73</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="3">
         <v>18161</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="3">
         <v>1620</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="3">
         <v>4259</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="3">
         <v>479</v>
       </c>
-      <c r="K25" s="35">
-        <v>568067</v>
-      </c>
-      <c r="L25" s="12">
+      <c r="K25" s="3">
+        <v>568068</v>
+      </c>
+      <c r="L25" s="3">
         <v>285284</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="3">
         <v>220127</v>
       </c>
-      <c r="N25" s="14">
-        <v>32910</v>
-      </c>
-      <c r="O25" s="18">
+      <c r="N25" s="3">
+        <v>32911</v>
+      </c>
+      <c r="O25" s="3">
         <v>1366</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="3">
         <v>19161</v>
       </c>
-      <c r="Q25" s="16">
+      <c r="Q25" s="3">
         <v>1876</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="3">
         <v>6552</v>
       </c>
-      <c r="S25" s="13">
+      <c r="S25" s="3">
         <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="4">
         <v>44562</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="3">
         <v>1809545</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="3">
         <v>637166</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="3">
         <v>635279</v>
       </c>
-      <c r="E26" s="35">
-        <v>372399</v>
-      </c>
-      <c r="F26" s="35">
+      <c r="E26" s="3">
+        <v>372398</v>
+      </c>
+      <c r="F26" s="3">
         <v>850</v>
       </c>
-      <c r="G26" s="35">
-        <v>90006</v>
-      </c>
-      <c r="H26" s="35">
+      <c r="G26" s="3">
+        <v>90007</v>
+      </c>
+      <c r="H26" s="3">
         <v>27849</v>
       </c>
-      <c r="I26" s="35">
+      <c r="I26" s="3">
         <v>30423</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="3">
         <v>15573</v>
       </c>
-      <c r="K26" s="35">
-        <v>2377612</v>
-      </c>
-      <c r="L26" s="20">
+      <c r="K26" s="3">
+        <v>2377613</v>
+      </c>
+      <c r="L26" s="3">
         <v>922450</v>
       </c>
-      <c r="M26" s="25">
+      <c r="M26" s="3">
         <v>855406</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="3">
         <v>405309</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="3">
         <v>2216</v>
       </c>
-      <c r="P26" s="23">
-        <v>109167</v>
-      </c>
-      <c r="Q26" s="24">
+      <c r="P26" s="3">
+        <v>109168</v>
+      </c>
+      <c r="Q26" s="3">
         <v>29725</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="3">
         <v>36975</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="3">
         <v>16364</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="A27" s="4">
         <v>44593</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="3">
         <v>687511</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="3">
         <v>230228</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="3">
         <v>204528</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="3">
         <v>140753</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="3">
         <v>11817</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="3">
         <v>44386</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="3">
         <v>17719</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="3">
         <v>14605</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="3">
         <v>23475</v>
       </c>
-      <c r="K27" s="35">
-        <v>3065123</v>
-      </c>
-      <c r="L27" s="20">
+      <c r="K27" s="3">
+        <v>3065124</v>
+      </c>
+      <c r="L27" s="3">
         <v>1152678</v>
       </c>
-      <c r="M27" s="25">
+      <c r="M27" s="3">
         <v>1059934</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N27" s="3">
         <v>546062</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="3">
         <v>14033</v>
       </c>
-      <c r="P27" s="23">
-        <v>153553</v>
-      </c>
-      <c r="Q27" s="24">
+      <c r="P27" s="3">
+        <v>153554</v>
+      </c>
+      <c r="Q27" s="3">
         <v>47444</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="3">
         <v>51580</v>
       </c>
-      <c r="S27" s="21">
+      <c r="S27" s="3">
         <v>39839</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+      <c r="A28" s="4">
         <v>44621</v>
       </c>
-      <c r="B28" s="35">
-        <v>1366753</v>
-      </c>
-      <c r="C28" s="35">
+      <c r="B28" s="3">
+        <v>1366754</v>
+      </c>
+      <c r="C28" s="3">
         <v>536608</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="3">
         <v>250086</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="3">
         <v>196227</v>
       </c>
-      <c r="F28" s="35">
+      <c r="F28" s="3">
         <v>179287</v>
       </c>
-      <c r="G28" s="35">
-        <v>120468</v>
-      </c>
-      <c r="H28" s="35">
+      <c r="G28" s="3">
+        <v>120469</v>
+      </c>
+      <c r="H28" s="3">
         <v>46426</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="3">
         <v>27534</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="3">
         <v>10117</v>
       </c>
-      <c r="K28" s="35">
-        <v>4431876</v>
-      </c>
-      <c r="L28" s="20">
+      <c r="K28" s="3">
+        <v>4431878</v>
+      </c>
+      <c r="L28" s="3">
         <v>1689286</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="3">
         <v>1310020</v>
       </c>
-      <c r="N28" s="22">
+      <c r="N28" s="3">
         <v>742289</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="3">
         <v>193320</v>
       </c>
-      <c r="P28" s="23">
-        <v>274021</v>
-      </c>
-      <c r="Q28" s="24">
+      <c r="P28" s="3">
+        <v>274023</v>
+      </c>
+      <c r="Q28" s="3">
         <v>93870</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="3">
         <v>79114</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="3">
         <v>49956</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+      <c r="A29" s="4">
         <v>44652</v>
       </c>
-      <c r="B29" s="35">
-        <v>1339797</v>
-      </c>
-      <c r="C29" s="35">
-        <v>432381</v>
-      </c>
-      <c r="D29" s="35">
+      <c r="B29" s="3">
+        <v>1339796</v>
+      </c>
+      <c r="C29" s="3">
+        <v>432380</v>
+      </c>
+      <c r="D29" s="3">
         <v>274952</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="3">
         <v>201082</v>
       </c>
-      <c r="F29" s="35">
+      <c r="F29" s="3">
         <v>206843</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G29" s="3">
         <v>139736</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="3">
         <v>44024</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="3">
         <v>27308</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="3">
         <v>13471</v>
       </c>
-      <c r="K29" s="35">
-        <v>5771673</v>
-      </c>
-      <c r="L29" s="20">
-        <v>2121667</v>
-      </c>
-      <c r="M29" s="25">
+      <c r="K29" s="3">
+        <v>5771674</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2121666</v>
+      </c>
+      <c r="M29" s="3">
         <v>1584972</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="3">
         <v>943371</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="3">
         <v>400163</v>
       </c>
-      <c r="P29" s="23">
-        <v>413757</v>
-      </c>
-      <c r="Q29" s="24">
+      <c r="P29" s="3">
+        <v>413759</v>
+      </c>
+      <c r="Q29" s="3">
         <v>137894</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R29" s="3">
         <v>106422</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29" s="3">
         <v>63427</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="A30" s="4">
         <v>44682</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="3">
         <v>1310351</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="3">
         <v>297268</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="3">
         <v>333308</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="3">
         <v>152930</v>
       </c>
-      <c r="F30" s="35">
+      <c r="F30" s="3">
         <v>354088</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="3">
         <v>108125</v>
       </c>
-      <c r="H30" s="35">
+      <c r="H30" s="3">
         <v>28269</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="3">
         <v>27707</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="3">
         <v>8656</v>
       </c>
-      <c r="K30" s="35">
-        <v>7082024</v>
-      </c>
-      <c r="L30" s="20">
-        <v>2418935</v>
-      </c>
-      <c r="M30" s="25">
+      <c r="K30" s="3">
+        <v>7082025</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2418934</v>
+      </c>
+      <c r="M30" s="3">
         <v>1918280</v>
       </c>
-      <c r="N30" s="22">
+      <c r="N30" s="3">
         <v>1096301</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="3">
         <v>754251</v>
       </c>
-      <c r="P30" s="23">
-        <v>521882</v>
-      </c>
-      <c r="Q30" s="24">
+      <c r="P30" s="3">
+        <v>521884</v>
+      </c>
+      <c r="Q30" s="3">
         <v>166163</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R30" s="3">
         <v>134129</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="3">
         <v>72083</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="A31" s="4">
         <v>44713</v>
       </c>
-      <c r="B31" s="35">
-        <v>884284</v>
-      </c>
-      <c r="C31" s="35">
+      <c r="B31" s="3">
+        <v>884285</v>
+      </c>
+      <c r="C31" s="3">
         <v>233901</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="3">
         <v>215086</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="3">
         <v>117015</v>
       </c>
-      <c r="F31" s="35">
+      <c r="F31" s="3">
         <v>182639</v>
       </c>
-      <c r="G31" s="35">
-        <v>77303</v>
-      </c>
-      <c r="H31" s="35">
+      <c r="G31" s="3">
+        <v>77304</v>
+      </c>
+      <c r="H31" s="3">
         <v>24718</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="3">
         <v>26905</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="3">
         <v>6717</v>
       </c>
-      <c r="K31" s="35">
-        <v>7966308</v>
-      </c>
-      <c r="L31" s="20">
-        <v>2652836</v>
-      </c>
-      <c r="M31" s="25">
+      <c r="K31" s="3">
+        <v>7966310</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2652835</v>
+      </c>
+      <c r="M31" s="3">
         <v>2133366</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N31" s="3">
         <v>1213316</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="3">
         <v>936890</v>
       </c>
-      <c r="P31" s="23">
-        <v>599185</v>
-      </c>
-      <c r="Q31" s="24">
+      <c r="P31" s="3">
+        <v>599188</v>
+      </c>
+      <c r="Q31" s="3">
         <v>190881</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R31" s="3">
         <v>161034</v>
       </c>
-      <c r="S31" s="21">
+      <c r="S31" s="3">
         <v>78800</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="4">
         <v>44743</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="3">
         <v>1250351</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="3">
         <v>378607</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="3">
         <v>312117</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="3">
         <v>197459</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="3">
         <v>158264</v>
       </c>
-      <c r="G32" s="35">
+      <c r="G32" s="3">
         <v>117400</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="3">
         <v>42275</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="3">
         <v>31650</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="3">
         <v>12579</v>
       </c>
-      <c r="K32" s="35">
-        <v>9216659</v>
-      </c>
-      <c r="L32" s="20">
-        <v>3031443</v>
-      </c>
-      <c r="M32" s="25">
+      <c r="K32" s="3">
+        <v>9216661</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3031442</v>
+      </c>
+      <c r="M32" s="3">
         <v>2445483</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N32" s="3">
         <v>1410775</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="3">
         <v>1095154</v>
       </c>
-      <c r="P32" s="23">
-        <v>716585</v>
-      </c>
-      <c r="Q32" s="24">
+      <c r="P32" s="3">
+        <v>716588</v>
+      </c>
+      <c r="Q32" s="3">
         <v>233156</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="3">
         <v>192684</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32" s="3">
         <v>91379</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="A33" s="4">
         <v>44774</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="3">
         <v>554859</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="3">
         <v>230049</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="3">
         <v>125430</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="3">
         <v>71362</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="3">
         <v>59071</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="3">
         <v>40510</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="3">
         <v>12903</v>
       </c>
-      <c r="I33" s="35">
+      <c r="I33" s="3">
         <v>10547</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="3">
         <v>4987</v>
       </c>
-      <c r="K33" s="35">
-        <v>9771518</v>
-      </c>
-      <c r="L33" s="20">
-        <v>3261492</v>
-      </c>
-      <c r="M33" s="25">
+      <c r="K33" s="3">
+        <v>9771520</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3261491</v>
+      </c>
+      <c r="M33" s="3">
         <v>2570913</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="3">
         <v>1482137</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="3">
         <v>1154225</v>
       </c>
-      <c r="P33" s="23">
-        <v>757095</v>
-      </c>
-      <c r="Q33" s="24">
+      <c r="P33" s="3">
+        <v>757098</v>
+      </c>
+      <c r="Q33" s="3">
         <v>246059</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="3">
         <v>203231</v>
       </c>
-      <c r="S33" s="21">
+      <c r="S33" s="3">
         <v>96366</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+      <c r="A34" s="4">
         <v>44805</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="3">
         <v>194256</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="3">
         <v>68852</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="3">
         <v>46669</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="3">
         <v>30274</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="3">
         <v>24272</v>
       </c>
-      <c r="G34" s="35">
+      <c r="G34" s="3">
         <v>15285</v>
       </c>
-      <c r="H34" s="35">
+      <c r="H34" s="3">
         <v>3876</v>
       </c>
-      <c r="I34" s="35">
+      <c r="I34" s="3">
         <v>3266</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="3">
         <v>1762</v>
       </c>
-      <c r="K34" s="35">
-        <v>9965774</v>
-      </c>
-      <c r="L34" s="20">
-        <v>3330344</v>
-      </c>
-      <c r="M34" s="25">
+      <c r="K34" s="3">
+        <v>9965776</v>
+      </c>
+      <c r="L34" s="3">
+        <v>3330343</v>
+      </c>
+      <c r="M34" s="3">
         <v>2617582</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="3">
         <v>1512411</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="3">
         <v>1178497</v>
       </c>
-      <c r="P34" s="23">
-        <v>772380</v>
-      </c>
-      <c r="Q34" s="24">
+      <c r="P34" s="3">
+        <v>772383</v>
+      </c>
+      <c r="Q34" s="3">
         <v>249935</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R34" s="3">
         <v>206497</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="3">
         <v>98128</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+      <c r="A35" s="4">
         <v>44835</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="3">
         <v>142104</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="3">
         <v>44499</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="3">
         <v>36394</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="3">
         <v>16737</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="3">
         <v>23425</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="3">
         <v>13175</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="3">
         <v>3654</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="3">
         <v>3037</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="3">
         <v>1183</v>
       </c>
-      <c r="K35" s="35">
-        <v>10107878</v>
-      </c>
-      <c r="L35" s="20">
-        <v>3374843</v>
-      </c>
-      <c r="M35" s="25">
+      <c r="K35" s="3">
+        <v>10107880</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3374842</v>
+      </c>
+      <c r="M35" s="3">
         <v>2653976</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="3">
         <v>1529148</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="3">
         <v>1201922</v>
       </c>
-      <c r="P35" s="23">
-        <v>785555</v>
-      </c>
-      <c r="Q35" s="24">
+      <c r="P35" s="3">
+        <v>785558</v>
+      </c>
+      <c r="Q35" s="3">
         <v>253589</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R35" s="3">
         <v>209534</v>
       </c>
-      <c r="S35" s="21">
+      <c r="S35" s="3">
         <v>99311</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+      <c r="A36" s="4">
         <v>44866</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="3">
         <v>351943</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="3">
         <v>122093</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="3">
         <v>92897</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="3">
         <v>36446</v>
       </c>
-      <c r="F36" s="35">
+      <c r="F36" s="3">
         <v>42631</v>
       </c>
-      <c r="G36" s="35">
+      <c r="G36" s="3">
         <v>37162</v>
       </c>
-      <c r="H36" s="35">
+      <c r="H36" s="3">
         <v>11684</v>
       </c>
-      <c r="I36" s="35">
+      <c r="I36" s="3">
         <v>7226</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="3">
         <v>1804</v>
       </c>
-      <c r="K36" s="35">
-        <v>10459821</v>
-      </c>
-      <c r="L36" s="20">
-        <v>3496936</v>
-      </c>
-      <c r="M36" s="25">
+      <c r="K36" s="3">
+        <v>10459823</v>
+      </c>
+      <c r="L36" s="3">
+        <v>3496935</v>
+      </c>
+      <c r="M36" s="3">
         <v>2746873</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N36" s="3">
         <v>1565594</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="3">
         <v>1244553</v>
       </c>
-      <c r="P36" s="23">
-        <v>822717</v>
-      </c>
-      <c r="Q36" s="24">
+      <c r="P36" s="3">
+        <v>822720</v>
+      </c>
+      <c r="Q36" s="3">
         <v>265273</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R36" s="3">
         <v>216760</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="3">
         <v>101115</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="4">
         <v>44896</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="3">
         <v>425866</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="3">
         <v>156463</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="3">
         <v>94607</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="3">
         <v>54281</v>
       </c>
-      <c r="F37" s="35">
+      <c r="F37" s="3">
         <v>45311</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="3">
         <v>44505</v>
       </c>
-      <c r="H37" s="35">
+      <c r="H37" s="3">
         <v>16270</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="3">
         <v>11577</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="3">
         <v>2852</v>
       </c>
-      <c r="K37" s="35">
-        <v>10885687</v>
-      </c>
-      <c r="L37" s="20">
-        <v>3653399</v>
-      </c>
-      <c r="M37" s="25">
+      <c r="K37" s="3">
+        <v>10885689</v>
+      </c>
+      <c r="L37" s="3">
+        <v>3653398</v>
+      </c>
+      <c r="M37" s="3">
         <v>2841480</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N37" s="3">
         <v>1619875</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="3">
         <v>1289864</v>
       </c>
-      <c r="P37" s="23">
-        <v>867222</v>
-      </c>
-      <c r="Q37" s="24">
+      <c r="P37" s="3">
+        <v>867225</v>
+      </c>
+      <c r="Q37" s="3">
         <v>281543</v>
       </c>
-      <c r="R37" s="19">
+      <c r="R37" s="3">
         <v>228337</v>
       </c>
-      <c r="S37" s="21">
+      <c r="S37" s="3">
         <v>103967</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="A38" s="4">
         <v>44927</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="3">
         <v>130078</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="3">
         <v>45940</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="3">
         <v>23104</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="3">
         <v>24113</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="3">
         <v>16856</v>
       </c>
-      <c r="G38" s="35">
+      <c r="G38" s="3">
         <v>11890</v>
       </c>
-      <c r="H38" s="35">
+      <c r="H38" s="3">
         <v>3637</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="3">
         <v>3253</v>
       </c>
-      <c r="J38" s="35">
+      <c r="J38" s="3">
         <v>1285</v>
       </c>
-      <c r="K38" s="35">
-        <v>11015765</v>
-      </c>
-      <c r="L38" s="28">
-        <v>3699339</v>
-      </c>
-      <c r="M38" s="33">
+      <c r="K38" s="3">
+        <v>11015767</v>
+      </c>
+      <c r="L38" s="3">
+        <v>3699338</v>
+      </c>
+      <c r="M38" s="3">
         <v>2864584</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="3">
         <v>1643988</v>
       </c>
-      <c r="O38" s="35">
+      <c r="O38" s="3">
         <v>1306720</v>
       </c>
-      <c r="P38" s="31">
-        <v>879112</v>
-      </c>
-      <c r="Q38" s="32">
+      <c r="P38" s="3">
+        <v>879115</v>
+      </c>
+      <c r="Q38" s="3">
         <v>285180</v>
       </c>
-      <c r="R38" s="27">
+      <c r="R38" s="3">
         <v>231590</v>
       </c>
-      <c r="S38" s="29">
+      <c r="S38" s="3">
         <v>105252</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+      <c r="A39" s="4">
         <v>44958</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="3">
         <v>71989</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="3">
         <v>25243</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="3">
         <v>12389</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="3">
         <v>14300</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="3">
         <v>8872</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G39" s="3">
         <v>6853</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H39" s="3">
         <v>1931</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="3">
         <v>1941</v>
       </c>
-      <c r="J39" s="35">
+      <c r="J39" s="3">
         <v>460</v>
       </c>
-      <c r="K39" s="35">
-        <v>11087754</v>
-      </c>
-      <c r="L39" s="28">
-        <v>3724582</v>
-      </c>
-      <c r="M39" s="33">
+      <c r="K39" s="3">
+        <v>11087756</v>
+      </c>
+      <c r="L39" s="3">
+        <v>3724581</v>
+      </c>
+      <c r="M39" s="3">
         <v>2876973</v>
       </c>
-      <c r="N39" s="30">
+      <c r="N39" s="3">
         <v>1658288</v>
       </c>
-      <c r="O39" s="35">
+      <c r="O39" s="3">
         <v>1315592</v>
       </c>
-      <c r="P39" s="31">
-        <v>885965</v>
-      </c>
-      <c r="Q39" s="32">
+      <c r="P39" s="3">
+        <v>885968</v>
+      </c>
+      <c r="Q39" s="3">
         <v>287111</v>
       </c>
-      <c r="R39" s="27">
+      <c r="R39" s="3">
         <v>233531</v>
       </c>
-      <c r="S39" s="29">
+      <c r="S39" s="3">
         <v>105712</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
+      <c r="A40" s="4">
         <v>44986</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="3">
         <v>103979</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="3">
         <v>38642</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="3">
         <v>19237</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="3">
         <v>15455</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="3">
         <v>12962</v>
       </c>
-      <c r="G40" s="35">
+      <c r="G40" s="3">
         <v>11500</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="3">
         <v>3302</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="3">
         <v>2213</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="3">
         <v>668</v>
       </c>
-      <c r="K40" s="35">
-        <v>11191733</v>
-      </c>
-      <c r="L40" s="28">
-        <v>3763224</v>
-      </c>
-      <c r="M40" s="33">
+      <c r="K40" s="3">
+        <v>11191735</v>
+      </c>
+      <c r="L40" s="3">
+        <v>3763223</v>
+      </c>
+      <c r="M40" s="3">
         <v>2896210</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="3">
         <v>1673743</v>
       </c>
-      <c r="O40" s="35">
+      <c r="O40" s="3">
         <v>1328554</v>
       </c>
-      <c r="P40" s="31">
-        <v>897465</v>
-      </c>
-      <c r="Q40" s="32">
+      <c r="P40" s="3">
+        <v>897468</v>
+      </c>
+      <c r="Q40" s="3">
         <v>290413</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="3">
         <v>235744</v>
       </c>
-      <c r="S40" s="29">
+      <c r="S40" s="3">
         <v>106380</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+      <c r="A41" s="4">
         <v>45017</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="3">
         <v>123165</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="3">
         <v>47529</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="3">
         <v>25807</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="3">
         <v>15910</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="3">
         <v>14387</v>
       </c>
-      <c r="G41" s="35">
+      <c r="G41" s="3">
         <v>12329</v>
       </c>
-      <c r="H41" s="35">
+      <c r="H41" s="3">
         <v>3780</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="3">
         <v>2597</v>
       </c>
-      <c r="J41" s="35">
+      <c r="J41" s="3">
         <v>826</v>
       </c>
-      <c r="K41" s="35">
-        <v>11314898</v>
-      </c>
-      <c r="L41" s="28">
-        <v>3810753</v>
-      </c>
-      <c r="M41" s="33">
+      <c r="K41" s="3">
+        <v>11314900</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3810752</v>
+      </c>
+      <c r="M41" s="3">
         <v>2922017</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="3">
         <v>1689653</v>
       </c>
-      <c r="O41" s="35">
+      <c r="O41" s="3">
         <v>1342941</v>
       </c>
-      <c r="P41" s="31">
-        <v>909794</v>
-      </c>
-      <c r="Q41" s="32">
+      <c r="P41" s="3">
+        <v>909797</v>
+      </c>
+      <c r="Q41" s="3">
         <v>294193</v>
       </c>
-      <c r="R41" s="27">
+      <c r="R41" s="3">
         <v>238341</v>
       </c>
-      <c r="S41" s="29">
+      <c r="S41" s="3">
         <v>107206</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
+      <c r="A42" s="4">
         <v>45047</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="3">
         <v>166253</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="3">
         <v>62095</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="3">
         <v>38375</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="3">
         <v>22310</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="3">
         <v>18088</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G42" s="3">
         <v>14913</v>
       </c>
-      <c r="H42" s="35">
+      <c r="H42" s="3">
         <v>5204</v>
       </c>
-      <c r="I42" s="35">
+      <c r="I42" s="3">
         <v>4334</v>
       </c>
-      <c r="J42" s="35">
+      <c r="J42" s="3">
         <v>934</v>
       </c>
-      <c r="K42" s="35">
-        <v>11481151</v>
-      </c>
-      <c r="L42" s="28">
-        <v>3872848</v>
-      </c>
-      <c r="M42" s="33">
+      <c r="K42" s="3">
+        <v>11481153</v>
+      </c>
+      <c r="L42" s="3">
+        <v>3872847</v>
+      </c>
+      <c r="M42" s="3">
         <v>2960392</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="3">
         <v>1711963</v>
       </c>
-      <c r="O42" s="35">
+      <c r="O42" s="3">
         <v>1361029</v>
       </c>
-      <c r="P42" s="31">
-        <v>924707</v>
-      </c>
-      <c r="Q42" s="32">
+      <c r="P42" s="3">
+        <v>924710</v>
+      </c>
+      <c r="Q42" s="3">
         <v>299397</v>
       </c>
-      <c r="R42" s="27">
+      <c r="R42" s="3">
         <v>242675</v>
       </c>
-      <c r="S42" s="29">
+      <c r="S42" s="3">
         <v>108140</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
+      <c r="A43" s="4">
         <v>45078</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="3">
         <v>77807</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="3">
         <v>28182</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="3">
         <v>14772</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="3">
         <v>14251</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="3">
         <v>8418</v>
       </c>
-      <c r="G43" s="35">
+      <c r="G43" s="3">
         <v>7214</v>
       </c>
-      <c r="H43" s="35">
+      <c r="H43" s="3">
         <v>2586</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="3">
         <v>1989</v>
       </c>
-      <c r="J43" s="35">
+      <c r="J43" s="3">
         <v>395</v>
       </c>
-      <c r="K43" s="35">
-        <v>11558958</v>
-      </c>
-      <c r="L43" s="28">
-        <v>3901030</v>
-      </c>
-      <c r="M43" s="33">
+      <c r="K43" s="3">
+        <v>11558960</v>
+      </c>
+      <c r="L43" s="3">
+        <v>3901029</v>
+      </c>
+      <c r="M43" s="3">
         <v>2975164</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="3">
         <v>1726214</v>
       </c>
-      <c r="O43" s="35">
+      <c r="O43" s="3">
         <v>1369447</v>
       </c>
-      <c r="P43" s="31">
-        <v>931921</v>
-      </c>
-      <c r="Q43" s="32">
+      <c r="P43" s="3">
+        <v>931924</v>
+      </c>
+      <c r="Q43" s="3">
         <v>301983</v>
       </c>
-      <c r="R43" s="27">
+      <c r="R43" s="3">
         <v>244664</v>
       </c>
-      <c r="S43" s="29">
+      <c r="S43" s="3">
         <v>108535</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
+      <c r="A44" s="4">
         <v>45108</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="3">
         <v>28220</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="3">
         <v>10283</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="3">
         <v>2078</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="3">
         <v>6948</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="3">
         <v>3652</v>
       </c>
-      <c r="G44" s="35">
+      <c r="G44" s="3">
         <v>2929</v>
       </c>
-      <c r="H44" s="35">
+      <c r="H44" s="3">
         <v>1273</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="3">
         <v>853</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="3">
         <v>204</v>
       </c>
-      <c r="K44" s="35">
-        <v>11587178</v>
-      </c>
-      <c r="L44" s="28">
-        <v>3911313</v>
-      </c>
-      <c r="M44" s="33">
+      <c r="K44" s="3">
+        <v>11587180</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3911312</v>
+      </c>
+      <c r="M44" s="3">
         <v>2977242</v>
       </c>
-      <c r="N44" s="30">
+      <c r="N44" s="3">
         <v>1733162</v>
       </c>
-      <c r="O44" s="35">
+      <c r="O44" s="3">
         <v>1373099</v>
       </c>
-      <c r="P44" s="31">
-        <v>934850</v>
-      </c>
-      <c r="Q44" s="32">
+      <c r="P44" s="3">
+        <v>934853</v>
+      </c>
+      <c r="Q44" s="3">
         <v>303256</v>
       </c>
-      <c r="R44" s="27">
+      <c r="R44" s="3">
         <v>245517</v>
       </c>
-      <c r="S44" s="29">
+      <c r="S44" s="3">
         <v>108739</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="A45" s="4">
         <v>45139</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="3">
         <v>23445</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="3">
         <v>9134</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="3">
         <v>2142</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="3">
         <v>4538</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="3">
         <v>2998</v>
       </c>
-      <c r="G45" s="35">
+      <c r="G45" s="3">
         <v>2449</v>
       </c>
-      <c r="H45" s="35">
+      <c r="H45" s="3">
         <v>1164</v>
       </c>
-      <c r="I45" s="35">
+      <c r="I45" s="3">
         <v>804</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="3">
         <v>216</v>
       </c>
-      <c r="K45" s="35">
-        <v>11610623</v>
-      </c>
-      <c r="L45" s="28">
-        <v>3920447</v>
-      </c>
-      <c r="M45" s="33">
+      <c r="K45" s="3">
+        <v>11610625</v>
+      </c>
+      <c r="L45" s="3">
+        <v>3920446</v>
+      </c>
+      <c r="M45" s="3">
         <v>2979384</v>
       </c>
-      <c r="N45" s="30">
+      <c r="N45" s="3">
         <v>1737700</v>
       </c>
-      <c r="O45" s="35">
+      <c r="O45" s="3">
         <v>1376097</v>
       </c>
-      <c r="P45" s="31">
-        <v>937299</v>
-      </c>
-      <c r="Q45" s="32">
+      <c r="P45" s="3">
+        <v>937302</v>
+      </c>
+      <c r="Q45" s="3">
         <v>304420</v>
       </c>
-      <c r="R45" s="27">
+      <c r="R45" s="3">
         <v>246321</v>
       </c>
-      <c r="S45" s="29">
+      <c r="S45" s="3">
         <v>108955</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
+      <c r="A46" s="4">
         <v>45170</v>
       </c>
-      <c r="B46" s="35">
+      <c r="B46" s="3">
         <v>22128</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="3">
         <v>8963</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="3">
         <v>3263</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="3">
         <v>2023</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="3">
         <v>2557</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="3">
         <v>3033</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="3">
         <v>1203</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I46" s="3">
         <v>742</v>
       </c>
-      <c r="J46" s="35">
+      <c r="J46" s="3">
         <v>344</v>
       </c>
-      <c r="K46" s="35">
-        <v>11632751</v>
-      </c>
-      <c r="L46" s="28">
-        <v>3929410</v>
-      </c>
-      <c r="M46" s="33">
+      <c r="K46" s="3">
+        <v>11632753</v>
+      </c>
+      <c r="L46" s="3">
+        <v>3929409</v>
+      </c>
+      <c r="M46" s="3">
         <v>2982647</v>
       </c>
-      <c r="N46" s="30">
+      <c r="N46" s="3">
         <v>1739723</v>
       </c>
-      <c r="O46" s="35">
+      <c r="O46" s="3">
         <v>1378654</v>
       </c>
-      <c r="P46" s="31">
-        <v>940332</v>
-      </c>
-      <c r="Q46" s="32">
+      <c r="P46" s="3">
+        <v>940335</v>
+      </c>
+      <c r="Q46" s="3">
         <v>305623</v>
       </c>
-      <c r="R46" s="27">
+      <c r="R46" s="3">
         <v>247063</v>
       </c>
-      <c r="S46" s="29">
+      <c r="S46" s="3">
         <v>109299</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+      <c r="A47" s="4">
         <v>45200</v>
       </c>
-      <c r="B47" s="35">
-        <v>27875</v>
-      </c>
-      <c r="C47" s="35">
+      <c r="B47" s="3">
+        <v>27887</v>
+      </c>
+      <c r="C47" s="3">
         <v>7712</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="3">
         <v>5638</v>
       </c>
-      <c r="E47" s="35">
-        <v>3666</v>
-      </c>
-      <c r="F47" s="35">
+      <c r="E47" s="3">
+        <v>3673</v>
+      </c>
+      <c r="F47" s="3">
         <v>1984</v>
       </c>
-      <c r="G47" s="35">
-        <v>5072</v>
-      </c>
-      <c r="H47" s="35">
-        <v>1901</v>
-      </c>
-      <c r="I47" s="35">
+      <c r="G47" s="3">
+        <v>5076</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1902</v>
+      </c>
+      <c r="I47" s="3">
         <v>1488</v>
       </c>
-      <c r="J47" s="35">
+      <c r="J47" s="3">
         <v>414</v>
       </c>
-      <c r="K47" s="35">
-        <v>11660626</v>
-      </c>
-      <c r="L47" s="28">
-        <v>3937122</v>
-      </c>
-      <c r="M47" s="33">
+      <c r="K47" s="3">
+        <v>11660640</v>
+      </c>
+      <c r="L47" s="3">
+        <v>3937121</v>
+      </c>
+      <c r="M47" s="3">
         <v>2988285</v>
       </c>
-      <c r="N47" s="30">
-        <v>1743389</v>
-      </c>
-      <c r="O47" s="35">
+      <c r="N47" s="3">
+        <v>1743396</v>
+      </c>
+      <c r="O47" s="3">
         <v>1380638</v>
       </c>
-      <c r="P47" s="31">
-        <v>945404</v>
-      </c>
-      <c r="Q47" s="32">
-        <v>307524</v>
-      </c>
-      <c r="R47" s="27">
+      <c r="P47" s="3">
+        <v>945411</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>307525</v>
+      </c>
+      <c r="R47" s="3">
         <v>248551</v>
       </c>
-      <c r="S47" s="29">
+      <c r="S47" s="3">
         <v>109713</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+      <c r="A48" s="4">
         <v>45231</v>
       </c>
-      <c r="B48" s="35">
-        <v>16449</v>
-      </c>
-      <c r="C48" s="35">
-        <v>5101</v>
-      </c>
-      <c r="D48" s="35">
-        <v>2374</v>
-      </c>
-      <c r="E48" s="35">
-        <v>2178</v>
-      </c>
-      <c r="F48" s="35">
-        <v>366</v>
-      </c>
-      <c r="G48" s="35">
-        <v>4291</v>
-      </c>
-      <c r="H48" s="35">
-        <v>1090</v>
-      </c>
-      <c r="I48" s="35">
-        <v>832</v>
-      </c>
-      <c r="J48" s="35">
-        <v>217</v>
-      </c>
-      <c r="K48" s="35">
-        <v>11677075</v>
-      </c>
-      <c r="L48" s="28">
-        <v>3942223</v>
-      </c>
-      <c r="M48" s="33">
-        <v>2990659</v>
-      </c>
-      <c r="N48" s="30">
-        <v>1745567</v>
-      </c>
-      <c r="O48" s="35">
-        <v>1381004</v>
-      </c>
-      <c r="P48" s="31">
-        <v>949695</v>
-      </c>
-      <c r="Q48" s="32">
-        <v>308614</v>
-      </c>
-      <c r="R48" s="27">
-        <v>249383</v>
-      </c>
-      <c r="S48" s="29">
-        <v>109930</v>
+      <c r="B48" s="3">
+        <v>18308</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5610</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2580</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2347</v>
+      </c>
+      <c r="F48" s="3">
+        <v>367</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4681</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1530</v>
+      </c>
+      <c r="I48" s="3">
+        <v>946</v>
+      </c>
+      <c r="J48" s="3">
+        <v>247</v>
+      </c>
+      <c r="K48" s="3">
+        <v>11678948</v>
+      </c>
+      <c r="L48" s="3">
+        <v>3942731</v>
+      </c>
+      <c r="M48" s="3">
+        <v>2990865</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1745743</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1381005</v>
+      </c>
+      <c r="P48" s="3">
+        <v>950092</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>309055</v>
+      </c>
+      <c r="R48" s="3">
+        <v>249497</v>
+      </c>
+      <c r="S48" s="3">
+        <v>109960</v>
       </c>
     </row>
   </sheetData>
@@ -3837,93 +5178,760 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:IM7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>57</v>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
+        <v>95</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="N1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="Q1" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="R1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="T1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>149</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>152</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>191</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>198</v>
+      </c>
+      <c r="EC1" t="s">
+        <v>199</v>
+      </c>
+      <c r="ED1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EE1" t="s">
+        <v>201</v>
+      </c>
+      <c r="EF1" t="s">
+        <v>202</v>
+      </c>
+      <c r="EG1" t="s">
+        <v>203</v>
+      </c>
+      <c r="EH1" t="s">
+        <v>204</v>
+      </c>
+      <c r="EI1" t="s">
+        <v>205</v>
+      </c>
+      <c r="EJ1" t="s">
+        <v>206</v>
+      </c>
+      <c r="EK1" t="s">
+        <v>207</v>
+      </c>
+      <c r="EL1" t="s">
+        <v>208</v>
+      </c>
+      <c r="EM1" t="s">
+        <v>209</v>
+      </c>
+      <c r="EN1" t="s">
+        <v>210</v>
+      </c>
+      <c r="EO1" t="s">
+        <v>211</v>
+      </c>
+      <c r="EP1" t="s">
+        <v>212</v>
+      </c>
+      <c r="EQ1" t="s">
+        <v>213</v>
+      </c>
+      <c r="ER1" t="s">
+        <v>214</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>215</v>
+      </c>
+      <c r="ET1" t="s">
+        <v>216</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>217</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>218</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>238</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>239</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>240</v>
+      </c>
+      <c r="EZ1" t="s">
+        <v>241</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>242</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>243</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>244</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>245</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>246</v>
+      </c>
+      <c r="FF1" t="s">
+        <v>247</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>248</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>249</v>
+      </c>
+      <c r="FI1" t="s">
+        <v>250</v>
+      </c>
+      <c r="FJ1" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK1" t="s">
+        <v>252</v>
+      </c>
+      <c r="FL1" t="s">
+        <v>253</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>254</v>
+      </c>
+      <c r="FN1" t="s">
+        <v>255</v>
+      </c>
+      <c r="FO1" t="s">
+        <v>256</v>
+      </c>
+      <c r="FP1" t="s">
+        <v>257</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>258</v>
+      </c>
+      <c r="FR1" t="s">
+        <v>259</v>
+      </c>
+      <c r="FS1" t="s">
+        <v>260</v>
+      </c>
+      <c r="FT1" t="s">
+        <v>261</v>
+      </c>
+      <c r="FU1" t="s">
+        <v>262</v>
+      </c>
+      <c r="FV1" t="s">
+        <v>263</v>
+      </c>
+      <c r="FW1" t="s">
+        <v>264</v>
+      </c>
+      <c r="FX1" t="s">
+        <v>265</v>
+      </c>
+      <c r="FY1" t="s">
+        <v>266</v>
+      </c>
+      <c r="FZ1" t="s">
+        <v>267</v>
+      </c>
+      <c r="GA1" t="s">
+        <v>268</v>
+      </c>
+      <c r="GB1" t="s">
+        <v>269</v>
+      </c>
+      <c r="GC1" t="s">
+        <v>270</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>271</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>272</v>
+      </c>
+      <c r="GF1" t="s">
+        <v>273</v>
+      </c>
+      <c r="GG1" t="s">
+        <v>274</v>
+      </c>
+      <c r="GH1" t="s">
+        <v>275</v>
+      </c>
+      <c r="GI1" t="s">
+        <v>276</v>
+      </c>
+      <c r="GJ1" t="s">
+        <v>277</v>
+      </c>
+      <c r="GK1" t="s">
+        <v>278</v>
+      </c>
+      <c r="GL1" t="s">
+        <v>279</v>
+      </c>
+      <c r="GM1" t="s">
+        <v>280</v>
+      </c>
+      <c r="GN1" t="s">
+        <v>281</v>
+      </c>
+      <c r="GO1" t="s">
+        <v>282</v>
+      </c>
+      <c r="GP1" t="s">
+        <v>283</v>
+      </c>
+      <c r="GQ1" t="s">
+        <v>284</v>
+      </c>
+      <c r="GR1" t="s">
+        <v>285</v>
+      </c>
+      <c r="GS1" t="s">
+        <v>286</v>
+      </c>
+      <c r="GT1" t="s">
+        <v>287</v>
+      </c>
+      <c r="GU1" t="s">
+        <v>288</v>
+      </c>
+      <c r="GV1" t="s">
+        <v>289</v>
+      </c>
+      <c r="GW1" t="s">
+        <v>290</v>
+      </c>
+      <c r="GX1" t="s">
+        <v>291</v>
+      </c>
+      <c r="GY1" t="s">
+        <v>292</v>
+      </c>
+      <c r="GZ1" t="s">
+        <v>293</v>
+      </c>
+      <c r="HA1" t="s">
+        <v>294</v>
+      </c>
+      <c r="HB1" t="s">
+        <v>295</v>
+      </c>
+      <c r="HC1" t="s">
+        <v>296</v>
+      </c>
+      <c r="HD1" t="s">
+        <v>297</v>
+      </c>
+      <c r="HE1" t="s">
+        <v>298</v>
+      </c>
+      <c r="HF1" t="s">
+        <v>299</v>
+      </c>
+      <c r="HG1" t="s">
+        <v>300</v>
+      </c>
+      <c r="HH1" t="s">
+        <v>301</v>
+      </c>
+      <c r="HI1" t="s">
+        <v>302</v>
+      </c>
+      <c r="HJ1" t="s">
+        <v>303</v>
+      </c>
+      <c r="HK1" t="s">
+        <v>304</v>
+      </c>
+      <c r="HL1" t="s">
+        <v>305</v>
+      </c>
+      <c r="HM1" t="s">
+        <v>306</v>
+      </c>
+      <c r="HN1" t="s">
+        <v>307</v>
+      </c>
+      <c r="HO1" t="s">
+        <v>308</v>
+      </c>
+      <c r="HP1" t="s">
+        <v>309</v>
+      </c>
+      <c r="HQ1" t="s">
+        <v>310</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>311</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>312</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>313</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>314</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>315</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>316</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>317</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>318</v>
+      </c>
+      <c r="HZ1" t="s">
+        <v>319</v>
+      </c>
+      <c r="IA1" t="s">
+        <v>320</v>
+      </c>
+      <c r="IB1" t="s">
+        <v>321</v>
+      </c>
+      <c r="IC1" t="s">
+        <v>322</v>
+      </c>
+      <c r="ID1" t="s">
+        <v>323</v>
+      </c>
+      <c r="IE1" t="s">
+        <v>324</v>
+      </c>
+      <c r="IF1" t="s">
+        <v>325</v>
+      </c>
+      <c r="IG1" t="s">
+        <v>326</v>
+      </c>
+      <c r="IH1" t="s">
+        <v>327</v>
+      </c>
+      <c r="II1" t="s">
+        <v>328</v>
+      </c>
+      <c r="IJ1" t="s">
+        <v>329</v>
+      </c>
+      <c r="IK1" t="s">
+        <v>330</v>
+      </c>
+      <c r="IL1" t="s">
+        <v>331</v>
+      </c>
+      <c r="IM1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45240</v>
       </c>
@@ -3955,35 +5963,35 @@
         <v>109855</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45241</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3">
         <v>1611</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3">
         <v>482</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3">
         <v>272</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3">
         <v>225</v>
       </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>400</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3">
         <v>123</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3">
         <v>84</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3">
         <v>25</v>
       </c>
       <c r="K3">
@@ -4014,7 +6022,7 @@
         <v>109880</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45242</v>
       </c>
@@ -4073,7 +6081,7 @@
         <v>109880</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45243</v>
       </c>
@@ -4132,7 +6140,7 @@
         <v>109880</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45244</v>
       </c>
@@ -4189,6 +6197,1091 @@
       </c>
       <c r="S6">
         <v>109930</v>
+      </c>
+      <c r="AM6">
+        <v>501660</v>
+      </c>
+      <c r="AN6">
+        <v>667575</v>
+      </c>
+      <c r="AO6">
+        <v>772830</v>
+      </c>
+      <c r="AP6">
+        <v>759029</v>
+      </c>
+      <c r="AQ6">
+        <v>929299</v>
+      </c>
+      <c r="AR6">
+        <v>1024851</v>
+      </c>
+      <c r="AS6">
+        <v>1032570</v>
+      </c>
+      <c r="AT6">
+        <v>1017124</v>
+      </c>
+      <c r="AU6">
+        <v>906719</v>
+      </c>
+      <c r="AV6">
+        <v>805691</v>
+      </c>
+      <c r="AW6">
+        <v>745385</v>
+      </c>
+      <c r="AX6">
+        <v>620433</v>
+      </c>
+      <c r="AY6">
+        <v>541415</v>
+      </c>
+      <c r="AZ6">
+        <v>405797</v>
+      </c>
+      <c r="BA6">
+        <v>323359</v>
+      </c>
+      <c r="BB6">
+        <v>238662</v>
+      </c>
+      <c r="BC6">
+        <v>159777</v>
+      </c>
+      <c r="BD6">
+        <v>206733</v>
+      </c>
+      <c r="BE6">
+        <v>18166</v>
+      </c>
+      <c r="EW6">
+        <v>230903</v>
+      </c>
+      <c r="EX6">
+        <v>219251</v>
+      </c>
+      <c r="EY6">
+        <v>409</v>
+      </c>
+      <c r="EZ6">
+        <v>15450</v>
+      </c>
+      <c r="FA6">
+        <v>35647</v>
+      </c>
+      <c r="FB6">
+        <v>307837</v>
+      </c>
+      <c r="FC6">
+        <v>292465</v>
+      </c>
+      <c r="FD6">
+        <v>466</v>
+      </c>
+      <c r="FE6">
+        <v>16773</v>
+      </c>
+      <c r="FF6">
+        <v>50034</v>
+      </c>
+      <c r="FG6">
+        <v>352877</v>
+      </c>
+      <c r="FH6">
+        <v>342281</v>
+      </c>
+      <c r="FI6">
+        <v>633</v>
+      </c>
+      <c r="FJ6">
+        <v>16956</v>
+      </c>
+      <c r="FK6">
+        <v>60083</v>
+      </c>
+      <c r="FL6">
+        <v>325961</v>
+      </c>
+      <c r="FM6">
+        <v>373416</v>
+      </c>
+      <c r="FN6">
+        <v>894</v>
+      </c>
+      <c r="FO6">
+        <v>12938</v>
+      </c>
+      <c r="FP6">
+        <v>45820</v>
+      </c>
+      <c r="FQ6">
+        <v>391661</v>
+      </c>
+      <c r="FR6">
+        <v>478845</v>
+      </c>
+      <c r="FS6">
+        <v>1100</v>
+      </c>
+      <c r="FT6">
+        <v>16280</v>
+      </c>
+      <c r="FU6">
+        <v>41413</v>
+      </c>
+      <c r="FV6">
+        <v>433342</v>
+      </c>
+      <c r="FW6">
+        <v>525078</v>
+      </c>
+      <c r="FX6">
+        <v>1134</v>
+      </c>
+      <c r="FY6">
+        <v>17786</v>
+      </c>
+      <c r="FZ6">
+        <v>47511</v>
+      </c>
+      <c r="GA6">
+        <v>428584</v>
+      </c>
+      <c r="GB6">
+        <v>531078</v>
+      </c>
+      <c r="GC6">
+        <v>922</v>
+      </c>
+      <c r="GD6">
+        <v>17168</v>
+      </c>
+      <c r="GE6">
+        <v>54818</v>
+      </c>
+      <c r="GF6">
+        <v>419116</v>
+      </c>
+      <c r="GG6">
+        <v>523486</v>
+      </c>
+      <c r="GH6">
+        <v>665</v>
+      </c>
+      <c r="GI6">
+        <v>15033</v>
+      </c>
+      <c r="GJ6">
+        <v>58824</v>
+      </c>
+      <c r="GK6">
+        <v>372896</v>
+      </c>
+      <c r="GL6">
+        <v>467810</v>
+      </c>
+      <c r="GM6">
+        <v>498</v>
+      </c>
+      <c r="GN6">
+        <v>12351</v>
+      </c>
+      <c r="GO6">
+        <v>53164</v>
+      </c>
+      <c r="GP6">
+        <v>329731</v>
+      </c>
+      <c r="GQ6">
+        <v>420067</v>
+      </c>
+      <c r="GR6">
+        <v>439</v>
+      </c>
+      <c r="GS6">
+        <v>10135</v>
+      </c>
+      <c r="GT6">
+        <v>45319</v>
+      </c>
+      <c r="GU6">
+        <v>307474</v>
+      </c>
+      <c r="GV6">
+        <v>388295</v>
+      </c>
+      <c r="GW6">
+        <v>399</v>
+      </c>
+      <c r="GX6">
+        <v>8957</v>
+      </c>
+      <c r="GY6">
+        <v>40260</v>
+      </c>
+      <c r="GZ6">
+        <v>262922</v>
+      </c>
+      <c r="HA6">
+        <v>318824</v>
+      </c>
+      <c r="HB6">
+        <v>329</v>
+      </c>
+      <c r="HC6">
+        <v>6610</v>
+      </c>
+      <c r="HD6">
+        <v>31748</v>
+      </c>
+      <c r="HE6">
+        <v>233714</v>
+      </c>
+      <c r="HF6">
+        <v>276184</v>
+      </c>
+      <c r="HG6">
+        <v>234</v>
+      </c>
+      <c r="HH6">
+        <v>5323</v>
+      </c>
+      <c r="HI6">
+        <v>25960</v>
+      </c>
+      <c r="HJ6">
+        <v>180061</v>
+      </c>
+      <c r="HK6">
+        <v>203336</v>
+      </c>
+      <c r="HL6">
+        <v>199</v>
+      </c>
+      <c r="HM6">
+        <v>3681</v>
+      </c>
+      <c r="HN6">
+        <v>18520</v>
+      </c>
+      <c r="HO6">
+        <v>150768</v>
+      </c>
+      <c r="HP6">
+        <v>157386</v>
+      </c>
+      <c r="HQ6">
+        <v>162</v>
+      </c>
+      <c r="HR6">
+        <v>2692</v>
+      </c>
+      <c r="HS6">
+        <v>12351</v>
+      </c>
+      <c r="HT6">
+        <v>114996</v>
+      </c>
+      <c r="HU6">
+        <v>113794</v>
+      </c>
+      <c r="HV6">
+        <v>164</v>
+      </c>
+      <c r="HW6">
+        <v>1898</v>
+      </c>
+      <c r="HX6">
+        <v>7810</v>
+      </c>
+      <c r="HY6">
+        <v>75039</v>
+      </c>
+      <c r="HZ6">
+        <v>78795</v>
+      </c>
+      <c r="IA6">
+        <v>131</v>
+      </c>
+      <c r="IB6">
+        <v>1280</v>
+      </c>
+      <c r="IC6">
+        <v>4532</v>
+      </c>
+      <c r="ID6">
+        <v>80036</v>
+      </c>
+      <c r="IE6">
+        <v>120283</v>
+      </c>
+      <c r="IF6">
+        <v>303</v>
+      </c>
+      <c r="IG6">
+        <v>2268</v>
+      </c>
+      <c r="IH6">
+        <v>3843</v>
+      </c>
+      <c r="II6">
+        <v>2148</v>
+      </c>
+      <c r="IJ6">
+        <v>2306</v>
+      </c>
+      <c r="IK6">
+        <v>22</v>
+      </c>
+      <c r="IL6">
+        <v>201</v>
+      </c>
+      <c r="IM6">
+        <v>13489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B7">
+        <v>1873</v>
+      </c>
+      <c r="C7">
+        <v>508</v>
+      </c>
+      <c r="D7">
+        <v>206</v>
+      </c>
+      <c r="E7">
+        <v>176</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>397</v>
+      </c>
+      <c r="H7">
+        <v>441</v>
+      </c>
+      <c r="I7">
+        <v>114</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>11678948</v>
+      </c>
+      <c r="L7">
+        <v>3942731</v>
+      </c>
+      <c r="M7">
+        <v>2990865</v>
+      </c>
+      <c r="N7">
+        <v>1745743</v>
+      </c>
+      <c r="O7">
+        <v>1381005</v>
+      </c>
+      <c r="P7">
+        <v>950092</v>
+      </c>
+      <c r="Q7">
+        <v>309055</v>
+      </c>
+      <c r="R7">
+        <v>249497</v>
+      </c>
+      <c r="S7">
+        <v>109960</v>
+      </c>
+      <c r="T7">
+        <v>91</v>
+      </c>
+      <c r="U7">
+        <v>29</v>
+      </c>
+      <c r="V7">
+        <v>72</v>
+      </c>
+      <c r="W7">
+        <v>56</v>
+      </c>
+      <c r="X7">
+        <v>82</v>
+      </c>
+      <c r="Y7">
+        <v>94</v>
+      </c>
+      <c r="Z7">
+        <v>113</v>
+      </c>
+      <c r="AA7">
+        <v>115</v>
+      </c>
+      <c r="AB7">
+        <v>103</v>
+      </c>
+      <c r="AC7">
+        <v>122</v>
+      </c>
+      <c r="AD7">
+        <v>126</v>
+      </c>
+      <c r="AE7">
+        <v>110</v>
+      </c>
+      <c r="AF7">
+        <v>136</v>
+      </c>
+      <c r="AG7">
+        <v>107</v>
+      </c>
+      <c r="AH7">
+        <v>118</v>
+      </c>
+      <c r="AI7">
+        <v>119</v>
+      </c>
+      <c r="AJ7">
+        <v>91</v>
+      </c>
+      <c r="AK7">
+        <v>187</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>501751</v>
+      </c>
+      <c r="AN7">
+        <v>667604</v>
+      </c>
+      <c r="AO7">
+        <v>772902</v>
+      </c>
+      <c r="AP7">
+        <v>759085</v>
+      </c>
+      <c r="AQ7">
+        <v>929381</v>
+      </c>
+      <c r="AR7">
+        <v>1024945</v>
+      </c>
+      <c r="AS7">
+        <v>1032683</v>
+      </c>
+      <c r="AT7">
+        <v>1017239</v>
+      </c>
+      <c r="AU7">
+        <v>906822</v>
+      </c>
+      <c r="AV7">
+        <v>805813</v>
+      </c>
+      <c r="AW7">
+        <v>745511</v>
+      </c>
+      <c r="AX7">
+        <v>620543</v>
+      </c>
+      <c r="AY7">
+        <v>541551</v>
+      </c>
+      <c r="AZ7">
+        <v>405904</v>
+      </c>
+      <c r="BA7">
+        <v>323477</v>
+      </c>
+      <c r="BB7">
+        <v>238781</v>
+      </c>
+      <c r="BC7">
+        <v>159868</v>
+      </c>
+      <c r="BD7">
+        <v>206920</v>
+      </c>
+      <c r="BE7">
+        <v>18168</v>
+      </c>
+      <c r="BF7">
+        <v>45</v>
+      </c>
+      <c r="BG7">
+        <v>47</v>
+      </c>
+      <c r="BH7">
+        <v>-2</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>10</v>
+      </c>
+      <c r="BL7">
+        <v>19</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>42</v>
+      </c>
+      <c r="BQ7">
+        <v>30</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>26</v>
+      </c>
+      <c r="BV7">
+        <v>29</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>28</v>
+      </c>
+      <c r="CA7">
+        <v>54</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>35</v>
+      </c>
+      <c r="CF7">
+        <v>59</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>42</v>
+      </c>
+      <c r="CK7">
+        <v>71</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>43</v>
+      </c>
+      <c r="CP7">
+        <v>72</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>35</v>
+      </c>
+      <c r="CU7">
+        <v>69</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>-1</v>
+      </c>
+      <c r="CY7">
+        <v>43</v>
+      </c>
+      <c r="CZ7">
+        <v>79</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>53</v>
+      </c>
+      <c r="DE7">
+        <v>73</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>44</v>
+      </c>
+      <c r="DJ7">
+        <v>66</v>
+      </c>
+      <c r="DK7">
+        <v>0</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>62</v>
+      </c>
+      <c r="DO7">
+        <v>74</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7">
+        <v>0</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>51</v>
+      </c>
+      <c r="DT7">
+        <v>56</v>
+      </c>
+      <c r="DU7">
+        <v>0</v>
+      </c>
+      <c r="DV7">
+        <v>0</v>
+      </c>
+      <c r="DW7">
+        <v>0</v>
+      </c>
+      <c r="DX7">
+        <v>62</v>
+      </c>
+      <c r="DY7">
+        <v>56</v>
+      </c>
+      <c r="DZ7">
+        <v>0</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7">
+        <v>0</v>
+      </c>
+      <c r="EC7">
+        <v>57</v>
+      </c>
+      <c r="ED7">
+        <v>62</v>
+      </c>
+      <c r="EE7">
+        <v>0</v>
+      </c>
+      <c r="EF7">
+        <v>0</v>
+      </c>
+      <c r="EG7">
+        <v>0</v>
+      </c>
+      <c r="EH7">
+        <v>50</v>
+      </c>
+      <c r="EI7">
+        <v>42</v>
+      </c>
+      <c r="EJ7">
+        <v>0</v>
+      </c>
+      <c r="EK7">
+        <v>-1</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="EM7">
+        <v>62</v>
+      </c>
+      <c r="EN7">
+        <v>124</v>
+      </c>
+      <c r="EO7">
+        <v>0</v>
+      </c>
+      <c r="EP7">
+        <v>0</v>
+      </c>
+      <c r="EQ7">
+        <v>1</v>
+      </c>
+      <c r="ER7">
+        <v>1</v>
+      </c>
+      <c r="ES7">
+        <v>1</v>
+      </c>
+      <c r="ET7">
+        <v>0</v>
+      </c>
+      <c r="EU7">
+        <v>0</v>
+      </c>
+      <c r="EV7">
+        <v>0</v>
+      </c>
+      <c r="EW7">
+        <v>230948</v>
+      </c>
+      <c r="EX7">
+        <v>219298</v>
+      </c>
+      <c r="EY7">
+        <v>407</v>
+      </c>
+      <c r="EZ7">
+        <v>15451</v>
+      </c>
+      <c r="FA7">
+        <v>35647</v>
+      </c>
+      <c r="FB7">
+        <v>307847</v>
+      </c>
+      <c r="FC7">
+        <v>292484</v>
+      </c>
+      <c r="FD7">
+        <v>466</v>
+      </c>
+      <c r="FE7">
+        <v>16773</v>
+      </c>
+      <c r="FF7">
+        <v>50034</v>
+      </c>
+      <c r="FG7">
+        <v>352919</v>
+      </c>
+      <c r="FH7">
+        <v>342311</v>
+      </c>
+      <c r="FI7">
+        <v>633</v>
+      </c>
+      <c r="FJ7">
+        <v>16956</v>
+      </c>
+      <c r="FK7">
+        <v>60083</v>
+      </c>
+      <c r="FL7">
+        <v>325987</v>
+      </c>
+      <c r="FM7">
+        <v>373445</v>
+      </c>
+      <c r="FN7">
+        <v>894</v>
+      </c>
+      <c r="FO7">
+        <v>12939</v>
+      </c>
+      <c r="FP7">
+        <v>45820</v>
+      </c>
+      <c r="FQ7">
+        <v>391689</v>
+      </c>
+      <c r="FR7">
+        <v>478899</v>
+      </c>
+      <c r="FS7">
+        <v>1100</v>
+      </c>
+      <c r="FT7">
+        <v>16280</v>
+      </c>
+      <c r="FU7">
+        <v>41413</v>
+      </c>
+      <c r="FV7">
+        <v>433377</v>
+      </c>
+      <c r="FW7">
+        <v>525137</v>
+      </c>
+      <c r="FX7">
+        <v>1134</v>
+      </c>
+      <c r="FY7">
+        <v>17786</v>
+      </c>
+      <c r="FZ7">
+        <v>47511</v>
+      </c>
+      <c r="GA7">
+        <v>428626</v>
+      </c>
+      <c r="GB7">
+        <v>531149</v>
+      </c>
+      <c r="GC7">
+        <v>922</v>
+      </c>
+      <c r="GD7">
+        <v>17168</v>
+      </c>
+      <c r="GE7">
+        <v>54818</v>
+      </c>
+      <c r="GF7">
+        <v>419159</v>
+      </c>
+      <c r="GG7">
+        <v>523558</v>
+      </c>
+      <c r="GH7">
+        <v>665</v>
+      </c>
+      <c r="GI7">
+        <v>15033</v>
+      </c>
+      <c r="GJ7">
+        <v>58824</v>
+      </c>
+      <c r="GK7">
+        <v>372931</v>
+      </c>
+      <c r="GL7">
+        <v>467879</v>
+      </c>
+      <c r="GM7">
+        <v>498</v>
+      </c>
+      <c r="GN7">
+        <v>12351</v>
+      </c>
+      <c r="GO7">
+        <v>53163</v>
+      </c>
+      <c r="GP7">
+        <v>329774</v>
+      </c>
+      <c r="GQ7">
+        <v>420146</v>
+      </c>
+      <c r="GR7">
+        <v>439</v>
+      </c>
+      <c r="GS7">
+        <v>10135</v>
+      </c>
+      <c r="GT7">
+        <v>45319</v>
+      </c>
+      <c r="GU7">
+        <v>307527</v>
+      </c>
+      <c r="GV7">
+        <v>388368</v>
+      </c>
+      <c r="GW7">
+        <v>399</v>
+      </c>
+      <c r="GX7">
+        <v>8957</v>
+      </c>
+      <c r="GY7">
+        <v>40260</v>
+      </c>
+      <c r="GZ7">
+        <v>262966</v>
+      </c>
+      <c r="HA7">
+        <v>318890</v>
+      </c>
+      <c r="HB7">
+        <v>329</v>
+      </c>
+      <c r="HC7">
+        <v>6610</v>
+      </c>
+      <c r="HD7">
+        <v>31748</v>
+      </c>
+      <c r="HE7">
+        <v>233776</v>
+      </c>
+      <c r="HF7">
+        <v>276258</v>
+      </c>
+      <c r="HG7">
+        <v>234</v>
+      </c>
+      <c r="HH7">
+        <v>5323</v>
+      </c>
+      <c r="HI7">
+        <v>25960</v>
+      </c>
+      <c r="HJ7">
+        <v>180112</v>
+      </c>
+      <c r="HK7">
+        <v>203392</v>
+      </c>
+      <c r="HL7">
+        <v>199</v>
+      </c>
+      <c r="HM7">
+        <v>3681</v>
+      </c>
+      <c r="HN7">
+        <v>18520</v>
+      </c>
+      <c r="HO7">
+        <v>150830</v>
+      </c>
+      <c r="HP7">
+        <v>157442</v>
+      </c>
+      <c r="HQ7">
+        <v>162</v>
+      </c>
+      <c r="HR7">
+        <v>2692</v>
+      </c>
+      <c r="HS7">
+        <v>12351</v>
+      </c>
+      <c r="HT7">
+        <v>115053</v>
+      </c>
+      <c r="HU7">
+        <v>113856</v>
+      </c>
+      <c r="HV7">
+        <v>164</v>
+      </c>
+      <c r="HW7">
+        <v>1898</v>
+      </c>
+      <c r="HX7">
+        <v>7810</v>
+      </c>
+      <c r="HY7">
+        <v>75089</v>
+      </c>
+      <c r="HZ7">
+        <v>78837</v>
+      </c>
+      <c r="IA7">
+        <v>131</v>
+      </c>
+      <c r="IB7">
+        <v>1279</v>
+      </c>
+      <c r="IC7">
+        <v>4532</v>
+      </c>
+      <c r="ID7">
+        <v>80098</v>
+      </c>
+      <c r="IE7">
+        <v>120407</v>
+      </c>
+      <c r="IF7">
+        <v>303</v>
+      </c>
+      <c r="IG7">
+        <v>2268</v>
+      </c>
+      <c r="IH7">
+        <v>3844</v>
+      </c>
+      <c r="II7">
+        <v>2149</v>
+      </c>
+      <c r="IJ7">
+        <v>2307</v>
+      </c>
+      <c r="IK7">
+        <v>22</v>
+      </c>
+      <c r="IL7">
+        <v>201</v>
+      </c>
+      <c r="IM7">
+        <v>13489</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +7291,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E36B237-192B-43E1-BDD4-2460A91BB66C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4213,7 +7306,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45244</v>
+        <v>45245</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4221,47 +7314,106 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{6534327E-F6CC-42BA-AABD-8B17BD184F05}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{6534327E-F6CC-42BA-AABD-8B17BD184F05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F36420-1A83-48E1-957E-E9FB542DFA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD97CA-A51C-4687-8EB7-3109FDD86F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Information" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1862,13 +1863,13 @@
         <v>791</v>
       </c>
       <c r="T3">
-        <v>22517</v>
+        <v>22516</v>
       </c>
       <c r="U3">
         <v>32427</v>
       </c>
       <c r="V3">
-        <v>30556</v>
+        <v>30557</v>
       </c>
       <c r="W3">
         <v>43745</v>
@@ -1883,10 +1884,10 @@
         <v>55515</v>
       </c>
       <c r="AA3">
-        <v>42725</v>
+        <v>42724</v>
       </c>
       <c r="AB3">
-        <v>33827</v>
+        <v>33828</v>
       </c>
       <c r="AC3">
         <v>30114</v>
@@ -1919,13 +1920,13 @@
         <v>350</v>
       </c>
       <c r="AM3">
-        <v>23264</v>
+        <v>23263</v>
       </c>
       <c r="AN3">
         <v>33198</v>
       </c>
       <c r="AO3">
-        <v>31509</v>
+        <v>31510</v>
       </c>
       <c r="AP3">
         <v>45254</v>
@@ -1940,10 +1941,10 @@
         <v>58378</v>
       </c>
       <c r="AT3">
-        <v>44990</v>
+        <v>44989</v>
       </c>
       <c r="AU3">
-        <v>35616</v>
+        <v>35617</v>
       </c>
       <c r="AV3">
         <v>32079</v>
@@ -1981,7 +1982,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317621</v>
+        <v>10317626</v>
       </c>
       <c r="C4">
         <v>3368114</v>
@@ -1993,10 +1994,10 @@
         <v>1586964</v>
       </c>
       <c r="F4">
-        <v>1288498</v>
+        <v>1288499</v>
       </c>
       <c r="G4">
-        <v>848064</v>
+        <v>848068</v>
       </c>
       <c r="H4">
         <v>279667</v>
@@ -2008,7 +2009,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885689</v>
+        <v>10885694</v>
       </c>
       <c r="L4">
         <v>3653398</v>
@@ -2020,10 +2021,10 @@
         <v>1619875</v>
       </c>
       <c r="O4">
-        <v>1289864</v>
+        <v>1289865</v>
       </c>
       <c r="P4">
-        <v>867225</v>
+        <v>867229</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,115 +2036,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450881</v>
+        <v>450874</v>
       </c>
       <c r="U4">
-        <v>611168</v>
+        <v>611170</v>
       </c>
       <c r="V4">
-        <v>710030</v>
+        <v>710035</v>
       </c>
       <c r="W4">
-        <v>683422</v>
+        <v>683420</v>
       </c>
       <c r="X4">
-        <v>812078</v>
+        <v>812076</v>
       </c>
       <c r="Y4">
-        <v>899954</v>
+        <v>899955</v>
       </c>
       <c r="Z4">
-        <v>916970</v>
+        <v>916968</v>
       </c>
       <c r="AA4">
-        <v>908871</v>
+        <v>908874</v>
       </c>
       <c r="AB4">
-        <v>810292</v>
+        <v>810295</v>
       </c>
       <c r="AC4">
-        <v>717663</v>
+        <v>717658</v>
       </c>
       <c r="AD4">
-        <v>658689</v>
+        <v>658698</v>
       </c>
       <c r="AE4">
-        <v>544175</v>
+        <v>544174</v>
       </c>
       <c r="AF4">
-        <v>471611</v>
+        <v>471609</v>
       </c>
       <c r="AG4">
-        <v>349116</v>
+        <v>349117</v>
       </c>
       <c r="AH4">
-        <v>274359</v>
+        <v>274361</v>
       </c>
       <c r="AI4">
         <v>197801</v>
       </c>
       <c r="AJ4">
-        <v>127910</v>
+        <v>127909</v>
       </c>
       <c r="AK4">
-        <v>155420</v>
+        <v>155421</v>
       </c>
       <c r="AL4">
         <v>17211</v>
       </c>
       <c r="AM4">
-        <v>474145</v>
+        <v>474137</v>
       </c>
       <c r="AN4">
-        <v>644366</v>
+        <v>644368</v>
       </c>
       <c r="AO4">
-        <v>741539</v>
+        <v>741545</v>
       </c>
       <c r="AP4">
-        <v>728676</v>
+        <v>728674</v>
       </c>
       <c r="AQ4">
-        <v>890306</v>
+        <v>890304</v>
       </c>
       <c r="AR4">
-        <v>974395</v>
+        <v>974396</v>
       </c>
       <c r="AS4">
-        <v>975348</v>
+        <v>975346</v>
       </c>
       <c r="AT4">
-        <v>953861</v>
+        <v>953863</v>
       </c>
       <c r="AU4">
-        <v>845908</v>
+        <v>845912</v>
       </c>
       <c r="AV4">
-        <v>749742</v>
+        <v>749737</v>
       </c>
       <c r="AW4">
-        <v>688379</v>
+        <v>688388</v>
       </c>
       <c r="AX4">
-        <v>568182</v>
+        <v>568181</v>
       </c>
       <c r="AY4">
-        <v>490150</v>
+        <v>490148</v>
       </c>
       <c r="AZ4">
-        <v>362089</v>
+        <v>362090</v>
       </c>
       <c r="BA4">
-        <v>283670</v>
+        <v>283672</v>
       </c>
       <c r="BB4">
         <v>204275</v>
       </c>
       <c r="BC4">
-        <v>132294</v>
+        <v>132293</v>
       </c>
       <c r="BD4">
-        <v>160780</v>
+        <v>160781</v>
       </c>
       <c r="BE4">
         <v>17584</v>
@@ -2154,172 +2155,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>793259</v>
+        <v>795761</v>
       </c>
       <c r="C5">
-        <v>289333</v>
+        <v>289827</v>
       </c>
       <c r="D5">
-        <v>149385</v>
+        <v>149673</v>
       </c>
       <c r="E5">
-        <v>125868</v>
+        <v>126398</v>
       </c>
       <c r="F5">
-        <v>91141</v>
+        <v>91676</v>
       </c>
       <c r="G5">
-        <v>82867</v>
+        <v>83235</v>
       </c>
       <c r="H5">
-        <v>27512</v>
+        <v>27662</v>
       </c>
       <c r="I5">
-        <v>21160</v>
+        <v>21277</v>
       </c>
       <c r="J5">
-        <v>5993</v>
+        <v>6013</v>
       </c>
       <c r="K5">
-        <v>11678948</v>
+        <v>11681455</v>
       </c>
       <c r="L5">
-        <v>3942731</v>
+        <v>3943225</v>
       </c>
       <c r="M5">
-        <v>2990865</v>
+        <v>2991153</v>
       </c>
       <c r="N5">
-        <v>1745743</v>
+        <v>1746273</v>
       </c>
       <c r="O5">
-        <v>1381005</v>
+        <v>1381541</v>
       </c>
       <c r="P5">
-        <v>950092</v>
+        <v>950464</v>
       </c>
       <c r="Q5">
-        <v>309055</v>
+        <v>309205</v>
       </c>
       <c r="R5">
-        <v>249497</v>
+        <v>249614</v>
       </c>
       <c r="S5">
-        <v>109960</v>
+        <v>109980</v>
       </c>
       <c r="T5">
-        <v>27606</v>
+        <v>27770</v>
       </c>
       <c r="U5">
-        <v>23238</v>
+        <v>23278</v>
       </c>
       <c r="V5">
-        <v>31363</v>
+        <v>31439</v>
       </c>
       <c r="W5">
-        <v>30409</v>
+        <v>30473</v>
       </c>
       <c r="X5">
-        <v>39075</v>
+        <v>39178</v>
       </c>
       <c r="Y5">
-        <v>50550</v>
+        <v>50661</v>
       </c>
       <c r="Z5">
-        <v>57335</v>
+        <v>57480</v>
       </c>
       <c r="AA5">
-        <v>63378</v>
+        <v>63547</v>
       </c>
       <c r="AB5">
-        <v>60914</v>
+        <v>61073</v>
       </c>
       <c r="AC5">
-        <v>56071</v>
+        <v>56220</v>
       </c>
       <c r="AD5">
-        <v>57132</v>
+        <v>57265</v>
       </c>
       <c r="AE5">
-        <v>52361</v>
+        <v>52500</v>
       </c>
       <c r="AF5">
-        <v>51401</v>
+        <v>51542</v>
       </c>
       <c r="AG5">
-        <v>43815</v>
+        <v>43974</v>
       </c>
       <c r="AH5">
-        <v>39807</v>
+        <v>39978</v>
       </c>
       <c r="AI5">
-        <v>34506</v>
+        <v>34640</v>
       </c>
       <c r="AJ5">
-        <v>27574</v>
+        <v>27729</v>
       </c>
       <c r="AK5">
-        <v>46140</v>
+        <v>46429</v>
       </c>
       <c r="AL5">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AM5">
-        <v>501751</v>
+        <v>501907</v>
       </c>
       <c r="AN5">
-        <v>667604</v>
+        <v>667646</v>
       </c>
       <c r="AO5">
-        <v>772902</v>
+        <v>772984</v>
       </c>
       <c r="AP5">
-        <v>759085</v>
+        <v>759147</v>
       </c>
       <c r="AQ5">
-        <v>929381</v>
+        <v>929482</v>
       </c>
       <c r="AR5">
-        <v>1024945</v>
+        <v>1025057</v>
       </c>
       <c r="AS5">
-        <v>1032683</v>
+        <v>1032826</v>
       </c>
       <c r="AT5">
-        <v>1017239</v>
+        <v>1017410</v>
       </c>
       <c r="AU5">
-        <v>906822</v>
+        <v>906985</v>
       </c>
       <c r="AV5">
-        <v>805813</v>
+        <v>805957</v>
       </c>
       <c r="AW5">
-        <v>745511</v>
+        <v>745653</v>
       </c>
       <c r="AX5">
-        <v>620543</v>
+        <v>620681</v>
       </c>
       <c r="AY5">
-        <v>541551</v>
+        <v>541690</v>
       </c>
       <c r="AZ5">
-        <v>405904</v>
+        <v>406064</v>
       </c>
       <c r="BA5">
-        <v>323477</v>
+        <v>323650</v>
       </c>
       <c r="BB5">
-        <v>238781</v>
+        <v>238915</v>
       </c>
       <c r="BC5">
-        <v>159868</v>
+        <v>160022</v>
       </c>
       <c r="BD5">
-        <v>206920</v>
+        <v>207210</v>
       </c>
       <c r="BE5">
-        <v>18168</v>
+        <v>18169</v>
       </c>
     </row>
   </sheetData>
@@ -3937,7 +3938,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366754</v>
+        <v>1366756</v>
       </c>
       <c r="C28" s="3">
         <v>536608</v>
@@ -3952,7 +3953,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120469</v>
+        <v>120471</v>
       </c>
       <c r="H28" s="3">
         <v>46426</v>
@@ -3964,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431878</v>
+        <v>4431880</v>
       </c>
       <c r="L28" s="3">
         <v>1689286</v>
@@ -3979,7 +3980,7 @@
         <v>193320</v>
       </c>
       <c r="P28" s="3">
-        <v>274023</v>
+        <v>274025</v>
       </c>
       <c r="Q28" s="3">
         <v>93870</v>
@@ -3996,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339796</v>
+        <v>1339798</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4012,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139736</v>
+        <v>139738</v>
       </c>
       <c r="H29" s="3">
         <v>44024</v>
@@ -4023,7 +4024,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771674</v>
+        <v>5771678</v>
       </c>
       <c r="L29" s="3">
         <v>2121666</v>
@@ -4038,7 +4039,7 @@
         <v>400163</v>
       </c>
       <c r="P29" s="3">
-        <v>413759</v>
+        <v>413763</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4083,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082025</v>
+        <v>7082029</v>
       </c>
       <c r="L30" s="3">
         <v>2418934</v>
@@ -4097,7 +4098,7 @@
         <v>754251</v>
       </c>
       <c r="P30" s="3">
-        <v>521884</v>
+        <v>521888</v>
       </c>
       <c r="Q30" s="3">
         <v>166163</v>
@@ -4141,7 +4142,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966310</v>
+        <v>7966314</v>
       </c>
       <c r="L31" s="3">
         <v>2652835</v>
@@ -4156,7 +4157,7 @@
         <v>936890</v>
       </c>
       <c r="P31" s="3">
-        <v>599188</v>
+        <v>599192</v>
       </c>
       <c r="Q31" s="3">
         <v>190881</v>
@@ -4200,7 +4201,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216661</v>
+        <v>9216665</v>
       </c>
       <c r="L32" s="3">
         <v>3031442</v>
@@ -4215,7 +4216,7 @@
         <v>1095154</v>
       </c>
       <c r="P32" s="3">
-        <v>716588</v>
+        <v>716592</v>
       </c>
       <c r="Q32" s="3">
         <v>233156</v>
@@ -4259,7 +4260,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771520</v>
+        <v>9771524</v>
       </c>
       <c r="L33" s="3">
         <v>3261491</v>
@@ -4274,7 +4275,7 @@
         <v>1154225</v>
       </c>
       <c r="P33" s="3">
-        <v>757098</v>
+        <v>757102</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4319,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965776</v>
+        <v>9965780</v>
       </c>
       <c r="L34" s="3">
         <v>3330343</v>
@@ -4333,7 +4334,7 @@
         <v>1178497</v>
       </c>
       <c r="P34" s="3">
-        <v>772383</v>
+        <v>772387</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4350,7 +4351,7 @@
         <v>44835</v>
       </c>
       <c r="B35" s="3">
-        <v>142104</v>
+        <v>142105</v>
       </c>
       <c r="C35" s="3">
         <v>44499</v>
@@ -4362,7 +4363,7 @@
         <v>16737</v>
       </c>
       <c r="F35" s="3">
-        <v>23425</v>
+        <v>23426</v>
       </c>
       <c r="G35" s="3">
         <v>13175</v>
@@ -4377,7 +4378,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107880</v>
+        <v>10107885</v>
       </c>
       <c r="L35" s="3">
         <v>3374842</v>
@@ -4389,10 +4390,10 @@
         <v>1529148</v>
       </c>
       <c r="O35" s="3">
-        <v>1201922</v>
+        <v>1201923</v>
       </c>
       <c r="P35" s="3">
-        <v>785558</v>
+        <v>785562</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4437,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459823</v>
+        <v>10459828</v>
       </c>
       <c r="L36" s="3">
         <v>3496935</v>
@@ -4448,10 +4449,10 @@
         <v>1565594</v>
       </c>
       <c r="O36" s="3">
-        <v>1244553</v>
+        <v>1244554</v>
       </c>
       <c r="P36" s="3">
-        <v>822720</v>
+        <v>822724</v>
       </c>
       <c r="Q36" s="3">
         <v>265273</v>
@@ -4495,7 +4496,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885689</v>
+        <v>10885694</v>
       </c>
       <c r="L37" s="3">
         <v>3653398</v>
@@ -4507,10 +4508,10 @@
         <v>1619875</v>
       </c>
       <c r="O37" s="3">
-        <v>1289864</v>
+        <v>1289865</v>
       </c>
       <c r="P37" s="3">
-        <v>867225</v>
+        <v>867229</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4555,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015767</v>
+        <v>11015772</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4566,10 +4567,10 @@
         <v>1643988</v>
       </c>
       <c r="O38" s="3">
-        <v>1306720</v>
+        <v>1306721</v>
       </c>
       <c r="P38" s="3">
-        <v>879115</v>
+        <v>879119</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4614,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087756</v>
+        <v>11087761</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4625,10 +4626,10 @@
         <v>1658288</v>
       </c>
       <c r="O39" s="3">
-        <v>1315592</v>
+        <v>1315593</v>
       </c>
       <c r="P39" s="3">
-        <v>885968</v>
+        <v>885972</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4673,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191735</v>
+        <v>11191740</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4684,10 +4685,10 @@
         <v>1673743</v>
       </c>
       <c r="O40" s="3">
-        <v>1328554</v>
+        <v>1328555</v>
       </c>
       <c r="P40" s="3">
-        <v>897468</v>
+        <v>897472</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4732,7 @@
         <v>826</v>
       </c>
       <c r="K41" s="3">
-        <v>11314900</v>
+        <v>11314905</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4743,10 +4744,10 @@
         <v>1689653</v>
       </c>
       <c r="O41" s="3">
-        <v>1342941</v>
+        <v>1342942</v>
       </c>
       <c r="P41" s="3">
-        <v>909797</v>
+        <v>909801</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4791,7 @@
         <v>934</v>
       </c>
       <c r="K42" s="3">
-        <v>11481153</v>
+        <v>11481158</v>
       </c>
       <c r="L42" s="3">
         <v>3872847</v>
@@ -4802,10 +4803,10 @@
         <v>1711963</v>
       </c>
       <c r="O42" s="3">
-        <v>1361029</v>
+        <v>1361030</v>
       </c>
       <c r="P42" s="3">
-        <v>924710</v>
+        <v>924714</v>
       </c>
       <c r="Q42" s="3">
         <v>299397</v>
@@ -4849,7 +4850,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11558960</v>
+        <v>11558965</v>
       </c>
       <c r="L43" s="3">
         <v>3901029</v>
@@ -4861,10 +4862,10 @@
         <v>1726214</v>
       </c>
       <c r="O43" s="3">
-        <v>1369447</v>
+        <v>1369448</v>
       </c>
       <c r="P43" s="3">
-        <v>931924</v>
+        <v>931928</v>
       </c>
       <c r="Q43" s="3">
         <v>301983</v>
@@ -4881,10 +4882,10 @@
         <v>45108</v>
       </c>
       <c r="B44" s="3">
-        <v>28220</v>
+        <v>28222</v>
       </c>
       <c r="C44" s="3">
-        <v>10283</v>
+        <v>10285</v>
       </c>
       <c r="D44" s="3">
         <v>2078</v>
@@ -4908,10 +4909,10 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587180</v>
+        <v>11587187</v>
       </c>
       <c r="L44" s="3">
-        <v>3911312</v>
+        <v>3911314</v>
       </c>
       <c r="M44" s="3">
         <v>2977242</v>
@@ -4920,10 +4921,10 @@
         <v>1733162</v>
       </c>
       <c r="O44" s="3">
-        <v>1373099</v>
+        <v>1373100</v>
       </c>
       <c r="P44" s="3">
-        <v>934853</v>
+        <v>934857</v>
       </c>
       <c r="Q44" s="3">
         <v>303256</v>
@@ -4967,10 +4968,10 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610625</v>
+        <v>11610632</v>
       </c>
       <c r="L45" s="3">
-        <v>3920446</v>
+        <v>3920448</v>
       </c>
       <c r="M45" s="3">
         <v>2979384</v>
@@ -4979,10 +4980,10 @@
         <v>1737700</v>
       </c>
       <c r="O45" s="3">
-        <v>1376097</v>
+        <v>1376098</v>
       </c>
       <c r="P45" s="3">
-        <v>937302</v>
+        <v>937306</v>
       </c>
       <c r="Q45" s="3">
         <v>304420</v>
@@ -4999,13 +5000,13 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22128</v>
+        <v>22129</v>
       </c>
       <c r="C46" s="3">
         <v>8963</v>
       </c>
       <c r="D46" s="3">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="E46" s="3">
         <v>2023</v>
@@ -5026,22 +5027,22 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632753</v>
+        <v>11632761</v>
       </c>
       <c r="L46" s="3">
-        <v>3929409</v>
+        <v>3929411</v>
       </c>
       <c r="M46" s="3">
-        <v>2982647</v>
+        <v>2982648</v>
       </c>
       <c r="N46" s="3">
         <v>1739723</v>
       </c>
       <c r="O46" s="3">
-        <v>1378654</v>
+        <v>1378655</v>
       </c>
       <c r="P46" s="3">
-        <v>940335</v>
+        <v>940339</v>
       </c>
       <c r="Q46" s="3">
         <v>305623</v>
@@ -5058,7 +5059,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27887</v>
+        <v>27894</v>
       </c>
       <c r="C47" s="3">
         <v>7712</v>
@@ -5070,46 +5071,46 @@
         <v>3673</v>
       </c>
       <c r="F47" s="3">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="G47" s="3">
         <v>5076</v>
       </c>
       <c r="H47" s="3">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="I47" s="3">
         <v>1488</v>
       </c>
       <c r="J47" s="3">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660640</v>
+        <v>11660655</v>
       </c>
       <c r="L47" s="3">
-        <v>3937121</v>
+        <v>3937123</v>
       </c>
       <c r="M47" s="3">
-        <v>2988285</v>
+        <v>2988286</v>
       </c>
       <c r="N47" s="3">
         <v>1743396</v>
       </c>
       <c r="O47" s="3">
-        <v>1380638</v>
+        <v>1380647</v>
       </c>
       <c r="P47" s="3">
-        <v>945411</v>
+        <v>945415</v>
       </c>
       <c r="Q47" s="3">
-        <v>307525</v>
+        <v>307523</v>
       </c>
       <c r="R47" s="3">
         <v>248551</v>
       </c>
       <c r="S47" s="3">
-        <v>109713</v>
+        <v>109714</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -5117,58 +5118,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>18308</v>
+        <v>20800</v>
       </c>
       <c r="C48" s="3">
-        <v>5610</v>
+        <v>6102</v>
       </c>
       <c r="D48" s="3">
-        <v>2580</v>
+        <v>2867</v>
       </c>
       <c r="E48" s="3">
-        <v>2347</v>
+        <v>2877</v>
       </c>
       <c r="F48" s="3">
-        <v>367</v>
+        <v>894</v>
       </c>
       <c r="G48" s="3">
-        <v>4681</v>
+        <v>5049</v>
       </c>
       <c r="H48" s="3">
-        <v>1530</v>
+        <v>1682</v>
       </c>
       <c r="I48" s="3">
-        <v>946</v>
+        <v>1063</v>
       </c>
       <c r="J48" s="3">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="K48" s="3">
-        <v>11678948</v>
+        <v>11681455</v>
       </c>
       <c r="L48" s="3">
-        <v>3942731</v>
+        <v>3943225</v>
       </c>
       <c r="M48" s="3">
-        <v>2990865</v>
+        <v>2991153</v>
       </c>
       <c r="N48" s="3">
-        <v>1745743</v>
+        <v>1746273</v>
       </c>
       <c r="O48" s="3">
-        <v>1381005</v>
+        <v>1381541</v>
       </c>
       <c r="P48" s="3">
-        <v>950092</v>
+        <v>950464</v>
       </c>
       <c r="Q48" s="3">
-        <v>309055</v>
+        <v>309205</v>
       </c>
       <c r="R48" s="3">
-        <v>249497</v>
+        <v>249614</v>
       </c>
       <c r="S48" s="3">
-        <v>109960</v>
+        <v>109980</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM7"/>
+  <dimension ref="A1:IM8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7281,6 +7282,749 @@
         <v>201</v>
       </c>
       <c r="IM7">
+        <v>13489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B8">
+        <v>2507</v>
+      </c>
+      <c r="C8">
+        <v>494</v>
+      </c>
+      <c r="D8">
+        <v>288</v>
+      </c>
+      <c r="E8">
+        <v>530</v>
+      </c>
+      <c r="F8">
+        <v>536</v>
+      </c>
+      <c r="G8">
+        <v>372</v>
+      </c>
+      <c r="H8">
+        <v>150</v>
+      </c>
+      <c r="I8">
+        <v>117</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>11681455</v>
+      </c>
+      <c r="L8">
+        <v>3943225</v>
+      </c>
+      <c r="M8">
+        <v>2991153</v>
+      </c>
+      <c r="N8">
+        <v>1746273</v>
+      </c>
+      <c r="O8">
+        <v>1381541</v>
+      </c>
+      <c r="P8">
+        <v>950464</v>
+      </c>
+      <c r="Q8">
+        <v>309205</v>
+      </c>
+      <c r="R8">
+        <v>249614</v>
+      </c>
+      <c r="S8">
+        <v>109980</v>
+      </c>
+      <c r="T8">
+        <v>156</v>
+      </c>
+      <c r="U8">
+        <v>42</v>
+      </c>
+      <c r="V8">
+        <v>82</v>
+      </c>
+      <c r="W8">
+        <v>62</v>
+      </c>
+      <c r="X8">
+        <v>101</v>
+      </c>
+      <c r="Y8">
+        <v>112</v>
+      </c>
+      <c r="Z8">
+        <v>143</v>
+      </c>
+      <c r="AA8">
+        <v>171</v>
+      </c>
+      <c r="AB8">
+        <v>163</v>
+      </c>
+      <c r="AC8">
+        <v>144</v>
+      </c>
+      <c r="AD8">
+        <v>142</v>
+      </c>
+      <c r="AE8">
+        <v>138</v>
+      </c>
+      <c r="AF8">
+        <v>139</v>
+      </c>
+      <c r="AG8">
+        <v>160</v>
+      </c>
+      <c r="AH8">
+        <v>173</v>
+      </c>
+      <c r="AI8">
+        <v>134</v>
+      </c>
+      <c r="AJ8">
+        <v>154</v>
+      </c>
+      <c r="AK8">
+        <v>290</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>501907</v>
+      </c>
+      <c r="AN8">
+        <v>667646</v>
+      </c>
+      <c r="AO8">
+        <v>772984</v>
+      </c>
+      <c r="AP8">
+        <v>759147</v>
+      </c>
+      <c r="AQ8">
+        <v>929482</v>
+      </c>
+      <c r="AR8">
+        <v>1025057</v>
+      </c>
+      <c r="AS8">
+        <v>1032826</v>
+      </c>
+      <c r="AT8">
+        <v>1017410</v>
+      </c>
+      <c r="AU8">
+        <v>906985</v>
+      </c>
+      <c r="AV8">
+        <v>805957</v>
+      </c>
+      <c r="AW8">
+        <v>745653</v>
+      </c>
+      <c r="AX8">
+        <v>620681</v>
+      </c>
+      <c r="AY8">
+        <v>541690</v>
+      </c>
+      <c r="AZ8">
+        <v>406064</v>
+      </c>
+      <c r="BA8">
+        <v>323650</v>
+      </c>
+      <c r="BB8">
+        <v>238915</v>
+      </c>
+      <c r="BC8">
+        <v>160022</v>
+      </c>
+      <c r="BD8">
+        <v>207210</v>
+      </c>
+      <c r="BE8">
+        <v>18169</v>
+      </c>
+      <c r="BF8">
+        <v>76</v>
+      </c>
+      <c r="BG8">
+        <v>79</v>
+      </c>
+      <c r="BH8">
+        <v>2</v>
+      </c>
+      <c r="BI8">
+        <v>-1</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>19</v>
+      </c>
+      <c r="BL8">
+        <v>24</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>-1</v>
+      </c>
+      <c r="BP8">
+        <v>27</v>
+      </c>
+      <c r="BQ8">
+        <v>56</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>-1</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>21</v>
+      </c>
+      <c r="BV8">
+        <v>40</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>37</v>
+      </c>
+      <c r="CA8">
+        <v>64</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>36</v>
+      </c>
+      <c r="CF8">
+        <v>76</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>54</v>
+      </c>
+      <c r="CK8">
+        <v>90</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>-1</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>63</v>
+      </c>
+      <c r="CP8">
+        <v>108</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>65</v>
+      </c>
+      <c r="CU8">
+        <v>97</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CW8">
+        <v>1</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>60</v>
+      </c>
+      <c r="CZ8">
+        <v>82</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>2</v>
+      </c>
+      <c r="DD8">
+        <v>54</v>
+      </c>
+      <c r="DE8">
+        <v>88</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>51</v>
+      </c>
+      <c r="DJ8">
+        <v>87</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>66</v>
+      </c>
+      <c r="DO8">
+        <v>74</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>-1</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>68</v>
+      </c>
+      <c r="DT8">
+        <v>92</v>
+      </c>
+      <c r="DU8">
+        <v>0</v>
+      </c>
+      <c r="DV8">
+        <v>-1</v>
+      </c>
+      <c r="DW8">
+        <v>1</v>
+      </c>
+      <c r="DX8">
+        <v>76</v>
+      </c>
+      <c r="DY8">
+        <v>99</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>-2</v>
+      </c>
+      <c r="EB8">
+        <v>0</v>
+      </c>
+      <c r="EC8">
+        <v>63</v>
+      </c>
+      <c r="ED8">
+        <v>72</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>-1</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>81</v>
+      </c>
+      <c r="EI8">
+        <v>73</v>
+      </c>
+      <c r="EJ8">
+        <v>0</v>
+      </c>
+      <c r="EK8">
+        <v>0</v>
+      </c>
+      <c r="EL8">
+        <v>0</v>
+      </c>
+      <c r="EM8">
+        <v>111</v>
+      </c>
+      <c r="EN8">
+        <v>181</v>
+      </c>
+      <c r="EO8">
+        <v>0</v>
+      </c>
+      <c r="EP8">
+        <v>-1</v>
+      </c>
+      <c r="EQ8">
+        <v>-1</v>
+      </c>
+      <c r="ER8">
+        <v>1</v>
+      </c>
+      <c r="ES8">
+        <v>0</v>
+      </c>
+      <c r="ET8">
+        <v>0</v>
+      </c>
+      <c r="EU8">
+        <v>0</v>
+      </c>
+      <c r="EV8">
+        <v>0</v>
+      </c>
+      <c r="EW8">
+        <v>231024</v>
+      </c>
+      <c r="EX8">
+        <v>219377</v>
+      </c>
+      <c r="EY8">
+        <v>409</v>
+      </c>
+      <c r="EZ8">
+        <v>15450</v>
+      </c>
+      <c r="FA8">
+        <v>35647</v>
+      </c>
+      <c r="FB8">
+        <v>307866</v>
+      </c>
+      <c r="FC8">
+        <v>292508</v>
+      </c>
+      <c r="FD8">
+        <v>466</v>
+      </c>
+      <c r="FE8">
+        <v>16773</v>
+      </c>
+      <c r="FF8">
+        <v>50033</v>
+      </c>
+      <c r="FG8">
+        <v>352946</v>
+      </c>
+      <c r="FH8">
+        <v>342367</v>
+      </c>
+      <c r="FI8">
+        <v>633</v>
+      </c>
+      <c r="FJ8">
+        <v>16955</v>
+      </c>
+      <c r="FK8">
+        <v>60083</v>
+      </c>
+      <c r="FL8">
+        <v>326008</v>
+      </c>
+      <c r="FM8">
+        <v>373485</v>
+      </c>
+      <c r="FN8">
+        <v>894</v>
+      </c>
+      <c r="FO8">
+        <v>12940</v>
+      </c>
+      <c r="FP8">
+        <v>45820</v>
+      </c>
+      <c r="FQ8">
+        <v>391726</v>
+      </c>
+      <c r="FR8">
+        <v>478963</v>
+      </c>
+      <c r="FS8">
+        <v>1100</v>
+      </c>
+      <c r="FT8">
+        <v>16280</v>
+      </c>
+      <c r="FU8">
+        <v>41413</v>
+      </c>
+      <c r="FV8">
+        <v>433413</v>
+      </c>
+      <c r="FW8">
+        <v>525213</v>
+      </c>
+      <c r="FX8">
+        <v>1134</v>
+      </c>
+      <c r="FY8">
+        <v>17786</v>
+      </c>
+      <c r="FZ8">
+        <v>47511</v>
+      </c>
+      <c r="GA8">
+        <v>428680</v>
+      </c>
+      <c r="GB8">
+        <v>531239</v>
+      </c>
+      <c r="GC8">
+        <v>922</v>
+      </c>
+      <c r="GD8">
+        <v>17167</v>
+      </c>
+      <c r="GE8">
+        <v>54818</v>
+      </c>
+      <c r="GF8">
+        <v>419222</v>
+      </c>
+      <c r="GG8">
+        <v>523666</v>
+      </c>
+      <c r="GH8">
+        <v>665</v>
+      </c>
+      <c r="GI8">
+        <v>15033</v>
+      </c>
+      <c r="GJ8">
+        <v>58824</v>
+      </c>
+      <c r="GK8">
+        <v>372996</v>
+      </c>
+      <c r="GL8">
+        <v>467976</v>
+      </c>
+      <c r="GM8">
+        <v>498</v>
+      </c>
+      <c r="GN8">
+        <v>12352</v>
+      </c>
+      <c r="GO8">
+        <v>53163</v>
+      </c>
+      <c r="GP8">
+        <v>329834</v>
+      </c>
+      <c r="GQ8">
+        <v>420228</v>
+      </c>
+      <c r="GR8">
+        <v>439</v>
+      </c>
+      <c r="GS8">
+        <v>10135</v>
+      </c>
+      <c r="GT8">
+        <v>45321</v>
+      </c>
+      <c r="GU8">
+        <v>307581</v>
+      </c>
+      <c r="GV8">
+        <v>388456</v>
+      </c>
+      <c r="GW8">
+        <v>399</v>
+      </c>
+      <c r="GX8">
+        <v>8957</v>
+      </c>
+      <c r="GY8">
+        <v>40260</v>
+      </c>
+      <c r="GZ8">
+        <v>263017</v>
+      </c>
+      <c r="HA8">
+        <v>318977</v>
+      </c>
+      <c r="HB8">
+        <v>329</v>
+      </c>
+      <c r="HC8">
+        <v>6610</v>
+      </c>
+      <c r="HD8">
+        <v>31748</v>
+      </c>
+      <c r="HE8">
+        <v>233842</v>
+      </c>
+      <c r="HF8">
+        <v>276332</v>
+      </c>
+      <c r="HG8">
+        <v>234</v>
+      </c>
+      <c r="HH8">
+        <v>5322</v>
+      </c>
+      <c r="HI8">
+        <v>25960</v>
+      </c>
+      <c r="HJ8">
+        <v>180180</v>
+      </c>
+      <c r="HK8">
+        <v>203484</v>
+      </c>
+      <c r="HL8">
+        <v>199</v>
+      </c>
+      <c r="HM8">
+        <v>3680</v>
+      </c>
+      <c r="HN8">
+        <v>18521</v>
+      </c>
+      <c r="HO8">
+        <v>150906</v>
+      </c>
+      <c r="HP8">
+        <v>157541</v>
+      </c>
+      <c r="HQ8">
+        <v>162</v>
+      </c>
+      <c r="HR8">
+        <v>2690</v>
+      </c>
+      <c r="HS8">
+        <v>12351</v>
+      </c>
+      <c r="HT8">
+        <v>115116</v>
+      </c>
+      <c r="HU8">
+        <v>113928</v>
+      </c>
+      <c r="HV8">
+        <v>164</v>
+      </c>
+      <c r="HW8">
+        <v>1897</v>
+      </c>
+      <c r="HX8">
+        <v>7810</v>
+      </c>
+      <c r="HY8">
+        <v>75170</v>
+      </c>
+      <c r="HZ8">
+        <v>78910</v>
+      </c>
+      <c r="IA8">
+        <v>131</v>
+      </c>
+      <c r="IB8">
+        <v>1279</v>
+      </c>
+      <c r="IC8">
+        <v>4532</v>
+      </c>
+      <c r="ID8">
+        <v>80209</v>
+      </c>
+      <c r="IE8">
+        <v>120588</v>
+      </c>
+      <c r="IF8">
+        <v>303</v>
+      </c>
+      <c r="IG8">
+        <v>2267</v>
+      </c>
+      <c r="IH8">
+        <v>3843</v>
+      </c>
+      <c r="II8">
+        <v>2150</v>
+      </c>
+      <c r="IJ8">
+        <v>2307</v>
+      </c>
+      <c r="IK8">
+        <v>22</v>
+      </c>
+      <c r="IL8">
+        <v>201</v>
+      </c>
+      <c r="IM8">
         <v>13489</v>
       </c>
     </row>
@@ -7306,7 +8050,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45245</v>
+        <v>45246</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BD97CA-A51C-4687-8EB7-3109FDD86F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91300914-F140-4CC9-9BDC-9B09591DD04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1896,10 +1896,10 @@
         <v>27884</v>
       </c>
       <c r="AE3">
-        <v>22329</v>
+        <v>22328</v>
       </c>
       <c r="AF3">
-        <v>17078</v>
+        <v>17079</v>
       </c>
       <c r="AG3">
         <v>11941</v>
@@ -1953,10 +1953,10 @@
         <v>29690</v>
       </c>
       <c r="AX3">
-        <v>24007</v>
+        <v>24006</v>
       </c>
       <c r="AY3">
-        <v>18539</v>
+        <v>18540</v>
       </c>
       <c r="AZ3">
         <v>12973</v>
@@ -2039,49 +2039,49 @@
         <v>450874</v>
       </c>
       <c r="U4">
-        <v>611170</v>
+        <v>611169</v>
       </c>
       <c r="V4">
-        <v>710035</v>
+        <v>710036</v>
       </c>
       <c r="W4">
-        <v>683420</v>
+        <v>683419</v>
       </c>
       <c r="X4">
-        <v>812076</v>
+        <v>812075</v>
       </c>
       <c r="Y4">
         <v>899955</v>
       </c>
       <c r="Z4">
-        <v>916968</v>
+        <v>916965</v>
       </c>
       <c r="AA4">
         <v>908874</v>
       </c>
       <c r="AB4">
-        <v>810295</v>
+        <v>810294</v>
       </c>
       <c r="AC4">
-        <v>717658</v>
+        <v>717659</v>
       </c>
       <c r="AD4">
-        <v>658698</v>
+        <v>658699</v>
       </c>
       <c r="AE4">
-        <v>544174</v>
+        <v>544175</v>
       </c>
       <c r="AF4">
-        <v>471609</v>
+        <v>471610</v>
       </c>
       <c r="AG4">
-        <v>349117</v>
+        <v>349119</v>
       </c>
       <c r="AH4">
-        <v>274361</v>
+        <v>274360</v>
       </c>
       <c r="AI4">
-        <v>197801</v>
+        <v>197802</v>
       </c>
       <c r="AJ4">
         <v>127909</v>
@@ -2096,49 +2096,49 @@
         <v>474137</v>
       </c>
       <c r="AN4">
-        <v>644368</v>
+        <v>644367</v>
       </c>
       <c r="AO4">
-        <v>741545</v>
+        <v>741546</v>
       </c>
       <c r="AP4">
-        <v>728674</v>
+        <v>728673</v>
       </c>
       <c r="AQ4">
-        <v>890304</v>
+        <v>890303</v>
       </c>
       <c r="AR4">
         <v>974396</v>
       </c>
       <c r="AS4">
-        <v>975346</v>
+        <v>975343</v>
       </c>
       <c r="AT4">
         <v>953863</v>
       </c>
       <c r="AU4">
-        <v>845912</v>
+        <v>845911</v>
       </c>
       <c r="AV4">
-        <v>749737</v>
+        <v>749738</v>
       </c>
       <c r="AW4">
-        <v>688388</v>
+        <v>688389</v>
       </c>
       <c r="AX4">
         <v>568181</v>
       </c>
       <c r="AY4">
-        <v>490148</v>
+        <v>490150</v>
       </c>
       <c r="AZ4">
-        <v>362090</v>
+        <v>362092</v>
       </c>
       <c r="BA4">
-        <v>283672</v>
+        <v>283671</v>
       </c>
       <c r="BB4">
-        <v>204275</v>
+        <v>204276</v>
       </c>
       <c r="BC4">
         <v>132293</v>
@@ -2155,172 +2155,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>795761</v>
+        <v>797305</v>
       </c>
       <c r="C5">
-        <v>289827</v>
+        <v>290282</v>
       </c>
       <c r="D5">
-        <v>149673</v>
+        <v>149908</v>
       </c>
       <c r="E5">
-        <v>126398</v>
+        <v>126697</v>
       </c>
       <c r="F5">
         <v>91676</v>
       </c>
       <c r="G5">
-        <v>83235</v>
+        <v>83532</v>
       </c>
       <c r="H5">
-        <v>27662</v>
+        <v>27836</v>
       </c>
       <c r="I5">
-        <v>21277</v>
+        <v>21334</v>
       </c>
       <c r="J5">
-        <v>6013</v>
+        <v>6040</v>
       </c>
       <c r="K5">
-        <v>11681455</v>
+        <v>11682999</v>
       </c>
       <c r="L5">
-        <v>3943225</v>
+        <v>3943680</v>
       </c>
       <c r="M5">
-        <v>2991153</v>
+        <v>2991388</v>
       </c>
       <c r="N5">
-        <v>1746273</v>
+        <v>1746572</v>
       </c>
       <c r="O5">
         <v>1381541</v>
       </c>
       <c r="P5">
-        <v>950464</v>
+        <v>950761</v>
       </c>
       <c r="Q5">
-        <v>309205</v>
+        <v>309379</v>
       </c>
       <c r="R5">
-        <v>249614</v>
+        <v>249671</v>
       </c>
       <c r="S5">
-        <v>109980</v>
+        <v>110007</v>
       </c>
       <c r="T5">
-        <v>27770</v>
+        <v>27842</v>
       </c>
       <c r="U5">
-        <v>23278</v>
+        <v>23308</v>
       </c>
       <c r="V5">
-        <v>31439</v>
+        <v>31475</v>
       </c>
       <c r="W5">
-        <v>30473</v>
+        <v>30515</v>
       </c>
       <c r="X5">
-        <v>39178</v>
+        <v>39233</v>
       </c>
       <c r="Y5">
-        <v>50661</v>
+        <v>50737</v>
       </c>
       <c r="Z5">
-        <v>57480</v>
+        <v>57558</v>
       </c>
       <c r="AA5">
-        <v>63547</v>
+        <v>63626</v>
       </c>
       <c r="AB5">
-        <v>61073</v>
+        <v>61157</v>
       </c>
       <c r="AC5">
-        <v>56220</v>
+        <v>56295</v>
       </c>
       <c r="AD5">
-        <v>57265</v>
+        <v>57345</v>
       </c>
       <c r="AE5">
-        <v>52500</v>
+        <v>52570</v>
       </c>
       <c r="AF5">
-        <v>51542</v>
+        <v>51613</v>
       </c>
       <c r="AG5">
-        <v>43974</v>
+        <v>44049</v>
       </c>
       <c r="AH5">
-        <v>39978</v>
+        <v>40051</v>
       </c>
       <c r="AI5">
-        <v>34640</v>
+        <v>34698</v>
       </c>
       <c r="AJ5">
-        <v>27729</v>
+        <v>27788</v>
       </c>
       <c r="AK5">
-        <v>46429</v>
+        <v>46561</v>
       </c>
       <c r="AL5">
-        <v>585</v>
+        <v>884</v>
       </c>
       <c r="AM5">
-        <v>501907</v>
+        <v>501979</v>
       </c>
       <c r="AN5">
-        <v>667646</v>
+        <v>667675</v>
       </c>
       <c r="AO5">
-        <v>772984</v>
+        <v>773021</v>
       </c>
       <c r="AP5">
-        <v>759147</v>
+        <v>759188</v>
       </c>
       <c r="AQ5">
-        <v>929482</v>
+        <v>929536</v>
       </c>
       <c r="AR5">
-        <v>1025057</v>
+        <v>1025133</v>
       </c>
       <c r="AS5">
-        <v>1032826</v>
+        <v>1032901</v>
       </c>
       <c r="AT5">
-        <v>1017410</v>
+        <v>1017489</v>
       </c>
       <c r="AU5">
-        <v>906985</v>
+        <v>907068</v>
       </c>
       <c r="AV5">
-        <v>805957</v>
+        <v>806033</v>
       </c>
       <c r="AW5">
-        <v>745653</v>
+        <v>745734</v>
       </c>
       <c r="AX5">
-        <v>620681</v>
+        <v>620751</v>
       </c>
       <c r="AY5">
-        <v>541690</v>
+        <v>541763</v>
       </c>
       <c r="AZ5">
-        <v>406064</v>
+        <v>406141</v>
       </c>
       <c r="BA5">
-        <v>323650</v>
+        <v>323722</v>
       </c>
       <c r="BB5">
-        <v>238915</v>
+        <v>238974</v>
       </c>
       <c r="BC5">
-        <v>160022</v>
+        <v>160081</v>
       </c>
       <c r="BD5">
-        <v>207210</v>
+        <v>207342</v>
       </c>
       <c r="BE5">
-        <v>18169</v>
+        <v>18468</v>
       </c>
     </row>
   </sheetData>
@@ -3879,7 +3879,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687511</v>
+        <v>687510</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3897,7 +3897,7 @@
         <v>44386</v>
       </c>
       <c r="H27" s="3">
-        <v>17719</v>
+        <v>17718</v>
       </c>
       <c r="I27" s="3">
         <v>14605</v>
@@ -3906,7 +3906,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065124</v>
+        <v>3065123</v>
       </c>
       <c r="L27" s="3">
         <v>1152678</v>
@@ -3924,7 +3924,7 @@
         <v>153554</v>
       </c>
       <c r="Q27" s="3">
-        <v>47444</v>
+        <v>47443</v>
       </c>
       <c r="R27" s="3">
         <v>51580</v>
@@ -3965,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431880</v>
+        <v>4431879</v>
       </c>
       <c r="L28" s="3">
         <v>1689286</v>
@@ -3983,7 +3983,7 @@
         <v>274025</v>
       </c>
       <c r="Q28" s="3">
-        <v>93870</v>
+        <v>93869</v>
       </c>
       <c r="R28" s="3">
         <v>79114</v>
@@ -3997,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339798</v>
+        <v>1339799</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4015,7 +4015,7 @@
         <v>139738</v>
       </c>
       <c r="H29" s="3">
-        <v>44024</v>
+        <v>44025</v>
       </c>
       <c r="I29" s="3">
         <v>27308</v>
@@ -4823,13 +4823,13 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77807</v>
+        <v>77806</v>
       </c>
       <c r="C43" s="3">
         <v>28182</v>
       </c>
       <c r="D43" s="3">
-        <v>14772</v>
+        <v>14771</v>
       </c>
       <c r="E43" s="3">
         <v>14251</v>
@@ -4850,13 +4850,13 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11558965</v>
+        <v>11558964</v>
       </c>
       <c r="L43" s="3">
         <v>3901029</v>
       </c>
       <c r="M43" s="3">
-        <v>2975164</v>
+        <v>2975163</v>
       </c>
       <c r="N43" s="3">
         <v>1726214</v>
@@ -4909,13 +4909,13 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587187</v>
+        <v>11587186</v>
       </c>
       <c r="L44" s="3">
         <v>3911314</v>
       </c>
       <c r="M44" s="3">
-        <v>2977242</v>
+        <v>2977241</v>
       </c>
       <c r="N44" s="3">
         <v>1733162</v>
@@ -4968,13 +4968,13 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610632</v>
+        <v>11610631</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
       </c>
       <c r="M45" s="3">
-        <v>2979384</v>
+        <v>2979383</v>
       </c>
       <c r="N45" s="3">
         <v>1737700</v>
@@ -5027,13 +5027,13 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632761</v>
+        <v>11632760</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
       </c>
       <c r="M46" s="3">
-        <v>2982648</v>
+        <v>2982647</v>
       </c>
       <c r="N46" s="3">
         <v>1739723</v>
@@ -5086,13 +5086,13 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660655</v>
+        <v>11660654</v>
       </c>
       <c r="L47" s="3">
         <v>3937123</v>
       </c>
       <c r="M47" s="3">
-        <v>2988286</v>
+        <v>2988285</v>
       </c>
       <c r="N47" s="3">
         <v>1743396</v>
@@ -5118,58 +5118,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>20800</v>
+        <v>22345</v>
       </c>
       <c r="C48" s="3">
-        <v>6102</v>
+        <v>6557</v>
       </c>
       <c r="D48" s="3">
-        <v>2867</v>
+        <v>3103</v>
       </c>
       <c r="E48" s="3">
-        <v>2877</v>
+        <v>3176</v>
       </c>
       <c r="F48" s="3">
         <v>894</v>
       </c>
       <c r="G48" s="3">
-        <v>5049</v>
+        <v>5346</v>
       </c>
       <c r="H48" s="3">
-        <v>1682</v>
+        <v>1856</v>
       </c>
       <c r="I48" s="3">
-        <v>1063</v>
+        <v>1120</v>
       </c>
       <c r="J48" s="3">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="K48" s="3">
-        <v>11681455</v>
+        <v>11682999</v>
       </c>
       <c r="L48" s="3">
-        <v>3943225</v>
+        <v>3943680</v>
       </c>
       <c r="M48" s="3">
-        <v>2991153</v>
+        <v>2991388</v>
       </c>
       <c r="N48" s="3">
-        <v>1746273</v>
+        <v>1746572</v>
       </c>
       <c r="O48" s="3">
         <v>1381541</v>
       </c>
       <c r="P48" s="3">
-        <v>950464</v>
+        <v>950761</v>
       </c>
       <c r="Q48" s="3">
-        <v>309205</v>
+        <v>309379</v>
       </c>
       <c r="R48" s="3">
-        <v>249614</v>
+        <v>249671</v>
       </c>
       <c r="S48" s="3">
-        <v>109980</v>
+        <v>110007</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM8"/>
+  <dimension ref="A1:IM9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8026,6 +8026,749 @@
       </c>
       <c r="IM8">
         <v>13489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B9">
+        <v>1544</v>
+      </c>
+      <c r="C9">
+        <v>455</v>
+      </c>
+      <c r="D9">
+        <v>235</v>
+      </c>
+      <c r="E9">
+        <v>299</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>297</v>
+      </c>
+      <c r="H9">
+        <v>174</v>
+      </c>
+      <c r="I9">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>11682999</v>
+      </c>
+      <c r="L9">
+        <v>3943680</v>
+      </c>
+      <c r="M9">
+        <v>2991388</v>
+      </c>
+      <c r="N9">
+        <v>1746572</v>
+      </c>
+      <c r="O9">
+        <v>1381541</v>
+      </c>
+      <c r="P9">
+        <v>950761</v>
+      </c>
+      <c r="Q9">
+        <v>309379</v>
+      </c>
+      <c r="R9">
+        <v>249671</v>
+      </c>
+      <c r="S9">
+        <v>110007</v>
+      </c>
+      <c r="T9">
+        <v>72</v>
+      </c>
+      <c r="U9">
+        <v>29</v>
+      </c>
+      <c r="V9">
+        <v>37</v>
+      </c>
+      <c r="W9">
+        <v>41</v>
+      </c>
+      <c r="X9">
+        <v>54</v>
+      </c>
+      <c r="Y9">
+        <v>76</v>
+      </c>
+      <c r="Z9">
+        <v>75</v>
+      </c>
+      <c r="AA9">
+        <v>79</v>
+      </c>
+      <c r="AB9">
+        <v>83</v>
+      </c>
+      <c r="AC9">
+        <v>76</v>
+      </c>
+      <c r="AD9">
+        <v>81</v>
+      </c>
+      <c r="AE9">
+        <v>70</v>
+      </c>
+      <c r="AF9">
+        <v>73</v>
+      </c>
+      <c r="AG9">
+        <v>77</v>
+      </c>
+      <c r="AH9">
+        <v>72</v>
+      </c>
+      <c r="AI9">
+        <v>59</v>
+      </c>
+      <c r="AJ9">
+        <v>59</v>
+      </c>
+      <c r="AK9">
+        <v>132</v>
+      </c>
+      <c r="AL9">
+        <v>299</v>
+      </c>
+      <c r="AM9">
+        <v>501979</v>
+      </c>
+      <c r="AN9">
+        <v>667675</v>
+      </c>
+      <c r="AO9">
+        <v>773021</v>
+      </c>
+      <c r="AP9">
+        <v>759188</v>
+      </c>
+      <c r="AQ9">
+        <v>929536</v>
+      </c>
+      <c r="AR9">
+        <v>1025133</v>
+      </c>
+      <c r="AS9">
+        <v>1032901</v>
+      </c>
+      <c r="AT9">
+        <v>1017489</v>
+      </c>
+      <c r="AU9">
+        <v>907068</v>
+      </c>
+      <c r="AV9">
+        <v>806033</v>
+      </c>
+      <c r="AW9">
+        <v>745734</v>
+      </c>
+      <c r="AX9">
+        <v>620751</v>
+      </c>
+      <c r="AY9">
+        <v>541763</v>
+      </c>
+      <c r="AZ9">
+        <v>406141</v>
+      </c>
+      <c r="BA9">
+        <v>323722</v>
+      </c>
+      <c r="BB9">
+        <v>238974</v>
+      </c>
+      <c r="BC9">
+        <v>160081</v>
+      </c>
+      <c r="BD9">
+        <v>207342</v>
+      </c>
+      <c r="BE9">
+        <v>18468</v>
+      </c>
+      <c r="BF9">
+        <v>42</v>
+      </c>
+      <c r="BG9">
+        <v>31</v>
+      </c>
+      <c r="BH9">
+        <v>-1</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>9</v>
+      </c>
+      <c r="BL9">
+        <v>20</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>24</v>
+      </c>
+      <c r="BQ9">
+        <v>13</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>18</v>
+      </c>
+      <c r="BV9">
+        <v>24</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>-1</v>
+      </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
+      <c r="BZ9">
+        <v>20</v>
+      </c>
+      <c r="CA9">
+        <v>35</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>-1</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>20</v>
+      </c>
+      <c r="CF9">
+        <v>51</v>
+      </c>
+      <c r="CG9">
+        <v>1</v>
+      </c>
+      <c r="CH9">
+        <v>4</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>22</v>
+      </c>
+      <c r="CK9">
+        <v>52</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>1</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>33</v>
+      </c>
+      <c r="CP9">
+        <v>47</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>-1</v>
+      </c>
+      <c r="CT9">
+        <v>29</v>
+      </c>
+      <c r="CU9">
+        <v>54</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>33</v>
+      </c>
+      <c r="CZ9">
+        <v>43</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DD9">
+        <v>28</v>
+      </c>
+      <c r="DE9">
+        <v>54</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>-1</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>24</v>
+      </c>
+      <c r="DJ9">
+        <v>46</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>0</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>27</v>
+      </c>
+      <c r="DO9">
+        <v>46</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>0</v>
+      </c>
+      <c r="DS9">
+        <v>33</v>
+      </c>
+      <c r="DT9">
+        <v>44</v>
+      </c>
+      <c r="DU9">
+        <v>0</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>39</v>
+      </c>
+      <c r="DY9">
+        <v>33</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
+        <v>0</v>
+      </c>
+      <c r="EB9">
+        <v>0</v>
+      </c>
+      <c r="EC9">
+        <v>29</v>
+      </c>
+      <c r="ED9">
+        <v>30</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>24</v>
+      </c>
+      <c r="EI9">
+        <v>34</v>
+      </c>
+      <c r="EJ9">
+        <v>0</v>
+      </c>
+      <c r="EK9">
+        <v>1</v>
+      </c>
+      <c r="EL9">
+        <v>0</v>
+      </c>
+      <c r="EM9">
+        <v>51</v>
+      </c>
+      <c r="EN9">
+        <v>80</v>
+      </c>
+      <c r="EO9">
+        <v>1</v>
+      </c>
+      <c r="EP9">
+        <v>0</v>
+      </c>
+      <c r="EQ9">
+        <v>0</v>
+      </c>
+      <c r="ER9">
+        <v>0</v>
+      </c>
+      <c r="ES9">
+        <v>0</v>
+      </c>
+      <c r="ET9">
+        <v>0</v>
+      </c>
+      <c r="EU9">
+        <v>0</v>
+      </c>
+      <c r="EV9">
+        <v>299</v>
+      </c>
+      <c r="EW9">
+        <v>231066</v>
+      </c>
+      <c r="EX9">
+        <v>219408</v>
+      </c>
+      <c r="EY9">
+        <v>408</v>
+      </c>
+      <c r="EZ9">
+        <v>15450</v>
+      </c>
+      <c r="FA9">
+        <v>35647</v>
+      </c>
+      <c r="FB9">
+        <v>307875</v>
+      </c>
+      <c r="FC9">
+        <v>292528</v>
+      </c>
+      <c r="FD9">
+        <v>466</v>
+      </c>
+      <c r="FE9">
+        <v>16773</v>
+      </c>
+      <c r="FF9">
+        <v>50033</v>
+      </c>
+      <c r="FG9">
+        <v>352970</v>
+      </c>
+      <c r="FH9">
+        <v>342380</v>
+      </c>
+      <c r="FI9">
+        <v>633</v>
+      </c>
+      <c r="FJ9">
+        <v>16955</v>
+      </c>
+      <c r="FK9">
+        <v>60083</v>
+      </c>
+      <c r="FL9">
+        <v>326026</v>
+      </c>
+      <c r="FM9">
+        <v>373509</v>
+      </c>
+      <c r="FN9">
+        <v>894</v>
+      </c>
+      <c r="FO9">
+        <v>12939</v>
+      </c>
+      <c r="FP9">
+        <v>45820</v>
+      </c>
+      <c r="FQ9">
+        <v>391746</v>
+      </c>
+      <c r="FR9">
+        <v>478998</v>
+      </c>
+      <c r="FS9">
+        <v>1100</v>
+      </c>
+      <c r="FT9">
+        <v>16279</v>
+      </c>
+      <c r="FU9">
+        <v>41413</v>
+      </c>
+      <c r="FV9">
+        <v>433433</v>
+      </c>
+      <c r="FW9">
+        <v>525264</v>
+      </c>
+      <c r="FX9">
+        <v>1135</v>
+      </c>
+      <c r="FY9">
+        <v>17790</v>
+      </c>
+      <c r="FZ9">
+        <v>47511</v>
+      </c>
+      <c r="GA9">
+        <v>428702</v>
+      </c>
+      <c r="GB9">
+        <v>531291</v>
+      </c>
+      <c r="GC9">
+        <v>922</v>
+      </c>
+      <c r="GD9">
+        <v>17168</v>
+      </c>
+      <c r="GE9">
+        <v>54818</v>
+      </c>
+      <c r="GF9">
+        <v>419255</v>
+      </c>
+      <c r="GG9">
+        <v>523713</v>
+      </c>
+      <c r="GH9">
+        <v>665</v>
+      </c>
+      <c r="GI9">
+        <v>15033</v>
+      </c>
+      <c r="GJ9">
+        <v>58823</v>
+      </c>
+      <c r="GK9">
+        <v>373025</v>
+      </c>
+      <c r="GL9">
+        <v>468030</v>
+      </c>
+      <c r="GM9">
+        <v>498</v>
+      </c>
+      <c r="GN9">
+        <v>12352</v>
+      </c>
+      <c r="GO9">
+        <v>53163</v>
+      </c>
+      <c r="GP9">
+        <v>329867</v>
+      </c>
+      <c r="GQ9">
+        <v>420271</v>
+      </c>
+      <c r="GR9">
+        <v>439</v>
+      </c>
+      <c r="GS9">
+        <v>10135</v>
+      </c>
+      <c r="GT9">
+        <v>45321</v>
+      </c>
+      <c r="GU9">
+        <v>307609</v>
+      </c>
+      <c r="GV9">
+        <v>388510</v>
+      </c>
+      <c r="GW9">
+        <v>399</v>
+      </c>
+      <c r="GX9">
+        <v>8956</v>
+      </c>
+      <c r="GY9">
+        <v>40260</v>
+      </c>
+      <c r="GZ9">
+        <v>263041</v>
+      </c>
+      <c r="HA9">
+        <v>319023</v>
+      </c>
+      <c r="HB9">
+        <v>329</v>
+      </c>
+      <c r="HC9">
+        <v>6610</v>
+      </c>
+      <c r="HD9">
+        <v>31748</v>
+      </c>
+      <c r="HE9">
+        <v>233869</v>
+      </c>
+      <c r="HF9">
+        <v>276378</v>
+      </c>
+      <c r="HG9">
+        <v>234</v>
+      </c>
+      <c r="HH9">
+        <v>5322</v>
+      </c>
+      <c r="HI9">
+        <v>25960</v>
+      </c>
+      <c r="HJ9">
+        <v>180213</v>
+      </c>
+      <c r="HK9">
+        <v>203528</v>
+      </c>
+      <c r="HL9">
+        <v>199</v>
+      </c>
+      <c r="HM9">
+        <v>3680</v>
+      </c>
+      <c r="HN9">
+        <v>18521</v>
+      </c>
+      <c r="HO9">
+        <v>150945</v>
+      </c>
+      <c r="HP9">
+        <v>157574</v>
+      </c>
+      <c r="HQ9">
+        <v>162</v>
+      </c>
+      <c r="HR9">
+        <v>2690</v>
+      </c>
+      <c r="HS9">
+        <v>12351</v>
+      </c>
+      <c r="HT9">
+        <v>115145</v>
+      </c>
+      <c r="HU9">
+        <v>113958</v>
+      </c>
+      <c r="HV9">
+        <v>164</v>
+      </c>
+      <c r="HW9">
+        <v>1897</v>
+      </c>
+      <c r="HX9">
+        <v>7810</v>
+      </c>
+      <c r="HY9">
+        <v>75194</v>
+      </c>
+      <c r="HZ9">
+        <v>78944</v>
+      </c>
+      <c r="IA9">
+        <v>131</v>
+      </c>
+      <c r="IB9">
+        <v>1280</v>
+      </c>
+      <c r="IC9">
+        <v>4532</v>
+      </c>
+      <c r="ID9">
+        <v>80260</v>
+      </c>
+      <c r="IE9">
+        <v>120668</v>
+      </c>
+      <c r="IF9">
+        <v>304</v>
+      </c>
+      <c r="IG9">
+        <v>2267</v>
+      </c>
+      <c r="IH9">
+        <v>3843</v>
+      </c>
+      <c r="II9">
+        <v>2150</v>
+      </c>
+      <c r="IJ9">
+        <v>2307</v>
+      </c>
+      <c r="IK9">
+        <v>22</v>
+      </c>
+      <c r="IL9">
+        <v>201</v>
+      </c>
+      <c r="IM9">
+        <v>13788</v>
       </c>
     </row>
   </sheetData>
@@ -8050,7 +8793,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45246</v>
+        <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91300914-F140-4CC9-9BDC-9B09591DD04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DB9C27-1753-4EE4-B8E2-26A28E2FABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1893,10 +1893,10 @@
         <v>30114</v>
       </c>
       <c r="AD3">
-        <v>27884</v>
+        <v>27883</v>
       </c>
       <c r="AE3">
-        <v>22328</v>
+        <v>22329</v>
       </c>
       <c r="AF3">
         <v>17079</v>
@@ -1950,10 +1950,10 @@
         <v>32079</v>
       </c>
       <c r="AW3">
-        <v>29690</v>
+        <v>29689</v>
       </c>
       <c r="AX3">
-        <v>24006</v>
+        <v>24007</v>
       </c>
       <c r="AY3">
         <v>18540</v>
@@ -1982,7 +1982,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317626</v>
+        <v>10317630</v>
       </c>
       <c r="C4">
         <v>3368114</v>
@@ -1994,10 +1994,10 @@
         <v>1586964</v>
       </c>
       <c r="F4">
-        <v>1288499</v>
+        <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848068</v>
+        <v>848071</v>
       </c>
       <c r="H4">
         <v>279667</v>
@@ -2009,7 +2009,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885694</v>
+        <v>10885698</v>
       </c>
       <c r="L4">
         <v>3653398</v>
@@ -2021,10 +2021,10 @@
         <v>1619875</v>
       </c>
       <c r="O4">
-        <v>1289865</v>
+        <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867229</v>
+        <v>867232</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2039,43 +2039,43 @@
         <v>450874</v>
       </c>
       <c r="U4">
-        <v>611169</v>
+        <v>611168</v>
       </c>
       <c r="V4">
-        <v>710036</v>
+        <v>710037</v>
       </c>
       <c r="W4">
-        <v>683419</v>
+        <v>683418</v>
       </c>
       <c r="X4">
-        <v>812075</v>
+        <v>812076</v>
       </c>
       <c r="Y4">
-        <v>899955</v>
+        <v>899954</v>
       </c>
       <c r="Z4">
         <v>916965</v>
       </c>
       <c r="AA4">
-        <v>908874</v>
+        <v>908870</v>
       </c>
       <c r="AB4">
-        <v>810294</v>
+        <v>810299</v>
       </c>
       <c r="AC4">
-        <v>717659</v>
+        <v>717660</v>
       </c>
       <c r="AD4">
         <v>658699</v>
       </c>
       <c r="AE4">
-        <v>544175</v>
+        <v>544176</v>
       </c>
       <c r="AF4">
         <v>471610</v>
       </c>
       <c r="AG4">
-        <v>349119</v>
+        <v>349121</v>
       </c>
       <c r="AH4">
         <v>274360</v>
@@ -2084,10 +2084,10 @@
         <v>197802</v>
       </c>
       <c r="AJ4">
-        <v>127909</v>
+        <v>127908</v>
       </c>
       <c r="AK4">
-        <v>155421</v>
+        <v>155422</v>
       </c>
       <c r="AL4">
         <v>17211</v>
@@ -2096,43 +2096,43 @@
         <v>474137</v>
       </c>
       <c r="AN4">
-        <v>644367</v>
+        <v>644366</v>
       </c>
       <c r="AO4">
-        <v>741546</v>
+        <v>741547</v>
       </c>
       <c r="AP4">
-        <v>728673</v>
+        <v>728672</v>
       </c>
       <c r="AQ4">
-        <v>890303</v>
+        <v>890304</v>
       </c>
       <c r="AR4">
-        <v>974396</v>
+        <v>974395</v>
       </c>
       <c r="AS4">
         <v>975343</v>
       </c>
       <c r="AT4">
-        <v>953863</v>
+        <v>953859</v>
       </c>
       <c r="AU4">
-        <v>845911</v>
+        <v>845916</v>
       </c>
       <c r="AV4">
-        <v>749738</v>
+        <v>749739</v>
       </c>
       <c r="AW4">
-        <v>688389</v>
+        <v>688388</v>
       </c>
       <c r="AX4">
-        <v>568181</v>
+        <v>568183</v>
       </c>
       <c r="AY4">
         <v>490150</v>
       </c>
       <c r="AZ4">
-        <v>362092</v>
+        <v>362094</v>
       </c>
       <c r="BA4">
         <v>283671</v>
@@ -2141,10 +2141,10 @@
         <v>204276</v>
       </c>
       <c r="BC4">
-        <v>132293</v>
+        <v>132292</v>
       </c>
       <c r="BD4">
-        <v>160781</v>
+        <v>160782</v>
       </c>
       <c r="BE4">
         <v>17584</v>
@@ -2155,172 +2155,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>797305</v>
+        <v>798772</v>
       </c>
       <c r="C5">
-        <v>290282</v>
+        <v>290675</v>
       </c>
       <c r="D5">
-        <v>149908</v>
+        <v>150151</v>
       </c>
       <c r="E5">
-        <v>126697</v>
+        <v>126990</v>
       </c>
       <c r="F5">
-        <v>91676</v>
+        <v>91679</v>
       </c>
       <c r="G5">
-        <v>83532</v>
+        <v>83818</v>
       </c>
       <c r="H5">
-        <v>27836</v>
+        <v>27983</v>
       </c>
       <c r="I5">
-        <v>21334</v>
+        <v>21413</v>
       </c>
       <c r="J5">
-        <v>6040</v>
+        <v>6063</v>
       </c>
       <c r="K5">
-        <v>11682999</v>
+        <v>11684470</v>
       </c>
       <c r="L5">
-        <v>3943680</v>
+        <v>3944073</v>
       </c>
       <c r="M5">
-        <v>2991388</v>
+        <v>2991631</v>
       </c>
       <c r="N5">
-        <v>1746572</v>
+        <v>1746865</v>
       </c>
       <c r="O5">
-        <v>1381541</v>
+        <v>1381545</v>
       </c>
       <c r="P5">
-        <v>950761</v>
+        <v>951050</v>
       </c>
       <c r="Q5">
-        <v>309379</v>
+        <v>309526</v>
       </c>
       <c r="R5">
-        <v>249671</v>
+        <v>249750</v>
       </c>
       <c r="S5">
-        <v>110007</v>
+        <v>110030</v>
       </c>
       <c r="T5">
-        <v>27842</v>
+        <v>27939</v>
       </c>
       <c r="U5">
-        <v>23308</v>
+        <v>23339</v>
       </c>
       <c r="V5">
-        <v>31475</v>
+        <v>31524</v>
       </c>
       <c r="W5">
-        <v>30515</v>
+        <v>30574</v>
       </c>
       <c r="X5">
-        <v>39233</v>
+        <v>39319</v>
       </c>
       <c r="Y5">
-        <v>50737</v>
+        <v>50827</v>
       </c>
       <c r="Z5">
-        <v>57558</v>
+        <v>57649</v>
       </c>
       <c r="AA5">
-        <v>63626</v>
+        <v>63734</v>
       </c>
       <c r="AB5">
-        <v>61157</v>
+        <v>61262</v>
       </c>
       <c r="AC5">
-        <v>56295</v>
+        <v>56398</v>
       </c>
       <c r="AD5">
-        <v>57345</v>
+        <v>57453</v>
       </c>
       <c r="AE5">
-        <v>52570</v>
+        <v>52669</v>
       </c>
       <c r="AF5">
-        <v>51613</v>
+        <v>51719</v>
       </c>
       <c r="AG5">
-        <v>44049</v>
+        <v>44169</v>
       </c>
       <c r="AH5">
-        <v>40051</v>
+        <v>40164</v>
       </c>
       <c r="AI5">
-        <v>34698</v>
+        <v>34815</v>
       </c>
       <c r="AJ5">
-        <v>27788</v>
+        <v>27905</v>
       </c>
       <c r="AK5">
-        <v>46561</v>
+        <v>46727</v>
       </c>
       <c r="AL5">
-        <v>884</v>
+        <v>586</v>
       </c>
       <c r="AM5">
-        <v>501979</v>
+        <v>502076</v>
       </c>
       <c r="AN5">
-        <v>667675</v>
+        <v>667705</v>
       </c>
       <c r="AO5">
-        <v>773021</v>
+        <v>773071</v>
       </c>
       <c r="AP5">
-        <v>759188</v>
+        <v>759246</v>
       </c>
       <c r="AQ5">
-        <v>929536</v>
+        <v>929623</v>
       </c>
       <c r="AR5">
-        <v>1025133</v>
+        <v>1025222</v>
       </c>
       <c r="AS5">
-        <v>1032901</v>
+        <v>1032992</v>
       </c>
       <c r="AT5">
-        <v>1017489</v>
+        <v>1017593</v>
       </c>
       <c r="AU5">
-        <v>907068</v>
+        <v>907178</v>
       </c>
       <c r="AV5">
-        <v>806033</v>
+        <v>806137</v>
       </c>
       <c r="AW5">
-        <v>745734</v>
+        <v>745841</v>
       </c>
       <c r="AX5">
-        <v>620751</v>
+        <v>620852</v>
       </c>
       <c r="AY5">
-        <v>541763</v>
+        <v>541869</v>
       </c>
       <c r="AZ5">
-        <v>406141</v>
+        <v>406263</v>
       </c>
       <c r="BA5">
-        <v>323722</v>
+        <v>323835</v>
       </c>
       <c r="BB5">
-        <v>238974</v>
+        <v>239091</v>
       </c>
       <c r="BC5">
-        <v>160081</v>
+        <v>160197</v>
       </c>
       <c r="BD5">
-        <v>207342</v>
+        <v>207509</v>
       </c>
       <c r="BE5">
-        <v>18468</v>
+        <v>18170</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3820,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809545</v>
+        <v>1809546</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3835,7 +3835,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90007</v>
+        <v>90008</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3847,7 +3847,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377613</v>
+        <v>2377614</v>
       </c>
       <c r="L26" s="3">
         <v>922450</v>
@@ -3862,7 +3862,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109168</v>
+        <v>109169</v>
       </c>
       <c r="Q26" s="3">
         <v>29725</v>
@@ -3879,7 +3879,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687510</v>
+        <v>687511</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3891,7 +3891,7 @@
         <v>140753</v>
       </c>
       <c r="F27" s="3">
-        <v>11817</v>
+        <v>11818</v>
       </c>
       <c r="G27" s="3">
         <v>44386</v>
@@ -3906,7 +3906,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065123</v>
+        <v>3065125</v>
       </c>
       <c r="L27" s="3">
         <v>1152678</v>
@@ -3918,10 +3918,10 @@
         <v>546062</v>
       </c>
       <c r="O27" s="3">
-        <v>14033</v>
+        <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153554</v>
+        <v>153555</v>
       </c>
       <c r="Q27" s="3">
         <v>47443</v>
@@ -3965,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431879</v>
+        <v>4431881</v>
       </c>
       <c r="L28" s="3">
         <v>1689286</v>
@@ -3977,10 +3977,10 @@
         <v>742289</v>
       </c>
       <c r="O28" s="3">
-        <v>193320</v>
+        <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274025</v>
+        <v>274026</v>
       </c>
       <c r="Q28" s="3">
         <v>93869</v>
@@ -3997,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339799</v>
+        <v>1339801</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4012,7 +4012,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139738</v>
+        <v>139740</v>
       </c>
       <c r="H29" s="3">
         <v>44025</v>
@@ -4024,7 +4024,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771678</v>
+        <v>5771682</v>
       </c>
       <c r="L29" s="3">
         <v>2121666</v>
@@ -4036,10 +4036,10 @@
         <v>943371</v>
       </c>
       <c r="O29" s="3">
-        <v>400163</v>
+        <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413763</v>
+        <v>413766</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4083,7 +4083,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082029</v>
+        <v>7082033</v>
       </c>
       <c r="L30" s="3">
         <v>2418934</v>
@@ -4095,10 +4095,10 @@
         <v>1096301</v>
       </c>
       <c r="O30" s="3">
-        <v>754251</v>
+        <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>521888</v>
+        <v>521891</v>
       </c>
       <c r="Q30" s="3">
         <v>166163</v>
@@ -4142,7 +4142,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966314</v>
+        <v>7966318</v>
       </c>
       <c r="L31" s="3">
         <v>2652835</v>
@@ -4154,10 +4154,10 @@
         <v>1213316</v>
       </c>
       <c r="O31" s="3">
-        <v>936890</v>
+        <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599192</v>
+        <v>599195</v>
       </c>
       <c r="Q31" s="3">
         <v>190881</v>
@@ -4201,7 +4201,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216665</v>
+        <v>9216669</v>
       </c>
       <c r="L32" s="3">
         <v>3031442</v>
@@ -4213,10 +4213,10 @@
         <v>1410775</v>
       </c>
       <c r="O32" s="3">
-        <v>1095154</v>
+        <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716592</v>
+        <v>716595</v>
       </c>
       <c r="Q32" s="3">
         <v>233156</v>
@@ -4260,7 +4260,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771524</v>
+        <v>9771528</v>
       </c>
       <c r="L33" s="3">
         <v>3261491</v>
@@ -4272,10 +4272,10 @@
         <v>1482137</v>
       </c>
       <c r="O33" s="3">
-        <v>1154225</v>
+        <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757102</v>
+        <v>757105</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4319,7 +4319,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965780</v>
+        <v>9965784</v>
       </c>
       <c r="L34" s="3">
         <v>3330343</v>
@@ -4331,10 +4331,10 @@
         <v>1512411</v>
       </c>
       <c r="O34" s="3">
-        <v>1178497</v>
+        <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772387</v>
+        <v>772390</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4378,7 +4378,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107885</v>
+        <v>10107889</v>
       </c>
       <c r="L35" s="3">
         <v>3374842</v>
@@ -4390,10 +4390,10 @@
         <v>1529148</v>
       </c>
       <c r="O35" s="3">
-        <v>1201923</v>
+        <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785562</v>
+        <v>785565</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4437,7 +4437,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459828</v>
+        <v>10459832</v>
       </c>
       <c r="L36" s="3">
         <v>3496935</v>
@@ -4449,10 +4449,10 @@
         <v>1565594</v>
       </c>
       <c r="O36" s="3">
-        <v>1244554</v>
+        <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822724</v>
+        <v>822727</v>
       </c>
       <c r="Q36" s="3">
         <v>265273</v>
@@ -4496,7 +4496,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885694</v>
+        <v>10885698</v>
       </c>
       <c r="L37" s="3">
         <v>3653398</v>
@@ -4508,10 +4508,10 @@
         <v>1619875</v>
       </c>
       <c r="O37" s="3">
-        <v>1289865</v>
+        <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867229</v>
+        <v>867232</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4555,7 +4555,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015772</v>
+        <v>11015776</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4567,10 +4567,10 @@
         <v>1643988</v>
       </c>
       <c r="O38" s="3">
-        <v>1306721</v>
+        <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879119</v>
+        <v>879122</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4614,7 +4614,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087761</v>
+        <v>11087765</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4626,10 +4626,10 @@
         <v>1658288</v>
       </c>
       <c r="O39" s="3">
-        <v>1315593</v>
+        <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>885972</v>
+        <v>885975</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4673,7 +4673,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191740</v>
+        <v>11191744</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4685,10 +4685,10 @@
         <v>1673743</v>
       </c>
       <c r="O40" s="3">
-        <v>1328555</v>
+        <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897472</v>
+        <v>897475</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4732,7 +4732,7 @@
         <v>826</v>
       </c>
       <c r="K41" s="3">
-        <v>11314905</v>
+        <v>11314909</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4744,10 +4744,10 @@
         <v>1689653</v>
       </c>
       <c r="O41" s="3">
-        <v>1342942</v>
+        <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909801</v>
+        <v>909804</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4791,7 +4791,7 @@
         <v>934</v>
       </c>
       <c r="K42" s="3">
-        <v>11481158</v>
+        <v>11481162</v>
       </c>
       <c r="L42" s="3">
         <v>3872847</v>
@@ -4803,10 +4803,10 @@
         <v>1711963</v>
       </c>
       <c r="O42" s="3">
-        <v>1361030</v>
+        <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924714</v>
+        <v>924717</v>
       </c>
       <c r="Q42" s="3">
         <v>299397</v>
@@ -4850,7 +4850,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11558964</v>
+        <v>11558968</v>
       </c>
       <c r="L43" s="3">
         <v>3901029</v>
@@ -4862,10 +4862,10 @@
         <v>1726214</v>
       </c>
       <c r="O43" s="3">
-        <v>1369448</v>
+        <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>931928</v>
+        <v>931931</v>
       </c>
       <c r="Q43" s="3">
         <v>301983</v>
@@ -4909,7 +4909,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587186</v>
+        <v>11587190</v>
       </c>
       <c r="L44" s="3">
         <v>3911314</v>
@@ -4921,10 +4921,10 @@
         <v>1733162</v>
       </c>
       <c r="O44" s="3">
-        <v>1373100</v>
+        <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>934857</v>
+        <v>934860</v>
       </c>
       <c r="Q44" s="3">
         <v>303256</v>
@@ -4968,7 +4968,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610631</v>
+        <v>11610635</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4980,10 +4980,10 @@
         <v>1737700</v>
       </c>
       <c r="O45" s="3">
-        <v>1376098</v>
+        <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937306</v>
+        <v>937309</v>
       </c>
       <c r="Q45" s="3">
         <v>304420</v>
@@ -5027,7 +5027,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632760</v>
+        <v>11632764</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5039,10 +5039,10 @@
         <v>1739723</v>
       </c>
       <c r="O46" s="3">
-        <v>1378655</v>
+        <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940339</v>
+        <v>940342</v>
       </c>
       <c r="Q46" s="3">
         <v>305623</v>
@@ -5059,22 +5059,22 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27894</v>
+        <v>27916</v>
       </c>
       <c r="C47" s="3">
         <v>7712</v>
       </c>
       <c r="D47" s="3">
-        <v>5638</v>
+        <v>5639</v>
       </c>
       <c r="E47" s="3">
-        <v>3673</v>
+        <v>3693</v>
       </c>
       <c r="F47" s="3">
         <v>1992</v>
       </c>
       <c r="G47" s="3">
-        <v>5076</v>
+        <v>5077</v>
       </c>
       <c r="H47" s="3">
         <v>1900</v>
@@ -5086,22 +5086,22 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660654</v>
+        <v>11660680</v>
       </c>
       <c r="L47" s="3">
         <v>3937123</v>
       </c>
       <c r="M47" s="3">
-        <v>2988285</v>
+        <v>2988286</v>
       </c>
       <c r="N47" s="3">
-        <v>1743396</v>
+        <v>1743416</v>
       </c>
       <c r="O47" s="3">
-        <v>1380647</v>
+        <v>1380648</v>
       </c>
       <c r="P47" s="3">
-        <v>945415</v>
+        <v>945419</v>
       </c>
       <c r="Q47" s="3">
         <v>307523</v>
@@ -5118,58 +5118,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>22345</v>
+        <v>23790</v>
       </c>
       <c r="C48" s="3">
-        <v>6557</v>
+        <v>6950</v>
       </c>
       <c r="D48" s="3">
-        <v>3103</v>
+        <v>3345</v>
       </c>
       <c r="E48" s="3">
-        <v>3176</v>
+        <v>3449</v>
       </c>
       <c r="F48" s="3">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="G48" s="3">
-        <v>5346</v>
+        <v>5631</v>
       </c>
       <c r="H48" s="3">
-        <v>1856</v>
+        <v>2003</v>
       </c>
       <c r="I48" s="3">
-        <v>1120</v>
+        <v>1199</v>
       </c>
       <c r="J48" s="3">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="K48" s="3">
-        <v>11682999</v>
+        <v>11684470</v>
       </c>
       <c r="L48" s="3">
-        <v>3943680</v>
+        <v>3944073</v>
       </c>
       <c r="M48" s="3">
-        <v>2991388</v>
+        <v>2991631</v>
       </c>
       <c r="N48" s="3">
-        <v>1746572</v>
+        <v>1746865</v>
       </c>
       <c r="O48" s="3">
-        <v>1381541</v>
+        <v>1381545</v>
       </c>
       <c r="P48" s="3">
-        <v>950761</v>
+        <v>951050</v>
       </c>
       <c r="Q48" s="3">
-        <v>309379</v>
+        <v>309526</v>
       </c>
       <c r="R48" s="3">
-        <v>249671</v>
+        <v>249750</v>
       </c>
       <c r="S48" s="3">
-        <v>110007</v>
+        <v>110030</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM9"/>
+  <dimension ref="A1:IM10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8769,6 +8769,749 @@
       </c>
       <c r="IM9">
         <v>13788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45248</v>
+      </c>
+      <c r="B10">
+        <v>1471</v>
+      </c>
+      <c r="C10">
+        <v>393</v>
+      </c>
+      <c r="D10">
+        <v>243</v>
+      </c>
+      <c r="E10">
+        <v>293</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>289</v>
+      </c>
+      <c r="H10">
+        <v>147</v>
+      </c>
+      <c r="I10">
+        <v>79</v>
+      </c>
+      <c r="J10">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>11684470</v>
+      </c>
+      <c r="L10">
+        <v>3944073</v>
+      </c>
+      <c r="M10">
+        <v>2991631</v>
+      </c>
+      <c r="N10">
+        <v>1746865</v>
+      </c>
+      <c r="O10">
+        <v>1381545</v>
+      </c>
+      <c r="P10">
+        <v>951050</v>
+      </c>
+      <c r="Q10">
+        <v>309526</v>
+      </c>
+      <c r="R10">
+        <v>249750</v>
+      </c>
+      <c r="S10">
+        <v>110030</v>
+      </c>
+      <c r="T10">
+        <v>97</v>
+      </c>
+      <c r="U10">
+        <v>30</v>
+      </c>
+      <c r="V10">
+        <v>50</v>
+      </c>
+      <c r="W10">
+        <v>58</v>
+      </c>
+      <c r="X10">
+        <v>87</v>
+      </c>
+      <c r="Y10">
+        <v>89</v>
+      </c>
+      <c r="Z10">
+        <v>91</v>
+      </c>
+      <c r="AA10">
+        <v>104</v>
+      </c>
+      <c r="AB10">
+        <v>110</v>
+      </c>
+      <c r="AC10">
+        <v>104</v>
+      </c>
+      <c r="AD10">
+        <v>107</v>
+      </c>
+      <c r="AE10">
+        <v>101</v>
+      </c>
+      <c r="AF10">
+        <v>106</v>
+      </c>
+      <c r="AG10">
+        <v>122</v>
+      </c>
+      <c r="AH10">
+        <v>113</v>
+      </c>
+      <c r="AI10">
+        <v>117</v>
+      </c>
+      <c r="AJ10">
+        <v>116</v>
+      </c>
+      <c r="AK10">
+        <v>167</v>
+      </c>
+      <c r="AL10">
+        <v>-298</v>
+      </c>
+      <c r="AM10">
+        <v>502076</v>
+      </c>
+      <c r="AN10">
+        <v>667705</v>
+      </c>
+      <c r="AO10">
+        <v>773071</v>
+      </c>
+      <c r="AP10">
+        <v>759246</v>
+      </c>
+      <c r="AQ10">
+        <v>929623</v>
+      </c>
+      <c r="AR10">
+        <v>1025222</v>
+      </c>
+      <c r="AS10">
+        <v>1032992</v>
+      </c>
+      <c r="AT10">
+        <v>1017593</v>
+      </c>
+      <c r="AU10">
+        <v>907178</v>
+      </c>
+      <c r="AV10">
+        <v>806137</v>
+      </c>
+      <c r="AW10">
+        <v>745841</v>
+      </c>
+      <c r="AX10">
+        <v>620852</v>
+      </c>
+      <c r="AY10">
+        <v>541869</v>
+      </c>
+      <c r="AZ10">
+        <v>406263</v>
+      </c>
+      <c r="BA10">
+        <v>323835</v>
+      </c>
+      <c r="BB10">
+        <v>239091</v>
+      </c>
+      <c r="BC10">
+        <v>160197</v>
+      </c>
+      <c r="BD10">
+        <v>207509</v>
+      </c>
+      <c r="BE10">
+        <v>18170</v>
+      </c>
+      <c r="BF10">
+        <v>49</v>
+      </c>
+      <c r="BG10">
+        <v>48</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>20</v>
+      </c>
+      <c r="BL10">
+        <v>10</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>29</v>
+      </c>
+      <c r="BQ10">
+        <v>21</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>27</v>
+      </c>
+      <c r="BV10">
+        <v>30</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>36</v>
+      </c>
+      <c r="CA10">
+        <v>51</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>29</v>
+      </c>
+      <c r="CF10">
+        <v>60</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>37</v>
+      </c>
+      <c r="CK10">
+        <v>54</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>40</v>
+      </c>
+      <c r="CP10">
+        <v>64</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>44</v>
+      </c>
+      <c r="CU10">
+        <v>68</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>-2</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>39</v>
+      </c>
+      <c r="CZ10">
+        <v>66</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>-1</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DD10">
+        <v>40</v>
+      </c>
+      <c r="DE10">
+        <v>67</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>37</v>
+      </c>
+      <c r="DJ10">
+        <v>64</v>
+      </c>
+      <c r="DK10">
+        <v>0</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>44</v>
+      </c>
+      <c r="DO10">
+        <v>62</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>55</v>
+      </c>
+      <c r="DT10">
+        <v>69</v>
+      </c>
+      <c r="DU10">
+        <v>0</v>
+      </c>
+      <c r="DV10">
+        <v>-2</v>
+      </c>
+      <c r="DW10">
+        <v>0</v>
+      </c>
+      <c r="DX10">
+        <v>59</v>
+      </c>
+      <c r="DY10">
+        <v>54</v>
+      </c>
+      <c r="DZ10">
+        <v>1</v>
+      </c>
+      <c r="EA10">
+        <v>-1</v>
+      </c>
+      <c r="EB10">
+        <v>0</v>
+      </c>
+      <c r="EC10">
+        <v>61</v>
+      </c>
+      <c r="ED10">
+        <v>60</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>-4</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>52</v>
+      </c>
+      <c r="EI10">
+        <v>64</v>
+      </c>
+      <c r="EJ10">
+        <v>0</v>
+      </c>
+      <c r="EK10">
+        <v>0</v>
+      </c>
+      <c r="EL10">
+        <v>0</v>
+      </c>
+      <c r="EM10">
+        <v>62</v>
+      </c>
+      <c r="EN10">
+        <v>103</v>
+      </c>
+      <c r="EO10">
+        <v>1</v>
+      </c>
+      <c r="EP10">
+        <v>0</v>
+      </c>
+      <c r="EQ10">
+        <v>1</v>
+      </c>
+      <c r="ER10">
+        <v>0</v>
+      </c>
+      <c r="ES10">
+        <v>0</v>
+      </c>
+      <c r="ET10">
+        <v>0</v>
+      </c>
+      <c r="EU10">
+        <v>0</v>
+      </c>
+      <c r="EV10">
+        <v>-298</v>
+      </c>
+      <c r="EW10">
+        <v>231115</v>
+      </c>
+      <c r="EX10">
+        <v>219456</v>
+      </c>
+      <c r="EY10">
+        <v>408</v>
+      </c>
+      <c r="EZ10">
+        <v>15450</v>
+      </c>
+      <c r="FA10">
+        <v>35647</v>
+      </c>
+      <c r="FB10">
+        <v>307895</v>
+      </c>
+      <c r="FC10">
+        <v>292538</v>
+      </c>
+      <c r="FD10">
+        <v>466</v>
+      </c>
+      <c r="FE10">
+        <v>16773</v>
+      </c>
+      <c r="FF10">
+        <v>50033</v>
+      </c>
+      <c r="FG10">
+        <v>352999</v>
+      </c>
+      <c r="FH10">
+        <v>342401</v>
+      </c>
+      <c r="FI10">
+        <v>633</v>
+      </c>
+      <c r="FJ10">
+        <v>16955</v>
+      </c>
+      <c r="FK10">
+        <v>60083</v>
+      </c>
+      <c r="FL10">
+        <v>326053</v>
+      </c>
+      <c r="FM10">
+        <v>373539</v>
+      </c>
+      <c r="FN10">
+        <v>894</v>
+      </c>
+      <c r="FO10">
+        <v>12939</v>
+      </c>
+      <c r="FP10">
+        <v>45821</v>
+      </c>
+      <c r="FQ10">
+        <v>391782</v>
+      </c>
+      <c r="FR10">
+        <v>479049</v>
+      </c>
+      <c r="FS10">
+        <v>1100</v>
+      </c>
+      <c r="FT10">
+        <v>16279</v>
+      </c>
+      <c r="FU10">
+        <v>41413</v>
+      </c>
+      <c r="FV10">
+        <v>433462</v>
+      </c>
+      <c r="FW10">
+        <v>525324</v>
+      </c>
+      <c r="FX10">
+        <v>1135</v>
+      </c>
+      <c r="FY10">
+        <v>17790</v>
+      </c>
+      <c r="FZ10">
+        <v>47511</v>
+      </c>
+      <c r="GA10">
+        <v>428739</v>
+      </c>
+      <c r="GB10">
+        <v>531345</v>
+      </c>
+      <c r="GC10">
+        <v>922</v>
+      </c>
+      <c r="GD10">
+        <v>17168</v>
+      </c>
+      <c r="GE10">
+        <v>54818</v>
+      </c>
+      <c r="GF10">
+        <v>419295</v>
+      </c>
+      <c r="GG10">
+        <v>523777</v>
+      </c>
+      <c r="GH10">
+        <v>665</v>
+      </c>
+      <c r="GI10">
+        <v>15033</v>
+      </c>
+      <c r="GJ10">
+        <v>58823</v>
+      </c>
+      <c r="GK10">
+        <v>373069</v>
+      </c>
+      <c r="GL10">
+        <v>468098</v>
+      </c>
+      <c r="GM10">
+        <v>498</v>
+      </c>
+      <c r="GN10">
+        <v>12350</v>
+      </c>
+      <c r="GO10">
+        <v>53163</v>
+      </c>
+      <c r="GP10">
+        <v>329906</v>
+      </c>
+      <c r="GQ10">
+        <v>420337</v>
+      </c>
+      <c r="GR10">
+        <v>439</v>
+      </c>
+      <c r="GS10">
+        <v>10134</v>
+      </c>
+      <c r="GT10">
+        <v>45321</v>
+      </c>
+      <c r="GU10">
+        <v>307649</v>
+      </c>
+      <c r="GV10">
+        <v>388577</v>
+      </c>
+      <c r="GW10">
+        <v>399</v>
+      </c>
+      <c r="GX10">
+        <v>8956</v>
+      </c>
+      <c r="GY10">
+        <v>40260</v>
+      </c>
+      <c r="GZ10">
+        <v>263078</v>
+      </c>
+      <c r="HA10">
+        <v>319087</v>
+      </c>
+      <c r="HB10">
+        <v>329</v>
+      </c>
+      <c r="HC10">
+        <v>6610</v>
+      </c>
+      <c r="HD10">
+        <v>31748</v>
+      </c>
+      <c r="HE10">
+        <v>233913</v>
+      </c>
+      <c r="HF10">
+        <v>276440</v>
+      </c>
+      <c r="HG10">
+        <v>234</v>
+      </c>
+      <c r="HH10">
+        <v>5322</v>
+      </c>
+      <c r="HI10">
+        <v>25960</v>
+      </c>
+      <c r="HJ10">
+        <v>180268</v>
+      </c>
+      <c r="HK10">
+        <v>203597</v>
+      </c>
+      <c r="HL10">
+        <v>199</v>
+      </c>
+      <c r="HM10">
+        <v>3678</v>
+      </c>
+      <c r="HN10">
+        <v>18521</v>
+      </c>
+      <c r="HO10">
+        <v>151004</v>
+      </c>
+      <c r="HP10">
+        <v>157628</v>
+      </c>
+      <c r="HQ10">
+        <v>163</v>
+      </c>
+      <c r="HR10">
+        <v>2689</v>
+      </c>
+      <c r="HS10">
+        <v>12351</v>
+      </c>
+      <c r="HT10">
+        <v>115206</v>
+      </c>
+      <c r="HU10">
+        <v>114018</v>
+      </c>
+      <c r="HV10">
+        <v>164</v>
+      </c>
+      <c r="HW10">
+        <v>1893</v>
+      </c>
+      <c r="HX10">
+        <v>7810</v>
+      </c>
+      <c r="HY10">
+        <v>75246</v>
+      </c>
+      <c r="HZ10">
+        <v>79008</v>
+      </c>
+      <c r="IA10">
+        <v>131</v>
+      </c>
+      <c r="IB10">
+        <v>1280</v>
+      </c>
+      <c r="IC10">
+        <v>4532</v>
+      </c>
+      <c r="ID10">
+        <v>80322</v>
+      </c>
+      <c r="IE10">
+        <v>120771</v>
+      </c>
+      <c r="IF10">
+        <v>305</v>
+      </c>
+      <c r="IG10">
+        <v>2267</v>
+      </c>
+      <c r="IH10">
+        <v>3844</v>
+      </c>
+      <c r="II10">
+        <v>2150</v>
+      </c>
+      <c r="IJ10">
+        <v>2307</v>
+      </c>
+      <c r="IK10">
+        <v>22</v>
+      </c>
+      <c r="IL10">
+        <v>201</v>
+      </c>
+      <c r="IM10">
+        <v>13490</v>
       </c>
     </row>
   </sheetData>
@@ -8793,7 +9536,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45247</v>
+        <v>45248</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DB9C27-1753-4EE4-B8E2-26A28E2FABFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D7A90-0FCB-4491-BB92-F74DBBC827D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1809,7 +1809,7 @@
         <v>44197</v>
       </c>
       <c r="B3">
-        <v>538954</v>
+        <v>538955</v>
       </c>
       <c r="C3">
         <v>280240</v>
@@ -1827,7 +1827,7 @@
         <v>18548</v>
       </c>
       <c r="H3">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="I3">
         <v>6390</v>
@@ -1836,7 +1836,7 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568068</v>
+        <v>568069</v>
       </c>
       <c r="L3">
         <v>285284</v>
@@ -1854,7 +1854,7 @@
         <v>19161</v>
       </c>
       <c r="Q3">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="R3">
         <v>6552</v>
@@ -1866,7 +1866,7 @@
         <v>22516</v>
       </c>
       <c r="U3">
-        <v>32427</v>
+        <v>32428</v>
       </c>
       <c r="V3">
         <v>30557</v>
@@ -1923,7 +1923,7 @@
         <v>23263</v>
       </c>
       <c r="AN3">
-        <v>33198</v>
+        <v>33199</v>
       </c>
       <c r="AO3">
         <v>31510</v>
@@ -2009,7 +2009,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885698</v>
+        <v>10885699</v>
       </c>
       <c r="L4">
         <v>3653398</v>
@@ -2027,7 +2027,7 @@
         <v>867232</v>
       </c>
       <c r="Q4">
-        <v>281543</v>
+        <v>281544</v>
       </c>
       <c r="R4">
         <v>228337</v>
@@ -2042,40 +2042,40 @@
         <v>611168</v>
       </c>
       <c r="V4">
-        <v>710037</v>
+        <v>710035</v>
       </c>
       <c r="W4">
-        <v>683418</v>
+        <v>683419</v>
       </c>
       <c r="X4">
-        <v>812076</v>
+        <v>812074</v>
       </c>
       <c r="Y4">
-        <v>899954</v>
+        <v>899957</v>
       </c>
       <c r="Z4">
-        <v>916965</v>
+        <v>916961</v>
       </c>
       <c r="AA4">
-        <v>908870</v>
+        <v>908871</v>
       </c>
       <c r="AB4">
-        <v>810299</v>
+        <v>810300</v>
       </c>
       <c r="AC4">
-        <v>717660</v>
+        <v>717661</v>
       </c>
       <c r="AD4">
-        <v>658699</v>
+        <v>658698</v>
       </c>
       <c r="AE4">
-        <v>544176</v>
+        <v>544178</v>
       </c>
       <c r="AF4">
-        <v>471610</v>
+        <v>471609</v>
       </c>
       <c r="AG4">
-        <v>349121</v>
+        <v>349122</v>
       </c>
       <c r="AH4">
         <v>274360</v>
@@ -2096,43 +2096,43 @@
         <v>474137</v>
       </c>
       <c r="AN4">
-        <v>644366</v>
+        <v>644367</v>
       </c>
       <c r="AO4">
-        <v>741547</v>
+        <v>741545</v>
       </c>
       <c r="AP4">
-        <v>728672</v>
+        <v>728673</v>
       </c>
       <c r="AQ4">
-        <v>890304</v>
+        <v>890302</v>
       </c>
       <c r="AR4">
-        <v>974395</v>
+        <v>974398</v>
       </c>
       <c r="AS4">
-        <v>975343</v>
+        <v>975339</v>
       </c>
       <c r="AT4">
-        <v>953859</v>
+        <v>953860</v>
       </c>
       <c r="AU4">
-        <v>845916</v>
+        <v>845917</v>
       </c>
       <c r="AV4">
-        <v>749739</v>
+        <v>749740</v>
       </c>
       <c r="AW4">
-        <v>688388</v>
+        <v>688387</v>
       </c>
       <c r="AX4">
-        <v>568183</v>
+        <v>568185</v>
       </c>
       <c r="AY4">
-        <v>490150</v>
+        <v>490149</v>
       </c>
       <c r="AZ4">
-        <v>362094</v>
+        <v>362095</v>
       </c>
       <c r="BA4">
         <v>283671</v>
@@ -2155,25 +2155,25 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>798772</v>
+        <v>799625</v>
       </c>
       <c r="C5">
-        <v>290675</v>
+        <v>290995</v>
       </c>
       <c r="D5">
         <v>150151</v>
       </c>
       <c r="E5">
-        <v>126990</v>
+        <v>127194</v>
       </c>
       <c r="F5">
         <v>91679</v>
       </c>
       <c r="G5">
-        <v>83818</v>
+        <v>84048</v>
       </c>
       <c r="H5">
-        <v>27983</v>
+        <v>28082</v>
       </c>
       <c r="I5">
         <v>21413</v>
@@ -2182,25 +2182,25 @@
         <v>6063</v>
       </c>
       <c r="K5">
-        <v>11684470</v>
+        <v>11685324</v>
       </c>
       <c r="L5">
-        <v>3944073</v>
+        <v>3944393</v>
       </c>
       <c r="M5">
         <v>2991631</v>
       </c>
       <c r="N5">
-        <v>1746865</v>
+        <v>1747069</v>
       </c>
       <c r="O5">
         <v>1381545</v>
       </c>
       <c r="P5">
-        <v>951050</v>
+        <v>951280</v>
       </c>
       <c r="Q5">
-        <v>309526</v>
+        <v>309626</v>
       </c>
       <c r="R5">
         <v>249750</v>
@@ -2209,118 +2209,118 @@
         <v>110030</v>
       </c>
       <c r="T5">
-        <v>27939</v>
+        <v>27992</v>
       </c>
       <c r="U5">
-        <v>23339</v>
+        <v>23353</v>
       </c>
       <c r="V5">
-        <v>31524</v>
+        <v>31546</v>
       </c>
       <c r="W5">
-        <v>30574</v>
+        <v>30601</v>
       </c>
       <c r="X5">
-        <v>39319</v>
+        <v>39350</v>
       </c>
       <c r="Y5">
-        <v>50827</v>
+        <v>50864</v>
       </c>
       <c r="Z5">
-        <v>57649</v>
+        <v>57685</v>
       </c>
       <c r="AA5">
-        <v>63734</v>
+        <v>63800</v>
       </c>
       <c r="AB5">
-        <v>61262</v>
+        <v>61317</v>
       </c>
       <c r="AC5">
-        <v>56398</v>
+        <v>56448</v>
       </c>
       <c r="AD5">
-        <v>57453</v>
+        <v>57511</v>
       </c>
       <c r="AE5">
-        <v>52669</v>
+        <v>52721</v>
       </c>
       <c r="AF5">
-        <v>51719</v>
+        <v>51778</v>
       </c>
       <c r="AG5">
-        <v>44169</v>
+        <v>44239</v>
       </c>
       <c r="AH5">
-        <v>40164</v>
+        <v>40225</v>
       </c>
       <c r="AI5">
-        <v>34815</v>
+        <v>34855</v>
       </c>
       <c r="AJ5">
-        <v>27905</v>
+        <v>27946</v>
       </c>
       <c r="AK5">
-        <v>46727</v>
+        <v>46809</v>
       </c>
       <c r="AL5">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AM5">
-        <v>502076</v>
+        <v>502129</v>
       </c>
       <c r="AN5">
-        <v>667705</v>
+        <v>667720</v>
       </c>
       <c r="AO5">
-        <v>773071</v>
+        <v>773091</v>
       </c>
       <c r="AP5">
-        <v>759246</v>
+        <v>759274</v>
       </c>
       <c r="AQ5">
-        <v>929623</v>
+        <v>929652</v>
       </c>
       <c r="AR5">
-        <v>1025222</v>
+        <v>1025262</v>
       </c>
       <c r="AS5">
-        <v>1032992</v>
+        <v>1033024</v>
       </c>
       <c r="AT5">
-        <v>1017593</v>
+        <v>1017660</v>
       </c>
       <c r="AU5">
-        <v>907178</v>
+        <v>907234</v>
       </c>
       <c r="AV5">
-        <v>806137</v>
+        <v>806188</v>
       </c>
       <c r="AW5">
-        <v>745841</v>
+        <v>745898</v>
       </c>
       <c r="AX5">
-        <v>620852</v>
+        <v>620906</v>
       </c>
       <c r="AY5">
-        <v>541869</v>
+        <v>541927</v>
       </c>
       <c r="AZ5">
-        <v>406263</v>
+        <v>406334</v>
       </c>
       <c r="BA5">
-        <v>323835</v>
+        <v>323896</v>
       </c>
       <c r="BB5">
-        <v>239091</v>
+        <v>239131</v>
       </c>
       <c r="BC5">
-        <v>160197</v>
+        <v>160238</v>
       </c>
       <c r="BD5">
-        <v>207509</v>
+        <v>207591</v>
       </c>
       <c r="BE5">
-        <v>18170</v>
+        <v>18169</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3466,7 @@
         <v>44378</v>
       </c>
       <c r="B20" s="3">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="C20" s="3">
         <v>3769</v>
@@ -3484,7 +3484,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
         <v>6</v>
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="3">
-        <v>36309</v>
+        <v>36310</v>
       </c>
       <c r="L20" s="3">
         <v>9759</v>
@@ -3511,7 +3511,7 @@
         <v>897</v>
       </c>
       <c r="Q20" s="3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R20" s="3">
         <v>256</v>
@@ -3552,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="3">
-        <v>59823</v>
+        <v>59824</v>
       </c>
       <c r="L21" s="3">
         <v>30988</v>
@@ -3570,7 +3570,7 @@
         <v>908</v>
       </c>
       <c r="Q21" s="3">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R21" s="3">
         <v>592</v>
@@ -3611,7 +3611,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="3">
-        <v>114210</v>
+        <v>114211</v>
       </c>
       <c r="L22" s="3">
         <v>64778</v>
@@ -3629,7 +3629,7 @@
         <v>933</v>
       </c>
       <c r="Q22" s="3">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R22" s="3">
         <v>1252</v>
@@ -3670,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="3">
-        <v>175206</v>
+        <v>175207</v>
       </c>
       <c r="L23" s="3">
         <v>75564</v>
@@ -3688,7 +3688,7 @@
         <v>952</v>
       </c>
       <c r="Q23" s="3">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R23" s="3">
         <v>1936</v>
@@ -3729,7 +3729,7 @@
         <v>70</v>
       </c>
       <c r="K24" s="3">
-        <v>215935</v>
+        <v>215936</v>
       </c>
       <c r="L24" s="3">
         <v>82234</v>
@@ -3747,7 +3747,7 @@
         <v>1000</v>
       </c>
       <c r="Q24" s="3">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R24" s="3">
         <v>2293</v>
@@ -3788,7 +3788,7 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568068</v>
+        <v>568069</v>
       </c>
       <c r="L25" s="3">
         <v>285284</v>
@@ -3806,7 +3806,7 @@
         <v>19161</v>
       </c>
       <c r="Q25" s="3">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="R25" s="3">
         <v>6552</v>
@@ -3847,7 +3847,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377614</v>
+        <v>2377615</v>
       </c>
       <c r="L26" s="3">
         <v>922450</v>
@@ -3865,7 +3865,7 @@
         <v>109169</v>
       </c>
       <c r="Q26" s="3">
-        <v>29725</v>
+        <v>29726</v>
       </c>
       <c r="R26" s="3">
         <v>36975</v>
@@ -3906,7 +3906,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065125</v>
+        <v>3065126</v>
       </c>
       <c r="L27" s="3">
         <v>1152678</v>
@@ -3924,7 +3924,7 @@
         <v>153555</v>
       </c>
       <c r="Q27" s="3">
-        <v>47443</v>
+        <v>47444</v>
       </c>
       <c r="R27" s="3">
         <v>51580</v>
@@ -3965,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431881</v>
+        <v>4431882</v>
       </c>
       <c r="L28" s="3">
         <v>1689286</v>
@@ -3983,7 +3983,7 @@
         <v>274026</v>
       </c>
       <c r="Q28" s="3">
-        <v>93869</v>
+        <v>93870</v>
       </c>
       <c r="R28" s="3">
         <v>79114</v>
@@ -4024,7 +4024,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771682</v>
+        <v>5771683</v>
       </c>
       <c r="L29" s="3">
         <v>2121666</v>
@@ -4042,7 +4042,7 @@
         <v>413766</v>
       </c>
       <c r="Q29" s="3">
-        <v>137894</v>
+        <v>137895</v>
       </c>
       <c r="R29" s="3">
         <v>106422</v>
@@ -4083,7 +4083,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082033</v>
+        <v>7082034</v>
       </c>
       <c r="L30" s="3">
         <v>2418934</v>
@@ -4101,7 +4101,7 @@
         <v>521891</v>
       </c>
       <c r="Q30" s="3">
-        <v>166163</v>
+        <v>166164</v>
       </c>
       <c r="R30" s="3">
         <v>134129</v>
@@ -4142,7 +4142,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966318</v>
+        <v>7966319</v>
       </c>
       <c r="L31" s="3">
         <v>2652835</v>
@@ -4160,7 +4160,7 @@
         <v>599195</v>
       </c>
       <c r="Q31" s="3">
-        <v>190881</v>
+        <v>190882</v>
       </c>
       <c r="R31" s="3">
         <v>161034</v>
@@ -4201,7 +4201,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216669</v>
+        <v>9216670</v>
       </c>
       <c r="L32" s="3">
         <v>3031442</v>
@@ -4219,7 +4219,7 @@
         <v>716595</v>
       </c>
       <c r="Q32" s="3">
-        <v>233156</v>
+        <v>233157</v>
       </c>
       <c r="R32" s="3">
         <v>192684</v>
@@ -4260,7 +4260,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771528</v>
+        <v>9771529</v>
       </c>
       <c r="L33" s="3">
         <v>3261491</v>
@@ -4278,7 +4278,7 @@
         <v>757105</v>
       </c>
       <c r="Q33" s="3">
-        <v>246059</v>
+        <v>246060</v>
       </c>
       <c r="R33" s="3">
         <v>203231</v>
@@ -4319,7 +4319,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965784</v>
+        <v>9965785</v>
       </c>
       <c r="L34" s="3">
         <v>3330343</v>
@@ -4337,7 +4337,7 @@
         <v>772390</v>
       </c>
       <c r="Q34" s="3">
-        <v>249935</v>
+        <v>249936</v>
       </c>
       <c r="R34" s="3">
         <v>206497</v>
@@ -4378,7 +4378,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107889</v>
+        <v>10107890</v>
       </c>
       <c r="L35" s="3">
         <v>3374842</v>
@@ -4396,7 +4396,7 @@
         <v>785565</v>
       </c>
       <c r="Q35" s="3">
-        <v>253589</v>
+        <v>253590</v>
       </c>
       <c r="R35" s="3">
         <v>209534</v>
@@ -4437,7 +4437,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459832</v>
+        <v>10459833</v>
       </c>
       <c r="L36" s="3">
         <v>3496935</v>
@@ -4455,7 +4455,7 @@
         <v>822727</v>
       </c>
       <c r="Q36" s="3">
-        <v>265273</v>
+        <v>265274</v>
       </c>
       <c r="R36" s="3">
         <v>216760</v>
@@ -4496,7 +4496,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885698</v>
+        <v>10885699</v>
       </c>
       <c r="L37" s="3">
         <v>3653398</v>
@@ -4514,7 +4514,7 @@
         <v>867232</v>
       </c>
       <c r="Q37" s="3">
-        <v>281543</v>
+        <v>281544</v>
       </c>
       <c r="R37" s="3">
         <v>228337</v>
@@ -4555,7 +4555,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015776</v>
+        <v>11015777</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4573,7 +4573,7 @@
         <v>879122</v>
       </c>
       <c r="Q38" s="3">
-        <v>285180</v>
+        <v>285181</v>
       </c>
       <c r="R38" s="3">
         <v>231590</v>
@@ -4614,7 +4614,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087765</v>
+        <v>11087766</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4632,7 +4632,7 @@
         <v>885975</v>
       </c>
       <c r="Q39" s="3">
-        <v>287111</v>
+        <v>287112</v>
       </c>
       <c r="R39" s="3">
         <v>233531</v>
@@ -4673,7 +4673,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191744</v>
+        <v>11191745</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4691,7 +4691,7 @@
         <v>897475</v>
       </c>
       <c r="Q40" s="3">
-        <v>290413</v>
+        <v>290414</v>
       </c>
       <c r="R40" s="3">
         <v>235744</v>
@@ -4732,7 +4732,7 @@
         <v>826</v>
       </c>
       <c r="K41" s="3">
-        <v>11314909</v>
+        <v>11314910</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4750,7 +4750,7 @@
         <v>909804</v>
       </c>
       <c r="Q41" s="3">
-        <v>294193</v>
+        <v>294194</v>
       </c>
       <c r="R41" s="3">
         <v>238341</v>
@@ -4791,7 +4791,7 @@
         <v>934</v>
       </c>
       <c r="K42" s="3">
-        <v>11481162</v>
+        <v>11481163</v>
       </c>
       <c r="L42" s="3">
         <v>3872847</v>
@@ -4809,7 +4809,7 @@
         <v>924717</v>
       </c>
       <c r="Q42" s="3">
-        <v>299397</v>
+        <v>299398</v>
       </c>
       <c r="R42" s="3">
         <v>242675</v>
@@ -4850,7 +4850,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11558968</v>
+        <v>11558969</v>
       </c>
       <c r="L43" s="3">
         <v>3901029</v>
@@ -4868,7 +4868,7 @@
         <v>931931</v>
       </c>
       <c r="Q43" s="3">
-        <v>301983</v>
+        <v>301984</v>
       </c>
       <c r="R43" s="3">
         <v>244664</v>
@@ -4909,7 +4909,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587190</v>
+        <v>11587191</v>
       </c>
       <c r="L44" s="3">
         <v>3911314</v>
@@ -4927,7 +4927,7 @@
         <v>934860</v>
       </c>
       <c r="Q44" s="3">
-        <v>303256</v>
+        <v>303257</v>
       </c>
       <c r="R44" s="3">
         <v>245517</v>
@@ -4968,7 +4968,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610635</v>
+        <v>11610636</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4986,7 +4986,7 @@
         <v>937309</v>
       </c>
       <c r="Q45" s="3">
-        <v>304420</v>
+        <v>304421</v>
       </c>
       <c r="R45" s="3">
         <v>246321</v>
@@ -5027,7 +5027,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632764</v>
+        <v>11632765</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5045,7 +5045,7 @@
         <v>940342</v>
       </c>
       <c r="Q46" s="3">
-        <v>305623</v>
+        <v>305624</v>
       </c>
       <c r="R46" s="3">
         <v>247063</v>
@@ -5086,7 +5086,7 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660680</v>
+        <v>11660681</v>
       </c>
       <c r="L47" s="3">
         <v>3937123</v>
@@ -5104,7 +5104,7 @@
         <v>945419</v>
       </c>
       <c r="Q47" s="3">
-        <v>307523</v>
+        <v>307524</v>
       </c>
       <c r="R47" s="3">
         <v>248551</v>
@@ -5118,25 +5118,25 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>23790</v>
+        <v>24643</v>
       </c>
       <c r="C48" s="3">
-        <v>6950</v>
+        <v>7270</v>
       </c>
       <c r="D48" s="3">
         <v>3345</v>
       </c>
       <c r="E48" s="3">
-        <v>3449</v>
+        <v>3653</v>
       </c>
       <c r="F48" s="3">
         <v>897</v>
       </c>
       <c r="G48" s="3">
-        <v>5631</v>
+        <v>5861</v>
       </c>
       <c r="H48" s="3">
-        <v>2003</v>
+        <v>2102</v>
       </c>
       <c r="I48" s="3">
         <v>1199</v>
@@ -5145,25 +5145,25 @@
         <v>316</v>
       </c>
       <c r="K48" s="3">
-        <v>11684470</v>
+        <v>11685324</v>
       </c>
       <c r="L48" s="3">
-        <v>3944073</v>
+        <v>3944393</v>
       </c>
       <c r="M48" s="3">
         <v>2991631</v>
       </c>
       <c r="N48" s="3">
-        <v>1746865</v>
+        <v>1747069</v>
       </c>
       <c r="O48" s="3">
         <v>1381545</v>
       </c>
       <c r="P48" s="3">
-        <v>951050</v>
+        <v>951280</v>
       </c>
       <c r="Q48" s="3">
-        <v>309526</v>
+        <v>309626</v>
       </c>
       <c r="R48" s="3">
         <v>249750</v>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM10"/>
+  <dimension ref="A1:IM11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9514,6 +9514,749 @@
         <v>13490</v>
       </c>
     </row>
+    <row r="11" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B11">
+        <v>854</v>
+      </c>
+      <c r="C11">
+        <v>320</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>204</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>230</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>11685324</v>
+      </c>
+      <c r="L11">
+        <v>3944393</v>
+      </c>
+      <c r="M11">
+        <v>2991631</v>
+      </c>
+      <c r="N11">
+        <v>1747069</v>
+      </c>
+      <c r="O11">
+        <v>1381545</v>
+      </c>
+      <c r="P11">
+        <v>951280</v>
+      </c>
+      <c r="Q11">
+        <v>309626</v>
+      </c>
+      <c r="R11">
+        <v>249750</v>
+      </c>
+      <c r="S11">
+        <v>110030</v>
+      </c>
+      <c r="T11">
+        <v>53</v>
+      </c>
+      <c r="U11">
+        <v>15</v>
+      </c>
+      <c r="V11">
+        <v>20</v>
+      </c>
+      <c r="W11">
+        <v>28</v>
+      </c>
+      <c r="X11">
+        <v>29</v>
+      </c>
+      <c r="Y11">
+        <v>40</v>
+      </c>
+      <c r="Z11">
+        <v>32</v>
+      </c>
+      <c r="AA11">
+        <v>67</v>
+      </c>
+      <c r="AB11">
+        <v>56</v>
+      </c>
+      <c r="AC11">
+        <v>51</v>
+      </c>
+      <c r="AD11">
+        <v>57</v>
+      </c>
+      <c r="AE11">
+        <v>54</v>
+      </c>
+      <c r="AF11">
+        <v>58</v>
+      </c>
+      <c r="AG11">
+        <v>71</v>
+      </c>
+      <c r="AH11">
+        <v>61</v>
+      </c>
+      <c r="AI11">
+        <v>40</v>
+      </c>
+      <c r="AJ11">
+        <v>41</v>
+      </c>
+      <c r="AK11">
+        <v>82</v>
+      </c>
+      <c r="AL11">
+        <v>-1</v>
+      </c>
+      <c r="AM11">
+        <v>502129</v>
+      </c>
+      <c r="AN11">
+        <v>667720</v>
+      </c>
+      <c r="AO11">
+        <v>773091</v>
+      </c>
+      <c r="AP11">
+        <v>759274</v>
+      </c>
+      <c r="AQ11">
+        <v>929652</v>
+      </c>
+      <c r="AR11">
+        <v>1025262</v>
+      </c>
+      <c r="AS11">
+        <v>1033024</v>
+      </c>
+      <c r="AT11">
+        <v>1017660</v>
+      </c>
+      <c r="AU11">
+        <v>907234</v>
+      </c>
+      <c r="AV11">
+        <v>806188</v>
+      </c>
+      <c r="AW11">
+        <v>745898</v>
+      </c>
+      <c r="AX11">
+        <v>620906</v>
+      </c>
+      <c r="AY11">
+        <v>541927</v>
+      </c>
+      <c r="AZ11">
+        <v>406334</v>
+      </c>
+      <c r="BA11">
+        <v>323896</v>
+      </c>
+      <c r="BB11">
+        <v>239131</v>
+      </c>
+      <c r="BC11">
+        <v>160238</v>
+      </c>
+      <c r="BD11">
+        <v>207591</v>
+      </c>
+      <c r="BE11">
+        <v>18169</v>
+      </c>
+      <c r="BF11">
+        <v>27</v>
+      </c>
+      <c r="BG11">
+        <v>26</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>6</v>
+      </c>
+      <c r="BL11">
+        <v>9</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>10</v>
+      </c>
+      <c r="BQ11">
+        <v>10</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>13</v>
+      </c>
+      <c r="BV11">
+        <v>15</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>4</v>
+      </c>
+      <c r="CA11">
+        <v>24</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>1</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>19</v>
+      </c>
+      <c r="CF11">
+        <v>21</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>10</v>
+      </c>
+      <c r="CK11">
+        <v>22</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>21</v>
+      </c>
+      <c r="CP11">
+        <v>46</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>16</v>
+      </c>
+      <c r="CU11">
+        <v>40</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>21</v>
+      </c>
+      <c r="CZ11">
+        <v>30</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>17</v>
+      </c>
+      <c r="DE11">
+        <v>40</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>24</v>
+      </c>
+      <c r="DJ11">
+        <v>30</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>0</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>26</v>
+      </c>
+      <c r="DO11">
+        <v>32</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
+        <v>26</v>
+      </c>
+      <c r="DT11">
+        <v>45</v>
+      </c>
+      <c r="DU11">
+        <v>0</v>
+      </c>
+      <c r="DV11">
+        <v>0</v>
+      </c>
+      <c r="DW11">
+        <v>0</v>
+      </c>
+      <c r="DX11">
+        <v>23</v>
+      </c>
+      <c r="DY11">
+        <v>38</v>
+      </c>
+      <c r="DZ11">
+        <v>0</v>
+      </c>
+      <c r="EA11">
+        <v>0</v>
+      </c>
+      <c r="EB11">
+        <v>0</v>
+      </c>
+      <c r="EC11">
+        <v>19</v>
+      </c>
+      <c r="ED11">
+        <v>21</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
+      </c>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+      <c r="EG11">
+        <v>0</v>
+      </c>
+      <c r="EH11">
+        <v>18</v>
+      </c>
+      <c r="EI11">
+        <v>23</v>
+      </c>
+      <c r="EJ11">
+        <v>0</v>
+      </c>
+      <c r="EK11">
+        <v>0</v>
+      </c>
+      <c r="EL11">
+        <v>0</v>
+      </c>
+      <c r="EM11">
+        <v>32</v>
+      </c>
+      <c r="EN11">
+        <v>50</v>
+      </c>
+      <c r="EO11">
+        <v>0</v>
+      </c>
+      <c r="EP11">
+        <v>0</v>
+      </c>
+      <c r="EQ11">
+        <v>0</v>
+      </c>
+      <c r="ER11">
+        <v>0</v>
+      </c>
+      <c r="ES11">
+        <v>0</v>
+      </c>
+      <c r="ET11">
+        <v>0</v>
+      </c>
+      <c r="EU11">
+        <v>0</v>
+      </c>
+      <c r="EV11">
+        <v>-1</v>
+      </c>
+      <c r="EW11">
+        <v>231142</v>
+      </c>
+      <c r="EX11">
+        <v>219482</v>
+      </c>
+      <c r="EY11">
+        <v>408</v>
+      </c>
+      <c r="EZ11">
+        <v>15450</v>
+      </c>
+      <c r="FA11">
+        <v>35647</v>
+      </c>
+      <c r="FB11">
+        <v>307901</v>
+      </c>
+      <c r="FC11">
+        <v>292547</v>
+      </c>
+      <c r="FD11">
+        <v>466</v>
+      </c>
+      <c r="FE11">
+        <v>16773</v>
+      </c>
+      <c r="FF11">
+        <v>50033</v>
+      </c>
+      <c r="FG11">
+        <v>353009</v>
+      </c>
+      <c r="FH11">
+        <v>342411</v>
+      </c>
+      <c r="FI11">
+        <v>633</v>
+      </c>
+      <c r="FJ11">
+        <v>16955</v>
+      </c>
+      <c r="FK11">
+        <v>60083</v>
+      </c>
+      <c r="FL11">
+        <v>326066</v>
+      </c>
+      <c r="FM11">
+        <v>373554</v>
+      </c>
+      <c r="FN11">
+        <v>894</v>
+      </c>
+      <c r="FO11">
+        <v>12939</v>
+      </c>
+      <c r="FP11">
+        <v>45821</v>
+      </c>
+      <c r="FQ11">
+        <v>391786</v>
+      </c>
+      <c r="FR11">
+        <v>479073</v>
+      </c>
+      <c r="FS11">
+        <v>1100</v>
+      </c>
+      <c r="FT11">
+        <v>16280</v>
+      </c>
+      <c r="FU11">
+        <v>41413</v>
+      </c>
+      <c r="FV11">
+        <v>433481</v>
+      </c>
+      <c r="FW11">
+        <v>525345</v>
+      </c>
+      <c r="FX11">
+        <v>1135</v>
+      </c>
+      <c r="FY11">
+        <v>17790</v>
+      </c>
+      <c r="FZ11">
+        <v>47511</v>
+      </c>
+      <c r="GA11">
+        <v>428749</v>
+      </c>
+      <c r="GB11">
+        <v>531367</v>
+      </c>
+      <c r="GC11">
+        <v>922</v>
+      </c>
+      <c r="GD11">
+        <v>17168</v>
+      </c>
+      <c r="GE11">
+        <v>54818</v>
+      </c>
+      <c r="GF11">
+        <v>419316</v>
+      </c>
+      <c r="GG11">
+        <v>523823</v>
+      </c>
+      <c r="GH11">
+        <v>665</v>
+      </c>
+      <c r="GI11">
+        <v>15033</v>
+      </c>
+      <c r="GJ11">
+        <v>58823</v>
+      </c>
+      <c r="GK11">
+        <v>373085</v>
+      </c>
+      <c r="GL11">
+        <v>468138</v>
+      </c>
+      <c r="GM11">
+        <v>498</v>
+      </c>
+      <c r="GN11">
+        <v>12350</v>
+      </c>
+      <c r="GO11">
+        <v>53163</v>
+      </c>
+      <c r="GP11">
+        <v>329927</v>
+      </c>
+      <c r="GQ11">
+        <v>420367</v>
+      </c>
+      <c r="GR11">
+        <v>439</v>
+      </c>
+      <c r="GS11">
+        <v>10134</v>
+      </c>
+      <c r="GT11">
+        <v>45321</v>
+      </c>
+      <c r="GU11">
+        <v>307666</v>
+      </c>
+      <c r="GV11">
+        <v>388617</v>
+      </c>
+      <c r="GW11">
+        <v>399</v>
+      </c>
+      <c r="GX11">
+        <v>8956</v>
+      </c>
+      <c r="GY11">
+        <v>40260</v>
+      </c>
+      <c r="GZ11">
+        <v>263102</v>
+      </c>
+      <c r="HA11">
+        <v>319117</v>
+      </c>
+      <c r="HB11">
+        <v>329</v>
+      </c>
+      <c r="HC11">
+        <v>6610</v>
+      </c>
+      <c r="HD11">
+        <v>31748</v>
+      </c>
+      <c r="HE11">
+        <v>233939</v>
+      </c>
+      <c r="HF11">
+        <v>276472</v>
+      </c>
+      <c r="HG11">
+        <v>234</v>
+      </c>
+      <c r="HH11">
+        <v>5322</v>
+      </c>
+      <c r="HI11">
+        <v>25960</v>
+      </c>
+      <c r="HJ11">
+        <v>180294</v>
+      </c>
+      <c r="HK11">
+        <v>203642</v>
+      </c>
+      <c r="HL11">
+        <v>199</v>
+      </c>
+      <c r="HM11">
+        <v>3678</v>
+      </c>
+      <c r="HN11">
+        <v>18521</v>
+      </c>
+      <c r="HO11">
+        <v>151027</v>
+      </c>
+      <c r="HP11">
+        <v>157666</v>
+      </c>
+      <c r="HQ11">
+        <v>163</v>
+      </c>
+      <c r="HR11">
+        <v>2689</v>
+      </c>
+      <c r="HS11">
+        <v>12351</v>
+      </c>
+      <c r="HT11">
+        <v>115225</v>
+      </c>
+      <c r="HU11">
+        <v>114039</v>
+      </c>
+      <c r="HV11">
+        <v>164</v>
+      </c>
+      <c r="HW11">
+        <v>1893</v>
+      </c>
+      <c r="HX11">
+        <v>7810</v>
+      </c>
+      <c r="HY11">
+        <v>75264</v>
+      </c>
+      <c r="HZ11">
+        <v>79031</v>
+      </c>
+      <c r="IA11">
+        <v>131</v>
+      </c>
+      <c r="IB11">
+        <v>1280</v>
+      </c>
+      <c r="IC11">
+        <v>4532</v>
+      </c>
+      <c r="ID11">
+        <v>80354</v>
+      </c>
+      <c r="IE11">
+        <v>120821</v>
+      </c>
+      <c r="IF11">
+        <v>305</v>
+      </c>
+      <c r="IG11">
+        <v>2267</v>
+      </c>
+      <c r="IH11">
+        <v>3844</v>
+      </c>
+      <c r="II11">
+        <v>2150</v>
+      </c>
+      <c r="IJ11">
+        <v>2307</v>
+      </c>
+      <c r="IK11">
+        <v>22</v>
+      </c>
+      <c r="IL11">
+        <v>201</v>
+      </c>
+      <c r="IM11">
+        <v>13489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9523,7 +10266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E36B237-192B-43E1-BDD4-2460A91BB66C}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9536,7 +10281,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45248</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5D7A90-0FCB-4491-BB92-F74DBBC827D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0D672-4F15-4001-9ADB-D2B7270BF415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1732,13 +1732,13 @@
         <v>1032</v>
       </c>
       <c r="AH2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AI2">
         <v>760</v>
       </c>
       <c r="AJ2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AK2">
         <v>1443</v>
@@ -1789,13 +1789,13 @@
         <v>1032</v>
       </c>
       <c r="BA2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="BB2">
         <v>760</v>
       </c>
       <c r="BC2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="BD2">
         <v>1443</v>
@@ -1872,49 +1872,49 @@
         <v>30557</v>
       </c>
       <c r="W3">
-        <v>43745</v>
+        <v>43743</v>
       </c>
       <c r="X3">
-        <v>75259</v>
+        <v>75258</v>
       </c>
       <c r="Y3">
-        <v>70911</v>
+        <v>70912</v>
       </c>
       <c r="Z3">
-        <v>55515</v>
+        <v>55516</v>
       </c>
       <c r="AA3">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="AB3">
-        <v>33828</v>
+        <v>33827</v>
       </c>
       <c r="AC3">
-        <v>30114</v>
+        <v>30112</v>
       </c>
       <c r="AD3">
-        <v>27883</v>
+        <v>27886</v>
       </c>
       <c r="AE3">
-        <v>22329</v>
+        <v>22326</v>
       </c>
       <c r="AF3">
         <v>17079</v>
       </c>
       <c r="AG3">
-        <v>11941</v>
+        <v>11938</v>
       </c>
       <c r="AH3">
-        <v>8399</v>
+        <v>8405</v>
       </c>
       <c r="AI3">
-        <v>5714</v>
+        <v>5713</v>
       </c>
       <c r="AJ3">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="AK3">
-        <v>3917</v>
+        <v>3919</v>
       </c>
       <c r="AL3">
         <v>350</v>
@@ -1929,49 +1929,49 @@
         <v>31510</v>
       </c>
       <c r="AP3">
-        <v>45254</v>
+        <v>45252</v>
       </c>
       <c r="AQ3">
-        <v>78228</v>
+        <v>78227</v>
       </c>
       <c r="AR3">
-        <v>74441</v>
+        <v>74442</v>
       </c>
       <c r="AS3">
-        <v>58378</v>
+        <v>58379</v>
       </c>
       <c r="AT3">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="AU3">
-        <v>35617</v>
+        <v>35616</v>
       </c>
       <c r="AV3">
-        <v>32079</v>
+        <v>32077</v>
       </c>
       <c r="AW3">
-        <v>29689</v>
+        <v>29692</v>
       </c>
       <c r="AX3">
-        <v>24007</v>
+        <v>24004</v>
       </c>
       <c r="AY3">
         <v>18540</v>
       </c>
       <c r="AZ3">
-        <v>12973</v>
+        <v>12970</v>
       </c>
       <c r="BA3">
-        <v>9311</v>
+        <v>9316</v>
       </c>
       <c r="BB3">
-        <v>6474</v>
+        <v>6473</v>
       </c>
       <c r="BC3">
         <v>4384</v>
       </c>
       <c r="BD3">
-        <v>5360</v>
+        <v>5362</v>
       </c>
       <c r="BE3">
         <v>373</v>
@@ -1982,7 +1982,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317630</v>
+        <v>10317719</v>
       </c>
       <c r="C4">
         <v>3368114</v>
@@ -1997,7 +1997,7 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848071</v>
+        <v>848160</v>
       </c>
       <c r="H4">
         <v>279667</v>
@@ -2009,7 +2009,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885699</v>
+        <v>10885788</v>
       </c>
       <c r="L4">
         <v>3653398</v>
@@ -2024,7 +2024,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867232</v>
+        <v>867321</v>
       </c>
       <c r="Q4">
         <v>281544</v>
@@ -2036,118 +2036,118 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450874</v>
+        <v>450862</v>
       </c>
       <c r="U4">
-        <v>611168</v>
+        <v>611177</v>
       </c>
       <c r="V4">
-        <v>710035</v>
+        <v>710028</v>
       </c>
       <c r="W4">
-        <v>683419</v>
+        <v>683390</v>
       </c>
       <c r="X4">
         <v>812074</v>
       </c>
       <c r="Y4">
-        <v>899957</v>
+        <v>899956</v>
       </c>
       <c r="Z4">
-        <v>916961</v>
+        <v>916972</v>
       </c>
       <c r="AA4">
-        <v>908871</v>
+        <v>908862</v>
       </c>
       <c r="AB4">
-        <v>810300</v>
+        <v>810310</v>
       </c>
       <c r="AC4">
-        <v>717661</v>
+        <v>717634</v>
       </c>
       <c r="AD4">
-        <v>658698</v>
+        <v>658684</v>
       </c>
       <c r="AE4">
-        <v>544178</v>
+        <v>544155</v>
       </c>
       <c r="AF4">
-        <v>471609</v>
+        <v>471559</v>
       </c>
       <c r="AG4">
-        <v>349122</v>
+        <v>349087</v>
       </c>
       <c r="AH4">
-        <v>274360</v>
+        <v>274359</v>
       </c>
       <c r="AI4">
-        <v>197802</v>
+        <v>197872</v>
       </c>
       <c r="AJ4">
-        <v>127908</v>
+        <v>128002</v>
       </c>
       <c r="AK4">
-        <v>155422</v>
+        <v>155528</v>
       </c>
       <c r="AL4">
-        <v>17211</v>
+        <v>17208</v>
       </c>
       <c r="AM4">
-        <v>474137</v>
+        <v>474125</v>
       </c>
       <c r="AN4">
-        <v>644367</v>
+        <v>644376</v>
       </c>
       <c r="AO4">
-        <v>741545</v>
+        <v>741538</v>
       </c>
       <c r="AP4">
-        <v>728673</v>
+        <v>728642</v>
       </c>
       <c r="AQ4">
-        <v>890302</v>
+        <v>890301</v>
       </c>
       <c r="AR4">
         <v>974398</v>
       </c>
       <c r="AS4">
-        <v>975339</v>
+        <v>975351</v>
       </c>
       <c r="AT4">
-        <v>953860</v>
+        <v>953852</v>
       </c>
       <c r="AU4">
-        <v>845917</v>
+        <v>845926</v>
       </c>
       <c r="AV4">
-        <v>749740</v>
+        <v>749711</v>
       </c>
       <c r="AW4">
-        <v>688387</v>
+        <v>688376</v>
       </c>
       <c r="AX4">
-        <v>568185</v>
+        <v>568159</v>
       </c>
       <c r="AY4">
-        <v>490149</v>
+        <v>490099</v>
       </c>
       <c r="AZ4">
-        <v>362095</v>
+        <v>362057</v>
       </c>
       <c r="BA4">
-        <v>283671</v>
+        <v>283675</v>
       </c>
       <c r="BB4">
-        <v>204276</v>
+        <v>204345</v>
       </c>
       <c r="BC4">
-        <v>132292</v>
+        <v>132386</v>
       </c>
       <c r="BD4">
-        <v>160782</v>
+        <v>160890</v>
       </c>
       <c r="BE4">
-        <v>17584</v>
+        <v>17581</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -2155,22 +2155,22 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>799625</v>
+        <v>800208</v>
       </c>
       <c r="C5">
-        <v>290995</v>
+        <v>291188</v>
       </c>
       <c r="D5">
         <v>150151</v>
       </c>
       <c r="E5">
-        <v>127194</v>
+        <v>127347</v>
       </c>
       <c r="F5">
         <v>91679</v>
       </c>
       <c r="G5">
-        <v>84048</v>
+        <v>84285</v>
       </c>
       <c r="H5">
         <v>28082</v>
@@ -2182,22 +2182,22 @@
         <v>6063</v>
       </c>
       <c r="K5">
-        <v>11685324</v>
+        <v>11685996</v>
       </c>
       <c r="L5">
-        <v>3944393</v>
+        <v>3944586</v>
       </c>
       <c r="M5">
         <v>2991631</v>
       </c>
       <c r="N5">
-        <v>1747069</v>
+        <v>1747222</v>
       </c>
       <c r="O5">
         <v>1381545</v>
       </c>
       <c r="P5">
-        <v>951280</v>
+        <v>951606</v>
       </c>
       <c r="Q5">
         <v>309626</v>
@@ -2209,118 +2209,118 @@
         <v>110030</v>
       </c>
       <c r="T5">
-        <v>27992</v>
+        <v>28028</v>
       </c>
       <c r="U5">
-        <v>23353</v>
+        <v>23362</v>
       </c>
       <c r="V5">
-        <v>31546</v>
+        <v>31557</v>
       </c>
       <c r="W5">
-        <v>30601</v>
+        <v>30619</v>
       </c>
       <c r="X5">
-        <v>39350</v>
+        <v>39371</v>
       </c>
       <c r="Y5">
-        <v>50864</v>
+        <v>50887</v>
       </c>
       <c r="Z5">
-        <v>57685</v>
+        <v>57715</v>
       </c>
       <c r="AA5">
-        <v>63800</v>
+        <v>63847</v>
       </c>
       <c r="AB5">
-        <v>61317</v>
+        <v>61359</v>
       </c>
       <c r="AC5">
-        <v>56448</v>
+        <v>56487</v>
       </c>
       <c r="AD5">
-        <v>57511</v>
+        <v>57539</v>
       </c>
       <c r="AE5">
-        <v>52721</v>
+        <v>52760</v>
       </c>
       <c r="AF5">
-        <v>51778</v>
+        <v>51795</v>
       </c>
       <c r="AG5">
-        <v>44239</v>
+        <v>44273</v>
       </c>
       <c r="AH5">
-        <v>40225</v>
+        <v>40252</v>
       </c>
       <c r="AI5">
-        <v>34855</v>
+        <v>34917</v>
       </c>
       <c r="AJ5">
-        <v>27946</v>
+        <v>27969</v>
       </c>
       <c r="AK5">
-        <v>46809</v>
+        <v>46886</v>
       </c>
       <c r="AL5">
         <v>585</v>
       </c>
       <c r="AM5">
-        <v>502129</v>
+        <v>502153</v>
       </c>
       <c r="AN5">
-        <v>667720</v>
+        <v>667738</v>
       </c>
       <c r="AO5">
-        <v>773091</v>
+        <v>773095</v>
       </c>
       <c r="AP5">
-        <v>759274</v>
+        <v>759261</v>
       </c>
       <c r="AQ5">
-        <v>929652</v>
+        <v>929672</v>
       </c>
       <c r="AR5">
-        <v>1025262</v>
+        <v>1025285</v>
       </c>
       <c r="AS5">
-        <v>1033024</v>
+        <v>1033066</v>
       </c>
       <c r="AT5">
-        <v>1017660</v>
+        <v>1017699</v>
       </c>
       <c r="AU5">
-        <v>907234</v>
+        <v>907285</v>
       </c>
       <c r="AV5">
-        <v>806188</v>
+        <v>806198</v>
       </c>
       <c r="AW5">
-        <v>745898</v>
+        <v>745915</v>
       </c>
       <c r="AX5">
-        <v>620906</v>
+        <v>620919</v>
       </c>
       <c r="AY5">
-        <v>541927</v>
+        <v>541894</v>
       </c>
       <c r="AZ5">
-        <v>406334</v>
+        <v>406330</v>
       </c>
       <c r="BA5">
-        <v>323896</v>
+        <v>323927</v>
       </c>
       <c r="BB5">
-        <v>239131</v>
+        <v>239262</v>
       </c>
       <c r="BC5">
-        <v>160238</v>
+        <v>160355</v>
       </c>
       <c r="BD5">
-        <v>207591</v>
+        <v>207776</v>
       </c>
       <c r="BE5">
-        <v>18169</v>
+        <v>18166</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3820,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809546</v>
+        <v>1809570</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3835,7 +3835,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90008</v>
+        <v>90032</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3847,7 +3847,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377615</v>
+        <v>2377639</v>
       </c>
       <c r="L26" s="3">
         <v>922450</v>
@@ -3862,7 +3862,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109169</v>
+        <v>109193</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3879,7 +3879,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687511</v>
+        <v>687520</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3894,7 +3894,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44386</v>
+        <v>44395</v>
       </c>
       <c r="H27" s="3">
         <v>17718</v>
@@ -3906,7 +3906,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065126</v>
+        <v>3065159</v>
       </c>
       <c r="L27" s="3">
         <v>1152678</v>
@@ -3921,7 +3921,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153555</v>
+        <v>153588</v>
       </c>
       <c r="Q27" s="3">
         <v>47444</v>
@@ -3938,7 +3938,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366756</v>
+        <v>1366766</v>
       </c>
       <c r="C28" s="3">
         <v>536608</v>
@@ -3953,7 +3953,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120471</v>
+        <v>120481</v>
       </c>
       <c r="H28" s="3">
         <v>46426</v>
@@ -3965,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431882</v>
+        <v>4431925</v>
       </c>
       <c r="L28" s="3">
         <v>1689286</v>
@@ -3980,7 +3980,7 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274026</v>
+        <v>274069</v>
       </c>
       <c r="Q28" s="3">
         <v>93870</v>
@@ -3997,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339801</v>
+        <v>1339831</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4012,7 +4012,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139740</v>
+        <v>139770</v>
       </c>
       <c r="H29" s="3">
         <v>44025</v>
@@ -4024,7 +4024,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771683</v>
+        <v>5771756</v>
       </c>
       <c r="L29" s="3">
         <v>2121666</v>
@@ -4039,7 +4039,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413766</v>
+        <v>413839</v>
       </c>
       <c r="Q29" s="3">
         <v>137895</v>
@@ -4056,7 +4056,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310351</v>
+        <v>1310357</v>
       </c>
       <c r="C30" s="3">
         <v>297268</v>
@@ -4071,7 +4071,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108125</v>
+        <v>108131</v>
       </c>
       <c r="H30" s="3">
         <v>28269</v>
@@ -4083,7 +4083,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082034</v>
+        <v>7082113</v>
       </c>
       <c r="L30" s="3">
         <v>2418934</v>
@@ -4098,7 +4098,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>521891</v>
+        <v>521970</v>
       </c>
       <c r="Q30" s="3">
         <v>166164</v>
@@ -4115,7 +4115,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884285</v>
+        <v>884295</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4130,7 +4130,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77304</v>
+        <v>77314</v>
       </c>
       <c r="H31" s="3">
         <v>24718</v>
@@ -4142,7 +4142,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966319</v>
+        <v>7966408</v>
       </c>
       <c r="L31" s="3">
         <v>2652835</v>
@@ -4157,7 +4157,7 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599195</v>
+        <v>599284</v>
       </c>
       <c r="Q31" s="3">
         <v>190882</v>
@@ -4201,7 +4201,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216670</v>
+        <v>9216759</v>
       </c>
       <c r="L32" s="3">
         <v>3031442</v>
@@ -4216,7 +4216,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716595</v>
+        <v>716684</v>
       </c>
       <c r="Q32" s="3">
         <v>233157</v>
@@ -4233,7 +4233,7 @@
         <v>44774</v>
       </c>
       <c r="B33" s="3">
-        <v>554859</v>
+        <v>554860</v>
       </c>
       <c r="C33" s="3">
         <v>230049</v>
@@ -4248,7 +4248,7 @@
         <v>59071</v>
       </c>
       <c r="G33" s="3">
-        <v>40510</v>
+        <v>40511</v>
       </c>
       <c r="H33" s="3">
         <v>12903</v>
@@ -4260,7 +4260,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771529</v>
+        <v>9771619</v>
       </c>
       <c r="L33" s="3">
         <v>3261491</v>
@@ -4275,7 +4275,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757105</v>
+        <v>757195</v>
       </c>
       <c r="Q33" s="3">
         <v>246060</v>
@@ -4292,7 +4292,7 @@
         <v>44805</v>
       </c>
       <c r="B34" s="3">
-        <v>194256</v>
+        <v>194255</v>
       </c>
       <c r="C34" s="3">
         <v>68852</v>
@@ -4307,7 +4307,7 @@
         <v>24272</v>
       </c>
       <c r="G34" s="3">
-        <v>15285</v>
+        <v>15284</v>
       </c>
       <c r="H34" s="3">
         <v>3876</v>
@@ -4319,7 +4319,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965785</v>
+        <v>9965874</v>
       </c>
       <c r="L34" s="3">
         <v>3330343</v>
@@ -4334,7 +4334,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772390</v>
+        <v>772479</v>
       </c>
       <c r="Q34" s="3">
         <v>249936</v>
@@ -4378,7 +4378,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107890</v>
+        <v>10107979</v>
       </c>
       <c r="L35" s="3">
         <v>3374842</v>
@@ -4393,7 +4393,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785565</v>
+        <v>785654</v>
       </c>
       <c r="Q35" s="3">
         <v>253590</v>
@@ -4437,7 +4437,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459833</v>
+        <v>10459922</v>
       </c>
       <c r="L36" s="3">
         <v>3496935</v>
@@ -4452,7 +4452,7 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822727</v>
+        <v>822816</v>
       </c>
       <c r="Q36" s="3">
         <v>265274</v>
@@ -4496,7 +4496,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885699</v>
+        <v>10885788</v>
       </c>
       <c r="L37" s="3">
         <v>3653398</v>
@@ -4511,7 +4511,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867232</v>
+        <v>867321</v>
       </c>
       <c r="Q37" s="3">
         <v>281544</v>
@@ -4555,7 +4555,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015777</v>
+        <v>11015866</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4570,7 +4570,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879122</v>
+        <v>879211</v>
       </c>
       <c r="Q38" s="3">
         <v>285181</v>
@@ -4614,7 +4614,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087766</v>
+        <v>11087855</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4629,7 +4629,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>885975</v>
+        <v>886064</v>
       </c>
       <c r="Q39" s="3">
         <v>287112</v>
@@ -4673,7 +4673,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191745</v>
+        <v>11191834</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4688,7 +4688,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897475</v>
+        <v>897564</v>
       </c>
       <c r="Q40" s="3">
         <v>290414</v>
@@ -4732,7 +4732,7 @@
         <v>826</v>
       </c>
       <c r="K41" s="3">
-        <v>11314910</v>
+        <v>11314999</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4747,7 +4747,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909804</v>
+        <v>909893</v>
       </c>
       <c r="Q41" s="3">
         <v>294194</v>
@@ -4791,7 +4791,7 @@
         <v>934</v>
       </c>
       <c r="K42" s="3">
-        <v>11481163</v>
+        <v>11481252</v>
       </c>
       <c r="L42" s="3">
         <v>3872847</v>
@@ -4806,7 +4806,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924717</v>
+        <v>924806</v>
       </c>
       <c r="Q42" s="3">
         <v>299398</v>
@@ -4850,7 +4850,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11558969</v>
+        <v>11559058</v>
       </c>
       <c r="L43" s="3">
         <v>3901029</v>
@@ -4865,7 +4865,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>931931</v>
+        <v>932020</v>
       </c>
       <c r="Q43" s="3">
         <v>301984</v>
@@ -4909,7 +4909,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587191</v>
+        <v>11587280</v>
       </c>
       <c r="L44" s="3">
         <v>3911314</v>
@@ -4924,7 +4924,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>934860</v>
+        <v>934949</v>
       </c>
       <c r="Q44" s="3">
         <v>303257</v>
@@ -4968,7 +4968,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610636</v>
+        <v>11610725</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4983,7 +4983,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937309</v>
+        <v>937398</v>
       </c>
       <c r="Q45" s="3">
         <v>304421</v>
@@ -5027,7 +5027,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632765</v>
+        <v>11632854</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5042,7 +5042,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940342</v>
+        <v>940431</v>
       </c>
       <c r="Q46" s="3">
         <v>305624</v>
@@ -5086,7 +5086,7 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660681</v>
+        <v>11660770</v>
       </c>
       <c r="L47" s="3">
         <v>3937123</v>
@@ -5101,7 +5101,7 @@
         <v>1380648</v>
       </c>
       <c r="P47" s="3">
-        <v>945419</v>
+        <v>945508</v>
       </c>
       <c r="Q47" s="3">
         <v>307524</v>
@@ -5118,22 +5118,22 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>24643</v>
+        <v>25226</v>
       </c>
       <c r="C48" s="3">
-        <v>7270</v>
+        <v>7463</v>
       </c>
       <c r="D48" s="3">
         <v>3345</v>
       </c>
       <c r="E48" s="3">
-        <v>3653</v>
+        <v>3806</v>
       </c>
       <c r="F48" s="3">
         <v>897</v>
       </c>
       <c r="G48" s="3">
-        <v>5861</v>
+        <v>6098</v>
       </c>
       <c r="H48" s="3">
         <v>2102</v>
@@ -5145,22 +5145,22 @@
         <v>316</v>
       </c>
       <c r="K48" s="3">
-        <v>11685324</v>
+        <v>11685996</v>
       </c>
       <c r="L48" s="3">
-        <v>3944393</v>
+        <v>3944586</v>
       </c>
       <c r="M48" s="3">
         <v>2991631</v>
       </c>
       <c r="N48" s="3">
-        <v>1747069</v>
+        <v>1747222</v>
       </c>
       <c r="O48" s="3">
         <v>1381545</v>
       </c>
       <c r="P48" s="3">
-        <v>951280</v>
+        <v>951606</v>
       </c>
       <c r="Q48" s="3">
         <v>309626</v>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM11"/>
+  <dimension ref="A1:IM12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6081,6 +6081,63 @@
       <c r="S4">
         <v>109880</v>
       </c>
+      <c r="AM4">
+        <v>501521</v>
+      </c>
+      <c r="AN4">
+        <v>667535</v>
+      </c>
+      <c r="AO4">
+        <v>772767</v>
+      </c>
+      <c r="AP4">
+        <v>758949</v>
+      </c>
+      <c r="AQ4">
+        <v>929219</v>
+      </c>
+      <c r="AR4">
+        <v>1024730</v>
+      </c>
+      <c r="AS4">
+        <v>1032403</v>
+      </c>
+      <c r="AT4">
+        <v>1016966</v>
+      </c>
+      <c r="AU4">
+        <v>906524</v>
+      </c>
+      <c r="AV4">
+        <v>805520</v>
+      </c>
+      <c r="AW4">
+        <v>745206</v>
+      </c>
+      <c r="AX4">
+        <v>620296</v>
+      </c>
+      <c r="AY4">
+        <v>541260</v>
+      </c>
+      <c r="AZ4">
+        <v>405657</v>
+      </c>
+      <c r="BA4">
+        <v>323151</v>
+      </c>
+      <c r="BB4">
+        <v>238473</v>
+      </c>
+      <c r="BC4">
+        <v>159564</v>
+      </c>
+      <c r="BD4">
+        <v>206393</v>
+      </c>
+      <c r="BE4">
+        <v>18169</v>
+      </c>
     </row>
     <row r="5" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -6140,6 +6197,120 @@
       <c r="S5">
         <v>109880</v>
       </c>
+      <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5">
+        <v>12</v>
+      </c>
+      <c r="V5">
+        <v>23</v>
+      </c>
+      <c r="W5">
+        <v>27</v>
+      </c>
+      <c r="X5">
+        <v>26</v>
+      </c>
+      <c r="Y5">
+        <v>27</v>
+      </c>
+      <c r="Z5">
+        <v>67</v>
+      </c>
+      <c r="AA5">
+        <v>42</v>
+      </c>
+      <c r="AB5">
+        <v>75</v>
+      </c>
+      <c r="AC5">
+        <v>43</v>
+      </c>
+      <c r="AD5">
+        <v>44</v>
+      </c>
+      <c r="AE5">
+        <v>30</v>
+      </c>
+      <c r="AF5">
+        <v>31</v>
+      </c>
+      <c r="AG5">
+        <v>27</v>
+      </c>
+      <c r="AH5">
+        <v>93</v>
+      </c>
+      <c r="AI5">
+        <v>52</v>
+      </c>
+      <c r="AJ5">
+        <v>82</v>
+      </c>
+      <c r="AK5">
+        <v>96</v>
+      </c>
+      <c r="AL5">
+        <v>-2</v>
+      </c>
+      <c r="AM5">
+        <v>501546</v>
+      </c>
+      <c r="AN5">
+        <v>667547</v>
+      </c>
+      <c r="AO5">
+        <v>772790</v>
+      </c>
+      <c r="AP5">
+        <v>758976</v>
+      </c>
+      <c r="AQ5">
+        <v>929245</v>
+      </c>
+      <c r="AR5">
+        <v>1024757</v>
+      </c>
+      <c r="AS5">
+        <v>1032470</v>
+      </c>
+      <c r="AT5">
+        <v>1017008</v>
+      </c>
+      <c r="AU5">
+        <v>906599</v>
+      </c>
+      <c r="AV5">
+        <v>805563</v>
+      </c>
+      <c r="AW5">
+        <v>745250</v>
+      </c>
+      <c r="AX5">
+        <v>620326</v>
+      </c>
+      <c r="AY5">
+        <v>541291</v>
+      </c>
+      <c r="AZ5">
+        <v>405684</v>
+      </c>
+      <c r="BA5">
+        <v>323244</v>
+      </c>
+      <c r="BB5">
+        <v>238525</v>
+      </c>
+      <c r="BC5">
+        <v>159646</v>
+      </c>
+      <c r="BD5">
+        <v>206489</v>
+      </c>
+      <c r="BE5">
+        <v>18167</v>
+      </c>
     </row>
     <row r="6" spans="1:247" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -6199,6 +6370,63 @@
       <c r="S6">
         <v>109930</v>
       </c>
+      <c r="T6">
+        <v>114</v>
+      </c>
+      <c r="U6">
+        <v>28</v>
+      </c>
+      <c r="V6">
+        <v>40</v>
+      </c>
+      <c r="W6">
+        <v>53</v>
+      </c>
+      <c r="X6">
+        <v>54</v>
+      </c>
+      <c r="Y6">
+        <v>94</v>
+      </c>
+      <c r="Z6">
+        <v>100</v>
+      </c>
+      <c r="AA6">
+        <v>116</v>
+      </c>
+      <c r="AB6">
+        <v>120</v>
+      </c>
+      <c r="AC6">
+        <v>128</v>
+      </c>
+      <c r="AD6">
+        <v>135</v>
+      </c>
+      <c r="AE6">
+        <v>107</v>
+      </c>
+      <c r="AF6">
+        <v>124</v>
+      </c>
+      <c r="AG6">
+        <v>113</v>
+      </c>
+      <c r="AH6">
+        <v>115</v>
+      </c>
+      <c r="AI6">
+        <v>137</v>
+      </c>
+      <c r="AJ6">
+        <v>131</v>
+      </c>
+      <c r="AK6">
+        <v>244</v>
+      </c>
+      <c r="AL6">
+        <v>-1</v>
+      </c>
       <c r="AM6">
         <v>501660</v>
       </c>
@@ -10255,6 +10483,749 @@
       </c>
       <c r="IM11">
         <v>13489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B12">
+        <v>672</v>
+      </c>
+      <c r="C12">
+        <v>193</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>153</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>326</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>11685996</v>
+      </c>
+      <c r="L12">
+        <v>3944586</v>
+      </c>
+      <c r="M12">
+        <v>2991631</v>
+      </c>
+      <c r="N12">
+        <v>1747222</v>
+      </c>
+      <c r="O12">
+        <v>1381545</v>
+      </c>
+      <c r="P12">
+        <v>951606</v>
+      </c>
+      <c r="Q12">
+        <v>309626</v>
+      </c>
+      <c r="R12">
+        <v>249750</v>
+      </c>
+      <c r="S12">
+        <v>110030</v>
+      </c>
+      <c r="T12">
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <v>18</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <v>-13</v>
+      </c>
+      <c r="X12">
+        <v>20</v>
+      </c>
+      <c r="Y12">
+        <v>23</v>
+      </c>
+      <c r="Z12">
+        <v>42</v>
+      </c>
+      <c r="AA12">
+        <v>39</v>
+      </c>
+      <c r="AB12">
+        <v>51</v>
+      </c>
+      <c r="AC12">
+        <v>10</v>
+      </c>
+      <c r="AD12">
+        <v>17</v>
+      </c>
+      <c r="AE12">
+        <v>13</v>
+      </c>
+      <c r="AF12">
+        <v>-33</v>
+      </c>
+      <c r="AG12">
+        <v>-4</v>
+      </c>
+      <c r="AH12">
+        <v>31</v>
+      </c>
+      <c r="AI12">
+        <v>131</v>
+      </c>
+      <c r="AJ12">
+        <v>117</v>
+      </c>
+      <c r="AK12">
+        <v>185</v>
+      </c>
+      <c r="AL12">
+        <v>-3</v>
+      </c>
+      <c r="AM12">
+        <v>502153</v>
+      </c>
+      <c r="AN12">
+        <v>667738</v>
+      </c>
+      <c r="AO12">
+        <v>773095</v>
+      </c>
+      <c r="AP12">
+        <v>759261</v>
+      </c>
+      <c r="AQ12">
+        <v>929672</v>
+      </c>
+      <c r="AR12">
+        <v>1025285</v>
+      </c>
+      <c r="AS12">
+        <v>1033066</v>
+      </c>
+      <c r="AT12">
+        <v>1017699</v>
+      </c>
+      <c r="AU12">
+        <v>907285</v>
+      </c>
+      <c r="AV12">
+        <v>806198</v>
+      </c>
+      <c r="AW12">
+        <v>745915</v>
+      </c>
+      <c r="AX12">
+        <v>620919</v>
+      </c>
+      <c r="AY12">
+        <v>541894</v>
+      </c>
+      <c r="AZ12">
+        <v>406330</v>
+      </c>
+      <c r="BA12">
+        <v>323927</v>
+      </c>
+      <c r="BB12">
+        <v>239262</v>
+      </c>
+      <c r="BC12">
+        <v>160355</v>
+      </c>
+      <c r="BD12">
+        <v>207776</v>
+      </c>
+      <c r="BE12">
+        <v>18166</v>
+      </c>
+      <c r="BF12">
+        <v>15</v>
+      </c>
+      <c r="BG12">
+        <v>9</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>8</v>
+      </c>
+      <c r="BL12">
+        <v>10</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>6</v>
+      </c>
+      <c r="BQ12">
+        <v>-2</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+      <c r="BV12">
+        <v>-14</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>20</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>17</v>
+      </c>
+      <c r="CF12">
+        <v>7</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>-1</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>14</v>
+      </c>
+      <c r="CK12">
+        <v>27</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>1</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>9</v>
+      </c>
+      <c r="CP12">
+        <v>30</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>12</v>
+      </c>
+      <c r="CU12">
+        <v>39</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>1</v>
+      </c>
+      <c r="CZ12">
+        <v>9</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>2</v>
+      </c>
+      <c r="DE12">
+        <v>15</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>7</v>
+      </c>
+      <c r="DJ12">
+        <v>6</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DN12">
+        <v>-9</v>
+      </c>
+      <c r="DO12">
+        <v>-24</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+      <c r="DQ12">
+        <v>0</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12">
+        <v>-2</v>
+      </c>
+      <c r="DT12">
+        <v>-2</v>
+      </c>
+      <c r="DU12">
+        <v>0</v>
+      </c>
+      <c r="DV12">
+        <v>0</v>
+      </c>
+      <c r="DW12">
+        <v>0</v>
+      </c>
+      <c r="DX12">
+        <v>-5</v>
+      </c>
+      <c r="DY12">
+        <v>36</v>
+      </c>
+      <c r="DZ12">
+        <v>0</v>
+      </c>
+      <c r="EA12">
+        <v>0</v>
+      </c>
+      <c r="EB12">
+        <v>0</v>
+      </c>
+      <c r="EC12">
+        <v>75</v>
+      </c>
+      <c r="ED12">
+        <v>55</v>
+      </c>
+      <c r="EE12">
+        <v>0</v>
+      </c>
+      <c r="EF12">
+        <v>1</v>
+      </c>
+      <c r="EG12">
+        <v>0</v>
+      </c>
+      <c r="EH12">
+        <v>58</v>
+      </c>
+      <c r="EI12">
+        <v>59</v>
+      </c>
+      <c r="EJ12">
+        <v>0</v>
+      </c>
+      <c r="EK12">
+        <v>0</v>
+      </c>
+      <c r="EL12">
+        <v>0</v>
+      </c>
+      <c r="EM12">
+        <v>78</v>
+      </c>
+      <c r="EN12">
+        <v>107</v>
+      </c>
+      <c r="EO12">
+        <v>0</v>
+      </c>
+      <c r="EP12">
+        <v>0</v>
+      </c>
+      <c r="EQ12">
+        <v>0</v>
+      </c>
+      <c r="ER12">
+        <v>0</v>
+      </c>
+      <c r="ES12">
+        <v>0</v>
+      </c>
+      <c r="ET12">
+        <v>0</v>
+      </c>
+      <c r="EU12">
+        <v>0</v>
+      </c>
+      <c r="EV12">
+        <v>-3</v>
+      </c>
+      <c r="EW12">
+        <v>231157</v>
+      </c>
+      <c r="EX12">
+        <v>219491</v>
+      </c>
+      <c r="EY12">
+        <v>408</v>
+      </c>
+      <c r="EZ12">
+        <v>15450</v>
+      </c>
+      <c r="FA12">
+        <v>35647</v>
+      </c>
+      <c r="FB12">
+        <v>307909</v>
+      </c>
+      <c r="FC12">
+        <v>292557</v>
+      </c>
+      <c r="FD12">
+        <v>466</v>
+      </c>
+      <c r="FE12">
+        <v>16773</v>
+      </c>
+      <c r="FF12">
+        <v>50033</v>
+      </c>
+      <c r="FG12">
+        <v>353015</v>
+      </c>
+      <c r="FH12">
+        <v>342409</v>
+      </c>
+      <c r="FI12">
+        <v>633</v>
+      </c>
+      <c r="FJ12">
+        <v>16955</v>
+      </c>
+      <c r="FK12">
+        <v>60083</v>
+      </c>
+      <c r="FL12">
+        <v>326067</v>
+      </c>
+      <c r="FM12">
+        <v>373540</v>
+      </c>
+      <c r="FN12">
+        <v>894</v>
+      </c>
+      <c r="FO12">
+        <v>12939</v>
+      </c>
+      <c r="FP12">
+        <v>45821</v>
+      </c>
+      <c r="FQ12">
+        <v>391786</v>
+      </c>
+      <c r="FR12">
+        <v>479093</v>
+      </c>
+      <c r="FS12">
+        <v>1100</v>
+      </c>
+      <c r="FT12">
+        <v>16280</v>
+      </c>
+      <c r="FU12">
+        <v>41413</v>
+      </c>
+      <c r="FV12">
+        <v>433498</v>
+      </c>
+      <c r="FW12">
+        <v>525352</v>
+      </c>
+      <c r="FX12">
+        <v>1135</v>
+      </c>
+      <c r="FY12">
+        <v>17789</v>
+      </c>
+      <c r="FZ12">
+        <v>47511</v>
+      </c>
+      <c r="GA12">
+        <v>428763</v>
+      </c>
+      <c r="GB12">
+        <v>531394</v>
+      </c>
+      <c r="GC12">
+        <v>922</v>
+      </c>
+      <c r="GD12">
+        <v>17169</v>
+      </c>
+      <c r="GE12">
+        <v>54818</v>
+      </c>
+      <c r="GF12">
+        <v>419325</v>
+      </c>
+      <c r="GG12">
+        <v>523853</v>
+      </c>
+      <c r="GH12">
+        <v>665</v>
+      </c>
+      <c r="GI12">
+        <v>15033</v>
+      </c>
+      <c r="GJ12">
+        <v>58823</v>
+      </c>
+      <c r="GK12">
+        <v>373097</v>
+      </c>
+      <c r="GL12">
+        <v>468177</v>
+      </c>
+      <c r="GM12">
+        <v>498</v>
+      </c>
+      <c r="GN12">
+        <v>12350</v>
+      </c>
+      <c r="GO12">
+        <v>53163</v>
+      </c>
+      <c r="GP12">
+        <v>329928</v>
+      </c>
+      <c r="GQ12">
+        <v>420376</v>
+      </c>
+      <c r="GR12">
+        <v>439</v>
+      </c>
+      <c r="GS12">
+        <v>10134</v>
+      </c>
+      <c r="GT12">
+        <v>45321</v>
+      </c>
+      <c r="GU12">
+        <v>307668</v>
+      </c>
+      <c r="GV12">
+        <v>388632</v>
+      </c>
+      <c r="GW12">
+        <v>399</v>
+      </c>
+      <c r="GX12">
+        <v>8956</v>
+      </c>
+      <c r="GY12">
+        <v>40260</v>
+      </c>
+      <c r="GZ12">
+        <v>263109</v>
+      </c>
+      <c r="HA12">
+        <v>319123</v>
+      </c>
+      <c r="HB12">
+        <v>329</v>
+      </c>
+      <c r="HC12">
+        <v>6610</v>
+      </c>
+      <c r="HD12">
+        <v>31748</v>
+      </c>
+      <c r="HE12">
+        <v>233930</v>
+      </c>
+      <c r="HF12">
+        <v>276448</v>
+      </c>
+      <c r="HG12">
+        <v>234</v>
+      </c>
+      <c r="HH12">
+        <v>5322</v>
+      </c>
+      <c r="HI12">
+        <v>25960</v>
+      </c>
+      <c r="HJ12">
+        <v>180292</v>
+      </c>
+      <c r="HK12">
+        <v>203640</v>
+      </c>
+      <c r="HL12">
+        <v>199</v>
+      </c>
+      <c r="HM12">
+        <v>3678</v>
+      </c>
+      <c r="HN12">
+        <v>18521</v>
+      </c>
+      <c r="HO12">
+        <v>151022</v>
+      </c>
+      <c r="HP12">
+        <v>157702</v>
+      </c>
+      <c r="HQ12">
+        <v>163</v>
+      </c>
+      <c r="HR12">
+        <v>2689</v>
+      </c>
+      <c r="HS12">
+        <v>12351</v>
+      </c>
+      <c r="HT12">
+        <v>115300</v>
+      </c>
+      <c r="HU12">
+        <v>114094</v>
+      </c>
+      <c r="HV12">
+        <v>164</v>
+      </c>
+      <c r="HW12">
+        <v>1894</v>
+      </c>
+      <c r="HX12">
+        <v>7810</v>
+      </c>
+      <c r="HY12">
+        <v>75322</v>
+      </c>
+      <c r="HZ12">
+        <v>79090</v>
+      </c>
+      <c r="IA12">
+        <v>131</v>
+      </c>
+      <c r="IB12">
+        <v>1280</v>
+      </c>
+      <c r="IC12">
+        <v>4532</v>
+      </c>
+      <c r="ID12">
+        <v>80432</v>
+      </c>
+      <c r="IE12">
+        <v>120928</v>
+      </c>
+      <c r="IF12">
+        <v>305</v>
+      </c>
+      <c r="IG12">
+        <v>2267</v>
+      </c>
+      <c r="IH12">
+        <v>3844</v>
+      </c>
+      <c r="II12">
+        <v>2150</v>
+      </c>
+      <c r="IJ12">
+        <v>2307</v>
+      </c>
+      <c r="IK12">
+        <v>22</v>
+      </c>
+      <c r="IL12">
+        <v>201</v>
+      </c>
+      <c r="IM12">
+        <v>13486</v>
       </c>
     </row>
   </sheetData>
@@ -10281,7 +11252,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45249</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0D672-4F15-4001-9ADB-D2B7270BF415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87372DD7-F494-47DE-8CD6-0429D51C8488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1702,7 +1702,7 @@
         <v>1509</v>
       </c>
       <c r="X2">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="Y2">
         <v>3530</v>
@@ -1741,7 +1741,7 @@
         <v>639</v>
       </c>
       <c r="AK2">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="AL2">
         <v>23</v>
@@ -1759,7 +1759,7 @@
         <v>1509</v>
       </c>
       <c r="AQ2">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="AR2">
         <v>3530</v>
@@ -1798,7 +1798,7 @@
         <v>639</v>
       </c>
       <c r="BD2">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="BE2">
         <v>23</v>
@@ -1809,10 +1809,10 @@
         <v>44197</v>
       </c>
       <c r="B3">
-        <v>538955</v>
+        <v>538954</v>
       </c>
       <c r="C3">
-        <v>280240</v>
+        <v>280239</v>
       </c>
       <c r="D3">
         <v>199399</v>
@@ -1836,10 +1836,10 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568069</v>
+        <v>568068</v>
       </c>
       <c r="L3">
-        <v>285284</v>
+        <v>285283</v>
       </c>
       <c r="M3">
         <v>220127</v>
@@ -1863,34 +1863,34 @@
         <v>791</v>
       </c>
       <c r="T3">
-        <v>22516</v>
+        <v>22503</v>
       </c>
       <c r="U3">
-        <v>32428</v>
+        <v>32431</v>
       </c>
       <c r="V3">
-        <v>30557</v>
+        <v>30559</v>
       </c>
       <c r="W3">
-        <v>43743</v>
+        <v>43745</v>
       </c>
       <c r="X3">
-        <v>75258</v>
+        <v>75257</v>
       </c>
       <c r="Y3">
-        <v>70912</v>
+        <v>70913</v>
       </c>
       <c r="Z3">
-        <v>55516</v>
+        <v>55517</v>
       </c>
       <c r="AA3">
         <v>42725</v>
       </c>
       <c r="AB3">
-        <v>33827</v>
+        <v>33829</v>
       </c>
       <c r="AC3">
-        <v>30112</v>
+        <v>30113</v>
       </c>
       <c r="AD3">
         <v>27886</v>
@@ -1899,7 +1899,7 @@
         <v>22326</v>
       </c>
       <c r="AF3">
-        <v>17079</v>
+        <v>17080</v>
       </c>
       <c r="AG3">
         <v>11938</v>
@@ -1920,34 +1920,34 @@
         <v>350</v>
       </c>
       <c r="AM3">
-        <v>23263</v>
+        <v>23250</v>
       </c>
       <c r="AN3">
-        <v>33199</v>
+        <v>33202</v>
       </c>
       <c r="AO3">
-        <v>31510</v>
+        <v>31512</v>
       </c>
       <c r="AP3">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="AQ3">
-        <v>78227</v>
+        <v>78225</v>
       </c>
       <c r="AR3">
-        <v>74442</v>
+        <v>74443</v>
       </c>
       <c r="AS3">
-        <v>58379</v>
+        <v>58380</v>
       </c>
       <c r="AT3">
         <v>44990</v>
       </c>
       <c r="AU3">
-        <v>35616</v>
+        <v>35618</v>
       </c>
       <c r="AV3">
-        <v>32077</v>
+        <v>32078</v>
       </c>
       <c r="AW3">
         <v>29692</v>
@@ -1956,7 +1956,7 @@
         <v>24004</v>
       </c>
       <c r="AY3">
-        <v>18540</v>
+        <v>18541</v>
       </c>
       <c r="AZ3">
         <v>12970</v>
@@ -1971,7 +1971,7 @@
         <v>4384</v>
       </c>
       <c r="BD3">
-        <v>5362</v>
+        <v>5363</v>
       </c>
       <c r="BE3">
         <v>373</v>
@@ -1985,19 +1985,19 @@
         <v>10317719</v>
       </c>
       <c r="C4">
-        <v>3368114</v>
+        <v>3368111</v>
       </c>
       <c r="D4">
         <v>2621353</v>
       </c>
       <c r="E4">
-        <v>1586964</v>
+        <v>1586963</v>
       </c>
       <c r="F4">
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848160</v>
+        <v>848164</v>
       </c>
       <c r="H4">
         <v>279667</v>
@@ -2009,22 +2009,22 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885788</v>
+        <v>10885787</v>
       </c>
       <c r="L4">
-        <v>3653398</v>
+        <v>3653394</v>
       </c>
       <c r="M4">
         <v>2841480</v>
       </c>
       <c r="N4">
-        <v>1619875</v>
+        <v>1619874</v>
       </c>
       <c r="O4">
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867321</v>
+        <v>867325</v>
       </c>
       <c r="Q4">
         <v>281544</v>
@@ -2036,49 +2036,49 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450862</v>
+        <v>450559</v>
       </c>
       <c r="U4">
-        <v>611177</v>
+        <v>611273</v>
       </c>
       <c r="V4">
-        <v>710028</v>
+        <v>710191</v>
       </c>
       <c r="W4">
-        <v>683390</v>
+        <v>683397</v>
       </c>
       <c r="X4">
-        <v>812074</v>
+        <v>812079</v>
       </c>
       <c r="Y4">
-        <v>899956</v>
+        <v>899951</v>
       </c>
       <c r="Z4">
-        <v>916972</v>
+        <v>916983</v>
       </c>
       <c r="AA4">
-        <v>908862</v>
+        <v>908864</v>
       </c>
       <c r="AB4">
-        <v>810310</v>
+        <v>810321</v>
       </c>
       <c r="AC4">
-        <v>717634</v>
+        <v>717636</v>
       </c>
       <c r="AD4">
-        <v>658684</v>
+        <v>658687</v>
       </c>
       <c r="AE4">
-        <v>544155</v>
+        <v>544156</v>
       </c>
       <c r="AF4">
-        <v>471559</v>
+        <v>471562</v>
       </c>
       <c r="AG4">
-        <v>349087</v>
+        <v>349090</v>
       </c>
       <c r="AH4">
-        <v>274359</v>
+        <v>274362</v>
       </c>
       <c r="AI4">
         <v>197872</v>
@@ -2087,55 +2087,55 @@
         <v>128002</v>
       </c>
       <c r="AK4">
-        <v>155528</v>
+        <v>155526</v>
       </c>
       <c r="AL4">
         <v>17208</v>
       </c>
       <c r="AM4">
-        <v>474125</v>
+        <v>473809</v>
       </c>
       <c r="AN4">
-        <v>644376</v>
+        <v>644475</v>
       </c>
       <c r="AO4">
-        <v>741538</v>
+        <v>741703</v>
       </c>
       <c r="AP4">
-        <v>728642</v>
+        <v>728651</v>
       </c>
       <c r="AQ4">
-        <v>890301</v>
+        <v>890304</v>
       </c>
       <c r="AR4">
-        <v>974398</v>
+        <v>974394</v>
       </c>
       <c r="AS4">
-        <v>975351</v>
+        <v>975363</v>
       </c>
       <c r="AT4">
-        <v>953852</v>
+        <v>953854</v>
       </c>
       <c r="AU4">
-        <v>845926</v>
+        <v>845939</v>
       </c>
       <c r="AV4">
-        <v>749711</v>
+        <v>749714</v>
       </c>
       <c r="AW4">
-        <v>688376</v>
+        <v>688379</v>
       </c>
       <c r="AX4">
-        <v>568159</v>
+        <v>568160</v>
       </c>
       <c r="AY4">
-        <v>490099</v>
+        <v>490103</v>
       </c>
       <c r="AZ4">
-        <v>362057</v>
+        <v>362060</v>
       </c>
       <c r="BA4">
-        <v>283675</v>
+        <v>283678</v>
       </c>
       <c r="BB4">
         <v>204345</v>
@@ -2144,7 +2144,7 @@
         <v>132386</v>
       </c>
       <c r="BD4">
-        <v>160890</v>
+        <v>160889</v>
       </c>
       <c r="BE4">
         <v>17581</v>
@@ -2155,169 +2155,169 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>800208</v>
+        <v>801783</v>
       </c>
       <c r="C5">
-        <v>291188</v>
+        <v>291583</v>
       </c>
       <c r="D5">
-        <v>150151</v>
+        <v>150643</v>
       </c>
       <c r="E5">
-        <v>127347</v>
+        <v>127482</v>
       </c>
       <c r="F5">
         <v>91679</v>
       </c>
       <c r="G5">
-        <v>84285</v>
+        <v>84637</v>
       </c>
       <c r="H5">
         <v>28082</v>
       </c>
       <c r="I5">
-        <v>21413</v>
+        <v>21586</v>
       </c>
       <c r="J5">
-        <v>6063</v>
+        <v>6091</v>
       </c>
       <c r="K5">
-        <v>11685996</v>
+        <v>11687570</v>
       </c>
       <c r="L5">
-        <v>3944586</v>
+        <v>3944977</v>
       </c>
       <c r="M5">
-        <v>2991631</v>
+        <v>2992123</v>
       </c>
       <c r="N5">
-        <v>1747222</v>
+        <v>1747356</v>
       </c>
       <c r="O5">
         <v>1381545</v>
       </c>
       <c r="P5">
-        <v>951606</v>
+        <v>951962</v>
       </c>
       <c r="Q5">
         <v>309626</v>
       </c>
       <c r="R5">
-        <v>249750</v>
+        <v>249923</v>
       </c>
       <c r="S5">
-        <v>110030</v>
+        <v>110058</v>
       </c>
       <c r="T5">
-        <v>28028</v>
+        <v>28092</v>
       </c>
       <c r="U5">
-        <v>23362</v>
+        <v>23389</v>
       </c>
       <c r="V5">
-        <v>31557</v>
+        <v>31608</v>
       </c>
       <c r="W5">
-        <v>30619</v>
+        <v>30665</v>
       </c>
       <c r="X5">
-        <v>39371</v>
+        <v>39435</v>
       </c>
       <c r="Y5">
-        <v>50887</v>
+        <v>50964</v>
       </c>
       <c r="Z5">
-        <v>57715</v>
+        <v>57801</v>
       </c>
       <c r="AA5">
-        <v>63847</v>
+        <v>63938</v>
       </c>
       <c r="AB5">
-        <v>61359</v>
+        <v>61479</v>
       </c>
       <c r="AC5">
-        <v>56487</v>
+        <v>56570</v>
       </c>
       <c r="AD5">
-        <v>57539</v>
+        <v>57628</v>
       </c>
       <c r="AE5">
-        <v>52760</v>
+        <v>52842</v>
       </c>
       <c r="AF5">
-        <v>51795</v>
+        <v>51887</v>
       </c>
       <c r="AG5">
-        <v>44273</v>
+        <v>44364</v>
       </c>
       <c r="AH5">
-        <v>40252</v>
+        <v>40332</v>
       </c>
       <c r="AI5">
-        <v>34917</v>
+        <v>35029</v>
       </c>
       <c r="AJ5">
-        <v>27969</v>
+        <v>28080</v>
       </c>
       <c r="AK5">
-        <v>46886</v>
+        <v>47095</v>
       </c>
       <c r="AL5">
         <v>585</v>
       </c>
       <c r="AM5">
-        <v>502153</v>
+        <v>501901</v>
       </c>
       <c r="AN5">
-        <v>667738</v>
+        <v>667864</v>
       </c>
       <c r="AO5">
-        <v>773095</v>
+        <v>773311</v>
       </c>
       <c r="AP5">
-        <v>759261</v>
+        <v>759316</v>
       </c>
       <c r="AQ5">
-        <v>929672</v>
+        <v>929739</v>
       </c>
       <c r="AR5">
-        <v>1025285</v>
+        <v>1025358</v>
       </c>
       <c r="AS5">
-        <v>1033066</v>
+        <v>1033164</v>
       </c>
       <c r="AT5">
-        <v>1017699</v>
+        <v>1017792</v>
       </c>
       <c r="AU5">
-        <v>907285</v>
+        <v>907418</v>
       </c>
       <c r="AV5">
-        <v>806198</v>
+        <v>806284</v>
       </c>
       <c r="AW5">
-        <v>745915</v>
+        <v>746007</v>
       </c>
       <c r="AX5">
-        <v>620919</v>
+        <v>621002</v>
       </c>
       <c r="AY5">
-        <v>541894</v>
+        <v>541990</v>
       </c>
       <c r="AZ5">
-        <v>406330</v>
+        <v>406424</v>
       </c>
       <c r="BA5">
-        <v>323927</v>
+        <v>324010</v>
       </c>
       <c r="BB5">
-        <v>239262</v>
+        <v>239374</v>
       </c>
       <c r="BC5">
-        <v>160355</v>
+        <v>160466</v>
       </c>
       <c r="BD5">
-        <v>207776</v>
+        <v>207984</v>
       </c>
       <c r="BE5">
         <v>18166</v>
@@ -3761,10 +3761,10 @@
         <v>44531</v>
       </c>
       <c r="B25" s="3">
-        <v>352133</v>
+        <v>352132</v>
       </c>
       <c r="C25" s="3">
-        <v>203050</v>
+        <v>203049</v>
       </c>
       <c r="D25" s="3">
         <v>93809</v>
@@ -3788,10 +3788,10 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568069</v>
+        <v>568068</v>
       </c>
       <c r="L25" s="3">
-        <v>285284</v>
+        <v>285283</v>
       </c>
       <c r="M25" s="3">
         <v>220127</v>
@@ -3829,13 +3829,13 @@
         <v>635279</v>
       </c>
       <c r="E26" s="3">
-        <v>372398</v>
+        <v>372397</v>
       </c>
       <c r="F26" s="3">
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90032</v>
+        <v>90033</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3847,22 +3847,22 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377639</v>
+        <v>2377638</v>
       </c>
       <c r="L26" s="3">
-        <v>922450</v>
+        <v>922449</v>
       </c>
       <c r="M26" s="3">
         <v>855406</v>
       </c>
       <c r="N26" s="3">
-        <v>405309</v>
+        <v>405308</v>
       </c>
       <c r="O26" s="3">
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109193</v>
+        <v>109194</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3879,7 +3879,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687520</v>
+        <v>687521</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3894,7 +3894,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="H27" s="3">
         <v>17718</v>
@@ -3909,19 +3909,19 @@
         <v>3065159</v>
       </c>
       <c r="L27" s="3">
-        <v>1152678</v>
+        <v>1152677</v>
       </c>
       <c r="M27" s="3">
         <v>1059934</v>
       </c>
       <c r="N27" s="3">
-        <v>546062</v>
+        <v>546061</v>
       </c>
       <c r="O27" s="3">
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153588</v>
+        <v>153590</v>
       </c>
       <c r="Q27" s="3">
         <v>47444</v>
@@ -3938,10 +3938,10 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366766</v>
+        <v>1366765</v>
       </c>
       <c r="C28" s="3">
-        <v>536608</v>
+        <v>536607</v>
       </c>
       <c r="D28" s="3">
         <v>250086</v>
@@ -3965,22 +3965,22 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431925</v>
+        <v>4431924</v>
       </c>
       <c r="L28" s="3">
-        <v>1689286</v>
+        <v>1689284</v>
       </c>
       <c r="M28" s="3">
         <v>1310020</v>
       </c>
       <c r="N28" s="3">
-        <v>742289</v>
+        <v>742288</v>
       </c>
       <c r="O28" s="3">
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274069</v>
+        <v>274071</v>
       </c>
       <c r="Q28" s="3">
         <v>93870</v>
@@ -3997,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339831</v>
+        <v>1339833</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4012,7 +4012,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139770</v>
+        <v>139772</v>
       </c>
       <c r="H29" s="3">
         <v>44025</v>
@@ -4024,22 +4024,22 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771756</v>
+        <v>5771757</v>
       </c>
       <c r="L29" s="3">
-        <v>2121666</v>
+        <v>2121664</v>
       </c>
       <c r="M29" s="3">
         <v>1584972</v>
       </c>
       <c r="N29" s="3">
-        <v>943371</v>
+        <v>943370</v>
       </c>
       <c r="O29" s="3">
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413839</v>
+        <v>413843</v>
       </c>
       <c r="Q29" s="3">
         <v>137895</v>
@@ -4083,22 +4083,22 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082113</v>
+        <v>7082114</v>
       </c>
       <c r="L30" s="3">
-        <v>2418934</v>
+        <v>2418932</v>
       </c>
       <c r="M30" s="3">
         <v>1918280</v>
       </c>
       <c r="N30" s="3">
-        <v>1096301</v>
+        <v>1096300</v>
       </c>
       <c r="O30" s="3">
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>521970</v>
+        <v>521974</v>
       </c>
       <c r="Q30" s="3">
         <v>166164</v>
@@ -4142,22 +4142,22 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966408</v>
+        <v>7966409</v>
       </c>
       <c r="L31" s="3">
-        <v>2652835</v>
+        <v>2652833</v>
       </c>
       <c r="M31" s="3">
         <v>2133366</v>
       </c>
       <c r="N31" s="3">
-        <v>1213316</v>
+        <v>1213315</v>
       </c>
       <c r="O31" s="3">
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599284</v>
+        <v>599288</v>
       </c>
       <c r="Q31" s="3">
         <v>190882</v>
@@ -4174,10 +4174,10 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250351</v>
+        <v>1250350</v>
       </c>
       <c r="C32" s="3">
-        <v>378607</v>
+        <v>378606</v>
       </c>
       <c r="D32" s="3">
         <v>312117</v>
@@ -4204,19 +4204,19 @@
         <v>9216759</v>
       </c>
       <c r="L32" s="3">
-        <v>3031442</v>
+        <v>3031439</v>
       </c>
       <c r="M32" s="3">
         <v>2445483</v>
       </c>
       <c r="N32" s="3">
-        <v>1410775</v>
+        <v>1410774</v>
       </c>
       <c r="O32" s="3">
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716684</v>
+        <v>716688</v>
       </c>
       <c r="Q32" s="3">
         <v>233157</v>
@@ -4263,19 +4263,19 @@
         <v>9771619</v>
       </c>
       <c r="L33" s="3">
-        <v>3261491</v>
+        <v>3261488</v>
       </c>
       <c r="M33" s="3">
         <v>2570913</v>
       </c>
       <c r="N33" s="3">
-        <v>1482137</v>
+        <v>1482136</v>
       </c>
       <c r="O33" s="3">
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757195</v>
+        <v>757199</v>
       </c>
       <c r="Q33" s="3">
         <v>246060</v>
@@ -4322,19 +4322,19 @@
         <v>9965874</v>
       </c>
       <c r="L34" s="3">
-        <v>3330343</v>
+        <v>3330340</v>
       </c>
       <c r="M34" s="3">
         <v>2617582</v>
       </c>
       <c r="N34" s="3">
-        <v>1512411</v>
+        <v>1512410</v>
       </c>
       <c r="O34" s="3">
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772479</v>
+        <v>772483</v>
       </c>
       <c r="Q34" s="3">
         <v>249936</v>
@@ -4381,19 +4381,19 @@
         <v>10107979</v>
       </c>
       <c r="L35" s="3">
-        <v>3374842</v>
+        <v>3374839</v>
       </c>
       <c r="M35" s="3">
         <v>2653976</v>
       </c>
       <c r="N35" s="3">
-        <v>1529148</v>
+        <v>1529147</v>
       </c>
       <c r="O35" s="3">
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785654</v>
+        <v>785658</v>
       </c>
       <c r="Q35" s="3">
         <v>253590</v>
@@ -4440,19 +4440,19 @@
         <v>10459922</v>
       </c>
       <c r="L36" s="3">
-        <v>3496935</v>
+        <v>3496932</v>
       </c>
       <c r="M36" s="3">
         <v>2746873</v>
       </c>
       <c r="N36" s="3">
-        <v>1565594</v>
+        <v>1565593</v>
       </c>
       <c r="O36" s="3">
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822816</v>
+        <v>822820</v>
       </c>
       <c r="Q36" s="3">
         <v>265274</v>
@@ -4469,10 +4469,10 @@
         <v>44896</v>
       </c>
       <c r="B37" s="3">
-        <v>425866</v>
+        <v>425865</v>
       </c>
       <c r="C37" s="3">
-        <v>156463</v>
+        <v>156462</v>
       </c>
       <c r="D37" s="3">
         <v>94607</v>
@@ -4496,22 +4496,22 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885788</v>
+        <v>10885787</v>
       </c>
       <c r="L37" s="3">
-        <v>3653398</v>
+        <v>3653394</v>
       </c>
       <c r="M37" s="3">
         <v>2841480</v>
       </c>
       <c r="N37" s="3">
-        <v>1619875</v>
+        <v>1619874</v>
       </c>
       <c r="O37" s="3">
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867321</v>
+        <v>867325</v>
       </c>
       <c r="Q37" s="3">
         <v>281544</v>
@@ -4555,22 +4555,22 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015866</v>
+        <v>11015865</v>
       </c>
       <c r="L38" s="3">
-        <v>3699338</v>
+        <v>3699334</v>
       </c>
       <c r="M38" s="3">
         <v>2864584</v>
       </c>
       <c r="N38" s="3">
-        <v>1643988</v>
+        <v>1643987</v>
       </c>
       <c r="O38" s="3">
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879211</v>
+        <v>879215</v>
       </c>
       <c r="Q38" s="3">
         <v>285181</v>
@@ -4614,22 +4614,22 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087855</v>
+        <v>11087854</v>
       </c>
       <c r="L39" s="3">
-        <v>3724581</v>
+        <v>3724577</v>
       </c>
       <c r="M39" s="3">
         <v>2876973</v>
       </c>
       <c r="N39" s="3">
-        <v>1658288</v>
+        <v>1658287</v>
       </c>
       <c r="O39" s="3">
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886064</v>
+        <v>886068</v>
       </c>
       <c r="Q39" s="3">
         <v>287112</v>
@@ -4673,22 +4673,22 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191834</v>
+        <v>11191833</v>
       </c>
       <c r="L40" s="3">
-        <v>3763223</v>
+        <v>3763219</v>
       </c>
       <c r="M40" s="3">
         <v>2896210</v>
       </c>
       <c r="N40" s="3">
-        <v>1673743</v>
+        <v>1673742</v>
       </c>
       <c r="O40" s="3">
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897564</v>
+        <v>897568</v>
       </c>
       <c r="Q40" s="3">
         <v>290414</v>
@@ -4732,22 +4732,22 @@
         <v>826</v>
       </c>
       <c r="K41" s="3">
-        <v>11314999</v>
+        <v>11314998</v>
       </c>
       <c r="L41" s="3">
-        <v>3810752</v>
+        <v>3810748</v>
       </c>
       <c r="M41" s="3">
         <v>2922017</v>
       </c>
       <c r="N41" s="3">
-        <v>1689653</v>
+        <v>1689652</v>
       </c>
       <c r="O41" s="3">
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909893</v>
+        <v>909897</v>
       </c>
       <c r="Q41" s="3">
         <v>294194</v>
@@ -4764,13 +4764,13 @@
         <v>45047</v>
       </c>
       <c r="B42" s="3">
-        <v>166253</v>
+        <v>166254</v>
       </c>
       <c r="C42" s="3">
         <v>62095</v>
       </c>
       <c r="D42" s="3">
-        <v>38375</v>
+        <v>38376</v>
       </c>
       <c r="E42" s="3">
         <v>22310</v>
@@ -4794,19 +4794,19 @@
         <v>11481252</v>
       </c>
       <c r="L42" s="3">
-        <v>3872847</v>
+        <v>3872843</v>
       </c>
       <c r="M42" s="3">
-        <v>2960392</v>
+        <v>2960393</v>
       </c>
       <c r="N42" s="3">
-        <v>1711963</v>
+        <v>1711962</v>
       </c>
       <c r="O42" s="3">
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924806</v>
+        <v>924810</v>
       </c>
       <c r="Q42" s="3">
         <v>299398</v>
@@ -4853,19 +4853,19 @@
         <v>11559058</v>
       </c>
       <c r="L43" s="3">
-        <v>3901029</v>
+        <v>3901025</v>
       </c>
       <c r="M43" s="3">
-        <v>2975163</v>
+        <v>2975164</v>
       </c>
       <c r="N43" s="3">
-        <v>1726214</v>
+        <v>1726213</v>
       </c>
       <c r="O43" s="3">
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932020</v>
+        <v>932024</v>
       </c>
       <c r="Q43" s="3">
         <v>301984</v>
@@ -4912,19 +4912,19 @@
         <v>11587280</v>
       </c>
       <c r="L44" s="3">
-        <v>3911314</v>
+        <v>3911310</v>
       </c>
       <c r="M44" s="3">
-        <v>2977241</v>
+        <v>2977242</v>
       </c>
       <c r="N44" s="3">
-        <v>1733162</v>
+        <v>1733161</v>
       </c>
       <c r="O44" s="3">
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>934949</v>
+        <v>934953</v>
       </c>
       <c r="Q44" s="3">
         <v>303257</v>
@@ -4971,19 +4971,19 @@
         <v>11610725</v>
       </c>
       <c r="L45" s="3">
-        <v>3920448</v>
+        <v>3920444</v>
       </c>
       <c r="M45" s="3">
-        <v>2979383</v>
+        <v>2979384</v>
       </c>
       <c r="N45" s="3">
-        <v>1737700</v>
+        <v>1737699</v>
       </c>
       <c r="O45" s="3">
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937398</v>
+        <v>937402</v>
       </c>
       <c r="Q45" s="3">
         <v>304421</v>
@@ -5000,13 +5000,13 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22129</v>
+        <v>22130</v>
       </c>
       <c r="C46" s="3">
         <v>8963</v>
       </c>
       <c r="D46" s="3">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="E46" s="3">
         <v>2023</v>
@@ -5027,22 +5027,22 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632854</v>
+        <v>11632855</v>
       </c>
       <c r="L46" s="3">
-        <v>3929411</v>
+        <v>3929407</v>
       </c>
       <c r="M46" s="3">
-        <v>2982647</v>
+        <v>2982649</v>
       </c>
       <c r="N46" s="3">
-        <v>1739723</v>
+        <v>1739722</v>
       </c>
       <c r="O46" s="3">
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940431</v>
+        <v>940435</v>
       </c>
       <c r="Q46" s="3">
         <v>305624</v>
@@ -5059,16 +5059,16 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27916</v>
+        <v>27920</v>
       </c>
       <c r="C47" s="3">
         <v>7712</v>
       </c>
       <c r="D47" s="3">
-        <v>5639</v>
+        <v>5642</v>
       </c>
       <c r="E47" s="3">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="F47" s="3">
         <v>1992</v>
@@ -5086,13 +5086,13 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660770</v>
+        <v>11660775</v>
       </c>
       <c r="L47" s="3">
-        <v>3937123</v>
+        <v>3937119</v>
       </c>
       <c r="M47" s="3">
-        <v>2988286</v>
+        <v>2988291</v>
       </c>
       <c r="N47" s="3">
         <v>1743416</v>
@@ -5101,7 +5101,7 @@
         <v>1380648</v>
       </c>
       <c r="P47" s="3">
-        <v>945508</v>
+        <v>945512</v>
       </c>
       <c r="Q47" s="3">
         <v>307524</v>
@@ -5118,58 +5118,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>25226</v>
+        <v>26795</v>
       </c>
       <c r="C48" s="3">
-        <v>7463</v>
+        <v>7858</v>
       </c>
       <c r="D48" s="3">
-        <v>3345</v>
+        <v>3832</v>
       </c>
       <c r="E48" s="3">
-        <v>3806</v>
+        <v>3940</v>
       </c>
       <c r="F48" s="3">
         <v>897</v>
       </c>
       <c r="G48" s="3">
-        <v>6098</v>
+        <v>6450</v>
       </c>
       <c r="H48" s="3">
         <v>2102</v>
       </c>
       <c r="I48" s="3">
-        <v>1199</v>
+        <v>1372</v>
       </c>
       <c r="J48" s="3">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="K48" s="3">
-        <v>11685996</v>
+        <v>11687570</v>
       </c>
       <c r="L48" s="3">
-        <v>3944586</v>
+        <v>3944977</v>
       </c>
       <c r="M48" s="3">
-        <v>2991631</v>
+        <v>2992123</v>
       </c>
       <c r="N48" s="3">
-        <v>1747222</v>
+        <v>1747356</v>
       </c>
       <c r="O48" s="3">
         <v>1381545</v>
       </c>
       <c r="P48" s="3">
-        <v>951606</v>
+        <v>951962</v>
       </c>
       <c r="Q48" s="3">
         <v>309626</v>
       </c>
       <c r="R48" s="3">
-        <v>249750</v>
+        <v>249923</v>
       </c>
       <c r="S48" s="3">
-        <v>110030</v>
+        <v>110058</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM12"/>
+  <dimension ref="A1:IM13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11225,6 +11225,749 @@
         <v>201</v>
       </c>
       <c r="IM12">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B13">
+        <v>1574</v>
+      </c>
+      <c r="C13">
+        <v>391</v>
+      </c>
+      <c r="D13">
+        <v>492</v>
+      </c>
+      <c r="E13">
+        <v>134</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>356</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>173</v>
+      </c>
+      <c r="J13">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>11687570</v>
+      </c>
+      <c r="L13">
+        <v>3944977</v>
+      </c>
+      <c r="M13">
+        <v>2992123</v>
+      </c>
+      <c r="N13">
+        <v>1747356</v>
+      </c>
+      <c r="O13">
+        <v>1381545</v>
+      </c>
+      <c r="P13">
+        <v>951962</v>
+      </c>
+      <c r="Q13">
+        <v>309626</v>
+      </c>
+      <c r="R13">
+        <v>249923</v>
+      </c>
+      <c r="S13">
+        <v>110058</v>
+      </c>
+      <c r="T13">
+        <v>-252</v>
+      </c>
+      <c r="U13">
+        <v>126</v>
+      </c>
+      <c r="V13">
+        <v>216</v>
+      </c>
+      <c r="W13">
+        <v>55</v>
+      </c>
+      <c r="X13">
+        <v>67</v>
+      </c>
+      <c r="Y13">
+        <v>73</v>
+      </c>
+      <c r="Z13">
+        <v>98</v>
+      </c>
+      <c r="AA13">
+        <v>93</v>
+      </c>
+      <c r="AB13">
+        <v>133</v>
+      </c>
+      <c r="AC13">
+        <v>86</v>
+      </c>
+      <c r="AD13">
+        <v>92</v>
+      </c>
+      <c r="AE13">
+        <v>83</v>
+      </c>
+      <c r="AF13">
+        <v>96</v>
+      </c>
+      <c r="AG13">
+        <v>94</v>
+      </c>
+      <c r="AH13">
+        <v>83</v>
+      </c>
+      <c r="AI13">
+        <v>112</v>
+      </c>
+      <c r="AJ13">
+        <v>111</v>
+      </c>
+      <c r="AK13">
+        <v>208</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>501901</v>
+      </c>
+      <c r="AN13">
+        <v>667864</v>
+      </c>
+      <c r="AO13">
+        <v>773311</v>
+      </c>
+      <c r="AP13">
+        <v>759316</v>
+      </c>
+      <c r="AQ13">
+        <v>929739</v>
+      </c>
+      <c r="AR13">
+        <v>1025358</v>
+      </c>
+      <c r="AS13">
+        <v>1033164</v>
+      </c>
+      <c r="AT13">
+        <v>1017792</v>
+      </c>
+      <c r="AU13">
+        <v>907418</v>
+      </c>
+      <c r="AV13">
+        <v>806284</v>
+      </c>
+      <c r="AW13">
+        <v>746007</v>
+      </c>
+      <c r="AX13">
+        <v>621002</v>
+      </c>
+      <c r="AY13">
+        <v>541990</v>
+      </c>
+      <c r="AZ13">
+        <v>406424</v>
+      </c>
+      <c r="BA13">
+        <v>324010</v>
+      </c>
+      <c r="BB13">
+        <v>239374</v>
+      </c>
+      <c r="BC13">
+        <v>160466</v>
+      </c>
+      <c r="BD13">
+        <v>207984</v>
+      </c>
+      <c r="BE13">
+        <v>18166</v>
+      </c>
+      <c r="BF13">
+        <v>-132</v>
+      </c>
+      <c r="BG13">
+        <v>-123</v>
+      </c>
+      <c r="BH13">
+        <v>2</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>52</v>
+      </c>
+      <c r="BL13">
+        <v>74</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>123</v>
+      </c>
+      <c r="BQ13">
+        <v>94</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>-1</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>31</v>
+      </c>
+      <c r="BV13">
+        <v>24</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>18</v>
+      </c>
+      <c r="CA13">
+        <v>49</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>17</v>
+      </c>
+      <c r="CF13">
+        <v>56</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>47</v>
+      </c>
+      <c r="CK13">
+        <v>52</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>-1</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>36</v>
+      </c>
+      <c r="CP13">
+        <v>57</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>57</v>
+      </c>
+      <c r="CU13">
+        <v>76</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>36</v>
+      </c>
+      <c r="CZ13">
+        <v>51</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>-1</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DD13">
+        <v>36</v>
+      </c>
+      <c r="DE13">
+        <v>57</v>
+      </c>
+      <c r="DF13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>-1</v>
+      </c>
+      <c r="DI13">
+        <v>44</v>
+      </c>
+      <c r="DJ13">
+        <v>40</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>-1</v>
+      </c>
+      <c r="DN13">
+        <v>50</v>
+      </c>
+      <c r="DO13">
+        <v>47</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13">
+        <v>-1</v>
+      </c>
+      <c r="DR13">
+        <v>0</v>
+      </c>
+      <c r="DS13">
+        <v>44</v>
+      </c>
+      <c r="DT13">
+        <v>50</v>
+      </c>
+      <c r="DU13">
+        <v>0</v>
+      </c>
+      <c r="DV13">
+        <v>0</v>
+      </c>
+      <c r="DW13">
+        <v>0</v>
+      </c>
+      <c r="DX13">
+        <v>37</v>
+      </c>
+      <c r="DY13">
+        <v>47</v>
+      </c>
+      <c r="DZ13">
+        <v>0</v>
+      </c>
+      <c r="EA13">
+        <v>-1</v>
+      </c>
+      <c r="EB13">
+        <v>0</v>
+      </c>
+      <c r="EC13">
+        <v>54</v>
+      </c>
+      <c r="ED13">
+        <v>57</v>
+      </c>
+      <c r="EE13">
+        <v>0</v>
+      </c>
+      <c r="EF13">
+        <v>1</v>
+      </c>
+      <c r="EG13">
+        <v>0</v>
+      </c>
+      <c r="EH13">
+        <v>52</v>
+      </c>
+      <c r="EI13">
+        <v>59</v>
+      </c>
+      <c r="EJ13">
+        <v>0</v>
+      </c>
+      <c r="EK13">
+        <v>0</v>
+      </c>
+      <c r="EL13">
+        <v>0</v>
+      </c>
+      <c r="EM13">
+        <v>71</v>
+      </c>
+      <c r="EN13">
+        <v>139</v>
+      </c>
+      <c r="EO13">
+        <v>0</v>
+      </c>
+      <c r="EP13">
+        <v>0</v>
+      </c>
+      <c r="EQ13">
+        <v>-2</v>
+      </c>
+      <c r="ER13">
+        <v>0</v>
+      </c>
+      <c r="ES13">
+        <v>0</v>
+      </c>
+      <c r="ET13">
+        <v>0</v>
+      </c>
+      <c r="EU13">
+        <v>0</v>
+      </c>
+      <c r="EV13">
+        <v>0</v>
+      </c>
+      <c r="EW13">
+        <v>231025</v>
+      </c>
+      <c r="EX13">
+        <v>219368</v>
+      </c>
+      <c r="EY13">
+        <v>410</v>
+      </c>
+      <c r="EZ13">
+        <v>15451</v>
+      </c>
+      <c r="FA13">
+        <v>35647</v>
+      </c>
+      <c r="FB13">
+        <v>307961</v>
+      </c>
+      <c r="FC13">
+        <v>292631</v>
+      </c>
+      <c r="FD13">
+        <v>466</v>
+      </c>
+      <c r="FE13">
+        <v>16773</v>
+      </c>
+      <c r="FF13">
+        <v>50033</v>
+      </c>
+      <c r="FG13">
+        <v>353138</v>
+      </c>
+      <c r="FH13">
+        <v>342503</v>
+      </c>
+      <c r="FI13">
+        <v>633</v>
+      </c>
+      <c r="FJ13">
+        <v>16954</v>
+      </c>
+      <c r="FK13">
+        <v>60083</v>
+      </c>
+      <c r="FL13">
+        <v>326098</v>
+      </c>
+      <c r="FM13">
+        <v>373564</v>
+      </c>
+      <c r="FN13">
+        <v>894</v>
+      </c>
+      <c r="FO13">
+        <v>12939</v>
+      </c>
+      <c r="FP13">
+        <v>45821</v>
+      </c>
+      <c r="FQ13">
+        <v>391804</v>
+      </c>
+      <c r="FR13">
+        <v>479142</v>
+      </c>
+      <c r="FS13">
+        <v>1100</v>
+      </c>
+      <c r="FT13">
+        <v>16280</v>
+      </c>
+      <c r="FU13">
+        <v>41413</v>
+      </c>
+      <c r="FV13">
+        <v>433515</v>
+      </c>
+      <c r="FW13">
+        <v>525408</v>
+      </c>
+      <c r="FX13">
+        <v>1135</v>
+      </c>
+      <c r="FY13">
+        <v>17789</v>
+      </c>
+      <c r="FZ13">
+        <v>47511</v>
+      </c>
+      <c r="GA13">
+        <v>428810</v>
+      </c>
+      <c r="GB13">
+        <v>531446</v>
+      </c>
+      <c r="GC13">
+        <v>922</v>
+      </c>
+      <c r="GD13">
+        <v>17168</v>
+      </c>
+      <c r="GE13">
+        <v>54818</v>
+      </c>
+      <c r="GF13">
+        <v>419361</v>
+      </c>
+      <c r="GG13">
+        <v>523910</v>
+      </c>
+      <c r="GH13">
+        <v>665</v>
+      </c>
+      <c r="GI13">
+        <v>15033</v>
+      </c>
+      <c r="GJ13">
+        <v>58823</v>
+      </c>
+      <c r="GK13">
+        <v>373154</v>
+      </c>
+      <c r="GL13">
+        <v>468253</v>
+      </c>
+      <c r="GM13">
+        <v>498</v>
+      </c>
+      <c r="GN13">
+        <v>12350</v>
+      </c>
+      <c r="GO13">
+        <v>53163</v>
+      </c>
+      <c r="GP13">
+        <v>329964</v>
+      </c>
+      <c r="GQ13">
+        <v>420427</v>
+      </c>
+      <c r="GR13">
+        <v>439</v>
+      </c>
+      <c r="GS13">
+        <v>10133</v>
+      </c>
+      <c r="GT13">
+        <v>45321</v>
+      </c>
+      <c r="GU13">
+        <v>307704</v>
+      </c>
+      <c r="GV13">
+        <v>388689</v>
+      </c>
+      <c r="GW13">
+        <v>399</v>
+      </c>
+      <c r="GX13">
+        <v>8956</v>
+      </c>
+      <c r="GY13">
+        <v>40259</v>
+      </c>
+      <c r="GZ13">
+        <v>263153</v>
+      </c>
+      <c r="HA13">
+        <v>319163</v>
+      </c>
+      <c r="HB13">
+        <v>329</v>
+      </c>
+      <c r="HC13">
+        <v>6610</v>
+      </c>
+      <c r="HD13">
+        <v>31747</v>
+      </c>
+      <c r="HE13">
+        <v>233980</v>
+      </c>
+      <c r="HF13">
+        <v>276495</v>
+      </c>
+      <c r="HG13">
+        <v>234</v>
+      </c>
+      <c r="HH13">
+        <v>5321</v>
+      </c>
+      <c r="HI13">
+        <v>25960</v>
+      </c>
+      <c r="HJ13">
+        <v>180336</v>
+      </c>
+      <c r="HK13">
+        <v>203690</v>
+      </c>
+      <c r="HL13">
+        <v>199</v>
+      </c>
+      <c r="HM13">
+        <v>3678</v>
+      </c>
+      <c r="HN13">
+        <v>18521</v>
+      </c>
+      <c r="HO13">
+        <v>151059</v>
+      </c>
+      <c r="HP13">
+        <v>157749</v>
+      </c>
+      <c r="HQ13">
+        <v>163</v>
+      </c>
+      <c r="HR13">
+        <v>2688</v>
+      </c>
+      <c r="HS13">
+        <v>12351</v>
+      </c>
+      <c r="HT13">
+        <v>115354</v>
+      </c>
+      <c r="HU13">
+        <v>114151</v>
+      </c>
+      <c r="HV13">
+        <v>164</v>
+      </c>
+      <c r="HW13">
+        <v>1895</v>
+      </c>
+      <c r="HX13">
+        <v>7810</v>
+      </c>
+      <c r="HY13">
+        <v>75374</v>
+      </c>
+      <c r="HZ13">
+        <v>79149</v>
+      </c>
+      <c r="IA13">
+        <v>131</v>
+      </c>
+      <c r="IB13">
+        <v>1280</v>
+      </c>
+      <c r="IC13">
+        <v>4532</v>
+      </c>
+      <c r="ID13">
+        <v>80503</v>
+      </c>
+      <c r="IE13">
+        <v>121067</v>
+      </c>
+      <c r="IF13">
+        <v>305</v>
+      </c>
+      <c r="IG13">
+        <v>2267</v>
+      </c>
+      <c r="IH13">
+        <v>3842</v>
+      </c>
+      <c r="II13">
+        <v>2150</v>
+      </c>
+      <c r="IJ13">
+        <v>2307</v>
+      </c>
+      <c r="IK13">
+        <v>22</v>
+      </c>
+      <c r="IL13">
+        <v>201</v>
+      </c>
+      <c r="IM13">
         <v>13486</v>
       </c>
     </row>
@@ -11252,7 +11995,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45250</v>
+        <v>45251</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87372DD7-F494-47DE-8CD6-0429D51C8488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68210276-B118-4220-AF8B-7FDD0B1906C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1636,7 +1636,7 @@
         <v>43831</v>
       </c>
       <c r="B2">
-        <v>29114</v>
+        <v>29115</v>
       </c>
       <c r="C2">
         <v>5044</v>
@@ -1654,7 +1654,7 @@
         <v>613</v>
       </c>
       <c r="H2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I2">
         <v>162</v>
@@ -1663,7 +1663,7 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>29114</v>
+        <v>29115</v>
       </c>
       <c r="L2">
         <v>5044</v>
@@ -1681,7 +1681,7 @@
         <v>613</v>
       </c>
       <c r="Q2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R2">
         <v>162</v>
@@ -1738,7 +1738,7 @@
         <v>760</v>
       </c>
       <c r="AJ2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AK2">
         <v>1444</v>
@@ -1795,7 +1795,7 @@
         <v>760</v>
       </c>
       <c r="BC2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="BD2">
         <v>1444</v>
@@ -1836,7 +1836,7 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568068</v>
+        <v>568069</v>
       </c>
       <c r="L3">
         <v>285283</v>
@@ -1854,7 +1854,7 @@
         <v>19161</v>
       </c>
       <c r="Q3">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="R3">
         <v>6552</v>
@@ -1884,10 +1884,10 @@
         <v>55517</v>
       </c>
       <c r="AA3">
-        <v>42725</v>
+        <v>42724</v>
       </c>
       <c r="AB3">
-        <v>33829</v>
+        <v>33830</v>
       </c>
       <c r="AC3">
         <v>30113</v>
@@ -1941,10 +1941,10 @@
         <v>58380</v>
       </c>
       <c r="AT3">
-        <v>44990</v>
+        <v>44989</v>
       </c>
       <c r="AU3">
-        <v>35618</v>
+        <v>35619</v>
       </c>
       <c r="AV3">
         <v>32078</v>
@@ -1968,7 +1968,7 @@
         <v>6473</v>
       </c>
       <c r="BC3">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="BD3">
         <v>5363</v>
@@ -1982,7 +1982,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317719</v>
+        <v>10317721</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1997,10 +1997,10 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848164</v>
+        <v>848167</v>
       </c>
       <c r="H4">
-        <v>279667</v>
+        <v>279666</v>
       </c>
       <c r="I4">
         <v>221785</v>
@@ -2009,7 +2009,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885787</v>
+        <v>10885790</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2024,7 +2024,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867325</v>
+        <v>867328</v>
       </c>
       <c r="Q4">
         <v>281544</v>
@@ -2036,115 +2036,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450559</v>
+        <v>450558</v>
       </c>
       <c r="U4">
-        <v>611273</v>
+        <v>611275</v>
       </c>
       <c r="V4">
-        <v>710191</v>
+        <v>710190</v>
       </c>
       <c r="W4">
         <v>683397</v>
       </c>
       <c r="X4">
-        <v>812079</v>
+        <v>812081</v>
       </c>
       <c r="Y4">
-        <v>899951</v>
+        <v>899946</v>
       </c>
       <c r="Z4">
         <v>916983</v>
       </c>
       <c r="AA4">
-        <v>908864</v>
+        <v>908868</v>
       </c>
       <c r="AB4">
-        <v>810321</v>
+        <v>810323</v>
       </c>
       <c r="AC4">
-        <v>717636</v>
+        <v>717634</v>
       </c>
       <c r="AD4">
-        <v>658687</v>
+        <v>658689</v>
       </c>
       <c r="AE4">
-        <v>544156</v>
+        <v>544157</v>
       </c>
       <c r="AF4">
-        <v>471562</v>
+        <v>471565</v>
       </c>
       <c r="AG4">
-        <v>349090</v>
+        <v>349088</v>
       </c>
       <c r="AH4">
-        <v>274362</v>
+        <v>274361</v>
       </c>
       <c r="AI4">
-        <v>197872</v>
+        <v>197873</v>
       </c>
       <c r="AJ4">
-        <v>128002</v>
+        <v>128001</v>
       </c>
       <c r="AK4">
-        <v>155526</v>
+        <v>155524</v>
       </c>
       <c r="AL4">
         <v>17208</v>
       </c>
       <c r="AM4">
-        <v>473809</v>
+        <v>473808</v>
       </c>
       <c r="AN4">
-        <v>644475</v>
+        <v>644477</v>
       </c>
       <c r="AO4">
-        <v>741703</v>
+        <v>741702</v>
       </c>
       <c r="AP4">
         <v>728651</v>
       </c>
       <c r="AQ4">
-        <v>890304</v>
+        <v>890306</v>
       </c>
       <c r="AR4">
-        <v>974394</v>
+        <v>974389</v>
       </c>
       <c r="AS4">
         <v>975363</v>
       </c>
       <c r="AT4">
-        <v>953854</v>
+        <v>953857</v>
       </c>
       <c r="AU4">
-        <v>845939</v>
+        <v>845942</v>
       </c>
       <c r="AV4">
-        <v>749714</v>
+        <v>749712</v>
       </c>
       <c r="AW4">
-        <v>688379</v>
+        <v>688381</v>
       </c>
       <c r="AX4">
-        <v>568160</v>
+        <v>568161</v>
       </c>
       <c r="AY4">
-        <v>490103</v>
+        <v>490106</v>
       </c>
       <c r="AZ4">
-        <v>362060</v>
+        <v>362058</v>
       </c>
       <c r="BA4">
-        <v>283678</v>
+        <v>283677</v>
       </c>
       <c r="BB4">
-        <v>204345</v>
+        <v>204346</v>
       </c>
       <c r="BC4">
         <v>132386</v>
       </c>
       <c r="BD4">
-        <v>160889</v>
+        <v>160887</v>
       </c>
       <c r="BE4">
         <v>17581</v>
@@ -2155,172 +2155,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>801783</v>
+        <v>803466</v>
       </c>
       <c r="C5">
-        <v>291583</v>
+        <v>292113</v>
       </c>
       <c r="D5">
-        <v>150643</v>
+        <v>150645</v>
       </c>
       <c r="E5">
-        <v>127482</v>
+        <v>127808</v>
       </c>
       <c r="F5">
-        <v>91679</v>
+        <v>91682</v>
       </c>
       <c r="G5">
-        <v>84637</v>
+        <v>84951</v>
       </c>
       <c r="H5">
-        <v>28082</v>
+        <v>28490</v>
       </c>
       <c r="I5">
-        <v>21586</v>
+        <v>21650</v>
       </c>
       <c r="J5">
-        <v>6091</v>
+        <v>6127</v>
       </c>
       <c r="K5">
-        <v>11687570</v>
+        <v>11689256</v>
       </c>
       <c r="L5">
-        <v>3944977</v>
+        <v>3945507</v>
       </c>
       <c r="M5">
-        <v>2992123</v>
+        <v>2992125</v>
       </c>
       <c r="N5">
-        <v>1747356</v>
+        <v>1747682</v>
       </c>
       <c r="O5">
-        <v>1381545</v>
+        <v>1381548</v>
       </c>
       <c r="P5">
-        <v>951962</v>
+        <v>952279</v>
       </c>
       <c r="Q5">
-        <v>309626</v>
+        <v>310034</v>
       </c>
       <c r="R5">
-        <v>249923</v>
+        <v>249987</v>
       </c>
       <c r="S5">
-        <v>110058</v>
+        <v>110094</v>
       </c>
       <c r="T5">
-        <v>28092</v>
+        <v>28169</v>
       </c>
       <c r="U5">
-        <v>23389</v>
+        <v>23414</v>
       </c>
       <c r="V5">
-        <v>31608</v>
+        <v>31652</v>
       </c>
       <c r="W5">
-        <v>30665</v>
+        <v>30714</v>
       </c>
       <c r="X5">
-        <v>39435</v>
+        <v>39489</v>
       </c>
       <c r="Y5">
-        <v>50964</v>
+        <v>51051</v>
       </c>
       <c r="Z5">
-        <v>57801</v>
+        <v>57901</v>
       </c>
       <c r="AA5">
-        <v>63938</v>
+        <v>64080</v>
       </c>
       <c r="AB5">
-        <v>61479</v>
+        <v>61570</v>
       </c>
       <c r="AC5">
-        <v>56570</v>
+        <v>56667</v>
       </c>
       <c r="AD5">
-        <v>57628</v>
+        <v>57764</v>
       </c>
       <c r="AE5">
-        <v>52842</v>
+        <v>52942</v>
       </c>
       <c r="AF5">
-        <v>51887</v>
+        <v>51995</v>
       </c>
       <c r="AG5">
-        <v>44364</v>
+        <v>44472</v>
       </c>
       <c r="AH5">
-        <v>40332</v>
+        <v>40425</v>
       </c>
       <c r="AI5">
-        <v>35029</v>
+        <v>35123</v>
       </c>
       <c r="AJ5">
-        <v>28080</v>
+        <v>28197</v>
       </c>
       <c r="AK5">
-        <v>47095</v>
+        <v>47253</v>
       </c>
       <c r="AL5">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AM5">
-        <v>501901</v>
+        <v>501977</v>
       </c>
       <c r="AN5">
-        <v>667864</v>
+        <v>667891</v>
       </c>
       <c r="AO5">
-        <v>773311</v>
+        <v>773354</v>
       </c>
       <c r="AP5">
-        <v>759316</v>
+        <v>759365</v>
       </c>
       <c r="AQ5">
-        <v>929739</v>
+        <v>929795</v>
       </c>
       <c r="AR5">
-        <v>1025358</v>
+        <v>1025440</v>
       </c>
       <c r="AS5">
-        <v>1033164</v>
+        <v>1033264</v>
       </c>
       <c r="AT5">
-        <v>1017792</v>
+        <v>1017937</v>
       </c>
       <c r="AU5">
-        <v>907418</v>
+        <v>907512</v>
       </c>
       <c r="AV5">
-        <v>806284</v>
+        <v>806379</v>
       </c>
       <c r="AW5">
-        <v>746007</v>
+        <v>746145</v>
       </c>
       <c r="AX5">
-        <v>621002</v>
+        <v>621103</v>
       </c>
       <c r="AY5">
-        <v>541990</v>
+        <v>542101</v>
       </c>
       <c r="AZ5">
-        <v>406424</v>
+        <v>406530</v>
       </c>
       <c r="BA5">
-        <v>324010</v>
+        <v>324102</v>
       </c>
       <c r="BB5">
-        <v>239374</v>
+        <v>239469</v>
       </c>
       <c r="BC5">
-        <v>160466</v>
+        <v>160583</v>
       </c>
       <c r="BD5">
-        <v>207984</v>
+        <v>208140</v>
       </c>
       <c r="BE5">
-        <v>18166</v>
+        <v>18169</v>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2758,7 @@
         <v>44013</v>
       </c>
       <c r="B8" s="3">
-        <v>10269</v>
+        <v>10270</v>
       </c>
       <c r="C8" s="3">
         <v>392</v>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3">
         <v>11</v>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <v>19183</v>
+        <v>19184</v>
       </c>
       <c r="L8" s="3">
         <v>3861</v>
@@ -2803,7 +2803,7 @@
         <v>482</v>
       </c>
       <c r="Q8" s="3">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R8" s="3">
         <v>150</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>26471</v>
+        <v>26472</v>
       </c>
       <c r="L9" s="3">
         <v>4137</v>
@@ -2862,7 +2862,7 @@
         <v>491</v>
       </c>
       <c r="Q9" s="3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R9" s="3">
         <v>152</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>27622</v>
+        <v>27623</v>
       </c>
       <c r="L10" s="3">
         <v>4302</v>
@@ -2921,7 +2921,7 @@
         <v>503</v>
       </c>
       <c r="Q10" s="3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R10" s="3">
         <v>152</v>
@@ -2962,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="3">
-        <v>28142</v>
+        <v>28143</v>
       </c>
       <c r="L11" s="3">
         <v>4507</v>
@@ -2980,7 +2980,7 @@
         <v>536</v>
       </c>
       <c r="Q11" s="3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R11" s="3">
         <v>155</v>
@@ -3021,7 +3021,7 @@
         <v>23</v>
       </c>
       <c r="K12" s="3">
-        <v>28511</v>
+        <v>28512</v>
       </c>
       <c r="L12" s="3">
         <v>4675</v>
@@ -3039,7 +3039,7 @@
         <v>593</v>
       </c>
       <c r="Q12" s="3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="R12" s="3">
         <v>161</v>
@@ -3080,7 +3080,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="3">
-        <v>29114</v>
+        <v>29115</v>
       </c>
       <c r="L13" s="3">
         <v>5044</v>
@@ -3098,7 +3098,7 @@
         <v>613</v>
       </c>
       <c r="Q13" s="3">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R13" s="3">
         <v>162</v>
@@ -3139,7 +3139,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="3">
-        <v>29686</v>
+        <v>29687</v>
       </c>
       <c r="L14" s="3">
         <v>5278</v>
@@ -3157,7 +3157,7 @@
         <v>650</v>
       </c>
       <c r="Q14" s="3">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R14" s="3">
         <v>190</v>
@@ -3198,7 +3198,7 @@
         <v>7</v>
       </c>
       <c r="K15" s="3">
-        <v>29935</v>
+        <v>29936</v>
       </c>
       <c r="L15" s="3">
         <v>5341</v>
@@ -3216,7 +3216,7 @@
         <v>672</v>
       </c>
       <c r="Q15" s="3">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="R15" s="3">
         <v>197</v>
@@ -3257,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="3">
-        <v>30407</v>
+        <v>30408</v>
       </c>
       <c r="L16" s="3">
         <v>5429</v>
@@ -3275,7 +3275,7 @@
         <v>718</v>
       </c>
       <c r="Q16" s="3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R16" s="3">
         <v>225</v>
@@ -3316,7 +3316,7 @@
         <v>56</v>
       </c>
       <c r="K17" s="3">
-        <v>30979</v>
+        <v>30980</v>
       </c>
       <c r="L17" s="3">
         <v>5583</v>
@@ -3334,7 +3334,7 @@
         <v>783</v>
       </c>
       <c r="Q17" s="3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R17" s="3">
         <v>246</v>
@@ -3375,7 +3375,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="3">
-        <v>31365</v>
+        <v>31366</v>
       </c>
       <c r="L18" s="3">
         <v>5651</v>
@@ -3393,7 +3393,7 @@
         <v>808</v>
       </c>
       <c r="Q18" s="3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R18" s="3">
         <v>248</v>
@@ -3434,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="3">
-        <v>32005</v>
+        <v>32006</v>
       </c>
       <c r="L19" s="3">
         <v>5990</v>
@@ -3452,7 +3452,7 @@
         <v>847</v>
       </c>
       <c r="Q19" s="3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="R19" s="3">
         <v>250</v>
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="3">
-        <v>36310</v>
+        <v>36311</v>
       </c>
       <c r="L20" s="3">
         <v>9759</v>
@@ -3511,7 +3511,7 @@
         <v>897</v>
       </c>
       <c r="Q20" s="3">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R20" s="3">
         <v>256</v>
@@ -3552,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="3">
-        <v>59824</v>
+        <v>59825</v>
       </c>
       <c r="L21" s="3">
         <v>30988</v>
@@ -3570,7 +3570,7 @@
         <v>908</v>
       </c>
       <c r="Q21" s="3">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R21" s="3">
         <v>592</v>
@@ -3611,7 +3611,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="3">
-        <v>114211</v>
+        <v>114212</v>
       </c>
       <c r="L22" s="3">
         <v>64778</v>
@@ -3629,7 +3629,7 @@
         <v>933</v>
       </c>
       <c r="Q22" s="3">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="R22" s="3">
         <v>1252</v>
@@ -3670,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="3">
-        <v>175207</v>
+        <v>175208</v>
       </c>
       <c r="L23" s="3">
         <v>75564</v>
@@ -3688,7 +3688,7 @@
         <v>952</v>
       </c>
       <c r="Q23" s="3">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R23" s="3">
         <v>1936</v>
@@ -3729,7 +3729,7 @@
         <v>70</v>
       </c>
       <c r="K24" s="3">
-        <v>215936</v>
+        <v>215937</v>
       </c>
       <c r="L24" s="3">
         <v>82234</v>
@@ -3747,7 +3747,7 @@
         <v>1000</v>
       </c>
       <c r="Q24" s="3">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R24" s="3">
         <v>2293</v>
@@ -3788,7 +3788,7 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568068</v>
+        <v>568069</v>
       </c>
       <c r="L25" s="3">
         <v>285283</v>
@@ -3806,7 +3806,7 @@
         <v>19161</v>
       </c>
       <c r="Q25" s="3">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="R25" s="3">
         <v>6552</v>
@@ -3847,7 +3847,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377638</v>
+        <v>2377639</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3865,7 +3865,7 @@
         <v>109194</v>
       </c>
       <c r="Q26" s="3">
-        <v>29726</v>
+        <v>29727</v>
       </c>
       <c r="R26" s="3">
         <v>36975</v>
@@ -3879,7 +3879,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687521</v>
+        <v>687524</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3894,10 +3894,10 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44396</v>
+        <v>44398</v>
       </c>
       <c r="H27" s="3">
-        <v>17718</v>
+        <v>17719</v>
       </c>
       <c r="I27" s="3">
         <v>14605</v>
@@ -3906,7 +3906,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065159</v>
+        <v>3065163</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3921,10 +3921,10 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153590</v>
+        <v>153592</v>
       </c>
       <c r="Q27" s="3">
-        <v>47444</v>
+        <v>47446</v>
       </c>
       <c r="R27" s="3">
         <v>51580</v>
@@ -3938,7 +3938,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366765</v>
+        <v>1366767</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3953,10 +3953,10 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120481</v>
+        <v>120482</v>
       </c>
       <c r="H28" s="3">
-        <v>46426</v>
+        <v>46427</v>
       </c>
       <c r="I28" s="3">
         <v>27534</v>
@@ -3965,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431924</v>
+        <v>4431930</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3980,10 +3980,10 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274071</v>
+        <v>274074</v>
       </c>
       <c r="Q28" s="3">
-        <v>93870</v>
+        <v>93873</v>
       </c>
       <c r="R28" s="3">
         <v>79114</v>
@@ -3997,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339833</v>
+        <v>1339830</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4015,7 +4015,7 @@
         <v>139772</v>
       </c>
       <c r="H29" s="3">
-        <v>44025</v>
+        <v>44022</v>
       </c>
       <c r="I29" s="3">
         <v>27308</v>
@@ -4024,7 +4024,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771757</v>
+        <v>5771760</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4039,7 +4039,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413843</v>
+        <v>413846</v>
       </c>
       <c r="Q29" s="3">
         <v>137895</v>
@@ -4056,7 +4056,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310357</v>
+        <v>1310361</v>
       </c>
       <c r="C30" s="3">
         <v>297268</v>
@@ -4074,7 +4074,7 @@
         <v>108131</v>
       </c>
       <c r="H30" s="3">
-        <v>28269</v>
+        <v>28273</v>
       </c>
       <c r="I30" s="3">
         <v>27707</v>
@@ -4083,7 +4083,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082114</v>
+        <v>7082121</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4098,10 +4098,10 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>521974</v>
+        <v>521977</v>
       </c>
       <c r="Q30" s="3">
-        <v>166164</v>
+        <v>166168</v>
       </c>
       <c r="R30" s="3">
         <v>134129</v>
@@ -4115,7 +4115,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884295</v>
+        <v>884292</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4133,7 +4133,7 @@
         <v>77314</v>
       </c>
       <c r="H31" s="3">
-        <v>24718</v>
+        <v>24715</v>
       </c>
       <c r="I31" s="3">
         <v>26905</v>
@@ -4142,7 +4142,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966409</v>
+        <v>7966413</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4157,10 +4157,10 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599288</v>
+        <v>599291</v>
       </c>
       <c r="Q31" s="3">
-        <v>190882</v>
+        <v>190883</v>
       </c>
       <c r="R31" s="3">
         <v>161034</v>
@@ -4174,7 +4174,7 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250350</v>
+        <v>1250348</v>
       </c>
       <c r="C32" s="3">
         <v>378606</v>
@@ -4192,7 +4192,7 @@
         <v>117400</v>
       </c>
       <c r="H32" s="3">
-        <v>42275</v>
+        <v>42273</v>
       </c>
       <c r="I32" s="3">
         <v>31650</v>
@@ -4201,7 +4201,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216759</v>
+        <v>9216761</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4216,10 +4216,10 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716688</v>
+        <v>716691</v>
       </c>
       <c r="Q32" s="3">
-        <v>233157</v>
+        <v>233156</v>
       </c>
       <c r="R32" s="3">
         <v>192684</v>
@@ -4233,7 +4233,7 @@
         <v>44774</v>
       </c>
       <c r="B33" s="3">
-        <v>554860</v>
+        <v>554861</v>
       </c>
       <c r="C33" s="3">
         <v>230049</v>
@@ -4251,7 +4251,7 @@
         <v>40511</v>
       </c>
       <c r="H33" s="3">
-        <v>12903</v>
+        <v>12904</v>
       </c>
       <c r="I33" s="3">
         <v>10547</v>
@@ -4260,7 +4260,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771619</v>
+        <v>9771622</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4275,7 +4275,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757199</v>
+        <v>757202</v>
       </c>
       <c r="Q33" s="3">
         <v>246060</v>
@@ -4319,7 +4319,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965874</v>
+        <v>9965877</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4334,7 +4334,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772483</v>
+        <v>772486</v>
       </c>
       <c r="Q34" s="3">
         <v>249936</v>
@@ -4378,7 +4378,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107979</v>
+        <v>10107982</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4393,7 +4393,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785658</v>
+        <v>785661</v>
       </c>
       <c r="Q35" s="3">
         <v>253590</v>
@@ -4410,7 +4410,7 @@
         <v>44866</v>
       </c>
       <c r="B36" s="3">
-        <v>351943</v>
+        <v>351940</v>
       </c>
       <c r="C36" s="3">
         <v>122093</v>
@@ -4428,7 +4428,7 @@
         <v>37162</v>
       </c>
       <c r="H36" s="3">
-        <v>11684</v>
+        <v>11681</v>
       </c>
       <c r="I36" s="3">
         <v>7226</v>
@@ -4452,10 +4452,10 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822820</v>
+        <v>822823</v>
       </c>
       <c r="Q36" s="3">
-        <v>265274</v>
+        <v>265271</v>
       </c>
       <c r="R36" s="3">
         <v>216760</v>
@@ -4469,7 +4469,7 @@
         <v>44896</v>
       </c>
       <c r="B37" s="3">
-        <v>425865</v>
+        <v>425868</v>
       </c>
       <c r="C37" s="3">
         <v>156462</v>
@@ -4487,7 +4487,7 @@
         <v>44505</v>
       </c>
       <c r="H37" s="3">
-        <v>16270</v>
+        <v>16273</v>
       </c>
       <c r="I37" s="3">
         <v>11577</v>
@@ -4496,7 +4496,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885787</v>
+        <v>10885790</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4511,7 +4511,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867325</v>
+        <v>867328</v>
       </c>
       <c r="Q37" s="3">
         <v>281544</v>
@@ -4555,7 +4555,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015865</v>
+        <v>11015868</v>
       </c>
       <c r="L38" s="3">
         <v>3699334</v>
@@ -4570,7 +4570,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879215</v>
+        <v>879218</v>
       </c>
       <c r="Q38" s="3">
         <v>285181</v>
@@ -4614,7 +4614,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087854</v>
+        <v>11087857</v>
       </c>
       <c r="L39" s="3">
         <v>3724577</v>
@@ -4629,7 +4629,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886068</v>
+        <v>886071</v>
       </c>
       <c r="Q39" s="3">
         <v>287112</v>
@@ -4673,7 +4673,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191833</v>
+        <v>11191836</v>
       </c>
       <c r="L40" s="3">
         <v>3763219</v>
@@ -4688,7 +4688,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897568</v>
+        <v>897571</v>
       </c>
       <c r="Q40" s="3">
         <v>290414</v>
@@ -4732,7 +4732,7 @@
         <v>826</v>
       </c>
       <c r="K41" s="3">
-        <v>11314998</v>
+        <v>11315001</v>
       </c>
       <c r="L41" s="3">
         <v>3810748</v>
@@ -4747,7 +4747,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909897</v>
+        <v>909900</v>
       </c>
       <c r="Q41" s="3">
         <v>294194</v>
@@ -4791,7 +4791,7 @@
         <v>934</v>
       </c>
       <c r="K42" s="3">
-        <v>11481252</v>
+        <v>11481255</v>
       </c>
       <c r="L42" s="3">
         <v>3872843</v>
@@ -4806,7 +4806,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924810</v>
+        <v>924813</v>
       </c>
       <c r="Q42" s="3">
         <v>299398</v>
@@ -4823,13 +4823,13 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77806</v>
+        <v>77803</v>
       </c>
       <c r="C43" s="3">
         <v>28182</v>
       </c>
       <c r="D43" s="3">
-        <v>14771</v>
+        <v>14768</v>
       </c>
       <c r="E43" s="3">
         <v>14251</v>
@@ -4856,7 +4856,7 @@
         <v>3901025</v>
       </c>
       <c r="M43" s="3">
-        <v>2975164</v>
+        <v>2975161</v>
       </c>
       <c r="N43" s="3">
         <v>1726213</v>
@@ -4865,7 +4865,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932024</v>
+        <v>932027</v>
       </c>
       <c r="Q43" s="3">
         <v>301984</v>
@@ -4882,13 +4882,13 @@
         <v>45108</v>
       </c>
       <c r="B44" s="3">
-        <v>28222</v>
+        <v>28200</v>
       </c>
       <c r="C44" s="3">
         <v>10285</v>
       </c>
       <c r="D44" s="3">
-        <v>2078</v>
+        <v>2056</v>
       </c>
       <c r="E44" s="3">
         <v>6948</v>
@@ -4909,13 +4909,13 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587280</v>
+        <v>11587258</v>
       </c>
       <c r="L44" s="3">
         <v>3911310</v>
       </c>
       <c r="M44" s="3">
-        <v>2977242</v>
+        <v>2977217</v>
       </c>
       <c r="N44" s="3">
         <v>1733161</v>
@@ -4924,7 +4924,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>934953</v>
+        <v>934956</v>
       </c>
       <c r="Q44" s="3">
         <v>303257</v>
@@ -4941,13 +4941,13 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23445</v>
+        <v>23415</v>
       </c>
       <c r="C45" s="3">
         <v>9134</v>
       </c>
       <c r="D45" s="3">
-        <v>2142</v>
+        <v>2112</v>
       </c>
       <c r="E45" s="3">
         <v>4538</v>
@@ -4968,13 +4968,13 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610725</v>
+        <v>11610673</v>
       </c>
       <c r="L45" s="3">
         <v>3920444</v>
       </c>
       <c r="M45" s="3">
-        <v>2979384</v>
+        <v>2979329</v>
       </c>
       <c r="N45" s="3">
         <v>1737699</v>
@@ -4983,7 +4983,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937402</v>
+        <v>937405</v>
       </c>
       <c r="Q45" s="3">
         <v>304421</v>
@@ -5000,13 +5000,13 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22130</v>
+        <v>22103</v>
       </c>
       <c r="C46" s="3">
         <v>8963</v>
       </c>
       <c r="D46" s="3">
-        <v>3265</v>
+        <v>3238</v>
       </c>
       <c r="E46" s="3">
         <v>2023</v>
@@ -5027,13 +5027,13 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632855</v>
+        <v>11632776</v>
       </c>
       <c r="L46" s="3">
         <v>3929407</v>
       </c>
       <c r="M46" s="3">
-        <v>2982649</v>
+        <v>2982567</v>
       </c>
       <c r="N46" s="3">
         <v>1739722</v>
@@ -5042,7 +5042,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940435</v>
+        <v>940438</v>
       </c>
       <c r="Q46" s="3">
         <v>305624</v>
@@ -5059,16 +5059,16 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27920</v>
+        <v>27882</v>
       </c>
       <c r="C47" s="3">
-        <v>7712</v>
+        <v>7713</v>
       </c>
       <c r="D47" s="3">
-        <v>5642</v>
+        <v>5595</v>
       </c>
       <c r="E47" s="3">
-        <v>3694</v>
+        <v>3701</v>
       </c>
       <c r="F47" s="3">
         <v>1992</v>
@@ -5077,7 +5077,7 @@
         <v>5077</v>
       </c>
       <c r="H47" s="3">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="I47" s="3">
         <v>1488</v>
@@ -5086,25 +5086,25 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660775</v>
+        <v>11660658</v>
       </c>
       <c r="L47" s="3">
-        <v>3937119</v>
+        <v>3937120</v>
       </c>
       <c r="M47" s="3">
-        <v>2988291</v>
+        <v>2988162</v>
       </c>
       <c r="N47" s="3">
-        <v>1743416</v>
+        <v>1743423</v>
       </c>
       <c r="O47" s="3">
         <v>1380648</v>
       </c>
       <c r="P47" s="3">
-        <v>945512</v>
+        <v>945515</v>
       </c>
       <c r="Q47" s="3">
-        <v>307524</v>
+        <v>307525</v>
       </c>
       <c r="R47" s="3">
         <v>248551</v>
@@ -5118,58 +5118,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>26795</v>
+        <v>28598</v>
       </c>
       <c r="C48" s="3">
-        <v>7858</v>
+        <v>8387</v>
       </c>
       <c r="D48" s="3">
-        <v>3832</v>
+        <v>3963</v>
       </c>
       <c r="E48" s="3">
-        <v>3940</v>
+        <v>4259</v>
       </c>
       <c r="F48" s="3">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="G48" s="3">
-        <v>6450</v>
+        <v>6764</v>
       </c>
       <c r="H48" s="3">
-        <v>2102</v>
+        <v>2509</v>
       </c>
       <c r="I48" s="3">
-        <v>1372</v>
+        <v>1436</v>
       </c>
       <c r="J48" s="3">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="K48" s="3">
-        <v>11687570</v>
+        <v>11689256</v>
       </c>
       <c r="L48" s="3">
-        <v>3944977</v>
+        <v>3945507</v>
       </c>
       <c r="M48" s="3">
-        <v>2992123</v>
+        <v>2992125</v>
       </c>
       <c r="N48" s="3">
-        <v>1747356</v>
+        <v>1747682</v>
       </c>
       <c r="O48" s="3">
-        <v>1381545</v>
+        <v>1381548</v>
       </c>
       <c r="P48" s="3">
-        <v>951962</v>
+        <v>952279</v>
       </c>
       <c r="Q48" s="3">
-        <v>309626</v>
+        <v>310034</v>
       </c>
       <c r="R48" s="3">
-        <v>249923</v>
+        <v>249987</v>
       </c>
       <c r="S48" s="3">
-        <v>110058</v>
+        <v>110094</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM13"/>
+  <dimension ref="A1:IM14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11968,6 +11968,749 @@
         <v>201</v>
       </c>
       <c r="IM13">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B14">
+        <v>1686</v>
+      </c>
+      <c r="C14">
+        <v>530</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>326</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>317</v>
+      </c>
+      <c r="H14">
+        <v>408</v>
+      </c>
+      <c r="I14">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <v>11689256</v>
+      </c>
+      <c r="L14">
+        <v>3945507</v>
+      </c>
+      <c r="M14">
+        <v>2992125</v>
+      </c>
+      <c r="N14">
+        <v>1747682</v>
+      </c>
+      <c r="O14">
+        <v>1381548</v>
+      </c>
+      <c r="P14">
+        <v>952279</v>
+      </c>
+      <c r="Q14">
+        <v>310034</v>
+      </c>
+      <c r="R14">
+        <v>249987</v>
+      </c>
+      <c r="S14">
+        <v>110094</v>
+      </c>
+      <c r="T14">
+        <v>76</v>
+      </c>
+      <c r="U14">
+        <v>27</v>
+      </c>
+      <c r="V14">
+        <v>43</v>
+      </c>
+      <c r="W14">
+        <v>49</v>
+      </c>
+      <c r="X14">
+        <v>56</v>
+      </c>
+      <c r="Y14">
+        <v>82</v>
+      </c>
+      <c r="Z14">
+        <v>100</v>
+      </c>
+      <c r="AA14">
+        <v>145</v>
+      </c>
+      <c r="AB14">
+        <v>94</v>
+      </c>
+      <c r="AC14">
+        <v>95</v>
+      </c>
+      <c r="AD14">
+        <v>138</v>
+      </c>
+      <c r="AE14">
+        <v>101</v>
+      </c>
+      <c r="AF14">
+        <v>111</v>
+      </c>
+      <c r="AG14">
+        <v>106</v>
+      </c>
+      <c r="AH14">
+        <v>92</v>
+      </c>
+      <c r="AI14">
+        <v>95</v>
+      </c>
+      <c r="AJ14">
+        <v>117</v>
+      </c>
+      <c r="AK14">
+        <v>156</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>501977</v>
+      </c>
+      <c r="AN14">
+        <v>667891</v>
+      </c>
+      <c r="AO14">
+        <v>773354</v>
+      </c>
+      <c r="AP14">
+        <v>759365</v>
+      </c>
+      <c r="AQ14">
+        <v>929795</v>
+      </c>
+      <c r="AR14">
+        <v>1025440</v>
+      </c>
+      <c r="AS14">
+        <v>1033264</v>
+      </c>
+      <c r="AT14">
+        <v>1017937</v>
+      </c>
+      <c r="AU14">
+        <v>907512</v>
+      </c>
+      <c r="AV14">
+        <v>806379</v>
+      </c>
+      <c r="AW14">
+        <v>746145</v>
+      </c>
+      <c r="AX14">
+        <v>621103</v>
+      </c>
+      <c r="AY14">
+        <v>542101</v>
+      </c>
+      <c r="AZ14">
+        <v>406530</v>
+      </c>
+      <c r="BA14">
+        <v>324102</v>
+      </c>
+      <c r="BB14">
+        <v>239469</v>
+      </c>
+      <c r="BC14">
+        <v>160583</v>
+      </c>
+      <c r="BD14">
+        <v>208140</v>
+      </c>
+      <c r="BE14">
+        <v>18169</v>
+      </c>
+      <c r="BF14">
+        <v>41</v>
+      </c>
+      <c r="BG14">
+        <v>37</v>
+      </c>
+      <c r="BH14">
+        <v>-2</v>
+      </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
+      <c r="BK14">
+        <v>16</v>
+      </c>
+      <c r="BL14">
+        <v>11</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14">
+        <v>22</v>
+      </c>
+      <c r="BQ14">
+        <v>21</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>26</v>
+      </c>
+      <c r="BV14">
+        <v>23</v>
+      </c>
+      <c r="BW14">
+        <v>0</v>
+      </c>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BY14">
+        <v>0</v>
+      </c>
+      <c r="BZ14">
+        <v>16</v>
+      </c>
+      <c r="CA14">
+        <v>40</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>32</v>
+      </c>
+      <c r="CF14">
+        <v>51</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>-1</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>47</v>
+      </c>
+      <c r="CK14">
+        <v>53</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>36</v>
+      </c>
+      <c r="CP14">
+        <v>109</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>42</v>
+      </c>
+      <c r="CU14">
+        <v>53</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>-1</v>
+      </c>
+      <c r="CY14">
+        <v>37</v>
+      </c>
+      <c r="CZ14">
+        <v>58</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DB14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DD14">
+        <v>50</v>
+      </c>
+      <c r="DE14">
+        <v>88</v>
+      </c>
+      <c r="DF14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DH14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>32</v>
+      </c>
+      <c r="DJ14">
+        <v>69</v>
+      </c>
+      <c r="DK14">
+        <v>0</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>0</v>
+      </c>
+      <c r="DN14">
+        <v>50</v>
+      </c>
+      <c r="DO14">
+        <v>61</v>
+      </c>
+      <c r="DP14">
+        <v>0</v>
+      </c>
+      <c r="DQ14">
+        <v>0</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14">
+        <v>51</v>
+      </c>
+      <c r="DT14">
+        <v>56</v>
+      </c>
+      <c r="DU14">
+        <v>0</v>
+      </c>
+      <c r="DV14">
+        <v>0</v>
+      </c>
+      <c r="DW14">
+        <v>-1</v>
+      </c>
+      <c r="DX14">
+        <v>47</v>
+      </c>
+      <c r="DY14">
+        <v>45</v>
+      </c>
+      <c r="DZ14">
+        <v>0</v>
+      </c>
+      <c r="EA14">
+        <v>0</v>
+      </c>
+      <c r="EB14">
+        <v>0</v>
+      </c>
+      <c r="EC14">
+        <v>46</v>
+      </c>
+      <c r="ED14">
+        <v>49</v>
+      </c>
+      <c r="EE14">
+        <v>0</v>
+      </c>
+      <c r="EF14">
+        <v>0</v>
+      </c>
+      <c r="EG14">
+        <v>0</v>
+      </c>
+      <c r="EH14">
+        <v>59</v>
+      </c>
+      <c r="EI14">
+        <v>59</v>
+      </c>
+      <c r="EJ14">
+        <v>0</v>
+      </c>
+      <c r="EK14">
+        <v>-1</v>
+      </c>
+      <c r="EL14">
+        <v>0</v>
+      </c>
+      <c r="EM14">
+        <v>64</v>
+      </c>
+      <c r="EN14">
+        <v>92</v>
+      </c>
+      <c r="EO14">
+        <v>0</v>
+      </c>
+      <c r="EP14">
+        <v>0</v>
+      </c>
+      <c r="EQ14">
+        <v>0</v>
+      </c>
+      <c r="ER14">
+        <v>0</v>
+      </c>
+      <c r="ES14">
+        <v>0</v>
+      </c>
+      <c r="ET14">
+        <v>3</v>
+      </c>
+      <c r="EU14">
+        <v>0</v>
+      </c>
+      <c r="EV14">
+        <v>0</v>
+      </c>
+      <c r="EW14">
+        <v>231066</v>
+      </c>
+      <c r="EX14">
+        <v>219405</v>
+      </c>
+      <c r="EY14">
+        <v>408</v>
+      </c>
+      <c r="EZ14">
+        <v>15451</v>
+      </c>
+      <c r="FA14">
+        <v>35647</v>
+      </c>
+      <c r="FB14">
+        <v>307977</v>
+      </c>
+      <c r="FC14">
+        <v>292642</v>
+      </c>
+      <c r="FD14">
+        <v>466</v>
+      </c>
+      <c r="FE14">
+        <v>16773</v>
+      </c>
+      <c r="FF14">
+        <v>50033</v>
+      </c>
+      <c r="FG14">
+        <v>353160</v>
+      </c>
+      <c r="FH14">
+        <v>342524</v>
+      </c>
+      <c r="FI14">
+        <v>633</v>
+      </c>
+      <c r="FJ14">
+        <v>16954</v>
+      </c>
+      <c r="FK14">
+        <v>60083</v>
+      </c>
+      <c r="FL14">
+        <v>326124</v>
+      </c>
+      <c r="FM14">
+        <v>373587</v>
+      </c>
+      <c r="FN14">
+        <v>894</v>
+      </c>
+      <c r="FO14">
+        <v>12939</v>
+      </c>
+      <c r="FP14">
+        <v>45821</v>
+      </c>
+      <c r="FQ14">
+        <v>391820</v>
+      </c>
+      <c r="FR14">
+        <v>479182</v>
+      </c>
+      <c r="FS14">
+        <v>1100</v>
+      </c>
+      <c r="FT14">
+        <v>16280</v>
+      </c>
+      <c r="FU14">
+        <v>41413</v>
+      </c>
+      <c r="FV14">
+        <v>433547</v>
+      </c>
+      <c r="FW14">
+        <v>525459</v>
+      </c>
+      <c r="FX14">
+        <v>1135</v>
+      </c>
+      <c r="FY14">
+        <v>17788</v>
+      </c>
+      <c r="FZ14">
+        <v>47511</v>
+      </c>
+      <c r="GA14">
+        <v>428857</v>
+      </c>
+      <c r="GB14">
+        <v>531499</v>
+      </c>
+      <c r="GC14">
+        <v>922</v>
+      </c>
+      <c r="GD14">
+        <v>17168</v>
+      </c>
+      <c r="GE14">
+        <v>54818</v>
+      </c>
+      <c r="GF14">
+        <v>419397</v>
+      </c>
+      <c r="GG14">
+        <v>524019</v>
+      </c>
+      <c r="GH14">
+        <v>665</v>
+      </c>
+      <c r="GI14">
+        <v>15033</v>
+      </c>
+      <c r="GJ14">
+        <v>58823</v>
+      </c>
+      <c r="GK14">
+        <v>373196</v>
+      </c>
+      <c r="GL14">
+        <v>468306</v>
+      </c>
+      <c r="GM14">
+        <v>498</v>
+      </c>
+      <c r="GN14">
+        <v>12350</v>
+      </c>
+      <c r="GO14">
+        <v>53162</v>
+      </c>
+      <c r="GP14">
+        <v>330001</v>
+      </c>
+      <c r="GQ14">
+        <v>420485</v>
+      </c>
+      <c r="GR14">
+        <v>439</v>
+      </c>
+      <c r="GS14">
+        <v>10133</v>
+      </c>
+      <c r="GT14">
+        <v>45321</v>
+      </c>
+      <c r="GU14">
+        <v>307754</v>
+      </c>
+      <c r="GV14">
+        <v>388777</v>
+      </c>
+      <c r="GW14">
+        <v>399</v>
+      </c>
+      <c r="GX14">
+        <v>8956</v>
+      </c>
+      <c r="GY14">
+        <v>40259</v>
+      </c>
+      <c r="GZ14">
+        <v>263185</v>
+      </c>
+      <c r="HA14">
+        <v>319232</v>
+      </c>
+      <c r="HB14">
+        <v>329</v>
+      </c>
+      <c r="HC14">
+        <v>6610</v>
+      </c>
+      <c r="HD14">
+        <v>31747</v>
+      </c>
+      <c r="HE14">
+        <v>234030</v>
+      </c>
+      <c r="HF14">
+        <v>276556</v>
+      </c>
+      <c r="HG14">
+        <v>234</v>
+      </c>
+      <c r="HH14">
+        <v>5321</v>
+      </c>
+      <c r="HI14">
+        <v>25960</v>
+      </c>
+      <c r="HJ14">
+        <v>180387</v>
+      </c>
+      <c r="HK14">
+        <v>203746</v>
+      </c>
+      <c r="HL14">
+        <v>199</v>
+      </c>
+      <c r="HM14">
+        <v>3678</v>
+      </c>
+      <c r="HN14">
+        <v>18520</v>
+      </c>
+      <c r="HO14">
+        <v>151106</v>
+      </c>
+      <c r="HP14">
+        <v>157794</v>
+      </c>
+      <c r="HQ14">
+        <v>163</v>
+      </c>
+      <c r="HR14">
+        <v>2688</v>
+      </c>
+      <c r="HS14">
+        <v>12351</v>
+      </c>
+      <c r="HT14">
+        <v>115400</v>
+      </c>
+      <c r="HU14">
+        <v>114200</v>
+      </c>
+      <c r="HV14">
+        <v>164</v>
+      </c>
+      <c r="HW14">
+        <v>1895</v>
+      </c>
+      <c r="HX14">
+        <v>7810</v>
+      </c>
+      <c r="HY14">
+        <v>75433</v>
+      </c>
+      <c r="HZ14">
+        <v>79208</v>
+      </c>
+      <c r="IA14">
+        <v>131</v>
+      </c>
+      <c r="IB14">
+        <v>1279</v>
+      </c>
+      <c r="IC14">
+        <v>4532</v>
+      </c>
+      <c r="ID14">
+        <v>80567</v>
+      </c>
+      <c r="IE14">
+        <v>121159</v>
+      </c>
+      <c r="IF14">
+        <v>305</v>
+      </c>
+      <c r="IG14">
+        <v>2267</v>
+      </c>
+      <c r="IH14">
+        <v>3842</v>
+      </c>
+      <c r="II14">
+        <v>2150</v>
+      </c>
+      <c r="IJ14">
+        <v>2307</v>
+      </c>
+      <c r="IK14">
+        <v>25</v>
+      </c>
+      <c r="IL14">
+        <v>201</v>
+      </c>
+      <c r="IM14">
         <v>13486</v>
       </c>
     </row>
@@ -11995,7 +12738,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45251</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68210276-B118-4220-AF8B-7FDD0B1906C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D22DF-E291-4F05-A9B5-86978F75327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1872,13 +1872,13 @@
         <v>30559</v>
       </c>
       <c r="W3">
-        <v>43745</v>
+        <v>43744</v>
       </c>
       <c r="X3">
         <v>75257</v>
       </c>
       <c r="Y3">
-        <v>70913</v>
+        <v>70914</v>
       </c>
       <c r="Z3">
         <v>55517</v>
@@ -1896,10 +1896,10 @@
         <v>27886</v>
       </c>
       <c r="AE3">
-        <v>22326</v>
+        <v>22325</v>
       </c>
       <c r="AF3">
-        <v>17080</v>
+        <v>17081</v>
       </c>
       <c r="AG3">
         <v>11938</v>
@@ -1908,10 +1908,10 @@
         <v>8405</v>
       </c>
       <c r="AI3">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="AJ3">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="AK3">
         <v>3919</v>
@@ -1929,13 +1929,13 @@
         <v>31512</v>
       </c>
       <c r="AP3">
-        <v>45254</v>
+        <v>45253</v>
       </c>
       <c r="AQ3">
         <v>78225</v>
       </c>
       <c r="AR3">
-        <v>74443</v>
+        <v>74444</v>
       </c>
       <c r="AS3">
         <v>58380</v>
@@ -1953,10 +1953,10 @@
         <v>29692</v>
       </c>
       <c r="AX3">
-        <v>24004</v>
+        <v>24003</v>
       </c>
       <c r="AY3">
-        <v>18541</v>
+        <v>18542</v>
       </c>
       <c r="AZ3">
         <v>12970</v>
@@ -1965,10 +1965,10 @@
         <v>9316</v>
       </c>
       <c r="BB3">
-        <v>6473</v>
+        <v>6472</v>
       </c>
       <c r="BC3">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="BD3">
         <v>5363</v>
@@ -1982,7 +1982,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317721</v>
+        <v>10317728</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1997,7 +1997,7 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848167</v>
+        <v>848174</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2009,7 +2009,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885790</v>
+        <v>10885797</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2024,7 +2024,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867328</v>
+        <v>867335</v>
       </c>
       <c r="Q4">
         <v>281544</v>
@@ -2036,19 +2036,19 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450558</v>
+        <v>450554</v>
       </c>
       <c r="U4">
-        <v>611275</v>
+        <v>611267</v>
       </c>
       <c r="V4">
-        <v>710190</v>
+        <v>710192</v>
       </c>
       <c r="W4">
-        <v>683397</v>
+        <v>683395</v>
       </c>
       <c r="X4">
-        <v>812081</v>
+        <v>812074</v>
       </c>
       <c r="Y4">
         <v>899946</v>
@@ -2057,34 +2057,34 @@
         <v>916983</v>
       </c>
       <c r="AA4">
-        <v>908868</v>
+        <v>908873</v>
       </c>
       <c r="AB4">
-        <v>810323</v>
+        <v>810324</v>
       </c>
       <c r="AC4">
-        <v>717634</v>
+        <v>717636</v>
       </c>
       <c r="AD4">
-        <v>658689</v>
+        <v>658693</v>
       </c>
       <c r="AE4">
-        <v>544157</v>
+        <v>544154</v>
       </c>
       <c r="AF4">
-        <v>471565</v>
+        <v>471575</v>
       </c>
       <c r="AG4">
-        <v>349088</v>
+        <v>349090</v>
       </c>
       <c r="AH4">
-        <v>274361</v>
+        <v>274363</v>
       </c>
       <c r="AI4">
-        <v>197873</v>
+        <v>197871</v>
       </c>
       <c r="AJ4">
-        <v>128001</v>
+        <v>128006</v>
       </c>
       <c r="AK4">
         <v>155524</v>
@@ -2093,55 +2093,55 @@
         <v>17208</v>
       </c>
       <c r="AM4">
-        <v>473808</v>
+        <v>473804</v>
       </c>
       <c r="AN4">
-        <v>644477</v>
+        <v>644469</v>
       </c>
       <c r="AO4">
-        <v>741702</v>
+        <v>741704</v>
       </c>
       <c r="AP4">
-        <v>728651</v>
+        <v>728648</v>
       </c>
       <c r="AQ4">
-        <v>890306</v>
+        <v>890299</v>
       </c>
       <c r="AR4">
-        <v>974389</v>
+        <v>974390</v>
       </c>
       <c r="AS4">
         <v>975363</v>
       </c>
       <c r="AT4">
-        <v>953857</v>
+        <v>953862</v>
       </c>
       <c r="AU4">
-        <v>845942</v>
+        <v>845943</v>
       </c>
       <c r="AV4">
-        <v>749712</v>
+        <v>749714</v>
       </c>
       <c r="AW4">
-        <v>688381</v>
+        <v>688385</v>
       </c>
       <c r="AX4">
-        <v>568161</v>
+        <v>568157</v>
       </c>
       <c r="AY4">
-        <v>490106</v>
+        <v>490117</v>
       </c>
       <c r="AZ4">
-        <v>362058</v>
+        <v>362060</v>
       </c>
       <c r="BA4">
-        <v>283677</v>
+        <v>283679</v>
       </c>
       <c r="BB4">
-        <v>204346</v>
+        <v>204343</v>
       </c>
       <c r="BC4">
-        <v>132386</v>
+        <v>132392</v>
       </c>
       <c r="BD4">
         <v>160887</v>
@@ -2155,172 +2155,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>803466</v>
+        <v>805603</v>
       </c>
       <c r="C5">
-        <v>292113</v>
+        <v>292604</v>
       </c>
       <c r="D5">
-        <v>150645</v>
+        <v>150877</v>
       </c>
       <c r="E5">
-        <v>127808</v>
+        <v>128129</v>
       </c>
       <c r="F5">
-        <v>91682</v>
+        <v>92190</v>
       </c>
       <c r="G5">
-        <v>84951</v>
+        <v>85259</v>
       </c>
       <c r="H5">
-        <v>28490</v>
+        <v>28653</v>
       </c>
       <c r="I5">
-        <v>21650</v>
+        <v>21754</v>
       </c>
       <c r="J5">
-        <v>6127</v>
+        <v>6137</v>
       </c>
       <c r="K5">
-        <v>11689256</v>
+        <v>11691400</v>
       </c>
       <c r="L5">
-        <v>3945507</v>
+        <v>3945998</v>
       </c>
       <c r="M5">
-        <v>2992125</v>
+        <v>2992357</v>
       </c>
       <c r="N5">
-        <v>1747682</v>
+        <v>1748003</v>
       </c>
       <c r="O5">
-        <v>1381548</v>
+        <v>1382056</v>
       </c>
       <c r="P5">
-        <v>952279</v>
+        <v>952594</v>
       </c>
       <c r="Q5">
-        <v>310034</v>
+        <v>310197</v>
       </c>
       <c r="R5">
-        <v>249987</v>
+        <v>250091</v>
       </c>
       <c r="S5">
-        <v>110094</v>
+        <v>110104</v>
       </c>
       <c r="T5">
-        <v>28169</v>
+        <v>28305</v>
       </c>
       <c r="U5">
-        <v>23414</v>
+        <v>23441</v>
       </c>
       <c r="V5">
-        <v>31652</v>
+        <v>31691</v>
       </c>
       <c r="W5">
-        <v>30714</v>
+        <v>30774</v>
       </c>
       <c r="X5">
-        <v>39489</v>
+        <v>39565</v>
       </c>
       <c r="Y5">
-        <v>51051</v>
+        <v>51173</v>
       </c>
       <c r="Z5">
-        <v>57901</v>
+        <v>58024</v>
       </c>
       <c r="AA5">
-        <v>64080</v>
+        <v>64212</v>
       </c>
       <c r="AB5">
-        <v>61570</v>
+        <v>61720</v>
       </c>
       <c r="AC5">
-        <v>56667</v>
+        <v>56789</v>
       </c>
       <c r="AD5">
-        <v>57764</v>
+        <v>57927</v>
       </c>
       <c r="AE5">
-        <v>52942</v>
+        <v>53054</v>
       </c>
       <c r="AF5">
-        <v>51995</v>
+        <v>52136</v>
       </c>
       <c r="AG5">
-        <v>44472</v>
+        <v>44582</v>
       </c>
       <c r="AH5">
-        <v>40425</v>
+        <v>40558</v>
       </c>
       <c r="AI5">
-        <v>35123</v>
+        <v>35251</v>
       </c>
       <c r="AJ5">
-        <v>28197</v>
+        <v>28331</v>
       </c>
       <c r="AK5">
-        <v>47253</v>
+        <v>47478</v>
       </c>
       <c r="AL5">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="AM5">
-        <v>501977</v>
+        <v>502109</v>
       </c>
       <c r="AN5">
-        <v>667891</v>
+        <v>667910</v>
       </c>
       <c r="AO5">
-        <v>773354</v>
+        <v>773395</v>
       </c>
       <c r="AP5">
-        <v>759365</v>
+        <v>759422</v>
       </c>
       <c r="AQ5">
-        <v>929795</v>
+        <v>929864</v>
       </c>
       <c r="AR5">
-        <v>1025440</v>
+        <v>1025563</v>
       </c>
       <c r="AS5">
-        <v>1033264</v>
+        <v>1033387</v>
       </c>
       <c r="AT5">
-        <v>1017937</v>
+        <v>1018074</v>
       </c>
       <c r="AU5">
-        <v>907512</v>
+        <v>907663</v>
       </c>
       <c r="AV5">
-        <v>806379</v>
+        <v>806503</v>
       </c>
       <c r="AW5">
-        <v>746145</v>
+        <v>746312</v>
       </c>
       <c r="AX5">
-        <v>621103</v>
+        <v>621211</v>
       </c>
       <c r="AY5">
-        <v>542101</v>
+        <v>542253</v>
       </c>
       <c r="AZ5">
-        <v>406530</v>
+        <v>406642</v>
       </c>
       <c r="BA5">
-        <v>324102</v>
+        <v>324237</v>
       </c>
       <c r="BB5">
-        <v>239469</v>
+        <v>239594</v>
       </c>
       <c r="BC5">
-        <v>160583</v>
+        <v>160723</v>
       </c>
       <c r="BD5">
-        <v>208140</v>
+        <v>208365</v>
       </c>
       <c r="BE5">
-        <v>18169</v>
+        <v>18173</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3820,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809570</v>
+        <v>1809572</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3835,7 +3835,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90033</v>
+        <v>90035</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3847,7 +3847,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377639</v>
+        <v>2377641</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3862,7 +3862,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109194</v>
+        <v>109196</v>
       </c>
       <c r="Q26" s="3">
         <v>29727</v>
@@ -3879,7 +3879,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687524</v>
+        <v>687525</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3894,7 +3894,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3906,7 +3906,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065163</v>
+        <v>3065166</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3921,7 +3921,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153592</v>
+        <v>153595</v>
       </c>
       <c r="Q27" s="3">
         <v>47446</v>
@@ -3965,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431930</v>
+        <v>4431933</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3980,7 +3980,7 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274074</v>
+        <v>274077</v>
       </c>
       <c r="Q28" s="3">
         <v>93873</v>
@@ -3997,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339830</v>
+        <v>1339832</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4012,7 +4012,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139772</v>
+        <v>139774</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4024,7 +4024,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771760</v>
+        <v>5771765</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4039,7 +4039,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413846</v>
+        <v>413851</v>
       </c>
       <c r="Q29" s="3">
         <v>137895</v>
@@ -4056,7 +4056,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310361</v>
+        <v>1310363</v>
       </c>
       <c r="C30" s="3">
         <v>297268</v>
@@ -4071,7 +4071,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108131</v>
+        <v>108133</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4083,7 +4083,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082121</v>
+        <v>7082128</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4098,7 +4098,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>521977</v>
+        <v>521984</v>
       </c>
       <c r="Q30" s="3">
         <v>166168</v>
@@ -4115,7 +4115,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884292</v>
+        <v>884293</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4133,7 +4133,7 @@
         <v>77314</v>
       </c>
       <c r="H31" s="3">
-        <v>24715</v>
+        <v>24716</v>
       </c>
       <c r="I31" s="3">
         <v>26905</v>
@@ -4142,7 +4142,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966413</v>
+        <v>7966421</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4157,10 +4157,10 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599291</v>
+        <v>599298</v>
       </c>
       <c r="Q31" s="3">
-        <v>190883</v>
+        <v>190884</v>
       </c>
       <c r="R31" s="3">
         <v>161034</v>
@@ -4174,7 +4174,7 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250348</v>
+        <v>1250347</v>
       </c>
       <c r="C32" s="3">
         <v>378606</v>
@@ -4192,7 +4192,7 @@
         <v>117400</v>
       </c>
       <c r="H32" s="3">
-        <v>42273</v>
+        <v>42272</v>
       </c>
       <c r="I32" s="3">
         <v>31650</v>
@@ -4201,7 +4201,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216761</v>
+        <v>9216768</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4216,7 +4216,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716691</v>
+        <v>716698</v>
       </c>
       <c r="Q32" s="3">
         <v>233156</v>
@@ -4260,7 +4260,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771622</v>
+        <v>9771629</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4275,7 +4275,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757202</v>
+        <v>757209</v>
       </c>
       <c r="Q33" s="3">
         <v>246060</v>
@@ -4319,7 +4319,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965877</v>
+        <v>9965884</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4334,7 +4334,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772486</v>
+        <v>772493</v>
       </c>
       <c r="Q34" s="3">
         <v>249936</v>
@@ -4378,7 +4378,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107982</v>
+        <v>10107989</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4393,7 +4393,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785661</v>
+        <v>785668</v>
       </c>
       <c r="Q35" s="3">
         <v>253590</v>
@@ -4437,7 +4437,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459922</v>
+        <v>10459929</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4452,7 +4452,7 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822823</v>
+        <v>822830</v>
       </c>
       <c r="Q36" s="3">
         <v>265271</v>
@@ -4496,7 +4496,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885790</v>
+        <v>10885797</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4511,7 +4511,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867328</v>
+        <v>867335</v>
       </c>
       <c r="Q37" s="3">
         <v>281544</v>
@@ -4555,7 +4555,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015868</v>
+        <v>11015875</v>
       </c>
       <c r="L38" s="3">
         <v>3699334</v>
@@ -4570,7 +4570,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879218</v>
+        <v>879225</v>
       </c>
       <c r="Q38" s="3">
         <v>285181</v>
@@ -4614,7 +4614,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087857</v>
+        <v>11087864</v>
       </c>
       <c r="L39" s="3">
         <v>3724577</v>
@@ -4629,7 +4629,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886071</v>
+        <v>886078</v>
       </c>
       <c r="Q39" s="3">
         <v>287112</v>
@@ -4673,7 +4673,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191836</v>
+        <v>11191843</v>
       </c>
       <c r="L40" s="3">
         <v>3763219</v>
@@ -4688,7 +4688,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897571</v>
+        <v>897578</v>
       </c>
       <c r="Q40" s="3">
         <v>290414</v>
@@ -4732,7 +4732,7 @@
         <v>826</v>
       </c>
       <c r="K41" s="3">
-        <v>11315001</v>
+        <v>11315008</v>
       </c>
       <c r="L41" s="3">
         <v>3810748</v>
@@ -4747,7 +4747,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909900</v>
+        <v>909907</v>
       </c>
       <c r="Q41" s="3">
         <v>294194</v>
@@ -4791,7 +4791,7 @@
         <v>934</v>
       </c>
       <c r="K42" s="3">
-        <v>11481255</v>
+        <v>11481262</v>
       </c>
       <c r="L42" s="3">
         <v>3872843</v>
@@ -4806,7 +4806,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924813</v>
+        <v>924820</v>
       </c>
       <c r="Q42" s="3">
         <v>299398</v>
@@ -4850,7 +4850,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559058</v>
+        <v>11559065</v>
       </c>
       <c r="L43" s="3">
         <v>3901025</v>
@@ -4865,7 +4865,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932027</v>
+        <v>932034</v>
       </c>
       <c r="Q43" s="3">
         <v>301984</v>
@@ -4909,7 +4909,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587258</v>
+        <v>11587265</v>
       </c>
       <c r="L44" s="3">
         <v>3911310</v>
@@ -4924,7 +4924,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>934956</v>
+        <v>934963</v>
       </c>
       <c r="Q44" s="3">
         <v>303257</v>
@@ -4941,10 +4941,10 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23415</v>
+        <v>23416</v>
       </c>
       <c r="C45" s="3">
-        <v>9134</v>
+        <v>9135</v>
       </c>
       <c r="D45" s="3">
         <v>2112</v>
@@ -4968,10 +4968,10 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610673</v>
+        <v>11610681</v>
       </c>
       <c r="L45" s="3">
-        <v>3920444</v>
+        <v>3920445</v>
       </c>
       <c r="M45" s="3">
         <v>2979329</v>
@@ -4983,7 +4983,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937405</v>
+        <v>937412</v>
       </c>
       <c r="Q45" s="3">
         <v>304421</v>
@@ -5027,10 +5027,10 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632776</v>
+        <v>11632784</v>
       </c>
       <c r="L46" s="3">
-        <v>3929407</v>
+        <v>3929408</v>
       </c>
       <c r="M46" s="3">
         <v>2982567</v>
@@ -5042,7 +5042,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940438</v>
+        <v>940445</v>
       </c>
       <c r="Q46" s="3">
         <v>305624</v>
@@ -5059,19 +5059,19 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27882</v>
+        <v>27893</v>
       </c>
       <c r="C47" s="3">
         <v>7713</v>
       </c>
       <c r="D47" s="3">
-        <v>5595</v>
+        <v>5601</v>
       </c>
       <c r="E47" s="3">
         <v>3701</v>
       </c>
       <c r="F47" s="3">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="G47" s="3">
         <v>5077</v>
@@ -5080,34 +5080,34 @@
         <v>1901</v>
       </c>
       <c r="I47" s="3">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="J47" s="3">
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660658</v>
+        <v>11660677</v>
       </c>
       <c r="L47" s="3">
-        <v>3937120</v>
+        <v>3937121</v>
       </c>
       <c r="M47" s="3">
-        <v>2988162</v>
+        <v>2988168</v>
       </c>
       <c r="N47" s="3">
         <v>1743423</v>
       </c>
       <c r="O47" s="3">
-        <v>1380648</v>
+        <v>1380652</v>
       </c>
       <c r="P47" s="3">
-        <v>945515</v>
+        <v>945522</v>
       </c>
       <c r="Q47" s="3">
         <v>307525</v>
       </c>
       <c r="R47" s="3">
-        <v>248551</v>
+        <v>248552</v>
       </c>
       <c r="S47" s="3">
         <v>109714</v>
@@ -5118,58 +5118,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>28598</v>
+        <v>30723</v>
       </c>
       <c r="C48" s="3">
-        <v>8387</v>
+        <v>8877</v>
       </c>
       <c r="D48" s="3">
-        <v>3963</v>
+        <v>4189</v>
       </c>
       <c r="E48" s="3">
-        <v>4259</v>
+        <v>4580</v>
       </c>
       <c r="F48" s="3">
-        <v>900</v>
+        <v>1404</v>
       </c>
       <c r="G48" s="3">
-        <v>6764</v>
+        <v>7072</v>
       </c>
       <c r="H48" s="3">
-        <v>2509</v>
+        <v>2672</v>
       </c>
       <c r="I48" s="3">
-        <v>1436</v>
+        <v>1539</v>
       </c>
       <c r="J48" s="3">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="K48" s="3">
-        <v>11689256</v>
+        <v>11691400</v>
       </c>
       <c r="L48" s="3">
-        <v>3945507</v>
+        <v>3945998</v>
       </c>
       <c r="M48" s="3">
-        <v>2992125</v>
+        <v>2992357</v>
       </c>
       <c r="N48" s="3">
-        <v>1747682</v>
+        <v>1748003</v>
       </c>
       <c r="O48" s="3">
-        <v>1381548</v>
+        <v>1382056</v>
       </c>
       <c r="P48" s="3">
-        <v>952279</v>
+        <v>952594</v>
       </c>
       <c r="Q48" s="3">
-        <v>310034</v>
+        <v>310197</v>
       </c>
       <c r="R48" s="3">
-        <v>249987</v>
+        <v>250091</v>
       </c>
       <c r="S48" s="3">
-        <v>110094</v>
+        <v>110104</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM14"/>
+  <dimension ref="A1:IM15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12712,6 +12712,749 @@
       </c>
       <c r="IM14">
         <v>13486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B15">
+        <v>2144</v>
+      </c>
+      <c r="C15">
+        <v>491</v>
+      </c>
+      <c r="D15">
+        <v>232</v>
+      </c>
+      <c r="E15">
+        <v>321</v>
+      </c>
+      <c r="F15">
+        <v>508</v>
+      </c>
+      <c r="G15">
+        <v>315</v>
+      </c>
+      <c r="H15">
+        <v>163</v>
+      </c>
+      <c r="I15">
+        <v>104</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>11691400</v>
+      </c>
+      <c r="L15">
+        <v>3945998</v>
+      </c>
+      <c r="M15">
+        <v>2992357</v>
+      </c>
+      <c r="N15">
+        <v>1748003</v>
+      </c>
+      <c r="O15">
+        <v>1382056</v>
+      </c>
+      <c r="P15">
+        <v>952594</v>
+      </c>
+      <c r="Q15">
+        <v>310197</v>
+      </c>
+      <c r="R15">
+        <v>250091</v>
+      </c>
+      <c r="S15">
+        <v>110104</v>
+      </c>
+      <c r="T15">
+        <v>132</v>
+      </c>
+      <c r="U15">
+        <v>19</v>
+      </c>
+      <c r="V15">
+        <v>41</v>
+      </c>
+      <c r="W15">
+        <v>57</v>
+      </c>
+      <c r="X15">
+        <v>69</v>
+      </c>
+      <c r="Y15">
+        <v>123</v>
+      </c>
+      <c r="Z15">
+        <v>123</v>
+      </c>
+      <c r="AA15">
+        <v>137</v>
+      </c>
+      <c r="AB15">
+        <v>151</v>
+      </c>
+      <c r="AC15">
+        <v>124</v>
+      </c>
+      <c r="AD15">
+        <v>167</v>
+      </c>
+      <c r="AE15">
+        <v>108</v>
+      </c>
+      <c r="AF15">
+        <v>152</v>
+      </c>
+      <c r="AG15">
+        <v>112</v>
+      </c>
+      <c r="AH15">
+        <v>135</v>
+      </c>
+      <c r="AI15">
+        <v>125</v>
+      </c>
+      <c r="AJ15">
+        <v>140</v>
+      </c>
+      <c r="AK15">
+        <v>225</v>
+      </c>
+      <c r="AL15">
+        <v>4</v>
+      </c>
+      <c r="AM15">
+        <v>502109</v>
+      </c>
+      <c r="AN15">
+        <v>667910</v>
+      </c>
+      <c r="AO15">
+        <v>773395</v>
+      </c>
+      <c r="AP15">
+        <v>759422</v>
+      </c>
+      <c r="AQ15">
+        <v>929864</v>
+      </c>
+      <c r="AR15">
+        <v>1025563</v>
+      </c>
+      <c r="AS15">
+        <v>1033387</v>
+      </c>
+      <c r="AT15">
+        <v>1018074</v>
+      </c>
+      <c r="AU15">
+        <v>907663</v>
+      </c>
+      <c r="AV15">
+        <v>806503</v>
+      </c>
+      <c r="AW15">
+        <v>746312</v>
+      </c>
+      <c r="AX15">
+        <v>621211</v>
+      </c>
+      <c r="AY15">
+        <v>542253</v>
+      </c>
+      <c r="AZ15">
+        <v>406642</v>
+      </c>
+      <c r="BA15">
+        <v>324237</v>
+      </c>
+      <c r="BB15">
+        <v>239594</v>
+      </c>
+      <c r="BC15">
+        <v>160723</v>
+      </c>
+      <c r="BD15">
+        <v>208365</v>
+      </c>
+      <c r="BE15">
+        <v>18173</v>
+      </c>
+      <c r="BF15">
+        <v>66</v>
+      </c>
+      <c r="BG15">
+        <v>66</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>9</v>
+      </c>
+      <c r="BL15">
+        <v>10</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>22</v>
+      </c>
+      <c r="BQ15">
+        <v>19</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>25</v>
+      </c>
+      <c r="BV15">
+        <v>34</v>
+      </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>-2</v>
+      </c>
+      <c r="BY15">
+        <v>0</v>
+      </c>
+      <c r="BZ15">
+        <v>17</v>
+      </c>
+      <c r="CA15">
+        <v>51</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>1</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>47</v>
+      </c>
+      <c r="CF15">
+        <v>76</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>59</v>
+      </c>
+      <c r="CK15">
+        <v>63</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>1</v>
+      </c>
+      <c r="CO15">
+        <v>52</v>
+      </c>
+      <c r="CP15">
+        <v>85</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>56</v>
+      </c>
+      <c r="CU15">
+        <v>95</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>37</v>
+      </c>
+      <c r="CZ15">
+        <v>89</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <v>-2</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DD15">
+        <v>55</v>
+      </c>
+      <c r="DE15">
+        <v>112</v>
+      </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>49</v>
+      </c>
+      <c r="DJ15">
+        <v>58</v>
+      </c>
+      <c r="DK15">
+        <v>0</v>
+      </c>
+      <c r="DL15">
+        <v>1</v>
+      </c>
+      <c r="DM15">
+        <v>0</v>
+      </c>
+      <c r="DN15">
+        <v>74</v>
+      </c>
+      <c r="DO15">
+        <v>78</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+      <c r="DQ15">
+        <v>-1</v>
+      </c>
+      <c r="DR15">
+        <v>1</v>
+      </c>
+      <c r="DS15">
+        <v>57</v>
+      </c>
+      <c r="DT15">
+        <v>54</v>
+      </c>
+      <c r="DU15">
+        <v>0</v>
+      </c>
+      <c r="DV15">
+        <v>1</v>
+      </c>
+      <c r="DW15">
+        <v>0</v>
+      </c>
+      <c r="DX15">
+        <v>67</v>
+      </c>
+      <c r="DY15">
+        <v>68</v>
+      </c>
+      <c r="DZ15">
+        <v>0</v>
+      </c>
+      <c r="EA15">
+        <v>0</v>
+      </c>
+      <c r="EB15">
+        <v>0</v>
+      </c>
+      <c r="EC15">
+        <v>61</v>
+      </c>
+      <c r="ED15">
+        <v>65</v>
+      </c>
+      <c r="EE15">
+        <v>0</v>
+      </c>
+      <c r="EF15">
+        <v>-1</v>
+      </c>
+      <c r="EG15">
+        <v>0</v>
+      </c>
+      <c r="EH15">
+        <v>73</v>
+      </c>
+      <c r="EI15">
+        <v>67</v>
+      </c>
+      <c r="EJ15">
+        <v>0</v>
+      </c>
+      <c r="EK15">
+        <v>0</v>
+      </c>
+      <c r="EL15">
+        <v>0</v>
+      </c>
+      <c r="EM15">
+        <v>87</v>
+      </c>
+      <c r="EN15">
+        <v>138</v>
+      </c>
+      <c r="EO15">
+        <v>0</v>
+      </c>
+      <c r="EP15">
+        <v>0</v>
+      </c>
+      <c r="EQ15">
+        <v>0</v>
+      </c>
+      <c r="ER15">
+        <v>0</v>
+      </c>
+      <c r="ES15">
+        <v>0</v>
+      </c>
+      <c r="ET15">
+        <v>3</v>
+      </c>
+      <c r="EU15">
+        <v>0</v>
+      </c>
+      <c r="EV15">
+        <v>1</v>
+      </c>
+      <c r="EW15">
+        <v>231132</v>
+      </c>
+      <c r="EX15">
+        <v>219471</v>
+      </c>
+      <c r="EY15">
+        <v>408</v>
+      </c>
+      <c r="EZ15">
+        <v>15451</v>
+      </c>
+      <c r="FA15">
+        <v>35647</v>
+      </c>
+      <c r="FB15">
+        <v>307986</v>
+      </c>
+      <c r="FC15">
+        <v>292652</v>
+      </c>
+      <c r="FD15">
+        <v>466</v>
+      </c>
+      <c r="FE15">
+        <v>16773</v>
+      </c>
+      <c r="FF15">
+        <v>50033</v>
+      </c>
+      <c r="FG15">
+        <v>353182</v>
+      </c>
+      <c r="FH15">
+        <v>342543</v>
+      </c>
+      <c r="FI15">
+        <v>633</v>
+      </c>
+      <c r="FJ15">
+        <v>16954</v>
+      </c>
+      <c r="FK15">
+        <v>60083</v>
+      </c>
+      <c r="FL15">
+        <v>326149</v>
+      </c>
+      <c r="FM15">
+        <v>373621</v>
+      </c>
+      <c r="FN15">
+        <v>894</v>
+      </c>
+      <c r="FO15">
+        <v>12937</v>
+      </c>
+      <c r="FP15">
+        <v>45821</v>
+      </c>
+      <c r="FQ15">
+        <v>391837</v>
+      </c>
+      <c r="FR15">
+        <v>479233</v>
+      </c>
+      <c r="FS15">
+        <v>1100</v>
+      </c>
+      <c r="FT15">
+        <v>16281</v>
+      </c>
+      <c r="FU15">
+        <v>41413</v>
+      </c>
+      <c r="FV15">
+        <v>433594</v>
+      </c>
+      <c r="FW15">
+        <v>525535</v>
+      </c>
+      <c r="FX15">
+        <v>1135</v>
+      </c>
+      <c r="FY15">
+        <v>17788</v>
+      </c>
+      <c r="FZ15">
+        <v>47511</v>
+      </c>
+      <c r="GA15">
+        <v>428916</v>
+      </c>
+      <c r="GB15">
+        <v>531562</v>
+      </c>
+      <c r="GC15">
+        <v>922</v>
+      </c>
+      <c r="GD15">
+        <v>17168</v>
+      </c>
+      <c r="GE15">
+        <v>54819</v>
+      </c>
+      <c r="GF15">
+        <v>419449</v>
+      </c>
+      <c r="GG15">
+        <v>524104</v>
+      </c>
+      <c r="GH15">
+        <v>665</v>
+      </c>
+      <c r="GI15">
+        <v>15033</v>
+      </c>
+      <c r="GJ15">
+        <v>58823</v>
+      </c>
+      <c r="GK15">
+        <v>373252</v>
+      </c>
+      <c r="GL15">
+        <v>468401</v>
+      </c>
+      <c r="GM15">
+        <v>498</v>
+      </c>
+      <c r="GN15">
+        <v>12350</v>
+      </c>
+      <c r="GO15">
+        <v>53162</v>
+      </c>
+      <c r="GP15">
+        <v>330038</v>
+      </c>
+      <c r="GQ15">
+        <v>420574</v>
+      </c>
+      <c r="GR15">
+        <v>439</v>
+      </c>
+      <c r="GS15">
+        <v>10131</v>
+      </c>
+      <c r="GT15">
+        <v>45321</v>
+      </c>
+      <c r="GU15">
+        <v>307809</v>
+      </c>
+      <c r="GV15">
+        <v>388889</v>
+      </c>
+      <c r="GW15">
+        <v>399</v>
+      </c>
+      <c r="GX15">
+        <v>8956</v>
+      </c>
+      <c r="GY15">
+        <v>40259</v>
+      </c>
+      <c r="GZ15">
+        <v>263234</v>
+      </c>
+      <c r="HA15">
+        <v>319290</v>
+      </c>
+      <c r="HB15">
+        <v>329</v>
+      </c>
+      <c r="HC15">
+        <v>6611</v>
+      </c>
+      <c r="HD15">
+        <v>31747</v>
+      </c>
+      <c r="HE15">
+        <v>234104</v>
+      </c>
+      <c r="HF15">
+        <v>276634</v>
+      </c>
+      <c r="HG15">
+        <v>234</v>
+      </c>
+      <c r="HH15">
+        <v>5320</v>
+      </c>
+      <c r="HI15">
+        <v>25961</v>
+      </c>
+      <c r="HJ15">
+        <v>180444</v>
+      </c>
+      <c r="HK15">
+        <v>203800</v>
+      </c>
+      <c r="HL15">
+        <v>199</v>
+      </c>
+      <c r="HM15">
+        <v>3679</v>
+      </c>
+      <c r="HN15">
+        <v>18520</v>
+      </c>
+      <c r="HO15">
+        <v>151173</v>
+      </c>
+      <c r="HP15">
+        <v>157862</v>
+      </c>
+      <c r="HQ15">
+        <v>163</v>
+      </c>
+      <c r="HR15">
+        <v>2688</v>
+      </c>
+      <c r="HS15">
+        <v>12351</v>
+      </c>
+      <c r="HT15">
+        <v>115461</v>
+      </c>
+      <c r="HU15">
+        <v>114265</v>
+      </c>
+      <c r="HV15">
+        <v>164</v>
+      </c>
+      <c r="HW15">
+        <v>1894</v>
+      </c>
+      <c r="HX15">
+        <v>7810</v>
+      </c>
+      <c r="HY15">
+        <v>75506</v>
+      </c>
+      <c r="HZ15">
+        <v>79275</v>
+      </c>
+      <c r="IA15">
+        <v>131</v>
+      </c>
+      <c r="IB15">
+        <v>1279</v>
+      </c>
+      <c r="IC15">
+        <v>4532</v>
+      </c>
+      <c r="ID15">
+        <v>80654</v>
+      </c>
+      <c r="IE15">
+        <v>121297</v>
+      </c>
+      <c r="IF15">
+        <v>305</v>
+      </c>
+      <c r="IG15">
+        <v>2267</v>
+      </c>
+      <c r="IH15">
+        <v>3842</v>
+      </c>
+      <c r="II15">
+        <v>2150</v>
+      </c>
+      <c r="IJ15">
+        <v>2307</v>
+      </c>
+      <c r="IK15">
+        <v>28</v>
+      </c>
+      <c r="IL15">
+        <v>201</v>
+      </c>
+      <c r="IM15">
+        <v>13487</v>
       </c>
     </row>
   </sheetData>
@@ -12738,7 +13481,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45252</v>
+        <v>45253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D22DF-E291-4F05-A9B5-86978F75327B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F84B2-441E-4F0D-ACA7-2A2EC231D4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1982,13 +1982,13 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317728</v>
+        <v>10317731</v>
       </c>
       <c r="C4">
         <v>3368111</v>
       </c>
       <c r="D4">
-        <v>2621353</v>
+        <v>2621354</v>
       </c>
       <c r="E4">
         <v>1586963</v>
@@ -1997,7 +1997,7 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848174</v>
+        <v>848176</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2009,13 +2009,13 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885797</v>
+        <v>10885800</v>
       </c>
       <c r="L4">
         <v>3653394</v>
       </c>
       <c r="M4">
-        <v>2841480</v>
+        <v>2841481</v>
       </c>
       <c r="N4">
         <v>1619874</v>
@@ -2024,7 +2024,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867335</v>
+        <v>867337</v>
       </c>
       <c r="Q4">
         <v>281544</v>
@@ -2036,115 +2036,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450554</v>
+        <v>450551</v>
       </c>
       <c r="U4">
         <v>611267</v>
       </c>
       <c r="V4">
-        <v>710192</v>
+        <v>710193</v>
       </c>
       <c r="W4">
         <v>683395</v>
       </c>
       <c r="X4">
-        <v>812074</v>
+        <v>812071</v>
       </c>
       <c r="Y4">
-        <v>899946</v>
+        <v>899949</v>
       </c>
       <c r="Z4">
-        <v>916983</v>
+        <v>916978</v>
       </c>
       <c r="AA4">
-        <v>908873</v>
+        <v>908881</v>
       </c>
       <c r="AB4">
-        <v>810324</v>
+        <v>810323</v>
       </c>
       <c r="AC4">
-        <v>717636</v>
+        <v>717638</v>
       </c>
       <c r="AD4">
-        <v>658693</v>
+        <v>658692</v>
       </c>
       <c r="AE4">
-        <v>544154</v>
+        <v>544159</v>
       </c>
       <c r="AF4">
-        <v>471575</v>
+        <v>471573</v>
       </c>
       <c r="AG4">
-        <v>349090</v>
+        <v>349091</v>
       </c>
       <c r="AH4">
-        <v>274363</v>
+        <v>274365</v>
       </c>
       <c r="AI4">
         <v>197871</v>
       </c>
       <c r="AJ4">
-        <v>128006</v>
+        <v>128005</v>
       </c>
       <c r="AK4">
-        <v>155524</v>
+        <v>155521</v>
       </c>
       <c r="AL4">
         <v>17208</v>
       </c>
       <c r="AM4">
-        <v>473804</v>
+        <v>473801</v>
       </c>
       <c r="AN4">
         <v>644469</v>
       </c>
       <c r="AO4">
-        <v>741704</v>
+        <v>741705</v>
       </c>
       <c r="AP4">
         <v>728648</v>
       </c>
       <c r="AQ4">
-        <v>890299</v>
+        <v>890296</v>
       </c>
       <c r="AR4">
-        <v>974390</v>
+        <v>974393</v>
       </c>
       <c r="AS4">
-        <v>975363</v>
+        <v>975358</v>
       </c>
       <c r="AT4">
-        <v>953862</v>
+        <v>953870</v>
       </c>
       <c r="AU4">
-        <v>845943</v>
+        <v>845942</v>
       </c>
       <c r="AV4">
-        <v>749714</v>
+        <v>749716</v>
       </c>
       <c r="AW4">
-        <v>688385</v>
+        <v>688384</v>
       </c>
       <c r="AX4">
-        <v>568157</v>
+        <v>568162</v>
       </c>
       <c r="AY4">
-        <v>490117</v>
+        <v>490115</v>
       </c>
       <c r="AZ4">
-        <v>362060</v>
+        <v>362061</v>
       </c>
       <c r="BA4">
-        <v>283679</v>
+        <v>283681</v>
       </c>
       <c r="BB4">
         <v>204343</v>
       </c>
       <c r="BC4">
-        <v>132392</v>
+        <v>132391</v>
       </c>
       <c r="BD4">
-        <v>160887</v>
+        <v>160884</v>
       </c>
       <c r="BE4">
         <v>17581</v>
@@ -2155,169 +2155,169 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>805603</v>
+        <v>807133</v>
       </c>
       <c r="C5">
-        <v>292604</v>
+        <v>293077</v>
       </c>
       <c r="D5">
-        <v>150877</v>
+        <v>151112</v>
       </c>
       <c r="E5">
-        <v>128129</v>
+        <v>128411</v>
       </c>
       <c r="F5">
-        <v>92190</v>
+        <v>92191</v>
       </c>
       <c r="G5">
-        <v>85259</v>
+        <v>85528</v>
       </c>
       <c r="H5">
-        <v>28653</v>
+        <v>28811</v>
       </c>
       <c r="I5">
-        <v>21754</v>
+        <v>21833</v>
       </c>
       <c r="J5">
-        <v>6137</v>
+        <v>6170</v>
       </c>
       <c r="K5">
-        <v>11691400</v>
+        <v>11692933</v>
       </c>
       <c r="L5">
-        <v>3945998</v>
+        <v>3946471</v>
       </c>
       <c r="M5">
-        <v>2992357</v>
+        <v>2992593</v>
       </c>
       <c r="N5">
-        <v>1748003</v>
+        <v>1748285</v>
       </c>
       <c r="O5">
-        <v>1382056</v>
+        <v>1382057</v>
       </c>
       <c r="P5">
-        <v>952594</v>
+        <v>952865</v>
       </c>
       <c r="Q5">
-        <v>310197</v>
+        <v>310355</v>
       </c>
       <c r="R5">
-        <v>250091</v>
+        <v>250170</v>
       </c>
       <c r="S5">
-        <v>110104</v>
+        <v>110137</v>
       </c>
       <c r="T5">
-        <v>28305</v>
+        <v>28394</v>
       </c>
       <c r="U5">
-        <v>23441</v>
+        <v>23478</v>
       </c>
       <c r="V5">
-        <v>31691</v>
+        <v>31731</v>
       </c>
       <c r="W5">
-        <v>30774</v>
+        <v>30835</v>
       </c>
       <c r="X5">
-        <v>39565</v>
+        <v>39633</v>
       </c>
       <c r="Y5">
-        <v>51173</v>
+        <v>51278</v>
       </c>
       <c r="Z5">
-        <v>58024</v>
+        <v>58100</v>
       </c>
       <c r="AA5">
-        <v>64212</v>
+        <v>64305</v>
       </c>
       <c r="AB5">
-        <v>61720</v>
+        <v>61818</v>
       </c>
       <c r="AC5">
-        <v>56789</v>
+        <v>56867</v>
       </c>
       <c r="AD5">
-        <v>57927</v>
+        <v>58025</v>
       </c>
       <c r="AE5">
-        <v>53054</v>
+        <v>53132</v>
       </c>
       <c r="AF5">
-        <v>52136</v>
+        <v>52240</v>
       </c>
       <c r="AG5">
-        <v>44582</v>
+        <v>44657</v>
       </c>
       <c r="AH5">
-        <v>40558</v>
+        <v>40637</v>
       </c>
       <c r="AI5">
-        <v>35251</v>
+        <v>35356</v>
       </c>
       <c r="AJ5">
-        <v>28331</v>
+        <v>28419</v>
       </c>
       <c r="AK5">
-        <v>47478</v>
+        <v>47636</v>
       </c>
       <c r="AL5">
         <v>592</v>
       </c>
       <c r="AM5">
-        <v>502109</v>
+        <v>502195</v>
       </c>
       <c r="AN5">
-        <v>667910</v>
+        <v>667947</v>
       </c>
       <c r="AO5">
-        <v>773395</v>
+        <v>773436</v>
       </c>
       <c r="AP5">
-        <v>759422</v>
+        <v>759483</v>
       </c>
       <c r="AQ5">
-        <v>929864</v>
+        <v>929929</v>
       </c>
       <c r="AR5">
-        <v>1025563</v>
+        <v>1025671</v>
       </c>
       <c r="AS5">
-        <v>1033387</v>
+        <v>1033458</v>
       </c>
       <c r="AT5">
-        <v>1018074</v>
+        <v>1018175</v>
       </c>
       <c r="AU5">
-        <v>907663</v>
+        <v>907760</v>
       </c>
       <c r="AV5">
-        <v>806503</v>
+        <v>806583</v>
       </c>
       <c r="AW5">
-        <v>746312</v>
+        <v>746409</v>
       </c>
       <c r="AX5">
-        <v>621211</v>
+        <v>621294</v>
       </c>
       <c r="AY5">
-        <v>542253</v>
+        <v>542355</v>
       </c>
       <c r="AZ5">
-        <v>406642</v>
+        <v>406718</v>
       </c>
       <c r="BA5">
-        <v>324237</v>
+        <v>324318</v>
       </c>
       <c r="BB5">
-        <v>239594</v>
+        <v>239699</v>
       </c>
       <c r="BC5">
-        <v>160723</v>
+        <v>160810</v>
       </c>
       <c r="BD5">
-        <v>208365</v>
+        <v>208520</v>
       </c>
       <c r="BE5">
         <v>18173</v>
@@ -3938,7 +3938,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366767</v>
+        <v>1366768</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3953,7 +3953,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120482</v>
+        <v>120483</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3965,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431933</v>
+        <v>4431934</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3980,7 +3980,7 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274077</v>
+        <v>274078</v>
       </c>
       <c r="Q28" s="3">
         <v>93873</v>
@@ -3997,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339832</v>
+        <v>1339833</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4012,7 +4012,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139774</v>
+        <v>139775</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4024,7 +4024,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771765</v>
+        <v>5771767</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4039,7 +4039,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413851</v>
+        <v>413853</v>
       </c>
       <c r="Q29" s="3">
         <v>137895</v>
@@ -4056,13 +4056,13 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310363</v>
+        <v>1310364</v>
       </c>
       <c r="C30" s="3">
         <v>297268</v>
       </c>
       <c r="D30" s="3">
-        <v>333308</v>
+        <v>333309</v>
       </c>
       <c r="E30" s="3">
         <v>152930</v>
@@ -4083,13 +4083,13 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082128</v>
+        <v>7082131</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
       </c>
       <c r="M30" s="3">
-        <v>1918280</v>
+        <v>1918281</v>
       </c>
       <c r="N30" s="3">
         <v>1096300</v>
@@ -4098,7 +4098,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>521984</v>
+        <v>521986</v>
       </c>
       <c r="Q30" s="3">
         <v>166168</v>
@@ -4142,13 +4142,13 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966421</v>
+        <v>7966424</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
       </c>
       <c r="M31" s="3">
-        <v>2133366</v>
+        <v>2133367</v>
       </c>
       <c r="N31" s="3">
         <v>1213315</v>
@@ -4157,7 +4157,7 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599298</v>
+        <v>599300</v>
       </c>
       <c r="Q31" s="3">
         <v>190884</v>
@@ -4201,13 +4201,13 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216768</v>
+        <v>9216771</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
       </c>
       <c r="M32" s="3">
-        <v>2445483</v>
+        <v>2445484</v>
       </c>
       <c r="N32" s="3">
         <v>1410774</v>
@@ -4216,7 +4216,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716698</v>
+        <v>716700</v>
       </c>
       <c r="Q32" s="3">
         <v>233156</v>
@@ -4260,13 +4260,13 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771629</v>
+        <v>9771632</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
       </c>
       <c r="M33" s="3">
-        <v>2570913</v>
+        <v>2570914</v>
       </c>
       <c r="N33" s="3">
         <v>1482136</v>
@@ -4275,7 +4275,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757209</v>
+        <v>757211</v>
       </c>
       <c r="Q33" s="3">
         <v>246060</v>
@@ -4319,13 +4319,13 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965884</v>
+        <v>9965887</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
       </c>
       <c r="M34" s="3">
-        <v>2617582</v>
+        <v>2617583</v>
       </c>
       <c r="N34" s="3">
         <v>1512410</v>
@@ -4334,7 +4334,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772493</v>
+        <v>772495</v>
       </c>
       <c r="Q34" s="3">
         <v>249936</v>
@@ -4378,13 +4378,13 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107989</v>
+        <v>10107992</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
       </c>
       <c r="M35" s="3">
-        <v>2653976</v>
+        <v>2653977</v>
       </c>
       <c r="N35" s="3">
         <v>1529147</v>
@@ -4393,7 +4393,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785668</v>
+        <v>785670</v>
       </c>
       <c r="Q35" s="3">
         <v>253590</v>
@@ -4437,13 +4437,13 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459929</v>
+        <v>10459932</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
       </c>
       <c r="M36" s="3">
-        <v>2746873</v>
+        <v>2746874</v>
       </c>
       <c r="N36" s="3">
         <v>1565593</v>
@@ -4452,7 +4452,7 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822830</v>
+        <v>822832</v>
       </c>
       <c r="Q36" s="3">
         <v>265271</v>
@@ -4496,13 +4496,13 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885797</v>
+        <v>10885800</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
       </c>
       <c r="M37" s="3">
-        <v>2841480</v>
+        <v>2841481</v>
       </c>
       <c r="N37" s="3">
         <v>1619874</v>
@@ -4511,7 +4511,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867335</v>
+        <v>867337</v>
       </c>
       <c r="Q37" s="3">
         <v>281544</v>
@@ -4555,13 +4555,13 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015875</v>
+        <v>11015878</v>
       </c>
       <c r="L38" s="3">
         <v>3699334</v>
       </c>
       <c r="M38" s="3">
-        <v>2864584</v>
+        <v>2864585</v>
       </c>
       <c r="N38" s="3">
         <v>1643987</v>
@@ -4570,7 +4570,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879225</v>
+        <v>879227</v>
       </c>
       <c r="Q38" s="3">
         <v>285181</v>
@@ -4614,13 +4614,13 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087864</v>
+        <v>11087867</v>
       </c>
       <c r="L39" s="3">
         <v>3724577</v>
       </c>
       <c r="M39" s="3">
-        <v>2876973</v>
+        <v>2876974</v>
       </c>
       <c r="N39" s="3">
         <v>1658287</v>
@@ -4629,7 +4629,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886078</v>
+        <v>886080</v>
       </c>
       <c r="Q39" s="3">
         <v>287112</v>
@@ -4673,13 +4673,13 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191843</v>
+        <v>11191846</v>
       </c>
       <c r="L40" s="3">
         <v>3763219</v>
       </c>
       <c r="M40" s="3">
-        <v>2896210</v>
+        <v>2896211</v>
       </c>
       <c r="N40" s="3">
         <v>1673742</v>
@@ -4688,7 +4688,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897578</v>
+        <v>897580</v>
       </c>
       <c r="Q40" s="3">
         <v>290414</v>
@@ -4732,13 +4732,13 @@
         <v>826</v>
       </c>
       <c r="K41" s="3">
-        <v>11315008</v>
+        <v>11315011</v>
       </c>
       <c r="L41" s="3">
         <v>3810748</v>
       </c>
       <c r="M41" s="3">
-        <v>2922017</v>
+        <v>2922018</v>
       </c>
       <c r="N41" s="3">
         <v>1689652</v>
@@ -4747,7 +4747,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909907</v>
+        <v>909909</v>
       </c>
       <c r="Q41" s="3">
         <v>294194</v>
@@ -4791,13 +4791,13 @@
         <v>934</v>
       </c>
       <c r="K42" s="3">
-        <v>11481262</v>
+        <v>11481265</v>
       </c>
       <c r="L42" s="3">
         <v>3872843</v>
       </c>
       <c r="M42" s="3">
-        <v>2960393</v>
+        <v>2960394</v>
       </c>
       <c r="N42" s="3">
         <v>1711962</v>
@@ -4806,7 +4806,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924820</v>
+        <v>924822</v>
       </c>
       <c r="Q42" s="3">
         <v>299398</v>
@@ -4850,13 +4850,13 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559065</v>
+        <v>11559068</v>
       </c>
       <c r="L43" s="3">
         <v>3901025</v>
       </c>
       <c r="M43" s="3">
-        <v>2975161</v>
+        <v>2975162</v>
       </c>
       <c r="N43" s="3">
         <v>1726213</v>
@@ -4865,7 +4865,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932034</v>
+        <v>932036</v>
       </c>
       <c r="Q43" s="3">
         <v>301984</v>
@@ -4909,13 +4909,13 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587265</v>
+        <v>11587268</v>
       </c>
       <c r="L44" s="3">
         <v>3911310</v>
       </c>
       <c r="M44" s="3">
-        <v>2977217</v>
+        <v>2977218</v>
       </c>
       <c r="N44" s="3">
         <v>1733161</v>
@@ -4924,7 +4924,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>934963</v>
+        <v>934965</v>
       </c>
       <c r="Q44" s="3">
         <v>303257</v>
@@ -4968,13 +4968,13 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610681</v>
+        <v>11610684</v>
       </c>
       <c r="L45" s="3">
         <v>3920445</v>
       </c>
       <c r="M45" s="3">
-        <v>2979329</v>
+        <v>2979330</v>
       </c>
       <c r="N45" s="3">
         <v>1737699</v>
@@ -4983,7 +4983,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937412</v>
+        <v>937414</v>
       </c>
       <c r="Q45" s="3">
         <v>304421</v>
@@ -5027,13 +5027,13 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632784</v>
+        <v>11632787</v>
       </c>
       <c r="L46" s="3">
         <v>3929408</v>
       </c>
       <c r="M46" s="3">
-        <v>2982567</v>
+        <v>2982568</v>
       </c>
       <c r="N46" s="3">
         <v>1739722</v>
@@ -5042,7 +5042,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940445</v>
+        <v>940447</v>
       </c>
       <c r="Q46" s="3">
         <v>305624</v>
@@ -5059,7 +5059,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27893</v>
+        <v>27894</v>
       </c>
       <c r="C47" s="3">
         <v>7713</v>
@@ -5080,19 +5080,19 @@
         <v>1901</v>
       </c>
       <c r="I47" s="3">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="J47" s="3">
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660677</v>
+        <v>11660681</v>
       </c>
       <c r="L47" s="3">
         <v>3937121</v>
       </c>
       <c r="M47" s="3">
-        <v>2988168</v>
+        <v>2988169</v>
       </c>
       <c r="N47" s="3">
         <v>1743423</v>
@@ -5101,13 +5101,13 @@
         <v>1380652</v>
       </c>
       <c r="P47" s="3">
-        <v>945522</v>
+        <v>945524</v>
       </c>
       <c r="Q47" s="3">
         <v>307525</v>
       </c>
       <c r="R47" s="3">
-        <v>248552</v>
+        <v>248553</v>
       </c>
       <c r="S47" s="3">
         <v>109714</v>
@@ -5118,58 +5118,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>30723</v>
+        <v>32252</v>
       </c>
       <c r="C48" s="3">
-        <v>8877</v>
+        <v>9350</v>
       </c>
       <c r="D48" s="3">
-        <v>4189</v>
+        <v>4424</v>
       </c>
       <c r="E48" s="3">
-        <v>4580</v>
+        <v>4862</v>
       </c>
       <c r="F48" s="3">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="G48" s="3">
-        <v>7072</v>
+        <v>7341</v>
       </c>
       <c r="H48" s="3">
-        <v>2672</v>
+        <v>2830</v>
       </c>
       <c r="I48" s="3">
-        <v>1539</v>
+        <v>1617</v>
       </c>
       <c r="J48" s="3">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K48" s="3">
-        <v>11691400</v>
+        <v>11692933</v>
       </c>
       <c r="L48" s="3">
-        <v>3945998</v>
+        <v>3946471</v>
       </c>
       <c r="M48" s="3">
-        <v>2992357</v>
+        <v>2992593</v>
       </c>
       <c r="N48" s="3">
-        <v>1748003</v>
+        <v>1748285</v>
       </c>
       <c r="O48" s="3">
-        <v>1382056</v>
+        <v>1382057</v>
       </c>
       <c r="P48" s="3">
-        <v>952594</v>
+        <v>952865</v>
       </c>
       <c r="Q48" s="3">
-        <v>310197</v>
+        <v>310355</v>
       </c>
       <c r="R48" s="3">
-        <v>250091</v>
+        <v>250170</v>
       </c>
       <c r="S48" s="3">
-        <v>110104</v>
+        <v>110137</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM15"/>
+  <dimension ref="A1:IM16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13455,6 +13455,749 @@
       </c>
       <c r="IM15">
         <v>13487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B16">
+        <v>1533</v>
+      </c>
+      <c r="C16">
+        <v>473</v>
+      </c>
+      <c r="D16">
+        <v>236</v>
+      </c>
+      <c r="E16">
+        <v>282</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>271</v>
+      </c>
+      <c r="H16">
+        <v>158</v>
+      </c>
+      <c r="I16">
+        <v>79</v>
+      </c>
+      <c r="J16">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>11692933</v>
+      </c>
+      <c r="L16">
+        <v>3946471</v>
+      </c>
+      <c r="M16">
+        <v>2992593</v>
+      </c>
+      <c r="N16">
+        <v>1748285</v>
+      </c>
+      <c r="O16">
+        <v>1382057</v>
+      </c>
+      <c r="P16">
+        <v>952865</v>
+      </c>
+      <c r="Q16">
+        <v>310355</v>
+      </c>
+      <c r="R16">
+        <v>250170</v>
+      </c>
+      <c r="S16">
+        <v>110137</v>
+      </c>
+      <c r="T16">
+        <v>86</v>
+      </c>
+      <c r="U16">
+        <v>37</v>
+      </c>
+      <c r="V16">
+        <v>41</v>
+      </c>
+      <c r="W16">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>65</v>
+      </c>
+      <c r="Y16">
+        <v>108</v>
+      </c>
+      <c r="Z16">
+        <v>71</v>
+      </c>
+      <c r="AA16">
+        <v>101</v>
+      </c>
+      <c r="AB16">
+        <v>97</v>
+      </c>
+      <c r="AC16">
+        <v>80</v>
+      </c>
+      <c r="AD16">
+        <v>97</v>
+      </c>
+      <c r="AE16">
+        <v>83</v>
+      </c>
+      <c r="AF16">
+        <v>102</v>
+      </c>
+      <c r="AG16">
+        <v>76</v>
+      </c>
+      <c r="AH16">
+        <v>81</v>
+      </c>
+      <c r="AI16">
+        <v>105</v>
+      </c>
+      <c r="AJ16">
+        <v>87</v>
+      </c>
+      <c r="AK16">
+        <v>155</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>502195</v>
+      </c>
+      <c r="AN16">
+        <v>667947</v>
+      </c>
+      <c r="AO16">
+        <v>773436</v>
+      </c>
+      <c r="AP16">
+        <v>759483</v>
+      </c>
+      <c r="AQ16">
+        <v>929929</v>
+      </c>
+      <c r="AR16">
+        <v>1025671</v>
+      </c>
+      <c r="AS16">
+        <v>1033458</v>
+      </c>
+      <c r="AT16">
+        <v>1018175</v>
+      </c>
+      <c r="AU16">
+        <v>907760</v>
+      </c>
+      <c r="AV16">
+        <v>806583</v>
+      </c>
+      <c r="AW16">
+        <v>746409</v>
+      </c>
+      <c r="AX16">
+        <v>621294</v>
+      </c>
+      <c r="AY16">
+        <v>542355</v>
+      </c>
+      <c r="AZ16">
+        <v>406718</v>
+      </c>
+      <c r="BA16">
+        <v>324318</v>
+      </c>
+      <c r="BB16">
+        <v>239699</v>
+      </c>
+      <c r="BC16">
+        <v>160810</v>
+      </c>
+      <c r="BD16">
+        <v>208520</v>
+      </c>
+      <c r="BE16">
+        <v>18173</v>
+      </c>
+      <c r="BF16">
+        <v>47</v>
+      </c>
+      <c r="BG16">
+        <v>39</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>18</v>
+      </c>
+      <c r="BL16">
+        <v>19</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>24</v>
+      </c>
+      <c r="BQ16">
+        <v>17</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>30</v>
+      </c>
+      <c r="BV16">
+        <v>31</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>21</v>
+      </c>
+      <c r="CA16">
+        <v>44</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>-1</v>
+      </c>
+      <c r="CD16">
+        <v>1</v>
+      </c>
+      <c r="CE16">
+        <v>34</v>
+      </c>
+      <c r="CF16">
+        <v>74</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>26</v>
+      </c>
+      <c r="CK16">
+        <v>45</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>32</v>
+      </c>
+      <c r="CP16">
+        <v>67</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>1</v>
+      </c>
+      <c r="CS16">
+        <v>1</v>
+      </c>
+      <c r="CT16">
+        <v>34</v>
+      </c>
+      <c r="CU16">
+        <v>63</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>32</v>
+      </c>
+      <c r="CZ16">
+        <v>49</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16">
+        <v>-1</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DD16">
+        <v>35</v>
+      </c>
+      <c r="DE16">
+        <v>62</v>
+      </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>25</v>
+      </c>
+      <c r="DJ16">
+        <v>59</v>
+      </c>
+      <c r="DK16">
+        <v>0</v>
+      </c>
+      <c r="DL16">
+        <v>-1</v>
+      </c>
+      <c r="DM16">
+        <v>0</v>
+      </c>
+      <c r="DN16">
+        <v>41</v>
+      </c>
+      <c r="DO16">
+        <v>62</v>
+      </c>
+      <c r="DP16">
+        <v>0</v>
+      </c>
+      <c r="DQ16">
+        <v>0</v>
+      </c>
+      <c r="DR16">
+        <v>-1</v>
+      </c>
+      <c r="DS16">
+        <v>34</v>
+      </c>
+      <c r="DT16">
+        <v>42</v>
+      </c>
+      <c r="DU16">
+        <v>0</v>
+      </c>
+      <c r="DV16">
+        <v>0</v>
+      </c>
+      <c r="DW16">
+        <v>0</v>
+      </c>
+      <c r="DX16">
+        <v>41</v>
+      </c>
+      <c r="DY16">
+        <v>39</v>
+      </c>
+      <c r="DZ16">
+        <v>0</v>
+      </c>
+      <c r="EA16">
+        <v>1</v>
+      </c>
+      <c r="EB16">
+        <v>0</v>
+      </c>
+      <c r="EC16">
+        <v>50</v>
+      </c>
+      <c r="ED16">
+        <v>55</v>
+      </c>
+      <c r="EE16">
+        <v>0</v>
+      </c>
+      <c r="EF16">
+        <v>0</v>
+      </c>
+      <c r="EG16">
+        <v>0</v>
+      </c>
+      <c r="EH16">
+        <v>43</v>
+      </c>
+      <c r="EI16">
+        <v>44</v>
+      </c>
+      <c r="EJ16">
+        <v>0</v>
+      </c>
+      <c r="EK16">
+        <v>0</v>
+      </c>
+      <c r="EL16">
+        <v>0</v>
+      </c>
+      <c r="EM16">
+        <v>59</v>
+      </c>
+      <c r="EN16">
+        <v>98</v>
+      </c>
+      <c r="EO16">
+        <v>0</v>
+      </c>
+      <c r="EP16">
+        <v>0</v>
+      </c>
+      <c r="EQ16">
+        <v>-2</v>
+      </c>
+      <c r="ER16">
+        <v>0</v>
+      </c>
+      <c r="ES16">
+        <v>0</v>
+      </c>
+      <c r="ET16">
+        <v>1</v>
+      </c>
+      <c r="EU16">
+        <v>0</v>
+      </c>
+      <c r="EV16">
+        <v>-1</v>
+      </c>
+      <c r="EW16">
+        <v>231179</v>
+      </c>
+      <c r="EX16">
+        <v>219510</v>
+      </c>
+      <c r="EY16">
+        <v>408</v>
+      </c>
+      <c r="EZ16">
+        <v>15451</v>
+      </c>
+      <c r="FA16">
+        <v>35647</v>
+      </c>
+      <c r="FB16">
+        <v>308004</v>
+      </c>
+      <c r="FC16">
+        <v>292671</v>
+      </c>
+      <c r="FD16">
+        <v>466</v>
+      </c>
+      <c r="FE16">
+        <v>16773</v>
+      </c>
+      <c r="FF16">
+        <v>50033</v>
+      </c>
+      <c r="FG16">
+        <v>353206</v>
+      </c>
+      <c r="FH16">
+        <v>342560</v>
+      </c>
+      <c r="FI16">
+        <v>633</v>
+      </c>
+      <c r="FJ16">
+        <v>16954</v>
+      </c>
+      <c r="FK16">
+        <v>60083</v>
+      </c>
+      <c r="FL16">
+        <v>326179</v>
+      </c>
+      <c r="FM16">
+        <v>373652</v>
+      </c>
+      <c r="FN16">
+        <v>894</v>
+      </c>
+      <c r="FO16">
+        <v>12937</v>
+      </c>
+      <c r="FP16">
+        <v>45821</v>
+      </c>
+      <c r="FQ16">
+        <v>391858</v>
+      </c>
+      <c r="FR16">
+        <v>479277</v>
+      </c>
+      <c r="FS16">
+        <v>1100</v>
+      </c>
+      <c r="FT16">
+        <v>16280</v>
+      </c>
+      <c r="FU16">
+        <v>41414</v>
+      </c>
+      <c r="FV16">
+        <v>433628</v>
+      </c>
+      <c r="FW16">
+        <v>525609</v>
+      </c>
+      <c r="FX16">
+        <v>1135</v>
+      </c>
+      <c r="FY16">
+        <v>17788</v>
+      </c>
+      <c r="FZ16">
+        <v>47511</v>
+      </c>
+      <c r="GA16">
+        <v>428942</v>
+      </c>
+      <c r="GB16">
+        <v>531607</v>
+      </c>
+      <c r="GC16">
+        <v>922</v>
+      </c>
+      <c r="GD16">
+        <v>17168</v>
+      </c>
+      <c r="GE16">
+        <v>54819</v>
+      </c>
+      <c r="GF16">
+        <v>419481</v>
+      </c>
+      <c r="GG16">
+        <v>524171</v>
+      </c>
+      <c r="GH16">
+        <v>665</v>
+      </c>
+      <c r="GI16">
+        <v>15034</v>
+      </c>
+      <c r="GJ16">
+        <v>58824</v>
+      </c>
+      <c r="GK16">
+        <v>373286</v>
+      </c>
+      <c r="GL16">
+        <v>468464</v>
+      </c>
+      <c r="GM16">
+        <v>498</v>
+      </c>
+      <c r="GN16">
+        <v>12350</v>
+      </c>
+      <c r="GO16">
+        <v>53162</v>
+      </c>
+      <c r="GP16">
+        <v>330070</v>
+      </c>
+      <c r="GQ16">
+        <v>420623</v>
+      </c>
+      <c r="GR16">
+        <v>439</v>
+      </c>
+      <c r="GS16">
+        <v>10130</v>
+      </c>
+      <c r="GT16">
+        <v>45321</v>
+      </c>
+      <c r="GU16">
+        <v>307844</v>
+      </c>
+      <c r="GV16">
+        <v>388951</v>
+      </c>
+      <c r="GW16">
+        <v>399</v>
+      </c>
+      <c r="GX16">
+        <v>8956</v>
+      </c>
+      <c r="GY16">
+        <v>40259</v>
+      </c>
+      <c r="GZ16">
+        <v>263259</v>
+      </c>
+      <c r="HA16">
+        <v>319349</v>
+      </c>
+      <c r="HB16">
+        <v>329</v>
+      </c>
+      <c r="HC16">
+        <v>6610</v>
+      </c>
+      <c r="HD16">
+        <v>31747</v>
+      </c>
+      <c r="HE16">
+        <v>234145</v>
+      </c>
+      <c r="HF16">
+        <v>276696</v>
+      </c>
+      <c r="HG16">
+        <v>234</v>
+      </c>
+      <c r="HH16">
+        <v>5320</v>
+      </c>
+      <c r="HI16">
+        <v>25960</v>
+      </c>
+      <c r="HJ16">
+        <v>180478</v>
+      </c>
+      <c r="HK16">
+        <v>203842</v>
+      </c>
+      <c r="HL16">
+        <v>199</v>
+      </c>
+      <c r="HM16">
+        <v>3679</v>
+      </c>
+      <c r="HN16">
+        <v>18520</v>
+      </c>
+      <c r="HO16">
+        <v>151214</v>
+      </c>
+      <c r="HP16">
+        <v>157901</v>
+      </c>
+      <c r="HQ16">
+        <v>163</v>
+      </c>
+      <c r="HR16">
+        <v>2689</v>
+      </c>
+      <c r="HS16">
+        <v>12351</v>
+      </c>
+      <c r="HT16">
+        <v>115511</v>
+      </c>
+      <c r="HU16">
+        <v>114320</v>
+      </c>
+      <c r="HV16">
+        <v>164</v>
+      </c>
+      <c r="HW16">
+        <v>1894</v>
+      </c>
+      <c r="HX16">
+        <v>7810</v>
+      </c>
+      <c r="HY16">
+        <v>75549</v>
+      </c>
+      <c r="HZ16">
+        <v>79319</v>
+      </c>
+      <c r="IA16">
+        <v>131</v>
+      </c>
+      <c r="IB16">
+        <v>1279</v>
+      </c>
+      <c r="IC16">
+        <v>4532</v>
+      </c>
+      <c r="ID16">
+        <v>80713</v>
+      </c>
+      <c r="IE16">
+        <v>121395</v>
+      </c>
+      <c r="IF16">
+        <v>305</v>
+      </c>
+      <c r="IG16">
+        <v>2267</v>
+      </c>
+      <c r="IH16">
+        <v>3840</v>
+      </c>
+      <c r="II16">
+        <v>2150</v>
+      </c>
+      <c r="IJ16">
+        <v>2307</v>
+      </c>
+      <c r="IK16">
+        <v>29</v>
+      </c>
+      <c r="IL16">
+        <v>201</v>
+      </c>
+      <c r="IM16">
+        <v>13486</v>
       </c>
     </row>
   </sheetData>
@@ -13481,7 +14224,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45253</v>
+        <v>45254</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F84B2-441E-4F0D-ACA7-2A2EC231D4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FA330-70D8-4ECB-B7E6-B440A50217A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1809,7 +1809,7 @@
         <v>44197</v>
       </c>
       <c r="B3">
-        <v>538954</v>
+        <v>538953</v>
       </c>
       <c r="C3">
         <v>280239</v>
@@ -1827,7 +1827,7 @@
         <v>18548</v>
       </c>
       <c r="H3">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="I3">
         <v>6390</v>
@@ -1836,7 +1836,7 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568069</v>
+        <v>568068</v>
       </c>
       <c r="L3">
         <v>285283</v>
@@ -1854,7 +1854,7 @@
         <v>19161</v>
       </c>
       <c r="Q3">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="R3">
         <v>6552</v>
@@ -1866,7 +1866,7 @@
         <v>22503</v>
       </c>
       <c r="U3">
-        <v>32431</v>
+        <v>32430</v>
       </c>
       <c r="V3">
         <v>30559</v>
@@ -1923,7 +1923,7 @@
         <v>23250</v>
       </c>
       <c r="AN3">
-        <v>33202</v>
+        <v>33201</v>
       </c>
       <c r="AO3">
         <v>31512</v>
@@ -1991,13 +1991,13 @@
         <v>2621354</v>
       </c>
       <c r="E4">
-        <v>1586963</v>
+        <v>1586962</v>
       </c>
       <c r="F4">
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848176</v>
+        <v>848177</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2009,7 +2009,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885800</v>
+        <v>10885799</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2018,16 +2018,16 @@
         <v>2841481</v>
       </c>
       <c r="N4">
-        <v>1619874</v>
+        <v>1619873</v>
       </c>
       <c r="O4">
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867337</v>
+        <v>867338</v>
       </c>
       <c r="Q4">
-        <v>281544</v>
+        <v>281543</v>
       </c>
       <c r="R4">
         <v>228337</v>
@@ -2039,46 +2039,46 @@
         <v>450551</v>
       </c>
       <c r="U4">
-        <v>611267</v>
+        <v>611266</v>
       </c>
       <c r="V4">
-        <v>710193</v>
+        <v>710191</v>
       </c>
       <c r="W4">
         <v>683395</v>
       </c>
       <c r="X4">
-        <v>812071</v>
+        <v>812072</v>
       </c>
       <c r="Y4">
-        <v>899949</v>
+        <v>899943</v>
       </c>
       <c r="Z4">
-        <v>916978</v>
+        <v>916980</v>
       </c>
       <c r="AA4">
-        <v>908881</v>
+        <v>908885</v>
       </c>
       <c r="AB4">
-        <v>810323</v>
+        <v>810321</v>
       </c>
       <c r="AC4">
-        <v>717638</v>
+        <v>717637</v>
       </c>
       <c r="AD4">
-        <v>658692</v>
+        <v>658693</v>
       </c>
       <c r="AE4">
-        <v>544159</v>
+        <v>544162</v>
       </c>
       <c r="AF4">
         <v>471573</v>
       </c>
       <c r="AG4">
-        <v>349091</v>
+        <v>349090</v>
       </c>
       <c r="AH4">
-        <v>274365</v>
+        <v>274367</v>
       </c>
       <c r="AI4">
         <v>197871</v>
@@ -2096,46 +2096,46 @@
         <v>473801</v>
       </c>
       <c r="AN4">
-        <v>644469</v>
+        <v>644467</v>
       </c>
       <c r="AO4">
-        <v>741705</v>
+        <v>741703</v>
       </c>
       <c r="AP4">
         <v>728648</v>
       </c>
       <c r="AQ4">
-        <v>890296</v>
+        <v>890297</v>
       </c>
       <c r="AR4">
-        <v>974393</v>
+        <v>974387</v>
       </c>
       <c r="AS4">
-        <v>975358</v>
+        <v>975360</v>
       </c>
       <c r="AT4">
-        <v>953870</v>
+        <v>953874</v>
       </c>
       <c r="AU4">
-        <v>845942</v>
+        <v>845940</v>
       </c>
       <c r="AV4">
-        <v>749716</v>
+        <v>749715</v>
       </c>
       <c r="AW4">
-        <v>688384</v>
+        <v>688385</v>
       </c>
       <c r="AX4">
-        <v>568162</v>
+        <v>568165</v>
       </c>
       <c r="AY4">
         <v>490115</v>
       </c>
       <c r="AZ4">
-        <v>362061</v>
+        <v>362060</v>
       </c>
       <c r="BA4">
-        <v>283681</v>
+        <v>283683</v>
       </c>
       <c r="BB4">
         <v>204343</v>
@@ -2155,172 +2155,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>807133</v>
+        <v>808520</v>
       </c>
       <c r="C5">
-        <v>293077</v>
+        <v>293485</v>
       </c>
       <c r="D5">
-        <v>151112</v>
+        <v>151358</v>
       </c>
       <c r="E5">
-        <v>128411</v>
+        <v>128686</v>
       </c>
       <c r="F5">
-        <v>92191</v>
+        <v>92192</v>
       </c>
       <c r="G5">
-        <v>85528</v>
+        <v>85773</v>
       </c>
       <c r="H5">
-        <v>28811</v>
+        <v>28942</v>
       </c>
       <c r="I5">
-        <v>21833</v>
+        <v>21905</v>
       </c>
       <c r="J5">
-        <v>6170</v>
+        <v>6179</v>
       </c>
       <c r="K5">
-        <v>11692933</v>
+        <v>11694319</v>
       </c>
       <c r="L5">
-        <v>3946471</v>
+        <v>3946879</v>
       </c>
       <c r="M5">
-        <v>2992593</v>
+        <v>2992839</v>
       </c>
       <c r="N5">
-        <v>1748285</v>
+        <v>1748559</v>
       </c>
       <c r="O5">
-        <v>1382057</v>
+        <v>1382058</v>
       </c>
       <c r="P5">
-        <v>952865</v>
+        <v>953111</v>
       </c>
       <c r="Q5">
-        <v>310355</v>
+        <v>310485</v>
       </c>
       <c r="R5">
-        <v>250170</v>
+        <v>250242</v>
       </c>
       <c r="S5">
-        <v>110137</v>
+        <v>110146</v>
       </c>
       <c r="T5">
-        <v>28394</v>
+        <v>28454</v>
       </c>
       <c r="U5">
-        <v>23478</v>
+        <v>23498</v>
       </c>
       <c r="V5">
-        <v>31731</v>
+        <v>31762</v>
       </c>
       <c r="W5">
-        <v>30835</v>
+        <v>30886</v>
       </c>
       <c r="X5">
-        <v>39633</v>
+        <v>39688</v>
       </c>
       <c r="Y5">
-        <v>51278</v>
+        <v>51332</v>
       </c>
       <c r="Z5">
-        <v>58100</v>
+        <v>58192</v>
       </c>
       <c r="AA5">
-        <v>64305</v>
+        <v>64395</v>
       </c>
       <c r="AB5">
-        <v>61818</v>
+        <v>61896</v>
       </c>
       <c r="AC5">
-        <v>56867</v>
+        <v>56945</v>
       </c>
       <c r="AD5">
-        <v>58025</v>
+        <v>58113</v>
       </c>
       <c r="AE5">
-        <v>53132</v>
+        <v>53216</v>
       </c>
       <c r="AF5">
-        <v>52240</v>
+        <v>52338</v>
       </c>
       <c r="AG5">
-        <v>44657</v>
+        <v>44738</v>
       </c>
       <c r="AH5">
-        <v>40637</v>
+        <v>40718</v>
       </c>
       <c r="AI5">
-        <v>35356</v>
+        <v>35449</v>
       </c>
       <c r="AJ5">
-        <v>28419</v>
+        <v>28513</v>
       </c>
       <c r="AK5">
-        <v>47636</v>
+        <v>47792</v>
       </c>
       <c r="AL5">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AM5">
-        <v>502195</v>
+        <v>502255</v>
       </c>
       <c r="AN5">
-        <v>667947</v>
+        <v>667965</v>
       </c>
       <c r="AO5">
-        <v>773436</v>
+        <v>773465</v>
       </c>
       <c r="AP5">
-        <v>759483</v>
+        <v>759534</v>
       </c>
       <c r="AQ5">
-        <v>929929</v>
+        <v>929985</v>
       </c>
       <c r="AR5">
-        <v>1025671</v>
+        <v>1025719</v>
       </c>
       <c r="AS5">
-        <v>1033458</v>
+        <v>1033552</v>
       </c>
       <c r="AT5">
-        <v>1018175</v>
+        <v>1018269</v>
       </c>
       <c r="AU5">
-        <v>907760</v>
+        <v>907836</v>
       </c>
       <c r="AV5">
-        <v>806583</v>
+        <v>806660</v>
       </c>
       <c r="AW5">
-        <v>746409</v>
+        <v>746498</v>
       </c>
       <c r="AX5">
-        <v>621294</v>
+        <v>621381</v>
       </c>
       <c r="AY5">
-        <v>542355</v>
+        <v>542453</v>
       </c>
       <c r="AZ5">
-        <v>406718</v>
+        <v>406798</v>
       </c>
       <c r="BA5">
-        <v>324318</v>
+        <v>324401</v>
       </c>
       <c r="BB5">
-        <v>239699</v>
+        <v>239792</v>
       </c>
       <c r="BC5">
-        <v>160810</v>
+        <v>160904</v>
       </c>
       <c r="BD5">
-        <v>208520</v>
+        <v>208676</v>
       </c>
       <c r="BE5">
-        <v>18173</v>
+        <v>18176</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3466,7 @@
         <v>44378</v>
       </c>
       <c r="B20" s="3">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="C20" s="3">
         <v>3769</v>
@@ -3484,7 +3484,7 @@
         <v>50</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>6</v>
@@ -3493,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="K20" s="3">
-        <v>36311</v>
+        <v>36310</v>
       </c>
       <c r="L20" s="3">
         <v>9759</v>
@@ -3511,7 +3511,7 @@
         <v>897</v>
       </c>
       <c r="Q20" s="3">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R20" s="3">
         <v>256</v>
@@ -3552,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="3">
-        <v>59825</v>
+        <v>59824</v>
       </c>
       <c r="L21" s="3">
         <v>30988</v>
@@ -3570,7 +3570,7 @@
         <v>908</v>
       </c>
       <c r="Q21" s="3">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R21" s="3">
         <v>592</v>
@@ -3611,7 +3611,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="3">
-        <v>114212</v>
+        <v>114211</v>
       </c>
       <c r="L22" s="3">
         <v>64778</v>
@@ -3629,7 +3629,7 @@
         <v>933</v>
       </c>
       <c r="Q22" s="3">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R22" s="3">
         <v>1252</v>
@@ -3670,7 +3670,7 @@
         <v>14</v>
       </c>
       <c r="K23" s="3">
-        <v>175208</v>
+        <v>175207</v>
       </c>
       <c r="L23" s="3">
         <v>75564</v>
@@ -3688,7 +3688,7 @@
         <v>952</v>
       </c>
       <c r="Q23" s="3">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R23" s="3">
         <v>1936</v>
@@ -3729,7 +3729,7 @@
         <v>70</v>
       </c>
       <c r="K24" s="3">
-        <v>215937</v>
+        <v>215936</v>
       </c>
       <c r="L24" s="3">
         <v>82234</v>
@@ -3747,7 +3747,7 @@
         <v>1000</v>
       </c>
       <c r="Q24" s="3">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R24" s="3">
         <v>2293</v>
@@ -3788,7 +3788,7 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568069</v>
+        <v>568068</v>
       </c>
       <c r="L25" s="3">
         <v>285283</v>
@@ -3806,7 +3806,7 @@
         <v>19161</v>
       </c>
       <c r="Q25" s="3">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="R25" s="3">
         <v>6552</v>
@@ -3847,7 +3847,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377641</v>
+        <v>2377640</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3865,7 +3865,7 @@
         <v>109196</v>
       </c>
       <c r="Q26" s="3">
-        <v>29727</v>
+        <v>29726</v>
       </c>
       <c r="R26" s="3">
         <v>36975</v>
@@ -3906,7 +3906,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065166</v>
+        <v>3065165</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3924,7 +3924,7 @@
         <v>153595</v>
       </c>
       <c r="Q27" s="3">
-        <v>47446</v>
+        <v>47445</v>
       </c>
       <c r="R27" s="3">
         <v>51580</v>
@@ -3965,7 +3965,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431934</v>
+        <v>4431933</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3983,7 +3983,7 @@
         <v>274078</v>
       </c>
       <c r="Q28" s="3">
-        <v>93873</v>
+        <v>93872</v>
       </c>
       <c r="R28" s="3">
         <v>79114</v>
@@ -3997,7 +3997,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339833</v>
+        <v>1339834</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4012,7 +4012,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139775</v>
+        <v>139776</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4039,10 +4039,10 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413853</v>
+        <v>413854</v>
       </c>
       <c r="Q29" s="3">
-        <v>137895</v>
+        <v>137894</v>
       </c>
       <c r="R29" s="3">
         <v>106422</v>
@@ -4098,10 +4098,10 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>521986</v>
+        <v>521987</v>
       </c>
       <c r="Q30" s="3">
-        <v>166168</v>
+        <v>166167</v>
       </c>
       <c r="R30" s="3">
         <v>134129</v>
@@ -4115,7 +4115,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884293</v>
+        <v>884292</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4124,7 +4124,7 @@
         <v>215086</v>
       </c>
       <c r="E31" s="3">
-        <v>117015</v>
+        <v>117014</v>
       </c>
       <c r="F31" s="3">
         <v>182639</v>
@@ -4142,7 +4142,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966424</v>
+        <v>7966423</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4151,16 +4151,16 @@
         <v>2133367</v>
       </c>
       <c r="N31" s="3">
-        <v>1213315</v>
+        <v>1213314</v>
       </c>
       <c r="O31" s="3">
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599300</v>
+        <v>599301</v>
       </c>
       <c r="Q31" s="3">
-        <v>190884</v>
+        <v>190883</v>
       </c>
       <c r="R31" s="3">
         <v>161034</v>
@@ -4201,7 +4201,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216771</v>
+        <v>9216770</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4210,16 +4210,16 @@
         <v>2445484</v>
       </c>
       <c r="N32" s="3">
-        <v>1410774</v>
+        <v>1410773</v>
       </c>
       <c r="O32" s="3">
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716700</v>
+        <v>716701</v>
       </c>
       <c r="Q32" s="3">
-        <v>233156</v>
+        <v>233155</v>
       </c>
       <c r="R32" s="3">
         <v>192684</v>
@@ -4260,7 +4260,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771632</v>
+        <v>9771631</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4269,16 +4269,16 @@
         <v>2570914</v>
       </c>
       <c r="N33" s="3">
-        <v>1482136</v>
+        <v>1482135</v>
       </c>
       <c r="O33" s="3">
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757211</v>
+        <v>757212</v>
       </c>
       <c r="Q33" s="3">
-        <v>246060</v>
+        <v>246059</v>
       </c>
       <c r="R33" s="3">
         <v>203231</v>
@@ -4319,7 +4319,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965887</v>
+        <v>9965886</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4328,16 +4328,16 @@
         <v>2617583</v>
       </c>
       <c r="N34" s="3">
-        <v>1512410</v>
+        <v>1512409</v>
       </c>
       <c r="O34" s="3">
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772495</v>
+        <v>772496</v>
       </c>
       <c r="Q34" s="3">
-        <v>249936</v>
+        <v>249935</v>
       </c>
       <c r="R34" s="3">
         <v>206497</v>
@@ -4378,7 +4378,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107992</v>
+        <v>10107991</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4387,16 +4387,16 @@
         <v>2653977</v>
       </c>
       <c r="N35" s="3">
-        <v>1529147</v>
+        <v>1529146</v>
       </c>
       <c r="O35" s="3">
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785670</v>
+        <v>785671</v>
       </c>
       <c r="Q35" s="3">
-        <v>253590</v>
+        <v>253589</v>
       </c>
       <c r="R35" s="3">
         <v>209534</v>
@@ -4437,7 +4437,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459932</v>
+        <v>10459931</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4446,16 +4446,16 @@
         <v>2746874</v>
       </c>
       <c r="N36" s="3">
-        <v>1565593</v>
+        <v>1565592</v>
       </c>
       <c r="O36" s="3">
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822832</v>
+        <v>822833</v>
       </c>
       <c r="Q36" s="3">
-        <v>265271</v>
+        <v>265270</v>
       </c>
       <c r="R36" s="3">
         <v>216760</v>
@@ -4496,7 +4496,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885800</v>
+        <v>10885799</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4505,16 +4505,16 @@
         <v>2841481</v>
       </c>
       <c r="N37" s="3">
-        <v>1619874</v>
+        <v>1619873</v>
       </c>
       <c r="O37" s="3">
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867337</v>
+        <v>867338</v>
       </c>
       <c r="Q37" s="3">
-        <v>281544</v>
+        <v>281543</v>
       </c>
       <c r="R37" s="3">
         <v>228337</v>
@@ -4555,7 +4555,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015878</v>
+        <v>11015877</v>
       </c>
       <c r="L38" s="3">
         <v>3699334</v>
@@ -4564,16 +4564,16 @@
         <v>2864585</v>
       </c>
       <c r="N38" s="3">
-        <v>1643987</v>
+        <v>1643986</v>
       </c>
       <c r="O38" s="3">
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879227</v>
+        <v>879228</v>
       </c>
       <c r="Q38" s="3">
-        <v>285181</v>
+        <v>285180</v>
       </c>
       <c r="R38" s="3">
         <v>231590</v>
@@ -4614,7 +4614,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087867</v>
+        <v>11087866</v>
       </c>
       <c r="L39" s="3">
         <v>3724577</v>
@@ -4623,16 +4623,16 @@
         <v>2876974</v>
       </c>
       <c r="N39" s="3">
-        <v>1658287</v>
+        <v>1658286</v>
       </c>
       <c r="O39" s="3">
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886080</v>
+        <v>886081</v>
       </c>
       <c r="Q39" s="3">
-        <v>287112</v>
+        <v>287111</v>
       </c>
       <c r="R39" s="3">
         <v>233531</v>
@@ -4673,7 +4673,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191846</v>
+        <v>11191845</v>
       </c>
       <c r="L40" s="3">
         <v>3763219</v>
@@ -4682,16 +4682,16 @@
         <v>2896211</v>
       </c>
       <c r="N40" s="3">
-        <v>1673742</v>
+        <v>1673741</v>
       </c>
       <c r="O40" s="3">
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897580</v>
+        <v>897581</v>
       </c>
       <c r="Q40" s="3">
-        <v>290414</v>
+        <v>290413</v>
       </c>
       <c r="R40" s="3">
         <v>235744</v>
@@ -4705,7 +4705,7 @@
         <v>45017</v>
       </c>
       <c r="B41" s="3">
-        <v>123165</v>
+        <v>123166</v>
       </c>
       <c r="C41" s="3">
         <v>47529</v>
@@ -4729,7 +4729,7 @@
         <v>2597</v>
       </c>
       <c r="J41" s="3">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K41" s="3">
         <v>11315011</v>
@@ -4741,22 +4741,22 @@
         <v>2922018</v>
       </c>
       <c r="N41" s="3">
-        <v>1689652</v>
+        <v>1689651</v>
       </c>
       <c r="O41" s="3">
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909909</v>
+        <v>909910</v>
       </c>
       <c r="Q41" s="3">
-        <v>294194</v>
+        <v>294193</v>
       </c>
       <c r="R41" s="3">
         <v>238341</v>
       </c>
       <c r="S41" s="3">
-        <v>107206</v>
+        <v>107207</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -4764,7 +4764,7 @@
         <v>45047</v>
       </c>
       <c r="B42" s="3">
-        <v>166254</v>
+        <v>166253</v>
       </c>
       <c r="C42" s="3">
         <v>62095</v>
@@ -4788,10 +4788,10 @@
         <v>4334</v>
       </c>
       <c r="J42" s="3">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481265</v>
+        <v>11481264</v>
       </c>
       <c r="L42" s="3">
         <v>3872843</v>
@@ -4800,16 +4800,16 @@
         <v>2960394</v>
       </c>
       <c r="N42" s="3">
-        <v>1711962</v>
+        <v>1711961</v>
       </c>
       <c r="O42" s="3">
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924822</v>
+        <v>924823</v>
       </c>
       <c r="Q42" s="3">
-        <v>299398</v>
+        <v>299397</v>
       </c>
       <c r="R42" s="3">
         <v>242675</v>
@@ -4850,7 +4850,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559068</v>
+        <v>11559067</v>
       </c>
       <c r="L43" s="3">
         <v>3901025</v>
@@ -4859,16 +4859,16 @@
         <v>2975162</v>
       </c>
       <c r="N43" s="3">
-        <v>1726213</v>
+        <v>1726212</v>
       </c>
       <c r="O43" s="3">
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932036</v>
+        <v>932037</v>
       </c>
       <c r="Q43" s="3">
-        <v>301984</v>
+        <v>301983</v>
       </c>
       <c r="R43" s="3">
         <v>244664</v>
@@ -4909,7 +4909,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587268</v>
+        <v>11587267</v>
       </c>
       <c r="L44" s="3">
         <v>3911310</v>
@@ -4918,16 +4918,16 @@
         <v>2977218</v>
       </c>
       <c r="N44" s="3">
-        <v>1733161</v>
+        <v>1733160</v>
       </c>
       <c r="O44" s="3">
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>934965</v>
+        <v>934966</v>
       </c>
       <c r="Q44" s="3">
-        <v>303257</v>
+        <v>303256</v>
       </c>
       <c r="R44" s="3">
         <v>245517</v>
@@ -4968,7 +4968,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610684</v>
+        <v>11610683</v>
       </c>
       <c r="L45" s="3">
         <v>3920445</v>
@@ -4977,16 +4977,16 @@
         <v>2979330</v>
       </c>
       <c r="N45" s="3">
-        <v>1737699</v>
+        <v>1737698</v>
       </c>
       <c r="O45" s="3">
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937414</v>
+        <v>937415</v>
       </c>
       <c r="Q45" s="3">
-        <v>304421</v>
+        <v>304420</v>
       </c>
       <c r="R45" s="3">
         <v>246321</v>
@@ -5027,7 +5027,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632787</v>
+        <v>11632786</v>
       </c>
       <c r="L46" s="3">
         <v>3929408</v>
@@ -5036,16 +5036,16 @@
         <v>2982568</v>
       </c>
       <c r="N46" s="3">
-        <v>1739722</v>
+        <v>1739721</v>
       </c>
       <c r="O46" s="3">
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940447</v>
+        <v>940448</v>
       </c>
       <c r="Q46" s="3">
-        <v>305624</v>
+        <v>305623</v>
       </c>
       <c r="R46" s="3">
         <v>247063</v>
@@ -5086,7 +5086,7 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660681</v>
+        <v>11660680</v>
       </c>
       <c r="L47" s="3">
         <v>3937121</v>
@@ -5095,16 +5095,16 @@
         <v>2988169</v>
       </c>
       <c r="N47" s="3">
-        <v>1743423</v>
+        <v>1743422</v>
       </c>
       <c r="O47" s="3">
         <v>1380652</v>
       </c>
       <c r="P47" s="3">
-        <v>945524</v>
+        <v>945525</v>
       </c>
       <c r="Q47" s="3">
-        <v>307525</v>
+        <v>307524</v>
       </c>
       <c r="R47" s="3">
         <v>248553</v>
@@ -5118,58 +5118,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>32252</v>
+        <v>33639</v>
       </c>
       <c r="C48" s="3">
-        <v>9350</v>
+        <v>9758</v>
       </c>
       <c r="D48" s="3">
-        <v>4424</v>
+        <v>4670</v>
       </c>
       <c r="E48" s="3">
-        <v>4862</v>
+        <v>5137</v>
       </c>
       <c r="F48" s="3">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G48" s="3">
-        <v>7341</v>
+        <v>7586</v>
       </c>
       <c r="H48" s="3">
-        <v>2830</v>
+        <v>2961</v>
       </c>
       <c r="I48" s="3">
-        <v>1617</v>
+        <v>1689</v>
       </c>
       <c r="J48" s="3">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="K48" s="3">
-        <v>11692933</v>
+        <v>11694319</v>
       </c>
       <c r="L48" s="3">
-        <v>3946471</v>
+        <v>3946879</v>
       </c>
       <c r="M48" s="3">
-        <v>2992593</v>
+        <v>2992839</v>
       </c>
       <c r="N48" s="3">
-        <v>1748285</v>
+        <v>1748559</v>
       </c>
       <c r="O48" s="3">
-        <v>1382057</v>
+        <v>1382058</v>
       </c>
       <c r="P48" s="3">
-        <v>952865</v>
+        <v>953111</v>
       </c>
       <c r="Q48" s="3">
-        <v>310355</v>
+        <v>310485</v>
       </c>
       <c r="R48" s="3">
-        <v>250170</v>
+        <v>250242</v>
       </c>
       <c r="S48" s="3">
-        <v>110137</v>
+        <v>110146</v>
       </c>
     </row>
   </sheetData>
@@ -5179,7 +5179,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM16"/>
+  <dimension ref="A1:IM17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14197,6 +14197,749 @@
         <v>201</v>
       </c>
       <c r="IM16">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B17">
+        <v>1386</v>
+      </c>
+      <c r="C17">
+        <v>408</v>
+      </c>
+      <c r="D17">
+        <v>246</v>
+      </c>
+      <c r="E17">
+        <v>274</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>246</v>
+      </c>
+      <c r="H17">
+        <v>130</v>
+      </c>
+      <c r="I17">
+        <v>72</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>11694319</v>
+      </c>
+      <c r="L17">
+        <v>3946879</v>
+      </c>
+      <c r="M17">
+        <v>2992839</v>
+      </c>
+      <c r="N17">
+        <v>1748559</v>
+      </c>
+      <c r="O17">
+        <v>1382058</v>
+      </c>
+      <c r="P17">
+        <v>953111</v>
+      </c>
+      <c r="Q17">
+        <v>310485</v>
+      </c>
+      <c r="R17">
+        <v>250242</v>
+      </c>
+      <c r="S17">
+        <v>110146</v>
+      </c>
+      <c r="T17">
+        <v>60</v>
+      </c>
+      <c r="U17">
+        <v>18</v>
+      </c>
+      <c r="V17">
+        <v>29</v>
+      </c>
+      <c r="W17">
+        <v>51</v>
+      </c>
+      <c r="X17">
+        <v>56</v>
+      </c>
+      <c r="Y17">
+        <v>48</v>
+      </c>
+      <c r="Z17">
+        <v>94</v>
+      </c>
+      <c r="AA17">
+        <v>94</v>
+      </c>
+      <c r="AB17">
+        <v>76</v>
+      </c>
+      <c r="AC17">
+        <v>77</v>
+      </c>
+      <c r="AD17">
+        <v>89</v>
+      </c>
+      <c r="AE17">
+        <v>87</v>
+      </c>
+      <c r="AF17">
+        <v>98</v>
+      </c>
+      <c r="AG17">
+        <v>80</v>
+      </c>
+      <c r="AH17">
+        <v>83</v>
+      </c>
+      <c r="AI17">
+        <v>93</v>
+      </c>
+      <c r="AJ17">
+        <v>94</v>
+      </c>
+      <c r="AK17">
+        <v>156</v>
+      </c>
+      <c r="AL17">
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <v>502255</v>
+      </c>
+      <c r="AN17">
+        <v>667965</v>
+      </c>
+      <c r="AO17">
+        <v>773465</v>
+      </c>
+      <c r="AP17">
+        <v>759534</v>
+      </c>
+      <c r="AQ17">
+        <v>929985</v>
+      </c>
+      <c r="AR17">
+        <v>1025719</v>
+      </c>
+      <c r="AS17">
+        <v>1033552</v>
+      </c>
+      <c r="AT17">
+        <v>1018269</v>
+      </c>
+      <c r="AU17">
+        <v>907836</v>
+      </c>
+      <c r="AV17">
+        <v>806660</v>
+      </c>
+      <c r="AW17">
+        <v>746498</v>
+      </c>
+      <c r="AX17">
+        <v>621381</v>
+      </c>
+      <c r="AY17">
+        <v>542453</v>
+      </c>
+      <c r="AZ17">
+        <v>406798</v>
+      </c>
+      <c r="BA17">
+        <v>324401</v>
+      </c>
+      <c r="BB17">
+        <v>239792</v>
+      </c>
+      <c r="BC17">
+        <v>160904</v>
+      </c>
+      <c r="BD17">
+        <v>208676</v>
+      </c>
+      <c r="BE17">
+        <v>18176</v>
+      </c>
+      <c r="BF17">
+        <v>31</v>
+      </c>
+      <c r="BG17">
+        <v>29</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>9</v>
+      </c>
+      <c r="BL17">
+        <v>9</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>14</v>
+      </c>
+      <c r="BQ17">
+        <v>14</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>26</v>
+      </c>
+      <c r="BV17">
+        <v>25</v>
+      </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BY17">
+        <v>0</v>
+      </c>
+      <c r="BZ17">
+        <v>24</v>
+      </c>
+      <c r="CA17">
+        <v>33</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>-1</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>21</v>
+      </c>
+      <c r="CF17">
+        <v>28</v>
+      </c>
+      <c r="CG17">
+        <v>1</v>
+      </c>
+      <c r="CH17">
+        <v>-2</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>30</v>
+      </c>
+      <c r="CK17">
+        <v>64</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>30</v>
+      </c>
+      <c r="CP17">
+        <v>65</v>
+      </c>
+      <c r="CQ17">
+        <v>-1</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>26</v>
+      </c>
+      <c r="CU17">
+        <v>51</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>-1</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>32</v>
+      </c>
+      <c r="CZ17">
+        <v>45</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DB17">
+        <v>0</v>
+      </c>
+      <c r="DC17">
+        <v>0</v>
+      </c>
+      <c r="DD17">
+        <v>37</v>
+      </c>
+      <c r="DE17">
+        <v>54</v>
+      </c>
+      <c r="DF17">
+        <v>0</v>
+      </c>
+      <c r="DG17">
+        <v>-2</v>
+      </c>
+      <c r="DH17">
+        <v>0</v>
+      </c>
+      <c r="DI17">
+        <v>35</v>
+      </c>
+      <c r="DJ17">
+        <v>52</v>
+      </c>
+      <c r="DK17">
+        <v>0</v>
+      </c>
+      <c r="DL17">
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <v>0</v>
+      </c>
+      <c r="DN17">
+        <v>43</v>
+      </c>
+      <c r="DO17">
+        <v>57</v>
+      </c>
+      <c r="DP17">
+        <v>0</v>
+      </c>
+      <c r="DQ17">
+        <v>-2</v>
+      </c>
+      <c r="DR17">
+        <v>0</v>
+      </c>
+      <c r="DS17">
+        <v>33</v>
+      </c>
+      <c r="DT17">
+        <v>47</v>
+      </c>
+      <c r="DU17">
+        <v>0</v>
+      </c>
+      <c r="DV17">
+        <v>0</v>
+      </c>
+      <c r="DW17">
+        <v>0</v>
+      </c>
+      <c r="DX17">
+        <v>36</v>
+      </c>
+      <c r="DY17">
+        <v>47</v>
+      </c>
+      <c r="DZ17">
+        <v>0</v>
+      </c>
+      <c r="EA17">
+        <v>0</v>
+      </c>
+      <c r="EB17">
+        <v>0</v>
+      </c>
+      <c r="EC17">
+        <v>57</v>
+      </c>
+      <c r="ED17">
+        <v>36</v>
+      </c>
+      <c r="EE17">
+        <v>0</v>
+      </c>
+      <c r="EF17">
+        <v>0</v>
+      </c>
+      <c r="EG17">
+        <v>0</v>
+      </c>
+      <c r="EH17">
+        <v>46</v>
+      </c>
+      <c r="EI17">
+        <v>47</v>
+      </c>
+      <c r="EJ17">
+        <v>0</v>
+      </c>
+      <c r="EK17">
+        <v>1</v>
+      </c>
+      <c r="EL17">
+        <v>0</v>
+      </c>
+      <c r="EM17">
+        <v>63</v>
+      </c>
+      <c r="EN17">
+        <v>92</v>
+      </c>
+      <c r="EO17">
+        <v>0</v>
+      </c>
+      <c r="EP17">
+        <v>1</v>
+      </c>
+      <c r="EQ17">
+        <v>0</v>
+      </c>
+      <c r="ER17">
+        <v>0</v>
+      </c>
+      <c r="ES17">
+        <v>0</v>
+      </c>
+      <c r="ET17">
+        <v>3</v>
+      </c>
+      <c r="EU17">
+        <v>0</v>
+      </c>
+      <c r="EV17">
+        <v>0</v>
+      </c>
+      <c r="EW17">
+        <v>231210</v>
+      </c>
+      <c r="EX17">
+        <v>219539</v>
+      </c>
+      <c r="EY17">
+        <v>408</v>
+      </c>
+      <c r="EZ17">
+        <v>15451</v>
+      </c>
+      <c r="FA17">
+        <v>35647</v>
+      </c>
+      <c r="FB17">
+        <v>308013</v>
+      </c>
+      <c r="FC17">
+        <v>292680</v>
+      </c>
+      <c r="FD17">
+        <v>466</v>
+      </c>
+      <c r="FE17">
+        <v>16773</v>
+      </c>
+      <c r="FF17">
+        <v>50033</v>
+      </c>
+      <c r="FG17">
+        <v>353220</v>
+      </c>
+      <c r="FH17">
+        <v>342574</v>
+      </c>
+      <c r="FI17">
+        <v>633</v>
+      </c>
+      <c r="FJ17">
+        <v>16955</v>
+      </c>
+      <c r="FK17">
+        <v>60083</v>
+      </c>
+      <c r="FL17">
+        <v>326205</v>
+      </c>
+      <c r="FM17">
+        <v>373677</v>
+      </c>
+      <c r="FN17">
+        <v>894</v>
+      </c>
+      <c r="FO17">
+        <v>12937</v>
+      </c>
+      <c r="FP17">
+        <v>45821</v>
+      </c>
+      <c r="FQ17">
+        <v>391882</v>
+      </c>
+      <c r="FR17">
+        <v>479310</v>
+      </c>
+      <c r="FS17">
+        <v>1100</v>
+      </c>
+      <c r="FT17">
+        <v>16279</v>
+      </c>
+      <c r="FU17">
+        <v>41414</v>
+      </c>
+      <c r="FV17">
+        <v>433649</v>
+      </c>
+      <c r="FW17">
+        <v>525637</v>
+      </c>
+      <c r="FX17">
+        <v>1136</v>
+      </c>
+      <c r="FY17">
+        <v>17786</v>
+      </c>
+      <c r="FZ17">
+        <v>47511</v>
+      </c>
+      <c r="GA17">
+        <v>428972</v>
+      </c>
+      <c r="GB17">
+        <v>531671</v>
+      </c>
+      <c r="GC17">
+        <v>922</v>
+      </c>
+      <c r="GD17">
+        <v>17168</v>
+      </c>
+      <c r="GE17">
+        <v>54819</v>
+      </c>
+      <c r="GF17">
+        <v>419511</v>
+      </c>
+      <c r="GG17">
+        <v>524236</v>
+      </c>
+      <c r="GH17">
+        <v>664</v>
+      </c>
+      <c r="GI17">
+        <v>15034</v>
+      </c>
+      <c r="GJ17">
+        <v>58824</v>
+      </c>
+      <c r="GK17">
+        <v>373312</v>
+      </c>
+      <c r="GL17">
+        <v>468515</v>
+      </c>
+      <c r="GM17">
+        <v>498</v>
+      </c>
+      <c r="GN17">
+        <v>12349</v>
+      </c>
+      <c r="GO17">
+        <v>53162</v>
+      </c>
+      <c r="GP17">
+        <v>330102</v>
+      </c>
+      <c r="GQ17">
+        <v>420668</v>
+      </c>
+      <c r="GR17">
+        <v>439</v>
+      </c>
+      <c r="GS17">
+        <v>10130</v>
+      </c>
+      <c r="GT17">
+        <v>45321</v>
+      </c>
+      <c r="GU17">
+        <v>307881</v>
+      </c>
+      <c r="GV17">
+        <v>389005</v>
+      </c>
+      <c r="GW17">
+        <v>399</v>
+      </c>
+      <c r="GX17">
+        <v>8954</v>
+      </c>
+      <c r="GY17">
+        <v>40259</v>
+      </c>
+      <c r="GZ17">
+        <v>263294</v>
+      </c>
+      <c r="HA17">
+        <v>319401</v>
+      </c>
+      <c r="HB17">
+        <v>329</v>
+      </c>
+      <c r="HC17">
+        <v>6610</v>
+      </c>
+      <c r="HD17">
+        <v>31747</v>
+      </c>
+      <c r="HE17">
+        <v>234188</v>
+      </c>
+      <c r="HF17">
+        <v>276753</v>
+      </c>
+      <c r="HG17">
+        <v>234</v>
+      </c>
+      <c r="HH17">
+        <v>5318</v>
+      </c>
+      <c r="HI17">
+        <v>25960</v>
+      </c>
+      <c r="HJ17">
+        <v>180511</v>
+      </c>
+      <c r="HK17">
+        <v>203889</v>
+      </c>
+      <c r="HL17">
+        <v>199</v>
+      </c>
+      <c r="HM17">
+        <v>3679</v>
+      </c>
+      <c r="HN17">
+        <v>18520</v>
+      </c>
+      <c r="HO17">
+        <v>151250</v>
+      </c>
+      <c r="HP17">
+        <v>157948</v>
+      </c>
+      <c r="HQ17">
+        <v>163</v>
+      </c>
+      <c r="HR17">
+        <v>2689</v>
+      </c>
+      <c r="HS17">
+        <v>12351</v>
+      </c>
+      <c r="HT17">
+        <v>115568</v>
+      </c>
+      <c r="HU17">
+        <v>114356</v>
+      </c>
+      <c r="HV17">
+        <v>164</v>
+      </c>
+      <c r="HW17">
+        <v>1894</v>
+      </c>
+      <c r="HX17">
+        <v>7810</v>
+      </c>
+      <c r="HY17">
+        <v>75595</v>
+      </c>
+      <c r="HZ17">
+        <v>79366</v>
+      </c>
+      <c r="IA17">
+        <v>131</v>
+      </c>
+      <c r="IB17">
+        <v>1280</v>
+      </c>
+      <c r="IC17">
+        <v>4532</v>
+      </c>
+      <c r="ID17">
+        <v>80776</v>
+      </c>
+      <c r="IE17">
+        <v>121487</v>
+      </c>
+      <c r="IF17">
+        <v>305</v>
+      </c>
+      <c r="IG17">
+        <v>2268</v>
+      </c>
+      <c r="IH17">
+        <v>3840</v>
+      </c>
+      <c r="II17">
+        <v>2150</v>
+      </c>
+      <c r="IJ17">
+        <v>2307</v>
+      </c>
+      <c r="IK17">
+        <v>32</v>
+      </c>
+      <c r="IL17">
+        <v>201</v>
+      </c>
+      <c r="IM17">
         <v>13486</v>
       </c>
     </row>
@@ -14224,7 +14967,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45254</v>
+        <v>45255</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FA330-70D8-4ECB-B7E6-B440A50217A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C8D9D1-BE8B-4147-9F6A-98EE0CBC3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Information" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1729,10 +1728,10 @@
         <v>1461</v>
       </c>
       <c r="AG2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AH2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AI2">
         <v>760</v>
@@ -1786,10 +1785,10 @@
         <v>1461</v>
       </c>
       <c r="AZ2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="BA2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="BB2">
         <v>760</v>
@@ -1872,19 +1871,19 @@
         <v>30559</v>
       </c>
       <c r="W3">
-        <v>43744</v>
+        <v>43743</v>
       </c>
       <c r="X3">
-        <v>75257</v>
+        <v>75256</v>
       </c>
       <c r="Y3">
         <v>70914</v>
       </c>
       <c r="Z3">
-        <v>55517</v>
+        <v>55518</v>
       </c>
       <c r="AA3">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="AB3">
         <v>33830</v>
@@ -1893,25 +1892,25 @@
         <v>30113</v>
       </c>
       <c r="AD3">
-        <v>27886</v>
+        <v>27885</v>
       </c>
       <c r="AE3">
-        <v>22325</v>
+        <v>22323</v>
       </c>
       <c r="AF3">
-        <v>17081</v>
+        <v>17083</v>
       </c>
       <c r="AG3">
-        <v>11938</v>
+        <v>11936</v>
       </c>
       <c r="AH3">
-        <v>8405</v>
+        <v>8406</v>
       </c>
       <c r="AI3">
-        <v>5712</v>
+        <v>5710</v>
       </c>
       <c r="AJ3">
-        <v>3746</v>
+        <v>3750</v>
       </c>
       <c r="AK3">
         <v>3919</v>
@@ -1929,19 +1928,19 @@
         <v>31512</v>
       </c>
       <c r="AP3">
-        <v>45253</v>
+        <v>45252</v>
       </c>
       <c r="AQ3">
-        <v>78225</v>
+        <v>78224</v>
       </c>
       <c r="AR3">
         <v>74444</v>
       </c>
       <c r="AS3">
-        <v>58380</v>
+        <v>58381</v>
       </c>
       <c r="AT3">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="AU3">
         <v>35619</v>
@@ -1950,25 +1949,25 @@
         <v>32078</v>
       </c>
       <c r="AW3">
-        <v>29692</v>
+        <v>29691</v>
       </c>
       <c r="AX3">
-        <v>24003</v>
+        <v>24001</v>
       </c>
       <c r="AY3">
-        <v>18542</v>
+        <v>18544</v>
       </c>
       <c r="AZ3">
-        <v>12970</v>
+        <v>12967</v>
       </c>
       <c r="BA3">
-        <v>9316</v>
+        <v>9318</v>
       </c>
       <c r="BB3">
-        <v>6472</v>
+        <v>6470</v>
       </c>
       <c r="BC3">
-        <v>4386</v>
+        <v>4390</v>
       </c>
       <c r="BD3">
         <v>5363</v>
@@ -1982,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317731</v>
+        <v>10317783</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1997,7 +1996,7 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848177</v>
+        <v>848229</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2009,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885799</v>
+        <v>10885851</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2024,7 +2023,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867338</v>
+        <v>867390</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2036,118 +2035,118 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450551</v>
+        <v>450548</v>
       </c>
       <c r="U4">
         <v>611266</v>
       </c>
       <c r="V4">
-        <v>710191</v>
+        <v>710190</v>
       </c>
       <c r="W4">
-        <v>683395</v>
+        <v>683380</v>
       </c>
       <c r="X4">
-        <v>812072</v>
+        <v>812068</v>
       </c>
       <c r="Y4">
-        <v>899943</v>
+        <v>899937</v>
       </c>
       <c r="Z4">
-        <v>916980</v>
+        <v>916993</v>
       </c>
       <c r="AA4">
-        <v>908885</v>
+        <v>908878</v>
       </c>
       <c r="AB4">
-        <v>810321</v>
+        <v>810323</v>
       </c>
       <c r="AC4">
-        <v>717637</v>
+        <v>717640</v>
       </c>
       <c r="AD4">
-        <v>658693</v>
+        <v>658688</v>
       </c>
       <c r="AE4">
-        <v>544162</v>
+        <v>544137</v>
       </c>
       <c r="AF4">
-        <v>471573</v>
+        <v>471541</v>
       </c>
       <c r="AG4">
-        <v>349090</v>
+        <v>349088</v>
       </c>
       <c r="AH4">
-        <v>274367</v>
+        <v>274363</v>
       </c>
       <c r="AI4">
-        <v>197871</v>
+        <v>197907</v>
       </c>
       <c r="AJ4">
-        <v>128005</v>
+        <v>128053</v>
       </c>
       <c r="AK4">
-        <v>155521</v>
+        <v>155577</v>
       </c>
       <c r="AL4">
-        <v>17208</v>
+        <v>17206</v>
       </c>
       <c r="AM4">
-        <v>473801</v>
+        <v>473798</v>
       </c>
       <c r="AN4">
         <v>644467</v>
       </c>
       <c r="AO4">
-        <v>741703</v>
+        <v>741702</v>
       </c>
       <c r="AP4">
-        <v>728648</v>
+        <v>728632</v>
       </c>
       <c r="AQ4">
-        <v>890297</v>
+        <v>890292</v>
       </c>
       <c r="AR4">
-        <v>974387</v>
+        <v>974381</v>
       </c>
       <c r="AS4">
-        <v>975360</v>
+        <v>975374</v>
       </c>
       <c r="AT4">
-        <v>953874</v>
+        <v>953868</v>
       </c>
       <c r="AU4">
-        <v>845940</v>
+        <v>845942</v>
       </c>
       <c r="AV4">
-        <v>749715</v>
+        <v>749718</v>
       </c>
       <c r="AW4">
-        <v>688385</v>
+        <v>688379</v>
       </c>
       <c r="AX4">
-        <v>568165</v>
+        <v>568138</v>
       </c>
       <c r="AY4">
-        <v>490115</v>
+        <v>490085</v>
       </c>
       <c r="AZ4">
-        <v>362060</v>
+        <v>362055</v>
       </c>
       <c r="BA4">
-        <v>283683</v>
+        <v>283681</v>
       </c>
       <c r="BB4">
-        <v>204343</v>
+        <v>204377</v>
       </c>
       <c r="BC4">
-        <v>132391</v>
+        <v>132443</v>
       </c>
       <c r="BD4">
-        <v>160884</v>
+        <v>160940</v>
       </c>
       <c r="BE4">
-        <v>17581</v>
+        <v>17579</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -2155,25 +2154,25 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>808520</v>
+        <v>809772</v>
       </c>
       <c r="C5">
-        <v>293485</v>
+        <v>293960</v>
       </c>
       <c r="D5">
         <v>151358</v>
       </c>
       <c r="E5">
-        <v>128686</v>
+        <v>128949</v>
       </c>
       <c r="F5">
         <v>92192</v>
       </c>
       <c r="G5">
-        <v>85773</v>
+        <v>86158</v>
       </c>
       <c r="H5">
-        <v>28942</v>
+        <v>29071</v>
       </c>
       <c r="I5">
         <v>21905</v>
@@ -2182,25 +2181,25 @@
         <v>6179</v>
       </c>
       <c r="K5">
-        <v>11694319</v>
+        <v>11695623</v>
       </c>
       <c r="L5">
-        <v>3946879</v>
+        <v>3947354</v>
       </c>
       <c r="M5">
         <v>2992839</v>
       </c>
       <c r="N5">
-        <v>1748559</v>
+        <v>1748822</v>
       </c>
       <c r="O5">
         <v>1382058</v>
       </c>
       <c r="P5">
-        <v>953111</v>
+        <v>953548</v>
       </c>
       <c r="Q5">
-        <v>310485</v>
+        <v>310614</v>
       </c>
       <c r="R5">
         <v>250242</v>
@@ -2209,118 +2208,118 @@
         <v>110146</v>
       </c>
       <c r="T5">
-        <v>28454</v>
+        <v>28531</v>
       </c>
       <c r="U5">
-        <v>23498</v>
+        <v>23517</v>
       </c>
       <c r="V5">
-        <v>31762</v>
+        <v>31793</v>
       </c>
       <c r="W5">
-        <v>30886</v>
+        <v>30930</v>
       </c>
       <c r="X5">
-        <v>39688</v>
+        <v>39725</v>
       </c>
       <c r="Y5">
-        <v>51332</v>
+        <v>51400</v>
       </c>
       <c r="Z5">
-        <v>58192</v>
+        <v>58262</v>
       </c>
       <c r="AA5">
-        <v>64395</v>
+        <v>64461</v>
       </c>
       <c r="AB5">
-        <v>61896</v>
+        <v>61969</v>
       </c>
       <c r="AC5">
-        <v>56945</v>
+        <v>57017</v>
       </c>
       <c r="AD5">
-        <v>58113</v>
+        <v>58189</v>
       </c>
       <c r="AE5">
-        <v>53216</v>
+        <v>53304</v>
       </c>
       <c r="AF5">
-        <v>52338</v>
+        <v>52416</v>
       </c>
       <c r="AG5">
-        <v>44738</v>
+        <v>44825</v>
       </c>
       <c r="AH5">
-        <v>40718</v>
+        <v>40807</v>
       </c>
       <c r="AI5">
-        <v>35449</v>
+        <v>35534</v>
       </c>
       <c r="AJ5">
-        <v>28513</v>
+        <v>28591</v>
       </c>
       <c r="AK5">
-        <v>47792</v>
+        <v>47906</v>
       </c>
       <c r="AL5">
         <v>595</v>
       </c>
       <c r="AM5">
-        <v>502255</v>
+        <v>502329</v>
       </c>
       <c r="AN5">
-        <v>667965</v>
+        <v>667984</v>
       </c>
       <c r="AO5">
-        <v>773465</v>
+        <v>773495</v>
       </c>
       <c r="AP5">
-        <v>759534</v>
+        <v>759562</v>
       </c>
       <c r="AQ5">
-        <v>929985</v>
+        <v>930017</v>
       </c>
       <c r="AR5">
-        <v>1025719</v>
+        <v>1025781</v>
       </c>
       <c r="AS5">
-        <v>1033552</v>
+        <v>1033636</v>
       </c>
       <c r="AT5">
-        <v>1018269</v>
+        <v>1018329</v>
       </c>
       <c r="AU5">
-        <v>907836</v>
+        <v>907911</v>
       </c>
       <c r="AV5">
-        <v>806660</v>
+        <v>806735</v>
       </c>
       <c r="AW5">
-        <v>746498</v>
+        <v>746568</v>
       </c>
       <c r="AX5">
-        <v>621381</v>
+        <v>621442</v>
       </c>
       <c r="AY5">
-        <v>542453</v>
+        <v>542501</v>
       </c>
       <c r="AZ5">
-        <v>406798</v>
+        <v>406880</v>
       </c>
       <c r="BA5">
-        <v>324401</v>
+        <v>324488</v>
       </c>
       <c r="BB5">
-        <v>239792</v>
+        <v>239911</v>
       </c>
       <c r="BC5">
-        <v>160904</v>
+        <v>161034</v>
       </c>
       <c r="BD5">
-        <v>208676</v>
+        <v>208846</v>
       </c>
       <c r="BE5">
-        <v>18176</v>
+        <v>18174</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809572</v>
+        <v>1809592</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3835,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90035</v>
+        <v>90055</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3847,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377640</v>
+        <v>2377660</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3862,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109196</v>
+        <v>109216</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3879,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687525</v>
+        <v>687534</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3894,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44399</v>
+        <v>44408</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3906,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065165</v>
+        <v>3065194</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3921,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153595</v>
+        <v>153624</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3938,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366768</v>
+        <v>1366772</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3953,7 +3952,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120483</v>
+        <v>120487</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3965,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431933</v>
+        <v>4431966</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3980,7 +3979,7 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274078</v>
+        <v>274111</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3997,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339834</v>
+        <v>1339849</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4012,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139776</v>
+        <v>139791</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4024,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771767</v>
+        <v>5771815</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4039,7 +4038,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413854</v>
+        <v>413902</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4056,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310364</v>
+        <v>1310365</v>
       </c>
       <c r="C30" s="3">
         <v>297268</v>
@@ -4071,7 +4070,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108133</v>
+        <v>108134</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4083,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082131</v>
+        <v>7082180</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4098,7 +4097,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>521987</v>
+        <v>522036</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4115,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884292</v>
+        <v>884295</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4130,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77314</v>
+        <v>77317</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4142,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966423</v>
+        <v>7966475</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4157,7 +4156,7 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599301</v>
+        <v>599353</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4201,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216770</v>
+        <v>9216822</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4216,7 +4215,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716701</v>
+        <v>716753</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4260,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771631</v>
+        <v>9771683</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4275,7 +4274,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757212</v>
+        <v>757264</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4319,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965886</v>
+        <v>9965938</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4334,7 +4333,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772496</v>
+        <v>772548</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4378,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10107991</v>
+        <v>10108043</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4393,7 +4392,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785671</v>
+        <v>785723</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4437,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459931</v>
+        <v>10459983</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4452,7 +4451,7 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822833</v>
+        <v>822885</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4496,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885799</v>
+        <v>10885851</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4511,7 +4510,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867338</v>
+        <v>867390</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4555,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015877</v>
+        <v>11015929</v>
       </c>
       <c r="L38" s="3">
         <v>3699334</v>
@@ -4570,7 +4569,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879228</v>
+        <v>879280</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4614,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087866</v>
+        <v>11087918</v>
       </c>
       <c r="L39" s="3">
         <v>3724577</v>
@@ -4629,7 +4628,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886081</v>
+        <v>886133</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4673,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191845</v>
+        <v>11191897</v>
       </c>
       <c r="L40" s="3">
         <v>3763219</v>
@@ -4688,7 +4687,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897581</v>
+        <v>897633</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4732,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315011</v>
+        <v>11315063</v>
       </c>
       <c r="L41" s="3">
         <v>3810748</v>
@@ -4747,7 +4746,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909910</v>
+        <v>909962</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4791,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481264</v>
+        <v>11481316</v>
       </c>
       <c r="L42" s="3">
         <v>3872843</v>
@@ -4806,7 +4805,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924823</v>
+        <v>924875</v>
       </c>
       <c r="Q42" s="3">
         <v>299397</v>
@@ -4850,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559067</v>
+        <v>11559119</v>
       </c>
       <c r="L43" s="3">
         <v>3901025</v>
@@ -4865,7 +4864,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932037</v>
+        <v>932089</v>
       </c>
       <c r="Q43" s="3">
         <v>301983</v>
@@ -4909,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587267</v>
+        <v>11587319</v>
       </c>
       <c r="L44" s="3">
         <v>3911310</v>
@@ -4924,7 +4923,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>934966</v>
+        <v>935018</v>
       </c>
       <c r="Q44" s="3">
         <v>303256</v>
@@ -4968,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610683</v>
+        <v>11610735</v>
       </c>
       <c r="L45" s="3">
         <v>3920445</v>
@@ -4983,7 +4982,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937415</v>
+        <v>937467</v>
       </c>
       <c r="Q45" s="3">
         <v>304420</v>
@@ -5027,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632786</v>
+        <v>11632838</v>
       </c>
       <c r="L46" s="3">
         <v>3929408</v>
@@ -5042,7 +5041,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940448</v>
+        <v>940500</v>
       </c>
       <c r="Q46" s="3">
         <v>305623</v>
@@ -5086,7 +5085,7 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660680</v>
+        <v>11660732</v>
       </c>
       <c r="L47" s="3">
         <v>3937121</v>
@@ -5101,7 +5100,7 @@
         <v>1380652</v>
       </c>
       <c r="P47" s="3">
-        <v>945525</v>
+        <v>945577</v>
       </c>
       <c r="Q47" s="3">
         <v>307524</v>
@@ -5118,25 +5117,25 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>33639</v>
+        <v>34891</v>
       </c>
       <c r="C48" s="3">
-        <v>9758</v>
+        <v>10233</v>
       </c>
       <c r="D48" s="3">
         <v>4670</v>
       </c>
       <c r="E48" s="3">
-        <v>5137</v>
+        <v>5400</v>
       </c>
       <c r="F48" s="3">
         <v>1406</v>
       </c>
       <c r="G48" s="3">
-        <v>7586</v>
+        <v>7971</v>
       </c>
       <c r="H48" s="3">
-        <v>2961</v>
+        <v>3090</v>
       </c>
       <c r="I48" s="3">
         <v>1689</v>
@@ -5145,25 +5144,25 @@
         <v>432</v>
       </c>
       <c r="K48" s="3">
-        <v>11694319</v>
+        <v>11695623</v>
       </c>
       <c r="L48" s="3">
-        <v>3946879</v>
+        <v>3947354</v>
       </c>
       <c r="M48" s="3">
         <v>2992839</v>
       </c>
       <c r="N48" s="3">
-        <v>1748559</v>
+        <v>1748822</v>
       </c>
       <c r="O48" s="3">
         <v>1382058</v>
       </c>
       <c r="P48" s="3">
-        <v>953111</v>
+        <v>953548</v>
       </c>
       <c r="Q48" s="3">
-        <v>310485</v>
+        <v>310614</v>
       </c>
       <c r="R48" s="3">
         <v>250242</v>
@@ -5179,7 +5178,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM17"/>
+  <dimension ref="A1:IM19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14941,6 +14940,1492 @@
       </c>
       <c r="IM17">
         <v>13486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B18">
+        <v>867</v>
+      </c>
+      <c r="C18">
+        <v>295</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>263</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>180</v>
+      </c>
+      <c r="H18">
+        <v>129</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>11695186</v>
+      </c>
+      <c r="L18">
+        <v>3947174</v>
+      </c>
+      <c r="M18">
+        <v>2992839</v>
+      </c>
+      <c r="N18">
+        <v>1748822</v>
+      </c>
+      <c r="O18">
+        <v>1382058</v>
+      </c>
+      <c r="P18">
+        <v>953291</v>
+      </c>
+      <c r="Q18">
+        <v>310614</v>
+      </c>
+      <c r="R18">
+        <v>250242</v>
+      </c>
+      <c r="S18">
+        <v>110146</v>
+      </c>
+      <c r="T18">
+        <v>52</v>
+      </c>
+      <c r="U18">
+        <v>15</v>
+      </c>
+      <c r="V18">
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <v>34</v>
+      </c>
+      <c r="X18">
+        <v>34</v>
+      </c>
+      <c r="Y18">
+        <v>39</v>
+      </c>
+      <c r="Z18">
+        <v>53</v>
+      </c>
+      <c r="AA18">
+        <v>45</v>
+      </c>
+      <c r="AB18">
+        <v>45</v>
+      </c>
+      <c r="AC18">
+        <v>57</v>
+      </c>
+      <c r="AD18">
+        <v>55</v>
+      </c>
+      <c r="AE18">
+        <v>57</v>
+      </c>
+      <c r="AF18">
+        <v>60</v>
+      </c>
+      <c r="AG18">
+        <v>64</v>
+      </c>
+      <c r="AH18">
+        <v>57</v>
+      </c>
+      <c r="AI18">
+        <v>59</v>
+      </c>
+      <c r="AJ18">
+        <v>57</v>
+      </c>
+      <c r="AK18">
+        <v>66</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>502307</v>
+      </c>
+      <c r="AN18">
+        <v>667980</v>
+      </c>
+      <c r="AO18">
+        <v>773483</v>
+      </c>
+      <c r="AP18">
+        <v>759568</v>
+      </c>
+      <c r="AQ18">
+        <v>930019</v>
+      </c>
+      <c r="AR18">
+        <v>1025758</v>
+      </c>
+      <c r="AS18">
+        <v>1033605</v>
+      </c>
+      <c r="AT18">
+        <v>1018314</v>
+      </c>
+      <c r="AU18">
+        <v>907881</v>
+      </c>
+      <c r="AV18">
+        <v>806717</v>
+      </c>
+      <c r="AW18">
+        <v>746553</v>
+      </c>
+      <c r="AX18">
+        <v>621438</v>
+      </c>
+      <c r="AY18">
+        <v>542513</v>
+      </c>
+      <c r="AZ18">
+        <v>406862</v>
+      </c>
+      <c r="BA18">
+        <v>324458</v>
+      </c>
+      <c r="BB18">
+        <v>239851</v>
+      </c>
+      <c r="BC18">
+        <v>160961</v>
+      </c>
+      <c r="BD18">
+        <v>208742</v>
+      </c>
+      <c r="BE18">
+        <v>18176</v>
+      </c>
+      <c r="BF18">
+        <v>24</v>
+      </c>
+      <c r="BG18">
+        <v>27</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>8</v>
+      </c>
+      <c r="BL18">
+        <v>7</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>9</v>
+      </c>
+      <c r="BQ18">
+        <v>9</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>15</v>
+      </c>
+      <c r="BV18">
+        <v>19</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>15</v>
+      </c>
+      <c r="CA18">
+        <v>19</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>12</v>
+      </c>
+      <c r="CF18">
+        <v>27</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>15</v>
+      </c>
+      <c r="CK18">
+        <v>38</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <v>20</v>
+      </c>
+      <c r="CP18">
+        <v>25</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18">
+        <v>22</v>
+      </c>
+      <c r="CU18">
+        <v>23</v>
+      </c>
+      <c r="CV18">
+        <v>0</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>20</v>
+      </c>
+      <c r="CZ18">
+        <v>37</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DB18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DD18">
+        <v>28</v>
+      </c>
+      <c r="DE18">
+        <v>27</v>
+      </c>
+      <c r="DF18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DH18">
+        <v>0</v>
+      </c>
+      <c r="DI18">
+        <v>21</v>
+      </c>
+      <c r="DJ18">
+        <v>36</v>
+      </c>
+      <c r="DK18">
+        <v>0</v>
+      </c>
+      <c r="DL18">
+        <v>0</v>
+      </c>
+      <c r="DM18">
+        <v>0</v>
+      </c>
+      <c r="DN18">
+        <v>26</v>
+      </c>
+      <c r="DO18">
+        <v>34</v>
+      </c>
+      <c r="DP18">
+        <v>0</v>
+      </c>
+      <c r="DQ18">
+        <v>0</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18">
+        <v>25</v>
+      </c>
+      <c r="DT18">
+        <v>39</v>
+      </c>
+      <c r="DU18">
+        <v>0</v>
+      </c>
+      <c r="DV18">
+        <v>0</v>
+      </c>
+      <c r="DW18">
+        <v>0</v>
+      </c>
+      <c r="DX18">
+        <v>28</v>
+      </c>
+      <c r="DY18">
+        <v>29</v>
+      </c>
+      <c r="DZ18">
+        <v>0</v>
+      </c>
+      <c r="EA18">
+        <v>0</v>
+      </c>
+      <c r="EB18">
+        <v>0</v>
+      </c>
+      <c r="EC18">
+        <v>26</v>
+      </c>
+      <c r="ED18">
+        <v>33</v>
+      </c>
+      <c r="EE18">
+        <v>0</v>
+      </c>
+      <c r="EF18">
+        <v>0</v>
+      </c>
+      <c r="EG18">
+        <v>0</v>
+      </c>
+      <c r="EH18">
+        <v>30</v>
+      </c>
+      <c r="EI18">
+        <v>27</v>
+      </c>
+      <c r="EJ18">
+        <v>0</v>
+      </c>
+      <c r="EK18">
+        <v>0</v>
+      </c>
+      <c r="EL18">
+        <v>0</v>
+      </c>
+      <c r="EM18">
+        <v>30</v>
+      </c>
+      <c r="EN18">
+        <v>36</v>
+      </c>
+      <c r="EO18">
+        <v>0</v>
+      </c>
+      <c r="EP18">
+        <v>0</v>
+      </c>
+      <c r="EQ18">
+        <v>0</v>
+      </c>
+      <c r="ER18">
+        <v>0</v>
+      </c>
+      <c r="ES18">
+        <v>0</v>
+      </c>
+      <c r="ET18">
+        <v>0</v>
+      </c>
+      <c r="EU18">
+        <v>0</v>
+      </c>
+      <c r="EV18">
+        <v>0</v>
+      </c>
+      <c r="EW18">
+        <v>231234</v>
+      </c>
+      <c r="EX18">
+        <v>219566</v>
+      </c>
+      <c r="EY18">
+        <v>408</v>
+      </c>
+      <c r="EZ18">
+        <v>15452</v>
+      </c>
+      <c r="FA18">
+        <v>35647</v>
+      </c>
+      <c r="FB18">
+        <v>308021</v>
+      </c>
+      <c r="FC18">
+        <v>292687</v>
+      </c>
+      <c r="FD18">
+        <v>466</v>
+      </c>
+      <c r="FE18">
+        <v>16773</v>
+      </c>
+      <c r="FF18">
+        <v>50033</v>
+      </c>
+      <c r="FG18">
+        <v>353229</v>
+      </c>
+      <c r="FH18">
+        <v>342583</v>
+      </c>
+      <c r="FI18">
+        <v>633</v>
+      </c>
+      <c r="FJ18">
+        <v>16955</v>
+      </c>
+      <c r="FK18">
+        <v>60083</v>
+      </c>
+      <c r="FL18">
+        <v>326220</v>
+      </c>
+      <c r="FM18">
+        <v>373696</v>
+      </c>
+      <c r="FN18">
+        <v>894</v>
+      </c>
+      <c r="FO18">
+        <v>12937</v>
+      </c>
+      <c r="FP18">
+        <v>45821</v>
+      </c>
+      <c r="FQ18">
+        <v>391897</v>
+      </c>
+      <c r="FR18">
+        <v>479329</v>
+      </c>
+      <c r="FS18">
+        <v>1100</v>
+      </c>
+      <c r="FT18">
+        <v>16279</v>
+      </c>
+      <c r="FU18">
+        <v>41414</v>
+      </c>
+      <c r="FV18">
+        <v>433661</v>
+      </c>
+      <c r="FW18">
+        <v>525664</v>
+      </c>
+      <c r="FX18">
+        <v>1136</v>
+      </c>
+      <c r="FY18">
+        <v>17786</v>
+      </c>
+      <c r="FZ18">
+        <v>47511</v>
+      </c>
+      <c r="GA18">
+        <v>428987</v>
+      </c>
+      <c r="GB18">
+        <v>531709</v>
+      </c>
+      <c r="GC18">
+        <v>922</v>
+      </c>
+      <c r="GD18">
+        <v>17168</v>
+      </c>
+      <c r="GE18">
+        <v>54819</v>
+      </c>
+      <c r="GF18">
+        <v>419531</v>
+      </c>
+      <c r="GG18">
+        <v>524261</v>
+      </c>
+      <c r="GH18">
+        <v>664</v>
+      </c>
+      <c r="GI18">
+        <v>15034</v>
+      </c>
+      <c r="GJ18">
+        <v>58824</v>
+      </c>
+      <c r="GK18">
+        <v>373334</v>
+      </c>
+      <c r="GL18">
+        <v>468538</v>
+      </c>
+      <c r="GM18">
+        <v>498</v>
+      </c>
+      <c r="GN18">
+        <v>12349</v>
+      </c>
+      <c r="GO18">
+        <v>53162</v>
+      </c>
+      <c r="GP18">
+        <v>330122</v>
+      </c>
+      <c r="GQ18">
+        <v>420705</v>
+      </c>
+      <c r="GR18">
+        <v>439</v>
+      </c>
+      <c r="GS18">
+        <v>10130</v>
+      </c>
+      <c r="GT18">
+        <v>45321</v>
+      </c>
+      <c r="GU18">
+        <v>307909</v>
+      </c>
+      <c r="GV18">
+        <v>389032</v>
+      </c>
+      <c r="GW18">
+        <v>399</v>
+      </c>
+      <c r="GX18">
+        <v>8954</v>
+      </c>
+      <c r="GY18">
+        <v>40259</v>
+      </c>
+      <c r="GZ18">
+        <v>263315</v>
+      </c>
+      <c r="HA18">
+        <v>319437</v>
+      </c>
+      <c r="HB18">
+        <v>329</v>
+      </c>
+      <c r="HC18">
+        <v>6610</v>
+      </c>
+      <c r="HD18">
+        <v>31747</v>
+      </c>
+      <c r="HE18">
+        <v>234214</v>
+      </c>
+      <c r="HF18">
+        <v>276787</v>
+      </c>
+      <c r="HG18">
+        <v>234</v>
+      </c>
+      <c r="HH18">
+        <v>5318</v>
+      </c>
+      <c r="HI18">
+        <v>25960</v>
+      </c>
+      <c r="HJ18">
+        <v>180536</v>
+      </c>
+      <c r="HK18">
+        <v>203928</v>
+      </c>
+      <c r="HL18">
+        <v>199</v>
+      </c>
+      <c r="HM18">
+        <v>3679</v>
+      </c>
+      <c r="HN18">
+        <v>18520</v>
+      </c>
+      <c r="HO18">
+        <v>151278</v>
+      </c>
+      <c r="HP18">
+        <v>157977</v>
+      </c>
+      <c r="HQ18">
+        <v>163</v>
+      </c>
+      <c r="HR18">
+        <v>2689</v>
+      </c>
+      <c r="HS18">
+        <v>12351</v>
+      </c>
+      <c r="HT18">
+        <v>115594</v>
+      </c>
+      <c r="HU18">
+        <v>114389</v>
+      </c>
+      <c r="HV18">
+        <v>164</v>
+      </c>
+      <c r="HW18">
+        <v>1894</v>
+      </c>
+      <c r="HX18">
+        <v>7810</v>
+      </c>
+      <c r="HY18">
+        <v>75625</v>
+      </c>
+      <c r="HZ18">
+        <v>79393</v>
+      </c>
+      <c r="IA18">
+        <v>131</v>
+      </c>
+      <c r="IB18">
+        <v>1280</v>
+      </c>
+      <c r="IC18">
+        <v>4532</v>
+      </c>
+      <c r="ID18">
+        <v>80806</v>
+      </c>
+      <c r="IE18">
+        <v>121523</v>
+      </c>
+      <c r="IF18">
+        <v>305</v>
+      </c>
+      <c r="IG18">
+        <v>2268</v>
+      </c>
+      <c r="IH18">
+        <v>3840</v>
+      </c>
+      <c r="II18">
+        <v>2150</v>
+      </c>
+      <c r="IJ18">
+        <v>2307</v>
+      </c>
+      <c r="IK18">
+        <v>32</v>
+      </c>
+      <c r="IL18">
+        <v>201</v>
+      </c>
+      <c r="IM18">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B19">
+        <v>437</v>
+      </c>
+      <c r="C19">
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>257</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>11695623</v>
+      </c>
+      <c r="L19">
+        <v>3947354</v>
+      </c>
+      <c r="M19">
+        <v>2992839</v>
+      </c>
+      <c r="N19">
+        <v>1748822</v>
+      </c>
+      <c r="O19">
+        <v>1382058</v>
+      </c>
+      <c r="P19">
+        <v>953548</v>
+      </c>
+      <c r="Q19">
+        <v>310614</v>
+      </c>
+      <c r="R19">
+        <v>250242</v>
+      </c>
+      <c r="S19">
+        <v>110146</v>
+      </c>
+      <c r="T19">
+        <v>22</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>12</v>
+      </c>
+      <c r="W19">
+        <v>-6</v>
+      </c>
+      <c r="X19">
+        <v>-2</v>
+      </c>
+      <c r="Y19">
+        <v>23</v>
+      </c>
+      <c r="Z19">
+        <v>31</v>
+      </c>
+      <c r="AA19">
+        <v>15</v>
+      </c>
+      <c r="AB19">
+        <v>30</v>
+      </c>
+      <c r="AC19">
+        <v>18</v>
+      </c>
+      <c r="AD19">
+        <v>15</v>
+      </c>
+      <c r="AE19">
+        <v>4</v>
+      </c>
+      <c r="AF19">
+        <v>-12</v>
+      </c>
+      <c r="AG19">
+        <v>18</v>
+      </c>
+      <c r="AH19">
+        <v>30</v>
+      </c>
+      <c r="AI19">
+        <v>60</v>
+      </c>
+      <c r="AJ19">
+        <v>73</v>
+      </c>
+      <c r="AK19">
+        <v>104</v>
+      </c>
+      <c r="AL19">
+        <v>-2</v>
+      </c>
+      <c r="AM19">
+        <v>502329</v>
+      </c>
+      <c r="AN19">
+        <v>667984</v>
+      </c>
+      <c r="AO19">
+        <v>773495</v>
+      </c>
+      <c r="AP19">
+        <v>759562</v>
+      </c>
+      <c r="AQ19">
+        <v>930017</v>
+      </c>
+      <c r="AR19">
+        <v>1025781</v>
+      </c>
+      <c r="AS19">
+        <v>1033636</v>
+      </c>
+      <c r="AT19">
+        <v>1018329</v>
+      </c>
+      <c r="AU19">
+        <v>907911</v>
+      </c>
+      <c r="AV19">
+        <v>806735</v>
+      </c>
+      <c r="AW19">
+        <v>746568</v>
+      </c>
+      <c r="AX19">
+        <v>621442</v>
+      </c>
+      <c r="AY19">
+        <v>542501</v>
+      </c>
+      <c r="AZ19">
+        <v>406880</v>
+      </c>
+      <c r="BA19">
+        <v>324488</v>
+      </c>
+      <c r="BB19">
+        <v>239911</v>
+      </c>
+      <c r="BC19">
+        <v>161034</v>
+      </c>
+      <c r="BD19">
+        <v>208846</v>
+      </c>
+      <c r="BE19">
+        <v>18174</v>
+      </c>
+      <c r="BF19">
+        <v>11</v>
+      </c>
+      <c r="BG19">
+        <v>11</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>1</v>
+      </c>
+      <c r="BL19">
+        <v>3</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>8</v>
+      </c>
+      <c r="BQ19">
+        <v>4</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>2</v>
+      </c>
+      <c r="BV19">
+        <v>-8</v>
+      </c>
+      <c r="BW19">
+        <v>0</v>
+      </c>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BY19">
+        <v>0</v>
+      </c>
+      <c r="BZ19">
+        <v>-10</v>
+      </c>
+      <c r="CA19">
+        <v>8</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>6</v>
+      </c>
+      <c r="CF19">
+        <v>17</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>10</v>
+      </c>
+      <c r="CK19">
+        <v>21</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
+      <c r="CO19">
+        <v>-2</v>
+      </c>
+      <c r="CP19">
+        <v>17</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19">
+        <v>21</v>
+      </c>
+      <c r="CU19">
+        <v>9</v>
+      </c>
+      <c r="CV19">
+        <v>0</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>3</v>
+      </c>
+      <c r="CZ19">
+        <v>15</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DB19">
+        <v>0</v>
+      </c>
+      <c r="DC19">
+        <v>0</v>
+      </c>
+      <c r="DD19">
+        <v>2</v>
+      </c>
+      <c r="DE19">
+        <v>13</v>
+      </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0</v>
+      </c>
+      <c r="DI19">
+        <v>-4</v>
+      </c>
+      <c r="DJ19">
+        <v>8</v>
+      </c>
+      <c r="DK19">
+        <v>0</v>
+      </c>
+      <c r="DL19">
+        <v>0</v>
+      </c>
+      <c r="DM19">
+        <v>0</v>
+      </c>
+      <c r="DN19">
+        <v>-7</v>
+      </c>
+      <c r="DO19">
+        <v>-4</v>
+      </c>
+      <c r="DP19">
+        <v>0</v>
+      </c>
+      <c r="DQ19">
+        <v>0</v>
+      </c>
+      <c r="DR19">
+        <v>-1</v>
+      </c>
+      <c r="DS19">
+        <v>13</v>
+      </c>
+      <c r="DT19">
+        <v>3</v>
+      </c>
+      <c r="DU19">
+        <v>0</v>
+      </c>
+      <c r="DV19">
+        <v>2</v>
+      </c>
+      <c r="DW19">
+        <v>0</v>
+      </c>
+      <c r="DX19">
+        <v>15</v>
+      </c>
+      <c r="DY19">
+        <v>15</v>
+      </c>
+      <c r="DZ19">
+        <v>0</v>
+      </c>
+      <c r="EA19">
+        <v>2</v>
+      </c>
+      <c r="EB19">
+        <v>-2</v>
+      </c>
+      <c r="EC19">
+        <v>24</v>
+      </c>
+      <c r="ED19">
+        <v>37</v>
+      </c>
+      <c r="EE19">
+        <v>0</v>
+      </c>
+      <c r="EF19">
+        <v>-1</v>
+      </c>
+      <c r="EG19">
+        <v>0</v>
+      </c>
+      <c r="EH19">
+        <v>33</v>
+      </c>
+      <c r="EI19">
+        <v>39</v>
+      </c>
+      <c r="EJ19">
+        <v>0</v>
+      </c>
+      <c r="EK19">
+        <v>2</v>
+      </c>
+      <c r="EL19">
+        <v>-1</v>
+      </c>
+      <c r="EM19">
+        <v>47</v>
+      </c>
+      <c r="EN19">
+        <v>57</v>
+      </c>
+      <c r="EO19">
+        <v>0</v>
+      </c>
+      <c r="EP19">
+        <v>1</v>
+      </c>
+      <c r="EQ19">
+        <v>-1</v>
+      </c>
+      <c r="ER19">
+        <v>0</v>
+      </c>
+      <c r="ES19">
+        <v>0</v>
+      </c>
+      <c r="ET19">
+        <v>0</v>
+      </c>
+      <c r="EU19">
+        <v>0</v>
+      </c>
+      <c r="EV19">
+        <v>-2</v>
+      </c>
+      <c r="EW19">
+        <v>231245</v>
+      </c>
+      <c r="EX19">
+        <v>219577</v>
+      </c>
+      <c r="EY19">
+        <v>408</v>
+      </c>
+      <c r="EZ19">
+        <v>15452</v>
+      </c>
+      <c r="FA19">
+        <v>35647</v>
+      </c>
+      <c r="FB19">
+        <v>308022</v>
+      </c>
+      <c r="FC19">
+        <v>292690</v>
+      </c>
+      <c r="FD19">
+        <v>466</v>
+      </c>
+      <c r="FE19">
+        <v>16773</v>
+      </c>
+      <c r="FF19">
+        <v>50033</v>
+      </c>
+      <c r="FG19">
+        <v>353237</v>
+      </c>
+      <c r="FH19">
+        <v>342587</v>
+      </c>
+      <c r="FI19">
+        <v>633</v>
+      </c>
+      <c r="FJ19">
+        <v>16955</v>
+      </c>
+      <c r="FK19">
+        <v>60083</v>
+      </c>
+      <c r="FL19">
+        <v>326222</v>
+      </c>
+      <c r="FM19">
+        <v>373688</v>
+      </c>
+      <c r="FN19">
+        <v>894</v>
+      </c>
+      <c r="FO19">
+        <v>12937</v>
+      </c>
+      <c r="FP19">
+        <v>45821</v>
+      </c>
+      <c r="FQ19">
+        <v>391887</v>
+      </c>
+      <c r="FR19">
+        <v>479337</v>
+      </c>
+      <c r="FS19">
+        <v>1100</v>
+      </c>
+      <c r="FT19">
+        <v>16279</v>
+      </c>
+      <c r="FU19">
+        <v>41414</v>
+      </c>
+      <c r="FV19">
+        <v>433667</v>
+      </c>
+      <c r="FW19">
+        <v>525681</v>
+      </c>
+      <c r="FX19">
+        <v>1136</v>
+      </c>
+      <c r="FY19">
+        <v>17786</v>
+      </c>
+      <c r="FZ19">
+        <v>47511</v>
+      </c>
+      <c r="GA19">
+        <v>428997</v>
+      </c>
+      <c r="GB19">
+        <v>531730</v>
+      </c>
+      <c r="GC19">
+        <v>922</v>
+      </c>
+      <c r="GD19">
+        <v>17168</v>
+      </c>
+      <c r="GE19">
+        <v>54819</v>
+      </c>
+      <c r="GF19">
+        <v>419529</v>
+      </c>
+      <c r="GG19">
+        <v>524278</v>
+      </c>
+      <c r="GH19">
+        <v>664</v>
+      </c>
+      <c r="GI19">
+        <v>15034</v>
+      </c>
+      <c r="GJ19">
+        <v>58824</v>
+      </c>
+      <c r="GK19">
+        <v>373355</v>
+      </c>
+      <c r="GL19">
+        <v>468547</v>
+      </c>
+      <c r="GM19">
+        <v>498</v>
+      </c>
+      <c r="GN19">
+        <v>12349</v>
+      </c>
+      <c r="GO19">
+        <v>53162</v>
+      </c>
+      <c r="GP19">
+        <v>330125</v>
+      </c>
+      <c r="GQ19">
+        <v>420720</v>
+      </c>
+      <c r="GR19">
+        <v>439</v>
+      </c>
+      <c r="GS19">
+        <v>10130</v>
+      </c>
+      <c r="GT19">
+        <v>45321</v>
+      </c>
+      <c r="GU19">
+        <v>307911</v>
+      </c>
+      <c r="GV19">
+        <v>389045</v>
+      </c>
+      <c r="GW19">
+        <v>399</v>
+      </c>
+      <c r="GX19">
+        <v>8954</v>
+      </c>
+      <c r="GY19">
+        <v>40259</v>
+      </c>
+      <c r="GZ19">
+        <v>263311</v>
+      </c>
+      <c r="HA19">
+        <v>319445</v>
+      </c>
+      <c r="HB19">
+        <v>329</v>
+      </c>
+      <c r="HC19">
+        <v>6610</v>
+      </c>
+      <c r="HD19">
+        <v>31747</v>
+      </c>
+      <c r="HE19">
+        <v>234207</v>
+      </c>
+      <c r="HF19">
+        <v>276783</v>
+      </c>
+      <c r="HG19">
+        <v>234</v>
+      </c>
+      <c r="HH19">
+        <v>5318</v>
+      </c>
+      <c r="HI19">
+        <v>25959</v>
+      </c>
+      <c r="HJ19">
+        <v>180549</v>
+      </c>
+      <c r="HK19">
+        <v>203931</v>
+      </c>
+      <c r="HL19">
+        <v>199</v>
+      </c>
+      <c r="HM19">
+        <v>3681</v>
+      </c>
+      <c r="HN19">
+        <v>18520</v>
+      </c>
+      <c r="HO19">
+        <v>151293</v>
+      </c>
+      <c r="HP19">
+        <v>157992</v>
+      </c>
+      <c r="HQ19">
+        <v>163</v>
+      </c>
+      <c r="HR19">
+        <v>2691</v>
+      </c>
+      <c r="HS19">
+        <v>12349</v>
+      </c>
+      <c r="HT19">
+        <v>115618</v>
+      </c>
+      <c r="HU19">
+        <v>114426</v>
+      </c>
+      <c r="HV19">
+        <v>164</v>
+      </c>
+      <c r="HW19">
+        <v>1893</v>
+      </c>
+      <c r="HX19">
+        <v>7810</v>
+      </c>
+      <c r="HY19">
+        <v>75658</v>
+      </c>
+      <c r="HZ19">
+        <v>79432</v>
+      </c>
+      <c r="IA19">
+        <v>131</v>
+      </c>
+      <c r="IB19">
+        <v>1282</v>
+      </c>
+      <c r="IC19">
+        <v>4531</v>
+      </c>
+      <c r="ID19">
+        <v>80853</v>
+      </c>
+      <c r="IE19">
+        <v>121580</v>
+      </c>
+      <c r="IF19">
+        <v>305</v>
+      </c>
+      <c r="IG19">
+        <v>2269</v>
+      </c>
+      <c r="IH19">
+        <v>3839</v>
+      </c>
+      <c r="II19">
+        <v>2150</v>
+      </c>
+      <c r="IJ19">
+        <v>2307</v>
+      </c>
+      <c r="IK19">
+        <v>32</v>
+      </c>
+      <c r="IL19">
+        <v>201</v>
+      </c>
+      <c r="IM19">
+        <v>13484</v>
       </c>
     </row>
   </sheetData>
@@ -14967,7 +16452,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45255</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C8D9D1-BE8B-4147-9F6A-98EE0CBC3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803E366A-3B49-4C14-84B9-6B7ABFA3FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1874,10 +1874,10 @@
         <v>43743</v>
       </c>
       <c r="X3">
-        <v>75256</v>
+        <v>75255</v>
       </c>
       <c r="Y3">
-        <v>70914</v>
+        <v>70915</v>
       </c>
       <c r="Z3">
         <v>55518</v>
@@ -1931,10 +1931,10 @@
         <v>45252</v>
       </c>
       <c r="AQ3">
-        <v>78224</v>
+        <v>78223</v>
       </c>
       <c r="AR3">
-        <v>74444</v>
+        <v>74445</v>
       </c>
       <c r="AS3">
         <v>58381</v>
@@ -1981,13 +1981,13 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317783</v>
+        <v>10317786</v>
       </c>
       <c r="C4">
         <v>3368111</v>
       </c>
       <c r="D4">
-        <v>2621354</v>
+        <v>2621355</v>
       </c>
       <c r="E4">
         <v>1586962</v>
@@ -1996,7 +1996,7 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848229</v>
+        <v>848231</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,13 +2008,13 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885851</v>
+        <v>10885854</v>
       </c>
       <c r="L4">
         <v>3653394</v>
       </c>
       <c r="M4">
-        <v>2841481</v>
+        <v>2841482</v>
       </c>
       <c r="N4">
         <v>1619873</v>
@@ -2023,7 +2023,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867390</v>
+        <v>867392</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,115 +2035,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450548</v>
+        <v>450547</v>
       </c>
       <c r="U4">
         <v>611266</v>
       </c>
       <c r="V4">
-        <v>710190</v>
+        <v>710184</v>
       </c>
       <c r="W4">
-        <v>683380</v>
+        <v>683383</v>
       </c>
       <c r="X4">
-        <v>812068</v>
+        <v>812067</v>
       </c>
       <c r="Y4">
-        <v>899937</v>
+        <v>899939</v>
       </c>
       <c r="Z4">
-        <v>916993</v>
+        <v>916985</v>
       </c>
       <c r="AA4">
-        <v>908878</v>
+        <v>908885</v>
       </c>
       <c r="AB4">
-        <v>810323</v>
+        <v>810320</v>
       </c>
       <c r="AC4">
-        <v>717640</v>
+        <v>717641</v>
       </c>
       <c r="AD4">
-        <v>658688</v>
+        <v>658694</v>
       </c>
       <c r="AE4">
-        <v>544137</v>
+        <v>544136</v>
       </c>
       <c r="AF4">
-        <v>471541</v>
+        <v>471542</v>
       </c>
       <c r="AG4">
         <v>349088</v>
       </c>
       <c r="AH4">
-        <v>274363</v>
+        <v>274364</v>
       </c>
       <c r="AI4">
-        <v>197907</v>
+        <v>197906</v>
       </c>
       <c r="AJ4">
-        <v>128053</v>
+        <v>128055</v>
       </c>
       <c r="AK4">
-        <v>155577</v>
+        <v>155578</v>
       </c>
       <c r="AL4">
         <v>17206</v>
       </c>
       <c r="AM4">
-        <v>473798</v>
+        <v>473797</v>
       </c>
       <c r="AN4">
         <v>644467</v>
       </c>
       <c r="AO4">
-        <v>741702</v>
+        <v>741696</v>
       </c>
       <c r="AP4">
-        <v>728632</v>
+        <v>728635</v>
       </c>
       <c r="AQ4">
-        <v>890292</v>
+        <v>890290</v>
       </c>
       <c r="AR4">
-        <v>974381</v>
+        <v>974384</v>
       </c>
       <c r="AS4">
-        <v>975374</v>
+        <v>975366</v>
       </c>
       <c r="AT4">
-        <v>953868</v>
+        <v>953875</v>
       </c>
       <c r="AU4">
-        <v>845942</v>
+        <v>845939</v>
       </c>
       <c r="AV4">
-        <v>749718</v>
+        <v>749719</v>
       </c>
       <c r="AW4">
-        <v>688379</v>
+        <v>688385</v>
       </c>
       <c r="AX4">
-        <v>568138</v>
+        <v>568137</v>
       </c>
       <c r="AY4">
-        <v>490085</v>
+        <v>490086</v>
       </c>
       <c r="AZ4">
         <v>362055</v>
       </c>
       <c r="BA4">
-        <v>283681</v>
+        <v>283682</v>
       </c>
       <c r="BB4">
-        <v>204377</v>
+        <v>204376</v>
       </c>
       <c r="BC4">
-        <v>132443</v>
+        <v>132445</v>
       </c>
       <c r="BD4">
-        <v>160940</v>
+        <v>160941</v>
       </c>
       <c r="BE4">
         <v>17579</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>809772</v>
+        <v>811567</v>
       </c>
       <c r="C5">
-        <v>293960</v>
+        <v>294379</v>
       </c>
       <c r="D5">
-        <v>151358</v>
+        <v>151856</v>
       </c>
       <c r="E5">
-        <v>128949</v>
+        <v>129308</v>
       </c>
       <c r="F5">
-        <v>92192</v>
+        <v>92194</v>
       </c>
       <c r="G5">
-        <v>86158</v>
+        <v>86466</v>
       </c>
       <c r="H5">
         <v>29071</v>
       </c>
       <c r="I5">
-        <v>21905</v>
+        <v>22077</v>
       </c>
       <c r="J5">
-        <v>6179</v>
+        <v>6216</v>
       </c>
       <c r="K5">
-        <v>11695623</v>
+        <v>11697421</v>
       </c>
       <c r="L5">
-        <v>3947354</v>
+        <v>3947773</v>
       </c>
       <c r="M5">
-        <v>2992839</v>
+        <v>2993338</v>
       </c>
       <c r="N5">
-        <v>1748822</v>
+        <v>1749181</v>
       </c>
       <c r="O5">
-        <v>1382058</v>
+        <v>1382060</v>
       </c>
       <c r="P5">
-        <v>953548</v>
+        <v>953858</v>
       </c>
       <c r="Q5">
         <v>310614</v>
       </c>
       <c r="R5">
-        <v>250242</v>
+        <v>250414</v>
       </c>
       <c r="S5">
-        <v>110146</v>
+        <v>110183</v>
       </c>
       <c r="T5">
-        <v>28531</v>
+        <v>28645</v>
       </c>
       <c r="U5">
-        <v>23517</v>
+        <v>23545</v>
       </c>
       <c r="V5">
-        <v>31793</v>
+        <v>31817</v>
       </c>
       <c r="W5">
-        <v>30930</v>
+        <v>30987</v>
       </c>
       <c r="X5">
-        <v>39725</v>
+        <v>39784</v>
       </c>
       <c r="Y5">
-        <v>51400</v>
+        <v>51497</v>
       </c>
       <c r="Z5">
-        <v>58262</v>
+        <v>58349</v>
       </c>
       <c r="AA5">
-        <v>64461</v>
+        <v>64561</v>
       </c>
       <c r="AB5">
-        <v>61969</v>
+        <v>62050</v>
       </c>
       <c r="AC5">
-        <v>57017</v>
+        <v>57090</v>
       </c>
       <c r="AD5">
-        <v>58189</v>
+        <v>58286</v>
       </c>
       <c r="AE5">
-        <v>53304</v>
+        <v>53390</v>
       </c>
       <c r="AF5">
-        <v>52416</v>
+        <v>52508</v>
       </c>
       <c r="AG5">
-        <v>44825</v>
+        <v>44917</v>
       </c>
       <c r="AH5">
-        <v>40807</v>
+        <v>40928</v>
       </c>
       <c r="AI5">
-        <v>35534</v>
+        <v>35659</v>
       </c>
       <c r="AJ5">
-        <v>28591</v>
+        <v>28693</v>
       </c>
       <c r="AK5">
-        <v>47906</v>
+        <v>48075</v>
       </c>
       <c r="AL5">
-        <v>595</v>
+        <v>786</v>
       </c>
       <c r="AM5">
-        <v>502329</v>
+        <v>502442</v>
       </c>
       <c r="AN5">
-        <v>667984</v>
+        <v>668012</v>
       </c>
       <c r="AO5">
-        <v>773495</v>
+        <v>773513</v>
       </c>
       <c r="AP5">
-        <v>759562</v>
+        <v>759622</v>
       </c>
       <c r="AQ5">
-        <v>930017</v>
+        <v>930074</v>
       </c>
       <c r="AR5">
-        <v>1025781</v>
+        <v>1025881</v>
       </c>
       <c r="AS5">
-        <v>1033636</v>
+        <v>1033715</v>
       </c>
       <c r="AT5">
-        <v>1018329</v>
+        <v>1018436</v>
       </c>
       <c r="AU5">
-        <v>907911</v>
+        <v>907989</v>
       </c>
       <c r="AV5">
-        <v>806735</v>
+        <v>806809</v>
       </c>
       <c r="AW5">
-        <v>746568</v>
+        <v>746671</v>
       </c>
       <c r="AX5">
-        <v>621442</v>
+        <v>621527</v>
       </c>
       <c r="AY5">
-        <v>542501</v>
+        <v>542594</v>
       </c>
       <c r="AZ5">
-        <v>406880</v>
+        <v>406972</v>
       </c>
       <c r="BA5">
-        <v>324488</v>
+        <v>324610</v>
       </c>
       <c r="BB5">
-        <v>239911</v>
+        <v>240035</v>
       </c>
       <c r="BC5">
-        <v>161034</v>
+        <v>161138</v>
       </c>
       <c r="BD5">
-        <v>208846</v>
+        <v>209016</v>
       </c>
       <c r="BE5">
-        <v>18174</v>
+        <v>18365</v>
       </c>
     </row>
   </sheetData>
@@ -3878,13 +3878,13 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687534</v>
+        <v>687535</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
       </c>
       <c r="D27" s="3">
-        <v>204528</v>
+        <v>204529</v>
       </c>
       <c r="E27" s="3">
         <v>140753</v>
@@ -3905,13 +3905,13 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065194</v>
+        <v>3065195</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
       </c>
       <c r="M27" s="3">
-        <v>1059934</v>
+        <v>1059935</v>
       </c>
       <c r="N27" s="3">
         <v>546061</v>
@@ -3964,13 +3964,13 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431966</v>
+        <v>4431967</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
       </c>
       <c r="M28" s="3">
-        <v>1310020</v>
+        <v>1310021</v>
       </c>
       <c r="N28" s="3">
         <v>742288</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339849</v>
+        <v>1339850</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139791</v>
+        <v>139792</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,13 +4023,13 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771815</v>
+        <v>5771817</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
       </c>
       <c r="M29" s="3">
-        <v>1584972</v>
+        <v>1584973</v>
       </c>
       <c r="N29" s="3">
         <v>943370</v>
@@ -4038,7 +4038,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413902</v>
+        <v>413903</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,13 +4082,13 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082180</v>
+        <v>7082182</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
       </c>
       <c r="M30" s="3">
-        <v>1918281</v>
+        <v>1918282</v>
       </c>
       <c r="N30" s="3">
         <v>1096300</v>
@@ -4097,7 +4097,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522036</v>
+        <v>522037</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,13 +4141,13 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966475</v>
+        <v>7966477</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
       </c>
       <c r="M31" s="3">
-        <v>2133367</v>
+        <v>2133368</v>
       </c>
       <c r="N31" s="3">
         <v>1213314</v>
@@ -4156,7 +4156,7 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599353</v>
+        <v>599354</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,13 +4200,13 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216822</v>
+        <v>9216824</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
       </c>
       <c r="M32" s="3">
-        <v>2445484</v>
+        <v>2445485</v>
       </c>
       <c r="N32" s="3">
         <v>1410773</v>
@@ -4215,7 +4215,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716753</v>
+        <v>716754</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,13 +4259,13 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771683</v>
+        <v>9771685</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
       </c>
       <c r="M33" s="3">
-        <v>2570914</v>
+        <v>2570915</v>
       </c>
       <c r="N33" s="3">
         <v>1482135</v>
@@ -4274,7 +4274,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757264</v>
+        <v>757265</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,13 +4318,13 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965938</v>
+        <v>9965940</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
       </c>
       <c r="M34" s="3">
-        <v>2617583</v>
+        <v>2617584</v>
       </c>
       <c r="N34" s="3">
         <v>1512409</v>
@@ -4333,7 +4333,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772548</v>
+        <v>772549</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,13 +4377,13 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108043</v>
+        <v>10108045</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
       </c>
       <c r="M35" s="3">
-        <v>2653977</v>
+        <v>2653978</v>
       </c>
       <c r="N35" s="3">
         <v>1529146</v>
@@ -4392,7 +4392,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785723</v>
+        <v>785724</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4409,7 +4409,7 @@
         <v>44866</v>
       </c>
       <c r="B36" s="3">
-        <v>351940</v>
+        <v>351941</v>
       </c>
       <c r="C36" s="3">
         <v>122093</v>
@@ -4424,7 +4424,7 @@
         <v>42631</v>
       </c>
       <c r="G36" s="3">
-        <v>37162</v>
+        <v>37163</v>
       </c>
       <c r="H36" s="3">
         <v>11681</v>
@@ -4436,13 +4436,13 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459983</v>
+        <v>10459986</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
       </c>
       <c r="M36" s="3">
-        <v>2746874</v>
+        <v>2746875</v>
       </c>
       <c r="N36" s="3">
         <v>1565592</v>
@@ -4451,7 +4451,7 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822885</v>
+        <v>822887</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,13 +4495,13 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885851</v>
+        <v>10885854</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
       </c>
       <c r="M37" s="3">
-        <v>2841481</v>
+        <v>2841482</v>
       </c>
       <c r="N37" s="3">
         <v>1619873</v>
@@ -4510,7 +4510,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867390</v>
+        <v>867392</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4527,10 +4527,10 @@
         <v>44927</v>
       </c>
       <c r="B38" s="3">
-        <v>130078</v>
+        <v>130082</v>
       </c>
       <c r="C38" s="3">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="D38" s="3">
         <v>23104</v>
@@ -4554,13 +4554,13 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015929</v>
+        <v>11015936</v>
       </c>
       <c r="L38" s="3">
-        <v>3699334</v>
+        <v>3699338</v>
       </c>
       <c r="M38" s="3">
-        <v>2864585</v>
+        <v>2864586</v>
       </c>
       <c r="N38" s="3">
         <v>1643986</v>
@@ -4569,7 +4569,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879280</v>
+        <v>879282</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,13 +4613,13 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087918</v>
+        <v>11087925</v>
       </c>
       <c r="L39" s="3">
-        <v>3724577</v>
+        <v>3724581</v>
       </c>
       <c r="M39" s="3">
-        <v>2876974</v>
+        <v>2876975</v>
       </c>
       <c r="N39" s="3">
         <v>1658286</v>
@@ -4628,7 +4628,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886133</v>
+        <v>886135</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,13 +4672,13 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191897</v>
+        <v>11191904</v>
       </c>
       <c r="L40" s="3">
-        <v>3763219</v>
+        <v>3763223</v>
       </c>
       <c r="M40" s="3">
-        <v>2896211</v>
+        <v>2896212</v>
       </c>
       <c r="N40" s="3">
         <v>1673741</v>
@@ -4687,7 +4687,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897633</v>
+        <v>897635</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,13 +4731,13 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315063</v>
+        <v>11315070</v>
       </c>
       <c r="L41" s="3">
-        <v>3810748</v>
+        <v>3810752</v>
       </c>
       <c r="M41" s="3">
-        <v>2922018</v>
+        <v>2922019</v>
       </c>
       <c r="N41" s="3">
         <v>1689651</v>
@@ -4746,7 +4746,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909962</v>
+        <v>909964</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,13 +4790,13 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481316</v>
+        <v>11481323</v>
       </c>
       <c r="L42" s="3">
-        <v>3872843</v>
+        <v>3872847</v>
       </c>
       <c r="M42" s="3">
-        <v>2960394</v>
+        <v>2960395</v>
       </c>
       <c r="N42" s="3">
         <v>1711961</v>
@@ -4805,7 +4805,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924875</v>
+        <v>924877</v>
       </c>
       <c r="Q42" s="3">
         <v>299397</v>
@@ -4849,13 +4849,13 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559119</v>
+        <v>11559126</v>
       </c>
       <c r="L43" s="3">
-        <v>3901025</v>
+        <v>3901029</v>
       </c>
       <c r="M43" s="3">
-        <v>2975162</v>
+        <v>2975163</v>
       </c>
       <c r="N43" s="3">
         <v>1726212</v>
@@ -4864,7 +4864,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932089</v>
+        <v>932091</v>
       </c>
       <c r="Q43" s="3">
         <v>301983</v>
@@ -4908,13 +4908,13 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587319</v>
+        <v>11587326</v>
       </c>
       <c r="L44" s="3">
-        <v>3911310</v>
+        <v>3911314</v>
       </c>
       <c r="M44" s="3">
-        <v>2977218</v>
+        <v>2977219</v>
       </c>
       <c r="N44" s="3">
         <v>1733160</v>
@@ -4923,7 +4923,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935018</v>
+        <v>935020</v>
       </c>
       <c r="Q44" s="3">
         <v>303256</v>
@@ -4967,13 +4967,13 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610735</v>
+        <v>11610742</v>
       </c>
       <c r="L45" s="3">
-        <v>3920445</v>
+        <v>3920449</v>
       </c>
       <c r="M45" s="3">
-        <v>2979330</v>
+        <v>2979331</v>
       </c>
       <c r="N45" s="3">
         <v>1737698</v>
@@ -4982,7 +4982,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937467</v>
+        <v>937469</v>
       </c>
       <c r="Q45" s="3">
         <v>304420</v>
@@ -5026,13 +5026,13 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632838</v>
+        <v>11632845</v>
       </c>
       <c r="L46" s="3">
-        <v>3929408</v>
+        <v>3929412</v>
       </c>
       <c r="M46" s="3">
-        <v>2982568</v>
+        <v>2982569</v>
       </c>
       <c r="N46" s="3">
         <v>1739721</v>
@@ -5041,7 +5041,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940500</v>
+        <v>940502</v>
       </c>
       <c r="Q46" s="3">
         <v>305623</v>
@@ -5058,13 +5058,13 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27894</v>
+        <v>27899</v>
       </c>
       <c r="C47" s="3">
         <v>7713</v>
       </c>
       <c r="D47" s="3">
-        <v>5601</v>
+        <v>5605</v>
       </c>
       <c r="E47" s="3">
         <v>3701</v>
@@ -5079,19 +5079,19 @@
         <v>1901</v>
       </c>
       <c r="I47" s="3">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="J47" s="3">
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660732</v>
+        <v>11660744</v>
       </c>
       <c r="L47" s="3">
-        <v>3937121</v>
+        <v>3937125</v>
       </c>
       <c r="M47" s="3">
-        <v>2988169</v>
+        <v>2988174</v>
       </c>
       <c r="N47" s="3">
         <v>1743422</v>
@@ -5100,13 +5100,13 @@
         <v>1380652</v>
       </c>
       <c r="P47" s="3">
-        <v>945577</v>
+        <v>945579</v>
       </c>
       <c r="Q47" s="3">
         <v>307524</v>
       </c>
       <c r="R47" s="3">
-        <v>248553</v>
+        <v>248554</v>
       </c>
       <c r="S47" s="3">
         <v>109714</v>
@@ -5117,58 +5117,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>34891</v>
+        <v>36677</v>
       </c>
       <c r="C48" s="3">
-        <v>10233</v>
+        <v>10648</v>
       </c>
       <c r="D48" s="3">
-        <v>4670</v>
+        <v>5164</v>
       </c>
       <c r="E48" s="3">
-        <v>5400</v>
+        <v>5759</v>
       </c>
       <c r="F48" s="3">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G48" s="3">
-        <v>7971</v>
+        <v>8279</v>
       </c>
       <c r="H48" s="3">
         <v>3090</v>
       </c>
       <c r="I48" s="3">
-        <v>1689</v>
+        <v>1860</v>
       </c>
       <c r="J48" s="3">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="K48" s="3">
-        <v>11695623</v>
+        <v>11697421</v>
       </c>
       <c r="L48" s="3">
-        <v>3947354</v>
+        <v>3947773</v>
       </c>
       <c r="M48" s="3">
-        <v>2992839</v>
+        <v>2993338</v>
       </c>
       <c r="N48" s="3">
-        <v>1748822</v>
+        <v>1749181</v>
       </c>
       <c r="O48" s="3">
-        <v>1382058</v>
+        <v>1382060</v>
       </c>
       <c r="P48" s="3">
-        <v>953548</v>
+        <v>953858</v>
       </c>
       <c r="Q48" s="3">
         <v>310614</v>
       </c>
       <c r="R48" s="3">
-        <v>250242</v>
+        <v>250414</v>
       </c>
       <c r="S48" s="3">
-        <v>110146</v>
+        <v>110183</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +5178,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM19"/>
+  <dimension ref="A1:IM20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16426,6 +16426,749 @@
       </c>
       <c r="IM19">
         <v>13484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B20">
+        <v>1798</v>
+      </c>
+      <c r="C20">
+        <v>419</v>
+      </c>
+      <c r="D20">
+        <v>499</v>
+      </c>
+      <c r="E20">
+        <v>359</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>310</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>172</v>
+      </c>
+      <c r="J20">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>11697421</v>
+      </c>
+      <c r="L20">
+        <v>3947773</v>
+      </c>
+      <c r="M20">
+        <v>2993338</v>
+      </c>
+      <c r="N20">
+        <v>1749181</v>
+      </c>
+      <c r="O20">
+        <v>1382060</v>
+      </c>
+      <c r="P20">
+        <v>953858</v>
+      </c>
+      <c r="Q20">
+        <v>310614</v>
+      </c>
+      <c r="R20">
+        <v>250414</v>
+      </c>
+      <c r="S20">
+        <v>110183</v>
+      </c>
+      <c r="T20">
+        <v>113</v>
+      </c>
+      <c r="U20">
+        <v>28</v>
+      </c>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>60</v>
+      </c>
+      <c r="X20">
+        <v>57</v>
+      </c>
+      <c r="Y20">
+        <v>100</v>
+      </c>
+      <c r="Z20">
+        <v>79</v>
+      </c>
+      <c r="AA20">
+        <v>107</v>
+      </c>
+      <c r="AB20">
+        <v>78</v>
+      </c>
+      <c r="AC20">
+        <v>74</v>
+      </c>
+      <c r="AD20">
+        <v>103</v>
+      </c>
+      <c r="AE20">
+        <v>85</v>
+      </c>
+      <c r="AF20">
+        <v>93</v>
+      </c>
+      <c r="AG20">
+        <v>92</v>
+      </c>
+      <c r="AH20">
+        <v>122</v>
+      </c>
+      <c r="AI20">
+        <v>124</v>
+      </c>
+      <c r="AJ20">
+        <v>104</v>
+      </c>
+      <c r="AK20">
+        <v>170</v>
+      </c>
+      <c r="AL20">
+        <v>191</v>
+      </c>
+      <c r="AM20">
+        <v>502442</v>
+      </c>
+      <c r="AN20">
+        <v>668012</v>
+      </c>
+      <c r="AO20">
+        <v>773513</v>
+      </c>
+      <c r="AP20">
+        <v>759622</v>
+      </c>
+      <c r="AQ20">
+        <v>930074</v>
+      </c>
+      <c r="AR20">
+        <v>1025881</v>
+      </c>
+      <c r="AS20">
+        <v>1033715</v>
+      </c>
+      <c r="AT20">
+        <v>1018436</v>
+      </c>
+      <c r="AU20">
+        <v>907989</v>
+      </c>
+      <c r="AV20">
+        <v>806809</v>
+      </c>
+      <c r="AW20">
+        <v>746671</v>
+      </c>
+      <c r="AX20">
+        <v>621527</v>
+      </c>
+      <c r="AY20">
+        <v>542594</v>
+      </c>
+      <c r="AZ20">
+        <v>406972</v>
+      </c>
+      <c r="BA20">
+        <v>324610</v>
+      </c>
+      <c r="BB20">
+        <v>240035</v>
+      </c>
+      <c r="BC20">
+        <v>161138</v>
+      </c>
+      <c r="BD20">
+        <v>209016</v>
+      </c>
+      <c r="BE20">
+        <v>18365</v>
+      </c>
+      <c r="BF20">
+        <v>63</v>
+      </c>
+      <c r="BG20">
+        <v>48</v>
+      </c>
+      <c r="BH20">
+        <v>2</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>18</v>
+      </c>
+      <c r="BL20">
+        <v>10</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>9</v>
+      </c>
+      <c r="BQ20">
+        <v>10</v>
+      </c>
+      <c r="BR20">
+        <v>0</v>
+      </c>
+      <c r="BS20">
+        <v>-1</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BU20">
+        <v>30</v>
+      </c>
+      <c r="BV20">
+        <v>29</v>
+      </c>
+      <c r="BW20">
+        <v>0</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="BY20">
+        <v>0</v>
+      </c>
+      <c r="BZ20">
+        <v>20</v>
+      </c>
+      <c r="CA20">
+        <v>37</v>
+      </c>
+      <c r="CB20">
+        <v>0</v>
+      </c>
+      <c r="CC20">
+        <v>0</v>
+      </c>
+      <c r="CD20">
+        <v>0</v>
+      </c>
+      <c r="CE20">
+        <v>40</v>
+      </c>
+      <c r="CF20">
+        <v>59</v>
+      </c>
+      <c r="CG20">
+        <v>0</v>
+      </c>
+      <c r="CH20">
+        <v>1</v>
+      </c>
+      <c r="CI20">
+        <v>0</v>
+      </c>
+      <c r="CJ20">
+        <v>24</v>
+      </c>
+      <c r="CK20">
+        <v>55</v>
+      </c>
+      <c r="CL20">
+        <v>0</v>
+      </c>
+      <c r="CM20">
+        <v>0</v>
+      </c>
+      <c r="CN20">
+        <v>0</v>
+      </c>
+      <c r="CO20">
+        <v>35</v>
+      </c>
+      <c r="CP20">
+        <v>73</v>
+      </c>
+      <c r="CQ20">
+        <v>0</v>
+      </c>
+      <c r="CR20">
+        <v>-1</v>
+      </c>
+      <c r="CS20">
+        <v>0</v>
+      </c>
+      <c r="CT20">
+        <v>25</v>
+      </c>
+      <c r="CU20">
+        <v>53</v>
+      </c>
+      <c r="CV20">
+        <v>0</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>0</v>
+      </c>
+      <c r="CY20">
+        <v>40</v>
+      </c>
+      <c r="CZ20">
+        <v>35</v>
+      </c>
+      <c r="DA20">
+        <v>0</v>
+      </c>
+      <c r="DB20">
+        <v>-1</v>
+      </c>
+      <c r="DC20">
+        <v>0</v>
+      </c>
+      <c r="DD20">
+        <v>44</v>
+      </c>
+      <c r="DE20">
+        <v>59</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0</v>
+      </c>
+      <c r="DI20">
+        <v>32</v>
+      </c>
+      <c r="DJ20">
+        <v>53</v>
+      </c>
+      <c r="DK20">
+        <v>0</v>
+      </c>
+      <c r="DL20">
+        <v>0</v>
+      </c>
+      <c r="DM20">
+        <v>0</v>
+      </c>
+      <c r="DN20">
+        <v>30</v>
+      </c>
+      <c r="DO20">
+        <v>63</v>
+      </c>
+      <c r="DP20">
+        <v>0</v>
+      </c>
+      <c r="DQ20">
+        <v>0</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20">
+        <v>43</v>
+      </c>
+      <c r="DT20">
+        <v>49</v>
+      </c>
+      <c r="DU20">
+        <v>0</v>
+      </c>
+      <c r="DV20">
+        <v>0</v>
+      </c>
+      <c r="DW20">
+        <v>0</v>
+      </c>
+      <c r="DX20">
+        <v>62</v>
+      </c>
+      <c r="DY20">
+        <v>60</v>
+      </c>
+      <c r="DZ20">
+        <v>0</v>
+      </c>
+      <c r="EA20">
+        <v>0</v>
+      </c>
+      <c r="EB20">
+        <v>0</v>
+      </c>
+      <c r="EC20">
+        <v>68</v>
+      </c>
+      <c r="ED20">
+        <v>57</v>
+      </c>
+      <c r="EE20">
+        <v>0</v>
+      </c>
+      <c r="EF20">
+        <v>-1</v>
+      </c>
+      <c r="EG20">
+        <v>0</v>
+      </c>
+      <c r="EH20">
+        <v>48</v>
+      </c>
+      <c r="EI20">
+        <v>55</v>
+      </c>
+      <c r="EJ20">
+        <v>0</v>
+      </c>
+      <c r="EK20">
+        <v>1</v>
+      </c>
+      <c r="EL20">
+        <v>0</v>
+      </c>
+      <c r="EM20">
+        <v>79</v>
+      </c>
+      <c r="EN20">
+        <v>91</v>
+      </c>
+      <c r="EO20">
+        <v>1</v>
+      </c>
+      <c r="EP20">
+        <v>-1</v>
+      </c>
+      <c r="EQ20">
+        <v>0</v>
+      </c>
+      <c r="ER20">
+        <v>0</v>
+      </c>
+      <c r="ES20">
+        <v>1</v>
+      </c>
+      <c r="ET20">
+        <v>0</v>
+      </c>
+      <c r="EU20">
+        <v>0</v>
+      </c>
+      <c r="EV20">
+        <v>190</v>
+      </c>
+      <c r="EW20">
+        <v>231308</v>
+      </c>
+      <c r="EX20">
+        <v>219625</v>
+      </c>
+      <c r="EY20">
+        <v>410</v>
+      </c>
+      <c r="EZ20">
+        <v>15452</v>
+      </c>
+      <c r="FA20">
+        <v>35647</v>
+      </c>
+      <c r="FB20">
+        <v>308040</v>
+      </c>
+      <c r="FC20">
+        <v>292700</v>
+      </c>
+      <c r="FD20">
+        <v>466</v>
+      </c>
+      <c r="FE20">
+        <v>16773</v>
+      </c>
+      <c r="FF20">
+        <v>50033</v>
+      </c>
+      <c r="FG20">
+        <v>353246</v>
+      </c>
+      <c r="FH20">
+        <v>342597</v>
+      </c>
+      <c r="FI20">
+        <v>633</v>
+      </c>
+      <c r="FJ20">
+        <v>16954</v>
+      </c>
+      <c r="FK20">
+        <v>60083</v>
+      </c>
+      <c r="FL20">
+        <v>326252</v>
+      </c>
+      <c r="FM20">
+        <v>373717</v>
+      </c>
+      <c r="FN20">
+        <v>894</v>
+      </c>
+      <c r="FO20">
+        <v>12938</v>
+      </c>
+      <c r="FP20">
+        <v>45821</v>
+      </c>
+      <c r="FQ20">
+        <v>391907</v>
+      </c>
+      <c r="FR20">
+        <v>479374</v>
+      </c>
+      <c r="FS20">
+        <v>1100</v>
+      </c>
+      <c r="FT20">
+        <v>16279</v>
+      </c>
+      <c r="FU20">
+        <v>41414</v>
+      </c>
+      <c r="FV20">
+        <v>433707</v>
+      </c>
+      <c r="FW20">
+        <v>525740</v>
+      </c>
+      <c r="FX20">
+        <v>1136</v>
+      </c>
+      <c r="FY20">
+        <v>17787</v>
+      </c>
+      <c r="FZ20">
+        <v>47511</v>
+      </c>
+      <c r="GA20">
+        <v>429021</v>
+      </c>
+      <c r="GB20">
+        <v>531785</v>
+      </c>
+      <c r="GC20">
+        <v>922</v>
+      </c>
+      <c r="GD20">
+        <v>17168</v>
+      </c>
+      <c r="GE20">
+        <v>54819</v>
+      </c>
+      <c r="GF20">
+        <v>419564</v>
+      </c>
+      <c r="GG20">
+        <v>524351</v>
+      </c>
+      <c r="GH20">
+        <v>664</v>
+      </c>
+      <c r="GI20">
+        <v>15033</v>
+      </c>
+      <c r="GJ20">
+        <v>58824</v>
+      </c>
+      <c r="GK20">
+        <v>373380</v>
+      </c>
+      <c r="GL20">
+        <v>468600</v>
+      </c>
+      <c r="GM20">
+        <v>498</v>
+      </c>
+      <c r="GN20">
+        <v>12349</v>
+      </c>
+      <c r="GO20">
+        <v>53162</v>
+      </c>
+      <c r="GP20">
+        <v>330165</v>
+      </c>
+      <c r="GQ20">
+        <v>420755</v>
+      </c>
+      <c r="GR20">
+        <v>439</v>
+      </c>
+      <c r="GS20">
+        <v>10129</v>
+      </c>
+      <c r="GT20">
+        <v>45321</v>
+      </c>
+      <c r="GU20">
+        <v>307955</v>
+      </c>
+      <c r="GV20">
+        <v>389104</v>
+      </c>
+      <c r="GW20">
+        <v>399</v>
+      </c>
+      <c r="GX20">
+        <v>8954</v>
+      </c>
+      <c r="GY20">
+        <v>40259</v>
+      </c>
+      <c r="GZ20">
+        <v>263343</v>
+      </c>
+      <c r="HA20">
+        <v>319498</v>
+      </c>
+      <c r="HB20">
+        <v>329</v>
+      </c>
+      <c r="HC20">
+        <v>6610</v>
+      </c>
+      <c r="HD20">
+        <v>31747</v>
+      </c>
+      <c r="HE20">
+        <v>234237</v>
+      </c>
+      <c r="HF20">
+        <v>276846</v>
+      </c>
+      <c r="HG20">
+        <v>234</v>
+      </c>
+      <c r="HH20">
+        <v>5318</v>
+      </c>
+      <c r="HI20">
+        <v>25959</v>
+      </c>
+      <c r="HJ20">
+        <v>180592</v>
+      </c>
+      <c r="HK20">
+        <v>203980</v>
+      </c>
+      <c r="HL20">
+        <v>199</v>
+      </c>
+      <c r="HM20">
+        <v>3681</v>
+      </c>
+      <c r="HN20">
+        <v>18520</v>
+      </c>
+      <c r="HO20">
+        <v>151355</v>
+      </c>
+      <c r="HP20">
+        <v>158052</v>
+      </c>
+      <c r="HQ20">
+        <v>163</v>
+      </c>
+      <c r="HR20">
+        <v>2691</v>
+      </c>
+      <c r="HS20">
+        <v>12349</v>
+      </c>
+      <c r="HT20">
+        <v>115686</v>
+      </c>
+      <c r="HU20">
+        <v>114483</v>
+      </c>
+      <c r="HV20">
+        <v>164</v>
+      </c>
+      <c r="HW20">
+        <v>1892</v>
+      </c>
+      <c r="HX20">
+        <v>7810</v>
+      </c>
+      <c r="HY20">
+        <v>75706</v>
+      </c>
+      <c r="HZ20">
+        <v>79487</v>
+      </c>
+      <c r="IA20">
+        <v>131</v>
+      </c>
+      <c r="IB20">
+        <v>1283</v>
+      </c>
+      <c r="IC20">
+        <v>4531</v>
+      </c>
+      <c r="ID20">
+        <v>80932</v>
+      </c>
+      <c r="IE20">
+        <v>121671</v>
+      </c>
+      <c r="IF20">
+        <v>306</v>
+      </c>
+      <c r="IG20">
+        <v>2268</v>
+      </c>
+      <c r="IH20">
+        <v>3839</v>
+      </c>
+      <c r="II20">
+        <v>2150</v>
+      </c>
+      <c r="IJ20">
+        <v>2308</v>
+      </c>
+      <c r="IK20">
+        <v>32</v>
+      </c>
+      <c r="IL20">
+        <v>201</v>
+      </c>
+      <c r="IM20">
+        <v>13674</v>
       </c>
     </row>
   </sheetData>
@@ -16452,7 +17195,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803E366A-3B49-4C14-84B9-6B7ABFA3FE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DE80B-AE62-483C-A512-D478A58A395E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1892,13 +1892,13 @@
         <v>30113</v>
       </c>
       <c r="AD3">
-        <v>27885</v>
+        <v>27884</v>
       </c>
       <c r="AE3">
         <v>22323</v>
       </c>
       <c r="AF3">
-        <v>17083</v>
+        <v>17084</v>
       </c>
       <c r="AG3">
         <v>11936</v>
@@ -1949,13 +1949,13 @@
         <v>32078</v>
       </c>
       <c r="AW3">
-        <v>29691</v>
+        <v>29690</v>
       </c>
       <c r="AX3">
         <v>24001</v>
       </c>
       <c r="AY3">
-        <v>18544</v>
+        <v>18545</v>
       </c>
       <c r="AZ3">
         <v>12967</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317786</v>
+        <v>10317788</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1990,13 +1990,13 @@
         <v>2621355</v>
       </c>
       <c r="E4">
-        <v>1586962</v>
+        <v>1586961</v>
       </c>
       <c r="F4">
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848231</v>
+        <v>848234</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885854</v>
+        <v>10885856</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2017,13 +2017,13 @@
         <v>2841482</v>
       </c>
       <c r="N4">
-        <v>1619873</v>
+        <v>1619872</v>
       </c>
       <c r="O4">
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867392</v>
+        <v>867395</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,49 +2038,49 @@
         <v>450547</v>
       </c>
       <c r="U4">
-        <v>611266</v>
+        <v>611264</v>
       </c>
       <c r="V4">
         <v>710184</v>
       </c>
       <c r="W4">
-        <v>683383</v>
+        <v>683382</v>
       </c>
       <c r="X4">
-        <v>812067</v>
+        <v>812066</v>
       </c>
       <c r="Y4">
-        <v>899939</v>
+        <v>899938</v>
       </c>
       <c r="Z4">
-        <v>916985</v>
+        <v>916988</v>
       </c>
       <c r="AA4">
-        <v>908885</v>
+        <v>908884</v>
       </c>
       <c r="AB4">
-        <v>810320</v>
+        <v>810318</v>
       </c>
       <c r="AC4">
-        <v>717641</v>
+        <v>717643</v>
       </c>
       <c r="AD4">
-        <v>658694</v>
+        <v>658697</v>
       </c>
       <c r="AE4">
-        <v>544136</v>
+        <v>544134</v>
       </c>
       <c r="AF4">
-        <v>471542</v>
+        <v>471546</v>
       </c>
       <c r="AG4">
-        <v>349088</v>
+        <v>349087</v>
       </c>
       <c r="AH4">
         <v>274364</v>
       </c>
       <c r="AI4">
-        <v>197906</v>
+        <v>197907</v>
       </c>
       <c r="AJ4">
         <v>128055</v>
@@ -2095,49 +2095,49 @@
         <v>473797</v>
       </c>
       <c r="AN4">
-        <v>644467</v>
+        <v>644465</v>
       </c>
       <c r="AO4">
         <v>741696</v>
       </c>
       <c r="AP4">
-        <v>728635</v>
+        <v>728634</v>
       </c>
       <c r="AQ4">
-        <v>890290</v>
+        <v>890289</v>
       </c>
       <c r="AR4">
-        <v>974384</v>
+        <v>974383</v>
       </c>
       <c r="AS4">
-        <v>975366</v>
+        <v>975369</v>
       </c>
       <c r="AT4">
-        <v>953875</v>
+        <v>953874</v>
       </c>
       <c r="AU4">
-        <v>845939</v>
+        <v>845937</v>
       </c>
       <c r="AV4">
-        <v>749719</v>
+        <v>749721</v>
       </c>
       <c r="AW4">
-        <v>688385</v>
+        <v>688387</v>
       </c>
       <c r="AX4">
-        <v>568137</v>
+        <v>568135</v>
       </c>
       <c r="AY4">
-        <v>490086</v>
+        <v>490091</v>
       </c>
       <c r="AZ4">
-        <v>362055</v>
+        <v>362054</v>
       </c>
       <c r="BA4">
         <v>283682</v>
       </c>
       <c r="BB4">
-        <v>204376</v>
+        <v>204377</v>
       </c>
       <c r="BC4">
         <v>132445</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>811567</v>
+        <v>813215</v>
       </c>
       <c r="C5">
-        <v>294379</v>
+        <v>294837</v>
       </c>
       <c r="D5">
-        <v>151856</v>
+        <v>152008</v>
       </c>
       <c r="E5">
-        <v>129308</v>
+        <v>129609</v>
       </c>
       <c r="F5">
-        <v>92194</v>
+        <v>92197</v>
       </c>
       <c r="G5">
-        <v>86466</v>
+        <v>86743</v>
       </c>
       <c r="H5">
-        <v>29071</v>
+        <v>29437</v>
       </c>
       <c r="I5">
-        <v>22077</v>
+        <v>22145</v>
       </c>
       <c r="J5">
-        <v>6216</v>
+        <v>6239</v>
       </c>
       <c r="K5">
-        <v>11697421</v>
+        <v>11699071</v>
       </c>
       <c r="L5">
-        <v>3947773</v>
+        <v>3948231</v>
       </c>
       <c r="M5">
-        <v>2993338</v>
+        <v>2993490</v>
       </c>
       <c r="N5">
-        <v>1749181</v>
+        <v>1749481</v>
       </c>
       <c r="O5">
-        <v>1382060</v>
+        <v>1382063</v>
       </c>
       <c r="P5">
-        <v>953858</v>
+        <v>954138</v>
       </c>
       <c r="Q5">
-        <v>310614</v>
+        <v>310980</v>
       </c>
       <c r="R5">
-        <v>250414</v>
+        <v>250482</v>
       </c>
       <c r="S5">
-        <v>110183</v>
+        <v>110206</v>
       </c>
       <c r="T5">
-        <v>28645</v>
+        <v>28740</v>
       </c>
       <c r="U5">
-        <v>23545</v>
+        <v>23565</v>
       </c>
       <c r="V5">
-        <v>31817</v>
+        <v>31857</v>
       </c>
       <c r="W5">
-        <v>30987</v>
+        <v>31068</v>
       </c>
       <c r="X5">
-        <v>39784</v>
+        <v>39867</v>
       </c>
       <c r="Y5">
-        <v>51497</v>
+        <v>51602</v>
       </c>
       <c r="Z5">
-        <v>58349</v>
+        <v>58463</v>
       </c>
       <c r="AA5">
-        <v>64561</v>
+        <v>64675</v>
       </c>
       <c r="AB5">
-        <v>62050</v>
+        <v>62166</v>
       </c>
       <c r="AC5">
-        <v>57090</v>
+        <v>57196</v>
       </c>
       <c r="AD5">
-        <v>58286</v>
+        <v>58397</v>
       </c>
       <c r="AE5">
-        <v>53390</v>
+        <v>53519</v>
       </c>
       <c r="AF5">
-        <v>52508</v>
+        <v>52617</v>
       </c>
       <c r="AG5">
-        <v>44917</v>
+        <v>45021</v>
       </c>
       <c r="AH5">
-        <v>40928</v>
+        <v>41033</v>
       </c>
       <c r="AI5">
-        <v>35659</v>
+        <v>35783</v>
       </c>
       <c r="AJ5">
-        <v>28693</v>
+        <v>28807</v>
       </c>
       <c r="AK5">
-        <v>48075</v>
+        <v>48247</v>
       </c>
       <c r="AL5">
-        <v>786</v>
+        <v>592</v>
       </c>
       <c r="AM5">
-        <v>502442</v>
+        <v>502537</v>
       </c>
       <c r="AN5">
-        <v>668012</v>
+        <v>668030</v>
       </c>
       <c r="AO5">
-        <v>773513</v>
+        <v>773553</v>
       </c>
       <c r="AP5">
-        <v>759622</v>
+        <v>759702</v>
       </c>
       <c r="AQ5">
-        <v>930074</v>
+        <v>930156</v>
       </c>
       <c r="AR5">
-        <v>1025881</v>
+        <v>1025985</v>
       </c>
       <c r="AS5">
-        <v>1033715</v>
+        <v>1033832</v>
       </c>
       <c r="AT5">
-        <v>1018436</v>
+        <v>1018549</v>
       </c>
       <c r="AU5">
-        <v>907989</v>
+        <v>908103</v>
       </c>
       <c r="AV5">
-        <v>806809</v>
+        <v>806917</v>
       </c>
       <c r="AW5">
-        <v>746671</v>
+        <v>746784</v>
       </c>
       <c r="AX5">
-        <v>621527</v>
+        <v>621654</v>
       </c>
       <c r="AY5">
-        <v>542594</v>
+        <v>542708</v>
       </c>
       <c r="AZ5">
-        <v>406972</v>
+        <v>407075</v>
       </c>
       <c r="BA5">
-        <v>324610</v>
+        <v>324715</v>
       </c>
       <c r="BB5">
-        <v>240035</v>
+        <v>240160</v>
       </c>
       <c r="BC5">
-        <v>161138</v>
+        <v>161252</v>
       </c>
       <c r="BD5">
-        <v>209016</v>
+        <v>209188</v>
       </c>
       <c r="BE5">
-        <v>18365</v>
+        <v>18171</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809592</v>
+        <v>1809594</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90055</v>
+        <v>90057</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377660</v>
+        <v>2377662</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109216</v>
+        <v>109218</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687535</v>
+        <v>687536</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065195</v>
+        <v>3065198</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153624</v>
+        <v>153627</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431967</v>
+        <v>4431970</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3979,7 +3979,7 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274111</v>
+        <v>274114</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771817</v>
+        <v>5771820</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413903</v>
+        <v>413906</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082182</v>
+        <v>7082185</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4097,7 +4097,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522037</v>
+        <v>522040</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884295</v>
+        <v>884296</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4123,7 +4123,7 @@
         <v>215086</v>
       </c>
       <c r="E31" s="3">
-        <v>117014</v>
+        <v>117015</v>
       </c>
       <c r="F31" s="3">
         <v>182639</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966477</v>
+        <v>7966481</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4150,13 +4150,13 @@
         <v>2133368</v>
       </c>
       <c r="N31" s="3">
-        <v>1213314</v>
+        <v>1213315</v>
       </c>
       <c r="O31" s="3">
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599354</v>
+        <v>599357</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4173,7 +4173,7 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250347</v>
+        <v>1250345</v>
       </c>
       <c r="C32" s="3">
         <v>378606</v>
@@ -4182,7 +4182,7 @@
         <v>312117</v>
       </c>
       <c r="E32" s="3">
-        <v>197459</v>
+        <v>197457</v>
       </c>
       <c r="F32" s="3">
         <v>158264</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216824</v>
+        <v>9216826</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4209,13 +4209,13 @@
         <v>2445485</v>
       </c>
       <c r="N32" s="3">
-        <v>1410773</v>
+        <v>1410772</v>
       </c>
       <c r="O32" s="3">
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716754</v>
+        <v>716757</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771685</v>
+        <v>9771687</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4268,13 +4268,13 @@
         <v>2570915</v>
       </c>
       <c r="N33" s="3">
-        <v>1482135</v>
+        <v>1482134</v>
       </c>
       <c r="O33" s="3">
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757265</v>
+        <v>757268</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965940</v>
+        <v>9965942</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4327,13 +4327,13 @@
         <v>2617584</v>
       </c>
       <c r="N34" s="3">
-        <v>1512409</v>
+        <v>1512408</v>
       </c>
       <c r="O34" s="3">
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772549</v>
+        <v>772552</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108045</v>
+        <v>10108047</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4386,13 +4386,13 @@
         <v>2653978</v>
       </c>
       <c r="N35" s="3">
-        <v>1529146</v>
+        <v>1529145</v>
       </c>
       <c r="O35" s="3">
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785724</v>
+        <v>785727</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459986</v>
+        <v>10459988</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4445,13 +4445,13 @@
         <v>2746875</v>
       </c>
       <c r="N36" s="3">
-        <v>1565592</v>
+        <v>1565591</v>
       </c>
       <c r="O36" s="3">
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822887</v>
+        <v>822890</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885854</v>
+        <v>10885856</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4504,13 +4504,13 @@
         <v>2841482</v>
       </c>
       <c r="N37" s="3">
-        <v>1619873</v>
+        <v>1619872</v>
       </c>
       <c r="O37" s="3">
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867392</v>
+        <v>867395</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015936</v>
+        <v>11015938</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4563,13 +4563,13 @@
         <v>2864586</v>
       </c>
       <c r="N38" s="3">
-        <v>1643986</v>
+        <v>1643985</v>
       </c>
       <c r="O38" s="3">
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879282</v>
+        <v>879285</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087925</v>
+        <v>11087927</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4622,13 +4622,13 @@
         <v>2876975</v>
       </c>
       <c r="N39" s="3">
-        <v>1658286</v>
+        <v>1658285</v>
       </c>
       <c r="O39" s="3">
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886135</v>
+        <v>886138</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191904</v>
+        <v>11191906</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4681,13 +4681,13 @@
         <v>2896212</v>
       </c>
       <c r="N40" s="3">
-        <v>1673741</v>
+        <v>1673740</v>
       </c>
       <c r="O40" s="3">
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897635</v>
+        <v>897638</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315070</v>
+        <v>11315072</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4740,13 +4740,13 @@
         <v>2922019</v>
       </c>
       <c r="N41" s="3">
-        <v>1689651</v>
+        <v>1689650</v>
       </c>
       <c r="O41" s="3">
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909964</v>
+        <v>909967</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4763,7 +4763,7 @@
         <v>45047</v>
       </c>
       <c r="B42" s="3">
-        <v>166253</v>
+        <v>166252</v>
       </c>
       <c r="C42" s="3">
         <v>62095</v>
@@ -4781,7 +4781,7 @@
         <v>14913</v>
       </c>
       <c r="H42" s="3">
-        <v>5204</v>
+        <v>5203</v>
       </c>
       <c r="I42" s="3">
         <v>4334</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481323</v>
+        <v>11481324</v>
       </c>
       <c r="L42" s="3">
         <v>3872847</v>
@@ -4799,16 +4799,16 @@
         <v>2960395</v>
       </c>
       <c r="N42" s="3">
-        <v>1711961</v>
+        <v>1711960</v>
       </c>
       <c r="O42" s="3">
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924877</v>
+        <v>924880</v>
       </c>
       <c r="Q42" s="3">
-        <v>299397</v>
+        <v>299396</v>
       </c>
       <c r="R42" s="3">
         <v>242675</v>
@@ -4822,7 +4822,7 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77803</v>
+        <v>77801</v>
       </c>
       <c r="C43" s="3">
         <v>28182</v>
@@ -4840,7 +4840,7 @@
         <v>7214</v>
       </c>
       <c r="H43" s="3">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="I43" s="3">
         <v>1989</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559126</v>
+        <v>11559125</v>
       </c>
       <c r="L43" s="3">
         <v>3901029</v>
@@ -4858,16 +4858,16 @@
         <v>2975163</v>
       </c>
       <c r="N43" s="3">
-        <v>1726212</v>
+        <v>1726211</v>
       </c>
       <c r="O43" s="3">
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932091</v>
+        <v>932094</v>
       </c>
       <c r="Q43" s="3">
-        <v>301983</v>
+        <v>301980</v>
       </c>
       <c r="R43" s="3">
         <v>244664</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587326</v>
+        <v>11587325</v>
       </c>
       <c r="L44" s="3">
         <v>3911314</v>
@@ -4917,16 +4917,16 @@
         <v>2977219</v>
       </c>
       <c r="N44" s="3">
-        <v>1733160</v>
+        <v>1733159</v>
       </c>
       <c r="O44" s="3">
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935020</v>
+        <v>935023</v>
       </c>
       <c r="Q44" s="3">
-        <v>303256</v>
+        <v>303253</v>
       </c>
       <c r="R44" s="3">
         <v>245517</v>
@@ -4940,7 +4940,7 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23416</v>
+        <v>23417</v>
       </c>
       <c r="C45" s="3">
         <v>9135</v>
@@ -4958,7 +4958,7 @@
         <v>2449</v>
       </c>
       <c r="H45" s="3">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="I45" s="3">
         <v>804</v>
@@ -4976,16 +4976,16 @@
         <v>2979331</v>
       </c>
       <c r="N45" s="3">
-        <v>1737698</v>
+        <v>1737697</v>
       </c>
       <c r="O45" s="3">
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937469</v>
+        <v>937472</v>
       </c>
       <c r="Q45" s="3">
-        <v>304420</v>
+        <v>304418</v>
       </c>
       <c r="R45" s="3">
         <v>246321</v>
@@ -5035,16 +5035,16 @@
         <v>2982569</v>
       </c>
       <c r="N46" s="3">
-        <v>1739721</v>
+        <v>1739720</v>
       </c>
       <c r="O46" s="3">
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940502</v>
+        <v>940505</v>
       </c>
       <c r="Q46" s="3">
-        <v>305623</v>
+        <v>305621</v>
       </c>
       <c r="R46" s="3">
         <v>247063</v>
@@ -5058,13 +5058,13 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27899</v>
+        <v>27896</v>
       </c>
       <c r="C47" s="3">
         <v>7713</v>
       </c>
       <c r="D47" s="3">
-        <v>5605</v>
+        <v>5602</v>
       </c>
       <c r="E47" s="3">
         <v>3701</v>
@@ -5085,25 +5085,25 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660744</v>
+        <v>11660741</v>
       </c>
       <c r="L47" s="3">
         <v>3937125</v>
       </c>
       <c r="M47" s="3">
-        <v>2988174</v>
+        <v>2988171</v>
       </c>
       <c r="N47" s="3">
-        <v>1743422</v>
+        <v>1743421</v>
       </c>
       <c r="O47" s="3">
         <v>1380652</v>
       </c>
       <c r="P47" s="3">
-        <v>945579</v>
+        <v>945582</v>
       </c>
       <c r="Q47" s="3">
-        <v>307524</v>
+        <v>307522</v>
       </c>
       <c r="R47" s="3">
         <v>248554</v>
@@ -5117,58 +5117,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>36677</v>
+        <v>38330</v>
       </c>
       <c r="C48" s="3">
-        <v>10648</v>
+        <v>11106</v>
       </c>
       <c r="D48" s="3">
-        <v>5164</v>
+        <v>5319</v>
       </c>
       <c r="E48" s="3">
-        <v>5759</v>
+        <v>6060</v>
       </c>
       <c r="F48" s="3">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="G48" s="3">
-        <v>8279</v>
+        <v>8556</v>
       </c>
       <c r="H48" s="3">
-        <v>3090</v>
+        <v>3458</v>
       </c>
       <c r="I48" s="3">
-        <v>1860</v>
+        <v>1928</v>
       </c>
       <c r="J48" s="3">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="K48" s="3">
-        <v>11697421</v>
+        <v>11699071</v>
       </c>
       <c r="L48" s="3">
-        <v>3947773</v>
+        <v>3948231</v>
       </c>
       <c r="M48" s="3">
-        <v>2993338</v>
+        <v>2993490</v>
       </c>
       <c r="N48" s="3">
-        <v>1749181</v>
+        <v>1749481</v>
       </c>
       <c r="O48" s="3">
-        <v>1382060</v>
+        <v>1382063</v>
       </c>
       <c r="P48" s="3">
-        <v>953858</v>
+        <v>954138</v>
       </c>
       <c r="Q48" s="3">
-        <v>310614</v>
+        <v>310980</v>
       </c>
       <c r="R48" s="3">
-        <v>250414</v>
+        <v>250482</v>
       </c>
       <c r="S48" s="3">
-        <v>110183</v>
+        <v>110206</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +5178,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM20"/>
+  <dimension ref="A1:IM21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17169,6 +17169,749 @@
       </c>
       <c r="IM20">
         <v>13674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B21">
+        <v>1650</v>
+      </c>
+      <c r="C21">
+        <v>458</v>
+      </c>
+      <c r="D21">
+        <v>152</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>280</v>
+      </c>
+      <c r="H21">
+        <v>366</v>
+      </c>
+      <c r="I21">
+        <v>68</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>11699071</v>
+      </c>
+      <c r="L21">
+        <v>3948231</v>
+      </c>
+      <c r="M21">
+        <v>2993490</v>
+      </c>
+      <c r="N21">
+        <v>1749481</v>
+      </c>
+      <c r="O21">
+        <v>1382063</v>
+      </c>
+      <c r="P21">
+        <v>954138</v>
+      </c>
+      <c r="Q21">
+        <v>310980</v>
+      </c>
+      <c r="R21">
+        <v>250482</v>
+      </c>
+      <c r="S21">
+        <v>110206</v>
+      </c>
+      <c r="T21">
+        <v>95</v>
+      </c>
+      <c r="U21">
+        <v>18</v>
+      </c>
+      <c r="V21">
+        <v>40</v>
+      </c>
+      <c r="W21">
+        <v>80</v>
+      </c>
+      <c r="X21">
+        <v>82</v>
+      </c>
+      <c r="Y21">
+        <v>104</v>
+      </c>
+      <c r="Z21">
+        <v>117</v>
+      </c>
+      <c r="AA21">
+        <v>113</v>
+      </c>
+      <c r="AB21">
+        <v>114</v>
+      </c>
+      <c r="AC21">
+        <v>108</v>
+      </c>
+      <c r="AD21">
+        <v>113</v>
+      </c>
+      <c r="AE21">
+        <v>127</v>
+      </c>
+      <c r="AF21">
+        <v>114</v>
+      </c>
+      <c r="AG21">
+        <v>103</v>
+      </c>
+      <c r="AH21">
+        <v>105</v>
+      </c>
+      <c r="AI21">
+        <v>125</v>
+      </c>
+      <c r="AJ21">
+        <v>114</v>
+      </c>
+      <c r="AK21">
+        <v>172</v>
+      </c>
+      <c r="AL21">
+        <v>-194</v>
+      </c>
+      <c r="AM21">
+        <v>502537</v>
+      </c>
+      <c r="AN21">
+        <v>668030</v>
+      </c>
+      <c r="AO21">
+        <v>773553</v>
+      </c>
+      <c r="AP21">
+        <v>759702</v>
+      </c>
+      <c r="AQ21">
+        <v>930156</v>
+      </c>
+      <c r="AR21">
+        <v>1025985</v>
+      </c>
+      <c r="AS21">
+        <v>1033832</v>
+      </c>
+      <c r="AT21">
+        <v>1018549</v>
+      </c>
+      <c r="AU21">
+        <v>908103</v>
+      </c>
+      <c r="AV21">
+        <v>806917</v>
+      </c>
+      <c r="AW21">
+        <v>746784</v>
+      </c>
+      <c r="AX21">
+        <v>621654</v>
+      </c>
+      <c r="AY21">
+        <v>542708</v>
+      </c>
+      <c r="AZ21">
+        <v>407075</v>
+      </c>
+      <c r="BA21">
+        <v>324715</v>
+      </c>
+      <c r="BB21">
+        <v>240160</v>
+      </c>
+      <c r="BC21">
+        <v>161252</v>
+      </c>
+      <c r="BD21">
+        <v>209188</v>
+      </c>
+      <c r="BE21">
+        <v>18171</v>
+      </c>
+      <c r="BF21">
+        <v>53</v>
+      </c>
+      <c r="BG21">
+        <v>44</v>
+      </c>
+      <c r="BH21">
+        <v>-2</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>11</v>
+      </c>
+      <c r="BL21">
+        <v>9</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>-2</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
+        <v>18</v>
+      </c>
+      <c r="BQ21">
+        <v>22</v>
+      </c>
+      <c r="BR21">
+        <v>0</v>
+      </c>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>31</v>
+      </c>
+      <c r="BV21">
+        <v>50</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>-1</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21">
+        <v>29</v>
+      </c>
+      <c r="CA21">
+        <v>52</v>
+      </c>
+      <c r="CB21">
+        <v>0</v>
+      </c>
+      <c r="CC21">
+        <v>0</v>
+      </c>
+      <c r="CD21">
+        <v>1</v>
+      </c>
+      <c r="CE21">
+        <v>26</v>
+      </c>
+      <c r="CF21">
+        <v>81</v>
+      </c>
+      <c r="CG21">
+        <v>0</v>
+      </c>
+      <c r="CH21">
+        <v>-3</v>
+      </c>
+      <c r="CI21">
+        <v>0</v>
+      </c>
+      <c r="CJ21">
+        <v>41</v>
+      </c>
+      <c r="CK21">
+        <v>76</v>
+      </c>
+      <c r="CL21">
+        <v>0</v>
+      </c>
+      <c r="CM21">
+        <v>-1</v>
+      </c>
+      <c r="CN21">
+        <v>1</v>
+      </c>
+      <c r="CO21">
+        <v>41</v>
+      </c>
+      <c r="CP21">
+        <v>72</v>
+      </c>
+      <c r="CQ21">
+        <v>0</v>
+      </c>
+      <c r="CR21">
+        <v>0</v>
+      </c>
+      <c r="CS21">
+        <v>0</v>
+      </c>
+      <c r="CT21">
+        <v>47</v>
+      </c>
+      <c r="CU21">
+        <v>70</v>
+      </c>
+      <c r="CV21">
+        <v>0</v>
+      </c>
+      <c r="CW21">
+        <v>-3</v>
+      </c>
+      <c r="CX21">
+        <v>0</v>
+      </c>
+      <c r="CY21">
+        <v>38</v>
+      </c>
+      <c r="CZ21">
+        <v>72</v>
+      </c>
+      <c r="DA21">
+        <v>0</v>
+      </c>
+      <c r="DB21">
+        <v>-2</v>
+      </c>
+      <c r="DC21">
+        <v>0</v>
+      </c>
+      <c r="DD21">
+        <v>41</v>
+      </c>
+      <c r="DE21">
+        <v>74</v>
+      </c>
+      <c r="DF21">
+        <v>0</v>
+      </c>
+      <c r="DG21">
+        <v>-2</v>
+      </c>
+      <c r="DH21">
+        <v>0</v>
+      </c>
+      <c r="DI21">
+        <v>41</v>
+      </c>
+      <c r="DJ21">
+        <v>89</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DL21">
+        <v>-3</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DN21">
+        <v>48</v>
+      </c>
+      <c r="DO21">
+        <v>66</v>
+      </c>
+      <c r="DP21">
+        <v>0</v>
+      </c>
+      <c r="DQ21">
+        <v>-1</v>
+      </c>
+      <c r="DR21">
+        <v>1</v>
+      </c>
+      <c r="DS21">
+        <v>46</v>
+      </c>
+      <c r="DT21">
+        <v>56</v>
+      </c>
+      <c r="DU21">
+        <v>0</v>
+      </c>
+      <c r="DV21">
+        <v>0</v>
+      </c>
+      <c r="DW21">
+        <v>1</v>
+      </c>
+      <c r="DX21">
+        <v>51</v>
+      </c>
+      <c r="DY21">
+        <v>55</v>
+      </c>
+      <c r="DZ21">
+        <v>0</v>
+      </c>
+      <c r="EA21">
+        <v>-1</v>
+      </c>
+      <c r="EB21">
+        <v>0</v>
+      </c>
+      <c r="EC21">
+        <v>51</v>
+      </c>
+      <c r="ED21">
+        <v>74</v>
+      </c>
+      <c r="EE21">
+        <v>0</v>
+      </c>
+      <c r="EF21">
+        <v>-1</v>
+      </c>
+      <c r="EG21">
+        <v>1</v>
+      </c>
+      <c r="EH21">
+        <v>59</v>
+      </c>
+      <c r="EI21">
+        <v>57</v>
+      </c>
+      <c r="EJ21">
+        <v>0</v>
+      </c>
+      <c r="EK21">
+        <v>-2</v>
+      </c>
+      <c r="EL21">
+        <v>0</v>
+      </c>
+      <c r="EM21">
+        <v>73</v>
+      </c>
+      <c r="EN21">
+        <v>99</v>
+      </c>
+      <c r="EO21">
+        <v>0</v>
+      </c>
+      <c r="EP21">
+        <v>0</v>
+      </c>
+      <c r="EQ21">
+        <v>0</v>
+      </c>
+      <c r="ER21">
+        <v>0</v>
+      </c>
+      <c r="ES21">
+        <v>0</v>
+      </c>
+      <c r="ET21">
+        <v>-4</v>
+      </c>
+      <c r="EU21">
+        <v>0</v>
+      </c>
+      <c r="EV21">
+        <v>-190</v>
+      </c>
+      <c r="EW21">
+        <v>231361</v>
+      </c>
+      <c r="EX21">
+        <v>219669</v>
+      </c>
+      <c r="EY21">
+        <v>408</v>
+      </c>
+      <c r="EZ21">
+        <v>15452</v>
+      </c>
+      <c r="FA21">
+        <v>35647</v>
+      </c>
+      <c r="FB21">
+        <v>308051</v>
+      </c>
+      <c r="FC21">
+        <v>292709</v>
+      </c>
+      <c r="FD21">
+        <v>466</v>
+      </c>
+      <c r="FE21">
+        <v>16771</v>
+      </c>
+      <c r="FF21">
+        <v>50033</v>
+      </c>
+      <c r="FG21">
+        <v>353264</v>
+      </c>
+      <c r="FH21">
+        <v>342619</v>
+      </c>
+      <c r="FI21">
+        <v>633</v>
+      </c>
+      <c r="FJ21">
+        <v>16954</v>
+      </c>
+      <c r="FK21">
+        <v>60083</v>
+      </c>
+      <c r="FL21">
+        <v>326283</v>
+      </c>
+      <c r="FM21">
+        <v>373767</v>
+      </c>
+      <c r="FN21">
+        <v>894</v>
+      </c>
+      <c r="FO21">
+        <v>12937</v>
+      </c>
+      <c r="FP21">
+        <v>45821</v>
+      </c>
+      <c r="FQ21">
+        <v>391936</v>
+      </c>
+      <c r="FR21">
+        <v>479426</v>
+      </c>
+      <c r="FS21">
+        <v>1100</v>
+      </c>
+      <c r="FT21">
+        <v>16279</v>
+      </c>
+      <c r="FU21">
+        <v>41415</v>
+      </c>
+      <c r="FV21">
+        <v>433733</v>
+      </c>
+      <c r="FW21">
+        <v>525821</v>
+      </c>
+      <c r="FX21">
+        <v>1136</v>
+      </c>
+      <c r="FY21">
+        <v>17784</v>
+      </c>
+      <c r="FZ21">
+        <v>47511</v>
+      </c>
+      <c r="GA21">
+        <v>429062</v>
+      </c>
+      <c r="GB21">
+        <v>531861</v>
+      </c>
+      <c r="GC21">
+        <v>922</v>
+      </c>
+      <c r="GD21">
+        <v>17167</v>
+      </c>
+      <c r="GE21">
+        <v>54820</v>
+      </c>
+      <c r="GF21">
+        <v>419605</v>
+      </c>
+      <c r="GG21">
+        <v>524423</v>
+      </c>
+      <c r="GH21">
+        <v>664</v>
+      </c>
+      <c r="GI21">
+        <v>15033</v>
+      </c>
+      <c r="GJ21">
+        <v>58824</v>
+      </c>
+      <c r="GK21">
+        <v>373427</v>
+      </c>
+      <c r="GL21">
+        <v>468670</v>
+      </c>
+      <c r="GM21">
+        <v>498</v>
+      </c>
+      <c r="GN21">
+        <v>12346</v>
+      </c>
+      <c r="GO21">
+        <v>53162</v>
+      </c>
+      <c r="GP21">
+        <v>330203</v>
+      </c>
+      <c r="GQ21">
+        <v>420827</v>
+      </c>
+      <c r="GR21">
+        <v>439</v>
+      </c>
+      <c r="GS21">
+        <v>10127</v>
+      </c>
+      <c r="GT21">
+        <v>45321</v>
+      </c>
+      <c r="GU21">
+        <v>307996</v>
+      </c>
+      <c r="GV21">
+        <v>389178</v>
+      </c>
+      <c r="GW21">
+        <v>399</v>
+      </c>
+      <c r="GX21">
+        <v>8952</v>
+      </c>
+      <c r="GY21">
+        <v>40259</v>
+      </c>
+      <c r="GZ21">
+        <v>263384</v>
+      </c>
+      <c r="HA21">
+        <v>319587</v>
+      </c>
+      <c r="HB21">
+        <v>329</v>
+      </c>
+      <c r="HC21">
+        <v>6607</v>
+      </c>
+      <c r="HD21">
+        <v>31747</v>
+      </c>
+      <c r="HE21">
+        <v>234285</v>
+      </c>
+      <c r="HF21">
+        <v>276912</v>
+      </c>
+      <c r="HG21">
+        <v>234</v>
+      </c>
+      <c r="HH21">
+        <v>5317</v>
+      </c>
+      <c r="HI21">
+        <v>25960</v>
+      </c>
+      <c r="HJ21">
+        <v>180638</v>
+      </c>
+      <c r="HK21">
+        <v>204036</v>
+      </c>
+      <c r="HL21">
+        <v>199</v>
+      </c>
+      <c r="HM21">
+        <v>3681</v>
+      </c>
+      <c r="HN21">
+        <v>18521</v>
+      </c>
+      <c r="HO21">
+        <v>151406</v>
+      </c>
+      <c r="HP21">
+        <v>158107</v>
+      </c>
+      <c r="HQ21">
+        <v>163</v>
+      </c>
+      <c r="HR21">
+        <v>2690</v>
+      </c>
+      <c r="HS21">
+        <v>12349</v>
+      </c>
+      <c r="HT21">
+        <v>115737</v>
+      </c>
+      <c r="HU21">
+        <v>114557</v>
+      </c>
+      <c r="HV21">
+        <v>164</v>
+      </c>
+      <c r="HW21">
+        <v>1891</v>
+      </c>
+      <c r="HX21">
+        <v>7811</v>
+      </c>
+      <c r="HY21">
+        <v>75765</v>
+      </c>
+      <c r="HZ21">
+        <v>79544</v>
+      </c>
+      <c r="IA21">
+        <v>131</v>
+      </c>
+      <c r="IB21">
+        <v>1281</v>
+      </c>
+      <c r="IC21">
+        <v>4531</v>
+      </c>
+      <c r="ID21">
+        <v>81005</v>
+      </c>
+      <c r="IE21">
+        <v>121770</v>
+      </c>
+      <c r="IF21">
+        <v>306</v>
+      </c>
+      <c r="IG21">
+        <v>2268</v>
+      </c>
+      <c r="IH21">
+        <v>3839</v>
+      </c>
+      <c r="II21">
+        <v>2150</v>
+      </c>
+      <c r="IJ21">
+        <v>2308</v>
+      </c>
+      <c r="IK21">
+        <v>28</v>
+      </c>
+      <c r="IL21">
+        <v>201</v>
+      </c>
+      <c r="IM21">
+        <v>13484</v>
       </c>
     </row>
   </sheetData>
@@ -17195,7 +17938,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45258</v>
+        <v>45259</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DE80B-AE62-483C-A512-D478A58A395E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498DE870-4065-4E90-8A56-CDF56A29069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1877,10 +1877,10 @@
         <v>75255</v>
       </c>
       <c r="Y3">
-        <v>70915</v>
+        <v>70914</v>
       </c>
       <c r="Z3">
-        <v>55518</v>
+        <v>55519</v>
       </c>
       <c r="AA3">
         <v>42725</v>
@@ -1907,10 +1907,10 @@
         <v>8406</v>
       </c>
       <c r="AI3">
-        <v>5710</v>
+        <v>5709</v>
       </c>
       <c r="AJ3">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="AK3">
         <v>3919</v>
@@ -1934,10 +1934,10 @@
         <v>78223</v>
       </c>
       <c r="AR3">
-        <v>74445</v>
+        <v>74444</v>
       </c>
       <c r="AS3">
-        <v>58381</v>
+        <v>58382</v>
       </c>
       <c r="AT3">
         <v>44990</v>
@@ -1964,10 +1964,10 @@
         <v>9318</v>
       </c>
       <c r="BB3">
-        <v>6470</v>
+        <v>6469</v>
       </c>
       <c r="BC3">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="BD3">
         <v>5363</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317788</v>
+        <v>10317796</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1990,13 +1990,13 @@
         <v>2621355</v>
       </c>
       <c r="E4">
-        <v>1586961</v>
+        <v>1586960</v>
       </c>
       <c r="F4">
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848234</v>
+        <v>848243</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885856</v>
+        <v>10885864</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2017,13 +2017,13 @@
         <v>2841482</v>
       </c>
       <c r="N4">
-        <v>1619872</v>
+        <v>1619871</v>
       </c>
       <c r="O4">
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867395</v>
+        <v>867404</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,49 +2038,49 @@
         <v>450547</v>
       </c>
       <c r="U4">
-        <v>611264</v>
+        <v>611262</v>
       </c>
       <c r="V4">
         <v>710184</v>
       </c>
       <c r="W4">
-        <v>683382</v>
+        <v>683379</v>
       </c>
       <c r="X4">
-        <v>812066</v>
+        <v>812068</v>
       </c>
       <c r="Y4">
-        <v>899938</v>
+        <v>899942</v>
       </c>
       <c r="Z4">
-        <v>916988</v>
+        <v>916987</v>
       </c>
       <c r="AA4">
-        <v>908884</v>
+        <v>908881</v>
       </c>
       <c r="AB4">
-        <v>810318</v>
+        <v>810322</v>
       </c>
       <c r="AC4">
         <v>717643</v>
       </c>
       <c r="AD4">
-        <v>658697</v>
+        <v>658701</v>
       </c>
       <c r="AE4">
-        <v>544134</v>
+        <v>544131</v>
       </c>
       <c r="AF4">
-        <v>471546</v>
+        <v>471549</v>
       </c>
       <c r="AG4">
-        <v>349087</v>
+        <v>349088</v>
       </c>
       <c r="AH4">
         <v>274364</v>
       </c>
       <c r="AI4">
-        <v>197907</v>
+        <v>197909</v>
       </c>
       <c r="AJ4">
         <v>128055</v>
@@ -2095,52 +2095,52 @@
         <v>473797</v>
       </c>
       <c r="AN4">
-        <v>644465</v>
+        <v>644463</v>
       </c>
       <c r="AO4">
         <v>741696</v>
       </c>
       <c r="AP4">
-        <v>728634</v>
+        <v>728631</v>
       </c>
       <c r="AQ4">
-        <v>890289</v>
+        <v>890291</v>
       </c>
       <c r="AR4">
-        <v>974383</v>
+        <v>974386</v>
       </c>
       <c r="AS4">
         <v>975369</v>
       </c>
       <c r="AT4">
-        <v>953874</v>
+        <v>953871</v>
       </c>
       <c r="AU4">
-        <v>845937</v>
+        <v>845941</v>
       </c>
       <c r="AV4">
         <v>749721</v>
       </c>
       <c r="AW4">
-        <v>688387</v>
+        <v>688391</v>
       </c>
       <c r="AX4">
-        <v>568135</v>
+        <v>568132</v>
       </c>
       <c r="AY4">
-        <v>490091</v>
+        <v>490094</v>
       </c>
       <c r="AZ4">
-        <v>362054</v>
+        <v>362055</v>
       </c>
       <c r="BA4">
         <v>283682</v>
       </c>
       <c r="BB4">
-        <v>204377</v>
+        <v>204378</v>
       </c>
       <c r="BC4">
-        <v>132445</v>
+        <v>132446</v>
       </c>
       <c r="BD4">
         <v>160941</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>813215</v>
+        <v>815284</v>
       </c>
       <c r="C5">
-        <v>294837</v>
+        <v>295307</v>
       </c>
       <c r="D5">
-        <v>152008</v>
+        <v>152235</v>
       </c>
       <c r="E5">
-        <v>129609</v>
+        <v>129994</v>
       </c>
       <c r="F5">
-        <v>92197</v>
+        <v>92666</v>
       </c>
       <c r="G5">
-        <v>86743</v>
+        <v>87035</v>
       </c>
       <c r="H5">
-        <v>29437</v>
+        <v>29599</v>
       </c>
       <c r="I5">
-        <v>22145</v>
+        <v>22208</v>
       </c>
       <c r="J5">
-        <v>6239</v>
+        <v>6240</v>
       </c>
       <c r="K5">
-        <v>11699071</v>
+        <v>11701148</v>
       </c>
       <c r="L5">
-        <v>3948231</v>
+        <v>3948701</v>
       </c>
       <c r="M5">
-        <v>2993490</v>
+        <v>2993717</v>
       </c>
       <c r="N5">
-        <v>1749481</v>
+        <v>1749865</v>
       </c>
       <c r="O5">
-        <v>1382063</v>
+        <v>1382532</v>
       </c>
       <c r="P5">
-        <v>954138</v>
+        <v>954439</v>
       </c>
       <c r="Q5">
-        <v>310980</v>
+        <v>311142</v>
       </c>
       <c r="R5">
-        <v>250482</v>
+        <v>250545</v>
       </c>
       <c r="S5">
-        <v>110206</v>
+        <v>110207</v>
       </c>
       <c r="T5">
-        <v>28740</v>
+        <v>28867</v>
       </c>
       <c r="U5">
-        <v>23565</v>
+        <v>23597</v>
       </c>
       <c r="V5">
-        <v>31857</v>
+        <v>31900</v>
       </c>
       <c r="W5">
-        <v>31068</v>
+        <v>31145</v>
       </c>
       <c r="X5">
-        <v>39867</v>
+        <v>39963</v>
       </c>
       <c r="Y5">
-        <v>51602</v>
+        <v>51712</v>
       </c>
       <c r="Z5">
-        <v>58463</v>
+        <v>58597</v>
       </c>
       <c r="AA5">
-        <v>64675</v>
+        <v>64801</v>
       </c>
       <c r="AB5">
-        <v>62166</v>
+        <v>62311</v>
       </c>
       <c r="AC5">
-        <v>57196</v>
+        <v>57286</v>
       </c>
       <c r="AD5">
-        <v>58397</v>
+        <v>58533</v>
       </c>
       <c r="AE5">
-        <v>53519</v>
+        <v>53646</v>
       </c>
       <c r="AF5">
-        <v>52617</v>
+        <v>52752</v>
       </c>
       <c r="AG5">
-        <v>45021</v>
+        <v>45135</v>
       </c>
       <c r="AH5">
-        <v>41033</v>
+        <v>41172</v>
       </c>
       <c r="AI5">
-        <v>35783</v>
+        <v>35887</v>
       </c>
       <c r="AJ5">
-        <v>28807</v>
+        <v>28955</v>
       </c>
       <c r="AK5">
-        <v>48247</v>
+        <v>48435</v>
       </c>
       <c r="AL5">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AM5">
-        <v>502537</v>
+        <v>502664</v>
       </c>
       <c r="AN5">
-        <v>668030</v>
+        <v>668060</v>
       </c>
       <c r="AO5">
-        <v>773553</v>
+        <v>773596</v>
       </c>
       <c r="AP5">
-        <v>759702</v>
+        <v>759776</v>
       </c>
       <c r="AQ5">
-        <v>930156</v>
+        <v>930254</v>
       </c>
       <c r="AR5">
-        <v>1025985</v>
+        <v>1026098</v>
       </c>
       <c r="AS5">
-        <v>1033832</v>
+        <v>1033966</v>
       </c>
       <c r="AT5">
-        <v>1018549</v>
+        <v>1018672</v>
       </c>
       <c r="AU5">
-        <v>908103</v>
+        <v>908252</v>
       </c>
       <c r="AV5">
-        <v>806917</v>
+        <v>807007</v>
       </c>
       <c r="AW5">
-        <v>746784</v>
+        <v>746924</v>
       </c>
       <c r="AX5">
-        <v>621654</v>
+        <v>621778</v>
       </c>
       <c r="AY5">
-        <v>542708</v>
+        <v>542846</v>
       </c>
       <c r="AZ5">
-        <v>407075</v>
+        <v>407190</v>
       </c>
       <c r="BA5">
-        <v>324715</v>
+        <v>324854</v>
       </c>
       <c r="BB5">
-        <v>240160</v>
+        <v>240265</v>
       </c>
       <c r="BC5">
-        <v>161252</v>
+        <v>161401</v>
       </c>
       <c r="BD5">
-        <v>209188</v>
+        <v>209376</v>
       </c>
       <c r="BE5">
-        <v>18171</v>
+        <v>18169</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809594</v>
+        <v>1809596</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90057</v>
+        <v>90059</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377662</v>
+        <v>2377664</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109218</v>
+        <v>109220</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687536</v>
+        <v>687538</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44409</v>
+        <v>44411</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065198</v>
+        <v>3065202</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153627</v>
+        <v>153631</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366772</v>
+        <v>1366774</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3946,13 +3946,13 @@
         <v>250086</v>
       </c>
       <c r="E28" s="3">
-        <v>196227</v>
+        <v>196226</v>
       </c>
       <c r="F28" s="3">
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120487</v>
+        <v>120490</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431970</v>
+        <v>4431976</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3973,13 +3973,13 @@
         <v>1310021</v>
       </c>
       <c r="N28" s="3">
-        <v>742288</v>
+        <v>742287</v>
       </c>
       <c r="O28" s="3">
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274114</v>
+        <v>274121</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339850</v>
+        <v>1339852</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139792</v>
+        <v>139794</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771820</v>
+        <v>5771828</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4032,13 +4032,13 @@
         <v>1584973</v>
       </c>
       <c r="N29" s="3">
-        <v>943370</v>
+        <v>943369</v>
       </c>
       <c r="O29" s="3">
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413906</v>
+        <v>413915</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082185</v>
+        <v>7082193</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4091,13 +4091,13 @@
         <v>1918282</v>
       </c>
       <c r="N30" s="3">
-        <v>1096300</v>
+        <v>1096299</v>
       </c>
       <c r="O30" s="3">
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522040</v>
+        <v>522049</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966481</v>
+        <v>7966489</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4150,13 +4150,13 @@
         <v>2133368</v>
       </c>
       <c r="N31" s="3">
-        <v>1213315</v>
+        <v>1213314</v>
       </c>
       <c r="O31" s="3">
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599357</v>
+        <v>599366</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216826</v>
+        <v>9216834</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4209,13 +4209,13 @@
         <v>2445485</v>
       </c>
       <c r="N32" s="3">
-        <v>1410772</v>
+        <v>1410771</v>
       </c>
       <c r="O32" s="3">
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716757</v>
+        <v>716766</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771687</v>
+        <v>9771695</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4268,13 +4268,13 @@
         <v>2570915</v>
       </c>
       <c r="N33" s="3">
-        <v>1482134</v>
+        <v>1482133</v>
       </c>
       <c r="O33" s="3">
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757268</v>
+        <v>757277</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965942</v>
+        <v>9965950</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4327,13 +4327,13 @@
         <v>2617584</v>
       </c>
       <c r="N34" s="3">
-        <v>1512408</v>
+        <v>1512407</v>
       </c>
       <c r="O34" s="3">
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772552</v>
+        <v>772561</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108047</v>
+        <v>10108055</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4386,13 +4386,13 @@
         <v>2653978</v>
       </c>
       <c r="N35" s="3">
-        <v>1529145</v>
+        <v>1529144</v>
       </c>
       <c r="O35" s="3">
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785727</v>
+        <v>785736</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459988</v>
+        <v>10459996</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4445,13 +4445,13 @@
         <v>2746875</v>
       </c>
       <c r="N36" s="3">
-        <v>1565591</v>
+        <v>1565590</v>
       </c>
       <c r="O36" s="3">
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822890</v>
+        <v>822899</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885856</v>
+        <v>10885864</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4504,13 +4504,13 @@
         <v>2841482</v>
       </c>
       <c r="N37" s="3">
-        <v>1619872</v>
+        <v>1619871</v>
       </c>
       <c r="O37" s="3">
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867395</v>
+        <v>867404</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015938</v>
+        <v>11015946</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4563,13 +4563,13 @@
         <v>2864586</v>
       </c>
       <c r="N38" s="3">
-        <v>1643985</v>
+        <v>1643984</v>
       </c>
       <c r="O38" s="3">
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879285</v>
+        <v>879294</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087927</v>
+        <v>11087935</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4622,13 +4622,13 @@
         <v>2876975</v>
       </c>
       <c r="N39" s="3">
-        <v>1658285</v>
+        <v>1658284</v>
       </c>
       <c r="O39" s="3">
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886138</v>
+        <v>886147</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191906</v>
+        <v>11191914</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4681,13 +4681,13 @@
         <v>2896212</v>
       </c>
       <c r="N40" s="3">
-        <v>1673740</v>
+        <v>1673739</v>
       </c>
       <c r="O40" s="3">
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897638</v>
+        <v>897647</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315072</v>
+        <v>11315080</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4740,13 +4740,13 @@
         <v>2922019</v>
       </c>
       <c r="N41" s="3">
-        <v>1689650</v>
+        <v>1689649</v>
       </c>
       <c r="O41" s="3">
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909967</v>
+        <v>909976</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481324</v>
+        <v>11481332</v>
       </c>
       <c r="L42" s="3">
         <v>3872847</v>
@@ -4799,13 +4799,13 @@
         <v>2960395</v>
       </c>
       <c r="N42" s="3">
-        <v>1711960</v>
+        <v>1711959</v>
       </c>
       <c r="O42" s="3">
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924880</v>
+        <v>924889</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4822,7 +4822,7 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77801</v>
+        <v>77800</v>
       </c>
       <c r="C43" s="3">
         <v>28182</v>
@@ -4831,7 +4831,7 @@
         <v>14768</v>
       </c>
       <c r="E43" s="3">
-        <v>14251</v>
+        <v>14250</v>
       </c>
       <c r="F43" s="3">
         <v>8418</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559125</v>
+        <v>11559132</v>
       </c>
       <c r="L43" s="3">
         <v>3901029</v>
@@ -4858,13 +4858,13 @@
         <v>2975163</v>
       </c>
       <c r="N43" s="3">
-        <v>1726211</v>
+        <v>1726209</v>
       </c>
       <c r="O43" s="3">
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932094</v>
+        <v>932103</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4881,7 +4881,7 @@
         <v>45108</v>
       </c>
       <c r="B44" s="3">
-        <v>28200</v>
+        <v>28199</v>
       </c>
       <c r="C44" s="3">
         <v>10285</v>
@@ -4899,7 +4899,7 @@
         <v>2929</v>
       </c>
       <c r="H44" s="3">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="I44" s="3">
         <v>853</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587325</v>
+        <v>11587331</v>
       </c>
       <c r="L44" s="3">
         <v>3911314</v>
@@ -4917,16 +4917,16 @@
         <v>2977219</v>
       </c>
       <c r="N44" s="3">
-        <v>1733159</v>
+        <v>1733157</v>
       </c>
       <c r="O44" s="3">
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935023</v>
+        <v>935032</v>
       </c>
       <c r="Q44" s="3">
-        <v>303253</v>
+        <v>303252</v>
       </c>
       <c r="R44" s="3">
         <v>245517</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610742</v>
+        <v>11610748</v>
       </c>
       <c r="L45" s="3">
         <v>3920449</v>
@@ -4976,16 +4976,16 @@
         <v>2979331</v>
       </c>
       <c r="N45" s="3">
-        <v>1737697</v>
+        <v>1737695</v>
       </c>
       <c r="O45" s="3">
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937472</v>
+        <v>937481</v>
       </c>
       <c r="Q45" s="3">
-        <v>304418</v>
+        <v>304417</v>
       </c>
       <c r="R45" s="3">
         <v>246321</v>
@@ -4999,13 +4999,13 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22103</v>
+        <v>22104</v>
       </c>
       <c r="C46" s="3">
         <v>8963</v>
       </c>
       <c r="D46" s="3">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="E46" s="3">
         <v>2023</v>
@@ -5026,25 +5026,25 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632845</v>
+        <v>11632852</v>
       </c>
       <c r="L46" s="3">
         <v>3929412</v>
       </c>
       <c r="M46" s="3">
-        <v>2982569</v>
+        <v>2982570</v>
       </c>
       <c r="N46" s="3">
-        <v>1739720</v>
+        <v>1739718</v>
       </c>
       <c r="O46" s="3">
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940505</v>
+        <v>940514</v>
       </c>
       <c r="Q46" s="3">
-        <v>305621</v>
+        <v>305620</v>
       </c>
       <c r="R46" s="3">
         <v>247063</v>
@@ -5058,7 +5058,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27896</v>
+        <v>27899</v>
       </c>
       <c r="C47" s="3">
         <v>7713</v>
@@ -5067,10 +5067,10 @@
         <v>5602</v>
       </c>
       <c r="E47" s="3">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="F47" s="3">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G47" s="3">
         <v>5077</v>
@@ -5085,25 +5085,25 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660741</v>
+        <v>11660751</v>
       </c>
       <c r="L47" s="3">
         <v>3937125</v>
       </c>
       <c r="M47" s="3">
-        <v>2988171</v>
+        <v>2988172</v>
       </c>
       <c r="N47" s="3">
-        <v>1743421</v>
+        <v>1743420</v>
       </c>
       <c r="O47" s="3">
-        <v>1380652</v>
+        <v>1380654</v>
       </c>
       <c r="P47" s="3">
-        <v>945582</v>
+        <v>945591</v>
       </c>
       <c r="Q47" s="3">
-        <v>307522</v>
+        <v>307521</v>
       </c>
       <c r="R47" s="3">
         <v>248554</v>
@@ -5117,58 +5117,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>38330</v>
+        <v>40397</v>
       </c>
       <c r="C48" s="3">
-        <v>11106</v>
+        <v>11576</v>
       </c>
       <c r="D48" s="3">
-        <v>5319</v>
+        <v>5545</v>
       </c>
       <c r="E48" s="3">
-        <v>6060</v>
+        <v>6445</v>
       </c>
       <c r="F48" s="3">
-        <v>1411</v>
+        <v>1878</v>
       </c>
       <c r="G48" s="3">
-        <v>8556</v>
+        <v>8848</v>
       </c>
       <c r="H48" s="3">
-        <v>3458</v>
+        <v>3621</v>
       </c>
       <c r="I48" s="3">
-        <v>1928</v>
+        <v>1991</v>
       </c>
       <c r="J48" s="3">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K48" s="3">
-        <v>11699071</v>
+        <v>11701148</v>
       </c>
       <c r="L48" s="3">
-        <v>3948231</v>
+        <v>3948701</v>
       </c>
       <c r="M48" s="3">
-        <v>2993490</v>
+        <v>2993717</v>
       </c>
       <c r="N48" s="3">
-        <v>1749481</v>
+        <v>1749865</v>
       </c>
       <c r="O48" s="3">
-        <v>1382063</v>
+        <v>1382532</v>
       </c>
       <c r="P48" s="3">
-        <v>954138</v>
+        <v>954439</v>
       </c>
       <c r="Q48" s="3">
-        <v>310980</v>
+        <v>311142</v>
       </c>
       <c r="R48" s="3">
-        <v>250482</v>
+        <v>250545</v>
       </c>
       <c r="S48" s="3">
-        <v>110206</v>
+        <v>110207</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +5178,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM21"/>
+  <dimension ref="A1:IM22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17911,6 +17911,749 @@
         <v>201</v>
       </c>
       <c r="IM21">
+        <v>13484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B22">
+        <v>2077</v>
+      </c>
+      <c r="C22">
+        <v>470</v>
+      </c>
+      <c r="D22">
+        <v>227</v>
+      </c>
+      <c r="E22">
+        <v>384</v>
+      </c>
+      <c r="F22">
+        <v>469</v>
+      </c>
+      <c r="G22">
+        <v>301</v>
+      </c>
+      <c r="H22">
+        <v>162</v>
+      </c>
+      <c r="I22">
+        <v>63</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>11701148</v>
+      </c>
+      <c r="L22">
+        <v>3948701</v>
+      </c>
+      <c r="M22">
+        <v>2993717</v>
+      </c>
+      <c r="N22">
+        <v>1749865</v>
+      </c>
+      <c r="O22">
+        <v>1382532</v>
+      </c>
+      <c r="P22">
+        <v>954439</v>
+      </c>
+      <c r="Q22">
+        <v>311142</v>
+      </c>
+      <c r="R22">
+        <v>250545</v>
+      </c>
+      <c r="S22">
+        <v>110207</v>
+      </c>
+      <c r="T22">
+        <v>127</v>
+      </c>
+      <c r="U22">
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <v>43</v>
+      </c>
+      <c r="W22">
+        <v>74</v>
+      </c>
+      <c r="X22">
+        <v>98</v>
+      </c>
+      <c r="Y22">
+        <v>113</v>
+      </c>
+      <c r="Z22">
+        <v>134</v>
+      </c>
+      <c r="AA22">
+        <v>123</v>
+      </c>
+      <c r="AB22">
+        <v>149</v>
+      </c>
+      <c r="AC22">
+        <v>90</v>
+      </c>
+      <c r="AD22">
+        <v>140</v>
+      </c>
+      <c r="AE22">
+        <v>124</v>
+      </c>
+      <c r="AF22">
+        <v>138</v>
+      </c>
+      <c r="AG22">
+        <v>115</v>
+      </c>
+      <c r="AH22">
+        <v>139</v>
+      </c>
+      <c r="AI22">
+        <v>105</v>
+      </c>
+      <c r="AJ22">
+        <v>149</v>
+      </c>
+      <c r="AK22">
+        <v>188</v>
+      </c>
+      <c r="AL22">
+        <v>-2</v>
+      </c>
+      <c r="AM22">
+        <v>502664</v>
+      </c>
+      <c r="AN22">
+        <v>668060</v>
+      </c>
+      <c r="AO22">
+        <v>773596</v>
+      </c>
+      <c r="AP22">
+        <v>759776</v>
+      </c>
+      <c r="AQ22">
+        <v>930254</v>
+      </c>
+      <c r="AR22">
+        <v>1026098</v>
+      </c>
+      <c r="AS22">
+        <v>1033966</v>
+      </c>
+      <c r="AT22">
+        <v>1018672</v>
+      </c>
+      <c r="AU22">
+        <v>908252</v>
+      </c>
+      <c r="AV22">
+        <v>807007</v>
+      </c>
+      <c r="AW22">
+        <v>746924</v>
+      </c>
+      <c r="AX22">
+        <v>621778</v>
+      </c>
+      <c r="AY22">
+        <v>542846</v>
+      </c>
+      <c r="AZ22">
+        <v>407190</v>
+      </c>
+      <c r="BA22">
+        <v>324854</v>
+      </c>
+      <c r="BB22">
+        <v>240265</v>
+      </c>
+      <c r="BC22">
+        <v>161401</v>
+      </c>
+      <c r="BD22">
+        <v>209376</v>
+      </c>
+      <c r="BE22">
+        <v>18169</v>
+      </c>
+      <c r="BF22">
+        <v>67</v>
+      </c>
+      <c r="BG22">
+        <v>60</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>19</v>
+      </c>
+      <c r="BL22">
+        <v>11</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>20</v>
+      </c>
+      <c r="BQ22">
+        <v>23</v>
+      </c>
+      <c r="BR22">
+        <v>0</v>
+      </c>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BU22">
+        <v>32</v>
+      </c>
+      <c r="BV22">
+        <v>42</v>
+      </c>
+      <c r="BW22">
+        <v>0</v>
+      </c>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BY22">
+        <v>0</v>
+      </c>
+      <c r="BZ22">
+        <v>35</v>
+      </c>
+      <c r="CA22">
+        <v>64</v>
+      </c>
+      <c r="CB22">
+        <v>0</v>
+      </c>
+      <c r="CC22">
+        <v>-1</v>
+      </c>
+      <c r="CD22">
+        <v>0</v>
+      </c>
+      <c r="CE22">
+        <v>29</v>
+      </c>
+      <c r="CF22">
+        <v>84</v>
+      </c>
+      <c r="CG22">
+        <v>0</v>
+      </c>
+      <c r="CH22">
+        <v>0</v>
+      </c>
+      <c r="CI22">
+        <v>0</v>
+      </c>
+      <c r="CJ22">
+        <v>45</v>
+      </c>
+      <c r="CK22">
+        <v>88</v>
+      </c>
+      <c r="CL22">
+        <v>0</v>
+      </c>
+      <c r="CM22">
+        <v>0</v>
+      </c>
+      <c r="CN22">
+        <v>1</v>
+      </c>
+      <c r="CO22">
+        <v>42</v>
+      </c>
+      <c r="CP22">
+        <v>81</v>
+      </c>
+      <c r="CQ22">
+        <v>0</v>
+      </c>
+      <c r="CR22">
+        <v>0</v>
+      </c>
+      <c r="CS22">
+        <v>0</v>
+      </c>
+      <c r="CT22">
+        <v>65</v>
+      </c>
+      <c r="CU22">
+        <v>83</v>
+      </c>
+      <c r="CV22">
+        <v>0</v>
+      </c>
+      <c r="CW22">
+        <v>1</v>
+      </c>
+      <c r="CX22">
+        <v>0</v>
+      </c>
+      <c r="CY22">
+        <v>32</v>
+      </c>
+      <c r="CZ22">
+        <v>58</v>
+      </c>
+      <c r="DA22">
+        <v>0</v>
+      </c>
+      <c r="DB22">
+        <v>0</v>
+      </c>
+      <c r="DC22">
+        <v>0</v>
+      </c>
+      <c r="DD22">
+        <v>57</v>
+      </c>
+      <c r="DE22">
+        <v>83</v>
+      </c>
+      <c r="DF22">
+        <v>0</v>
+      </c>
+      <c r="DG22">
+        <v>0</v>
+      </c>
+      <c r="DH22">
+        <v>0</v>
+      </c>
+      <c r="DI22">
+        <v>48</v>
+      </c>
+      <c r="DJ22">
+        <v>77</v>
+      </c>
+      <c r="DK22">
+        <v>-1</v>
+      </c>
+      <c r="DL22">
+        <v>0</v>
+      </c>
+      <c r="DM22">
+        <v>0</v>
+      </c>
+      <c r="DN22">
+        <v>62</v>
+      </c>
+      <c r="DO22">
+        <v>76</v>
+      </c>
+      <c r="DP22">
+        <v>0</v>
+      </c>
+      <c r="DQ22">
+        <v>0</v>
+      </c>
+      <c r="DR22">
+        <v>0</v>
+      </c>
+      <c r="DS22">
+        <v>50</v>
+      </c>
+      <c r="DT22">
+        <v>67</v>
+      </c>
+      <c r="DU22">
+        <v>0</v>
+      </c>
+      <c r="DV22">
+        <v>-2</v>
+      </c>
+      <c r="DW22">
+        <v>0</v>
+      </c>
+      <c r="DX22">
+        <v>77</v>
+      </c>
+      <c r="DY22">
+        <v>65</v>
+      </c>
+      <c r="DZ22">
+        <v>0</v>
+      </c>
+      <c r="EA22">
+        <v>-3</v>
+      </c>
+      <c r="EB22">
+        <v>0</v>
+      </c>
+      <c r="EC22">
+        <v>52</v>
+      </c>
+      <c r="ED22">
+        <v>53</v>
+      </c>
+      <c r="EE22">
+        <v>0</v>
+      </c>
+      <c r="EF22">
+        <v>0</v>
+      </c>
+      <c r="EG22">
+        <v>0</v>
+      </c>
+      <c r="EH22">
+        <v>75</v>
+      </c>
+      <c r="EI22">
+        <v>74</v>
+      </c>
+      <c r="EJ22">
+        <v>0</v>
+      </c>
+      <c r="EK22">
+        <v>0</v>
+      </c>
+      <c r="EL22">
+        <v>0</v>
+      </c>
+      <c r="EM22">
+        <v>63</v>
+      </c>
+      <c r="EN22">
+        <v>125</v>
+      </c>
+      <c r="EO22">
+        <v>0</v>
+      </c>
+      <c r="EP22">
+        <v>0</v>
+      </c>
+      <c r="EQ22">
+        <v>0</v>
+      </c>
+      <c r="ER22">
+        <v>1</v>
+      </c>
+      <c r="ES22">
+        <v>1</v>
+      </c>
+      <c r="ET22">
+        <v>-4</v>
+      </c>
+      <c r="EU22">
+        <v>0</v>
+      </c>
+      <c r="EV22">
+        <v>0</v>
+      </c>
+      <c r="EW22">
+        <v>231428</v>
+      </c>
+      <c r="EX22">
+        <v>219729</v>
+      </c>
+      <c r="EY22">
+        <v>408</v>
+      </c>
+      <c r="EZ22">
+        <v>15452</v>
+      </c>
+      <c r="FA22">
+        <v>35647</v>
+      </c>
+      <c r="FB22">
+        <v>308070</v>
+      </c>
+      <c r="FC22">
+        <v>292720</v>
+      </c>
+      <c r="FD22">
+        <v>466</v>
+      </c>
+      <c r="FE22">
+        <v>16771</v>
+      </c>
+      <c r="FF22">
+        <v>50033</v>
+      </c>
+      <c r="FG22">
+        <v>353284</v>
+      </c>
+      <c r="FH22">
+        <v>342642</v>
+      </c>
+      <c r="FI22">
+        <v>633</v>
+      </c>
+      <c r="FJ22">
+        <v>16954</v>
+      </c>
+      <c r="FK22">
+        <v>60083</v>
+      </c>
+      <c r="FL22">
+        <v>326315</v>
+      </c>
+      <c r="FM22">
+        <v>373809</v>
+      </c>
+      <c r="FN22">
+        <v>894</v>
+      </c>
+      <c r="FO22">
+        <v>12937</v>
+      </c>
+      <c r="FP22">
+        <v>45821</v>
+      </c>
+      <c r="FQ22">
+        <v>391971</v>
+      </c>
+      <c r="FR22">
+        <v>479490</v>
+      </c>
+      <c r="FS22">
+        <v>1100</v>
+      </c>
+      <c r="FT22">
+        <v>16278</v>
+      </c>
+      <c r="FU22">
+        <v>41415</v>
+      </c>
+      <c r="FV22">
+        <v>433762</v>
+      </c>
+      <c r="FW22">
+        <v>525905</v>
+      </c>
+      <c r="FX22">
+        <v>1136</v>
+      </c>
+      <c r="FY22">
+        <v>17784</v>
+      </c>
+      <c r="FZ22">
+        <v>47511</v>
+      </c>
+      <c r="GA22">
+        <v>429107</v>
+      </c>
+      <c r="GB22">
+        <v>531949</v>
+      </c>
+      <c r="GC22">
+        <v>922</v>
+      </c>
+      <c r="GD22">
+        <v>17167</v>
+      </c>
+      <c r="GE22">
+        <v>54821</v>
+      </c>
+      <c r="GF22">
+        <v>419647</v>
+      </c>
+      <c r="GG22">
+        <v>524504</v>
+      </c>
+      <c r="GH22">
+        <v>664</v>
+      </c>
+      <c r="GI22">
+        <v>15033</v>
+      </c>
+      <c r="GJ22">
+        <v>58824</v>
+      </c>
+      <c r="GK22">
+        <v>373492</v>
+      </c>
+      <c r="GL22">
+        <v>468753</v>
+      </c>
+      <c r="GM22">
+        <v>498</v>
+      </c>
+      <c r="GN22">
+        <v>12347</v>
+      </c>
+      <c r="GO22">
+        <v>53162</v>
+      </c>
+      <c r="GP22">
+        <v>330235</v>
+      </c>
+      <c r="GQ22">
+        <v>420885</v>
+      </c>
+      <c r="GR22">
+        <v>439</v>
+      </c>
+      <c r="GS22">
+        <v>10127</v>
+      </c>
+      <c r="GT22">
+        <v>45321</v>
+      </c>
+      <c r="GU22">
+        <v>308053</v>
+      </c>
+      <c r="GV22">
+        <v>389261</v>
+      </c>
+      <c r="GW22">
+        <v>399</v>
+      </c>
+      <c r="GX22">
+        <v>8952</v>
+      </c>
+      <c r="GY22">
+        <v>40259</v>
+      </c>
+      <c r="GZ22">
+        <v>263432</v>
+      </c>
+      <c r="HA22">
+        <v>319664</v>
+      </c>
+      <c r="HB22">
+        <v>328</v>
+      </c>
+      <c r="HC22">
+        <v>6607</v>
+      </c>
+      <c r="HD22">
+        <v>31747</v>
+      </c>
+      <c r="HE22">
+        <v>234347</v>
+      </c>
+      <c r="HF22">
+        <v>276988</v>
+      </c>
+      <c r="HG22">
+        <v>234</v>
+      </c>
+      <c r="HH22">
+        <v>5317</v>
+      </c>
+      <c r="HI22">
+        <v>25960</v>
+      </c>
+      <c r="HJ22">
+        <v>180688</v>
+      </c>
+      <c r="HK22">
+        <v>204103</v>
+      </c>
+      <c r="HL22">
+        <v>199</v>
+      </c>
+      <c r="HM22">
+        <v>3679</v>
+      </c>
+      <c r="HN22">
+        <v>18521</v>
+      </c>
+      <c r="HO22">
+        <v>151483</v>
+      </c>
+      <c r="HP22">
+        <v>158172</v>
+      </c>
+      <c r="HQ22">
+        <v>163</v>
+      </c>
+      <c r="HR22">
+        <v>2687</v>
+      </c>
+      <c r="HS22">
+        <v>12349</v>
+      </c>
+      <c r="HT22">
+        <v>115789</v>
+      </c>
+      <c r="HU22">
+        <v>114610</v>
+      </c>
+      <c r="HV22">
+        <v>164</v>
+      </c>
+      <c r="HW22">
+        <v>1891</v>
+      </c>
+      <c r="HX22">
+        <v>7811</v>
+      </c>
+      <c r="HY22">
+        <v>75840</v>
+      </c>
+      <c r="HZ22">
+        <v>79618</v>
+      </c>
+      <c r="IA22">
+        <v>131</v>
+      </c>
+      <c r="IB22">
+        <v>1281</v>
+      </c>
+      <c r="IC22">
+        <v>4531</v>
+      </c>
+      <c r="ID22">
+        <v>81068</v>
+      </c>
+      <c r="IE22">
+        <v>121895</v>
+      </c>
+      <c r="IF22">
+        <v>306</v>
+      </c>
+      <c r="IG22">
+        <v>2268</v>
+      </c>
+      <c r="IH22">
+        <v>3839</v>
+      </c>
+      <c r="II22">
+        <v>2151</v>
+      </c>
+      <c r="IJ22">
+        <v>2309</v>
+      </c>
+      <c r="IK22">
+        <v>24</v>
+      </c>
+      <c r="IL22">
+        <v>201</v>
+      </c>
+      <c r="IM22">
         <v>13484</v>
       </c>
     </row>
@@ -17938,7 +18681,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45259</v>
+        <v>45260</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498DE870-4065-4E90-8A56-CDF56A29069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEFF9D-6899-4BAF-BD53-20D48D64300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1886,10 +1886,10 @@
         <v>42725</v>
       </c>
       <c r="AB3">
-        <v>33830</v>
+        <v>33829</v>
       </c>
       <c r="AC3">
-        <v>30113</v>
+        <v>30114</v>
       </c>
       <c r="AD3">
         <v>27884</v>
@@ -1943,10 +1943,10 @@
         <v>44990</v>
       </c>
       <c r="AU3">
-        <v>35619</v>
+        <v>35618</v>
       </c>
       <c r="AV3">
-        <v>32078</v>
+        <v>32079</v>
       </c>
       <c r="AW3">
         <v>29690</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317796</v>
+        <v>10317799</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1996,7 +1996,7 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848243</v>
+        <v>848246</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885864</v>
+        <v>10885867</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2023,7 +2023,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867404</v>
+        <v>867407</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,115 +2035,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450547</v>
+        <v>450546</v>
       </c>
       <c r="U4">
-        <v>611262</v>
+        <v>611261</v>
       </c>
       <c r="V4">
-        <v>710184</v>
+        <v>710183</v>
       </c>
       <c r="W4">
-        <v>683379</v>
+        <v>683380</v>
       </c>
       <c r="X4">
-        <v>812068</v>
+        <v>812067</v>
       </c>
       <c r="Y4">
-        <v>899942</v>
+        <v>899940</v>
       </c>
       <c r="Z4">
-        <v>916987</v>
+        <v>916985</v>
       </c>
       <c r="AA4">
-        <v>908881</v>
+        <v>908883</v>
       </c>
       <c r="AB4">
         <v>810322</v>
       </c>
       <c r="AC4">
-        <v>717643</v>
+        <v>717647</v>
       </c>
       <c r="AD4">
-        <v>658701</v>
+        <v>658698</v>
       </c>
       <c r="AE4">
-        <v>544131</v>
+        <v>544128</v>
       </c>
       <c r="AF4">
-        <v>471549</v>
+        <v>471557</v>
       </c>
       <c r="AG4">
-        <v>349088</v>
+        <v>349087</v>
       </c>
       <c r="AH4">
-        <v>274364</v>
+        <v>274367</v>
       </c>
       <c r="AI4">
         <v>197909</v>
       </c>
       <c r="AJ4">
-        <v>128055</v>
+        <v>128054</v>
       </c>
       <c r="AK4">
-        <v>155578</v>
+        <v>155579</v>
       </c>
       <c r="AL4">
         <v>17206</v>
       </c>
       <c r="AM4">
-        <v>473797</v>
+        <v>473796</v>
       </c>
       <c r="AN4">
-        <v>644463</v>
+        <v>644462</v>
       </c>
       <c r="AO4">
-        <v>741696</v>
+        <v>741695</v>
       </c>
       <c r="AP4">
-        <v>728631</v>
+        <v>728632</v>
       </c>
       <c r="AQ4">
-        <v>890291</v>
+        <v>890290</v>
       </c>
       <c r="AR4">
-        <v>974386</v>
+        <v>974384</v>
       </c>
       <c r="AS4">
-        <v>975369</v>
+        <v>975367</v>
       </c>
       <c r="AT4">
-        <v>953871</v>
+        <v>953873</v>
       </c>
       <c r="AU4">
-        <v>845941</v>
+        <v>845940</v>
       </c>
       <c r="AV4">
-        <v>749721</v>
+        <v>749726</v>
       </c>
       <c r="AW4">
-        <v>688391</v>
+        <v>688388</v>
       </c>
       <c r="AX4">
-        <v>568132</v>
+        <v>568129</v>
       </c>
       <c r="AY4">
-        <v>490094</v>
+        <v>490102</v>
       </c>
       <c r="AZ4">
-        <v>362055</v>
+        <v>362054</v>
       </c>
       <c r="BA4">
-        <v>283682</v>
+        <v>283685</v>
       </c>
       <c r="BB4">
         <v>204378</v>
       </c>
       <c r="BC4">
-        <v>132446</v>
+        <v>132445</v>
       </c>
       <c r="BD4">
-        <v>160941</v>
+        <v>160942</v>
       </c>
       <c r="BE4">
         <v>17579</v>
@@ -2154,169 +2154,169 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>815284</v>
+        <v>816755</v>
       </c>
       <c r="C5">
-        <v>295307</v>
+        <v>295762</v>
       </c>
       <c r="D5">
-        <v>152235</v>
+        <v>152425</v>
       </c>
       <c r="E5">
-        <v>129994</v>
+        <v>130281</v>
       </c>
       <c r="F5">
         <v>92666</v>
       </c>
       <c r="G5">
-        <v>87035</v>
+        <v>87314</v>
       </c>
       <c r="H5">
-        <v>29599</v>
+        <v>29772</v>
       </c>
       <c r="I5">
-        <v>22208</v>
+        <v>22265</v>
       </c>
       <c r="J5">
-        <v>6240</v>
+        <v>6270</v>
       </c>
       <c r="K5">
-        <v>11701148</v>
+        <v>11702622</v>
       </c>
       <c r="L5">
-        <v>3948701</v>
+        <v>3949156</v>
       </c>
       <c r="M5">
-        <v>2993717</v>
+        <v>2993907</v>
       </c>
       <c r="N5">
-        <v>1749865</v>
+        <v>1750152</v>
       </c>
       <c r="O5">
         <v>1382532</v>
       </c>
       <c r="P5">
-        <v>954439</v>
+        <v>954721</v>
       </c>
       <c r="Q5">
-        <v>311142</v>
+        <v>311315</v>
       </c>
       <c r="R5">
-        <v>250545</v>
+        <v>250602</v>
       </c>
       <c r="S5">
-        <v>110207</v>
+        <v>110237</v>
       </c>
       <c r="T5">
-        <v>28867</v>
+        <v>28942</v>
       </c>
       <c r="U5">
-        <v>23597</v>
+        <v>23624</v>
       </c>
       <c r="V5">
-        <v>31900</v>
+        <v>31932</v>
       </c>
       <c r="W5">
-        <v>31145</v>
+        <v>31215</v>
       </c>
       <c r="X5">
-        <v>39963</v>
+        <v>40036</v>
       </c>
       <c r="Y5">
-        <v>51712</v>
+        <v>51813</v>
       </c>
       <c r="Z5">
+        <v>58693</v>
+      </c>
+      <c r="AA5">
+        <v>64888</v>
+      </c>
+      <c r="AB5">
+        <v>62410</v>
+      </c>
+      <c r="AC5">
+        <v>57382</v>
+      </c>
+      <c r="AD5">
         <v>58597</v>
       </c>
-      <c r="AA5">
-        <v>64801</v>
-      </c>
-      <c r="AB5">
-        <v>62311</v>
-      </c>
-      <c r="AC5">
-        <v>57286</v>
-      </c>
-      <c r="AD5">
-        <v>58533</v>
-      </c>
       <c r="AE5">
-        <v>53646</v>
+        <v>53744</v>
       </c>
       <c r="AF5">
-        <v>52752</v>
+        <v>52828</v>
       </c>
       <c r="AG5">
-        <v>45135</v>
+        <v>45236</v>
       </c>
       <c r="AH5">
-        <v>41172</v>
+        <v>41256</v>
       </c>
       <c r="AI5">
-        <v>35887</v>
+        <v>35953</v>
       </c>
       <c r="AJ5">
-        <v>28955</v>
+        <v>29031</v>
       </c>
       <c r="AK5">
-        <v>48435</v>
+        <v>48585</v>
       </c>
       <c r="AL5">
         <v>590</v>
       </c>
       <c r="AM5">
-        <v>502664</v>
+        <v>502738</v>
       </c>
       <c r="AN5">
-        <v>668060</v>
+        <v>668086</v>
       </c>
       <c r="AO5">
-        <v>773596</v>
+        <v>773627</v>
       </c>
       <c r="AP5">
-        <v>759776</v>
+        <v>759847</v>
       </c>
       <c r="AQ5">
-        <v>930254</v>
+        <v>930326</v>
       </c>
       <c r="AR5">
-        <v>1026098</v>
+        <v>1026197</v>
       </c>
       <c r="AS5">
-        <v>1033966</v>
+        <v>1034060</v>
       </c>
       <c r="AT5">
-        <v>1018672</v>
+        <v>1018761</v>
       </c>
       <c r="AU5">
-        <v>908252</v>
+        <v>908350</v>
       </c>
       <c r="AV5">
-        <v>807007</v>
+        <v>807108</v>
       </c>
       <c r="AW5">
-        <v>746924</v>
+        <v>746985</v>
       </c>
       <c r="AX5">
-        <v>621778</v>
+        <v>621873</v>
       </c>
       <c r="AY5">
-        <v>542846</v>
+        <v>542930</v>
       </c>
       <c r="AZ5">
-        <v>407190</v>
+        <v>407290</v>
       </c>
       <c r="BA5">
-        <v>324854</v>
+        <v>324941</v>
       </c>
       <c r="BB5">
-        <v>240265</v>
+        <v>240331</v>
       </c>
       <c r="BC5">
-        <v>161401</v>
+        <v>161476</v>
       </c>
       <c r="BD5">
-        <v>209376</v>
+        <v>209527</v>
       </c>
       <c r="BE5">
         <v>18169</v>
@@ -2329,7 +2329,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125DBEF1-FF0A-4137-8A02-CEAF7EA42BCB}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687538</v>
+        <v>687539</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065202</v>
+        <v>3065203</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153631</v>
+        <v>153632</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431976</v>
+        <v>4431977</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3979,7 +3979,7 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274121</v>
+        <v>274122</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339852</v>
+        <v>1339854</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139794</v>
+        <v>139796</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771828</v>
+        <v>5771831</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413915</v>
+        <v>413918</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082193</v>
+        <v>7082196</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4097,7 +4097,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522049</v>
+        <v>522052</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966489</v>
+        <v>7966492</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4156,7 +4156,7 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599366</v>
+        <v>599369</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216834</v>
+        <v>9216837</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4215,7 +4215,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716766</v>
+        <v>716769</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771695</v>
+        <v>9771698</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4274,7 +4274,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757277</v>
+        <v>757280</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965950</v>
+        <v>9965953</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4333,7 +4333,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772561</v>
+        <v>772564</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108055</v>
+        <v>10108058</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4392,7 +4392,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785736</v>
+        <v>785739</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459996</v>
+        <v>10459999</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4451,7 +4451,7 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822899</v>
+        <v>822902</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885864</v>
+        <v>10885867</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4510,7 +4510,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867404</v>
+        <v>867407</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015946</v>
+        <v>11015949</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4569,7 +4569,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879294</v>
+        <v>879297</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087935</v>
+        <v>11087938</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4628,7 +4628,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886147</v>
+        <v>886150</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191914</v>
+        <v>11191917</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4687,7 +4687,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897647</v>
+        <v>897650</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315080</v>
+        <v>11315083</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4746,7 +4746,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909976</v>
+        <v>909979</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481332</v>
+        <v>11481335</v>
       </c>
       <c r="L42" s="3">
         <v>3872847</v>
@@ -4805,7 +4805,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924889</v>
+        <v>924892</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559132</v>
+        <v>11559135</v>
       </c>
       <c r="L43" s="3">
         <v>3901029</v>
@@ -4864,7 +4864,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932103</v>
+        <v>932106</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587331</v>
+        <v>11587334</v>
       </c>
       <c r="L44" s="3">
         <v>3911314</v>
@@ -4923,7 +4923,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935032</v>
+        <v>935035</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610748</v>
+        <v>11610751</v>
       </c>
       <c r="L45" s="3">
         <v>3920449</v>
@@ -4982,7 +4982,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937481</v>
+        <v>937484</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632852</v>
+        <v>11632855</v>
       </c>
       <c r="L46" s="3">
         <v>3929412</v>
@@ -5041,7 +5041,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940514</v>
+        <v>940517</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660751</v>
+        <v>11660754</v>
       </c>
       <c r="L47" s="3">
         <v>3937125</v>
@@ -5100,7 +5100,7 @@
         <v>1380654</v>
       </c>
       <c r="P47" s="3">
-        <v>945591</v>
+        <v>945594</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,58 +5117,117 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>40397</v>
+        <v>41867</v>
       </c>
       <c r="C48" s="3">
-        <v>11576</v>
+        <v>12030</v>
       </c>
       <c r="D48" s="3">
-        <v>5545</v>
+        <v>5735</v>
       </c>
       <c r="E48" s="3">
-        <v>6445</v>
+        <v>6732</v>
       </c>
       <c r="F48" s="3">
         <v>1878</v>
       </c>
       <c r="G48" s="3">
-        <v>8848</v>
+        <v>9127</v>
       </c>
       <c r="H48" s="3">
-        <v>3621</v>
+        <v>3794</v>
       </c>
       <c r="I48" s="3">
-        <v>1991</v>
+        <v>2048</v>
       </c>
       <c r="J48" s="3">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="K48" s="3">
-        <v>11701148</v>
+        <v>11702621</v>
       </c>
       <c r="L48" s="3">
-        <v>3948701</v>
+        <v>3949155</v>
       </c>
       <c r="M48" s="3">
-        <v>2993717</v>
+        <v>2993907</v>
       </c>
       <c r="N48" s="3">
-        <v>1749865</v>
+        <v>1750152</v>
       </c>
       <c r="O48" s="3">
         <v>1382532</v>
       </c>
       <c r="P48" s="3">
-        <v>954439</v>
+        <v>954721</v>
       </c>
       <c r="Q48" s="3">
-        <v>311142</v>
+        <v>311315</v>
       </c>
       <c r="R48" s="3">
-        <v>250545</v>
+        <v>250602</v>
       </c>
       <c r="S48" s="3">
-        <v>110207</v>
+        <v>110237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45261</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>11702622</v>
+      </c>
+      <c r="L49">
+        <v>3949156</v>
+      </c>
+      <c r="M49">
+        <v>2993907</v>
+      </c>
+      <c r="N49">
+        <v>1750152</v>
+      </c>
+      <c r="O49">
+        <v>1382532</v>
+      </c>
+      <c r="P49">
+        <v>954721</v>
+      </c>
+      <c r="Q49">
+        <v>311315</v>
+      </c>
+      <c r="R49">
+        <v>250602</v>
+      </c>
+      <c r="S49">
+        <v>110237</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM22"/>
+  <dimension ref="A1:IM23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18654,6 +18713,749 @@
         <v>201</v>
       </c>
       <c r="IM22">
+        <v>13484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B23">
+        <v>1474</v>
+      </c>
+      <c r="C23">
+        <v>455</v>
+      </c>
+      <c r="D23">
+        <v>190</v>
+      </c>
+      <c r="E23">
+        <v>287</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>282</v>
+      </c>
+      <c r="H23">
+        <v>173</v>
+      </c>
+      <c r="I23">
+        <v>57</v>
+      </c>
+      <c r="J23">
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <v>11702622</v>
+      </c>
+      <c r="L23">
+        <v>3949156</v>
+      </c>
+      <c r="M23">
+        <v>2993907</v>
+      </c>
+      <c r="N23">
+        <v>1750152</v>
+      </c>
+      <c r="O23">
+        <v>1382532</v>
+      </c>
+      <c r="P23">
+        <v>954721</v>
+      </c>
+      <c r="Q23">
+        <v>311315</v>
+      </c>
+      <c r="R23">
+        <v>250602</v>
+      </c>
+      <c r="S23">
+        <v>110237</v>
+      </c>
+      <c r="T23">
+        <v>74</v>
+      </c>
+      <c r="U23">
+        <v>26</v>
+      </c>
+      <c r="V23">
+        <v>31</v>
+      </c>
+      <c r="W23">
+        <v>71</v>
+      </c>
+      <c r="X23">
+        <v>72</v>
+      </c>
+      <c r="Y23">
+        <v>99</v>
+      </c>
+      <c r="Z23">
+        <v>94</v>
+      </c>
+      <c r="AA23">
+        <v>89</v>
+      </c>
+      <c r="AB23">
+        <v>98</v>
+      </c>
+      <c r="AC23">
+        <v>101</v>
+      </c>
+      <c r="AD23">
+        <v>61</v>
+      </c>
+      <c r="AE23">
+        <v>95</v>
+      </c>
+      <c r="AF23">
+        <v>84</v>
+      </c>
+      <c r="AG23">
+        <v>100</v>
+      </c>
+      <c r="AH23">
+        <v>87</v>
+      </c>
+      <c r="AI23">
+        <v>66</v>
+      </c>
+      <c r="AJ23">
+        <v>75</v>
+      </c>
+      <c r="AK23">
+        <v>151</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>502738</v>
+      </c>
+      <c r="AN23">
+        <v>668086</v>
+      </c>
+      <c r="AO23">
+        <v>773627</v>
+      </c>
+      <c r="AP23">
+        <v>759847</v>
+      </c>
+      <c r="AQ23">
+        <v>930326</v>
+      </c>
+      <c r="AR23">
+        <v>1026197</v>
+      </c>
+      <c r="AS23">
+        <v>1034060</v>
+      </c>
+      <c r="AT23">
+        <v>1018761</v>
+      </c>
+      <c r="AU23">
+        <v>908350</v>
+      </c>
+      <c r="AV23">
+        <v>807108</v>
+      </c>
+      <c r="AW23">
+        <v>746985</v>
+      </c>
+      <c r="AX23">
+        <v>621873</v>
+      </c>
+      <c r="AY23">
+        <v>542930</v>
+      </c>
+      <c r="AZ23">
+        <v>407290</v>
+      </c>
+      <c r="BA23">
+        <v>324941</v>
+      </c>
+      <c r="BB23">
+        <v>240331</v>
+      </c>
+      <c r="BC23">
+        <v>161476</v>
+      </c>
+      <c r="BD23">
+        <v>209527</v>
+      </c>
+      <c r="BE23">
+        <v>18169</v>
+      </c>
+      <c r="BF23">
+        <v>44</v>
+      </c>
+      <c r="BG23">
+        <v>30</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>13</v>
+      </c>
+      <c r="BL23">
+        <v>13</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>19</v>
+      </c>
+      <c r="BQ23">
+        <v>12</v>
+      </c>
+      <c r="BR23">
+        <v>0</v>
+      </c>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>27</v>
+      </c>
+      <c r="BV23">
+        <v>43</v>
+      </c>
+      <c r="BW23">
+        <v>1</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23">
+        <v>25</v>
+      </c>
+      <c r="CA23">
+        <v>47</v>
+      </c>
+      <c r="CB23">
+        <v>0</v>
+      </c>
+      <c r="CC23">
+        <v>0</v>
+      </c>
+      <c r="CD23">
+        <v>0</v>
+      </c>
+      <c r="CE23">
+        <v>33</v>
+      </c>
+      <c r="CF23">
+        <v>67</v>
+      </c>
+      <c r="CG23">
+        <v>0</v>
+      </c>
+      <c r="CH23">
+        <v>-1</v>
+      </c>
+      <c r="CI23">
+        <v>0</v>
+      </c>
+      <c r="CJ23">
+        <v>29</v>
+      </c>
+      <c r="CK23">
+        <v>65</v>
+      </c>
+      <c r="CL23">
+        <v>0</v>
+      </c>
+      <c r="CM23">
+        <v>0</v>
+      </c>
+      <c r="CN23">
+        <v>0</v>
+      </c>
+      <c r="CO23">
+        <v>32</v>
+      </c>
+      <c r="CP23">
+        <v>56</v>
+      </c>
+      <c r="CQ23">
+        <v>0</v>
+      </c>
+      <c r="CR23">
+        <v>0</v>
+      </c>
+      <c r="CS23">
+        <v>1</v>
+      </c>
+      <c r="CT23">
+        <v>39</v>
+      </c>
+      <c r="CU23">
+        <v>58</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23">
+        <v>1</v>
+      </c>
+      <c r="CY23">
+        <v>37</v>
+      </c>
+      <c r="CZ23">
+        <v>63</v>
+      </c>
+      <c r="DA23">
+        <v>0</v>
+      </c>
+      <c r="DB23">
+        <v>1</v>
+      </c>
+      <c r="DC23">
+        <v>0</v>
+      </c>
+      <c r="DD23">
+        <v>24</v>
+      </c>
+      <c r="DE23">
+        <v>37</v>
+      </c>
+      <c r="DF23">
+        <v>0</v>
+      </c>
+      <c r="DG23">
+        <v>0</v>
+      </c>
+      <c r="DH23">
+        <v>0</v>
+      </c>
+      <c r="DI23">
+        <v>39</v>
+      </c>
+      <c r="DJ23">
+        <v>56</v>
+      </c>
+      <c r="DK23">
+        <v>0</v>
+      </c>
+      <c r="DL23">
+        <v>0</v>
+      </c>
+      <c r="DM23">
+        <v>0</v>
+      </c>
+      <c r="DN23">
+        <v>40</v>
+      </c>
+      <c r="DO23">
+        <v>44</v>
+      </c>
+      <c r="DP23">
+        <v>0</v>
+      </c>
+      <c r="DQ23">
+        <v>0</v>
+      </c>
+      <c r="DR23">
+        <v>0</v>
+      </c>
+      <c r="DS23">
+        <v>44</v>
+      </c>
+      <c r="DT23">
+        <v>70</v>
+      </c>
+      <c r="DU23">
+        <v>0</v>
+      </c>
+      <c r="DV23">
+        <v>-14</v>
+      </c>
+      <c r="DW23">
+        <v>0</v>
+      </c>
+      <c r="DX23">
+        <v>44</v>
+      </c>
+      <c r="DY23">
+        <v>51</v>
+      </c>
+      <c r="DZ23">
+        <v>0</v>
+      </c>
+      <c r="EA23">
+        <v>-8</v>
+      </c>
+      <c r="EB23">
+        <v>0</v>
+      </c>
+      <c r="EC23">
+        <v>28</v>
+      </c>
+      <c r="ED23">
+        <v>45</v>
+      </c>
+      <c r="EE23">
+        <v>0</v>
+      </c>
+      <c r="EF23">
+        <v>-7</v>
+      </c>
+      <c r="EG23">
+        <v>0</v>
+      </c>
+      <c r="EH23">
+        <v>40</v>
+      </c>
+      <c r="EI23">
+        <v>36</v>
+      </c>
+      <c r="EJ23">
+        <v>0</v>
+      </c>
+      <c r="EK23">
+        <v>-1</v>
+      </c>
+      <c r="EL23">
+        <v>0</v>
+      </c>
+      <c r="EM23">
+        <v>55</v>
+      </c>
+      <c r="EN23">
+        <v>95</v>
+      </c>
+      <c r="EO23">
+        <v>0</v>
+      </c>
+      <c r="EP23">
+        <v>-1</v>
+      </c>
+      <c r="EQ23">
+        <v>2</v>
+      </c>
+      <c r="ER23">
+        <v>0</v>
+      </c>
+      <c r="ES23">
+        <v>0</v>
+      </c>
+      <c r="ET23">
+        <v>0</v>
+      </c>
+      <c r="EU23">
+        <v>0</v>
+      </c>
+      <c r="EV23">
+        <v>0</v>
+      </c>
+      <c r="EW23">
+        <v>231472</v>
+      </c>
+      <c r="EX23">
+        <v>219759</v>
+      </c>
+      <c r="EY23">
+        <v>408</v>
+      </c>
+      <c r="EZ23">
+        <v>15452</v>
+      </c>
+      <c r="FA23">
+        <v>35647</v>
+      </c>
+      <c r="FB23">
+        <v>308083</v>
+      </c>
+      <c r="FC23">
+        <v>292733</v>
+      </c>
+      <c r="FD23">
+        <v>466</v>
+      </c>
+      <c r="FE23">
+        <v>16771</v>
+      </c>
+      <c r="FF23">
+        <v>50033</v>
+      </c>
+      <c r="FG23">
+        <v>353303</v>
+      </c>
+      <c r="FH23">
+        <v>342654</v>
+      </c>
+      <c r="FI23">
+        <v>633</v>
+      </c>
+      <c r="FJ23">
+        <v>16954</v>
+      </c>
+      <c r="FK23">
+        <v>60083</v>
+      </c>
+      <c r="FL23">
+        <v>326342</v>
+      </c>
+      <c r="FM23">
+        <v>373852</v>
+      </c>
+      <c r="FN23">
+        <v>895</v>
+      </c>
+      <c r="FO23">
+        <v>12937</v>
+      </c>
+      <c r="FP23">
+        <v>45821</v>
+      </c>
+      <c r="FQ23">
+        <v>391996</v>
+      </c>
+      <c r="FR23">
+        <v>479537</v>
+      </c>
+      <c r="FS23">
+        <v>1100</v>
+      </c>
+      <c r="FT23">
+        <v>16278</v>
+      </c>
+      <c r="FU23">
+        <v>41415</v>
+      </c>
+      <c r="FV23">
+        <v>433795</v>
+      </c>
+      <c r="FW23">
+        <v>525972</v>
+      </c>
+      <c r="FX23">
+        <v>1136</v>
+      </c>
+      <c r="FY23">
+        <v>17783</v>
+      </c>
+      <c r="FZ23">
+        <v>47511</v>
+      </c>
+      <c r="GA23">
+        <v>429136</v>
+      </c>
+      <c r="GB23">
+        <v>532014</v>
+      </c>
+      <c r="GC23">
+        <v>922</v>
+      </c>
+      <c r="GD23">
+        <v>17167</v>
+      </c>
+      <c r="GE23">
+        <v>54821</v>
+      </c>
+      <c r="GF23">
+        <v>419679</v>
+      </c>
+      <c r="GG23">
+        <v>524560</v>
+      </c>
+      <c r="GH23">
+        <v>664</v>
+      </c>
+      <c r="GI23">
+        <v>15033</v>
+      </c>
+      <c r="GJ23">
+        <v>58825</v>
+      </c>
+      <c r="GK23">
+        <v>373531</v>
+      </c>
+      <c r="GL23">
+        <v>468811</v>
+      </c>
+      <c r="GM23">
+        <v>498</v>
+      </c>
+      <c r="GN23">
+        <v>12347</v>
+      </c>
+      <c r="GO23">
+        <v>53163</v>
+      </c>
+      <c r="GP23">
+        <v>330272</v>
+      </c>
+      <c r="GQ23">
+        <v>420948</v>
+      </c>
+      <c r="GR23">
+        <v>439</v>
+      </c>
+      <c r="GS23">
+        <v>10128</v>
+      </c>
+      <c r="GT23">
+        <v>45321</v>
+      </c>
+      <c r="GU23">
+        <v>308077</v>
+      </c>
+      <c r="GV23">
+        <v>389298</v>
+      </c>
+      <c r="GW23">
+        <v>399</v>
+      </c>
+      <c r="GX23">
+        <v>8952</v>
+      </c>
+      <c r="GY23">
+        <v>40259</v>
+      </c>
+      <c r="GZ23">
+        <v>263471</v>
+      </c>
+      <c r="HA23">
+        <v>319720</v>
+      </c>
+      <c r="HB23">
+        <v>328</v>
+      </c>
+      <c r="HC23">
+        <v>6607</v>
+      </c>
+      <c r="HD23">
+        <v>31747</v>
+      </c>
+      <c r="HE23">
+        <v>234387</v>
+      </c>
+      <c r="HF23">
+        <v>277032</v>
+      </c>
+      <c r="HG23">
+        <v>234</v>
+      </c>
+      <c r="HH23">
+        <v>5317</v>
+      </c>
+      <c r="HI23">
+        <v>25960</v>
+      </c>
+      <c r="HJ23">
+        <v>180732</v>
+      </c>
+      <c r="HK23">
+        <v>204173</v>
+      </c>
+      <c r="HL23">
+        <v>199</v>
+      </c>
+      <c r="HM23">
+        <v>3665</v>
+      </c>
+      <c r="HN23">
+        <v>18521</v>
+      </c>
+      <c r="HO23">
+        <v>151527</v>
+      </c>
+      <c r="HP23">
+        <v>158223</v>
+      </c>
+      <c r="HQ23">
+        <v>163</v>
+      </c>
+      <c r="HR23">
+        <v>2679</v>
+      </c>
+      <c r="HS23">
+        <v>12349</v>
+      </c>
+      <c r="HT23">
+        <v>115817</v>
+      </c>
+      <c r="HU23">
+        <v>114655</v>
+      </c>
+      <c r="HV23">
+        <v>164</v>
+      </c>
+      <c r="HW23">
+        <v>1884</v>
+      </c>
+      <c r="HX23">
+        <v>7811</v>
+      </c>
+      <c r="HY23">
+        <v>75880</v>
+      </c>
+      <c r="HZ23">
+        <v>79654</v>
+      </c>
+      <c r="IA23">
+        <v>131</v>
+      </c>
+      <c r="IB23">
+        <v>1280</v>
+      </c>
+      <c r="IC23">
+        <v>4531</v>
+      </c>
+      <c r="ID23">
+        <v>81123</v>
+      </c>
+      <c r="IE23">
+        <v>121990</v>
+      </c>
+      <c r="IF23">
+        <v>306</v>
+      </c>
+      <c r="IG23">
+        <v>2267</v>
+      </c>
+      <c r="IH23">
+        <v>3841</v>
+      </c>
+      <c r="II23">
+        <v>2151</v>
+      </c>
+      <c r="IJ23">
+        <v>2309</v>
+      </c>
+      <c r="IK23">
+        <v>24</v>
+      </c>
+      <c r="IL23">
+        <v>201</v>
+      </c>
+      <c r="IM23">
         <v>13484</v>
       </c>
     </row>
@@ -18681,7 +19483,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45260</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEFF9D-6899-4BAF-BD53-20D48D64300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709FBAA0-E49E-4730-9DCF-AA40118F923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1635,13 +1635,13 @@
         <v>43831</v>
       </c>
       <c r="B2">
-        <v>29115</v>
+        <v>29116</v>
       </c>
       <c r="C2">
         <v>5044</v>
       </c>
       <c r="D2">
-        <v>20728</v>
+        <v>20729</v>
       </c>
       <c r="E2">
         <v>1295</v>
@@ -1662,13 +1662,13 @@
         <v>80</v>
       </c>
       <c r="K2">
-        <v>29115</v>
+        <v>29116</v>
       </c>
       <c r="L2">
         <v>5044</v>
       </c>
       <c r="M2">
-        <v>20728</v>
+        <v>20729</v>
       </c>
       <c r="N2">
         <v>1295</v>
@@ -1728,7 +1728,7 @@
         <v>1461</v>
       </c>
       <c r="AG2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AH2">
         <v>912</v>
@@ -1785,7 +1785,7 @@
         <v>1461</v>
       </c>
       <c r="AZ2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="BA2">
         <v>912</v>
@@ -1835,13 +1835,13 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568068</v>
+        <v>568069</v>
       </c>
       <c r="L3">
         <v>285283</v>
       </c>
       <c r="M3">
-        <v>220127</v>
+        <v>220128</v>
       </c>
       <c r="N3">
         <v>32911</v>
@@ -1958,7 +1958,7 @@
         <v>18545</v>
       </c>
       <c r="AZ3">
-        <v>12967</v>
+        <v>12968</v>
       </c>
       <c r="BA3">
         <v>9318</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317799</v>
+        <v>10317801</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1990,13 +1990,13 @@
         <v>2621355</v>
       </c>
       <c r="E4">
-        <v>1586960</v>
+        <v>1586959</v>
       </c>
       <c r="F4">
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848246</v>
+        <v>848249</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,22 +2008,22 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885867</v>
+        <v>10885870</v>
       </c>
       <c r="L4">
         <v>3653394</v>
       </c>
       <c r="M4">
-        <v>2841482</v>
+        <v>2841483</v>
       </c>
       <c r="N4">
-        <v>1619871</v>
+        <v>1619870</v>
       </c>
       <c r="O4">
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867407</v>
+        <v>867410</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,52 +2035,52 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450546</v>
+        <v>450545</v>
       </c>
       <c r="U4">
-        <v>611261</v>
+        <v>611257</v>
       </c>
       <c r="V4">
-        <v>710183</v>
+        <v>710185</v>
       </c>
       <c r="W4">
-        <v>683380</v>
+        <v>683377</v>
       </c>
       <c r="X4">
-        <v>812067</v>
+        <v>812064</v>
       </c>
       <c r="Y4">
-        <v>899940</v>
+        <v>899944</v>
       </c>
       <c r="Z4">
-        <v>916985</v>
+        <v>916984</v>
       </c>
       <c r="AA4">
         <v>908883</v>
       </c>
       <c r="AB4">
-        <v>810322</v>
+        <v>810327</v>
       </c>
       <c r="AC4">
-        <v>717647</v>
+        <v>717645</v>
       </c>
       <c r="AD4">
-        <v>658698</v>
+        <v>658700</v>
       </c>
       <c r="AE4">
-        <v>544128</v>
+        <v>544130</v>
       </c>
       <c r="AF4">
-        <v>471557</v>
+        <v>471554</v>
       </c>
       <c r="AG4">
-        <v>349087</v>
+        <v>349091</v>
       </c>
       <c r="AH4">
-        <v>274367</v>
+        <v>274366</v>
       </c>
       <c r="AI4">
-        <v>197909</v>
+        <v>197910</v>
       </c>
       <c r="AJ4">
         <v>128054</v>
@@ -2092,52 +2092,52 @@
         <v>17206</v>
       </c>
       <c r="AM4">
-        <v>473796</v>
+        <v>473795</v>
       </c>
       <c r="AN4">
-        <v>644462</v>
+        <v>644458</v>
       </c>
       <c r="AO4">
-        <v>741695</v>
+        <v>741697</v>
       </c>
       <c r="AP4">
-        <v>728632</v>
+        <v>728629</v>
       </c>
       <c r="AQ4">
-        <v>890290</v>
+        <v>890287</v>
       </c>
       <c r="AR4">
-        <v>974384</v>
+        <v>974388</v>
       </c>
       <c r="AS4">
-        <v>975367</v>
+        <v>975366</v>
       </c>
       <c r="AT4">
         <v>953873</v>
       </c>
       <c r="AU4">
-        <v>845940</v>
+        <v>845945</v>
       </c>
       <c r="AV4">
-        <v>749726</v>
+        <v>749724</v>
       </c>
       <c r="AW4">
-        <v>688388</v>
+        <v>688390</v>
       </c>
       <c r="AX4">
-        <v>568129</v>
+        <v>568131</v>
       </c>
       <c r="AY4">
-        <v>490102</v>
+        <v>490099</v>
       </c>
       <c r="AZ4">
-        <v>362054</v>
+        <v>362059</v>
       </c>
       <c r="BA4">
-        <v>283685</v>
+        <v>283684</v>
       </c>
       <c r="BB4">
-        <v>204378</v>
+        <v>204379</v>
       </c>
       <c r="BC4">
         <v>132445</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>816755</v>
+        <v>818133</v>
       </c>
       <c r="C5">
-        <v>295762</v>
+        <v>296160</v>
       </c>
       <c r="D5">
-        <v>152425</v>
+        <v>152606</v>
       </c>
       <c r="E5">
-        <v>130281</v>
+        <v>130616</v>
       </c>
       <c r="F5">
         <v>92666</v>
       </c>
       <c r="G5">
-        <v>87314</v>
+        <v>87564</v>
       </c>
       <c r="H5">
-        <v>29772</v>
+        <v>29911</v>
       </c>
       <c r="I5">
-        <v>22265</v>
+        <v>22322</v>
       </c>
       <c r="J5">
-        <v>6270</v>
+        <v>6288</v>
       </c>
       <c r="K5">
-        <v>11702622</v>
+        <v>11704003</v>
       </c>
       <c r="L5">
-        <v>3949156</v>
+        <v>3949554</v>
       </c>
       <c r="M5">
-        <v>2993907</v>
+        <v>2994089</v>
       </c>
       <c r="N5">
-        <v>1750152</v>
+        <v>1750486</v>
       </c>
       <c r="O5">
         <v>1382532</v>
       </c>
       <c r="P5">
-        <v>954721</v>
+        <v>954974</v>
       </c>
       <c r="Q5">
-        <v>311315</v>
+        <v>311454</v>
       </c>
       <c r="R5">
-        <v>250602</v>
+        <v>250659</v>
       </c>
       <c r="S5">
-        <v>110237</v>
+        <v>110255</v>
       </c>
       <c r="T5">
-        <v>28942</v>
+        <v>29007</v>
       </c>
       <c r="U5">
-        <v>23624</v>
+        <v>23642</v>
       </c>
       <c r="V5">
-        <v>31932</v>
+        <v>31970</v>
       </c>
       <c r="W5">
-        <v>31215</v>
+        <v>31274</v>
       </c>
       <c r="X5">
-        <v>40036</v>
+        <v>40102</v>
       </c>
       <c r="Y5">
-        <v>51813</v>
+        <v>51907</v>
       </c>
       <c r="Z5">
-        <v>58693</v>
+        <v>58781</v>
       </c>
       <c r="AA5">
-        <v>64888</v>
+        <v>64963</v>
       </c>
       <c r="AB5">
-        <v>62410</v>
+        <v>62503</v>
       </c>
       <c r="AC5">
-        <v>57382</v>
+        <v>57463</v>
       </c>
       <c r="AD5">
-        <v>58597</v>
+        <v>58685</v>
       </c>
       <c r="AE5">
-        <v>53744</v>
+        <v>53818</v>
       </c>
       <c r="AF5">
-        <v>52828</v>
+        <v>52918</v>
       </c>
       <c r="AG5">
-        <v>45236</v>
+        <v>45312</v>
       </c>
       <c r="AH5">
-        <v>41256</v>
+        <v>41327</v>
       </c>
       <c r="AI5">
-        <v>35953</v>
+        <v>36042</v>
       </c>
       <c r="AJ5">
-        <v>29031</v>
+        <v>29105</v>
       </c>
       <c r="AK5">
-        <v>48585</v>
+        <v>48723</v>
       </c>
       <c r="AL5">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AM5">
-        <v>502738</v>
+        <v>502802</v>
       </c>
       <c r="AN5">
-        <v>668086</v>
+        <v>668100</v>
       </c>
       <c r="AO5">
-        <v>773627</v>
+        <v>773667</v>
       </c>
       <c r="AP5">
-        <v>759847</v>
+        <v>759903</v>
       </c>
       <c r="AQ5">
-        <v>930326</v>
+        <v>930389</v>
       </c>
       <c r="AR5">
-        <v>1026197</v>
+        <v>1026295</v>
       </c>
       <c r="AS5">
-        <v>1034060</v>
+        <v>1034147</v>
       </c>
       <c r="AT5">
-        <v>1018761</v>
+        <v>1018836</v>
       </c>
       <c r="AU5">
-        <v>908350</v>
+        <v>908448</v>
       </c>
       <c r="AV5">
-        <v>807108</v>
+        <v>807187</v>
       </c>
       <c r="AW5">
-        <v>746985</v>
+        <v>747075</v>
       </c>
       <c r="AX5">
-        <v>621873</v>
+        <v>621949</v>
       </c>
       <c r="AY5">
-        <v>542930</v>
+        <v>543017</v>
       </c>
       <c r="AZ5">
-        <v>407290</v>
+        <v>407371</v>
       </c>
       <c r="BA5">
-        <v>324941</v>
+        <v>325011</v>
       </c>
       <c r="BB5">
-        <v>240331</v>
+        <v>240421</v>
       </c>
       <c r="BC5">
-        <v>161476</v>
+        <v>161550</v>
       </c>
       <c r="BD5">
-        <v>209527</v>
+        <v>209665</v>
       </c>
       <c r="BE5">
-        <v>18169</v>
+        <v>18170</v>
       </c>
     </row>
   </sheetData>
@@ -2403,13 +2403,13 @@
         <v>43831</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -2430,13 +2430,13 @@
         <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="3">
         <v>4</v>
       </c>
       <c r="M2" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" s="3">
         <v>3</v>
@@ -2489,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L3" s="3">
         <v>56</v>
       </c>
       <c r="M3" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" s="3">
         <v>22</v>
@@ -2548,13 +2548,13 @@
         <v>25</v>
       </c>
       <c r="K4" s="3">
-        <v>6297</v>
+        <v>6298</v>
       </c>
       <c r="L4" s="3">
         <v>2830</v>
       </c>
       <c r="M4" s="3">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="N4" s="3">
         <v>1012</v>
@@ -2607,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="K5" s="3">
-        <v>7335</v>
+        <v>7336</v>
       </c>
       <c r="L5" s="3">
         <v>3270</v>
       </c>
       <c r="M5" s="3">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="N5" s="3">
         <v>1084</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>7770</v>
+        <v>7771</v>
       </c>
       <c r="L6" s="3">
         <v>3336</v>
       </c>
       <c r="M6" s="3">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="N6" s="3">
         <v>1094</v>
@@ -2725,13 +2725,13 @@
         <v>1</v>
       </c>
       <c r="K7" s="3">
-        <v>8914</v>
+        <v>8915</v>
       </c>
       <c r="L7" s="3">
         <v>3469</v>
       </c>
       <c r="M7" s="3">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="N7" s="3">
         <v>1104</v>
@@ -2784,13 +2784,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="3">
-        <v>19184</v>
+        <v>19185</v>
       </c>
       <c r="L8" s="3">
         <v>3861</v>
       </c>
       <c r="M8" s="3">
-        <v>12590</v>
+        <v>12591</v>
       </c>
       <c r="N8" s="3">
         <v>1123</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>26472</v>
+        <v>26473</v>
       </c>
       <c r="L9" s="3">
         <v>4137</v>
       </c>
       <c r="M9" s="3">
-        <v>19529</v>
+        <v>19530</v>
       </c>
       <c r="N9" s="3">
         <v>1170</v>
@@ -2902,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>27623</v>
+        <v>27624</v>
       </c>
       <c r="L10" s="3">
         <v>4302</v>
       </c>
       <c r="M10" s="3">
-        <v>20443</v>
+        <v>20444</v>
       </c>
       <c r="N10" s="3">
         <v>1197</v>
@@ -2961,13 +2961,13 @@
         <v>6</v>
       </c>
       <c r="K11" s="3">
-        <v>28143</v>
+        <v>28144</v>
       </c>
       <c r="L11" s="3">
         <v>4507</v>
       </c>
       <c r="M11" s="3">
-        <v>20613</v>
+        <v>20614</v>
       </c>
       <c r="N11" s="3">
         <v>1212</v>
@@ -3020,13 +3020,13 @@
         <v>23</v>
       </c>
       <c r="K12" s="3">
-        <v>28512</v>
+        <v>28513</v>
       </c>
       <c r="L12" s="3">
         <v>4675</v>
       </c>
       <c r="M12" s="3">
-        <v>20638</v>
+        <v>20639</v>
       </c>
       <c r="N12" s="3">
         <v>1244</v>
@@ -3079,13 +3079,13 @@
         <v>20</v>
       </c>
       <c r="K13" s="3">
-        <v>29115</v>
+        <v>29116</v>
       </c>
       <c r="L13" s="3">
         <v>5044</v>
       </c>
       <c r="M13" s="3">
-        <v>20728</v>
+        <v>20729</v>
       </c>
       <c r="N13" s="3">
         <v>1295</v>
@@ -3138,13 +3138,13 @@
         <v>30</v>
       </c>
       <c r="K14" s="3">
-        <v>29687</v>
+        <v>29688</v>
       </c>
       <c r="L14" s="3">
         <v>5278</v>
       </c>
       <c r="M14" s="3">
-        <v>20862</v>
+        <v>20863</v>
       </c>
       <c r="N14" s="3">
         <v>1367</v>
@@ -3197,13 +3197,13 @@
         <v>7</v>
       </c>
       <c r="K15" s="3">
-        <v>29936</v>
+        <v>29937</v>
       </c>
       <c r="L15" s="3">
         <v>5341</v>
       </c>
       <c r="M15" s="3">
-        <v>20963</v>
+        <v>20964</v>
       </c>
       <c r="N15" s="3">
         <v>1400</v>
@@ -3256,13 +3256,13 @@
         <v>5</v>
       </c>
       <c r="K16" s="3">
-        <v>30408</v>
+        <v>30409</v>
       </c>
       <c r="L16" s="3">
         <v>5429</v>
       </c>
       <c r="M16" s="3">
-        <v>21059</v>
+        <v>21060</v>
       </c>
       <c r="N16" s="3">
         <v>1558</v>
@@ -3315,13 +3315,13 @@
         <v>56</v>
       </c>
       <c r="K17" s="3">
-        <v>30980</v>
+        <v>30981</v>
       </c>
       <c r="L17" s="3">
         <v>5583</v>
       </c>
       <c r="M17" s="3">
-        <v>21185</v>
+        <v>21186</v>
       </c>
       <c r="N17" s="3">
         <v>1631</v>
@@ -3374,13 +3374,13 @@
         <v>9</v>
       </c>
       <c r="K18" s="3">
-        <v>31366</v>
+        <v>31367</v>
       </c>
       <c r="L18" s="3">
         <v>5651</v>
       </c>
       <c r="M18" s="3">
-        <v>21372</v>
+        <v>21373</v>
       </c>
       <c r="N18" s="3">
         <v>1695</v>
@@ -3433,13 +3433,13 @@
         <v>12</v>
       </c>
       <c r="K19" s="3">
-        <v>32006</v>
+        <v>32007</v>
       </c>
       <c r="L19" s="3">
         <v>5990</v>
       </c>
       <c r="M19" s="3">
-        <v>21513</v>
+        <v>21514</v>
       </c>
       <c r="N19" s="3">
         <v>1780</v>
@@ -3492,13 +3492,13 @@
         <v>14</v>
       </c>
       <c r="K20" s="3">
-        <v>36310</v>
+        <v>36311</v>
       </c>
       <c r="L20" s="3">
         <v>9759</v>
       </c>
       <c r="M20" s="3">
-        <v>21819</v>
+        <v>21820</v>
       </c>
       <c r="N20" s="3">
         <v>1905</v>
@@ -3551,13 +3551,13 @@
         <v>4</v>
       </c>
       <c r="K21" s="3">
-        <v>59824</v>
+        <v>59825</v>
       </c>
       <c r="L21" s="3">
         <v>30988</v>
       </c>
       <c r="M21" s="3">
-        <v>23562</v>
+        <v>23563</v>
       </c>
       <c r="N21" s="3">
         <v>2065</v>
@@ -3610,13 +3610,13 @@
         <v>11</v>
       </c>
       <c r="K22" s="3">
-        <v>114211</v>
+        <v>114212</v>
       </c>
       <c r="L22" s="3">
         <v>64778</v>
       </c>
       <c r="M22" s="3">
-        <v>43378</v>
+        <v>43379</v>
       </c>
       <c r="N22" s="3">
         <v>2124</v>
@@ -3669,13 +3669,13 @@
         <v>14</v>
       </c>
       <c r="K23" s="3">
-        <v>175207</v>
+        <v>175208</v>
       </c>
       <c r="L23" s="3">
         <v>75564</v>
       </c>
       <c r="M23" s="3">
-        <v>92803</v>
+        <v>92804</v>
       </c>
       <c r="N23" s="3">
         <v>2179</v>
@@ -3728,13 +3728,13 @@
         <v>70</v>
       </c>
       <c r="K24" s="3">
-        <v>215936</v>
+        <v>215937</v>
       </c>
       <c r="L24" s="3">
         <v>82234</v>
       </c>
       <c r="M24" s="3">
-        <v>126318</v>
+        <v>126319</v>
       </c>
       <c r="N24" s="3">
         <v>2229</v>
@@ -3787,13 +3787,13 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568068</v>
+        <v>568069</v>
       </c>
       <c r="L25" s="3">
         <v>285283</v>
       </c>
       <c r="M25" s="3">
-        <v>220127</v>
+        <v>220128</v>
       </c>
       <c r="N25" s="3">
         <v>32911</v>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809596</v>
+        <v>1809597</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3828,13 +3828,13 @@
         <v>635279</v>
       </c>
       <c r="E26" s="3">
-        <v>372397</v>
+        <v>372396</v>
       </c>
       <c r="F26" s="3">
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90059</v>
+        <v>90061</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,22 +3846,22 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377664</v>
+        <v>2377666</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
       </c>
       <c r="M26" s="3">
-        <v>855406</v>
+        <v>855407</v>
       </c>
       <c r="N26" s="3">
-        <v>405308</v>
+        <v>405307</v>
       </c>
       <c r="O26" s="3">
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109220</v>
+        <v>109222</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,22 +3905,22 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065203</v>
+        <v>3065205</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
       </c>
       <c r="M27" s="3">
-        <v>1059935</v>
+        <v>1059936</v>
       </c>
       <c r="N27" s="3">
-        <v>546061</v>
+        <v>546060</v>
       </c>
       <c r="O27" s="3">
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153632</v>
+        <v>153634</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366774</v>
+        <v>1366775</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3952,7 +3952,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120490</v>
+        <v>120491</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,22 +3964,22 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431977</v>
+        <v>4431980</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
       </c>
       <c r="M28" s="3">
-        <v>1310021</v>
+        <v>1310022</v>
       </c>
       <c r="N28" s="3">
-        <v>742287</v>
+        <v>742286</v>
       </c>
       <c r="O28" s="3">
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274122</v>
+        <v>274125</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4023,22 +4023,22 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771831</v>
+        <v>5771834</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
       </c>
       <c r="M29" s="3">
-        <v>1584973</v>
+        <v>1584974</v>
       </c>
       <c r="N29" s="3">
-        <v>943369</v>
+        <v>943368</v>
       </c>
       <c r="O29" s="3">
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413918</v>
+        <v>413921</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,22 +4082,22 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082196</v>
+        <v>7082199</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
       </c>
       <c r="M30" s="3">
-        <v>1918282</v>
+        <v>1918283</v>
       </c>
       <c r="N30" s="3">
-        <v>1096299</v>
+        <v>1096298</v>
       </c>
       <c r="O30" s="3">
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522052</v>
+        <v>522055</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,22 +4141,22 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966492</v>
+        <v>7966495</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
       </c>
       <c r="M31" s="3">
-        <v>2133368</v>
+        <v>2133369</v>
       </c>
       <c r="N31" s="3">
-        <v>1213314</v>
+        <v>1213313</v>
       </c>
       <c r="O31" s="3">
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599369</v>
+        <v>599372</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,22 +4200,22 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216837</v>
+        <v>9216840</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
       </c>
       <c r="M32" s="3">
-        <v>2445485</v>
+        <v>2445486</v>
       </c>
       <c r="N32" s="3">
-        <v>1410771</v>
+        <v>1410770</v>
       </c>
       <c r="O32" s="3">
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716769</v>
+        <v>716772</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,22 +4259,22 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771698</v>
+        <v>9771701</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
       </c>
       <c r="M33" s="3">
-        <v>2570915</v>
+        <v>2570916</v>
       </c>
       <c r="N33" s="3">
-        <v>1482133</v>
+        <v>1482132</v>
       </c>
       <c r="O33" s="3">
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757280</v>
+        <v>757283</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,22 +4318,22 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965953</v>
+        <v>9965956</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
       </c>
       <c r="M34" s="3">
-        <v>2617584</v>
+        <v>2617585</v>
       </c>
       <c r="N34" s="3">
-        <v>1512407</v>
+        <v>1512406</v>
       </c>
       <c r="O34" s="3">
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772564</v>
+        <v>772567</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,22 +4377,22 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108058</v>
+        <v>10108061</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
       </c>
       <c r="M35" s="3">
-        <v>2653978</v>
+        <v>2653979</v>
       </c>
       <c r="N35" s="3">
-        <v>1529144</v>
+        <v>1529143</v>
       </c>
       <c r="O35" s="3">
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785739</v>
+        <v>785742</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,22 +4436,22 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10459999</v>
+        <v>10460002</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
       </c>
       <c r="M36" s="3">
-        <v>2746875</v>
+        <v>2746876</v>
       </c>
       <c r="N36" s="3">
-        <v>1565590</v>
+        <v>1565589</v>
       </c>
       <c r="O36" s="3">
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822902</v>
+        <v>822905</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,22 +4495,22 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885867</v>
+        <v>10885870</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
       </c>
       <c r="M37" s="3">
-        <v>2841482</v>
+        <v>2841483</v>
       </c>
       <c r="N37" s="3">
-        <v>1619871</v>
+        <v>1619870</v>
       </c>
       <c r="O37" s="3">
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867407</v>
+        <v>867410</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,22 +4554,22 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015949</v>
+        <v>11015952</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
       </c>
       <c r="M38" s="3">
-        <v>2864586</v>
+        <v>2864587</v>
       </c>
       <c r="N38" s="3">
-        <v>1643984</v>
+        <v>1643983</v>
       </c>
       <c r="O38" s="3">
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879297</v>
+        <v>879300</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,22 +4613,22 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087938</v>
+        <v>11087941</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
       </c>
       <c r="M39" s="3">
-        <v>2876975</v>
+        <v>2876976</v>
       </c>
       <c r="N39" s="3">
-        <v>1658284</v>
+        <v>1658283</v>
       </c>
       <c r="O39" s="3">
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886150</v>
+        <v>886153</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,22 +4672,22 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191917</v>
+        <v>11191920</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
       </c>
       <c r="M40" s="3">
-        <v>2896212</v>
+        <v>2896213</v>
       </c>
       <c r="N40" s="3">
-        <v>1673739</v>
+        <v>1673738</v>
       </c>
       <c r="O40" s="3">
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897650</v>
+        <v>897653</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,22 +4731,22 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315083</v>
+        <v>11315086</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
       </c>
       <c r="M41" s="3">
-        <v>2922019</v>
+        <v>2922020</v>
       </c>
       <c r="N41" s="3">
-        <v>1689649</v>
+        <v>1689648</v>
       </c>
       <c r="O41" s="3">
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909979</v>
+        <v>909982</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4763,10 +4763,10 @@
         <v>45047</v>
       </c>
       <c r="B42" s="3">
-        <v>166252</v>
+        <v>166251</v>
       </c>
       <c r="C42" s="3">
-        <v>62095</v>
+        <v>62094</v>
       </c>
       <c r="D42" s="3">
         <v>38376</v>
@@ -4790,22 +4790,22 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481335</v>
+        <v>11481337</v>
       </c>
       <c r="L42" s="3">
-        <v>3872847</v>
+        <v>3872846</v>
       </c>
       <c r="M42" s="3">
-        <v>2960395</v>
+        <v>2960396</v>
       </c>
       <c r="N42" s="3">
-        <v>1711959</v>
+        <v>1711958</v>
       </c>
       <c r="O42" s="3">
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924892</v>
+        <v>924895</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,22 +4849,22 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559135</v>
+        <v>11559137</v>
       </c>
       <c r="L43" s="3">
-        <v>3901029</v>
+        <v>3901028</v>
       </c>
       <c r="M43" s="3">
-        <v>2975163</v>
+        <v>2975164</v>
       </c>
       <c r="N43" s="3">
-        <v>1726209</v>
+        <v>1726208</v>
       </c>
       <c r="O43" s="3">
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932106</v>
+        <v>932109</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,22 +4908,22 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587334</v>
+        <v>11587336</v>
       </c>
       <c r="L44" s="3">
-        <v>3911314</v>
+        <v>3911313</v>
       </c>
       <c r="M44" s="3">
-        <v>2977219</v>
+        <v>2977220</v>
       </c>
       <c r="N44" s="3">
-        <v>1733157</v>
+        <v>1733156</v>
       </c>
       <c r="O44" s="3">
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935035</v>
+        <v>935038</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,22 +4967,22 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610751</v>
+        <v>11610753</v>
       </c>
       <c r="L45" s="3">
-        <v>3920449</v>
+        <v>3920448</v>
       </c>
       <c r="M45" s="3">
-        <v>2979331</v>
+        <v>2979332</v>
       </c>
       <c r="N45" s="3">
-        <v>1737695</v>
+        <v>1737694</v>
       </c>
       <c r="O45" s="3">
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937484</v>
+        <v>937487</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,22 +5026,22 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632855</v>
+        <v>11632857</v>
       </c>
       <c r="L46" s="3">
-        <v>3929412</v>
+        <v>3929411</v>
       </c>
       <c r="M46" s="3">
-        <v>2982570</v>
+        <v>2982571</v>
       </c>
       <c r="N46" s="3">
-        <v>1739718</v>
+        <v>1739717</v>
       </c>
       <c r="O46" s="3">
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940517</v>
+        <v>940520</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5058,13 +5058,13 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27899</v>
+        <v>27900</v>
       </c>
       <c r="C47" s="3">
         <v>7713</v>
       </c>
       <c r="D47" s="3">
-        <v>5602</v>
+        <v>5603</v>
       </c>
       <c r="E47" s="3">
         <v>3702</v>
@@ -5085,22 +5085,22 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660754</v>
+        <v>11660757</v>
       </c>
       <c r="L47" s="3">
-        <v>3937125</v>
+        <v>3937124</v>
       </c>
       <c r="M47" s="3">
-        <v>2988172</v>
+        <v>2988174</v>
       </c>
       <c r="N47" s="3">
-        <v>1743420</v>
+        <v>1743419</v>
       </c>
       <c r="O47" s="3">
         <v>1380654</v>
       </c>
       <c r="P47" s="3">
-        <v>945594</v>
+        <v>945597</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,58 +5117,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>41867</v>
+        <v>42880</v>
       </c>
       <c r="C48" s="3">
-        <v>12030</v>
+        <v>12273</v>
       </c>
       <c r="D48" s="3">
-        <v>5735</v>
+        <v>5915</v>
       </c>
       <c r="E48" s="3">
-        <v>6732</v>
+        <v>6988</v>
       </c>
       <c r="F48" s="3">
         <v>1878</v>
       </c>
       <c r="G48" s="3">
-        <v>9127</v>
+        <v>9249</v>
       </c>
       <c r="H48" s="3">
-        <v>3794</v>
+        <v>3933</v>
       </c>
       <c r="I48" s="3">
-        <v>2048</v>
+        <v>2105</v>
       </c>
       <c r="J48" s="3">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="K48" s="3">
-        <v>11702621</v>
+        <v>11703637</v>
       </c>
       <c r="L48" s="3">
-        <v>3949155</v>
+        <v>3949397</v>
       </c>
       <c r="M48" s="3">
-        <v>2993907</v>
+        <v>2994089</v>
       </c>
       <c r="N48" s="3">
-        <v>1750152</v>
+        <v>1750407</v>
       </c>
       <c r="O48" s="3">
         <v>1382532</v>
       </c>
       <c r="P48" s="3">
-        <v>954721</v>
+        <v>954846</v>
       </c>
       <c r="Q48" s="3">
-        <v>311315</v>
+        <v>311454</v>
       </c>
       <c r="R48" s="3">
-        <v>250602</v>
+        <v>250659</v>
       </c>
       <c r="S48" s="3">
-        <v>110237</v>
+        <v>110253</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5176,22 +5176,22 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5200,34 +5200,34 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49">
-        <v>11702622</v>
+        <v>11704003</v>
       </c>
       <c r="L49">
-        <v>3949156</v>
+        <v>3949554</v>
       </c>
       <c r="M49">
-        <v>2993907</v>
+        <v>2994089</v>
       </c>
       <c r="N49">
-        <v>1750152</v>
+        <v>1750486</v>
       </c>
       <c r="O49">
         <v>1382532</v>
       </c>
       <c r="P49">
-        <v>954721</v>
+        <v>954974</v>
       </c>
       <c r="Q49">
-        <v>311315</v>
+        <v>311454</v>
       </c>
       <c r="R49">
-        <v>250602</v>
+        <v>250659</v>
       </c>
       <c r="S49">
-        <v>110237</v>
+        <v>110255</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM23"/>
+  <dimension ref="A1:IM24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19457,6 +19457,749 @@
       </c>
       <c r="IM23">
         <v>13484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45262</v>
+      </c>
+      <c r="B24">
+        <v>1381</v>
+      </c>
+      <c r="C24">
+        <v>398</v>
+      </c>
+      <c r="D24">
+        <v>182</v>
+      </c>
+      <c r="E24">
+        <v>334</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>253</v>
+      </c>
+      <c r="H24">
+        <v>139</v>
+      </c>
+      <c r="I24">
+        <v>57</v>
+      </c>
+      <c r="J24">
+        <v>18</v>
+      </c>
+      <c r="K24">
+        <v>11704003</v>
+      </c>
+      <c r="L24">
+        <v>3949554</v>
+      </c>
+      <c r="M24">
+        <v>2994089</v>
+      </c>
+      <c r="N24">
+        <v>1750486</v>
+      </c>
+      <c r="O24">
+        <v>1382532</v>
+      </c>
+      <c r="P24">
+        <v>954974</v>
+      </c>
+      <c r="Q24">
+        <v>311454</v>
+      </c>
+      <c r="R24">
+        <v>250659</v>
+      </c>
+      <c r="S24">
+        <v>110255</v>
+      </c>
+      <c r="T24">
+        <v>64</v>
+      </c>
+      <c r="U24">
+        <v>14</v>
+      </c>
+      <c r="V24">
+        <v>40</v>
+      </c>
+      <c r="W24">
+        <v>56</v>
+      </c>
+      <c r="X24">
+        <v>63</v>
+      </c>
+      <c r="Y24">
+        <v>98</v>
+      </c>
+      <c r="Z24">
+        <v>87</v>
+      </c>
+      <c r="AA24">
+        <v>75</v>
+      </c>
+      <c r="AB24">
+        <v>98</v>
+      </c>
+      <c r="AC24">
+        <v>79</v>
+      </c>
+      <c r="AD24">
+        <v>90</v>
+      </c>
+      <c r="AE24">
+        <v>76</v>
+      </c>
+      <c r="AF24">
+        <v>87</v>
+      </c>
+      <c r="AG24">
+        <v>81</v>
+      </c>
+      <c r="AH24">
+        <v>70</v>
+      </c>
+      <c r="AI24">
+        <v>90</v>
+      </c>
+      <c r="AJ24">
+        <v>74</v>
+      </c>
+      <c r="AK24">
+        <v>138</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>502802</v>
+      </c>
+      <c r="AN24">
+        <v>668100</v>
+      </c>
+      <c r="AO24">
+        <v>773667</v>
+      </c>
+      <c r="AP24">
+        <v>759903</v>
+      </c>
+      <c r="AQ24">
+        <v>930389</v>
+      </c>
+      <c r="AR24">
+        <v>1026295</v>
+      </c>
+      <c r="AS24">
+        <v>1034147</v>
+      </c>
+      <c r="AT24">
+        <v>1018836</v>
+      </c>
+      <c r="AU24">
+        <v>908448</v>
+      </c>
+      <c r="AV24">
+        <v>807187</v>
+      </c>
+      <c r="AW24">
+        <v>747075</v>
+      </c>
+      <c r="AX24">
+        <v>621949</v>
+      </c>
+      <c r="AY24">
+        <v>543017</v>
+      </c>
+      <c r="AZ24">
+        <v>407371</v>
+      </c>
+      <c r="BA24">
+        <v>325011</v>
+      </c>
+      <c r="BB24">
+        <v>240421</v>
+      </c>
+      <c r="BC24">
+        <v>161550</v>
+      </c>
+      <c r="BD24">
+        <v>209665</v>
+      </c>
+      <c r="BE24">
+        <v>18170</v>
+      </c>
+      <c r="BF24">
+        <v>39</v>
+      </c>
+      <c r="BG24">
+        <v>24</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>1</v>
+      </c>
+      <c r="BK24">
+        <v>10</v>
+      </c>
+      <c r="BL24">
+        <v>4</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>17</v>
+      </c>
+      <c r="BQ24">
+        <v>23</v>
+      </c>
+      <c r="BR24">
+        <v>0</v>
+      </c>
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BU24">
+        <v>22</v>
+      </c>
+      <c r="BV24">
+        <v>35</v>
+      </c>
+      <c r="BW24">
+        <v>0</v>
+      </c>
+      <c r="BX24">
+        <v>-1</v>
+      </c>
+      <c r="BY24">
+        <v>0</v>
+      </c>
+      <c r="BZ24">
+        <v>21</v>
+      </c>
+      <c r="CA24">
+        <v>41</v>
+      </c>
+      <c r="CB24">
+        <v>0</v>
+      </c>
+      <c r="CC24">
+        <v>0</v>
+      </c>
+      <c r="CD24">
+        <v>1</v>
+      </c>
+      <c r="CE24">
+        <v>40</v>
+      </c>
+      <c r="CF24">
+        <v>59</v>
+      </c>
+      <c r="CG24">
+        <v>0</v>
+      </c>
+      <c r="CH24">
+        <v>-1</v>
+      </c>
+      <c r="CI24">
+        <v>0</v>
+      </c>
+      <c r="CJ24">
+        <v>24</v>
+      </c>
+      <c r="CK24">
+        <v>62</v>
+      </c>
+      <c r="CL24">
+        <v>0</v>
+      </c>
+      <c r="CM24">
+        <v>0</v>
+      </c>
+      <c r="CN24">
+        <v>1</v>
+      </c>
+      <c r="CO24">
+        <v>30</v>
+      </c>
+      <c r="CP24">
+        <v>45</v>
+      </c>
+      <c r="CQ24">
+        <v>0</v>
+      </c>
+      <c r="CR24">
+        <v>0</v>
+      </c>
+      <c r="CS24">
+        <v>0</v>
+      </c>
+      <c r="CT24">
+        <v>32</v>
+      </c>
+      <c r="CU24">
+        <v>68</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
+      <c r="CW24">
+        <v>-2</v>
+      </c>
+      <c r="CX24">
+        <v>0</v>
+      </c>
+      <c r="CY24">
+        <v>29</v>
+      </c>
+      <c r="CZ24">
+        <v>51</v>
+      </c>
+      <c r="DA24">
+        <v>0</v>
+      </c>
+      <c r="DB24">
+        <v>-1</v>
+      </c>
+      <c r="DC24">
+        <v>0</v>
+      </c>
+      <c r="DD24">
+        <v>28</v>
+      </c>
+      <c r="DE24">
+        <v>64</v>
+      </c>
+      <c r="DF24">
+        <v>0</v>
+      </c>
+      <c r="DG24">
+        <v>-2</v>
+      </c>
+      <c r="DH24">
+        <v>0</v>
+      </c>
+      <c r="DI24">
+        <v>25</v>
+      </c>
+      <c r="DJ24">
+        <v>51</v>
+      </c>
+      <c r="DK24">
+        <v>0</v>
+      </c>
+      <c r="DL24">
+        <v>-1</v>
+      </c>
+      <c r="DM24">
+        <v>1</v>
+      </c>
+      <c r="DN24">
+        <v>35</v>
+      </c>
+      <c r="DO24">
+        <v>54</v>
+      </c>
+      <c r="DP24">
+        <v>0</v>
+      </c>
+      <c r="DQ24">
+        <v>-2</v>
+      </c>
+      <c r="DR24">
+        <v>0</v>
+      </c>
+      <c r="DS24">
+        <v>44</v>
+      </c>
+      <c r="DT24">
+        <v>51</v>
+      </c>
+      <c r="DU24">
+        <v>0</v>
+      </c>
+      <c r="DV24">
+        <v>-14</v>
+      </c>
+      <c r="DW24">
+        <v>0</v>
+      </c>
+      <c r="DX24">
+        <v>34</v>
+      </c>
+      <c r="DY24">
+        <v>46</v>
+      </c>
+      <c r="DZ24">
+        <v>0</v>
+      </c>
+      <c r="EA24">
+        <v>-10</v>
+      </c>
+      <c r="EB24">
+        <v>0</v>
+      </c>
+      <c r="EC24">
+        <v>48</v>
+      </c>
+      <c r="ED24">
+        <v>43</v>
+      </c>
+      <c r="EE24">
+        <v>0</v>
+      </c>
+      <c r="EF24">
+        <v>-1</v>
+      </c>
+      <c r="EG24">
+        <v>0</v>
+      </c>
+      <c r="EH24">
+        <v>42</v>
+      </c>
+      <c r="EI24">
+        <v>35</v>
+      </c>
+      <c r="EJ24">
+        <v>0</v>
+      </c>
+      <c r="EK24">
+        <v>-3</v>
+      </c>
+      <c r="EL24">
+        <v>0</v>
+      </c>
+      <c r="EM24">
+        <v>48</v>
+      </c>
+      <c r="EN24">
+        <v>92</v>
+      </c>
+      <c r="EO24">
+        <v>0</v>
+      </c>
+      <c r="EP24">
+        <v>-1</v>
+      </c>
+      <c r="EQ24">
+        <v>-1</v>
+      </c>
+      <c r="ER24">
+        <v>0</v>
+      </c>
+      <c r="ES24">
+        <v>0</v>
+      </c>
+      <c r="ET24">
+        <v>0</v>
+      </c>
+      <c r="EU24">
+        <v>0</v>
+      </c>
+      <c r="EV24">
+        <v>1</v>
+      </c>
+      <c r="EW24">
+        <v>231511</v>
+      </c>
+      <c r="EX24">
+        <v>219783</v>
+      </c>
+      <c r="EY24">
+        <v>408</v>
+      </c>
+      <c r="EZ24">
+        <v>15452</v>
+      </c>
+      <c r="FA24">
+        <v>35648</v>
+      </c>
+      <c r="FB24">
+        <v>308093</v>
+      </c>
+      <c r="FC24">
+        <v>292737</v>
+      </c>
+      <c r="FD24">
+        <v>466</v>
+      </c>
+      <c r="FE24">
+        <v>16771</v>
+      </c>
+      <c r="FF24">
+        <v>50033</v>
+      </c>
+      <c r="FG24">
+        <v>353320</v>
+      </c>
+      <c r="FH24">
+        <v>342677</v>
+      </c>
+      <c r="FI24">
+        <v>633</v>
+      </c>
+      <c r="FJ24">
+        <v>16954</v>
+      </c>
+      <c r="FK24">
+        <v>60083</v>
+      </c>
+      <c r="FL24">
+        <v>326364</v>
+      </c>
+      <c r="FM24">
+        <v>373887</v>
+      </c>
+      <c r="FN24">
+        <v>895</v>
+      </c>
+      <c r="FO24">
+        <v>12936</v>
+      </c>
+      <c r="FP24">
+        <v>45821</v>
+      </c>
+      <c r="FQ24">
+        <v>392017</v>
+      </c>
+      <c r="FR24">
+        <v>479578</v>
+      </c>
+      <c r="FS24">
+        <v>1100</v>
+      </c>
+      <c r="FT24">
+        <v>16278</v>
+      </c>
+      <c r="FU24">
+        <v>41416</v>
+      </c>
+      <c r="FV24">
+        <v>433835</v>
+      </c>
+      <c r="FW24">
+        <v>526031</v>
+      </c>
+      <c r="FX24">
+        <v>1136</v>
+      </c>
+      <c r="FY24">
+        <v>17782</v>
+      </c>
+      <c r="FZ24">
+        <v>47511</v>
+      </c>
+      <c r="GA24">
+        <v>429160</v>
+      </c>
+      <c r="GB24">
+        <v>532076</v>
+      </c>
+      <c r="GC24">
+        <v>922</v>
+      </c>
+      <c r="GD24">
+        <v>17167</v>
+      </c>
+      <c r="GE24">
+        <v>54822</v>
+      </c>
+      <c r="GF24">
+        <v>419709</v>
+      </c>
+      <c r="GG24">
+        <v>524605</v>
+      </c>
+      <c r="GH24">
+        <v>664</v>
+      </c>
+      <c r="GI24">
+        <v>15033</v>
+      </c>
+      <c r="GJ24">
+        <v>58825</v>
+      </c>
+      <c r="GK24">
+        <v>373563</v>
+      </c>
+      <c r="GL24">
+        <v>468879</v>
+      </c>
+      <c r="GM24">
+        <v>498</v>
+      </c>
+      <c r="GN24">
+        <v>12345</v>
+      </c>
+      <c r="GO24">
+        <v>53163</v>
+      </c>
+      <c r="GP24">
+        <v>330301</v>
+      </c>
+      <c r="GQ24">
+        <v>420999</v>
+      </c>
+      <c r="GR24">
+        <v>439</v>
+      </c>
+      <c r="GS24">
+        <v>10127</v>
+      </c>
+      <c r="GT24">
+        <v>45321</v>
+      </c>
+      <c r="GU24">
+        <v>308105</v>
+      </c>
+      <c r="GV24">
+        <v>389362</v>
+      </c>
+      <c r="GW24">
+        <v>399</v>
+      </c>
+      <c r="GX24">
+        <v>8950</v>
+      </c>
+      <c r="GY24">
+        <v>40259</v>
+      </c>
+      <c r="GZ24">
+        <v>263496</v>
+      </c>
+      <c r="HA24">
+        <v>319771</v>
+      </c>
+      <c r="HB24">
+        <v>328</v>
+      </c>
+      <c r="HC24">
+        <v>6606</v>
+      </c>
+      <c r="HD24">
+        <v>31748</v>
+      </c>
+      <c r="HE24">
+        <v>234422</v>
+      </c>
+      <c r="HF24">
+        <v>277086</v>
+      </c>
+      <c r="HG24">
+        <v>234</v>
+      </c>
+      <c r="HH24">
+        <v>5315</v>
+      </c>
+      <c r="HI24">
+        <v>25960</v>
+      </c>
+      <c r="HJ24">
+        <v>180776</v>
+      </c>
+      <c r="HK24">
+        <v>204224</v>
+      </c>
+      <c r="HL24">
+        <v>199</v>
+      </c>
+      <c r="HM24">
+        <v>3651</v>
+      </c>
+      <c r="HN24">
+        <v>18521</v>
+      </c>
+      <c r="HO24">
+        <v>151561</v>
+      </c>
+      <c r="HP24">
+        <v>158269</v>
+      </c>
+      <c r="HQ24">
+        <v>163</v>
+      </c>
+      <c r="HR24">
+        <v>2669</v>
+      </c>
+      <c r="HS24">
+        <v>12349</v>
+      </c>
+      <c r="HT24">
+        <v>115865</v>
+      </c>
+      <c r="HU24">
+        <v>114698</v>
+      </c>
+      <c r="HV24">
+        <v>164</v>
+      </c>
+      <c r="HW24">
+        <v>1883</v>
+      </c>
+      <c r="HX24">
+        <v>7811</v>
+      </c>
+      <c r="HY24">
+        <v>75922</v>
+      </c>
+      <c r="HZ24">
+        <v>79689</v>
+      </c>
+      <c r="IA24">
+        <v>131</v>
+      </c>
+      <c r="IB24">
+        <v>1277</v>
+      </c>
+      <c r="IC24">
+        <v>4531</v>
+      </c>
+      <c r="ID24">
+        <v>81171</v>
+      </c>
+      <c r="IE24">
+        <v>122082</v>
+      </c>
+      <c r="IF24">
+        <v>306</v>
+      </c>
+      <c r="IG24">
+        <v>2266</v>
+      </c>
+      <c r="IH24">
+        <v>3840</v>
+      </c>
+      <c r="II24">
+        <v>2151</v>
+      </c>
+      <c r="IJ24">
+        <v>2309</v>
+      </c>
+      <c r="IK24">
+        <v>24</v>
+      </c>
+      <c r="IL24">
+        <v>201</v>
+      </c>
+      <c r="IM24">
+        <v>13485</v>
       </c>
     </row>
   </sheetData>
@@ -19483,7 +20226,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45261</v>
+        <v>45262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709FBAA0-E49E-4730-9DCF-AA40118F923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB7E43-6A2C-48BA-8C12-3DD061A5CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1865,19 +1865,19 @@
         <v>22503</v>
       </c>
       <c r="U3">
-        <v>32430</v>
+        <v>32429</v>
       </c>
       <c r="V3">
-        <v>30559</v>
+        <v>30560</v>
       </c>
       <c r="W3">
         <v>43743</v>
       </c>
       <c r="X3">
-        <v>75255</v>
+        <v>75254</v>
       </c>
       <c r="Y3">
-        <v>70914</v>
+        <v>70915</v>
       </c>
       <c r="Z3">
         <v>55519</v>
@@ -1922,19 +1922,19 @@
         <v>23250</v>
       </c>
       <c r="AN3">
-        <v>33201</v>
+        <v>33200</v>
       </c>
       <c r="AO3">
-        <v>31512</v>
+        <v>31513</v>
       </c>
       <c r="AP3">
         <v>45252</v>
       </c>
       <c r="AQ3">
-        <v>78223</v>
+        <v>78222</v>
       </c>
       <c r="AR3">
-        <v>74444</v>
+        <v>74445</v>
       </c>
       <c r="AS3">
         <v>58382</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317801</v>
+        <v>10317802</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1996,7 +1996,7 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848249</v>
+        <v>848250</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885870</v>
+        <v>10885871</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2023,7 +2023,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867410</v>
+        <v>867411</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,46 +2038,46 @@
         <v>450545</v>
       </c>
       <c r="U4">
-        <v>611257</v>
+        <v>611254</v>
       </c>
       <c r="V4">
         <v>710185</v>
       </c>
       <c r="W4">
-        <v>683377</v>
+        <v>683379</v>
       </c>
       <c r="X4">
         <v>812064</v>
       </c>
       <c r="Y4">
-        <v>899944</v>
+        <v>899945</v>
       </c>
       <c r="Z4">
-        <v>916984</v>
+        <v>916982</v>
       </c>
       <c r="AA4">
-        <v>908883</v>
+        <v>908882</v>
       </c>
       <c r="AB4">
-        <v>810327</v>
+        <v>810328</v>
       </c>
       <c r="AC4">
-        <v>717645</v>
+        <v>717640</v>
       </c>
       <c r="AD4">
-        <v>658700</v>
+        <v>658707</v>
       </c>
       <c r="AE4">
-        <v>544130</v>
+        <v>544124</v>
       </c>
       <c r="AF4">
-        <v>471554</v>
+        <v>471561</v>
       </c>
       <c r="AG4">
-        <v>349091</v>
+        <v>349089</v>
       </c>
       <c r="AH4">
-        <v>274366</v>
+        <v>274368</v>
       </c>
       <c r="AI4">
         <v>197910</v>
@@ -2095,46 +2095,46 @@
         <v>473795</v>
       </c>
       <c r="AN4">
-        <v>644458</v>
+        <v>644454</v>
       </c>
       <c r="AO4">
-        <v>741697</v>
+        <v>741698</v>
       </c>
       <c r="AP4">
-        <v>728629</v>
+        <v>728631</v>
       </c>
       <c r="AQ4">
-        <v>890287</v>
+        <v>890286</v>
       </c>
       <c r="AR4">
-        <v>974388</v>
+        <v>974390</v>
       </c>
       <c r="AS4">
-        <v>975366</v>
+        <v>975364</v>
       </c>
       <c r="AT4">
-        <v>953873</v>
+        <v>953872</v>
       </c>
       <c r="AU4">
-        <v>845945</v>
+        <v>845946</v>
       </c>
       <c r="AV4">
-        <v>749724</v>
+        <v>749719</v>
       </c>
       <c r="AW4">
-        <v>688390</v>
+        <v>688397</v>
       </c>
       <c r="AX4">
-        <v>568131</v>
+        <v>568125</v>
       </c>
       <c r="AY4">
-        <v>490099</v>
+        <v>490106</v>
       </c>
       <c r="AZ4">
-        <v>362059</v>
+        <v>362057</v>
       </c>
       <c r="BA4">
-        <v>283684</v>
+        <v>283686</v>
       </c>
       <c r="BB4">
         <v>204379</v>
@@ -2154,25 +2154,25 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>818133</v>
+        <v>819117</v>
       </c>
       <c r="C5">
-        <v>296160</v>
+        <v>296484</v>
       </c>
       <c r="D5">
         <v>152606</v>
       </c>
       <c r="E5">
-        <v>130616</v>
+        <v>130958</v>
       </c>
       <c r="F5">
         <v>92666</v>
       </c>
       <c r="G5">
-        <v>87564</v>
+        <v>87751</v>
       </c>
       <c r="H5">
-        <v>29911</v>
+        <v>30042</v>
       </c>
       <c r="I5">
         <v>22322</v>
@@ -2181,25 +2181,25 @@
         <v>6288</v>
       </c>
       <c r="K5">
-        <v>11704003</v>
+        <v>11704988</v>
       </c>
       <c r="L5">
-        <v>3949554</v>
+        <v>3949878</v>
       </c>
       <c r="M5">
         <v>2994089</v>
       </c>
       <c r="N5">
-        <v>1750486</v>
+        <v>1750828</v>
       </c>
       <c r="O5">
         <v>1382532</v>
       </c>
       <c r="P5">
-        <v>954974</v>
+        <v>955162</v>
       </c>
       <c r="Q5">
-        <v>311454</v>
+        <v>311585</v>
       </c>
       <c r="R5">
         <v>250659</v>
@@ -2208,118 +2208,118 @@
         <v>110255</v>
       </c>
       <c r="T5">
-        <v>29007</v>
+        <v>29053</v>
       </c>
       <c r="U5">
-        <v>23642</v>
+        <v>23656</v>
       </c>
       <c r="V5">
-        <v>31970</v>
+        <v>31989</v>
       </c>
       <c r="W5">
-        <v>31274</v>
+        <v>31313</v>
       </c>
       <c r="X5">
-        <v>40102</v>
+        <v>40161</v>
       </c>
       <c r="Y5">
-        <v>51907</v>
+        <v>51959</v>
       </c>
       <c r="Z5">
-        <v>58781</v>
+        <v>58846</v>
       </c>
       <c r="AA5">
-        <v>64963</v>
+        <v>65016</v>
       </c>
       <c r="AB5">
-        <v>62503</v>
+        <v>62546</v>
       </c>
       <c r="AC5">
-        <v>57463</v>
+        <v>57522</v>
       </c>
       <c r="AD5">
-        <v>58685</v>
+        <v>58764</v>
       </c>
       <c r="AE5">
-        <v>53818</v>
+        <v>53881</v>
       </c>
       <c r="AF5">
-        <v>52918</v>
+        <v>52970</v>
       </c>
       <c r="AG5">
-        <v>45312</v>
+        <v>45367</v>
       </c>
       <c r="AH5">
-        <v>41327</v>
+        <v>41395</v>
       </c>
       <c r="AI5">
-        <v>36042</v>
+        <v>36118</v>
       </c>
       <c r="AJ5">
-        <v>29105</v>
+        <v>29154</v>
       </c>
       <c r="AK5">
-        <v>48723</v>
+        <v>48817</v>
       </c>
       <c r="AL5">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AM5">
-        <v>502802</v>
+        <v>502848</v>
       </c>
       <c r="AN5">
-        <v>668100</v>
+        <v>668110</v>
       </c>
       <c r="AO5">
-        <v>773667</v>
+        <v>773687</v>
       </c>
       <c r="AP5">
-        <v>759903</v>
+        <v>759944</v>
       </c>
       <c r="AQ5">
-        <v>930389</v>
+        <v>930447</v>
       </c>
       <c r="AR5">
-        <v>1026295</v>
+        <v>1026349</v>
       </c>
       <c r="AS5">
-        <v>1034147</v>
+        <v>1034210</v>
       </c>
       <c r="AT5">
-        <v>1018836</v>
+        <v>1018888</v>
       </c>
       <c r="AU5">
-        <v>908448</v>
+        <v>908492</v>
       </c>
       <c r="AV5">
-        <v>807187</v>
+        <v>807241</v>
       </c>
       <c r="AW5">
-        <v>747075</v>
+        <v>747161</v>
       </c>
       <c r="AX5">
-        <v>621949</v>
+        <v>622006</v>
       </c>
       <c r="AY5">
-        <v>543017</v>
+        <v>543076</v>
       </c>
       <c r="AZ5">
-        <v>407371</v>
+        <v>407424</v>
       </c>
       <c r="BA5">
-        <v>325011</v>
+        <v>325081</v>
       </c>
       <c r="BB5">
-        <v>240421</v>
+        <v>240497</v>
       </c>
       <c r="BC5">
-        <v>161550</v>
+        <v>161599</v>
       </c>
       <c r="BD5">
-        <v>209665</v>
+        <v>209759</v>
       </c>
       <c r="BE5">
-        <v>18170</v>
+        <v>18169</v>
       </c>
     </row>
   </sheetData>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339854</v>
+        <v>1339855</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139796</v>
+        <v>139797</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771834</v>
+        <v>5771835</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413921</v>
+        <v>413922</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082199</v>
+        <v>7082200</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4097,7 +4097,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522055</v>
+        <v>522056</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966495</v>
+        <v>7966496</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4156,7 +4156,7 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599372</v>
+        <v>599373</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216840</v>
+        <v>9216841</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4215,7 +4215,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716772</v>
+        <v>716773</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771701</v>
+        <v>9771702</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4274,7 +4274,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757283</v>
+        <v>757284</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965956</v>
+        <v>9965957</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4333,7 +4333,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772567</v>
+        <v>772568</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108061</v>
+        <v>10108062</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4392,7 +4392,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785742</v>
+        <v>785743</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460002</v>
+        <v>10460003</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4451,7 +4451,7 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822905</v>
+        <v>822906</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885870</v>
+        <v>10885871</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4510,7 +4510,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867410</v>
+        <v>867411</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015952</v>
+        <v>11015953</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4569,7 +4569,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879300</v>
+        <v>879301</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087941</v>
+        <v>11087942</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4628,7 +4628,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886153</v>
+        <v>886154</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191920</v>
+        <v>11191921</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4687,7 +4687,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897653</v>
+        <v>897654</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315086</v>
+        <v>11315087</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4746,7 +4746,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909982</v>
+        <v>909983</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481337</v>
+        <v>11481338</v>
       </c>
       <c r="L42" s="3">
         <v>3872846</v>
@@ -4805,7 +4805,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924895</v>
+        <v>924896</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559137</v>
+        <v>11559138</v>
       </c>
       <c r="L43" s="3">
         <v>3901028</v>
@@ -4864,7 +4864,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932109</v>
+        <v>932110</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587336</v>
+        <v>11587337</v>
       </c>
       <c r="L44" s="3">
         <v>3911313</v>
@@ -4923,7 +4923,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935038</v>
+        <v>935039</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610753</v>
+        <v>11610754</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4982,7 +4982,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937487</v>
+        <v>937488</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632857</v>
+        <v>11632858</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5041,7 +5041,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940520</v>
+        <v>940521</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660757</v>
+        <v>11660758</v>
       </c>
       <c r="L47" s="3">
         <v>3937124</v>
@@ -5100,7 +5100,7 @@
         <v>1380654</v>
       </c>
       <c r="P47" s="3">
-        <v>945597</v>
+        <v>945598</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,25 +5117,25 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>42880</v>
+        <v>43049</v>
       </c>
       <c r="C48" s="3">
-        <v>12273</v>
+        <v>12276</v>
       </c>
       <c r="D48" s="3">
         <v>5915</v>
       </c>
       <c r="E48" s="3">
-        <v>6988</v>
+        <v>7051</v>
       </c>
       <c r="F48" s="3">
         <v>1878</v>
       </c>
       <c r="G48" s="3">
-        <v>9249</v>
+        <v>9270</v>
       </c>
       <c r="H48" s="3">
-        <v>3933</v>
+        <v>4015</v>
       </c>
       <c r="I48" s="3">
         <v>2105</v>
@@ -5144,25 +5144,25 @@
         <v>539</v>
       </c>
       <c r="K48" s="3">
-        <v>11703637</v>
+        <v>11703807</v>
       </c>
       <c r="L48" s="3">
-        <v>3949397</v>
+        <v>3949400</v>
       </c>
       <c r="M48" s="3">
         <v>2994089</v>
       </c>
       <c r="N48" s="3">
-        <v>1750407</v>
+        <v>1750470</v>
       </c>
       <c r="O48" s="3">
         <v>1382532</v>
       </c>
       <c r="P48" s="3">
-        <v>954846</v>
+        <v>954868</v>
       </c>
       <c r="Q48" s="3">
-        <v>311454</v>
+        <v>311536</v>
       </c>
       <c r="R48" s="3">
         <v>250659</v>
@@ -5176,25 +5176,25 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>366</v>
+        <v>1181</v>
       </c>
       <c r="C49">
-        <v>157</v>
+        <v>478</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -5203,25 +5203,25 @@
         <v>2</v>
       </c>
       <c r="K49">
-        <v>11704003</v>
+        <v>11704988</v>
       </c>
       <c r="L49">
-        <v>3949554</v>
+        <v>3949878</v>
       </c>
       <c r="M49">
         <v>2994089</v>
       </c>
       <c r="N49">
-        <v>1750486</v>
+        <v>1750828</v>
       </c>
       <c r="O49">
         <v>1382532</v>
       </c>
       <c r="P49">
-        <v>954974</v>
+        <v>955162</v>
       </c>
       <c r="Q49">
-        <v>311454</v>
+        <v>311585</v>
       </c>
       <c r="R49">
         <v>250659</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM24"/>
+  <dimension ref="A1:IM25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20200,6 +20200,749 @@
       </c>
       <c r="IM24">
         <v>13485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B25">
+        <v>985</v>
+      </c>
+      <c r="C25">
+        <v>324</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>342</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>188</v>
+      </c>
+      <c r="H25">
+        <v>131</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>11704988</v>
+      </c>
+      <c r="L25">
+        <v>3949878</v>
+      </c>
+      <c r="M25">
+        <v>2994089</v>
+      </c>
+      <c r="N25">
+        <v>1750828</v>
+      </c>
+      <c r="O25">
+        <v>1382532</v>
+      </c>
+      <c r="P25">
+        <v>955162</v>
+      </c>
+      <c r="Q25">
+        <v>311585</v>
+      </c>
+      <c r="R25">
+        <v>250659</v>
+      </c>
+      <c r="S25">
+        <v>110255</v>
+      </c>
+      <c r="T25">
+        <v>46</v>
+      </c>
+      <c r="U25">
+        <v>10</v>
+      </c>
+      <c r="V25">
+        <v>20</v>
+      </c>
+      <c r="W25">
+        <v>41</v>
+      </c>
+      <c r="X25">
+        <v>58</v>
+      </c>
+      <c r="Y25">
+        <v>54</v>
+      </c>
+      <c r="Z25">
+        <v>63</v>
+      </c>
+      <c r="AA25">
+        <v>52</v>
+      </c>
+      <c r="AB25">
+        <v>44</v>
+      </c>
+      <c r="AC25">
+        <v>54</v>
+      </c>
+      <c r="AD25">
+        <v>86</v>
+      </c>
+      <c r="AE25">
+        <v>57</v>
+      </c>
+      <c r="AF25">
+        <v>59</v>
+      </c>
+      <c r="AG25">
+        <v>53</v>
+      </c>
+      <c r="AH25">
+        <v>70</v>
+      </c>
+      <c r="AI25">
+        <v>76</v>
+      </c>
+      <c r="AJ25">
+        <v>49</v>
+      </c>
+      <c r="AK25">
+        <v>94</v>
+      </c>
+      <c r="AL25">
+        <v>-1</v>
+      </c>
+      <c r="AM25">
+        <v>502848</v>
+      </c>
+      <c r="AN25">
+        <v>668110</v>
+      </c>
+      <c r="AO25">
+        <v>773687</v>
+      </c>
+      <c r="AP25">
+        <v>759944</v>
+      </c>
+      <c r="AQ25">
+        <v>930447</v>
+      </c>
+      <c r="AR25">
+        <v>1026349</v>
+      </c>
+      <c r="AS25">
+        <v>1034210</v>
+      </c>
+      <c r="AT25">
+        <v>1018888</v>
+      </c>
+      <c r="AU25">
+        <v>908492</v>
+      </c>
+      <c r="AV25">
+        <v>807241</v>
+      </c>
+      <c r="AW25">
+        <v>747161</v>
+      </c>
+      <c r="AX25">
+        <v>622006</v>
+      </c>
+      <c r="AY25">
+        <v>543076</v>
+      </c>
+      <c r="AZ25">
+        <v>407424</v>
+      </c>
+      <c r="BA25">
+        <v>325081</v>
+      </c>
+      <c r="BB25">
+        <v>240497</v>
+      </c>
+      <c r="BC25">
+        <v>161599</v>
+      </c>
+      <c r="BD25">
+        <v>209759</v>
+      </c>
+      <c r="BE25">
+        <v>18169</v>
+      </c>
+      <c r="BF25">
+        <v>20</v>
+      </c>
+      <c r="BG25">
+        <v>25</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>7</v>
+      </c>
+      <c r="BL25">
+        <v>3</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>8</v>
+      </c>
+      <c r="BQ25">
+        <v>12</v>
+      </c>
+      <c r="BR25">
+        <v>0</v>
+      </c>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BU25">
+        <v>17</v>
+      </c>
+      <c r="BV25">
+        <v>24</v>
+      </c>
+      <c r="BW25">
+        <v>0</v>
+      </c>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BY25">
+        <v>0</v>
+      </c>
+      <c r="BZ25">
+        <v>19</v>
+      </c>
+      <c r="CA25">
+        <v>39</v>
+      </c>
+      <c r="CB25">
+        <v>0</v>
+      </c>
+      <c r="CC25">
+        <v>0</v>
+      </c>
+      <c r="CD25">
+        <v>0</v>
+      </c>
+      <c r="CE25">
+        <v>19</v>
+      </c>
+      <c r="CF25">
+        <v>34</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25">
+        <v>1</v>
+      </c>
+      <c r="CJ25">
+        <v>19</v>
+      </c>
+      <c r="CK25">
+        <v>44</v>
+      </c>
+      <c r="CL25">
+        <v>0</v>
+      </c>
+      <c r="CM25">
+        <v>0</v>
+      </c>
+      <c r="CN25">
+        <v>0</v>
+      </c>
+      <c r="CO25">
+        <v>15</v>
+      </c>
+      <c r="CP25">
+        <v>37</v>
+      </c>
+      <c r="CQ25">
+        <v>0</v>
+      </c>
+      <c r="CR25">
+        <v>0</v>
+      </c>
+      <c r="CS25">
+        <v>0</v>
+      </c>
+      <c r="CT25">
+        <v>20</v>
+      </c>
+      <c r="CU25">
+        <v>24</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25">
+        <v>20</v>
+      </c>
+      <c r="CZ25">
+        <v>34</v>
+      </c>
+      <c r="DA25">
+        <v>0</v>
+      </c>
+      <c r="DB25">
+        <v>0</v>
+      </c>
+      <c r="DC25">
+        <v>0</v>
+      </c>
+      <c r="DD25">
+        <v>26</v>
+      </c>
+      <c r="DE25">
+        <v>60</v>
+      </c>
+      <c r="DF25">
+        <v>0</v>
+      </c>
+      <c r="DG25">
+        <v>0</v>
+      </c>
+      <c r="DH25">
+        <v>0</v>
+      </c>
+      <c r="DI25">
+        <v>19</v>
+      </c>
+      <c r="DJ25">
+        <v>38</v>
+      </c>
+      <c r="DK25">
+        <v>0</v>
+      </c>
+      <c r="DL25">
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <v>0</v>
+      </c>
+      <c r="DN25">
+        <v>21</v>
+      </c>
+      <c r="DO25">
+        <v>38</v>
+      </c>
+      <c r="DP25">
+        <v>0</v>
+      </c>
+      <c r="DQ25">
+        <v>0</v>
+      </c>
+      <c r="DR25">
+        <v>0</v>
+      </c>
+      <c r="DS25">
+        <v>25</v>
+      </c>
+      <c r="DT25">
+        <v>28</v>
+      </c>
+      <c r="DU25">
+        <v>0</v>
+      </c>
+      <c r="DV25">
+        <v>0</v>
+      </c>
+      <c r="DW25">
+        <v>0</v>
+      </c>
+      <c r="DX25">
+        <v>33</v>
+      </c>
+      <c r="DY25">
+        <v>37</v>
+      </c>
+      <c r="DZ25">
+        <v>0</v>
+      </c>
+      <c r="EA25">
+        <v>0</v>
+      </c>
+      <c r="EB25">
+        <v>0</v>
+      </c>
+      <c r="EC25">
+        <v>31</v>
+      </c>
+      <c r="ED25">
+        <v>45</v>
+      </c>
+      <c r="EE25">
+        <v>0</v>
+      </c>
+      <c r="EF25">
+        <v>0</v>
+      </c>
+      <c r="EG25">
+        <v>0</v>
+      </c>
+      <c r="EH25">
+        <v>26</v>
+      </c>
+      <c r="EI25">
+        <v>23</v>
+      </c>
+      <c r="EJ25">
+        <v>0</v>
+      </c>
+      <c r="EK25">
+        <v>0</v>
+      </c>
+      <c r="EL25">
+        <v>0</v>
+      </c>
+      <c r="EM25">
+        <v>40</v>
+      </c>
+      <c r="EN25">
+        <v>54</v>
+      </c>
+      <c r="EO25">
+        <v>0</v>
+      </c>
+      <c r="EP25">
+        <v>0</v>
+      </c>
+      <c r="EQ25">
+        <v>0</v>
+      </c>
+      <c r="ER25">
+        <v>0</v>
+      </c>
+      <c r="ES25">
+        <v>0</v>
+      </c>
+      <c r="ET25">
+        <v>0</v>
+      </c>
+      <c r="EU25">
+        <v>0</v>
+      </c>
+      <c r="EV25">
+        <v>-1</v>
+      </c>
+      <c r="EW25">
+        <v>231531</v>
+      </c>
+      <c r="EX25">
+        <v>219808</v>
+      </c>
+      <c r="EY25">
+        <v>408</v>
+      </c>
+      <c r="EZ25">
+        <v>15453</v>
+      </c>
+      <c r="FA25">
+        <v>35648</v>
+      </c>
+      <c r="FB25">
+        <v>308100</v>
+      </c>
+      <c r="FC25">
+        <v>292740</v>
+      </c>
+      <c r="FD25">
+        <v>466</v>
+      </c>
+      <c r="FE25">
+        <v>16771</v>
+      </c>
+      <c r="FF25">
+        <v>50033</v>
+      </c>
+      <c r="FG25">
+        <v>353328</v>
+      </c>
+      <c r="FH25">
+        <v>342689</v>
+      </c>
+      <c r="FI25">
+        <v>633</v>
+      </c>
+      <c r="FJ25">
+        <v>16954</v>
+      </c>
+      <c r="FK25">
+        <v>60083</v>
+      </c>
+      <c r="FL25">
+        <v>326381</v>
+      </c>
+      <c r="FM25">
+        <v>373911</v>
+      </c>
+      <c r="FN25">
+        <v>895</v>
+      </c>
+      <c r="FO25">
+        <v>12936</v>
+      </c>
+      <c r="FP25">
+        <v>45821</v>
+      </c>
+      <c r="FQ25">
+        <v>392036</v>
+      </c>
+      <c r="FR25">
+        <v>479617</v>
+      </c>
+      <c r="FS25">
+        <v>1100</v>
+      </c>
+      <c r="FT25">
+        <v>16278</v>
+      </c>
+      <c r="FU25">
+        <v>41416</v>
+      </c>
+      <c r="FV25">
+        <v>433854</v>
+      </c>
+      <c r="FW25">
+        <v>526065</v>
+      </c>
+      <c r="FX25">
+        <v>1136</v>
+      </c>
+      <c r="FY25">
+        <v>17782</v>
+      </c>
+      <c r="FZ25">
+        <v>47512</v>
+      </c>
+      <c r="GA25">
+        <v>429179</v>
+      </c>
+      <c r="GB25">
+        <v>532120</v>
+      </c>
+      <c r="GC25">
+        <v>922</v>
+      </c>
+      <c r="GD25">
+        <v>17167</v>
+      </c>
+      <c r="GE25">
+        <v>54822</v>
+      </c>
+      <c r="GF25">
+        <v>419724</v>
+      </c>
+      <c r="GG25">
+        <v>524642</v>
+      </c>
+      <c r="GH25">
+        <v>664</v>
+      </c>
+      <c r="GI25">
+        <v>15033</v>
+      </c>
+      <c r="GJ25">
+        <v>58825</v>
+      </c>
+      <c r="GK25">
+        <v>373583</v>
+      </c>
+      <c r="GL25">
+        <v>468903</v>
+      </c>
+      <c r="GM25">
+        <v>498</v>
+      </c>
+      <c r="GN25">
+        <v>12345</v>
+      </c>
+      <c r="GO25">
+        <v>53163</v>
+      </c>
+      <c r="GP25">
+        <v>330321</v>
+      </c>
+      <c r="GQ25">
+        <v>421033</v>
+      </c>
+      <c r="GR25">
+        <v>439</v>
+      </c>
+      <c r="GS25">
+        <v>10127</v>
+      </c>
+      <c r="GT25">
+        <v>45321</v>
+      </c>
+      <c r="GU25">
+        <v>308131</v>
+      </c>
+      <c r="GV25">
+        <v>389422</v>
+      </c>
+      <c r="GW25">
+        <v>399</v>
+      </c>
+      <c r="GX25">
+        <v>8950</v>
+      </c>
+      <c r="GY25">
+        <v>40259</v>
+      </c>
+      <c r="GZ25">
+        <v>263515</v>
+      </c>
+      <c r="HA25">
+        <v>319809</v>
+      </c>
+      <c r="HB25">
+        <v>328</v>
+      </c>
+      <c r="HC25">
+        <v>6606</v>
+      </c>
+      <c r="HD25">
+        <v>31748</v>
+      </c>
+      <c r="HE25">
+        <v>234443</v>
+      </c>
+      <c r="HF25">
+        <v>277124</v>
+      </c>
+      <c r="HG25">
+        <v>234</v>
+      </c>
+      <c r="HH25">
+        <v>5315</v>
+      </c>
+      <c r="HI25">
+        <v>25960</v>
+      </c>
+      <c r="HJ25">
+        <v>180801</v>
+      </c>
+      <c r="HK25">
+        <v>204252</v>
+      </c>
+      <c r="HL25">
+        <v>199</v>
+      </c>
+      <c r="HM25">
+        <v>3651</v>
+      </c>
+      <c r="HN25">
+        <v>18521</v>
+      </c>
+      <c r="HO25">
+        <v>151594</v>
+      </c>
+      <c r="HP25">
+        <v>158306</v>
+      </c>
+      <c r="HQ25">
+        <v>163</v>
+      </c>
+      <c r="HR25">
+        <v>2669</v>
+      </c>
+      <c r="HS25">
+        <v>12349</v>
+      </c>
+      <c r="HT25">
+        <v>115896</v>
+      </c>
+      <c r="HU25">
+        <v>114743</v>
+      </c>
+      <c r="HV25">
+        <v>164</v>
+      </c>
+      <c r="HW25">
+        <v>1883</v>
+      </c>
+      <c r="HX25">
+        <v>7811</v>
+      </c>
+      <c r="HY25">
+        <v>75948</v>
+      </c>
+      <c r="HZ25">
+        <v>79712</v>
+      </c>
+      <c r="IA25">
+        <v>131</v>
+      </c>
+      <c r="IB25">
+        <v>1277</v>
+      </c>
+      <c r="IC25">
+        <v>4531</v>
+      </c>
+      <c r="ID25">
+        <v>81211</v>
+      </c>
+      <c r="IE25">
+        <v>122136</v>
+      </c>
+      <c r="IF25">
+        <v>306</v>
+      </c>
+      <c r="IG25">
+        <v>2266</v>
+      </c>
+      <c r="IH25">
+        <v>3840</v>
+      </c>
+      <c r="II25">
+        <v>2151</v>
+      </c>
+      <c r="IJ25">
+        <v>2309</v>
+      </c>
+      <c r="IK25">
+        <v>24</v>
+      </c>
+      <c r="IL25">
+        <v>201</v>
+      </c>
+      <c r="IM25">
+        <v>13484</v>
       </c>
     </row>
   </sheetData>
@@ -20226,7 +20969,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45262</v>
+        <v>45263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB7E43-6A2C-48BA-8C12-3DD061A5CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D3391-CA60-4A90-B596-330E0558E6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1725,10 +1725,10 @@
         <v>1678</v>
       </c>
       <c r="AF2">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AG2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="AH2">
         <v>912</v>
@@ -1782,10 +1782,10 @@
         <v>1678</v>
       </c>
       <c r="AY2">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="AZ2">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="BA2">
         <v>912</v>
@@ -1871,49 +1871,49 @@
         <v>30560</v>
       </c>
       <c r="W3">
-        <v>43743</v>
+        <v>43741</v>
       </c>
       <c r="X3">
-        <v>75254</v>
+        <v>75256</v>
       </c>
       <c r="Y3">
-        <v>70915</v>
+        <v>70914</v>
       </c>
       <c r="Z3">
-        <v>55519</v>
+        <v>55518</v>
       </c>
       <c r="AA3">
-        <v>42725</v>
+        <v>42726</v>
       </c>
       <c r="AB3">
         <v>33829</v>
       </c>
       <c r="AC3">
-        <v>30114</v>
+        <v>30115</v>
       </c>
       <c r="AD3">
-        <v>27884</v>
+        <v>27882</v>
       </c>
       <c r="AE3">
-        <v>22323</v>
+        <v>22325</v>
       </c>
       <c r="AF3">
-        <v>17084</v>
+        <v>17081</v>
       </c>
       <c r="AG3">
-        <v>11936</v>
+        <v>11937</v>
       </c>
       <c r="AH3">
         <v>8406</v>
       </c>
       <c r="AI3">
-        <v>5709</v>
+        <v>5711</v>
       </c>
       <c r="AJ3">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="AK3">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="AL3">
         <v>350</v>
@@ -1928,49 +1928,49 @@
         <v>31513</v>
       </c>
       <c r="AP3">
-        <v>45252</v>
+        <v>45250</v>
       </c>
       <c r="AQ3">
-        <v>78222</v>
+        <v>78224</v>
       </c>
       <c r="AR3">
-        <v>74445</v>
+        <v>74444</v>
       </c>
       <c r="AS3">
-        <v>58382</v>
+        <v>58381</v>
       </c>
       <c r="AT3">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="AU3">
         <v>35618</v>
       </c>
       <c r="AV3">
-        <v>32079</v>
+        <v>32080</v>
       </c>
       <c r="AW3">
-        <v>29690</v>
+        <v>29688</v>
       </c>
       <c r="AX3">
-        <v>24001</v>
+        <v>24003</v>
       </c>
       <c r="AY3">
-        <v>18545</v>
+        <v>18540</v>
       </c>
       <c r="AZ3">
-        <v>12968</v>
+        <v>12971</v>
       </c>
       <c r="BA3">
         <v>9318</v>
       </c>
       <c r="BB3">
-        <v>6469</v>
+        <v>6471</v>
       </c>
       <c r="BC3">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="BD3">
-        <v>5363</v>
+        <v>5364</v>
       </c>
       <c r="BE3">
         <v>373</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317802</v>
+        <v>10317850</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1996,7 +1996,7 @@
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848250</v>
+        <v>848298</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885871</v>
+        <v>10885919</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2023,7 +2023,7 @@
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867411</v>
+        <v>867459</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,118 +2035,118 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450545</v>
+        <v>450544</v>
       </c>
       <c r="U4">
-        <v>611254</v>
+        <v>611251</v>
       </c>
       <c r="V4">
-        <v>710185</v>
+        <v>710186</v>
       </c>
       <c r="W4">
-        <v>683379</v>
+        <v>683367</v>
       </c>
       <c r="X4">
-        <v>812064</v>
+        <v>812054</v>
       </c>
       <c r="Y4">
-        <v>899945</v>
+        <v>899949</v>
       </c>
       <c r="Z4">
-        <v>916982</v>
+        <v>916985</v>
       </c>
       <c r="AA4">
-        <v>908882</v>
+        <v>908886</v>
       </c>
       <c r="AB4">
         <v>810328</v>
       </c>
       <c r="AC4">
-        <v>717640</v>
+        <v>717629</v>
       </c>
       <c r="AD4">
-        <v>658707</v>
+        <v>658708</v>
       </c>
       <c r="AE4">
-        <v>544124</v>
+        <v>544128</v>
       </c>
       <c r="AF4">
-        <v>471561</v>
+        <v>471537</v>
       </c>
       <c r="AG4">
-        <v>349089</v>
+        <v>349064</v>
       </c>
       <c r="AH4">
-        <v>274368</v>
+        <v>274360</v>
       </c>
       <c r="AI4">
-        <v>197910</v>
+        <v>197944</v>
       </c>
       <c r="AJ4">
-        <v>128054</v>
+        <v>128105</v>
       </c>
       <c r="AK4">
-        <v>155579</v>
+        <v>155621</v>
       </c>
       <c r="AL4">
-        <v>17206</v>
+        <v>17204</v>
       </c>
       <c r="AM4">
-        <v>473795</v>
+        <v>473794</v>
       </c>
       <c r="AN4">
-        <v>644454</v>
+        <v>644451</v>
       </c>
       <c r="AO4">
-        <v>741698</v>
+        <v>741699</v>
       </c>
       <c r="AP4">
-        <v>728631</v>
+        <v>728617</v>
       </c>
       <c r="AQ4">
-        <v>890286</v>
+        <v>890278</v>
       </c>
       <c r="AR4">
-        <v>974390</v>
+        <v>974393</v>
       </c>
       <c r="AS4">
-        <v>975364</v>
+        <v>975366</v>
       </c>
       <c r="AT4">
-        <v>953872</v>
+        <v>953877</v>
       </c>
       <c r="AU4">
         <v>845946</v>
       </c>
       <c r="AV4">
-        <v>749719</v>
+        <v>749709</v>
       </c>
       <c r="AW4">
-        <v>688397</v>
+        <v>688396</v>
       </c>
       <c r="AX4">
-        <v>568125</v>
+        <v>568131</v>
       </c>
       <c r="AY4">
-        <v>490106</v>
+        <v>490077</v>
       </c>
       <c r="AZ4">
-        <v>362057</v>
+        <v>362035</v>
       </c>
       <c r="BA4">
-        <v>283686</v>
+        <v>283678</v>
       </c>
       <c r="BB4">
-        <v>204379</v>
+        <v>204415</v>
       </c>
       <c r="BC4">
-        <v>132445</v>
+        <v>132495</v>
       </c>
       <c r="BD4">
-        <v>160942</v>
+        <v>160985</v>
       </c>
       <c r="BE4">
-        <v>17579</v>
+        <v>17577</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -2154,22 +2154,22 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>819117</v>
+        <v>819716</v>
       </c>
       <c r="C5">
-        <v>296484</v>
+        <v>296679</v>
       </c>
       <c r="D5">
         <v>152606</v>
       </c>
       <c r="E5">
-        <v>130958</v>
+        <v>131155</v>
       </c>
       <c r="F5">
         <v>92666</v>
       </c>
       <c r="G5">
-        <v>87751</v>
+        <v>87958</v>
       </c>
       <c r="H5">
         <v>30042</v>
@@ -2181,22 +2181,22 @@
         <v>6288</v>
       </c>
       <c r="K5">
-        <v>11704988</v>
+        <v>11705635</v>
       </c>
       <c r="L5">
-        <v>3949878</v>
+        <v>3950073</v>
       </c>
       <c r="M5">
         <v>2994089</v>
       </c>
       <c r="N5">
-        <v>1750828</v>
+        <v>1751025</v>
       </c>
       <c r="O5">
         <v>1382532</v>
       </c>
       <c r="P5">
-        <v>955162</v>
+        <v>955417</v>
       </c>
       <c r="Q5">
         <v>311585</v>
@@ -2208,118 +2208,118 @@
         <v>110255</v>
       </c>
       <c r="T5">
-        <v>29053</v>
+        <v>29098</v>
       </c>
       <c r="U5">
-        <v>23656</v>
+        <v>23665</v>
       </c>
       <c r="V5">
-        <v>31989</v>
+        <v>31996</v>
       </c>
       <c r="W5">
-        <v>31313</v>
+        <v>31339</v>
       </c>
       <c r="X5">
-        <v>40161</v>
+        <v>40196</v>
       </c>
       <c r="Y5">
-        <v>51959</v>
+        <v>51988</v>
       </c>
       <c r="Z5">
-        <v>58846</v>
+        <v>58867</v>
       </c>
       <c r="AA5">
-        <v>65016</v>
+        <v>65044</v>
       </c>
       <c r="AB5">
-        <v>62546</v>
+        <v>62588</v>
       </c>
       <c r="AC5">
-        <v>57522</v>
+        <v>57568</v>
       </c>
       <c r="AD5">
-        <v>58764</v>
+        <v>58787</v>
       </c>
       <c r="AE5">
-        <v>53881</v>
+        <v>53920</v>
       </c>
       <c r="AF5">
-        <v>52970</v>
+        <v>53008</v>
       </c>
       <c r="AG5">
-        <v>45367</v>
+        <v>45399</v>
       </c>
       <c r="AH5">
-        <v>41395</v>
+        <v>41425</v>
       </c>
       <c r="AI5">
-        <v>36118</v>
+        <v>36168</v>
       </c>
       <c r="AJ5">
-        <v>29154</v>
+        <v>29189</v>
       </c>
       <c r="AK5">
-        <v>48817</v>
+        <v>48881</v>
       </c>
       <c r="AL5">
         <v>590</v>
       </c>
       <c r="AM5">
-        <v>502848</v>
+        <v>502892</v>
       </c>
       <c r="AN5">
-        <v>668110</v>
+        <v>668116</v>
       </c>
       <c r="AO5">
-        <v>773687</v>
+        <v>773695</v>
       </c>
       <c r="AP5">
-        <v>759944</v>
+        <v>759956</v>
       </c>
       <c r="AQ5">
-        <v>930447</v>
+        <v>930474</v>
       </c>
       <c r="AR5">
-        <v>1026349</v>
+        <v>1026381</v>
       </c>
       <c r="AS5">
-        <v>1034210</v>
+        <v>1034233</v>
       </c>
       <c r="AT5">
-        <v>1018888</v>
+        <v>1018921</v>
       </c>
       <c r="AU5">
-        <v>908492</v>
+        <v>908534</v>
       </c>
       <c r="AV5">
-        <v>807241</v>
+        <v>807277</v>
       </c>
       <c r="AW5">
-        <v>747161</v>
+        <v>747183</v>
       </c>
       <c r="AX5">
-        <v>622006</v>
+        <v>622051</v>
       </c>
       <c r="AY5">
-        <v>543076</v>
+        <v>543085</v>
       </c>
       <c r="AZ5">
-        <v>407424</v>
+        <v>407434</v>
       </c>
       <c r="BA5">
-        <v>325081</v>
+        <v>325103</v>
       </c>
       <c r="BB5">
-        <v>240497</v>
+        <v>240583</v>
       </c>
       <c r="BC5">
-        <v>161599</v>
+        <v>161684</v>
       </c>
       <c r="BD5">
-        <v>209759</v>
+        <v>209866</v>
       </c>
       <c r="BE5">
-        <v>18169</v>
+        <v>18167</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809597</v>
+        <v>1809616</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90061</v>
+        <v>90080</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377666</v>
+        <v>2377685</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109222</v>
+        <v>109241</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687539</v>
+        <v>687544</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44412</v>
+        <v>44417</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065205</v>
+        <v>3065229</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153634</v>
+        <v>153658</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366775</v>
+        <v>1366779</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3952,7 +3952,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120491</v>
+        <v>120495</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4431980</v>
+        <v>4432008</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3979,7 +3979,7 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274125</v>
+        <v>274153</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339855</v>
+        <v>1339872</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139797</v>
+        <v>139814</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771835</v>
+        <v>5771880</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413922</v>
+        <v>413967</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310365</v>
+        <v>1310367</v>
       </c>
       <c r="C30" s="3">
         <v>297268</v>
@@ -4070,7 +4070,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108134</v>
+        <v>108136</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082200</v>
+        <v>7082247</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4097,7 +4097,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522056</v>
+        <v>522103</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884296</v>
+        <v>884297</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77317</v>
+        <v>77318</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966496</v>
+        <v>7966544</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4156,7 +4156,7 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599373</v>
+        <v>599421</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216841</v>
+        <v>9216889</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4215,7 +4215,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716773</v>
+        <v>716821</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771702</v>
+        <v>9771750</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4274,7 +4274,7 @@
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757284</v>
+        <v>757332</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9965957</v>
+        <v>9966005</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4333,7 +4333,7 @@
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772568</v>
+        <v>772616</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108062</v>
+        <v>10108110</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4392,7 +4392,7 @@
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785743</v>
+        <v>785791</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460003</v>
+        <v>10460051</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4451,7 +4451,7 @@
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822906</v>
+        <v>822954</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885871</v>
+        <v>10885919</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4510,7 +4510,7 @@
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867411</v>
+        <v>867459</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11015953</v>
+        <v>11016001</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4569,7 +4569,7 @@
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879301</v>
+        <v>879349</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087942</v>
+        <v>11087990</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4628,7 +4628,7 @@
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886154</v>
+        <v>886202</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191921</v>
+        <v>11191969</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4687,7 +4687,7 @@
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897654</v>
+        <v>897702</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315087</v>
+        <v>11315135</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4746,7 +4746,7 @@
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>909983</v>
+        <v>910031</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481338</v>
+        <v>11481386</v>
       </c>
       <c r="L42" s="3">
         <v>3872846</v>
@@ -4805,7 +4805,7 @@
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924896</v>
+        <v>924944</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559138</v>
+        <v>11559186</v>
       </c>
       <c r="L43" s="3">
         <v>3901028</v>
@@ -4864,7 +4864,7 @@
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932110</v>
+        <v>932158</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587337</v>
+        <v>11587385</v>
       </c>
       <c r="L44" s="3">
         <v>3911313</v>
@@ -4923,7 +4923,7 @@
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935039</v>
+        <v>935087</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610754</v>
+        <v>11610802</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4982,7 +4982,7 @@
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937488</v>
+        <v>937536</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632858</v>
+        <v>11632906</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5041,7 +5041,7 @@
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940521</v>
+        <v>940569</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660758</v>
+        <v>11660806</v>
       </c>
       <c r="L47" s="3">
         <v>3937124</v>
@@ -5100,7 +5100,7 @@
         <v>1380654</v>
       </c>
       <c r="P47" s="3">
-        <v>945598</v>
+        <v>945646</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,22 +5117,22 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43049</v>
+        <v>43077</v>
       </c>
       <c r="C48" s="3">
-        <v>12276</v>
+        <v>12277</v>
       </c>
       <c r="D48" s="3">
         <v>5915</v>
       </c>
       <c r="E48" s="3">
-        <v>7051</v>
+        <v>7058</v>
       </c>
       <c r="F48" s="3">
         <v>1878</v>
       </c>
       <c r="G48" s="3">
-        <v>9270</v>
+        <v>9290</v>
       </c>
       <c r="H48" s="3">
         <v>4015</v>
@@ -5144,22 +5144,22 @@
         <v>539</v>
       </c>
       <c r="K48" s="3">
-        <v>11703807</v>
+        <v>11703883</v>
       </c>
       <c r="L48" s="3">
-        <v>3949400</v>
+        <v>3949401</v>
       </c>
       <c r="M48" s="3">
         <v>2994089</v>
       </c>
       <c r="N48" s="3">
-        <v>1750470</v>
+        <v>1750477</v>
       </c>
       <c r="O48" s="3">
         <v>1382532</v>
       </c>
       <c r="P48" s="3">
-        <v>954868</v>
+        <v>954936</v>
       </c>
       <c r="Q48" s="3">
         <v>311536</v>
@@ -5176,22 +5176,22 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>1181</v>
+        <v>1752</v>
       </c>
       <c r="C49">
-        <v>478</v>
+        <v>672</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>358</v>
+        <v>548</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>294</v>
+        <v>481</v>
       </c>
       <c r="H49">
         <v>49</v>
@@ -5203,22 +5203,22 @@
         <v>2</v>
       </c>
       <c r="K49">
-        <v>11704988</v>
+        <v>11705635</v>
       </c>
       <c r="L49">
-        <v>3949878</v>
+        <v>3950073</v>
       </c>
       <c r="M49">
         <v>2994089</v>
       </c>
       <c r="N49">
-        <v>1750828</v>
+        <v>1751025</v>
       </c>
       <c r="O49">
         <v>1382532</v>
       </c>
       <c r="P49">
-        <v>955162</v>
+        <v>955417</v>
       </c>
       <c r="Q49">
         <v>311585</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM25"/>
+  <dimension ref="A1:IM26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20943,6 +20943,749 @@
       </c>
       <c r="IM25">
         <v>13484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B26">
+        <v>647</v>
+      </c>
+      <c r="C26">
+        <v>195</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>197</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>255</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>11705635</v>
+      </c>
+      <c r="L26">
+        <v>3950073</v>
+      </c>
+      <c r="M26">
+        <v>2994089</v>
+      </c>
+      <c r="N26">
+        <v>1751025</v>
+      </c>
+      <c r="O26">
+        <v>1382532</v>
+      </c>
+      <c r="P26">
+        <v>955417</v>
+      </c>
+      <c r="Q26">
+        <v>311585</v>
+      </c>
+      <c r="R26">
+        <v>250659</v>
+      </c>
+      <c r="S26">
+        <v>110255</v>
+      </c>
+      <c r="T26">
+        <v>44</v>
+      </c>
+      <c r="U26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>8</v>
+      </c>
+      <c r="W26">
+        <v>12</v>
+      </c>
+      <c r="X26">
+        <v>27</v>
+      </c>
+      <c r="Y26">
+        <v>32</v>
+      </c>
+      <c r="Z26">
+        <v>23</v>
+      </c>
+      <c r="AA26">
+        <v>33</v>
+      </c>
+      <c r="AB26">
+        <v>42</v>
+      </c>
+      <c r="AC26">
+        <v>36</v>
+      </c>
+      <c r="AD26">
+        <v>22</v>
+      </c>
+      <c r="AE26">
+        <v>45</v>
+      </c>
+      <c r="AF26">
+        <v>9</v>
+      </c>
+      <c r="AG26">
+        <v>10</v>
+      </c>
+      <c r="AH26">
+        <v>22</v>
+      </c>
+      <c r="AI26">
+        <v>86</v>
+      </c>
+      <c r="AJ26">
+        <v>85</v>
+      </c>
+      <c r="AK26">
+        <v>107</v>
+      </c>
+      <c r="AL26">
+        <v>-2</v>
+      </c>
+      <c r="AM26">
+        <v>502892</v>
+      </c>
+      <c r="AN26">
+        <v>668116</v>
+      </c>
+      <c r="AO26">
+        <v>773695</v>
+      </c>
+      <c r="AP26">
+        <v>759956</v>
+      </c>
+      <c r="AQ26">
+        <v>930474</v>
+      </c>
+      <c r="AR26">
+        <v>1026381</v>
+      </c>
+      <c r="AS26">
+        <v>1034233</v>
+      </c>
+      <c r="AT26">
+        <v>1018921</v>
+      </c>
+      <c r="AU26">
+        <v>908534</v>
+      </c>
+      <c r="AV26">
+        <v>807277</v>
+      </c>
+      <c r="AW26">
+        <v>747183</v>
+      </c>
+      <c r="AX26">
+        <v>622051</v>
+      </c>
+      <c r="AY26">
+        <v>543085</v>
+      </c>
+      <c r="AZ26">
+        <v>407434</v>
+      </c>
+      <c r="BA26">
+        <v>325103</v>
+      </c>
+      <c r="BB26">
+        <v>240583</v>
+      </c>
+      <c r="BC26">
+        <v>161684</v>
+      </c>
+      <c r="BD26">
+        <v>209866</v>
+      </c>
+      <c r="BE26">
+        <v>18167</v>
+      </c>
+      <c r="BF26">
+        <v>26</v>
+      </c>
+      <c r="BG26">
+        <v>18</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>6</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
+        <v>4</v>
+      </c>
+      <c r="BQ26">
+        <v>4</v>
+      </c>
+      <c r="BR26">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26">
+        <v>3</v>
+      </c>
+      <c r="BV26">
+        <v>9</v>
+      </c>
+      <c r="BW26">
+        <v>0</v>
+      </c>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BY26">
+        <v>0</v>
+      </c>
+      <c r="BZ26">
+        <v>12</v>
+      </c>
+      <c r="CA26">
+        <v>16</v>
+      </c>
+      <c r="CB26">
+        <v>0</v>
+      </c>
+      <c r="CC26">
+        <v>0</v>
+      </c>
+      <c r="CD26">
+        <v>-1</v>
+      </c>
+      <c r="CE26">
+        <v>9</v>
+      </c>
+      <c r="CF26">
+        <v>22</v>
+      </c>
+      <c r="CG26">
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>1</v>
+      </c>
+      <c r="CI26">
+        <v>0</v>
+      </c>
+      <c r="CJ26">
+        <v>8</v>
+      </c>
+      <c r="CK26">
+        <v>14</v>
+      </c>
+      <c r="CL26">
+        <v>0</v>
+      </c>
+      <c r="CM26">
+        <v>0</v>
+      </c>
+      <c r="CN26">
+        <v>1</v>
+      </c>
+      <c r="CO26">
+        <v>18</v>
+      </c>
+      <c r="CP26">
+        <v>15</v>
+      </c>
+      <c r="CQ26">
+        <v>0</v>
+      </c>
+      <c r="CR26">
+        <v>0</v>
+      </c>
+      <c r="CS26">
+        <v>0</v>
+      </c>
+      <c r="CT26">
+        <v>11</v>
+      </c>
+      <c r="CU26">
+        <v>31</v>
+      </c>
+      <c r="CV26">
+        <v>0</v>
+      </c>
+      <c r="CW26">
+        <v>0</v>
+      </c>
+      <c r="CX26">
+        <v>0</v>
+      </c>
+      <c r="CY26">
+        <v>14</v>
+      </c>
+      <c r="CZ26">
+        <v>22</v>
+      </c>
+      <c r="DA26">
+        <v>0</v>
+      </c>
+      <c r="DB26">
+        <v>0</v>
+      </c>
+      <c r="DC26">
+        <v>0</v>
+      </c>
+      <c r="DD26">
+        <v>10</v>
+      </c>
+      <c r="DE26">
+        <v>12</v>
+      </c>
+      <c r="DF26">
+        <v>0</v>
+      </c>
+      <c r="DG26">
+        <v>0</v>
+      </c>
+      <c r="DH26">
+        <v>0</v>
+      </c>
+      <c r="DI26">
+        <v>27</v>
+      </c>
+      <c r="DJ26">
+        <v>18</v>
+      </c>
+      <c r="DK26">
+        <v>0</v>
+      </c>
+      <c r="DL26">
+        <v>0</v>
+      </c>
+      <c r="DM26">
+        <v>0</v>
+      </c>
+      <c r="DN26">
+        <v>-3</v>
+      </c>
+      <c r="DO26">
+        <v>12</v>
+      </c>
+      <c r="DP26">
+        <v>0</v>
+      </c>
+      <c r="DQ26">
+        <v>0</v>
+      </c>
+      <c r="DR26">
+        <v>0</v>
+      </c>
+      <c r="DS26">
+        <v>5</v>
+      </c>
+      <c r="DT26">
+        <v>5</v>
+      </c>
+      <c r="DU26">
+        <v>0</v>
+      </c>
+      <c r="DV26">
+        <v>0</v>
+      </c>
+      <c r="DW26">
+        <v>0</v>
+      </c>
+      <c r="DX26">
+        <v>20</v>
+      </c>
+      <c r="DY26">
+        <v>3</v>
+      </c>
+      <c r="DZ26">
+        <v>0</v>
+      </c>
+      <c r="EA26">
+        <v>0</v>
+      </c>
+      <c r="EB26">
+        <v>-1</v>
+      </c>
+      <c r="EC26">
+        <v>43</v>
+      </c>
+      <c r="ED26">
+        <v>43</v>
+      </c>
+      <c r="EE26">
+        <v>0</v>
+      </c>
+      <c r="EF26">
+        <v>0</v>
+      </c>
+      <c r="EG26">
+        <v>0</v>
+      </c>
+      <c r="EH26">
+        <v>38</v>
+      </c>
+      <c r="EI26">
+        <v>47</v>
+      </c>
+      <c r="EJ26">
+        <v>0</v>
+      </c>
+      <c r="EK26">
+        <v>0</v>
+      </c>
+      <c r="EL26">
+        <v>0</v>
+      </c>
+      <c r="EM26">
+        <v>48</v>
+      </c>
+      <c r="EN26">
+        <v>59</v>
+      </c>
+      <c r="EO26">
+        <v>0</v>
+      </c>
+      <c r="EP26">
+        <v>0</v>
+      </c>
+      <c r="EQ26">
+        <v>0</v>
+      </c>
+      <c r="ER26">
+        <v>0</v>
+      </c>
+      <c r="ES26">
+        <v>0</v>
+      </c>
+      <c r="ET26">
+        <v>0</v>
+      </c>
+      <c r="EU26">
+        <v>0</v>
+      </c>
+      <c r="EV26">
+        <v>-2</v>
+      </c>
+      <c r="EW26">
+        <v>231557</v>
+      </c>
+      <c r="EX26">
+        <v>219826</v>
+      </c>
+      <c r="EY26">
+        <v>408</v>
+      </c>
+      <c r="EZ26">
+        <v>15453</v>
+      </c>
+      <c r="FA26">
+        <v>35648</v>
+      </c>
+      <c r="FB26">
+        <v>308100</v>
+      </c>
+      <c r="FC26">
+        <v>292746</v>
+      </c>
+      <c r="FD26">
+        <v>466</v>
+      </c>
+      <c r="FE26">
+        <v>16771</v>
+      </c>
+      <c r="FF26">
+        <v>50033</v>
+      </c>
+      <c r="FG26">
+        <v>353332</v>
+      </c>
+      <c r="FH26">
+        <v>342693</v>
+      </c>
+      <c r="FI26">
+        <v>633</v>
+      </c>
+      <c r="FJ26">
+        <v>16954</v>
+      </c>
+      <c r="FK26">
+        <v>60083</v>
+      </c>
+      <c r="FL26">
+        <v>326384</v>
+      </c>
+      <c r="FM26">
+        <v>373920</v>
+      </c>
+      <c r="FN26">
+        <v>895</v>
+      </c>
+      <c r="FO26">
+        <v>12936</v>
+      </c>
+      <c r="FP26">
+        <v>45821</v>
+      </c>
+      <c r="FQ26">
+        <v>392048</v>
+      </c>
+      <c r="FR26">
+        <v>479633</v>
+      </c>
+      <c r="FS26">
+        <v>1100</v>
+      </c>
+      <c r="FT26">
+        <v>16278</v>
+      </c>
+      <c r="FU26">
+        <v>41415</v>
+      </c>
+      <c r="FV26">
+        <v>433863</v>
+      </c>
+      <c r="FW26">
+        <v>526087</v>
+      </c>
+      <c r="FX26">
+        <v>1136</v>
+      </c>
+      <c r="FY26">
+        <v>17783</v>
+      </c>
+      <c r="FZ26">
+        <v>47512</v>
+      </c>
+      <c r="GA26">
+        <v>429187</v>
+      </c>
+      <c r="GB26">
+        <v>532134</v>
+      </c>
+      <c r="GC26">
+        <v>922</v>
+      </c>
+      <c r="GD26">
+        <v>17167</v>
+      </c>
+      <c r="GE26">
+        <v>54823</v>
+      </c>
+      <c r="GF26">
+        <v>419742</v>
+      </c>
+      <c r="GG26">
+        <v>524657</v>
+      </c>
+      <c r="GH26">
+        <v>664</v>
+      </c>
+      <c r="GI26">
+        <v>15033</v>
+      </c>
+      <c r="GJ26">
+        <v>58825</v>
+      </c>
+      <c r="GK26">
+        <v>373594</v>
+      </c>
+      <c r="GL26">
+        <v>468934</v>
+      </c>
+      <c r="GM26">
+        <v>498</v>
+      </c>
+      <c r="GN26">
+        <v>12345</v>
+      </c>
+      <c r="GO26">
+        <v>53163</v>
+      </c>
+      <c r="GP26">
+        <v>330335</v>
+      </c>
+      <c r="GQ26">
+        <v>421055</v>
+      </c>
+      <c r="GR26">
+        <v>439</v>
+      </c>
+      <c r="GS26">
+        <v>10127</v>
+      </c>
+      <c r="GT26">
+        <v>45321</v>
+      </c>
+      <c r="GU26">
+        <v>308141</v>
+      </c>
+      <c r="GV26">
+        <v>389434</v>
+      </c>
+      <c r="GW26">
+        <v>399</v>
+      </c>
+      <c r="GX26">
+        <v>8950</v>
+      </c>
+      <c r="GY26">
+        <v>40259</v>
+      </c>
+      <c r="GZ26">
+        <v>263542</v>
+      </c>
+      <c r="HA26">
+        <v>319827</v>
+      </c>
+      <c r="HB26">
+        <v>328</v>
+      </c>
+      <c r="HC26">
+        <v>6606</v>
+      </c>
+      <c r="HD26">
+        <v>31748</v>
+      </c>
+      <c r="HE26">
+        <v>234440</v>
+      </c>
+      <c r="HF26">
+        <v>277136</v>
+      </c>
+      <c r="HG26">
+        <v>234</v>
+      </c>
+      <c r="HH26">
+        <v>5315</v>
+      </c>
+      <c r="HI26">
+        <v>25960</v>
+      </c>
+      <c r="HJ26">
+        <v>180806</v>
+      </c>
+      <c r="HK26">
+        <v>204257</v>
+      </c>
+      <c r="HL26">
+        <v>199</v>
+      </c>
+      <c r="HM26">
+        <v>3651</v>
+      </c>
+      <c r="HN26">
+        <v>18521</v>
+      </c>
+      <c r="HO26">
+        <v>151614</v>
+      </c>
+      <c r="HP26">
+        <v>158309</v>
+      </c>
+      <c r="HQ26">
+        <v>163</v>
+      </c>
+      <c r="HR26">
+        <v>2669</v>
+      </c>
+      <c r="HS26">
+        <v>12348</v>
+      </c>
+      <c r="HT26">
+        <v>115939</v>
+      </c>
+      <c r="HU26">
+        <v>114786</v>
+      </c>
+      <c r="HV26">
+        <v>164</v>
+      </c>
+      <c r="HW26">
+        <v>1883</v>
+      </c>
+      <c r="HX26">
+        <v>7811</v>
+      </c>
+      <c r="HY26">
+        <v>75986</v>
+      </c>
+      <c r="HZ26">
+        <v>79759</v>
+      </c>
+      <c r="IA26">
+        <v>131</v>
+      </c>
+      <c r="IB26">
+        <v>1277</v>
+      </c>
+      <c r="IC26">
+        <v>4531</v>
+      </c>
+      <c r="ID26">
+        <v>81259</v>
+      </c>
+      <c r="IE26">
+        <v>122195</v>
+      </c>
+      <c r="IF26">
+        <v>306</v>
+      </c>
+      <c r="IG26">
+        <v>2266</v>
+      </c>
+      <c r="IH26">
+        <v>3840</v>
+      </c>
+      <c r="II26">
+        <v>2151</v>
+      </c>
+      <c r="IJ26">
+        <v>2309</v>
+      </c>
+      <c r="IK26">
+        <v>24</v>
+      </c>
+      <c r="IL26">
+        <v>201</v>
+      </c>
+      <c r="IM26">
+        <v>13482</v>
       </c>
     </row>
   </sheetData>
@@ -20969,7 +21712,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45263</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27D3391-CA60-4A90-B596-330E0558E6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F1E1D-A082-4231-A21D-F7F2788827FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1865,16 +1865,16 @@
         <v>22503</v>
       </c>
       <c r="U3">
-        <v>32429</v>
+        <v>32428</v>
       </c>
       <c r="V3">
-        <v>30560</v>
+        <v>30561</v>
       </c>
       <c r="W3">
-        <v>43741</v>
+        <v>43740</v>
       </c>
       <c r="X3">
-        <v>75256</v>
+        <v>75257</v>
       </c>
       <c r="Y3">
         <v>70914</v>
@@ -1922,16 +1922,16 @@
         <v>23250</v>
       </c>
       <c r="AN3">
-        <v>33200</v>
+        <v>33199</v>
       </c>
       <c r="AO3">
-        <v>31513</v>
+        <v>31514</v>
       </c>
       <c r="AP3">
-        <v>45250</v>
+        <v>45249</v>
       </c>
       <c r="AQ3">
-        <v>78224</v>
+        <v>78225</v>
       </c>
       <c r="AR3">
         <v>74444</v>
@@ -1981,22 +1981,22 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317850</v>
+        <v>10317853</v>
       </c>
       <c r="C4">
-        <v>3368111</v>
+        <v>3368112</v>
       </c>
       <c r="D4">
-        <v>2621355</v>
+        <v>2621354</v>
       </c>
       <c r="E4">
-        <v>1586959</v>
+        <v>1586957</v>
       </c>
       <c r="F4">
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848298</v>
+        <v>848303</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,22 +2008,22 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885919</v>
+        <v>10885922</v>
       </c>
       <c r="L4">
-        <v>3653394</v>
+        <v>3653395</v>
       </c>
       <c r="M4">
-        <v>2841483</v>
+        <v>2841482</v>
       </c>
       <c r="N4">
-        <v>1619870</v>
+        <v>1619868</v>
       </c>
       <c r="O4">
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867459</v>
+        <v>867464</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,22 +2038,22 @@
         <v>450544</v>
       </c>
       <c r="U4">
-        <v>611251</v>
+        <v>611250</v>
       </c>
       <c r="V4">
-        <v>710186</v>
+        <v>710189</v>
       </c>
       <c r="W4">
-        <v>683367</v>
+        <v>683362</v>
       </c>
       <c r="X4">
-        <v>812054</v>
+        <v>812055</v>
       </c>
       <c r="Y4">
-        <v>899949</v>
+        <v>899952</v>
       </c>
       <c r="Z4">
-        <v>916985</v>
+        <v>916980</v>
       </c>
       <c r="AA4">
         <v>908886</v>
@@ -2062,25 +2062,25 @@
         <v>810328</v>
       </c>
       <c r="AC4">
-        <v>717629</v>
+        <v>717634</v>
       </c>
       <c r="AD4">
-        <v>658708</v>
+        <v>658706</v>
       </c>
       <c r="AE4">
         <v>544128</v>
       </c>
       <c r="AF4">
-        <v>471537</v>
+        <v>471539</v>
       </c>
       <c r="AG4">
-        <v>349064</v>
+        <v>349063</v>
       </c>
       <c r="AH4">
-        <v>274360</v>
+        <v>274361</v>
       </c>
       <c r="AI4">
-        <v>197944</v>
+        <v>197946</v>
       </c>
       <c r="AJ4">
         <v>128105</v>
@@ -2095,22 +2095,22 @@
         <v>473794</v>
       </c>
       <c r="AN4">
-        <v>644451</v>
+        <v>644449</v>
       </c>
       <c r="AO4">
-        <v>741699</v>
+        <v>741703</v>
       </c>
       <c r="AP4">
-        <v>728617</v>
+        <v>728611</v>
       </c>
       <c r="AQ4">
-        <v>890278</v>
+        <v>890280</v>
       </c>
       <c r="AR4">
-        <v>974393</v>
+        <v>974396</v>
       </c>
       <c r="AS4">
-        <v>975366</v>
+        <v>975361</v>
       </c>
       <c r="AT4">
         <v>953877</v>
@@ -2119,25 +2119,25 @@
         <v>845946</v>
       </c>
       <c r="AV4">
-        <v>749709</v>
+        <v>749714</v>
       </c>
       <c r="AW4">
-        <v>688396</v>
+        <v>688394</v>
       </c>
       <c r="AX4">
         <v>568131</v>
       </c>
       <c r="AY4">
-        <v>490077</v>
+        <v>490079</v>
       </c>
       <c r="AZ4">
-        <v>362035</v>
+        <v>362034</v>
       </c>
       <c r="BA4">
-        <v>283678</v>
+        <v>283679</v>
       </c>
       <c r="BB4">
-        <v>204415</v>
+        <v>204417</v>
       </c>
       <c r="BC4">
         <v>132495</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>819716</v>
+        <v>821359</v>
       </c>
       <c r="C5">
-        <v>296679</v>
+        <v>297147</v>
       </c>
       <c r="D5">
-        <v>152606</v>
+        <v>153099</v>
       </c>
       <c r="E5">
-        <v>131155</v>
+        <v>131386</v>
       </c>
       <c r="F5">
-        <v>92666</v>
+        <v>92667</v>
       </c>
       <c r="G5">
-        <v>87958</v>
+        <v>88227</v>
       </c>
       <c r="H5">
         <v>30042</v>
       </c>
       <c r="I5">
-        <v>22322</v>
+        <v>22471</v>
       </c>
       <c r="J5">
-        <v>6288</v>
+        <v>6320</v>
       </c>
       <c r="K5">
-        <v>11705635</v>
+        <v>11707281</v>
       </c>
       <c r="L5">
-        <v>3950073</v>
+        <v>3950542</v>
       </c>
       <c r="M5">
-        <v>2994089</v>
+        <v>2994581</v>
       </c>
       <c r="N5">
-        <v>1751025</v>
+        <v>1751254</v>
       </c>
       <c r="O5">
-        <v>1382532</v>
+        <v>1382533</v>
       </c>
       <c r="P5">
-        <v>955417</v>
+        <v>955691</v>
       </c>
       <c r="Q5">
         <v>311585</v>
       </c>
       <c r="R5">
-        <v>250659</v>
+        <v>250808</v>
       </c>
       <c r="S5">
-        <v>110255</v>
+        <v>110287</v>
       </c>
       <c r="T5">
-        <v>29098</v>
+        <v>29211</v>
       </c>
       <c r="U5">
-        <v>23665</v>
+        <v>23691</v>
       </c>
       <c r="V5">
-        <v>31996</v>
+        <v>32028</v>
       </c>
       <c r="W5">
-        <v>31339</v>
+        <v>31395</v>
       </c>
       <c r="X5">
-        <v>40196</v>
+        <v>40267</v>
       </c>
       <c r="Y5">
-        <v>51988</v>
+        <v>52075</v>
       </c>
       <c r="Z5">
-        <v>58867</v>
+        <v>58979</v>
       </c>
       <c r="AA5">
-        <v>65044</v>
+        <v>65143</v>
       </c>
       <c r="AB5">
-        <v>62588</v>
+        <v>62677</v>
       </c>
       <c r="AC5">
-        <v>57568</v>
+        <v>57650</v>
       </c>
       <c r="AD5">
-        <v>58787</v>
+        <v>58876</v>
       </c>
       <c r="AE5">
-        <v>53920</v>
+        <v>54013</v>
       </c>
       <c r="AF5">
-        <v>53008</v>
+        <v>53092</v>
       </c>
       <c r="AG5">
-        <v>45399</v>
+        <v>45471</v>
       </c>
       <c r="AH5">
-        <v>41425</v>
+        <v>41542</v>
       </c>
       <c r="AI5">
-        <v>36168</v>
+        <v>36300</v>
       </c>
       <c r="AJ5">
-        <v>29189</v>
+        <v>29294</v>
       </c>
       <c r="AK5">
-        <v>48881</v>
+        <v>49063</v>
       </c>
       <c r="AL5">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM5">
-        <v>502892</v>
+        <v>503005</v>
       </c>
       <c r="AN5">
-        <v>668116</v>
+        <v>668140</v>
       </c>
       <c r="AO5">
-        <v>773695</v>
+        <v>773731</v>
       </c>
       <c r="AP5">
-        <v>759956</v>
+        <v>760006</v>
       </c>
       <c r="AQ5">
-        <v>930474</v>
+        <v>930547</v>
       </c>
       <c r="AR5">
-        <v>1026381</v>
+        <v>1026471</v>
       </c>
       <c r="AS5">
-        <v>1034233</v>
+        <v>1034340</v>
       </c>
       <c r="AT5">
-        <v>1018921</v>
+        <v>1019020</v>
       </c>
       <c r="AU5">
-        <v>908534</v>
+        <v>908623</v>
       </c>
       <c r="AV5">
-        <v>807277</v>
+        <v>807364</v>
       </c>
       <c r="AW5">
-        <v>747183</v>
+        <v>747270</v>
       </c>
       <c r="AX5">
-        <v>622051</v>
+        <v>622144</v>
       </c>
       <c r="AY5">
-        <v>543085</v>
+        <v>543171</v>
       </c>
       <c r="AZ5">
-        <v>407434</v>
+        <v>407505</v>
       </c>
       <c r="BA5">
-        <v>325103</v>
+        <v>325221</v>
       </c>
       <c r="BB5">
-        <v>240583</v>
+        <v>240717</v>
       </c>
       <c r="BC5">
-        <v>161684</v>
+        <v>161789</v>
       </c>
       <c r="BD5">
-        <v>209866</v>
+        <v>210048</v>
       </c>
       <c r="BE5">
-        <v>18167</v>
+        <v>18169</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809616</v>
+        <v>1809617</v>
       </c>
       <c r="C26" s="3">
         <v>637166</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90080</v>
+        <v>90081</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377685</v>
+        <v>2377686</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109241</v>
+        <v>109242</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687544</v>
+        <v>687546</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44417</v>
+        <v>44419</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065229</v>
+        <v>3065232</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153658</v>
+        <v>153661</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366779</v>
+        <v>1366778</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3946,7 +3946,7 @@
         <v>250086</v>
       </c>
       <c r="E28" s="3">
-        <v>196226</v>
+        <v>196225</v>
       </c>
       <c r="F28" s="3">
         <v>179287</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432008</v>
+        <v>4432010</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3973,13 +3973,13 @@
         <v>1310022</v>
       </c>
       <c r="N28" s="3">
-        <v>742286</v>
+        <v>742285</v>
       </c>
       <c r="O28" s="3">
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274153</v>
+        <v>274156</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,10 +3996,10 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339872</v>
+        <v>1339875</v>
       </c>
       <c r="C29" s="3">
-        <v>432380</v>
+        <v>432381</v>
       </c>
       <c r="D29" s="3">
         <v>274952</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139814</v>
+        <v>139816</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,22 +4023,22 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771880</v>
+        <v>5771885</v>
       </c>
       <c r="L29" s="3">
-        <v>2121664</v>
+        <v>2121665</v>
       </c>
       <c r="M29" s="3">
         <v>1584974</v>
       </c>
       <c r="N29" s="3">
-        <v>943368</v>
+        <v>943367</v>
       </c>
       <c r="O29" s="3">
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413967</v>
+        <v>413972</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,22 +4082,22 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082247</v>
+        <v>7082252</v>
       </c>
       <c r="L30" s="3">
-        <v>2418932</v>
+        <v>2418933</v>
       </c>
       <c r="M30" s="3">
         <v>1918283</v>
       </c>
       <c r="N30" s="3">
-        <v>1096298</v>
+        <v>1096297</v>
       </c>
       <c r="O30" s="3">
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522103</v>
+        <v>522108</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,22 +4141,22 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966544</v>
+        <v>7966549</v>
       </c>
       <c r="L31" s="3">
-        <v>2652833</v>
+        <v>2652834</v>
       </c>
       <c r="M31" s="3">
         <v>2133369</v>
       </c>
       <c r="N31" s="3">
-        <v>1213313</v>
+        <v>1213312</v>
       </c>
       <c r="O31" s="3">
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599421</v>
+        <v>599426</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,22 +4200,22 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216889</v>
+        <v>9216894</v>
       </c>
       <c r="L32" s="3">
-        <v>3031439</v>
+        <v>3031440</v>
       </c>
       <c r="M32" s="3">
         <v>2445486</v>
       </c>
       <c r="N32" s="3">
-        <v>1410770</v>
+        <v>1410769</v>
       </c>
       <c r="O32" s="3">
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716821</v>
+        <v>716826</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,22 +4259,22 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771750</v>
+        <v>9771755</v>
       </c>
       <c r="L33" s="3">
-        <v>3261488</v>
+        <v>3261489</v>
       </c>
       <c r="M33" s="3">
         <v>2570916</v>
       </c>
       <c r="N33" s="3">
-        <v>1482132</v>
+        <v>1482131</v>
       </c>
       <c r="O33" s="3">
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757332</v>
+        <v>757337</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4291,7 +4291,7 @@
         <v>44805</v>
       </c>
       <c r="B34" s="3">
-        <v>194255</v>
+        <v>194254</v>
       </c>
       <c r="C34" s="3">
         <v>68852</v>
@@ -4300,7 +4300,7 @@
         <v>46669</v>
       </c>
       <c r="E34" s="3">
-        <v>30274</v>
+        <v>30273</v>
       </c>
       <c r="F34" s="3">
         <v>24272</v>
@@ -4318,22 +4318,22 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966005</v>
+        <v>9966009</v>
       </c>
       <c r="L34" s="3">
-        <v>3330340</v>
+        <v>3330341</v>
       </c>
       <c r="M34" s="3">
         <v>2617585</v>
       </c>
       <c r="N34" s="3">
-        <v>1512406</v>
+        <v>1512404</v>
       </c>
       <c r="O34" s="3">
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772616</v>
+        <v>772621</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,22 +4377,22 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108110</v>
+        <v>10108114</v>
       </c>
       <c r="L35" s="3">
-        <v>3374839</v>
+        <v>3374840</v>
       </c>
       <c r="M35" s="3">
         <v>2653979</v>
       </c>
       <c r="N35" s="3">
-        <v>1529143</v>
+        <v>1529141</v>
       </c>
       <c r="O35" s="3">
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785791</v>
+        <v>785796</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,22 +4436,22 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460051</v>
+        <v>10460055</v>
       </c>
       <c r="L36" s="3">
-        <v>3496932</v>
+        <v>3496933</v>
       </c>
       <c r="M36" s="3">
         <v>2746876</v>
       </c>
       <c r="N36" s="3">
-        <v>1565589</v>
+        <v>1565587</v>
       </c>
       <c r="O36" s="3">
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822954</v>
+        <v>822959</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4468,13 +4468,13 @@
         <v>44896</v>
       </c>
       <c r="B37" s="3">
-        <v>425868</v>
+        <v>425867</v>
       </c>
       <c r="C37" s="3">
         <v>156462</v>
       </c>
       <c r="D37" s="3">
-        <v>94607</v>
+        <v>94606</v>
       </c>
       <c r="E37" s="3">
         <v>54281</v>
@@ -4495,22 +4495,22 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885919</v>
+        <v>10885922</v>
       </c>
       <c r="L37" s="3">
-        <v>3653394</v>
+        <v>3653395</v>
       </c>
       <c r="M37" s="3">
-        <v>2841483</v>
+        <v>2841482</v>
       </c>
       <c r="N37" s="3">
-        <v>1619870</v>
+        <v>1619868</v>
       </c>
       <c r="O37" s="3">
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867459</v>
+        <v>867464</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,22 +4554,22 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016001</v>
+        <v>11016004</v>
       </c>
       <c r="L38" s="3">
-        <v>3699338</v>
+        <v>3699339</v>
       </c>
       <c r="M38" s="3">
-        <v>2864587</v>
+        <v>2864586</v>
       </c>
       <c r="N38" s="3">
-        <v>1643983</v>
+        <v>1643981</v>
       </c>
       <c r="O38" s="3">
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879349</v>
+        <v>879354</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,22 +4613,22 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087990</v>
+        <v>11087993</v>
       </c>
       <c r="L39" s="3">
-        <v>3724581</v>
+        <v>3724582</v>
       </c>
       <c r="M39" s="3">
-        <v>2876976</v>
+        <v>2876975</v>
       </c>
       <c r="N39" s="3">
-        <v>1658283</v>
+        <v>1658281</v>
       </c>
       <c r="O39" s="3">
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886202</v>
+        <v>886207</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,22 +4672,22 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191969</v>
+        <v>11191972</v>
       </c>
       <c r="L40" s="3">
-        <v>3763223</v>
+        <v>3763224</v>
       </c>
       <c r="M40" s="3">
-        <v>2896213</v>
+        <v>2896212</v>
       </c>
       <c r="N40" s="3">
-        <v>1673738</v>
+        <v>1673736</v>
       </c>
       <c r="O40" s="3">
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897702</v>
+        <v>897707</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,22 +4731,22 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315135</v>
+        <v>11315138</v>
       </c>
       <c r="L41" s="3">
-        <v>3810752</v>
+        <v>3810753</v>
       </c>
       <c r="M41" s="3">
-        <v>2922020</v>
+        <v>2922019</v>
       </c>
       <c r="N41" s="3">
-        <v>1689648</v>
+        <v>1689646</v>
       </c>
       <c r="O41" s="3">
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>910031</v>
+        <v>910036</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,22 +4790,22 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481386</v>
+        <v>11481389</v>
       </c>
       <c r="L42" s="3">
-        <v>3872846</v>
+        <v>3872847</v>
       </c>
       <c r="M42" s="3">
-        <v>2960396</v>
+        <v>2960395</v>
       </c>
       <c r="N42" s="3">
-        <v>1711958</v>
+        <v>1711956</v>
       </c>
       <c r="O42" s="3">
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924944</v>
+        <v>924949</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,22 +4849,22 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559186</v>
+        <v>11559189</v>
       </c>
       <c r="L43" s="3">
-        <v>3901028</v>
+        <v>3901029</v>
       </c>
       <c r="M43" s="3">
-        <v>2975164</v>
+        <v>2975163</v>
       </c>
       <c r="N43" s="3">
-        <v>1726208</v>
+        <v>1726206</v>
       </c>
       <c r="O43" s="3">
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932158</v>
+        <v>932163</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,22 +4908,22 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587385</v>
+        <v>11587388</v>
       </c>
       <c r="L44" s="3">
-        <v>3911313</v>
+        <v>3911314</v>
       </c>
       <c r="M44" s="3">
-        <v>2977220</v>
+        <v>2977219</v>
       </c>
       <c r="N44" s="3">
-        <v>1733156</v>
+        <v>1733154</v>
       </c>
       <c r="O44" s="3">
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935087</v>
+        <v>935092</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4940,13 +4940,13 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23417</v>
+        <v>23418</v>
       </c>
       <c r="C45" s="3">
         <v>9135</v>
       </c>
       <c r="D45" s="3">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="E45" s="3">
         <v>4538</v>
@@ -4967,22 +4967,22 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610802</v>
+        <v>11610806</v>
       </c>
       <c r="L45" s="3">
-        <v>3920448</v>
+        <v>3920449</v>
       </c>
       <c r="M45" s="3">
         <v>2979332</v>
       </c>
       <c r="N45" s="3">
-        <v>1737694</v>
+        <v>1737692</v>
       </c>
       <c r="O45" s="3">
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937536</v>
+        <v>937541</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,22 +5026,22 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632906</v>
+        <v>11632910</v>
       </c>
       <c r="L46" s="3">
-        <v>3929411</v>
+        <v>3929412</v>
       </c>
       <c r="M46" s="3">
         <v>2982571</v>
       </c>
       <c r="N46" s="3">
-        <v>1739717</v>
+        <v>1739715</v>
       </c>
       <c r="O46" s="3">
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940569</v>
+        <v>940574</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,22 +5085,22 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660806</v>
+        <v>11660810</v>
       </c>
       <c r="L47" s="3">
-        <v>3937124</v>
+        <v>3937125</v>
       </c>
       <c r="M47" s="3">
         <v>2988174</v>
       </c>
       <c r="N47" s="3">
-        <v>1743419</v>
+        <v>1743417</v>
       </c>
       <c r="O47" s="3">
         <v>1380654</v>
       </c>
       <c r="P47" s="3">
-        <v>945646</v>
+        <v>945651</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,58 +5117,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43077</v>
+        <v>43343</v>
       </c>
       <c r="C48" s="3">
-        <v>12277</v>
+        <v>12284</v>
       </c>
       <c r="D48" s="3">
-        <v>5915</v>
+        <v>6069</v>
       </c>
       <c r="E48" s="3">
-        <v>7058</v>
+        <v>7079</v>
       </c>
       <c r="F48" s="3">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="G48" s="3">
-        <v>9290</v>
+        <v>9311</v>
       </c>
       <c r="H48" s="3">
         <v>4015</v>
       </c>
       <c r="I48" s="3">
-        <v>2105</v>
+        <v>2162</v>
       </c>
       <c r="J48" s="3">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="K48" s="3">
-        <v>11703883</v>
+        <v>11704153</v>
       </c>
       <c r="L48" s="3">
-        <v>3949401</v>
+        <v>3949409</v>
       </c>
       <c r="M48" s="3">
-        <v>2994089</v>
+        <v>2994243</v>
       </c>
       <c r="N48" s="3">
-        <v>1750477</v>
+        <v>1750496</v>
       </c>
       <c r="O48" s="3">
-        <v>1382532</v>
+        <v>1382533</v>
       </c>
       <c r="P48" s="3">
-        <v>954936</v>
+        <v>954962</v>
       </c>
       <c r="Q48" s="3">
         <v>311536</v>
       </c>
       <c r="R48" s="3">
-        <v>250659</v>
+        <v>250716</v>
       </c>
       <c r="S48" s="3">
-        <v>110253</v>
+        <v>110258</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>1752</v>
+        <v>3128</v>
       </c>
       <c r="C49">
-        <v>672</v>
+        <v>1133</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="E49">
-        <v>548</v>
+        <v>758</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>481</v>
+        <v>729</v>
       </c>
       <c r="H49">
         <v>49</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="K49">
-        <v>11705635</v>
+        <v>11707281</v>
       </c>
       <c r="L49">
-        <v>3950073</v>
+        <v>3950542</v>
       </c>
       <c r="M49">
-        <v>2994089</v>
+        <v>2994581</v>
       </c>
       <c r="N49">
-        <v>1751025</v>
+        <v>1751254</v>
       </c>
       <c r="O49">
-        <v>1382532</v>
+        <v>1382533</v>
       </c>
       <c r="P49">
-        <v>955417</v>
+        <v>955691</v>
       </c>
       <c r="Q49">
         <v>311585</v>
       </c>
       <c r="R49">
-        <v>250659</v>
+        <v>250808</v>
       </c>
       <c r="S49">
-        <v>110255</v>
+        <v>110287</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM26"/>
+  <dimension ref="A1:IM27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21685,6 +21685,749 @@
         <v>201</v>
       </c>
       <c r="IM26">
+        <v>13482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B27">
+        <v>1646</v>
+      </c>
+      <c r="C27">
+        <v>469</v>
+      </c>
+      <c r="D27">
+        <v>492</v>
+      </c>
+      <c r="E27">
+        <v>229</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>274</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>149</v>
+      </c>
+      <c r="J27">
+        <v>32</v>
+      </c>
+      <c r="K27">
+        <v>11707281</v>
+      </c>
+      <c r="L27">
+        <v>3950542</v>
+      </c>
+      <c r="M27">
+        <v>2994581</v>
+      </c>
+      <c r="N27">
+        <v>1751254</v>
+      </c>
+      <c r="O27">
+        <v>1382533</v>
+      </c>
+      <c r="P27">
+        <v>955691</v>
+      </c>
+      <c r="Q27">
+        <v>311585</v>
+      </c>
+      <c r="R27">
+        <v>250808</v>
+      </c>
+      <c r="S27">
+        <v>110287</v>
+      </c>
+      <c r="T27">
+        <v>113</v>
+      </c>
+      <c r="U27">
+        <v>24</v>
+      </c>
+      <c r="V27">
+        <v>36</v>
+      </c>
+      <c r="W27">
+        <v>50</v>
+      </c>
+      <c r="X27">
+        <v>73</v>
+      </c>
+      <c r="Y27">
+        <v>90</v>
+      </c>
+      <c r="Z27">
+        <v>107</v>
+      </c>
+      <c r="AA27">
+        <v>99</v>
+      </c>
+      <c r="AB27">
+        <v>89</v>
+      </c>
+      <c r="AC27">
+        <v>87</v>
+      </c>
+      <c r="AD27">
+        <v>87</v>
+      </c>
+      <c r="AE27">
+        <v>93</v>
+      </c>
+      <c r="AF27">
+        <v>86</v>
+      </c>
+      <c r="AG27">
+        <v>71</v>
+      </c>
+      <c r="AH27">
+        <v>118</v>
+      </c>
+      <c r="AI27">
+        <v>134</v>
+      </c>
+      <c r="AJ27">
+        <v>105</v>
+      </c>
+      <c r="AK27">
+        <v>182</v>
+      </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27">
+        <v>503005</v>
+      </c>
+      <c r="AN27">
+        <v>668140</v>
+      </c>
+      <c r="AO27">
+        <v>773731</v>
+      </c>
+      <c r="AP27">
+        <v>760006</v>
+      </c>
+      <c r="AQ27">
+        <v>930547</v>
+      </c>
+      <c r="AR27">
+        <v>1026471</v>
+      </c>
+      <c r="AS27">
+        <v>1034340</v>
+      </c>
+      <c r="AT27">
+        <v>1019020</v>
+      </c>
+      <c r="AU27">
+        <v>908623</v>
+      </c>
+      <c r="AV27">
+        <v>807364</v>
+      </c>
+      <c r="AW27">
+        <v>747270</v>
+      </c>
+      <c r="AX27">
+        <v>622144</v>
+      </c>
+      <c r="AY27">
+        <v>543171</v>
+      </c>
+      <c r="AZ27">
+        <v>407505</v>
+      </c>
+      <c r="BA27">
+        <v>325221</v>
+      </c>
+      <c r="BB27">
+        <v>240717</v>
+      </c>
+      <c r="BC27">
+        <v>161789</v>
+      </c>
+      <c r="BD27">
+        <v>210048</v>
+      </c>
+      <c r="BE27">
+        <v>18169</v>
+      </c>
+      <c r="BF27">
+        <v>61</v>
+      </c>
+      <c r="BG27">
+        <v>50</v>
+      </c>
+      <c r="BH27">
+        <v>3</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>-1</v>
+      </c>
+      <c r="BK27">
+        <v>13</v>
+      </c>
+      <c r="BL27">
+        <v>11</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>19</v>
+      </c>
+      <c r="BQ27">
+        <v>17</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>24</v>
+      </c>
+      <c r="BV27">
+        <v>25</v>
+      </c>
+      <c r="BW27">
+        <v>1</v>
+      </c>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BY27">
+        <v>0</v>
+      </c>
+      <c r="BZ27">
+        <v>26</v>
+      </c>
+      <c r="CA27">
+        <v>47</v>
+      </c>
+      <c r="CB27">
+        <v>0</v>
+      </c>
+      <c r="CC27">
+        <v>0</v>
+      </c>
+      <c r="CD27">
+        <v>0</v>
+      </c>
+      <c r="CE27">
+        <v>29</v>
+      </c>
+      <c r="CF27">
+        <v>61</v>
+      </c>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>1</v>
+      </c>
+      <c r="CI27">
+        <v>-1</v>
+      </c>
+      <c r="CJ27">
+        <v>49</v>
+      </c>
+      <c r="CK27">
+        <v>59</v>
+      </c>
+      <c r="CL27">
+        <v>-1</v>
+      </c>
+      <c r="CM27">
+        <v>1</v>
+      </c>
+      <c r="CN27">
+        <v>-1</v>
+      </c>
+      <c r="CO27">
+        <v>40</v>
+      </c>
+      <c r="CP27">
+        <v>59</v>
+      </c>
+      <c r="CQ27">
+        <v>0</v>
+      </c>
+      <c r="CR27">
+        <v>0</v>
+      </c>
+      <c r="CS27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>42</v>
+      </c>
+      <c r="CU27">
+        <v>47</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>26</v>
+      </c>
+      <c r="CZ27">
+        <v>61</v>
+      </c>
+      <c r="DA27">
+        <v>0</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DD27">
+        <v>24</v>
+      </c>
+      <c r="DE27">
+        <v>62</v>
+      </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DH27">
+        <v>1</v>
+      </c>
+      <c r="DI27">
+        <v>44</v>
+      </c>
+      <c r="DJ27">
+        <v>49</v>
+      </c>
+      <c r="DK27">
+        <v>0</v>
+      </c>
+      <c r="DL27">
+        <v>0</v>
+      </c>
+      <c r="DM27">
+        <v>0</v>
+      </c>
+      <c r="DN27">
+        <v>27</v>
+      </c>
+      <c r="DO27">
+        <v>59</v>
+      </c>
+      <c r="DP27">
+        <v>0</v>
+      </c>
+      <c r="DQ27">
+        <v>0</v>
+      </c>
+      <c r="DR27">
+        <v>0</v>
+      </c>
+      <c r="DS27">
+        <v>37</v>
+      </c>
+      <c r="DT27">
+        <v>34</v>
+      </c>
+      <c r="DU27">
+        <v>0</v>
+      </c>
+      <c r="DV27">
+        <v>0</v>
+      </c>
+      <c r="DW27">
+        <v>0</v>
+      </c>
+      <c r="DX27">
+        <v>58</v>
+      </c>
+      <c r="DY27">
+        <v>60</v>
+      </c>
+      <c r="DZ27">
+        <v>0</v>
+      </c>
+      <c r="EA27">
+        <v>0</v>
+      </c>
+      <c r="EB27">
+        <v>0</v>
+      </c>
+      <c r="EC27">
+        <v>66</v>
+      </c>
+      <c r="ED27">
+        <v>66</v>
+      </c>
+      <c r="EE27">
+        <v>0</v>
+      </c>
+      <c r="EF27">
+        <v>0</v>
+      </c>
+      <c r="EG27">
+        <v>2</v>
+      </c>
+      <c r="EH27">
+        <v>51</v>
+      </c>
+      <c r="EI27">
+        <v>53</v>
+      </c>
+      <c r="EJ27">
+        <v>0</v>
+      </c>
+      <c r="EK27">
+        <v>0</v>
+      </c>
+      <c r="EL27">
+        <v>1</v>
+      </c>
+      <c r="EM27">
+        <v>72</v>
+      </c>
+      <c r="EN27">
+        <v>110</v>
+      </c>
+      <c r="EO27">
+        <v>0</v>
+      </c>
+      <c r="EP27">
+        <v>0</v>
+      </c>
+      <c r="EQ27">
+        <v>0</v>
+      </c>
+      <c r="ER27">
+        <v>2</v>
+      </c>
+      <c r="ES27">
+        <v>0</v>
+      </c>
+      <c r="ET27">
+        <v>0</v>
+      </c>
+      <c r="EU27">
+        <v>0</v>
+      </c>
+      <c r="EV27">
+        <v>0</v>
+      </c>
+      <c r="EW27">
+        <v>231618</v>
+      </c>
+      <c r="EX27">
+        <v>219876</v>
+      </c>
+      <c r="EY27">
+        <v>411</v>
+      </c>
+      <c r="EZ27">
+        <v>15453</v>
+      </c>
+      <c r="FA27">
+        <v>35647</v>
+      </c>
+      <c r="FB27">
+        <v>308113</v>
+      </c>
+      <c r="FC27">
+        <v>292757</v>
+      </c>
+      <c r="FD27">
+        <v>466</v>
+      </c>
+      <c r="FE27">
+        <v>16771</v>
+      </c>
+      <c r="FF27">
+        <v>50033</v>
+      </c>
+      <c r="FG27">
+        <v>353351</v>
+      </c>
+      <c r="FH27">
+        <v>342710</v>
+      </c>
+      <c r="FI27">
+        <v>633</v>
+      </c>
+      <c r="FJ27">
+        <v>16954</v>
+      </c>
+      <c r="FK27">
+        <v>60083</v>
+      </c>
+      <c r="FL27">
+        <v>326408</v>
+      </c>
+      <c r="FM27">
+        <v>373945</v>
+      </c>
+      <c r="FN27">
+        <v>896</v>
+      </c>
+      <c r="FO27">
+        <v>12936</v>
+      </c>
+      <c r="FP27">
+        <v>45821</v>
+      </c>
+      <c r="FQ27">
+        <v>392074</v>
+      </c>
+      <c r="FR27">
+        <v>479680</v>
+      </c>
+      <c r="FS27">
+        <v>1100</v>
+      </c>
+      <c r="FT27">
+        <v>16278</v>
+      </c>
+      <c r="FU27">
+        <v>41415</v>
+      </c>
+      <c r="FV27">
+        <v>433892</v>
+      </c>
+      <c r="FW27">
+        <v>526148</v>
+      </c>
+      <c r="FX27">
+        <v>1136</v>
+      </c>
+      <c r="FY27">
+        <v>17784</v>
+      </c>
+      <c r="FZ27">
+        <v>47511</v>
+      </c>
+      <c r="GA27">
+        <v>429236</v>
+      </c>
+      <c r="GB27">
+        <v>532193</v>
+      </c>
+      <c r="GC27">
+        <v>921</v>
+      </c>
+      <c r="GD27">
+        <v>17168</v>
+      </c>
+      <c r="GE27">
+        <v>54822</v>
+      </c>
+      <c r="GF27">
+        <v>419782</v>
+      </c>
+      <c r="GG27">
+        <v>524716</v>
+      </c>
+      <c r="GH27">
+        <v>664</v>
+      </c>
+      <c r="GI27">
+        <v>15033</v>
+      </c>
+      <c r="GJ27">
+        <v>58825</v>
+      </c>
+      <c r="GK27">
+        <v>373636</v>
+      </c>
+      <c r="GL27">
+        <v>468981</v>
+      </c>
+      <c r="GM27">
+        <v>498</v>
+      </c>
+      <c r="GN27">
+        <v>12345</v>
+      </c>
+      <c r="GO27">
+        <v>53163</v>
+      </c>
+      <c r="GP27">
+        <v>330361</v>
+      </c>
+      <c r="GQ27">
+        <v>421116</v>
+      </c>
+      <c r="GR27">
+        <v>439</v>
+      </c>
+      <c r="GS27">
+        <v>10127</v>
+      </c>
+      <c r="GT27">
+        <v>45321</v>
+      </c>
+      <c r="GU27">
+        <v>308165</v>
+      </c>
+      <c r="GV27">
+        <v>389496</v>
+      </c>
+      <c r="GW27">
+        <v>399</v>
+      </c>
+      <c r="GX27">
+        <v>8950</v>
+      </c>
+      <c r="GY27">
+        <v>40260</v>
+      </c>
+      <c r="GZ27">
+        <v>263586</v>
+      </c>
+      <c r="HA27">
+        <v>319876</v>
+      </c>
+      <c r="HB27">
+        <v>328</v>
+      </c>
+      <c r="HC27">
+        <v>6606</v>
+      </c>
+      <c r="HD27">
+        <v>31748</v>
+      </c>
+      <c r="HE27">
+        <v>234467</v>
+      </c>
+      <c r="HF27">
+        <v>277195</v>
+      </c>
+      <c r="HG27">
+        <v>234</v>
+      </c>
+      <c r="HH27">
+        <v>5315</v>
+      </c>
+      <c r="HI27">
+        <v>25960</v>
+      </c>
+      <c r="HJ27">
+        <v>180843</v>
+      </c>
+      <c r="HK27">
+        <v>204291</v>
+      </c>
+      <c r="HL27">
+        <v>199</v>
+      </c>
+      <c r="HM27">
+        <v>3651</v>
+      </c>
+      <c r="HN27">
+        <v>18521</v>
+      </c>
+      <c r="HO27">
+        <v>151672</v>
+      </c>
+      <c r="HP27">
+        <v>158369</v>
+      </c>
+      <c r="HQ27">
+        <v>163</v>
+      </c>
+      <c r="HR27">
+        <v>2669</v>
+      </c>
+      <c r="HS27">
+        <v>12348</v>
+      </c>
+      <c r="HT27">
+        <v>116005</v>
+      </c>
+      <c r="HU27">
+        <v>114852</v>
+      </c>
+      <c r="HV27">
+        <v>164</v>
+      </c>
+      <c r="HW27">
+        <v>1883</v>
+      </c>
+      <c r="HX27">
+        <v>7813</v>
+      </c>
+      <c r="HY27">
+        <v>76037</v>
+      </c>
+      <c r="HZ27">
+        <v>79812</v>
+      </c>
+      <c r="IA27">
+        <v>131</v>
+      </c>
+      <c r="IB27">
+        <v>1277</v>
+      </c>
+      <c r="IC27">
+        <v>4532</v>
+      </c>
+      <c r="ID27">
+        <v>81331</v>
+      </c>
+      <c r="IE27">
+        <v>122305</v>
+      </c>
+      <c r="IF27">
+        <v>306</v>
+      </c>
+      <c r="IG27">
+        <v>2266</v>
+      </c>
+      <c r="IH27">
+        <v>3840</v>
+      </c>
+      <c r="II27">
+        <v>2153</v>
+      </c>
+      <c r="IJ27">
+        <v>2309</v>
+      </c>
+      <c r="IK27">
+        <v>24</v>
+      </c>
+      <c r="IL27">
+        <v>201</v>
+      </c>
+      <c r="IM27">
         <v>13482</v>
       </c>
     </row>
@@ -21712,7 +22455,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45264</v>
+        <v>45265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F1E1D-A082-4231-A21D-F7F2788827FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3E397-4BCF-44AD-AC8B-3A450669E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1871,10 +1871,10 @@
         <v>30561</v>
       </c>
       <c r="W3">
-        <v>43740</v>
+        <v>43739</v>
       </c>
       <c r="X3">
-        <v>75257</v>
+        <v>75258</v>
       </c>
       <c r="Y3">
         <v>70914</v>
@@ -1904,10 +1904,10 @@
         <v>11937</v>
       </c>
       <c r="AH3">
-        <v>8406</v>
+        <v>8405</v>
       </c>
       <c r="AI3">
-        <v>5711</v>
+        <v>5712</v>
       </c>
       <c r="AJ3">
         <v>3750</v>
@@ -1928,10 +1928,10 @@
         <v>31514</v>
       </c>
       <c r="AP3">
-        <v>45249</v>
+        <v>45248</v>
       </c>
       <c r="AQ3">
-        <v>78225</v>
+        <v>78226</v>
       </c>
       <c r="AR3">
         <v>74444</v>
@@ -1961,10 +1961,10 @@
         <v>12971</v>
       </c>
       <c r="BA3">
-        <v>9318</v>
+        <v>9317</v>
       </c>
       <c r="BB3">
-        <v>6471</v>
+        <v>6472</v>
       </c>
       <c r="BC3">
         <v>4390</v>
@@ -1981,22 +1981,22 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317853</v>
+        <v>10317856</v>
       </c>
       <c r="C4">
-        <v>3368112</v>
+        <v>3368111</v>
       </c>
       <c r="D4">
         <v>2621354</v>
       </c>
       <c r="E4">
-        <v>1586957</v>
+        <v>1586956</v>
       </c>
       <c r="F4">
         <v>1288500</v>
       </c>
       <c r="G4">
-        <v>848303</v>
+        <v>848308</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,22 +2008,22 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885922</v>
+        <v>10885925</v>
       </c>
       <c r="L4">
-        <v>3653395</v>
+        <v>3653394</v>
       </c>
       <c r="M4">
         <v>2841482</v>
       </c>
       <c r="N4">
-        <v>1619868</v>
+        <v>1619867</v>
       </c>
       <c r="O4">
         <v>1289866</v>
       </c>
       <c r="P4">
-        <v>867464</v>
+        <v>867469</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,55 +2038,55 @@
         <v>450544</v>
       </c>
       <c r="U4">
-        <v>611250</v>
+        <v>611248</v>
       </c>
       <c r="V4">
         <v>710189</v>
       </c>
       <c r="W4">
-        <v>683362</v>
+        <v>683359</v>
       </c>
       <c r="X4">
-        <v>812055</v>
+        <v>812052</v>
       </c>
       <c r="Y4">
-        <v>899952</v>
+        <v>899950</v>
       </c>
       <c r="Z4">
-        <v>916980</v>
+        <v>916985</v>
       </c>
       <c r="AA4">
-        <v>908886</v>
+        <v>908879</v>
       </c>
       <c r="AB4">
-        <v>810328</v>
+        <v>810340</v>
       </c>
       <c r="AC4">
-        <v>717634</v>
+        <v>717629</v>
       </c>
       <c r="AD4">
-        <v>658706</v>
+        <v>658709</v>
       </c>
       <c r="AE4">
-        <v>544128</v>
+        <v>544129</v>
       </c>
       <c r="AF4">
-        <v>471539</v>
+        <v>471543</v>
       </c>
       <c r="AG4">
-        <v>349063</v>
+        <v>349062</v>
       </c>
       <c r="AH4">
-        <v>274361</v>
+        <v>274362</v>
       </c>
       <c r="AI4">
-        <v>197946</v>
+        <v>197947</v>
       </c>
       <c r="AJ4">
         <v>128105</v>
       </c>
       <c r="AK4">
-        <v>155621</v>
+        <v>155620</v>
       </c>
       <c r="AL4">
         <v>17204</v>
@@ -2095,55 +2095,55 @@
         <v>473794</v>
       </c>
       <c r="AN4">
-        <v>644449</v>
+        <v>644447</v>
       </c>
       <c r="AO4">
         <v>741703</v>
       </c>
       <c r="AP4">
-        <v>728611</v>
+        <v>728607</v>
       </c>
       <c r="AQ4">
-        <v>890280</v>
+        <v>890278</v>
       </c>
       <c r="AR4">
-        <v>974396</v>
+        <v>974394</v>
       </c>
       <c r="AS4">
-        <v>975361</v>
+        <v>975366</v>
       </c>
       <c r="AT4">
-        <v>953877</v>
+        <v>953870</v>
       </c>
       <c r="AU4">
-        <v>845946</v>
+        <v>845958</v>
       </c>
       <c r="AV4">
-        <v>749714</v>
+        <v>749709</v>
       </c>
       <c r="AW4">
-        <v>688394</v>
+        <v>688397</v>
       </c>
       <c r="AX4">
-        <v>568131</v>
+        <v>568132</v>
       </c>
       <c r="AY4">
-        <v>490079</v>
+        <v>490083</v>
       </c>
       <c r="AZ4">
-        <v>362034</v>
+        <v>362033</v>
       </c>
       <c r="BA4">
         <v>283679</v>
       </c>
       <c r="BB4">
-        <v>204417</v>
+        <v>204419</v>
       </c>
       <c r="BC4">
         <v>132495</v>
       </c>
       <c r="BD4">
-        <v>160985</v>
+        <v>160984</v>
       </c>
       <c r="BE4">
         <v>17577</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>821359</v>
+        <v>823171</v>
       </c>
       <c r="C5">
-        <v>297147</v>
+        <v>297693</v>
       </c>
       <c r="D5">
-        <v>153099</v>
+        <v>153257</v>
       </c>
       <c r="E5">
-        <v>131386</v>
+        <v>131739</v>
       </c>
       <c r="F5">
         <v>92667</v>
       </c>
       <c r="G5">
-        <v>88227</v>
+        <v>88555</v>
       </c>
       <c r="H5">
-        <v>30042</v>
+        <v>30406</v>
       </c>
       <c r="I5">
-        <v>22471</v>
+        <v>22521</v>
       </c>
       <c r="J5">
-        <v>6320</v>
+        <v>6333</v>
       </c>
       <c r="K5">
-        <v>11707281</v>
+        <v>11709096</v>
       </c>
       <c r="L5">
-        <v>3950542</v>
+        <v>3951087</v>
       </c>
       <c r="M5">
-        <v>2994581</v>
+        <v>2994739</v>
       </c>
       <c r="N5">
-        <v>1751254</v>
+        <v>1751606</v>
       </c>
       <c r="O5">
         <v>1382533</v>
       </c>
       <c r="P5">
-        <v>955691</v>
+        <v>956024</v>
       </c>
       <c r="Q5">
-        <v>311585</v>
+        <v>311949</v>
       </c>
       <c r="R5">
-        <v>250808</v>
+        <v>250858</v>
       </c>
       <c r="S5">
-        <v>110287</v>
+        <v>110300</v>
       </c>
       <c r="T5">
-        <v>29211</v>
+        <v>29300</v>
       </c>
       <c r="U5">
-        <v>23691</v>
+        <v>23717</v>
       </c>
       <c r="V5">
-        <v>32028</v>
+        <v>32063</v>
       </c>
       <c r="W5">
-        <v>31395</v>
+        <v>31474</v>
       </c>
       <c r="X5">
-        <v>40267</v>
+        <v>40348</v>
       </c>
       <c r="Y5">
-        <v>52075</v>
+        <v>52189</v>
       </c>
       <c r="Z5">
-        <v>58979</v>
+        <v>59105</v>
       </c>
       <c r="AA5">
-        <v>65143</v>
+        <v>65275</v>
       </c>
       <c r="AB5">
-        <v>62677</v>
+        <v>62809</v>
       </c>
       <c r="AC5">
-        <v>57650</v>
+        <v>57769</v>
       </c>
       <c r="AD5">
-        <v>58876</v>
+        <v>59001</v>
       </c>
       <c r="AE5">
-        <v>54013</v>
+        <v>54118</v>
       </c>
       <c r="AF5">
-        <v>53092</v>
+        <v>53204</v>
       </c>
       <c r="AG5">
-        <v>45471</v>
+        <v>45554</v>
       </c>
       <c r="AH5">
-        <v>41542</v>
+        <v>41636</v>
       </c>
       <c r="AI5">
-        <v>36300</v>
+        <v>36410</v>
       </c>
       <c r="AJ5">
-        <v>29294</v>
+        <v>29373</v>
       </c>
       <c r="AK5">
-        <v>49063</v>
+        <v>49228</v>
       </c>
       <c r="AL5">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="AM5">
-        <v>503005</v>
+        <v>503094</v>
       </c>
       <c r="AN5">
-        <v>668140</v>
+        <v>668164</v>
       </c>
       <c r="AO5">
-        <v>773731</v>
+        <v>773766</v>
       </c>
       <c r="AP5">
-        <v>760006</v>
+        <v>760081</v>
       </c>
       <c r="AQ5">
-        <v>930547</v>
+        <v>930626</v>
       </c>
       <c r="AR5">
-        <v>1026471</v>
+        <v>1026583</v>
       </c>
       <c r="AS5">
-        <v>1034340</v>
+        <v>1034471</v>
       </c>
       <c r="AT5">
-        <v>1019020</v>
+        <v>1019145</v>
       </c>
       <c r="AU5">
-        <v>908623</v>
+        <v>908767</v>
       </c>
       <c r="AV5">
-        <v>807364</v>
+        <v>807478</v>
       </c>
       <c r="AW5">
-        <v>747270</v>
+        <v>747398</v>
       </c>
       <c r="AX5">
-        <v>622144</v>
+        <v>622250</v>
       </c>
       <c r="AY5">
-        <v>543171</v>
+        <v>543287</v>
       </c>
       <c r="AZ5">
-        <v>407505</v>
+        <v>407587</v>
       </c>
       <c r="BA5">
-        <v>325221</v>
+        <v>325315</v>
       </c>
       <c r="BB5">
-        <v>240717</v>
+        <v>240829</v>
       </c>
       <c r="BC5">
-        <v>161789</v>
+        <v>161868</v>
       </c>
       <c r="BD5">
-        <v>210048</v>
+        <v>210212</v>
       </c>
       <c r="BE5">
-        <v>18169</v>
+        <v>18175</v>
       </c>
     </row>
   </sheetData>
@@ -3819,10 +3819,10 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809617</v>
+        <v>1809618</v>
       </c>
       <c r="C26" s="3">
-        <v>637166</v>
+        <v>637165</v>
       </c>
       <c r="D26" s="3">
         <v>635279</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90081</v>
+        <v>90083</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,10 +3846,10 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377686</v>
+        <v>2377687</v>
       </c>
       <c r="L26" s="3">
-        <v>922449</v>
+        <v>922448</v>
       </c>
       <c r="M26" s="3">
         <v>855407</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109242</v>
+        <v>109244</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,10 +3905,10 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065232</v>
+        <v>3065233</v>
       </c>
       <c r="L27" s="3">
-        <v>1152677</v>
+        <v>1152676</v>
       </c>
       <c r="M27" s="3">
         <v>1059936</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153661</v>
+        <v>153663</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366778</v>
+        <v>1366779</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3952,7 +3952,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120495</v>
+        <v>120496</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,10 +3964,10 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432010</v>
+        <v>4432012</v>
       </c>
       <c r="L28" s="3">
-        <v>1689284</v>
+        <v>1689283</v>
       </c>
       <c r="M28" s="3">
         <v>1310022</v>
@@ -3979,7 +3979,7 @@
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274156</v>
+        <v>274159</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339875</v>
+        <v>1339877</v>
       </c>
       <c r="C29" s="3">
         <v>432381</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139816</v>
+        <v>139818</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,10 +4023,10 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771885</v>
+        <v>5771889</v>
       </c>
       <c r="L29" s="3">
-        <v>2121665</v>
+        <v>2121664</v>
       </c>
       <c r="M29" s="3">
         <v>1584974</v>
@@ -4038,7 +4038,7 @@
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413972</v>
+        <v>413977</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,10 +4082,10 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082252</v>
+        <v>7082256</v>
       </c>
       <c r="L30" s="3">
-        <v>2418933</v>
+        <v>2418932</v>
       </c>
       <c r="M30" s="3">
         <v>1918283</v>
@@ -4097,7 +4097,7 @@
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522108</v>
+        <v>522113</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,10 +4141,10 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966549</v>
+        <v>7966553</v>
       </c>
       <c r="L31" s="3">
-        <v>2652834</v>
+        <v>2652833</v>
       </c>
       <c r="M31" s="3">
         <v>2133369</v>
@@ -4156,7 +4156,7 @@
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599426</v>
+        <v>599431</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,10 +4200,10 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216894</v>
+        <v>9216898</v>
       </c>
       <c r="L32" s="3">
-        <v>3031440</v>
+        <v>3031439</v>
       </c>
       <c r="M32" s="3">
         <v>2445486</v>
@@ -4215,7 +4215,7 @@
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716826</v>
+        <v>716831</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4232,7 +4232,7 @@
         <v>44774</v>
       </c>
       <c r="B33" s="3">
-        <v>554861</v>
+        <v>554860</v>
       </c>
       <c r="C33" s="3">
         <v>230049</v>
@@ -4241,7 +4241,7 @@
         <v>125430</v>
       </c>
       <c r="E33" s="3">
-        <v>71362</v>
+        <v>71361</v>
       </c>
       <c r="F33" s="3">
         <v>59071</v>
@@ -4259,22 +4259,22 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771755</v>
+        <v>9771758</v>
       </c>
       <c r="L33" s="3">
-        <v>3261489</v>
+        <v>3261488</v>
       </c>
       <c r="M33" s="3">
         <v>2570916</v>
       </c>
       <c r="N33" s="3">
-        <v>1482131</v>
+        <v>1482130</v>
       </c>
       <c r="O33" s="3">
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757337</v>
+        <v>757342</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,22 +4318,22 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966009</v>
+        <v>9966012</v>
       </c>
       <c r="L34" s="3">
-        <v>3330341</v>
+        <v>3330340</v>
       </c>
       <c r="M34" s="3">
         <v>2617585</v>
       </c>
       <c r="N34" s="3">
-        <v>1512404</v>
+        <v>1512403</v>
       </c>
       <c r="O34" s="3">
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772621</v>
+        <v>772626</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,22 +4377,22 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108114</v>
+        <v>10108117</v>
       </c>
       <c r="L35" s="3">
-        <v>3374840</v>
+        <v>3374839</v>
       </c>
       <c r="M35" s="3">
         <v>2653979</v>
       </c>
       <c r="N35" s="3">
-        <v>1529141</v>
+        <v>1529140</v>
       </c>
       <c r="O35" s="3">
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785796</v>
+        <v>785801</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,22 +4436,22 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460055</v>
+        <v>10460058</v>
       </c>
       <c r="L36" s="3">
-        <v>3496933</v>
+        <v>3496932</v>
       </c>
       <c r="M36" s="3">
         <v>2746876</v>
       </c>
       <c r="N36" s="3">
-        <v>1565587</v>
+        <v>1565586</v>
       </c>
       <c r="O36" s="3">
         <v>1244555</v>
       </c>
       <c r="P36" s="3">
-        <v>822959</v>
+        <v>822964</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,22 +4495,22 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885922</v>
+        <v>10885925</v>
       </c>
       <c r="L37" s="3">
-        <v>3653395</v>
+        <v>3653394</v>
       </c>
       <c r="M37" s="3">
         <v>2841482</v>
       </c>
       <c r="N37" s="3">
-        <v>1619868</v>
+        <v>1619867</v>
       </c>
       <c r="O37" s="3">
         <v>1289866</v>
       </c>
       <c r="P37" s="3">
-        <v>867464</v>
+        <v>867469</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,22 +4554,22 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016004</v>
+        <v>11016007</v>
       </c>
       <c r="L38" s="3">
-        <v>3699339</v>
+        <v>3699338</v>
       </c>
       <c r="M38" s="3">
         <v>2864586</v>
       </c>
       <c r="N38" s="3">
-        <v>1643981</v>
+        <v>1643980</v>
       </c>
       <c r="O38" s="3">
         <v>1306722</v>
       </c>
       <c r="P38" s="3">
-        <v>879354</v>
+        <v>879359</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,22 +4613,22 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087993</v>
+        <v>11087996</v>
       </c>
       <c r="L39" s="3">
-        <v>3724582</v>
+        <v>3724581</v>
       </c>
       <c r="M39" s="3">
         <v>2876975</v>
       </c>
       <c r="N39" s="3">
-        <v>1658281</v>
+        <v>1658280</v>
       </c>
       <c r="O39" s="3">
         <v>1315594</v>
       </c>
       <c r="P39" s="3">
-        <v>886207</v>
+        <v>886212</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,22 +4672,22 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191972</v>
+        <v>11191975</v>
       </c>
       <c r="L40" s="3">
-        <v>3763224</v>
+        <v>3763223</v>
       </c>
       <c r="M40" s="3">
         <v>2896212</v>
       </c>
       <c r="N40" s="3">
-        <v>1673736</v>
+        <v>1673735</v>
       </c>
       <c r="O40" s="3">
         <v>1328556</v>
       </c>
       <c r="P40" s="3">
-        <v>897707</v>
+        <v>897712</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,22 +4731,22 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315138</v>
+        <v>11315141</v>
       </c>
       <c r="L41" s="3">
-        <v>3810753</v>
+        <v>3810752</v>
       </c>
       <c r="M41" s="3">
         <v>2922019</v>
       </c>
       <c r="N41" s="3">
-        <v>1689646</v>
+        <v>1689645</v>
       </c>
       <c r="O41" s="3">
         <v>1342943</v>
       </c>
       <c r="P41" s="3">
-        <v>910036</v>
+        <v>910041</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,22 +4790,22 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481389</v>
+        <v>11481392</v>
       </c>
       <c r="L42" s="3">
-        <v>3872847</v>
+        <v>3872846</v>
       </c>
       <c r="M42" s="3">
         <v>2960395</v>
       </c>
       <c r="N42" s="3">
-        <v>1711956</v>
+        <v>1711955</v>
       </c>
       <c r="O42" s="3">
         <v>1361031</v>
       </c>
       <c r="P42" s="3">
-        <v>924949</v>
+        <v>924954</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,22 +4849,22 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559189</v>
+        <v>11559192</v>
       </c>
       <c r="L43" s="3">
-        <v>3901029</v>
+        <v>3901028</v>
       </c>
       <c r="M43" s="3">
         <v>2975163</v>
       </c>
       <c r="N43" s="3">
-        <v>1726206</v>
+        <v>1726205</v>
       </c>
       <c r="O43" s="3">
         <v>1369449</v>
       </c>
       <c r="P43" s="3">
-        <v>932163</v>
+        <v>932168</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,22 +4908,22 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587388</v>
+        <v>11587391</v>
       </c>
       <c r="L44" s="3">
-        <v>3911314</v>
+        <v>3911313</v>
       </c>
       <c r="M44" s="3">
         <v>2977219</v>
       </c>
       <c r="N44" s="3">
-        <v>1733154</v>
+        <v>1733153</v>
       </c>
       <c r="O44" s="3">
         <v>1373101</v>
       </c>
       <c r="P44" s="3">
-        <v>935092</v>
+        <v>935097</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,22 +4967,22 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610806</v>
+        <v>11610809</v>
       </c>
       <c r="L45" s="3">
-        <v>3920449</v>
+        <v>3920448</v>
       </c>
       <c r="M45" s="3">
         <v>2979332</v>
       </c>
       <c r="N45" s="3">
-        <v>1737692</v>
+        <v>1737691</v>
       </c>
       <c r="O45" s="3">
         <v>1376099</v>
       </c>
       <c r="P45" s="3">
-        <v>937541</v>
+        <v>937546</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,22 +5026,22 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632910</v>
+        <v>11632913</v>
       </c>
       <c r="L46" s="3">
-        <v>3929412</v>
+        <v>3929411</v>
       </c>
       <c r="M46" s="3">
         <v>2982571</v>
       </c>
       <c r="N46" s="3">
-        <v>1739715</v>
+        <v>1739714</v>
       </c>
       <c r="O46" s="3">
         <v>1378656</v>
       </c>
       <c r="P46" s="3">
-        <v>940574</v>
+        <v>940579</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,22 +5085,22 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660810</v>
+        <v>11660813</v>
       </c>
       <c r="L47" s="3">
-        <v>3937125</v>
+        <v>3937124</v>
       </c>
       <c r="M47" s="3">
         <v>2988174</v>
       </c>
       <c r="N47" s="3">
-        <v>1743417</v>
+        <v>1743416</v>
       </c>
       <c r="O47" s="3">
         <v>1380654</v>
       </c>
       <c r="P47" s="3">
-        <v>945651</v>
+        <v>945656</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,58 +5117,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43343</v>
+        <v>43431</v>
       </c>
       <c r="C48" s="3">
-        <v>12284</v>
+        <v>12286</v>
       </c>
       <c r="D48" s="3">
-        <v>6069</v>
+        <v>6072</v>
       </c>
       <c r="E48" s="3">
-        <v>7079</v>
+        <v>7084</v>
       </c>
       <c r="F48" s="3">
         <v>1879</v>
       </c>
       <c r="G48" s="3">
-        <v>9311</v>
+        <v>9316</v>
       </c>
       <c r="H48" s="3">
-        <v>4015</v>
+        <v>4080</v>
       </c>
       <c r="I48" s="3">
-        <v>2162</v>
+        <v>2169</v>
       </c>
       <c r="J48" s="3">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K48" s="3">
-        <v>11704153</v>
+        <v>11704244</v>
       </c>
       <c r="L48" s="3">
-        <v>3949409</v>
+        <v>3949410</v>
       </c>
       <c r="M48" s="3">
-        <v>2994243</v>
+        <v>2994246</v>
       </c>
       <c r="N48" s="3">
-        <v>1750496</v>
+        <v>1750500</v>
       </c>
       <c r="O48" s="3">
         <v>1382533</v>
       </c>
       <c r="P48" s="3">
-        <v>954962</v>
+        <v>954972</v>
       </c>
       <c r="Q48" s="3">
-        <v>311536</v>
+        <v>311601</v>
       </c>
       <c r="R48" s="3">
-        <v>250716</v>
+        <v>250723</v>
       </c>
       <c r="S48" s="3">
-        <v>110258</v>
+        <v>110259</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>3128</v>
+        <v>4852</v>
       </c>
       <c r="C49">
-        <v>1133</v>
+        <v>1677</v>
       </c>
       <c r="D49">
-        <v>338</v>
+        <v>493</v>
       </c>
       <c r="E49">
-        <v>758</v>
+        <v>1106</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>729</v>
+        <v>1052</v>
       </c>
       <c r="H49">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="I49">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="J49">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>11707281</v>
+        <v>11709096</v>
       </c>
       <c r="L49">
-        <v>3950542</v>
+        <v>3951087</v>
       </c>
       <c r="M49">
-        <v>2994581</v>
+        <v>2994739</v>
       </c>
       <c r="N49">
-        <v>1751254</v>
+        <v>1751606</v>
       </c>
       <c r="O49">
         <v>1382533</v>
       </c>
       <c r="P49">
-        <v>955691</v>
+        <v>956024</v>
       </c>
       <c r="Q49">
-        <v>311585</v>
+        <v>311949</v>
       </c>
       <c r="R49">
-        <v>250808</v>
+        <v>250858</v>
       </c>
       <c r="S49">
-        <v>110287</v>
+        <v>110300</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM27"/>
+  <dimension ref="A1:IM28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22429,6 +22429,749 @@
       </c>
       <c r="IM27">
         <v>13482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B28">
+        <v>1815</v>
+      </c>
+      <c r="C28">
+        <v>545</v>
+      </c>
+      <c r="D28">
+        <v>158</v>
+      </c>
+      <c r="E28">
+        <v>352</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>333</v>
+      </c>
+      <c r="H28">
+        <v>364</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>11709096</v>
+      </c>
+      <c r="L28">
+        <v>3951087</v>
+      </c>
+      <c r="M28">
+        <v>2994739</v>
+      </c>
+      <c r="N28">
+        <v>1751606</v>
+      </c>
+      <c r="O28">
+        <v>1382533</v>
+      </c>
+      <c r="P28">
+        <v>956024</v>
+      </c>
+      <c r="Q28">
+        <v>311949</v>
+      </c>
+      <c r="R28">
+        <v>250858</v>
+      </c>
+      <c r="S28">
+        <v>110300</v>
+      </c>
+      <c r="T28">
+        <v>89</v>
+      </c>
+      <c r="U28">
+        <v>24</v>
+      </c>
+      <c r="V28">
+        <v>35</v>
+      </c>
+      <c r="W28">
+        <v>75</v>
+      </c>
+      <c r="X28">
+        <v>79</v>
+      </c>
+      <c r="Y28">
+        <v>112</v>
+      </c>
+      <c r="Z28">
+        <v>131</v>
+      </c>
+      <c r="AA28">
+        <v>125</v>
+      </c>
+      <c r="AB28">
+        <v>144</v>
+      </c>
+      <c r="AC28">
+        <v>114</v>
+      </c>
+      <c r="AD28">
+        <v>128</v>
+      </c>
+      <c r="AE28">
+        <v>106</v>
+      </c>
+      <c r="AF28">
+        <v>116</v>
+      </c>
+      <c r="AG28">
+        <v>82</v>
+      </c>
+      <c r="AH28">
+        <v>94</v>
+      </c>
+      <c r="AI28">
+        <v>112</v>
+      </c>
+      <c r="AJ28">
+        <v>79</v>
+      </c>
+      <c r="AK28">
+        <v>164</v>
+      </c>
+      <c r="AL28">
+        <v>6</v>
+      </c>
+      <c r="AM28">
+        <v>503094</v>
+      </c>
+      <c r="AN28">
+        <v>668164</v>
+      </c>
+      <c r="AO28">
+        <v>773766</v>
+      </c>
+      <c r="AP28">
+        <v>760081</v>
+      </c>
+      <c r="AQ28">
+        <v>930626</v>
+      </c>
+      <c r="AR28">
+        <v>1026583</v>
+      </c>
+      <c r="AS28">
+        <v>1034471</v>
+      </c>
+      <c r="AT28">
+        <v>1019145</v>
+      </c>
+      <c r="AU28">
+        <v>908767</v>
+      </c>
+      <c r="AV28">
+        <v>807478</v>
+      </c>
+      <c r="AW28">
+        <v>747398</v>
+      </c>
+      <c r="AX28">
+        <v>622250</v>
+      </c>
+      <c r="AY28">
+        <v>543287</v>
+      </c>
+      <c r="AZ28">
+        <v>407587</v>
+      </c>
+      <c r="BA28">
+        <v>325315</v>
+      </c>
+      <c r="BB28">
+        <v>240829</v>
+      </c>
+      <c r="BC28">
+        <v>161868</v>
+      </c>
+      <c r="BD28">
+        <v>210212</v>
+      </c>
+      <c r="BE28">
+        <v>18175</v>
+      </c>
+      <c r="BF28">
+        <v>48</v>
+      </c>
+      <c r="BG28">
+        <v>43</v>
+      </c>
+      <c r="BH28">
+        <v>-2</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>10</v>
+      </c>
+      <c r="BL28">
+        <v>14</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>22</v>
+      </c>
+      <c r="BQ28">
+        <v>13</v>
+      </c>
+      <c r="BR28">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>0</v>
+      </c>
+      <c r="BT28">
+        <v>0</v>
+      </c>
+      <c r="BU28">
+        <v>34</v>
+      </c>
+      <c r="BV28">
+        <v>42</v>
+      </c>
+      <c r="BW28">
+        <v>0</v>
+      </c>
+      <c r="BX28">
+        <v>-1</v>
+      </c>
+      <c r="BY28">
+        <v>0</v>
+      </c>
+      <c r="BZ28">
+        <v>29</v>
+      </c>
+      <c r="CA28">
+        <v>50</v>
+      </c>
+      <c r="CB28">
+        <v>0</v>
+      </c>
+      <c r="CC28">
+        <v>0</v>
+      </c>
+      <c r="CD28">
+        <v>0</v>
+      </c>
+      <c r="CE28">
+        <v>33</v>
+      </c>
+      <c r="CF28">
+        <v>78</v>
+      </c>
+      <c r="CG28">
+        <v>0</v>
+      </c>
+      <c r="CH28">
+        <v>1</v>
+      </c>
+      <c r="CI28">
+        <v>0</v>
+      </c>
+      <c r="CJ28">
+        <v>47</v>
+      </c>
+      <c r="CK28">
+        <v>85</v>
+      </c>
+      <c r="CL28">
+        <v>0</v>
+      </c>
+      <c r="CM28">
+        <v>0</v>
+      </c>
+      <c r="CN28">
+        <v>-1</v>
+      </c>
+      <c r="CO28">
+        <v>45</v>
+      </c>
+      <c r="CP28">
+        <v>80</v>
+      </c>
+      <c r="CQ28">
+        <v>0</v>
+      </c>
+      <c r="CR28">
+        <v>0</v>
+      </c>
+      <c r="CS28">
+        <v>0</v>
+      </c>
+      <c r="CT28">
+        <v>47</v>
+      </c>
+      <c r="CU28">
+        <v>97</v>
+      </c>
+      <c r="CV28">
+        <v>0</v>
+      </c>
+      <c r="CW28">
+        <v>0</v>
+      </c>
+      <c r="CX28">
+        <v>0</v>
+      </c>
+      <c r="CY28">
+        <v>49</v>
+      </c>
+      <c r="CZ28">
+        <v>66</v>
+      </c>
+      <c r="DA28">
+        <v>0</v>
+      </c>
+      <c r="DB28">
+        <v>-1</v>
+      </c>
+      <c r="DC28">
+        <v>0</v>
+      </c>
+      <c r="DD28">
+        <v>47</v>
+      </c>
+      <c r="DE28">
+        <v>80</v>
+      </c>
+      <c r="DF28">
+        <v>0</v>
+      </c>
+      <c r="DG28">
+        <v>0</v>
+      </c>
+      <c r="DH28">
+        <v>1</v>
+      </c>
+      <c r="DI28">
+        <v>42</v>
+      </c>
+      <c r="DJ28">
+        <v>64</v>
+      </c>
+      <c r="DK28">
+        <v>0</v>
+      </c>
+      <c r="DL28">
+        <v>0</v>
+      </c>
+      <c r="DM28">
+        <v>0</v>
+      </c>
+      <c r="DN28">
+        <v>51</v>
+      </c>
+      <c r="DO28">
+        <v>66</v>
+      </c>
+      <c r="DP28">
+        <v>0</v>
+      </c>
+      <c r="DQ28">
+        <v>0</v>
+      </c>
+      <c r="DR28">
+        <v>-1</v>
+      </c>
+      <c r="DS28">
+        <v>41</v>
+      </c>
+      <c r="DT28">
+        <v>40</v>
+      </c>
+      <c r="DU28">
+        <v>0</v>
+      </c>
+      <c r="DV28">
+        <v>0</v>
+      </c>
+      <c r="DW28">
+        <v>1</v>
+      </c>
+      <c r="DX28">
+        <v>49</v>
+      </c>
+      <c r="DY28">
+        <v>44</v>
+      </c>
+      <c r="DZ28">
+        <v>0</v>
+      </c>
+      <c r="EA28">
+        <v>0</v>
+      </c>
+      <c r="EB28">
+        <v>1</v>
+      </c>
+      <c r="EC28">
+        <v>45</v>
+      </c>
+      <c r="ED28">
+        <v>69</v>
+      </c>
+      <c r="EE28">
+        <v>0</v>
+      </c>
+      <c r="EF28">
+        <v>0</v>
+      </c>
+      <c r="EG28">
+        <v>-2</v>
+      </c>
+      <c r="EH28">
+        <v>37</v>
+      </c>
+      <c r="EI28">
+        <v>44</v>
+      </c>
+      <c r="EJ28">
+        <v>0</v>
+      </c>
+      <c r="EK28">
+        <v>-1</v>
+      </c>
+      <c r="EL28">
+        <v>-1</v>
+      </c>
+      <c r="EM28">
+        <v>70</v>
+      </c>
+      <c r="EN28">
+        <v>98</v>
+      </c>
+      <c r="EO28">
+        <v>0</v>
+      </c>
+      <c r="EP28">
+        <v>-4</v>
+      </c>
+      <c r="EQ28">
+        <v>0</v>
+      </c>
+      <c r="ER28">
+        <v>0</v>
+      </c>
+      <c r="ES28">
+        <v>0</v>
+      </c>
+      <c r="ET28">
+        <v>0</v>
+      </c>
+      <c r="EU28">
+        <v>0</v>
+      </c>
+      <c r="EV28">
+        <v>6</v>
+      </c>
+      <c r="EW28">
+        <v>231666</v>
+      </c>
+      <c r="EX28">
+        <v>219919</v>
+      </c>
+      <c r="EY28">
+        <v>409</v>
+      </c>
+      <c r="EZ28">
+        <v>15453</v>
+      </c>
+      <c r="FA28">
+        <v>35647</v>
+      </c>
+      <c r="FB28">
+        <v>308123</v>
+      </c>
+      <c r="FC28">
+        <v>292771</v>
+      </c>
+      <c r="FD28">
+        <v>466</v>
+      </c>
+      <c r="FE28">
+        <v>16771</v>
+      </c>
+      <c r="FF28">
+        <v>50033</v>
+      </c>
+      <c r="FG28">
+        <v>353373</v>
+      </c>
+      <c r="FH28">
+        <v>342723</v>
+      </c>
+      <c r="FI28">
+        <v>633</v>
+      </c>
+      <c r="FJ28">
+        <v>16954</v>
+      </c>
+      <c r="FK28">
+        <v>60083</v>
+      </c>
+      <c r="FL28">
+        <v>326442</v>
+      </c>
+      <c r="FM28">
+        <v>373987</v>
+      </c>
+      <c r="FN28">
+        <v>896</v>
+      </c>
+      <c r="FO28">
+        <v>12935</v>
+      </c>
+      <c r="FP28">
+        <v>45821</v>
+      </c>
+      <c r="FQ28">
+        <v>392103</v>
+      </c>
+      <c r="FR28">
+        <v>479730</v>
+      </c>
+      <c r="FS28">
+        <v>1100</v>
+      </c>
+      <c r="FT28">
+        <v>16278</v>
+      </c>
+      <c r="FU28">
+        <v>41415</v>
+      </c>
+      <c r="FV28">
+        <v>433925</v>
+      </c>
+      <c r="FW28">
+        <v>526226</v>
+      </c>
+      <c r="FX28">
+        <v>1136</v>
+      </c>
+      <c r="FY28">
+        <v>17785</v>
+      </c>
+      <c r="FZ28">
+        <v>47511</v>
+      </c>
+      <c r="GA28">
+        <v>429283</v>
+      </c>
+      <c r="GB28">
+        <v>532278</v>
+      </c>
+      <c r="GC28">
+        <v>921</v>
+      </c>
+      <c r="GD28">
+        <v>17168</v>
+      </c>
+      <c r="GE28">
+        <v>54821</v>
+      </c>
+      <c r="GF28">
+        <v>419827</v>
+      </c>
+      <c r="GG28">
+        <v>524796</v>
+      </c>
+      <c r="GH28">
+        <v>664</v>
+      </c>
+      <c r="GI28">
+        <v>15033</v>
+      </c>
+      <c r="GJ28">
+        <v>58825</v>
+      </c>
+      <c r="GK28">
+        <v>373683</v>
+      </c>
+      <c r="GL28">
+        <v>469078</v>
+      </c>
+      <c r="GM28">
+        <v>498</v>
+      </c>
+      <c r="GN28">
+        <v>12345</v>
+      </c>
+      <c r="GO28">
+        <v>53163</v>
+      </c>
+      <c r="GP28">
+        <v>330410</v>
+      </c>
+      <c r="GQ28">
+        <v>421182</v>
+      </c>
+      <c r="GR28">
+        <v>439</v>
+      </c>
+      <c r="GS28">
+        <v>10126</v>
+      </c>
+      <c r="GT28">
+        <v>45321</v>
+      </c>
+      <c r="GU28">
+        <v>308212</v>
+      </c>
+      <c r="GV28">
+        <v>389576</v>
+      </c>
+      <c r="GW28">
+        <v>399</v>
+      </c>
+      <c r="GX28">
+        <v>8950</v>
+      </c>
+      <c r="GY28">
+        <v>40261</v>
+      </c>
+      <c r="GZ28">
+        <v>263628</v>
+      </c>
+      <c r="HA28">
+        <v>319940</v>
+      </c>
+      <c r="HB28">
+        <v>328</v>
+      </c>
+      <c r="HC28">
+        <v>6606</v>
+      </c>
+      <c r="HD28">
+        <v>31748</v>
+      </c>
+      <c r="HE28">
+        <v>234518</v>
+      </c>
+      <c r="HF28">
+        <v>277261</v>
+      </c>
+      <c r="HG28">
+        <v>234</v>
+      </c>
+      <c r="HH28">
+        <v>5315</v>
+      </c>
+      <c r="HI28">
+        <v>25959</v>
+      </c>
+      <c r="HJ28">
+        <v>180884</v>
+      </c>
+      <c r="HK28">
+        <v>204331</v>
+      </c>
+      <c r="HL28">
+        <v>199</v>
+      </c>
+      <c r="HM28">
+        <v>3651</v>
+      </c>
+      <c r="HN28">
+        <v>18522</v>
+      </c>
+      <c r="HO28">
+        <v>151721</v>
+      </c>
+      <c r="HP28">
+        <v>158413</v>
+      </c>
+      <c r="HQ28">
+        <v>163</v>
+      </c>
+      <c r="HR28">
+        <v>2669</v>
+      </c>
+      <c r="HS28">
+        <v>12349</v>
+      </c>
+      <c r="HT28">
+        <v>116050</v>
+      </c>
+      <c r="HU28">
+        <v>114921</v>
+      </c>
+      <c r="HV28">
+        <v>164</v>
+      </c>
+      <c r="HW28">
+        <v>1883</v>
+      </c>
+      <c r="HX28">
+        <v>7811</v>
+      </c>
+      <c r="HY28">
+        <v>76074</v>
+      </c>
+      <c r="HZ28">
+        <v>79856</v>
+      </c>
+      <c r="IA28">
+        <v>131</v>
+      </c>
+      <c r="IB28">
+        <v>1276</v>
+      </c>
+      <c r="IC28">
+        <v>4531</v>
+      </c>
+      <c r="ID28">
+        <v>81401</v>
+      </c>
+      <c r="IE28">
+        <v>122403</v>
+      </c>
+      <c r="IF28">
+        <v>306</v>
+      </c>
+      <c r="IG28">
+        <v>2262</v>
+      </c>
+      <c r="IH28">
+        <v>3840</v>
+      </c>
+      <c r="II28">
+        <v>2153</v>
+      </c>
+      <c r="IJ28">
+        <v>2309</v>
+      </c>
+      <c r="IK28">
+        <v>24</v>
+      </c>
+      <c r="IL28">
+        <v>201</v>
+      </c>
+      <c r="IM28">
+        <v>13488</v>
       </c>
     </row>
   </sheetData>
@@ -22455,7 +23198,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45265</v>
+        <v>45266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E3E397-4BCF-44AD-AC8B-3A450669E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC6F07-74A8-43DE-82A7-23433CE0690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1871,10 +1871,10 @@
         <v>30561</v>
       </c>
       <c r="W3">
-        <v>43739</v>
+        <v>43738</v>
       </c>
       <c r="X3">
-        <v>75258</v>
+        <v>75259</v>
       </c>
       <c r="Y3">
         <v>70914</v>
@@ -1898,10 +1898,10 @@
         <v>22325</v>
       </c>
       <c r="AF3">
-        <v>17081</v>
+        <v>17080</v>
       </c>
       <c r="AG3">
-        <v>11937</v>
+        <v>11938</v>
       </c>
       <c r="AH3">
         <v>8405</v>
@@ -1928,10 +1928,10 @@
         <v>31514</v>
       </c>
       <c r="AP3">
-        <v>45248</v>
+        <v>45247</v>
       </c>
       <c r="AQ3">
-        <v>78226</v>
+        <v>78227</v>
       </c>
       <c r="AR3">
         <v>74444</v>
@@ -1955,10 +1955,10 @@
         <v>24003</v>
       </c>
       <c r="AY3">
-        <v>18540</v>
+        <v>18539</v>
       </c>
       <c r="AZ3">
-        <v>12971</v>
+        <v>12972</v>
       </c>
       <c r="BA3">
         <v>9317</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317856</v>
+        <v>10317864</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1990,13 +1990,13 @@
         <v>2621354</v>
       </c>
       <c r="E4">
-        <v>1586956</v>
+        <v>1586955</v>
       </c>
       <c r="F4">
-        <v>1288500</v>
+        <v>1288503</v>
       </c>
       <c r="G4">
-        <v>848308</v>
+        <v>848314</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885925</v>
+        <v>10885933</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2017,13 +2017,13 @@
         <v>2841482</v>
       </c>
       <c r="N4">
-        <v>1619867</v>
+        <v>1619866</v>
       </c>
       <c r="O4">
-        <v>1289866</v>
+        <v>1289869</v>
       </c>
       <c r="P4">
-        <v>867469</v>
+        <v>867475</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,115 +2035,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450544</v>
+        <v>450542</v>
       </c>
       <c r="U4">
-        <v>611248</v>
+        <v>611249</v>
       </c>
       <c r="V4">
-        <v>710189</v>
+        <v>710186</v>
       </c>
       <c r="W4">
-        <v>683359</v>
+        <v>683360</v>
       </c>
       <c r="X4">
-        <v>812052</v>
+        <v>812045</v>
       </c>
       <c r="Y4">
-        <v>899950</v>
+        <v>899955</v>
       </c>
       <c r="Z4">
-        <v>916985</v>
+        <v>916988</v>
       </c>
       <c r="AA4">
-        <v>908879</v>
+        <v>908876</v>
       </c>
       <c r="AB4">
-        <v>810340</v>
+        <v>810344</v>
       </c>
       <c r="AC4">
-        <v>717629</v>
+        <v>717631</v>
       </c>
       <c r="AD4">
-        <v>658709</v>
+        <v>658708</v>
       </c>
       <c r="AE4">
-        <v>544129</v>
+        <v>544130</v>
       </c>
       <c r="AF4">
-        <v>471543</v>
+        <v>471547</v>
       </c>
       <c r="AG4">
-        <v>349062</v>
+        <v>349063</v>
       </c>
       <c r="AH4">
-        <v>274362</v>
+        <v>274360</v>
       </c>
       <c r="AI4">
-        <v>197947</v>
+        <v>197950</v>
       </c>
       <c r="AJ4">
         <v>128105</v>
       </c>
       <c r="AK4">
-        <v>155620</v>
+        <v>155621</v>
       </c>
       <c r="AL4">
         <v>17204</v>
       </c>
       <c r="AM4">
-        <v>473794</v>
+        <v>473792</v>
       </c>
       <c r="AN4">
-        <v>644447</v>
+        <v>644448</v>
       </c>
       <c r="AO4">
-        <v>741703</v>
+        <v>741700</v>
       </c>
       <c r="AP4">
         <v>728607</v>
       </c>
       <c r="AQ4">
-        <v>890278</v>
+        <v>890272</v>
       </c>
       <c r="AR4">
-        <v>974394</v>
+        <v>974399</v>
       </c>
       <c r="AS4">
-        <v>975366</v>
+        <v>975369</v>
       </c>
       <c r="AT4">
-        <v>953870</v>
+        <v>953867</v>
       </c>
       <c r="AU4">
-        <v>845958</v>
+        <v>845962</v>
       </c>
       <c r="AV4">
-        <v>749709</v>
+        <v>749711</v>
       </c>
       <c r="AW4">
-        <v>688397</v>
+        <v>688396</v>
       </c>
       <c r="AX4">
-        <v>568132</v>
+        <v>568133</v>
       </c>
       <c r="AY4">
-        <v>490083</v>
+        <v>490086</v>
       </c>
       <c r="AZ4">
-        <v>362033</v>
+        <v>362035</v>
       </c>
       <c r="BA4">
-        <v>283679</v>
+        <v>283677</v>
       </c>
       <c r="BB4">
-        <v>204419</v>
+        <v>204422</v>
       </c>
       <c r="BC4">
         <v>132495</v>
       </c>
       <c r="BD4">
-        <v>160984</v>
+        <v>160985</v>
       </c>
       <c r="BE4">
         <v>17577</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>823171</v>
+        <v>825359</v>
       </c>
       <c r="C5">
-        <v>297693</v>
+        <v>298141</v>
       </c>
       <c r="D5">
-        <v>153257</v>
+        <v>153543</v>
       </c>
       <c r="E5">
-        <v>131739</v>
+        <v>132140</v>
       </c>
       <c r="F5">
-        <v>92667</v>
+        <v>93149</v>
       </c>
       <c r="G5">
-        <v>88555</v>
+        <v>88860</v>
       </c>
       <c r="H5">
-        <v>30406</v>
+        <v>30587</v>
       </c>
       <c r="I5">
-        <v>22521</v>
+        <v>22596</v>
       </c>
       <c r="J5">
-        <v>6333</v>
+        <v>6343</v>
       </c>
       <c r="K5">
-        <v>11709096</v>
+        <v>11711292</v>
       </c>
       <c r="L5">
-        <v>3951087</v>
+        <v>3951535</v>
       </c>
       <c r="M5">
-        <v>2994739</v>
+        <v>2995025</v>
       </c>
       <c r="N5">
-        <v>1751606</v>
+        <v>1752006</v>
       </c>
       <c r="O5">
-        <v>1382533</v>
+        <v>1383018</v>
       </c>
       <c r="P5">
-        <v>956024</v>
+        <v>956335</v>
       </c>
       <c r="Q5">
-        <v>311949</v>
+        <v>312130</v>
       </c>
       <c r="R5">
-        <v>250858</v>
+        <v>250933</v>
       </c>
       <c r="S5">
-        <v>110300</v>
+        <v>110310</v>
       </c>
       <c r="T5">
-        <v>29300</v>
+        <v>29407</v>
       </c>
       <c r="U5">
-        <v>23717</v>
+        <v>23740</v>
       </c>
       <c r="V5">
-        <v>32063</v>
+        <v>32102</v>
       </c>
       <c r="W5">
-        <v>31474</v>
+        <v>31551</v>
       </c>
       <c r="X5">
-        <v>40348</v>
+        <v>40456</v>
       </c>
       <c r="Y5">
-        <v>52189</v>
+        <v>52311</v>
       </c>
       <c r="Z5">
-        <v>59105</v>
+        <v>59254</v>
       </c>
       <c r="AA5">
-        <v>65275</v>
+        <v>65415</v>
       </c>
       <c r="AB5">
-        <v>62809</v>
+        <v>62940</v>
       </c>
       <c r="AC5">
-        <v>57769</v>
+        <v>57884</v>
       </c>
       <c r="AD5">
-        <v>59001</v>
+        <v>59135</v>
       </c>
       <c r="AE5">
-        <v>54118</v>
+        <v>54267</v>
       </c>
       <c r="AF5">
-        <v>53204</v>
+        <v>53322</v>
       </c>
       <c r="AG5">
-        <v>45554</v>
+        <v>45681</v>
       </c>
       <c r="AH5">
-        <v>41636</v>
+        <v>41775</v>
       </c>
       <c r="AI5">
-        <v>36410</v>
+        <v>36559</v>
       </c>
       <c r="AJ5">
-        <v>29373</v>
+        <v>29492</v>
       </c>
       <c r="AK5">
-        <v>49228</v>
+        <v>49475</v>
       </c>
       <c r="AL5">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="AM5">
-        <v>503094</v>
+        <v>503199</v>
       </c>
       <c r="AN5">
-        <v>668164</v>
+        <v>668188</v>
       </c>
       <c r="AO5">
-        <v>773766</v>
+        <v>773802</v>
       </c>
       <c r="AP5">
-        <v>760081</v>
+        <v>760158</v>
       </c>
       <c r="AQ5">
-        <v>930626</v>
+        <v>930728</v>
       </c>
       <c r="AR5">
-        <v>1026583</v>
+        <v>1026710</v>
       </c>
       <c r="AS5">
-        <v>1034471</v>
+        <v>1034623</v>
       </c>
       <c r="AT5">
-        <v>1019145</v>
+        <v>1019282</v>
       </c>
       <c r="AU5">
-        <v>908767</v>
+        <v>908902</v>
       </c>
       <c r="AV5">
-        <v>807478</v>
+        <v>807595</v>
       </c>
       <c r="AW5">
-        <v>747398</v>
+        <v>747531</v>
       </c>
       <c r="AX5">
-        <v>622250</v>
+        <v>622400</v>
       </c>
       <c r="AY5">
-        <v>543287</v>
+        <v>543408</v>
       </c>
       <c r="AZ5">
-        <v>407587</v>
+        <v>407716</v>
       </c>
       <c r="BA5">
-        <v>325315</v>
+        <v>325452</v>
       </c>
       <c r="BB5">
-        <v>240829</v>
+        <v>240981</v>
       </c>
       <c r="BC5">
-        <v>161868</v>
+        <v>161987</v>
       </c>
       <c r="BD5">
-        <v>210212</v>
+        <v>210460</v>
       </c>
       <c r="BE5">
-        <v>18175</v>
+        <v>18170</v>
       </c>
     </row>
   </sheetData>
@@ -3828,13 +3828,13 @@
         <v>635279</v>
       </c>
       <c r="E26" s="3">
-        <v>372396</v>
+        <v>372395</v>
       </c>
       <c r="F26" s="3">
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90083</v>
+        <v>90084</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3855,13 +3855,13 @@
         <v>855407</v>
       </c>
       <c r="N26" s="3">
-        <v>405307</v>
+        <v>405306</v>
       </c>
       <c r="O26" s="3">
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109244</v>
+        <v>109245</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3914,13 +3914,13 @@
         <v>1059936</v>
       </c>
       <c r="N27" s="3">
-        <v>546060</v>
+        <v>546059</v>
       </c>
       <c r="O27" s="3">
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153663</v>
+        <v>153664</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3973,13 +3973,13 @@
         <v>1310022</v>
       </c>
       <c r="N28" s="3">
-        <v>742285</v>
+        <v>742284</v>
       </c>
       <c r="O28" s="3">
         <v>193321</v>
       </c>
       <c r="P28" s="3">
-        <v>274159</v>
+        <v>274160</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339877</v>
+        <v>1339879</v>
       </c>
       <c r="C29" s="3">
         <v>432381</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139818</v>
+        <v>139820</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771889</v>
+        <v>5771891</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4032,13 +4032,13 @@
         <v>1584974</v>
       </c>
       <c r="N29" s="3">
-        <v>943367</v>
+        <v>943366</v>
       </c>
       <c r="O29" s="3">
         <v>400164</v>
       </c>
       <c r="P29" s="3">
-        <v>413977</v>
+        <v>413980</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310367</v>
+        <v>1310369</v>
       </c>
       <c r="C30" s="3">
         <v>297268</v>
@@ -4070,7 +4070,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108136</v>
+        <v>108138</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082256</v>
+        <v>7082260</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4091,13 +4091,13 @@
         <v>1918283</v>
       </c>
       <c r="N30" s="3">
-        <v>1096297</v>
+        <v>1096296</v>
       </c>
       <c r="O30" s="3">
         <v>754252</v>
       </c>
       <c r="P30" s="3">
-        <v>522113</v>
+        <v>522118</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884297</v>
+        <v>884298</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77318</v>
+        <v>77319</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966553</v>
+        <v>7966558</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4150,13 +4150,13 @@
         <v>2133369</v>
       </c>
       <c r="N31" s="3">
-        <v>1213312</v>
+        <v>1213311</v>
       </c>
       <c r="O31" s="3">
         <v>936891</v>
       </c>
       <c r="P31" s="3">
-        <v>599431</v>
+        <v>599437</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216898</v>
+        <v>9216903</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4209,13 +4209,13 @@
         <v>2445486</v>
       </c>
       <c r="N32" s="3">
-        <v>1410769</v>
+        <v>1410768</v>
       </c>
       <c r="O32" s="3">
         <v>1095155</v>
       </c>
       <c r="P32" s="3">
-        <v>716831</v>
+        <v>716837</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771758</v>
+        <v>9771763</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4268,13 +4268,13 @@
         <v>2570916</v>
       </c>
       <c r="N33" s="3">
-        <v>1482130</v>
+        <v>1482129</v>
       </c>
       <c r="O33" s="3">
         <v>1154226</v>
       </c>
       <c r="P33" s="3">
-        <v>757342</v>
+        <v>757348</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966012</v>
+        <v>9966017</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4327,13 +4327,13 @@
         <v>2617585</v>
       </c>
       <c r="N34" s="3">
-        <v>1512403</v>
+        <v>1512402</v>
       </c>
       <c r="O34" s="3">
         <v>1178498</v>
       </c>
       <c r="P34" s="3">
-        <v>772626</v>
+        <v>772632</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108117</v>
+        <v>10108122</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4386,13 +4386,13 @@
         <v>2653979</v>
       </c>
       <c r="N35" s="3">
-        <v>1529140</v>
+        <v>1529139</v>
       </c>
       <c r="O35" s="3">
         <v>1201924</v>
       </c>
       <c r="P35" s="3">
-        <v>785801</v>
+        <v>785807</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4409,7 +4409,7 @@
         <v>44866</v>
       </c>
       <c r="B36" s="3">
-        <v>351941</v>
+        <v>351944</v>
       </c>
       <c r="C36" s="3">
         <v>122093</v>
@@ -4421,7 +4421,7 @@
         <v>36446</v>
       </c>
       <c r="F36" s="3">
-        <v>42631</v>
+        <v>42634</v>
       </c>
       <c r="G36" s="3">
         <v>37163</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460058</v>
+        <v>10460066</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4445,13 +4445,13 @@
         <v>2746876</v>
       </c>
       <c r="N36" s="3">
-        <v>1565586</v>
+        <v>1565585</v>
       </c>
       <c r="O36" s="3">
-        <v>1244555</v>
+        <v>1244558</v>
       </c>
       <c r="P36" s="3">
-        <v>822964</v>
+        <v>822970</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885925</v>
+        <v>10885933</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4504,13 +4504,13 @@
         <v>2841482</v>
       </c>
       <c r="N37" s="3">
-        <v>1619867</v>
+        <v>1619866</v>
       </c>
       <c r="O37" s="3">
-        <v>1289866</v>
+        <v>1289869</v>
       </c>
       <c r="P37" s="3">
-        <v>867469</v>
+        <v>867475</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016007</v>
+        <v>11016015</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4563,13 +4563,13 @@
         <v>2864586</v>
       </c>
       <c r="N38" s="3">
-        <v>1643980</v>
+        <v>1643979</v>
       </c>
       <c r="O38" s="3">
-        <v>1306722</v>
+        <v>1306725</v>
       </c>
       <c r="P38" s="3">
-        <v>879359</v>
+        <v>879365</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11087996</v>
+        <v>11088004</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4622,13 +4622,13 @@
         <v>2876975</v>
       </c>
       <c r="N39" s="3">
-        <v>1658280</v>
+        <v>1658279</v>
       </c>
       <c r="O39" s="3">
-        <v>1315594</v>
+        <v>1315597</v>
       </c>
       <c r="P39" s="3">
-        <v>886212</v>
+        <v>886218</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191975</v>
+        <v>11191983</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4681,13 +4681,13 @@
         <v>2896212</v>
       </c>
       <c r="N40" s="3">
-        <v>1673735</v>
+        <v>1673734</v>
       </c>
       <c r="O40" s="3">
-        <v>1328556</v>
+        <v>1328559</v>
       </c>
       <c r="P40" s="3">
-        <v>897712</v>
+        <v>897718</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315141</v>
+        <v>11315149</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4740,13 +4740,13 @@
         <v>2922019</v>
       </c>
       <c r="N41" s="3">
-        <v>1689645</v>
+        <v>1689644</v>
       </c>
       <c r="O41" s="3">
-        <v>1342943</v>
+        <v>1342946</v>
       </c>
       <c r="P41" s="3">
-        <v>910041</v>
+        <v>910047</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481392</v>
+        <v>11481400</v>
       </c>
       <c r="L42" s="3">
         <v>3872846</v>
@@ -4799,13 +4799,13 @@
         <v>2960395</v>
       </c>
       <c r="N42" s="3">
-        <v>1711955</v>
+        <v>1711954</v>
       </c>
       <c r="O42" s="3">
-        <v>1361031</v>
+        <v>1361034</v>
       </c>
       <c r="P42" s="3">
-        <v>924954</v>
+        <v>924960</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4822,7 +4822,7 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77800</v>
+        <v>77801</v>
       </c>
       <c r="C43" s="3">
         <v>28182</v>
@@ -4843,13 +4843,13 @@
         <v>2584</v>
       </c>
       <c r="I43" s="3">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="J43" s="3">
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559192</v>
+        <v>11559201</v>
       </c>
       <c r="L43" s="3">
         <v>3901028</v>
@@ -4858,19 +4858,19 @@
         <v>2975163</v>
       </c>
       <c r="N43" s="3">
-        <v>1726205</v>
+        <v>1726204</v>
       </c>
       <c r="O43" s="3">
-        <v>1369449</v>
+        <v>1369452</v>
       </c>
       <c r="P43" s="3">
-        <v>932168</v>
+        <v>932174</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
       </c>
       <c r="R43" s="3">
-        <v>244664</v>
+        <v>244665</v>
       </c>
       <c r="S43" s="3">
         <v>108535</v>
@@ -4881,7 +4881,7 @@
         <v>45108</v>
       </c>
       <c r="B44" s="3">
-        <v>28199</v>
+        <v>28200</v>
       </c>
       <c r="C44" s="3">
         <v>10285</v>
@@ -4902,13 +4902,13 @@
         <v>1272</v>
       </c>
       <c r="I44" s="3">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="J44" s="3">
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587391</v>
+        <v>11587401</v>
       </c>
       <c r="L44" s="3">
         <v>3911313</v>
@@ -4917,19 +4917,19 @@
         <v>2977219</v>
       </c>
       <c r="N44" s="3">
-        <v>1733153</v>
+        <v>1733152</v>
       </c>
       <c r="O44" s="3">
-        <v>1373101</v>
+        <v>1373104</v>
       </c>
       <c r="P44" s="3">
-        <v>935097</v>
+        <v>935103</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
       </c>
       <c r="R44" s="3">
-        <v>245517</v>
+        <v>245519</v>
       </c>
       <c r="S44" s="3">
         <v>108739</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610809</v>
+        <v>11610819</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4976,19 +4976,19 @@
         <v>2979332</v>
       </c>
       <c r="N45" s="3">
-        <v>1737691</v>
+        <v>1737690</v>
       </c>
       <c r="O45" s="3">
-        <v>1376099</v>
+        <v>1376102</v>
       </c>
       <c r="P45" s="3">
-        <v>937546</v>
+        <v>937552</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
       </c>
       <c r="R45" s="3">
-        <v>246321</v>
+        <v>246323</v>
       </c>
       <c r="S45" s="3">
         <v>108955</v>
@@ -4999,7 +4999,7 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22104</v>
+        <v>22105</v>
       </c>
       <c r="C46" s="3">
         <v>8963</v>
@@ -5011,7 +5011,7 @@
         <v>2023</v>
       </c>
       <c r="F46" s="3">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="G46" s="3">
         <v>3033</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632913</v>
+        <v>11632924</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5035,19 +5035,19 @@
         <v>2982571</v>
       </c>
       <c r="N46" s="3">
-        <v>1739714</v>
+        <v>1739713</v>
       </c>
       <c r="O46" s="3">
-        <v>1378656</v>
+        <v>1378660</v>
       </c>
       <c r="P46" s="3">
-        <v>940579</v>
+        <v>940585</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
       </c>
       <c r="R46" s="3">
-        <v>247063</v>
+        <v>247065</v>
       </c>
       <c r="S46" s="3">
         <v>109299</v>
@@ -5058,13 +5058,13 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27900</v>
+        <v>27902</v>
       </c>
       <c r="C47" s="3">
         <v>7713</v>
       </c>
       <c r="D47" s="3">
-        <v>5603</v>
+        <v>5605</v>
       </c>
       <c r="E47" s="3">
         <v>3702</v>
@@ -5085,28 +5085,28 @@
         <v>415</v>
       </c>
       <c r="K47" s="3">
-        <v>11660813</v>
+        <v>11660826</v>
       </c>
       <c r="L47" s="3">
         <v>3937124</v>
       </c>
       <c r="M47" s="3">
-        <v>2988174</v>
+        <v>2988176</v>
       </c>
       <c r="N47" s="3">
-        <v>1743416</v>
+        <v>1743415</v>
       </c>
       <c r="O47" s="3">
-        <v>1380654</v>
+        <v>1380658</v>
       </c>
       <c r="P47" s="3">
-        <v>945656</v>
+        <v>945662</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
       </c>
       <c r="R47" s="3">
-        <v>248554</v>
+        <v>248556</v>
       </c>
       <c r="S47" s="3">
         <v>109714</v>
@@ -5117,58 +5117,58 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43431</v>
+        <v>43781</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
       </c>
       <c r="D48" s="3">
-        <v>6072</v>
+        <v>6086</v>
       </c>
       <c r="E48" s="3">
-        <v>7084</v>
+        <v>7098</v>
       </c>
       <c r="F48" s="3">
-        <v>1879</v>
+        <v>2178</v>
       </c>
       <c r="G48" s="3">
-        <v>9316</v>
+        <v>9322</v>
       </c>
       <c r="H48" s="3">
-        <v>4080</v>
+        <v>4094</v>
       </c>
       <c r="I48" s="3">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="J48" s="3">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704244</v>
+        <v>11704607</v>
       </c>
       <c r="L48" s="3">
         <v>3949410</v>
       </c>
       <c r="M48" s="3">
-        <v>2994246</v>
+        <v>2994262</v>
       </c>
       <c r="N48" s="3">
-        <v>1750500</v>
+        <v>1750513</v>
       </c>
       <c r="O48" s="3">
-        <v>1382533</v>
+        <v>1382836</v>
       </c>
       <c r="P48" s="3">
-        <v>954972</v>
+        <v>954984</v>
       </c>
       <c r="Q48" s="3">
-        <v>311601</v>
+        <v>311615</v>
       </c>
       <c r="R48" s="3">
-        <v>250723</v>
+        <v>250727</v>
       </c>
       <c r="S48" s="3">
-        <v>110259</v>
+        <v>110260</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>4852</v>
+        <v>6685</v>
       </c>
       <c r="C49">
-        <v>1677</v>
+        <v>2125</v>
       </c>
       <c r="D49">
-        <v>493</v>
+        <v>763</v>
       </c>
       <c r="E49">
-        <v>1106</v>
+        <v>1493</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="G49">
-        <v>1052</v>
+        <v>1351</v>
       </c>
       <c r="H49">
-        <v>348</v>
+        <v>515</v>
       </c>
       <c r="I49">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="J49">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>11709096</v>
+        <v>11711292</v>
       </c>
       <c r="L49">
-        <v>3951087</v>
+        <v>3951535</v>
       </c>
       <c r="M49">
-        <v>2994739</v>
+        <v>2995025</v>
       </c>
       <c r="N49">
-        <v>1751606</v>
+        <v>1752006</v>
       </c>
       <c r="O49">
-        <v>1382533</v>
+        <v>1383018</v>
       </c>
       <c r="P49">
-        <v>956024</v>
+        <v>956335</v>
       </c>
       <c r="Q49">
-        <v>311949</v>
+        <v>312130</v>
       </c>
       <c r="R49">
-        <v>250858</v>
+        <v>250933</v>
       </c>
       <c r="S49">
-        <v>110300</v>
+        <v>110310</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM28"/>
+  <dimension ref="A1:IM29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23172,6 +23172,749 @@
       </c>
       <c r="IM28">
         <v>13488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B29">
+        <v>2196</v>
+      </c>
+      <c r="C29">
+        <v>448</v>
+      </c>
+      <c r="D29">
+        <v>286</v>
+      </c>
+      <c r="E29">
+        <v>400</v>
+      </c>
+      <c r="F29">
+        <v>485</v>
+      </c>
+      <c r="G29">
+        <v>311</v>
+      </c>
+      <c r="H29">
+        <v>181</v>
+      </c>
+      <c r="I29">
+        <v>75</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>11711292</v>
+      </c>
+      <c r="L29">
+        <v>3951535</v>
+      </c>
+      <c r="M29">
+        <v>2995025</v>
+      </c>
+      <c r="N29">
+        <v>1752006</v>
+      </c>
+      <c r="O29">
+        <v>1383018</v>
+      </c>
+      <c r="P29">
+        <v>956335</v>
+      </c>
+      <c r="Q29">
+        <v>312130</v>
+      </c>
+      <c r="R29">
+        <v>250933</v>
+      </c>
+      <c r="S29">
+        <v>110310</v>
+      </c>
+      <c r="T29">
+        <v>105</v>
+      </c>
+      <c r="U29">
+        <v>24</v>
+      </c>
+      <c r="V29">
+        <v>36</v>
+      </c>
+      <c r="W29">
+        <v>77</v>
+      </c>
+      <c r="X29">
+        <v>102</v>
+      </c>
+      <c r="Y29">
+        <v>127</v>
+      </c>
+      <c r="Z29">
+        <v>152</v>
+      </c>
+      <c r="AA29">
+        <v>137</v>
+      </c>
+      <c r="AB29">
+        <v>135</v>
+      </c>
+      <c r="AC29">
+        <v>117</v>
+      </c>
+      <c r="AD29">
+        <v>133</v>
+      </c>
+      <c r="AE29">
+        <v>150</v>
+      </c>
+      <c r="AF29">
+        <v>121</v>
+      </c>
+      <c r="AG29">
+        <v>129</v>
+      </c>
+      <c r="AH29">
+        <v>137</v>
+      </c>
+      <c r="AI29">
+        <v>152</v>
+      </c>
+      <c r="AJ29">
+        <v>119</v>
+      </c>
+      <c r="AK29">
+        <v>248</v>
+      </c>
+      <c r="AL29">
+        <v>-5</v>
+      </c>
+      <c r="AM29">
+        <v>503199</v>
+      </c>
+      <c r="AN29">
+        <v>668188</v>
+      </c>
+      <c r="AO29">
+        <v>773802</v>
+      </c>
+      <c r="AP29">
+        <v>760158</v>
+      </c>
+      <c r="AQ29">
+        <v>930728</v>
+      </c>
+      <c r="AR29">
+        <v>1026710</v>
+      </c>
+      <c r="AS29">
+        <v>1034623</v>
+      </c>
+      <c r="AT29">
+        <v>1019282</v>
+      </c>
+      <c r="AU29">
+        <v>908902</v>
+      </c>
+      <c r="AV29">
+        <v>807595</v>
+      </c>
+      <c r="AW29">
+        <v>747531</v>
+      </c>
+      <c r="AX29">
+        <v>622400</v>
+      </c>
+      <c r="AY29">
+        <v>543408</v>
+      </c>
+      <c r="AZ29">
+        <v>407716</v>
+      </c>
+      <c r="BA29">
+        <v>325452</v>
+      </c>
+      <c r="BB29">
+        <v>240981</v>
+      </c>
+      <c r="BC29">
+        <v>161987</v>
+      </c>
+      <c r="BD29">
+        <v>210460</v>
+      </c>
+      <c r="BE29">
+        <v>18170</v>
+      </c>
+      <c r="BF29">
+        <v>55</v>
+      </c>
+      <c r="BG29">
+        <v>50</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>-1</v>
+      </c>
+      <c r="BJ29">
+        <v>1</v>
+      </c>
+      <c r="BK29">
+        <v>18</v>
+      </c>
+      <c r="BL29">
+        <v>7</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>-1</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>18</v>
+      </c>
+      <c r="BQ29">
+        <v>19</v>
+      </c>
+      <c r="BR29">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>-1</v>
+      </c>
+      <c r="BT29">
+        <v>0</v>
+      </c>
+      <c r="BU29">
+        <v>34</v>
+      </c>
+      <c r="BV29">
+        <v>43</v>
+      </c>
+      <c r="BW29">
+        <v>0</v>
+      </c>
+      <c r="BX29">
+        <v>0</v>
+      </c>
+      <c r="BY29">
+        <v>0</v>
+      </c>
+      <c r="BZ29">
+        <v>41</v>
+      </c>
+      <c r="CA29">
+        <v>59</v>
+      </c>
+      <c r="CB29">
+        <v>0</v>
+      </c>
+      <c r="CC29">
+        <v>1</v>
+      </c>
+      <c r="CD29">
+        <v>1</v>
+      </c>
+      <c r="CE29">
+        <v>46</v>
+      </c>
+      <c r="CF29">
+        <v>80</v>
+      </c>
+      <c r="CG29">
+        <v>1</v>
+      </c>
+      <c r="CH29">
+        <v>0</v>
+      </c>
+      <c r="CI29">
+        <v>0</v>
+      </c>
+      <c r="CJ29">
+        <v>53</v>
+      </c>
+      <c r="CK29">
+        <v>98</v>
+      </c>
+      <c r="CL29">
+        <v>1</v>
+      </c>
+      <c r="CM29">
+        <v>0</v>
+      </c>
+      <c r="CN29">
+        <v>0</v>
+      </c>
+      <c r="CO29">
+        <v>52</v>
+      </c>
+      <c r="CP29">
+        <v>86</v>
+      </c>
+      <c r="CQ29">
+        <v>0</v>
+      </c>
+      <c r="CR29">
+        <v>-2</v>
+      </c>
+      <c r="CS29">
+        <v>1</v>
+      </c>
+      <c r="CT29">
+        <v>44</v>
+      </c>
+      <c r="CU29">
+        <v>92</v>
+      </c>
+      <c r="CV29">
+        <v>0</v>
+      </c>
+      <c r="CW29">
+        <v>-1</v>
+      </c>
+      <c r="CX29">
+        <v>0</v>
+      </c>
+      <c r="CY29">
+        <v>43</v>
+      </c>
+      <c r="CZ29">
+        <v>74</v>
+      </c>
+      <c r="DA29">
+        <v>0</v>
+      </c>
+      <c r="DB29">
+        <v>0</v>
+      </c>
+      <c r="DC29">
+        <v>0</v>
+      </c>
+      <c r="DD29">
+        <v>64</v>
+      </c>
+      <c r="DE29">
+        <v>68</v>
+      </c>
+      <c r="DF29">
+        <v>0</v>
+      </c>
+      <c r="DG29">
+        <v>0</v>
+      </c>
+      <c r="DH29">
+        <v>1</v>
+      </c>
+      <c r="DI29">
+        <v>49</v>
+      </c>
+      <c r="DJ29">
+        <v>101</v>
+      </c>
+      <c r="DK29">
+        <v>0</v>
+      </c>
+      <c r="DL29">
+        <v>0</v>
+      </c>
+      <c r="DM29">
+        <v>0</v>
+      </c>
+      <c r="DN29">
+        <v>74</v>
+      </c>
+      <c r="DO29">
+        <v>47</v>
+      </c>
+      <c r="DP29">
+        <v>0</v>
+      </c>
+      <c r="DQ29">
+        <v>0</v>
+      </c>
+      <c r="DR29">
+        <v>0</v>
+      </c>
+      <c r="DS29">
+        <v>56</v>
+      </c>
+      <c r="DT29">
+        <v>73</v>
+      </c>
+      <c r="DU29">
+        <v>0</v>
+      </c>
+      <c r="DV29">
+        <v>0</v>
+      </c>
+      <c r="DW29">
+        <v>0</v>
+      </c>
+      <c r="DX29">
+        <v>64</v>
+      </c>
+      <c r="DY29">
+        <v>73</v>
+      </c>
+      <c r="DZ29">
+        <v>0</v>
+      </c>
+      <c r="EA29">
+        <v>0</v>
+      </c>
+      <c r="EB29">
+        <v>0</v>
+      </c>
+      <c r="EC29">
+        <v>84</v>
+      </c>
+      <c r="ED29">
+        <v>68</v>
+      </c>
+      <c r="EE29">
+        <v>0</v>
+      </c>
+      <c r="EF29">
+        <v>0</v>
+      </c>
+      <c r="EG29">
+        <v>0</v>
+      </c>
+      <c r="EH29">
+        <v>67</v>
+      </c>
+      <c r="EI29">
+        <v>52</v>
+      </c>
+      <c r="EJ29">
+        <v>0</v>
+      </c>
+      <c r="EK29">
+        <v>0</v>
+      </c>
+      <c r="EL29">
+        <v>0</v>
+      </c>
+      <c r="EM29">
+        <v>102</v>
+      </c>
+      <c r="EN29">
+        <v>147</v>
+      </c>
+      <c r="EO29">
+        <v>0</v>
+      </c>
+      <c r="EP29">
+        <v>-1</v>
+      </c>
+      <c r="EQ29">
+        <v>0</v>
+      </c>
+      <c r="ER29">
+        <v>0</v>
+      </c>
+      <c r="ES29">
+        <v>1</v>
+      </c>
+      <c r="ET29">
+        <v>0</v>
+      </c>
+      <c r="EU29">
+        <v>0</v>
+      </c>
+      <c r="EV29">
+        <v>-6</v>
+      </c>
+      <c r="EW29">
+        <v>231721</v>
+      </c>
+      <c r="EX29">
+        <v>219969</v>
+      </c>
+      <c r="EY29">
+        <v>409</v>
+      </c>
+      <c r="EZ29">
+        <v>15452</v>
+      </c>
+      <c r="FA29">
+        <v>35648</v>
+      </c>
+      <c r="FB29">
+        <v>308141</v>
+      </c>
+      <c r="FC29">
+        <v>292778</v>
+      </c>
+      <c r="FD29">
+        <v>466</v>
+      </c>
+      <c r="FE29">
+        <v>16770</v>
+      </c>
+      <c r="FF29">
+        <v>50033</v>
+      </c>
+      <c r="FG29">
+        <v>353391</v>
+      </c>
+      <c r="FH29">
+        <v>342742</v>
+      </c>
+      <c r="FI29">
+        <v>633</v>
+      </c>
+      <c r="FJ29">
+        <v>16953</v>
+      </c>
+      <c r="FK29">
+        <v>60083</v>
+      </c>
+      <c r="FL29">
+        <v>326476</v>
+      </c>
+      <c r="FM29">
+        <v>374030</v>
+      </c>
+      <c r="FN29">
+        <v>896</v>
+      </c>
+      <c r="FO29">
+        <v>12935</v>
+      </c>
+      <c r="FP29">
+        <v>45821</v>
+      </c>
+      <c r="FQ29">
+        <v>392144</v>
+      </c>
+      <c r="FR29">
+        <v>479789</v>
+      </c>
+      <c r="FS29">
+        <v>1100</v>
+      </c>
+      <c r="FT29">
+        <v>16279</v>
+      </c>
+      <c r="FU29">
+        <v>41416</v>
+      </c>
+      <c r="FV29">
+        <v>433971</v>
+      </c>
+      <c r="FW29">
+        <v>526306</v>
+      </c>
+      <c r="FX29">
+        <v>1137</v>
+      </c>
+      <c r="FY29">
+        <v>17785</v>
+      </c>
+      <c r="FZ29">
+        <v>47511</v>
+      </c>
+      <c r="GA29">
+        <v>429336</v>
+      </c>
+      <c r="GB29">
+        <v>532376</v>
+      </c>
+      <c r="GC29">
+        <v>922</v>
+      </c>
+      <c r="GD29">
+        <v>17168</v>
+      </c>
+      <c r="GE29">
+        <v>54821</v>
+      </c>
+      <c r="GF29">
+        <v>419879</v>
+      </c>
+      <c r="GG29">
+        <v>524882</v>
+      </c>
+      <c r="GH29">
+        <v>664</v>
+      </c>
+      <c r="GI29">
+        <v>15031</v>
+      </c>
+      <c r="GJ29">
+        <v>58826</v>
+      </c>
+      <c r="GK29">
+        <v>373727</v>
+      </c>
+      <c r="GL29">
+        <v>469170</v>
+      </c>
+      <c r="GM29">
+        <v>498</v>
+      </c>
+      <c r="GN29">
+        <v>12344</v>
+      </c>
+      <c r="GO29">
+        <v>53163</v>
+      </c>
+      <c r="GP29">
+        <v>330453</v>
+      </c>
+      <c r="GQ29">
+        <v>421256</v>
+      </c>
+      <c r="GR29">
+        <v>439</v>
+      </c>
+      <c r="GS29">
+        <v>10126</v>
+      </c>
+      <c r="GT29">
+        <v>45321</v>
+      </c>
+      <c r="GU29">
+        <v>308276</v>
+      </c>
+      <c r="GV29">
+        <v>389644</v>
+      </c>
+      <c r="GW29">
+        <v>399</v>
+      </c>
+      <c r="GX29">
+        <v>8950</v>
+      </c>
+      <c r="GY29">
+        <v>40262</v>
+      </c>
+      <c r="GZ29">
+        <v>263677</v>
+      </c>
+      <c r="HA29">
+        <v>320041</v>
+      </c>
+      <c r="HB29">
+        <v>328</v>
+      </c>
+      <c r="HC29">
+        <v>6606</v>
+      </c>
+      <c r="HD29">
+        <v>31748</v>
+      </c>
+      <c r="HE29">
+        <v>234592</v>
+      </c>
+      <c r="HF29">
+        <v>277308</v>
+      </c>
+      <c r="HG29">
+        <v>234</v>
+      </c>
+      <c r="HH29">
+        <v>5315</v>
+      </c>
+      <c r="HI29">
+        <v>25959</v>
+      </c>
+      <c r="HJ29">
+        <v>180940</v>
+      </c>
+      <c r="HK29">
+        <v>204404</v>
+      </c>
+      <c r="HL29">
+        <v>199</v>
+      </c>
+      <c r="HM29">
+        <v>3651</v>
+      </c>
+      <c r="HN29">
+        <v>18522</v>
+      </c>
+      <c r="HO29">
+        <v>151785</v>
+      </c>
+      <c r="HP29">
+        <v>158486</v>
+      </c>
+      <c r="HQ29">
+        <v>163</v>
+      </c>
+      <c r="HR29">
+        <v>2669</v>
+      </c>
+      <c r="HS29">
+        <v>12349</v>
+      </c>
+      <c r="HT29">
+        <v>116134</v>
+      </c>
+      <c r="HU29">
+        <v>114989</v>
+      </c>
+      <c r="HV29">
+        <v>164</v>
+      </c>
+      <c r="HW29">
+        <v>1883</v>
+      </c>
+      <c r="HX29">
+        <v>7811</v>
+      </c>
+      <c r="HY29">
+        <v>76141</v>
+      </c>
+      <c r="HZ29">
+        <v>79908</v>
+      </c>
+      <c r="IA29">
+        <v>131</v>
+      </c>
+      <c r="IB29">
+        <v>1276</v>
+      </c>
+      <c r="IC29">
+        <v>4531</v>
+      </c>
+      <c r="ID29">
+        <v>81503</v>
+      </c>
+      <c r="IE29">
+        <v>122550</v>
+      </c>
+      <c r="IF29">
+        <v>306</v>
+      </c>
+      <c r="IG29">
+        <v>2261</v>
+      </c>
+      <c r="IH29">
+        <v>3840</v>
+      </c>
+      <c r="II29">
+        <v>2153</v>
+      </c>
+      <c r="IJ29">
+        <v>2310</v>
+      </c>
+      <c r="IK29">
+        <v>24</v>
+      </c>
+      <c r="IL29">
+        <v>201</v>
+      </c>
+      <c r="IM29">
+        <v>13482</v>
       </c>
     </row>
   </sheetData>
@@ -23198,7 +23941,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFC6F07-74A8-43DE-82A7-23433CE0690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1062E627-8A40-453F-99AF-6ACE2A384F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1981,22 +1981,22 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317864</v>
+        <v>10317869</v>
       </c>
       <c r="C4">
         <v>3368111</v>
       </c>
       <c r="D4">
-        <v>2621354</v>
+        <v>2621355</v>
       </c>
       <c r="E4">
         <v>1586955</v>
       </c>
       <c r="F4">
-        <v>1288503</v>
+        <v>1288504</v>
       </c>
       <c r="G4">
-        <v>848314</v>
+        <v>848317</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,22 +2008,22 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885933</v>
+        <v>10885938</v>
       </c>
       <c r="L4">
         <v>3653394</v>
       </c>
       <c r="M4">
-        <v>2841482</v>
+        <v>2841483</v>
       </c>
       <c r="N4">
         <v>1619866</v>
       </c>
       <c r="O4">
-        <v>1289869</v>
+        <v>1289870</v>
       </c>
       <c r="P4">
-        <v>867475</v>
+        <v>867478</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,52 +2038,52 @@
         <v>450542</v>
       </c>
       <c r="U4">
-        <v>611249</v>
+        <v>611248</v>
       </c>
       <c r="V4">
-        <v>710186</v>
+        <v>710187</v>
       </c>
       <c r="W4">
-        <v>683360</v>
+        <v>683354</v>
       </c>
       <c r="X4">
-        <v>812045</v>
+        <v>812048</v>
       </c>
       <c r="Y4">
-        <v>899955</v>
+        <v>899958</v>
       </c>
       <c r="Z4">
-        <v>916988</v>
+        <v>916986</v>
       </c>
       <c r="AA4">
-        <v>908876</v>
+        <v>908881</v>
       </c>
       <c r="AB4">
-        <v>810344</v>
+        <v>810343</v>
       </c>
       <c r="AC4">
         <v>717631</v>
       </c>
       <c r="AD4">
-        <v>658708</v>
+        <v>658707</v>
       </c>
       <c r="AE4">
-        <v>544130</v>
+        <v>544132</v>
       </c>
       <c r="AF4">
-        <v>471547</v>
+        <v>471549</v>
       </c>
       <c r="AG4">
-        <v>349063</v>
+        <v>349062</v>
       </c>
       <c r="AH4">
-        <v>274360</v>
+        <v>274361</v>
       </c>
       <c r="AI4">
-        <v>197950</v>
+        <v>197947</v>
       </c>
       <c r="AJ4">
-        <v>128105</v>
+        <v>128108</v>
       </c>
       <c r="AK4">
         <v>155621</v>
@@ -2095,52 +2095,52 @@
         <v>473792</v>
       </c>
       <c r="AN4">
-        <v>644448</v>
+        <v>644447</v>
       </c>
       <c r="AO4">
-        <v>741700</v>
+        <v>741701</v>
       </c>
       <c r="AP4">
-        <v>728607</v>
+        <v>728601</v>
       </c>
       <c r="AQ4">
-        <v>890272</v>
+        <v>890275</v>
       </c>
       <c r="AR4">
-        <v>974399</v>
+        <v>974402</v>
       </c>
       <c r="AS4">
-        <v>975369</v>
+        <v>975367</v>
       </c>
       <c r="AT4">
-        <v>953867</v>
+        <v>953872</v>
       </c>
       <c r="AU4">
-        <v>845962</v>
+        <v>845961</v>
       </c>
       <c r="AV4">
         <v>749711</v>
       </c>
       <c r="AW4">
-        <v>688396</v>
+        <v>688395</v>
       </c>
       <c r="AX4">
-        <v>568133</v>
+        <v>568135</v>
       </c>
       <c r="AY4">
-        <v>490086</v>
+        <v>490088</v>
       </c>
       <c r="AZ4">
-        <v>362035</v>
+        <v>362034</v>
       </c>
       <c r="BA4">
-        <v>283677</v>
+        <v>283678</v>
       </c>
       <c r="BB4">
-        <v>204422</v>
+        <v>204419</v>
       </c>
       <c r="BC4">
-        <v>132495</v>
+        <v>132498</v>
       </c>
       <c r="BD4">
         <v>160985</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>825359</v>
+        <v>826952</v>
       </c>
       <c r="C5">
-        <v>298141</v>
+        <v>298612</v>
       </c>
       <c r="D5">
-        <v>153543</v>
+        <v>153770</v>
       </c>
       <c r="E5">
-        <v>132140</v>
+        <v>132540</v>
       </c>
       <c r="F5">
         <v>93149</v>
       </c>
       <c r="G5">
-        <v>88860</v>
+        <v>89113</v>
       </c>
       <c r="H5">
-        <v>30587</v>
+        <v>30741</v>
       </c>
       <c r="I5">
-        <v>22596</v>
+        <v>22668</v>
       </c>
       <c r="J5">
-        <v>6343</v>
+        <v>6359</v>
       </c>
       <c r="K5">
-        <v>11711292</v>
+        <v>11712890</v>
       </c>
       <c r="L5">
-        <v>3951535</v>
+        <v>3952006</v>
       </c>
       <c r="M5">
-        <v>2995025</v>
+        <v>2995253</v>
       </c>
       <c r="N5">
-        <v>1752006</v>
+        <v>1752406</v>
       </c>
       <c r="O5">
-        <v>1383018</v>
+        <v>1383019</v>
       </c>
       <c r="P5">
-        <v>956335</v>
+        <v>956591</v>
       </c>
       <c r="Q5">
-        <v>312130</v>
+        <v>312284</v>
       </c>
       <c r="R5">
-        <v>250933</v>
+        <v>251005</v>
       </c>
       <c r="S5">
-        <v>110310</v>
+        <v>110326</v>
       </c>
       <c r="T5">
-        <v>29407</v>
+        <v>29469</v>
       </c>
       <c r="U5">
-        <v>23740</v>
+        <v>23757</v>
       </c>
       <c r="V5">
-        <v>32102</v>
+        <v>32121</v>
       </c>
       <c r="W5">
-        <v>31551</v>
+        <v>31588</v>
       </c>
       <c r="X5">
-        <v>40456</v>
+        <v>40515</v>
       </c>
       <c r="Y5">
-        <v>52311</v>
+        <v>52389</v>
       </c>
       <c r="Z5">
-        <v>59254</v>
+        <v>59341</v>
       </c>
       <c r="AA5">
-        <v>65415</v>
+        <v>65505</v>
       </c>
       <c r="AB5">
-        <v>62940</v>
+        <v>63027</v>
       </c>
       <c r="AC5">
-        <v>57884</v>
+        <v>57962</v>
       </c>
       <c r="AD5">
-        <v>59135</v>
+        <v>59228</v>
       </c>
       <c r="AE5">
-        <v>54267</v>
+        <v>54337</v>
       </c>
       <c r="AF5">
-        <v>53322</v>
+        <v>53398</v>
       </c>
       <c r="AG5">
-        <v>45681</v>
+        <v>45741</v>
       </c>
       <c r="AH5">
-        <v>41775</v>
+        <v>41845</v>
       </c>
       <c r="AI5">
-        <v>36559</v>
+        <v>36625</v>
       </c>
       <c r="AJ5">
-        <v>29492</v>
+        <v>29553</v>
       </c>
       <c r="AK5">
-        <v>49475</v>
+        <v>49557</v>
       </c>
       <c r="AL5">
-        <v>593</v>
+        <v>994</v>
       </c>
       <c r="AM5">
-        <v>503199</v>
+        <v>503261</v>
       </c>
       <c r="AN5">
-        <v>668188</v>
+        <v>668204</v>
       </c>
       <c r="AO5">
-        <v>773802</v>
+        <v>773822</v>
       </c>
       <c r="AP5">
-        <v>760158</v>
+        <v>760189</v>
       </c>
       <c r="AQ5">
-        <v>930728</v>
+        <v>930790</v>
       </c>
       <c r="AR5">
-        <v>1026710</v>
+        <v>1026791</v>
       </c>
       <c r="AS5">
-        <v>1034623</v>
+        <v>1034708</v>
       </c>
       <c r="AT5">
-        <v>1019282</v>
+        <v>1019377</v>
       </c>
       <c r="AU5">
-        <v>908902</v>
+        <v>908988</v>
       </c>
       <c r="AV5">
-        <v>807595</v>
+        <v>807673</v>
       </c>
       <c r="AW5">
-        <v>747531</v>
+        <v>747623</v>
       </c>
       <c r="AX5">
-        <v>622400</v>
+        <v>622472</v>
       </c>
       <c r="AY5">
-        <v>543408</v>
+        <v>543486</v>
       </c>
       <c r="AZ5">
-        <v>407716</v>
+        <v>407775</v>
       </c>
       <c r="BA5">
-        <v>325452</v>
+        <v>325523</v>
       </c>
       <c r="BB5">
-        <v>240981</v>
+        <v>241044</v>
       </c>
       <c r="BC5">
-        <v>161987</v>
+        <v>162051</v>
       </c>
       <c r="BD5">
-        <v>210460</v>
+        <v>210542</v>
       </c>
       <c r="BE5">
-        <v>18170</v>
+        <v>18571</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687546</v>
+        <v>687547</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065233</v>
+        <v>3065234</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153664</v>
+        <v>153665</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366779</v>
+        <v>1366780</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3949,7 +3949,7 @@
         <v>196225</v>
       </c>
       <c r="F28" s="3">
-        <v>179287</v>
+        <v>179288</v>
       </c>
       <c r="G28" s="3">
         <v>120496</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432012</v>
+        <v>4432014</v>
       </c>
       <c r="L28" s="3">
         <v>1689283</v>
@@ -3976,10 +3976,10 @@
         <v>742284</v>
       </c>
       <c r="O28" s="3">
-        <v>193321</v>
+        <v>193322</v>
       </c>
       <c r="P28" s="3">
-        <v>274160</v>
+        <v>274161</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,13 +3996,13 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339879</v>
+        <v>1339882</v>
       </c>
       <c r="C29" s="3">
         <v>432381</v>
       </c>
       <c r="D29" s="3">
-        <v>274952</v>
+        <v>274953</v>
       </c>
       <c r="E29" s="3">
         <v>201082</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139820</v>
+        <v>139822</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,22 +4023,22 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771891</v>
+        <v>5771896</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
       </c>
       <c r="M29" s="3">
-        <v>1584974</v>
+        <v>1584975</v>
       </c>
       <c r="N29" s="3">
         <v>943366</v>
       </c>
       <c r="O29" s="3">
-        <v>400164</v>
+        <v>400165</v>
       </c>
       <c r="P29" s="3">
-        <v>413980</v>
+        <v>413983</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,22 +4082,22 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082260</v>
+        <v>7082265</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
       </c>
       <c r="M30" s="3">
-        <v>1918283</v>
+        <v>1918284</v>
       </c>
       <c r="N30" s="3">
         <v>1096296</v>
       </c>
       <c r="O30" s="3">
-        <v>754252</v>
+        <v>754253</v>
       </c>
       <c r="P30" s="3">
-        <v>522118</v>
+        <v>522121</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,22 +4141,22 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966558</v>
+        <v>7966563</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
       </c>
       <c r="M31" s="3">
-        <v>2133369</v>
+        <v>2133370</v>
       </c>
       <c r="N31" s="3">
         <v>1213311</v>
       </c>
       <c r="O31" s="3">
-        <v>936891</v>
+        <v>936892</v>
       </c>
       <c r="P31" s="3">
-        <v>599437</v>
+        <v>599440</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,22 +4200,22 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216903</v>
+        <v>9216908</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
       </c>
       <c r="M32" s="3">
-        <v>2445486</v>
+        <v>2445487</v>
       </c>
       <c r="N32" s="3">
         <v>1410768</v>
       </c>
       <c r="O32" s="3">
-        <v>1095155</v>
+        <v>1095156</v>
       </c>
       <c r="P32" s="3">
-        <v>716837</v>
+        <v>716840</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,22 +4259,22 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771763</v>
+        <v>9771768</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
       </c>
       <c r="M33" s="3">
-        <v>2570916</v>
+        <v>2570917</v>
       </c>
       <c r="N33" s="3">
         <v>1482129</v>
       </c>
       <c r="O33" s="3">
-        <v>1154226</v>
+        <v>1154227</v>
       </c>
       <c r="P33" s="3">
-        <v>757348</v>
+        <v>757351</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,22 +4318,22 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966017</v>
+        <v>9966022</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
       </c>
       <c r="M34" s="3">
-        <v>2617585</v>
+        <v>2617586</v>
       </c>
       <c r="N34" s="3">
         <v>1512402</v>
       </c>
       <c r="O34" s="3">
-        <v>1178498</v>
+        <v>1178499</v>
       </c>
       <c r="P34" s="3">
-        <v>772632</v>
+        <v>772635</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,22 +4377,22 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108122</v>
+        <v>10108127</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
       </c>
       <c r="M35" s="3">
-        <v>2653979</v>
+        <v>2653980</v>
       </c>
       <c r="N35" s="3">
         <v>1529139</v>
       </c>
       <c r="O35" s="3">
-        <v>1201924</v>
+        <v>1201925</v>
       </c>
       <c r="P35" s="3">
-        <v>785807</v>
+        <v>785810</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,22 +4436,22 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460066</v>
+        <v>10460071</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
       </c>
       <c r="M36" s="3">
-        <v>2746876</v>
+        <v>2746877</v>
       </c>
       <c r="N36" s="3">
         <v>1565585</v>
       </c>
       <c r="O36" s="3">
-        <v>1244558</v>
+        <v>1244559</v>
       </c>
       <c r="P36" s="3">
-        <v>822970</v>
+        <v>822973</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,22 +4495,22 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885933</v>
+        <v>10885938</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
       </c>
       <c r="M37" s="3">
-        <v>2841482</v>
+        <v>2841483</v>
       </c>
       <c r="N37" s="3">
         <v>1619866</v>
       </c>
       <c r="O37" s="3">
-        <v>1289869</v>
+        <v>1289870</v>
       </c>
       <c r="P37" s="3">
-        <v>867475</v>
+        <v>867478</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,22 +4554,22 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016015</v>
+        <v>11016020</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
       </c>
       <c r="M38" s="3">
-        <v>2864586</v>
+        <v>2864587</v>
       </c>
       <c r="N38" s="3">
         <v>1643979</v>
       </c>
       <c r="O38" s="3">
-        <v>1306725</v>
+        <v>1306726</v>
       </c>
       <c r="P38" s="3">
-        <v>879365</v>
+        <v>879368</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,22 +4613,22 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088004</v>
+        <v>11088009</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
       </c>
       <c r="M39" s="3">
-        <v>2876975</v>
+        <v>2876976</v>
       </c>
       <c r="N39" s="3">
         <v>1658279</v>
       </c>
       <c r="O39" s="3">
-        <v>1315597</v>
+        <v>1315598</v>
       </c>
       <c r="P39" s="3">
-        <v>886218</v>
+        <v>886221</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,22 +4672,22 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191983</v>
+        <v>11191988</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
       </c>
       <c r="M40" s="3">
-        <v>2896212</v>
+        <v>2896213</v>
       </c>
       <c r="N40" s="3">
         <v>1673734</v>
       </c>
       <c r="O40" s="3">
-        <v>1328559</v>
+        <v>1328560</v>
       </c>
       <c r="P40" s="3">
-        <v>897718</v>
+        <v>897721</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,22 +4731,22 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315149</v>
+        <v>11315154</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
       </c>
       <c r="M41" s="3">
-        <v>2922019</v>
+        <v>2922020</v>
       </c>
       <c r="N41" s="3">
         <v>1689644</v>
       </c>
       <c r="O41" s="3">
-        <v>1342946</v>
+        <v>1342947</v>
       </c>
       <c r="P41" s="3">
-        <v>910047</v>
+        <v>910050</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,22 +4790,22 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481400</v>
+        <v>11481405</v>
       </c>
       <c r="L42" s="3">
         <v>3872846</v>
       </c>
       <c r="M42" s="3">
-        <v>2960395</v>
+        <v>2960396</v>
       </c>
       <c r="N42" s="3">
         <v>1711954</v>
       </c>
       <c r="O42" s="3">
-        <v>1361034</v>
+        <v>1361035</v>
       </c>
       <c r="P42" s="3">
-        <v>924960</v>
+        <v>924963</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,22 +4849,22 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559201</v>
+        <v>11559206</v>
       </c>
       <c r="L43" s="3">
         <v>3901028</v>
       </c>
       <c r="M43" s="3">
-        <v>2975163</v>
+        <v>2975164</v>
       </c>
       <c r="N43" s="3">
         <v>1726204</v>
       </c>
       <c r="O43" s="3">
-        <v>1369452</v>
+        <v>1369453</v>
       </c>
       <c r="P43" s="3">
-        <v>932174</v>
+        <v>932177</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,22 +4908,22 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587401</v>
+        <v>11587406</v>
       </c>
       <c r="L44" s="3">
         <v>3911313</v>
       </c>
       <c r="M44" s="3">
-        <v>2977219</v>
+        <v>2977220</v>
       </c>
       <c r="N44" s="3">
         <v>1733152</v>
       </c>
       <c r="O44" s="3">
-        <v>1373104</v>
+        <v>1373105</v>
       </c>
       <c r="P44" s="3">
-        <v>935103</v>
+        <v>935106</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,22 +4967,22 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610819</v>
+        <v>11610824</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
       </c>
       <c r="M45" s="3">
-        <v>2979332</v>
+        <v>2979333</v>
       </c>
       <c r="N45" s="3">
         <v>1737690</v>
       </c>
       <c r="O45" s="3">
-        <v>1376102</v>
+        <v>1376103</v>
       </c>
       <c r="P45" s="3">
-        <v>937552</v>
+        <v>937555</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,22 +5026,22 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632924</v>
+        <v>11632929</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
       </c>
       <c r="M46" s="3">
-        <v>2982571</v>
+        <v>2982572</v>
       </c>
       <c r="N46" s="3">
         <v>1739713</v>
       </c>
       <c r="O46" s="3">
-        <v>1378660</v>
+        <v>1378661</v>
       </c>
       <c r="P46" s="3">
-        <v>940585</v>
+        <v>940588</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5058,7 +5058,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27902</v>
+        <v>27903</v>
       </c>
       <c r="C47" s="3">
         <v>7713</v>
@@ -5082,25 +5082,25 @@
         <v>1491</v>
       </c>
       <c r="J47" s="3">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660826</v>
+        <v>11660832</v>
       </c>
       <c r="L47" s="3">
         <v>3937124</v>
       </c>
       <c r="M47" s="3">
-        <v>2988176</v>
+        <v>2988177</v>
       </c>
       <c r="N47" s="3">
         <v>1743415</v>
       </c>
       <c r="O47" s="3">
-        <v>1380658</v>
+        <v>1380659</v>
       </c>
       <c r="P47" s="3">
-        <v>945662</v>
+        <v>945665</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5109,7 +5109,7 @@
         <v>248556</v>
       </c>
       <c r="S47" s="3">
-        <v>109714</v>
+        <v>109715</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -5117,7 +5117,7 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43781</v>
+        <v>43824</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
@@ -5132,43 +5132,43 @@
         <v>2178</v>
       </c>
       <c r="G48" s="3">
-        <v>9322</v>
+        <v>9326</v>
       </c>
       <c r="H48" s="3">
-        <v>4094</v>
+        <v>4131</v>
       </c>
       <c r="I48" s="3">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="J48" s="3">
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704607</v>
+        <v>11704656</v>
       </c>
       <c r="L48" s="3">
         <v>3949410</v>
       </c>
       <c r="M48" s="3">
-        <v>2994262</v>
+        <v>2994263</v>
       </c>
       <c r="N48" s="3">
         <v>1750513</v>
       </c>
       <c r="O48" s="3">
-        <v>1382836</v>
+        <v>1382837</v>
       </c>
       <c r="P48" s="3">
-        <v>954984</v>
+        <v>954991</v>
       </c>
       <c r="Q48" s="3">
-        <v>311615</v>
+        <v>311652</v>
       </c>
       <c r="R48" s="3">
-        <v>250727</v>
+        <v>250729</v>
       </c>
       <c r="S48" s="3">
-        <v>110260</v>
+        <v>110261</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>6685</v>
+        <v>8234</v>
       </c>
       <c r="C49">
-        <v>2125</v>
+        <v>2596</v>
       </c>
       <c r="D49">
-        <v>763</v>
+        <v>990</v>
       </c>
       <c r="E49">
-        <v>1493</v>
+        <v>1893</v>
       </c>
       <c r="F49">
         <v>182</v>
       </c>
       <c r="G49">
-        <v>1351</v>
+        <v>1600</v>
       </c>
       <c r="H49">
-        <v>515</v>
+        <v>632</v>
       </c>
       <c r="I49">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="J49">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>11711292</v>
+        <v>11712890</v>
       </c>
       <c r="L49">
-        <v>3951535</v>
+        <v>3952006</v>
       </c>
       <c r="M49">
-        <v>2995025</v>
+        <v>2995253</v>
       </c>
       <c r="N49">
-        <v>1752006</v>
+        <v>1752406</v>
       </c>
       <c r="O49">
-        <v>1383018</v>
+        <v>1383019</v>
       </c>
       <c r="P49">
-        <v>956335</v>
+        <v>956591</v>
       </c>
       <c r="Q49">
-        <v>312130</v>
+        <v>312284</v>
       </c>
       <c r="R49">
-        <v>250933</v>
+        <v>251005</v>
       </c>
       <c r="S49">
-        <v>110310</v>
+        <v>110326</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM29"/>
+  <dimension ref="A1:IM30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23915,6 +23915,749 @@
       </c>
       <c r="IM29">
         <v>13482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B30">
+        <v>1598</v>
+      </c>
+      <c r="C30">
+        <v>471</v>
+      </c>
+      <c r="D30">
+        <v>228</v>
+      </c>
+      <c r="E30">
+        <v>400</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>256</v>
+      </c>
+      <c r="H30">
+        <v>154</v>
+      </c>
+      <c r="I30">
+        <v>72</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <v>11712890</v>
+      </c>
+      <c r="L30">
+        <v>3952006</v>
+      </c>
+      <c r="M30">
+        <v>2995253</v>
+      </c>
+      <c r="N30">
+        <v>1752406</v>
+      </c>
+      <c r="O30">
+        <v>1383019</v>
+      </c>
+      <c r="P30">
+        <v>956591</v>
+      </c>
+      <c r="Q30">
+        <v>312284</v>
+      </c>
+      <c r="R30">
+        <v>251005</v>
+      </c>
+      <c r="S30">
+        <v>110326</v>
+      </c>
+      <c r="T30">
+        <v>62</v>
+      </c>
+      <c r="U30">
+        <v>16</v>
+      </c>
+      <c r="V30">
+        <v>20</v>
+      </c>
+      <c r="W30">
+        <v>31</v>
+      </c>
+      <c r="X30">
+        <v>62</v>
+      </c>
+      <c r="Y30">
+        <v>81</v>
+      </c>
+      <c r="Z30">
+        <v>85</v>
+      </c>
+      <c r="AA30">
+        <v>95</v>
+      </c>
+      <c r="AB30">
+        <v>86</v>
+      </c>
+      <c r="AC30">
+        <v>78</v>
+      </c>
+      <c r="AD30">
+        <v>92</v>
+      </c>
+      <c r="AE30">
+        <v>72</v>
+      </c>
+      <c r="AF30">
+        <v>78</v>
+      </c>
+      <c r="AG30">
+        <v>59</v>
+      </c>
+      <c r="AH30">
+        <v>71</v>
+      </c>
+      <c r="AI30">
+        <v>63</v>
+      </c>
+      <c r="AJ30">
+        <v>64</v>
+      </c>
+      <c r="AK30">
+        <v>82</v>
+      </c>
+      <c r="AL30">
+        <v>401</v>
+      </c>
+      <c r="AM30">
+        <v>503261</v>
+      </c>
+      <c r="AN30">
+        <v>668204</v>
+      </c>
+      <c r="AO30">
+        <v>773822</v>
+      </c>
+      <c r="AP30">
+        <v>760189</v>
+      </c>
+      <c r="AQ30">
+        <v>930790</v>
+      </c>
+      <c r="AR30">
+        <v>1026791</v>
+      </c>
+      <c r="AS30">
+        <v>1034708</v>
+      </c>
+      <c r="AT30">
+        <v>1019377</v>
+      </c>
+      <c r="AU30">
+        <v>908988</v>
+      </c>
+      <c r="AV30">
+        <v>807673</v>
+      </c>
+      <c r="AW30">
+        <v>747623</v>
+      </c>
+      <c r="AX30">
+        <v>622472</v>
+      </c>
+      <c r="AY30">
+        <v>543486</v>
+      </c>
+      <c r="AZ30">
+        <v>407775</v>
+      </c>
+      <c r="BA30">
+        <v>325523</v>
+      </c>
+      <c r="BB30">
+        <v>241044</v>
+      </c>
+      <c r="BC30">
+        <v>162051</v>
+      </c>
+      <c r="BD30">
+        <v>210542</v>
+      </c>
+      <c r="BE30">
+        <v>18571</v>
+      </c>
+      <c r="BF30">
+        <v>33</v>
+      </c>
+      <c r="BG30">
+        <v>28</v>
+      </c>
+      <c r="BH30">
+        <v>1</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>10</v>
+      </c>
+      <c r="BL30">
+        <v>6</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>13</v>
+      </c>
+      <c r="BQ30">
+        <v>7</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
+        <v>0</v>
+      </c>
+      <c r="BU30">
+        <v>19</v>
+      </c>
+      <c r="BV30">
+        <v>12</v>
+      </c>
+      <c r="BW30">
+        <v>0</v>
+      </c>
+      <c r="BX30">
+        <v>0</v>
+      </c>
+      <c r="BY30">
+        <v>0</v>
+      </c>
+      <c r="BZ30">
+        <v>22</v>
+      </c>
+      <c r="CA30">
+        <v>40</v>
+      </c>
+      <c r="CB30">
+        <v>0</v>
+      </c>
+      <c r="CC30">
+        <v>0</v>
+      </c>
+      <c r="CD30">
+        <v>0</v>
+      </c>
+      <c r="CE30">
+        <v>26</v>
+      </c>
+      <c r="CF30">
+        <v>54</v>
+      </c>
+      <c r="CG30">
+        <v>1</v>
+      </c>
+      <c r="CH30">
+        <v>0</v>
+      </c>
+      <c r="CI30">
+        <v>0</v>
+      </c>
+      <c r="CJ30">
+        <v>35</v>
+      </c>
+      <c r="CK30">
+        <v>51</v>
+      </c>
+      <c r="CL30">
+        <v>0</v>
+      </c>
+      <c r="CM30">
+        <v>-1</v>
+      </c>
+      <c r="CN30">
+        <v>0</v>
+      </c>
+      <c r="CO30">
+        <v>38</v>
+      </c>
+      <c r="CP30">
+        <v>57</v>
+      </c>
+      <c r="CQ30">
+        <v>0</v>
+      </c>
+      <c r="CR30">
+        <v>0</v>
+      </c>
+      <c r="CS30">
+        <v>0</v>
+      </c>
+      <c r="CT30">
+        <v>28</v>
+      </c>
+      <c r="CU30">
+        <v>58</v>
+      </c>
+      <c r="CV30">
+        <v>0</v>
+      </c>
+      <c r="CW30">
+        <v>0</v>
+      </c>
+      <c r="CX30">
+        <v>0</v>
+      </c>
+      <c r="CY30">
+        <v>31</v>
+      </c>
+      <c r="CZ30">
+        <v>47</v>
+      </c>
+      <c r="DA30">
+        <v>0</v>
+      </c>
+      <c r="DB30">
+        <v>0</v>
+      </c>
+      <c r="DC30">
+        <v>0</v>
+      </c>
+      <c r="DD30">
+        <v>39</v>
+      </c>
+      <c r="DE30">
+        <v>52</v>
+      </c>
+      <c r="DF30">
+        <v>0</v>
+      </c>
+      <c r="DG30">
+        <v>1</v>
+      </c>
+      <c r="DH30">
+        <v>0</v>
+      </c>
+      <c r="DI30">
+        <v>31</v>
+      </c>
+      <c r="DJ30">
+        <v>41</v>
+      </c>
+      <c r="DK30">
+        <v>0</v>
+      </c>
+      <c r="DL30">
+        <v>0</v>
+      </c>
+      <c r="DM30">
+        <v>0</v>
+      </c>
+      <c r="DN30">
+        <v>37</v>
+      </c>
+      <c r="DO30">
+        <v>41</v>
+      </c>
+      <c r="DP30">
+        <v>0</v>
+      </c>
+      <c r="DQ30">
+        <v>0</v>
+      </c>
+      <c r="DR30">
+        <v>0</v>
+      </c>
+      <c r="DS30">
+        <v>24</v>
+      </c>
+      <c r="DT30">
+        <v>35</v>
+      </c>
+      <c r="DU30">
+        <v>0</v>
+      </c>
+      <c r="DV30">
+        <v>0</v>
+      </c>
+      <c r="DW30">
+        <v>0</v>
+      </c>
+      <c r="DX30">
+        <v>35</v>
+      </c>
+      <c r="DY30">
+        <v>37</v>
+      </c>
+      <c r="DZ30">
+        <v>0</v>
+      </c>
+      <c r="EA30">
+        <v>-1</v>
+      </c>
+      <c r="EB30">
+        <v>0</v>
+      </c>
+      <c r="EC30">
+        <v>27</v>
+      </c>
+      <c r="ED30">
+        <v>36</v>
+      </c>
+      <c r="EE30">
+        <v>0</v>
+      </c>
+      <c r="EF30">
+        <v>0</v>
+      </c>
+      <c r="EG30">
+        <v>0</v>
+      </c>
+      <c r="EH30">
+        <v>24</v>
+      </c>
+      <c r="EI30">
+        <v>40</v>
+      </c>
+      <c r="EJ30">
+        <v>0</v>
+      </c>
+      <c r="EK30">
+        <v>0</v>
+      </c>
+      <c r="EL30">
+        <v>0</v>
+      </c>
+      <c r="EM30">
+        <v>27</v>
+      </c>
+      <c r="EN30">
+        <v>55</v>
+      </c>
+      <c r="EO30">
+        <v>0</v>
+      </c>
+      <c r="EP30">
+        <v>0</v>
+      </c>
+      <c r="EQ30">
+        <v>0</v>
+      </c>
+      <c r="ER30">
+        <v>0</v>
+      </c>
+      <c r="ES30">
+        <v>0</v>
+      </c>
+      <c r="ET30">
+        <v>1</v>
+      </c>
+      <c r="EU30">
+        <v>0</v>
+      </c>
+      <c r="EV30">
+        <v>400</v>
+      </c>
+      <c r="EW30">
+        <v>231754</v>
+      </c>
+      <c r="EX30">
+        <v>219997</v>
+      </c>
+      <c r="EY30">
+        <v>410</v>
+      </c>
+      <c r="EZ30">
+        <v>15452</v>
+      </c>
+      <c r="FA30">
+        <v>35648</v>
+      </c>
+      <c r="FB30">
+        <v>308151</v>
+      </c>
+      <c r="FC30">
+        <v>292784</v>
+      </c>
+      <c r="FD30">
+        <v>466</v>
+      </c>
+      <c r="FE30">
+        <v>16770</v>
+      </c>
+      <c r="FF30">
+        <v>50033</v>
+      </c>
+      <c r="FG30">
+        <v>353404</v>
+      </c>
+      <c r="FH30">
+        <v>342749</v>
+      </c>
+      <c r="FI30">
+        <v>633</v>
+      </c>
+      <c r="FJ30">
+        <v>16953</v>
+      </c>
+      <c r="FK30">
+        <v>60083</v>
+      </c>
+      <c r="FL30">
+        <v>326495</v>
+      </c>
+      <c r="FM30">
+        <v>374042</v>
+      </c>
+      <c r="FN30">
+        <v>896</v>
+      </c>
+      <c r="FO30">
+        <v>12935</v>
+      </c>
+      <c r="FP30">
+        <v>45821</v>
+      </c>
+      <c r="FQ30">
+        <v>392166</v>
+      </c>
+      <c r="FR30">
+        <v>479829</v>
+      </c>
+      <c r="FS30">
+        <v>1100</v>
+      </c>
+      <c r="FT30">
+        <v>16279</v>
+      </c>
+      <c r="FU30">
+        <v>41416</v>
+      </c>
+      <c r="FV30">
+        <v>433997</v>
+      </c>
+      <c r="FW30">
+        <v>526360</v>
+      </c>
+      <c r="FX30">
+        <v>1138</v>
+      </c>
+      <c r="FY30">
+        <v>17785</v>
+      </c>
+      <c r="FZ30">
+        <v>47511</v>
+      </c>
+      <c r="GA30">
+        <v>429371</v>
+      </c>
+      <c r="GB30">
+        <v>532427</v>
+      </c>
+      <c r="GC30">
+        <v>922</v>
+      </c>
+      <c r="GD30">
+        <v>17167</v>
+      </c>
+      <c r="GE30">
+        <v>54821</v>
+      </c>
+      <c r="GF30">
+        <v>419917</v>
+      </c>
+      <c r="GG30">
+        <v>524939</v>
+      </c>
+      <c r="GH30">
+        <v>664</v>
+      </c>
+      <c r="GI30">
+        <v>15031</v>
+      </c>
+      <c r="GJ30">
+        <v>58826</v>
+      </c>
+      <c r="GK30">
+        <v>373755</v>
+      </c>
+      <c r="GL30">
+        <v>469228</v>
+      </c>
+      <c r="GM30">
+        <v>498</v>
+      </c>
+      <c r="GN30">
+        <v>12344</v>
+      </c>
+      <c r="GO30">
+        <v>53163</v>
+      </c>
+      <c r="GP30">
+        <v>330484</v>
+      </c>
+      <c r="GQ30">
+        <v>421303</v>
+      </c>
+      <c r="GR30">
+        <v>439</v>
+      </c>
+      <c r="GS30">
+        <v>10126</v>
+      </c>
+      <c r="GT30">
+        <v>45321</v>
+      </c>
+      <c r="GU30">
+        <v>308315</v>
+      </c>
+      <c r="GV30">
+        <v>389696</v>
+      </c>
+      <c r="GW30">
+        <v>399</v>
+      </c>
+      <c r="GX30">
+        <v>8951</v>
+      </c>
+      <c r="GY30">
+        <v>40262</v>
+      </c>
+      <c r="GZ30">
+        <v>263708</v>
+      </c>
+      <c r="HA30">
+        <v>320082</v>
+      </c>
+      <c r="HB30">
+        <v>328</v>
+      </c>
+      <c r="HC30">
+        <v>6606</v>
+      </c>
+      <c r="HD30">
+        <v>31748</v>
+      </c>
+      <c r="HE30">
+        <v>234629</v>
+      </c>
+      <c r="HF30">
+        <v>277349</v>
+      </c>
+      <c r="HG30">
+        <v>234</v>
+      </c>
+      <c r="HH30">
+        <v>5315</v>
+      </c>
+      <c r="HI30">
+        <v>25959</v>
+      </c>
+      <c r="HJ30">
+        <v>180964</v>
+      </c>
+      <c r="HK30">
+        <v>204439</v>
+      </c>
+      <c r="HL30">
+        <v>199</v>
+      </c>
+      <c r="HM30">
+        <v>3651</v>
+      </c>
+      <c r="HN30">
+        <v>18522</v>
+      </c>
+      <c r="HO30">
+        <v>151820</v>
+      </c>
+      <c r="HP30">
+        <v>158523</v>
+      </c>
+      <c r="HQ30">
+        <v>163</v>
+      </c>
+      <c r="HR30">
+        <v>2668</v>
+      </c>
+      <c r="HS30">
+        <v>12349</v>
+      </c>
+      <c r="HT30">
+        <v>116161</v>
+      </c>
+      <c r="HU30">
+        <v>115025</v>
+      </c>
+      <c r="HV30">
+        <v>164</v>
+      </c>
+      <c r="HW30">
+        <v>1883</v>
+      </c>
+      <c r="HX30">
+        <v>7811</v>
+      </c>
+      <c r="HY30">
+        <v>76165</v>
+      </c>
+      <c r="HZ30">
+        <v>79948</v>
+      </c>
+      <c r="IA30">
+        <v>131</v>
+      </c>
+      <c r="IB30">
+        <v>1276</v>
+      </c>
+      <c r="IC30">
+        <v>4531</v>
+      </c>
+      <c r="ID30">
+        <v>81530</v>
+      </c>
+      <c r="IE30">
+        <v>122605</v>
+      </c>
+      <c r="IF30">
+        <v>306</v>
+      </c>
+      <c r="IG30">
+        <v>2261</v>
+      </c>
+      <c r="IH30">
+        <v>3840</v>
+      </c>
+      <c r="II30">
+        <v>2153</v>
+      </c>
+      <c r="IJ30">
+        <v>2310</v>
+      </c>
+      <c r="IK30">
+        <v>25</v>
+      </c>
+      <c r="IL30">
+        <v>201</v>
+      </c>
+      <c r="IM30">
+        <v>13882</v>
       </c>
     </row>
   </sheetData>
@@ -23941,7 +24684,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45267</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1062E627-8A40-453F-99AF-6ACE2A384F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFAF871-74BF-4337-8AA5-C55CCE428422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1880,10 +1880,10 @@
         <v>70914</v>
       </c>
       <c r="Z3">
-        <v>55518</v>
+        <v>55517</v>
       </c>
       <c r="AA3">
-        <v>42726</v>
+        <v>42727</v>
       </c>
       <c r="AB3">
         <v>33829</v>
@@ -1937,10 +1937,10 @@
         <v>74444</v>
       </c>
       <c r="AS3">
-        <v>58381</v>
+        <v>58380</v>
       </c>
       <c r="AT3">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="AU3">
         <v>35618</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317869</v>
+        <v>10317870</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1990,13 +1990,13 @@
         <v>2621355</v>
       </c>
       <c r="E4">
-        <v>1586955</v>
+        <v>1586953</v>
       </c>
       <c r="F4">
-        <v>1288504</v>
+        <v>1288505</v>
       </c>
       <c r="G4">
-        <v>848317</v>
+        <v>848319</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885938</v>
+        <v>10885939</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2017,13 +2017,13 @@
         <v>2841483</v>
       </c>
       <c r="N4">
-        <v>1619866</v>
+        <v>1619864</v>
       </c>
       <c r="O4">
-        <v>1289870</v>
+        <v>1289871</v>
       </c>
       <c r="P4">
-        <v>867478</v>
+        <v>867480</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,52 +2038,52 @@
         <v>450542</v>
       </c>
       <c r="U4">
-        <v>611248</v>
+        <v>611247</v>
       </c>
       <c r="V4">
-        <v>710187</v>
+        <v>710188</v>
       </c>
       <c r="W4">
-        <v>683354</v>
+        <v>683355</v>
       </c>
       <c r="X4">
-        <v>812048</v>
+        <v>812045</v>
       </c>
       <c r="Y4">
         <v>899958</v>
       </c>
       <c r="Z4">
-        <v>916986</v>
+        <v>916981</v>
       </c>
       <c r="AA4">
-        <v>908881</v>
+        <v>908887</v>
       </c>
       <c r="AB4">
-        <v>810343</v>
+        <v>810342</v>
       </c>
       <c r="AC4">
-        <v>717631</v>
+        <v>717633</v>
       </c>
       <c r="AD4">
-        <v>658707</v>
+        <v>658705</v>
       </c>
       <c r="AE4">
-        <v>544132</v>
+        <v>544133</v>
       </c>
       <c r="AF4">
-        <v>471549</v>
+        <v>471547</v>
       </c>
       <c r="AG4">
-        <v>349062</v>
+        <v>349065</v>
       </c>
       <c r="AH4">
-        <v>274361</v>
+        <v>274362</v>
       </c>
       <c r="AI4">
-        <v>197947</v>
+        <v>197946</v>
       </c>
       <c r="AJ4">
-        <v>128108</v>
+        <v>128109</v>
       </c>
       <c r="AK4">
         <v>155621</v>
@@ -2095,52 +2095,52 @@
         <v>473792</v>
       </c>
       <c r="AN4">
-        <v>644447</v>
+        <v>644446</v>
       </c>
       <c r="AO4">
-        <v>741701</v>
+        <v>741702</v>
       </c>
       <c r="AP4">
-        <v>728601</v>
+        <v>728602</v>
       </c>
       <c r="AQ4">
-        <v>890275</v>
+        <v>890272</v>
       </c>
       <c r="AR4">
         <v>974402</v>
       </c>
       <c r="AS4">
-        <v>975367</v>
+        <v>975361</v>
       </c>
       <c r="AT4">
-        <v>953872</v>
+        <v>953879</v>
       </c>
       <c r="AU4">
-        <v>845961</v>
+        <v>845960</v>
       </c>
       <c r="AV4">
-        <v>749711</v>
+        <v>749713</v>
       </c>
       <c r="AW4">
-        <v>688395</v>
+        <v>688393</v>
       </c>
       <c r="AX4">
-        <v>568135</v>
+        <v>568136</v>
       </c>
       <c r="AY4">
-        <v>490088</v>
+        <v>490086</v>
       </c>
       <c r="AZ4">
-        <v>362034</v>
+        <v>362037</v>
       </c>
       <c r="BA4">
-        <v>283678</v>
+        <v>283679</v>
       </c>
       <c r="BB4">
-        <v>204419</v>
+        <v>204418</v>
       </c>
       <c r="BC4">
-        <v>132498</v>
+        <v>132499</v>
       </c>
       <c r="BD4">
         <v>160985</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>826952</v>
+        <v>827969</v>
       </c>
       <c r="C5">
         <v>298612</v>
       </c>
       <c r="D5">
-        <v>153770</v>
+        <v>153962</v>
       </c>
       <c r="E5">
-        <v>132540</v>
+        <v>132894</v>
       </c>
       <c r="F5">
         <v>93149</v>
       </c>
       <c r="G5">
-        <v>89113</v>
+        <v>89338</v>
       </c>
       <c r="H5">
-        <v>30741</v>
+        <v>30892</v>
       </c>
       <c r="I5">
-        <v>22668</v>
+        <v>22746</v>
       </c>
       <c r="J5">
-        <v>6359</v>
+        <v>6376</v>
       </c>
       <c r="K5">
-        <v>11712890</v>
+        <v>11713908</v>
       </c>
       <c r="L5">
         <v>3952006</v>
       </c>
       <c r="M5">
-        <v>2995253</v>
+        <v>2995445</v>
       </c>
       <c r="N5">
-        <v>1752406</v>
+        <v>1752758</v>
       </c>
       <c r="O5">
-        <v>1383019</v>
+        <v>1383020</v>
       </c>
       <c r="P5">
-        <v>956591</v>
+        <v>956818</v>
       </c>
       <c r="Q5">
-        <v>312284</v>
+        <v>312435</v>
       </c>
       <c r="R5">
-        <v>251005</v>
+        <v>251083</v>
       </c>
       <c r="S5">
-        <v>110326</v>
+        <v>110343</v>
       </c>
       <c r="T5">
-        <v>29469</v>
+        <v>29539</v>
       </c>
       <c r="U5">
-        <v>23757</v>
+        <v>23779</v>
       </c>
       <c r="V5">
-        <v>32121</v>
+        <v>32148</v>
       </c>
       <c r="W5">
-        <v>31588</v>
+        <v>31623</v>
       </c>
       <c r="X5">
-        <v>40515</v>
+        <v>40578</v>
       </c>
       <c r="Y5">
-        <v>52389</v>
+        <v>52465</v>
       </c>
       <c r="Z5">
-        <v>59341</v>
+        <v>59428</v>
       </c>
       <c r="AA5">
-        <v>65505</v>
+        <v>65579</v>
       </c>
       <c r="AB5">
-        <v>63027</v>
+        <v>63110</v>
       </c>
       <c r="AC5">
-        <v>57962</v>
+        <v>58044</v>
       </c>
       <c r="AD5">
-        <v>59228</v>
+        <v>59327</v>
       </c>
       <c r="AE5">
-        <v>54337</v>
+        <v>54429</v>
       </c>
       <c r="AF5">
-        <v>53398</v>
+        <v>53489</v>
       </c>
       <c r="AG5">
-        <v>45741</v>
+        <v>45831</v>
       </c>
       <c r="AH5">
-        <v>41845</v>
+        <v>41942</v>
       </c>
       <c r="AI5">
-        <v>36625</v>
+        <v>36716</v>
       </c>
       <c r="AJ5">
-        <v>29553</v>
+        <v>29641</v>
       </c>
       <c r="AK5">
-        <v>49557</v>
+        <v>49708</v>
       </c>
       <c r="AL5">
-        <v>994</v>
+        <v>593</v>
       </c>
       <c r="AM5">
-        <v>503261</v>
+        <v>503331</v>
       </c>
       <c r="AN5">
-        <v>668204</v>
+        <v>668225</v>
       </c>
       <c r="AO5">
-        <v>773822</v>
+        <v>773850</v>
       </c>
       <c r="AP5">
-        <v>760189</v>
+        <v>760225</v>
       </c>
       <c r="AQ5">
-        <v>930790</v>
+        <v>930850</v>
       </c>
       <c r="AR5">
-        <v>1026791</v>
+        <v>1026867</v>
       </c>
       <c r="AS5">
-        <v>1034708</v>
+        <v>1034789</v>
       </c>
       <c r="AT5">
-        <v>1019377</v>
+        <v>1019458</v>
       </c>
       <c r="AU5">
-        <v>908988</v>
+        <v>909070</v>
       </c>
       <c r="AV5">
-        <v>807673</v>
+        <v>807757</v>
       </c>
       <c r="AW5">
-        <v>747623</v>
+        <v>747720</v>
       </c>
       <c r="AX5">
-        <v>622472</v>
+        <v>622565</v>
       </c>
       <c r="AY5">
-        <v>543486</v>
+        <v>543575</v>
       </c>
       <c r="AZ5">
-        <v>407775</v>
+        <v>407868</v>
       </c>
       <c r="BA5">
-        <v>325523</v>
+        <v>325621</v>
       </c>
       <c r="BB5">
-        <v>241044</v>
+        <v>241134</v>
       </c>
       <c r="BC5">
-        <v>162051</v>
+        <v>162140</v>
       </c>
       <c r="BD5">
-        <v>210542</v>
+        <v>210693</v>
       </c>
       <c r="BE5">
-        <v>18571</v>
+        <v>18170</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687547</v>
+        <v>687548</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065234</v>
+        <v>3065235</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153665</v>
+        <v>153666</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366780</v>
+        <v>1366779</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3946,7 +3946,7 @@
         <v>250086</v>
       </c>
       <c r="E28" s="3">
-        <v>196225</v>
+        <v>196224</v>
       </c>
       <c r="F28" s="3">
         <v>179288</v>
@@ -3973,13 +3973,13 @@
         <v>1310022</v>
       </c>
       <c r="N28" s="3">
-        <v>742284</v>
+        <v>742283</v>
       </c>
       <c r="O28" s="3">
         <v>193322</v>
       </c>
       <c r="P28" s="3">
-        <v>274161</v>
+        <v>274162</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4005,13 +4005,13 @@
         <v>274953</v>
       </c>
       <c r="E29" s="3">
-        <v>201082</v>
+        <v>201081</v>
       </c>
       <c r="F29" s="3">
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139822</v>
+        <v>139823</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4032,13 +4032,13 @@
         <v>1584975</v>
       </c>
       <c r="N29" s="3">
-        <v>943366</v>
+        <v>943364</v>
       </c>
       <c r="O29" s="3">
         <v>400165</v>
       </c>
       <c r="P29" s="3">
-        <v>413983</v>
+        <v>413985</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4091,13 +4091,13 @@
         <v>1918284</v>
       </c>
       <c r="N30" s="3">
-        <v>1096296</v>
+        <v>1096294</v>
       </c>
       <c r="O30" s="3">
         <v>754253</v>
       </c>
       <c r="P30" s="3">
-        <v>522121</v>
+        <v>522123</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4150,13 +4150,13 @@
         <v>2133370</v>
       </c>
       <c r="N31" s="3">
-        <v>1213311</v>
+        <v>1213309</v>
       </c>
       <c r="O31" s="3">
         <v>936892</v>
       </c>
       <c r="P31" s="3">
-        <v>599440</v>
+        <v>599442</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4173,7 +4173,7 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250345</v>
+        <v>1250346</v>
       </c>
       <c r="C32" s="3">
         <v>378606</v>
@@ -4185,7 +4185,7 @@
         <v>197457</v>
       </c>
       <c r="F32" s="3">
-        <v>158264</v>
+        <v>158265</v>
       </c>
       <c r="G32" s="3">
         <v>117400</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216908</v>
+        <v>9216909</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4209,13 +4209,13 @@
         <v>2445487</v>
       </c>
       <c r="N32" s="3">
-        <v>1410768</v>
+        <v>1410766</v>
       </c>
       <c r="O32" s="3">
-        <v>1095156</v>
+        <v>1095157</v>
       </c>
       <c r="P32" s="3">
-        <v>716840</v>
+        <v>716842</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771768</v>
+        <v>9771769</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4268,13 +4268,13 @@
         <v>2570917</v>
       </c>
       <c r="N33" s="3">
-        <v>1482129</v>
+        <v>1482127</v>
       </c>
       <c r="O33" s="3">
-        <v>1154227</v>
+        <v>1154228</v>
       </c>
       <c r="P33" s="3">
-        <v>757351</v>
+        <v>757353</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966022</v>
+        <v>9966023</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4327,13 +4327,13 @@
         <v>2617586</v>
       </c>
       <c r="N34" s="3">
-        <v>1512402</v>
+        <v>1512400</v>
       </c>
       <c r="O34" s="3">
-        <v>1178499</v>
+        <v>1178500</v>
       </c>
       <c r="P34" s="3">
-        <v>772635</v>
+        <v>772637</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108127</v>
+        <v>10108128</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4386,13 +4386,13 @@
         <v>2653980</v>
       </c>
       <c r="N35" s="3">
-        <v>1529139</v>
+        <v>1529137</v>
       </c>
       <c r="O35" s="3">
-        <v>1201925</v>
+        <v>1201926</v>
       </c>
       <c r="P35" s="3">
-        <v>785810</v>
+        <v>785812</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460071</v>
+        <v>10460072</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4445,13 +4445,13 @@
         <v>2746877</v>
       </c>
       <c r="N36" s="3">
-        <v>1565585</v>
+        <v>1565583</v>
       </c>
       <c r="O36" s="3">
-        <v>1244559</v>
+        <v>1244560</v>
       </c>
       <c r="P36" s="3">
-        <v>822973</v>
+        <v>822975</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885938</v>
+        <v>10885939</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4504,13 +4504,13 @@
         <v>2841483</v>
       </c>
       <c r="N37" s="3">
-        <v>1619866</v>
+        <v>1619864</v>
       </c>
       <c r="O37" s="3">
-        <v>1289870</v>
+        <v>1289871</v>
       </c>
       <c r="P37" s="3">
-        <v>867478</v>
+        <v>867480</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4527,13 +4527,13 @@
         <v>44927</v>
       </c>
       <c r="B38" s="3">
-        <v>130082</v>
+        <v>130083</v>
       </c>
       <c r="C38" s="3">
         <v>45944</v>
       </c>
       <c r="D38" s="3">
-        <v>23104</v>
+        <v>23105</v>
       </c>
       <c r="E38" s="3">
         <v>24113</v>
@@ -4554,22 +4554,22 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016020</v>
+        <v>11016022</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
       </c>
       <c r="M38" s="3">
-        <v>2864587</v>
+        <v>2864588</v>
       </c>
       <c r="N38" s="3">
-        <v>1643979</v>
+        <v>1643977</v>
       </c>
       <c r="O38" s="3">
-        <v>1306726</v>
+        <v>1306727</v>
       </c>
       <c r="P38" s="3">
-        <v>879368</v>
+        <v>879370</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,22 +4613,22 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088009</v>
+        <v>11088011</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
       </c>
       <c r="M39" s="3">
-        <v>2876976</v>
+        <v>2876977</v>
       </c>
       <c r="N39" s="3">
-        <v>1658279</v>
+        <v>1658277</v>
       </c>
       <c r="O39" s="3">
-        <v>1315598</v>
+        <v>1315599</v>
       </c>
       <c r="P39" s="3">
-        <v>886221</v>
+        <v>886223</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,22 +4672,22 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191988</v>
+        <v>11191990</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
       </c>
       <c r="M40" s="3">
-        <v>2896213</v>
+        <v>2896214</v>
       </c>
       <c r="N40" s="3">
-        <v>1673734</v>
+        <v>1673732</v>
       </c>
       <c r="O40" s="3">
-        <v>1328560</v>
+        <v>1328561</v>
       </c>
       <c r="P40" s="3">
-        <v>897721</v>
+        <v>897723</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,22 +4731,22 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315154</v>
+        <v>11315156</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
       </c>
       <c r="M41" s="3">
-        <v>2922020</v>
+        <v>2922021</v>
       </c>
       <c r="N41" s="3">
-        <v>1689644</v>
+        <v>1689642</v>
       </c>
       <c r="O41" s="3">
-        <v>1342947</v>
+        <v>1342948</v>
       </c>
       <c r="P41" s="3">
-        <v>910050</v>
+        <v>910052</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,22 +4790,22 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481405</v>
+        <v>11481407</v>
       </c>
       <c r="L42" s="3">
         <v>3872846</v>
       </c>
       <c r="M42" s="3">
-        <v>2960396</v>
+        <v>2960397</v>
       </c>
       <c r="N42" s="3">
-        <v>1711954</v>
+        <v>1711952</v>
       </c>
       <c r="O42" s="3">
-        <v>1361035</v>
+        <v>1361036</v>
       </c>
       <c r="P42" s="3">
-        <v>924963</v>
+        <v>924965</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,22 +4849,22 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559206</v>
+        <v>11559208</v>
       </c>
       <c r="L43" s="3">
         <v>3901028</v>
       </c>
       <c r="M43" s="3">
-        <v>2975164</v>
+        <v>2975165</v>
       </c>
       <c r="N43" s="3">
-        <v>1726204</v>
+        <v>1726202</v>
       </c>
       <c r="O43" s="3">
-        <v>1369453</v>
+        <v>1369454</v>
       </c>
       <c r="P43" s="3">
-        <v>932177</v>
+        <v>932179</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,22 +4908,22 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587406</v>
+        <v>11587408</v>
       </c>
       <c r="L44" s="3">
         <v>3911313</v>
       </c>
       <c r="M44" s="3">
-        <v>2977220</v>
+        <v>2977221</v>
       </c>
       <c r="N44" s="3">
-        <v>1733152</v>
+        <v>1733150</v>
       </c>
       <c r="O44" s="3">
-        <v>1373105</v>
+        <v>1373106</v>
       </c>
       <c r="P44" s="3">
-        <v>935106</v>
+        <v>935108</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,22 +4967,22 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610824</v>
+        <v>11610826</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
       </c>
       <c r="M45" s="3">
-        <v>2979333</v>
+        <v>2979334</v>
       </c>
       <c r="N45" s="3">
-        <v>1737690</v>
+        <v>1737688</v>
       </c>
       <c r="O45" s="3">
-        <v>1376103</v>
+        <v>1376104</v>
       </c>
       <c r="P45" s="3">
-        <v>937555</v>
+        <v>937557</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,22 +5026,22 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632929</v>
+        <v>11632931</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
       </c>
       <c r="M46" s="3">
-        <v>2982572</v>
+        <v>2982573</v>
       </c>
       <c r="N46" s="3">
-        <v>1739713</v>
+        <v>1739711</v>
       </c>
       <c r="O46" s="3">
-        <v>1378661</v>
+        <v>1378662</v>
       </c>
       <c r="P46" s="3">
-        <v>940588</v>
+        <v>940590</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,22 +5085,22 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660832</v>
+        <v>11660834</v>
       </c>
       <c r="L47" s="3">
         <v>3937124</v>
       </c>
       <c r="M47" s="3">
-        <v>2988177</v>
+        <v>2988178</v>
       </c>
       <c r="N47" s="3">
-        <v>1743415</v>
+        <v>1743413</v>
       </c>
       <c r="O47" s="3">
-        <v>1380659</v>
+        <v>1380660</v>
       </c>
       <c r="P47" s="3">
-        <v>945665</v>
+        <v>945667</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,55 +5117,55 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43824</v>
+        <v>43858</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
       </c>
       <c r="D48" s="3">
-        <v>6086</v>
+        <v>6074</v>
       </c>
       <c r="E48" s="3">
-        <v>7098</v>
+        <v>7140</v>
       </c>
       <c r="F48" s="3">
         <v>2178</v>
       </c>
       <c r="G48" s="3">
-        <v>9326</v>
+        <v>9327</v>
       </c>
       <c r="H48" s="3">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="I48" s="3">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="J48" s="3">
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704656</v>
+        <v>11704692</v>
       </c>
       <c r="L48" s="3">
         <v>3949410</v>
       </c>
       <c r="M48" s="3">
-        <v>2994263</v>
+        <v>2994252</v>
       </c>
       <c r="N48" s="3">
-        <v>1750513</v>
+        <v>1750553</v>
       </c>
       <c r="O48" s="3">
-        <v>1382837</v>
+        <v>1382838</v>
       </c>
       <c r="P48" s="3">
-        <v>954991</v>
+        <v>954994</v>
       </c>
       <c r="Q48" s="3">
-        <v>311652</v>
+        <v>311653</v>
       </c>
       <c r="R48" s="3">
-        <v>250729</v>
+        <v>250731</v>
       </c>
       <c r="S48" s="3">
         <v>110261</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>8234</v>
+        <v>9216</v>
       </c>
       <c r="C49">
         <v>2596</v>
       </c>
       <c r="D49">
-        <v>990</v>
+        <v>1193</v>
       </c>
       <c r="E49">
-        <v>1893</v>
+        <v>2205</v>
       </c>
       <c r="F49">
         <v>182</v>
       </c>
       <c r="G49">
-        <v>1600</v>
+        <v>1824</v>
       </c>
       <c r="H49">
-        <v>632</v>
+        <v>782</v>
       </c>
       <c r="I49">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="J49">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>11712890</v>
+        <v>11713908</v>
       </c>
       <c r="L49">
         <v>3952006</v>
       </c>
       <c r="M49">
-        <v>2995253</v>
+        <v>2995445</v>
       </c>
       <c r="N49">
-        <v>1752406</v>
+        <v>1752758</v>
       </c>
       <c r="O49">
-        <v>1383019</v>
+        <v>1383020</v>
       </c>
       <c r="P49">
-        <v>956591</v>
+        <v>956818</v>
       </c>
       <c r="Q49">
-        <v>312284</v>
+        <v>312435</v>
       </c>
       <c r="R49">
-        <v>251005</v>
+        <v>251083</v>
       </c>
       <c r="S49">
-        <v>110326</v>
+        <v>110343</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM30"/>
+  <dimension ref="A1:IM31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -24658,6 +24658,749 @@
       </c>
       <c r="IM30">
         <v>13882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45269</v>
+      </c>
+      <c r="B31">
+        <v>1018</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>192</v>
+      </c>
+      <c r="E31">
+        <v>352</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>227</v>
+      </c>
+      <c r="H31">
+        <v>151</v>
+      </c>
+      <c r="I31">
+        <v>78</v>
+      </c>
+      <c r="J31">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <v>11713908</v>
+      </c>
+      <c r="L31">
+        <v>3952006</v>
+      </c>
+      <c r="M31">
+        <v>2995445</v>
+      </c>
+      <c r="N31">
+        <v>1752758</v>
+      </c>
+      <c r="O31">
+        <v>1383020</v>
+      </c>
+      <c r="P31">
+        <v>956818</v>
+      </c>
+      <c r="Q31">
+        <v>312435</v>
+      </c>
+      <c r="R31">
+        <v>251083</v>
+      </c>
+      <c r="S31">
+        <v>110343</v>
+      </c>
+      <c r="T31">
+        <v>70</v>
+      </c>
+      <c r="U31">
+        <v>21</v>
+      </c>
+      <c r="V31">
+        <v>28</v>
+      </c>
+      <c r="W31">
+        <v>36</v>
+      </c>
+      <c r="X31">
+        <v>60</v>
+      </c>
+      <c r="Y31">
+        <v>76</v>
+      </c>
+      <c r="Z31">
+        <v>81</v>
+      </c>
+      <c r="AA31">
+        <v>81</v>
+      </c>
+      <c r="AB31">
+        <v>82</v>
+      </c>
+      <c r="AC31">
+        <v>84</v>
+      </c>
+      <c r="AD31">
+        <v>97</v>
+      </c>
+      <c r="AE31">
+        <v>93</v>
+      </c>
+      <c r="AF31">
+        <v>89</v>
+      </c>
+      <c r="AG31">
+        <v>93</v>
+      </c>
+      <c r="AH31">
+        <v>98</v>
+      </c>
+      <c r="AI31">
+        <v>90</v>
+      </c>
+      <c r="AJ31">
+        <v>89</v>
+      </c>
+      <c r="AK31">
+        <v>151</v>
+      </c>
+      <c r="AL31">
+        <v>-401</v>
+      </c>
+      <c r="AM31">
+        <v>503331</v>
+      </c>
+      <c r="AN31">
+        <v>668225</v>
+      </c>
+      <c r="AO31">
+        <v>773850</v>
+      </c>
+      <c r="AP31">
+        <v>760225</v>
+      </c>
+      <c r="AQ31">
+        <v>930850</v>
+      </c>
+      <c r="AR31">
+        <v>1026867</v>
+      </c>
+      <c r="AS31">
+        <v>1034789</v>
+      </c>
+      <c r="AT31">
+        <v>1019458</v>
+      </c>
+      <c r="AU31">
+        <v>909070</v>
+      </c>
+      <c r="AV31">
+        <v>807757</v>
+      </c>
+      <c r="AW31">
+        <v>747720</v>
+      </c>
+      <c r="AX31">
+        <v>622565</v>
+      </c>
+      <c r="AY31">
+        <v>543575</v>
+      </c>
+      <c r="AZ31">
+        <v>407868</v>
+      </c>
+      <c r="BA31">
+        <v>325621</v>
+      </c>
+      <c r="BB31">
+        <v>241134</v>
+      </c>
+      <c r="BC31">
+        <v>162140</v>
+      </c>
+      <c r="BD31">
+        <v>210693</v>
+      </c>
+      <c r="BE31">
+        <v>18170</v>
+      </c>
+      <c r="BF31">
+        <v>41</v>
+      </c>
+      <c r="BG31">
+        <v>30</v>
+      </c>
+      <c r="BH31">
+        <v>-1</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>11</v>
+      </c>
+      <c r="BL31">
+        <v>10</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>11</v>
+      </c>
+      <c r="BQ31">
+        <v>15</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>2</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
+        <v>19</v>
+      </c>
+      <c r="BV31">
+        <v>18</v>
+      </c>
+      <c r="BW31">
+        <v>0</v>
+      </c>
+      <c r="BX31">
+        <v>-1</v>
+      </c>
+      <c r="BY31">
+        <v>0</v>
+      </c>
+      <c r="BZ31">
+        <v>27</v>
+      </c>
+      <c r="CA31">
+        <v>33</v>
+      </c>
+      <c r="CB31">
+        <v>0</v>
+      </c>
+      <c r="CC31">
+        <v>0</v>
+      </c>
+      <c r="CD31">
+        <v>0</v>
+      </c>
+      <c r="CE31">
+        <v>26</v>
+      </c>
+      <c r="CF31">
+        <v>50</v>
+      </c>
+      <c r="CG31">
+        <v>0</v>
+      </c>
+      <c r="CH31">
+        <v>0</v>
+      </c>
+      <c r="CI31">
+        <v>0</v>
+      </c>
+      <c r="CJ31">
+        <v>36</v>
+      </c>
+      <c r="CK31">
+        <v>45</v>
+      </c>
+      <c r="CL31">
+        <v>0</v>
+      </c>
+      <c r="CM31">
+        <v>0</v>
+      </c>
+      <c r="CN31">
+        <v>0</v>
+      </c>
+      <c r="CO31">
+        <v>36</v>
+      </c>
+      <c r="CP31">
+        <v>44</v>
+      </c>
+      <c r="CQ31">
+        <v>0</v>
+      </c>
+      <c r="CR31">
+        <v>0</v>
+      </c>
+      <c r="CS31">
+        <v>1</v>
+      </c>
+      <c r="CT31">
+        <v>25</v>
+      </c>
+      <c r="CU31">
+        <v>57</v>
+      </c>
+      <c r="CV31">
+        <v>0</v>
+      </c>
+      <c r="CW31">
+        <v>0</v>
+      </c>
+      <c r="CX31">
+        <v>0</v>
+      </c>
+      <c r="CY31">
+        <v>35</v>
+      </c>
+      <c r="CZ31">
+        <v>49</v>
+      </c>
+      <c r="DA31">
+        <v>0</v>
+      </c>
+      <c r="DB31">
+        <v>0</v>
+      </c>
+      <c r="DC31">
+        <v>0</v>
+      </c>
+      <c r="DD31">
+        <v>36</v>
+      </c>
+      <c r="DE31">
+        <v>62</v>
+      </c>
+      <c r="DF31">
+        <v>0</v>
+      </c>
+      <c r="DG31">
+        <v>-1</v>
+      </c>
+      <c r="DH31">
+        <v>0</v>
+      </c>
+      <c r="DI31">
+        <v>36</v>
+      </c>
+      <c r="DJ31">
+        <v>58</v>
+      </c>
+      <c r="DK31">
+        <v>0</v>
+      </c>
+      <c r="DL31">
+        <v>-1</v>
+      </c>
+      <c r="DM31">
+        <v>0</v>
+      </c>
+      <c r="DN31">
+        <v>24</v>
+      </c>
+      <c r="DO31">
+        <v>65</v>
+      </c>
+      <c r="DP31">
+        <v>0</v>
+      </c>
+      <c r="DQ31">
+        <v>0</v>
+      </c>
+      <c r="DR31">
+        <v>0</v>
+      </c>
+      <c r="DS31">
+        <v>50</v>
+      </c>
+      <c r="DT31">
+        <v>57</v>
+      </c>
+      <c r="DU31">
+        <v>0</v>
+      </c>
+      <c r="DV31">
+        <v>-14</v>
+      </c>
+      <c r="DW31">
+        <v>0</v>
+      </c>
+      <c r="DX31">
+        <v>50</v>
+      </c>
+      <c r="DY31">
+        <v>55</v>
+      </c>
+      <c r="DZ31">
+        <v>0</v>
+      </c>
+      <c r="EA31">
+        <v>-7</v>
+      </c>
+      <c r="EB31">
+        <v>0</v>
+      </c>
+      <c r="EC31">
+        <v>46</v>
+      </c>
+      <c r="ED31">
+        <v>57</v>
+      </c>
+      <c r="EE31">
+        <v>0</v>
+      </c>
+      <c r="EF31">
+        <v>-13</v>
+      </c>
+      <c r="EG31">
+        <v>0</v>
+      </c>
+      <c r="EH31">
+        <v>48</v>
+      </c>
+      <c r="EI31">
+        <v>48</v>
+      </c>
+      <c r="EJ31">
+        <v>0</v>
+      </c>
+      <c r="EK31">
+        <v>-7</v>
+      </c>
+      <c r="EL31">
+        <v>0</v>
+      </c>
+      <c r="EM31">
+        <v>51</v>
+      </c>
+      <c r="EN31">
+        <v>102</v>
+      </c>
+      <c r="EO31">
+        <v>0</v>
+      </c>
+      <c r="EP31">
+        <v>-4</v>
+      </c>
+      <c r="EQ31">
+        <v>2</v>
+      </c>
+      <c r="ER31">
+        <v>0</v>
+      </c>
+      <c r="ES31">
+        <v>0</v>
+      </c>
+      <c r="ET31">
+        <v>-1</v>
+      </c>
+      <c r="EU31">
+        <v>0</v>
+      </c>
+      <c r="EV31">
+        <v>-400</v>
+      </c>
+      <c r="EW31">
+        <v>231795</v>
+      </c>
+      <c r="EX31">
+        <v>220027</v>
+      </c>
+      <c r="EY31">
+        <v>409</v>
+      </c>
+      <c r="EZ31">
+        <v>15452</v>
+      </c>
+      <c r="FA31">
+        <v>35648</v>
+      </c>
+      <c r="FB31">
+        <v>308162</v>
+      </c>
+      <c r="FC31">
+        <v>292794</v>
+      </c>
+      <c r="FD31">
+        <v>466</v>
+      </c>
+      <c r="FE31">
+        <v>16770</v>
+      </c>
+      <c r="FF31">
+        <v>50033</v>
+      </c>
+      <c r="FG31">
+        <v>353415</v>
+      </c>
+      <c r="FH31">
+        <v>342764</v>
+      </c>
+      <c r="FI31">
+        <v>633</v>
+      </c>
+      <c r="FJ31">
+        <v>16955</v>
+      </c>
+      <c r="FK31">
+        <v>60083</v>
+      </c>
+      <c r="FL31">
+        <v>326514</v>
+      </c>
+      <c r="FM31">
+        <v>374060</v>
+      </c>
+      <c r="FN31">
+        <v>896</v>
+      </c>
+      <c r="FO31">
+        <v>12934</v>
+      </c>
+      <c r="FP31">
+        <v>45821</v>
+      </c>
+      <c r="FQ31">
+        <v>392193</v>
+      </c>
+      <c r="FR31">
+        <v>479862</v>
+      </c>
+      <c r="FS31">
+        <v>1100</v>
+      </c>
+      <c r="FT31">
+        <v>16279</v>
+      </c>
+      <c r="FU31">
+        <v>41416</v>
+      </c>
+      <c r="FV31">
+        <v>434023</v>
+      </c>
+      <c r="FW31">
+        <v>526410</v>
+      </c>
+      <c r="FX31">
+        <v>1138</v>
+      </c>
+      <c r="FY31">
+        <v>17785</v>
+      </c>
+      <c r="FZ31">
+        <v>47511</v>
+      </c>
+      <c r="GA31">
+        <v>429407</v>
+      </c>
+      <c r="GB31">
+        <v>532472</v>
+      </c>
+      <c r="GC31">
+        <v>922</v>
+      </c>
+      <c r="GD31">
+        <v>17167</v>
+      </c>
+      <c r="GE31">
+        <v>54821</v>
+      </c>
+      <c r="GF31">
+        <v>419953</v>
+      </c>
+      <c r="GG31">
+        <v>524983</v>
+      </c>
+      <c r="GH31">
+        <v>664</v>
+      </c>
+      <c r="GI31">
+        <v>15031</v>
+      </c>
+      <c r="GJ31">
+        <v>58827</v>
+      </c>
+      <c r="GK31">
+        <v>373780</v>
+      </c>
+      <c r="GL31">
+        <v>469285</v>
+      </c>
+      <c r="GM31">
+        <v>498</v>
+      </c>
+      <c r="GN31">
+        <v>12344</v>
+      </c>
+      <c r="GO31">
+        <v>53163</v>
+      </c>
+      <c r="GP31">
+        <v>330519</v>
+      </c>
+      <c r="GQ31">
+        <v>421352</v>
+      </c>
+      <c r="GR31">
+        <v>439</v>
+      </c>
+      <c r="GS31">
+        <v>10126</v>
+      </c>
+      <c r="GT31">
+        <v>45321</v>
+      </c>
+      <c r="GU31">
+        <v>308351</v>
+      </c>
+      <c r="GV31">
+        <v>389758</v>
+      </c>
+      <c r="GW31">
+        <v>399</v>
+      </c>
+      <c r="GX31">
+        <v>8950</v>
+      </c>
+      <c r="GY31">
+        <v>40262</v>
+      </c>
+      <c r="GZ31">
+        <v>263744</v>
+      </c>
+      <c r="HA31">
+        <v>320140</v>
+      </c>
+      <c r="HB31">
+        <v>328</v>
+      </c>
+      <c r="HC31">
+        <v>6605</v>
+      </c>
+      <c r="HD31">
+        <v>31748</v>
+      </c>
+      <c r="HE31">
+        <v>234653</v>
+      </c>
+      <c r="HF31">
+        <v>277414</v>
+      </c>
+      <c r="HG31">
+        <v>234</v>
+      </c>
+      <c r="HH31">
+        <v>5315</v>
+      </c>
+      <c r="HI31">
+        <v>25959</v>
+      </c>
+      <c r="HJ31">
+        <v>181014</v>
+      </c>
+      <c r="HK31">
+        <v>204496</v>
+      </c>
+      <c r="HL31">
+        <v>199</v>
+      </c>
+      <c r="HM31">
+        <v>3637</v>
+      </c>
+      <c r="HN31">
+        <v>18522</v>
+      </c>
+      <c r="HO31">
+        <v>151870</v>
+      </c>
+      <c r="HP31">
+        <v>158578</v>
+      </c>
+      <c r="HQ31">
+        <v>163</v>
+      </c>
+      <c r="HR31">
+        <v>2661</v>
+      </c>
+      <c r="HS31">
+        <v>12349</v>
+      </c>
+      <c r="HT31">
+        <v>116207</v>
+      </c>
+      <c r="HU31">
+        <v>115082</v>
+      </c>
+      <c r="HV31">
+        <v>164</v>
+      </c>
+      <c r="HW31">
+        <v>1870</v>
+      </c>
+      <c r="HX31">
+        <v>7811</v>
+      </c>
+      <c r="HY31">
+        <v>76213</v>
+      </c>
+      <c r="HZ31">
+        <v>79996</v>
+      </c>
+      <c r="IA31">
+        <v>131</v>
+      </c>
+      <c r="IB31">
+        <v>1269</v>
+      </c>
+      <c r="IC31">
+        <v>4531</v>
+      </c>
+      <c r="ID31">
+        <v>81581</v>
+      </c>
+      <c r="IE31">
+        <v>122707</v>
+      </c>
+      <c r="IF31">
+        <v>306</v>
+      </c>
+      <c r="IG31">
+        <v>2257</v>
+      </c>
+      <c r="IH31">
+        <v>3842</v>
+      </c>
+      <c r="II31">
+        <v>2153</v>
+      </c>
+      <c r="IJ31">
+        <v>2310</v>
+      </c>
+      <c r="IK31">
+        <v>24</v>
+      </c>
+      <c r="IL31">
+        <v>201</v>
+      </c>
+      <c r="IM31">
+        <v>13482</v>
       </c>
     </row>
   </sheetData>
@@ -24684,7 +25427,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45268</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFAF871-74BF-4337-8AA5-C55CCE428422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E6DF1-552F-4B4F-9979-E0975CD1DC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1889,10 +1889,10 @@
         <v>33829</v>
       </c>
       <c r="AC3">
-        <v>30115</v>
+        <v>30113</v>
       </c>
       <c r="AD3">
-        <v>27882</v>
+        <v>27884</v>
       </c>
       <c r="AE3">
         <v>22325</v>
@@ -1901,10 +1901,10 @@
         <v>17080</v>
       </c>
       <c r="AG3">
-        <v>11938</v>
+        <v>11937</v>
       </c>
       <c r="AH3">
-        <v>8405</v>
+        <v>8406</v>
       </c>
       <c r="AI3">
         <v>5712</v>
@@ -1946,10 +1946,10 @@
         <v>35618</v>
       </c>
       <c r="AV3">
-        <v>32080</v>
+        <v>32078</v>
       </c>
       <c r="AW3">
-        <v>29688</v>
+        <v>29690</v>
       </c>
       <c r="AX3">
         <v>24003</v>
@@ -1958,10 +1958,10 @@
         <v>18539</v>
       </c>
       <c r="AZ3">
-        <v>12972</v>
+        <v>12971</v>
       </c>
       <c r="BA3">
-        <v>9317</v>
+        <v>9318</v>
       </c>
       <c r="BB3">
         <v>6472</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317870</v>
+        <v>10317871</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1996,7 +1996,7 @@
         <v>1288505</v>
       </c>
       <c r="G4">
-        <v>848319</v>
+        <v>848320</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885939</v>
+        <v>10885940</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2023,7 +2023,7 @@
         <v>1289871</v>
       </c>
       <c r="P4">
-        <v>867480</v>
+        <v>867481</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,10 +2038,10 @@
         <v>450542</v>
       </c>
       <c r="U4">
-        <v>611247</v>
+        <v>611246</v>
       </c>
       <c r="V4">
-        <v>710188</v>
+        <v>710187</v>
       </c>
       <c r="W4">
         <v>683355</v>
@@ -2053,31 +2053,31 @@
         <v>899958</v>
       </c>
       <c r="Z4">
-        <v>916981</v>
+        <v>916980</v>
       </c>
       <c r="AA4">
-        <v>908887</v>
+        <v>908886</v>
       </c>
       <c r="AB4">
-        <v>810342</v>
+        <v>810340</v>
       </c>
       <c r="AC4">
-        <v>717633</v>
+        <v>717636</v>
       </c>
       <c r="AD4">
-        <v>658705</v>
+        <v>658707</v>
       </c>
       <c r="AE4">
         <v>544133</v>
       </c>
       <c r="AF4">
-        <v>471547</v>
+        <v>471546</v>
       </c>
       <c r="AG4">
-        <v>349065</v>
+        <v>349066</v>
       </c>
       <c r="AH4">
-        <v>274362</v>
+        <v>274364</v>
       </c>
       <c r="AI4">
         <v>197946</v>
@@ -2095,10 +2095,10 @@
         <v>473792</v>
       </c>
       <c r="AN4">
-        <v>644446</v>
+        <v>644445</v>
       </c>
       <c r="AO4">
-        <v>741702</v>
+        <v>741701</v>
       </c>
       <c r="AP4">
         <v>728602</v>
@@ -2110,31 +2110,31 @@
         <v>974402</v>
       </c>
       <c r="AS4">
-        <v>975361</v>
+        <v>975360</v>
       </c>
       <c r="AT4">
-        <v>953879</v>
+        <v>953878</v>
       </c>
       <c r="AU4">
-        <v>845960</v>
+        <v>845958</v>
       </c>
       <c r="AV4">
-        <v>749713</v>
+        <v>749714</v>
       </c>
       <c r="AW4">
-        <v>688393</v>
+        <v>688397</v>
       </c>
       <c r="AX4">
         <v>568136</v>
       </c>
       <c r="AY4">
-        <v>490086</v>
+        <v>490085</v>
       </c>
       <c r="AZ4">
         <v>362037</v>
       </c>
       <c r="BA4">
-        <v>283679</v>
+        <v>283682</v>
       </c>
       <c r="BB4">
         <v>204418</v>
@@ -2154,25 +2154,25 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>827969</v>
+        <v>828982</v>
       </c>
       <c r="C5">
-        <v>298612</v>
+        <v>299061</v>
       </c>
       <c r="D5">
         <v>153962</v>
       </c>
       <c r="E5">
-        <v>132894</v>
+        <v>133177</v>
       </c>
       <c r="F5">
         <v>93149</v>
       </c>
       <c r="G5">
-        <v>89338</v>
+        <v>89513</v>
       </c>
       <c r="H5">
-        <v>30892</v>
+        <v>30998</v>
       </c>
       <c r="I5">
         <v>22746</v>
@@ -2181,25 +2181,25 @@
         <v>6376</v>
       </c>
       <c r="K5">
-        <v>11713908</v>
+        <v>11714922</v>
       </c>
       <c r="L5">
-        <v>3952006</v>
+        <v>3952455</v>
       </c>
       <c r="M5">
         <v>2995445</v>
       </c>
       <c r="N5">
-        <v>1752758</v>
+        <v>1753041</v>
       </c>
       <c r="O5">
         <v>1383020</v>
       </c>
       <c r="P5">
-        <v>956818</v>
+        <v>956994</v>
       </c>
       <c r="Q5">
-        <v>312435</v>
+        <v>312541</v>
       </c>
       <c r="R5">
         <v>251083</v>
@@ -2208,115 +2208,115 @@
         <v>110343</v>
       </c>
       <c r="T5">
-        <v>29539</v>
+        <v>29620</v>
       </c>
       <c r="U5">
-        <v>23779</v>
+        <v>23794</v>
       </c>
       <c r="V5">
-        <v>32148</v>
+        <v>32162</v>
       </c>
       <c r="W5">
-        <v>31623</v>
+        <v>31654</v>
       </c>
       <c r="X5">
-        <v>40578</v>
+        <v>40611</v>
       </c>
       <c r="Y5">
-        <v>52465</v>
+        <v>52533</v>
       </c>
       <c r="Z5">
-        <v>59428</v>
+        <v>59492</v>
       </c>
       <c r="AA5">
-        <v>65579</v>
+        <v>65637</v>
       </c>
       <c r="AB5">
-        <v>63110</v>
+        <v>63152</v>
       </c>
       <c r="AC5">
-        <v>58044</v>
+        <v>58105</v>
       </c>
       <c r="AD5">
-        <v>59327</v>
+        <v>59390</v>
       </c>
       <c r="AE5">
-        <v>54429</v>
+        <v>54492</v>
       </c>
       <c r="AF5">
-        <v>53489</v>
+        <v>53537</v>
       </c>
       <c r="AG5">
-        <v>45831</v>
+        <v>45894</v>
       </c>
       <c r="AH5">
-        <v>41942</v>
+        <v>42017</v>
       </c>
       <c r="AI5">
-        <v>36716</v>
+        <v>36790</v>
       </c>
       <c r="AJ5">
-        <v>29641</v>
+        <v>29703</v>
       </c>
       <c r="AK5">
-        <v>49708</v>
+        <v>49806</v>
       </c>
       <c r="AL5">
         <v>593</v>
       </c>
       <c r="AM5">
-        <v>503331</v>
+        <v>503412</v>
       </c>
       <c r="AN5">
-        <v>668225</v>
+        <v>668239</v>
       </c>
       <c r="AO5">
-        <v>773850</v>
+        <v>773863</v>
       </c>
       <c r="AP5">
-        <v>760225</v>
+        <v>760256</v>
       </c>
       <c r="AQ5">
-        <v>930850</v>
+        <v>930883</v>
       </c>
       <c r="AR5">
-        <v>1026867</v>
+        <v>1026935</v>
       </c>
       <c r="AS5">
-        <v>1034789</v>
+        <v>1034852</v>
       </c>
       <c r="AT5">
-        <v>1019458</v>
+        <v>1019515</v>
       </c>
       <c r="AU5">
-        <v>909070</v>
+        <v>909110</v>
       </c>
       <c r="AV5">
-        <v>807757</v>
+        <v>807819</v>
       </c>
       <c r="AW5">
-        <v>747720</v>
+        <v>747787</v>
       </c>
       <c r="AX5">
-        <v>622565</v>
+        <v>622628</v>
       </c>
       <c r="AY5">
-        <v>543575</v>
+        <v>543622</v>
       </c>
       <c r="AZ5">
-        <v>407868</v>
+        <v>407931</v>
       </c>
       <c r="BA5">
-        <v>325621</v>
+        <v>325699</v>
       </c>
       <c r="BB5">
-        <v>241134</v>
+        <v>241208</v>
       </c>
       <c r="BC5">
-        <v>162140</v>
+        <v>162202</v>
       </c>
       <c r="BD5">
-        <v>210693</v>
+        <v>210791</v>
       </c>
       <c r="BE5">
         <v>18170</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339882</v>
+        <v>1339883</v>
       </c>
       <c r="C29" s="3">
         <v>432381</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139823</v>
+        <v>139824</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771896</v>
+        <v>5771897</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400165</v>
       </c>
       <c r="P29" s="3">
-        <v>413985</v>
+        <v>413986</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082265</v>
+        <v>7082266</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4097,7 +4097,7 @@
         <v>754253</v>
       </c>
       <c r="P30" s="3">
-        <v>522123</v>
+        <v>522124</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966563</v>
+        <v>7966564</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4156,7 +4156,7 @@
         <v>936892</v>
       </c>
       <c r="P31" s="3">
-        <v>599442</v>
+        <v>599443</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216909</v>
+        <v>9216910</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4215,7 +4215,7 @@
         <v>1095157</v>
       </c>
       <c r="P32" s="3">
-        <v>716842</v>
+        <v>716843</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771769</v>
+        <v>9771770</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4274,7 +4274,7 @@
         <v>1154228</v>
       </c>
       <c r="P33" s="3">
-        <v>757353</v>
+        <v>757354</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966023</v>
+        <v>9966024</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4333,7 +4333,7 @@
         <v>1178500</v>
       </c>
       <c r="P34" s="3">
-        <v>772637</v>
+        <v>772638</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108128</v>
+        <v>10108129</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4392,7 +4392,7 @@
         <v>1201926</v>
       </c>
       <c r="P35" s="3">
-        <v>785812</v>
+        <v>785813</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460072</v>
+        <v>10460073</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4451,7 +4451,7 @@
         <v>1244560</v>
       </c>
       <c r="P36" s="3">
-        <v>822975</v>
+        <v>822976</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885939</v>
+        <v>10885940</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4510,7 +4510,7 @@
         <v>1289871</v>
       </c>
       <c r="P37" s="3">
-        <v>867480</v>
+        <v>867481</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016022</v>
+        <v>11016023</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4569,7 +4569,7 @@
         <v>1306727</v>
       </c>
       <c r="P38" s="3">
-        <v>879370</v>
+        <v>879371</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088011</v>
+        <v>11088012</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4628,7 +4628,7 @@
         <v>1315599</v>
       </c>
       <c r="P39" s="3">
-        <v>886223</v>
+        <v>886224</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191990</v>
+        <v>11191991</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4687,7 +4687,7 @@
         <v>1328561</v>
       </c>
       <c r="P40" s="3">
-        <v>897723</v>
+        <v>897724</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315156</v>
+        <v>11315157</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4746,7 +4746,7 @@
         <v>1342948</v>
       </c>
       <c r="P41" s="3">
-        <v>910052</v>
+        <v>910053</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481407</v>
+        <v>11481408</v>
       </c>
       <c r="L42" s="3">
         <v>3872846</v>
@@ -4805,7 +4805,7 @@
         <v>1361036</v>
       </c>
       <c r="P42" s="3">
-        <v>924965</v>
+        <v>924966</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559208</v>
+        <v>11559209</v>
       </c>
       <c r="L43" s="3">
         <v>3901028</v>
@@ -4864,7 +4864,7 @@
         <v>1369454</v>
       </c>
       <c r="P43" s="3">
-        <v>932179</v>
+        <v>932180</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587408</v>
+        <v>11587409</v>
       </c>
       <c r="L44" s="3">
         <v>3911313</v>
@@ -4923,7 +4923,7 @@
         <v>1373106</v>
       </c>
       <c r="P44" s="3">
-        <v>935108</v>
+        <v>935109</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610826</v>
+        <v>11610827</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4982,7 +4982,7 @@
         <v>1376104</v>
       </c>
       <c r="P45" s="3">
-        <v>937557</v>
+        <v>937558</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632931</v>
+        <v>11632932</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5041,7 +5041,7 @@
         <v>1378662</v>
       </c>
       <c r="P46" s="3">
-        <v>940590</v>
+        <v>940591</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660834</v>
+        <v>11660835</v>
       </c>
       <c r="L47" s="3">
         <v>3937124</v>
@@ -5100,7 +5100,7 @@
         <v>1380660</v>
       </c>
       <c r="P47" s="3">
-        <v>945667</v>
+        <v>945668</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,7 +5117,7 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43858</v>
+        <v>43872</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
@@ -5135,7 +5135,7 @@
         <v>9327</v>
       </c>
       <c r="H48" s="3">
-        <v>4132</v>
+        <v>4146</v>
       </c>
       <c r="I48" s="3">
         <v>2175</v>
@@ -5144,7 +5144,7 @@
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704692</v>
+        <v>11704707</v>
       </c>
       <c r="L48" s="3">
         <v>3949410</v>
@@ -5159,10 +5159,10 @@
         <v>1382838</v>
       </c>
       <c r="P48" s="3">
-        <v>954994</v>
+        <v>954995</v>
       </c>
       <c r="Q48" s="3">
-        <v>311653</v>
+        <v>311667</v>
       </c>
       <c r="R48" s="3">
         <v>250731</v>
@@ -5176,25 +5176,25 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>9216</v>
+        <v>10215</v>
       </c>
       <c r="C49">
-        <v>2596</v>
+        <v>3045</v>
       </c>
       <c r="D49">
         <v>1193</v>
       </c>
       <c r="E49">
-        <v>2205</v>
+        <v>2488</v>
       </c>
       <c r="F49">
         <v>182</v>
       </c>
       <c r="G49">
-        <v>1824</v>
+        <v>1999</v>
       </c>
       <c r="H49">
-        <v>782</v>
+        <v>874</v>
       </c>
       <c r="I49">
         <v>352</v>
@@ -5203,25 +5203,25 @@
         <v>82</v>
       </c>
       <c r="K49">
-        <v>11713908</v>
+        <v>11714922</v>
       </c>
       <c r="L49">
-        <v>3952006</v>
+        <v>3952455</v>
       </c>
       <c r="M49">
         <v>2995445</v>
       </c>
       <c r="N49">
-        <v>1752758</v>
+        <v>1753041</v>
       </c>
       <c r="O49">
         <v>1383020</v>
       </c>
       <c r="P49">
-        <v>956818</v>
+        <v>956994</v>
       </c>
       <c r="Q49">
-        <v>312435</v>
+        <v>312541</v>
       </c>
       <c r="R49">
         <v>251083</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM31"/>
+  <dimension ref="A1:IM32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25400,6 +25400,749 @@
         <v>201</v>
       </c>
       <c r="IM31">
+        <v>13482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B32">
+        <v>1014</v>
+      </c>
+      <c r="C32">
+        <v>449</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>283</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>176</v>
+      </c>
+      <c r="H32">
+        <v>106</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>11714922</v>
+      </c>
+      <c r="L32">
+        <v>3952455</v>
+      </c>
+      <c r="M32">
+        <v>2995445</v>
+      </c>
+      <c r="N32">
+        <v>1753041</v>
+      </c>
+      <c r="O32">
+        <v>1383020</v>
+      </c>
+      <c r="P32">
+        <v>956994</v>
+      </c>
+      <c r="Q32">
+        <v>312541</v>
+      </c>
+      <c r="R32">
+        <v>251083</v>
+      </c>
+      <c r="S32">
+        <v>110343</v>
+      </c>
+      <c r="T32">
+        <v>81</v>
+      </c>
+      <c r="U32">
+        <v>14</v>
+      </c>
+      <c r="V32">
+        <v>13</v>
+      </c>
+      <c r="W32">
+        <v>31</v>
+      </c>
+      <c r="X32">
+        <v>33</v>
+      </c>
+      <c r="Y32">
+        <v>68</v>
+      </c>
+      <c r="Z32">
+        <v>63</v>
+      </c>
+      <c r="AA32">
+        <v>57</v>
+      </c>
+      <c r="AB32">
+        <v>40</v>
+      </c>
+      <c r="AC32">
+        <v>62</v>
+      </c>
+      <c r="AD32">
+        <v>67</v>
+      </c>
+      <c r="AE32">
+        <v>63</v>
+      </c>
+      <c r="AF32">
+        <v>47</v>
+      </c>
+      <c r="AG32">
+        <v>63</v>
+      </c>
+      <c r="AH32">
+        <v>78</v>
+      </c>
+      <c r="AI32">
+        <v>74</v>
+      </c>
+      <c r="AJ32">
+        <v>62</v>
+      </c>
+      <c r="AK32">
+        <v>98</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>503412</v>
+      </c>
+      <c r="AN32">
+        <v>668239</v>
+      </c>
+      <c r="AO32">
+        <v>773863</v>
+      </c>
+      <c r="AP32">
+        <v>760256</v>
+      </c>
+      <c r="AQ32">
+        <v>930883</v>
+      </c>
+      <c r="AR32">
+        <v>1026935</v>
+      </c>
+      <c r="AS32">
+        <v>1034852</v>
+      </c>
+      <c r="AT32">
+        <v>1019515</v>
+      </c>
+      <c r="AU32">
+        <v>909110</v>
+      </c>
+      <c r="AV32">
+        <v>807819</v>
+      </c>
+      <c r="AW32">
+        <v>747787</v>
+      </c>
+      <c r="AX32">
+        <v>622628</v>
+      </c>
+      <c r="AY32">
+        <v>543622</v>
+      </c>
+      <c r="AZ32">
+        <v>407931</v>
+      </c>
+      <c r="BA32">
+        <v>325699</v>
+      </c>
+      <c r="BB32">
+        <v>241208</v>
+      </c>
+      <c r="BC32">
+        <v>162202</v>
+      </c>
+      <c r="BD32">
+        <v>210791</v>
+      </c>
+      <c r="BE32">
+        <v>18170</v>
+      </c>
+      <c r="BF32">
+        <v>40</v>
+      </c>
+      <c r="BG32">
+        <v>41</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>7</v>
+      </c>
+      <c r="BL32">
+        <v>7</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>7</v>
+      </c>
+      <c r="BQ32">
+        <v>6</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>14</v>
+      </c>
+      <c r="BV32">
+        <v>17</v>
+      </c>
+      <c r="BW32">
+        <v>0</v>
+      </c>
+      <c r="BX32">
+        <v>0</v>
+      </c>
+      <c r="BY32">
+        <v>0</v>
+      </c>
+      <c r="BZ32">
+        <v>16</v>
+      </c>
+      <c r="CA32">
+        <v>17</v>
+      </c>
+      <c r="CB32">
+        <v>0</v>
+      </c>
+      <c r="CC32">
+        <v>0</v>
+      </c>
+      <c r="CD32">
+        <v>0</v>
+      </c>
+      <c r="CE32">
+        <v>19</v>
+      </c>
+      <c r="CF32">
+        <v>49</v>
+      </c>
+      <c r="CG32">
+        <v>0</v>
+      </c>
+      <c r="CH32">
+        <v>0</v>
+      </c>
+      <c r="CI32">
+        <v>0</v>
+      </c>
+      <c r="CJ32">
+        <v>21</v>
+      </c>
+      <c r="CK32">
+        <v>42</v>
+      </c>
+      <c r="CL32">
+        <v>0</v>
+      </c>
+      <c r="CM32">
+        <v>0</v>
+      </c>
+      <c r="CN32">
+        <v>0</v>
+      </c>
+      <c r="CO32">
+        <v>18</v>
+      </c>
+      <c r="CP32">
+        <v>39</v>
+      </c>
+      <c r="CQ32">
+        <v>0</v>
+      </c>
+      <c r="CR32">
+        <v>0</v>
+      </c>
+      <c r="CS32">
+        <v>0</v>
+      </c>
+      <c r="CT32">
+        <v>14</v>
+      </c>
+      <c r="CU32">
+        <v>26</v>
+      </c>
+      <c r="CV32">
+        <v>0</v>
+      </c>
+      <c r="CW32">
+        <v>0</v>
+      </c>
+      <c r="CX32">
+        <v>0</v>
+      </c>
+      <c r="CY32">
+        <v>21</v>
+      </c>
+      <c r="CZ32">
+        <v>41</v>
+      </c>
+      <c r="DA32">
+        <v>0</v>
+      </c>
+      <c r="DB32">
+        <v>0</v>
+      </c>
+      <c r="DC32">
+        <v>0</v>
+      </c>
+      <c r="DD32">
+        <v>32</v>
+      </c>
+      <c r="DE32">
+        <v>35</v>
+      </c>
+      <c r="DF32">
+        <v>0</v>
+      </c>
+      <c r="DG32">
+        <v>0</v>
+      </c>
+      <c r="DH32">
+        <v>0</v>
+      </c>
+      <c r="DI32">
+        <v>17</v>
+      </c>
+      <c r="DJ32">
+        <v>46</v>
+      </c>
+      <c r="DK32">
+        <v>0</v>
+      </c>
+      <c r="DL32">
+        <v>0</v>
+      </c>
+      <c r="DM32">
+        <v>0</v>
+      </c>
+      <c r="DN32">
+        <v>16</v>
+      </c>
+      <c r="DO32">
+        <v>31</v>
+      </c>
+      <c r="DP32">
+        <v>0</v>
+      </c>
+      <c r="DQ32">
+        <v>0</v>
+      </c>
+      <c r="DR32">
+        <v>0</v>
+      </c>
+      <c r="DS32">
+        <v>31</v>
+      </c>
+      <c r="DT32">
+        <v>32</v>
+      </c>
+      <c r="DU32">
+        <v>0</v>
+      </c>
+      <c r="DV32">
+        <v>0</v>
+      </c>
+      <c r="DW32">
+        <v>0</v>
+      </c>
+      <c r="DX32">
+        <v>37</v>
+      </c>
+      <c r="DY32">
+        <v>41</v>
+      </c>
+      <c r="DZ32">
+        <v>0</v>
+      </c>
+      <c r="EA32">
+        <v>0</v>
+      </c>
+      <c r="EB32">
+        <v>0</v>
+      </c>
+      <c r="EC32">
+        <v>34</v>
+      </c>
+      <c r="ED32">
+        <v>40</v>
+      </c>
+      <c r="EE32">
+        <v>0</v>
+      </c>
+      <c r="EF32">
+        <v>0</v>
+      </c>
+      <c r="EG32">
+        <v>0</v>
+      </c>
+      <c r="EH32">
+        <v>36</v>
+      </c>
+      <c r="EI32">
+        <v>26</v>
+      </c>
+      <c r="EJ32">
+        <v>0</v>
+      </c>
+      <c r="EK32">
+        <v>0</v>
+      </c>
+      <c r="EL32">
+        <v>0</v>
+      </c>
+      <c r="EM32">
+        <v>34</v>
+      </c>
+      <c r="EN32">
+        <v>64</v>
+      </c>
+      <c r="EO32">
+        <v>0</v>
+      </c>
+      <c r="EP32">
+        <v>0</v>
+      </c>
+      <c r="EQ32">
+        <v>0</v>
+      </c>
+      <c r="ER32">
+        <v>0</v>
+      </c>
+      <c r="ES32">
+        <v>0</v>
+      </c>
+      <c r="ET32">
+        <v>0</v>
+      </c>
+      <c r="EU32">
+        <v>0</v>
+      </c>
+      <c r="EV32">
+        <v>0</v>
+      </c>
+      <c r="EW32">
+        <v>231835</v>
+      </c>
+      <c r="EX32">
+        <v>220068</v>
+      </c>
+      <c r="EY32">
+        <v>409</v>
+      </c>
+      <c r="EZ32">
+        <v>15452</v>
+      </c>
+      <c r="FA32">
+        <v>35648</v>
+      </c>
+      <c r="FB32">
+        <v>308169</v>
+      </c>
+      <c r="FC32">
+        <v>292801</v>
+      </c>
+      <c r="FD32">
+        <v>466</v>
+      </c>
+      <c r="FE32">
+        <v>16770</v>
+      </c>
+      <c r="FF32">
+        <v>50033</v>
+      </c>
+      <c r="FG32">
+        <v>353422</v>
+      </c>
+      <c r="FH32">
+        <v>342770</v>
+      </c>
+      <c r="FI32">
+        <v>633</v>
+      </c>
+      <c r="FJ32">
+        <v>16955</v>
+      </c>
+      <c r="FK32">
+        <v>60083</v>
+      </c>
+      <c r="FL32">
+        <v>326528</v>
+      </c>
+      <c r="FM32">
+        <v>374077</v>
+      </c>
+      <c r="FN32">
+        <v>896</v>
+      </c>
+      <c r="FO32">
+        <v>12934</v>
+      </c>
+      <c r="FP32">
+        <v>45821</v>
+      </c>
+      <c r="FQ32">
+        <v>392209</v>
+      </c>
+      <c r="FR32">
+        <v>479879</v>
+      </c>
+      <c r="FS32">
+        <v>1100</v>
+      </c>
+      <c r="FT32">
+        <v>16279</v>
+      </c>
+      <c r="FU32">
+        <v>41416</v>
+      </c>
+      <c r="FV32">
+        <v>434042</v>
+      </c>
+      <c r="FW32">
+        <v>526459</v>
+      </c>
+      <c r="FX32">
+        <v>1138</v>
+      </c>
+      <c r="FY32">
+        <v>17785</v>
+      </c>
+      <c r="FZ32">
+        <v>47511</v>
+      </c>
+      <c r="GA32">
+        <v>429428</v>
+      </c>
+      <c r="GB32">
+        <v>532514</v>
+      </c>
+      <c r="GC32">
+        <v>922</v>
+      </c>
+      <c r="GD32">
+        <v>17167</v>
+      </c>
+      <c r="GE32">
+        <v>54821</v>
+      </c>
+      <c r="GF32">
+        <v>419971</v>
+      </c>
+      <c r="GG32">
+        <v>525022</v>
+      </c>
+      <c r="GH32">
+        <v>664</v>
+      </c>
+      <c r="GI32">
+        <v>15031</v>
+      </c>
+      <c r="GJ32">
+        <v>58827</v>
+      </c>
+      <c r="GK32">
+        <v>373794</v>
+      </c>
+      <c r="GL32">
+        <v>469311</v>
+      </c>
+      <c r="GM32">
+        <v>498</v>
+      </c>
+      <c r="GN32">
+        <v>12344</v>
+      </c>
+      <c r="GO32">
+        <v>53163</v>
+      </c>
+      <c r="GP32">
+        <v>330540</v>
+      </c>
+      <c r="GQ32">
+        <v>421393</v>
+      </c>
+      <c r="GR32">
+        <v>439</v>
+      </c>
+      <c r="GS32">
+        <v>10126</v>
+      </c>
+      <c r="GT32">
+        <v>45321</v>
+      </c>
+      <c r="GU32">
+        <v>308383</v>
+      </c>
+      <c r="GV32">
+        <v>389793</v>
+      </c>
+      <c r="GW32">
+        <v>399</v>
+      </c>
+      <c r="GX32">
+        <v>8950</v>
+      </c>
+      <c r="GY32">
+        <v>40262</v>
+      </c>
+      <c r="GZ32">
+        <v>263761</v>
+      </c>
+      <c r="HA32">
+        <v>320186</v>
+      </c>
+      <c r="HB32">
+        <v>328</v>
+      </c>
+      <c r="HC32">
+        <v>6605</v>
+      </c>
+      <c r="HD32">
+        <v>31748</v>
+      </c>
+      <c r="HE32">
+        <v>234669</v>
+      </c>
+      <c r="HF32">
+        <v>277445</v>
+      </c>
+      <c r="HG32">
+        <v>234</v>
+      </c>
+      <c r="HH32">
+        <v>5315</v>
+      </c>
+      <c r="HI32">
+        <v>25959</v>
+      </c>
+      <c r="HJ32">
+        <v>181045</v>
+      </c>
+      <c r="HK32">
+        <v>204528</v>
+      </c>
+      <c r="HL32">
+        <v>199</v>
+      </c>
+      <c r="HM32">
+        <v>3637</v>
+      </c>
+      <c r="HN32">
+        <v>18522</v>
+      </c>
+      <c r="HO32">
+        <v>151907</v>
+      </c>
+      <c r="HP32">
+        <v>158619</v>
+      </c>
+      <c r="HQ32">
+        <v>163</v>
+      </c>
+      <c r="HR32">
+        <v>2661</v>
+      </c>
+      <c r="HS32">
+        <v>12349</v>
+      </c>
+      <c r="HT32">
+        <v>116241</v>
+      </c>
+      <c r="HU32">
+        <v>115122</v>
+      </c>
+      <c r="HV32">
+        <v>164</v>
+      </c>
+      <c r="HW32">
+        <v>1870</v>
+      </c>
+      <c r="HX32">
+        <v>7811</v>
+      </c>
+      <c r="HY32">
+        <v>76249</v>
+      </c>
+      <c r="HZ32">
+        <v>80022</v>
+      </c>
+      <c r="IA32">
+        <v>131</v>
+      </c>
+      <c r="IB32">
+        <v>1269</v>
+      </c>
+      <c r="IC32">
+        <v>4531</v>
+      </c>
+      <c r="ID32">
+        <v>81615</v>
+      </c>
+      <c r="IE32">
+        <v>122771</v>
+      </c>
+      <c r="IF32">
+        <v>306</v>
+      </c>
+      <c r="IG32">
+        <v>2257</v>
+      </c>
+      <c r="IH32">
+        <v>3842</v>
+      </c>
+      <c r="II32">
+        <v>2153</v>
+      </c>
+      <c r="IJ32">
+        <v>2310</v>
+      </c>
+      <c r="IK32">
+        <v>24</v>
+      </c>
+      <c r="IL32">
+        <v>201</v>
+      </c>
+      <c r="IM32">
         <v>13482</v>
       </c>
     </row>
@@ -25427,7 +26170,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45269</v>
+        <v>45270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E6DF1-552F-4B4F-9979-E0975CD1DC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA80349-9CD6-47AC-A2C7-6DBBAD09C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1871,16 +1871,16 @@
         <v>30561</v>
       </c>
       <c r="W3">
-        <v>43738</v>
+        <v>43737</v>
       </c>
       <c r="X3">
-        <v>75259</v>
+        <v>75258</v>
       </c>
       <c r="Y3">
-        <v>70914</v>
+        <v>70915</v>
       </c>
       <c r="Z3">
-        <v>55517</v>
+        <v>55518</v>
       </c>
       <c r="AA3">
         <v>42727</v>
@@ -1895,13 +1895,13 @@
         <v>27884</v>
       </c>
       <c r="AE3">
-        <v>22325</v>
+        <v>22324</v>
       </c>
       <c r="AF3">
         <v>17080</v>
       </c>
       <c r="AG3">
-        <v>11937</v>
+        <v>11938</v>
       </c>
       <c r="AH3">
         <v>8406</v>
@@ -1928,16 +1928,16 @@
         <v>31514</v>
       </c>
       <c r="AP3">
-        <v>45247</v>
+        <v>45246</v>
       </c>
       <c r="AQ3">
-        <v>78227</v>
+        <v>78226</v>
       </c>
       <c r="AR3">
-        <v>74444</v>
+        <v>74445</v>
       </c>
       <c r="AS3">
-        <v>58380</v>
+        <v>58381</v>
       </c>
       <c r="AT3">
         <v>44992</v>
@@ -1952,13 +1952,13 @@
         <v>29690</v>
       </c>
       <c r="AX3">
-        <v>24003</v>
+        <v>24002</v>
       </c>
       <c r="AY3">
         <v>18539</v>
       </c>
       <c r="AZ3">
-        <v>12971</v>
+        <v>12972</v>
       </c>
       <c r="BA3">
         <v>9318</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317871</v>
+        <v>10317906</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1996,7 +1996,7 @@
         <v>1288505</v>
       </c>
       <c r="G4">
-        <v>848320</v>
+        <v>848355</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885940</v>
+        <v>10885975</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2023,7 +2023,7 @@
         <v>1289871</v>
       </c>
       <c r="P4">
-        <v>867481</v>
+        <v>867516</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,118 +2035,118 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450542</v>
+        <v>450540</v>
       </c>
       <c r="U4">
-        <v>611246</v>
+        <v>611247</v>
       </c>
       <c r="V4">
-        <v>710187</v>
+        <v>710180</v>
       </c>
       <c r="W4">
-        <v>683355</v>
+        <v>683351</v>
       </c>
       <c r="X4">
-        <v>812045</v>
+        <v>812046</v>
       </c>
       <c r="Y4">
-        <v>899958</v>
+        <v>899952</v>
       </c>
       <c r="Z4">
-        <v>916980</v>
+        <v>916985</v>
       </c>
       <c r="AA4">
-        <v>908886</v>
+        <v>908891</v>
       </c>
       <c r="AB4">
         <v>810340</v>
       </c>
       <c r="AC4">
-        <v>717636</v>
+        <v>717629</v>
       </c>
       <c r="AD4">
-        <v>658707</v>
+        <v>658716</v>
       </c>
       <c r="AE4">
-        <v>544133</v>
+        <v>544127</v>
       </c>
       <c r="AF4">
-        <v>471546</v>
+        <v>471542</v>
       </c>
       <c r="AG4">
-        <v>349066</v>
+        <v>349050</v>
       </c>
       <c r="AH4">
-        <v>274364</v>
+        <v>274357</v>
       </c>
       <c r="AI4">
-        <v>197946</v>
+        <v>197973</v>
       </c>
       <c r="AJ4">
-        <v>128109</v>
+        <v>128124</v>
       </c>
       <c r="AK4">
-        <v>155621</v>
+        <v>155653</v>
       </c>
       <c r="AL4">
-        <v>17204</v>
+        <v>17203</v>
       </c>
       <c r="AM4">
-        <v>473792</v>
+        <v>473790</v>
       </c>
       <c r="AN4">
-        <v>644445</v>
+        <v>644446</v>
       </c>
       <c r="AO4">
-        <v>741701</v>
+        <v>741694</v>
       </c>
       <c r="AP4">
-        <v>728602</v>
+        <v>728597</v>
       </c>
       <c r="AQ4">
         <v>890272</v>
       </c>
       <c r="AR4">
-        <v>974402</v>
+        <v>974397</v>
       </c>
       <c r="AS4">
-        <v>975360</v>
+        <v>975366</v>
       </c>
       <c r="AT4">
-        <v>953878</v>
+        <v>953883</v>
       </c>
       <c r="AU4">
         <v>845958</v>
       </c>
       <c r="AV4">
-        <v>749714</v>
+        <v>749707</v>
       </c>
       <c r="AW4">
-        <v>688397</v>
+        <v>688406</v>
       </c>
       <c r="AX4">
-        <v>568136</v>
+        <v>568129</v>
       </c>
       <c r="AY4">
-        <v>490085</v>
+        <v>490081</v>
       </c>
       <c r="AZ4">
-        <v>362037</v>
+        <v>362022</v>
       </c>
       <c r="BA4">
-        <v>283682</v>
+        <v>283675</v>
       </c>
       <c r="BB4">
-        <v>204418</v>
+        <v>204445</v>
       </c>
       <c r="BC4">
-        <v>132499</v>
+        <v>132514</v>
       </c>
       <c r="BD4">
-        <v>160985</v>
+        <v>161017</v>
       </c>
       <c r="BE4">
-        <v>17577</v>
+        <v>17576</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -2154,22 +2154,22 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>828982</v>
+        <v>829650</v>
       </c>
       <c r="C5">
-        <v>299061</v>
+        <v>299275</v>
       </c>
       <c r="D5">
         <v>153962</v>
       </c>
       <c r="E5">
-        <v>133177</v>
+        <v>133407</v>
       </c>
       <c r="F5">
         <v>93149</v>
       </c>
       <c r="G5">
-        <v>89513</v>
+        <v>89737</v>
       </c>
       <c r="H5">
         <v>30998</v>
@@ -2181,22 +2181,22 @@
         <v>6376</v>
       </c>
       <c r="K5">
-        <v>11714922</v>
+        <v>11715625</v>
       </c>
       <c r="L5">
-        <v>3952455</v>
+        <v>3952669</v>
       </c>
       <c r="M5">
         <v>2995445</v>
       </c>
       <c r="N5">
-        <v>1753041</v>
+        <v>1753271</v>
       </c>
       <c r="O5">
         <v>1383020</v>
       </c>
       <c r="P5">
-        <v>956994</v>
+        <v>957253</v>
       </c>
       <c r="Q5">
         <v>312541</v>
@@ -2208,118 +2208,118 @@
         <v>110343</v>
       </c>
       <c r="T5">
-        <v>29620</v>
+        <v>29667</v>
       </c>
       <c r="U5">
-        <v>23794</v>
+        <v>23807</v>
       </c>
       <c r="V5">
-        <v>32162</v>
+        <v>32175</v>
       </c>
       <c r="W5">
-        <v>31654</v>
+        <v>31668</v>
       </c>
       <c r="X5">
-        <v>40611</v>
+        <v>40636</v>
       </c>
       <c r="Y5">
-        <v>52533</v>
+        <v>52558</v>
       </c>
       <c r="Z5">
-        <v>59492</v>
+        <v>59525</v>
       </c>
       <c r="AA5">
-        <v>65637</v>
+        <v>65669</v>
       </c>
       <c r="AB5">
-        <v>63152</v>
+        <v>63185</v>
       </c>
       <c r="AC5">
-        <v>58105</v>
+        <v>58144</v>
       </c>
       <c r="AD5">
-        <v>59390</v>
+        <v>59429</v>
       </c>
       <c r="AE5">
-        <v>54492</v>
+        <v>54534</v>
       </c>
       <c r="AF5">
-        <v>53537</v>
+        <v>53567</v>
       </c>
       <c r="AG5">
-        <v>45894</v>
+        <v>45942</v>
       </c>
       <c r="AH5">
-        <v>42017</v>
+        <v>42072</v>
       </c>
       <c r="AI5">
-        <v>36790</v>
+        <v>36835</v>
       </c>
       <c r="AJ5">
-        <v>29703</v>
+        <v>29753</v>
       </c>
       <c r="AK5">
-        <v>49806</v>
+        <v>49891</v>
       </c>
       <c r="AL5">
         <v>593</v>
       </c>
       <c r="AM5">
-        <v>503412</v>
+        <v>503457</v>
       </c>
       <c r="AN5">
-        <v>668239</v>
+        <v>668253</v>
       </c>
       <c r="AO5">
-        <v>773863</v>
+        <v>773869</v>
       </c>
       <c r="AP5">
-        <v>760256</v>
+        <v>760265</v>
       </c>
       <c r="AQ5">
-        <v>930883</v>
+        <v>930908</v>
       </c>
       <c r="AR5">
-        <v>1026935</v>
+        <v>1026955</v>
       </c>
       <c r="AS5">
-        <v>1034852</v>
+        <v>1034891</v>
       </c>
       <c r="AT5">
-        <v>1019515</v>
+        <v>1019552</v>
       </c>
       <c r="AU5">
-        <v>909110</v>
+        <v>909143</v>
       </c>
       <c r="AV5">
-        <v>807819</v>
+        <v>807851</v>
       </c>
       <c r="AW5">
-        <v>747787</v>
+        <v>747835</v>
       </c>
       <c r="AX5">
-        <v>622628</v>
+        <v>622663</v>
       </c>
       <c r="AY5">
-        <v>543622</v>
+        <v>543648</v>
       </c>
       <c r="AZ5">
-        <v>407931</v>
+        <v>407964</v>
       </c>
       <c r="BA5">
-        <v>325699</v>
+        <v>325747</v>
       </c>
       <c r="BB5">
-        <v>241208</v>
+        <v>241280</v>
       </c>
       <c r="BC5">
-        <v>162202</v>
+        <v>162267</v>
       </c>
       <c r="BD5">
-        <v>210791</v>
+        <v>210908</v>
       </c>
       <c r="BE5">
-        <v>18170</v>
+        <v>18169</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809618</v>
+        <v>1809629</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90084</v>
+        <v>90095</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377687</v>
+        <v>2377698</v>
       </c>
       <c r="L26" s="3">
         <v>922448</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109245</v>
+        <v>109256</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687548</v>
+        <v>687552</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065235</v>
+        <v>3065250</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153666</v>
+        <v>153681</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366779</v>
+        <v>1366783</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3952,7 +3952,7 @@
         <v>179288</v>
       </c>
       <c r="G28" s="3">
-        <v>120496</v>
+        <v>120500</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432014</v>
+        <v>4432033</v>
       </c>
       <c r="L28" s="3">
         <v>1689283</v>
@@ -3979,7 +3979,7 @@
         <v>193322</v>
       </c>
       <c r="P28" s="3">
-        <v>274162</v>
+        <v>274181</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339883</v>
+        <v>1339895</v>
       </c>
       <c r="C29" s="3">
         <v>432381</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139824</v>
+        <v>139836</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771897</v>
+        <v>5771928</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400165</v>
       </c>
       <c r="P29" s="3">
-        <v>413986</v>
+        <v>414017</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310369</v>
+        <v>1310371</v>
       </c>
       <c r="C30" s="3">
         <v>297268</v>
@@ -4070,7 +4070,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108138</v>
+        <v>108140</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082266</v>
+        <v>7082299</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4097,7 +4097,7 @@
         <v>754253</v>
       </c>
       <c r="P30" s="3">
-        <v>522124</v>
+        <v>522157</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884298</v>
+        <v>884300</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77319</v>
+        <v>77321</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966564</v>
+        <v>7966599</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4156,7 +4156,7 @@
         <v>936892</v>
       </c>
       <c r="P31" s="3">
-        <v>599443</v>
+        <v>599478</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216910</v>
+        <v>9216945</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4215,7 +4215,7 @@
         <v>1095157</v>
       </c>
       <c r="P32" s="3">
-        <v>716843</v>
+        <v>716878</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771770</v>
+        <v>9771805</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4274,7 +4274,7 @@
         <v>1154228</v>
       </c>
       <c r="P33" s="3">
-        <v>757354</v>
+        <v>757389</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966024</v>
+        <v>9966059</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4333,7 +4333,7 @@
         <v>1178500</v>
       </c>
       <c r="P34" s="3">
-        <v>772638</v>
+        <v>772673</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108129</v>
+        <v>10108164</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4392,7 +4392,7 @@
         <v>1201926</v>
       </c>
       <c r="P35" s="3">
-        <v>785813</v>
+        <v>785848</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460073</v>
+        <v>10460108</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4451,7 +4451,7 @@
         <v>1244560</v>
       </c>
       <c r="P36" s="3">
-        <v>822976</v>
+        <v>823011</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885940</v>
+        <v>10885975</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4510,7 +4510,7 @@
         <v>1289871</v>
       </c>
       <c r="P37" s="3">
-        <v>867481</v>
+        <v>867516</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016023</v>
+        <v>11016058</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4569,7 +4569,7 @@
         <v>1306727</v>
       </c>
       <c r="P38" s="3">
-        <v>879371</v>
+        <v>879406</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088012</v>
+        <v>11088047</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4628,7 +4628,7 @@
         <v>1315599</v>
       </c>
       <c r="P39" s="3">
-        <v>886224</v>
+        <v>886259</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11191991</v>
+        <v>11192026</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4687,7 +4687,7 @@
         <v>1328561</v>
       </c>
       <c r="P40" s="3">
-        <v>897724</v>
+        <v>897759</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315157</v>
+        <v>11315192</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4746,7 +4746,7 @@
         <v>1342948</v>
       </c>
       <c r="P41" s="3">
-        <v>910053</v>
+        <v>910088</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481408</v>
+        <v>11481443</v>
       </c>
       <c r="L42" s="3">
         <v>3872846</v>
@@ -4805,7 +4805,7 @@
         <v>1361036</v>
       </c>
       <c r="P42" s="3">
-        <v>924966</v>
+        <v>925001</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559209</v>
+        <v>11559244</v>
       </c>
       <c r="L43" s="3">
         <v>3901028</v>
@@ -4864,7 +4864,7 @@
         <v>1369454</v>
       </c>
       <c r="P43" s="3">
-        <v>932180</v>
+        <v>932215</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587409</v>
+        <v>11587444</v>
       </c>
       <c r="L44" s="3">
         <v>3911313</v>
@@ -4923,7 +4923,7 @@
         <v>1373106</v>
       </c>
       <c r="P44" s="3">
-        <v>935109</v>
+        <v>935144</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610827</v>
+        <v>11610862</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4982,7 +4982,7 @@
         <v>1376104</v>
       </c>
       <c r="P45" s="3">
-        <v>937558</v>
+        <v>937593</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632932</v>
+        <v>11632967</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5041,7 +5041,7 @@
         <v>1378662</v>
       </c>
       <c r="P46" s="3">
-        <v>940591</v>
+        <v>940626</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660835</v>
+        <v>11660870</v>
       </c>
       <c r="L47" s="3">
         <v>3937124</v>
@@ -5100,7 +5100,7 @@
         <v>1380660</v>
       </c>
       <c r="P47" s="3">
-        <v>945668</v>
+        <v>945703</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,7 +5117,7 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
@@ -5132,7 +5132,7 @@
         <v>2178</v>
       </c>
       <c r="G48" s="3">
-        <v>9327</v>
+        <v>9328</v>
       </c>
       <c r="H48" s="3">
         <v>4146</v>
@@ -5144,7 +5144,7 @@
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704707</v>
+        <v>11704743</v>
       </c>
       <c r="L48" s="3">
         <v>3949410</v>
@@ -5159,7 +5159,7 @@
         <v>1382838</v>
       </c>
       <c r="P48" s="3">
-        <v>954995</v>
+        <v>955031</v>
       </c>
       <c r="Q48" s="3">
         <v>311667</v>
@@ -5176,22 +5176,22 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>10215</v>
+        <v>10882</v>
       </c>
       <c r="C49">
-        <v>3045</v>
+        <v>3259</v>
       </c>
       <c r="D49">
         <v>1193</v>
       </c>
       <c r="E49">
-        <v>2488</v>
+        <v>2718</v>
       </c>
       <c r="F49">
         <v>182</v>
       </c>
       <c r="G49">
-        <v>1999</v>
+        <v>2222</v>
       </c>
       <c r="H49">
         <v>874</v>
@@ -5203,22 +5203,22 @@
         <v>82</v>
       </c>
       <c r="K49">
-        <v>11714922</v>
+        <v>11715625</v>
       </c>
       <c r="L49">
-        <v>3952455</v>
+        <v>3952669</v>
       </c>
       <c r="M49">
         <v>2995445</v>
       </c>
       <c r="N49">
-        <v>1753041</v>
+        <v>1753271</v>
       </c>
       <c r="O49">
         <v>1383020</v>
       </c>
       <c r="P49">
-        <v>956994</v>
+        <v>957253</v>
       </c>
       <c r="Q49">
         <v>312541</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM32"/>
+  <dimension ref="A1:IM33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26144,6 +26144,749 @@
       </c>
       <c r="IM32">
         <v>13482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B33">
+        <v>703</v>
+      </c>
+      <c r="C33">
+        <v>214</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>230</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>259</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>11715625</v>
+      </c>
+      <c r="L33">
+        <v>3952669</v>
+      </c>
+      <c r="M33">
+        <v>2995445</v>
+      </c>
+      <c r="N33">
+        <v>1753271</v>
+      </c>
+      <c r="O33">
+        <v>1383020</v>
+      </c>
+      <c r="P33">
+        <v>957253</v>
+      </c>
+      <c r="Q33">
+        <v>312541</v>
+      </c>
+      <c r="R33">
+        <v>251083</v>
+      </c>
+      <c r="S33">
+        <v>110343</v>
+      </c>
+      <c r="T33">
+        <v>45</v>
+      </c>
+      <c r="U33">
+        <v>14</v>
+      </c>
+      <c r="V33">
+        <v>6</v>
+      </c>
+      <c r="W33">
+        <v>9</v>
+      </c>
+      <c r="X33">
+        <v>25</v>
+      </c>
+      <c r="Y33">
+        <v>20</v>
+      </c>
+      <c r="Z33">
+        <v>39</v>
+      </c>
+      <c r="AA33">
+        <v>37</v>
+      </c>
+      <c r="AB33">
+        <v>33</v>
+      </c>
+      <c r="AC33">
+        <v>32</v>
+      </c>
+      <c r="AD33">
+        <v>48</v>
+      </c>
+      <c r="AE33">
+        <v>35</v>
+      </c>
+      <c r="AF33">
+        <v>26</v>
+      </c>
+      <c r="AG33">
+        <v>33</v>
+      </c>
+      <c r="AH33">
+        <v>48</v>
+      </c>
+      <c r="AI33">
+        <v>72</v>
+      </c>
+      <c r="AJ33">
+        <v>65</v>
+      </c>
+      <c r="AK33">
+        <v>117</v>
+      </c>
+      <c r="AL33">
+        <v>-1</v>
+      </c>
+      <c r="AM33">
+        <v>503457</v>
+      </c>
+      <c r="AN33">
+        <v>668253</v>
+      </c>
+      <c r="AO33">
+        <v>773869</v>
+      </c>
+      <c r="AP33">
+        <v>760265</v>
+      </c>
+      <c r="AQ33">
+        <v>930908</v>
+      </c>
+      <c r="AR33">
+        <v>1026955</v>
+      </c>
+      <c r="AS33">
+        <v>1034891</v>
+      </c>
+      <c r="AT33">
+        <v>1019552</v>
+      </c>
+      <c r="AU33">
+        <v>909143</v>
+      </c>
+      <c r="AV33">
+        <v>807851</v>
+      </c>
+      <c r="AW33">
+        <v>747835</v>
+      </c>
+      <c r="AX33">
+        <v>622663</v>
+      </c>
+      <c r="AY33">
+        <v>543648</v>
+      </c>
+      <c r="AZ33">
+        <v>407964</v>
+      </c>
+      <c r="BA33">
+        <v>325747</v>
+      </c>
+      <c r="BB33">
+        <v>241280</v>
+      </c>
+      <c r="BC33">
+        <v>162267</v>
+      </c>
+      <c r="BD33">
+        <v>210908</v>
+      </c>
+      <c r="BE33">
+        <v>18169</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>0</v>
+      </c>
+      <c r="BV33">
+        <v>0</v>
+      </c>
+      <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BX33">
+        <v>0</v>
+      </c>
+      <c r="BY33">
+        <v>0</v>
+      </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+      <c r="CA33">
+        <v>0</v>
+      </c>
+      <c r="CB33">
+        <v>0</v>
+      </c>
+      <c r="CC33">
+        <v>0</v>
+      </c>
+      <c r="CD33">
+        <v>0</v>
+      </c>
+      <c r="CE33">
+        <v>0</v>
+      </c>
+      <c r="CF33">
+        <v>0</v>
+      </c>
+      <c r="CG33">
+        <v>0</v>
+      </c>
+      <c r="CH33">
+        <v>0</v>
+      </c>
+      <c r="CI33">
+        <v>0</v>
+      </c>
+      <c r="CJ33">
+        <v>0</v>
+      </c>
+      <c r="CK33">
+        <v>0</v>
+      </c>
+      <c r="CL33">
+        <v>0</v>
+      </c>
+      <c r="CM33">
+        <v>0</v>
+      </c>
+      <c r="CN33">
+        <v>0</v>
+      </c>
+      <c r="CO33">
+        <v>0</v>
+      </c>
+      <c r="CP33">
+        <v>0</v>
+      </c>
+      <c r="CQ33">
+        <v>0</v>
+      </c>
+      <c r="CR33">
+        <v>0</v>
+      </c>
+      <c r="CS33">
+        <v>0</v>
+      </c>
+      <c r="CT33">
+        <v>0</v>
+      </c>
+      <c r="CU33">
+        <v>0</v>
+      </c>
+      <c r="CV33">
+        <v>0</v>
+      </c>
+      <c r="CW33">
+        <v>0</v>
+      </c>
+      <c r="CX33">
+        <v>0</v>
+      </c>
+      <c r="CY33">
+        <v>0</v>
+      </c>
+      <c r="CZ33">
+        <v>0</v>
+      </c>
+      <c r="DA33">
+        <v>0</v>
+      </c>
+      <c r="DB33">
+        <v>0</v>
+      </c>
+      <c r="DC33">
+        <v>0</v>
+      </c>
+      <c r="DD33">
+        <v>0</v>
+      </c>
+      <c r="DE33">
+        <v>0</v>
+      </c>
+      <c r="DF33">
+        <v>0</v>
+      </c>
+      <c r="DG33">
+        <v>0</v>
+      </c>
+      <c r="DH33">
+        <v>0</v>
+      </c>
+      <c r="DI33">
+        <v>0</v>
+      </c>
+      <c r="DJ33">
+        <v>0</v>
+      </c>
+      <c r="DK33">
+        <v>0</v>
+      </c>
+      <c r="DL33">
+        <v>0</v>
+      </c>
+      <c r="DM33">
+        <v>0</v>
+      </c>
+      <c r="DN33">
+        <v>0</v>
+      </c>
+      <c r="DO33">
+        <v>0</v>
+      </c>
+      <c r="DP33">
+        <v>0</v>
+      </c>
+      <c r="DQ33">
+        <v>0</v>
+      </c>
+      <c r="DR33">
+        <v>0</v>
+      </c>
+      <c r="DS33">
+        <v>0</v>
+      </c>
+      <c r="DT33">
+        <v>0</v>
+      </c>
+      <c r="DU33">
+        <v>0</v>
+      </c>
+      <c r="DV33">
+        <v>0</v>
+      </c>
+      <c r="DW33">
+        <v>0</v>
+      </c>
+      <c r="DX33">
+        <v>0</v>
+      </c>
+      <c r="DY33">
+        <v>0</v>
+      </c>
+      <c r="DZ33">
+        <v>0</v>
+      </c>
+      <c r="EA33">
+        <v>0</v>
+      </c>
+      <c r="EB33">
+        <v>0</v>
+      </c>
+      <c r="EC33">
+        <v>0</v>
+      </c>
+      <c r="ED33">
+        <v>0</v>
+      </c>
+      <c r="EE33">
+        <v>0</v>
+      </c>
+      <c r="EF33">
+        <v>0</v>
+      </c>
+      <c r="EG33">
+        <v>0</v>
+      </c>
+      <c r="EH33">
+        <v>0</v>
+      </c>
+      <c r="EI33">
+        <v>0</v>
+      </c>
+      <c r="EJ33">
+        <v>0</v>
+      </c>
+      <c r="EK33">
+        <v>0</v>
+      </c>
+      <c r="EL33">
+        <v>0</v>
+      </c>
+      <c r="EM33">
+        <v>0</v>
+      </c>
+      <c r="EN33">
+        <v>0</v>
+      </c>
+      <c r="EO33">
+        <v>0</v>
+      </c>
+      <c r="EP33">
+        <v>0</v>
+      </c>
+      <c r="EQ33">
+        <v>0</v>
+      </c>
+      <c r="ER33">
+        <v>0</v>
+      </c>
+      <c r="ES33">
+        <v>0</v>
+      </c>
+      <c r="ET33">
+        <v>0</v>
+      </c>
+      <c r="EU33">
+        <v>0</v>
+      </c>
+      <c r="EV33">
+        <v>0</v>
+      </c>
+      <c r="EW33">
+        <v>231863</v>
+      </c>
+      <c r="EX33">
+        <v>220085</v>
+      </c>
+      <c r="EY33">
+        <v>409</v>
+      </c>
+      <c r="EZ33">
+        <v>15452</v>
+      </c>
+      <c r="FA33">
+        <v>35648</v>
+      </c>
+      <c r="FB33">
+        <v>308177</v>
+      </c>
+      <c r="FC33">
+        <v>292807</v>
+      </c>
+      <c r="FD33">
+        <v>466</v>
+      </c>
+      <c r="FE33">
+        <v>16770</v>
+      </c>
+      <c r="FF33">
+        <v>50033</v>
+      </c>
+      <c r="FG33">
+        <v>353428</v>
+      </c>
+      <c r="FH33">
+        <v>342770</v>
+      </c>
+      <c r="FI33">
+        <v>633</v>
+      </c>
+      <c r="FJ33">
+        <v>16955</v>
+      </c>
+      <c r="FK33">
+        <v>60083</v>
+      </c>
+      <c r="FL33">
+        <v>326534</v>
+      </c>
+      <c r="FM33">
+        <v>374080</v>
+      </c>
+      <c r="FN33">
+        <v>896</v>
+      </c>
+      <c r="FO33">
+        <v>12934</v>
+      </c>
+      <c r="FP33">
+        <v>45821</v>
+      </c>
+      <c r="FQ33">
+        <v>392215</v>
+      </c>
+      <c r="FR33">
+        <v>479898</v>
+      </c>
+      <c r="FS33">
+        <v>1100</v>
+      </c>
+      <c r="FT33">
+        <v>16279</v>
+      </c>
+      <c r="FU33">
+        <v>41416</v>
+      </c>
+      <c r="FV33">
+        <v>434051</v>
+      </c>
+      <c r="FW33">
+        <v>526470</v>
+      </c>
+      <c r="FX33">
+        <v>1138</v>
+      </c>
+      <c r="FY33">
+        <v>17785</v>
+      </c>
+      <c r="FZ33">
+        <v>47511</v>
+      </c>
+      <c r="GA33">
+        <v>429452</v>
+      </c>
+      <c r="GB33">
+        <v>532529</v>
+      </c>
+      <c r="GC33">
+        <v>922</v>
+      </c>
+      <c r="GD33">
+        <v>17167</v>
+      </c>
+      <c r="GE33">
+        <v>54821</v>
+      </c>
+      <c r="GF33">
+        <v>419985</v>
+      </c>
+      <c r="GG33">
+        <v>525045</v>
+      </c>
+      <c r="GH33">
+        <v>664</v>
+      </c>
+      <c r="GI33">
+        <v>15031</v>
+      </c>
+      <c r="GJ33">
+        <v>58827</v>
+      </c>
+      <c r="GK33">
+        <v>373807</v>
+      </c>
+      <c r="GL33">
+        <v>469331</v>
+      </c>
+      <c r="GM33">
+        <v>498</v>
+      </c>
+      <c r="GN33">
+        <v>12344</v>
+      </c>
+      <c r="GO33">
+        <v>53163</v>
+      </c>
+      <c r="GP33">
+        <v>330550</v>
+      </c>
+      <c r="GQ33">
+        <v>421415</v>
+      </c>
+      <c r="GR33">
+        <v>439</v>
+      </c>
+      <c r="GS33">
+        <v>10126</v>
+      </c>
+      <c r="GT33">
+        <v>45321</v>
+      </c>
+      <c r="GU33">
+        <v>308400</v>
+      </c>
+      <c r="GV33">
+        <v>389824</v>
+      </c>
+      <c r="GW33">
+        <v>399</v>
+      </c>
+      <c r="GX33">
+        <v>8950</v>
+      </c>
+      <c r="GY33">
+        <v>40262</v>
+      </c>
+      <c r="GZ33">
+        <v>263772</v>
+      </c>
+      <c r="HA33">
+        <v>320210</v>
+      </c>
+      <c r="HB33">
+        <v>328</v>
+      </c>
+      <c r="HC33">
+        <v>6605</v>
+      </c>
+      <c r="HD33">
+        <v>31748</v>
+      </c>
+      <c r="HE33">
+        <v>234682</v>
+      </c>
+      <c r="HF33">
+        <v>277458</v>
+      </c>
+      <c r="HG33">
+        <v>234</v>
+      </c>
+      <c r="HH33">
+        <v>5315</v>
+      </c>
+      <c r="HI33">
+        <v>25959</v>
+      </c>
+      <c r="HJ33">
+        <v>181047</v>
+      </c>
+      <c r="HK33">
+        <v>204559</v>
+      </c>
+      <c r="HL33">
+        <v>199</v>
+      </c>
+      <c r="HM33">
+        <v>3637</v>
+      </c>
+      <c r="HN33">
+        <v>18522</v>
+      </c>
+      <c r="HO33">
+        <v>151945</v>
+      </c>
+      <c r="HP33">
+        <v>158629</v>
+      </c>
+      <c r="HQ33">
+        <v>163</v>
+      </c>
+      <c r="HR33">
+        <v>2661</v>
+      </c>
+      <c r="HS33">
+        <v>12349</v>
+      </c>
+      <c r="HT33">
+        <v>116268</v>
+      </c>
+      <c r="HU33">
+        <v>115167</v>
+      </c>
+      <c r="HV33">
+        <v>164</v>
+      </c>
+      <c r="HW33">
+        <v>1870</v>
+      </c>
+      <c r="HX33">
+        <v>7811</v>
+      </c>
+      <c r="HY33">
+        <v>76284</v>
+      </c>
+      <c r="HZ33">
+        <v>80052</v>
+      </c>
+      <c r="IA33">
+        <v>131</v>
+      </c>
+      <c r="IB33">
+        <v>1269</v>
+      </c>
+      <c r="IC33">
+        <v>4531</v>
+      </c>
+      <c r="ID33">
+        <v>81666</v>
+      </c>
+      <c r="IE33">
+        <v>122837</v>
+      </c>
+      <c r="IF33">
+        <v>306</v>
+      </c>
+      <c r="IG33">
+        <v>2257</v>
+      </c>
+      <c r="IH33">
+        <v>3842</v>
+      </c>
+      <c r="II33">
+        <v>2153</v>
+      </c>
+      <c r="IJ33">
+        <v>2310</v>
+      </c>
+      <c r="IK33">
+        <v>24</v>
+      </c>
+      <c r="IL33">
+        <v>201</v>
+      </c>
+      <c r="IM33">
+        <v>13481</v>
       </c>
     </row>
   </sheetData>
@@ -26170,7 +26913,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45270</v>
+        <v>45271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA80349-9CD6-47AC-A2C7-6DBBAD09C051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EFBB34-4F04-454B-8EC5-953665759BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1880,10 +1880,10 @@
         <v>70915</v>
       </c>
       <c r="Z3">
-        <v>55518</v>
+        <v>55517</v>
       </c>
       <c r="AA3">
-        <v>42727</v>
+        <v>42728</v>
       </c>
       <c r="AB3">
         <v>33829</v>
@@ -1892,7 +1892,7 @@
         <v>30113</v>
       </c>
       <c r="AD3">
-        <v>27884</v>
+        <v>27883</v>
       </c>
       <c r="AE3">
         <v>22324</v>
@@ -1901,7 +1901,7 @@
         <v>17080</v>
       </c>
       <c r="AG3">
-        <v>11938</v>
+        <v>11939</v>
       </c>
       <c r="AH3">
         <v>8406</v>
@@ -1937,10 +1937,10 @@
         <v>74445</v>
       </c>
       <c r="AS3">
-        <v>58381</v>
+        <v>58380</v>
       </c>
       <c r="AT3">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="AU3">
         <v>35618</v>
@@ -1949,7 +1949,7 @@
         <v>32078</v>
       </c>
       <c r="AW3">
-        <v>29690</v>
+        <v>29689</v>
       </c>
       <c r="AX3">
         <v>24002</v>
@@ -1958,7 +1958,7 @@
         <v>18539</v>
       </c>
       <c r="AZ3">
-        <v>12972</v>
+        <v>12973</v>
       </c>
       <c r="BA3">
         <v>9318</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317906</v>
+        <v>10317913</v>
       </c>
       <c r="C4">
         <v>3368111</v>
@@ -1996,7 +1996,7 @@
         <v>1288505</v>
       </c>
       <c r="G4">
-        <v>848355</v>
+        <v>848362</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885975</v>
+        <v>10885982</v>
       </c>
       <c r="L4">
         <v>3653394</v>
@@ -2023,7 +2023,7 @@
         <v>1289871</v>
       </c>
       <c r="P4">
-        <v>867516</v>
+        <v>867523</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,115 +2035,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450540</v>
+        <v>450539</v>
       </c>
       <c r="U4">
-        <v>611247</v>
+        <v>611246</v>
       </c>
       <c r="V4">
-        <v>710180</v>
+        <v>710182</v>
       </c>
       <c r="W4">
-        <v>683351</v>
+        <v>683347</v>
       </c>
       <c r="X4">
-        <v>812046</v>
+        <v>812047</v>
       </c>
       <c r="Y4">
-        <v>899952</v>
+        <v>899948</v>
       </c>
       <c r="Z4">
-        <v>916985</v>
+        <v>916983</v>
       </c>
       <c r="AA4">
-        <v>908891</v>
+        <v>908896</v>
       </c>
       <c r="AB4">
-        <v>810340</v>
+        <v>810339</v>
       </c>
       <c r="AC4">
-        <v>717629</v>
+        <v>717631</v>
       </c>
       <c r="AD4">
-        <v>658716</v>
+        <v>658719</v>
       </c>
       <c r="AE4">
-        <v>544127</v>
+        <v>544123</v>
       </c>
       <c r="AF4">
-        <v>471542</v>
+        <v>471540</v>
       </c>
       <c r="AG4">
-        <v>349050</v>
+        <v>349045</v>
       </c>
       <c r="AH4">
-        <v>274357</v>
+        <v>274356</v>
       </c>
       <c r="AI4">
-        <v>197973</v>
+        <v>197982</v>
       </c>
       <c r="AJ4">
-        <v>128124</v>
+        <v>128132</v>
       </c>
       <c r="AK4">
-        <v>155653</v>
+        <v>155655</v>
       </c>
       <c r="AL4">
         <v>17203</v>
       </c>
       <c r="AM4">
-        <v>473790</v>
+        <v>473789</v>
       </c>
       <c r="AN4">
-        <v>644446</v>
+        <v>644445</v>
       </c>
       <c r="AO4">
-        <v>741694</v>
+        <v>741696</v>
       </c>
       <c r="AP4">
-        <v>728597</v>
+        <v>728593</v>
       </c>
       <c r="AQ4">
-        <v>890272</v>
+        <v>890273</v>
       </c>
       <c r="AR4">
-        <v>974397</v>
+        <v>974393</v>
       </c>
       <c r="AS4">
-        <v>975366</v>
+        <v>975363</v>
       </c>
       <c r="AT4">
-        <v>953883</v>
+        <v>953889</v>
       </c>
       <c r="AU4">
-        <v>845958</v>
+        <v>845957</v>
       </c>
       <c r="AV4">
-        <v>749707</v>
+        <v>749709</v>
       </c>
       <c r="AW4">
-        <v>688406</v>
+        <v>688408</v>
       </c>
       <c r="AX4">
-        <v>568129</v>
+        <v>568125</v>
       </c>
       <c r="AY4">
-        <v>490081</v>
+        <v>490079</v>
       </c>
       <c r="AZ4">
-        <v>362022</v>
+        <v>362018</v>
       </c>
       <c r="BA4">
-        <v>283675</v>
+        <v>283674</v>
       </c>
       <c r="BB4">
-        <v>204445</v>
+        <v>204454</v>
       </c>
       <c r="BC4">
-        <v>132514</v>
+        <v>132522</v>
       </c>
       <c r="BD4">
-        <v>161017</v>
+        <v>161019</v>
       </c>
       <c r="BE4">
         <v>17576</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>829650</v>
+        <v>831717</v>
       </c>
       <c r="C5">
-        <v>299275</v>
+        <v>300156</v>
       </c>
       <c r="D5">
-        <v>153962</v>
+        <v>154524</v>
       </c>
       <c r="E5">
-        <v>133407</v>
+        <v>133620</v>
       </c>
       <c r="F5">
         <v>93149</v>
       </c>
       <c r="G5">
-        <v>89737</v>
+        <v>89997</v>
       </c>
       <c r="H5">
         <v>30998</v>
       </c>
       <c r="I5">
-        <v>22746</v>
+        <v>22882</v>
       </c>
       <c r="J5">
-        <v>6376</v>
+        <v>6391</v>
       </c>
       <c r="K5">
-        <v>11715625</v>
+        <v>11717699</v>
       </c>
       <c r="L5">
-        <v>3952669</v>
+        <v>3953550</v>
       </c>
       <c r="M5">
-        <v>2995445</v>
+        <v>2996007</v>
       </c>
       <c r="N5">
-        <v>1753271</v>
+        <v>1753484</v>
       </c>
       <c r="O5">
         <v>1383020</v>
       </c>
       <c r="P5">
-        <v>957253</v>
+        <v>957520</v>
       </c>
       <c r="Q5">
         <v>312541</v>
       </c>
       <c r="R5">
-        <v>251083</v>
+        <v>251219</v>
       </c>
       <c r="S5">
-        <v>110343</v>
+        <v>110358</v>
       </c>
       <c r="T5">
-        <v>29667</v>
+        <v>29796</v>
       </c>
       <c r="U5">
-        <v>23807</v>
+        <v>23830</v>
       </c>
       <c r="V5">
-        <v>32175</v>
+        <v>32213</v>
       </c>
       <c r="W5">
-        <v>31668</v>
+        <v>31719</v>
       </c>
       <c r="X5">
-        <v>40636</v>
+        <v>40724</v>
       </c>
       <c r="Y5">
-        <v>52558</v>
+        <v>52671</v>
       </c>
       <c r="Z5">
-        <v>59525</v>
+        <v>59625</v>
       </c>
       <c r="AA5">
-        <v>65669</v>
+        <v>65815</v>
       </c>
       <c r="AB5">
-        <v>63185</v>
+        <v>63293</v>
       </c>
       <c r="AC5">
-        <v>58144</v>
+        <v>58259</v>
       </c>
       <c r="AD5">
-        <v>59429</v>
+        <v>59545</v>
       </c>
       <c r="AE5">
-        <v>54534</v>
+        <v>54657</v>
       </c>
       <c r="AF5">
-        <v>53567</v>
+        <v>53709</v>
       </c>
       <c r="AG5">
-        <v>45942</v>
+        <v>46061</v>
       </c>
       <c r="AH5">
-        <v>42072</v>
+        <v>42199</v>
       </c>
       <c r="AI5">
-        <v>36835</v>
+        <v>36979</v>
       </c>
       <c r="AJ5">
-        <v>29753</v>
+        <v>29902</v>
       </c>
       <c r="AK5">
-        <v>49891</v>
+        <v>50126</v>
       </c>
       <c r="AL5">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AM5">
-        <v>503457</v>
+        <v>503585</v>
       </c>
       <c r="AN5">
-        <v>668253</v>
+        <v>668275</v>
       </c>
       <c r="AO5">
-        <v>773869</v>
+        <v>773909</v>
       </c>
       <c r="AP5">
-        <v>760265</v>
+        <v>760312</v>
       </c>
       <c r="AQ5">
-        <v>930908</v>
+        <v>930997</v>
       </c>
       <c r="AR5">
-        <v>1026955</v>
+        <v>1027064</v>
       </c>
       <c r="AS5">
-        <v>1034891</v>
+        <v>1034988</v>
       </c>
       <c r="AT5">
-        <v>1019552</v>
+        <v>1019704</v>
       </c>
       <c r="AU5">
-        <v>909143</v>
+        <v>909250</v>
       </c>
       <c r="AV5">
-        <v>807851</v>
+        <v>807968</v>
       </c>
       <c r="AW5">
-        <v>747835</v>
+        <v>747953</v>
       </c>
       <c r="AX5">
-        <v>622663</v>
+        <v>622782</v>
       </c>
       <c r="AY5">
-        <v>543648</v>
+        <v>543788</v>
       </c>
       <c r="AZ5">
-        <v>407964</v>
+        <v>408079</v>
       </c>
       <c r="BA5">
-        <v>325747</v>
+        <v>325873</v>
       </c>
       <c r="BB5">
-        <v>241280</v>
+        <v>241433</v>
       </c>
       <c r="BC5">
-        <v>162267</v>
+        <v>162424</v>
       </c>
       <c r="BD5">
-        <v>210908</v>
+        <v>211145</v>
       </c>
       <c r="BE5">
-        <v>18169</v>
+        <v>18170</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809629</v>
+        <v>1809631</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90095</v>
+        <v>90097</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377698</v>
+        <v>2377700</v>
       </c>
       <c r="L26" s="3">
         <v>922448</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109256</v>
+        <v>109258</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065250</v>
+        <v>3065252</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153681</v>
+        <v>153683</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366783</v>
+        <v>1366785</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3952,7 +3952,7 @@
         <v>179288</v>
       </c>
       <c r="G28" s="3">
-        <v>120500</v>
+        <v>120502</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432033</v>
+        <v>4432037</v>
       </c>
       <c r="L28" s="3">
         <v>1689283</v>
@@ -3979,7 +3979,7 @@
         <v>193322</v>
       </c>
       <c r="P28" s="3">
-        <v>274181</v>
+        <v>274185</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339895</v>
+        <v>1339897</v>
       </c>
       <c r="C29" s="3">
         <v>432381</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139836</v>
+        <v>139838</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771928</v>
+        <v>5771934</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400165</v>
       </c>
       <c r="P29" s="3">
-        <v>414017</v>
+        <v>414023</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082299</v>
+        <v>7082305</v>
       </c>
       <c r="L30" s="3">
         <v>2418932</v>
@@ -4097,7 +4097,7 @@
         <v>754253</v>
       </c>
       <c r="P30" s="3">
-        <v>522157</v>
+        <v>522163</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884300</v>
+        <v>884301</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77321</v>
+        <v>77322</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966599</v>
+        <v>7966606</v>
       </c>
       <c r="L31" s="3">
         <v>2652833</v>
@@ -4156,7 +4156,7 @@
         <v>936892</v>
       </c>
       <c r="P31" s="3">
-        <v>599478</v>
+        <v>599485</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216945</v>
+        <v>9216952</v>
       </c>
       <c r="L32" s="3">
         <v>3031439</v>
@@ -4215,7 +4215,7 @@
         <v>1095157</v>
       </c>
       <c r="P32" s="3">
-        <v>716878</v>
+        <v>716885</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771805</v>
+        <v>9771812</v>
       </c>
       <c r="L33" s="3">
         <v>3261488</v>
@@ -4274,7 +4274,7 @@
         <v>1154228</v>
       </c>
       <c r="P33" s="3">
-        <v>757389</v>
+        <v>757396</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966059</v>
+        <v>9966066</v>
       </c>
       <c r="L34" s="3">
         <v>3330340</v>
@@ -4333,7 +4333,7 @@
         <v>1178500</v>
       </c>
       <c r="P34" s="3">
-        <v>772673</v>
+        <v>772680</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108164</v>
+        <v>10108171</v>
       </c>
       <c r="L35" s="3">
         <v>3374839</v>
@@ -4392,7 +4392,7 @@
         <v>1201926</v>
       </c>
       <c r="P35" s="3">
-        <v>785848</v>
+        <v>785855</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460108</v>
+        <v>10460115</v>
       </c>
       <c r="L36" s="3">
         <v>3496932</v>
@@ -4451,7 +4451,7 @@
         <v>1244560</v>
       </c>
       <c r="P36" s="3">
-        <v>823011</v>
+        <v>823018</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885975</v>
+        <v>10885982</v>
       </c>
       <c r="L37" s="3">
         <v>3653394</v>
@@ -4510,7 +4510,7 @@
         <v>1289871</v>
       </c>
       <c r="P37" s="3">
-        <v>867516</v>
+        <v>867523</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016058</v>
+        <v>11016065</v>
       </c>
       <c r="L38" s="3">
         <v>3699338</v>
@@ -4569,7 +4569,7 @@
         <v>1306727</v>
       </c>
       <c r="P38" s="3">
-        <v>879406</v>
+        <v>879413</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088047</v>
+        <v>11088054</v>
       </c>
       <c r="L39" s="3">
         <v>3724581</v>
@@ -4628,7 +4628,7 @@
         <v>1315599</v>
       </c>
       <c r="P39" s="3">
-        <v>886259</v>
+        <v>886266</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192026</v>
+        <v>11192033</v>
       </c>
       <c r="L40" s="3">
         <v>3763223</v>
@@ -4687,7 +4687,7 @@
         <v>1328561</v>
       </c>
       <c r="P40" s="3">
-        <v>897759</v>
+        <v>897766</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315192</v>
+        <v>11315199</v>
       </c>
       <c r="L41" s="3">
         <v>3810752</v>
@@ -4746,7 +4746,7 @@
         <v>1342948</v>
       </c>
       <c r="P41" s="3">
-        <v>910088</v>
+        <v>910095</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481443</v>
+        <v>11481450</v>
       </c>
       <c r="L42" s="3">
         <v>3872846</v>
@@ -4805,7 +4805,7 @@
         <v>1361036</v>
       </c>
       <c r="P42" s="3">
-        <v>925001</v>
+        <v>925008</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559244</v>
+        <v>11559251</v>
       </c>
       <c r="L43" s="3">
         <v>3901028</v>
@@ -4864,7 +4864,7 @@
         <v>1369454</v>
       </c>
       <c r="P43" s="3">
-        <v>932215</v>
+        <v>932222</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587444</v>
+        <v>11587451</v>
       </c>
       <c r="L44" s="3">
         <v>3911313</v>
@@ -4923,7 +4923,7 @@
         <v>1373106</v>
       </c>
       <c r="P44" s="3">
-        <v>935144</v>
+        <v>935151</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610862</v>
+        <v>11610869</v>
       </c>
       <c r="L45" s="3">
         <v>3920448</v>
@@ -4982,7 +4982,7 @@
         <v>1376104</v>
       </c>
       <c r="P45" s="3">
-        <v>937593</v>
+        <v>937600</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632967</v>
+        <v>11632974</v>
       </c>
       <c r="L46" s="3">
         <v>3929411</v>
@@ -5041,7 +5041,7 @@
         <v>1378662</v>
       </c>
       <c r="P46" s="3">
-        <v>940626</v>
+        <v>940633</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660870</v>
+        <v>11660877</v>
       </c>
       <c r="L47" s="3">
         <v>3937124</v>
@@ -5100,7 +5100,7 @@
         <v>1380660</v>
       </c>
       <c r="P47" s="3">
-        <v>945703</v>
+        <v>945710</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,55 +5117,55 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43873</v>
+        <v>43899</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
       </c>
       <c r="D48" s="3">
-        <v>6074</v>
+        <v>6085</v>
       </c>
       <c r="E48" s="3">
-        <v>7140</v>
+        <v>7151</v>
       </c>
       <c r="F48" s="3">
         <v>2178</v>
       </c>
       <c r="G48" s="3">
-        <v>9328</v>
+        <v>9329</v>
       </c>
       <c r="H48" s="3">
         <v>4146</v>
       </c>
       <c r="I48" s="3">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="J48" s="3">
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704743</v>
+        <v>11704776</v>
       </c>
       <c r="L48" s="3">
         <v>3949410</v>
       </c>
       <c r="M48" s="3">
-        <v>2994252</v>
+        <v>2994263</v>
       </c>
       <c r="N48" s="3">
-        <v>1750553</v>
+        <v>1750564</v>
       </c>
       <c r="O48" s="3">
         <v>1382838</v>
       </c>
       <c r="P48" s="3">
-        <v>955031</v>
+        <v>955039</v>
       </c>
       <c r="Q48" s="3">
         <v>311667</v>
       </c>
       <c r="R48" s="3">
-        <v>250731</v>
+        <v>250734</v>
       </c>
       <c r="S48" s="3">
         <v>110261</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>10882</v>
+        <v>12923</v>
       </c>
       <c r="C49">
-        <v>3259</v>
+        <v>4140</v>
       </c>
       <c r="D49">
-        <v>1193</v>
+        <v>1744</v>
       </c>
       <c r="E49">
-        <v>2718</v>
+        <v>2920</v>
       </c>
       <c r="F49">
         <v>182</v>
       </c>
       <c r="G49">
-        <v>2222</v>
+        <v>2481</v>
       </c>
       <c r="H49">
         <v>874</v>
       </c>
       <c r="I49">
-        <v>352</v>
+        <v>485</v>
       </c>
       <c r="J49">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>11715625</v>
+        <v>11717699</v>
       </c>
       <c r="L49">
-        <v>3952669</v>
+        <v>3953550</v>
       </c>
       <c r="M49">
-        <v>2995445</v>
+        <v>2996007</v>
       </c>
       <c r="N49">
-        <v>1753271</v>
+        <v>1753484</v>
       </c>
       <c r="O49">
         <v>1383020</v>
       </c>
       <c r="P49">
-        <v>957253</v>
+        <v>957520</v>
       </c>
       <c r="Q49">
         <v>312541</v>
       </c>
       <c r="R49">
-        <v>251083</v>
+        <v>251219</v>
       </c>
       <c r="S49">
-        <v>110343</v>
+        <v>110358</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM33"/>
+  <dimension ref="A1:IM34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26886,6 +26886,749 @@
         <v>201</v>
       </c>
       <c r="IM33">
+        <v>13481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B34">
+        <v>2074</v>
+      </c>
+      <c r="C34">
+        <v>881</v>
+      </c>
+      <c r="D34">
+        <v>562</v>
+      </c>
+      <c r="E34">
+        <v>213</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>267</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>136</v>
+      </c>
+      <c r="J34">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>11717699</v>
+      </c>
+      <c r="L34">
+        <v>3953550</v>
+      </c>
+      <c r="M34">
+        <v>2996007</v>
+      </c>
+      <c r="N34">
+        <v>1753484</v>
+      </c>
+      <c r="O34">
+        <v>1383020</v>
+      </c>
+      <c r="P34">
+        <v>957520</v>
+      </c>
+      <c r="Q34">
+        <v>312541</v>
+      </c>
+      <c r="R34">
+        <v>251219</v>
+      </c>
+      <c r="S34">
+        <v>110358</v>
+      </c>
+      <c r="T34">
+        <v>128</v>
+      </c>
+      <c r="U34">
+        <v>22</v>
+      </c>
+      <c r="V34">
+        <v>40</v>
+      </c>
+      <c r="W34">
+        <v>47</v>
+      </c>
+      <c r="X34">
+        <v>89</v>
+      </c>
+      <c r="Y34">
+        <v>109</v>
+      </c>
+      <c r="Z34">
+        <v>97</v>
+      </c>
+      <c r="AA34">
+        <v>152</v>
+      </c>
+      <c r="AB34">
+        <v>107</v>
+      </c>
+      <c r="AC34">
+        <v>117</v>
+      </c>
+      <c r="AD34">
+        <v>118</v>
+      </c>
+      <c r="AE34">
+        <v>119</v>
+      </c>
+      <c r="AF34">
+        <v>140</v>
+      </c>
+      <c r="AG34">
+        <v>115</v>
+      </c>
+      <c r="AH34">
+        <v>126</v>
+      </c>
+      <c r="AI34">
+        <v>153</v>
+      </c>
+      <c r="AJ34">
+        <v>157</v>
+      </c>
+      <c r="AK34">
+        <v>237</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
+        <v>503585</v>
+      </c>
+      <c r="AN34">
+        <v>668275</v>
+      </c>
+      <c r="AO34">
+        <v>773909</v>
+      </c>
+      <c r="AP34">
+        <v>760312</v>
+      </c>
+      <c r="AQ34">
+        <v>930997</v>
+      </c>
+      <c r="AR34">
+        <v>1027064</v>
+      </c>
+      <c r="AS34">
+        <v>1034988</v>
+      </c>
+      <c r="AT34">
+        <v>1019704</v>
+      </c>
+      <c r="AU34">
+        <v>909250</v>
+      </c>
+      <c r="AV34">
+        <v>807968</v>
+      </c>
+      <c r="AW34">
+        <v>747953</v>
+      </c>
+      <c r="AX34">
+        <v>622782</v>
+      </c>
+      <c r="AY34">
+        <v>543788</v>
+      </c>
+      <c r="AZ34">
+        <v>408079</v>
+      </c>
+      <c r="BA34">
+        <v>325873</v>
+      </c>
+      <c r="BB34">
+        <v>241433</v>
+      </c>
+      <c r="BC34">
+        <v>162424</v>
+      </c>
+      <c r="BD34">
+        <v>211145</v>
+      </c>
+      <c r="BE34">
+        <v>18170</v>
+      </c>
+      <c r="BF34">
+        <v>58</v>
+      </c>
+      <c r="BG34">
+        <v>70</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>9</v>
+      </c>
+      <c r="BL34">
+        <v>13</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>23</v>
+      </c>
+      <c r="BQ34">
+        <v>21</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>-4</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
+        <v>18</v>
+      </c>
+      <c r="BV34">
+        <v>30</v>
+      </c>
+      <c r="BW34">
+        <v>0</v>
+      </c>
+      <c r="BX34">
+        <v>-1</v>
+      </c>
+      <c r="BY34">
+        <v>0</v>
+      </c>
+      <c r="BZ34">
+        <v>35</v>
+      </c>
+      <c r="CA34">
+        <v>53</v>
+      </c>
+      <c r="CB34">
+        <v>1</v>
+      </c>
+      <c r="CC34">
+        <v>0</v>
+      </c>
+      <c r="CD34">
+        <v>0</v>
+      </c>
+      <c r="CE34">
+        <v>29</v>
+      </c>
+      <c r="CF34">
+        <v>80</v>
+      </c>
+      <c r="CG34">
+        <v>0</v>
+      </c>
+      <c r="CH34">
+        <v>0</v>
+      </c>
+      <c r="CI34">
+        <v>0</v>
+      </c>
+      <c r="CJ34">
+        <v>37</v>
+      </c>
+      <c r="CK34">
+        <v>60</v>
+      </c>
+      <c r="CL34">
+        <v>0</v>
+      </c>
+      <c r="CM34">
+        <v>0</v>
+      </c>
+      <c r="CN34">
+        <v>0</v>
+      </c>
+      <c r="CO34">
+        <v>52</v>
+      </c>
+      <c r="CP34">
+        <v>101</v>
+      </c>
+      <c r="CQ34">
+        <v>0</v>
+      </c>
+      <c r="CR34">
+        <v>-1</v>
+      </c>
+      <c r="CS34">
+        <v>0</v>
+      </c>
+      <c r="CT34">
+        <v>40</v>
+      </c>
+      <c r="CU34">
+        <v>67</v>
+      </c>
+      <c r="CV34">
+        <v>0</v>
+      </c>
+      <c r="CW34">
+        <v>0</v>
+      </c>
+      <c r="CX34">
+        <v>0</v>
+      </c>
+      <c r="CY34">
+        <v>50</v>
+      </c>
+      <c r="CZ34">
+        <v>67</v>
+      </c>
+      <c r="DA34">
+        <v>0</v>
+      </c>
+      <c r="DB34">
+        <v>0</v>
+      </c>
+      <c r="DC34">
+        <v>0</v>
+      </c>
+      <c r="DD34">
+        <v>41</v>
+      </c>
+      <c r="DE34">
+        <v>75</v>
+      </c>
+      <c r="DF34">
+        <v>1</v>
+      </c>
+      <c r="DG34">
+        <v>0</v>
+      </c>
+      <c r="DH34">
+        <v>1</v>
+      </c>
+      <c r="DI34">
+        <v>45</v>
+      </c>
+      <c r="DJ34">
+        <v>73</v>
+      </c>
+      <c r="DK34">
+        <v>1</v>
+      </c>
+      <c r="DL34">
+        <v>0</v>
+      </c>
+      <c r="DM34">
+        <v>0</v>
+      </c>
+      <c r="DN34">
+        <v>54</v>
+      </c>
+      <c r="DO34">
+        <v>86</v>
+      </c>
+      <c r="DP34">
+        <v>0</v>
+      </c>
+      <c r="DQ34">
+        <v>0</v>
+      </c>
+      <c r="DR34">
+        <v>0</v>
+      </c>
+      <c r="DS34">
+        <v>62</v>
+      </c>
+      <c r="DT34">
+        <v>54</v>
+      </c>
+      <c r="DU34">
+        <v>0</v>
+      </c>
+      <c r="DV34">
+        <v>-1</v>
+      </c>
+      <c r="DW34">
+        <v>0</v>
+      </c>
+      <c r="DX34">
+        <v>61</v>
+      </c>
+      <c r="DY34">
+        <v>65</v>
+      </c>
+      <c r="DZ34">
+        <v>0</v>
+      </c>
+      <c r="EA34">
+        <v>0</v>
+      </c>
+      <c r="EB34">
+        <v>0</v>
+      </c>
+      <c r="EC34">
+        <v>73</v>
+      </c>
+      <c r="ED34">
+        <v>81</v>
+      </c>
+      <c r="EE34">
+        <v>0</v>
+      </c>
+      <c r="EF34">
+        <v>-1</v>
+      </c>
+      <c r="EG34">
+        <v>0</v>
+      </c>
+      <c r="EH34">
+        <v>64</v>
+      </c>
+      <c r="EI34">
+        <v>94</v>
+      </c>
+      <c r="EJ34">
+        <v>0</v>
+      </c>
+      <c r="EK34">
+        <v>-1</v>
+      </c>
+      <c r="EL34">
+        <v>0</v>
+      </c>
+      <c r="EM34">
+        <v>82</v>
+      </c>
+      <c r="EN34">
+        <v>155</v>
+      </c>
+      <c r="EO34">
+        <v>0</v>
+      </c>
+      <c r="EP34">
+        <v>0</v>
+      </c>
+      <c r="EQ34">
+        <v>0</v>
+      </c>
+      <c r="ER34">
+        <v>0</v>
+      </c>
+      <c r="ES34">
+        <v>0</v>
+      </c>
+      <c r="ET34">
+        <v>1</v>
+      </c>
+      <c r="EU34">
+        <v>0</v>
+      </c>
+      <c r="EV34">
+        <v>0</v>
+      </c>
+      <c r="EW34">
+        <v>231921</v>
+      </c>
+      <c r="EX34">
+        <v>220155</v>
+      </c>
+      <c r="EY34">
+        <v>409</v>
+      </c>
+      <c r="EZ34">
+        <v>15452</v>
+      </c>
+      <c r="FA34">
+        <v>35648</v>
+      </c>
+      <c r="FB34">
+        <v>308186</v>
+      </c>
+      <c r="FC34">
+        <v>292820</v>
+      </c>
+      <c r="FD34">
+        <v>466</v>
+      </c>
+      <c r="FE34">
+        <v>16770</v>
+      </c>
+      <c r="FF34">
+        <v>50033</v>
+      </c>
+      <c r="FG34">
+        <v>353451</v>
+      </c>
+      <c r="FH34">
+        <v>342791</v>
+      </c>
+      <c r="FI34">
+        <v>633</v>
+      </c>
+      <c r="FJ34">
+        <v>16951</v>
+      </c>
+      <c r="FK34">
+        <v>60083</v>
+      </c>
+      <c r="FL34">
+        <v>326552</v>
+      </c>
+      <c r="FM34">
+        <v>374110</v>
+      </c>
+      <c r="FN34">
+        <v>896</v>
+      </c>
+      <c r="FO34">
+        <v>12933</v>
+      </c>
+      <c r="FP34">
+        <v>45821</v>
+      </c>
+      <c r="FQ34">
+        <v>392250</v>
+      </c>
+      <c r="FR34">
+        <v>479951</v>
+      </c>
+      <c r="FS34">
+        <v>1101</v>
+      </c>
+      <c r="FT34">
+        <v>16279</v>
+      </c>
+      <c r="FU34">
+        <v>41416</v>
+      </c>
+      <c r="FV34">
+        <v>434080</v>
+      </c>
+      <c r="FW34">
+        <v>526550</v>
+      </c>
+      <c r="FX34">
+        <v>1138</v>
+      </c>
+      <c r="FY34">
+        <v>17785</v>
+      </c>
+      <c r="FZ34">
+        <v>47511</v>
+      </c>
+      <c r="GA34">
+        <v>429489</v>
+      </c>
+      <c r="GB34">
+        <v>532589</v>
+      </c>
+      <c r="GC34">
+        <v>922</v>
+      </c>
+      <c r="GD34">
+        <v>17167</v>
+      </c>
+      <c r="GE34">
+        <v>54821</v>
+      </c>
+      <c r="GF34">
+        <v>420037</v>
+      </c>
+      <c r="GG34">
+        <v>525146</v>
+      </c>
+      <c r="GH34">
+        <v>664</v>
+      </c>
+      <c r="GI34">
+        <v>15030</v>
+      </c>
+      <c r="GJ34">
+        <v>58827</v>
+      </c>
+      <c r="GK34">
+        <v>373847</v>
+      </c>
+      <c r="GL34">
+        <v>469398</v>
+      </c>
+      <c r="GM34">
+        <v>498</v>
+      </c>
+      <c r="GN34">
+        <v>12344</v>
+      </c>
+      <c r="GO34">
+        <v>53163</v>
+      </c>
+      <c r="GP34">
+        <v>330600</v>
+      </c>
+      <c r="GQ34">
+        <v>421482</v>
+      </c>
+      <c r="GR34">
+        <v>439</v>
+      </c>
+      <c r="GS34">
+        <v>10126</v>
+      </c>
+      <c r="GT34">
+        <v>45321</v>
+      </c>
+      <c r="GU34">
+        <v>308441</v>
+      </c>
+      <c r="GV34">
+        <v>389899</v>
+      </c>
+      <c r="GW34">
+        <v>400</v>
+      </c>
+      <c r="GX34">
+        <v>8950</v>
+      </c>
+      <c r="GY34">
+        <v>40263</v>
+      </c>
+      <c r="GZ34">
+        <v>263817</v>
+      </c>
+      <c r="HA34">
+        <v>320283</v>
+      </c>
+      <c r="HB34">
+        <v>329</v>
+      </c>
+      <c r="HC34">
+        <v>6605</v>
+      </c>
+      <c r="HD34">
+        <v>31748</v>
+      </c>
+      <c r="HE34">
+        <v>234736</v>
+      </c>
+      <c r="HF34">
+        <v>277544</v>
+      </c>
+      <c r="HG34">
+        <v>234</v>
+      </c>
+      <c r="HH34">
+        <v>5315</v>
+      </c>
+      <c r="HI34">
+        <v>25959</v>
+      </c>
+      <c r="HJ34">
+        <v>181109</v>
+      </c>
+      <c r="HK34">
+        <v>204613</v>
+      </c>
+      <c r="HL34">
+        <v>199</v>
+      </c>
+      <c r="HM34">
+        <v>3636</v>
+      </c>
+      <c r="HN34">
+        <v>18522</v>
+      </c>
+      <c r="HO34">
+        <v>152006</v>
+      </c>
+      <c r="HP34">
+        <v>158694</v>
+      </c>
+      <c r="HQ34">
+        <v>163</v>
+      </c>
+      <c r="HR34">
+        <v>2661</v>
+      </c>
+      <c r="HS34">
+        <v>12349</v>
+      </c>
+      <c r="HT34">
+        <v>116341</v>
+      </c>
+      <c r="HU34">
+        <v>115248</v>
+      </c>
+      <c r="HV34">
+        <v>164</v>
+      </c>
+      <c r="HW34">
+        <v>1869</v>
+      </c>
+      <c r="HX34">
+        <v>7811</v>
+      </c>
+      <c r="HY34">
+        <v>76348</v>
+      </c>
+      <c r="HZ34">
+        <v>80146</v>
+      </c>
+      <c r="IA34">
+        <v>131</v>
+      </c>
+      <c r="IB34">
+        <v>1268</v>
+      </c>
+      <c r="IC34">
+        <v>4531</v>
+      </c>
+      <c r="ID34">
+        <v>81748</v>
+      </c>
+      <c r="IE34">
+        <v>122992</v>
+      </c>
+      <c r="IF34">
+        <v>306</v>
+      </c>
+      <c r="IG34">
+        <v>2257</v>
+      </c>
+      <c r="IH34">
+        <v>3842</v>
+      </c>
+      <c r="II34">
+        <v>2153</v>
+      </c>
+      <c r="IJ34">
+        <v>2310</v>
+      </c>
+      <c r="IK34">
+        <v>25</v>
+      </c>
+      <c r="IL34">
+        <v>201</v>
+      </c>
+      <c r="IM34">
         <v>13481</v>
       </c>
     </row>
@@ -26913,7 +27656,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45271</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EFBB34-4F04-454B-8EC5-953665759BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9ABBE5-56DE-408F-9ABF-0C462D5457F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1151,9 +1151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1191,7 +1191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1297,7 +1297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1439,7 +1439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1981,10 +1981,10 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317913</v>
+        <v>10317914</v>
       </c>
       <c r="C4">
-        <v>3368111</v>
+        <v>3368110</v>
       </c>
       <c r="D4">
         <v>2621355</v>
@@ -1996,7 +1996,7 @@
         <v>1288505</v>
       </c>
       <c r="G4">
-        <v>848362</v>
+        <v>848364</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,10 +2008,10 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885982</v>
+        <v>10885983</v>
       </c>
       <c r="L4">
-        <v>3653394</v>
+        <v>3653393</v>
       </c>
       <c r="M4">
         <v>2841483</v>
@@ -2023,7 +2023,7 @@
         <v>1289871</v>
       </c>
       <c r="P4">
-        <v>867523</v>
+        <v>867525</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,52 +2035,52 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450539</v>
+        <v>450538</v>
       </c>
       <c r="U4">
-        <v>611246</v>
+        <v>611245</v>
       </c>
       <c r="V4">
-        <v>710182</v>
+        <v>710184</v>
       </c>
       <c r="W4">
-        <v>683347</v>
+        <v>683345</v>
       </c>
       <c r="X4">
-        <v>812047</v>
+        <v>812043</v>
       </c>
       <c r="Y4">
-        <v>899948</v>
+        <v>899950</v>
       </c>
       <c r="Z4">
-        <v>916983</v>
+        <v>916984</v>
       </c>
       <c r="AA4">
-        <v>908896</v>
+        <v>908893</v>
       </c>
       <c r="AB4">
-        <v>810339</v>
+        <v>810343</v>
       </c>
       <c r="AC4">
-        <v>717631</v>
+        <v>717634</v>
       </c>
       <c r="AD4">
-        <v>658719</v>
+        <v>658716</v>
       </c>
       <c r="AE4">
-        <v>544123</v>
+        <v>544124</v>
       </c>
       <c r="AF4">
-        <v>471540</v>
+        <v>471543</v>
       </c>
       <c r="AG4">
         <v>349045</v>
       </c>
       <c r="AH4">
-        <v>274356</v>
+        <v>274354</v>
       </c>
       <c r="AI4">
-        <v>197982</v>
+        <v>197983</v>
       </c>
       <c r="AJ4">
         <v>128132</v>
@@ -2092,52 +2092,52 @@
         <v>17203</v>
       </c>
       <c r="AM4">
-        <v>473789</v>
+        <v>473788</v>
       </c>
       <c r="AN4">
-        <v>644445</v>
+        <v>644444</v>
       </c>
       <c r="AO4">
-        <v>741696</v>
+        <v>741698</v>
       </c>
       <c r="AP4">
-        <v>728593</v>
+        <v>728591</v>
       </c>
       <c r="AQ4">
-        <v>890273</v>
+        <v>890269</v>
       </c>
       <c r="AR4">
-        <v>974393</v>
+        <v>974395</v>
       </c>
       <c r="AS4">
-        <v>975363</v>
+        <v>975364</v>
       </c>
       <c r="AT4">
-        <v>953889</v>
+        <v>953886</v>
       </c>
       <c r="AU4">
-        <v>845957</v>
+        <v>845961</v>
       </c>
       <c r="AV4">
-        <v>749709</v>
+        <v>749712</v>
       </c>
       <c r="AW4">
-        <v>688408</v>
+        <v>688405</v>
       </c>
       <c r="AX4">
-        <v>568125</v>
+        <v>568126</v>
       </c>
       <c r="AY4">
-        <v>490079</v>
+        <v>490082</v>
       </c>
       <c r="AZ4">
         <v>362018</v>
       </c>
       <c r="BA4">
-        <v>283674</v>
+        <v>283672</v>
       </c>
       <c r="BB4">
-        <v>204454</v>
+        <v>204455</v>
       </c>
       <c r="BC4">
         <v>132522</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>831717</v>
+        <v>833536</v>
       </c>
       <c r="C5">
-        <v>300156</v>
+        <v>300686</v>
       </c>
       <c r="D5">
-        <v>154524</v>
+        <v>154665</v>
       </c>
       <c r="E5">
-        <v>133620</v>
+        <v>134073</v>
       </c>
       <c r="F5">
-        <v>93149</v>
+        <v>93150</v>
       </c>
       <c r="G5">
-        <v>89997</v>
+        <v>90239</v>
       </c>
       <c r="H5">
-        <v>30998</v>
+        <v>31354</v>
       </c>
       <c r="I5">
-        <v>22882</v>
+        <v>22960</v>
       </c>
       <c r="J5">
-        <v>6391</v>
+        <v>6409</v>
       </c>
       <c r="K5">
-        <v>11717699</v>
+        <v>11719519</v>
       </c>
       <c r="L5">
-        <v>3953550</v>
+        <v>3954079</v>
       </c>
       <c r="M5">
-        <v>2996007</v>
+        <v>2996148</v>
       </c>
       <c r="N5">
-        <v>1753484</v>
+        <v>1753937</v>
       </c>
       <c r="O5">
-        <v>1383020</v>
+        <v>1383021</v>
       </c>
       <c r="P5">
-        <v>957520</v>
+        <v>957764</v>
       </c>
       <c r="Q5">
-        <v>312541</v>
+        <v>312897</v>
       </c>
       <c r="R5">
-        <v>251219</v>
+        <v>251297</v>
       </c>
       <c r="S5">
-        <v>110358</v>
+        <v>110376</v>
       </c>
       <c r="T5">
-        <v>29796</v>
+        <v>29895</v>
       </c>
       <c r="U5">
-        <v>23830</v>
+        <v>23862</v>
       </c>
       <c r="V5">
-        <v>32213</v>
+        <v>32242</v>
       </c>
       <c r="W5">
-        <v>31719</v>
+        <v>31769</v>
       </c>
       <c r="X5">
-        <v>40724</v>
+        <v>40801</v>
       </c>
       <c r="Y5">
-        <v>52671</v>
+        <v>52775</v>
       </c>
       <c r="Z5">
-        <v>59625</v>
+        <v>59743</v>
       </c>
       <c r="AA5">
-        <v>65815</v>
+        <v>65922</v>
       </c>
       <c r="AB5">
-        <v>63293</v>
+        <v>63406</v>
       </c>
       <c r="AC5">
-        <v>58259</v>
+        <v>58363</v>
       </c>
       <c r="AD5">
-        <v>59545</v>
+        <v>59663</v>
       </c>
       <c r="AE5">
-        <v>54657</v>
+        <v>54784</v>
       </c>
       <c r="AF5">
-        <v>53709</v>
+        <v>53819</v>
       </c>
       <c r="AG5">
-        <v>46061</v>
+        <v>46146</v>
       </c>
       <c r="AH5">
-        <v>42199</v>
+        <v>42306</v>
       </c>
       <c r="AI5">
-        <v>36979</v>
+        <v>37114</v>
       </c>
       <c r="AJ5">
-        <v>29902</v>
+        <v>30015</v>
       </c>
       <c r="AK5">
-        <v>50126</v>
+        <v>50315</v>
       </c>
       <c r="AL5">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AM5">
-        <v>503585</v>
+        <v>503683</v>
       </c>
       <c r="AN5">
-        <v>668275</v>
+        <v>668306</v>
       </c>
       <c r="AO5">
-        <v>773909</v>
+        <v>773940</v>
       </c>
       <c r="AP5">
-        <v>760312</v>
+        <v>760360</v>
       </c>
       <c r="AQ5">
-        <v>930997</v>
+        <v>931070</v>
       </c>
       <c r="AR5">
-        <v>1027064</v>
+        <v>1027170</v>
       </c>
       <c r="AS5">
-        <v>1034988</v>
+        <v>1035107</v>
       </c>
       <c r="AT5">
-        <v>1019704</v>
+        <v>1019808</v>
       </c>
       <c r="AU5">
-        <v>909250</v>
+        <v>909367</v>
       </c>
       <c r="AV5">
-        <v>807968</v>
+        <v>808075</v>
       </c>
       <c r="AW5">
-        <v>747953</v>
+        <v>748068</v>
       </c>
       <c r="AX5">
-        <v>622782</v>
+        <v>622910</v>
       </c>
       <c r="AY5">
-        <v>543788</v>
+        <v>543901</v>
       </c>
       <c r="AZ5">
-        <v>408079</v>
+        <v>408164</v>
       </c>
       <c r="BA5">
-        <v>325873</v>
+        <v>325978</v>
       </c>
       <c r="BB5">
-        <v>241433</v>
+        <v>241569</v>
       </c>
       <c r="BC5">
-        <v>162424</v>
+        <v>162537</v>
       </c>
       <c r="BD5">
-        <v>211145</v>
+        <v>211334</v>
       </c>
       <c r="BE5">
-        <v>18170</v>
+        <v>18172</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809631</v>
+        <v>1809633</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90097</v>
+        <v>90099</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377700</v>
+        <v>2377702</v>
       </c>
       <c r="L26" s="3">
         <v>922448</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109258</v>
+        <v>109260</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065252</v>
+        <v>3065254</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153683</v>
+        <v>153685</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366785</v>
+        <v>1366784</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3952,7 +3952,7 @@
         <v>179288</v>
       </c>
       <c r="G28" s="3">
-        <v>120502</v>
+        <v>120501</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432037</v>
+        <v>4432038</v>
       </c>
       <c r="L28" s="3">
         <v>1689283</v>
@@ -3979,7 +3979,7 @@
         <v>193322</v>
       </c>
       <c r="P28" s="3">
-        <v>274185</v>
+        <v>274186</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771934</v>
+        <v>5771935</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400165</v>
       </c>
       <c r="P29" s="3">
-        <v>414023</v>
+        <v>414024</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,10 +4055,10 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310371</v>
+        <v>1310370</v>
       </c>
       <c r="C30" s="3">
-        <v>297268</v>
+        <v>297267</v>
       </c>
       <c r="D30" s="3">
         <v>333309</v>
@@ -4085,7 +4085,7 @@
         <v>7082305</v>
       </c>
       <c r="L30" s="3">
-        <v>2418932</v>
+        <v>2418931</v>
       </c>
       <c r="M30" s="3">
         <v>1918284</v>
@@ -4097,7 +4097,7 @@
         <v>754253</v>
       </c>
       <c r="P30" s="3">
-        <v>522163</v>
+        <v>522164</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4144,7 +4144,7 @@
         <v>7966606</v>
       </c>
       <c r="L31" s="3">
-        <v>2652833</v>
+        <v>2652832</v>
       </c>
       <c r="M31" s="3">
         <v>2133370</v>
@@ -4156,7 +4156,7 @@
         <v>936892</v>
       </c>
       <c r="P31" s="3">
-        <v>599485</v>
+        <v>599486</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4173,7 +4173,7 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250346</v>
+        <v>1250347</v>
       </c>
       <c r="C32" s="3">
         <v>378606</v>
@@ -4188,7 +4188,7 @@
         <v>158265</v>
       </c>
       <c r="G32" s="3">
-        <v>117400</v>
+        <v>117401</v>
       </c>
       <c r="H32" s="3">
         <v>42272</v>
@@ -4200,10 +4200,10 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216952</v>
+        <v>9216953</v>
       </c>
       <c r="L32" s="3">
-        <v>3031439</v>
+        <v>3031438</v>
       </c>
       <c r="M32" s="3">
         <v>2445487</v>
@@ -4215,7 +4215,7 @@
         <v>1095157</v>
       </c>
       <c r="P32" s="3">
-        <v>716885</v>
+        <v>716887</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,10 +4259,10 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771812</v>
+        <v>9771813</v>
       </c>
       <c r="L33" s="3">
-        <v>3261488</v>
+        <v>3261487</v>
       </c>
       <c r="M33" s="3">
         <v>2570917</v>
@@ -4274,7 +4274,7 @@
         <v>1154228</v>
       </c>
       <c r="P33" s="3">
-        <v>757396</v>
+        <v>757398</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,10 +4318,10 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966066</v>
+        <v>9966067</v>
       </c>
       <c r="L34" s="3">
-        <v>3330340</v>
+        <v>3330339</v>
       </c>
       <c r="M34" s="3">
         <v>2617586</v>
@@ -4333,7 +4333,7 @@
         <v>1178500</v>
       </c>
       <c r="P34" s="3">
-        <v>772680</v>
+        <v>772682</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,10 +4377,10 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108171</v>
+        <v>10108172</v>
       </c>
       <c r="L35" s="3">
-        <v>3374839</v>
+        <v>3374838</v>
       </c>
       <c r="M35" s="3">
         <v>2653980</v>
@@ -4392,7 +4392,7 @@
         <v>1201926</v>
       </c>
       <c r="P35" s="3">
-        <v>785855</v>
+        <v>785857</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,10 +4436,10 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460115</v>
+        <v>10460116</v>
       </c>
       <c r="L36" s="3">
-        <v>3496932</v>
+        <v>3496931</v>
       </c>
       <c r="M36" s="3">
         <v>2746877</v>
@@ -4451,7 +4451,7 @@
         <v>1244560</v>
       </c>
       <c r="P36" s="3">
-        <v>823018</v>
+        <v>823020</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,10 +4495,10 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885982</v>
+        <v>10885983</v>
       </c>
       <c r="L37" s="3">
-        <v>3653394</v>
+        <v>3653393</v>
       </c>
       <c r="M37" s="3">
         <v>2841483</v>
@@ -4510,7 +4510,7 @@
         <v>1289871</v>
       </c>
       <c r="P37" s="3">
-        <v>867523</v>
+        <v>867525</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,10 +4554,10 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016065</v>
+        <v>11016066</v>
       </c>
       <c r="L38" s="3">
-        <v>3699338</v>
+        <v>3699337</v>
       </c>
       <c r="M38" s="3">
         <v>2864588</v>
@@ -4569,7 +4569,7 @@
         <v>1306727</v>
       </c>
       <c r="P38" s="3">
-        <v>879413</v>
+        <v>879415</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,10 +4613,10 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088054</v>
+        <v>11088055</v>
       </c>
       <c r="L39" s="3">
-        <v>3724581</v>
+        <v>3724580</v>
       </c>
       <c r="M39" s="3">
         <v>2876977</v>
@@ -4628,7 +4628,7 @@
         <v>1315599</v>
       </c>
       <c r="P39" s="3">
-        <v>886266</v>
+        <v>886268</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,10 +4672,10 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192033</v>
+        <v>11192034</v>
       </c>
       <c r="L40" s="3">
-        <v>3763223</v>
+        <v>3763222</v>
       </c>
       <c r="M40" s="3">
         <v>2896214</v>
@@ -4687,7 +4687,7 @@
         <v>1328561</v>
       </c>
       <c r="P40" s="3">
-        <v>897766</v>
+        <v>897768</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,10 +4731,10 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315199</v>
+        <v>11315200</v>
       </c>
       <c r="L41" s="3">
-        <v>3810752</v>
+        <v>3810751</v>
       </c>
       <c r="M41" s="3">
         <v>2922021</v>
@@ -4746,7 +4746,7 @@
         <v>1342948</v>
       </c>
       <c r="P41" s="3">
-        <v>910095</v>
+        <v>910097</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,10 +4790,10 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481450</v>
+        <v>11481451</v>
       </c>
       <c r="L42" s="3">
-        <v>3872846</v>
+        <v>3872845</v>
       </c>
       <c r="M42" s="3">
         <v>2960397</v>
@@ -4805,7 +4805,7 @@
         <v>1361036</v>
       </c>
       <c r="P42" s="3">
-        <v>925008</v>
+        <v>925010</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,10 +4849,10 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559251</v>
+        <v>11559252</v>
       </c>
       <c r="L43" s="3">
-        <v>3901028</v>
+        <v>3901027</v>
       </c>
       <c r="M43" s="3">
         <v>2975165</v>
@@ -4864,7 +4864,7 @@
         <v>1369454</v>
       </c>
       <c r="P43" s="3">
-        <v>932222</v>
+        <v>932224</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,10 +4908,10 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587451</v>
+        <v>11587452</v>
       </c>
       <c r="L44" s="3">
-        <v>3911313</v>
+        <v>3911312</v>
       </c>
       <c r="M44" s="3">
         <v>2977221</v>
@@ -4923,7 +4923,7 @@
         <v>1373106</v>
       </c>
       <c r="P44" s="3">
-        <v>935151</v>
+        <v>935153</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,10 +4967,10 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610869</v>
+        <v>11610870</v>
       </c>
       <c r="L45" s="3">
-        <v>3920448</v>
+        <v>3920447</v>
       </c>
       <c r="M45" s="3">
         <v>2979334</v>
@@ -4982,7 +4982,7 @@
         <v>1376104</v>
       </c>
       <c r="P45" s="3">
-        <v>937600</v>
+        <v>937602</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,10 +5026,10 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632974</v>
+        <v>11632975</v>
       </c>
       <c r="L46" s="3">
-        <v>3929411</v>
+        <v>3929410</v>
       </c>
       <c r="M46" s="3">
         <v>2982573</v>
@@ -5041,7 +5041,7 @@
         <v>1378662</v>
       </c>
       <c r="P46" s="3">
-        <v>940633</v>
+        <v>940635</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,10 +5085,10 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660877</v>
+        <v>11660878</v>
       </c>
       <c r="L47" s="3">
-        <v>3937124</v>
+        <v>3937123</v>
       </c>
       <c r="M47" s="3">
         <v>2988178</v>
@@ -5100,7 +5100,7 @@
         <v>1380660</v>
       </c>
       <c r="P47" s="3">
-        <v>945710</v>
+        <v>945712</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,7 +5117,7 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43899</v>
+        <v>43937</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
@@ -5126,46 +5126,46 @@
         <v>6085</v>
       </c>
       <c r="E48" s="3">
-        <v>7151</v>
+        <v>7182</v>
       </c>
       <c r="F48" s="3">
         <v>2178</v>
       </c>
       <c r="G48" s="3">
-        <v>9329</v>
+        <v>9330</v>
       </c>
       <c r="H48" s="3">
-        <v>4146</v>
+        <v>4149</v>
       </c>
       <c r="I48" s="3">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="J48" s="3">
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704776</v>
+        <v>11704815</v>
       </c>
       <c r="L48" s="3">
-        <v>3949410</v>
+        <v>3949409</v>
       </c>
       <c r="M48" s="3">
         <v>2994263</v>
       </c>
       <c r="N48" s="3">
-        <v>1750564</v>
+        <v>1750595</v>
       </c>
       <c r="O48" s="3">
         <v>1382838</v>
       </c>
       <c r="P48" s="3">
-        <v>955039</v>
+        <v>955042</v>
       </c>
       <c r="Q48" s="3">
-        <v>311667</v>
+        <v>311670</v>
       </c>
       <c r="R48" s="3">
-        <v>250734</v>
+        <v>250737</v>
       </c>
       <c r="S48" s="3">
         <v>110261</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>12923</v>
+        <v>14704</v>
       </c>
       <c r="C49">
-        <v>4140</v>
+        <v>4670</v>
       </c>
       <c r="D49">
-        <v>1744</v>
+        <v>1885</v>
       </c>
       <c r="E49">
-        <v>2920</v>
+        <v>3342</v>
       </c>
       <c r="F49">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G49">
-        <v>2481</v>
+        <v>2722</v>
       </c>
       <c r="H49">
-        <v>874</v>
+        <v>1227</v>
       </c>
       <c r="I49">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="J49">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="K49">
-        <v>11717699</v>
+        <v>11719519</v>
       </c>
       <c r="L49">
-        <v>3953550</v>
+        <v>3954079</v>
       </c>
       <c r="M49">
-        <v>2996007</v>
+        <v>2996148</v>
       </c>
       <c r="N49">
-        <v>1753484</v>
+        <v>1753937</v>
       </c>
       <c r="O49">
-        <v>1383020</v>
+        <v>1383021</v>
       </c>
       <c r="P49">
-        <v>957520</v>
+        <v>957764</v>
       </c>
       <c r="Q49">
-        <v>312541</v>
+        <v>312897</v>
       </c>
       <c r="R49">
-        <v>251219</v>
+        <v>251297</v>
       </c>
       <c r="S49">
-        <v>110358</v>
+        <v>110376</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM34"/>
+  <dimension ref="A1:IM35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27630,6 +27630,749 @@
       </c>
       <c r="IM34">
         <v>13481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B35">
+        <v>1820</v>
+      </c>
+      <c r="C35">
+        <v>529</v>
+      </c>
+      <c r="D35">
+        <v>141</v>
+      </c>
+      <c r="E35">
+        <v>453</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>244</v>
+      </c>
+      <c r="H35">
+        <v>356</v>
+      </c>
+      <c r="I35">
+        <v>78</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35">
+        <v>11719519</v>
+      </c>
+      <c r="L35">
+        <v>3954079</v>
+      </c>
+      <c r="M35">
+        <v>2996148</v>
+      </c>
+      <c r="N35">
+        <v>1753937</v>
+      </c>
+      <c r="O35">
+        <v>1383021</v>
+      </c>
+      <c r="P35">
+        <v>957764</v>
+      </c>
+      <c r="Q35">
+        <v>312897</v>
+      </c>
+      <c r="R35">
+        <v>251297</v>
+      </c>
+      <c r="S35">
+        <v>110376</v>
+      </c>
+      <c r="T35">
+        <v>98</v>
+      </c>
+      <c r="U35">
+        <v>31</v>
+      </c>
+      <c r="V35">
+        <v>31</v>
+      </c>
+      <c r="W35">
+        <v>48</v>
+      </c>
+      <c r="X35">
+        <v>73</v>
+      </c>
+      <c r="Y35">
+        <v>106</v>
+      </c>
+      <c r="Z35">
+        <v>119</v>
+      </c>
+      <c r="AA35">
+        <v>104</v>
+      </c>
+      <c r="AB35">
+        <v>117</v>
+      </c>
+      <c r="AC35">
+        <v>107</v>
+      </c>
+      <c r="AD35">
+        <v>115</v>
+      </c>
+      <c r="AE35">
+        <v>128</v>
+      </c>
+      <c r="AF35">
+        <v>113</v>
+      </c>
+      <c r="AG35">
+        <v>85</v>
+      </c>
+      <c r="AH35">
+        <v>105</v>
+      </c>
+      <c r="AI35">
+        <v>136</v>
+      </c>
+      <c r="AJ35">
+        <v>113</v>
+      </c>
+      <c r="AK35">
+        <v>189</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>503683</v>
+      </c>
+      <c r="AN35">
+        <v>668306</v>
+      </c>
+      <c r="AO35">
+        <v>773940</v>
+      </c>
+      <c r="AP35">
+        <v>760360</v>
+      </c>
+      <c r="AQ35">
+        <v>931070</v>
+      </c>
+      <c r="AR35">
+        <v>1027170</v>
+      </c>
+      <c r="AS35">
+        <v>1035107</v>
+      </c>
+      <c r="AT35">
+        <v>1019808</v>
+      </c>
+      <c r="AU35">
+        <v>909367</v>
+      </c>
+      <c r="AV35">
+        <v>808075</v>
+      </c>
+      <c r="AW35">
+        <v>748068</v>
+      </c>
+      <c r="AX35">
+        <v>622910</v>
+      </c>
+      <c r="AY35">
+        <v>543901</v>
+      </c>
+      <c r="AZ35">
+        <v>408164</v>
+      </c>
+      <c r="BA35">
+        <v>325978</v>
+      </c>
+      <c r="BB35">
+        <v>241569</v>
+      </c>
+      <c r="BC35">
+        <v>162537</v>
+      </c>
+      <c r="BD35">
+        <v>211334</v>
+      </c>
+      <c r="BE35">
+        <v>18172</v>
+      </c>
+      <c r="BF35">
+        <v>60</v>
+      </c>
+      <c r="BG35">
+        <v>38</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>13</v>
+      </c>
+      <c r="BL35">
+        <v>18</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>21</v>
+      </c>
+      <c r="BQ35">
+        <v>10</v>
+      </c>
+      <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>0</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>23</v>
+      </c>
+      <c r="BV35">
+        <v>24</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
+        <v>1</v>
+      </c>
+      <c r="BY35">
+        <v>0</v>
+      </c>
+      <c r="BZ35">
+        <v>19</v>
+      </c>
+      <c r="CA35">
+        <v>54</v>
+      </c>
+      <c r="CB35">
+        <v>0</v>
+      </c>
+      <c r="CC35">
+        <v>0</v>
+      </c>
+      <c r="CD35">
+        <v>0</v>
+      </c>
+      <c r="CE35">
+        <v>43</v>
+      </c>
+      <c r="CF35">
+        <v>63</v>
+      </c>
+      <c r="CG35">
+        <v>0</v>
+      </c>
+      <c r="CH35">
+        <v>0</v>
+      </c>
+      <c r="CI35">
+        <v>0</v>
+      </c>
+      <c r="CJ35">
+        <v>52</v>
+      </c>
+      <c r="CK35">
+        <v>66</v>
+      </c>
+      <c r="CL35">
+        <v>0</v>
+      </c>
+      <c r="CM35">
+        <v>1</v>
+      </c>
+      <c r="CN35">
+        <v>0</v>
+      </c>
+      <c r="CO35">
+        <v>41</v>
+      </c>
+      <c r="CP35">
+        <v>64</v>
+      </c>
+      <c r="CQ35">
+        <v>0</v>
+      </c>
+      <c r="CR35">
+        <v>0</v>
+      </c>
+      <c r="CS35">
+        <v>-1</v>
+      </c>
+      <c r="CT35">
+        <v>37</v>
+      </c>
+      <c r="CU35">
+        <v>80</v>
+      </c>
+      <c r="CV35">
+        <v>0</v>
+      </c>
+      <c r="CW35">
+        <v>0</v>
+      </c>
+      <c r="CX35">
+        <v>0</v>
+      </c>
+      <c r="CY35">
+        <v>39</v>
+      </c>
+      <c r="CZ35">
+        <v>68</v>
+      </c>
+      <c r="DA35">
+        <v>0</v>
+      </c>
+      <c r="DB35">
+        <v>0</v>
+      </c>
+      <c r="DC35">
+        <v>0</v>
+      </c>
+      <c r="DD35">
+        <v>50</v>
+      </c>
+      <c r="DE35">
+        <v>67</v>
+      </c>
+      <c r="DF35">
+        <v>0</v>
+      </c>
+      <c r="DG35">
+        <v>-1</v>
+      </c>
+      <c r="DH35">
+        <v>-1</v>
+      </c>
+      <c r="DI35">
+        <v>54</v>
+      </c>
+      <c r="DJ35">
+        <v>73</v>
+      </c>
+      <c r="DK35">
+        <v>0</v>
+      </c>
+      <c r="DL35">
+        <v>0</v>
+      </c>
+      <c r="DM35">
+        <v>1</v>
+      </c>
+      <c r="DN35">
+        <v>49</v>
+      </c>
+      <c r="DO35">
+        <v>64</v>
+      </c>
+      <c r="DP35">
+        <v>0</v>
+      </c>
+      <c r="DQ35">
+        <v>0</v>
+      </c>
+      <c r="DR35">
+        <v>0</v>
+      </c>
+      <c r="DS35">
+        <v>37</v>
+      </c>
+      <c r="DT35">
+        <v>49</v>
+      </c>
+      <c r="DU35">
+        <v>0</v>
+      </c>
+      <c r="DV35">
+        <v>0</v>
+      </c>
+      <c r="DW35">
+        <v>-1</v>
+      </c>
+      <c r="DX35">
+        <v>50</v>
+      </c>
+      <c r="DY35">
+        <v>55</v>
+      </c>
+      <c r="DZ35">
+        <v>0</v>
+      </c>
+      <c r="EA35">
+        <v>0</v>
+      </c>
+      <c r="EB35">
+        <v>0</v>
+      </c>
+      <c r="EC35">
+        <v>63</v>
+      </c>
+      <c r="ED35">
+        <v>72</v>
+      </c>
+      <c r="EE35">
+        <v>0</v>
+      </c>
+      <c r="EF35">
+        <v>0</v>
+      </c>
+      <c r="EG35">
+        <v>1</v>
+      </c>
+      <c r="EH35">
+        <v>50</v>
+      </c>
+      <c r="EI35">
+        <v>62</v>
+      </c>
+      <c r="EJ35">
+        <v>0</v>
+      </c>
+      <c r="EK35">
+        <v>0</v>
+      </c>
+      <c r="EL35">
+        <v>1</v>
+      </c>
+      <c r="EM35">
+        <v>74</v>
+      </c>
+      <c r="EN35">
+        <v>118</v>
+      </c>
+      <c r="EO35">
+        <v>0</v>
+      </c>
+      <c r="EP35">
+        <v>-1</v>
+      </c>
+      <c r="EQ35">
+        <v>-2</v>
+      </c>
+      <c r="ER35">
+        <v>1</v>
+      </c>
+      <c r="ES35">
+        <v>0</v>
+      </c>
+      <c r="ET35">
+        <v>-1</v>
+      </c>
+      <c r="EU35">
+        <v>0</v>
+      </c>
+      <c r="EV35">
+        <v>2</v>
+      </c>
+      <c r="EW35">
+        <v>231981</v>
+      </c>
+      <c r="EX35">
+        <v>220193</v>
+      </c>
+      <c r="EY35">
+        <v>409</v>
+      </c>
+      <c r="EZ35">
+        <v>15452</v>
+      </c>
+      <c r="FA35">
+        <v>35648</v>
+      </c>
+      <c r="FB35">
+        <v>308199</v>
+      </c>
+      <c r="FC35">
+        <v>292838</v>
+      </c>
+      <c r="FD35">
+        <v>466</v>
+      </c>
+      <c r="FE35">
+        <v>16770</v>
+      </c>
+      <c r="FF35">
+        <v>50033</v>
+      </c>
+      <c r="FG35">
+        <v>353472</v>
+      </c>
+      <c r="FH35">
+        <v>342801</v>
+      </c>
+      <c r="FI35">
+        <v>633</v>
+      </c>
+      <c r="FJ35">
+        <v>16951</v>
+      </c>
+      <c r="FK35">
+        <v>60083</v>
+      </c>
+      <c r="FL35">
+        <v>326575</v>
+      </c>
+      <c r="FM35">
+        <v>374134</v>
+      </c>
+      <c r="FN35">
+        <v>896</v>
+      </c>
+      <c r="FO35">
+        <v>12934</v>
+      </c>
+      <c r="FP35">
+        <v>45821</v>
+      </c>
+      <c r="FQ35">
+        <v>392269</v>
+      </c>
+      <c r="FR35">
+        <v>480005</v>
+      </c>
+      <c r="FS35">
+        <v>1101</v>
+      </c>
+      <c r="FT35">
+        <v>16279</v>
+      </c>
+      <c r="FU35">
+        <v>41416</v>
+      </c>
+      <c r="FV35">
+        <v>434123</v>
+      </c>
+      <c r="FW35">
+        <v>526613</v>
+      </c>
+      <c r="FX35">
+        <v>1138</v>
+      </c>
+      <c r="FY35">
+        <v>17785</v>
+      </c>
+      <c r="FZ35">
+        <v>47511</v>
+      </c>
+      <c r="GA35">
+        <v>429541</v>
+      </c>
+      <c r="GB35">
+        <v>532655</v>
+      </c>
+      <c r="GC35">
+        <v>922</v>
+      </c>
+      <c r="GD35">
+        <v>17168</v>
+      </c>
+      <c r="GE35">
+        <v>54821</v>
+      </c>
+      <c r="GF35">
+        <v>420078</v>
+      </c>
+      <c r="GG35">
+        <v>525210</v>
+      </c>
+      <c r="GH35">
+        <v>664</v>
+      </c>
+      <c r="GI35">
+        <v>15030</v>
+      </c>
+      <c r="GJ35">
+        <v>58826</v>
+      </c>
+      <c r="GK35">
+        <v>373884</v>
+      </c>
+      <c r="GL35">
+        <v>469478</v>
+      </c>
+      <c r="GM35">
+        <v>498</v>
+      </c>
+      <c r="GN35">
+        <v>12344</v>
+      </c>
+      <c r="GO35">
+        <v>53163</v>
+      </c>
+      <c r="GP35">
+        <v>330639</v>
+      </c>
+      <c r="GQ35">
+        <v>421550</v>
+      </c>
+      <c r="GR35">
+        <v>439</v>
+      </c>
+      <c r="GS35">
+        <v>10126</v>
+      </c>
+      <c r="GT35">
+        <v>45321</v>
+      </c>
+      <c r="GU35">
+        <v>308491</v>
+      </c>
+      <c r="GV35">
+        <v>389966</v>
+      </c>
+      <c r="GW35">
+        <v>400</v>
+      </c>
+      <c r="GX35">
+        <v>8949</v>
+      </c>
+      <c r="GY35">
+        <v>40262</v>
+      </c>
+      <c r="GZ35">
+        <v>263871</v>
+      </c>
+      <c r="HA35">
+        <v>320356</v>
+      </c>
+      <c r="HB35">
+        <v>329</v>
+      </c>
+      <c r="HC35">
+        <v>6605</v>
+      </c>
+      <c r="HD35">
+        <v>31749</v>
+      </c>
+      <c r="HE35">
+        <v>234785</v>
+      </c>
+      <c r="HF35">
+        <v>277608</v>
+      </c>
+      <c r="HG35">
+        <v>234</v>
+      </c>
+      <c r="HH35">
+        <v>5315</v>
+      </c>
+      <c r="HI35">
+        <v>25959</v>
+      </c>
+      <c r="HJ35">
+        <v>181146</v>
+      </c>
+      <c r="HK35">
+        <v>204662</v>
+      </c>
+      <c r="HL35">
+        <v>199</v>
+      </c>
+      <c r="HM35">
+        <v>3636</v>
+      </c>
+      <c r="HN35">
+        <v>18521</v>
+      </c>
+      <c r="HO35">
+        <v>152056</v>
+      </c>
+      <c r="HP35">
+        <v>158749</v>
+      </c>
+      <c r="HQ35">
+        <v>163</v>
+      </c>
+      <c r="HR35">
+        <v>2661</v>
+      </c>
+      <c r="HS35">
+        <v>12349</v>
+      </c>
+      <c r="HT35">
+        <v>116404</v>
+      </c>
+      <c r="HU35">
+        <v>115320</v>
+      </c>
+      <c r="HV35">
+        <v>164</v>
+      </c>
+      <c r="HW35">
+        <v>1869</v>
+      </c>
+      <c r="HX35">
+        <v>7812</v>
+      </c>
+      <c r="HY35">
+        <v>76398</v>
+      </c>
+      <c r="HZ35">
+        <v>80208</v>
+      </c>
+      <c r="IA35">
+        <v>131</v>
+      </c>
+      <c r="IB35">
+        <v>1268</v>
+      </c>
+      <c r="IC35">
+        <v>4532</v>
+      </c>
+      <c r="ID35">
+        <v>81822</v>
+      </c>
+      <c r="IE35">
+        <v>123110</v>
+      </c>
+      <c r="IF35">
+        <v>306</v>
+      </c>
+      <c r="IG35">
+        <v>2256</v>
+      </c>
+      <c r="IH35">
+        <v>3840</v>
+      </c>
+      <c r="II35">
+        <v>2154</v>
+      </c>
+      <c r="IJ35">
+        <v>2310</v>
+      </c>
+      <c r="IK35">
+        <v>24</v>
+      </c>
+      <c r="IL35">
+        <v>201</v>
+      </c>
+      <c r="IM35">
+        <v>13483</v>
       </c>
     </row>
   </sheetData>
@@ -27656,7 +28399,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9ABBE5-56DE-408F-9ABF-0C462D5457F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B36126-D97C-4684-BF7F-CA6E12B48ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1808,10 +1808,10 @@
         <v>44197</v>
       </c>
       <c r="B3">
-        <v>538953</v>
+        <v>538954</v>
       </c>
       <c r="C3">
-        <v>280239</v>
+        <v>280240</v>
       </c>
       <c r="D3">
         <v>199399</v>
@@ -1835,10 +1835,10 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568069</v>
+        <v>568070</v>
       </c>
       <c r="L3">
-        <v>285283</v>
+        <v>285284</v>
       </c>
       <c r="M3">
         <v>220128</v>
@@ -1880,16 +1880,16 @@
         <v>70915</v>
       </c>
       <c r="Z3">
-        <v>55517</v>
+        <v>55518</v>
       </c>
       <c r="AA3">
         <v>42728</v>
       </c>
       <c r="AB3">
-        <v>33829</v>
+        <v>33828</v>
       </c>
       <c r="AC3">
-        <v>30113</v>
+        <v>30114</v>
       </c>
       <c r="AD3">
         <v>27883</v>
@@ -1937,16 +1937,16 @@
         <v>74445</v>
       </c>
       <c r="AS3">
-        <v>58380</v>
+        <v>58381</v>
       </c>
       <c r="AT3">
         <v>44993</v>
       </c>
       <c r="AU3">
-        <v>35618</v>
+        <v>35617</v>
       </c>
       <c r="AV3">
-        <v>32078</v>
+        <v>32079</v>
       </c>
       <c r="AW3">
         <v>29689</v>
@@ -1987,7 +1987,7 @@
         <v>3368110</v>
       </c>
       <c r="D4">
-        <v>2621355</v>
+        <v>2621354</v>
       </c>
       <c r="E4">
         <v>1586953</v>
@@ -1996,7 +1996,7 @@
         <v>1288505</v>
       </c>
       <c r="G4">
-        <v>848364</v>
+        <v>848365</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,13 +2008,13 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885983</v>
+        <v>10885984</v>
       </c>
       <c r="L4">
-        <v>3653393</v>
+        <v>3653394</v>
       </c>
       <c r="M4">
-        <v>2841483</v>
+        <v>2841482</v>
       </c>
       <c r="N4">
         <v>1619864</v>
@@ -2023,7 +2023,7 @@
         <v>1289871</v>
       </c>
       <c r="P4">
-        <v>867525</v>
+        <v>867526</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,46 +2038,46 @@
         <v>450538</v>
       </c>
       <c r="U4">
-        <v>611245</v>
+        <v>611244</v>
       </c>
       <c r="V4">
-        <v>710184</v>
+        <v>710183</v>
       </c>
       <c r="W4">
-        <v>683345</v>
+        <v>683346</v>
       </c>
       <c r="X4">
-        <v>812043</v>
+        <v>812038</v>
       </c>
       <c r="Y4">
         <v>899950</v>
       </c>
       <c r="Z4">
-        <v>916984</v>
+        <v>916987</v>
       </c>
       <c r="AA4">
-        <v>908893</v>
+        <v>908894</v>
       </c>
       <c r="AB4">
-        <v>810343</v>
+        <v>810342</v>
       </c>
       <c r="AC4">
-        <v>717634</v>
+        <v>717633</v>
       </c>
       <c r="AD4">
-        <v>658716</v>
+        <v>658715</v>
       </c>
       <c r="AE4">
-        <v>544124</v>
+        <v>544126</v>
       </c>
       <c r="AF4">
-        <v>471543</v>
+        <v>471545</v>
       </c>
       <c r="AG4">
-        <v>349045</v>
+        <v>349044</v>
       </c>
       <c r="AH4">
-        <v>274354</v>
+        <v>274356</v>
       </c>
       <c r="AI4">
         <v>197983</v>
@@ -2095,46 +2095,46 @@
         <v>473788</v>
       </c>
       <c r="AN4">
-        <v>644444</v>
+        <v>644443</v>
       </c>
       <c r="AO4">
-        <v>741698</v>
+        <v>741697</v>
       </c>
       <c r="AP4">
-        <v>728591</v>
+        <v>728592</v>
       </c>
       <c r="AQ4">
-        <v>890269</v>
+        <v>890264</v>
       </c>
       <c r="AR4">
         <v>974395</v>
       </c>
       <c r="AS4">
-        <v>975364</v>
+        <v>975368</v>
       </c>
       <c r="AT4">
-        <v>953886</v>
+        <v>953887</v>
       </c>
       <c r="AU4">
-        <v>845961</v>
+        <v>845959</v>
       </c>
       <c r="AV4">
         <v>749712</v>
       </c>
       <c r="AW4">
-        <v>688405</v>
+        <v>688404</v>
       </c>
       <c r="AX4">
-        <v>568126</v>
+        <v>568128</v>
       </c>
       <c r="AY4">
-        <v>490082</v>
+        <v>490084</v>
       </c>
       <c r="AZ4">
-        <v>362018</v>
+        <v>362017</v>
       </c>
       <c r="BA4">
-        <v>283672</v>
+        <v>283674</v>
       </c>
       <c r="BB4">
         <v>204455</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>833536</v>
+        <v>835286</v>
       </c>
       <c r="C5">
-        <v>300686</v>
+        <v>301388</v>
       </c>
       <c r="D5">
-        <v>154665</v>
+        <v>154907</v>
       </c>
       <c r="E5">
-        <v>134073</v>
+        <v>134436</v>
       </c>
       <c r="F5">
         <v>93150</v>
       </c>
       <c r="G5">
-        <v>90239</v>
+        <v>90433</v>
       </c>
       <c r="H5">
-        <v>31354</v>
+        <v>31525</v>
       </c>
       <c r="I5">
-        <v>22960</v>
+        <v>23030</v>
       </c>
       <c r="J5">
-        <v>6409</v>
+        <v>6417</v>
       </c>
       <c r="K5">
-        <v>11719519</v>
+        <v>11721270</v>
       </c>
       <c r="L5">
-        <v>3954079</v>
+        <v>3954782</v>
       </c>
       <c r="M5">
-        <v>2996148</v>
+        <v>2996389</v>
       </c>
       <c r="N5">
-        <v>1753937</v>
+        <v>1754300</v>
       </c>
       <c r="O5">
         <v>1383021</v>
       </c>
       <c r="P5">
-        <v>957764</v>
+        <v>957959</v>
       </c>
       <c r="Q5">
-        <v>312897</v>
+        <v>313068</v>
       </c>
       <c r="R5">
-        <v>251297</v>
+        <v>251367</v>
       </c>
       <c r="S5">
-        <v>110376</v>
+        <v>110384</v>
       </c>
       <c r="T5">
-        <v>29895</v>
+        <v>30014</v>
       </c>
       <c r="U5">
-        <v>23862</v>
+        <v>23884</v>
       </c>
       <c r="V5">
-        <v>32242</v>
+        <v>32262</v>
       </c>
       <c r="W5">
-        <v>31769</v>
+        <v>31816</v>
       </c>
       <c r="X5">
-        <v>40801</v>
+        <v>40887</v>
       </c>
       <c r="Y5">
-        <v>52775</v>
+        <v>52877</v>
       </c>
       <c r="Z5">
-        <v>59743</v>
+        <v>59855</v>
       </c>
       <c r="AA5">
-        <v>65922</v>
+        <v>66032</v>
       </c>
       <c r="AB5">
-        <v>63406</v>
+        <v>63489</v>
       </c>
       <c r="AC5">
-        <v>58363</v>
+        <v>58466</v>
       </c>
       <c r="AD5">
-        <v>59663</v>
+        <v>59771</v>
       </c>
       <c r="AE5">
-        <v>54784</v>
+        <v>54899</v>
       </c>
       <c r="AF5">
-        <v>53819</v>
+        <v>53926</v>
       </c>
       <c r="AG5">
-        <v>46146</v>
+        <v>46241</v>
       </c>
       <c r="AH5">
-        <v>42306</v>
+        <v>42431</v>
       </c>
       <c r="AI5">
-        <v>37114</v>
+        <v>37238</v>
       </c>
       <c r="AJ5">
-        <v>30015</v>
+        <v>30116</v>
       </c>
       <c r="AK5">
-        <v>50315</v>
+        <v>50485</v>
       </c>
       <c r="AL5">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM5">
-        <v>503683</v>
+        <v>503802</v>
       </c>
       <c r="AN5">
-        <v>668306</v>
+        <v>668327</v>
       </c>
       <c r="AO5">
-        <v>773940</v>
+        <v>773959</v>
       </c>
       <c r="AP5">
-        <v>760360</v>
+        <v>760408</v>
       </c>
       <c r="AQ5">
-        <v>931070</v>
+        <v>931151</v>
       </c>
       <c r="AR5">
-        <v>1027170</v>
+        <v>1027272</v>
       </c>
       <c r="AS5">
-        <v>1035107</v>
+        <v>1035223</v>
       </c>
       <c r="AT5">
-        <v>1019808</v>
+        <v>1019919</v>
       </c>
       <c r="AU5">
-        <v>909367</v>
+        <v>909448</v>
       </c>
       <c r="AV5">
-        <v>808075</v>
+        <v>808178</v>
       </c>
       <c r="AW5">
-        <v>748068</v>
+        <v>748175</v>
       </c>
       <c r="AX5">
-        <v>622910</v>
+        <v>623027</v>
       </c>
       <c r="AY5">
-        <v>543901</v>
+        <v>544010</v>
       </c>
       <c r="AZ5">
-        <v>408164</v>
+        <v>408258</v>
       </c>
       <c r="BA5">
-        <v>325978</v>
+        <v>326105</v>
       </c>
       <c r="BB5">
-        <v>241569</v>
+        <v>241693</v>
       </c>
       <c r="BC5">
-        <v>162537</v>
+        <v>162638</v>
       </c>
       <c r="BD5">
-        <v>211334</v>
+        <v>211504</v>
       </c>
       <c r="BE5">
-        <v>18172</v>
+        <v>18173</v>
       </c>
     </row>
   </sheetData>
@@ -3760,10 +3760,10 @@
         <v>44531</v>
       </c>
       <c r="B25" s="3">
-        <v>352132</v>
+        <v>352133</v>
       </c>
       <c r="C25" s="3">
-        <v>203049</v>
+        <v>203050</v>
       </c>
       <c r="D25" s="3">
         <v>93809</v>
@@ -3787,10 +3787,10 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568069</v>
+        <v>568070</v>
       </c>
       <c r="L25" s="3">
-        <v>285283</v>
+        <v>285284</v>
       </c>
       <c r="M25" s="3">
         <v>220128</v>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809633</v>
+        <v>1809634</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90099</v>
+        <v>90100</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,10 +3846,10 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377702</v>
+        <v>2377704</v>
       </c>
       <c r="L26" s="3">
-        <v>922448</v>
+        <v>922449</v>
       </c>
       <c r="M26" s="3">
         <v>855407</v>
@@ -3861,7 +3861,7 @@
         <v>2216</v>
       </c>
       <c r="P26" s="3">
-        <v>109260</v>
+        <v>109261</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,10 +3905,10 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065254</v>
+        <v>3065256</v>
       </c>
       <c r="L27" s="3">
-        <v>1152676</v>
+        <v>1152677</v>
       </c>
       <c r="M27" s="3">
         <v>1059936</v>
@@ -3920,7 +3920,7 @@
         <v>14034</v>
       </c>
       <c r="P27" s="3">
-        <v>153685</v>
+        <v>153686</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3964,10 +3964,10 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432038</v>
+        <v>4432040</v>
       </c>
       <c r="L28" s="3">
-        <v>1689283</v>
+        <v>1689284</v>
       </c>
       <c r="M28" s="3">
         <v>1310022</v>
@@ -3979,7 +3979,7 @@
         <v>193322</v>
       </c>
       <c r="P28" s="3">
-        <v>274186</v>
+        <v>274187</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,13 +3996,13 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339897</v>
+        <v>1339896</v>
       </c>
       <c r="C29" s="3">
         <v>432381</v>
       </c>
       <c r="D29" s="3">
-        <v>274953</v>
+        <v>274952</v>
       </c>
       <c r="E29" s="3">
         <v>201081</v>
@@ -4023,13 +4023,13 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771935</v>
+        <v>5771936</v>
       </c>
       <c r="L29" s="3">
-        <v>2121664</v>
+        <v>2121665</v>
       </c>
       <c r="M29" s="3">
-        <v>1584975</v>
+        <v>1584974</v>
       </c>
       <c r="N29" s="3">
         <v>943364</v>
@@ -4038,7 +4038,7 @@
         <v>400165</v>
       </c>
       <c r="P29" s="3">
-        <v>414024</v>
+        <v>414025</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,13 +4082,13 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082305</v>
+        <v>7082306</v>
       </c>
       <c r="L30" s="3">
-        <v>2418931</v>
+        <v>2418932</v>
       </c>
       <c r="M30" s="3">
-        <v>1918284</v>
+        <v>1918283</v>
       </c>
       <c r="N30" s="3">
         <v>1096294</v>
@@ -4097,7 +4097,7 @@
         <v>754253</v>
       </c>
       <c r="P30" s="3">
-        <v>522164</v>
+        <v>522165</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,13 +4141,13 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966606</v>
+        <v>7966607</v>
       </c>
       <c r="L31" s="3">
-        <v>2652832</v>
+        <v>2652833</v>
       </c>
       <c r="M31" s="3">
-        <v>2133370</v>
+        <v>2133369</v>
       </c>
       <c r="N31" s="3">
         <v>1213309</v>
@@ -4156,7 +4156,7 @@
         <v>936892</v>
       </c>
       <c r="P31" s="3">
-        <v>599486</v>
+        <v>599487</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,13 +4200,13 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216953</v>
+        <v>9216954</v>
       </c>
       <c r="L32" s="3">
-        <v>3031438</v>
+        <v>3031439</v>
       </c>
       <c r="M32" s="3">
-        <v>2445487</v>
+        <v>2445486</v>
       </c>
       <c r="N32" s="3">
         <v>1410766</v>
@@ -4215,7 +4215,7 @@
         <v>1095157</v>
       </c>
       <c r="P32" s="3">
-        <v>716887</v>
+        <v>716888</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,13 +4259,13 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771813</v>
+        <v>9771814</v>
       </c>
       <c r="L33" s="3">
-        <v>3261487</v>
+        <v>3261488</v>
       </c>
       <c r="M33" s="3">
-        <v>2570917</v>
+        <v>2570916</v>
       </c>
       <c r="N33" s="3">
         <v>1482127</v>
@@ -4274,7 +4274,7 @@
         <v>1154228</v>
       </c>
       <c r="P33" s="3">
-        <v>757398</v>
+        <v>757399</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,13 +4318,13 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966067</v>
+        <v>9966068</v>
       </c>
       <c r="L34" s="3">
-        <v>3330339</v>
+        <v>3330340</v>
       </c>
       <c r="M34" s="3">
-        <v>2617586</v>
+        <v>2617585</v>
       </c>
       <c r="N34" s="3">
         <v>1512400</v>
@@ -4333,7 +4333,7 @@
         <v>1178500</v>
       </c>
       <c r="P34" s="3">
-        <v>772682</v>
+        <v>772683</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,13 +4377,13 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108172</v>
+        <v>10108173</v>
       </c>
       <c r="L35" s="3">
-        <v>3374838</v>
+        <v>3374839</v>
       </c>
       <c r="M35" s="3">
-        <v>2653980</v>
+        <v>2653979</v>
       </c>
       <c r="N35" s="3">
         <v>1529137</v>
@@ -4392,7 +4392,7 @@
         <v>1201926</v>
       </c>
       <c r="P35" s="3">
-        <v>785857</v>
+        <v>785858</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,13 +4436,13 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460116</v>
+        <v>10460117</v>
       </c>
       <c r="L36" s="3">
-        <v>3496931</v>
+        <v>3496932</v>
       </c>
       <c r="M36" s="3">
-        <v>2746877</v>
+        <v>2746876</v>
       </c>
       <c r="N36" s="3">
         <v>1565583</v>
@@ -4451,7 +4451,7 @@
         <v>1244560</v>
       </c>
       <c r="P36" s="3">
-        <v>823020</v>
+        <v>823021</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,13 +4495,13 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885983</v>
+        <v>10885984</v>
       </c>
       <c r="L37" s="3">
-        <v>3653393</v>
+        <v>3653394</v>
       </c>
       <c r="M37" s="3">
-        <v>2841483</v>
+        <v>2841482</v>
       </c>
       <c r="N37" s="3">
         <v>1619864</v>
@@ -4510,7 +4510,7 @@
         <v>1289871</v>
       </c>
       <c r="P37" s="3">
-        <v>867525</v>
+        <v>867526</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,13 +4554,13 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016066</v>
+        <v>11016067</v>
       </c>
       <c r="L38" s="3">
-        <v>3699337</v>
+        <v>3699338</v>
       </c>
       <c r="M38" s="3">
-        <v>2864588</v>
+        <v>2864587</v>
       </c>
       <c r="N38" s="3">
         <v>1643977</v>
@@ -4569,7 +4569,7 @@
         <v>1306727</v>
       </c>
       <c r="P38" s="3">
-        <v>879415</v>
+        <v>879416</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,13 +4613,13 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088055</v>
+        <v>11088056</v>
       </c>
       <c r="L39" s="3">
-        <v>3724580</v>
+        <v>3724581</v>
       </c>
       <c r="M39" s="3">
-        <v>2876977</v>
+        <v>2876976</v>
       </c>
       <c r="N39" s="3">
         <v>1658277</v>
@@ -4628,7 +4628,7 @@
         <v>1315599</v>
       </c>
       <c r="P39" s="3">
-        <v>886268</v>
+        <v>886269</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,13 +4672,13 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192034</v>
+        <v>11192035</v>
       </c>
       <c r="L40" s="3">
-        <v>3763222</v>
+        <v>3763223</v>
       </c>
       <c r="M40" s="3">
-        <v>2896214</v>
+        <v>2896213</v>
       </c>
       <c r="N40" s="3">
         <v>1673732</v>
@@ -4687,7 +4687,7 @@
         <v>1328561</v>
       </c>
       <c r="P40" s="3">
-        <v>897768</v>
+        <v>897769</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,13 +4731,13 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315200</v>
+        <v>11315201</v>
       </c>
       <c r="L41" s="3">
-        <v>3810751</v>
+        <v>3810752</v>
       </c>
       <c r="M41" s="3">
-        <v>2922021</v>
+        <v>2922020</v>
       </c>
       <c r="N41" s="3">
         <v>1689642</v>
@@ -4746,7 +4746,7 @@
         <v>1342948</v>
       </c>
       <c r="P41" s="3">
-        <v>910097</v>
+        <v>910098</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,13 +4790,13 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481451</v>
+        <v>11481452</v>
       </c>
       <c r="L42" s="3">
-        <v>3872845</v>
+        <v>3872846</v>
       </c>
       <c r="M42" s="3">
-        <v>2960397</v>
+        <v>2960396</v>
       </c>
       <c r="N42" s="3">
         <v>1711952</v>
@@ -4805,7 +4805,7 @@
         <v>1361036</v>
       </c>
       <c r="P42" s="3">
-        <v>925010</v>
+        <v>925011</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4822,10 +4822,10 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77801</v>
+        <v>77802</v>
       </c>
       <c r="C43" s="3">
-        <v>28182</v>
+        <v>28183</v>
       </c>
       <c r="D43" s="3">
         <v>14768</v>
@@ -4849,13 +4849,13 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559252</v>
+        <v>11559254</v>
       </c>
       <c r="L43" s="3">
-        <v>3901027</v>
+        <v>3901029</v>
       </c>
       <c r="M43" s="3">
-        <v>2975165</v>
+        <v>2975164</v>
       </c>
       <c r="N43" s="3">
         <v>1726202</v>
@@ -4864,7 +4864,7 @@
         <v>1369454</v>
       </c>
       <c r="P43" s="3">
-        <v>932224</v>
+        <v>932225</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4881,10 +4881,10 @@
         <v>45108</v>
       </c>
       <c r="B44" s="3">
-        <v>28200</v>
+        <v>28211</v>
       </c>
       <c r="C44" s="3">
-        <v>10285</v>
+        <v>10296</v>
       </c>
       <c r="D44" s="3">
         <v>2056</v>
@@ -4908,13 +4908,13 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587452</v>
+        <v>11587465</v>
       </c>
       <c r="L44" s="3">
-        <v>3911312</v>
+        <v>3911325</v>
       </c>
       <c r="M44" s="3">
-        <v>2977221</v>
+        <v>2977220</v>
       </c>
       <c r="N44" s="3">
         <v>1733150</v>
@@ -4923,7 +4923,7 @@
         <v>1373106</v>
       </c>
       <c r="P44" s="3">
-        <v>935153</v>
+        <v>935154</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4940,13 +4940,13 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23418</v>
+        <v>23435</v>
       </c>
       <c r="C45" s="3">
-        <v>9135</v>
+        <v>9150</v>
       </c>
       <c r="D45" s="3">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="E45" s="3">
         <v>4538</v>
@@ -4967,13 +4967,13 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610870</v>
+        <v>11610900</v>
       </c>
       <c r="L45" s="3">
-        <v>3920447</v>
+        <v>3920475</v>
       </c>
       <c r="M45" s="3">
-        <v>2979334</v>
+        <v>2979335</v>
       </c>
       <c r="N45" s="3">
         <v>1737688</v>
@@ -4982,7 +4982,7 @@
         <v>1376104</v>
       </c>
       <c r="P45" s="3">
-        <v>937602</v>
+        <v>937603</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -4999,10 +4999,10 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22105</v>
+        <v>22126</v>
       </c>
       <c r="C46" s="3">
-        <v>8963</v>
+        <v>8984</v>
       </c>
       <c r="D46" s="3">
         <v>3239</v>
@@ -5026,13 +5026,13 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632975</v>
+        <v>11633026</v>
       </c>
       <c r="L46" s="3">
-        <v>3929410</v>
+        <v>3929459</v>
       </c>
       <c r="M46" s="3">
-        <v>2982573</v>
+        <v>2982574</v>
       </c>
       <c r="N46" s="3">
         <v>1739711</v>
@@ -5041,7 +5041,7 @@
         <v>1378662</v>
       </c>
       <c r="P46" s="3">
-        <v>940635</v>
+        <v>940636</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5058,10 +5058,10 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27903</v>
+        <v>27921</v>
       </c>
       <c r="C47" s="3">
-        <v>7713</v>
+        <v>7731</v>
       </c>
       <c r="D47" s="3">
         <v>5605</v>
@@ -5085,13 +5085,13 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660878</v>
+        <v>11660947</v>
       </c>
       <c r="L47" s="3">
-        <v>3937123</v>
+        <v>3937190</v>
       </c>
       <c r="M47" s="3">
-        <v>2988178</v>
+        <v>2988179</v>
       </c>
       <c r="N47" s="3">
         <v>1743413</v>
@@ -5100,7 +5100,7 @@
         <v>1380660</v>
       </c>
       <c r="P47" s="3">
-        <v>945712</v>
+        <v>945713</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,22 +5117,22 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43937</v>
+        <v>43946</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
       </c>
       <c r="D48" s="3">
-        <v>6085</v>
+        <v>6087</v>
       </c>
       <c r="E48" s="3">
-        <v>7182</v>
+        <v>7186</v>
       </c>
       <c r="F48" s="3">
         <v>2178</v>
       </c>
       <c r="G48" s="3">
-        <v>9330</v>
+        <v>9333</v>
       </c>
       <c r="H48" s="3">
         <v>4149</v>
@@ -5144,22 +5144,22 @@
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704815</v>
+        <v>11704893</v>
       </c>
       <c r="L48" s="3">
-        <v>3949409</v>
+        <v>3949476</v>
       </c>
       <c r="M48" s="3">
-        <v>2994263</v>
+        <v>2994266</v>
       </c>
       <c r="N48" s="3">
-        <v>1750595</v>
+        <v>1750599</v>
       </c>
       <c r="O48" s="3">
         <v>1382838</v>
       </c>
       <c r="P48" s="3">
-        <v>955042</v>
+        <v>955046</v>
       </c>
       <c r="Q48" s="3">
         <v>311670</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>14704</v>
+        <v>16377</v>
       </c>
       <c r="C49">
-        <v>4670</v>
+        <v>5306</v>
       </c>
       <c r="D49">
-        <v>1885</v>
+        <v>2123</v>
       </c>
       <c r="E49">
-        <v>3342</v>
+        <v>3701</v>
       </c>
       <c r="F49">
         <v>183</v>
       </c>
       <c r="G49">
-        <v>2722</v>
+        <v>2913</v>
       </c>
       <c r="H49">
-        <v>1227</v>
+        <v>1398</v>
       </c>
       <c r="I49">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="J49">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K49">
-        <v>11719519</v>
+        <v>11721270</v>
       </c>
       <c r="L49">
-        <v>3954079</v>
+        <v>3954782</v>
       </c>
       <c r="M49">
-        <v>2996148</v>
+        <v>2996389</v>
       </c>
       <c r="N49">
-        <v>1753937</v>
+        <v>1754300</v>
       </c>
       <c r="O49">
         <v>1383021</v>
       </c>
       <c r="P49">
-        <v>957764</v>
+        <v>957959</v>
       </c>
       <c r="Q49">
-        <v>312897</v>
+        <v>313068</v>
       </c>
       <c r="R49">
-        <v>251297</v>
+        <v>251367</v>
       </c>
       <c r="S49">
-        <v>110376</v>
+        <v>110384</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM35"/>
+  <dimension ref="A1:IM36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28373,6 +28373,749 @@
       </c>
       <c r="IM35">
         <v>13483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B36">
+        <v>1751</v>
+      </c>
+      <c r="C36">
+        <v>703</v>
+      </c>
+      <c r="D36">
+        <v>241</v>
+      </c>
+      <c r="E36">
+        <v>363</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>195</v>
+      </c>
+      <c r="H36">
+        <v>171</v>
+      </c>
+      <c r="I36">
+        <v>70</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>11721270</v>
+      </c>
+      <c r="L36">
+        <v>3954782</v>
+      </c>
+      <c r="M36">
+        <v>2996389</v>
+      </c>
+      <c r="N36">
+        <v>1754300</v>
+      </c>
+      <c r="O36">
+        <v>1383021</v>
+      </c>
+      <c r="P36">
+        <v>957959</v>
+      </c>
+      <c r="Q36">
+        <v>313068</v>
+      </c>
+      <c r="R36">
+        <v>251367</v>
+      </c>
+      <c r="S36">
+        <v>110384</v>
+      </c>
+      <c r="T36">
+        <v>119</v>
+      </c>
+      <c r="U36">
+        <v>21</v>
+      </c>
+      <c r="V36">
+        <v>19</v>
+      </c>
+      <c r="W36">
+        <v>48</v>
+      </c>
+      <c r="X36">
+        <v>81</v>
+      </c>
+      <c r="Y36">
+        <v>102</v>
+      </c>
+      <c r="Z36">
+        <v>116</v>
+      </c>
+      <c r="AA36">
+        <v>111</v>
+      </c>
+      <c r="AB36">
+        <v>81</v>
+      </c>
+      <c r="AC36">
+        <v>103</v>
+      </c>
+      <c r="AD36">
+        <v>107</v>
+      </c>
+      <c r="AE36">
+        <v>117</v>
+      </c>
+      <c r="AF36">
+        <v>109</v>
+      </c>
+      <c r="AG36">
+        <v>94</v>
+      </c>
+      <c r="AH36">
+        <v>127</v>
+      </c>
+      <c r="AI36">
+        <v>124</v>
+      </c>
+      <c r="AJ36">
+        <v>101</v>
+      </c>
+      <c r="AK36">
+        <v>170</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>503802</v>
+      </c>
+      <c r="AN36">
+        <v>668327</v>
+      </c>
+      <c r="AO36">
+        <v>773959</v>
+      </c>
+      <c r="AP36">
+        <v>760408</v>
+      </c>
+      <c r="AQ36">
+        <v>931151</v>
+      </c>
+      <c r="AR36">
+        <v>1027272</v>
+      </c>
+      <c r="AS36">
+        <v>1035223</v>
+      </c>
+      <c r="AT36">
+        <v>1019919</v>
+      </c>
+      <c r="AU36">
+        <v>909448</v>
+      </c>
+      <c r="AV36">
+        <v>808178</v>
+      </c>
+      <c r="AW36">
+        <v>748175</v>
+      </c>
+      <c r="AX36">
+        <v>623027</v>
+      </c>
+      <c r="AY36">
+        <v>544010</v>
+      </c>
+      <c r="AZ36">
+        <v>408258</v>
+      </c>
+      <c r="BA36">
+        <v>326105</v>
+      </c>
+      <c r="BB36">
+        <v>241693</v>
+      </c>
+      <c r="BC36">
+        <v>162638</v>
+      </c>
+      <c r="BD36">
+        <v>211504</v>
+      </c>
+      <c r="BE36">
+        <v>18173</v>
+      </c>
+      <c r="BF36">
+        <v>57</v>
+      </c>
+      <c r="BG36">
+        <v>62</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>12</v>
+      </c>
+      <c r="BL36">
+        <v>9</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>9</v>
+      </c>
+      <c r="BQ36">
+        <v>10</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BS36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>23</v>
+      </c>
+      <c r="BV36">
+        <v>25</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BX36">
+        <v>0</v>
+      </c>
+      <c r="BY36">
+        <v>0</v>
+      </c>
+      <c r="BZ36">
+        <v>26</v>
+      </c>
+      <c r="CA36">
+        <v>56</v>
+      </c>
+      <c r="CB36">
+        <v>0</v>
+      </c>
+      <c r="CC36">
+        <v>-1</v>
+      </c>
+      <c r="CD36">
+        <v>0</v>
+      </c>
+      <c r="CE36">
+        <v>40</v>
+      </c>
+      <c r="CF36">
+        <v>62</v>
+      </c>
+      <c r="CG36">
+        <v>0</v>
+      </c>
+      <c r="CH36">
+        <v>0</v>
+      </c>
+      <c r="CI36">
+        <v>0</v>
+      </c>
+      <c r="CJ36">
+        <v>49</v>
+      </c>
+      <c r="CK36">
+        <v>68</v>
+      </c>
+      <c r="CL36">
+        <v>0</v>
+      </c>
+      <c r="CM36">
+        <v>-1</v>
+      </c>
+      <c r="CN36">
+        <v>0</v>
+      </c>
+      <c r="CO36">
+        <v>44</v>
+      </c>
+      <c r="CP36">
+        <v>65</v>
+      </c>
+      <c r="CQ36">
+        <v>1</v>
+      </c>
+      <c r="CR36">
+        <v>0</v>
+      </c>
+      <c r="CS36">
+        <v>1</v>
+      </c>
+      <c r="CT36">
+        <v>34</v>
+      </c>
+      <c r="CU36">
+        <v>46</v>
+      </c>
+      <c r="CV36">
+        <v>0</v>
+      </c>
+      <c r="CW36">
+        <v>1</v>
+      </c>
+      <c r="CX36">
+        <v>0</v>
+      </c>
+      <c r="CY36">
+        <v>37</v>
+      </c>
+      <c r="CZ36">
+        <v>67</v>
+      </c>
+      <c r="DA36">
+        <v>0</v>
+      </c>
+      <c r="DB36">
+        <v>-1</v>
+      </c>
+      <c r="DC36">
+        <v>0</v>
+      </c>
+      <c r="DD36">
+        <v>46</v>
+      </c>
+      <c r="DE36">
+        <v>62</v>
+      </c>
+      <c r="DF36">
+        <v>0</v>
+      </c>
+      <c r="DG36">
+        <v>-1</v>
+      </c>
+      <c r="DH36">
+        <v>0</v>
+      </c>
+      <c r="DI36">
+        <v>51</v>
+      </c>
+      <c r="DJ36">
+        <v>67</v>
+      </c>
+      <c r="DK36">
+        <v>0</v>
+      </c>
+      <c r="DL36">
+        <v>0</v>
+      </c>
+      <c r="DM36">
+        <v>-1</v>
+      </c>
+      <c r="DN36">
+        <v>46</v>
+      </c>
+      <c r="DO36">
+        <v>62</v>
+      </c>
+      <c r="DP36">
+        <v>0</v>
+      </c>
+      <c r="DQ36">
+        <v>1</v>
+      </c>
+      <c r="DR36">
+        <v>0</v>
+      </c>
+      <c r="DS36">
+        <v>57</v>
+      </c>
+      <c r="DT36">
+        <v>46</v>
+      </c>
+      <c r="DU36">
+        <v>0</v>
+      </c>
+      <c r="DV36">
+        <v>-10</v>
+      </c>
+      <c r="DW36">
+        <v>1</v>
+      </c>
+      <c r="DX36">
+        <v>65</v>
+      </c>
+      <c r="DY36">
+        <v>75</v>
+      </c>
+      <c r="DZ36">
+        <v>0</v>
+      </c>
+      <c r="EA36">
+        <v>-12</v>
+      </c>
+      <c r="EB36">
+        <v>-1</v>
+      </c>
+      <c r="EC36">
+        <v>64</v>
+      </c>
+      <c r="ED36">
+        <v>66</v>
+      </c>
+      <c r="EE36">
+        <v>0</v>
+      </c>
+      <c r="EF36">
+        <v>-5</v>
+      </c>
+      <c r="EG36">
+        <v>-1</v>
+      </c>
+      <c r="EH36">
+        <v>60</v>
+      </c>
+      <c r="EI36">
+        <v>44</v>
+      </c>
+      <c r="EJ36">
+        <v>0</v>
+      </c>
+      <c r="EK36">
+        <v>-4</v>
+      </c>
+      <c r="EL36">
+        <v>1</v>
+      </c>
+      <c r="EM36">
+        <v>67</v>
+      </c>
+      <c r="EN36">
+        <v>104</v>
+      </c>
+      <c r="EO36">
+        <v>0</v>
+      </c>
+      <c r="EP36">
+        <v>-1</v>
+      </c>
+      <c r="EQ36">
+        <v>0</v>
+      </c>
+      <c r="ER36">
+        <v>1</v>
+      </c>
+      <c r="ES36">
+        <v>1</v>
+      </c>
+      <c r="ET36">
+        <v>0</v>
+      </c>
+      <c r="EU36">
+        <v>0</v>
+      </c>
+      <c r="EV36">
+        <v>-1</v>
+      </c>
+      <c r="EW36">
+        <v>232038</v>
+      </c>
+      <c r="EX36">
+        <v>220255</v>
+      </c>
+      <c r="EY36">
+        <v>409</v>
+      </c>
+      <c r="EZ36">
+        <v>15452</v>
+      </c>
+      <c r="FA36">
+        <v>35648</v>
+      </c>
+      <c r="FB36">
+        <v>308211</v>
+      </c>
+      <c r="FC36">
+        <v>292847</v>
+      </c>
+      <c r="FD36">
+        <v>466</v>
+      </c>
+      <c r="FE36">
+        <v>16770</v>
+      </c>
+      <c r="FF36">
+        <v>50033</v>
+      </c>
+      <c r="FG36">
+        <v>353481</v>
+      </c>
+      <c r="FH36">
+        <v>342811</v>
+      </c>
+      <c r="FI36">
+        <v>633</v>
+      </c>
+      <c r="FJ36">
+        <v>16951</v>
+      </c>
+      <c r="FK36">
+        <v>60083</v>
+      </c>
+      <c r="FL36">
+        <v>326598</v>
+      </c>
+      <c r="FM36">
+        <v>374159</v>
+      </c>
+      <c r="FN36">
+        <v>896</v>
+      </c>
+      <c r="FO36">
+        <v>12934</v>
+      </c>
+      <c r="FP36">
+        <v>45821</v>
+      </c>
+      <c r="FQ36">
+        <v>392295</v>
+      </c>
+      <c r="FR36">
+        <v>480061</v>
+      </c>
+      <c r="FS36">
+        <v>1101</v>
+      </c>
+      <c r="FT36">
+        <v>16278</v>
+      </c>
+      <c r="FU36">
+        <v>41416</v>
+      </c>
+      <c r="FV36">
+        <v>434163</v>
+      </c>
+      <c r="FW36">
+        <v>526675</v>
+      </c>
+      <c r="FX36">
+        <v>1138</v>
+      </c>
+      <c r="FY36">
+        <v>17785</v>
+      </c>
+      <c r="FZ36">
+        <v>47511</v>
+      </c>
+      <c r="GA36">
+        <v>429590</v>
+      </c>
+      <c r="GB36">
+        <v>532723</v>
+      </c>
+      <c r="GC36">
+        <v>922</v>
+      </c>
+      <c r="GD36">
+        <v>17167</v>
+      </c>
+      <c r="GE36">
+        <v>54821</v>
+      </c>
+      <c r="GF36">
+        <v>420122</v>
+      </c>
+      <c r="GG36">
+        <v>525275</v>
+      </c>
+      <c r="GH36">
+        <v>665</v>
+      </c>
+      <c r="GI36">
+        <v>15030</v>
+      </c>
+      <c r="GJ36">
+        <v>58827</v>
+      </c>
+      <c r="GK36">
+        <v>373918</v>
+      </c>
+      <c r="GL36">
+        <v>469524</v>
+      </c>
+      <c r="GM36">
+        <v>498</v>
+      </c>
+      <c r="GN36">
+        <v>12345</v>
+      </c>
+      <c r="GO36">
+        <v>53163</v>
+      </c>
+      <c r="GP36">
+        <v>330676</v>
+      </c>
+      <c r="GQ36">
+        <v>421617</v>
+      </c>
+      <c r="GR36">
+        <v>439</v>
+      </c>
+      <c r="GS36">
+        <v>10125</v>
+      </c>
+      <c r="GT36">
+        <v>45321</v>
+      </c>
+      <c r="GU36">
+        <v>308537</v>
+      </c>
+      <c r="GV36">
+        <v>390028</v>
+      </c>
+      <c r="GW36">
+        <v>400</v>
+      </c>
+      <c r="GX36">
+        <v>8948</v>
+      </c>
+      <c r="GY36">
+        <v>40262</v>
+      </c>
+      <c r="GZ36">
+        <v>263922</v>
+      </c>
+      <c r="HA36">
+        <v>320423</v>
+      </c>
+      <c r="HB36">
+        <v>329</v>
+      </c>
+      <c r="HC36">
+        <v>6605</v>
+      </c>
+      <c r="HD36">
+        <v>31748</v>
+      </c>
+      <c r="HE36">
+        <v>234831</v>
+      </c>
+      <c r="HF36">
+        <v>277670</v>
+      </c>
+      <c r="HG36">
+        <v>234</v>
+      </c>
+      <c r="HH36">
+        <v>5316</v>
+      </c>
+      <c r="HI36">
+        <v>25959</v>
+      </c>
+      <c r="HJ36">
+        <v>181203</v>
+      </c>
+      <c r="HK36">
+        <v>204708</v>
+      </c>
+      <c r="HL36">
+        <v>199</v>
+      </c>
+      <c r="HM36">
+        <v>3626</v>
+      </c>
+      <c r="HN36">
+        <v>18522</v>
+      </c>
+      <c r="HO36">
+        <v>152121</v>
+      </c>
+      <c r="HP36">
+        <v>158824</v>
+      </c>
+      <c r="HQ36">
+        <v>163</v>
+      </c>
+      <c r="HR36">
+        <v>2649</v>
+      </c>
+      <c r="HS36">
+        <v>12348</v>
+      </c>
+      <c r="HT36">
+        <v>116468</v>
+      </c>
+      <c r="HU36">
+        <v>115386</v>
+      </c>
+      <c r="HV36">
+        <v>164</v>
+      </c>
+      <c r="HW36">
+        <v>1864</v>
+      </c>
+      <c r="HX36">
+        <v>7811</v>
+      </c>
+      <c r="HY36">
+        <v>76458</v>
+      </c>
+      <c r="HZ36">
+        <v>80252</v>
+      </c>
+      <c r="IA36">
+        <v>131</v>
+      </c>
+      <c r="IB36">
+        <v>1264</v>
+      </c>
+      <c r="IC36">
+        <v>4533</v>
+      </c>
+      <c r="ID36">
+        <v>81889</v>
+      </c>
+      <c r="IE36">
+        <v>123214</v>
+      </c>
+      <c r="IF36">
+        <v>306</v>
+      </c>
+      <c r="IG36">
+        <v>2255</v>
+      </c>
+      <c r="IH36">
+        <v>3840</v>
+      </c>
+      <c r="II36">
+        <v>2155</v>
+      </c>
+      <c r="IJ36">
+        <v>2311</v>
+      </c>
+      <c r="IK36">
+        <v>24</v>
+      </c>
+      <c r="IL36">
+        <v>201</v>
+      </c>
+      <c r="IM36">
+        <v>13482</v>
       </c>
     </row>
   </sheetData>
@@ -28399,7 +29142,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B36126-D97C-4684-BF7F-CA6E12B48ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1275B84-CCE5-467C-A97E-8160499A0704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1808,7 +1808,7 @@
         <v>44197</v>
       </c>
       <c r="B3">
-        <v>538954</v>
+        <v>538955</v>
       </c>
       <c r="C3">
         <v>280240</v>
@@ -1820,7 +1820,7 @@
         <v>31616</v>
       </c>
       <c r="F3">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G3">
         <v>18548</v>
@@ -1835,7 +1835,7 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568070</v>
+        <v>568071</v>
       </c>
       <c r="L3">
         <v>285284</v>
@@ -1847,7 +1847,7 @@
         <v>32911</v>
       </c>
       <c r="O3">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="P3">
         <v>19161</v>
@@ -1874,25 +1874,25 @@
         <v>43737</v>
       </c>
       <c r="X3">
-        <v>75258</v>
+        <v>75260</v>
       </c>
       <c r="Y3">
-        <v>70915</v>
+        <v>70913</v>
       </c>
       <c r="Z3">
-        <v>55518</v>
+        <v>55519</v>
       </c>
       <c r="AA3">
-        <v>42728</v>
+        <v>42727</v>
       </c>
       <c r="AB3">
-        <v>33828</v>
+        <v>33829</v>
       </c>
       <c r="AC3">
         <v>30114</v>
       </c>
       <c r="AD3">
-        <v>27883</v>
+        <v>27882</v>
       </c>
       <c r="AE3">
         <v>22324</v>
@@ -1907,7 +1907,7 @@
         <v>8406</v>
       </c>
       <c r="AI3">
-        <v>5712</v>
+        <v>5713</v>
       </c>
       <c r="AJ3">
         <v>3750</v>
@@ -1931,25 +1931,25 @@
         <v>45246</v>
       </c>
       <c r="AQ3">
-        <v>78226</v>
+        <v>78228</v>
       </c>
       <c r="AR3">
-        <v>74445</v>
+        <v>74443</v>
       </c>
       <c r="AS3">
-        <v>58381</v>
+        <v>58382</v>
       </c>
       <c r="AT3">
-        <v>44993</v>
+        <v>44992</v>
       </c>
       <c r="AU3">
-        <v>35617</v>
+        <v>35618</v>
       </c>
       <c r="AV3">
         <v>32079</v>
       </c>
       <c r="AW3">
-        <v>29689</v>
+        <v>29688</v>
       </c>
       <c r="AX3">
         <v>24002</v>
@@ -1964,7 +1964,7 @@
         <v>9318</v>
       </c>
       <c r="BB3">
-        <v>6472</v>
+        <v>6473</v>
       </c>
       <c r="BC3">
         <v>4390</v>
@@ -1981,172 +1981,172 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317914</v>
+        <v>10317928</v>
       </c>
       <c r="C4">
-        <v>3368110</v>
+        <v>3368108</v>
       </c>
       <c r="D4">
         <v>2621354</v>
       </c>
       <c r="E4">
-        <v>1586953</v>
+        <v>1586966</v>
       </c>
       <c r="F4">
-        <v>1288505</v>
+        <v>1288508</v>
       </c>
       <c r="G4">
-        <v>848365</v>
+        <v>848367</v>
       </c>
       <c r="H4">
         <v>279666</v>
       </c>
       <c r="I4">
-        <v>221785</v>
+        <v>221783</v>
       </c>
       <c r="J4">
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885984</v>
+        <v>10885999</v>
       </c>
       <c r="L4">
-        <v>3653394</v>
+        <v>3653392</v>
       </c>
       <c r="M4">
         <v>2841482</v>
       </c>
       <c r="N4">
-        <v>1619864</v>
+        <v>1619877</v>
       </c>
       <c r="O4">
-        <v>1289871</v>
+        <v>1289875</v>
       </c>
       <c r="P4">
-        <v>867526</v>
+        <v>867528</v>
       </c>
       <c r="Q4">
         <v>281543</v>
       </c>
       <c r="R4">
-        <v>228337</v>
+        <v>228335</v>
       </c>
       <c r="S4">
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450538</v>
+        <v>450526</v>
       </c>
       <c r="U4">
-        <v>611244</v>
+        <v>611247</v>
       </c>
       <c r="V4">
-        <v>710183</v>
+        <v>710191</v>
       </c>
       <c r="W4">
-        <v>683346</v>
+        <v>683342</v>
       </c>
       <c r="X4">
-        <v>812038</v>
+        <v>812053</v>
       </c>
       <c r="Y4">
-        <v>899950</v>
+        <v>899969</v>
       </c>
       <c r="Z4">
-        <v>916987</v>
+        <v>917004</v>
       </c>
       <c r="AA4">
         <v>908894</v>
       </c>
       <c r="AB4">
-        <v>810342</v>
+        <v>810343</v>
       </c>
       <c r="AC4">
-        <v>717633</v>
+        <v>717637</v>
       </c>
       <c r="AD4">
-        <v>658715</v>
+        <v>658722</v>
       </c>
       <c r="AE4">
-        <v>544126</v>
+        <v>544130</v>
       </c>
       <c r="AF4">
-        <v>471545</v>
+        <v>471544</v>
       </c>
       <c r="AG4">
-        <v>349044</v>
+        <v>349046</v>
       </c>
       <c r="AH4">
-        <v>274356</v>
+        <v>274358</v>
       </c>
       <c r="AI4">
         <v>197983</v>
       </c>
       <c r="AJ4">
-        <v>128132</v>
+        <v>128131</v>
       </c>
       <c r="AK4">
         <v>155655</v>
       </c>
       <c r="AL4">
-        <v>17203</v>
+        <v>17153</v>
       </c>
       <c r="AM4">
-        <v>473788</v>
+        <v>473776</v>
       </c>
       <c r="AN4">
-        <v>644443</v>
+        <v>644446</v>
       </c>
       <c r="AO4">
-        <v>741697</v>
+        <v>741705</v>
       </c>
       <c r="AP4">
-        <v>728592</v>
+        <v>728588</v>
       </c>
       <c r="AQ4">
-        <v>890264</v>
+        <v>890281</v>
       </c>
       <c r="AR4">
-        <v>974395</v>
+        <v>974412</v>
       </c>
       <c r="AS4">
-        <v>975368</v>
+        <v>975386</v>
       </c>
       <c r="AT4">
-        <v>953887</v>
+        <v>953886</v>
       </c>
       <c r="AU4">
-        <v>845959</v>
+        <v>845961</v>
       </c>
       <c r="AV4">
-        <v>749712</v>
+        <v>749716</v>
       </c>
       <c r="AW4">
-        <v>688404</v>
+        <v>688410</v>
       </c>
       <c r="AX4">
-        <v>568128</v>
+        <v>568132</v>
       </c>
       <c r="AY4">
-        <v>490084</v>
+        <v>490083</v>
       </c>
       <c r="AZ4">
-        <v>362017</v>
+        <v>362019</v>
       </c>
       <c r="BA4">
-        <v>283674</v>
+        <v>283676</v>
       </c>
       <c r="BB4">
-        <v>204455</v>
+        <v>204456</v>
       </c>
       <c r="BC4">
-        <v>132522</v>
+        <v>132521</v>
       </c>
       <c r="BD4">
         <v>161019</v>
       </c>
       <c r="BE4">
-        <v>17576</v>
+        <v>17526</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>835286</v>
+        <v>837430</v>
       </c>
       <c r="C5">
-        <v>301388</v>
+        <v>301940</v>
       </c>
       <c r="D5">
-        <v>154907</v>
+        <v>155191</v>
       </c>
       <c r="E5">
-        <v>134436</v>
+        <v>134791</v>
       </c>
       <c r="F5">
-        <v>93150</v>
+        <v>93623</v>
       </c>
       <c r="G5">
-        <v>90433</v>
+        <v>90612</v>
       </c>
       <c r="H5">
-        <v>31525</v>
+        <v>31669</v>
       </c>
       <c r="I5">
-        <v>23030</v>
+        <v>23168</v>
       </c>
       <c r="J5">
-        <v>6417</v>
+        <v>6436</v>
       </c>
       <c r="K5">
-        <v>11721270</v>
+        <v>11723429</v>
       </c>
       <c r="L5">
-        <v>3954782</v>
+        <v>3955332</v>
       </c>
       <c r="M5">
-        <v>2996389</v>
+        <v>2996673</v>
       </c>
       <c r="N5">
-        <v>1754300</v>
+        <v>1754668</v>
       </c>
       <c r="O5">
-        <v>1383021</v>
+        <v>1383498</v>
       </c>
       <c r="P5">
-        <v>957959</v>
+        <v>958140</v>
       </c>
       <c r="Q5">
-        <v>313068</v>
+        <v>313212</v>
       </c>
       <c r="R5">
-        <v>251367</v>
+        <v>251503</v>
       </c>
       <c r="S5">
-        <v>110384</v>
+        <v>110403</v>
       </c>
       <c r="T5">
-        <v>30014</v>
+        <v>30158</v>
       </c>
       <c r="U5">
-        <v>23884</v>
+        <v>23911</v>
       </c>
       <c r="V5">
-        <v>32262</v>
+        <v>32307</v>
       </c>
       <c r="W5">
-        <v>31816</v>
+        <v>31872</v>
       </c>
       <c r="X5">
-        <v>40887</v>
+        <v>40986</v>
       </c>
       <c r="Y5">
-        <v>52877</v>
+        <v>52999</v>
       </c>
       <c r="Z5">
-        <v>59855</v>
+        <v>59978</v>
       </c>
       <c r="AA5">
-        <v>66032</v>
+        <v>66146</v>
       </c>
       <c r="AB5">
-        <v>63489</v>
+        <v>63624</v>
       </c>
       <c r="AC5">
-        <v>58466</v>
+        <v>58588</v>
       </c>
       <c r="AD5">
-        <v>59771</v>
+        <v>59889</v>
       </c>
       <c r="AE5">
-        <v>54899</v>
+        <v>55028</v>
       </c>
       <c r="AF5">
-        <v>53926</v>
+        <v>54054</v>
       </c>
       <c r="AG5">
-        <v>46241</v>
+        <v>46359</v>
       </c>
       <c r="AH5">
-        <v>42431</v>
+        <v>42565</v>
       </c>
       <c r="AI5">
-        <v>37238</v>
+        <v>37392</v>
       </c>
       <c r="AJ5">
-        <v>30116</v>
+        <v>30263</v>
       </c>
       <c r="AK5">
-        <v>50485</v>
+        <v>50714</v>
       </c>
       <c r="AL5">
         <v>597</v>
       </c>
       <c r="AM5">
-        <v>503802</v>
+        <v>503934</v>
       </c>
       <c r="AN5">
-        <v>668327</v>
+        <v>668357</v>
       </c>
       <c r="AO5">
-        <v>773959</v>
+        <v>774012</v>
       </c>
       <c r="AP5">
-        <v>760408</v>
+        <v>760460</v>
       </c>
       <c r="AQ5">
-        <v>931151</v>
+        <v>931267</v>
       </c>
       <c r="AR5">
-        <v>1027272</v>
+        <v>1027411</v>
       </c>
       <c r="AS5">
-        <v>1035223</v>
+        <v>1035364</v>
       </c>
       <c r="AT5">
-        <v>1019919</v>
+        <v>1020032</v>
       </c>
       <c r="AU5">
-        <v>909448</v>
+        <v>909585</v>
       </c>
       <c r="AV5">
-        <v>808178</v>
+        <v>808304</v>
       </c>
       <c r="AW5">
-        <v>748175</v>
+        <v>748299</v>
       </c>
       <c r="AX5">
-        <v>623027</v>
+        <v>623160</v>
       </c>
       <c r="AY5">
-        <v>544010</v>
+        <v>544137</v>
       </c>
       <c r="AZ5">
-        <v>408258</v>
+        <v>408378</v>
       </c>
       <c r="BA5">
-        <v>326105</v>
+        <v>326241</v>
       </c>
       <c r="BB5">
-        <v>241693</v>
+        <v>241848</v>
       </c>
       <c r="BC5">
-        <v>162638</v>
+        <v>162784</v>
       </c>
       <c r="BD5">
-        <v>211504</v>
+        <v>211733</v>
       </c>
       <c r="BE5">
-        <v>18173</v>
+        <v>18123</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +3701,7 @@
         <v>44501</v>
       </c>
       <c r="B24" s="3">
-        <v>40729</v>
+        <v>40730</v>
       </c>
       <c r="C24" s="3">
         <v>6670</v>
@@ -3713,7 +3713,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" s="3">
         <v>48</v>
@@ -3728,7 +3728,7 @@
         <v>70</v>
       </c>
       <c r="K24" s="3">
-        <v>215937</v>
+        <v>215938</v>
       </c>
       <c r="L24" s="3">
         <v>82234</v>
@@ -3740,7 +3740,7 @@
         <v>2229</v>
       </c>
       <c r="O24" s="3">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="P24" s="3">
         <v>1000</v>
@@ -3787,7 +3787,7 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568070</v>
+        <v>568071</v>
       </c>
       <c r="L25" s="3">
         <v>285284</v>
@@ -3799,7 +3799,7 @@
         <v>32911</v>
       </c>
       <c r="O25" s="3">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="P25" s="3">
         <v>19161</v>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809634</v>
+        <v>1809645</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3828,7 +3828,7 @@
         <v>635279</v>
       </c>
       <c r="E26" s="3">
-        <v>372395</v>
+        <v>372406</v>
       </c>
       <c r="F26" s="3">
         <v>850</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377704</v>
+        <v>2377716</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3855,10 +3855,10 @@
         <v>855407</v>
       </c>
       <c r="N26" s="3">
-        <v>405306</v>
+        <v>405317</v>
       </c>
       <c r="O26" s="3">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="P26" s="3">
         <v>109261</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687552</v>
+        <v>687548</v>
       </c>
       <c r="C27" s="3">
         <v>230228</v>
@@ -3887,7 +3887,7 @@
         <v>204529</v>
       </c>
       <c r="E27" s="3">
-        <v>140753</v>
+        <v>140749</v>
       </c>
       <c r="F27" s="3">
         <v>11818</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065256</v>
+        <v>3065264</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3914,10 +3914,10 @@
         <v>1059936</v>
       </c>
       <c r="N27" s="3">
-        <v>546059</v>
+        <v>546066</v>
       </c>
       <c r="O27" s="3">
-        <v>14034</v>
+        <v>14035</v>
       </c>
       <c r="P27" s="3">
         <v>153686</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432040</v>
+        <v>4432048</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3973,10 +3973,10 @@
         <v>1310022</v>
       </c>
       <c r="N28" s="3">
-        <v>742283</v>
+        <v>742290</v>
       </c>
       <c r="O28" s="3">
-        <v>193322</v>
+        <v>193323</v>
       </c>
       <c r="P28" s="3">
         <v>274187</v>
@@ -3996,22 +3996,22 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339896</v>
+        <v>1339897</v>
       </c>
       <c r="C29" s="3">
-        <v>432381</v>
+        <v>432380</v>
       </c>
       <c r="D29" s="3">
         <v>274952</v>
       </c>
       <c r="E29" s="3">
-        <v>201081</v>
+        <v>201082</v>
       </c>
       <c r="F29" s="3">
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139838</v>
+        <v>139839</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,22 +4023,22 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771936</v>
+        <v>5771945</v>
       </c>
       <c r="L29" s="3">
-        <v>2121665</v>
+        <v>2121664</v>
       </c>
       <c r="M29" s="3">
         <v>1584974</v>
       </c>
       <c r="N29" s="3">
-        <v>943364</v>
+        <v>943372</v>
       </c>
       <c r="O29" s="3">
-        <v>400165</v>
+        <v>400166</v>
       </c>
       <c r="P29" s="3">
-        <v>414025</v>
+        <v>414026</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,22 +4082,22 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082306</v>
+        <v>7082315</v>
       </c>
       <c r="L30" s="3">
-        <v>2418932</v>
+        <v>2418931</v>
       </c>
       <c r="M30" s="3">
         <v>1918283</v>
       </c>
       <c r="N30" s="3">
-        <v>1096294</v>
+        <v>1096302</v>
       </c>
       <c r="O30" s="3">
-        <v>754253</v>
+        <v>754254</v>
       </c>
       <c r="P30" s="3">
-        <v>522165</v>
+        <v>522166</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884301</v>
+        <v>884302</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77322</v>
+        <v>77323</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,22 +4141,22 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966607</v>
+        <v>7966617</v>
       </c>
       <c r="L31" s="3">
-        <v>2652833</v>
+        <v>2652832</v>
       </c>
       <c r="M31" s="3">
         <v>2133369</v>
       </c>
       <c r="N31" s="3">
-        <v>1213309</v>
+        <v>1213317</v>
       </c>
       <c r="O31" s="3">
-        <v>936892</v>
+        <v>936893</v>
       </c>
       <c r="P31" s="3">
-        <v>599487</v>
+        <v>599489</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4173,7 +4173,7 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250347</v>
+        <v>1250353</v>
       </c>
       <c r="C32" s="3">
         <v>378606</v>
@@ -4182,10 +4182,10 @@
         <v>312117</v>
       </c>
       <c r="E32" s="3">
-        <v>197457</v>
+        <v>197462</v>
       </c>
       <c r="F32" s="3">
-        <v>158265</v>
+        <v>158266</v>
       </c>
       <c r="G32" s="3">
         <v>117401</v>
@@ -4200,22 +4200,22 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216954</v>
+        <v>9216970</v>
       </c>
       <c r="L32" s="3">
-        <v>3031439</v>
+        <v>3031438</v>
       </c>
       <c r="M32" s="3">
         <v>2445486</v>
       </c>
       <c r="N32" s="3">
-        <v>1410766</v>
+        <v>1410779</v>
       </c>
       <c r="O32" s="3">
-        <v>1095157</v>
+        <v>1095159</v>
       </c>
       <c r="P32" s="3">
-        <v>716888</v>
+        <v>716890</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4232,7 +4232,7 @@
         <v>44774</v>
       </c>
       <c r="B33" s="3">
-        <v>554860</v>
+        <v>554859</v>
       </c>
       <c r="C33" s="3">
         <v>230049</v>
@@ -4253,34 +4253,34 @@
         <v>12904</v>
       </c>
       <c r="I33" s="3">
-        <v>10547</v>
+        <v>10546</v>
       </c>
       <c r="J33" s="3">
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771814</v>
+        <v>9771829</v>
       </c>
       <c r="L33" s="3">
-        <v>3261488</v>
+        <v>3261487</v>
       </c>
       <c r="M33" s="3">
         <v>2570916</v>
       </c>
       <c r="N33" s="3">
-        <v>1482127</v>
+        <v>1482140</v>
       </c>
       <c r="O33" s="3">
-        <v>1154228</v>
+        <v>1154230</v>
       </c>
       <c r="P33" s="3">
-        <v>757399</v>
+        <v>757401</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
       </c>
       <c r="R33" s="3">
-        <v>203231</v>
+        <v>203230</v>
       </c>
       <c r="S33" s="3">
         <v>96366</v>
@@ -4318,28 +4318,28 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966068</v>
+        <v>9966083</v>
       </c>
       <c r="L34" s="3">
-        <v>3330340</v>
+        <v>3330339</v>
       </c>
       <c r="M34" s="3">
         <v>2617585</v>
       </c>
       <c r="N34" s="3">
-        <v>1512400</v>
+        <v>1512413</v>
       </c>
       <c r="O34" s="3">
-        <v>1178500</v>
+        <v>1178502</v>
       </c>
       <c r="P34" s="3">
-        <v>772683</v>
+        <v>772685</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
       </c>
       <c r="R34" s="3">
-        <v>206497</v>
+        <v>206496</v>
       </c>
       <c r="S34" s="3">
         <v>98128</v>
@@ -4350,7 +4350,7 @@
         <v>44835</v>
       </c>
       <c r="B35" s="3">
-        <v>142105</v>
+        <v>142104</v>
       </c>
       <c r="C35" s="3">
         <v>44499</v>
@@ -4371,34 +4371,34 @@
         <v>3654</v>
       </c>
       <c r="I35" s="3">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="J35" s="3">
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108173</v>
+        <v>10108187</v>
       </c>
       <c r="L35" s="3">
-        <v>3374839</v>
+        <v>3374838</v>
       </c>
       <c r="M35" s="3">
         <v>2653979</v>
       </c>
       <c r="N35" s="3">
-        <v>1529137</v>
+        <v>1529150</v>
       </c>
       <c r="O35" s="3">
-        <v>1201926</v>
+        <v>1201928</v>
       </c>
       <c r="P35" s="3">
-        <v>785858</v>
+        <v>785860</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
       </c>
       <c r="R35" s="3">
-        <v>209534</v>
+        <v>209532</v>
       </c>
       <c r="S35" s="3">
         <v>99311</v>
@@ -4409,10 +4409,10 @@
         <v>44866</v>
       </c>
       <c r="B36" s="3">
-        <v>351944</v>
+        <v>351943</v>
       </c>
       <c r="C36" s="3">
-        <v>122093</v>
+        <v>122092</v>
       </c>
       <c r="D36" s="3">
         <v>92897</v>
@@ -4436,28 +4436,28 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460117</v>
+        <v>10460130</v>
       </c>
       <c r="L36" s="3">
-        <v>3496932</v>
+        <v>3496930</v>
       </c>
       <c r="M36" s="3">
         <v>2746876</v>
       </c>
       <c r="N36" s="3">
-        <v>1565583</v>
+        <v>1565596</v>
       </c>
       <c r="O36" s="3">
-        <v>1244560</v>
+        <v>1244562</v>
       </c>
       <c r="P36" s="3">
-        <v>823021</v>
+        <v>823023</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
       </c>
       <c r="R36" s="3">
-        <v>216760</v>
+        <v>216758</v>
       </c>
       <c r="S36" s="3">
         <v>101115</v>
@@ -4468,7 +4468,7 @@
         <v>44896</v>
       </c>
       <c r="B37" s="3">
-        <v>425867</v>
+        <v>425869</v>
       </c>
       <c r="C37" s="3">
         <v>156462</v>
@@ -4480,7 +4480,7 @@
         <v>54281</v>
       </c>
       <c r="F37" s="3">
-        <v>45311</v>
+        <v>45313</v>
       </c>
       <c r="G37" s="3">
         <v>44505</v>
@@ -4495,28 +4495,28 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885984</v>
+        <v>10885999</v>
       </c>
       <c r="L37" s="3">
-        <v>3653394</v>
+        <v>3653392</v>
       </c>
       <c r="M37" s="3">
         <v>2841482</v>
       </c>
       <c r="N37" s="3">
-        <v>1619864</v>
+        <v>1619877</v>
       </c>
       <c r="O37" s="3">
-        <v>1289871</v>
+        <v>1289875</v>
       </c>
       <c r="P37" s="3">
-        <v>867526</v>
+        <v>867528</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
       </c>
       <c r="R37" s="3">
-        <v>228337</v>
+        <v>228335</v>
       </c>
       <c r="S37" s="3">
         <v>103967</v>
@@ -4554,28 +4554,28 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016067</v>
+        <v>11016082</v>
       </c>
       <c r="L38" s="3">
-        <v>3699338</v>
+        <v>3699336</v>
       </c>
       <c r="M38" s="3">
         <v>2864587</v>
       </c>
       <c r="N38" s="3">
-        <v>1643977</v>
+        <v>1643990</v>
       </c>
       <c r="O38" s="3">
-        <v>1306727</v>
+        <v>1306731</v>
       </c>
       <c r="P38" s="3">
-        <v>879416</v>
+        <v>879418</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
       </c>
       <c r="R38" s="3">
-        <v>231590</v>
+        <v>231588</v>
       </c>
       <c r="S38" s="3">
         <v>105252</v>
@@ -4586,7 +4586,7 @@
         <v>44958</v>
       </c>
       <c r="B39" s="3">
-        <v>71989</v>
+        <v>71986</v>
       </c>
       <c r="C39" s="3">
         <v>25243</v>
@@ -4607,34 +4607,34 @@
         <v>1931</v>
       </c>
       <c r="I39" s="3">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="J39" s="3">
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088056</v>
+        <v>11088068</v>
       </c>
       <c r="L39" s="3">
-        <v>3724581</v>
+        <v>3724579</v>
       </c>
       <c r="M39" s="3">
         <v>2876976</v>
       </c>
       <c r="N39" s="3">
-        <v>1658277</v>
+        <v>1658290</v>
       </c>
       <c r="O39" s="3">
-        <v>1315599</v>
+        <v>1315603</v>
       </c>
       <c r="P39" s="3">
-        <v>886269</v>
+        <v>886271</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
       </c>
       <c r="R39" s="3">
-        <v>233531</v>
+        <v>233526</v>
       </c>
       <c r="S39" s="3">
         <v>105712</v>
@@ -4645,7 +4645,7 @@
         <v>44986</v>
       </c>
       <c r="B40" s="3">
-        <v>103979</v>
+        <v>103977</v>
       </c>
       <c r="C40" s="3">
         <v>38642</v>
@@ -4666,34 +4666,34 @@
         <v>3302</v>
       </c>
       <c r="I40" s="3">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="J40" s="3">
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192035</v>
+        <v>11192045</v>
       </c>
       <c r="L40" s="3">
-        <v>3763223</v>
+        <v>3763221</v>
       </c>
       <c r="M40" s="3">
         <v>2896213</v>
       </c>
       <c r="N40" s="3">
-        <v>1673732</v>
+        <v>1673745</v>
       </c>
       <c r="O40" s="3">
-        <v>1328561</v>
+        <v>1328565</v>
       </c>
       <c r="P40" s="3">
-        <v>897769</v>
+        <v>897771</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
       </c>
       <c r="R40" s="3">
-        <v>235744</v>
+        <v>235737</v>
       </c>
       <c r="S40" s="3">
         <v>106380</v>
@@ -4704,7 +4704,7 @@
         <v>45017</v>
       </c>
       <c r="B41" s="3">
-        <v>123166</v>
+        <v>123165</v>
       </c>
       <c r="C41" s="3">
         <v>47529</v>
@@ -4725,34 +4725,34 @@
         <v>3780</v>
       </c>
       <c r="I41" s="3">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="J41" s="3">
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315201</v>
+        <v>11315210</v>
       </c>
       <c r="L41" s="3">
-        <v>3810752</v>
+        <v>3810750</v>
       </c>
       <c r="M41" s="3">
         <v>2922020</v>
       </c>
       <c r="N41" s="3">
-        <v>1689642</v>
+        <v>1689655</v>
       </c>
       <c r="O41" s="3">
-        <v>1342948</v>
+        <v>1342952</v>
       </c>
       <c r="P41" s="3">
-        <v>910098</v>
+        <v>910100</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
       </c>
       <c r="R41" s="3">
-        <v>238341</v>
+        <v>238333</v>
       </c>
       <c r="S41" s="3">
         <v>107207</v>
@@ -4790,28 +4790,28 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481452</v>
+        <v>11481461</v>
       </c>
       <c r="L42" s="3">
-        <v>3872846</v>
+        <v>3872844</v>
       </c>
       <c r="M42" s="3">
         <v>2960396</v>
       </c>
       <c r="N42" s="3">
-        <v>1711952</v>
+        <v>1711965</v>
       </c>
       <c r="O42" s="3">
-        <v>1361036</v>
+        <v>1361040</v>
       </c>
       <c r="P42" s="3">
-        <v>925011</v>
+        <v>925013</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
       </c>
       <c r="R42" s="3">
-        <v>242675</v>
+        <v>242667</v>
       </c>
       <c r="S42" s="3">
         <v>108140</v>
@@ -4822,13 +4822,13 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77802</v>
+        <v>77801</v>
       </c>
       <c r="C43" s="3">
         <v>28183</v>
       </c>
       <c r="D43" s="3">
-        <v>14768</v>
+        <v>14767</v>
       </c>
       <c r="E43" s="3">
         <v>14250</v>
@@ -4849,28 +4849,28 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559254</v>
+        <v>11559262</v>
       </c>
       <c r="L43" s="3">
-        <v>3901029</v>
+        <v>3901027</v>
       </c>
       <c r="M43" s="3">
-        <v>2975164</v>
+        <v>2975163</v>
       </c>
       <c r="N43" s="3">
-        <v>1726202</v>
+        <v>1726215</v>
       </c>
       <c r="O43" s="3">
-        <v>1369454</v>
+        <v>1369458</v>
       </c>
       <c r="P43" s="3">
-        <v>932225</v>
+        <v>932227</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
       </c>
       <c r="R43" s="3">
-        <v>244665</v>
+        <v>244657</v>
       </c>
       <c r="S43" s="3">
         <v>108535</v>
@@ -4881,10 +4881,10 @@
         <v>45108</v>
       </c>
       <c r="B44" s="3">
-        <v>28211</v>
+        <v>28212</v>
       </c>
       <c r="C44" s="3">
-        <v>10296</v>
+        <v>10297</v>
       </c>
       <c r="D44" s="3">
         <v>2056</v>
@@ -4908,28 +4908,28 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587465</v>
+        <v>11587474</v>
       </c>
       <c r="L44" s="3">
-        <v>3911325</v>
+        <v>3911324</v>
       </c>
       <c r="M44" s="3">
-        <v>2977220</v>
+        <v>2977219</v>
       </c>
       <c r="N44" s="3">
-        <v>1733150</v>
+        <v>1733163</v>
       </c>
       <c r="O44" s="3">
-        <v>1373106</v>
+        <v>1373110</v>
       </c>
       <c r="P44" s="3">
-        <v>935154</v>
+        <v>935156</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
       </c>
       <c r="R44" s="3">
-        <v>245519</v>
+        <v>245511</v>
       </c>
       <c r="S44" s="3">
         <v>108739</v>
@@ -4940,10 +4940,10 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23435</v>
+        <v>23436</v>
       </c>
       <c r="C45" s="3">
-        <v>9150</v>
+        <v>9151</v>
       </c>
       <c r="D45" s="3">
         <v>2115</v>
@@ -4967,28 +4967,28 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610900</v>
+        <v>11610910</v>
       </c>
       <c r="L45" s="3">
         <v>3920475</v>
       </c>
       <c r="M45" s="3">
-        <v>2979335</v>
+        <v>2979334</v>
       </c>
       <c r="N45" s="3">
-        <v>1737688</v>
+        <v>1737701</v>
       </c>
       <c r="O45" s="3">
-        <v>1376104</v>
+        <v>1376108</v>
       </c>
       <c r="P45" s="3">
-        <v>937603</v>
+        <v>937605</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
       </c>
       <c r="R45" s="3">
-        <v>246323</v>
+        <v>246315</v>
       </c>
       <c r="S45" s="3">
         <v>108955</v>
@@ -5026,28 +5026,28 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633026</v>
+        <v>11633036</v>
       </c>
       <c r="L46" s="3">
         <v>3929459</v>
       </c>
       <c r="M46" s="3">
-        <v>2982574</v>
+        <v>2982573</v>
       </c>
       <c r="N46" s="3">
-        <v>1739711</v>
+        <v>1739724</v>
       </c>
       <c r="O46" s="3">
-        <v>1378662</v>
+        <v>1378666</v>
       </c>
       <c r="P46" s="3">
-        <v>940636</v>
+        <v>940638</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
       </c>
       <c r="R46" s="3">
-        <v>247065</v>
+        <v>247057</v>
       </c>
       <c r="S46" s="3">
         <v>109299</v>
@@ -5085,28 +5085,28 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660947</v>
+        <v>11660957</v>
       </c>
       <c r="L47" s="3">
         <v>3937190</v>
       </c>
       <c r="M47" s="3">
-        <v>2988179</v>
+        <v>2988178</v>
       </c>
       <c r="N47" s="3">
-        <v>1743413</v>
+        <v>1743426</v>
       </c>
       <c r="O47" s="3">
-        <v>1380660</v>
+        <v>1380664</v>
       </c>
       <c r="P47" s="3">
-        <v>945713</v>
+        <v>945715</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
       </c>
       <c r="R47" s="3">
-        <v>248556</v>
+        <v>248548</v>
       </c>
       <c r="S47" s="3">
         <v>109715</v>
@@ -5117,55 +5117,55 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43946</v>
+        <v>43966</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
       </c>
       <c r="D48" s="3">
-        <v>6087</v>
+        <v>6091</v>
       </c>
       <c r="E48" s="3">
-        <v>7186</v>
+        <v>7187</v>
       </c>
       <c r="F48" s="3">
-        <v>2178</v>
+        <v>2191</v>
       </c>
       <c r="G48" s="3">
-        <v>9333</v>
+        <v>9334</v>
       </c>
       <c r="H48" s="3">
         <v>4149</v>
       </c>
       <c r="I48" s="3">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="J48" s="3">
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704893</v>
+        <v>11704923</v>
       </c>
       <c r="L48" s="3">
         <v>3949476</v>
       </c>
       <c r="M48" s="3">
-        <v>2994266</v>
+        <v>2994269</v>
       </c>
       <c r="N48" s="3">
-        <v>1750599</v>
+        <v>1750613</v>
       </c>
       <c r="O48" s="3">
-        <v>1382838</v>
+        <v>1382855</v>
       </c>
       <c r="P48" s="3">
-        <v>955046</v>
+        <v>955049</v>
       </c>
       <c r="Q48" s="3">
         <v>311670</v>
       </c>
       <c r="R48" s="3">
-        <v>250737</v>
+        <v>250730</v>
       </c>
       <c r="S48" s="3">
         <v>110261</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>16377</v>
+        <v>18506</v>
       </c>
       <c r="C49">
-        <v>5306</v>
+        <v>5856</v>
       </c>
       <c r="D49">
-        <v>2123</v>
+        <v>2404</v>
       </c>
       <c r="E49">
-        <v>3701</v>
+        <v>4055</v>
       </c>
       <c r="F49">
-        <v>183</v>
+        <v>643</v>
       </c>
       <c r="G49">
-        <v>2913</v>
+        <v>3091</v>
       </c>
       <c r="H49">
-        <v>1398</v>
+        <v>1542</v>
       </c>
       <c r="I49">
-        <v>630</v>
+        <v>773</v>
       </c>
       <c r="J49">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K49">
-        <v>11721270</v>
+        <v>11723429</v>
       </c>
       <c r="L49">
-        <v>3954782</v>
+        <v>3955332</v>
       </c>
       <c r="M49">
-        <v>2996389</v>
+        <v>2996673</v>
       </c>
       <c r="N49">
-        <v>1754300</v>
+        <v>1754668</v>
       </c>
       <c r="O49">
-        <v>1383021</v>
+        <v>1383498</v>
       </c>
       <c r="P49">
-        <v>957959</v>
+        <v>958140</v>
       </c>
       <c r="Q49">
-        <v>313068</v>
+        <v>313212</v>
       </c>
       <c r="R49">
-        <v>251367</v>
+        <v>251503</v>
       </c>
       <c r="S49">
-        <v>110384</v>
+        <v>110403</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM36"/>
+  <dimension ref="A1:IM37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29116,6 +29116,749 @@
       </c>
       <c r="IM36">
         <v>13482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B37">
+        <v>2159</v>
+      </c>
+      <c r="C37">
+        <v>550</v>
+      </c>
+      <c r="D37">
+        <v>284</v>
+      </c>
+      <c r="E37">
+        <v>368</v>
+      </c>
+      <c r="F37">
+        <v>477</v>
+      </c>
+      <c r="G37">
+        <v>181</v>
+      </c>
+      <c r="H37">
+        <v>144</v>
+      </c>
+      <c r="I37">
+        <v>136</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>11723429</v>
+      </c>
+      <c r="L37">
+        <v>3955332</v>
+      </c>
+      <c r="M37">
+        <v>2996673</v>
+      </c>
+      <c r="N37">
+        <v>1754668</v>
+      </c>
+      <c r="O37">
+        <v>1383498</v>
+      </c>
+      <c r="P37">
+        <v>958140</v>
+      </c>
+      <c r="Q37">
+        <v>313212</v>
+      </c>
+      <c r="R37">
+        <v>251503</v>
+      </c>
+      <c r="S37">
+        <v>110403</v>
+      </c>
+      <c r="T37">
+        <v>132</v>
+      </c>
+      <c r="U37">
+        <v>30</v>
+      </c>
+      <c r="V37">
+        <v>53</v>
+      </c>
+      <c r="W37">
+        <v>52</v>
+      </c>
+      <c r="X37">
+        <v>116</v>
+      </c>
+      <c r="Y37">
+        <v>139</v>
+      </c>
+      <c r="Z37">
+        <v>141</v>
+      </c>
+      <c r="AA37">
+        <v>113</v>
+      </c>
+      <c r="AB37">
+        <v>137</v>
+      </c>
+      <c r="AC37">
+        <v>126</v>
+      </c>
+      <c r="AD37">
+        <v>124</v>
+      </c>
+      <c r="AE37">
+        <v>133</v>
+      </c>
+      <c r="AF37">
+        <v>127</v>
+      </c>
+      <c r="AG37">
+        <v>120</v>
+      </c>
+      <c r="AH37">
+        <v>136</v>
+      </c>
+      <c r="AI37">
+        <v>155</v>
+      </c>
+      <c r="AJ37">
+        <v>146</v>
+      </c>
+      <c r="AK37">
+        <v>229</v>
+      </c>
+      <c r="AL37">
+        <v>-50</v>
+      </c>
+      <c r="AM37">
+        <v>503934</v>
+      </c>
+      <c r="AN37">
+        <v>668357</v>
+      </c>
+      <c r="AO37">
+        <v>774012</v>
+      </c>
+      <c r="AP37">
+        <v>760460</v>
+      </c>
+      <c r="AQ37">
+        <v>931267</v>
+      </c>
+      <c r="AR37">
+        <v>1027411</v>
+      </c>
+      <c r="AS37">
+        <v>1035364</v>
+      </c>
+      <c r="AT37">
+        <v>1020032</v>
+      </c>
+      <c r="AU37">
+        <v>909585</v>
+      </c>
+      <c r="AV37">
+        <v>808304</v>
+      </c>
+      <c r="AW37">
+        <v>748299</v>
+      </c>
+      <c r="AX37">
+        <v>623160</v>
+      </c>
+      <c r="AY37">
+        <v>544137</v>
+      </c>
+      <c r="AZ37">
+        <v>408378</v>
+      </c>
+      <c r="BA37">
+        <v>326241</v>
+      </c>
+      <c r="BB37">
+        <v>241848</v>
+      </c>
+      <c r="BC37">
+        <v>162784</v>
+      </c>
+      <c r="BD37">
+        <v>211733</v>
+      </c>
+      <c r="BE37">
+        <v>18123</v>
+      </c>
+      <c r="BF37">
+        <v>77</v>
+      </c>
+      <c r="BG37">
+        <v>60</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>-5</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>32</v>
+      </c>
+      <c r="BL37">
+        <v>18</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>-20</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>43</v>
+      </c>
+      <c r="BQ37">
+        <v>27</v>
+      </c>
+      <c r="BR37">
+        <v>-1</v>
+      </c>
+      <c r="BS37">
+        <v>-15</v>
+      </c>
+      <c r="BT37">
+        <v>-1</v>
+      </c>
+      <c r="BU37">
+        <v>27</v>
+      </c>
+      <c r="BV37">
+        <v>48</v>
+      </c>
+      <c r="BW37">
+        <v>0</v>
+      </c>
+      <c r="BX37">
+        <v>-21</v>
+      </c>
+      <c r="BY37">
+        <v>-2</v>
+      </c>
+      <c r="BZ37">
+        <v>55</v>
+      </c>
+      <c r="CA37">
+        <v>94</v>
+      </c>
+      <c r="CB37">
+        <v>0</v>
+      </c>
+      <c r="CC37">
+        <v>-29</v>
+      </c>
+      <c r="CD37">
+        <v>-4</v>
+      </c>
+      <c r="CE37">
+        <v>84</v>
+      </c>
+      <c r="CF37">
+        <v>105</v>
+      </c>
+      <c r="CG37">
+        <v>0</v>
+      </c>
+      <c r="CH37">
+        <v>-43</v>
+      </c>
+      <c r="CI37">
+        <v>-7</v>
+      </c>
+      <c r="CJ37">
+        <v>73</v>
+      </c>
+      <c r="CK37">
+        <v>110</v>
+      </c>
+      <c r="CL37">
+        <v>0</v>
+      </c>
+      <c r="CM37">
+        <v>-42</v>
+      </c>
+      <c r="CN37">
+        <v>0</v>
+      </c>
+      <c r="CO37">
+        <v>66</v>
+      </c>
+      <c r="CP37">
+        <v>95</v>
+      </c>
+      <c r="CQ37">
+        <v>1</v>
+      </c>
+      <c r="CR37">
+        <v>-49</v>
+      </c>
+      <c r="CS37">
+        <v>0</v>
+      </c>
+      <c r="CT37">
+        <v>64</v>
+      </c>
+      <c r="CU37">
+        <v>86</v>
+      </c>
+      <c r="CV37">
+        <v>0</v>
+      </c>
+      <c r="CW37">
+        <v>-13</v>
+      </c>
+      <c r="CX37">
+        <v>0</v>
+      </c>
+      <c r="CY37">
+        <v>60</v>
+      </c>
+      <c r="CZ37">
+        <v>83</v>
+      </c>
+      <c r="DA37">
+        <v>0</v>
+      </c>
+      <c r="DB37">
+        <v>-14</v>
+      </c>
+      <c r="DC37">
+        <v>-3</v>
+      </c>
+      <c r="DD37">
+        <v>57</v>
+      </c>
+      <c r="DE37">
+        <v>82</v>
+      </c>
+      <c r="DF37">
+        <v>1</v>
+      </c>
+      <c r="DG37">
+        <v>-15</v>
+      </c>
+      <c r="DH37">
+        <v>-1</v>
+      </c>
+      <c r="DI37">
+        <v>73</v>
+      </c>
+      <c r="DJ37">
+        <v>73</v>
+      </c>
+      <c r="DK37">
+        <v>0</v>
+      </c>
+      <c r="DL37">
+        <v>-11</v>
+      </c>
+      <c r="DM37">
+        <v>-2</v>
+      </c>
+      <c r="DN37">
+        <v>54</v>
+      </c>
+      <c r="DO37">
+        <v>79</v>
+      </c>
+      <c r="DP37">
+        <v>0</v>
+      </c>
+      <c r="DQ37">
+        <v>-5</v>
+      </c>
+      <c r="DR37">
+        <v>-1</v>
+      </c>
+      <c r="DS37">
+        <v>73</v>
+      </c>
+      <c r="DT37">
+        <v>60</v>
+      </c>
+      <c r="DU37">
+        <v>0</v>
+      </c>
+      <c r="DV37">
+        <v>-13</v>
+      </c>
+      <c r="DW37">
+        <v>0</v>
+      </c>
+      <c r="DX37">
+        <v>63</v>
+      </c>
+      <c r="DY37">
+        <v>78</v>
+      </c>
+      <c r="DZ37">
+        <v>0</v>
+      </c>
+      <c r="EA37">
+        <v>-5</v>
+      </c>
+      <c r="EB37">
+        <v>0</v>
+      </c>
+      <c r="EC37">
+        <v>71</v>
+      </c>
+      <c r="ED37">
+        <v>91</v>
+      </c>
+      <c r="EE37">
+        <v>0</v>
+      </c>
+      <c r="EF37">
+        <v>-8</v>
+      </c>
+      <c r="EG37">
+        <v>1</v>
+      </c>
+      <c r="EH37">
+        <v>77</v>
+      </c>
+      <c r="EI37">
+        <v>70</v>
+      </c>
+      <c r="EJ37">
+        <v>0</v>
+      </c>
+      <c r="EK37">
+        <v>-1</v>
+      </c>
+      <c r="EL37">
+        <v>0</v>
+      </c>
+      <c r="EM37">
+        <v>90</v>
+      </c>
+      <c r="EN37">
+        <v>137</v>
+      </c>
+      <c r="EO37">
+        <v>0</v>
+      </c>
+      <c r="EP37">
+        <v>0</v>
+      </c>
+      <c r="EQ37">
+        <v>2</v>
+      </c>
+      <c r="ER37">
+        <v>-1</v>
+      </c>
+      <c r="ES37">
+        <v>0</v>
+      </c>
+      <c r="ET37">
+        <v>1</v>
+      </c>
+      <c r="EU37">
+        <v>0</v>
+      </c>
+      <c r="EV37">
+        <v>-50</v>
+      </c>
+      <c r="EW37">
+        <v>232115</v>
+      </c>
+      <c r="EX37">
+        <v>220315</v>
+      </c>
+      <c r="EY37">
+        <v>409</v>
+      </c>
+      <c r="EZ37">
+        <v>15447</v>
+      </c>
+      <c r="FA37">
+        <v>35648</v>
+      </c>
+      <c r="FB37">
+        <v>308243</v>
+      </c>
+      <c r="FC37">
+        <v>292865</v>
+      </c>
+      <c r="FD37">
+        <v>466</v>
+      </c>
+      <c r="FE37">
+        <v>16750</v>
+      </c>
+      <c r="FF37">
+        <v>50033</v>
+      </c>
+      <c r="FG37">
+        <v>353524</v>
+      </c>
+      <c r="FH37">
+        <v>342838</v>
+      </c>
+      <c r="FI37">
+        <v>632</v>
+      </c>
+      <c r="FJ37">
+        <v>16936</v>
+      </c>
+      <c r="FK37">
+        <v>60082</v>
+      </c>
+      <c r="FL37">
+        <v>326625</v>
+      </c>
+      <c r="FM37">
+        <v>374207</v>
+      </c>
+      <c r="FN37">
+        <v>896</v>
+      </c>
+      <c r="FO37">
+        <v>12913</v>
+      </c>
+      <c r="FP37">
+        <v>45819</v>
+      </c>
+      <c r="FQ37">
+        <v>392350</v>
+      </c>
+      <c r="FR37">
+        <v>480155</v>
+      </c>
+      <c r="FS37">
+        <v>1101</v>
+      </c>
+      <c r="FT37">
+        <v>16249</v>
+      </c>
+      <c r="FU37">
+        <v>41412</v>
+      </c>
+      <c r="FV37">
+        <v>434247</v>
+      </c>
+      <c r="FW37">
+        <v>526780</v>
+      </c>
+      <c r="FX37">
+        <v>1138</v>
+      </c>
+      <c r="FY37">
+        <v>17742</v>
+      </c>
+      <c r="FZ37">
+        <v>47504</v>
+      </c>
+      <c r="GA37">
+        <v>429663</v>
+      </c>
+      <c r="GB37">
+        <v>532833</v>
+      </c>
+      <c r="GC37">
+        <v>922</v>
+      </c>
+      <c r="GD37">
+        <v>17125</v>
+      </c>
+      <c r="GE37">
+        <v>54821</v>
+      </c>
+      <c r="GF37">
+        <v>420188</v>
+      </c>
+      <c r="GG37">
+        <v>525370</v>
+      </c>
+      <c r="GH37">
+        <v>666</v>
+      </c>
+      <c r="GI37">
+        <v>14981</v>
+      </c>
+      <c r="GJ37">
+        <v>58827</v>
+      </c>
+      <c r="GK37">
+        <v>373982</v>
+      </c>
+      <c r="GL37">
+        <v>469610</v>
+      </c>
+      <c r="GM37">
+        <v>498</v>
+      </c>
+      <c r="GN37">
+        <v>12332</v>
+      </c>
+      <c r="GO37">
+        <v>53163</v>
+      </c>
+      <c r="GP37">
+        <v>330736</v>
+      </c>
+      <c r="GQ37">
+        <v>421700</v>
+      </c>
+      <c r="GR37">
+        <v>439</v>
+      </c>
+      <c r="GS37">
+        <v>10111</v>
+      </c>
+      <c r="GT37">
+        <v>45318</v>
+      </c>
+      <c r="GU37">
+        <v>308594</v>
+      </c>
+      <c r="GV37">
+        <v>390110</v>
+      </c>
+      <c r="GW37">
+        <v>401</v>
+      </c>
+      <c r="GX37">
+        <v>8933</v>
+      </c>
+      <c r="GY37">
+        <v>40261</v>
+      </c>
+      <c r="GZ37">
+        <v>263995</v>
+      </c>
+      <c r="HA37">
+        <v>320496</v>
+      </c>
+      <c r="HB37">
+        <v>329</v>
+      </c>
+      <c r="HC37">
+        <v>6594</v>
+      </c>
+      <c r="HD37">
+        <v>31746</v>
+      </c>
+      <c r="HE37">
+        <v>234885</v>
+      </c>
+      <c r="HF37">
+        <v>277749</v>
+      </c>
+      <c r="HG37">
+        <v>234</v>
+      </c>
+      <c r="HH37">
+        <v>5311</v>
+      </c>
+      <c r="HI37">
+        <v>25958</v>
+      </c>
+      <c r="HJ37">
+        <v>181276</v>
+      </c>
+      <c r="HK37">
+        <v>204768</v>
+      </c>
+      <c r="HL37">
+        <v>199</v>
+      </c>
+      <c r="HM37">
+        <v>3613</v>
+      </c>
+      <c r="HN37">
+        <v>18522</v>
+      </c>
+      <c r="HO37">
+        <v>152184</v>
+      </c>
+      <c r="HP37">
+        <v>158902</v>
+      </c>
+      <c r="HQ37">
+        <v>163</v>
+      </c>
+      <c r="HR37">
+        <v>2644</v>
+      </c>
+      <c r="HS37">
+        <v>12348</v>
+      </c>
+      <c r="HT37">
+        <v>116539</v>
+      </c>
+      <c r="HU37">
+        <v>115477</v>
+      </c>
+      <c r="HV37">
+        <v>164</v>
+      </c>
+      <c r="HW37">
+        <v>1856</v>
+      </c>
+      <c r="HX37">
+        <v>7812</v>
+      </c>
+      <c r="HY37">
+        <v>76535</v>
+      </c>
+      <c r="HZ37">
+        <v>80322</v>
+      </c>
+      <c r="IA37">
+        <v>131</v>
+      </c>
+      <c r="IB37">
+        <v>1263</v>
+      </c>
+      <c r="IC37">
+        <v>4533</v>
+      </c>
+      <c r="ID37">
+        <v>81979</v>
+      </c>
+      <c r="IE37">
+        <v>123351</v>
+      </c>
+      <c r="IF37">
+        <v>306</v>
+      </c>
+      <c r="IG37">
+        <v>2255</v>
+      </c>
+      <c r="IH37">
+        <v>3842</v>
+      </c>
+      <c r="II37">
+        <v>2154</v>
+      </c>
+      <c r="IJ37">
+        <v>2311</v>
+      </c>
+      <c r="IK37">
+        <v>25</v>
+      </c>
+      <c r="IL37">
+        <v>201</v>
+      </c>
+      <c r="IM37">
+        <v>13432</v>
       </c>
     </row>
   </sheetData>
@@ -29142,7 +29885,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45274</v>
+        <v>45275</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1275B84-CCE5-467C-A97E-8160499A0704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3A5E1C-97F0-40C7-B4A4-B8DDA671B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1895,10 +1895,10 @@
         <v>27882</v>
       </c>
       <c r="AE3">
-        <v>22324</v>
+        <v>22323</v>
       </c>
       <c r="AF3">
-        <v>17080</v>
+        <v>17081</v>
       </c>
       <c r="AG3">
         <v>11939</v>
@@ -1952,10 +1952,10 @@
         <v>29688</v>
       </c>
       <c r="AX3">
-        <v>24002</v>
+        <v>24001</v>
       </c>
       <c r="AY3">
-        <v>18539</v>
+        <v>18540</v>
       </c>
       <c r="AZ3">
         <v>12973</v>
@@ -1981,10 +1981,10 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317928</v>
+        <v>10317931</v>
       </c>
       <c r="C4">
-        <v>3368108</v>
+        <v>3368107</v>
       </c>
       <c r="D4">
         <v>2621354</v>
@@ -1993,10 +1993,10 @@
         <v>1586966</v>
       </c>
       <c r="F4">
-        <v>1288508</v>
+        <v>1288509</v>
       </c>
       <c r="G4">
-        <v>848367</v>
+        <v>848370</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,10 +2008,10 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10885999</v>
+        <v>10886002</v>
       </c>
       <c r="L4">
-        <v>3653392</v>
+        <v>3653391</v>
       </c>
       <c r="M4">
         <v>2841482</v>
@@ -2020,10 +2020,10 @@
         <v>1619877</v>
       </c>
       <c r="O4">
-        <v>1289875</v>
+        <v>1289876</v>
       </c>
       <c r="P4">
-        <v>867528</v>
+        <v>867531</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,46 +2035,46 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450526</v>
+        <v>450524</v>
       </c>
       <c r="U4">
         <v>611247</v>
       </c>
       <c r="V4">
-        <v>710191</v>
+        <v>710193</v>
       </c>
       <c r="W4">
-        <v>683342</v>
+        <v>683343</v>
       </c>
       <c r="X4">
-        <v>812053</v>
+        <v>812049</v>
       </c>
       <c r="Y4">
-        <v>899969</v>
+        <v>899971</v>
       </c>
       <c r="Z4">
-        <v>917004</v>
+        <v>917005</v>
       </c>
       <c r="AA4">
         <v>908894</v>
       </c>
       <c r="AB4">
-        <v>810343</v>
+        <v>810344</v>
       </c>
       <c r="AC4">
-        <v>717637</v>
+        <v>717635</v>
       </c>
       <c r="AD4">
-        <v>658722</v>
+        <v>658724</v>
       </c>
       <c r="AE4">
         <v>544130</v>
       </c>
       <c r="AF4">
-        <v>471544</v>
+        <v>471545</v>
       </c>
       <c r="AG4">
-        <v>349046</v>
+        <v>349047</v>
       </c>
       <c r="AH4">
         <v>274358</v>
@@ -2092,46 +2092,46 @@
         <v>17153</v>
       </c>
       <c r="AM4">
-        <v>473776</v>
+        <v>473774</v>
       </c>
       <c r="AN4">
         <v>644446</v>
       </c>
       <c r="AO4">
-        <v>741705</v>
+        <v>741707</v>
       </c>
       <c r="AP4">
-        <v>728588</v>
+        <v>728589</v>
       </c>
       <c r="AQ4">
-        <v>890281</v>
+        <v>890277</v>
       </c>
       <c r="AR4">
-        <v>974412</v>
+        <v>974414</v>
       </c>
       <c r="AS4">
-        <v>975386</v>
+        <v>975387</v>
       </c>
       <c r="AT4">
         <v>953886</v>
       </c>
       <c r="AU4">
-        <v>845961</v>
+        <v>845962</v>
       </c>
       <c r="AV4">
-        <v>749716</v>
+        <v>749714</v>
       </c>
       <c r="AW4">
-        <v>688410</v>
+        <v>688412</v>
       </c>
       <c r="AX4">
-        <v>568132</v>
+        <v>568131</v>
       </c>
       <c r="AY4">
-        <v>490083</v>
+        <v>490085</v>
       </c>
       <c r="AZ4">
-        <v>362019</v>
+        <v>362020</v>
       </c>
       <c r="BA4">
         <v>283676</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>837430</v>
+        <v>838897</v>
       </c>
       <c r="C5">
-        <v>301940</v>
+        <v>302446</v>
       </c>
       <c r="D5">
-        <v>155191</v>
+        <v>155421</v>
       </c>
       <c r="E5">
-        <v>134791</v>
+        <v>135193</v>
       </c>
       <c r="F5">
         <v>93623</v>
       </c>
       <c r="G5">
-        <v>90612</v>
+        <v>90771</v>
       </c>
       <c r="H5">
-        <v>31669</v>
+        <v>31822</v>
       </c>
       <c r="I5">
-        <v>23168</v>
+        <v>23169</v>
       </c>
       <c r="J5">
-        <v>6436</v>
+        <v>6452</v>
       </c>
       <c r="K5">
-        <v>11723429</v>
+        <v>11724899</v>
       </c>
       <c r="L5">
-        <v>3955332</v>
+        <v>3955837</v>
       </c>
       <c r="M5">
-        <v>2996673</v>
+        <v>2996903</v>
       </c>
       <c r="N5">
-        <v>1754668</v>
+        <v>1755070</v>
       </c>
       <c r="O5">
-        <v>1383498</v>
+        <v>1383499</v>
       </c>
       <c r="P5">
-        <v>958140</v>
+        <v>958302</v>
       </c>
       <c r="Q5">
-        <v>313212</v>
+        <v>313365</v>
       </c>
       <c r="R5">
-        <v>251503</v>
+        <v>251504</v>
       </c>
       <c r="S5">
-        <v>110403</v>
+        <v>110419</v>
       </c>
       <c r="T5">
-        <v>30158</v>
+        <v>30250</v>
       </c>
       <c r="U5">
-        <v>23911</v>
+        <v>23930</v>
       </c>
       <c r="V5">
-        <v>32307</v>
+        <v>32332</v>
       </c>
       <c r="W5">
-        <v>31872</v>
+        <v>31906</v>
       </c>
       <c r="X5">
-        <v>40986</v>
+        <v>41059</v>
       </c>
       <c r="Y5">
-        <v>52999</v>
+        <v>53077</v>
       </c>
       <c r="Z5">
-        <v>59978</v>
+        <v>60073</v>
       </c>
       <c r="AA5">
-        <v>66146</v>
+        <v>66235</v>
       </c>
       <c r="AB5">
-        <v>63624</v>
+        <v>63703</v>
       </c>
       <c r="AC5">
-        <v>58588</v>
+        <v>58666</v>
       </c>
       <c r="AD5">
-        <v>59889</v>
+        <v>59989</v>
       </c>
       <c r="AE5">
-        <v>55028</v>
+        <v>55126</v>
       </c>
       <c r="AF5">
-        <v>54054</v>
+        <v>54138</v>
       </c>
       <c r="AG5">
-        <v>46359</v>
+        <v>46467</v>
       </c>
       <c r="AH5">
-        <v>42565</v>
+        <v>42656</v>
       </c>
       <c r="AI5">
-        <v>37392</v>
+        <v>37483</v>
       </c>
       <c r="AJ5">
-        <v>30263</v>
+        <v>30364</v>
       </c>
       <c r="AK5">
-        <v>50714</v>
+        <v>50844</v>
       </c>
       <c r="AL5">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AM5">
-        <v>503934</v>
+        <v>504024</v>
       </c>
       <c r="AN5">
-        <v>668357</v>
+        <v>668376</v>
       </c>
       <c r="AO5">
-        <v>774012</v>
+        <v>774039</v>
       </c>
       <c r="AP5">
-        <v>760460</v>
+        <v>760495</v>
       </c>
       <c r="AQ5">
-        <v>931267</v>
+        <v>931336</v>
       </c>
       <c r="AR5">
-        <v>1027411</v>
+        <v>1027491</v>
       </c>
       <c r="AS5">
-        <v>1035364</v>
+        <v>1035460</v>
       </c>
       <c r="AT5">
-        <v>1020032</v>
+        <v>1020121</v>
       </c>
       <c r="AU5">
-        <v>909585</v>
+        <v>909665</v>
       </c>
       <c r="AV5">
-        <v>808304</v>
+        <v>808380</v>
       </c>
       <c r="AW5">
-        <v>748299</v>
+        <v>748401</v>
       </c>
       <c r="AX5">
-        <v>623160</v>
+        <v>623257</v>
       </c>
       <c r="AY5">
-        <v>544137</v>
+        <v>544223</v>
       </c>
       <c r="AZ5">
-        <v>408378</v>
+        <v>408487</v>
       </c>
       <c r="BA5">
-        <v>326241</v>
+        <v>326332</v>
       </c>
       <c r="BB5">
-        <v>241848</v>
+        <v>241939</v>
       </c>
       <c r="BC5">
-        <v>162784</v>
+        <v>162885</v>
       </c>
       <c r="BD5">
-        <v>211733</v>
+        <v>211863</v>
       </c>
       <c r="BE5">
-        <v>18123</v>
+        <v>18125</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809645</v>
+        <v>1809646</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90100</v>
+        <v>90101</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377716</v>
+        <v>2377717</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2217</v>
       </c>
       <c r="P26" s="3">
-        <v>109261</v>
+        <v>109262</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065264</v>
+        <v>3065265</v>
       </c>
       <c r="L27" s="3">
         <v>1152677</v>
@@ -3920,7 +3920,7 @@
         <v>14035</v>
       </c>
       <c r="P27" s="3">
-        <v>153686</v>
+        <v>153687</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432048</v>
+        <v>4432049</v>
       </c>
       <c r="L28" s="3">
         <v>1689284</v>
@@ -3979,7 +3979,7 @@
         <v>193323</v>
       </c>
       <c r="P28" s="3">
-        <v>274187</v>
+        <v>274188</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339897</v>
+        <v>1339898</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139839</v>
+        <v>139840</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771945</v>
+        <v>5771947</v>
       </c>
       <c r="L29" s="3">
         <v>2121664</v>
@@ -4038,7 +4038,7 @@
         <v>400166</v>
       </c>
       <c r="P29" s="3">
-        <v>414026</v>
+        <v>414028</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310370</v>
+        <v>1310371</v>
       </c>
       <c r="C30" s="3">
         <v>297267</v>
@@ -4067,7 +4067,7 @@
         <v>152930</v>
       </c>
       <c r="F30" s="3">
-        <v>354088</v>
+        <v>354089</v>
       </c>
       <c r="G30" s="3">
         <v>108140</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082315</v>
+        <v>7082318</v>
       </c>
       <c r="L30" s="3">
         <v>2418931</v>
@@ -4094,10 +4094,10 @@
         <v>1096302</v>
       </c>
       <c r="O30" s="3">
-        <v>754254</v>
+        <v>754255</v>
       </c>
       <c r="P30" s="3">
-        <v>522166</v>
+        <v>522168</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884302</v>
+        <v>884303</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77323</v>
+        <v>77324</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966617</v>
+        <v>7966621</v>
       </c>
       <c r="L31" s="3">
         <v>2652832</v>
@@ -4153,10 +4153,10 @@
         <v>1213317</v>
       </c>
       <c r="O31" s="3">
-        <v>936893</v>
+        <v>936894</v>
       </c>
       <c r="P31" s="3">
-        <v>599489</v>
+        <v>599492</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4173,10 +4173,10 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250353</v>
+        <v>1250352</v>
       </c>
       <c r="C32" s="3">
-        <v>378606</v>
+        <v>378605</v>
       </c>
       <c r="D32" s="3">
         <v>312117</v>
@@ -4200,10 +4200,10 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216970</v>
+        <v>9216973</v>
       </c>
       <c r="L32" s="3">
-        <v>3031438</v>
+        <v>3031437</v>
       </c>
       <c r="M32" s="3">
         <v>2445486</v>
@@ -4212,10 +4212,10 @@
         <v>1410779</v>
       </c>
       <c r="O32" s="3">
-        <v>1095159</v>
+        <v>1095160</v>
       </c>
       <c r="P32" s="3">
-        <v>716890</v>
+        <v>716893</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,10 +4259,10 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771829</v>
+        <v>9771832</v>
       </c>
       <c r="L33" s="3">
-        <v>3261487</v>
+        <v>3261486</v>
       </c>
       <c r="M33" s="3">
         <v>2570916</v>
@@ -4271,10 +4271,10 @@
         <v>1482140</v>
       </c>
       <c r="O33" s="3">
-        <v>1154230</v>
+        <v>1154231</v>
       </c>
       <c r="P33" s="3">
-        <v>757401</v>
+        <v>757404</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,10 +4318,10 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966083</v>
+        <v>9966086</v>
       </c>
       <c r="L34" s="3">
-        <v>3330339</v>
+        <v>3330338</v>
       </c>
       <c r="M34" s="3">
         <v>2617585</v>
@@ -4330,10 +4330,10 @@
         <v>1512413</v>
       </c>
       <c r="O34" s="3">
-        <v>1178502</v>
+        <v>1178503</v>
       </c>
       <c r="P34" s="3">
-        <v>772685</v>
+        <v>772688</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,10 +4377,10 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108187</v>
+        <v>10108190</v>
       </c>
       <c r="L35" s="3">
-        <v>3374838</v>
+        <v>3374837</v>
       </c>
       <c r="M35" s="3">
         <v>2653979</v>
@@ -4389,10 +4389,10 @@
         <v>1529150</v>
       </c>
       <c r="O35" s="3">
-        <v>1201928</v>
+        <v>1201929</v>
       </c>
       <c r="P35" s="3">
-        <v>785860</v>
+        <v>785863</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,10 +4436,10 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460130</v>
+        <v>10460133</v>
       </c>
       <c r="L36" s="3">
-        <v>3496930</v>
+        <v>3496929</v>
       </c>
       <c r="M36" s="3">
         <v>2746876</v>
@@ -4448,10 +4448,10 @@
         <v>1565596</v>
       </c>
       <c r="O36" s="3">
-        <v>1244562</v>
+        <v>1244563</v>
       </c>
       <c r="P36" s="3">
-        <v>823023</v>
+        <v>823026</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,10 +4495,10 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10885999</v>
+        <v>10886002</v>
       </c>
       <c r="L37" s="3">
-        <v>3653392</v>
+        <v>3653391</v>
       </c>
       <c r="M37" s="3">
         <v>2841482</v>
@@ -4507,10 +4507,10 @@
         <v>1619877</v>
       </c>
       <c r="O37" s="3">
-        <v>1289875</v>
+        <v>1289876</v>
       </c>
       <c r="P37" s="3">
-        <v>867528</v>
+        <v>867531</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,10 +4554,10 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016082</v>
+        <v>11016085</v>
       </c>
       <c r="L38" s="3">
-        <v>3699336</v>
+        <v>3699335</v>
       </c>
       <c r="M38" s="3">
         <v>2864587</v>
@@ -4566,10 +4566,10 @@
         <v>1643990</v>
       </c>
       <c r="O38" s="3">
-        <v>1306731</v>
+        <v>1306732</v>
       </c>
       <c r="P38" s="3">
-        <v>879418</v>
+        <v>879421</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,10 +4613,10 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088068</v>
+        <v>11088071</v>
       </c>
       <c r="L39" s="3">
-        <v>3724579</v>
+        <v>3724578</v>
       </c>
       <c r="M39" s="3">
         <v>2876976</v>
@@ -4625,10 +4625,10 @@
         <v>1658290</v>
       </c>
       <c r="O39" s="3">
-        <v>1315603</v>
+        <v>1315604</v>
       </c>
       <c r="P39" s="3">
-        <v>886271</v>
+        <v>886274</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,10 +4672,10 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192045</v>
+        <v>11192048</v>
       </c>
       <c r="L40" s="3">
-        <v>3763221</v>
+        <v>3763220</v>
       </c>
       <c r="M40" s="3">
         <v>2896213</v>
@@ -4684,10 +4684,10 @@
         <v>1673745</v>
       </c>
       <c r="O40" s="3">
-        <v>1328565</v>
+        <v>1328566</v>
       </c>
       <c r="P40" s="3">
-        <v>897771</v>
+        <v>897774</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,10 +4731,10 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315210</v>
+        <v>11315213</v>
       </c>
       <c r="L41" s="3">
-        <v>3810750</v>
+        <v>3810749</v>
       </c>
       <c r="M41" s="3">
         <v>2922020</v>
@@ -4743,10 +4743,10 @@
         <v>1689655</v>
       </c>
       <c r="O41" s="3">
-        <v>1342952</v>
+        <v>1342953</v>
       </c>
       <c r="P41" s="3">
-        <v>910100</v>
+        <v>910103</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,10 +4790,10 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481461</v>
+        <v>11481464</v>
       </c>
       <c r="L42" s="3">
-        <v>3872844</v>
+        <v>3872843</v>
       </c>
       <c r="M42" s="3">
         <v>2960396</v>
@@ -4802,10 +4802,10 @@
         <v>1711965</v>
       </c>
       <c r="O42" s="3">
-        <v>1361040</v>
+        <v>1361041</v>
       </c>
       <c r="P42" s="3">
-        <v>925013</v>
+        <v>925016</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4822,10 +4822,10 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77801</v>
+        <v>77802</v>
       </c>
       <c r="C43" s="3">
-        <v>28183</v>
+        <v>28184</v>
       </c>
       <c r="D43" s="3">
         <v>14767</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559262</v>
+        <v>11559266</v>
       </c>
       <c r="L43" s="3">
         <v>3901027</v>
@@ -4861,10 +4861,10 @@
         <v>1726215</v>
       </c>
       <c r="O43" s="3">
-        <v>1369458</v>
+        <v>1369459</v>
       </c>
       <c r="P43" s="3">
-        <v>932227</v>
+        <v>932230</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587474</v>
+        <v>11587478</v>
       </c>
       <c r="L44" s="3">
         <v>3911324</v>
@@ -4920,10 +4920,10 @@
         <v>1733163</v>
       </c>
       <c r="O44" s="3">
-        <v>1373110</v>
+        <v>1373111</v>
       </c>
       <c r="P44" s="3">
-        <v>935156</v>
+        <v>935159</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610910</v>
+        <v>11610914</v>
       </c>
       <c r="L45" s="3">
         <v>3920475</v>
@@ -4979,10 +4979,10 @@
         <v>1737701</v>
       </c>
       <c r="O45" s="3">
-        <v>1376108</v>
+        <v>1376109</v>
       </c>
       <c r="P45" s="3">
-        <v>937605</v>
+        <v>937608</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633036</v>
+        <v>11633040</v>
       </c>
       <c r="L46" s="3">
         <v>3929459</v>
@@ -5038,10 +5038,10 @@
         <v>1739724</v>
       </c>
       <c r="O46" s="3">
-        <v>1378666</v>
+        <v>1378667</v>
       </c>
       <c r="P46" s="3">
-        <v>940638</v>
+        <v>940641</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660957</v>
+        <v>11660961</v>
       </c>
       <c r="L47" s="3">
         <v>3937190</v>
@@ -5097,10 +5097,10 @@
         <v>1743426</v>
       </c>
       <c r="O47" s="3">
-        <v>1380664</v>
+        <v>1380665</v>
       </c>
       <c r="P47" s="3">
-        <v>945715</v>
+        <v>945718</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,7 +5117,7 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43966</v>
+        <v>43983</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
@@ -5126,7 +5126,7 @@
         <v>6091</v>
       </c>
       <c r="E48" s="3">
-        <v>7187</v>
+        <v>7203</v>
       </c>
       <c r="F48" s="3">
         <v>2191</v>
@@ -5135,7 +5135,7 @@
         <v>9334</v>
       </c>
       <c r="H48" s="3">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="I48" s="3">
         <v>2182</v>
@@ -5144,7 +5144,7 @@
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704923</v>
+        <v>11704944</v>
       </c>
       <c r="L48" s="3">
         <v>3949476</v>
@@ -5153,16 +5153,16 @@
         <v>2994269</v>
       </c>
       <c r="N48" s="3">
-        <v>1750613</v>
+        <v>1750629</v>
       </c>
       <c r="O48" s="3">
-        <v>1382855</v>
+        <v>1382856</v>
       </c>
       <c r="P48" s="3">
-        <v>955049</v>
+        <v>955052</v>
       </c>
       <c r="Q48" s="3">
-        <v>311670</v>
+        <v>311671</v>
       </c>
       <c r="R48" s="3">
         <v>250730</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>18506</v>
+        <v>19955</v>
       </c>
       <c r="C49">
-        <v>5856</v>
+        <v>6361</v>
       </c>
       <c r="D49">
-        <v>2404</v>
+        <v>2634</v>
       </c>
       <c r="E49">
-        <v>4055</v>
+        <v>4441</v>
       </c>
       <c r="F49">
         <v>643</v>
       </c>
       <c r="G49">
-        <v>3091</v>
+        <v>3250</v>
       </c>
       <c r="H49">
-        <v>1542</v>
+        <v>1694</v>
       </c>
       <c r="I49">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="J49">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K49">
-        <v>11723429</v>
+        <v>11724899</v>
       </c>
       <c r="L49">
-        <v>3955332</v>
+        <v>3955837</v>
       </c>
       <c r="M49">
-        <v>2996673</v>
+        <v>2996903</v>
       </c>
       <c r="N49">
-        <v>1754668</v>
+        <v>1755070</v>
       </c>
       <c r="O49">
-        <v>1383498</v>
+        <v>1383499</v>
       </c>
       <c r="P49">
-        <v>958140</v>
+        <v>958302</v>
       </c>
       <c r="Q49">
-        <v>313212</v>
+        <v>313365</v>
       </c>
       <c r="R49">
-        <v>251503</v>
+        <v>251504</v>
       </c>
       <c r="S49">
-        <v>110403</v>
+        <v>110419</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM37"/>
+  <dimension ref="A1:IM38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29859,6 +29859,749 @@
       </c>
       <c r="IM37">
         <v>13432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B38">
+        <v>1470</v>
+      </c>
+      <c r="C38">
+        <v>505</v>
+      </c>
+      <c r="D38">
+        <v>230</v>
+      </c>
+      <c r="E38">
+        <v>402</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>162</v>
+      </c>
+      <c r="H38">
+        <v>153</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+      <c r="K38">
+        <v>11724899</v>
+      </c>
+      <c r="L38">
+        <v>3955837</v>
+      </c>
+      <c r="M38">
+        <v>2996903</v>
+      </c>
+      <c r="N38">
+        <v>1755070</v>
+      </c>
+      <c r="O38">
+        <v>1383499</v>
+      </c>
+      <c r="P38">
+        <v>958302</v>
+      </c>
+      <c r="Q38">
+        <v>313365</v>
+      </c>
+      <c r="R38">
+        <v>251504</v>
+      </c>
+      <c r="S38">
+        <v>110419</v>
+      </c>
+      <c r="T38">
+        <v>90</v>
+      </c>
+      <c r="U38">
+        <v>19</v>
+      </c>
+      <c r="V38">
+        <v>27</v>
+      </c>
+      <c r="W38">
+        <v>35</v>
+      </c>
+      <c r="X38">
+        <v>69</v>
+      </c>
+      <c r="Y38">
+        <v>80</v>
+      </c>
+      <c r="Z38">
+        <v>96</v>
+      </c>
+      <c r="AA38">
+        <v>89</v>
+      </c>
+      <c r="AB38">
+        <v>80</v>
+      </c>
+      <c r="AC38">
+        <v>76</v>
+      </c>
+      <c r="AD38">
+        <v>102</v>
+      </c>
+      <c r="AE38">
+        <v>97</v>
+      </c>
+      <c r="AF38">
+        <v>86</v>
+      </c>
+      <c r="AG38">
+        <v>109</v>
+      </c>
+      <c r="AH38">
+        <v>91</v>
+      </c>
+      <c r="AI38">
+        <v>91</v>
+      </c>
+      <c r="AJ38">
+        <v>101</v>
+      </c>
+      <c r="AK38">
+        <v>130</v>
+      </c>
+      <c r="AL38">
+        <v>2</v>
+      </c>
+      <c r="AM38">
+        <v>504024</v>
+      </c>
+      <c r="AN38">
+        <v>668376</v>
+      </c>
+      <c r="AO38">
+        <v>774039</v>
+      </c>
+      <c r="AP38">
+        <v>760495</v>
+      </c>
+      <c r="AQ38">
+        <v>931336</v>
+      </c>
+      <c r="AR38">
+        <v>1027491</v>
+      </c>
+      <c r="AS38">
+        <v>1035460</v>
+      </c>
+      <c r="AT38">
+        <v>1020121</v>
+      </c>
+      <c r="AU38">
+        <v>909665</v>
+      </c>
+      <c r="AV38">
+        <v>808380</v>
+      </c>
+      <c r="AW38">
+        <v>748401</v>
+      </c>
+      <c r="AX38">
+        <v>623257</v>
+      </c>
+      <c r="AY38">
+        <v>544223</v>
+      </c>
+      <c r="AZ38">
+        <v>408487</v>
+      </c>
+      <c r="BA38">
+        <v>326332</v>
+      </c>
+      <c r="BB38">
+        <v>241939</v>
+      </c>
+      <c r="BC38">
+        <v>162885</v>
+      </c>
+      <c r="BD38">
+        <v>211863</v>
+      </c>
+      <c r="BE38">
+        <v>18125</v>
+      </c>
+      <c r="BF38">
+        <v>51</v>
+      </c>
+      <c r="BG38">
+        <v>39</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>12</v>
+      </c>
+      <c r="BL38">
+        <v>7</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
+        <v>17</v>
+      </c>
+      <c r="BQ38">
+        <v>10</v>
+      </c>
+      <c r="BR38">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>0</v>
+      </c>
+      <c r="BT38">
+        <v>0</v>
+      </c>
+      <c r="BU38">
+        <v>15</v>
+      </c>
+      <c r="BV38">
+        <v>20</v>
+      </c>
+      <c r="BW38">
+        <v>0</v>
+      </c>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BY38">
+        <v>0</v>
+      </c>
+      <c r="BZ38">
+        <v>30</v>
+      </c>
+      <c r="CA38">
+        <v>39</v>
+      </c>
+      <c r="CB38">
+        <v>0</v>
+      </c>
+      <c r="CC38">
+        <v>0</v>
+      </c>
+      <c r="CD38">
+        <v>0</v>
+      </c>
+      <c r="CE38">
+        <v>26</v>
+      </c>
+      <c r="CF38">
+        <v>54</v>
+      </c>
+      <c r="CG38">
+        <v>0</v>
+      </c>
+      <c r="CH38">
+        <v>0</v>
+      </c>
+      <c r="CI38">
+        <v>0</v>
+      </c>
+      <c r="CJ38">
+        <v>29</v>
+      </c>
+      <c r="CK38">
+        <v>67</v>
+      </c>
+      <c r="CL38">
+        <v>0</v>
+      </c>
+      <c r="CM38">
+        <v>0</v>
+      </c>
+      <c r="CN38">
+        <v>0</v>
+      </c>
+      <c r="CO38">
+        <v>26</v>
+      </c>
+      <c r="CP38">
+        <v>63</v>
+      </c>
+      <c r="CQ38">
+        <v>0</v>
+      </c>
+      <c r="CR38">
+        <v>0</v>
+      </c>
+      <c r="CS38">
+        <v>0</v>
+      </c>
+      <c r="CT38">
+        <v>29</v>
+      </c>
+      <c r="CU38">
+        <v>51</v>
+      </c>
+      <c r="CV38">
+        <v>0</v>
+      </c>
+      <c r="CW38">
+        <v>0</v>
+      </c>
+      <c r="CX38">
+        <v>0</v>
+      </c>
+      <c r="CY38">
+        <v>20</v>
+      </c>
+      <c r="CZ38">
+        <v>57</v>
+      </c>
+      <c r="DA38">
+        <v>0</v>
+      </c>
+      <c r="DB38">
+        <v>-1</v>
+      </c>
+      <c r="DC38">
+        <v>0</v>
+      </c>
+      <c r="DD38">
+        <v>35</v>
+      </c>
+      <c r="DE38">
+        <v>69</v>
+      </c>
+      <c r="DF38">
+        <v>1</v>
+      </c>
+      <c r="DG38">
+        <v>-3</v>
+      </c>
+      <c r="DH38">
+        <v>0</v>
+      </c>
+      <c r="DI38">
+        <v>41</v>
+      </c>
+      <c r="DJ38">
+        <v>56</v>
+      </c>
+      <c r="DK38">
+        <v>0</v>
+      </c>
+      <c r="DL38">
+        <v>0</v>
+      </c>
+      <c r="DM38">
+        <v>0</v>
+      </c>
+      <c r="DN38">
+        <v>39</v>
+      </c>
+      <c r="DO38">
+        <v>48</v>
+      </c>
+      <c r="DP38">
+        <v>0</v>
+      </c>
+      <c r="DQ38">
+        <v>-1</v>
+      </c>
+      <c r="DR38">
+        <v>0</v>
+      </c>
+      <c r="DS38">
+        <v>49</v>
+      </c>
+      <c r="DT38">
+        <v>65</v>
+      </c>
+      <c r="DU38">
+        <v>0</v>
+      </c>
+      <c r="DV38">
+        <v>-5</v>
+      </c>
+      <c r="DW38">
+        <v>0</v>
+      </c>
+      <c r="DX38">
+        <v>58</v>
+      </c>
+      <c r="DY38">
+        <v>39</v>
+      </c>
+      <c r="DZ38">
+        <v>0</v>
+      </c>
+      <c r="EA38">
+        <v>-6</v>
+      </c>
+      <c r="EB38">
+        <v>0</v>
+      </c>
+      <c r="EC38">
+        <v>42</v>
+      </c>
+      <c r="ED38">
+        <v>50</v>
+      </c>
+      <c r="EE38">
+        <v>0</v>
+      </c>
+      <c r="EF38">
+        <v>-1</v>
+      </c>
+      <c r="EG38">
+        <v>0</v>
+      </c>
+      <c r="EH38">
+        <v>55</v>
+      </c>
+      <c r="EI38">
+        <v>46</v>
+      </c>
+      <c r="EJ38">
+        <v>0</v>
+      </c>
+      <c r="EK38">
+        <v>0</v>
+      </c>
+      <c r="EL38">
+        <v>0</v>
+      </c>
+      <c r="EM38">
+        <v>49</v>
+      </c>
+      <c r="EN38">
+        <v>81</v>
+      </c>
+      <c r="EO38">
+        <v>0</v>
+      </c>
+      <c r="EP38">
+        <v>0</v>
+      </c>
+      <c r="EQ38">
+        <v>0</v>
+      </c>
+      <c r="ER38">
+        <v>0</v>
+      </c>
+      <c r="ES38">
+        <v>0</v>
+      </c>
+      <c r="ET38">
+        <v>1</v>
+      </c>
+      <c r="EU38">
+        <v>0</v>
+      </c>
+      <c r="EV38">
+        <v>1</v>
+      </c>
+      <c r="EW38">
+        <v>232166</v>
+      </c>
+      <c r="EX38">
+        <v>220354</v>
+      </c>
+      <c r="EY38">
+        <v>409</v>
+      </c>
+      <c r="EZ38">
+        <v>15447</v>
+      </c>
+      <c r="FA38">
+        <v>35648</v>
+      </c>
+      <c r="FB38">
+        <v>308255</v>
+      </c>
+      <c r="FC38">
+        <v>292872</v>
+      </c>
+      <c r="FD38">
+        <v>466</v>
+      </c>
+      <c r="FE38">
+        <v>16750</v>
+      </c>
+      <c r="FF38">
+        <v>50033</v>
+      </c>
+      <c r="FG38">
+        <v>353541</v>
+      </c>
+      <c r="FH38">
+        <v>342848</v>
+      </c>
+      <c r="FI38">
+        <v>632</v>
+      </c>
+      <c r="FJ38">
+        <v>16936</v>
+      </c>
+      <c r="FK38">
+        <v>60082</v>
+      </c>
+      <c r="FL38">
+        <v>326640</v>
+      </c>
+      <c r="FM38">
+        <v>374227</v>
+      </c>
+      <c r="FN38">
+        <v>896</v>
+      </c>
+      <c r="FO38">
+        <v>12913</v>
+      </c>
+      <c r="FP38">
+        <v>45819</v>
+      </c>
+      <c r="FQ38">
+        <v>392380</v>
+      </c>
+      <c r="FR38">
+        <v>480194</v>
+      </c>
+      <c r="FS38">
+        <v>1101</v>
+      </c>
+      <c r="FT38">
+        <v>16249</v>
+      </c>
+      <c r="FU38">
+        <v>41412</v>
+      </c>
+      <c r="FV38">
+        <v>434273</v>
+      </c>
+      <c r="FW38">
+        <v>526834</v>
+      </c>
+      <c r="FX38">
+        <v>1138</v>
+      </c>
+      <c r="FY38">
+        <v>17742</v>
+      </c>
+      <c r="FZ38">
+        <v>47504</v>
+      </c>
+      <c r="GA38">
+        <v>429692</v>
+      </c>
+      <c r="GB38">
+        <v>532900</v>
+      </c>
+      <c r="GC38">
+        <v>922</v>
+      </c>
+      <c r="GD38">
+        <v>17125</v>
+      </c>
+      <c r="GE38">
+        <v>54821</v>
+      </c>
+      <c r="GF38">
+        <v>420214</v>
+      </c>
+      <c r="GG38">
+        <v>525433</v>
+      </c>
+      <c r="GH38">
+        <v>666</v>
+      </c>
+      <c r="GI38">
+        <v>14981</v>
+      </c>
+      <c r="GJ38">
+        <v>58827</v>
+      </c>
+      <c r="GK38">
+        <v>374011</v>
+      </c>
+      <c r="GL38">
+        <v>469661</v>
+      </c>
+      <c r="GM38">
+        <v>498</v>
+      </c>
+      <c r="GN38">
+        <v>12332</v>
+      </c>
+      <c r="GO38">
+        <v>53163</v>
+      </c>
+      <c r="GP38">
+        <v>330756</v>
+      </c>
+      <c r="GQ38">
+        <v>421757</v>
+      </c>
+      <c r="GR38">
+        <v>439</v>
+      </c>
+      <c r="GS38">
+        <v>10110</v>
+      </c>
+      <c r="GT38">
+        <v>45318</v>
+      </c>
+      <c r="GU38">
+        <v>308629</v>
+      </c>
+      <c r="GV38">
+        <v>390179</v>
+      </c>
+      <c r="GW38">
+        <v>402</v>
+      </c>
+      <c r="GX38">
+        <v>8930</v>
+      </c>
+      <c r="GY38">
+        <v>40261</v>
+      </c>
+      <c r="GZ38">
+        <v>264036</v>
+      </c>
+      <c r="HA38">
+        <v>320552</v>
+      </c>
+      <c r="HB38">
+        <v>329</v>
+      </c>
+      <c r="HC38">
+        <v>6594</v>
+      </c>
+      <c r="HD38">
+        <v>31746</v>
+      </c>
+      <c r="HE38">
+        <v>234924</v>
+      </c>
+      <c r="HF38">
+        <v>277797</v>
+      </c>
+      <c r="HG38">
+        <v>234</v>
+      </c>
+      <c r="HH38">
+        <v>5310</v>
+      </c>
+      <c r="HI38">
+        <v>25958</v>
+      </c>
+      <c r="HJ38">
+        <v>181325</v>
+      </c>
+      <c r="HK38">
+        <v>204833</v>
+      </c>
+      <c r="HL38">
+        <v>199</v>
+      </c>
+      <c r="HM38">
+        <v>3608</v>
+      </c>
+      <c r="HN38">
+        <v>18522</v>
+      </c>
+      <c r="HO38">
+        <v>152242</v>
+      </c>
+      <c r="HP38">
+        <v>158941</v>
+      </c>
+      <c r="HQ38">
+        <v>163</v>
+      </c>
+      <c r="HR38">
+        <v>2638</v>
+      </c>
+      <c r="HS38">
+        <v>12348</v>
+      </c>
+      <c r="HT38">
+        <v>116581</v>
+      </c>
+      <c r="HU38">
+        <v>115527</v>
+      </c>
+      <c r="HV38">
+        <v>164</v>
+      </c>
+      <c r="HW38">
+        <v>1855</v>
+      </c>
+      <c r="HX38">
+        <v>7812</v>
+      </c>
+      <c r="HY38">
+        <v>76590</v>
+      </c>
+      <c r="HZ38">
+        <v>80368</v>
+      </c>
+      <c r="IA38">
+        <v>131</v>
+      </c>
+      <c r="IB38">
+        <v>1263</v>
+      </c>
+      <c r="IC38">
+        <v>4533</v>
+      </c>
+      <c r="ID38">
+        <v>82028</v>
+      </c>
+      <c r="IE38">
+        <v>123432</v>
+      </c>
+      <c r="IF38">
+        <v>306</v>
+      </c>
+      <c r="IG38">
+        <v>2255</v>
+      </c>
+      <c r="IH38">
+        <v>3842</v>
+      </c>
+      <c r="II38">
+        <v>2154</v>
+      </c>
+      <c r="IJ38">
+        <v>2311</v>
+      </c>
+      <c r="IK38">
+        <v>26</v>
+      </c>
+      <c r="IL38">
+        <v>201</v>
+      </c>
+      <c r="IM38">
+        <v>13433</v>
       </c>
     </row>
   </sheetData>
@@ -29885,7 +30628,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45275</v>
+        <v>45276</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3A5E1C-97F0-40C7-B4A4-B8DDA671B025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C35F270-F48D-4665-94B7-EEF428C1F6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1984,7 +1984,7 @@
         <v>10317931</v>
       </c>
       <c r="C4">
-        <v>3368107</v>
+        <v>3368105</v>
       </c>
       <c r="D4">
         <v>2621354</v>
@@ -1996,7 +1996,7 @@
         <v>1288509</v>
       </c>
       <c r="G4">
-        <v>848370</v>
+        <v>848372</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2011,7 +2011,7 @@
         <v>10886002</v>
       </c>
       <c r="L4">
-        <v>3653391</v>
+        <v>3653389</v>
       </c>
       <c r="M4">
         <v>2841482</v>
@@ -2023,7 +2023,7 @@
         <v>1289876</v>
       </c>
       <c r="P4">
-        <v>867531</v>
+        <v>867533</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,10 +2038,10 @@
         <v>450524</v>
       </c>
       <c r="U4">
-        <v>611247</v>
+        <v>611245</v>
       </c>
       <c r="V4">
-        <v>710193</v>
+        <v>710195</v>
       </c>
       <c r="W4">
         <v>683343</v>
@@ -2050,34 +2050,34 @@
         <v>812049</v>
       </c>
       <c r="Y4">
-        <v>899971</v>
+        <v>899970</v>
       </c>
       <c r="Z4">
-        <v>917005</v>
+        <v>917009</v>
       </c>
       <c r="AA4">
-        <v>908894</v>
+        <v>908893</v>
       </c>
       <c r="AB4">
-        <v>810344</v>
+        <v>810345</v>
       </c>
       <c r="AC4">
-        <v>717635</v>
+        <v>717636</v>
       </c>
       <c r="AD4">
-        <v>658724</v>
+        <v>658721</v>
       </c>
       <c r="AE4">
-        <v>544130</v>
+        <v>544131</v>
       </c>
       <c r="AF4">
-        <v>471545</v>
+        <v>471544</v>
       </c>
       <c r="AG4">
         <v>349047</v>
       </c>
       <c r="AH4">
-        <v>274358</v>
+        <v>274357</v>
       </c>
       <c r="AI4">
         <v>197983</v>
@@ -2095,10 +2095,10 @@
         <v>473774</v>
       </c>
       <c r="AN4">
-        <v>644446</v>
+        <v>644444</v>
       </c>
       <c r="AO4">
-        <v>741707</v>
+        <v>741709</v>
       </c>
       <c r="AP4">
         <v>728589</v>
@@ -2107,34 +2107,34 @@
         <v>890277</v>
       </c>
       <c r="AR4">
-        <v>974414</v>
+        <v>974413</v>
       </c>
       <c r="AS4">
-        <v>975387</v>
+        <v>975391</v>
       </c>
       <c r="AT4">
-        <v>953886</v>
+        <v>953885</v>
       </c>
       <c r="AU4">
-        <v>845962</v>
+        <v>845963</v>
       </c>
       <c r="AV4">
-        <v>749714</v>
+        <v>749715</v>
       </c>
       <c r="AW4">
-        <v>688412</v>
+        <v>688409</v>
       </c>
       <c r="AX4">
-        <v>568131</v>
+        <v>568132</v>
       </c>
       <c r="AY4">
-        <v>490085</v>
+        <v>490084</v>
       </c>
       <c r="AZ4">
         <v>362020</v>
       </c>
       <c r="BA4">
-        <v>283676</v>
+        <v>283675</v>
       </c>
       <c r="BB4">
         <v>204456</v>
@@ -2154,25 +2154,25 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>838897</v>
+        <v>839757</v>
       </c>
       <c r="C5">
-        <v>302446</v>
+        <v>302776</v>
       </c>
       <c r="D5">
         <v>155421</v>
       </c>
       <c r="E5">
-        <v>135193</v>
+        <v>135468</v>
       </c>
       <c r="F5">
         <v>93623</v>
       </c>
       <c r="G5">
-        <v>90771</v>
+        <v>90876</v>
       </c>
       <c r="H5">
-        <v>31822</v>
+        <v>31972</v>
       </c>
       <c r="I5">
         <v>23169</v>
@@ -2181,25 +2181,25 @@
         <v>6452</v>
       </c>
       <c r="K5">
-        <v>11724899</v>
+        <v>11725759</v>
       </c>
       <c r="L5">
-        <v>3955837</v>
+        <v>3956165</v>
       </c>
       <c r="M5">
         <v>2996903</v>
       </c>
       <c r="N5">
-        <v>1755070</v>
+        <v>1755345</v>
       </c>
       <c r="O5">
         <v>1383499</v>
       </c>
       <c r="P5">
-        <v>958302</v>
+        <v>958409</v>
       </c>
       <c r="Q5">
-        <v>313365</v>
+        <v>313515</v>
       </c>
       <c r="R5">
         <v>251504</v>
@@ -2208,115 +2208,115 @@
         <v>110419</v>
       </c>
       <c r="T5">
-        <v>30250</v>
+        <v>30300</v>
       </c>
       <c r="U5">
-        <v>23930</v>
+        <v>23948</v>
       </c>
       <c r="V5">
-        <v>32332</v>
+        <v>32348</v>
       </c>
       <c r="W5">
-        <v>31906</v>
+        <v>31929</v>
       </c>
       <c r="X5">
-        <v>41059</v>
+        <v>41088</v>
       </c>
       <c r="Y5">
-        <v>53077</v>
+        <v>53113</v>
       </c>
       <c r="Z5">
-        <v>60073</v>
+        <v>60129</v>
       </c>
       <c r="AA5">
-        <v>66235</v>
+        <v>66283</v>
       </c>
       <c r="AB5">
-        <v>63703</v>
+        <v>63749</v>
       </c>
       <c r="AC5">
-        <v>58666</v>
+        <v>58706</v>
       </c>
       <c r="AD5">
-        <v>59989</v>
+        <v>60042</v>
       </c>
       <c r="AE5">
-        <v>55126</v>
+        <v>55175</v>
       </c>
       <c r="AF5">
-        <v>54138</v>
+        <v>54206</v>
       </c>
       <c r="AG5">
-        <v>46467</v>
+        <v>46521</v>
       </c>
       <c r="AH5">
-        <v>42656</v>
+        <v>42722</v>
       </c>
       <c r="AI5">
-        <v>37483</v>
+        <v>37555</v>
       </c>
       <c r="AJ5">
-        <v>30364</v>
+        <v>30410</v>
       </c>
       <c r="AK5">
-        <v>50844</v>
+        <v>50934</v>
       </c>
       <c r="AL5">
         <v>599</v>
       </c>
       <c r="AM5">
-        <v>504024</v>
+        <v>504074</v>
       </c>
       <c r="AN5">
-        <v>668376</v>
+        <v>668392</v>
       </c>
       <c r="AO5">
-        <v>774039</v>
+        <v>774057</v>
       </c>
       <c r="AP5">
-        <v>760495</v>
+        <v>760518</v>
       </c>
       <c r="AQ5">
-        <v>931336</v>
+        <v>931365</v>
       </c>
       <c r="AR5">
-        <v>1027491</v>
+        <v>1027526</v>
       </c>
       <c r="AS5">
-        <v>1035460</v>
+        <v>1035520</v>
       </c>
       <c r="AT5">
-        <v>1020121</v>
+        <v>1020168</v>
       </c>
       <c r="AU5">
-        <v>909665</v>
+        <v>909712</v>
       </c>
       <c r="AV5">
-        <v>808380</v>
+        <v>808421</v>
       </c>
       <c r="AW5">
-        <v>748401</v>
+        <v>748451</v>
       </c>
       <c r="AX5">
-        <v>623257</v>
+        <v>623307</v>
       </c>
       <c r="AY5">
-        <v>544223</v>
+        <v>544290</v>
       </c>
       <c r="AZ5">
-        <v>408487</v>
+        <v>408541</v>
       </c>
       <c r="BA5">
-        <v>326332</v>
+        <v>326397</v>
       </c>
       <c r="BB5">
-        <v>241939</v>
+        <v>242011</v>
       </c>
       <c r="BC5">
-        <v>162885</v>
+        <v>162931</v>
       </c>
       <c r="BD5">
-        <v>211863</v>
+        <v>211953</v>
       </c>
       <c r="BE5">
         <v>18125</v>
@@ -3878,10 +3878,10 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687548</v>
+        <v>687547</v>
       </c>
       <c r="C27" s="3">
-        <v>230228</v>
+        <v>230227</v>
       </c>
       <c r="D27" s="3">
         <v>204529</v>
@@ -3905,10 +3905,10 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065265</v>
+        <v>3065264</v>
       </c>
       <c r="L27" s="3">
-        <v>1152677</v>
+        <v>1152676</v>
       </c>
       <c r="M27" s="3">
         <v>1059936</v>
@@ -3964,10 +3964,10 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432049</v>
+        <v>4432048</v>
       </c>
       <c r="L28" s="3">
-        <v>1689284</v>
+        <v>1689283</v>
       </c>
       <c r="M28" s="3">
         <v>1310022</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339898</v>
+        <v>1339899</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139840</v>
+        <v>139841</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4026,7 +4026,7 @@
         <v>5771947</v>
       </c>
       <c r="L29" s="3">
-        <v>2121664</v>
+        <v>2121663</v>
       </c>
       <c r="M29" s="3">
         <v>1584974</v>
@@ -4038,7 +4038,7 @@
         <v>400166</v>
       </c>
       <c r="P29" s="3">
-        <v>414028</v>
+        <v>414029</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4085,7 +4085,7 @@
         <v>7082318</v>
       </c>
       <c r="L30" s="3">
-        <v>2418931</v>
+        <v>2418930</v>
       </c>
       <c r="M30" s="3">
         <v>1918283</v>
@@ -4097,7 +4097,7 @@
         <v>754255</v>
       </c>
       <c r="P30" s="3">
-        <v>522168</v>
+        <v>522169</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884303</v>
+        <v>884304</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77324</v>
+        <v>77325</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,10 +4141,10 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966621</v>
+        <v>7966622</v>
       </c>
       <c r="L31" s="3">
-        <v>2652832</v>
+        <v>2652831</v>
       </c>
       <c r="M31" s="3">
         <v>2133369</v>
@@ -4156,7 +4156,7 @@
         <v>936894</v>
       </c>
       <c r="P31" s="3">
-        <v>599492</v>
+        <v>599494</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,10 +4200,10 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216973</v>
+        <v>9216974</v>
       </c>
       <c r="L32" s="3">
-        <v>3031437</v>
+        <v>3031436</v>
       </c>
       <c r="M32" s="3">
         <v>2445486</v>
@@ -4215,7 +4215,7 @@
         <v>1095160</v>
       </c>
       <c r="P32" s="3">
-        <v>716893</v>
+        <v>716895</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,10 +4259,10 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771832</v>
+        <v>9771833</v>
       </c>
       <c r="L33" s="3">
-        <v>3261486</v>
+        <v>3261485</v>
       </c>
       <c r="M33" s="3">
         <v>2570916</v>
@@ -4274,7 +4274,7 @@
         <v>1154231</v>
       </c>
       <c r="P33" s="3">
-        <v>757404</v>
+        <v>757406</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,10 +4318,10 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966086</v>
+        <v>9966087</v>
       </c>
       <c r="L34" s="3">
-        <v>3330338</v>
+        <v>3330337</v>
       </c>
       <c r="M34" s="3">
         <v>2617585</v>
@@ -4333,7 +4333,7 @@
         <v>1178503</v>
       </c>
       <c r="P34" s="3">
-        <v>772688</v>
+        <v>772690</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,10 +4377,10 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108190</v>
+        <v>10108191</v>
       </c>
       <c r="L35" s="3">
-        <v>3374837</v>
+        <v>3374836</v>
       </c>
       <c r="M35" s="3">
         <v>2653979</v>
@@ -4392,7 +4392,7 @@
         <v>1201929</v>
       </c>
       <c r="P35" s="3">
-        <v>785863</v>
+        <v>785865</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,10 +4436,10 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460133</v>
+        <v>10460134</v>
       </c>
       <c r="L36" s="3">
-        <v>3496929</v>
+        <v>3496928</v>
       </c>
       <c r="M36" s="3">
         <v>2746876</v>
@@ -4451,7 +4451,7 @@
         <v>1244563</v>
       </c>
       <c r="P36" s="3">
-        <v>823026</v>
+        <v>823028</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4468,10 +4468,10 @@
         <v>44896</v>
       </c>
       <c r="B37" s="3">
-        <v>425869</v>
+        <v>425868</v>
       </c>
       <c r="C37" s="3">
-        <v>156462</v>
+        <v>156461</v>
       </c>
       <c r="D37" s="3">
         <v>94606</v>
@@ -4498,7 +4498,7 @@
         <v>10886002</v>
       </c>
       <c r="L37" s="3">
-        <v>3653391</v>
+        <v>3653389</v>
       </c>
       <c r="M37" s="3">
         <v>2841482</v>
@@ -4510,7 +4510,7 @@
         <v>1289876</v>
       </c>
       <c r="P37" s="3">
-        <v>867531</v>
+        <v>867533</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4557,7 +4557,7 @@
         <v>11016085</v>
       </c>
       <c r="L38" s="3">
-        <v>3699335</v>
+        <v>3699333</v>
       </c>
       <c r="M38" s="3">
         <v>2864587</v>
@@ -4569,7 +4569,7 @@
         <v>1306732</v>
       </c>
       <c r="P38" s="3">
-        <v>879421</v>
+        <v>879423</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4616,7 +4616,7 @@
         <v>11088071</v>
       </c>
       <c r="L39" s="3">
-        <v>3724578</v>
+        <v>3724576</v>
       </c>
       <c r="M39" s="3">
         <v>2876976</v>
@@ -4628,7 +4628,7 @@
         <v>1315604</v>
       </c>
       <c r="P39" s="3">
-        <v>886274</v>
+        <v>886276</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4675,7 +4675,7 @@
         <v>11192048</v>
       </c>
       <c r="L40" s="3">
-        <v>3763220</v>
+        <v>3763218</v>
       </c>
       <c r="M40" s="3">
         <v>2896213</v>
@@ -4687,7 +4687,7 @@
         <v>1328566</v>
       </c>
       <c r="P40" s="3">
-        <v>897774</v>
+        <v>897776</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4734,7 +4734,7 @@
         <v>11315213</v>
       </c>
       <c r="L41" s="3">
-        <v>3810749</v>
+        <v>3810747</v>
       </c>
       <c r="M41" s="3">
         <v>2922020</v>
@@ -4746,7 +4746,7 @@
         <v>1342953</v>
       </c>
       <c r="P41" s="3">
-        <v>910103</v>
+        <v>910105</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4793,7 +4793,7 @@
         <v>11481464</v>
       </c>
       <c r="L42" s="3">
-        <v>3872843</v>
+        <v>3872841</v>
       </c>
       <c r="M42" s="3">
         <v>2960396</v>
@@ -4805,7 +4805,7 @@
         <v>1361041</v>
       </c>
       <c r="P42" s="3">
-        <v>925016</v>
+        <v>925018</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4852,7 +4852,7 @@
         <v>11559266</v>
       </c>
       <c r="L43" s="3">
-        <v>3901027</v>
+        <v>3901025</v>
       </c>
       <c r="M43" s="3">
         <v>2975163</v>
@@ -4864,7 +4864,7 @@
         <v>1369459</v>
       </c>
       <c r="P43" s="3">
-        <v>932230</v>
+        <v>932232</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4911,7 +4911,7 @@
         <v>11587478</v>
       </c>
       <c r="L44" s="3">
-        <v>3911324</v>
+        <v>3911322</v>
       </c>
       <c r="M44" s="3">
         <v>2977219</v>
@@ -4923,7 +4923,7 @@
         <v>1373111</v>
       </c>
       <c r="P44" s="3">
-        <v>935159</v>
+        <v>935161</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4970,7 +4970,7 @@
         <v>11610914</v>
       </c>
       <c r="L45" s="3">
-        <v>3920475</v>
+        <v>3920473</v>
       </c>
       <c r="M45" s="3">
         <v>2979334</v>
@@ -4982,7 +4982,7 @@
         <v>1376109</v>
       </c>
       <c r="P45" s="3">
-        <v>937608</v>
+        <v>937610</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5029,7 +5029,7 @@
         <v>11633040</v>
       </c>
       <c r="L46" s="3">
-        <v>3929459</v>
+        <v>3929457</v>
       </c>
       <c r="M46" s="3">
         <v>2982573</v>
@@ -5041,7 +5041,7 @@
         <v>1378667</v>
       </c>
       <c r="P46" s="3">
-        <v>940641</v>
+        <v>940643</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5088,7 +5088,7 @@
         <v>11660961</v>
       </c>
       <c r="L47" s="3">
-        <v>3937190</v>
+        <v>3937188</v>
       </c>
       <c r="M47" s="3">
         <v>2988178</v>
@@ -5100,7 +5100,7 @@
         <v>1380665</v>
       </c>
       <c r="P47" s="3">
-        <v>945718</v>
+        <v>945720</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,7 +5117,7 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
@@ -5126,7 +5126,7 @@
         <v>6091</v>
       </c>
       <c r="E48" s="3">
-        <v>7203</v>
+        <v>7204</v>
       </c>
       <c r="F48" s="3">
         <v>2191</v>
@@ -5135,7 +5135,7 @@
         <v>9334</v>
       </c>
       <c r="H48" s="3">
-        <v>4150</v>
+        <v>4152</v>
       </c>
       <c r="I48" s="3">
         <v>2182</v>
@@ -5144,25 +5144,25 @@
         <v>546</v>
       </c>
       <c r="K48" s="3">
-        <v>11704944</v>
+        <v>11704947</v>
       </c>
       <c r="L48" s="3">
-        <v>3949476</v>
+        <v>3949474</v>
       </c>
       <c r="M48" s="3">
         <v>2994269</v>
       </c>
       <c r="N48" s="3">
-        <v>1750629</v>
+        <v>1750630</v>
       </c>
       <c r="O48" s="3">
         <v>1382856</v>
       </c>
       <c r="P48" s="3">
-        <v>955052</v>
+        <v>955054</v>
       </c>
       <c r="Q48" s="3">
-        <v>311671</v>
+        <v>311673</v>
       </c>
       <c r="R48" s="3">
         <v>250730</v>
@@ -5176,25 +5176,25 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>19955</v>
+        <v>20812</v>
       </c>
       <c r="C49">
-        <v>6361</v>
+        <v>6691</v>
       </c>
       <c r="D49">
         <v>2634</v>
       </c>
       <c r="E49">
-        <v>4441</v>
+        <v>4715</v>
       </c>
       <c r="F49">
         <v>643</v>
       </c>
       <c r="G49">
-        <v>3250</v>
+        <v>3355</v>
       </c>
       <c r="H49">
-        <v>1694</v>
+        <v>1842</v>
       </c>
       <c r="I49">
         <v>774</v>
@@ -5203,25 +5203,25 @@
         <v>158</v>
       </c>
       <c r="K49">
-        <v>11724899</v>
+        <v>11725759</v>
       </c>
       <c r="L49">
-        <v>3955837</v>
+        <v>3956165</v>
       </c>
       <c r="M49">
         <v>2996903</v>
       </c>
       <c r="N49">
-        <v>1755070</v>
+        <v>1755345</v>
       </c>
       <c r="O49">
         <v>1383499</v>
       </c>
       <c r="P49">
-        <v>958302</v>
+        <v>958409</v>
       </c>
       <c r="Q49">
-        <v>313365</v>
+        <v>313515</v>
       </c>
       <c r="R49">
         <v>251504</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM38"/>
+  <dimension ref="A1:IM39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30601,6 +30601,749 @@
         <v>201</v>
       </c>
       <c r="IM38">
+        <v>13433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B39">
+        <v>860</v>
+      </c>
+      <c r="C39">
+        <v>328</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>275</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>107</v>
+      </c>
+      <c r="H39">
+        <v>150</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>11725759</v>
+      </c>
+      <c r="L39">
+        <v>3956165</v>
+      </c>
+      <c r="M39">
+        <v>2996903</v>
+      </c>
+      <c r="N39">
+        <v>1755345</v>
+      </c>
+      <c r="O39">
+        <v>1383499</v>
+      </c>
+      <c r="P39">
+        <v>958409</v>
+      </c>
+      <c r="Q39">
+        <v>313515</v>
+      </c>
+      <c r="R39">
+        <v>251504</v>
+      </c>
+      <c r="S39">
+        <v>110419</v>
+      </c>
+      <c r="T39">
+        <v>50</v>
+      </c>
+      <c r="U39">
+        <v>16</v>
+      </c>
+      <c r="V39">
+        <v>18</v>
+      </c>
+      <c r="W39">
+        <v>23</v>
+      </c>
+      <c r="X39">
+        <v>29</v>
+      </c>
+      <c r="Y39">
+        <v>35</v>
+      </c>
+      <c r="Z39">
+        <v>60</v>
+      </c>
+      <c r="AA39">
+        <v>47</v>
+      </c>
+      <c r="AB39">
+        <v>47</v>
+      </c>
+      <c r="AC39">
+        <v>41</v>
+      </c>
+      <c r="AD39">
+        <v>50</v>
+      </c>
+      <c r="AE39">
+        <v>50</v>
+      </c>
+      <c r="AF39">
+        <v>67</v>
+      </c>
+      <c r="AG39">
+        <v>54</v>
+      </c>
+      <c r="AH39">
+        <v>65</v>
+      </c>
+      <c r="AI39">
+        <v>72</v>
+      </c>
+      <c r="AJ39">
+        <v>46</v>
+      </c>
+      <c r="AK39">
+        <v>90</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>504074</v>
+      </c>
+      <c r="AN39">
+        <v>668392</v>
+      </c>
+      <c r="AO39">
+        <v>774057</v>
+      </c>
+      <c r="AP39">
+        <v>760518</v>
+      </c>
+      <c r="AQ39">
+        <v>931365</v>
+      </c>
+      <c r="AR39">
+        <v>1027526</v>
+      </c>
+      <c r="AS39">
+        <v>1035520</v>
+      </c>
+      <c r="AT39">
+        <v>1020168</v>
+      </c>
+      <c r="AU39">
+        <v>909712</v>
+      </c>
+      <c r="AV39">
+        <v>808421</v>
+      </c>
+      <c r="AW39">
+        <v>748451</v>
+      </c>
+      <c r="AX39">
+        <v>623307</v>
+      </c>
+      <c r="AY39">
+        <v>544290</v>
+      </c>
+      <c r="AZ39">
+        <v>408541</v>
+      </c>
+      <c r="BA39">
+        <v>326397</v>
+      </c>
+      <c r="BB39">
+        <v>242011</v>
+      </c>
+      <c r="BC39">
+        <v>162931</v>
+      </c>
+      <c r="BD39">
+        <v>211953</v>
+      </c>
+      <c r="BE39">
+        <v>18125</v>
+      </c>
+      <c r="BF39">
+        <v>23</v>
+      </c>
+      <c r="BG39">
+        <v>29</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>-2</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>13</v>
+      </c>
+      <c r="BL39">
+        <v>3</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>12</v>
+      </c>
+      <c r="BQ39">
+        <v>6</v>
+      </c>
+      <c r="BR39">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>0</v>
+      </c>
+      <c r="BT39">
+        <v>0</v>
+      </c>
+      <c r="BU39">
+        <v>12</v>
+      </c>
+      <c r="BV39">
+        <v>11</v>
+      </c>
+      <c r="BW39">
+        <v>0</v>
+      </c>
+      <c r="BX39">
+        <v>0</v>
+      </c>
+      <c r="BY39">
+        <v>0</v>
+      </c>
+      <c r="BZ39">
+        <v>9</v>
+      </c>
+      <c r="CA39">
+        <v>20</v>
+      </c>
+      <c r="CB39">
+        <v>0</v>
+      </c>
+      <c r="CC39">
+        <v>0</v>
+      </c>
+      <c r="CD39">
+        <v>0</v>
+      </c>
+      <c r="CE39">
+        <v>12</v>
+      </c>
+      <c r="CF39">
+        <v>23</v>
+      </c>
+      <c r="CG39">
+        <v>0</v>
+      </c>
+      <c r="CH39">
+        <v>0</v>
+      </c>
+      <c r="CI39">
+        <v>0</v>
+      </c>
+      <c r="CJ39">
+        <v>26</v>
+      </c>
+      <c r="CK39">
+        <v>34</v>
+      </c>
+      <c r="CL39">
+        <v>0</v>
+      </c>
+      <c r="CM39">
+        <v>0</v>
+      </c>
+      <c r="CN39">
+        <v>0</v>
+      </c>
+      <c r="CO39">
+        <v>18</v>
+      </c>
+      <c r="CP39">
+        <v>29</v>
+      </c>
+      <c r="CQ39">
+        <v>0</v>
+      </c>
+      <c r="CR39">
+        <v>0</v>
+      </c>
+      <c r="CS39">
+        <v>0</v>
+      </c>
+      <c r="CT39">
+        <v>14</v>
+      </c>
+      <c r="CU39">
+        <v>33</v>
+      </c>
+      <c r="CV39">
+        <v>0</v>
+      </c>
+      <c r="CW39">
+        <v>0</v>
+      </c>
+      <c r="CX39">
+        <v>0</v>
+      </c>
+      <c r="CY39">
+        <v>15</v>
+      </c>
+      <c r="CZ39">
+        <v>26</v>
+      </c>
+      <c r="DA39">
+        <v>0</v>
+      </c>
+      <c r="DB39">
+        <v>0</v>
+      </c>
+      <c r="DC39">
+        <v>0</v>
+      </c>
+      <c r="DD39">
+        <v>24</v>
+      </c>
+      <c r="DE39">
+        <v>26</v>
+      </c>
+      <c r="DF39">
+        <v>0</v>
+      </c>
+      <c r="DG39">
+        <v>0</v>
+      </c>
+      <c r="DH39">
+        <v>0</v>
+      </c>
+      <c r="DI39">
+        <v>17</v>
+      </c>
+      <c r="DJ39">
+        <v>33</v>
+      </c>
+      <c r="DK39">
+        <v>0</v>
+      </c>
+      <c r="DL39">
+        <v>0</v>
+      </c>
+      <c r="DM39">
+        <v>0</v>
+      </c>
+      <c r="DN39">
+        <v>25</v>
+      </c>
+      <c r="DO39">
+        <v>42</v>
+      </c>
+      <c r="DP39">
+        <v>0</v>
+      </c>
+      <c r="DQ39">
+        <v>0</v>
+      </c>
+      <c r="DR39">
+        <v>0</v>
+      </c>
+      <c r="DS39">
+        <v>20</v>
+      </c>
+      <c r="DT39">
+        <v>34</v>
+      </c>
+      <c r="DU39">
+        <v>0</v>
+      </c>
+      <c r="DV39">
+        <v>0</v>
+      </c>
+      <c r="DW39">
+        <v>0</v>
+      </c>
+      <c r="DX39">
+        <v>33</v>
+      </c>
+      <c r="DY39">
+        <v>31</v>
+      </c>
+      <c r="DZ39">
+        <v>0</v>
+      </c>
+      <c r="EA39">
+        <v>1</v>
+      </c>
+      <c r="EB39">
+        <v>0</v>
+      </c>
+      <c r="EC39">
+        <v>34</v>
+      </c>
+      <c r="ED39">
+        <v>38</v>
+      </c>
+      <c r="EE39">
+        <v>0</v>
+      </c>
+      <c r="EF39">
+        <v>0</v>
+      </c>
+      <c r="EG39">
+        <v>0</v>
+      </c>
+      <c r="EH39">
+        <v>19</v>
+      </c>
+      <c r="EI39">
+        <v>27</v>
+      </c>
+      <c r="EJ39">
+        <v>0</v>
+      </c>
+      <c r="EK39">
+        <v>0</v>
+      </c>
+      <c r="EL39">
+        <v>0</v>
+      </c>
+      <c r="EM39">
+        <v>36</v>
+      </c>
+      <c r="EN39">
+        <v>54</v>
+      </c>
+      <c r="EO39">
+        <v>0</v>
+      </c>
+      <c r="EP39">
+        <v>0</v>
+      </c>
+      <c r="EQ39">
+        <v>0</v>
+      </c>
+      <c r="ER39">
+        <v>0</v>
+      </c>
+      <c r="ES39">
+        <v>0</v>
+      </c>
+      <c r="ET39">
+        <v>0</v>
+      </c>
+      <c r="EU39">
+        <v>0</v>
+      </c>
+      <c r="EV39">
+        <v>0</v>
+      </c>
+      <c r="EW39">
+        <v>232189</v>
+      </c>
+      <c r="EX39">
+        <v>220383</v>
+      </c>
+      <c r="EY39">
+        <v>409</v>
+      </c>
+      <c r="EZ39">
+        <v>15445</v>
+      </c>
+      <c r="FA39">
+        <v>35648</v>
+      </c>
+      <c r="FB39">
+        <v>308268</v>
+      </c>
+      <c r="FC39">
+        <v>292875</v>
+      </c>
+      <c r="FD39">
+        <v>466</v>
+      </c>
+      <c r="FE39">
+        <v>16750</v>
+      </c>
+      <c r="FF39">
+        <v>50033</v>
+      </c>
+      <c r="FG39">
+        <v>353553</v>
+      </c>
+      <c r="FH39">
+        <v>342854</v>
+      </c>
+      <c r="FI39">
+        <v>632</v>
+      </c>
+      <c r="FJ39">
+        <v>16936</v>
+      </c>
+      <c r="FK39">
+        <v>60082</v>
+      </c>
+      <c r="FL39">
+        <v>326652</v>
+      </c>
+      <c r="FM39">
+        <v>374238</v>
+      </c>
+      <c r="FN39">
+        <v>896</v>
+      </c>
+      <c r="FO39">
+        <v>12913</v>
+      </c>
+      <c r="FP39">
+        <v>45819</v>
+      </c>
+      <c r="FQ39">
+        <v>392389</v>
+      </c>
+      <c r="FR39">
+        <v>480214</v>
+      </c>
+      <c r="FS39">
+        <v>1101</v>
+      </c>
+      <c r="FT39">
+        <v>16249</v>
+      </c>
+      <c r="FU39">
+        <v>41412</v>
+      </c>
+      <c r="FV39">
+        <v>434285</v>
+      </c>
+      <c r="FW39">
+        <v>526857</v>
+      </c>
+      <c r="FX39">
+        <v>1138</v>
+      </c>
+      <c r="FY39">
+        <v>17742</v>
+      </c>
+      <c r="FZ39">
+        <v>47504</v>
+      </c>
+      <c r="GA39">
+        <v>429718</v>
+      </c>
+      <c r="GB39">
+        <v>532934</v>
+      </c>
+      <c r="GC39">
+        <v>922</v>
+      </c>
+      <c r="GD39">
+        <v>17125</v>
+      </c>
+      <c r="GE39">
+        <v>54821</v>
+      </c>
+      <c r="GF39">
+        <v>420232</v>
+      </c>
+      <c r="GG39">
+        <v>525462</v>
+      </c>
+      <c r="GH39">
+        <v>666</v>
+      </c>
+      <c r="GI39">
+        <v>14981</v>
+      </c>
+      <c r="GJ39">
+        <v>58827</v>
+      </c>
+      <c r="GK39">
+        <v>374025</v>
+      </c>
+      <c r="GL39">
+        <v>469694</v>
+      </c>
+      <c r="GM39">
+        <v>498</v>
+      </c>
+      <c r="GN39">
+        <v>12332</v>
+      </c>
+      <c r="GO39">
+        <v>53163</v>
+      </c>
+      <c r="GP39">
+        <v>330771</v>
+      </c>
+      <c r="GQ39">
+        <v>421783</v>
+      </c>
+      <c r="GR39">
+        <v>439</v>
+      </c>
+      <c r="GS39">
+        <v>10110</v>
+      </c>
+      <c r="GT39">
+        <v>45318</v>
+      </c>
+      <c r="GU39">
+        <v>308653</v>
+      </c>
+      <c r="GV39">
+        <v>390205</v>
+      </c>
+      <c r="GW39">
+        <v>402</v>
+      </c>
+      <c r="GX39">
+        <v>8930</v>
+      </c>
+      <c r="GY39">
+        <v>40261</v>
+      </c>
+      <c r="GZ39">
+        <v>264053</v>
+      </c>
+      <c r="HA39">
+        <v>320585</v>
+      </c>
+      <c r="HB39">
+        <v>329</v>
+      </c>
+      <c r="HC39">
+        <v>6594</v>
+      </c>
+      <c r="HD39">
+        <v>31746</v>
+      </c>
+      <c r="HE39">
+        <v>234949</v>
+      </c>
+      <c r="HF39">
+        <v>277839</v>
+      </c>
+      <c r="HG39">
+        <v>234</v>
+      </c>
+      <c r="HH39">
+        <v>5310</v>
+      </c>
+      <c r="HI39">
+        <v>25958</v>
+      </c>
+      <c r="HJ39">
+        <v>181345</v>
+      </c>
+      <c r="HK39">
+        <v>204867</v>
+      </c>
+      <c r="HL39">
+        <v>199</v>
+      </c>
+      <c r="HM39">
+        <v>3608</v>
+      </c>
+      <c r="HN39">
+        <v>18522</v>
+      </c>
+      <c r="HO39">
+        <v>152275</v>
+      </c>
+      <c r="HP39">
+        <v>158972</v>
+      </c>
+      <c r="HQ39">
+        <v>163</v>
+      </c>
+      <c r="HR39">
+        <v>2639</v>
+      </c>
+      <c r="HS39">
+        <v>12348</v>
+      </c>
+      <c r="HT39">
+        <v>116615</v>
+      </c>
+      <c r="HU39">
+        <v>115565</v>
+      </c>
+      <c r="HV39">
+        <v>164</v>
+      </c>
+      <c r="HW39">
+        <v>1855</v>
+      </c>
+      <c r="HX39">
+        <v>7812</v>
+      </c>
+      <c r="HY39">
+        <v>76609</v>
+      </c>
+      <c r="HZ39">
+        <v>80395</v>
+      </c>
+      <c r="IA39">
+        <v>131</v>
+      </c>
+      <c r="IB39">
+        <v>1263</v>
+      </c>
+      <c r="IC39">
+        <v>4533</v>
+      </c>
+      <c r="ID39">
+        <v>82064</v>
+      </c>
+      <c r="IE39">
+        <v>123486</v>
+      </c>
+      <c r="IF39">
+        <v>306</v>
+      </c>
+      <c r="IG39">
+        <v>2255</v>
+      </c>
+      <c r="IH39">
+        <v>3842</v>
+      </c>
+      <c r="II39">
+        <v>2154</v>
+      </c>
+      <c r="IJ39">
+        <v>2311</v>
+      </c>
+      <c r="IK39">
+        <v>26</v>
+      </c>
+      <c r="IL39">
+        <v>201</v>
+      </c>
+      <c r="IM39">
         <v>13433</v>
       </c>
     </row>
@@ -30628,7 +31371,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45276</v>
+        <v>45277</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C35F270-F48D-4665-94B7-EEF428C1F6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555CE9E-6888-4022-9114-8DA426EA4987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1725,16 +1725,16 @@
         <v>1678</v>
       </c>
       <c r="AF2">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AG2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AH2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AI2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AJ2">
         <v>640</v>
@@ -1782,16 +1782,16 @@
         <v>1678</v>
       </c>
       <c r="AY2">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="AZ2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="BA2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="BB2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BC2">
         <v>640</v>
@@ -1877,43 +1877,43 @@
         <v>75260</v>
       </c>
       <c r="Y3">
-        <v>70913</v>
+        <v>70912</v>
       </c>
       <c r="Z3">
-        <v>55519</v>
+        <v>55520</v>
       </c>
       <c r="AA3">
-        <v>42727</v>
+        <v>42725</v>
       </c>
       <c r="AB3">
         <v>33829</v>
       </c>
       <c r="AC3">
-        <v>30114</v>
+        <v>30115</v>
       </c>
       <c r="AD3">
-        <v>27882</v>
+        <v>27883</v>
       </c>
       <c r="AE3">
         <v>22323</v>
       </c>
       <c r="AF3">
-        <v>17081</v>
+        <v>17078</v>
       </c>
       <c r="AG3">
-        <v>11939</v>
+        <v>11940</v>
       </c>
       <c r="AH3">
-        <v>8406</v>
+        <v>8403</v>
       </c>
       <c r="AI3">
-        <v>5713</v>
+        <v>5716</v>
       </c>
       <c r="AJ3">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="AK3">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="AL3">
         <v>350</v>
@@ -1934,43 +1934,43 @@
         <v>78228</v>
       </c>
       <c r="AR3">
-        <v>74443</v>
+        <v>74442</v>
       </c>
       <c r="AS3">
-        <v>58382</v>
+        <v>58383</v>
       </c>
       <c r="AT3">
-        <v>44992</v>
+        <v>44990</v>
       </c>
       <c r="AU3">
         <v>35618</v>
       </c>
       <c r="AV3">
-        <v>32079</v>
+        <v>32080</v>
       </c>
       <c r="AW3">
-        <v>29688</v>
+        <v>29689</v>
       </c>
       <c r="AX3">
         <v>24001</v>
       </c>
       <c r="AY3">
-        <v>18540</v>
+        <v>18536</v>
       </c>
       <c r="AZ3">
-        <v>12973</v>
+        <v>12975</v>
       </c>
       <c r="BA3">
-        <v>9318</v>
+        <v>9314</v>
       </c>
       <c r="BB3">
-        <v>6473</v>
+        <v>6477</v>
       </c>
       <c r="BC3">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="BD3">
-        <v>5364</v>
+        <v>5365</v>
       </c>
       <c r="BE3">
         <v>373</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317931</v>
+        <v>10318008</v>
       </c>
       <c r="C4">
         <v>3368105</v>
@@ -1996,19 +1996,19 @@
         <v>1288509</v>
       </c>
       <c r="G4">
-        <v>848372</v>
+        <v>848452</v>
       </c>
       <c r="H4">
         <v>279666</v>
       </c>
       <c r="I4">
-        <v>221783</v>
+        <v>221780</v>
       </c>
       <c r="J4">
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886002</v>
+        <v>10886079</v>
       </c>
       <c r="L4">
         <v>3653389</v>
@@ -2023,130 +2023,130 @@
         <v>1289876</v>
       </c>
       <c r="P4">
-        <v>867533</v>
+        <v>867613</v>
       </c>
       <c r="Q4">
         <v>281543</v>
       </c>
       <c r="R4">
-        <v>228335</v>
+        <v>228332</v>
       </c>
       <c r="S4">
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450524</v>
+        <v>450512</v>
       </c>
       <c r="U4">
-        <v>611245</v>
+        <v>611253</v>
       </c>
       <c r="V4">
-        <v>710195</v>
+        <v>710196</v>
       </c>
       <c r="W4">
-        <v>683343</v>
+        <v>683318</v>
       </c>
       <c r="X4">
-        <v>812049</v>
+        <v>812052</v>
       </c>
       <c r="Y4">
-        <v>899970</v>
+        <v>899959</v>
       </c>
       <c r="Z4">
-        <v>917009</v>
+        <v>917012</v>
       </c>
       <c r="AA4">
-        <v>908893</v>
+        <v>908877</v>
       </c>
       <c r="AB4">
-        <v>810345</v>
+        <v>810354</v>
       </c>
       <c r="AC4">
-        <v>717636</v>
+        <v>717630</v>
       </c>
       <c r="AD4">
-        <v>658721</v>
+        <v>658710</v>
       </c>
       <c r="AE4">
-        <v>544131</v>
+        <v>544122</v>
       </c>
       <c r="AF4">
-        <v>471544</v>
+        <v>471471</v>
       </c>
       <c r="AG4">
-        <v>349047</v>
+        <v>349002</v>
       </c>
       <c r="AH4">
-        <v>274357</v>
+        <v>274342</v>
       </c>
       <c r="AI4">
-        <v>197983</v>
+        <v>198078</v>
       </c>
       <c r="AJ4">
-        <v>128131</v>
+        <v>128215</v>
       </c>
       <c r="AK4">
-        <v>155655</v>
+        <v>155755</v>
       </c>
       <c r="AL4">
-        <v>17153</v>
+        <v>17150</v>
       </c>
       <c r="AM4">
-        <v>473774</v>
+        <v>473762</v>
       </c>
       <c r="AN4">
-        <v>644444</v>
+        <v>644452</v>
       </c>
       <c r="AO4">
-        <v>741709</v>
+        <v>741710</v>
       </c>
       <c r="AP4">
-        <v>728589</v>
+        <v>728564</v>
       </c>
       <c r="AQ4">
-        <v>890277</v>
+        <v>890280</v>
       </c>
       <c r="AR4">
-        <v>974413</v>
+        <v>974401</v>
       </c>
       <c r="AS4">
-        <v>975391</v>
+        <v>975395</v>
       </c>
       <c r="AT4">
-        <v>953885</v>
+        <v>953867</v>
       </c>
       <c r="AU4">
-        <v>845963</v>
+        <v>845972</v>
       </c>
       <c r="AV4">
-        <v>749715</v>
+        <v>749710</v>
       </c>
       <c r="AW4">
-        <v>688409</v>
+        <v>688399</v>
       </c>
       <c r="AX4">
-        <v>568132</v>
+        <v>568123</v>
       </c>
       <c r="AY4">
-        <v>490084</v>
+        <v>490007</v>
       </c>
       <c r="AZ4">
-        <v>362020</v>
+        <v>361977</v>
       </c>
       <c r="BA4">
-        <v>283675</v>
+        <v>283656</v>
       </c>
       <c r="BB4">
-        <v>204456</v>
+        <v>204555</v>
       </c>
       <c r="BC4">
-        <v>132521</v>
+        <v>132606</v>
       </c>
       <c r="BD4">
-        <v>161019</v>
+        <v>161120</v>
       </c>
       <c r="BE4">
-        <v>17526</v>
+        <v>17523</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>839757</v>
+        <v>842008</v>
       </c>
       <c r="C5">
-        <v>302776</v>
+        <v>303645</v>
       </c>
       <c r="D5">
-        <v>155421</v>
+        <v>155993</v>
       </c>
       <c r="E5">
-        <v>135468</v>
+        <v>135934</v>
       </c>
       <c r="F5">
-        <v>93623</v>
+        <v>93624</v>
       </c>
       <c r="G5">
-        <v>90876</v>
+        <v>91246</v>
       </c>
       <c r="H5">
         <v>31972</v>
       </c>
       <c r="I5">
-        <v>23169</v>
+        <v>23108</v>
       </c>
       <c r="J5">
-        <v>6452</v>
+        <v>6486</v>
       </c>
       <c r="K5">
-        <v>11725759</v>
+        <v>11728087</v>
       </c>
       <c r="L5">
-        <v>3956165</v>
+        <v>3957034</v>
       </c>
       <c r="M5">
-        <v>2996903</v>
+        <v>2997475</v>
       </c>
       <c r="N5">
-        <v>1755345</v>
+        <v>1755811</v>
       </c>
       <c r="O5">
-        <v>1383499</v>
+        <v>1383500</v>
       </c>
       <c r="P5">
-        <v>958409</v>
+        <v>958859</v>
       </c>
       <c r="Q5">
         <v>313515</v>
       </c>
       <c r="R5">
-        <v>251504</v>
+        <v>251440</v>
       </c>
       <c r="S5">
-        <v>110419</v>
+        <v>110453</v>
       </c>
       <c r="T5">
-        <v>30300</v>
+        <v>30457</v>
       </c>
       <c r="U5">
-        <v>23948</v>
+        <v>23991</v>
       </c>
       <c r="V5">
-        <v>32348</v>
+        <v>32379</v>
       </c>
       <c r="W5">
-        <v>31929</v>
+        <v>31971</v>
       </c>
       <c r="X5">
-        <v>41088</v>
+        <v>41162</v>
       </c>
       <c r="Y5">
-        <v>53113</v>
+        <v>53211</v>
       </c>
       <c r="Z5">
-        <v>60129</v>
+        <v>60259</v>
       </c>
       <c r="AA5">
-        <v>66283</v>
+        <v>66401</v>
       </c>
       <c r="AB5">
-        <v>63749</v>
+        <v>63864</v>
       </c>
       <c r="AC5">
-        <v>58706</v>
+        <v>58835</v>
       </c>
       <c r="AD5">
-        <v>60042</v>
+        <v>60182</v>
       </c>
       <c r="AE5">
-        <v>55175</v>
+        <v>55295</v>
       </c>
       <c r="AF5">
-        <v>54206</v>
+        <v>54307</v>
       </c>
       <c r="AG5">
-        <v>46521</v>
+        <v>46645</v>
       </c>
       <c r="AH5">
-        <v>42722</v>
+        <v>42832</v>
       </c>
       <c r="AI5">
-        <v>37555</v>
+        <v>37680</v>
       </c>
       <c r="AJ5">
-        <v>30410</v>
+        <v>30542</v>
       </c>
       <c r="AK5">
-        <v>50934</v>
+        <v>51167</v>
       </c>
       <c r="AL5">
-        <v>599</v>
+        <v>828</v>
       </c>
       <c r="AM5">
-        <v>504074</v>
+        <v>504219</v>
       </c>
       <c r="AN5">
-        <v>668392</v>
+        <v>668443</v>
       </c>
       <c r="AO5">
-        <v>774057</v>
+        <v>774089</v>
       </c>
       <c r="AP5">
-        <v>760518</v>
+        <v>760535</v>
       </c>
       <c r="AQ5">
-        <v>931365</v>
+        <v>931442</v>
       </c>
       <c r="AR5">
-        <v>1027526</v>
+        <v>1027612</v>
       </c>
       <c r="AS5">
-        <v>1035520</v>
+        <v>1035654</v>
       </c>
       <c r="AT5">
-        <v>1020168</v>
+        <v>1020268</v>
       </c>
       <c r="AU5">
-        <v>909712</v>
+        <v>909836</v>
       </c>
       <c r="AV5">
-        <v>808421</v>
+        <v>808545</v>
       </c>
       <c r="AW5">
-        <v>748451</v>
+        <v>748581</v>
       </c>
       <c r="AX5">
-        <v>623307</v>
+        <v>623418</v>
       </c>
       <c r="AY5">
-        <v>544290</v>
+        <v>544314</v>
       </c>
       <c r="AZ5">
-        <v>408541</v>
+        <v>408622</v>
       </c>
       <c r="BA5">
-        <v>326397</v>
+        <v>326488</v>
       </c>
       <c r="BB5">
-        <v>242011</v>
+        <v>242235</v>
       </c>
       <c r="BC5">
-        <v>162931</v>
+        <v>163148</v>
       </c>
       <c r="BD5">
-        <v>211953</v>
+        <v>212287</v>
       </c>
       <c r="BE5">
-        <v>18125</v>
+        <v>18351</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809646</v>
+        <v>1809673</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3834,19 +3834,19 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90101</v>
+        <v>90129</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
       </c>
       <c r="I26" s="3">
-        <v>30423</v>
+        <v>30422</v>
       </c>
       <c r="J26" s="3">
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377717</v>
+        <v>2377744</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,13 +3861,13 @@
         <v>2217</v>
       </c>
       <c r="P26" s="3">
-        <v>109262</v>
+        <v>109290</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
       </c>
       <c r="R26" s="3">
-        <v>36975</v>
+        <v>36974</v>
       </c>
       <c r="S26" s="3">
         <v>16364</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687547</v>
+        <v>687555</v>
       </c>
       <c r="C27" s="3">
         <v>230227</v>
@@ -3893,7 +3893,7 @@
         <v>11818</v>
       </c>
       <c r="G27" s="3">
-        <v>44425</v>
+        <v>44433</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065264</v>
+        <v>3065299</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,13 +3920,13 @@
         <v>14035</v>
       </c>
       <c r="P27" s="3">
-        <v>153687</v>
+        <v>153723</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
       </c>
       <c r="R27" s="3">
-        <v>51580</v>
+        <v>51579</v>
       </c>
       <c r="S27" s="3">
         <v>39839</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366784</v>
+        <v>1366787</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3952,19 +3952,19 @@
         <v>179288</v>
       </c>
       <c r="G28" s="3">
-        <v>120501</v>
+        <v>120505</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
       </c>
       <c r="I28" s="3">
-        <v>27534</v>
+        <v>27533</v>
       </c>
       <c r="J28" s="3">
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432048</v>
+        <v>4432086</v>
       </c>
       <c r="L28" s="3">
         <v>1689283</v>
@@ -3979,13 +3979,13 @@
         <v>193323</v>
       </c>
       <c r="P28" s="3">
-        <v>274188</v>
+        <v>274228</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
       </c>
       <c r="R28" s="3">
-        <v>79114</v>
+        <v>79112</v>
       </c>
       <c r="S28" s="3">
         <v>49956</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339899</v>
+        <v>1339927</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206843</v>
       </c>
       <c r="G29" s="3">
-        <v>139841</v>
+        <v>139869</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5771947</v>
+        <v>5772013</v>
       </c>
       <c r="L29" s="3">
         <v>2121663</v>
@@ -4038,13 +4038,13 @@
         <v>400166</v>
       </c>
       <c r="P29" s="3">
-        <v>414029</v>
+        <v>414097</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
       </c>
       <c r="R29" s="3">
-        <v>106422</v>
+        <v>106420</v>
       </c>
       <c r="S29" s="3">
         <v>63427</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310371</v>
+        <v>1310377</v>
       </c>
       <c r="C30" s="3">
         <v>297267</v>
@@ -4070,7 +4070,7 @@
         <v>354089</v>
       </c>
       <c r="G30" s="3">
-        <v>108140</v>
+        <v>108146</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082318</v>
+        <v>7082390</v>
       </c>
       <c r="L30" s="3">
         <v>2418930</v>
@@ -4097,13 +4097,13 @@
         <v>754255</v>
       </c>
       <c r="P30" s="3">
-        <v>522169</v>
+        <v>522243</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
       </c>
       <c r="R30" s="3">
-        <v>134129</v>
+        <v>134127</v>
       </c>
       <c r="S30" s="3">
         <v>72083</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884304</v>
+        <v>884310</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182639</v>
       </c>
       <c r="G31" s="3">
-        <v>77325</v>
+        <v>77331</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966622</v>
+        <v>7966700</v>
       </c>
       <c r="L31" s="3">
         <v>2652831</v>
@@ -4156,13 +4156,13 @@
         <v>936894</v>
       </c>
       <c r="P31" s="3">
-        <v>599494</v>
+        <v>599574</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
       </c>
       <c r="R31" s="3">
-        <v>161034</v>
+        <v>161032</v>
       </c>
       <c r="S31" s="3">
         <v>78800</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9216974</v>
+        <v>9217052</v>
       </c>
       <c r="L32" s="3">
         <v>3031436</v>
@@ -4215,13 +4215,13 @@
         <v>1095160</v>
       </c>
       <c r="P32" s="3">
-        <v>716895</v>
+        <v>716975</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
       </c>
       <c r="R32" s="3">
-        <v>192684</v>
+        <v>192682</v>
       </c>
       <c r="S32" s="3">
         <v>91379</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771833</v>
+        <v>9771911</v>
       </c>
       <c r="L33" s="3">
         <v>3261485</v>
@@ -4274,13 +4274,13 @@
         <v>1154231</v>
       </c>
       <c r="P33" s="3">
-        <v>757406</v>
+        <v>757486</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
       </c>
       <c r="R33" s="3">
-        <v>203230</v>
+        <v>203228</v>
       </c>
       <c r="S33" s="3">
         <v>96366</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966087</v>
+        <v>9966165</v>
       </c>
       <c r="L34" s="3">
         <v>3330337</v>
@@ -4333,13 +4333,13 @@
         <v>1178503</v>
       </c>
       <c r="P34" s="3">
-        <v>772690</v>
+        <v>772770</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
       </c>
       <c r="R34" s="3">
-        <v>206496</v>
+        <v>206494</v>
       </c>
       <c r="S34" s="3">
         <v>98128</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108191</v>
+        <v>10108269</v>
       </c>
       <c r="L35" s="3">
         <v>3374836</v>
@@ -4392,13 +4392,13 @@
         <v>1201929</v>
       </c>
       <c r="P35" s="3">
-        <v>785865</v>
+        <v>785945</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
       </c>
       <c r="R35" s="3">
-        <v>209532</v>
+        <v>209530</v>
       </c>
       <c r="S35" s="3">
         <v>99311</v>
@@ -4409,7 +4409,7 @@
         <v>44866</v>
       </c>
       <c r="B36" s="3">
-        <v>351943</v>
+        <v>351942</v>
       </c>
       <c r="C36" s="3">
         <v>122092</v>
@@ -4430,13 +4430,13 @@
         <v>11681</v>
       </c>
       <c r="I36" s="3">
-        <v>7226</v>
+        <v>7225</v>
       </c>
       <c r="J36" s="3">
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460134</v>
+        <v>10460211</v>
       </c>
       <c r="L36" s="3">
         <v>3496928</v>
@@ -4451,13 +4451,13 @@
         <v>1244563</v>
       </c>
       <c r="P36" s="3">
-        <v>823028</v>
+        <v>823108</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
       </c>
       <c r="R36" s="3">
-        <v>216758</v>
+        <v>216755</v>
       </c>
       <c r="S36" s="3">
         <v>101115</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886002</v>
+        <v>10886079</v>
       </c>
       <c r="L37" s="3">
         <v>3653389</v>
@@ -4510,13 +4510,13 @@
         <v>1289876</v>
       </c>
       <c r="P37" s="3">
-        <v>867533</v>
+        <v>867613</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
       </c>
       <c r="R37" s="3">
-        <v>228335</v>
+        <v>228332</v>
       </c>
       <c r="S37" s="3">
         <v>103967</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016085</v>
+        <v>11016162</v>
       </c>
       <c r="L38" s="3">
         <v>3699333</v>
@@ -4569,13 +4569,13 @@
         <v>1306732</v>
       </c>
       <c r="P38" s="3">
-        <v>879423</v>
+        <v>879503</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
       </c>
       <c r="R38" s="3">
-        <v>231588</v>
+        <v>231585</v>
       </c>
       <c r="S38" s="3">
         <v>105252</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088071</v>
+        <v>11088148</v>
       </c>
       <c r="L39" s="3">
         <v>3724576</v>
@@ -4628,13 +4628,13 @@
         <v>1315604</v>
       </c>
       <c r="P39" s="3">
-        <v>886276</v>
+        <v>886356</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
       </c>
       <c r="R39" s="3">
-        <v>233526</v>
+        <v>233523</v>
       </c>
       <c r="S39" s="3">
         <v>105712</v>
@@ -4645,7 +4645,7 @@
         <v>44986</v>
       </c>
       <c r="B40" s="3">
-        <v>103977</v>
+        <v>103960</v>
       </c>
       <c r="C40" s="3">
         <v>38642</v>
@@ -4666,13 +4666,13 @@
         <v>3302</v>
       </c>
       <c r="I40" s="3">
-        <v>2211</v>
+        <v>2194</v>
       </c>
       <c r="J40" s="3">
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192048</v>
+        <v>11192108</v>
       </c>
       <c r="L40" s="3">
         <v>3763218</v>
@@ -4687,13 +4687,13 @@
         <v>1328566</v>
       </c>
       <c r="P40" s="3">
-        <v>897776</v>
+        <v>897856</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
       </c>
       <c r="R40" s="3">
-        <v>235737</v>
+        <v>235717</v>
       </c>
       <c r="S40" s="3">
         <v>106380</v>
@@ -4704,7 +4704,7 @@
         <v>45017</v>
       </c>
       <c r="B41" s="3">
-        <v>123165</v>
+        <v>123117</v>
       </c>
       <c r="C41" s="3">
         <v>47529</v>
@@ -4725,13 +4725,13 @@
         <v>3780</v>
       </c>
       <c r="I41" s="3">
-        <v>2596</v>
+        <v>2548</v>
       </c>
       <c r="J41" s="3">
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315213</v>
+        <v>11315225</v>
       </c>
       <c r="L41" s="3">
         <v>3810747</v>
@@ -4746,13 +4746,13 @@
         <v>1342953</v>
       </c>
       <c r="P41" s="3">
-        <v>910105</v>
+        <v>910185</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
       </c>
       <c r="R41" s="3">
-        <v>238333</v>
+        <v>238265</v>
       </c>
       <c r="S41" s="3">
         <v>107207</v>
@@ -4763,7 +4763,7 @@
         <v>45047</v>
       </c>
       <c r="B42" s="3">
-        <v>166251</v>
+        <v>166195</v>
       </c>
       <c r="C42" s="3">
         <v>62094</v>
@@ -4784,13 +4784,13 @@
         <v>5203</v>
       </c>
       <c r="I42" s="3">
-        <v>4334</v>
+        <v>4278</v>
       </c>
       <c r="J42" s="3">
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481464</v>
+        <v>11481420</v>
       </c>
       <c r="L42" s="3">
         <v>3872841</v>
@@ -4805,13 +4805,13 @@
         <v>1361041</v>
       </c>
       <c r="P42" s="3">
-        <v>925018</v>
+        <v>925098</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
       </c>
       <c r="R42" s="3">
-        <v>242667</v>
+        <v>242543</v>
       </c>
       <c r="S42" s="3">
         <v>108140</v>
@@ -4822,7 +4822,7 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77802</v>
+        <v>77771</v>
       </c>
       <c r="C43" s="3">
         <v>28184</v>
@@ -4843,13 +4843,13 @@
         <v>2584</v>
       </c>
       <c r="I43" s="3">
-        <v>1990</v>
+        <v>1959</v>
       </c>
       <c r="J43" s="3">
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559266</v>
+        <v>11559191</v>
       </c>
       <c r="L43" s="3">
         <v>3901025</v>
@@ -4864,13 +4864,13 @@
         <v>1369459</v>
       </c>
       <c r="P43" s="3">
-        <v>932232</v>
+        <v>932312</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
       </c>
       <c r="R43" s="3">
-        <v>244657</v>
+        <v>244502</v>
       </c>
       <c r="S43" s="3">
         <v>108535</v>
@@ -4881,7 +4881,7 @@
         <v>45108</v>
       </c>
       <c r="B44" s="3">
-        <v>28212</v>
+        <v>28188</v>
       </c>
       <c r="C44" s="3">
         <v>10297</v>
@@ -4902,13 +4902,13 @@
         <v>1272</v>
       </c>
       <c r="I44" s="3">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="J44" s="3">
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587478</v>
+        <v>11587379</v>
       </c>
       <c r="L44" s="3">
         <v>3911322</v>
@@ -4923,13 +4923,13 @@
         <v>1373111</v>
       </c>
       <c r="P44" s="3">
-        <v>935161</v>
+        <v>935241</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
       </c>
       <c r="R44" s="3">
-        <v>245511</v>
+        <v>245332</v>
       </c>
       <c r="S44" s="3">
         <v>108739</v>
@@ -4940,7 +4940,7 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23436</v>
+        <v>23424</v>
       </c>
       <c r="C45" s="3">
         <v>9151</v>
@@ -4961,13 +4961,13 @@
         <v>1165</v>
       </c>
       <c r="I45" s="3">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="J45" s="3">
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610914</v>
+        <v>11610803</v>
       </c>
       <c r="L45" s="3">
         <v>3920473</v>
@@ -4982,13 +4982,13 @@
         <v>1376109</v>
       </c>
       <c r="P45" s="3">
-        <v>937610</v>
+        <v>937690</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
       </c>
       <c r="R45" s="3">
-        <v>246315</v>
+        <v>246124</v>
       </c>
       <c r="S45" s="3">
         <v>108955</v>
@@ -4999,7 +4999,7 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22126</v>
+        <v>22110</v>
       </c>
       <c r="C46" s="3">
         <v>8984</v>
@@ -5020,13 +5020,13 @@
         <v>1203</v>
       </c>
       <c r="I46" s="3">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="J46" s="3">
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633040</v>
+        <v>11632913</v>
       </c>
       <c r="L46" s="3">
         <v>3929457</v>
@@ -5041,13 +5041,13 @@
         <v>1378667</v>
       </c>
       <c r="P46" s="3">
-        <v>940643</v>
+        <v>940723</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
       </c>
       <c r="R46" s="3">
-        <v>247057</v>
+        <v>246850</v>
       </c>
       <c r="S46" s="3">
         <v>109299</v>
@@ -5058,7 +5058,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27921</v>
+        <v>27895</v>
       </c>
       <c r="C47" s="3">
         <v>7731</v>
@@ -5079,13 +5079,13 @@
         <v>1901</v>
       </c>
       <c r="I47" s="3">
-        <v>1491</v>
+        <v>1465</v>
       </c>
       <c r="J47" s="3">
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660961</v>
+        <v>11660808</v>
       </c>
       <c r="L47" s="3">
         <v>3937188</v>
@@ -5100,13 +5100,13 @@
         <v>1380665</v>
       </c>
       <c r="P47" s="3">
-        <v>945720</v>
+        <v>945800</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
       </c>
       <c r="R47" s="3">
-        <v>248548</v>
+        <v>248315</v>
       </c>
       <c r="S47" s="3">
         <v>109715</v>
@@ -5117,19 +5117,19 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43986</v>
+        <v>43970</v>
       </c>
       <c r="C48" s="3">
         <v>12286</v>
       </c>
       <c r="D48" s="3">
-        <v>6091</v>
+        <v>6093</v>
       </c>
       <c r="E48" s="3">
-        <v>7204</v>
+        <v>7206</v>
       </c>
       <c r="F48" s="3">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="G48" s="3">
         <v>9334</v>
@@ -5138,37 +5138,37 @@
         <v>4152</v>
       </c>
       <c r="I48" s="3">
-        <v>2182</v>
+        <v>2159</v>
       </c>
       <c r="J48" s="3">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11704947</v>
+        <v>11704778</v>
       </c>
       <c r="L48" s="3">
         <v>3949474</v>
       </c>
       <c r="M48" s="3">
-        <v>2994269</v>
+        <v>2994271</v>
       </c>
       <c r="N48" s="3">
-        <v>1750630</v>
+        <v>1750632</v>
       </c>
       <c r="O48" s="3">
-        <v>1382856</v>
+        <v>1382857</v>
       </c>
       <c r="P48" s="3">
-        <v>955054</v>
+        <v>955134</v>
       </c>
       <c r="Q48" s="3">
         <v>311673</v>
       </c>
       <c r="R48" s="3">
-        <v>250730</v>
+        <v>250474</v>
       </c>
       <c r="S48" s="3">
-        <v>110261</v>
+        <v>110263</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>20812</v>
+        <v>23309</v>
       </c>
       <c r="C49">
-        <v>6691</v>
+        <v>7560</v>
       </c>
       <c r="D49">
-        <v>2634</v>
+        <v>3204</v>
       </c>
       <c r="E49">
-        <v>4715</v>
+        <v>5179</v>
       </c>
       <c r="F49">
         <v>643</v>
       </c>
       <c r="G49">
-        <v>3355</v>
+        <v>3725</v>
       </c>
       <c r="H49">
         <v>1842</v>
       </c>
       <c r="I49">
-        <v>774</v>
+        <v>966</v>
       </c>
       <c r="J49">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="K49">
-        <v>11725759</v>
+        <v>11728087</v>
       </c>
       <c r="L49">
-        <v>3956165</v>
+        <v>3957034</v>
       </c>
       <c r="M49">
-        <v>2996903</v>
+        <v>2997475</v>
       </c>
       <c r="N49">
-        <v>1755345</v>
+        <v>1755811</v>
       </c>
       <c r="O49">
-        <v>1383499</v>
+        <v>1383500</v>
       </c>
       <c r="P49">
-        <v>958409</v>
+        <v>958859</v>
       </c>
       <c r="Q49">
         <v>313515</v>
       </c>
       <c r="R49">
-        <v>251504</v>
+        <v>251440</v>
       </c>
       <c r="S49">
-        <v>110419</v>
+        <v>110453</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM39"/>
+  <dimension ref="A1:IM41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31345,6 +31345,1492 @@
       </c>
       <c r="IM39">
         <v>13433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B40">
+        <v>865</v>
+      </c>
+      <c r="C40">
+        <v>241</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>234</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>229</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>161</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>11726624</v>
+      </c>
+      <c r="L40">
+        <v>3956406</v>
+      </c>
+      <c r="M40">
+        <v>2996903</v>
+      </c>
+      <c r="N40">
+        <v>1755579</v>
+      </c>
+      <c r="O40">
+        <v>1383499</v>
+      </c>
+      <c r="P40">
+        <v>958638</v>
+      </c>
+      <c r="Q40">
+        <v>313515</v>
+      </c>
+      <c r="R40">
+        <v>251665</v>
+      </c>
+      <c r="S40">
+        <v>110419</v>
+      </c>
+      <c r="T40">
+        <v>55</v>
+      </c>
+      <c r="U40">
+        <v>28</v>
+      </c>
+      <c r="V40">
+        <v>16</v>
+      </c>
+      <c r="W40">
+        <v>-16</v>
+      </c>
+      <c r="X40">
+        <v>33</v>
+      </c>
+      <c r="Y40">
+        <v>25</v>
+      </c>
+      <c r="Z40">
+        <v>66</v>
+      </c>
+      <c r="AA40">
+        <v>21</v>
+      </c>
+      <c r="AB40">
+        <v>50</v>
+      </c>
+      <c r="AC40">
+        <v>57</v>
+      </c>
+      <c r="AD40">
+        <v>42</v>
+      </c>
+      <c r="AE40">
+        <v>35</v>
+      </c>
+      <c r="AF40">
+        <v>-30</v>
+      </c>
+      <c r="AG40">
+        <v>-9</v>
+      </c>
+      <c r="AH40">
+        <v>30</v>
+      </c>
+      <c r="AI40">
+        <v>159</v>
+      </c>
+      <c r="AJ40">
+        <v>123</v>
+      </c>
+      <c r="AK40">
+        <v>184</v>
+      </c>
+      <c r="AL40">
+        <v>-4</v>
+      </c>
+      <c r="AM40">
+        <v>504129</v>
+      </c>
+      <c r="AN40">
+        <v>668420</v>
+      </c>
+      <c r="AO40">
+        <v>774073</v>
+      </c>
+      <c r="AP40">
+        <v>760502</v>
+      </c>
+      <c r="AQ40">
+        <v>931398</v>
+      </c>
+      <c r="AR40">
+        <v>1027551</v>
+      </c>
+      <c r="AS40">
+        <v>1035586</v>
+      </c>
+      <c r="AT40">
+        <v>1020189</v>
+      </c>
+      <c r="AU40">
+        <v>909762</v>
+      </c>
+      <c r="AV40">
+        <v>808478</v>
+      </c>
+      <c r="AW40">
+        <v>748493</v>
+      </c>
+      <c r="AX40">
+        <v>623342</v>
+      </c>
+      <c r="AY40">
+        <v>544260</v>
+      </c>
+      <c r="AZ40">
+        <v>408532</v>
+      </c>
+      <c r="BA40">
+        <v>326427</v>
+      </c>
+      <c r="BB40">
+        <v>242170</v>
+      </c>
+      <c r="BC40">
+        <v>163054</v>
+      </c>
+      <c r="BD40">
+        <v>212137</v>
+      </c>
+      <c r="BE40">
+        <v>18121</v>
+      </c>
+      <c r="BF40">
+        <v>28</v>
+      </c>
+      <c r="BG40">
+        <v>27</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>14</v>
+      </c>
+      <c r="BL40">
+        <v>14</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>9</v>
+      </c>
+      <c r="BQ40">
+        <v>7</v>
+      </c>
+      <c r="BR40">
+        <v>0</v>
+      </c>
+      <c r="BS40">
+        <v>0</v>
+      </c>
+      <c r="BT40">
+        <v>0</v>
+      </c>
+      <c r="BU40">
+        <v>0</v>
+      </c>
+      <c r="BV40">
+        <v>-16</v>
+      </c>
+      <c r="BW40">
+        <v>0</v>
+      </c>
+      <c r="BX40">
+        <v>0</v>
+      </c>
+      <c r="BY40">
+        <v>0</v>
+      </c>
+      <c r="BZ40">
+        <v>4</v>
+      </c>
+      <c r="CA40">
+        <v>29</v>
+      </c>
+      <c r="CB40">
+        <v>0</v>
+      </c>
+      <c r="CC40">
+        <v>0</v>
+      </c>
+      <c r="CD40">
+        <v>0</v>
+      </c>
+      <c r="CE40">
+        <v>15</v>
+      </c>
+      <c r="CF40">
+        <v>10</v>
+      </c>
+      <c r="CG40">
+        <v>0</v>
+      </c>
+      <c r="CH40">
+        <v>0</v>
+      </c>
+      <c r="CI40">
+        <v>0</v>
+      </c>
+      <c r="CJ40">
+        <v>23</v>
+      </c>
+      <c r="CK40">
+        <v>43</v>
+      </c>
+      <c r="CL40">
+        <v>0</v>
+      </c>
+      <c r="CM40">
+        <v>0</v>
+      </c>
+      <c r="CN40">
+        <v>0</v>
+      </c>
+      <c r="CO40">
+        <v>12</v>
+      </c>
+      <c r="CP40">
+        <v>10</v>
+      </c>
+      <c r="CQ40">
+        <v>0</v>
+      </c>
+      <c r="CR40">
+        <v>0</v>
+      </c>
+      <c r="CS40">
+        <v>-1</v>
+      </c>
+      <c r="CT40">
+        <v>18</v>
+      </c>
+      <c r="CU40">
+        <v>32</v>
+      </c>
+      <c r="CV40">
+        <v>0</v>
+      </c>
+      <c r="CW40">
+        <v>0</v>
+      </c>
+      <c r="CX40">
+        <v>0</v>
+      </c>
+      <c r="CY40">
+        <v>9</v>
+      </c>
+      <c r="CZ40">
+        <v>49</v>
+      </c>
+      <c r="DA40">
+        <v>0</v>
+      </c>
+      <c r="DB40">
+        <v>-1</v>
+      </c>
+      <c r="DC40">
+        <v>0</v>
+      </c>
+      <c r="DD40">
+        <v>16</v>
+      </c>
+      <c r="DE40">
+        <v>26</v>
+      </c>
+      <c r="DF40">
+        <v>0</v>
+      </c>
+      <c r="DG40">
+        <v>0</v>
+      </c>
+      <c r="DH40">
+        <v>0</v>
+      </c>
+      <c r="DI40">
+        <v>15</v>
+      </c>
+      <c r="DJ40">
+        <v>20</v>
+      </c>
+      <c r="DK40">
+        <v>0</v>
+      </c>
+      <c r="DL40">
+        <v>0</v>
+      </c>
+      <c r="DM40">
+        <v>0</v>
+      </c>
+      <c r="DN40">
+        <v>-3</v>
+      </c>
+      <c r="DO40">
+        <v>-26</v>
+      </c>
+      <c r="DP40">
+        <v>0</v>
+      </c>
+      <c r="DQ40">
+        <v>0</v>
+      </c>
+      <c r="DR40">
+        <v>-1</v>
+      </c>
+      <c r="DS40">
+        <v>-22</v>
+      </c>
+      <c r="DT40">
+        <v>14</v>
+      </c>
+      <c r="DU40">
+        <v>0</v>
+      </c>
+      <c r="DV40">
+        <v>1</v>
+      </c>
+      <c r="DW40">
+        <v>-2</v>
+      </c>
+      <c r="DX40">
+        <v>5</v>
+      </c>
+      <c r="DY40">
+        <v>25</v>
+      </c>
+      <c r="DZ40">
+        <v>0</v>
+      </c>
+      <c r="EA40">
+        <v>1</v>
+      </c>
+      <c r="EB40">
+        <v>-1</v>
+      </c>
+      <c r="EC40">
+        <v>93</v>
+      </c>
+      <c r="ED40">
+        <v>65</v>
+      </c>
+      <c r="EE40">
+        <v>0</v>
+      </c>
+      <c r="EF40">
+        <v>1</v>
+      </c>
+      <c r="EG40">
+        <v>0</v>
+      </c>
+      <c r="EH40">
+        <v>62</v>
+      </c>
+      <c r="EI40">
+        <v>63</v>
+      </c>
+      <c r="EJ40">
+        <v>0</v>
+      </c>
+      <c r="EK40">
+        <v>0</v>
+      </c>
+      <c r="EL40">
+        <v>-2</v>
+      </c>
+      <c r="EM40">
+        <v>82</v>
+      </c>
+      <c r="EN40">
+        <v>104</v>
+      </c>
+      <c r="EO40">
+        <v>0</v>
+      </c>
+      <c r="EP40">
+        <v>0</v>
+      </c>
+      <c r="EQ40">
+        <v>-2</v>
+      </c>
+      <c r="ER40">
+        <v>0</v>
+      </c>
+      <c r="ES40">
+        <v>-1</v>
+      </c>
+      <c r="ET40">
+        <v>0</v>
+      </c>
+      <c r="EU40">
+        <v>0</v>
+      </c>
+      <c r="EV40">
+        <v>-3</v>
+      </c>
+      <c r="EW40">
+        <v>232217</v>
+      </c>
+      <c r="EX40">
+        <v>220410</v>
+      </c>
+      <c r="EY40">
+        <v>409</v>
+      </c>
+      <c r="EZ40">
+        <v>15445</v>
+      </c>
+      <c r="FA40">
+        <v>35648</v>
+      </c>
+      <c r="FB40">
+        <v>308282</v>
+      </c>
+      <c r="FC40">
+        <v>292889</v>
+      </c>
+      <c r="FD40">
+        <v>466</v>
+      </c>
+      <c r="FE40">
+        <v>16750</v>
+      </c>
+      <c r="FF40">
+        <v>50033</v>
+      </c>
+      <c r="FG40">
+        <v>353562</v>
+      </c>
+      <c r="FH40">
+        <v>342861</v>
+      </c>
+      <c r="FI40">
+        <v>632</v>
+      </c>
+      <c r="FJ40">
+        <v>16936</v>
+      </c>
+      <c r="FK40">
+        <v>60082</v>
+      </c>
+      <c r="FL40">
+        <v>326652</v>
+      </c>
+      <c r="FM40">
+        <v>374222</v>
+      </c>
+      <c r="FN40">
+        <v>896</v>
+      </c>
+      <c r="FO40">
+        <v>12913</v>
+      </c>
+      <c r="FP40">
+        <v>45819</v>
+      </c>
+      <c r="FQ40">
+        <v>392393</v>
+      </c>
+      <c r="FR40">
+        <v>480243</v>
+      </c>
+      <c r="FS40">
+        <v>1101</v>
+      </c>
+      <c r="FT40">
+        <v>16249</v>
+      </c>
+      <c r="FU40">
+        <v>41412</v>
+      </c>
+      <c r="FV40">
+        <v>434300</v>
+      </c>
+      <c r="FW40">
+        <v>526867</v>
+      </c>
+      <c r="FX40">
+        <v>1138</v>
+      </c>
+      <c r="FY40">
+        <v>17742</v>
+      </c>
+      <c r="FZ40">
+        <v>47504</v>
+      </c>
+      <c r="GA40">
+        <v>429741</v>
+      </c>
+      <c r="GB40">
+        <v>532977</v>
+      </c>
+      <c r="GC40">
+        <v>922</v>
+      </c>
+      <c r="GD40">
+        <v>17125</v>
+      </c>
+      <c r="GE40">
+        <v>54821</v>
+      </c>
+      <c r="GF40">
+        <v>420244</v>
+      </c>
+      <c r="GG40">
+        <v>525472</v>
+      </c>
+      <c r="GH40">
+        <v>666</v>
+      </c>
+      <c r="GI40">
+        <v>14981</v>
+      </c>
+      <c r="GJ40">
+        <v>58826</v>
+      </c>
+      <c r="GK40">
+        <v>374043</v>
+      </c>
+      <c r="GL40">
+        <v>469726</v>
+      </c>
+      <c r="GM40">
+        <v>498</v>
+      </c>
+      <c r="GN40">
+        <v>12332</v>
+      </c>
+      <c r="GO40">
+        <v>53163</v>
+      </c>
+      <c r="GP40">
+        <v>330780</v>
+      </c>
+      <c r="GQ40">
+        <v>421832</v>
+      </c>
+      <c r="GR40">
+        <v>439</v>
+      </c>
+      <c r="GS40">
+        <v>10109</v>
+      </c>
+      <c r="GT40">
+        <v>45318</v>
+      </c>
+      <c r="GU40">
+        <v>308669</v>
+      </c>
+      <c r="GV40">
+        <v>390231</v>
+      </c>
+      <c r="GW40">
+        <v>402</v>
+      </c>
+      <c r="GX40">
+        <v>8930</v>
+      </c>
+      <c r="GY40">
+        <v>40261</v>
+      </c>
+      <c r="GZ40">
+        <v>264068</v>
+      </c>
+      <c r="HA40">
+        <v>320605</v>
+      </c>
+      <c r="HB40">
+        <v>329</v>
+      </c>
+      <c r="HC40">
+        <v>6594</v>
+      </c>
+      <c r="HD40">
+        <v>31746</v>
+      </c>
+      <c r="HE40">
+        <v>234946</v>
+      </c>
+      <c r="HF40">
+        <v>277813</v>
+      </c>
+      <c r="HG40">
+        <v>234</v>
+      </c>
+      <c r="HH40">
+        <v>5310</v>
+      </c>
+      <c r="HI40">
+        <v>25957</v>
+      </c>
+      <c r="HJ40">
+        <v>181323</v>
+      </c>
+      <c r="HK40">
+        <v>204881</v>
+      </c>
+      <c r="HL40">
+        <v>199</v>
+      </c>
+      <c r="HM40">
+        <v>3609</v>
+      </c>
+      <c r="HN40">
+        <v>18520</v>
+      </c>
+      <c r="HO40">
+        <v>152280</v>
+      </c>
+      <c r="HP40">
+        <v>158997</v>
+      </c>
+      <c r="HQ40">
+        <v>163</v>
+      </c>
+      <c r="HR40">
+        <v>2640</v>
+      </c>
+      <c r="HS40">
+        <v>12347</v>
+      </c>
+      <c r="HT40">
+        <v>116708</v>
+      </c>
+      <c r="HU40">
+        <v>115630</v>
+      </c>
+      <c r="HV40">
+        <v>164</v>
+      </c>
+      <c r="HW40">
+        <v>1856</v>
+      </c>
+      <c r="HX40">
+        <v>7812</v>
+      </c>
+      <c r="HY40">
+        <v>76671</v>
+      </c>
+      <c r="HZ40">
+        <v>80458</v>
+      </c>
+      <c r="IA40">
+        <v>131</v>
+      </c>
+      <c r="IB40">
+        <v>1263</v>
+      </c>
+      <c r="IC40">
+        <v>4531</v>
+      </c>
+      <c r="ID40">
+        <v>82146</v>
+      </c>
+      <c r="IE40">
+        <v>123590</v>
+      </c>
+      <c r="IF40">
+        <v>306</v>
+      </c>
+      <c r="IG40">
+        <v>2255</v>
+      </c>
+      <c r="IH40">
+        <v>3840</v>
+      </c>
+      <c r="II40">
+        <v>2154</v>
+      </c>
+      <c r="IJ40">
+        <v>2310</v>
+      </c>
+      <c r="IK40">
+        <v>26</v>
+      </c>
+      <c r="IL40">
+        <v>201</v>
+      </c>
+      <c r="IM40">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B41">
+        <v>1463</v>
+      </c>
+      <c r="C41">
+        <v>628</v>
+      </c>
+      <c r="D41">
+        <v>572</v>
+      </c>
+      <c r="E41">
+        <v>232</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>221</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>-225</v>
+      </c>
+      <c r="J41">
+        <v>34</v>
+      </c>
+      <c r="K41">
+        <v>11728087</v>
+      </c>
+      <c r="L41">
+        <v>3957034</v>
+      </c>
+      <c r="M41">
+        <v>2997475</v>
+      </c>
+      <c r="N41">
+        <v>1755811</v>
+      </c>
+      <c r="O41">
+        <v>1383500</v>
+      </c>
+      <c r="P41">
+        <v>958859</v>
+      </c>
+      <c r="Q41">
+        <v>313515</v>
+      </c>
+      <c r="R41">
+        <v>251440</v>
+      </c>
+      <c r="S41">
+        <v>110453</v>
+      </c>
+      <c r="T41">
+        <v>90</v>
+      </c>
+      <c r="U41">
+        <v>23</v>
+      </c>
+      <c r="V41">
+        <v>16</v>
+      </c>
+      <c r="W41">
+        <v>33</v>
+      </c>
+      <c r="X41">
+        <v>44</v>
+      </c>
+      <c r="Y41">
+        <v>61</v>
+      </c>
+      <c r="Z41">
+        <v>68</v>
+      </c>
+      <c r="AA41">
+        <v>79</v>
+      </c>
+      <c r="AB41">
+        <v>74</v>
+      </c>
+      <c r="AC41">
+        <v>67</v>
+      </c>
+      <c r="AD41">
+        <v>88</v>
+      </c>
+      <c r="AE41">
+        <v>76</v>
+      </c>
+      <c r="AF41">
+        <v>54</v>
+      </c>
+      <c r="AG41">
+        <v>90</v>
+      </c>
+      <c r="AH41">
+        <v>61</v>
+      </c>
+      <c r="AI41">
+        <v>65</v>
+      </c>
+      <c r="AJ41">
+        <v>94</v>
+      </c>
+      <c r="AK41">
+        <v>150</v>
+      </c>
+      <c r="AL41">
+        <v>230</v>
+      </c>
+      <c r="AM41">
+        <v>504219</v>
+      </c>
+      <c r="AN41">
+        <v>668443</v>
+      </c>
+      <c r="AO41">
+        <v>774089</v>
+      </c>
+      <c r="AP41">
+        <v>760535</v>
+      </c>
+      <c r="AQ41">
+        <v>931442</v>
+      </c>
+      <c r="AR41">
+        <v>1027612</v>
+      </c>
+      <c r="AS41">
+        <v>1035654</v>
+      </c>
+      <c r="AT41">
+        <v>1020268</v>
+      </c>
+      <c r="AU41">
+        <v>909836</v>
+      </c>
+      <c r="AV41">
+        <v>808545</v>
+      </c>
+      <c r="AW41">
+        <v>748581</v>
+      </c>
+      <c r="AX41">
+        <v>623418</v>
+      </c>
+      <c r="AY41">
+        <v>544314</v>
+      </c>
+      <c r="AZ41">
+        <v>408622</v>
+      </c>
+      <c r="BA41">
+        <v>326488</v>
+      </c>
+      <c r="BB41">
+        <v>242235</v>
+      </c>
+      <c r="BC41">
+        <v>163148</v>
+      </c>
+      <c r="BD41">
+        <v>212287</v>
+      </c>
+      <c r="BE41">
+        <v>18351</v>
+      </c>
+      <c r="BF41">
+        <v>38</v>
+      </c>
+      <c r="BG41">
+        <v>50</v>
+      </c>
+      <c r="BH41">
+        <v>2</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>11</v>
+      </c>
+      <c r="BL41">
+        <v>12</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>8</v>
+      </c>
+      <c r="BQ41">
+        <v>8</v>
+      </c>
+      <c r="BR41">
+        <v>0</v>
+      </c>
+      <c r="BS41">
+        <v>0</v>
+      </c>
+      <c r="BT41">
+        <v>0</v>
+      </c>
+      <c r="BU41">
+        <v>18</v>
+      </c>
+      <c r="BV41">
+        <v>15</v>
+      </c>
+      <c r="BW41">
+        <v>0</v>
+      </c>
+      <c r="BX41">
+        <v>0</v>
+      </c>
+      <c r="BY41">
+        <v>0</v>
+      </c>
+      <c r="BZ41">
+        <v>14</v>
+      </c>
+      <c r="CA41">
+        <v>30</v>
+      </c>
+      <c r="CB41">
+        <v>0</v>
+      </c>
+      <c r="CC41">
+        <v>0</v>
+      </c>
+      <c r="CD41">
+        <v>0</v>
+      </c>
+      <c r="CE41">
+        <v>23</v>
+      </c>
+      <c r="CF41">
+        <v>39</v>
+      </c>
+      <c r="CG41">
+        <v>0</v>
+      </c>
+      <c r="CH41">
+        <v>-1</v>
+      </c>
+      <c r="CI41">
+        <v>0</v>
+      </c>
+      <c r="CJ41">
+        <v>24</v>
+      </c>
+      <c r="CK41">
+        <v>43</v>
+      </c>
+      <c r="CL41">
+        <v>1</v>
+      </c>
+      <c r="CM41">
+        <v>0</v>
+      </c>
+      <c r="CN41">
+        <v>0</v>
+      </c>
+      <c r="CO41">
+        <v>29</v>
+      </c>
+      <c r="CP41">
+        <v>50</v>
+      </c>
+      <c r="CQ41">
+        <v>0</v>
+      </c>
+      <c r="CR41">
+        <v>0</v>
+      </c>
+      <c r="CS41">
+        <v>0</v>
+      </c>
+      <c r="CT41">
+        <v>28</v>
+      </c>
+      <c r="CU41">
+        <v>46</v>
+      </c>
+      <c r="CV41">
+        <v>0</v>
+      </c>
+      <c r="CW41">
+        <v>0</v>
+      </c>
+      <c r="CX41">
+        <v>0</v>
+      </c>
+      <c r="CY41">
+        <v>20</v>
+      </c>
+      <c r="CZ41">
+        <v>47</v>
+      </c>
+      <c r="DA41">
+        <v>0</v>
+      </c>
+      <c r="DB41">
+        <v>0</v>
+      </c>
+      <c r="DC41">
+        <v>0</v>
+      </c>
+      <c r="DD41">
+        <v>35</v>
+      </c>
+      <c r="DE41">
+        <v>53</v>
+      </c>
+      <c r="DF41">
+        <v>0</v>
+      </c>
+      <c r="DG41">
+        <v>0</v>
+      </c>
+      <c r="DH41">
+        <v>0</v>
+      </c>
+      <c r="DI41">
+        <v>31</v>
+      </c>
+      <c r="DJ41">
+        <v>45</v>
+      </c>
+      <c r="DK41">
+        <v>0</v>
+      </c>
+      <c r="DL41">
+        <v>0</v>
+      </c>
+      <c r="DM41">
+        <v>0</v>
+      </c>
+      <c r="DN41">
+        <v>23</v>
+      </c>
+      <c r="DO41">
+        <v>31</v>
+      </c>
+      <c r="DP41">
+        <v>0</v>
+      </c>
+      <c r="DQ41">
+        <v>0</v>
+      </c>
+      <c r="DR41">
+        <v>0</v>
+      </c>
+      <c r="DS41">
+        <v>38</v>
+      </c>
+      <c r="DT41">
+        <v>51</v>
+      </c>
+      <c r="DU41">
+        <v>0</v>
+      </c>
+      <c r="DV41">
+        <v>1</v>
+      </c>
+      <c r="DW41">
+        <v>0</v>
+      </c>
+      <c r="DX41">
+        <v>22</v>
+      </c>
+      <c r="DY41">
+        <v>38</v>
+      </c>
+      <c r="DZ41">
+        <v>1</v>
+      </c>
+      <c r="EA41">
+        <v>0</v>
+      </c>
+      <c r="EB41">
+        <v>0</v>
+      </c>
+      <c r="EC41">
+        <v>36</v>
+      </c>
+      <c r="ED41">
+        <v>29</v>
+      </c>
+      <c r="EE41">
+        <v>0</v>
+      </c>
+      <c r="EF41">
+        <v>0</v>
+      </c>
+      <c r="EG41">
+        <v>0</v>
+      </c>
+      <c r="EH41">
+        <v>39</v>
+      </c>
+      <c r="EI41">
+        <v>55</v>
+      </c>
+      <c r="EJ41">
+        <v>0</v>
+      </c>
+      <c r="EK41">
+        <v>0</v>
+      </c>
+      <c r="EL41">
+        <v>0</v>
+      </c>
+      <c r="EM41">
+        <v>61</v>
+      </c>
+      <c r="EN41">
+        <v>90</v>
+      </c>
+      <c r="EO41">
+        <v>0</v>
+      </c>
+      <c r="EP41">
+        <v>-1</v>
+      </c>
+      <c r="EQ41">
+        <v>0</v>
+      </c>
+      <c r="ER41">
+        <v>0</v>
+      </c>
+      <c r="ES41">
+        <v>-1</v>
+      </c>
+      <c r="ET41">
+        <v>-1</v>
+      </c>
+      <c r="EU41">
+        <v>0</v>
+      </c>
+      <c r="EV41">
+        <v>232</v>
+      </c>
+      <c r="EW41">
+        <v>232255</v>
+      </c>
+      <c r="EX41">
+        <v>220460</v>
+      </c>
+      <c r="EY41">
+        <v>411</v>
+      </c>
+      <c r="EZ41">
+        <v>15445</v>
+      </c>
+      <c r="FA41">
+        <v>35648</v>
+      </c>
+      <c r="FB41">
+        <v>308293</v>
+      </c>
+      <c r="FC41">
+        <v>292901</v>
+      </c>
+      <c r="FD41">
+        <v>466</v>
+      </c>
+      <c r="FE41">
+        <v>16750</v>
+      </c>
+      <c r="FF41">
+        <v>50033</v>
+      </c>
+      <c r="FG41">
+        <v>353570</v>
+      </c>
+      <c r="FH41">
+        <v>342869</v>
+      </c>
+      <c r="FI41">
+        <v>632</v>
+      </c>
+      <c r="FJ41">
+        <v>16936</v>
+      </c>
+      <c r="FK41">
+        <v>60082</v>
+      </c>
+      <c r="FL41">
+        <v>326670</v>
+      </c>
+      <c r="FM41">
+        <v>374237</v>
+      </c>
+      <c r="FN41">
+        <v>896</v>
+      </c>
+      <c r="FO41">
+        <v>12913</v>
+      </c>
+      <c r="FP41">
+        <v>45819</v>
+      </c>
+      <c r="FQ41">
+        <v>392407</v>
+      </c>
+      <c r="FR41">
+        <v>480273</v>
+      </c>
+      <c r="FS41">
+        <v>1101</v>
+      </c>
+      <c r="FT41">
+        <v>16249</v>
+      </c>
+      <c r="FU41">
+        <v>41412</v>
+      </c>
+      <c r="FV41">
+        <v>434323</v>
+      </c>
+      <c r="FW41">
+        <v>526906</v>
+      </c>
+      <c r="FX41">
+        <v>1138</v>
+      </c>
+      <c r="FY41">
+        <v>17741</v>
+      </c>
+      <c r="FZ41">
+        <v>47504</v>
+      </c>
+      <c r="GA41">
+        <v>429765</v>
+      </c>
+      <c r="GB41">
+        <v>533020</v>
+      </c>
+      <c r="GC41">
+        <v>923</v>
+      </c>
+      <c r="GD41">
+        <v>17125</v>
+      </c>
+      <c r="GE41">
+        <v>54821</v>
+      </c>
+      <c r="GF41">
+        <v>420273</v>
+      </c>
+      <c r="GG41">
+        <v>525522</v>
+      </c>
+      <c r="GH41">
+        <v>666</v>
+      </c>
+      <c r="GI41">
+        <v>14981</v>
+      </c>
+      <c r="GJ41">
+        <v>58826</v>
+      </c>
+      <c r="GK41">
+        <v>374071</v>
+      </c>
+      <c r="GL41">
+        <v>469772</v>
+      </c>
+      <c r="GM41">
+        <v>498</v>
+      </c>
+      <c r="GN41">
+        <v>12332</v>
+      </c>
+      <c r="GO41">
+        <v>53163</v>
+      </c>
+      <c r="GP41">
+        <v>330800</v>
+      </c>
+      <c r="GQ41">
+        <v>421879</v>
+      </c>
+      <c r="GR41">
+        <v>439</v>
+      </c>
+      <c r="GS41">
+        <v>10109</v>
+      </c>
+      <c r="GT41">
+        <v>45318</v>
+      </c>
+      <c r="GU41">
+        <v>308704</v>
+      </c>
+      <c r="GV41">
+        <v>390284</v>
+      </c>
+      <c r="GW41">
+        <v>402</v>
+      </c>
+      <c r="GX41">
+        <v>8930</v>
+      </c>
+      <c r="GY41">
+        <v>40261</v>
+      </c>
+      <c r="GZ41">
+        <v>264099</v>
+      </c>
+      <c r="HA41">
+        <v>320650</v>
+      </c>
+      <c r="HB41">
+        <v>329</v>
+      </c>
+      <c r="HC41">
+        <v>6594</v>
+      </c>
+      <c r="HD41">
+        <v>31746</v>
+      </c>
+      <c r="HE41">
+        <v>234969</v>
+      </c>
+      <c r="HF41">
+        <v>277844</v>
+      </c>
+      <c r="HG41">
+        <v>234</v>
+      </c>
+      <c r="HH41">
+        <v>5310</v>
+      </c>
+      <c r="HI41">
+        <v>25957</v>
+      </c>
+      <c r="HJ41">
+        <v>181361</v>
+      </c>
+      <c r="HK41">
+        <v>204932</v>
+      </c>
+      <c r="HL41">
+        <v>199</v>
+      </c>
+      <c r="HM41">
+        <v>3610</v>
+      </c>
+      <c r="HN41">
+        <v>18520</v>
+      </c>
+      <c r="HO41">
+        <v>152302</v>
+      </c>
+      <c r="HP41">
+        <v>159035</v>
+      </c>
+      <c r="HQ41">
+        <v>164</v>
+      </c>
+      <c r="HR41">
+        <v>2640</v>
+      </c>
+      <c r="HS41">
+        <v>12347</v>
+      </c>
+      <c r="HT41">
+        <v>116744</v>
+      </c>
+      <c r="HU41">
+        <v>115659</v>
+      </c>
+      <c r="HV41">
+        <v>164</v>
+      </c>
+      <c r="HW41">
+        <v>1856</v>
+      </c>
+      <c r="HX41">
+        <v>7812</v>
+      </c>
+      <c r="HY41">
+        <v>76710</v>
+      </c>
+      <c r="HZ41">
+        <v>80513</v>
+      </c>
+      <c r="IA41">
+        <v>131</v>
+      </c>
+      <c r="IB41">
+        <v>1263</v>
+      </c>
+      <c r="IC41">
+        <v>4531</v>
+      </c>
+      <c r="ID41">
+        <v>82207</v>
+      </c>
+      <c r="IE41">
+        <v>123680</v>
+      </c>
+      <c r="IF41">
+        <v>306</v>
+      </c>
+      <c r="IG41">
+        <v>2254</v>
+      </c>
+      <c r="IH41">
+        <v>3840</v>
+      </c>
+      <c r="II41">
+        <v>2154</v>
+      </c>
+      <c r="IJ41">
+        <v>2309</v>
+      </c>
+      <c r="IK41">
+        <v>25</v>
+      </c>
+      <c r="IL41">
+        <v>201</v>
+      </c>
+      <c r="IM41">
+        <v>13662</v>
       </c>
     </row>
   </sheetData>
@@ -31371,7 +32857,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45277</v>
+        <v>45279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555CE9E-6888-4022-9114-8DA426EA4987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F3C52E-F557-43EE-96FC-7530F0F51663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10318008</v>
+        <v>10317990</v>
       </c>
       <c r="C4">
         <v>3368105</v>
@@ -1993,10 +1993,10 @@
         <v>1586966</v>
       </c>
       <c r="F4">
-        <v>1288509</v>
+        <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848452</v>
+        <v>848454</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886079</v>
+        <v>10886061</v>
       </c>
       <c r="L4">
         <v>3653389</v>
@@ -2020,10 +2020,10 @@
         <v>1619877</v>
       </c>
       <c r="O4">
-        <v>1289876</v>
+        <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867613</v>
+        <v>867615</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,115 +2035,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450512</v>
+        <v>450510</v>
       </c>
       <c r="U4">
-        <v>611253</v>
+        <v>611246</v>
       </c>
       <c r="V4">
-        <v>710196</v>
+        <v>710200</v>
       </c>
       <c r="W4">
-        <v>683318</v>
+        <v>683312</v>
       </c>
       <c r="X4">
-        <v>812052</v>
+        <v>812050</v>
       </c>
       <c r="Y4">
-        <v>899959</v>
+        <v>899955</v>
       </c>
       <c r="Z4">
         <v>917012</v>
       </c>
       <c r="AA4">
-        <v>908877</v>
+        <v>908878</v>
       </c>
       <c r="AB4">
-        <v>810354</v>
+        <v>810345</v>
       </c>
       <c r="AC4">
-        <v>717630</v>
+        <v>717635</v>
       </c>
       <c r="AD4">
-        <v>658710</v>
+        <v>658709</v>
       </c>
       <c r="AE4">
-        <v>544122</v>
+        <v>544119</v>
       </c>
       <c r="AF4">
-        <v>471471</v>
+        <v>471477</v>
       </c>
       <c r="AG4">
         <v>349002</v>
       </c>
       <c r="AH4">
-        <v>274342</v>
+        <v>274343</v>
       </c>
       <c r="AI4">
-        <v>198078</v>
+        <v>198075</v>
       </c>
       <c r="AJ4">
-        <v>128215</v>
+        <v>128213</v>
       </c>
       <c r="AK4">
-        <v>155755</v>
+        <v>155759</v>
       </c>
       <c r="AL4">
         <v>17150</v>
       </c>
       <c r="AM4">
-        <v>473762</v>
+        <v>473760</v>
       </c>
       <c r="AN4">
-        <v>644452</v>
+        <v>644445</v>
       </c>
       <c r="AO4">
-        <v>741710</v>
+        <v>741714</v>
       </c>
       <c r="AP4">
-        <v>728564</v>
+        <v>728558</v>
       </c>
       <c r="AQ4">
-        <v>890280</v>
+        <v>890278</v>
       </c>
       <c r="AR4">
-        <v>974401</v>
+        <v>974397</v>
       </c>
       <c r="AS4">
         <v>975395</v>
       </c>
       <c r="AT4">
-        <v>953867</v>
+        <v>953868</v>
       </c>
       <c r="AU4">
-        <v>845972</v>
+        <v>845963</v>
       </c>
       <c r="AV4">
-        <v>749710</v>
+        <v>749715</v>
       </c>
       <c r="AW4">
-        <v>688399</v>
+        <v>688398</v>
       </c>
       <c r="AX4">
-        <v>568123</v>
+        <v>568120</v>
       </c>
       <c r="AY4">
-        <v>490007</v>
+        <v>490013</v>
       </c>
       <c r="AZ4">
         <v>361977</v>
       </c>
       <c r="BA4">
-        <v>283656</v>
+        <v>283657</v>
       </c>
       <c r="BB4">
-        <v>204555</v>
+        <v>204552</v>
       </c>
       <c r="BC4">
-        <v>132606</v>
+        <v>132604</v>
       </c>
       <c r="BD4">
-        <v>161120</v>
+        <v>161124</v>
       </c>
       <c r="BE4">
         <v>17523</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>842008</v>
+        <v>844469</v>
       </c>
       <c r="C5">
-        <v>303645</v>
+        <v>304443</v>
       </c>
       <c r="D5">
-        <v>155993</v>
+        <v>156171</v>
       </c>
       <c r="E5">
-        <v>135934</v>
+        <v>136294</v>
       </c>
       <c r="F5">
-        <v>93624</v>
+        <v>93614</v>
       </c>
       <c r="G5">
-        <v>91246</v>
+        <v>91925</v>
       </c>
       <c r="H5">
-        <v>31972</v>
+        <v>32351</v>
       </c>
       <c r="I5">
-        <v>23108</v>
+        <v>23167</v>
       </c>
       <c r="J5">
-        <v>6486</v>
+        <v>6504</v>
       </c>
       <c r="K5">
-        <v>11728087</v>
+        <v>11730530</v>
       </c>
       <c r="L5">
-        <v>3957034</v>
+        <v>3957832</v>
       </c>
       <c r="M5">
-        <v>2997475</v>
+        <v>2997653</v>
       </c>
       <c r="N5">
-        <v>1755811</v>
+        <v>1756171</v>
       </c>
       <c r="O5">
-        <v>1383500</v>
+        <v>1383470</v>
       </c>
       <c r="P5">
-        <v>958859</v>
+        <v>959540</v>
       </c>
       <c r="Q5">
-        <v>313515</v>
+        <v>313894</v>
       </c>
       <c r="R5">
-        <v>251440</v>
+        <v>251499</v>
       </c>
       <c r="S5">
-        <v>110453</v>
+        <v>110471</v>
       </c>
       <c r="T5">
-        <v>30457</v>
+        <v>30601</v>
       </c>
       <c r="U5">
-        <v>23991</v>
+        <v>24027</v>
       </c>
       <c r="V5">
-        <v>32379</v>
+        <v>32419</v>
       </c>
       <c r="W5">
-        <v>31971</v>
+        <v>32033</v>
       </c>
       <c r="X5">
-        <v>41162</v>
+        <v>41250</v>
       </c>
       <c r="Y5">
-        <v>53211</v>
+        <v>53335</v>
       </c>
       <c r="Z5">
-        <v>60259</v>
+        <v>60399</v>
       </c>
       <c r="AA5">
-        <v>66401</v>
+        <v>66535</v>
       </c>
       <c r="AB5">
-        <v>63864</v>
+        <v>64002</v>
       </c>
       <c r="AC5">
-        <v>58835</v>
+        <v>58965</v>
       </c>
       <c r="AD5">
-        <v>60182</v>
+        <v>60354</v>
       </c>
       <c r="AE5">
-        <v>55295</v>
+        <v>55432</v>
       </c>
       <c r="AF5">
-        <v>54307</v>
+        <v>54468</v>
       </c>
       <c r="AG5">
-        <v>46645</v>
+        <v>46801</v>
       </c>
       <c r="AH5">
-        <v>42832</v>
+        <v>43014</v>
       </c>
       <c r="AI5">
-        <v>37680</v>
+        <v>37860</v>
       </c>
       <c r="AJ5">
-        <v>30542</v>
+        <v>30704</v>
       </c>
       <c r="AK5">
-        <v>51167</v>
+        <v>51459</v>
       </c>
       <c r="AL5">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="AM5">
-        <v>504219</v>
+        <v>504361</v>
       </c>
       <c r="AN5">
-        <v>668443</v>
+        <v>668472</v>
       </c>
       <c r="AO5">
-        <v>774089</v>
+        <v>774133</v>
       </c>
       <c r="AP5">
-        <v>760535</v>
+        <v>760591</v>
       </c>
       <c r="AQ5">
-        <v>931442</v>
+        <v>931528</v>
       </c>
       <c r="AR5">
-        <v>1027612</v>
+        <v>1027732</v>
       </c>
       <c r="AS5">
-        <v>1035654</v>
+        <v>1035794</v>
       </c>
       <c r="AT5">
-        <v>1020268</v>
+        <v>1020403</v>
       </c>
       <c r="AU5">
-        <v>909836</v>
+        <v>909965</v>
       </c>
       <c r="AV5">
-        <v>808545</v>
+        <v>808680</v>
       </c>
       <c r="AW5">
-        <v>748581</v>
+        <v>748752</v>
       </c>
       <c r="AX5">
-        <v>623418</v>
+        <v>623552</v>
       </c>
       <c r="AY5">
-        <v>544314</v>
+        <v>544481</v>
       </c>
       <c r="AZ5">
-        <v>408622</v>
+        <v>408778</v>
       </c>
       <c r="BA5">
-        <v>326488</v>
+        <v>326671</v>
       </c>
       <c r="BB5">
-        <v>242235</v>
+        <v>242412</v>
       </c>
       <c r="BC5">
-        <v>163148</v>
+        <v>163308</v>
       </c>
       <c r="BD5">
-        <v>212287</v>
+        <v>212583</v>
       </c>
       <c r="BE5">
-        <v>18351</v>
+        <v>18334</v>
       </c>
     </row>
   </sheetData>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687555</v>
+        <v>687552</v>
       </c>
       <c r="C27" s="3">
         <v>230227</v>
@@ -3890,10 +3890,10 @@
         <v>140749</v>
       </c>
       <c r="F27" s="3">
-        <v>11818</v>
+        <v>11814</v>
       </c>
       <c r="G27" s="3">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065299</v>
+        <v>3065296</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3917,10 +3917,10 @@
         <v>546066</v>
       </c>
       <c r="O27" s="3">
-        <v>14035</v>
+        <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153723</v>
+        <v>153724</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366787</v>
+        <v>1366786</v>
       </c>
       <c r="C28" s="3">
         <v>536607</v>
@@ -3949,7 +3949,7 @@
         <v>196224</v>
       </c>
       <c r="F28" s="3">
-        <v>179288</v>
+        <v>179287</v>
       </c>
       <c r="G28" s="3">
         <v>120505</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432086</v>
+        <v>4432082</v>
       </c>
       <c r="L28" s="3">
         <v>1689283</v>
@@ -3976,10 +3976,10 @@
         <v>742290</v>
       </c>
       <c r="O28" s="3">
-        <v>193323</v>
+        <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274228</v>
+        <v>274229</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4008,10 +4008,10 @@
         <v>201082</v>
       </c>
       <c r="F29" s="3">
-        <v>206843</v>
+        <v>206842</v>
       </c>
       <c r="G29" s="3">
-        <v>139869</v>
+        <v>139870</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772013</v>
+        <v>5772009</v>
       </c>
       <c r="L29" s="3">
         <v>2121663</v>
@@ -4035,10 +4035,10 @@
         <v>943372</v>
       </c>
       <c r="O29" s="3">
-        <v>400166</v>
+        <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414097</v>
+        <v>414099</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310377</v>
+        <v>1310376</v>
       </c>
       <c r="C30" s="3">
         <v>297267</v>
@@ -4067,7 +4067,7 @@
         <v>152930</v>
       </c>
       <c r="F30" s="3">
-        <v>354089</v>
+        <v>354088</v>
       </c>
       <c r="G30" s="3">
         <v>108146</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082390</v>
+        <v>7082385</v>
       </c>
       <c r="L30" s="3">
         <v>2418930</v>
@@ -4094,10 +4094,10 @@
         <v>1096302</v>
       </c>
       <c r="O30" s="3">
-        <v>754255</v>
+        <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522243</v>
+        <v>522245</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884310</v>
+        <v>884307</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4126,7 +4126,7 @@
         <v>117015</v>
       </c>
       <c r="F31" s="3">
-        <v>182639</v>
+        <v>182636</v>
       </c>
       <c r="G31" s="3">
         <v>77331</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966700</v>
+        <v>7966692</v>
       </c>
       <c r="L31" s="3">
         <v>2652831</v>
@@ -4153,10 +4153,10 @@
         <v>1213317</v>
       </c>
       <c r="O31" s="3">
-        <v>936894</v>
+        <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599574</v>
+        <v>599576</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4173,7 +4173,7 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250352</v>
+        <v>1250350</v>
       </c>
       <c r="C32" s="3">
         <v>378605</v>
@@ -4185,7 +4185,7 @@
         <v>197462</v>
       </c>
       <c r="F32" s="3">
-        <v>158266</v>
+        <v>158264</v>
       </c>
       <c r="G32" s="3">
         <v>117401</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217052</v>
+        <v>9217042</v>
       </c>
       <c r="L32" s="3">
         <v>3031436</v>
@@ -4212,10 +4212,10 @@
         <v>1410779</v>
       </c>
       <c r="O32" s="3">
-        <v>1095160</v>
+        <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>716975</v>
+        <v>716977</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4232,7 +4232,7 @@
         <v>44774</v>
       </c>
       <c r="B33" s="3">
-        <v>554859</v>
+        <v>554858</v>
       </c>
       <c r="C33" s="3">
         <v>230049</v>
@@ -4244,7 +4244,7 @@
         <v>71361</v>
       </c>
       <c r="F33" s="3">
-        <v>59071</v>
+        <v>59070</v>
       </c>
       <c r="G33" s="3">
         <v>40511</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771911</v>
+        <v>9771900</v>
       </c>
       <c r="L33" s="3">
         <v>3261485</v>
@@ -4271,10 +4271,10 @@
         <v>1482140</v>
       </c>
       <c r="O33" s="3">
-        <v>1154231</v>
+        <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757486</v>
+        <v>757488</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4291,7 +4291,7 @@
         <v>44805</v>
       </c>
       <c r="B34" s="3">
-        <v>194254</v>
+        <v>194249</v>
       </c>
       <c r="C34" s="3">
         <v>68852</v>
@@ -4303,7 +4303,7 @@
         <v>30273</v>
       </c>
       <c r="F34" s="3">
-        <v>24272</v>
+        <v>24267</v>
       </c>
       <c r="G34" s="3">
         <v>15284</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966165</v>
+        <v>9966149</v>
       </c>
       <c r="L34" s="3">
         <v>3330337</v>
@@ -4330,10 +4330,10 @@
         <v>1512413</v>
       </c>
       <c r="O34" s="3">
-        <v>1178503</v>
+        <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772770</v>
+        <v>772772</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4350,7 +4350,7 @@
         <v>44835</v>
       </c>
       <c r="B35" s="3">
-        <v>142104</v>
+        <v>142102</v>
       </c>
       <c r="C35" s="3">
         <v>44499</v>
@@ -4362,7 +4362,7 @@
         <v>16737</v>
       </c>
       <c r="F35" s="3">
-        <v>23426</v>
+        <v>23424</v>
       </c>
       <c r="G35" s="3">
         <v>13175</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108269</v>
+        <v>10108251</v>
       </c>
       <c r="L35" s="3">
         <v>3374836</v>
@@ -4389,10 +4389,10 @@
         <v>1529150</v>
       </c>
       <c r="O35" s="3">
-        <v>1201929</v>
+        <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>785945</v>
+        <v>785947</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460211</v>
+        <v>10460193</v>
       </c>
       <c r="L36" s="3">
         <v>3496928</v>
@@ -4448,10 +4448,10 @@
         <v>1565596</v>
       </c>
       <c r="O36" s="3">
-        <v>1244563</v>
+        <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823108</v>
+        <v>823110</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886079</v>
+        <v>10886061</v>
       </c>
       <c r="L37" s="3">
         <v>3653389</v>
@@ -4507,10 +4507,10 @@
         <v>1619877</v>
       </c>
       <c r="O37" s="3">
-        <v>1289876</v>
+        <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867613</v>
+        <v>867615</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016162</v>
+        <v>11016144</v>
       </c>
       <c r="L38" s="3">
         <v>3699333</v>
@@ -4566,10 +4566,10 @@
         <v>1643990</v>
       </c>
       <c r="O38" s="3">
-        <v>1306732</v>
+        <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879503</v>
+        <v>879505</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088148</v>
+        <v>11088130</v>
       </c>
       <c r="L39" s="3">
         <v>3724576</v>
@@ -4625,10 +4625,10 @@
         <v>1658290</v>
       </c>
       <c r="O39" s="3">
-        <v>1315604</v>
+        <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886356</v>
+        <v>886358</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192108</v>
+        <v>11192090</v>
       </c>
       <c r="L40" s="3">
         <v>3763218</v>
@@ -4684,10 +4684,10 @@
         <v>1673745</v>
       </c>
       <c r="O40" s="3">
-        <v>1328566</v>
+        <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>897856</v>
+        <v>897858</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315225</v>
+        <v>11315207</v>
       </c>
       <c r="L41" s="3">
         <v>3810747</v>
@@ -4743,10 +4743,10 @@
         <v>1689655</v>
       </c>
       <c r="O41" s="3">
-        <v>1342953</v>
+        <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910185</v>
+        <v>910187</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4763,7 +4763,7 @@
         <v>45047</v>
       </c>
       <c r="B42" s="3">
-        <v>166195</v>
+        <v>166193</v>
       </c>
       <c r="C42" s="3">
         <v>62094</v>
@@ -4775,7 +4775,7 @@
         <v>22310</v>
       </c>
       <c r="F42" s="3">
-        <v>18088</v>
+        <v>18086</v>
       </c>
       <c r="G42" s="3">
         <v>14913</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481420</v>
+        <v>11481400</v>
       </c>
       <c r="L42" s="3">
         <v>3872841</v>
@@ -4802,10 +4802,10 @@
         <v>1711965</v>
       </c>
       <c r="O42" s="3">
-        <v>1361041</v>
+        <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925098</v>
+        <v>925100</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4822,7 +4822,7 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77771</v>
+        <v>77763</v>
       </c>
       <c r="C43" s="3">
         <v>28184</v>
@@ -4834,7 +4834,7 @@
         <v>14250</v>
       </c>
       <c r="F43" s="3">
-        <v>8418</v>
+        <v>8410</v>
       </c>
       <c r="G43" s="3">
         <v>7214</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559191</v>
+        <v>11559163</v>
       </c>
       <c r="L43" s="3">
         <v>3901025</v>
@@ -4861,10 +4861,10 @@
         <v>1726215</v>
       </c>
       <c r="O43" s="3">
-        <v>1369459</v>
+        <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932312</v>
+        <v>932314</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587379</v>
+        <v>11587351</v>
       </c>
       <c r="L44" s="3">
         <v>3911322</v>
@@ -4920,10 +4920,10 @@
         <v>1733163</v>
       </c>
       <c r="O44" s="3">
-        <v>1373111</v>
+        <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935241</v>
+        <v>935243</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610803</v>
+        <v>11610775</v>
       </c>
       <c r="L45" s="3">
         <v>3920473</v>
@@ -4979,10 +4979,10 @@
         <v>1737701</v>
       </c>
       <c r="O45" s="3">
-        <v>1376109</v>
+        <v>1376079</v>
       </c>
       <c r="P45" s="3">
-        <v>937690</v>
+        <v>937692</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632913</v>
+        <v>11632885</v>
       </c>
       <c r="L46" s="3">
         <v>3929457</v>
@@ -5038,10 +5038,10 @@
         <v>1739724</v>
       </c>
       <c r="O46" s="3">
-        <v>1378667</v>
+        <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940723</v>
+        <v>940725</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5058,10 +5058,10 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27895</v>
+        <v>27915</v>
       </c>
       <c r="C47" s="3">
-        <v>7731</v>
+        <v>7751</v>
       </c>
       <c r="D47" s="3">
         <v>5605</v>
@@ -5085,10 +5085,10 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660808</v>
+        <v>11660800</v>
       </c>
       <c r="L47" s="3">
-        <v>3937188</v>
+        <v>3937208</v>
       </c>
       <c r="M47" s="3">
         <v>2988178</v>
@@ -5097,10 +5097,10 @@
         <v>1743426</v>
       </c>
       <c r="O47" s="3">
-        <v>1380665</v>
+        <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>945800</v>
+        <v>945802</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,13 +5117,13 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>43970</v>
+        <v>44063</v>
       </c>
       <c r="C48" s="3">
-        <v>12286</v>
+        <v>12379</v>
       </c>
       <c r="D48" s="3">
-        <v>6093</v>
+        <v>6092</v>
       </c>
       <c r="E48" s="3">
         <v>7206</v>
@@ -5132,7 +5132,7 @@
         <v>2192</v>
       </c>
       <c r="G48" s="3">
-        <v>9334</v>
+        <v>9335</v>
       </c>
       <c r="H48" s="3">
         <v>4152</v>
@@ -5144,22 +5144,22 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11704778</v>
+        <v>11704863</v>
       </c>
       <c r="L48" s="3">
-        <v>3949474</v>
+        <v>3949587</v>
       </c>
       <c r="M48" s="3">
-        <v>2994271</v>
+        <v>2994270</v>
       </c>
       <c r="N48" s="3">
         <v>1750632</v>
       </c>
       <c r="O48" s="3">
-        <v>1382857</v>
+        <v>1382827</v>
       </c>
       <c r="P48" s="3">
-        <v>955134</v>
+        <v>955137</v>
       </c>
       <c r="Q48" s="3">
         <v>311673</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>23309</v>
+        <v>25667</v>
       </c>
       <c r="C49">
-        <v>7560</v>
+        <v>8245</v>
       </c>
       <c r="D49">
-        <v>3204</v>
+        <v>3383</v>
       </c>
       <c r="E49">
-        <v>5179</v>
+        <v>5539</v>
       </c>
       <c r="F49">
         <v>643</v>
       </c>
       <c r="G49">
-        <v>3725</v>
+        <v>4403</v>
       </c>
       <c r="H49">
-        <v>1842</v>
+        <v>2221</v>
       </c>
       <c r="I49">
-        <v>966</v>
+        <v>1025</v>
       </c>
       <c r="J49">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K49">
-        <v>11728087</v>
+        <v>11730530</v>
       </c>
       <c r="L49">
-        <v>3957034</v>
+        <v>3957832</v>
       </c>
       <c r="M49">
-        <v>2997475</v>
+        <v>2997653</v>
       </c>
       <c r="N49">
-        <v>1755811</v>
+        <v>1756171</v>
       </c>
       <c r="O49">
-        <v>1383500</v>
+        <v>1383470</v>
       </c>
       <c r="P49">
-        <v>958859</v>
+        <v>959540</v>
       </c>
       <c r="Q49">
-        <v>313515</v>
+        <v>313894</v>
       </c>
       <c r="R49">
-        <v>251440</v>
+        <v>251499</v>
       </c>
       <c r="S49">
-        <v>110453</v>
+        <v>110471</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM41"/>
+  <dimension ref="A1:IM42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32831,6 +32831,749 @@
       </c>
       <c r="IM41">
         <v>13662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B42">
+        <v>2443</v>
+      </c>
+      <c r="C42">
+        <v>798</v>
+      </c>
+      <c r="D42">
+        <v>178</v>
+      </c>
+      <c r="E42">
+        <v>360</v>
+      </c>
+      <c r="F42">
+        <v>-30</v>
+      </c>
+      <c r="G42">
+        <v>681</v>
+      </c>
+      <c r="H42">
+        <v>379</v>
+      </c>
+      <c r="I42">
+        <v>59</v>
+      </c>
+      <c r="J42">
+        <v>18</v>
+      </c>
+      <c r="K42">
+        <v>11730530</v>
+      </c>
+      <c r="L42">
+        <v>3957832</v>
+      </c>
+      <c r="M42">
+        <v>2997653</v>
+      </c>
+      <c r="N42">
+        <v>1756171</v>
+      </c>
+      <c r="O42">
+        <v>1383470</v>
+      </c>
+      <c r="P42">
+        <v>959540</v>
+      </c>
+      <c r="Q42">
+        <v>313894</v>
+      </c>
+      <c r="R42">
+        <v>251499</v>
+      </c>
+      <c r="S42">
+        <v>110471</v>
+      </c>
+      <c r="T42">
+        <v>142</v>
+      </c>
+      <c r="U42">
+        <v>29</v>
+      </c>
+      <c r="V42">
+        <v>44</v>
+      </c>
+      <c r="W42">
+        <v>56</v>
+      </c>
+      <c r="X42">
+        <v>86</v>
+      </c>
+      <c r="Y42">
+        <v>120</v>
+      </c>
+      <c r="Z42">
+        <v>140</v>
+      </c>
+      <c r="AA42">
+        <v>135</v>
+      </c>
+      <c r="AB42">
+        <v>129</v>
+      </c>
+      <c r="AC42">
+        <v>135</v>
+      </c>
+      <c r="AD42">
+        <v>171</v>
+      </c>
+      <c r="AE42">
+        <v>134</v>
+      </c>
+      <c r="AF42">
+        <v>167</v>
+      </c>
+      <c r="AG42">
+        <v>156</v>
+      </c>
+      <c r="AH42">
+        <v>183</v>
+      </c>
+      <c r="AI42">
+        <v>177</v>
+      </c>
+      <c r="AJ42">
+        <v>160</v>
+      </c>
+      <c r="AK42">
+        <v>296</v>
+      </c>
+      <c r="AL42">
+        <v>-17</v>
+      </c>
+      <c r="AM42">
+        <v>504361</v>
+      </c>
+      <c r="AN42">
+        <v>668472</v>
+      </c>
+      <c r="AO42">
+        <v>774133</v>
+      </c>
+      <c r="AP42">
+        <v>760591</v>
+      </c>
+      <c r="AQ42">
+        <v>931528</v>
+      </c>
+      <c r="AR42">
+        <v>1027732</v>
+      </c>
+      <c r="AS42">
+        <v>1035794</v>
+      </c>
+      <c r="AT42">
+        <v>1020403</v>
+      </c>
+      <c r="AU42">
+        <v>909965</v>
+      </c>
+      <c r="AV42">
+        <v>808680</v>
+      </c>
+      <c r="AW42">
+        <v>748752</v>
+      </c>
+      <c r="AX42">
+        <v>623552</v>
+      </c>
+      <c r="AY42">
+        <v>544481</v>
+      </c>
+      <c r="AZ42">
+        <v>408778</v>
+      </c>
+      <c r="BA42">
+        <v>326671</v>
+      </c>
+      <c r="BB42">
+        <v>242412</v>
+      </c>
+      <c r="BC42">
+        <v>163308</v>
+      </c>
+      <c r="BD42">
+        <v>212583</v>
+      </c>
+      <c r="BE42">
+        <v>18334</v>
+      </c>
+      <c r="BF42">
+        <v>83</v>
+      </c>
+      <c r="BG42">
+        <v>61</v>
+      </c>
+      <c r="BH42">
+        <v>-2</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>13</v>
+      </c>
+      <c r="BL42">
+        <v>16</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
+        <v>30</v>
+      </c>
+      <c r="BQ42">
+        <v>14</v>
+      </c>
+      <c r="BR42">
+        <v>0</v>
+      </c>
+      <c r="BS42">
+        <v>0</v>
+      </c>
+      <c r="BT42">
+        <v>0</v>
+      </c>
+      <c r="BU42">
+        <v>20</v>
+      </c>
+      <c r="BV42">
+        <v>37</v>
+      </c>
+      <c r="BW42">
+        <v>0</v>
+      </c>
+      <c r="BX42">
+        <v>-1</v>
+      </c>
+      <c r="BY42">
+        <v>0</v>
+      </c>
+      <c r="BZ42">
+        <v>23</v>
+      </c>
+      <c r="CA42">
+        <v>64</v>
+      </c>
+      <c r="CB42">
+        <v>0</v>
+      </c>
+      <c r="CC42">
+        <v>-1</v>
+      </c>
+      <c r="CD42">
+        <v>0</v>
+      </c>
+      <c r="CE42">
+        <v>57</v>
+      </c>
+      <c r="CF42">
+        <v>62</v>
+      </c>
+      <c r="CG42">
+        <v>1</v>
+      </c>
+      <c r="CH42">
+        <v>0</v>
+      </c>
+      <c r="CI42">
+        <v>0</v>
+      </c>
+      <c r="CJ42">
+        <v>47</v>
+      </c>
+      <c r="CK42">
+        <v>93</v>
+      </c>
+      <c r="CL42">
+        <v>0</v>
+      </c>
+      <c r="CM42">
+        <v>0</v>
+      </c>
+      <c r="CN42">
+        <v>0</v>
+      </c>
+      <c r="CO42">
+        <v>47</v>
+      </c>
+      <c r="CP42">
+        <v>88</v>
+      </c>
+      <c r="CQ42">
+        <v>0</v>
+      </c>
+      <c r="CR42">
+        <v>-1</v>
+      </c>
+      <c r="CS42">
+        <v>1</v>
+      </c>
+      <c r="CT42">
+        <v>56</v>
+      </c>
+      <c r="CU42">
+        <v>73</v>
+      </c>
+      <c r="CV42">
+        <v>0</v>
+      </c>
+      <c r="CW42">
+        <v>0</v>
+      </c>
+      <c r="CX42">
+        <v>0</v>
+      </c>
+      <c r="CY42">
+        <v>43</v>
+      </c>
+      <c r="CZ42">
+        <v>93</v>
+      </c>
+      <c r="DA42">
+        <v>0</v>
+      </c>
+      <c r="DB42">
+        <v>-1</v>
+      </c>
+      <c r="DC42">
+        <v>0</v>
+      </c>
+      <c r="DD42">
+        <v>70</v>
+      </c>
+      <c r="DE42">
+        <v>101</v>
+      </c>
+      <c r="DF42">
+        <v>0</v>
+      </c>
+      <c r="DG42">
+        <v>0</v>
+      </c>
+      <c r="DH42">
+        <v>0</v>
+      </c>
+      <c r="DI42">
+        <v>57</v>
+      </c>
+      <c r="DJ42">
+        <v>77</v>
+      </c>
+      <c r="DK42">
+        <v>0</v>
+      </c>
+      <c r="DL42">
+        <v>0</v>
+      </c>
+      <c r="DM42">
+        <v>0</v>
+      </c>
+      <c r="DN42">
+        <v>67</v>
+      </c>
+      <c r="DO42">
+        <v>100</v>
+      </c>
+      <c r="DP42">
+        <v>0</v>
+      </c>
+      <c r="DQ42">
+        <v>0</v>
+      </c>
+      <c r="DR42">
+        <v>0</v>
+      </c>
+      <c r="DS42">
+        <v>75</v>
+      </c>
+      <c r="DT42">
+        <v>89</v>
+      </c>
+      <c r="DU42">
+        <v>0</v>
+      </c>
+      <c r="DV42">
+        <v>-8</v>
+      </c>
+      <c r="DW42">
+        <v>0</v>
+      </c>
+      <c r="DX42">
+        <v>83</v>
+      </c>
+      <c r="DY42">
+        <v>106</v>
+      </c>
+      <c r="DZ42">
+        <v>0</v>
+      </c>
+      <c r="EA42">
+        <v>-6</v>
+      </c>
+      <c r="EB42">
+        <v>0</v>
+      </c>
+      <c r="EC42">
+        <v>97</v>
+      </c>
+      <c r="ED42">
+        <v>86</v>
+      </c>
+      <c r="EE42">
+        <v>0</v>
+      </c>
+      <c r="EF42">
+        <v>-6</v>
+      </c>
+      <c r="EG42">
+        <v>0</v>
+      </c>
+      <c r="EH42">
+        <v>79</v>
+      </c>
+      <c r="EI42">
+        <v>82</v>
+      </c>
+      <c r="EJ42">
+        <v>0</v>
+      </c>
+      <c r="EK42">
+        <v>-1</v>
+      </c>
+      <c r="EL42">
+        <v>0</v>
+      </c>
+      <c r="EM42">
+        <v>128</v>
+      </c>
+      <c r="EN42">
+        <v>169</v>
+      </c>
+      <c r="EO42">
+        <v>1</v>
+      </c>
+      <c r="EP42">
+        <v>-3</v>
+      </c>
+      <c r="EQ42">
+        <v>1</v>
+      </c>
+      <c r="ER42">
+        <v>0</v>
+      </c>
+      <c r="ES42">
+        <v>0</v>
+      </c>
+      <c r="ET42">
+        <v>0</v>
+      </c>
+      <c r="EU42">
+        <v>0</v>
+      </c>
+      <c r="EV42">
+        <v>-17</v>
+      </c>
+      <c r="EW42">
+        <v>232338</v>
+      </c>
+      <c r="EX42">
+        <v>220521</v>
+      </c>
+      <c r="EY42">
+        <v>409</v>
+      </c>
+      <c r="EZ42">
+        <v>15445</v>
+      </c>
+      <c r="FA42">
+        <v>35648</v>
+      </c>
+      <c r="FB42">
+        <v>308306</v>
+      </c>
+      <c r="FC42">
+        <v>292917</v>
+      </c>
+      <c r="FD42">
+        <v>466</v>
+      </c>
+      <c r="FE42">
+        <v>16750</v>
+      </c>
+      <c r="FF42">
+        <v>50033</v>
+      </c>
+      <c r="FG42">
+        <v>353600</v>
+      </c>
+      <c r="FH42">
+        <v>342883</v>
+      </c>
+      <c r="FI42">
+        <v>632</v>
+      </c>
+      <c r="FJ42">
+        <v>16936</v>
+      </c>
+      <c r="FK42">
+        <v>60082</v>
+      </c>
+      <c r="FL42">
+        <v>326690</v>
+      </c>
+      <c r="FM42">
+        <v>374274</v>
+      </c>
+      <c r="FN42">
+        <v>896</v>
+      </c>
+      <c r="FO42">
+        <v>12912</v>
+      </c>
+      <c r="FP42">
+        <v>45819</v>
+      </c>
+      <c r="FQ42">
+        <v>392430</v>
+      </c>
+      <c r="FR42">
+        <v>480337</v>
+      </c>
+      <c r="FS42">
+        <v>1101</v>
+      </c>
+      <c r="FT42">
+        <v>16248</v>
+      </c>
+      <c r="FU42">
+        <v>41412</v>
+      </c>
+      <c r="FV42">
+        <v>434380</v>
+      </c>
+      <c r="FW42">
+        <v>526968</v>
+      </c>
+      <c r="FX42">
+        <v>1139</v>
+      </c>
+      <c r="FY42">
+        <v>17741</v>
+      </c>
+      <c r="FZ42">
+        <v>47504</v>
+      </c>
+      <c r="GA42">
+        <v>429812</v>
+      </c>
+      <c r="GB42">
+        <v>533113</v>
+      </c>
+      <c r="GC42">
+        <v>923</v>
+      </c>
+      <c r="GD42">
+        <v>17125</v>
+      </c>
+      <c r="GE42">
+        <v>54821</v>
+      </c>
+      <c r="GF42">
+        <v>420320</v>
+      </c>
+      <c r="GG42">
+        <v>525610</v>
+      </c>
+      <c r="GH42">
+        <v>666</v>
+      </c>
+      <c r="GI42">
+        <v>14980</v>
+      </c>
+      <c r="GJ42">
+        <v>58827</v>
+      </c>
+      <c r="GK42">
+        <v>374127</v>
+      </c>
+      <c r="GL42">
+        <v>469845</v>
+      </c>
+      <c r="GM42">
+        <v>498</v>
+      </c>
+      <c r="GN42">
+        <v>12332</v>
+      </c>
+      <c r="GO42">
+        <v>53163</v>
+      </c>
+      <c r="GP42">
+        <v>330843</v>
+      </c>
+      <c r="GQ42">
+        <v>421972</v>
+      </c>
+      <c r="GR42">
+        <v>439</v>
+      </c>
+      <c r="GS42">
+        <v>10108</v>
+      </c>
+      <c r="GT42">
+        <v>45318</v>
+      </c>
+      <c r="GU42">
+        <v>308774</v>
+      </c>
+      <c r="GV42">
+        <v>390385</v>
+      </c>
+      <c r="GW42">
+        <v>402</v>
+      </c>
+      <c r="GX42">
+        <v>8930</v>
+      </c>
+      <c r="GY42">
+        <v>40261</v>
+      </c>
+      <c r="GZ42">
+        <v>264156</v>
+      </c>
+      <c r="HA42">
+        <v>320727</v>
+      </c>
+      <c r="HB42">
+        <v>329</v>
+      </c>
+      <c r="HC42">
+        <v>6594</v>
+      </c>
+      <c r="HD42">
+        <v>31746</v>
+      </c>
+      <c r="HE42">
+        <v>235036</v>
+      </c>
+      <c r="HF42">
+        <v>277944</v>
+      </c>
+      <c r="HG42">
+        <v>234</v>
+      </c>
+      <c r="HH42">
+        <v>5310</v>
+      </c>
+      <c r="HI42">
+        <v>25957</v>
+      </c>
+      <c r="HJ42">
+        <v>181436</v>
+      </c>
+      <c r="HK42">
+        <v>205021</v>
+      </c>
+      <c r="HL42">
+        <v>199</v>
+      </c>
+      <c r="HM42">
+        <v>3602</v>
+      </c>
+      <c r="HN42">
+        <v>18520</v>
+      </c>
+      <c r="HO42">
+        <v>152385</v>
+      </c>
+      <c r="HP42">
+        <v>159141</v>
+      </c>
+      <c r="HQ42">
+        <v>164</v>
+      </c>
+      <c r="HR42">
+        <v>2634</v>
+      </c>
+      <c r="HS42">
+        <v>12347</v>
+      </c>
+      <c r="HT42">
+        <v>116841</v>
+      </c>
+      <c r="HU42">
+        <v>115745</v>
+      </c>
+      <c r="HV42">
+        <v>164</v>
+      </c>
+      <c r="HW42">
+        <v>1850</v>
+      </c>
+      <c r="HX42">
+        <v>7812</v>
+      </c>
+      <c r="HY42">
+        <v>76789</v>
+      </c>
+      <c r="HZ42">
+        <v>80595</v>
+      </c>
+      <c r="IA42">
+        <v>131</v>
+      </c>
+      <c r="IB42">
+        <v>1262</v>
+      </c>
+      <c r="IC42">
+        <v>4531</v>
+      </c>
+      <c r="ID42">
+        <v>82335</v>
+      </c>
+      <c r="IE42">
+        <v>123849</v>
+      </c>
+      <c r="IF42">
+        <v>307</v>
+      </c>
+      <c r="IG42">
+        <v>2251</v>
+      </c>
+      <c r="IH42">
+        <v>3841</v>
+      </c>
+      <c r="II42">
+        <v>2154</v>
+      </c>
+      <c r="IJ42">
+        <v>2309</v>
+      </c>
+      <c r="IK42">
+        <v>25</v>
+      </c>
+      <c r="IL42">
+        <v>201</v>
+      </c>
+      <c r="IM42">
+        <v>13645</v>
       </c>
     </row>
   </sheetData>
@@ -32857,7 +33600,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F3C52E-F557-43EE-96FC-7530F0F51663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C6A25-75F2-440B-BCD9-198FAE840F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1725,10 +1725,10 @@
         <v>1678</v>
       </c>
       <c r="AF2">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AG2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AH2">
         <v>911</v>
@@ -1782,10 +1782,10 @@
         <v>1678</v>
       </c>
       <c r="AY2">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="AZ2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="BA2">
         <v>911</v>
@@ -1880,10 +1880,10 @@
         <v>70912</v>
       </c>
       <c r="Z3">
-        <v>55520</v>
+        <v>55519</v>
       </c>
       <c r="AA3">
-        <v>42725</v>
+        <v>42726</v>
       </c>
       <c r="AB3">
         <v>33829</v>
@@ -1937,10 +1937,10 @@
         <v>74442</v>
       </c>
       <c r="AS3">
-        <v>58383</v>
+        <v>58382</v>
       </c>
       <c r="AT3">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="AU3">
         <v>35618</v>
@@ -1955,10 +1955,10 @@
         <v>24001</v>
       </c>
       <c r="AY3">
-        <v>18536</v>
+        <v>18535</v>
       </c>
       <c r="AZ3">
-        <v>12975</v>
+        <v>12976</v>
       </c>
       <c r="BA3">
         <v>9314</v>
@@ -1981,10 +1981,10 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317990</v>
+        <v>10317992</v>
       </c>
       <c r="C4">
-        <v>3368105</v>
+        <v>3368104</v>
       </c>
       <c r="D4">
         <v>2621354</v>
@@ -1996,7 +1996,7 @@
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848454</v>
+        <v>848457</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,10 +2008,10 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886061</v>
+        <v>10886063</v>
       </c>
       <c r="L4">
-        <v>3653389</v>
+        <v>3653388</v>
       </c>
       <c r="M4">
         <v>2841482</v>
@@ -2023,7 +2023,7 @@
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867615</v>
+        <v>867618</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,55 +2035,55 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450510</v>
+        <v>450508</v>
       </c>
       <c r="U4">
-        <v>611246</v>
+        <v>611247</v>
       </c>
       <c r="V4">
         <v>710200</v>
       </c>
       <c r="W4">
-        <v>683312</v>
+        <v>683310</v>
       </c>
       <c r="X4">
-        <v>812050</v>
+        <v>812052</v>
       </c>
       <c r="Y4">
-        <v>899955</v>
+        <v>899953</v>
       </c>
       <c r="Z4">
-        <v>917012</v>
+        <v>917015</v>
       </c>
       <c r="AA4">
-        <v>908878</v>
+        <v>908873</v>
       </c>
       <c r="AB4">
-        <v>810345</v>
+        <v>810343</v>
       </c>
       <c r="AC4">
-        <v>717635</v>
+        <v>717637</v>
       </c>
       <c r="AD4">
         <v>658709</v>
       </c>
       <c r="AE4">
-        <v>544119</v>
+        <v>544123</v>
       </c>
       <c r="AF4">
-        <v>471477</v>
+        <v>471478</v>
       </c>
       <c r="AG4">
-        <v>349002</v>
+        <v>349003</v>
       </c>
       <c r="AH4">
-        <v>274343</v>
+        <v>274340</v>
       </c>
       <c r="AI4">
-        <v>198075</v>
+        <v>198078</v>
       </c>
       <c r="AJ4">
-        <v>128213</v>
+        <v>128214</v>
       </c>
       <c r="AK4">
         <v>155759</v>
@@ -2092,55 +2092,55 @@
         <v>17150</v>
       </c>
       <c r="AM4">
-        <v>473760</v>
+        <v>473758</v>
       </c>
       <c r="AN4">
-        <v>644445</v>
+        <v>644446</v>
       </c>
       <c r="AO4">
         <v>741714</v>
       </c>
       <c r="AP4">
-        <v>728558</v>
+        <v>728556</v>
       </c>
       <c r="AQ4">
-        <v>890278</v>
+        <v>890280</v>
       </c>
       <c r="AR4">
-        <v>974397</v>
+        <v>974395</v>
       </c>
       <c r="AS4">
-        <v>975395</v>
+        <v>975397</v>
       </c>
       <c r="AT4">
-        <v>953868</v>
+        <v>953864</v>
       </c>
       <c r="AU4">
-        <v>845963</v>
+        <v>845961</v>
       </c>
       <c r="AV4">
-        <v>749715</v>
+        <v>749717</v>
       </c>
       <c r="AW4">
         <v>688398</v>
       </c>
       <c r="AX4">
-        <v>568120</v>
+        <v>568124</v>
       </c>
       <c r="AY4">
         <v>490013</v>
       </c>
       <c r="AZ4">
-        <v>361977</v>
+        <v>361979</v>
       </c>
       <c r="BA4">
-        <v>283657</v>
+        <v>283654</v>
       </c>
       <c r="BB4">
-        <v>204552</v>
+        <v>204555</v>
       </c>
       <c r="BC4">
-        <v>132604</v>
+        <v>132605</v>
       </c>
       <c r="BD4">
         <v>161124</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>844469</v>
+        <v>846850</v>
       </c>
       <c r="C5">
-        <v>304443</v>
+        <v>304988</v>
       </c>
       <c r="D5">
-        <v>156171</v>
+        <v>156452</v>
       </c>
       <c r="E5">
-        <v>136294</v>
+        <v>136731</v>
       </c>
       <c r="F5">
-        <v>93614</v>
+        <v>94188</v>
       </c>
       <c r="G5">
-        <v>91925</v>
+        <v>92235</v>
       </c>
       <c r="H5">
-        <v>32351</v>
+        <v>32530</v>
       </c>
       <c r="I5">
-        <v>23167</v>
+        <v>23207</v>
       </c>
       <c r="J5">
-        <v>6504</v>
+        <v>6519</v>
       </c>
       <c r="K5">
-        <v>11730530</v>
+        <v>11732913</v>
       </c>
       <c r="L5">
-        <v>3957832</v>
+        <v>3958376</v>
       </c>
       <c r="M5">
-        <v>2997653</v>
+        <v>2997934</v>
       </c>
       <c r="N5">
-        <v>1756171</v>
+        <v>1756608</v>
       </c>
       <c r="O5">
-        <v>1383470</v>
+        <v>1384044</v>
       </c>
       <c r="P5">
-        <v>959540</v>
+        <v>959853</v>
       </c>
       <c r="Q5">
-        <v>313894</v>
+        <v>314073</v>
       </c>
       <c r="R5">
-        <v>251499</v>
+        <v>251539</v>
       </c>
       <c r="S5">
-        <v>110471</v>
+        <v>110486</v>
       </c>
       <c r="T5">
-        <v>30601</v>
+        <v>30760</v>
       </c>
       <c r="U5">
-        <v>24027</v>
+        <v>24064</v>
       </c>
       <c r="V5">
-        <v>32419</v>
+        <v>32458</v>
       </c>
       <c r="W5">
-        <v>32033</v>
+        <v>32095</v>
       </c>
       <c r="X5">
-        <v>41250</v>
+        <v>41349</v>
       </c>
       <c r="Y5">
-        <v>53335</v>
+        <v>53454</v>
       </c>
       <c r="Z5">
-        <v>60399</v>
+        <v>60540</v>
       </c>
       <c r="AA5">
-        <v>66535</v>
+        <v>66670</v>
       </c>
       <c r="AB5">
-        <v>64002</v>
+        <v>64148</v>
       </c>
       <c r="AC5">
-        <v>58965</v>
+        <v>59113</v>
       </c>
       <c r="AD5">
-        <v>60354</v>
+        <v>60496</v>
       </c>
       <c r="AE5">
-        <v>55432</v>
+        <v>55581</v>
       </c>
       <c r="AF5">
-        <v>54468</v>
+        <v>54628</v>
       </c>
       <c r="AG5">
-        <v>46801</v>
+        <v>46952</v>
       </c>
       <c r="AH5">
-        <v>43014</v>
+        <v>43197</v>
       </c>
       <c r="AI5">
-        <v>37860</v>
+        <v>38064</v>
       </c>
       <c r="AJ5">
-        <v>30704</v>
+        <v>30897</v>
       </c>
       <c r="AK5">
-        <v>51459</v>
+        <v>51737</v>
       </c>
       <c r="AL5">
-        <v>811</v>
+        <v>647</v>
       </c>
       <c r="AM5">
-        <v>504361</v>
+        <v>504518</v>
       </c>
       <c r="AN5">
-        <v>668472</v>
+        <v>668510</v>
       </c>
       <c r="AO5">
-        <v>774133</v>
+        <v>774172</v>
       </c>
       <c r="AP5">
-        <v>760591</v>
+        <v>760651</v>
       </c>
       <c r="AQ5">
-        <v>931528</v>
+        <v>931629</v>
       </c>
       <c r="AR5">
-        <v>1027732</v>
+        <v>1027849</v>
       </c>
       <c r="AS5">
-        <v>1035794</v>
+        <v>1035937</v>
       </c>
       <c r="AT5">
-        <v>1020403</v>
+        <v>1020534</v>
       </c>
       <c r="AU5">
-        <v>909965</v>
+        <v>910109</v>
       </c>
       <c r="AV5">
-        <v>808680</v>
+        <v>808830</v>
       </c>
       <c r="AW5">
-        <v>748752</v>
+        <v>748894</v>
       </c>
       <c r="AX5">
-        <v>623552</v>
+        <v>623705</v>
       </c>
       <c r="AY5">
-        <v>544481</v>
+        <v>544641</v>
       </c>
       <c r="AZ5">
-        <v>408778</v>
+        <v>408931</v>
       </c>
       <c r="BA5">
-        <v>326671</v>
+        <v>326851</v>
       </c>
       <c r="BB5">
-        <v>242412</v>
+        <v>242619</v>
       </c>
       <c r="BC5">
-        <v>163308</v>
+        <v>163502</v>
       </c>
       <c r="BD5">
-        <v>212583</v>
+        <v>212861</v>
       </c>
       <c r="BE5">
-        <v>18334</v>
+        <v>18170</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809673</v>
+        <v>1809674</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90129</v>
+        <v>90130</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377744</v>
+        <v>2377745</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2217</v>
       </c>
       <c r="P26" s="3">
-        <v>109290</v>
+        <v>109291</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065296</v>
+        <v>3065297</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153724</v>
+        <v>153725</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,10 +3937,10 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366786</v>
+        <v>1366787</v>
       </c>
       <c r="C28" s="3">
-        <v>536607</v>
+        <v>536606</v>
       </c>
       <c r="D28" s="3">
         <v>250086</v>
@@ -3952,7 +3952,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120505</v>
+        <v>120507</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,10 +3964,10 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432082</v>
+        <v>4432084</v>
       </c>
       <c r="L28" s="3">
-        <v>1689283</v>
+        <v>1689282</v>
       </c>
       <c r="M28" s="3">
         <v>1310022</v>
@@ -3979,7 +3979,7 @@
         <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274229</v>
+        <v>274232</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4023,10 +4023,10 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772009</v>
+        <v>5772011</v>
       </c>
       <c r="L29" s="3">
-        <v>2121663</v>
+        <v>2121662</v>
       </c>
       <c r="M29" s="3">
         <v>1584974</v>
@@ -4038,7 +4038,7 @@
         <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414099</v>
+        <v>414102</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,10 +4082,10 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082385</v>
+        <v>7082387</v>
       </c>
       <c r="L30" s="3">
-        <v>2418930</v>
+        <v>2418929</v>
       </c>
       <c r="M30" s="3">
         <v>1918283</v>
@@ -4097,7 +4097,7 @@
         <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522245</v>
+        <v>522248</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,10 +4141,10 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966692</v>
+        <v>7966694</v>
       </c>
       <c r="L31" s="3">
-        <v>2652831</v>
+        <v>2652830</v>
       </c>
       <c r="M31" s="3">
         <v>2133369</v>
@@ -4156,7 +4156,7 @@
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599576</v>
+        <v>599579</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,10 +4200,10 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217042</v>
+        <v>9217044</v>
       </c>
       <c r="L32" s="3">
-        <v>3031436</v>
+        <v>3031435</v>
       </c>
       <c r="M32" s="3">
         <v>2445486</v>
@@ -4215,7 +4215,7 @@
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>716977</v>
+        <v>716980</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,10 +4259,10 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771900</v>
+        <v>9771902</v>
       </c>
       <c r="L33" s="3">
-        <v>3261485</v>
+        <v>3261484</v>
       </c>
       <c r="M33" s="3">
         <v>2570916</v>
@@ -4274,7 +4274,7 @@
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757488</v>
+        <v>757491</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,10 +4318,10 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966149</v>
+        <v>9966151</v>
       </c>
       <c r="L34" s="3">
-        <v>3330337</v>
+        <v>3330336</v>
       </c>
       <c r="M34" s="3">
         <v>2617585</v>
@@ -4333,7 +4333,7 @@
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772772</v>
+        <v>772775</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,10 +4377,10 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108251</v>
+        <v>10108253</v>
       </c>
       <c r="L35" s="3">
-        <v>3374836</v>
+        <v>3374835</v>
       </c>
       <c r="M35" s="3">
         <v>2653979</v>
@@ -4392,7 +4392,7 @@
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>785947</v>
+        <v>785950</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,10 +4436,10 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460193</v>
+        <v>10460195</v>
       </c>
       <c r="L36" s="3">
-        <v>3496928</v>
+        <v>3496927</v>
       </c>
       <c r="M36" s="3">
         <v>2746876</v>
@@ -4451,7 +4451,7 @@
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823110</v>
+        <v>823113</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,10 +4495,10 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886061</v>
+        <v>10886063</v>
       </c>
       <c r="L37" s="3">
-        <v>3653389</v>
+        <v>3653388</v>
       </c>
       <c r="M37" s="3">
         <v>2841482</v>
@@ -4510,7 +4510,7 @@
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867615</v>
+        <v>867618</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,10 +4554,10 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016144</v>
+        <v>11016146</v>
       </c>
       <c r="L38" s="3">
-        <v>3699333</v>
+        <v>3699332</v>
       </c>
       <c r="M38" s="3">
         <v>2864587</v>
@@ -4569,7 +4569,7 @@
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879505</v>
+        <v>879508</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,10 +4613,10 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088130</v>
+        <v>11088132</v>
       </c>
       <c r="L39" s="3">
-        <v>3724576</v>
+        <v>3724575</v>
       </c>
       <c r="M39" s="3">
         <v>2876976</v>
@@ -4628,7 +4628,7 @@
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886358</v>
+        <v>886361</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,10 +4672,10 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192090</v>
+        <v>11192092</v>
       </c>
       <c r="L40" s="3">
-        <v>3763218</v>
+        <v>3763217</v>
       </c>
       <c r="M40" s="3">
         <v>2896213</v>
@@ -4687,7 +4687,7 @@
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>897858</v>
+        <v>897861</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,10 +4731,10 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315207</v>
+        <v>11315209</v>
       </c>
       <c r="L41" s="3">
-        <v>3810747</v>
+        <v>3810746</v>
       </c>
       <c r="M41" s="3">
         <v>2922020</v>
@@ -4746,7 +4746,7 @@
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910187</v>
+        <v>910190</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,10 +4790,10 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481400</v>
+        <v>11481402</v>
       </c>
       <c r="L42" s="3">
-        <v>3872841</v>
+        <v>3872840</v>
       </c>
       <c r="M42" s="3">
         <v>2960396</v>
@@ -4805,7 +4805,7 @@
         <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925100</v>
+        <v>925103</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,10 +4849,10 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559163</v>
+        <v>11559165</v>
       </c>
       <c r="L43" s="3">
-        <v>3901025</v>
+        <v>3901024</v>
       </c>
       <c r="M43" s="3">
         <v>2975163</v>
@@ -4864,7 +4864,7 @@
         <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932314</v>
+        <v>932317</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4881,13 +4881,13 @@
         <v>45108</v>
       </c>
       <c r="B44" s="3">
-        <v>28188</v>
+        <v>28189</v>
       </c>
       <c r="C44" s="3">
         <v>10297</v>
       </c>
       <c r="D44" s="3">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="E44" s="3">
         <v>6948</v>
@@ -4908,13 +4908,13 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587351</v>
+        <v>11587354</v>
       </c>
       <c r="L44" s="3">
-        <v>3911322</v>
+        <v>3911321</v>
       </c>
       <c r="M44" s="3">
-        <v>2977219</v>
+        <v>2977220</v>
       </c>
       <c r="N44" s="3">
         <v>1733163</v>
@@ -4923,7 +4923,7 @@
         <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935243</v>
+        <v>935246</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4940,7 +4940,7 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23424</v>
+        <v>23425</v>
       </c>
       <c r="C45" s="3">
         <v>9151</v>
@@ -4952,7 +4952,7 @@
         <v>4538</v>
       </c>
       <c r="F45" s="3">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="G45" s="3">
         <v>2449</v>
@@ -4967,22 +4967,22 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610775</v>
+        <v>11610779</v>
       </c>
       <c r="L45" s="3">
-        <v>3920473</v>
+        <v>3920472</v>
       </c>
       <c r="M45" s="3">
-        <v>2979334</v>
+        <v>2979335</v>
       </c>
       <c r="N45" s="3">
         <v>1737701</v>
       </c>
       <c r="O45" s="3">
-        <v>1376079</v>
+        <v>1376080</v>
       </c>
       <c r="P45" s="3">
-        <v>937692</v>
+        <v>937695</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -4999,7 +4999,7 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22110</v>
+        <v>22109</v>
       </c>
       <c r="C46" s="3">
         <v>8984</v>
@@ -5011,7 +5011,7 @@
         <v>2023</v>
       </c>
       <c r="F46" s="3">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="G46" s="3">
         <v>3033</v>
@@ -5026,13 +5026,13 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632885</v>
+        <v>11632888</v>
       </c>
       <c r="L46" s="3">
-        <v>3929457</v>
+        <v>3929456</v>
       </c>
       <c r="M46" s="3">
-        <v>2982573</v>
+        <v>2982574</v>
       </c>
       <c r="N46" s="3">
         <v>1739724</v>
@@ -5041,7 +5041,7 @@
         <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940725</v>
+        <v>940728</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5058,13 +5058,13 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27915</v>
+        <v>27916</v>
       </c>
       <c r="C47" s="3">
         <v>7751</v>
       </c>
       <c r="D47" s="3">
-        <v>5605</v>
+        <v>5606</v>
       </c>
       <c r="E47" s="3">
         <v>3702</v>
@@ -5085,13 +5085,13 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660800</v>
+        <v>11660804</v>
       </c>
       <c r="L47" s="3">
-        <v>3937208</v>
+        <v>3937207</v>
       </c>
       <c r="M47" s="3">
-        <v>2988178</v>
+        <v>2988180</v>
       </c>
       <c r="N47" s="3">
         <v>1743426</v>
@@ -5100,7 +5100,7 @@
         <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>945802</v>
+        <v>945805</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,25 +5117,25 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>44063</v>
+        <v>44079</v>
       </c>
       <c r="C48" s="3">
         <v>12379</v>
       </c>
       <c r="D48" s="3">
-        <v>6092</v>
+        <v>6096</v>
       </c>
       <c r="E48" s="3">
-        <v>7206</v>
+        <v>7210</v>
       </c>
       <c r="F48" s="3">
-        <v>2192</v>
+        <v>2198</v>
       </c>
       <c r="G48" s="3">
-        <v>9335</v>
+        <v>9336</v>
       </c>
       <c r="H48" s="3">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="I48" s="3">
         <v>2159</v>
@@ -5144,25 +5144,25 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11704863</v>
+        <v>11704883</v>
       </c>
       <c r="L48" s="3">
-        <v>3949587</v>
+        <v>3949586</v>
       </c>
       <c r="M48" s="3">
-        <v>2994270</v>
+        <v>2994276</v>
       </c>
       <c r="N48" s="3">
-        <v>1750632</v>
+        <v>1750636</v>
       </c>
       <c r="O48" s="3">
-        <v>1382827</v>
+        <v>1382833</v>
       </c>
       <c r="P48" s="3">
-        <v>955137</v>
+        <v>955141</v>
       </c>
       <c r="Q48" s="3">
-        <v>311673</v>
+        <v>311674</v>
       </c>
       <c r="R48" s="3">
         <v>250474</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>25667</v>
+        <v>28030</v>
       </c>
       <c r="C49">
-        <v>8245</v>
+        <v>8790</v>
       </c>
       <c r="D49">
-        <v>3383</v>
+        <v>3658</v>
       </c>
       <c r="E49">
-        <v>5539</v>
+        <v>5972</v>
       </c>
       <c r="F49">
-        <v>643</v>
+        <v>1211</v>
       </c>
       <c r="G49">
-        <v>4403</v>
+        <v>4712</v>
       </c>
       <c r="H49">
-        <v>2221</v>
+        <v>2399</v>
       </c>
       <c r="I49">
-        <v>1025</v>
+        <v>1065</v>
       </c>
       <c r="J49">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="K49">
-        <v>11730530</v>
+        <v>11732913</v>
       </c>
       <c r="L49">
-        <v>3957832</v>
+        <v>3958376</v>
       </c>
       <c r="M49">
-        <v>2997653</v>
+        <v>2997934</v>
       </c>
       <c r="N49">
-        <v>1756171</v>
+        <v>1756608</v>
       </c>
       <c r="O49">
-        <v>1383470</v>
+        <v>1384044</v>
       </c>
       <c r="P49">
-        <v>959540</v>
+        <v>959853</v>
       </c>
       <c r="Q49">
-        <v>313894</v>
+        <v>314073</v>
       </c>
       <c r="R49">
-        <v>251499</v>
+        <v>251539</v>
       </c>
       <c r="S49">
-        <v>110471</v>
+        <v>110486</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM42"/>
+  <dimension ref="A1:IM43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -33574,6 +33574,749 @@
       </c>
       <c r="IM42">
         <v>13645</v>
+      </c>
+    </row>
+    <row r="43" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B43">
+        <v>2383</v>
+      </c>
+      <c r="C43">
+        <v>544</v>
+      </c>
+      <c r="D43">
+        <v>281</v>
+      </c>
+      <c r="E43">
+        <v>437</v>
+      </c>
+      <c r="F43">
+        <v>574</v>
+      </c>
+      <c r="G43">
+        <v>313</v>
+      </c>
+      <c r="H43">
+        <v>179</v>
+      </c>
+      <c r="I43">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <v>15</v>
+      </c>
+      <c r="K43">
+        <v>11732913</v>
+      </c>
+      <c r="L43">
+        <v>3958376</v>
+      </c>
+      <c r="M43">
+        <v>2997934</v>
+      </c>
+      <c r="N43">
+        <v>1756608</v>
+      </c>
+      <c r="O43">
+        <v>1384044</v>
+      </c>
+      <c r="P43">
+        <v>959853</v>
+      </c>
+      <c r="Q43">
+        <v>314073</v>
+      </c>
+      <c r="R43">
+        <v>251539</v>
+      </c>
+      <c r="S43">
+        <v>110486</v>
+      </c>
+      <c r="T43">
+        <v>157</v>
+      </c>
+      <c r="U43">
+        <v>38</v>
+      </c>
+      <c r="V43">
+        <v>39</v>
+      </c>
+      <c r="W43">
+        <v>60</v>
+      </c>
+      <c r="X43">
+        <v>101</v>
+      </c>
+      <c r="Y43">
+        <v>117</v>
+      </c>
+      <c r="Z43">
+        <v>143</v>
+      </c>
+      <c r="AA43">
+        <v>131</v>
+      </c>
+      <c r="AB43">
+        <v>144</v>
+      </c>
+      <c r="AC43">
+        <v>150</v>
+      </c>
+      <c r="AD43">
+        <v>142</v>
+      </c>
+      <c r="AE43">
+        <v>153</v>
+      </c>
+      <c r="AF43">
+        <v>160</v>
+      </c>
+      <c r="AG43">
+        <v>153</v>
+      </c>
+      <c r="AH43">
+        <v>180</v>
+      </c>
+      <c r="AI43">
+        <v>207</v>
+      </c>
+      <c r="AJ43">
+        <v>194</v>
+      </c>
+      <c r="AK43">
+        <v>278</v>
+      </c>
+      <c r="AL43">
+        <v>-164</v>
+      </c>
+      <c r="AM43">
+        <v>504518</v>
+      </c>
+      <c r="AN43">
+        <v>668510</v>
+      </c>
+      <c r="AO43">
+        <v>774172</v>
+      </c>
+      <c r="AP43">
+        <v>760651</v>
+      </c>
+      <c r="AQ43">
+        <v>931629</v>
+      </c>
+      <c r="AR43">
+        <v>1027849</v>
+      </c>
+      <c r="AS43">
+        <v>1035937</v>
+      </c>
+      <c r="AT43">
+        <v>1020534</v>
+      </c>
+      <c r="AU43">
+        <v>910109</v>
+      </c>
+      <c r="AV43">
+        <v>808830</v>
+      </c>
+      <c r="AW43">
+        <v>748894</v>
+      </c>
+      <c r="AX43">
+        <v>623705</v>
+      </c>
+      <c r="AY43">
+        <v>544641</v>
+      </c>
+      <c r="AZ43">
+        <v>408931</v>
+      </c>
+      <c r="BA43">
+        <v>326851</v>
+      </c>
+      <c r="BB43">
+        <v>242619</v>
+      </c>
+      <c r="BC43">
+        <v>163502</v>
+      </c>
+      <c r="BD43">
+        <v>212861</v>
+      </c>
+      <c r="BE43">
+        <v>18170</v>
+      </c>
+      <c r="BF43">
+        <v>80</v>
+      </c>
+      <c r="BG43">
+        <v>77</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>18</v>
+      </c>
+      <c r="BL43">
+        <v>20</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
+        <v>20</v>
+      </c>
+      <c r="BQ43">
+        <v>20</v>
+      </c>
+      <c r="BR43">
+        <v>0</v>
+      </c>
+      <c r="BS43">
+        <v>0</v>
+      </c>
+      <c r="BT43">
+        <v>-1</v>
+      </c>
+      <c r="BU43">
+        <v>27</v>
+      </c>
+      <c r="BV43">
+        <v>33</v>
+      </c>
+      <c r="BW43">
+        <v>0</v>
+      </c>
+      <c r="BX43">
+        <v>0</v>
+      </c>
+      <c r="BY43">
+        <v>0</v>
+      </c>
+      <c r="BZ43">
+        <v>35</v>
+      </c>
+      <c r="CA43">
+        <v>66</v>
+      </c>
+      <c r="CB43">
+        <v>0</v>
+      </c>
+      <c r="CC43">
+        <v>0</v>
+      </c>
+      <c r="CD43">
+        <v>0</v>
+      </c>
+      <c r="CE43">
+        <v>46</v>
+      </c>
+      <c r="CF43">
+        <v>71</v>
+      </c>
+      <c r="CG43">
+        <v>0</v>
+      </c>
+      <c r="CH43">
+        <v>0</v>
+      </c>
+      <c r="CI43">
+        <v>0</v>
+      </c>
+      <c r="CJ43">
+        <v>52</v>
+      </c>
+      <c r="CK43">
+        <v>92</v>
+      </c>
+      <c r="CL43">
+        <v>0</v>
+      </c>
+      <c r="CM43">
+        <v>-1</v>
+      </c>
+      <c r="CN43">
+        <v>0</v>
+      </c>
+      <c r="CO43">
+        <v>54</v>
+      </c>
+      <c r="CP43">
+        <v>77</v>
+      </c>
+      <c r="CQ43">
+        <v>0</v>
+      </c>
+      <c r="CR43">
+        <v>0</v>
+      </c>
+      <c r="CS43">
+        <v>0</v>
+      </c>
+      <c r="CT43">
+        <v>64</v>
+      </c>
+      <c r="CU43">
+        <v>80</v>
+      </c>
+      <c r="CV43">
+        <v>0</v>
+      </c>
+      <c r="CW43">
+        <v>0</v>
+      </c>
+      <c r="CX43">
+        <v>0</v>
+      </c>
+      <c r="CY43">
+        <v>64</v>
+      </c>
+      <c r="CZ43">
+        <v>86</v>
+      </c>
+      <c r="DA43">
+        <v>0</v>
+      </c>
+      <c r="DB43">
+        <v>0</v>
+      </c>
+      <c r="DC43">
+        <v>0</v>
+      </c>
+      <c r="DD43">
+        <v>53</v>
+      </c>
+      <c r="DE43">
+        <v>88</v>
+      </c>
+      <c r="DF43">
+        <v>0</v>
+      </c>
+      <c r="DG43">
+        <v>1</v>
+      </c>
+      <c r="DH43">
+        <v>0</v>
+      </c>
+      <c r="DI43">
+        <v>67</v>
+      </c>
+      <c r="DJ43">
+        <v>86</v>
+      </c>
+      <c r="DK43">
+        <v>0</v>
+      </c>
+      <c r="DL43">
+        <v>0</v>
+      </c>
+      <c r="DM43">
+        <v>0</v>
+      </c>
+      <c r="DN43">
+        <v>62</v>
+      </c>
+      <c r="DO43">
+        <v>98</v>
+      </c>
+      <c r="DP43">
+        <v>0</v>
+      </c>
+      <c r="DQ43">
+        <v>0</v>
+      </c>
+      <c r="DR43">
+        <v>0</v>
+      </c>
+      <c r="DS43">
+        <v>70</v>
+      </c>
+      <c r="DT43">
+        <v>83</v>
+      </c>
+      <c r="DU43">
+        <v>0</v>
+      </c>
+      <c r="DV43">
+        <v>0</v>
+      </c>
+      <c r="DW43">
+        <v>0</v>
+      </c>
+      <c r="DX43">
+        <v>81</v>
+      </c>
+      <c r="DY43">
+        <v>99</v>
+      </c>
+      <c r="DZ43">
+        <v>0</v>
+      </c>
+      <c r="EA43">
+        <v>0</v>
+      </c>
+      <c r="EB43">
+        <v>0</v>
+      </c>
+      <c r="EC43">
+        <v>100</v>
+      </c>
+      <c r="ED43">
+        <v>107</v>
+      </c>
+      <c r="EE43">
+        <v>0</v>
+      </c>
+      <c r="EF43">
+        <v>0</v>
+      </c>
+      <c r="EG43">
+        <v>0</v>
+      </c>
+      <c r="EH43">
+        <v>101</v>
+      </c>
+      <c r="EI43">
+        <v>93</v>
+      </c>
+      <c r="EJ43">
+        <v>0</v>
+      </c>
+      <c r="EK43">
+        <v>0</v>
+      </c>
+      <c r="EL43">
+        <v>0</v>
+      </c>
+      <c r="EM43">
+        <v>130</v>
+      </c>
+      <c r="EN43">
+        <v>148</v>
+      </c>
+      <c r="EO43">
+        <v>0</v>
+      </c>
+      <c r="EP43">
+        <v>0</v>
+      </c>
+      <c r="EQ43">
+        <v>0</v>
+      </c>
+      <c r="ER43">
+        <v>0</v>
+      </c>
+      <c r="ES43">
+        <v>0</v>
+      </c>
+      <c r="ET43">
+        <v>0</v>
+      </c>
+      <c r="EU43">
+        <v>0</v>
+      </c>
+      <c r="EV43">
+        <v>-164</v>
+      </c>
+      <c r="EW43">
+        <v>232418</v>
+      </c>
+      <c r="EX43">
+        <v>220598</v>
+      </c>
+      <c r="EY43">
+        <v>409</v>
+      </c>
+      <c r="EZ43">
+        <v>15445</v>
+      </c>
+      <c r="FA43">
+        <v>35648</v>
+      </c>
+      <c r="FB43">
+        <v>308324</v>
+      </c>
+      <c r="FC43">
+        <v>292937</v>
+      </c>
+      <c r="FD43">
+        <v>466</v>
+      </c>
+      <c r="FE43">
+        <v>16750</v>
+      </c>
+      <c r="FF43">
+        <v>50033</v>
+      </c>
+      <c r="FG43">
+        <v>353620</v>
+      </c>
+      <c r="FH43">
+        <v>342903</v>
+      </c>
+      <c r="FI43">
+        <v>632</v>
+      </c>
+      <c r="FJ43">
+        <v>16936</v>
+      </c>
+      <c r="FK43">
+        <v>60081</v>
+      </c>
+      <c r="FL43">
+        <v>326717</v>
+      </c>
+      <c r="FM43">
+        <v>374307</v>
+      </c>
+      <c r="FN43">
+        <v>896</v>
+      </c>
+      <c r="FO43">
+        <v>12912</v>
+      </c>
+      <c r="FP43">
+        <v>45819</v>
+      </c>
+      <c r="FQ43">
+        <v>392465</v>
+      </c>
+      <c r="FR43">
+        <v>480403</v>
+      </c>
+      <c r="FS43">
+        <v>1101</v>
+      </c>
+      <c r="FT43">
+        <v>16248</v>
+      </c>
+      <c r="FU43">
+        <v>41412</v>
+      </c>
+      <c r="FV43">
+        <v>434426</v>
+      </c>
+      <c r="FW43">
+        <v>527039</v>
+      </c>
+      <c r="FX43">
+        <v>1139</v>
+      </c>
+      <c r="FY43">
+        <v>17741</v>
+      </c>
+      <c r="FZ43">
+        <v>47504</v>
+      </c>
+      <c r="GA43">
+        <v>429864</v>
+      </c>
+      <c r="GB43">
+        <v>533205</v>
+      </c>
+      <c r="GC43">
+        <v>923</v>
+      </c>
+      <c r="GD43">
+        <v>17124</v>
+      </c>
+      <c r="GE43">
+        <v>54821</v>
+      </c>
+      <c r="GF43">
+        <v>420374</v>
+      </c>
+      <c r="GG43">
+        <v>525687</v>
+      </c>
+      <c r="GH43">
+        <v>666</v>
+      </c>
+      <c r="GI43">
+        <v>14980</v>
+      </c>
+      <c r="GJ43">
+        <v>58827</v>
+      </c>
+      <c r="GK43">
+        <v>374191</v>
+      </c>
+      <c r="GL43">
+        <v>469925</v>
+      </c>
+      <c r="GM43">
+        <v>498</v>
+      </c>
+      <c r="GN43">
+        <v>12332</v>
+      </c>
+      <c r="GO43">
+        <v>53163</v>
+      </c>
+      <c r="GP43">
+        <v>330907</v>
+      </c>
+      <c r="GQ43">
+        <v>422058</v>
+      </c>
+      <c r="GR43">
+        <v>439</v>
+      </c>
+      <c r="GS43">
+        <v>10108</v>
+      </c>
+      <c r="GT43">
+        <v>45318</v>
+      </c>
+      <c r="GU43">
+        <v>308827</v>
+      </c>
+      <c r="GV43">
+        <v>390473</v>
+      </c>
+      <c r="GW43">
+        <v>402</v>
+      </c>
+      <c r="GX43">
+        <v>8931</v>
+      </c>
+      <c r="GY43">
+        <v>40261</v>
+      </c>
+      <c r="GZ43">
+        <v>264223</v>
+      </c>
+      <c r="HA43">
+        <v>320813</v>
+      </c>
+      <c r="HB43">
+        <v>329</v>
+      </c>
+      <c r="HC43">
+        <v>6594</v>
+      </c>
+      <c r="HD43">
+        <v>31746</v>
+      </c>
+      <c r="HE43">
+        <v>235098</v>
+      </c>
+      <c r="HF43">
+        <v>278042</v>
+      </c>
+      <c r="HG43">
+        <v>234</v>
+      </c>
+      <c r="HH43">
+        <v>5310</v>
+      </c>
+      <c r="HI43">
+        <v>25957</v>
+      </c>
+      <c r="HJ43">
+        <v>181506</v>
+      </c>
+      <c r="HK43">
+        <v>205104</v>
+      </c>
+      <c r="HL43">
+        <v>199</v>
+      </c>
+      <c r="HM43">
+        <v>3602</v>
+      </c>
+      <c r="HN43">
+        <v>18520</v>
+      </c>
+      <c r="HO43">
+        <v>152466</v>
+      </c>
+      <c r="HP43">
+        <v>159240</v>
+      </c>
+      <c r="HQ43">
+        <v>164</v>
+      </c>
+      <c r="HR43">
+        <v>2634</v>
+      </c>
+      <c r="HS43">
+        <v>12347</v>
+      </c>
+      <c r="HT43">
+        <v>116941</v>
+      </c>
+      <c r="HU43">
+        <v>115852</v>
+      </c>
+      <c r="HV43">
+        <v>164</v>
+      </c>
+      <c r="HW43">
+        <v>1850</v>
+      </c>
+      <c r="HX43">
+        <v>7812</v>
+      </c>
+      <c r="HY43">
+        <v>76890</v>
+      </c>
+      <c r="HZ43">
+        <v>80688</v>
+      </c>
+      <c r="IA43">
+        <v>131</v>
+      </c>
+      <c r="IB43">
+        <v>1262</v>
+      </c>
+      <c r="IC43">
+        <v>4531</v>
+      </c>
+      <c r="ID43">
+        <v>82465</v>
+      </c>
+      <c r="IE43">
+        <v>123997</v>
+      </c>
+      <c r="IF43">
+        <v>307</v>
+      </c>
+      <c r="IG43">
+        <v>2251</v>
+      </c>
+      <c r="IH43">
+        <v>3841</v>
+      </c>
+      <c r="II43">
+        <v>2154</v>
+      </c>
+      <c r="IJ43">
+        <v>2309</v>
+      </c>
+      <c r="IK43">
+        <v>25</v>
+      </c>
+      <c r="IL43">
+        <v>201</v>
+      </c>
+      <c r="IM43">
+        <v>13481</v>
       </c>
     </row>
   </sheetData>
@@ -33600,7 +34343,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C6A25-75F2-440B-BCD9-198FAE840F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453796F4-D3A6-45F6-BACB-BD5FC38C6044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1808,10 +1808,10 @@
         <v>44197</v>
       </c>
       <c r="B3">
-        <v>538955</v>
+        <v>538967</v>
       </c>
       <c r="C3">
-        <v>280240</v>
+        <v>280241</v>
       </c>
       <c r="D3">
         <v>199399</v>
@@ -1823,7 +1823,7 @@
         <v>421</v>
       </c>
       <c r="G3">
-        <v>18548</v>
+        <v>18559</v>
       </c>
       <c r="H3">
         <v>1630</v>
@@ -1835,10 +1835,10 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568071</v>
+        <v>568083</v>
       </c>
       <c r="L3">
-        <v>285284</v>
+        <v>285285</v>
       </c>
       <c r="M3">
         <v>220128</v>
@@ -1850,7 +1850,7 @@
         <v>1367</v>
       </c>
       <c r="P3">
-        <v>19161</v>
+        <v>19172</v>
       </c>
       <c r="Q3">
         <v>1877</v>
@@ -1868,22 +1868,22 @@
         <v>32428</v>
       </c>
       <c r="V3">
-        <v>30561</v>
+        <v>30562</v>
       </c>
       <c r="W3">
         <v>43737</v>
       </c>
       <c r="X3">
-        <v>75260</v>
+        <v>75261</v>
       </c>
       <c r="Y3">
-        <v>70912</v>
+        <v>70916</v>
       </c>
       <c r="Z3">
-        <v>55519</v>
+        <v>55520</v>
       </c>
       <c r="AA3">
-        <v>42726</v>
+        <v>42728</v>
       </c>
       <c r="AB3">
         <v>33829</v>
@@ -1910,10 +1910,10 @@
         <v>5716</v>
       </c>
       <c r="AJ3">
-        <v>3751</v>
+        <v>3753</v>
       </c>
       <c r="AK3">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="AL3">
         <v>350</v>
@@ -1925,22 +1925,22 @@
         <v>33199</v>
       </c>
       <c r="AO3">
-        <v>31514</v>
+        <v>31515</v>
       </c>
       <c r="AP3">
         <v>45246</v>
       </c>
       <c r="AQ3">
-        <v>78228</v>
+        <v>78229</v>
       </c>
       <c r="AR3">
-        <v>74442</v>
+        <v>74446</v>
       </c>
       <c r="AS3">
-        <v>58382</v>
+        <v>58383</v>
       </c>
       <c r="AT3">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="AU3">
         <v>35618</v>
@@ -1967,10 +1967,10 @@
         <v>6477</v>
       </c>
       <c r="BC3">
-        <v>4391</v>
+        <v>4393</v>
       </c>
       <c r="BD3">
-        <v>5365</v>
+        <v>5366</v>
       </c>
       <c r="BE3">
         <v>373</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10317992</v>
+        <v>10318100</v>
       </c>
       <c r="C4">
         <v>3368104</v>
@@ -1996,7 +1996,7 @@
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848457</v>
+        <v>848565</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,10 +2008,10 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886063</v>
+        <v>10886183</v>
       </c>
       <c r="L4">
-        <v>3653388</v>
+        <v>3653389</v>
       </c>
       <c r="M4">
         <v>2841482</v>
@@ -2023,7 +2023,7 @@
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867618</v>
+        <v>867737</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,118 +2035,118 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450508</v>
+        <v>450509</v>
       </c>
       <c r="U4">
         <v>611247</v>
       </c>
       <c r="V4">
-        <v>710200</v>
+        <v>710201</v>
       </c>
       <c r="W4">
-        <v>683310</v>
+        <v>683311</v>
       </c>
       <c r="X4">
-        <v>812052</v>
+        <v>812050</v>
       </c>
       <c r="Y4">
-        <v>899953</v>
+        <v>899965</v>
       </c>
       <c r="Z4">
-        <v>917015</v>
+        <v>917025</v>
       </c>
       <c r="AA4">
-        <v>908873</v>
+        <v>908885</v>
       </c>
       <c r="AB4">
-        <v>810343</v>
+        <v>810340</v>
       </c>
       <c r="AC4">
-        <v>717637</v>
+        <v>717645</v>
       </c>
       <c r="AD4">
-        <v>658709</v>
+        <v>658715</v>
       </c>
       <c r="AE4">
-        <v>544123</v>
+        <v>544127</v>
       </c>
       <c r="AF4">
-        <v>471478</v>
+        <v>471487</v>
       </c>
       <c r="AG4">
-        <v>349003</v>
+        <v>349011</v>
       </c>
       <c r="AH4">
-        <v>274340</v>
+        <v>274348</v>
       </c>
       <c r="AI4">
-        <v>198078</v>
+        <v>198085</v>
       </c>
       <c r="AJ4">
-        <v>128214</v>
+        <v>128225</v>
       </c>
       <c r="AK4">
-        <v>155759</v>
+        <v>155775</v>
       </c>
       <c r="AL4">
-        <v>17150</v>
+        <v>17149</v>
       </c>
       <c r="AM4">
-        <v>473758</v>
+        <v>473759</v>
       </c>
       <c r="AN4">
         <v>644446</v>
       </c>
       <c r="AO4">
-        <v>741714</v>
+        <v>741716</v>
       </c>
       <c r="AP4">
-        <v>728556</v>
+        <v>728557</v>
       </c>
       <c r="AQ4">
-        <v>890280</v>
+        <v>890279</v>
       </c>
       <c r="AR4">
-        <v>974395</v>
+        <v>974411</v>
       </c>
       <c r="AS4">
-        <v>975397</v>
+        <v>975408</v>
       </c>
       <c r="AT4">
-        <v>953864</v>
+        <v>953878</v>
       </c>
       <c r="AU4">
-        <v>845961</v>
+        <v>845958</v>
       </c>
       <c r="AV4">
-        <v>749717</v>
+        <v>749725</v>
       </c>
       <c r="AW4">
-        <v>688398</v>
+        <v>688404</v>
       </c>
       <c r="AX4">
-        <v>568124</v>
+        <v>568128</v>
       </c>
       <c r="AY4">
-        <v>490013</v>
+        <v>490022</v>
       </c>
       <c r="AZ4">
-        <v>361979</v>
+        <v>361987</v>
       </c>
       <c r="BA4">
-        <v>283654</v>
+        <v>283662</v>
       </c>
       <c r="BB4">
-        <v>204555</v>
+        <v>204562</v>
       </c>
       <c r="BC4">
-        <v>132605</v>
+        <v>132618</v>
       </c>
       <c r="BD4">
-        <v>161124</v>
+        <v>161141</v>
       </c>
       <c r="BE4">
-        <v>17523</v>
+        <v>17522</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>846850</v>
+        <v>848998</v>
       </c>
       <c r="C5">
-        <v>304988</v>
+        <v>305480</v>
       </c>
       <c r="D5">
-        <v>156452</v>
+        <v>156677</v>
       </c>
       <c r="E5">
-        <v>136731</v>
+        <v>137109</v>
       </c>
       <c r="F5">
         <v>94188</v>
       </c>
       <c r="G5">
-        <v>92235</v>
+        <v>93057</v>
       </c>
       <c r="H5">
-        <v>32530</v>
+        <v>32693</v>
       </c>
       <c r="I5">
-        <v>23207</v>
+        <v>23257</v>
       </c>
       <c r="J5">
-        <v>6519</v>
+        <v>6537</v>
       </c>
       <c r="K5">
-        <v>11732913</v>
+        <v>11735181</v>
       </c>
       <c r="L5">
-        <v>3958376</v>
+        <v>3958869</v>
       </c>
       <c r="M5">
-        <v>2997934</v>
+        <v>2998159</v>
       </c>
       <c r="N5">
-        <v>1756608</v>
+        <v>1756986</v>
       </c>
       <c r="O5">
         <v>1384044</v>
       </c>
       <c r="P5">
-        <v>959853</v>
+        <v>960794</v>
       </c>
       <c r="Q5">
-        <v>314073</v>
+        <v>314236</v>
       </c>
       <c r="R5">
-        <v>251539</v>
+        <v>251589</v>
       </c>
       <c r="S5">
-        <v>110486</v>
+        <v>110504</v>
       </c>
       <c r="T5">
-        <v>30760</v>
+        <v>30891</v>
       </c>
       <c r="U5">
-        <v>24064</v>
+        <v>24087</v>
       </c>
       <c r="V5">
-        <v>32458</v>
+        <v>32480</v>
       </c>
       <c r="W5">
-        <v>32095</v>
+        <v>32137</v>
       </c>
       <c r="X5">
-        <v>41349</v>
+        <v>41440</v>
       </c>
       <c r="Y5">
-        <v>53454</v>
+        <v>53579</v>
       </c>
       <c r="Z5">
-        <v>60540</v>
+        <v>60691</v>
       </c>
       <c r="AA5">
-        <v>66670</v>
+        <v>66818</v>
       </c>
       <c r="AB5">
-        <v>64148</v>
+        <v>64273</v>
       </c>
       <c r="AC5">
-        <v>59113</v>
+        <v>59217</v>
       </c>
       <c r="AD5">
-        <v>60496</v>
+        <v>60626</v>
       </c>
       <c r="AE5">
-        <v>55581</v>
+        <v>55704</v>
       </c>
       <c r="AF5">
-        <v>54628</v>
+        <v>54761</v>
       </c>
       <c r="AG5">
-        <v>46952</v>
+        <v>47106</v>
       </c>
       <c r="AH5">
-        <v>43197</v>
+        <v>43349</v>
       </c>
       <c r="AI5">
-        <v>38064</v>
+        <v>38230</v>
       </c>
       <c r="AJ5">
-        <v>30897</v>
+        <v>31037</v>
       </c>
       <c r="AK5">
-        <v>51737</v>
+        <v>51926</v>
       </c>
       <c r="AL5">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM5">
-        <v>504518</v>
+        <v>504650</v>
       </c>
       <c r="AN5">
-        <v>668510</v>
+        <v>668533</v>
       </c>
       <c r="AO5">
-        <v>774172</v>
+        <v>774196</v>
       </c>
       <c r="AP5">
-        <v>760651</v>
+        <v>760694</v>
       </c>
       <c r="AQ5">
-        <v>931629</v>
+        <v>931719</v>
       </c>
       <c r="AR5">
-        <v>1027849</v>
+        <v>1027990</v>
       </c>
       <c r="AS5">
-        <v>1035937</v>
+        <v>1036099</v>
       </c>
       <c r="AT5">
-        <v>1020534</v>
+        <v>1020696</v>
       </c>
       <c r="AU5">
-        <v>910109</v>
+        <v>910231</v>
       </c>
       <c r="AV5">
-        <v>808830</v>
+        <v>808942</v>
       </c>
       <c r="AW5">
-        <v>748894</v>
+        <v>749030</v>
       </c>
       <c r="AX5">
-        <v>623705</v>
+        <v>623832</v>
       </c>
       <c r="AY5">
-        <v>544641</v>
+        <v>544783</v>
       </c>
       <c r="AZ5">
-        <v>408931</v>
+        <v>409093</v>
       </c>
       <c r="BA5">
-        <v>326851</v>
+        <v>327011</v>
       </c>
       <c r="BB5">
-        <v>242619</v>
+        <v>242792</v>
       </c>
       <c r="BC5">
-        <v>163502</v>
+        <v>163655</v>
       </c>
       <c r="BD5">
-        <v>212861</v>
+        <v>213067</v>
       </c>
       <c r="BE5">
-        <v>18170</v>
+        <v>18168</v>
       </c>
     </row>
   </sheetData>
@@ -3583,10 +3583,10 @@
         <v>44440</v>
       </c>
       <c r="B22" s="3">
-        <v>54387</v>
+        <v>54390</v>
       </c>
       <c r="C22" s="3">
-        <v>33790</v>
+        <v>33791</v>
       </c>
       <c r="D22" s="3">
         <v>19816</v>
@@ -3598,7 +3598,7 @@
         <v>26</v>
       </c>
       <c r="G22" s="3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>11</v>
       </c>
       <c r="K22" s="3">
-        <v>114212</v>
+        <v>114215</v>
       </c>
       <c r="L22" s="3">
-        <v>64778</v>
+        <v>64779</v>
       </c>
       <c r="M22" s="3">
         <v>43379</v>
@@ -3625,7 +3625,7 @@
         <v>1266</v>
       </c>
       <c r="P22" s="3">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="Q22" s="3">
         <v>252</v>
@@ -3642,7 +3642,7 @@
         <v>44470</v>
       </c>
       <c r="B23" s="3">
-        <v>60996</v>
+        <v>60999</v>
       </c>
       <c r="C23" s="3">
         <v>10786</v>
@@ -3657,7 +3657,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H23" s="3">
         <v>2</v>
@@ -3669,10 +3669,10 @@
         <v>14</v>
       </c>
       <c r="K23" s="3">
-        <v>175208</v>
+        <v>175214</v>
       </c>
       <c r="L23" s="3">
-        <v>75564</v>
+        <v>75565</v>
       </c>
       <c r="M23" s="3">
         <v>92804</v>
@@ -3684,7 +3684,7 @@
         <v>1277</v>
       </c>
       <c r="P23" s="3">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="Q23" s="3">
         <v>254</v>
@@ -3701,7 +3701,7 @@
         <v>44501</v>
       </c>
       <c r="B24" s="3">
-        <v>40730</v>
+        <v>40732</v>
       </c>
       <c r="C24" s="3">
         <v>6670</v>
@@ -3716,7 +3716,7 @@
         <v>17</v>
       </c>
       <c r="G24" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H24" s="3">
         <v>3</v>
@@ -3728,10 +3728,10 @@
         <v>70</v>
       </c>
       <c r="K24" s="3">
-        <v>215938</v>
+        <v>215946</v>
       </c>
       <c r="L24" s="3">
-        <v>82234</v>
+        <v>82235</v>
       </c>
       <c r="M24" s="3">
         <v>126319</v>
@@ -3743,7 +3743,7 @@
         <v>1294</v>
       </c>
       <c r="P24" s="3">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="Q24" s="3">
         <v>257</v>
@@ -3760,7 +3760,7 @@
         <v>44531</v>
       </c>
       <c r="B25" s="3">
-        <v>352133</v>
+        <v>352137</v>
       </c>
       <c r="C25" s="3">
         <v>203050</v>
@@ -3775,7 +3775,7 @@
         <v>73</v>
       </c>
       <c r="G25" s="3">
-        <v>18161</v>
+        <v>18165</v>
       </c>
       <c r="H25" s="3">
         <v>1620</v>
@@ -3787,10 +3787,10 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568071</v>
+        <v>568083</v>
       </c>
       <c r="L25" s="3">
-        <v>285284</v>
+        <v>285285</v>
       </c>
       <c r="M25" s="3">
         <v>220128</v>
@@ -3802,7 +3802,7 @@
         <v>1367</v>
       </c>
       <c r="P25" s="3">
-        <v>19161</v>
+        <v>19172</v>
       </c>
       <c r="Q25" s="3">
         <v>1877</v>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809674</v>
+        <v>1809695</v>
       </c>
       <c r="C26" s="3">
         <v>637165</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90130</v>
+        <v>90151</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,10 +3846,10 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377745</v>
+        <v>2377778</v>
       </c>
       <c r="L26" s="3">
-        <v>922449</v>
+        <v>922450</v>
       </c>
       <c r="M26" s="3">
         <v>855407</v>
@@ -3861,7 +3861,7 @@
         <v>2217</v>
       </c>
       <c r="P26" s="3">
-        <v>109291</v>
+        <v>109323</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687552</v>
+        <v>687557</v>
       </c>
       <c r="C27" s="3">
         <v>230227</v>
@@ -3893,7 +3893,7 @@
         <v>11814</v>
       </c>
       <c r="G27" s="3">
-        <v>44434</v>
+        <v>44439</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,10 +3905,10 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065297</v>
+        <v>3065335</v>
       </c>
       <c r="L27" s="3">
-        <v>1152676</v>
+        <v>1152677</v>
       </c>
       <c r="M27" s="3">
         <v>1059936</v>
@@ -3920,7 +3920,7 @@
         <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153725</v>
+        <v>153762</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366787</v>
+        <v>1366793</v>
       </c>
       <c r="C28" s="3">
         <v>536606</v>
@@ -3952,7 +3952,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120507</v>
+        <v>120513</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,10 +3964,10 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432084</v>
+        <v>4432128</v>
       </c>
       <c r="L28" s="3">
-        <v>1689282</v>
+        <v>1689283</v>
       </c>
       <c r="M28" s="3">
         <v>1310022</v>
@@ -3979,7 +3979,7 @@
         <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274232</v>
+        <v>274275</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339927</v>
+        <v>1339943</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206842</v>
       </c>
       <c r="G29" s="3">
-        <v>139870</v>
+        <v>139886</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,10 +4023,10 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772011</v>
+        <v>5772071</v>
       </c>
       <c r="L29" s="3">
-        <v>2121662</v>
+        <v>2121663</v>
       </c>
       <c r="M29" s="3">
         <v>1584974</v>
@@ -4038,7 +4038,7 @@
         <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414102</v>
+        <v>414161</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310376</v>
+        <v>1310401</v>
       </c>
       <c r="C30" s="3">
         <v>297267</v>
@@ -4070,7 +4070,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108146</v>
+        <v>108171</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4082,10 +4082,10 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082387</v>
+        <v>7082472</v>
       </c>
       <c r="L30" s="3">
-        <v>2418929</v>
+        <v>2418930</v>
       </c>
       <c r="M30" s="3">
         <v>1918283</v>
@@ -4097,7 +4097,7 @@
         <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522248</v>
+        <v>522332</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884307</v>
+        <v>884318</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182636</v>
       </c>
       <c r="G31" s="3">
-        <v>77331</v>
+        <v>77342</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,10 +4141,10 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966694</v>
+        <v>7966790</v>
       </c>
       <c r="L31" s="3">
-        <v>2652830</v>
+        <v>2652831</v>
       </c>
       <c r="M31" s="3">
         <v>2133369</v>
@@ -4156,7 +4156,7 @@
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599579</v>
+        <v>599674</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4173,7 +4173,7 @@
         <v>44743</v>
       </c>
       <c r="B32" s="3">
-        <v>1250350</v>
+        <v>1250359</v>
       </c>
       <c r="C32" s="3">
         <v>378605</v>
@@ -4188,7 +4188,7 @@
         <v>158264</v>
       </c>
       <c r="G32" s="3">
-        <v>117401</v>
+        <v>117410</v>
       </c>
       <c r="H32" s="3">
         <v>42272</v>
@@ -4200,10 +4200,10 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217044</v>
+        <v>9217149</v>
       </c>
       <c r="L32" s="3">
-        <v>3031435</v>
+        <v>3031436</v>
       </c>
       <c r="M32" s="3">
         <v>2445486</v>
@@ -4215,7 +4215,7 @@
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>716980</v>
+        <v>717084</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4232,7 +4232,7 @@
         <v>44774</v>
       </c>
       <c r="B33" s="3">
-        <v>554858</v>
+        <v>554860</v>
       </c>
       <c r="C33" s="3">
         <v>230049</v>
@@ -4247,7 +4247,7 @@
         <v>59070</v>
       </c>
       <c r="G33" s="3">
-        <v>40511</v>
+        <v>40513</v>
       </c>
       <c r="H33" s="3">
         <v>12904</v>
@@ -4259,10 +4259,10 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9771902</v>
+        <v>9772009</v>
       </c>
       <c r="L33" s="3">
-        <v>3261484</v>
+        <v>3261485</v>
       </c>
       <c r="M33" s="3">
         <v>2570916</v>
@@ -4274,7 +4274,7 @@
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757491</v>
+        <v>757597</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4291,7 +4291,7 @@
         <v>44805</v>
       </c>
       <c r="B34" s="3">
-        <v>194249</v>
+        <v>194251</v>
       </c>
       <c r="C34" s="3">
         <v>68852</v>
@@ -4306,7 +4306,7 @@
         <v>24267</v>
       </c>
       <c r="G34" s="3">
-        <v>15284</v>
+        <v>15286</v>
       </c>
       <c r="H34" s="3">
         <v>3876</v>
@@ -4318,10 +4318,10 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966151</v>
+        <v>9966260</v>
       </c>
       <c r="L34" s="3">
-        <v>3330336</v>
+        <v>3330337</v>
       </c>
       <c r="M34" s="3">
         <v>2617585</v>
@@ -4333,7 +4333,7 @@
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772775</v>
+        <v>772883</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4350,7 +4350,7 @@
         <v>44835</v>
       </c>
       <c r="B35" s="3">
-        <v>142102</v>
+        <v>142103</v>
       </c>
       <c r="C35" s="3">
         <v>44499</v>
@@ -4365,7 +4365,7 @@
         <v>23424</v>
       </c>
       <c r="G35" s="3">
-        <v>13175</v>
+        <v>13176</v>
       </c>
       <c r="H35" s="3">
         <v>3654</v>
@@ -4377,10 +4377,10 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108253</v>
+        <v>10108363</v>
       </c>
       <c r="L35" s="3">
-        <v>3374835</v>
+        <v>3374836</v>
       </c>
       <c r="M35" s="3">
         <v>2653979</v>
@@ -4392,7 +4392,7 @@
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>785950</v>
+        <v>786059</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4409,7 +4409,7 @@
         <v>44866</v>
       </c>
       <c r="B36" s="3">
-        <v>351942</v>
+        <v>351945</v>
       </c>
       <c r="C36" s="3">
         <v>122092</v>
@@ -4424,7 +4424,7 @@
         <v>42634</v>
       </c>
       <c r="G36" s="3">
-        <v>37163</v>
+        <v>37166</v>
       </c>
       <c r="H36" s="3">
         <v>11681</v>
@@ -4436,10 +4436,10 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460195</v>
+        <v>10460308</v>
       </c>
       <c r="L36" s="3">
-        <v>3496927</v>
+        <v>3496928</v>
       </c>
       <c r="M36" s="3">
         <v>2746876</v>
@@ -4451,7 +4451,7 @@
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823113</v>
+        <v>823225</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4468,7 +4468,7 @@
         <v>44896</v>
       </c>
       <c r="B37" s="3">
-        <v>425868</v>
+        <v>425875</v>
       </c>
       <c r="C37" s="3">
         <v>156461</v>
@@ -4483,7 +4483,7 @@
         <v>45313</v>
       </c>
       <c r="G37" s="3">
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="H37" s="3">
         <v>16273</v>
@@ -4495,10 +4495,10 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886063</v>
+        <v>10886183</v>
       </c>
       <c r="L37" s="3">
-        <v>3653388</v>
+        <v>3653389</v>
       </c>
       <c r="M37" s="3">
         <v>2841482</v>
@@ -4510,7 +4510,7 @@
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867618</v>
+        <v>867737</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4527,7 +4527,7 @@
         <v>44927</v>
       </c>
       <c r="B38" s="3">
-        <v>130083</v>
+        <v>130084</v>
       </c>
       <c r="C38" s="3">
         <v>45944</v>
@@ -4542,7 +4542,7 @@
         <v>16856</v>
       </c>
       <c r="G38" s="3">
-        <v>11890</v>
+        <v>11891</v>
       </c>
       <c r="H38" s="3">
         <v>3637</v>
@@ -4554,10 +4554,10 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016146</v>
+        <v>11016267</v>
       </c>
       <c r="L38" s="3">
-        <v>3699332</v>
+        <v>3699333</v>
       </c>
       <c r="M38" s="3">
         <v>2864587</v>
@@ -4569,7 +4569,7 @@
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879508</v>
+        <v>879628</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4586,7 +4586,7 @@
         <v>44958</v>
       </c>
       <c r="B39" s="3">
-        <v>71986</v>
+        <v>71987</v>
       </c>
       <c r="C39" s="3">
         <v>25243</v>
@@ -4601,7 +4601,7 @@
         <v>8872</v>
       </c>
       <c r="G39" s="3">
-        <v>6853</v>
+        <v>6854</v>
       </c>
       <c r="H39" s="3">
         <v>1931</v>
@@ -4613,10 +4613,10 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088132</v>
+        <v>11088254</v>
       </c>
       <c r="L39" s="3">
-        <v>3724575</v>
+        <v>3724576</v>
       </c>
       <c r="M39" s="3">
         <v>2876976</v>
@@ -4628,7 +4628,7 @@
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886361</v>
+        <v>886482</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4645,7 +4645,7 @@
         <v>44986</v>
       </c>
       <c r="B40" s="3">
-        <v>103960</v>
+        <v>103961</v>
       </c>
       <c r="C40" s="3">
         <v>38642</v>
@@ -4660,7 +4660,7 @@
         <v>12962</v>
       </c>
       <c r="G40" s="3">
-        <v>11500</v>
+        <v>11501</v>
       </c>
       <c r="H40" s="3">
         <v>3302</v>
@@ -4672,10 +4672,10 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192092</v>
+        <v>11192215</v>
       </c>
       <c r="L40" s="3">
-        <v>3763217</v>
+        <v>3763218</v>
       </c>
       <c r="M40" s="3">
         <v>2896213</v>
@@ -4687,7 +4687,7 @@
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>897861</v>
+        <v>897983</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4704,7 +4704,7 @@
         <v>45017</v>
       </c>
       <c r="B41" s="3">
-        <v>123117</v>
+        <v>123120</v>
       </c>
       <c r="C41" s="3">
         <v>47529</v>
@@ -4719,7 +4719,7 @@
         <v>14387</v>
       </c>
       <c r="G41" s="3">
-        <v>12329</v>
+        <v>12332</v>
       </c>
       <c r="H41" s="3">
         <v>3780</v>
@@ -4731,10 +4731,10 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315209</v>
+        <v>11315335</v>
       </c>
       <c r="L41" s="3">
-        <v>3810746</v>
+        <v>3810747</v>
       </c>
       <c r="M41" s="3">
         <v>2922020</v>
@@ -4746,7 +4746,7 @@
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910190</v>
+        <v>910315</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4763,7 +4763,7 @@
         <v>45047</v>
       </c>
       <c r="B42" s="3">
-        <v>166193</v>
+        <v>166197</v>
       </c>
       <c r="C42" s="3">
         <v>62094</v>
@@ -4778,7 +4778,7 @@
         <v>18086</v>
       </c>
       <c r="G42" s="3">
-        <v>14913</v>
+        <v>14917</v>
       </c>
       <c r="H42" s="3">
         <v>5203</v>
@@ -4790,10 +4790,10 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481402</v>
+        <v>11481532</v>
       </c>
       <c r="L42" s="3">
-        <v>3872840</v>
+        <v>3872841</v>
       </c>
       <c r="M42" s="3">
         <v>2960396</v>
@@ -4805,7 +4805,7 @@
         <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925103</v>
+        <v>925232</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4822,7 +4822,7 @@
         <v>45078</v>
       </c>
       <c r="B43" s="3">
-        <v>77763</v>
+        <v>77765</v>
       </c>
       <c r="C43" s="3">
         <v>28184</v>
@@ -4837,7 +4837,7 @@
         <v>8410</v>
       </c>
       <c r="G43" s="3">
-        <v>7214</v>
+        <v>7216</v>
       </c>
       <c r="H43" s="3">
         <v>2584</v>
@@ -4849,10 +4849,10 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559165</v>
+        <v>11559297</v>
       </c>
       <c r="L43" s="3">
-        <v>3901024</v>
+        <v>3901025</v>
       </c>
       <c r="M43" s="3">
         <v>2975163</v>
@@ -4864,7 +4864,7 @@
         <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932317</v>
+        <v>932448</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,10 +4908,10 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587354</v>
+        <v>11587486</v>
       </c>
       <c r="L44" s="3">
-        <v>3911321</v>
+        <v>3911322</v>
       </c>
       <c r="M44" s="3">
         <v>2977220</v>
@@ -4923,7 +4923,7 @@
         <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935246</v>
+        <v>935377</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4940,7 +4940,7 @@
         <v>45139</v>
       </c>
       <c r="B45" s="3">
-        <v>23425</v>
+        <v>23426</v>
       </c>
       <c r="C45" s="3">
         <v>9151</v>
@@ -4955,7 +4955,7 @@
         <v>2999</v>
       </c>
       <c r="G45" s="3">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="H45" s="3">
         <v>1165</v>
@@ -4967,10 +4967,10 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610779</v>
+        <v>11610912</v>
       </c>
       <c r="L45" s="3">
-        <v>3920472</v>
+        <v>3920473</v>
       </c>
       <c r="M45" s="3">
         <v>2979335</v>
@@ -4982,7 +4982,7 @@
         <v>1376080</v>
       </c>
       <c r="P45" s="3">
-        <v>937695</v>
+        <v>937827</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -4999,7 +4999,7 @@
         <v>45170</v>
       </c>
       <c r="B46" s="3">
-        <v>22109</v>
+        <v>22111</v>
       </c>
       <c r="C46" s="3">
         <v>8984</v>
@@ -5014,7 +5014,7 @@
         <v>2557</v>
       </c>
       <c r="G46" s="3">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="H46" s="3">
         <v>1203</v>
@@ -5026,10 +5026,10 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11632888</v>
+        <v>11633023</v>
       </c>
       <c r="L46" s="3">
-        <v>3929456</v>
+        <v>3929457</v>
       </c>
       <c r="M46" s="3">
         <v>2982574</v>
@@ -5041,7 +5041,7 @@
         <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940728</v>
+        <v>940862</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5058,7 +5058,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27916</v>
+        <v>27921</v>
       </c>
       <c r="C47" s="3">
         <v>7751</v>
@@ -5073,7 +5073,7 @@
         <v>1998</v>
       </c>
       <c r="G47" s="3">
-        <v>5077</v>
+        <v>5082</v>
       </c>
       <c r="H47" s="3">
         <v>1901</v>
@@ -5085,10 +5085,10 @@
         <v>416</v>
       </c>
       <c r="K47" s="3">
-        <v>11660804</v>
+        <v>11660944</v>
       </c>
       <c r="L47" s="3">
-        <v>3937207</v>
+        <v>3937208</v>
       </c>
       <c r="M47" s="3">
         <v>2988180</v>
@@ -5100,7 +5100,7 @@
         <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>945805</v>
+        <v>945944</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,22 +5117,22 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>44079</v>
+        <v>44100</v>
       </c>
       <c r="C48" s="3">
         <v>12379</v>
       </c>
       <c r="D48" s="3">
-        <v>6096</v>
+        <v>6097</v>
       </c>
       <c r="E48" s="3">
-        <v>7210</v>
+        <v>7220</v>
       </c>
       <c r="F48" s="3">
         <v>2198</v>
       </c>
       <c r="G48" s="3">
-        <v>9336</v>
+        <v>9346</v>
       </c>
       <c r="H48" s="3">
         <v>4153</v>
@@ -5144,22 +5144,22 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11704883</v>
+        <v>11705044</v>
       </c>
       <c r="L48" s="3">
-        <v>3949586</v>
+        <v>3949587</v>
       </c>
       <c r="M48" s="3">
-        <v>2994276</v>
+        <v>2994277</v>
       </c>
       <c r="N48" s="3">
-        <v>1750636</v>
+        <v>1750646</v>
       </c>
       <c r="O48" s="3">
         <v>1382833</v>
       </c>
       <c r="P48" s="3">
-        <v>955141</v>
+        <v>955290</v>
       </c>
       <c r="Q48" s="3">
         <v>311674</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>28030</v>
+        <v>30137</v>
       </c>
       <c r="C49">
-        <v>8790</v>
+        <v>9282</v>
       </c>
       <c r="D49">
-        <v>3658</v>
+        <v>3882</v>
       </c>
       <c r="E49">
-        <v>5972</v>
+        <v>6340</v>
       </c>
       <c r="F49">
         <v>1211</v>
       </c>
       <c r="G49">
-        <v>4712</v>
+        <v>5504</v>
       </c>
       <c r="H49">
-        <v>2399</v>
+        <v>2562</v>
       </c>
       <c r="I49">
-        <v>1065</v>
+        <v>1115</v>
       </c>
       <c r="J49">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="K49">
-        <v>11732913</v>
+        <v>11735181</v>
       </c>
       <c r="L49">
-        <v>3958376</v>
+        <v>3958869</v>
       </c>
       <c r="M49">
-        <v>2997934</v>
+        <v>2998159</v>
       </c>
       <c r="N49">
-        <v>1756608</v>
+        <v>1756986</v>
       </c>
       <c r="O49">
         <v>1384044</v>
       </c>
       <c r="P49">
-        <v>959853</v>
+        <v>960794</v>
       </c>
       <c r="Q49">
-        <v>314073</v>
+        <v>314236</v>
       </c>
       <c r="R49">
-        <v>251539</v>
+        <v>251589</v>
       </c>
       <c r="S49">
-        <v>110486</v>
+        <v>110504</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM43"/>
+  <dimension ref="A1:IM44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34317,6 +34317,749 @@
       </c>
       <c r="IM43">
         <v>13481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B44">
+        <v>2268</v>
+      </c>
+      <c r="C44">
+        <v>493</v>
+      </c>
+      <c r="D44">
+        <v>225</v>
+      </c>
+      <c r="E44">
+        <v>378</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>941</v>
+      </c>
+      <c r="H44">
+        <v>163</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+      <c r="J44">
+        <v>18</v>
+      </c>
+      <c r="K44">
+        <v>11735181</v>
+      </c>
+      <c r="L44">
+        <v>3958869</v>
+      </c>
+      <c r="M44">
+        <v>2998159</v>
+      </c>
+      <c r="N44">
+        <v>1756986</v>
+      </c>
+      <c r="O44">
+        <v>1384044</v>
+      </c>
+      <c r="P44">
+        <v>960794</v>
+      </c>
+      <c r="Q44">
+        <v>314236</v>
+      </c>
+      <c r="R44">
+        <v>251589</v>
+      </c>
+      <c r="S44">
+        <v>110504</v>
+      </c>
+      <c r="T44">
+        <v>132</v>
+      </c>
+      <c r="U44">
+        <v>23</v>
+      </c>
+      <c r="V44">
+        <v>24</v>
+      </c>
+      <c r="W44">
+        <v>43</v>
+      </c>
+      <c r="X44">
+        <v>90</v>
+      </c>
+      <c r="Y44">
+        <v>141</v>
+      </c>
+      <c r="Z44">
+        <v>162</v>
+      </c>
+      <c r="AA44">
+        <v>162</v>
+      </c>
+      <c r="AB44">
+        <v>122</v>
+      </c>
+      <c r="AC44">
+        <v>112</v>
+      </c>
+      <c r="AD44">
+        <v>136</v>
+      </c>
+      <c r="AE44">
+        <v>127</v>
+      </c>
+      <c r="AF44">
+        <v>142</v>
+      </c>
+      <c r="AG44">
+        <v>162</v>
+      </c>
+      <c r="AH44">
+        <v>160</v>
+      </c>
+      <c r="AI44">
+        <v>173</v>
+      </c>
+      <c r="AJ44">
+        <v>153</v>
+      </c>
+      <c r="AK44">
+        <v>206</v>
+      </c>
+      <c r="AL44">
+        <v>-2</v>
+      </c>
+      <c r="AM44">
+        <v>504650</v>
+      </c>
+      <c r="AN44">
+        <v>668533</v>
+      </c>
+      <c r="AO44">
+        <v>774196</v>
+      </c>
+      <c r="AP44">
+        <v>760694</v>
+      </c>
+      <c r="AQ44">
+        <v>931719</v>
+      </c>
+      <c r="AR44">
+        <v>1027990</v>
+      </c>
+      <c r="AS44">
+        <v>1036099</v>
+      </c>
+      <c r="AT44">
+        <v>1020696</v>
+      </c>
+      <c r="AU44">
+        <v>910231</v>
+      </c>
+      <c r="AV44">
+        <v>808942</v>
+      </c>
+      <c r="AW44">
+        <v>749030</v>
+      </c>
+      <c r="AX44">
+        <v>623832</v>
+      </c>
+      <c r="AY44">
+        <v>544783</v>
+      </c>
+      <c r="AZ44">
+        <v>409093</v>
+      </c>
+      <c r="BA44">
+        <v>327011</v>
+      </c>
+      <c r="BB44">
+        <v>242792</v>
+      </c>
+      <c r="BC44">
+        <v>163655</v>
+      </c>
+      <c r="BD44">
+        <v>213067</v>
+      </c>
+      <c r="BE44">
+        <v>18168</v>
+      </c>
+      <c r="BF44">
+        <v>81</v>
+      </c>
+      <c r="BG44">
+        <v>49</v>
+      </c>
+      <c r="BH44">
+        <v>2</v>
+      </c>
+      <c r="BI44">
+        <v>0</v>
+      </c>
+      <c r="BJ44">
+        <v>0</v>
+      </c>
+      <c r="BK44">
+        <v>9</v>
+      </c>
+      <c r="BL44">
+        <v>14</v>
+      </c>
+      <c r="BM44">
+        <v>0</v>
+      </c>
+      <c r="BN44">
+        <v>0</v>
+      </c>
+      <c r="BO44">
+        <v>0</v>
+      </c>
+      <c r="BP44">
+        <v>18</v>
+      </c>
+      <c r="BQ44">
+        <v>6</v>
+      </c>
+      <c r="BR44">
+        <v>0</v>
+      </c>
+      <c r="BS44">
+        <v>0</v>
+      </c>
+      <c r="BT44">
+        <v>0</v>
+      </c>
+      <c r="BU44">
+        <v>15</v>
+      </c>
+      <c r="BV44">
+        <v>28</v>
+      </c>
+      <c r="BW44">
+        <v>0</v>
+      </c>
+      <c r="BX44">
+        <v>0</v>
+      </c>
+      <c r="BY44">
+        <v>0</v>
+      </c>
+      <c r="BZ44">
+        <v>34</v>
+      </c>
+      <c r="CA44">
+        <v>56</v>
+      </c>
+      <c r="CB44">
+        <v>0</v>
+      </c>
+      <c r="CC44">
+        <v>0</v>
+      </c>
+      <c r="CD44">
+        <v>0</v>
+      </c>
+      <c r="CE44">
+        <v>62</v>
+      </c>
+      <c r="CF44">
+        <v>79</v>
+      </c>
+      <c r="CG44">
+        <v>0</v>
+      </c>
+      <c r="CH44">
+        <v>0</v>
+      </c>
+      <c r="CI44">
+        <v>0</v>
+      </c>
+      <c r="CJ44">
+        <v>71</v>
+      </c>
+      <c r="CK44">
+        <v>91</v>
+      </c>
+      <c r="CL44">
+        <v>0</v>
+      </c>
+      <c r="CM44">
+        <v>0</v>
+      </c>
+      <c r="CN44">
+        <v>0</v>
+      </c>
+      <c r="CO44">
+        <v>64</v>
+      </c>
+      <c r="CP44">
+        <v>98</v>
+      </c>
+      <c r="CQ44">
+        <v>0</v>
+      </c>
+      <c r="CR44">
+        <v>0</v>
+      </c>
+      <c r="CS44">
+        <v>0</v>
+      </c>
+      <c r="CT44">
+        <v>58</v>
+      </c>
+      <c r="CU44">
+        <v>64</v>
+      </c>
+      <c r="CV44">
+        <v>0</v>
+      </c>
+      <c r="CW44">
+        <v>0</v>
+      </c>
+      <c r="CX44">
+        <v>0</v>
+      </c>
+      <c r="CY44">
+        <v>50</v>
+      </c>
+      <c r="CZ44">
+        <v>62</v>
+      </c>
+      <c r="DA44">
+        <v>0</v>
+      </c>
+      <c r="DB44">
+        <v>0</v>
+      </c>
+      <c r="DC44">
+        <v>0</v>
+      </c>
+      <c r="DD44">
+        <v>57</v>
+      </c>
+      <c r="DE44">
+        <v>79</v>
+      </c>
+      <c r="DF44">
+        <v>0</v>
+      </c>
+      <c r="DG44">
+        <v>0</v>
+      </c>
+      <c r="DH44">
+        <v>0</v>
+      </c>
+      <c r="DI44">
+        <v>53</v>
+      </c>
+      <c r="DJ44">
+        <v>74</v>
+      </c>
+      <c r="DK44">
+        <v>0</v>
+      </c>
+      <c r="DL44">
+        <v>0</v>
+      </c>
+      <c r="DM44">
+        <v>0</v>
+      </c>
+      <c r="DN44">
+        <v>64</v>
+      </c>
+      <c r="DO44">
+        <v>78</v>
+      </c>
+      <c r="DP44">
+        <v>0</v>
+      </c>
+      <c r="DQ44">
+        <v>0</v>
+      </c>
+      <c r="DR44">
+        <v>0</v>
+      </c>
+      <c r="DS44">
+        <v>73</v>
+      </c>
+      <c r="DT44">
+        <v>95</v>
+      </c>
+      <c r="DU44">
+        <v>0</v>
+      </c>
+      <c r="DV44">
+        <v>-6</v>
+      </c>
+      <c r="DW44">
+        <v>0</v>
+      </c>
+      <c r="DX44">
+        <v>76</v>
+      </c>
+      <c r="DY44">
+        <v>87</v>
+      </c>
+      <c r="DZ44">
+        <v>0</v>
+      </c>
+      <c r="EA44">
+        <v>-3</v>
+      </c>
+      <c r="EB44">
+        <v>0</v>
+      </c>
+      <c r="EC44">
+        <v>97</v>
+      </c>
+      <c r="ED44">
+        <v>77</v>
+      </c>
+      <c r="EE44">
+        <v>0</v>
+      </c>
+      <c r="EF44">
+        <v>-1</v>
+      </c>
+      <c r="EG44">
+        <v>0</v>
+      </c>
+      <c r="EH44">
+        <v>83</v>
+      </c>
+      <c r="EI44">
+        <v>70</v>
+      </c>
+      <c r="EJ44">
+        <v>1</v>
+      </c>
+      <c r="EK44">
+        <v>-1</v>
+      </c>
+      <c r="EL44">
+        <v>0</v>
+      </c>
+      <c r="EM44">
+        <v>76</v>
+      </c>
+      <c r="EN44">
+        <v>129</v>
+      </c>
+      <c r="EO44">
+        <v>1</v>
+      </c>
+      <c r="EP44">
+        <v>0</v>
+      </c>
+      <c r="EQ44">
+        <v>0</v>
+      </c>
+      <c r="ER44">
+        <v>-1</v>
+      </c>
+      <c r="ES44">
+        <v>0</v>
+      </c>
+      <c r="ET44">
+        <v>0</v>
+      </c>
+      <c r="EU44">
+        <v>0</v>
+      </c>
+      <c r="EV44">
+        <v>-1</v>
+      </c>
+      <c r="EW44">
+        <v>232499</v>
+      </c>
+      <c r="EX44">
+        <v>220647</v>
+      </c>
+      <c r="EY44">
+        <v>411</v>
+      </c>
+      <c r="EZ44">
+        <v>15445</v>
+      </c>
+      <c r="FA44">
+        <v>35648</v>
+      </c>
+      <c r="FB44">
+        <v>308333</v>
+      </c>
+      <c r="FC44">
+        <v>292951</v>
+      </c>
+      <c r="FD44">
+        <v>466</v>
+      </c>
+      <c r="FE44">
+        <v>16750</v>
+      </c>
+      <c r="FF44">
+        <v>50033</v>
+      </c>
+      <c r="FG44">
+        <v>353638</v>
+      </c>
+      <c r="FH44">
+        <v>342909</v>
+      </c>
+      <c r="FI44">
+        <v>632</v>
+      </c>
+      <c r="FJ44">
+        <v>16936</v>
+      </c>
+      <c r="FK44">
+        <v>60081</v>
+      </c>
+      <c r="FL44">
+        <v>326732</v>
+      </c>
+      <c r="FM44">
+        <v>374335</v>
+      </c>
+      <c r="FN44">
+        <v>896</v>
+      </c>
+      <c r="FO44">
+        <v>12912</v>
+      </c>
+      <c r="FP44">
+        <v>45819</v>
+      </c>
+      <c r="FQ44">
+        <v>392499</v>
+      </c>
+      <c r="FR44">
+        <v>480459</v>
+      </c>
+      <c r="FS44">
+        <v>1101</v>
+      </c>
+      <c r="FT44">
+        <v>16248</v>
+      </c>
+      <c r="FU44">
+        <v>41412</v>
+      </c>
+      <c r="FV44">
+        <v>434488</v>
+      </c>
+      <c r="FW44">
+        <v>527118</v>
+      </c>
+      <c r="FX44">
+        <v>1139</v>
+      </c>
+      <c r="FY44">
+        <v>17741</v>
+      </c>
+      <c r="FZ44">
+        <v>47504</v>
+      </c>
+      <c r="GA44">
+        <v>429935</v>
+      </c>
+      <c r="GB44">
+        <v>533296</v>
+      </c>
+      <c r="GC44">
+        <v>923</v>
+      </c>
+      <c r="GD44">
+        <v>17124</v>
+      </c>
+      <c r="GE44">
+        <v>54821</v>
+      </c>
+      <c r="GF44">
+        <v>420438</v>
+      </c>
+      <c r="GG44">
+        <v>525785</v>
+      </c>
+      <c r="GH44">
+        <v>666</v>
+      </c>
+      <c r="GI44">
+        <v>14980</v>
+      </c>
+      <c r="GJ44">
+        <v>58827</v>
+      </c>
+      <c r="GK44">
+        <v>374249</v>
+      </c>
+      <c r="GL44">
+        <v>469989</v>
+      </c>
+      <c r="GM44">
+        <v>498</v>
+      </c>
+      <c r="GN44">
+        <v>12332</v>
+      </c>
+      <c r="GO44">
+        <v>53163</v>
+      </c>
+      <c r="GP44">
+        <v>330957</v>
+      </c>
+      <c r="GQ44">
+        <v>422120</v>
+      </c>
+      <c r="GR44">
+        <v>439</v>
+      </c>
+      <c r="GS44">
+        <v>10108</v>
+      </c>
+      <c r="GT44">
+        <v>45318</v>
+      </c>
+      <c r="GU44">
+        <v>308884</v>
+      </c>
+      <c r="GV44">
+        <v>390552</v>
+      </c>
+      <c r="GW44">
+        <v>402</v>
+      </c>
+      <c r="GX44">
+        <v>8931</v>
+      </c>
+      <c r="GY44">
+        <v>40261</v>
+      </c>
+      <c r="GZ44">
+        <v>264276</v>
+      </c>
+      <c r="HA44">
+        <v>320887</v>
+      </c>
+      <c r="HB44">
+        <v>329</v>
+      </c>
+      <c r="HC44">
+        <v>6594</v>
+      </c>
+      <c r="HD44">
+        <v>31746</v>
+      </c>
+      <c r="HE44">
+        <v>235162</v>
+      </c>
+      <c r="HF44">
+        <v>278120</v>
+      </c>
+      <c r="HG44">
+        <v>234</v>
+      </c>
+      <c r="HH44">
+        <v>5310</v>
+      </c>
+      <c r="HI44">
+        <v>25957</v>
+      </c>
+      <c r="HJ44">
+        <v>181579</v>
+      </c>
+      <c r="HK44">
+        <v>205199</v>
+      </c>
+      <c r="HL44">
+        <v>199</v>
+      </c>
+      <c r="HM44">
+        <v>3596</v>
+      </c>
+      <c r="HN44">
+        <v>18520</v>
+      </c>
+      <c r="HO44">
+        <v>152542</v>
+      </c>
+      <c r="HP44">
+        <v>159327</v>
+      </c>
+      <c r="HQ44">
+        <v>164</v>
+      </c>
+      <c r="HR44">
+        <v>2631</v>
+      </c>
+      <c r="HS44">
+        <v>12347</v>
+      </c>
+      <c r="HT44">
+        <v>117038</v>
+      </c>
+      <c r="HU44">
+        <v>115929</v>
+      </c>
+      <c r="HV44">
+        <v>164</v>
+      </c>
+      <c r="HW44">
+        <v>1849</v>
+      </c>
+      <c r="HX44">
+        <v>7812</v>
+      </c>
+      <c r="HY44">
+        <v>76973</v>
+      </c>
+      <c r="HZ44">
+        <v>80758</v>
+      </c>
+      <c r="IA44">
+        <v>132</v>
+      </c>
+      <c r="IB44">
+        <v>1261</v>
+      </c>
+      <c r="IC44">
+        <v>4531</v>
+      </c>
+      <c r="ID44">
+        <v>82541</v>
+      </c>
+      <c r="IE44">
+        <v>124126</v>
+      </c>
+      <c r="IF44">
+        <v>308</v>
+      </c>
+      <c r="IG44">
+        <v>2251</v>
+      </c>
+      <c r="IH44">
+        <v>3841</v>
+      </c>
+      <c r="II44">
+        <v>2153</v>
+      </c>
+      <c r="IJ44">
+        <v>2309</v>
+      </c>
+      <c r="IK44">
+        <v>25</v>
+      </c>
+      <c r="IL44">
+        <v>201</v>
+      </c>
+      <c r="IM44">
+        <v>13480</v>
       </c>
     </row>
   </sheetData>
@@ -34343,7 +35086,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45281</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453796F4-D3A6-45F6-BACB-BD5FC38C6044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88748178-28C3-4200-BC92-CCA6E3FF1D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1880,10 +1880,10 @@
         <v>70916</v>
       </c>
       <c r="Z3">
-        <v>55520</v>
+        <v>55519</v>
       </c>
       <c r="AA3">
-        <v>42728</v>
+        <v>42729</v>
       </c>
       <c r="AB3">
         <v>33829</v>
@@ -1937,10 +1937,10 @@
         <v>74446</v>
       </c>
       <c r="AS3">
-        <v>58383</v>
+        <v>58382</v>
       </c>
       <c r="AT3">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="AU3">
         <v>35618</v>
@@ -1981,22 +1981,22 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10318100</v>
+        <v>10318103</v>
       </c>
       <c r="C4">
-        <v>3368104</v>
+        <v>3368103</v>
       </c>
       <c r="D4">
         <v>2621354</v>
       </c>
       <c r="E4">
-        <v>1586966</v>
+        <v>1586969</v>
       </c>
       <c r="F4">
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848565</v>
+        <v>848566</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,22 +2008,22 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886183</v>
+        <v>10886186</v>
       </c>
       <c r="L4">
-        <v>3653389</v>
+        <v>3653388</v>
       </c>
       <c r="M4">
         <v>2841482</v>
       </c>
       <c r="N4">
-        <v>1619877</v>
+        <v>1619880</v>
       </c>
       <c r="O4">
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867737</v>
+        <v>867738</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,16 +2035,16 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450509</v>
+        <v>450507</v>
       </c>
       <c r="U4">
         <v>611247</v>
       </c>
       <c r="V4">
-        <v>710201</v>
+        <v>710203</v>
       </c>
       <c r="W4">
-        <v>683311</v>
+        <v>683310</v>
       </c>
       <c r="X4">
         <v>812050</v>
@@ -2053,55 +2053,55 @@
         <v>899965</v>
       </c>
       <c r="Z4">
-        <v>917025</v>
+        <v>917027</v>
       </c>
       <c r="AA4">
         <v>908885</v>
       </c>
       <c r="AB4">
-        <v>810340</v>
+        <v>810337</v>
       </c>
       <c r="AC4">
-        <v>717645</v>
+        <v>717643</v>
       </c>
       <c r="AD4">
-        <v>658715</v>
+        <v>658718</v>
       </c>
       <c r="AE4">
-        <v>544127</v>
+        <v>544125</v>
       </c>
       <c r="AF4">
-        <v>471487</v>
+        <v>471492</v>
       </c>
       <c r="AG4">
         <v>349011</v>
       </c>
       <c r="AH4">
-        <v>274348</v>
+        <v>274349</v>
       </c>
       <c r="AI4">
         <v>198085</v>
       </c>
       <c r="AJ4">
-        <v>128225</v>
+        <v>128224</v>
       </c>
       <c r="AK4">
-        <v>155775</v>
+        <v>155776</v>
       </c>
       <c r="AL4">
         <v>17149</v>
       </c>
       <c r="AM4">
-        <v>473759</v>
+        <v>473757</v>
       </c>
       <c r="AN4">
         <v>644446</v>
       </c>
       <c r="AO4">
-        <v>741716</v>
+        <v>741718</v>
       </c>
       <c r="AP4">
-        <v>728557</v>
+        <v>728556</v>
       </c>
       <c r="AQ4">
         <v>890279</v>
@@ -2110,40 +2110,40 @@
         <v>974411</v>
       </c>
       <c r="AS4">
-        <v>975408</v>
+        <v>975409</v>
       </c>
       <c r="AT4">
-        <v>953878</v>
+        <v>953879</v>
       </c>
       <c r="AU4">
-        <v>845958</v>
+        <v>845955</v>
       </c>
       <c r="AV4">
-        <v>749725</v>
+        <v>749723</v>
       </c>
       <c r="AW4">
-        <v>688404</v>
+        <v>688407</v>
       </c>
       <c r="AX4">
-        <v>568128</v>
+        <v>568126</v>
       </c>
       <c r="AY4">
-        <v>490022</v>
+        <v>490027</v>
       </c>
       <c r="AZ4">
         <v>361987</v>
       </c>
       <c r="BA4">
-        <v>283662</v>
+        <v>283663</v>
       </c>
       <c r="BB4">
         <v>204562</v>
       </c>
       <c r="BC4">
-        <v>132618</v>
+        <v>132617</v>
       </c>
       <c r="BD4">
-        <v>161141</v>
+        <v>161142</v>
       </c>
       <c r="BE4">
         <v>17522</v>
@@ -2154,169 +2154,169 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>848998</v>
+        <v>850403</v>
       </c>
       <c r="C5">
-        <v>305480</v>
+        <v>305987</v>
       </c>
       <c r="D5">
-        <v>156677</v>
+        <v>156862</v>
       </c>
       <c r="E5">
-        <v>137109</v>
+        <v>137436</v>
       </c>
       <c r="F5">
         <v>94188</v>
       </c>
       <c r="G5">
-        <v>93057</v>
+        <v>93310</v>
       </c>
       <c r="H5">
-        <v>32693</v>
+        <v>32817</v>
       </c>
       <c r="I5">
         <v>23257</v>
       </c>
       <c r="J5">
-        <v>6537</v>
+        <v>6546</v>
       </c>
       <c r="K5">
-        <v>11735181</v>
+        <v>11736589</v>
       </c>
       <c r="L5">
-        <v>3958869</v>
+        <v>3959375</v>
       </c>
       <c r="M5">
-        <v>2998159</v>
+        <v>2998344</v>
       </c>
       <c r="N5">
-        <v>1756986</v>
+        <v>1757316</v>
       </c>
       <c r="O5">
         <v>1384044</v>
       </c>
       <c r="P5">
-        <v>960794</v>
+        <v>961048</v>
       </c>
       <c r="Q5">
-        <v>314236</v>
+        <v>314360</v>
       </c>
       <c r="R5">
         <v>251589</v>
       </c>
       <c r="S5">
-        <v>110504</v>
+        <v>110513</v>
       </c>
       <c r="T5">
-        <v>30891</v>
+        <v>30982</v>
       </c>
       <c r="U5">
-        <v>24087</v>
+        <v>24110</v>
       </c>
       <c r="V5">
-        <v>32480</v>
+        <v>32497</v>
       </c>
       <c r="W5">
-        <v>32137</v>
+        <v>32180</v>
       </c>
       <c r="X5">
-        <v>41440</v>
+        <v>41496</v>
       </c>
       <c r="Y5">
-        <v>53579</v>
+        <v>53635</v>
       </c>
       <c r="Z5">
-        <v>60691</v>
+        <v>60771</v>
       </c>
       <c r="AA5">
-        <v>66818</v>
+        <v>66903</v>
       </c>
       <c r="AB5">
-        <v>64273</v>
+        <v>64329</v>
       </c>
       <c r="AC5">
-        <v>59217</v>
+        <v>59304</v>
       </c>
       <c r="AD5">
-        <v>60626</v>
+        <v>60721</v>
       </c>
       <c r="AE5">
-        <v>55704</v>
+        <v>55786</v>
       </c>
       <c r="AF5">
-        <v>54761</v>
+        <v>54869</v>
       </c>
       <c r="AG5">
-        <v>47106</v>
+        <v>47194</v>
       </c>
       <c r="AH5">
-        <v>43349</v>
+        <v>43449</v>
       </c>
       <c r="AI5">
-        <v>38230</v>
+        <v>38351</v>
       </c>
       <c r="AJ5">
-        <v>31037</v>
+        <v>31138</v>
       </c>
       <c r="AK5">
-        <v>51926</v>
+        <v>52042</v>
       </c>
       <c r="AL5">
         <v>646</v>
       </c>
       <c r="AM5">
-        <v>504650</v>
+        <v>504739</v>
       </c>
       <c r="AN5">
-        <v>668533</v>
+        <v>668556</v>
       </c>
       <c r="AO5">
-        <v>774196</v>
+        <v>774215</v>
       </c>
       <c r="AP5">
-        <v>760694</v>
+        <v>760736</v>
       </c>
       <c r="AQ5">
-        <v>931719</v>
+        <v>931775</v>
       </c>
       <c r="AR5">
-        <v>1027990</v>
+        <v>1028046</v>
       </c>
       <c r="AS5">
-        <v>1036099</v>
+        <v>1036180</v>
       </c>
       <c r="AT5">
-        <v>1020696</v>
+        <v>1020782</v>
       </c>
       <c r="AU5">
-        <v>910231</v>
+        <v>910284</v>
       </c>
       <c r="AV5">
-        <v>808942</v>
+        <v>809027</v>
       </c>
       <c r="AW5">
-        <v>749030</v>
+        <v>749128</v>
       </c>
       <c r="AX5">
-        <v>623832</v>
+        <v>623912</v>
       </c>
       <c r="AY5">
-        <v>544783</v>
+        <v>544896</v>
       </c>
       <c r="AZ5">
-        <v>409093</v>
+        <v>409181</v>
       </c>
       <c r="BA5">
-        <v>327011</v>
+        <v>327112</v>
       </c>
       <c r="BB5">
-        <v>242792</v>
+        <v>242913</v>
       </c>
       <c r="BC5">
-        <v>163655</v>
+        <v>163755</v>
       </c>
       <c r="BD5">
-        <v>213067</v>
+        <v>213184</v>
       </c>
       <c r="BE5">
         <v>18168</v>
@@ -3819,22 +3819,22 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809695</v>
+        <v>1809698</v>
       </c>
       <c r="C26" s="3">
-        <v>637165</v>
+        <v>637164</v>
       </c>
       <c r="D26" s="3">
         <v>635279</v>
       </c>
       <c r="E26" s="3">
-        <v>372406</v>
+        <v>372409</v>
       </c>
       <c r="F26" s="3">
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90151</v>
+        <v>90152</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,22 +3846,22 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377778</v>
+        <v>2377781</v>
       </c>
       <c r="L26" s="3">
-        <v>922450</v>
+        <v>922449</v>
       </c>
       <c r="M26" s="3">
         <v>855407</v>
       </c>
       <c r="N26" s="3">
-        <v>405317</v>
+        <v>405320</v>
       </c>
       <c r="O26" s="3">
         <v>2217</v>
       </c>
       <c r="P26" s="3">
-        <v>109323</v>
+        <v>109324</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,22 +3905,22 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065335</v>
+        <v>3065338</v>
       </c>
       <c r="L27" s="3">
-        <v>1152677</v>
+        <v>1152676</v>
       </c>
       <c r="M27" s="3">
         <v>1059936</v>
       </c>
       <c r="N27" s="3">
-        <v>546066</v>
+        <v>546069</v>
       </c>
       <c r="O27" s="3">
         <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153762</v>
+        <v>153763</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3964,22 +3964,22 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432128</v>
+        <v>4432131</v>
       </c>
       <c r="L28" s="3">
-        <v>1689283</v>
+        <v>1689282</v>
       </c>
       <c r="M28" s="3">
         <v>1310022</v>
       </c>
       <c r="N28" s="3">
-        <v>742290</v>
+        <v>742293</v>
       </c>
       <c r="O28" s="3">
         <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274275</v>
+        <v>274276</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4023,22 +4023,22 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772071</v>
+        <v>5772074</v>
       </c>
       <c r="L29" s="3">
-        <v>2121663</v>
+        <v>2121662</v>
       </c>
       <c r="M29" s="3">
         <v>1584974</v>
       </c>
       <c r="N29" s="3">
-        <v>943372</v>
+        <v>943375</v>
       </c>
       <c r="O29" s="3">
         <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414161</v>
+        <v>414162</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,22 +4082,22 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082472</v>
+        <v>7082475</v>
       </c>
       <c r="L30" s="3">
-        <v>2418930</v>
+        <v>2418929</v>
       </c>
       <c r="M30" s="3">
         <v>1918283</v>
       </c>
       <c r="N30" s="3">
-        <v>1096302</v>
+        <v>1096305</v>
       </c>
       <c r="O30" s="3">
         <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522332</v>
+        <v>522333</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,22 +4141,22 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966790</v>
+        <v>7966793</v>
       </c>
       <c r="L31" s="3">
-        <v>2652831</v>
+        <v>2652830</v>
       </c>
       <c r="M31" s="3">
         <v>2133369</v>
       </c>
       <c r="N31" s="3">
-        <v>1213317</v>
+        <v>1213320</v>
       </c>
       <c r="O31" s="3">
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599674</v>
+        <v>599675</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,22 +4200,22 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217149</v>
+        <v>9217152</v>
       </c>
       <c r="L32" s="3">
-        <v>3031436</v>
+        <v>3031435</v>
       </c>
       <c r="M32" s="3">
         <v>2445486</v>
       </c>
       <c r="N32" s="3">
-        <v>1410779</v>
+        <v>1410782</v>
       </c>
       <c r="O32" s="3">
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>717084</v>
+        <v>717085</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,22 +4259,22 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9772009</v>
+        <v>9772012</v>
       </c>
       <c r="L33" s="3">
-        <v>3261485</v>
+        <v>3261484</v>
       </c>
       <c r="M33" s="3">
         <v>2570916</v>
       </c>
       <c r="N33" s="3">
-        <v>1482140</v>
+        <v>1482143</v>
       </c>
       <c r="O33" s="3">
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757597</v>
+        <v>757598</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,22 +4318,22 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966260</v>
+        <v>9966263</v>
       </c>
       <c r="L34" s="3">
-        <v>3330337</v>
+        <v>3330336</v>
       </c>
       <c r="M34" s="3">
         <v>2617585</v>
       </c>
       <c r="N34" s="3">
-        <v>1512413</v>
+        <v>1512416</v>
       </c>
       <c r="O34" s="3">
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772883</v>
+        <v>772884</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,22 +4377,22 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108363</v>
+        <v>10108366</v>
       </c>
       <c r="L35" s="3">
-        <v>3374836</v>
+        <v>3374835</v>
       </c>
       <c r="M35" s="3">
         <v>2653979</v>
       </c>
       <c r="N35" s="3">
-        <v>1529150</v>
+        <v>1529153</v>
       </c>
       <c r="O35" s="3">
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>786059</v>
+        <v>786060</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,22 +4436,22 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460308</v>
+        <v>10460311</v>
       </c>
       <c r="L36" s="3">
-        <v>3496928</v>
+        <v>3496927</v>
       </c>
       <c r="M36" s="3">
         <v>2746876</v>
       </c>
       <c r="N36" s="3">
-        <v>1565596</v>
+        <v>1565599</v>
       </c>
       <c r="O36" s="3">
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823225</v>
+        <v>823226</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,22 +4495,22 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886183</v>
+        <v>10886186</v>
       </c>
       <c r="L37" s="3">
-        <v>3653389</v>
+        <v>3653388</v>
       </c>
       <c r="M37" s="3">
         <v>2841482</v>
       </c>
       <c r="N37" s="3">
-        <v>1619877</v>
+        <v>1619880</v>
       </c>
       <c r="O37" s="3">
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867737</v>
+        <v>867738</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,22 +4554,22 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016267</v>
+        <v>11016270</v>
       </c>
       <c r="L38" s="3">
-        <v>3699333</v>
+        <v>3699332</v>
       </c>
       <c r="M38" s="3">
         <v>2864587</v>
       </c>
       <c r="N38" s="3">
-        <v>1643990</v>
+        <v>1643993</v>
       </c>
       <c r="O38" s="3">
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879628</v>
+        <v>879629</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,22 +4613,22 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088254</v>
+        <v>11088257</v>
       </c>
       <c r="L39" s="3">
-        <v>3724576</v>
+        <v>3724575</v>
       </c>
       <c r="M39" s="3">
         <v>2876976</v>
       </c>
       <c r="N39" s="3">
-        <v>1658290</v>
+        <v>1658293</v>
       </c>
       <c r="O39" s="3">
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886482</v>
+        <v>886483</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,22 +4672,22 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192215</v>
+        <v>11192218</v>
       </c>
       <c r="L40" s="3">
-        <v>3763218</v>
+        <v>3763217</v>
       </c>
       <c r="M40" s="3">
         <v>2896213</v>
       </c>
       <c r="N40" s="3">
-        <v>1673745</v>
+        <v>1673748</v>
       </c>
       <c r="O40" s="3">
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>897983</v>
+        <v>897984</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,22 +4731,22 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315335</v>
+        <v>11315338</v>
       </c>
       <c r="L41" s="3">
-        <v>3810747</v>
+        <v>3810746</v>
       </c>
       <c r="M41" s="3">
         <v>2922020</v>
       </c>
       <c r="N41" s="3">
-        <v>1689655</v>
+        <v>1689658</v>
       </c>
       <c r="O41" s="3">
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910315</v>
+        <v>910316</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,22 +4790,22 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481532</v>
+        <v>11481535</v>
       </c>
       <c r="L42" s="3">
-        <v>3872841</v>
+        <v>3872840</v>
       </c>
       <c r="M42" s="3">
         <v>2960396</v>
       </c>
       <c r="N42" s="3">
-        <v>1711965</v>
+        <v>1711968</v>
       </c>
       <c r="O42" s="3">
         <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925232</v>
+        <v>925233</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,22 +4849,22 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559297</v>
+        <v>11559300</v>
       </c>
       <c r="L43" s="3">
-        <v>3901025</v>
+        <v>3901024</v>
       </c>
       <c r="M43" s="3">
         <v>2975163</v>
       </c>
       <c r="N43" s="3">
-        <v>1726215</v>
+        <v>1726218</v>
       </c>
       <c r="O43" s="3">
         <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932448</v>
+        <v>932449</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,22 +4908,22 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587486</v>
+        <v>11587489</v>
       </c>
       <c r="L44" s="3">
-        <v>3911322</v>
+        <v>3911321</v>
       </c>
       <c r="M44" s="3">
         <v>2977220</v>
       </c>
       <c r="N44" s="3">
-        <v>1733163</v>
+        <v>1733166</v>
       </c>
       <c r="O44" s="3">
         <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935377</v>
+        <v>935378</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,22 +4967,22 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610912</v>
+        <v>11610915</v>
       </c>
       <c r="L45" s="3">
-        <v>3920473</v>
+        <v>3920472</v>
       </c>
       <c r="M45" s="3">
         <v>2979335</v>
       </c>
       <c r="N45" s="3">
-        <v>1737701</v>
+        <v>1737704</v>
       </c>
       <c r="O45" s="3">
         <v>1376080</v>
       </c>
       <c r="P45" s="3">
-        <v>937827</v>
+        <v>937828</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,22 +5026,22 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633023</v>
+        <v>11633026</v>
       </c>
       <c r="L46" s="3">
-        <v>3929457</v>
+        <v>3929456</v>
       </c>
       <c r="M46" s="3">
         <v>2982574</v>
       </c>
       <c r="N46" s="3">
-        <v>1739724</v>
+        <v>1739727</v>
       </c>
       <c r="O46" s="3">
         <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940862</v>
+        <v>940863</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5058,7 +5058,7 @@
         <v>45200</v>
       </c>
       <c r="B47" s="3">
-        <v>27921</v>
+        <v>27922</v>
       </c>
       <c r="C47" s="3">
         <v>7751</v>
@@ -5082,25 +5082,25 @@
         <v>1465</v>
       </c>
       <c r="J47" s="3">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K47" s="3">
-        <v>11660944</v>
+        <v>11660948</v>
       </c>
       <c r="L47" s="3">
-        <v>3937208</v>
+        <v>3937207</v>
       </c>
       <c r="M47" s="3">
         <v>2988180</v>
       </c>
       <c r="N47" s="3">
-        <v>1743426</v>
+        <v>1743429</v>
       </c>
       <c r="O47" s="3">
         <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>945944</v>
+        <v>945945</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5109,7 +5109,7 @@
         <v>248315</v>
       </c>
       <c r="S47" s="3">
-        <v>109715</v>
+        <v>109716</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -5117,13 +5117,13 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="C48" s="3">
         <v>12379</v>
       </c>
       <c r="D48" s="3">
-        <v>6097</v>
+        <v>6096</v>
       </c>
       <c r="E48" s="3">
         <v>7220</v>
@@ -5144,22 +5144,22 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11705044</v>
+        <v>11705047</v>
       </c>
       <c r="L48" s="3">
-        <v>3949587</v>
+        <v>3949586</v>
       </c>
       <c r="M48" s="3">
-        <v>2994277</v>
+        <v>2994276</v>
       </c>
       <c r="N48" s="3">
-        <v>1750646</v>
+        <v>1750649</v>
       </c>
       <c r="O48" s="3">
         <v>1382833</v>
       </c>
       <c r="P48" s="3">
-        <v>955290</v>
+        <v>955291</v>
       </c>
       <c r="Q48" s="3">
         <v>311674</v>
@@ -5168,7 +5168,7 @@
         <v>250474</v>
       </c>
       <c r="S48" s="3">
-        <v>110263</v>
+        <v>110264</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>30137</v>
+        <v>31542</v>
       </c>
       <c r="C49">
-        <v>9282</v>
+        <v>9789</v>
       </c>
       <c r="D49">
-        <v>3882</v>
+        <v>4068</v>
       </c>
       <c r="E49">
-        <v>6340</v>
+        <v>6667</v>
       </c>
       <c r="F49">
         <v>1211</v>
       </c>
       <c r="G49">
-        <v>5504</v>
+        <v>5757</v>
       </c>
       <c r="H49">
-        <v>2562</v>
+        <v>2686</v>
       </c>
       <c r="I49">
         <v>1115</v>
       </c>
       <c r="J49">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K49">
-        <v>11735181</v>
+        <v>11736589</v>
       </c>
       <c r="L49">
-        <v>3958869</v>
+        <v>3959375</v>
       </c>
       <c r="M49">
-        <v>2998159</v>
+        <v>2998344</v>
       </c>
       <c r="N49">
-        <v>1756986</v>
+        <v>1757316</v>
       </c>
       <c r="O49">
         <v>1384044</v>
       </c>
       <c r="P49">
-        <v>960794</v>
+        <v>961048</v>
       </c>
       <c r="Q49">
-        <v>314236</v>
+        <v>314360</v>
       </c>
       <c r="R49">
         <v>251589</v>
       </c>
       <c r="S49">
-        <v>110504</v>
+        <v>110513</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM44"/>
+  <dimension ref="A1:IM45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35059,6 +35059,749 @@
         <v>201</v>
       </c>
       <c r="IM44">
+        <v>13480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45283</v>
+      </c>
+      <c r="B45">
+        <v>1408</v>
+      </c>
+      <c r="C45">
+        <v>506</v>
+      </c>
+      <c r="D45">
+        <v>185</v>
+      </c>
+      <c r="E45">
+        <v>330</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>254</v>
+      </c>
+      <c r="H45">
+        <v>124</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>11736589</v>
+      </c>
+      <c r="L45">
+        <v>3959375</v>
+      </c>
+      <c r="M45">
+        <v>2998344</v>
+      </c>
+      <c r="N45">
+        <v>1757316</v>
+      </c>
+      <c r="O45">
+        <v>1384044</v>
+      </c>
+      <c r="P45">
+        <v>961048</v>
+      </c>
+      <c r="Q45">
+        <v>314360</v>
+      </c>
+      <c r="R45">
+        <v>251589</v>
+      </c>
+      <c r="S45">
+        <v>110513</v>
+      </c>
+      <c r="T45">
+        <v>89</v>
+      </c>
+      <c r="U45">
+        <v>23</v>
+      </c>
+      <c r="V45">
+        <v>19</v>
+      </c>
+      <c r="W45">
+        <v>42</v>
+      </c>
+      <c r="X45">
+        <v>56</v>
+      </c>
+      <c r="Y45">
+        <v>56</v>
+      </c>
+      <c r="Z45">
+        <v>81</v>
+      </c>
+      <c r="AA45">
+        <v>86</v>
+      </c>
+      <c r="AB45">
+        <v>53</v>
+      </c>
+      <c r="AC45">
+        <v>85</v>
+      </c>
+      <c r="AD45">
+        <v>98</v>
+      </c>
+      <c r="AE45">
+        <v>80</v>
+      </c>
+      <c r="AF45">
+        <v>113</v>
+      </c>
+      <c r="AG45">
+        <v>88</v>
+      </c>
+      <c r="AH45">
+        <v>101</v>
+      </c>
+      <c r="AI45">
+        <v>121</v>
+      </c>
+      <c r="AJ45">
+        <v>100</v>
+      </c>
+      <c r="AK45">
+        <v>117</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>504739</v>
+      </c>
+      <c r="AN45">
+        <v>668556</v>
+      </c>
+      <c r="AO45">
+        <v>774215</v>
+      </c>
+      <c r="AP45">
+        <v>760736</v>
+      </c>
+      <c r="AQ45">
+        <v>931775</v>
+      </c>
+      <c r="AR45">
+        <v>1028046</v>
+      </c>
+      <c r="AS45">
+        <v>1036180</v>
+      </c>
+      <c r="AT45">
+        <v>1020782</v>
+      </c>
+      <c r="AU45">
+        <v>910284</v>
+      </c>
+      <c r="AV45">
+        <v>809027</v>
+      </c>
+      <c r="AW45">
+        <v>749128</v>
+      </c>
+      <c r="AX45">
+        <v>623912</v>
+      </c>
+      <c r="AY45">
+        <v>544896</v>
+      </c>
+      <c r="AZ45">
+        <v>409181</v>
+      </c>
+      <c r="BA45">
+        <v>327112</v>
+      </c>
+      <c r="BB45">
+        <v>242913</v>
+      </c>
+      <c r="BC45">
+        <v>163755</v>
+      </c>
+      <c r="BD45">
+        <v>213184</v>
+      </c>
+      <c r="BE45">
+        <v>18168</v>
+      </c>
+      <c r="BF45">
+        <v>45</v>
+      </c>
+      <c r="BG45">
+        <v>45</v>
+      </c>
+      <c r="BH45">
+        <v>-1</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>14</v>
+      </c>
+      <c r="BL45">
+        <v>9</v>
+      </c>
+      <c r="BM45">
+        <v>0</v>
+      </c>
+      <c r="BN45">
+        <v>0</v>
+      </c>
+      <c r="BO45">
+        <v>0</v>
+      </c>
+      <c r="BP45">
+        <v>11</v>
+      </c>
+      <c r="BQ45">
+        <v>8</v>
+      </c>
+      <c r="BR45">
+        <v>0</v>
+      </c>
+      <c r="BS45">
+        <v>0</v>
+      </c>
+      <c r="BT45">
+        <v>0</v>
+      </c>
+      <c r="BU45">
+        <v>23</v>
+      </c>
+      <c r="BV45">
+        <v>19</v>
+      </c>
+      <c r="BW45">
+        <v>0</v>
+      </c>
+      <c r="BX45">
+        <v>0</v>
+      </c>
+      <c r="BY45">
+        <v>0</v>
+      </c>
+      <c r="BZ45">
+        <v>24</v>
+      </c>
+      <c r="CA45">
+        <v>34</v>
+      </c>
+      <c r="CB45">
+        <v>0</v>
+      </c>
+      <c r="CC45">
+        <v>-1</v>
+      </c>
+      <c r="CD45">
+        <v>-1</v>
+      </c>
+      <c r="CE45">
+        <v>20</v>
+      </c>
+      <c r="CF45">
+        <v>38</v>
+      </c>
+      <c r="CG45">
+        <v>0</v>
+      </c>
+      <c r="CH45">
+        <v>0</v>
+      </c>
+      <c r="CI45">
+        <v>-2</v>
+      </c>
+      <c r="CJ45">
+        <v>24</v>
+      </c>
+      <c r="CK45">
+        <v>59</v>
+      </c>
+      <c r="CL45">
+        <v>0</v>
+      </c>
+      <c r="CM45">
+        <v>0</v>
+      </c>
+      <c r="CN45">
+        <v>-2</v>
+      </c>
+      <c r="CO45">
+        <v>34</v>
+      </c>
+      <c r="CP45">
+        <v>53</v>
+      </c>
+      <c r="CQ45">
+        <v>0</v>
+      </c>
+      <c r="CR45">
+        <v>0</v>
+      </c>
+      <c r="CS45">
+        <v>-1</v>
+      </c>
+      <c r="CT45">
+        <v>17</v>
+      </c>
+      <c r="CU45">
+        <v>39</v>
+      </c>
+      <c r="CV45">
+        <v>0</v>
+      </c>
+      <c r="CW45">
+        <v>-2</v>
+      </c>
+      <c r="CX45">
+        <v>-1</v>
+      </c>
+      <c r="CY45">
+        <v>35</v>
+      </c>
+      <c r="CZ45">
+        <v>52</v>
+      </c>
+      <c r="DA45">
+        <v>0</v>
+      </c>
+      <c r="DB45">
+        <v>-2</v>
+      </c>
+      <c r="DC45">
+        <v>0</v>
+      </c>
+      <c r="DD45">
+        <v>43</v>
+      </c>
+      <c r="DE45">
+        <v>56</v>
+      </c>
+      <c r="DF45">
+        <v>0</v>
+      </c>
+      <c r="DG45">
+        <v>-1</v>
+      </c>
+      <c r="DH45">
+        <v>0</v>
+      </c>
+      <c r="DI45">
+        <v>27</v>
+      </c>
+      <c r="DJ45">
+        <v>54</v>
+      </c>
+      <c r="DK45">
+        <v>0</v>
+      </c>
+      <c r="DL45">
+        <v>0</v>
+      </c>
+      <c r="DM45">
+        <v>-1</v>
+      </c>
+      <c r="DN45">
+        <v>45</v>
+      </c>
+      <c r="DO45">
+        <v>69</v>
+      </c>
+      <c r="DP45">
+        <v>0</v>
+      </c>
+      <c r="DQ45">
+        <v>-1</v>
+      </c>
+      <c r="DR45">
+        <v>0</v>
+      </c>
+      <c r="DS45">
+        <v>47</v>
+      </c>
+      <c r="DT45">
+        <v>48</v>
+      </c>
+      <c r="DU45">
+        <v>0</v>
+      </c>
+      <c r="DV45">
+        <v>-7</v>
+      </c>
+      <c r="DW45">
+        <v>0</v>
+      </c>
+      <c r="DX45">
+        <v>56</v>
+      </c>
+      <c r="DY45">
+        <v>54</v>
+      </c>
+      <c r="DZ45">
+        <v>0</v>
+      </c>
+      <c r="EA45">
+        <v>-9</v>
+      </c>
+      <c r="EB45">
+        <v>0</v>
+      </c>
+      <c r="EC45">
+        <v>74</v>
+      </c>
+      <c r="ED45">
+        <v>57</v>
+      </c>
+      <c r="EE45">
+        <v>0</v>
+      </c>
+      <c r="EF45">
+        <v>-9</v>
+      </c>
+      <c r="EG45">
+        <v>-1</v>
+      </c>
+      <c r="EH45">
+        <v>49</v>
+      </c>
+      <c r="EI45">
+        <v>54</v>
+      </c>
+      <c r="EJ45">
+        <v>0</v>
+      </c>
+      <c r="EK45">
+        <v>-3</v>
+      </c>
+      <c r="EL45">
+        <v>0</v>
+      </c>
+      <c r="EM45">
+        <v>52</v>
+      </c>
+      <c r="EN45">
+        <v>67</v>
+      </c>
+      <c r="EO45">
+        <v>0</v>
+      </c>
+      <c r="EP45">
+        <v>-2</v>
+      </c>
+      <c r="EQ45">
+        <v>0</v>
+      </c>
+      <c r="ER45">
+        <v>0</v>
+      </c>
+      <c r="ES45">
+        <v>0</v>
+      </c>
+      <c r="ET45">
+        <v>0</v>
+      </c>
+      <c r="EU45">
+        <v>0</v>
+      </c>
+      <c r="EV45">
+        <v>0</v>
+      </c>
+      <c r="EW45">
+        <v>232544</v>
+      </c>
+      <c r="EX45">
+        <v>220692</v>
+      </c>
+      <c r="EY45">
+        <v>410</v>
+      </c>
+      <c r="EZ45">
+        <v>15445</v>
+      </c>
+      <c r="FA45">
+        <v>35648</v>
+      </c>
+      <c r="FB45">
+        <v>308347</v>
+      </c>
+      <c r="FC45">
+        <v>292960</v>
+      </c>
+      <c r="FD45">
+        <v>466</v>
+      </c>
+      <c r="FE45">
+        <v>16750</v>
+      </c>
+      <c r="FF45">
+        <v>50033</v>
+      </c>
+      <c r="FG45">
+        <v>353649</v>
+      </c>
+      <c r="FH45">
+        <v>342917</v>
+      </c>
+      <c r="FI45">
+        <v>632</v>
+      </c>
+      <c r="FJ45">
+        <v>16936</v>
+      </c>
+      <c r="FK45">
+        <v>60081</v>
+      </c>
+      <c r="FL45">
+        <v>326755</v>
+      </c>
+      <c r="FM45">
+        <v>374354</v>
+      </c>
+      <c r="FN45">
+        <v>896</v>
+      </c>
+      <c r="FO45">
+        <v>12912</v>
+      </c>
+      <c r="FP45">
+        <v>45819</v>
+      </c>
+      <c r="FQ45">
+        <v>392523</v>
+      </c>
+      <c r="FR45">
+        <v>480493</v>
+      </c>
+      <c r="FS45">
+        <v>1101</v>
+      </c>
+      <c r="FT45">
+        <v>16247</v>
+      </c>
+      <c r="FU45">
+        <v>41411</v>
+      </c>
+      <c r="FV45">
+        <v>434508</v>
+      </c>
+      <c r="FW45">
+        <v>527156</v>
+      </c>
+      <c r="FX45">
+        <v>1139</v>
+      </c>
+      <c r="FY45">
+        <v>17741</v>
+      </c>
+      <c r="FZ45">
+        <v>47502</v>
+      </c>
+      <c r="GA45">
+        <v>429959</v>
+      </c>
+      <c r="GB45">
+        <v>533355</v>
+      </c>
+      <c r="GC45">
+        <v>923</v>
+      </c>
+      <c r="GD45">
+        <v>17124</v>
+      </c>
+      <c r="GE45">
+        <v>54819</v>
+      </c>
+      <c r="GF45">
+        <v>420472</v>
+      </c>
+      <c r="GG45">
+        <v>525838</v>
+      </c>
+      <c r="GH45">
+        <v>666</v>
+      </c>
+      <c r="GI45">
+        <v>14980</v>
+      </c>
+      <c r="GJ45">
+        <v>58826</v>
+      </c>
+      <c r="GK45">
+        <v>374266</v>
+      </c>
+      <c r="GL45">
+        <v>470028</v>
+      </c>
+      <c r="GM45">
+        <v>498</v>
+      </c>
+      <c r="GN45">
+        <v>12330</v>
+      </c>
+      <c r="GO45">
+        <v>53162</v>
+      </c>
+      <c r="GP45">
+        <v>330992</v>
+      </c>
+      <c r="GQ45">
+        <v>422172</v>
+      </c>
+      <c r="GR45">
+        <v>439</v>
+      </c>
+      <c r="GS45">
+        <v>10106</v>
+      </c>
+      <c r="GT45">
+        <v>45318</v>
+      </c>
+      <c r="GU45">
+        <v>308927</v>
+      </c>
+      <c r="GV45">
+        <v>390608</v>
+      </c>
+      <c r="GW45">
+        <v>402</v>
+      </c>
+      <c r="GX45">
+        <v>8930</v>
+      </c>
+      <c r="GY45">
+        <v>40261</v>
+      </c>
+      <c r="GZ45">
+        <v>264303</v>
+      </c>
+      <c r="HA45">
+        <v>320941</v>
+      </c>
+      <c r="HB45">
+        <v>329</v>
+      </c>
+      <c r="HC45">
+        <v>6594</v>
+      </c>
+      <c r="HD45">
+        <v>31745</v>
+      </c>
+      <c r="HE45">
+        <v>235207</v>
+      </c>
+      <c r="HF45">
+        <v>278189</v>
+      </c>
+      <c r="HG45">
+        <v>234</v>
+      </c>
+      <c r="HH45">
+        <v>5309</v>
+      </c>
+      <c r="HI45">
+        <v>25957</v>
+      </c>
+      <c r="HJ45">
+        <v>181626</v>
+      </c>
+      <c r="HK45">
+        <v>205247</v>
+      </c>
+      <c r="HL45">
+        <v>199</v>
+      </c>
+      <c r="HM45">
+        <v>3589</v>
+      </c>
+      <c r="HN45">
+        <v>18520</v>
+      </c>
+      <c r="HO45">
+        <v>152598</v>
+      </c>
+      <c r="HP45">
+        <v>159381</v>
+      </c>
+      <c r="HQ45">
+        <v>164</v>
+      </c>
+      <c r="HR45">
+        <v>2622</v>
+      </c>
+      <c r="HS45">
+        <v>12347</v>
+      </c>
+      <c r="HT45">
+        <v>117112</v>
+      </c>
+      <c r="HU45">
+        <v>115986</v>
+      </c>
+      <c r="HV45">
+        <v>164</v>
+      </c>
+      <c r="HW45">
+        <v>1840</v>
+      </c>
+      <c r="HX45">
+        <v>7811</v>
+      </c>
+      <c r="HY45">
+        <v>77022</v>
+      </c>
+      <c r="HZ45">
+        <v>80812</v>
+      </c>
+      <c r="IA45">
+        <v>132</v>
+      </c>
+      <c r="IB45">
+        <v>1258</v>
+      </c>
+      <c r="IC45">
+        <v>4531</v>
+      </c>
+      <c r="ID45">
+        <v>82593</v>
+      </c>
+      <c r="IE45">
+        <v>124193</v>
+      </c>
+      <c r="IF45">
+        <v>308</v>
+      </c>
+      <c r="IG45">
+        <v>2249</v>
+      </c>
+      <c r="IH45">
+        <v>3841</v>
+      </c>
+      <c r="II45">
+        <v>2153</v>
+      </c>
+      <c r="IJ45">
+        <v>2309</v>
+      </c>
+      <c r="IK45">
+        <v>25</v>
+      </c>
+      <c r="IL45">
+        <v>201</v>
+      </c>
+      <c r="IM45">
         <v>13480</v>
       </c>
     </row>
@@ -35086,7 +35829,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45282</v>
+        <v>45283</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88748178-28C3-4200-BC92-CCA6E3FF1D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6CCCD-947B-4B04-8711-1F3C18426678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1880,10 +1880,10 @@
         <v>70916</v>
       </c>
       <c r="Z3">
-        <v>55519</v>
+        <v>55518</v>
       </c>
       <c r="AA3">
-        <v>42729</v>
+        <v>42730</v>
       </c>
       <c r="AB3">
         <v>33829</v>
@@ -1937,10 +1937,10 @@
         <v>74446</v>
       </c>
       <c r="AS3">
-        <v>58382</v>
+        <v>58381</v>
       </c>
       <c r="AT3">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="AU3">
         <v>35618</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10318103</v>
+        <v>10318105</v>
       </c>
       <c r="C4">
         <v>3368103</v>
@@ -1996,7 +1996,7 @@
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848566</v>
+        <v>848568</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886186</v>
+        <v>10886188</v>
       </c>
       <c r="L4">
         <v>3653388</v>
@@ -2023,7 +2023,7 @@
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867738</v>
+        <v>867740</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2038,55 +2038,55 @@
         <v>450507</v>
       </c>
       <c r="U4">
-        <v>611247</v>
+        <v>611246</v>
       </c>
       <c r="V4">
-        <v>710203</v>
+        <v>710201</v>
       </c>
       <c r="W4">
-        <v>683310</v>
+        <v>683313</v>
       </c>
       <c r="X4">
-        <v>812050</v>
+        <v>812047</v>
       </c>
       <c r="Y4">
-        <v>899965</v>
+        <v>899966</v>
       </c>
       <c r="Z4">
-        <v>917027</v>
+        <v>917026</v>
       </c>
       <c r="AA4">
-        <v>908885</v>
+        <v>908886</v>
       </c>
       <c r="AB4">
-        <v>810337</v>
+        <v>810338</v>
       </c>
       <c r="AC4">
-        <v>717643</v>
+        <v>717636</v>
       </c>
       <c r="AD4">
-        <v>658718</v>
+        <v>658723</v>
       </c>
       <c r="AE4">
-        <v>544125</v>
+        <v>544128</v>
       </c>
       <c r="AF4">
-        <v>471492</v>
+        <v>471490</v>
       </c>
       <c r="AG4">
-        <v>349011</v>
+        <v>349014</v>
       </c>
       <c r="AH4">
         <v>274349</v>
       </c>
       <c r="AI4">
-        <v>198085</v>
+        <v>198086</v>
       </c>
       <c r="AJ4">
-        <v>128224</v>
+        <v>128223</v>
       </c>
       <c r="AK4">
-        <v>155776</v>
+        <v>155777</v>
       </c>
       <c r="AL4">
         <v>17149</v>
@@ -2095,55 +2095,55 @@
         <v>473757</v>
       </c>
       <c r="AN4">
-        <v>644446</v>
+        <v>644445</v>
       </c>
       <c r="AO4">
-        <v>741718</v>
+        <v>741716</v>
       </c>
       <c r="AP4">
-        <v>728556</v>
+        <v>728559</v>
       </c>
       <c r="AQ4">
-        <v>890279</v>
+        <v>890276</v>
       </c>
       <c r="AR4">
-        <v>974411</v>
+        <v>974412</v>
       </c>
       <c r="AS4">
-        <v>975409</v>
+        <v>975407</v>
       </c>
       <c r="AT4">
-        <v>953879</v>
+        <v>953881</v>
       </c>
       <c r="AU4">
-        <v>845955</v>
+        <v>845956</v>
       </c>
       <c r="AV4">
-        <v>749723</v>
+        <v>749716</v>
       </c>
       <c r="AW4">
-        <v>688407</v>
+        <v>688412</v>
       </c>
       <c r="AX4">
-        <v>568126</v>
+        <v>568129</v>
       </c>
       <c r="AY4">
-        <v>490027</v>
+        <v>490025</v>
       </c>
       <c r="AZ4">
-        <v>361987</v>
+        <v>361990</v>
       </c>
       <c r="BA4">
         <v>283663</v>
       </c>
       <c r="BB4">
-        <v>204562</v>
+        <v>204563</v>
       </c>
       <c r="BC4">
-        <v>132617</v>
+        <v>132616</v>
       </c>
       <c r="BD4">
-        <v>161142</v>
+        <v>161143</v>
       </c>
       <c r="BE4">
         <v>17522</v>
@@ -2154,25 +2154,25 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>850403</v>
+        <v>851380</v>
       </c>
       <c r="C5">
-        <v>305987</v>
+        <v>306346</v>
       </c>
       <c r="D5">
         <v>156862</v>
       </c>
       <c r="E5">
-        <v>137436</v>
+        <v>137717</v>
       </c>
       <c r="F5">
         <v>94188</v>
       </c>
       <c r="G5">
-        <v>93310</v>
+        <v>93516</v>
       </c>
       <c r="H5">
-        <v>32817</v>
+        <v>32948</v>
       </c>
       <c r="I5">
         <v>23257</v>
@@ -2181,25 +2181,25 @@
         <v>6546</v>
       </c>
       <c r="K5">
-        <v>11736589</v>
+        <v>11737568</v>
       </c>
       <c r="L5">
-        <v>3959375</v>
+        <v>3959734</v>
       </c>
       <c r="M5">
         <v>2998344</v>
       </c>
       <c r="N5">
-        <v>1757316</v>
+        <v>1757597</v>
       </c>
       <c r="O5">
         <v>1384044</v>
       </c>
       <c r="P5">
-        <v>961048</v>
+        <v>961256</v>
       </c>
       <c r="Q5">
-        <v>314360</v>
+        <v>314491</v>
       </c>
       <c r="R5">
         <v>251589</v>
@@ -2208,115 +2208,115 @@
         <v>110513</v>
       </c>
       <c r="T5">
-        <v>30982</v>
+        <v>31065</v>
       </c>
       <c r="U5">
-        <v>24110</v>
+        <v>24124</v>
       </c>
       <c r="V5">
-        <v>32497</v>
+        <v>32507</v>
       </c>
       <c r="W5">
-        <v>32180</v>
+        <v>32206</v>
       </c>
       <c r="X5">
-        <v>41496</v>
+        <v>41521</v>
       </c>
       <c r="Y5">
-        <v>53635</v>
+        <v>53676</v>
       </c>
       <c r="Z5">
-        <v>60771</v>
+        <v>60833</v>
       </c>
       <c r="AA5">
-        <v>66903</v>
+        <v>66946</v>
       </c>
       <c r="AB5">
-        <v>64329</v>
+        <v>64390</v>
       </c>
       <c r="AC5">
-        <v>59304</v>
+        <v>59358</v>
       </c>
       <c r="AD5">
-        <v>60721</v>
+        <v>60790</v>
       </c>
       <c r="AE5">
-        <v>55786</v>
+        <v>55850</v>
       </c>
       <c r="AF5">
-        <v>54869</v>
+        <v>54935</v>
       </c>
       <c r="AG5">
-        <v>47194</v>
+        <v>47278</v>
       </c>
       <c r="AH5">
-        <v>43449</v>
+        <v>43515</v>
       </c>
       <c r="AI5">
-        <v>38351</v>
+        <v>38418</v>
       </c>
       <c r="AJ5">
-        <v>31138</v>
+        <v>31198</v>
       </c>
       <c r="AK5">
-        <v>52042</v>
+        <v>52124</v>
       </c>
       <c r="AL5">
         <v>646</v>
       </c>
       <c r="AM5">
-        <v>504739</v>
+        <v>504822</v>
       </c>
       <c r="AN5">
-        <v>668556</v>
+        <v>668569</v>
       </c>
       <c r="AO5">
-        <v>774215</v>
+        <v>774223</v>
       </c>
       <c r="AP5">
-        <v>760736</v>
+        <v>760765</v>
       </c>
       <c r="AQ5">
-        <v>931775</v>
+        <v>931797</v>
       </c>
       <c r="AR5">
-        <v>1028046</v>
+        <v>1028088</v>
       </c>
       <c r="AS5">
-        <v>1036180</v>
+        <v>1036240</v>
       </c>
       <c r="AT5">
-        <v>1020782</v>
+        <v>1020827</v>
       </c>
       <c r="AU5">
-        <v>910284</v>
+        <v>910346</v>
       </c>
       <c r="AV5">
-        <v>809027</v>
+        <v>809074</v>
       </c>
       <c r="AW5">
-        <v>749128</v>
+        <v>749202</v>
       </c>
       <c r="AX5">
-        <v>623912</v>
+        <v>623979</v>
       </c>
       <c r="AY5">
-        <v>544896</v>
+        <v>544960</v>
       </c>
       <c r="AZ5">
-        <v>409181</v>
+        <v>409268</v>
       </c>
       <c r="BA5">
-        <v>327112</v>
+        <v>327178</v>
       </c>
       <c r="BB5">
-        <v>242913</v>
+        <v>242981</v>
       </c>
       <c r="BC5">
-        <v>163755</v>
+        <v>163814</v>
       </c>
       <c r="BD5">
-        <v>213184</v>
+        <v>213267</v>
       </c>
       <c r="BE5">
         <v>18168</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687557</v>
+        <v>687558</v>
       </c>
       <c r="C27" s="3">
         <v>230227</v>
@@ -3893,7 +3893,7 @@
         <v>11814</v>
       </c>
       <c r="G27" s="3">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065338</v>
+        <v>3065339</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153763</v>
+        <v>153764</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432131</v>
+        <v>4432132</v>
       </c>
       <c r="L28" s="3">
         <v>1689282</v>
@@ -3979,7 +3979,7 @@
         <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274276</v>
+        <v>274277</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772074</v>
+        <v>5772075</v>
       </c>
       <c r="L29" s="3">
         <v>2121662</v>
@@ -4038,7 +4038,7 @@
         <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414162</v>
+        <v>414163</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082475</v>
+        <v>7082476</v>
       </c>
       <c r="L30" s="3">
         <v>2418929</v>
@@ -4097,7 +4097,7 @@
         <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522333</v>
+        <v>522334</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884318</v>
+        <v>884319</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182636</v>
       </c>
       <c r="G31" s="3">
-        <v>77342</v>
+        <v>77343</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966793</v>
+        <v>7966795</v>
       </c>
       <c r="L31" s="3">
         <v>2652830</v>
@@ -4156,7 +4156,7 @@
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599675</v>
+        <v>599677</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217152</v>
+        <v>9217154</v>
       </c>
       <c r="L32" s="3">
         <v>3031435</v>
@@ -4215,7 +4215,7 @@
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>717085</v>
+        <v>717087</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9772012</v>
+        <v>9772014</v>
       </c>
       <c r="L33" s="3">
         <v>3261484</v>
@@ -4274,7 +4274,7 @@
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757598</v>
+        <v>757600</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966263</v>
+        <v>9966265</v>
       </c>
       <c r="L34" s="3">
         <v>3330336</v>
@@ -4333,7 +4333,7 @@
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772884</v>
+        <v>772886</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108366</v>
+        <v>10108368</v>
       </c>
       <c r="L35" s="3">
         <v>3374835</v>
@@ -4392,7 +4392,7 @@
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>786060</v>
+        <v>786062</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460311</v>
+        <v>10460313</v>
       </c>
       <c r="L36" s="3">
         <v>3496927</v>
@@ -4451,7 +4451,7 @@
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823226</v>
+        <v>823228</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886186</v>
+        <v>10886188</v>
       </c>
       <c r="L37" s="3">
         <v>3653388</v>
@@ -4510,7 +4510,7 @@
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867738</v>
+        <v>867740</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016270</v>
+        <v>11016272</v>
       </c>
       <c r="L38" s="3">
         <v>3699332</v>
@@ -4569,7 +4569,7 @@
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879629</v>
+        <v>879631</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088257</v>
+        <v>11088259</v>
       </c>
       <c r="L39" s="3">
         <v>3724575</v>
@@ -4628,7 +4628,7 @@
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886483</v>
+        <v>886485</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192218</v>
+        <v>11192220</v>
       </c>
       <c r="L40" s="3">
         <v>3763217</v>
@@ -4687,7 +4687,7 @@
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>897984</v>
+        <v>897986</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315338</v>
+        <v>11315340</v>
       </c>
       <c r="L41" s="3">
         <v>3810746</v>
@@ -4746,7 +4746,7 @@
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910316</v>
+        <v>910318</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481535</v>
+        <v>11481537</v>
       </c>
       <c r="L42" s="3">
         <v>3872840</v>
@@ -4805,7 +4805,7 @@
         <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925233</v>
+        <v>925235</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559300</v>
+        <v>11559302</v>
       </c>
       <c r="L43" s="3">
         <v>3901024</v>
@@ -4864,7 +4864,7 @@
         <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932449</v>
+        <v>932451</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587489</v>
+        <v>11587491</v>
       </c>
       <c r="L44" s="3">
         <v>3911321</v>
@@ -4923,7 +4923,7 @@
         <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935378</v>
+        <v>935380</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610915</v>
+        <v>11610917</v>
       </c>
       <c r="L45" s="3">
         <v>3920472</v>
@@ -4982,7 +4982,7 @@
         <v>1376080</v>
       </c>
       <c r="P45" s="3">
-        <v>937828</v>
+        <v>937830</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633026</v>
+        <v>11633028</v>
       </c>
       <c r="L46" s="3">
         <v>3929456</v>
@@ -5041,7 +5041,7 @@
         <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940863</v>
+        <v>940865</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>417</v>
       </c>
       <c r="K47" s="3">
-        <v>11660948</v>
+        <v>11660950</v>
       </c>
       <c r="L47" s="3">
         <v>3937207</v>
@@ -5100,7 +5100,7 @@
         <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>945945</v>
+        <v>945947</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5144,7 +5144,7 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11705047</v>
+        <v>11705049</v>
       </c>
       <c r="L48" s="3">
         <v>3949586</v>
@@ -5159,7 +5159,7 @@
         <v>1382833</v>
       </c>
       <c r="P48" s="3">
-        <v>955291</v>
+        <v>955293</v>
       </c>
       <c r="Q48" s="3">
         <v>311674</v>
@@ -5176,25 +5176,25 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>31542</v>
+        <v>32519</v>
       </c>
       <c r="C49">
-        <v>9789</v>
+        <v>10148</v>
       </c>
       <c r="D49">
         <v>4068</v>
       </c>
       <c r="E49">
-        <v>6667</v>
+        <v>6948</v>
       </c>
       <c r="F49">
         <v>1211</v>
       </c>
       <c r="G49">
-        <v>5757</v>
+        <v>5963</v>
       </c>
       <c r="H49">
-        <v>2686</v>
+        <v>2817</v>
       </c>
       <c r="I49">
         <v>1115</v>
@@ -5203,25 +5203,25 @@
         <v>249</v>
       </c>
       <c r="K49">
-        <v>11736589</v>
+        <v>11737568</v>
       </c>
       <c r="L49">
-        <v>3959375</v>
+        <v>3959734</v>
       </c>
       <c r="M49">
         <v>2998344</v>
       </c>
       <c r="N49">
-        <v>1757316</v>
+        <v>1757597</v>
       </c>
       <c r="O49">
         <v>1384044</v>
       </c>
       <c r="P49">
-        <v>961048</v>
+        <v>961256</v>
       </c>
       <c r="Q49">
-        <v>314360</v>
+        <v>314491</v>
       </c>
       <c r="R49">
         <v>251589</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM45"/>
+  <dimension ref="A1:IM46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35802,6 +35802,749 @@
         <v>201</v>
       </c>
       <c r="IM45">
+        <v>13480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45284</v>
+      </c>
+      <c r="B46">
+        <v>979</v>
+      </c>
+      <c r="C46">
+        <v>359</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>281</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>208</v>
+      </c>
+      <c r="H46">
+        <v>131</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>11737568</v>
+      </c>
+      <c r="L46">
+        <v>3959734</v>
+      </c>
+      <c r="M46">
+        <v>2998344</v>
+      </c>
+      <c r="N46">
+        <v>1757597</v>
+      </c>
+      <c r="O46">
+        <v>1384044</v>
+      </c>
+      <c r="P46">
+        <v>961256</v>
+      </c>
+      <c r="Q46">
+        <v>314491</v>
+      </c>
+      <c r="R46">
+        <v>251589</v>
+      </c>
+      <c r="S46">
+        <v>110513</v>
+      </c>
+      <c r="T46">
+        <v>83</v>
+      </c>
+      <c r="U46">
+        <v>13</v>
+      </c>
+      <c r="V46">
+        <v>8</v>
+      </c>
+      <c r="W46">
+        <v>29</v>
+      </c>
+      <c r="X46">
+        <v>22</v>
+      </c>
+      <c r="Y46">
+        <v>42</v>
+      </c>
+      <c r="Z46">
+        <v>60</v>
+      </c>
+      <c r="AA46">
+        <v>45</v>
+      </c>
+      <c r="AB46">
+        <v>62</v>
+      </c>
+      <c r="AC46">
+        <v>47</v>
+      </c>
+      <c r="AD46">
+        <v>74</v>
+      </c>
+      <c r="AE46">
+        <v>67</v>
+      </c>
+      <c r="AF46">
+        <v>64</v>
+      </c>
+      <c r="AG46">
+        <v>87</v>
+      </c>
+      <c r="AH46">
+        <v>66</v>
+      </c>
+      <c r="AI46">
+        <v>68</v>
+      </c>
+      <c r="AJ46">
+        <v>59</v>
+      </c>
+      <c r="AK46">
+        <v>83</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>504822</v>
+      </c>
+      <c r="AN46">
+        <v>668569</v>
+      </c>
+      <c r="AO46">
+        <v>774223</v>
+      </c>
+      <c r="AP46">
+        <v>760765</v>
+      </c>
+      <c r="AQ46">
+        <v>931797</v>
+      </c>
+      <c r="AR46">
+        <v>1028088</v>
+      </c>
+      <c r="AS46">
+        <v>1036240</v>
+      </c>
+      <c r="AT46">
+        <v>1020827</v>
+      </c>
+      <c r="AU46">
+        <v>910346</v>
+      </c>
+      <c r="AV46">
+        <v>809074</v>
+      </c>
+      <c r="AW46">
+        <v>749202</v>
+      </c>
+      <c r="AX46">
+        <v>623979</v>
+      </c>
+      <c r="AY46">
+        <v>544960</v>
+      </c>
+      <c r="AZ46">
+        <v>409268</v>
+      </c>
+      <c r="BA46">
+        <v>327178</v>
+      </c>
+      <c r="BB46">
+        <v>242981</v>
+      </c>
+      <c r="BC46">
+        <v>163814</v>
+      </c>
+      <c r="BD46">
+        <v>213267</v>
+      </c>
+      <c r="BE46">
+        <v>18168</v>
+      </c>
+      <c r="BF46">
+        <v>39</v>
+      </c>
+      <c r="BG46">
+        <v>44</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>10</v>
+      </c>
+      <c r="BL46">
+        <v>3</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>3</v>
+      </c>
+      <c r="BQ46">
+        <v>5</v>
+      </c>
+      <c r="BR46">
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <v>0</v>
+      </c>
+      <c r="BT46">
+        <v>0</v>
+      </c>
+      <c r="BU46">
+        <v>10</v>
+      </c>
+      <c r="BV46">
+        <v>19</v>
+      </c>
+      <c r="BW46">
+        <v>0</v>
+      </c>
+      <c r="BX46">
+        <v>0</v>
+      </c>
+      <c r="BY46">
+        <v>0</v>
+      </c>
+      <c r="BZ46">
+        <v>8</v>
+      </c>
+      <c r="CA46">
+        <v>14</v>
+      </c>
+      <c r="CB46">
+        <v>0</v>
+      </c>
+      <c r="CC46">
+        <v>0</v>
+      </c>
+      <c r="CD46">
+        <v>0</v>
+      </c>
+      <c r="CE46">
+        <v>11</v>
+      </c>
+      <c r="CF46">
+        <v>31</v>
+      </c>
+      <c r="CG46">
+        <v>0</v>
+      </c>
+      <c r="CH46">
+        <v>0</v>
+      </c>
+      <c r="CI46">
+        <v>0</v>
+      </c>
+      <c r="CJ46">
+        <v>19</v>
+      </c>
+      <c r="CK46">
+        <v>41</v>
+      </c>
+      <c r="CL46">
+        <v>0</v>
+      </c>
+      <c r="CM46">
+        <v>0</v>
+      </c>
+      <c r="CN46">
+        <v>0</v>
+      </c>
+      <c r="CO46">
+        <v>19</v>
+      </c>
+      <c r="CP46">
+        <v>26</v>
+      </c>
+      <c r="CQ46">
+        <v>0</v>
+      </c>
+      <c r="CR46">
+        <v>0</v>
+      </c>
+      <c r="CS46">
+        <v>0</v>
+      </c>
+      <c r="CT46">
+        <v>28</v>
+      </c>
+      <c r="CU46">
+        <v>34</v>
+      </c>
+      <c r="CV46">
+        <v>0</v>
+      </c>
+      <c r="CW46">
+        <v>0</v>
+      </c>
+      <c r="CX46">
+        <v>0</v>
+      </c>
+      <c r="CY46">
+        <v>18</v>
+      </c>
+      <c r="CZ46">
+        <v>29</v>
+      </c>
+      <c r="DA46">
+        <v>0</v>
+      </c>
+      <c r="DB46">
+        <v>0</v>
+      </c>
+      <c r="DC46">
+        <v>0</v>
+      </c>
+      <c r="DD46">
+        <v>26</v>
+      </c>
+      <c r="DE46">
+        <v>48</v>
+      </c>
+      <c r="DF46">
+        <v>0</v>
+      </c>
+      <c r="DG46">
+        <v>0</v>
+      </c>
+      <c r="DH46">
+        <v>0</v>
+      </c>
+      <c r="DI46">
+        <v>27</v>
+      </c>
+      <c r="DJ46">
+        <v>40</v>
+      </c>
+      <c r="DK46">
+        <v>0</v>
+      </c>
+      <c r="DL46">
+        <v>0</v>
+      </c>
+      <c r="DM46">
+        <v>0</v>
+      </c>
+      <c r="DN46">
+        <v>27</v>
+      </c>
+      <c r="DO46">
+        <v>37</v>
+      </c>
+      <c r="DP46">
+        <v>0</v>
+      </c>
+      <c r="DQ46">
+        <v>0</v>
+      </c>
+      <c r="DR46">
+        <v>0</v>
+      </c>
+      <c r="DS46">
+        <v>45</v>
+      </c>
+      <c r="DT46">
+        <v>42</v>
+      </c>
+      <c r="DU46">
+        <v>0</v>
+      </c>
+      <c r="DV46">
+        <v>0</v>
+      </c>
+      <c r="DW46">
+        <v>0</v>
+      </c>
+      <c r="DX46">
+        <v>33</v>
+      </c>
+      <c r="DY46">
+        <v>34</v>
+      </c>
+      <c r="DZ46">
+        <v>0</v>
+      </c>
+      <c r="EA46">
+        <v>0</v>
+      </c>
+      <c r="EB46">
+        <v>-1</v>
+      </c>
+      <c r="EC46">
+        <v>34</v>
+      </c>
+      <c r="ED46">
+        <v>34</v>
+      </c>
+      <c r="EE46">
+        <v>0</v>
+      </c>
+      <c r="EF46">
+        <v>0</v>
+      </c>
+      <c r="EG46">
+        <v>0</v>
+      </c>
+      <c r="EH46">
+        <v>33</v>
+      </c>
+      <c r="EI46">
+        <v>26</v>
+      </c>
+      <c r="EJ46">
+        <v>0</v>
+      </c>
+      <c r="EK46">
+        <v>0</v>
+      </c>
+      <c r="EL46">
+        <v>0</v>
+      </c>
+      <c r="EM46">
+        <v>34</v>
+      </c>
+      <c r="EN46">
+        <v>49</v>
+      </c>
+      <c r="EO46">
+        <v>0</v>
+      </c>
+      <c r="EP46">
+        <v>0</v>
+      </c>
+      <c r="EQ46">
+        <v>0</v>
+      </c>
+      <c r="ER46">
+        <v>0</v>
+      </c>
+      <c r="ES46">
+        <v>0</v>
+      </c>
+      <c r="ET46">
+        <v>0</v>
+      </c>
+      <c r="EU46">
+        <v>0</v>
+      </c>
+      <c r="EV46">
+        <v>0</v>
+      </c>
+      <c r="EW46">
+        <v>232583</v>
+      </c>
+      <c r="EX46">
+        <v>220736</v>
+      </c>
+      <c r="EY46">
+        <v>410</v>
+      </c>
+      <c r="EZ46">
+        <v>15445</v>
+      </c>
+      <c r="FA46">
+        <v>35648</v>
+      </c>
+      <c r="FB46">
+        <v>308357</v>
+      </c>
+      <c r="FC46">
+        <v>292963</v>
+      </c>
+      <c r="FD46">
+        <v>466</v>
+      </c>
+      <c r="FE46">
+        <v>16750</v>
+      </c>
+      <c r="FF46">
+        <v>50033</v>
+      </c>
+      <c r="FG46">
+        <v>353652</v>
+      </c>
+      <c r="FH46">
+        <v>342922</v>
+      </c>
+      <c r="FI46">
+        <v>632</v>
+      </c>
+      <c r="FJ46">
+        <v>16936</v>
+      </c>
+      <c r="FK46">
+        <v>60081</v>
+      </c>
+      <c r="FL46">
+        <v>326765</v>
+      </c>
+      <c r="FM46">
+        <v>374373</v>
+      </c>
+      <c r="FN46">
+        <v>896</v>
+      </c>
+      <c r="FO46">
+        <v>12912</v>
+      </c>
+      <c r="FP46">
+        <v>45819</v>
+      </c>
+      <c r="FQ46">
+        <v>392531</v>
+      </c>
+      <c r="FR46">
+        <v>480507</v>
+      </c>
+      <c r="FS46">
+        <v>1101</v>
+      </c>
+      <c r="FT46">
+        <v>16247</v>
+      </c>
+      <c r="FU46">
+        <v>41411</v>
+      </c>
+      <c r="FV46">
+        <v>434519</v>
+      </c>
+      <c r="FW46">
+        <v>527187</v>
+      </c>
+      <c r="FX46">
+        <v>1139</v>
+      </c>
+      <c r="FY46">
+        <v>17741</v>
+      </c>
+      <c r="FZ46">
+        <v>47502</v>
+      </c>
+      <c r="GA46">
+        <v>429978</v>
+      </c>
+      <c r="GB46">
+        <v>533396</v>
+      </c>
+      <c r="GC46">
+        <v>923</v>
+      </c>
+      <c r="GD46">
+        <v>17124</v>
+      </c>
+      <c r="GE46">
+        <v>54819</v>
+      </c>
+      <c r="GF46">
+        <v>420491</v>
+      </c>
+      <c r="GG46">
+        <v>525864</v>
+      </c>
+      <c r="GH46">
+        <v>666</v>
+      </c>
+      <c r="GI46">
+        <v>14980</v>
+      </c>
+      <c r="GJ46">
+        <v>58826</v>
+      </c>
+      <c r="GK46">
+        <v>374294</v>
+      </c>
+      <c r="GL46">
+        <v>470062</v>
+      </c>
+      <c r="GM46">
+        <v>498</v>
+      </c>
+      <c r="GN46">
+        <v>12330</v>
+      </c>
+      <c r="GO46">
+        <v>53162</v>
+      </c>
+      <c r="GP46">
+        <v>331010</v>
+      </c>
+      <c r="GQ46">
+        <v>422201</v>
+      </c>
+      <c r="GR46">
+        <v>439</v>
+      </c>
+      <c r="GS46">
+        <v>10106</v>
+      </c>
+      <c r="GT46">
+        <v>45318</v>
+      </c>
+      <c r="GU46">
+        <v>308953</v>
+      </c>
+      <c r="GV46">
+        <v>390656</v>
+      </c>
+      <c r="GW46">
+        <v>402</v>
+      </c>
+      <c r="GX46">
+        <v>8930</v>
+      </c>
+      <c r="GY46">
+        <v>40261</v>
+      </c>
+      <c r="GZ46">
+        <v>264330</v>
+      </c>
+      <c r="HA46">
+        <v>320981</v>
+      </c>
+      <c r="HB46">
+        <v>329</v>
+      </c>
+      <c r="HC46">
+        <v>6594</v>
+      </c>
+      <c r="HD46">
+        <v>31745</v>
+      </c>
+      <c r="HE46">
+        <v>235234</v>
+      </c>
+      <c r="HF46">
+        <v>278226</v>
+      </c>
+      <c r="HG46">
+        <v>234</v>
+      </c>
+      <c r="HH46">
+        <v>5309</v>
+      </c>
+      <c r="HI46">
+        <v>25957</v>
+      </c>
+      <c r="HJ46">
+        <v>181671</v>
+      </c>
+      <c r="HK46">
+        <v>205289</v>
+      </c>
+      <c r="HL46">
+        <v>199</v>
+      </c>
+      <c r="HM46">
+        <v>3589</v>
+      </c>
+      <c r="HN46">
+        <v>18520</v>
+      </c>
+      <c r="HO46">
+        <v>152631</v>
+      </c>
+      <c r="HP46">
+        <v>159415</v>
+      </c>
+      <c r="HQ46">
+        <v>164</v>
+      </c>
+      <c r="HR46">
+        <v>2622</v>
+      </c>
+      <c r="HS46">
+        <v>12346</v>
+      </c>
+      <c r="HT46">
+        <v>117146</v>
+      </c>
+      <c r="HU46">
+        <v>116020</v>
+      </c>
+      <c r="HV46">
+        <v>164</v>
+      </c>
+      <c r="HW46">
+        <v>1840</v>
+      </c>
+      <c r="HX46">
+        <v>7811</v>
+      </c>
+      <c r="HY46">
+        <v>77055</v>
+      </c>
+      <c r="HZ46">
+        <v>80838</v>
+      </c>
+      <c r="IA46">
+        <v>132</v>
+      </c>
+      <c r="IB46">
+        <v>1258</v>
+      </c>
+      <c r="IC46">
+        <v>4531</v>
+      </c>
+      <c r="ID46">
+        <v>82627</v>
+      </c>
+      <c r="IE46">
+        <v>124242</v>
+      </c>
+      <c r="IF46">
+        <v>308</v>
+      </c>
+      <c r="IG46">
+        <v>2249</v>
+      </c>
+      <c r="IH46">
+        <v>3841</v>
+      </c>
+      <c r="II46">
+        <v>2153</v>
+      </c>
+      <c r="IJ46">
+        <v>2309</v>
+      </c>
+      <c r="IK46">
+        <v>25</v>
+      </c>
+      <c r="IL46">
+        <v>201</v>
+      </c>
+      <c r="IM46">
         <v>13480</v>
       </c>
     </row>
@@ -35829,7 +36572,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45283</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C6CCCD-947B-4B04-8711-1F3C18426678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6392560B-BF86-4132-A29B-1AB5A1B445AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1695,10 +1695,10 @@
         <v>771</v>
       </c>
       <c r="V2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="W2">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="X2">
         <v>2968</v>
@@ -1710,31 +1710,31 @@
         <v>2863</v>
       </c>
       <c r="AA2">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="AB2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="AC2">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="AD2">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="AE2">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AF2">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="AG2">
         <v>1036</v>
       </c>
       <c r="AH2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AI2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AJ2">
         <v>640</v>
@@ -1752,10 +1752,10 @@
         <v>771</v>
       </c>
       <c r="AO2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AP2">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="AQ2">
         <v>2968</v>
@@ -1767,31 +1767,31 @@
         <v>2863</v>
       </c>
       <c r="AT2">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="AU2">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="AV2">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="AW2">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="AX2">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="AY2">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="AZ2">
         <v>1036</v>
       </c>
       <c r="BA2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="BB2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="BC2">
         <v>640</v>
@@ -1874,37 +1874,37 @@
         <v>43737</v>
       </c>
       <c r="X3">
-        <v>75261</v>
+        <v>75259</v>
       </c>
       <c r="Y3">
         <v>70916</v>
       </c>
       <c r="Z3">
-        <v>55518</v>
+        <v>55519</v>
       </c>
       <c r="AA3">
-        <v>42730</v>
+        <v>42729</v>
       </c>
       <c r="AB3">
         <v>33829</v>
       </c>
       <c r="AC3">
-        <v>30115</v>
+        <v>30116</v>
       </c>
       <c r="AD3">
-        <v>27883</v>
+        <v>27884</v>
       </c>
       <c r="AE3">
-        <v>22323</v>
+        <v>22319</v>
       </c>
       <c r="AF3">
-        <v>17078</v>
+        <v>17076</v>
       </c>
       <c r="AG3">
-        <v>11940</v>
+        <v>11943</v>
       </c>
       <c r="AH3">
-        <v>8403</v>
+        <v>8406</v>
       </c>
       <c r="AI3">
         <v>5716</v>
@@ -1925,46 +1925,46 @@
         <v>33199</v>
       </c>
       <c r="AO3">
-        <v>31515</v>
+        <v>31514</v>
       </c>
       <c r="AP3">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="AQ3">
-        <v>78229</v>
+        <v>78227</v>
       </c>
       <c r="AR3">
         <v>74446</v>
       </c>
       <c r="AS3">
-        <v>58381</v>
+        <v>58382</v>
       </c>
       <c r="AT3">
-        <v>44995</v>
+        <v>44993</v>
       </c>
       <c r="AU3">
-        <v>35618</v>
+        <v>35619</v>
       </c>
       <c r="AV3">
-        <v>32080</v>
+        <v>32079</v>
       </c>
       <c r="AW3">
-        <v>29689</v>
+        <v>29692</v>
       </c>
       <c r="AX3">
-        <v>24001</v>
+        <v>23995</v>
       </c>
       <c r="AY3">
         <v>18535</v>
       </c>
       <c r="AZ3">
-        <v>12976</v>
+        <v>12979</v>
       </c>
       <c r="BA3">
-        <v>9314</v>
+        <v>9316</v>
       </c>
       <c r="BB3">
-        <v>6477</v>
+        <v>6478</v>
       </c>
       <c r="BC3">
         <v>4393</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10318105</v>
+        <v>10318187</v>
       </c>
       <c r="C4">
         <v>3368103</v>
@@ -1996,7 +1996,7 @@
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848568</v>
+        <v>848650</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886188</v>
+        <v>10886270</v>
       </c>
       <c r="L4">
         <v>3653388</v>
@@ -2023,7 +2023,7 @@
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867740</v>
+        <v>867822</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,118 +2035,118 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450507</v>
+        <v>450503</v>
       </c>
       <c r="U4">
         <v>611246</v>
       </c>
       <c r="V4">
-        <v>710201</v>
+        <v>710193</v>
       </c>
       <c r="W4">
-        <v>683313</v>
+        <v>683295</v>
       </c>
       <c r="X4">
-        <v>812047</v>
+        <v>812060</v>
       </c>
       <c r="Y4">
-        <v>899966</v>
+        <v>899957</v>
       </c>
       <c r="Z4">
-        <v>917026</v>
+        <v>917035</v>
       </c>
       <c r="AA4">
-        <v>908886</v>
+        <v>908880</v>
       </c>
       <c r="AB4">
         <v>810338</v>
       </c>
       <c r="AC4">
-        <v>717636</v>
+        <v>717620</v>
       </c>
       <c r="AD4">
-        <v>658723</v>
+        <v>658710</v>
       </c>
       <c r="AE4">
-        <v>544128</v>
+        <v>544116</v>
       </c>
       <c r="AF4">
-        <v>471490</v>
+        <v>471403</v>
       </c>
       <c r="AG4">
-        <v>349014</v>
+        <v>348966</v>
       </c>
       <c r="AH4">
-        <v>274349</v>
+        <v>274364</v>
       </c>
       <c r="AI4">
-        <v>198086</v>
+        <v>198163</v>
       </c>
       <c r="AJ4">
-        <v>128223</v>
+        <v>128297</v>
       </c>
       <c r="AK4">
-        <v>155777</v>
+        <v>155898</v>
       </c>
       <c r="AL4">
-        <v>17149</v>
+        <v>17143</v>
       </c>
       <c r="AM4">
-        <v>473757</v>
+        <v>473753</v>
       </c>
       <c r="AN4">
         <v>644445</v>
       </c>
       <c r="AO4">
-        <v>741716</v>
+        <v>741707</v>
       </c>
       <c r="AP4">
-        <v>728559</v>
+        <v>728542</v>
       </c>
       <c r="AQ4">
-        <v>890276</v>
+        <v>890287</v>
       </c>
       <c r="AR4">
-        <v>974412</v>
+        <v>974403</v>
       </c>
       <c r="AS4">
-        <v>975407</v>
+        <v>975417</v>
       </c>
       <c r="AT4">
-        <v>953881</v>
+        <v>953873</v>
       </c>
       <c r="AU4">
-        <v>845956</v>
+        <v>845957</v>
       </c>
       <c r="AV4">
-        <v>749716</v>
+        <v>749699</v>
       </c>
       <c r="AW4">
-        <v>688412</v>
+        <v>688402</v>
       </c>
       <c r="AX4">
-        <v>568129</v>
+        <v>568111</v>
       </c>
       <c r="AY4">
-        <v>490025</v>
+        <v>489938</v>
       </c>
       <c r="AZ4">
-        <v>361990</v>
+        <v>361945</v>
       </c>
       <c r="BA4">
-        <v>283663</v>
+        <v>283680</v>
       </c>
       <c r="BB4">
-        <v>204563</v>
+        <v>204641</v>
       </c>
       <c r="BC4">
-        <v>132616</v>
+        <v>132690</v>
       </c>
       <c r="BD4">
-        <v>161143</v>
+        <v>161264</v>
       </c>
       <c r="BE4">
-        <v>17522</v>
+        <v>17516</v>
       </c>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.25">
@@ -2154,25 +2154,25 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>851380</v>
+        <v>852017</v>
       </c>
       <c r="C5">
-        <v>306346</v>
+        <v>306577</v>
       </c>
       <c r="D5">
         <v>156862</v>
       </c>
       <c r="E5">
-        <v>137717</v>
+        <v>137868</v>
       </c>
       <c r="F5">
         <v>94188</v>
       </c>
       <c r="G5">
-        <v>93516</v>
+        <v>93668</v>
       </c>
       <c r="H5">
-        <v>32948</v>
+        <v>33051</v>
       </c>
       <c r="I5">
         <v>23257</v>
@@ -2181,25 +2181,25 @@
         <v>6546</v>
       </c>
       <c r="K5">
-        <v>11737568</v>
+        <v>11738287</v>
       </c>
       <c r="L5">
-        <v>3959734</v>
+        <v>3959965</v>
       </c>
       <c r="M5">
         <v>2998344</v>
       </c>
       <c r="N5">
-        <v>1757597</v>
+        <v>1757748</v>
       </c>
       <c r="O5">
         <v>1384044</v>
       </c>
       <c r="P5">
-        <v>961256</v>
+        <v>961490</v>
       </c>
       <c r="Q5">
-        <v>314491</v>
+        <v>314594</v>
       </c>
       <c r="R5">
         <v>251589</v>
@@ -2208,118 +2208,118 @@
         <v>110513</v>
       </c>
       <c r="T5">
-        <v>31065</v>
+        <v>31122</v>
       </c>
       <c r="U5">
-        <v>24124</v>
+        <v>24125</v>
       </c>
       <c r="V5">
-        <v>32507</v>
+        <v>32515</v>
       </c>
       <c r="W5">
-        <v>32206</v>
+        <v>32215</v>
       </c>
       <c r="X5">
-        <v>41521</v>
+        <v>41539</v>
       </c>
       <c r="Y5">
-        <v>53676</v>
+        <v>53699</v>
       </c>
       <c r="Z5">
-        <v>60833</v>
+        <v>60869</v>
       </c>
       <c r="AA5">
-        <v>66946</v>
+        <v>66968</v>
       </c>
       <c r="AB5">
-        <v>64390</v>
+        <v>64426</v>
       </c>
       <c r="AC5">
-        <v>59358</v>
+        <v>59378</v>
       </c>
       <c r="AD5">
-        <v>60790</v>
+        <v>60837</v>
       </c>
       <c r="AE5">
-        <v>55850</v>
+        <v>55883</v>
       </c>
       <c r="AF5">
-        <v>54935</v>
+        <v>54979</v>
       </c>
       <c r="AG5">
-        <v>47278</v>
+        <v>47318</v>
       </c>
       <c r="AH5">
-        <v>43515</v>
+        <v>43565</v>
       </c>
       <c r="AI5">
-        <v>38418</v>
+        <v>38468</v>
       </c>
       <c r="AJ5">
-        <v>31198</v>
+        <v>31245</v>
       </c>
       <c r="AK5">
-        <v>52124</v>
+        <v>52223</v>
       </c>
       <c r="AL5">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AM5">
-        <v>504822</v>
+        <v>504875</v>
       </c>
       <c r="AN5">
-        <v>668569</v>
+        <v>668570</v>
       </c>
       <c r="AO5">
-        <v>774223</v>
+        <v>774222</v>
       </c>
       <c r="AP5">
-        <v>760765</v>
+        <v>760757</v>
       </c>
       <c r="AQ5">
-        <v>931797</v>
+        <v>931826</v>
       </c>
       <c r="AR5">
-        <v>1028088</v>
+        <v>1028102</v>
       </c>
       <c r="AS5">
-        <v>1036240</v>
+        <v>1036286</v>
       </c>
       <c r="AT5">
-        <v>1020827</v>
+        <v>1020841</v>
       </c>
       <c r="AU5">
-        <v>910346</v>
+        <v>910383</v>
       </c>
       <c r="AV5">
-        <v>809074</v>
+        <v>809077</v>
       </c>
       <c r="AW5">
-        <v>749202</v>
+        <v>749239</v>
       </c>
       <c r="AX5">
-        <v>623979</v>
+        <v>623994</v>
       </c>
       <c r="AY5">
-        <v>544960</v>
+        <v>544917</v>
       </c>
       <c r="AZ5">
-        <v>409268</v>
+        <v>409263</v>
       </c>
       <c r="BA5">
-        <v>327178</v>
+        <v>327245</v>
       </c>
       <c r="BB5">
-        <v>242981</v>
+        <v>243109</v>
       </c>
       <c r="BC5">
-        <v>163814</v>
+        <v>163935</v>
       </c>
       <c r="BD5">
-        <v>213267</v>
+        <v>213487</v>
       </c>
       <c r="BE5">
-        <v>18168</v>
+        <v>18159</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809698</v>
+        <v>1809722</v>
       </c>
       <c r="C26" s="3">
         <v>637164</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90152</v>
+        <v>90176</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377781</v>
+        <v>2377805</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2217</v>
       </c>
       <c r="P26" s="3">
-        <v>109324</v>
+        <v>109348</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687558</v>
+        <v>687565</v>
       </c>
       <c r="C27" s="3">
         <v>230227</v>
@@ -3893,7 +3893,7 @@
         <v>11814</v>
       </c>
       <c r="G27" s="3">
-        <v>44440</v>
+        <v>44447</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065339</v>
+        <v>3065370</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153764</v>
+        <v>153795</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366793</v>
+        <v>1366807</v>
       </c>
       <c r="C28" s="3">
         <v>536606</v>
@@ -3952,7 +3952,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120513</v>
+        <v>120527</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432132</v>
+        <v>4432177</v>
       </c>
       <c r="L28" s="3">
         <v>1689282</v>
@@ -3979,7 +3979,7 @@
         <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274277</v>
+        <v>274322</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339943</v>
+        <v>1339969</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206842</v>
       </c>
       <c r="G29" s="3">
-        <v>139886</v>
+        <v>139912</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772075</v>
+        <v>5772146</v>
       </c>
       <c r="L29" s="3">
         <v>2121662</v>
@@ -4038,7 +4038,7 @@
         <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414163</v>
+        <v>414234</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310401</v>
+        <v>1310409</v>
       </c>
       <c r="C30" s="3">
         <v>297267</v>
@@ -4070,7 +4070,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108171</v>
+        <v>108179</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082476</v>
+        <v>7082555</v>
       </c>
       <c r="L30" s="3">
         <v>2418929</v>
@@ -4097,7 +4097,7 @@
         <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522334</v>
+        <v>522413</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884319</v>
+        <v>884322</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182636</v>
       </c>
       <c r="G31" s="3">
-        <v>77343</v>
+        <v>77346</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966795</v>
+        <v>7966877</v>
       </c>
       <c r="L31" s="3">
         <v>2652830</v>
@@ -4156,7 +4156,7 @@
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599677</v>
+        <v>599759</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217154</v>
+        <v>9217236</v>
       </c>
       <c r="L32" s="3">
         <v>3031435</v>
@@ -4215,7 +4215,7 @@
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>717087</v>
+        <v>717169</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9772014</v>
+        <v>9772096</v>
       </c>
       <c r="L33" s="3">
         <v>3261484</v>
@@ -4274,7 +4274,7 @@
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757600</v>
+        <v>757682</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966265</v>
+        <v>9966347</v>
       </c>
       <c r="L34" s="3">
         <v>3330336</v>
@@ -4333,7 +4333,7 @@
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772886</v>
+        <v>772968</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108368</v>
+        <v>10108450</v>
       </c>
       <c r="L35" s="3">
         <v>3374835</v>
@@ -4392,7 +4392,7 @@
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>786062</v>
+        <v>786144</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460313</v>
+        <v>10460395</v>
       </c>
       <c r="L36" s="3">
         <v>3496927</v>
@@ -4451,7 +4451,7 @@
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823228</v>
+        <v>823310</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886188</v>
+        <v>10886270</v>
       </c>
       <c r="L37" s="3">
         <v>3653388</v>
@@ -4510,7 +4510,7 @@
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867740</v>
+        <v>867822</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016272</v>
+        <v>11016354</v>
       </c>
       <c r="L38" s="3">
         <v>3699332</v>
@@ -4569,7 +4569,7 @@
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879631</v>
+        <v>879713</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088259</v>
+        <v>11088341</v>
       </c>
       <c r="L39" s="3">
         <v>3724575</v>
@@ -4628,7 +4628,7 @@
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886485</v>
+        <v>886567</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192220</v>
+        <v>11192302</v>
       </c>
       <c r="L40" s="3">
         <v>3763217</v>
@@ -4687,7 +4687,7 @@
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>897986</v>
+        <v>898068</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315340</v>
+        <v>11315422</v>
       </c>
       <c r="L41" s="3">
         <v>3810746</v>
@@ -4746,7 +4746,7 @@
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910318</v>
+        <v>910400</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481537</v>
+        <v>11481619</v>
       </c>
       <c r="L42" s="3">
         <v>3872840</v>
@@ -4805,7 +4805,7 @@
         <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925235</v>
+        <v>925317</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559302</v>
+        <v>11559384</v>
       </c>
       <c r="L43" s="3">
         <v>3901024</v>
@@ -4864,7 +4864,7 @@
         <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932451</v>
+        <v>932533</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587491</v>
+        <v>11587573</v>
       </c>
       <c r="L44" s="3">
         <v>3911321</v>
@@ -4923,7 +4923,7 @@
         <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935380</v>
+        <v>935462</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610917</v>
+        <v>11610999</v>
       </c>
       <c r="L45" s="3">
         <v>3920472</v>
@@ -4982,7 +4982,7 @@
         <v>1376080</v>
       </c>
       <c r="P45" s="3">
-        <v>937830</v>
+        <v>937912</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633028</v>
+        <v>11633110</v>
       </c>
       <c r="L46" s="3">
         <v>3929456</v>
@@ -5041,7 +5041,7 @@
         <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940865</v>
+        <v>940947</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>417</v>
       </c>
       <c r="K47" s="3">
-        <v>11660950</v>
+        <v>11661032</v>
       </c>
       <c r="L47" s="3">
         <v>3937207</v>
@@ -5100,7 +5100,7 @@
         <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>945947</v>
+        <v>946029</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5144,7 +5144,7 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11705049</v>
+        <v>11705131</v>
       </c>
       <c r="L48" s="3">
         <v>3949586</v>
@@ -5159,7 +5159,7 @@
         <v>1382833</v>
       </c>
       <c r="P48" s="3">
-        <v>955293</v>
+        <v>955375</v>
       </c>
       <c r="Q48" s="3">
         <v>311674</v>
@@ -5176,25 +5176,25 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>32519</v>
+        <v>33156</v>
       </c>
       <c r="C49">
-        <v>10148</v>
+        <v>10379</v>
       </c>
       <c r="D49">
         <v>4068</v>
       </c>
       <c r="E49">
-        <v>6948</v>
+        <v>7099</v>
       </c>
       <c r="F49">
         <v>1211</v>
       </c>
       <c r="G49">
-        <v>5963</v>
+        <v>6115</v>
       </c>
       <c r="H49">
-        <v>2817</v>
+        <v>2920</v>
       </c>
       <c r="I49">
         <v>1115</v>
@@ -5203,25 +5203,25 @@
         <v>249</v>
       </c>
       <c r="K49">
-        <v>11737568</v>
+        <v>11738287</v>
       </c>
       <c r="L49">
-        <v>3959734</v>
+        <v>3959965</v>
       </c>
       <c r="M49">
         <v>2998344</v>
       </c>
       <c r="N49">
-        <v>1757597</v>
+        <v>1757748</v>
       </c>
       <c r="O49">
         <v>1384044</v>
       </c>
       <c r="P49">
-        <v>961256</v>
+        <v>961490</v>
       </c>
       <c r="Q49">
-        <v>314491</v>
+        <v>314594</v>
       </c>
       <c r="R49">
         <v>251589</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM46"/>
+  <dimension ref="A1:IM47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -36546,6 +36546,749 @@
       </c>
       <c r="IM46">
         <v>13480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B47">
+        <v>719</v>
+      </c>
+      <c r="C47">
+        <v>231</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>151</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>234</v>
+      </c>
+      <c r="H47">
+        <v>103</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>11738287</v>
+      </c>
+      <c r="L47">
+        <v>3959965</v>
+      </c>
+      <c r="M47">
+        <v>2998344</v>
+      </c>
+      <c r="N47">
+        <v>1757748</v>
+      </c>
+      <c r="O47">
+        <v>1384044</v>
+      </c>
+      <c r="P47">
+        <v>961490</v>
+      </c>
+      <c r="Q47">
+        <v>314594</v>
+      </c>
+      <c r="R47">
+        <v>251589</v>
+      </c>
+      <c r="S47">
+        <v>110513</v>
+      </c>
+      <c r="T47">
+        <v>53</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>-1</v>
+      </c>
+      <c r="W47">
+        <v>-8</v>
+      </c>
+      <c r="X47">
+        <v>29</v>
+      </c>
+      <c r="Y47">
+        <v>14</v>
+      </c>
+      <c r="Z47">
+        <v>46</v>
+      </c>
+      <c r="AA47">
+        <v>14</v>
+      </c>
+      <c r="AB47">
+        <v>37</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47">
+        <v>37</v>
+      </c>
+      <c r="AE47">
+        <v>15</v>
+      </c>
+      <c r="AF47">
+        <v>-43</v>
+      </c>
+      <c r="AG47">
+        <v>-5</v>
+      </c>
+      <c r="AH47">
+        <v>67</v>
+      </c>
+      <c r="AI47">
+        <v>128</v>
+      </c>
+      <c r="AJ47">
+        <v>121</v>
+      </c>
+      <c r="AK47">
+        <v>220</v>
+      </c>
+      <c r="AL47">
+        <v>-9</v>
+      </c>
+      <c r="AM47">
+        <v>504875</v>
+      </c>
+      <c r="AN47">
+        <v>668570</v>
+      </c>
+      <c r="AO47">
+        <v>774222</v>
+      </c>
+      <c r="AP47">
+        <v>760757</v>
+      </c>
+      <c r="AQ47">
+        <v>931826</v>
+      </c>
+      <c r="AR47">
+        <v>1028102</v>
+      </c>
+      <c r="AS47">
+        <v>1036286</v>
+      </c>
+      <c r="AT47">
+        <v>1020841</v>
+      </c>
+      <c r="AU47">
+        <v>910383</v>
+      </c>
+      <c r="AV47">
+        <v>809077</v>
+      </c>
+      <c r="AW47">
+        <v>749239</v>
+      </c>
+      <c r="AX47">
+        <v>623994</v>
+      </c>
+      <c r="AY47">
+        <v>544917</v>
+      </c>
+      <c r="AZ47">
+        <v>409263</v>
+      </c>
+      <c r="BA47">
+        <v>327245</v>
+      </c>
+      <c r="BB47">
+        <v>243109</v>
+      </c>
+      <c r="BC47">
+        <v>163935</v>
+      </c>
+      <c r="BD47">
+        <v>213487</v>
+      </c>
+      <c r="BE47">
+        <v>18159</v>
+      </c>
+      <c r="BF47">
+        <v>33</v>
+      </c>
+      <c r="BG47">
+        <v>20</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>0</v>
+      </c>
+      <c r="BJ47">
+        <v>0</v>
+      </c>
+      <c r="BK47">
+        <v>0</v>
+      </c>
+      <c r="BL47">
+        <v>1</v>
+      </c>
+      <c r="BM47">
+        <v>0</v>
+      </c>
+      <c r="BN47">
+        <v>0</v>
+      </c>
+      <c r="BO47">
+        <v>0</v>
+      </c>
+      <c r="BP47">
+        <v>-5</v>
+      </c>
+      <c r="BQ47">
+        <v>4</v>
+      </c>
+      <c r="BR47">
+        <v>0</v>
+      </c>
+      <c r="BS47">
+        <v>0</v>
+      </c>
+      <c r="BT47">
+        <v>0</v>
+      </c>
+      <c r="BU47">
+        <v>5</v>
+      </c>
+      <c r="BV47">
+        <v>-13</v>
+      </c>
+      <c r="BW47">
+        <v>0</v>
+      </c>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BY47">
+        <v>0</v>
+      </c>
+      <c r="BZ47">
+        <v>3</v>
+      </c>
+      <c r="CA47">
+        <v>26</v>
+      </c>
+      <c r="CB47">
+        <v>0</v>
+      </c>
+      <c r="CC47">
+        <v>0</v>
+      </c>
+      <c r="CD47">
+        <v>0</v>
+      </c>
+      <c r="CE47">
+        <v>12</v>
+      </c>
+      <c r="CF47">
+        <v>2</v>
+      </c>
+      <c r="CG47">
+        <v>0</v>
+      </c>
+      <c r="CH47">
+        <v>0</v>
+      </c>
+      <c r="CI47">
+        <v>0</v>
+      </c>
+      <c r="CJ47">
+        <v>10</v>
+      </c>
+      <c r="CK47">
+        <v>36</v>
+      </c>
+      <c r="CL47">
+        <v>0</v>
+      </c>
+      <c r="CM47">
+        <v>0</v>
+      </c>
+      <c r="CN47">
+        <v>0</v>
+      </c>
+      <c r="CO47">
+        <v>8</v>
+      </c>
+      <c r="CP47">
+        <v>6</v>
+      </c>
+      <c r="CQ47">
+        <v>0</v>
+      </c>
+      <c r="CR47">
+        <v>0</v>
+      </c>
+      <c r="CS47">
+        <v>0</v>
+      </c>
+      <c r="CT47">
+        <v>2</v>
+      </c>
+      <c r="CU47">
+        <v>35</v>
+      </c>
+      <c r="CV47">
+        <v>0</v>
+      </c>
+      <c r="CW47">
+        <v>0</v>
+      </c>
+      <c r="CX47">
+        <v>0</v>
+      </c>
+      <c r="CY47">
+        <v>14</v>
+      </c>
+      <c r="CZ47">
+        <v>-11</v>
+      </c>
+      <c r="DA47">
+        <v>0</v>
+      </c>
+      <c r="DB47">
+        <v>0</v>
+      </c>
+      <c r="DC47">
+        <v>0</v>
+      </c>
+      <c r="DD47">
+        <v>13</v>
+      </c>
+      <c r="DE47">
+        <v>24</v>
+      </c>
+      <c r="DF47">
+        <v>0</v>
+      </c>
+      <c r="DG47">
+        <v>0</v>
+      </c>
+      <c r="DH47">
+        <v>0</v>
+      </c>
+      <c r="DI47">
+        <v>-3</v>
+      </c>
+      <c r="DJ47">
+        <v>18</v>
+      </c>
+      <c r="DK47">
+        <v>0</v>
+      </c>
+      <c r="DL47">
+        <v>0</v>
+      </c>
+      <c r="DM47">
+        <v>0</v>
+      </c>
+      <c r="DN47">
+        <v>-20</v>
+      </c>
+      <c r="DO47">
+        <v>-23</v>
+      </c>
+      <c r="DP47">
+        <v>0</v>
+      </c>
+      <c r="DQ47">
+        <v>0</v>
+      </c>
+      <c r="DR47">
+        <v>0</v>
+      </c>
+      <c r="DS47">
+        <v>2</v>
+      </c>
+      <c r="DT47">
+        <v>-7</v>
+      </c>
+      <c r="DU47">
+        <v>0</v>
+      </c>
+      <c r="DV47">
+        <v>1</v>
+      </c>
+      <c r="DW47">
+        <v>-1</v>
+      </c>
+      <c r="DX47">
+        <v>8</v>
+      </c>
+      <c r="DY47">
+        <v>59</v>
+      </c>
+      <c r="DZ47">
+        <v>0</v>
+      </c>
+      <c r="EA47">
+        <v>0</v>
+      </c>
+      <c r="EB47">
+        <v>0</v>
+      </c>
+      <c r="EC47">
+        <v>65</v>
+      </c>
+      <c r="ED47">
+        <v>63</v>
+      </c>
+      <c r="EE47">
+        <v>0</v>
+      </c>
+      <c r="EF47">
+        <v>0</v>
+      </c>
+      <c r="EG47">
+        <v>0</v>
+      </c>
+      <c r="EH47">
+        <v>53</v>
+      </c>
+      <c r="EI47">
+        <v>68</v>
+      </c>
+      <c r="EJ47">
+        <v>0</v>
+      </c>
+      <c r="EK47">
+        <v>0</v>
+      </c>
+      <c r="EL47">
+        <v>0</v>
+      </c>
+      <c r="EM47">
+        <v>106</v>
+      </c>
+      <c r="EN47">
+        <v>115</v>
+      </c>
+      <c r="EO47">
+        <v>0</v>
+      </c>
+      <c r="EP47">
+        <v>0</v>
+      </c>
+      <c r="EQ47">
+        <v>-1</v>
+      </c>
+      <c r="ER47">
+        <v>-1</v>
+      </c>
+      <c r="ES47">
+        <v>0</v>
+      </c>
+      <c r="ET47">
+        <v>0</v>
+      </c>
+      <c r="EU47">
+        <v>0</v>
+      </c>
+      <c r="EV47">
+        <v>-8</v>
+      </c>
+      <c r="EW47">
+        <v>232616</v>
+      </c>
+      <c r="EX47">
+        <v>220756</v>
+      </c>
+      <c r="EY47">
+        <v>410</v>
+      </c>
+      <c r="EZ47">
+        <v>15445</v>
+      </c>
+      <c r="FA47">
+        <v>35648</v>
+      </c>
+      <c r="FB47">
+        <v>308357</v>
+      </c>
+      <c r="FC47">
+        <v>292964</v>
+      </c>
+      <c r="FD47">
+        <v>466</v>
+      </c>
+      <c r="FE47">
+        <v>16750</v>
+      </c>
+      <c r="FF47">
+        <v>50033</v>
+      </c>
+      <c r="FG47">
+        <v>353647</v>
+      </c>
+      <c r="FH47">
+        <v>342926</v>
+      </c>
+      <c r="FI47">
+        <v>632</v>
+      </c>
+      <c r="FJ47">
+        <v>16936</v>
+      </c>
+      <c r="FK47">
+        <v>60081</v>
+      </c>
+      <c r="FL47">
+        <v>326770</v>
+      </c>
+      <c r="FM47">
+        <v>374360</v>
+      </c>
+      <c r="FN47">
+        <v>896</v>
+      </c>
+      <c r="FO47">
+        <v>12912</v>
+      </c>
+      <c r="FP47">
+        <v>45819</v>
+      </c>
+      <c r="FQ47">
+        <v>392534</v>
+      </c>
+      <c r="FR47">
+        <v>480533</v>
+      </c>
+      <c r="FS47">
+        <v>1101</v>
+      </c>
+      <c r="FT47">
+        <v>16247</v>
+      </c>
+      <c r="FU47">
+        <v>41411</v>
+      </c>
+      <c r="FV47">
+        <v>434531</v>
+      </c>
+      <c r="FW47">
+        <v>527189</v>
+      </c>
+      <c r="FX47">
+        <v>1139</v>
+      </c>
+      <c r="FY47">
+        <v>17741</v>
+      </c>
+      <c r="FZ47">
+        <v>47502</v>
+      </c>
+      <c r="GA47">
+        <v>429988</v>
+      </c>
+      <c r="GB47">
+        <v>533432</v>
+      </c>
+      <c r="GC47">
+        <v>923</v>
+      </c>
+      <c r="GD47">
+        <v>17124</v>
+      </c>
+      <c r="GE47">
+        <v>54819</v>
+      </c>
+      <c r="GF47">
+        <v>420499</v>
+      </c>
+      <c r="GG47">
+        <v>525870</v>
+      </c>
+      <c r="GH47">
+        <v>666</v>
+      </c>
+      <c r="GI47">
+        <v>14980</v>
+      </c>
+      <c r="GJ47">
+        <v>58826</v>
+      </c>
+      <c r="GK47">
+        <v>374296</v>
+      </c>
+      <c r="GL47">
+        <v>470097</v>
+      </c>
+      <c r="GM47">
+        <v>498</v>
+      </c>
+      <c r="GN47">
+        <v>12330</v>
+      </c>
+      <c r="GO47">
+        <v>53162</v>
+      </c>
+      <c r="GP47">
+        <v>331024</v>
+      </c>
+      <c r="GQ47">
+        <v>422190</v>
+      </c>
+      <c r="GR47">
+        <v>439</v>
+      </c>
+      <c r="GS47">
+        <v>10106</v>
+      </c>
+      <c r="GT47">
+        <v>45318</v>
+      </c>
+      <c r="GU47">
+        <v>308966</v>
+      </c>
+      <c r="GV47">
+        <v>390680</v>
+      </c>
+      <c r="GW47">
+        <v>402</v>
+      </c>
+      <c r="GX47">
+        <v>8930</v>
+      </c>
+      <c r="GY47">
+        <v>40261</v>
+      </c>
+      <c r="GZ47">
+        <v>264327</v>
+      </c>
+      <c r="HA47">
+        <v>320999</v>
+      </c>
+      <c r="HB47">
+        <v>329</v>
+      </c>
+      <c r="HC47">
+        <v>6594</v>
+      </c>
+      <c r="HD47">
+        <v>31745</v>
+      </c>
+      <c r="HE47">
+        <v>235214</v>
+      </c>
+      <c r="HF47">
+        <v>278203</v>
+      </c>
+      <c r="HG47">
+        <v>234</v>
+      </c>
+      <c r="HH47">
+        <v>5309</v>
+      </c>
+      <c r="HI47">
+        <v>25957</v>
+      </c>
+      <c r="HJ47">
+        <v>181673</v>
+      </c>
+      <c r="HK47">
+        <v>205282</v>
+      </c>
+      <c r="HL47">
+        <v>199</v>
+      </c>
+      <c r="HM47">
+        <v>3590</v>
+      </c>
+      <c r="HN47">
+        <v>18519</v>
+      </c>
+      <c r="HO47">
+        <v>152639</v>
+      </c>
+      <c r="HP47">
+        <v>159474</v>
+      </c>
+      <c r="HQ47">
+        <v>164</v>
+      </c>
+      <c r="HR47">
+        <v>2622</v>
+      </c>
+      <c r="HS47">
+        <v>12346</v>
+      </c>
+      <c r="HT47">
+        <v>117211</v>
+      </c>
+      <c r="HU47">
+        <v>116083</v>
+      </c>
+      <c r="HV47">
+        <v>164</v>
+      </c>
+      <c r="HW47">
+        <v>1840</v>
+      </c>
+      <c r="HX47">
+        <v>7811</v>
+      </c>
+      <c r="HY47">
+        <v>77108</v>
+      </c>
+      <c r="HZ47">
+        <v>80906</v>
+      </c>
+      <c r="IA47">
+        <v>132</v>
+      </c>
+      <c r="IB47">
+        <v>1258</v>
+      </c>
+      <c r="IC47">
+        <v>4531</v>
+      </c>
+      <c r="ID47">
+        <v>82733</v>
+      </c>
+      <c r="IE47">
+        <v>124357</v>
+      </c>
+      <c r="IF47">
+        <v>308</v>
+      </c>
+      <c r="IG47">
+        <v>2249</v>
+      </c>
+      <c r="IH47">
+        <v>3840</v>
+      </c>
+      <c r="II47">
+        <v>2152</v>
+      </c>
+      <c r="IJ47">
+        <v>2309</v>
+      </c>
+      <c r="IK47">
+        <v>25</v>
+      </c>
+      <c r="IL47">
+        <v>201</v>
+      </c>
+      <c r="IM47">
+        <v>13472</v>
       </c>
     </row>
   </sheetData>
@@ -36572,7 +37315,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45284</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6392560B-BF86-4132-A29B-1AB5A1B445AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0B732-F2C5-4C2B-B279-2428A772F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -2044,43 +2044,43 @@
         <v>710193</v>
       </c>
       <c r="W4">
-        <v>683295</v>
+        <v>683294</v>
       </c>
       <c r="X4">
         <v>812060</v>
       </c>
       <c r="Y4">
-        <v>899957</v>
+        <v>899956</v>
       </c>
       <c r="Z4">
-        <v>917035</v>
+        <v>917037</v>
       </c>
       <c r="AA4">
-        <v>908880</v>
+        <v>908878</v>
       </c>
       <c r="AB4">
-        <v>810338</v>
+        <v>810336</v>
       </c>
       <c r="AC4">
-        <v>717620</v>
+        <v>717624</v>
       </c>
       <c r="AD4">
         <v>658710</v>
       </c>
       <c r="AE4">
-        <v>544116</v>
+        <v>544115</v>
       </c>
       <c r="AF4">
-        <v>471403</v>
+        <v>471402</v>
       </c>
       <c r="AG4">
-        <v>348966</v>
+        <v>348967</v>
       </c>
       <c r="AH4">
         <v>274364</v>
       </c>
       <c r="AI4">
-        <v>198163</v>
+        <v>198164</v>
       </c>
       <c r="AJ4">
         <v>128297</v>
@@ -2101,43 +2101,43 @@
         <v>741707</v>
       </c>
       <c r="AP4">
-        <v>728542</v>
+        <v>728541</v>
       </c>
       <c r="AQ4">
         <v>890287</v>
       </c>
       <c r="AR4">
-        <v>974403</v>
+        <v>974402</v>
       </c>
       <c r="AS4">
-        <v>975417</v>
+        <v>975419</v>
       </c>
       <c r="AT4">
-        <v>953873</v>
+        <v>953871</v>
       </c>
       <c r="AU4">
-        <v>845957</v>
+        <v>845955</v>
       </c>
       <c r="AV4">
-        <v>749699</v>
+        <v>749703</v>
       </c>
       <c r="AW4">
         <v>688402</v>
       </c>
       <c r="AX4">
-        <v>568111</v>
+        <v>568110</v>
       </c>
       <c r="AY4">
-        <v>489938</v>
+        <v>489937</v>
       </c>
       <c r="AZ4">
-        <v>361945</v>
+        <v>361946</v>
       </c>
       <c r="BA4">
         <v>283680</v>
       </c>
       <c r="BB4">
-        <v>204641</v>
+        <v>204642</v>
       </c>
       <c r="BC4">
         <v>132690</v>
@@ -2154,25 +2154,25 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>852017</v>
+        <v>852647</v>
       </c>
       <c r="C5">
-        <v>306577</v>
+        <v>306757</v>
       </c>
       <c r="D5">
         <v>156862</v>
       </c>
       <c r="E5">
-        <v>137868</v>
+        <v>138040</v>
       </c>
       <c r="F5">
         <v>94188</v>
       </c>
       <c r="G5">
-        <v>93668</v>
+        <v>93818</v>
       </c>
       <c r="H5">
-        <v>33051</v>
+        <v>33179</v>
       </c>
       <c r="I5">
         <v>23257</v>
@@ -2181,25 +2181,25 @@
         <v>6546</v>
       </c>
       <c r="K5">
-        <v>11738287</v>
+        <v>11738917</v>
       </c>
       <c r="L5">
-        <v>3959965</v>
+        <v>3960145</v>
       </c>
       <c r="M5">
         <v>2998344</v>
       </c>
       <c r="N5">
-        <v>1757748</v>
+        <v>1757920</v>
       </c>
       <c r="O5">
         <v>1384044</v>
       </c>
       <c r="P5">
-        <v>961490</v>
+        <v>961640</v>
       </c>
       <c r="Q5">
-        <v>314594</v>
+        <v>314722</v>
       </c>
       <c r="R5">
         <v>251589</v>
@@ -2208,115 +2208,115 @@
         <v>110513</v>
       </c>
       <c r="T5">
-        <v>31122</v>
+        <v>31172</v>
       </c>
       <c r="U5">
-        <v>24125</v>
+        <v>24132</v>
       </c>
       <c r="V5">
-        <v>32515</v>
+        <v>32520</v>
       </c>
       <c r="W5">
-        <v>32215</v>
+        <v>32229</v>
       </c>
       <c r="X5">
-        <v>41539</v>
+        <v>41556</v>
       </c>
       <c r="Y5">
-        <v>53699</v>
+        <v>53723</v>
       </c>
       <c r="Z5">
-        <v>60869</v>
+        <v>60896</v>
       </c>
       <c r="AA5">
-        <v>66968</v>
+        <v>66992</v>
       </c>
       <c r="AB5">
-        <v>64426</v>
+        <v>64451</v>
       </c>
       <c r="AC5">
-        <v>59378</v>
+        <v>59421</v>
       </c>
       <c r="AD5">
-        <v>60837</v>
+        <v>60870</v>
       </c>
       <c r="AE5">
-        <v>55883</v>
+        <v>55928</v>
       </c>
       <c r="AF5">
-        <v>54979</v>
+        <v>55019</v>
       </c>
       <c r="AG5">
-        <v>47318</v>
+        <v>47369</v>
       </c>
       <c r="AH5">
-        <v>43565</v>
+        <v>43617</v>
       </c>
       <c r="AI5">
-        <v>38468</v>
+        <v>38529</v>
       </c>
       <c r="AJ5">
-        <v>31245</v>
+        <v>31281</v>
       </c>
       <c r="AK5">
-        <v>52223</v>
+        <v>52299</v>
       </c>
       <c r="AL5">
         <v>643</v>
       </c>
       <c r="AM5">
-        <v>504875</v>
+        <v>504925</v>
       </c>
       <c r="AN5">
-        <v>668570</v>
+        <v>668577</v>
       </c>
       <c r="AO5">
-        <v>774222</v>
+        <v>774227</v>
       </c>
       <c r="AP5">
-        <v>760757</v>
+        <v>760770</v>
       </c>
       <c r="AQ5">
-        <v>931826</v>
+        <v>931843</v>
       </c>
       <c r="AR5">
-        <v>1028102</v>
+        <v>1028125</v>
       </c>
       <c r="AS5">
-        <v>1036286</v>
+        <v>1036315</v>
       </c>
       <c r="AT5">
-        <v>1020841</v>
+        <v>1020863</v>
       </c>
       <c r="AU5">
-        <v>910383</v>
+        <v>910406</v>
       </c>
       <c r="AV5">
-        <v>809077</v>
+        <v>809124</v>
       </c>
       <c r="AW5">
-        <v>749239</v>
+        <v>749272</v>
       </c>
       <c r="AX5">
-        <v>623994</v>
+        <v>624038</v>
       </c>
       <c r="AY5">
-        <v>544917</v>
+        <v>544956</v>
       </c>
       <c r="AZ5">
-        <v>409263</v>
+        <v>409315</v>
       </c>
       <c r="BA5">
-        <v>327245</v>
+        <v>327297</v>
       </c>
       <c r="BB5">
-        <v>243109</v>
+        <v>243171</v>
       </c>
       <c r="BC5">
-        <v>163935</v>
+        <v>163971</v>
       </c>
       <c r="BD5">
-        <v>213487</v>
+        <v>213563</v>
       </c>
       <c r="BE5">
         <v>18159</v>
@@ -5176,25 +5176,25 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>33156</v>
+        <v>33786</v>
       </c>
       <c r="C49">
-        <v>10379</v>
+        <v>10559</v>
       </c>
       <c r="D49">
         <v>4068</v>
       </c>
       <c r="E49">
-        <v>7099</v>
+        <v>7271</v>
       </c>
       <c r="F49">
         <v>1211</v>
       </c>
       <c r="G49">
-        <v>6115</v>
+        <v>6265</v>
       </c>
       <c r="H49">
-        <v>2920</v>
+        <v>3048</v>
       </c>
       <c r="I49">
         <v>1115</v>
@@ -5203,25 +5203,25 @@
         <v>249</v>
       </c>
       <c r="K49">
-        <v>11738287</v>
+        <v>11738917</v>
       </c>
       <c r="L49">
-        <v>3959965</v>
+        <v>3960145</v>
       </c>
       <c r="M49">
         <v>2998344</v>
       </c>
       <c r="N49">
-        <v>1757748</v>
+        <v>1757920</v>
       </c>
       <c r="O49">
         <v>1384044</v>
       </c>
       <c r="P49">
-        <v>961490</v>
+        <v>961640</v>
       </c>
       <c r="Q49">
-        <v>314594</v>
+        <v>314722</v>
       </c>
       <c r="R49">
         <v>251589</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM47"/>
+  <dimension ref="A1:IM48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37288,6 +37288,749 @@
         <v>201</v>
       </c>
       <c r="IM47">
+        <v>13472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B48">
+        <v>630</v>
+      </c>
+      <c r="C48">
+        <v>180</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>172</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>150</v>
+      </c>
+      <c r="H48">
+        <v>128</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>11738917</v>
+      </c>
+      <c r="L48">
+        <v>3960145</v>
+      </c>
+      <c r="M48">
+        <v>2998344</v>
+      </c>
+      <c r="N48">
+        <v>1757920</v>
+      </c>
+      <c r="O48">
+        <v>1384044</v>
+      </c>
+      <c r="P48">
+        <v>961640</v>
+      </c>
+      <c r="Q48">
+        <v>314722</v>
+      </c>
+      <c r="R48">
+        <v>251589</v>
+      </c>
+      <c r="S48">
+        <v>110513</v>
+      </c>
+      <c r="T48">
+        <v>50</v>
+      </c>
+      <c r="U48">
+        <v>7</v>
+      </c>
+      <c r="V48">
+        <v>5</v>
+      </c>
+      <c r="W48">
+        <v>13</v>
+      </c>
+      <c r="X48">
+        <v>17</v>
+      </c>
+      <c r="Y48">
+        <v>23</v>
+      </c>
+      <c r="Z48">
+        <v>29</v>
+      </c>
+      <c r="AA48">
+        <v>22</v>
+      </c>
+      <c r="AB48">
+        <v>23</v>
+      </c>
+      <c r="AC48">
+        <v>47</v>
+      </c>
+      <c r="AD48">
+        <v>33</v>
+      </c>
+      <c r="AE48">
+        <v>44</v>
+      </c>
+      <c r="AF48">
+        <v>39</v>
+      </c>
+      <c r="AG48">
+        <v>52</v>
+      </c>
+      <c r="AH48">
+        <v>52</v>
+      </c>
+      <c r="AI48">
+        <v>62</v>
+      </c>
+      <c r="AJ48">
+        <v>36</v>
+      </c>
+      <c r="AK48">
+        <v>76</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>504925</v>
+      </c>
+      <c r="AN48">
+        <v>668577</v>
+      </c>
+      <c r="AO48">
+        <v>774227</v>
+      </c>
+      <c r="AP48">
+        <v>760770</v>
+      </c>
+      <c r="AQ48">
+        <v>931843</v>
+      </c>
+      <c r="AR48">
+        <v>1028125</v>
+      </c>
+      <c r="AS48">
+        <v>1036315</v>
+      </c>
+      <c r="AT48">
+        <v>1020863</v>
+      </c>
+      <c r="AU48">
+        <v>910406</v>
+      </c>
+      <c r="AV48">
+        <v>809124</v>
+      </c>
+      <c r="AW48">
+        <v>749272</v>
+      </c>
+      <c r="AX48">
+        <v>624038</v>
+      </c>
+      <c r="AY48">
+        <v>544956</v>
+      </c>
+      <c r="AZ48">
+        <v>409315</v>
+      </c>
+      <c r="BA48">
+        <v>327297</v>
+      </c>
+      <c r="BB48">
+        <v>243171</v>
+      </c>
+      <c r="BC48">
+        <v>163971</v>
+      </c>
+      <c r="BD48">
+        <v>213563</v>
+      </c>
+      <c r="BE48">
+        <v>18159</v>
+      </c>
+      <c r="BF48">
+        <v>23</v>
+      </c>
+      <c r="BG48">
+        <v>27</v>
+      </c>
+      <c r="BH48">
+        <v>0</v>
+      </c>
+      <c r="BI48">
+        <v>0</v>
+      </c>
+      <c r="BJ48">
+        <v>0</v>
+      </c>
+      <c r="BK48">
+        <v>1</v>
+      </c>
+      <c r="BL48">
+        <v>6</v>
+      </c>
+      <c r="BM48">
+        <v>0</v>
+      </c>
+      <c r="BN48">
+        <v>0</v>
+      </c>
+      <c r="BO48">
+        <v>0</v>
+      </c>
+      <c r="BP48">
+        <v>1</v>
+      </c>
+      <c r="BQ48">
+        <v>4</v>
+      </c>
+      <c r="BR48">
+        <v>0</v>
+      </c>
+      <c r="BS48">
+        <v>0</v>
+      </c>
+      <c r="BT48">
+        <v>0</v>
+      </c>
+      <c r="BU48">
+        <v>6</v>
+      </c>
+      <c r="BV48">
+        <v>6</v>
+      </c>
+      <c r="BW48">
+        <v>0</v>
+      </c>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BY48">
+        <v>1</v>
+      </c>
+      <c r="BZ48">
+        <v>5</v>
+      </c>
+      <c r="CA48">
+        <v>12</v>
+      </c>
+      <c r="CB48">
+        <v>0</v>
+      </c>
+      <c r="CC48">
+        <v>0</v>
+      </c>
+      <c r="CD48">
+        <v>0</v>
+      </c>
+      <c r="CE48">
+        <v>8</v>
+      </c>
+      <c r="CF48">
+        <v>15</v>
+      </c>
+      <c r="CG48">
+        <v>0</v>
+      </c>
+      <c r="CH48">
+        <v>0</v>
+      </c>
+      <c r="CI48">
+        <v>0</v>
+      </c>
+      <c r="CJ48">
+        <v>10</v>
+      </c>
+      <c r="CK48">
+        <v>19</v>
+      </c>
+      <c r="CL48">
+        <v>0</v>
+      </c>
+      <c r="CM48">
+        <v>0</v>
+      </c>
+      <c r="CN48">
+        <v>0</v>
+      </c>
+      <c r="CO48">
+        <v>9</v>
+      </c>
+      <c r="CP48">
+        <v>13</v>
+      </c>
+      <c r="CQ48">
+        <v>0</v>
+      </c>
+      <c r="CR48">
+        <v>0</v>
+      </c>
+      <c r="CS48">
+        <v>0</v>
+      </c>
+      <c r="CT48">
+        <v>12</v>
+      </c>
+      <c r="CU48">
+        <v>11</v>
+      </c>
+      <c r="CV48">
+        <v>0</v>
+      </c>
+      <c r="CW48">
+        <v>0</v>
+      </c>
+      <c r="CX48">
+        <v>0</v>
+      </c>
+      <c r="CY48">
+        <v>12</v>
+      </c>
+      <c r="CZ48">
+        <v>35</v>
+      </c>
+      <c r="DA48">
+        <v>0</v>
+      </c>
+      <c r="DB48">
+        <v>0</v>
+      </c>
+      <c r="DC48">
+        <v>0</v>
+      </c>
+      <c r="DD48">
+        <v>11</v>
+      </c>
+      <c r="DE48">
+        <v>22</v>
+      </c>
+      <c r="DF48">
+        <v>0</v>
+      </c>
+      <c r="DG48">
+        <v>0</v>
+      </c>
+      <c r="DH48">
+        <v>0</v>
+      </c>
+      <c r="DI48">
+        <v>23</v>
+      </c>
+      <c r="DJ48">
+        <v>21</v>
+      </c>
+      <c r="DK48">
+        <v>0</v>
+      </c>
+      <c r="DL48">
+        <v>0</v>
+      </c>
+      <c r="DM48">
+        <v>0</v>
+      </c>
+      <c r="DN48">
+        <v>16</v>
+      </c>
+      <c r="DO48">
+        <v>23</v>
+      </c>
+      <c r="DP48">
+        <v>0</v>
+      </c>
+      <c r="DQ48">
+        <v>0</v>
+      </c>
+      <c r="DR48">
+        <v>0</v>
+      </c>
+      <c r="DS48">
+        <v>23</v>
+      </c>
+      <c r="DT48">
+        <v>29</v>
+      </c>
+      <c r="DU48">
+        <v>0</v>
+      </c>
+      <c r="DV48">
+        <v>0</v>
+      </c>
+      <c r="DW48">
+        <v>0</v>
+      </c>
+      <c r="DX48">
+        <v>25</v>
+      </c>
+      <c r="DY48">
+        <v>27</v>
+      </c>
+      <c r="DZ48">
+        <v>0</v>
+      </c>
+      <c r="EA48">
+        <v>0</v>
+      </c>
+      <c r="EB48">
+        <v>0</v>
+      </c>
+      <c r="EC48">
+        <v>28</v>
+      </c>
+      <c r="ED48">
+        <v>34</v>
+      </c>
+      <c r="EE48">
+        <v>0</v>
+      </c>
+      <c r="EF48">
+        <v>0</v>
+      </c>
+      <c r="EG48">
+        <v>0</v>
+      </c>
+      <c r="EH48">
+        <v>19</v>
+      </c>
+      <c r="EI48">
+        <v>16</v>
+      </c>
+      <c r="EJ48">
+        <v>0</v>
+      </c>
+      <c r="EK48">
+        <v>1</v>
+      </c>
+      <c r="EL48">
+        <v>0</v>
+      </c>
+      <c r="EM48">
+        <v>33</v>
+      </c>
+      <c r="EN48">
+        <v>43</v>
+      </c>
+      <c r="EO48">
+        <v>0</v>
+      </c>
+      <c r="EP48">
+        <v>0</v>
+      </c>
+      <c r="EQ48">
+        <v>0</v>
+      </c>
+      <c r="ER48">
+        <v>0</v>
+      </c>
+      <c r="ES48">
+        <v>0</v>
+      </c>
+      <c r="ET48">
+        <v>0</v>
+      </c>
+      <c r="EU48">
+        <v>0</v>
+      </c>
+      <c r="EV48">
+        <v>0</v>
+      </c>
+      <c r="EW48">
+        <v>232639</v>
+      </c>
+      <c r="EX48">
+        <v>220783</v>
+      </c>
+      <c r="EY48">
+        <v>410</v>
+      </c>
+      <c r="EZ48">
+        <v>15445</v>
+      </c>
+      <c r="FA48">
+        <v>35648</v>
+      </c>
+      <c r="FB48">
+        <v>308358</v>
+      </c>
+      <c r="FC48">
+        <v>292970</v>
+      </c>
+      <c r="FD48">
+        <v>466</v>
+      </c>
+      <c r="FE48">
+        <v>16750</v>
+      </c>
+      <c r="FF48">
+        <v>50033</v>
+      </c>
+      <c r="FG48">
+        <v>353648</v>
+      </c>
+      <c r="FH48">
+        <v>342930</v>
+      </c>
+      <c r="FI48">
+        <v>632</v>
+      </c>
+      <c r="FJ48">
+        <v>16936</v>
+      </c>
+      <c r="FK48">
+        <v>60081</v>
+      </c>
+      <c r="FL48">
+        <v>326776</v>
+      </c>
+      <c r="FM48">
+        <v>374366</v>
+      </c>
+      <c r="FN48">
+        <v>896</v>
+      </c>
+      <c r="FO48">
+        <v>12912</v>
+      </c>
+      <c r="FP48">
+        <v>45820</v>
+      </c>
+      <c r="FQ48">
+        <v>392539</v>
+      </c>
+      <c r="FR48">
+        <v>480545</v>
+      </c>
+      <c r="FS48">
+        <v>1101</v>
+      </c>
+      <c r="FT48">
+        <v>16247</v>
+      </c>
+      <c r="FU48">
+        <v>41411</v>
+      </c>
+      <c r="FV48">
+        <v>434539</v>
+      </c>
+      <c r="FW48">
+        <v>527204</v>
+      </c>
+      <c r="FX48">
+        <v>1139</v>
+      </c>
+      <c r="FY48">
+        <v>17741</v>
+      </c>
+      <c r="FZ48">
+        <v>47502</v>
+      </c>
+      <c r="GA48">
+        <v>429998</v>
+      </c>
+      <c r="GB48">
+        <v>533451</v>
+      </c>
+      <c r="GC48">
+        <v>923</v>
+      </c>
+      <c r="GD48">
+        <v>17124</v>
+      </c>
+      <c r="GE48">
+        <v>54819</v>
+      </c>
+      <c r="GF48">
+        <v>420508</v>
+      </c>
+      <c r="GG48">
+        <v>525883</v>
+      </c>
+      <c r="GH48">
+        <v>666</v>
+      </c>
+      <c r="GI48">
+        <v>14980</v>
+      </c>
+      <c r="GJ48">
+        <v>58826</v>
+      </c>
+      <c r="GK48">
+        <v>374308</v>
+      </c>
+      <c r="GL48">
+        <v>470108</v>
+      </c>
+      <c r="GM48">
+        <v>498</v>
+      </c>
+      <c r="GN48">
+        <v>12330</v>
+      </c>
+      <c r="GO48">
+        <v>53162</v>
+      </c>
+      <c r="GP48">
+        <v>331036</v>
+      </c>
+      <c r="GQ48">
+        <v>422225</v>
+      </c>
+      <c r="GR48">
+        <v>439</v>
+      </c>
+      <c r="GS48">
+        <v>10106</v>
+      </c>
+      <c r="GT48">
+        <v>45318</v>
+      </c>
+      <c r="GU48">
+        <v>308977</v>
+      </c>
+      <c r="GV48">
+        <v>390702</v>
+      </c>
+      <c r="GW48">
+        <v>402</v>
+      </c>
+      <c r="GX48">
+        <v>8930</v>
+      </c>
+      <c r="GY48">
+        <v>40261</v>
+      </c>
+      <c r="GZ48">
+        <v>264350</v>
+      </c>
+      <c r="HA48">
+        <v>321020</v>
+      </c>
+      <c r="HB48">
+        <v>329</v>
+      </c>
+      <c r="HC48">
+        <v>6594</v>
+      </c>
+      <c r="HD48">
+        <v>31745</v>
+      </c>
+      <c r="HE48">
+        <v>235230</v>
+      </c>
+      <c r="HF48">
+        <v>278226</v>
+      </c>
+      <c r="HG48">
+        <v>234</v>
+      </c>
+      <c r="HH48">
+        <v>5309</v>
+      </c>
+      <c r="HI48">
+        <v>25957</v>
+      </c>
+      <c r="HJ48">
+        <v>181696</v>
+      </c>
+      <c r="HK48">
+        <v>205311</v>
+      </c>
+      <c r="HL48">
+        <v>199</v>
+      </c>
+      <c r="HM48">
+        <v>3590</v>
+      </c>
+      <c r="HN48">
+        <v>18519</v>
+      </c>
+      <c r="HO48">
+        <v>152664</v>
+      </c>
+      <c r="HP48">
+        <v>159501</v>
+      </c>
+      <c r="HQ48">
+        <v>164</v>
+      </c>
+      <c r="HR48">
+        <v>2622</v>
+      </c>
+      <c r="HS48">
+        <v>12346</v>
+      </c>
+      <c r="HT48">
+        <v>117239</v>
+      </c>
+      <c r="HU48">
+        <v>116117</v>
+      </c>
+      <c r="HV48">
+        <v>164</v>
+      </c>
+      <c r="HW48">
+        <v>1840</v>
+      </c>
+      <c r="HX48">
+        <v>7811</v>
+      </c>
+      <c r="HY48">
+        <v>77127</v>
+      </c>
+      <c r="HZ48">
+        <v>80922</v>
+      </c>
+      <c r="IA48">
+        <v>132</v>
+      </c>
+      <c r="IB48">
+        <v>1259</v>
+      </c>
+      <c r="IC48">
+        <v>4531</v>
+      </c>
+      <c r="ID48">
+        <v>82766</v>
+      </c>
+      <c r="IE48">
+        <v>124400</v>
+      </c>
+      <c r="IF48">
+        <v>308</v>
+      </c>
+      <c r="IG48">
+        <v>2249</v>
+      </c>
+      <c r="IH48">
+        <v>3840</v>
+      </c>
+      <c r="II48">
+        <v>2152</v>
+      </c>
+      <c r="IJ48">
+        <v>2309</v>
+      </c>
+      <c r="IK48">
+        <v>25</v>
+      </c>
+      <c r="IL48">
+        <v>201</v>
+      </c>
+      <c r="IM48">
         <v>13472</v>
       </c>
     </row>
@@ -37315,7 +38058,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45285</v>
+        <v>45286</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0B732-F2C5-4C2B-B279-2428A772F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF2C67-8A4B-4206-AE6E-222294C2142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10318187</v>
+        <v>10318188</v>
       </c>
       <c r="C4">
         <v>3368103</v>
@@ -1996,7 +1996,7 @@
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848650</v>
+        <v>848651</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886270</v>
+        <v>10886271</v>
       </c>
       <c r="L4">
         <v>3653388</v>
@@ -2023,7 +2023,7 @@
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867822</v>
+        <v>867823</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,46 +2035,46 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450503</v>
+        <v>450502</v>
       </c>
       <c r="U4">
-        <v>611246</v>
+        <v>611247</v>
       </c>
       <c r="V4">
-        <v>710193</v>
+        <v>710194</v>
       </c>
       <c r="W4">
-        <v>683294</v>
+        <v>683293</v>
       </c>
       <c r="X4">
-        <v>812060</v>
+        <v>812059</v>
       </c>
       <c r="Y4">
         <v>899956</v>
       </c>
       <c r="Z4">
-        <v>917037</v>
+        <v>917036</v>
       </c>
       <c r="AA4">
-        <v>908878</v>
+        <v>908877</v>
       </c>
       <c r="AB4">
-        <v>810336</v>
+        <v>810338</v>
       </c>
       <c r="AC4">
-        <v>717624</v>
+        <v>717620</v>
       </c>
       <c r="AD4">
-        <v>658710</v>
+        <v>658713</v>
       </c>
       <c r="AE4">
-        <v>544115</v>
+        <v>544117</v>
       </c>
       <c r="AF4">
-        <v>471402</v>
+        <v>471401</v>
       </c>
       <c r="AG4">
-        <v>348967</v>
+        <v>348969</v>
       </c>
       <c r="AH4">
         <v>274364</v>
@@ -2092,46 +2092,46 @@
         <v>17143</v>
       </c>
       <c r="AM4">
-        <v>473753</v>
+        <v>473752</v>
       </c>
       <c r="AN4">
-        <v>644445</v>
+        <v>644446</v>
       </c>
       <c r="AO4">
-        <v>741707</v>
+        <v>741708</v>
       </c>
       <c r="AP4">
-        <v>728541</v>
+        <v>728540</v>
       </c>
       <c r="AQ4">
-        <v>890287</v>
+        <v>890286</v>
       </c>
       <c r="AR4">
         <v>974402</v>
       </c>
       <c r="AS4">
-        <v>975419</v>
+        <v>975418</v>
       </c>
       <c r="AT4">
-        <v>953871</v>
+        <v>953870</v>
       </c>
       <c r="AU4">
-        <v>845955</v>
+        <v>845957</v>
       </c>
       <c r="AV4">
-        <v>749703</v>
+        <v>749699</v>
       </c>
       <c r="AW4">
-        <v>688402</v>
+        <v>688405</v>
       </c>
       <c r="AX4">
-        <v>568110</v>
+        <v>568112</v>
       </c>
       <c r="AY4">
-        <v>489937</v>
+        <v>489936</v>
       </c>
       <c r="AZ4">
-        <v>361946</v>
+        <v>361948</v>
       </c>
       <c r="BA4">
         <v>283680</v>
@@ -2154,169 +2154,169 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>852647</v>
+        <v>853390</v>
       </c>
       <c r="C5">
-        <v>306757</v>
+        <v>306999</v>
       </c>
       <c r="D5">
         <v>156862</v>
       </c>
       <c r="E5">
-        <v>138040</v>
+        <v>138212</v>
       </c>
       <c r="F5">
         <v>94188</v>
       </c>
       <c r="G5">
-        <v>93818</v>
+        <v>93991</v>
       </c>
       <c r="H5">
-        <v>33179</v>
+        <v>33276</v>
       </c>
       <c r="I5">
-        <v>23257</v>
+        <v>23316</v>
       </c>
       <c r="J5">
         <v>6546</v>
       </c>
       <c r="K5">
-        <v>11738917</v>
+        <v>11739661</v>
       </c>
       <c r="L5">
-        <v>3960145</v>
+        <v>3960387</v>
       </c>
       <c r="M5">
         <v>2998344</v>
       </c>
       <c r="N5">
-        <v>1757920</v>
+        <v>1758092</v>
       </c>
       <c r="O5">
         <v>1384044</v>
       </c>
       <c r="P5">
-        <v>961640</v>
+        <v>961814</v>
       </c>
       <c r="Q5">
-        <v>314722</v>
+        <v>314819</v>
       </c>
       <c r="R5">
-        <v>251589</v>
+        <v>251648</v>
       </c>
       <c r="S5">
         <v>110513</v>
       </c>
       <c r="T5">
-        <v>31172</v>
+        <v>31226</v>
       </c>
       <c r="U5">
-        <v>24132</v>
+        <v>24141</v>
       </c>
       <c r="V5">
-        <v>32520</v>
+        <v>32535</v>
       </c>
       <c r="W5">
-        <v>32229</v>
+        <v>32238</v>
       </c>
       <c r="X5">
-        <v>41556</v>
+        <v>41582</v>
       </c>
       <c r="Y5">
-        <v>53723</v>
+        <v>53751</v>
       </c>
       <c r="Z5">
-        <v>60896</v>
+        <v>60936</v>
       </c>
       <c r="AA5">
-        <v>66992</v>
+        <v>67033</v>
       </c>
       <c r="AB5">
-        <v>64451</v>
+        <v>64499</v>
       </c>
       <c r="AC5">
-        <v>59421</v>
+        <v>59458</v>
       </c>
       <c r="AD5">
-        <v>60870</v>
+        <v>60917</v>
       </c>
       <c r="AE5">
-        <v>55928</v>
+        <v>55971</v>
       </c>
       <c r="AF5">
-        <v>55019</v>
+        <v>55063</v>
       </c>
       <c r="AG5">
-        <v>47369</v>
+        <v>47416</v>
       </c>
       <c r="AH5">
-        <v>43617</v>
+        <v>43664</v>
       </c>
       <c r="AI5">
-        <v>38529</v>
+        <v>38601</v>
       </c>
       <c r="AJ5">
-        <v>31281</v>
+        <v>31334</v>
       </c>
       <c r="AK5">
-        <v>52299</v>
+        <v>52382</v>
       </c>
       <c r="AL5">
         <v>643</v>
       </c>
       <c r="AM5">
-        <v>504925</v>
+        <v>504978</v>
       </c>
       <c r="AN5">
-        <v>668577</v>
+        <v>668587</v>
       </c>
       <c r="AO5">
-        <v>774227</v>
+        <v>774243</v>
       </c>
       <c r="AP5">
-        <v>760770</v>
+        <v>760778</v>
       </c>
       <c r="AQ5">
-        <v>931843</v>
+        <v>931868</v>
       </c>
       <c r="AR5">
-        <v>1028125</v>
+        <v>1028153</v>
       </c>
       <c r="AS5">
-        <v>1036315</v>
+        <v>1036354</v>
       </c>
       <c r="AT5">
-        <v>1020863</v>
+        <v>1020903</v>
       </c>
       <c r="AU5">
-        <v>910406</v>
+        <v>910456</v>
       </c>
       <c r="AV5">
-        <v>809124</v>
+        <v>809157</v>
       </c>
       <c r="AW5">
-        <v>749272</v>
+        <v>749322</v>
       </c>
       <c r="AX5">
-        <v>624038</v>
+        <v>624083</v>
       </c>
       <c r="AY5">
-        <v>544956</v>
+        <v>544999</v>
       </c>
       <c r="AZ5">
-        <v>409315</v>
+        <v>409364</v>
       </c>
       <c r="BA5">
-        <v>327297</v>
+        <v>327344</v>
       </c>
       <c r="BB5">
-        <v>243171</v>
+        <v>243243</v>
       </c>
       <c r="BC5">
-        <v>163971</v>
+        <v>164024</v>
       </c>
       <c r="BD5">
-        <v>213563</v>
+        <v>213646</v>
       </c>
       <c r="BE5">
         <v>18159</v>
@@ -4114,7 +4114,7 @@
         <v>44713</v>
       </c>
       <c r="B31" s="3">
-        <v>884322</v>
+        <v>884323</v>
       </c>
       <c r="C31" s="3">
         <v>233901</v>
@@ -4129,7 +4129,7 @@
         <v>182636</v>
       </c>
       <c r="G31" s="3">
-        <v>77346</v>
+        <v>77347</v>
       </c>
       <c r="H31" s="3">
         <v>24716</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966877</v>
+        <v>7966878</v>
       </c>
       <c r="L31" s="3">
         <v>2652830</v>
@@ -4156,7 +4156,7 @@
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599759</v>
+        <v>599760</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217236</v>
+        <v>9217237</v>
       </c>
       <c r="L32" s="3">
         <v>3031435</v>
@@ -4215,7 +4215,7 @@
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>717169</v>
+        <v>717170</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9772096</v>
+        <v>9772097</v>
       </c>
       <c r="L33" s="3">
         <v>3261484</v>
@@ -4274,7 +4274,7 @@
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757682</v>
+        <v>757683</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966347</v>
+        <v>9966348</v>
       </c>
       <c r="L34" s="3">
         <v>3330336</v>
@@ -4333,7 +4333,7 @@
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772968</v>
+        <v>772969</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108450</v>
+        <v>10108451</v>
       </c>
       <c r="L35" s="3">
         <v>3374835</v>
@@ -4392,7 +4392,7 @@
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>786144</v>
+        <v>786145</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460395</v>
+        <v>10460396</v>
       </c>
       <c r="L36" s="3">
         <v>3496927</v>
@@ -4451,7 +4451,7 @@
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823310</v>
+        <v>823311</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886270</v>
+        <v>10886271</v>
       </c>
       <c r="L37" s="3">
         <v>3653388</v>
@@ -4510,7 +4510,7 @@
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867822</v>
+        <v>867823</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016354</v>
+        <v>11016355</v>
       </c>
       <c r="L38" s="3">
         <v>3699332</v>
@@ -4569,7 +4569,7 @@
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879713</v>
+        <v>879714</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088341</v>
+        <v>11088342</v>
       </c>
       <c r="L39" s="3">
         <v>3724575</v>
@@ -4628,7 +4628,7 @@
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886567</v>
+        <v>886568</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192302</v>
+        <v>11192303</v>
       </c>
       <c r="L40" s="3">
         <v>3763217</v>
@@ -4687,7 +4687,7 @@
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>898068</v>
+        <v>898069</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315422</v>
+        <v>11315423</v>
       </c>
       <c r="L41" s="3">
         <v>3810746</v>
@@ -4746,7 +4746,7 @@
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910400</v>
+        <v>910401</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481619</v>
+        <v>11481620</v>
       </c>
       <c r="L42" s="3">
         <v>3872840</v>
@@ -4805,7 +4805,7 @@
         <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925317</v>
+        <v>925318</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559384</v>
+        <v>11559385</v>
       </c>
       <c r="L43" s="3">
         <v>3901024</v>
@@ -4864,7 +4864,7 @@
         <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932533</v>
+        <v>932534</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587573</v>
+        <v>11587574</v>
       </c>
       <c r="L44" s="3">
         <v>3911321</v>
@@ -4923,7 +4923,7 @@
         <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935462</v>
+        <v>935463</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11610999</v>
+        <v>11611000</v>
       </c>
       <c r="L45" s="3">
         <v>3920472</v>
@@ -4982,7 +4982,7 @@
         <v>1376080</v>
       </c>
       <c r="P45" s="3">
-        <v>937912</v>
+        <v>937913</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633110</v>
+        <v>11633111</v>
       </c>
       <c r="L46" s="3">
         <v>3929456</v>
@@ -5041,7 +5041,7 @@
         <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940947</v>
+        <v>940948</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>417</v>
       </c>
       <c r="K47" s="3">
-        <v>11661032</v>
+        <v>11661033</v>
       </c>
       <c r="L47" s="3">
         <v>3937207</v>
@@ -5100,7 +5100,7 @@
         <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>946029</v>
+        <v>946030</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5144,7 +5144,7 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11705131</v>
+        <v>11705132</v>
       </c>
       <c r="L48" s="3">
         <v>3949586</v>
@@ -5159,7 +5159,7 @@
         <v>1382833</v>
       </c>
       <c r="P48" s="3">
-        <v>955375</v>
+        <v>955376</v>
       </c>
       <c r="Q48" s="3">
         <v>311674</v>
@@ -5176,55 +5176,55 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>33786</v>
+        <v>34529</v>
       </c>
       <c r="C49">
-        <v>10559</v>
+        <v>10801</v>
       </c>
       <c r="D49">
         <v>4068</v>
       </c>
       <c r="E49">
-        <v>7271</v>
+        <v>7443</v>
       </c>
       <c r="F49">
         <v>1211</v>
       </c>
       <c r="G49">
-        <v>6265</v>
+        <v>6438</v>
       </c>
       <c r="H49">
-        <v>3048</v>
+        <v>3145</v>
       </c>
       <c r="I49">
-        <v>1115</v>
+        <v>1174</v>
       </c>
       <c r="J49">
         <v>249</v>
       </c>
       <c r="K49">
-        <v>11738917</v>
+        <v>11739661</v>
       </c>
       <c r="L49">
-        <v>3960145</v>
+        <v>3960387</v>
       </c>
       <c r="M49">
         <v>2998344</v>
       </c>
       <c r="N49">
-        <v>1757920</v>
+        <v>1758092</v>
       </c>
       <c r="O49">
         <v>1384044</v>
       </c>
       <c r="P49">
-        <v>961640</v>
+        <v>961814</v>
       </c>
       <c r="Q49">
-        <v>314722</v>
+        <v>314819</v>
       </c>
       <c r="R49">
-        <v>251589</v>
+        <v>251648</v>
       </c>
       <c r="S49">
         <v>110513</v>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM48"/>
+  <dimension ref="A1:IM49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38031,6 +38031,749 @@
         <v>201</v>
       </c>
       <c r="IM48">
+        <v>13472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B49">
+        <v>744</v>
+      </c>
+      <c r="C49">
+        <v>242</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>172</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>174</v>
+      </c>
+      <c r="H49">
+        <v>97</v>
+      </c>
+      <c r="I49">
+        <v>59</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>11739661</v>
+      </c>
+      <c r="L49">
+        <v>3960387</v>
+      </c>
+      <c r="M49">
+        <v>2998344</v>
+      </c>
+      <c r="N49">
+        <v>1758092</v>
+      </c>
+      <c r="O49">
+        <v>1384044</v>
+      </c>
+      <c r="P49">
+        <v>961814</v>
+      </c>
+      <c r="Q49">
+        <v>314819</v>
+      </c>
+      <c r="R49">
+        <v>251648</v>
+      </c>
+      <c r="S49">
+        <v>110513</v>
+      </c>
+      <c r="T49">
+        <v>53</v>
+      </c>
+      <c r="U49">
+        <v>10</v>
+      </c>
+      <c r="V49">
+        <v>16</v>
+      </c>
+      <c r="W49">
+        <v>8</v>
+      </c>
+      <c r="X49">
+        <v>25</v>
+      </c>
+      <c r="Y49">
+        <v>28</v>
+      </c>
+      <c r="Z49">
+        <v>39</v>
+      </c>
+      <c r="AA49">
+        <v>40</v>
+      </c>
+      <c r="AB49">
+        <v>50</v>
+      </c>
+      <c r="AC49">
+        <v>33</v>
+      </c>
+      <c r="AD49">
+        <v>50</v>
+      </c>
+      <c r="AE49">
+        <v>45</v>
+      </c>
+      <c r="AF49">
+        <v>43</v>
+      </c>
+      <c r="AG49">
+        <v>49</v>
+      </c>
+      <c r="AH49">
+        <v>47</v>
+      </c>
+      <c r="AI49">
+        <v>72</v>
+      </c>
+      <c r="AJ49">
+        <v>53</v>
+      </c>
+      <c r="AK49">
+        <v>83</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>504978</v>
+      </c>
+      <c r="AN49">
+        <v>668587</v>
+      </c>
+      <c r="AO49">
+        <v>774243</v>
+      </c>
+      <c r="AP49">
+        <v>760778</v>
+      </c>
+      <c r="AQ49">
+        <v>931868</v>
+      </c>
+      <c r="AR49">
+        <v>1028153</v>
+      </c>
+      <c r="AS49">
+        <v>1036354</v>
+      </c>
+      <c r="AT49">
+        <v>1020903</v>
+      </c>
+      <c r="AU49">
+        <v>910456</v>
+      </c>
+      <c r="AV49">
+        <v>809157</v>
+      </c>
+      <c r="AW49">
+        <v>749322</v>
+      </c>
+      <c r="AX49">
+        <v>624083</v>
+      </c>
+      <c r="AY49">
+        <v>544999</v>
+      </c>
+      <c r="AZ49">
+        <v>409364</v>
+      </c>
+      <c r="BA49">
+        <v>327344</v>
+      </c>
+      <c r="BB49">
+        <v>243243</v>
+      </c>
+      <c r="BC49">
+        <v>164024</v>
+      </c>
+      <c r="BD49">
+        <v>213646</v>
+      </c>
+      <c r="BE49">
+        <v>18159</v>
+      </c>
+      <c r="BF49">
+        <v>28</v>
+      </c>
+      <c r="BG49">
+        <v>25</v>
+      </c>
+      <c r="BH49">
+        <v>0</v>
+      </c>
+      <c r="BI49">
+        <v>0</v>
+      </c>
+      <c r="BJ49">
+        <v>0</v>
+      </c>
+      <c r="BK49">
+        <v>2</v>
+      </c>
+      <c r="BL49">
+        <v>8</v>
+      </c>
+      <c r="BM49">
+        <v>0</v>
+      </c>
+      <c r="BN49">
+        <v>0</v>
+      </c>
+      <c r="BO49">
+        <v>0</v>
+      </c>
+      <c r="BP49">
+        <v>6</v>
+      </c>
+      <c r="BQ49">
+        <v>10</v>
+      </c>
+      <c r="BR49">
+        <v>0</v>
+      </c>
+      <c r="BS49">
+        <v>0</v>
+      </c>
+      <c r="BT49">
+        <v>0</v>
+      </c>
+      <c r="BU49">
+        <v>6</v>
+      </c>
+      <c r="BV49">
+        <v>1</v>
+      </c>
+      <c r="BW49">
+        <v>0</v>
+      </c>
+      <c r="BX49">
+        <v>1</v>
+      </c>
+      <c r="BY49">
+        <v>0</v>
+      </c>
+      <c r="BZ49">
+        <v>7</v>
+      </c>
+      <c r="CA49">
+        <v>18</v>
+      </c>
+      <c r="CB49">
+        <v>0</v>
+      </c>
+      <c r="CC49">
+        <v>0</v>
+      </c>
+      <c r="CD49">
+        <v>0</v>
+      </c>
+      <c r="CE49">
+        <v>8</v>
+      </c>
+      <c r="CF49">
+        <v>20</v>
+      </c>
+      <c r="CG49">
+        <v>0</v>
+      </c>
+      <c r="CH49">
+        <v>0</v>
+      </c>
+      <c r="CI49">
+        <v>0</v>
+      </c>
+      <c r="CJ49">
+        <v>17</v>
+      </c>
+      <c r="CK49">
+        <v>22</v>
+      </c>
+      <c r="CL49">
+        <v>0</v>
+      </c>
+      <c r="CM49">
+        <v>0</v>
+      </c>
+      <c r="CN49">
+        <v>0</v>
+      </c>
+      <c r="CO49">
+        <v>15</v>
+      </c>
+      <c r="CP49">
+        <v>25</v>
+      </c>
+      <c r="CQ49">
+        <v>0</v>
+      </c>
+      <c r="CR49">
+        <v>0</v>
+      </c>
+      <c r="CS49">
+        <v>0</v>
+      </c>
+      <c r="CT49">
+        <v>21</v>
+      </c>
+      <c r="CU49">
+        <v>29</v>
+      </c>
+      <c r="CV49">
+        <v>0</v>
+      </c>
+      <c r="CW49">
+        <v>0</v>
+      </c>
+      <c r="CX49">
+        <v>0</v>
+      </c>
+      <c r="CY49">
+        <v>13</v>
+      </c>
+      <c r="CZ49">
+        <v>20</v>
+      </c>
+      <c r="DA49">
+        <v>0</v>
+      </c>
+      <c r="DB49">
+        <v>0</v>
+      </c>
+      <c r="DC49">
+        <v>0</v>
+      </c>
+      <c r="DD49">
+        <v>20</v>
+      </c>
+      <c r="DE49">
+        <v>30</v>
+      </c>
+      <c r="DF49">
+        <v>0</v>
+      </c>
+      <c r="DG49">
+        <v>0</v>
+      </c>
+      <c r="DH49">
+        <v>0</v>
+      </c>
+      <c r="DI49">
+        <v>21</v>
+      </c>
+      <c r="DJ49">
+        <v>24</v>
+      </c>
+      <c r="DK49">
+        <v>0</v>
+      </c>
+      <c r="DL49">
+        <v>0</v>
+      </c>
+      <c r="DM49">
+        <v>0</v>
+      </c>
+      <c r="DN49">
+        <v>11</v>
+      </c>
+      <c r="DO49">
+        <v>32</v>
+      </c>
+      <c r="DP49">
+        <v>0</v>
+      </c>
+      <c r="DQ49">
+        <v>0</v>
+      </c>
+      <c r="DR49">
+        <v>0</v>
+      </c>
+      <c r="DS49">
+        <v>24</v>
+      </c>
+      <c r="DT49">
+        <v>25</v>
+      </c>
+      <c r="DU49">
+        <v>0</v>
+      </c>
+      <c r="DV49">
+        <v>0</v>
+      </c>
+      <c r="DW49">
+        <v>0</v>
+      </c>
+      <c r="DX49">
+        <v>24</v>
+      </c>
+      <c r="DY49">
+        <v>23</v>
+      </c>
+      <c r="DZ49">
+        <v>0</v>
+      </c>
+      <c r="EA49">
+        <v>0</v>
+      </c>
+      <c r="EB49">
+        <v>0</v>
+      </c>
+      <c r="EC49">
+        <v>43</v>
+      </c>
+      <c r="ED49">
+        <v>29</v>
+      </c>
+      <c r="EE49">
+        <v>0</v>
+      </c>
+      <c r="EF49">
+        <v>0</v>
+      </c>
+      <c r="EG49">
+        <v>0</v>
+      </c>
+      <c r="EH49">
+        <v>26</v>
+      </c>
+      <c r="EI49">
+        <v>27</v>
+      </c>
+      <c r="EJ49">
+        <v>0</v>
+      </c>
+      <c r="EK49">
+        <v>0</v>
+      </c>
+      <c r="EL49">
+        <v>0</v>
+      </c>
+      <c r="EM49">
+        <v>29</v>
+      </c>
+      <c r="EN49">
+        <v>53</v>
+      </c>
+      <c r="EO49">
+        <v>0</v>
+      </c>
+      <c r="EP49">
+        <v>0</v>
+      </c>
+      <c r="EQ49">
+        <v>1</v>
+      </c>
+      <c r="ER49">
+        <v>0</v>
+      </c>
+      <c r="ES49">
+        <v>0</v>
+      </c>
+      <c r="ET49">
+        <v>0</v>
+      </c>
+      <c r="EU49">
+        <v>0</v>
+      </c>
+      <c r="EV49">
+        <v>0</v>
+      </c>
+      <c r="EW49">
+        <v>232667</v>
+      </c>
+      <c r="EX49">
+        <v>220808</v>
+      </c>
+      <c r="EY49">
+        <v>410</v>
+      </c>
+      <c r="EZ49">
+        <v>15445</v>
+      </c>
+      <c r="FA49">
+        <v>35648</v>
+      </c>
+      <c r="FB49">
+        <v>308360</v>
+      </c>
+      <c r="FC49">
+        <v>292978</v>
+      </c>
+      <c r="FD49">
+        <v>466</v>
+      </c>
+      <c r="FE49">
+        <v>16750</v>
+      </c>
+      <c r="FF49">
+        <v>50033</v>
+      </c>
+      <c r="FG49">
+        <v>353654</v>
+      </c>
+      <c r="FH49">
+        <v>342940</v>
+      </c>
+      <c r="FI49">
+        <v>632</v>
+      </c>
+      <c r="FJ49">
+        <v>16936</v>
+      </c>
+      <c r="FK49">
+        <v>60081</v>
+      </c>
+      <c r="FL49">
+        <v>326782</v>
+      </c>
+      <c r="FM49">
+        <v>374367</v>
+      </c>
+      <c r="FN49">
+        <v>896</v>
+      </c>
+      <c r="FO49">
+        <v>12913</v>
+      </c>
+      <c r="FP49">
+        <v>45820</v>
+      </c>
+      <c r="FQ49">
+        <v>392546</v>
+      </c>
+      <c r="FR49">
+        <v>480563</v>
+      </c>
+      <c r="FS49">
+        <v>1101</v>
+      </c>
+      <c r="FT49">
+        <v>16247</v>
+      </c>
+      <c r="FU49">
+        <v>41411</v>
+      </c>
+      <c r="FV49">
+        <v>434547</v>
+      </c>
+      <c r="FW49">
+        <v>527224</v>
+      </c>
+      <c r="FX49">
+        <v>1139</v>
+      </c>
+      <c r="FY49">
+        <v>17741</v>
+      </c>
+      <c r="FZ49">
+        <v>47502</v>
+      </c>
+      <c r="GA49">
+        <v>430015</v>
+      </c>
+      <c r="GB49">
+        <v>533473</v>
+      </c>
+      <c r="GC49">
+        <v>923</v>
+      </c>
+      <c r="GD49">
+        <v>17124</v>
+      </c>
+      <c r="GE49">
+        <v>54819</v>
+      </c>
+      <c r="GF49">
+        <v>420523</v>
+      </c>
+      <c r="GG49">
+        <v>525908</v>
+      </c>
+      <c r="GH49">
+        <v>666</v>
+      </c>
+      <c r="GI49">
+        <v>14980</v>
+      </c>
+      <c r="GJ49">
+        <v>58826</v>
+      </c>
+      <c r="GK49">
+        <v>374329</v>
+      </c>
+      <c r="GL49">
+        <v>470137</v>
+      </c>
+      <c r="GM49">
+        <v>498</v>
+      </c>
+      <c r="GN49">
+        <v>12330</v>
+      </c>
+      <c r="GO49">
+        <v>53162</v>
+      </c>
+      <c r="GP49">
+        <v>331049</v>
+      </c>
+      <c r="GQ49">
+        <v>422245</v>
+      </c>
+      <c r="GR49">
+        <v>439</v>
+      </c>
+      <c r="GS49">
+        <v>10106</v>
+      </c>
+      <c r="GT49">
+        <v>45318</v>
+      </c>
+      <c r="GU49">
+        <v>308997</v>
+      </c>
+      <c r="GV49">
+        <v>390732</v>
+      </c>
+      <c r="GW49">
+        <v>402</v>
+      </c>
+      <c r="GX49">
+        <v>8930</v>
+      </c>
+      <c r="GY49">
+        <v>40261</v>
+      </c>
+      <c r="GZ49">
+        <v>264371</v>
+      </c>
+      <c r="HA49">
+        <v>321044</v>
+      </c>
+      <c r="HB49">
+        <v>329</v>
+      </c>
+      <c r="HC49">
+        <v>6594</v>
+      </c>
+      <c r="HD49">
+        <v>31745</v>
+      </c>
+      <c r="HE49">
+        <v>235241</v>
+      </c>
+      <c r="HF49">
+        <v>278258</v>
+      </c>
+      <c r="HG49">
+        <v>234</v>
+      </c>
+      <c r="HH49">
+        <v>5309</v>
+      </c>
+      <c r="HI49">
+        <v>25957</v>
+      </c>
+      <c r="HJ49">
+        <v>181720</v>
+      </c>
+      <c r="HK49">
+        <v>205336</v>
+      </c>
+      <c r="HL49">
+        <v>199</v>
+      </c>
+      <c r="HM49">
+        <v>3590</v>
+      </c>
+      <c r="HN49">
+        <v>18519</v>
+      </c>
+      <c r="HO49">
+        <v>152688</v>
+      </c>
+      <c r="HP49">
+        <v>159524</v>
+      </c>
+      <c r="HQ49">
+        <v>164</v>
+      </c>
+      <c r="HR49">
+        <v>2622</v>
+      </c>
+      <c r="HS49">
+        <v>12346</v>
+      </c>
+      <c r="HT49">
+        <v>117282</v>
+      </c>
+      <c r="HU49">
+        <v>116146</v>
+      </c>
+      <c r="HV49">
+        <v>164</v>
+      </c>
+      <c r="HW49">
+        <v>1840</v>
+      </c>
+      <c r="HX49">
+        <v>7811</v>
+      </c>
+      <c r="HY49">
+        <v>77153</v>
+      </c>
+      <c r="HZ49">
+        <v>80949</v>
+      </c>
+      <c r="IA49">
+        <v>132</v>
+      </c>
+      <c r="IB49">
+        <v>1259</v>
+      </c>
+      <c r="IC49">
+        <v>4531</v>
+      </c>
+      <c r="ID49">
+        <v>82795</v>
+      </c>
+      <c r="IE49">
+        <v>124453</v>
+      </c>
+      <c r="IF49">
+        <v>308</v>
+      </c>
+      <c r="IG49">
+        <v>2249</v>
+      </c>
+      <c r="IH49">
+        <v>3841</v>
+      </c>
+      <c r="II49">
+        <v>2152</v>
+      </c>
+      <c r="IJ49">
+        <v>2309</v>
+      </c>
+      <c r="IK49">
+        <v>25</v>
+      </c>
+      <c r="IL49">
+        <v>201</v>
+      </c>
+      <c r="IM49">
         <v>13472</v>
       </c>
     </row>
@@ -38058,7 +38801,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45286</v>
+        <v>45287</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CF2C67-8A4B-4206-AE6E-222294C2142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AEC03A-4104-4167-9FD0-2466C1DF2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1892,10 +1892,10 @@
         <v>30116</v>
       </c>
       <c r="AD3">
-        <v>27884</v>
+        <v>27883</v>
       </c>
       <c r="AE3">
-        <v>22319</v>
+        <v>22320</v>
       </c>
       <c r="AF3">
         <v>17076</v>
@@ -1949,10 +1949,10 @@
         <v>32079</v>
       </c>
       <c r="AW3">
-        <v>29692</v>
+        <v>29691</v>
       </c>
       <c r="AX3">
-        <v>23995</v>
+        <v>23996</v>
       </c>
       <c r="AY3">
         <v>18535</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10318188</v>
+        <v>10318195</v>
       </c>
       <c r="C4">
         <v>3368103</v>
@@ -1996,7 +1996,7 @@
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848651</v>
+        <v>848658</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886271</v>
+        <v>10886278</v>
       </c>
       <c r="L4">
         <v>3653388</v>
@@ -2023,7 +2023,7 @@
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867823</v>
+        <v>867830</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,52 +2035,52 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450502</v>
+        <v>450501</v>
       </c>
       <c r="U4">
-        <v>611247</v>
+        <v>611248</v>
       </c>
       <c r="V4">
-        <v>710194</v>
+        <v>710191</v>
       </c>
       <c r="W4">
-        <v>683293</v>
+        <v>683296</v>
       </c>
       <c r="X4">
-        <v>812059</v>
+        <v>812051</v>
       </c>
       <c r="Y4">
-        <v>899956</v>
+        <v>899962</v>
       </c>
       <c r="Z4">
-        <v>917036</v>
+        <v>917033</v>
       </c>
       <c r="AA4">
-        <v>908877</v>
+        <v>908878</v>
       </c>
       <c r="AB4">
-        <v>810338</v>
+        <v>810340</v>
       </c>
       <c r="AC4">
-        <v>717620</v>
+        <v>717616</v>
       </c>
       <c r="AD4">
-        <v>658713</v>
+        <v>658717</v>
       </c>
       <c r="AE4">
-        <v>544117</v>
+        <v>544121</v>
       </c>
       <c r="AF4">
-        <v>471401</v>
+        <v>471398</v>
       </c>
       <c r="AG4">
-        <v>348969</v>
+        <v>348974</v>
       </c>
       <c r="AH4">
-        <v>274364</v>
+        <v>274366</v>
       </c>
       <c r="AI4">
-        <v>198164</v>
+        <v>198165</v>
       </c>
       <c r="AJ4">
         <v>128297</v>
@@ -2092,52 +2092,52 @@
         <v>17143</v>
       </c>
       <c r="AM4">
-        <v>473752</v>
+        <v>473751</v>
       </c>
       <c r="AN4">
-        <v>644446</v>
+        <v>644447</v>
       </c>
       <c r="AO4">
-        <v>741708</v>
+        <v>741705</v>
       </c>
       <c r="AP4">
-        <v>728540</v>
+        <v>728543</v>
       </c>
       <c r="AQ4">
-        <v>890286</v>
+        <v>890278</v>
       </c>
       <c r="AR4">
-        <v>974402</v>
+        <v>974408</v>
       </c>
       <c r="AS4">
-        <v>975418</v>
+        <v>975415</v>
       </c>
       <c r="AT4">
-        <v>953870</v>
+        <v>953871</v>
       </c>
       <c r="AU4">
-        <v>845957</v>
+        <v>845959</v>
       </c>
       <c r="AV4">
-        <v>749699</v>
+        <v>749695</v>
       </c>
       <c r="AW4">
-        <v>688405</v>
+        <v>688408</v>
       </c>
       <c r="AX4">
-        <v>568112</v>
+        <v>568117</v>
       </c>
       <c r="AY4">
-        <v>489936</v>
+        <v>489933</v>
       </c>
       <c r="AZ4">
-        <v>361948</v>
+        <v>361953</v>
       </c>
       <c r="BA4">
-        <v>283680</v>
+        <v>283682</v>
       </c>
       <c r="BB4">
-        <v>204642</v>
+        <v>204643</v>
       </c>
       <c r="BC4">
         <v>132690</v>
@@ -2154,169 +2154,169 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>853390</v>
+        <v>854487</v>
       </c>
       <c r="C5">
-        <v>306999</v>
+        <v>307384</v>
       </c>
       <c r="D5">
         <v>156862</v>
       </c>
       <c r="E5">
-        <v>138212</v>
+        <v>138421</v>
       </c>
       <c r="F5">
-        <v>94188</v>
+        <v>94189</v>
       </c>
       <c r="G5">
-        <v>93991</v>
+        <v>94276</v>
       </c>
       <c r="H5">
-        <v>33276</v>
+        <v>33434</v>
       </c>
       <c r="I5">
-        <v>23316</v>
+        <v>23324</v>
       </c>
       <c r="J5">
-        <v>6546</v>
+        <v>6597</v>
       </c>
       <c r="K5">
-        <v>11739661</v>
+        <v>11740765</v>
       </c>
       <c r="L5">
-        <v>3960387</v>
+        <v>3960772</v>
       </c>
       <c r="M5">
         <v>2998344</v>
       </c>
       <c r="N5">
-        <v>1758092</v>
+        <v>1758301</v>
       </c>
       <c r="O5">
-        <v>1384044</v>
+        <v>1384045</v>
       </c>
       <c r="P5">
-        <v>961814</v>
+        <v>962106</v>
       </c>
       <c r="Q5">
-        <v>314819</v>
+        <v>314977</v>
       </c>
       <c r="R5">
-        <v>251648</v>
+        <v>251656</v>
       </c>
       <c r="S5">
-        <v>110513</v>
+        <v>110564</v>
       </c>
       <c r="T5">
-        <v>31226</v>
+        <v>31301</v>
       </c>
       <c r="U5">
-        <v>24141</v>
+        <v>24154</v>
       </c>
       <c r="V5">
-        <v>32535</v>
+        <v>32554</v>
       </c>
       <c r="W5">
-        <v>32238</v>
+        <v>32264</v>
       </c>
       <c r="X5">
-        <v>41582</v>
+        <v>41629</v>
       </c>
       <c r="Y5">
-        <v>53751</v>
+        <v>53802</v>
       </c>
       <c r="Z5">
-        <v>60936</v>
+        <v>60999</v>
       </c>
       <c r="AA5">
-        <v>67033</v>
+        <v>67101</v>
       </c>
       <c r="AB5">
-        <v>64499</v>
+        <v>64563</v>
       </c>
       <c r="AC5">
-        <v>59458</v>
+        <v>59517</v>
       </c>
       <c r="AD5">
-        <v>60917</v>
+        <v>60989</v>
       </c>
       <c r="AE5">
-        <v>55971</v>
+        <v>56033</v>
       </c>
       <c r="AF5">
-        <v>55063</v>
+        <v>55125</v>
       </c>
       <c r="AG5">
-        <v>47416</v>
+        <v>47474</v>
       </c>
       <c r="AH5">
-        <v>43664</v>
+        <v>43744</v>
       </c>
       <c r="AI5">
-        <v>38601</v>
+        <v>38670</v>
       </c>
       <c r="AJ5">
-        <v>31334</v>
+        <v>31401</v>
       </c>
       <c r="AK5">
-        <v>52382</v>
+        <v>52524</v>
       </c>
       <c r="AL5">
         <v>643</v>
       </c>
       <c r="AM5">
-        <v>504978</v>
+        <v>505052</v>
       </c>
       <c r="AN5">
-        <v>668587</v>
+        <v>668601</v>
       </c>
       <c r="AO5">
-        <v>774243</v>
+        <v>774259</v>
       </c>
       <c r="AP5">
-        <v>760778</v>
+        <v>760807</v>
       </c>
       <c r="AQ5">
-        <v>931868</v>
+        <v>931907</v>
       </c>
       <c r="AR5">
-        <v>1028153</v>
+        <v>1028210</v>
       </c>
       <c r="AS5">
-        <v>1036354</v>
+        <v>1036414</v>
       </c>
       <c r="AT5">
-        <v>1020903</v>
+        <v>1020972</v>
       </c>
       <c r="AU5">
-        <v>910456</v>
+        <v>910522</v>
       </c>
       <c r="AV5">
-        <v>809157</v>
+        <v>809212</v>
       </c>
       <c r="AW5">
-        <v>749322</v>
+        <v>749397</v>
       </c>
       <c r="AX5">
-        <v>624083</v>
+        <v>624150</v>
       </c>
       <c r="AY5">
-        <v>544999</v>
+        <v>545058</v>
       </c>
       <c r="AZ5">
-        <v>409364</v>
+        <v>409427</v>
       </c>
       <c r="BA5">
-        <v>327344</v>
+        <v>327426</v>
       </c>
       <c r="BB5">
-        <v>243243</v>
+        <v>243313</v>
       </c>
       <c r="BC5">
-        <v>164024</v>
+        <v>164091</v>
       </c>
       <c r="BD5">
-        <v>213646</v>
+        <v>213788</v>
       </c>
       <c r="BE5">
         <v>18159</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687565</v>
+        <v>687566</v>
       </c>
       <c r="C27" s="3">
         <v>230227</v>
@@ -3893,7 +3893,7 @@
         <v>11814</v>
       </c>
       <c r="G27" s="3">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065370</v>
+        <v>3065371</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153795</v>
+        <v>153796</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432177</v>
+        <v>4432178</v>
       </c>
       <c r="L28" s="3">
         <v>1689282</v>
@@ -3979,7 +3979,7 @@
         <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274322</v>
+        <v>274323</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339969</v>
+        <v>1339974</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206842</v>
       </c>
       <c r="G29" s="3">
-        <v>139912</v>
+        <v>139917</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772146</v>
+        <v>5772152</v>
       </c>
       <c r="L29" s="3">
         <v>2121662</v>
@@ -4038,7 +4038,7 @@
         <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414234</v>
+        <v>414240</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4055,7 +4055,7 @@
         <v>44682</v>
       </c>
       <c r="B30" s="3">
-        <v>1310409</v>
+        <v>1310410</v>
       </c>
       <c r="C30" s="3">
         <v>297267</v>
@@ -4070,7 +4070,7 @@
         <v>354088</v>
       </c>
       <c r="G30" s="3">
-        <v>108179</v>
+        <v>108180</v>
       </c>
       <c r="H30" s="3">
         <v>28273</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082555</v>
+        <v>7082562</v>
       </c>
       <c r="L30" s="3">
         <v>2418929</v>
@@ -4097,7 +4097,7 @@
         <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522413</v>
+        <v>522420</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966878</v>
+        <v>7966885</v>
       </c>
       <c r="L31" s="3">
         <v>2652830</v>
@@ -4156,7 +4156,7 @@
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599760</v>
+        <v>599767</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217237</v>
+        <v>9217244</v>
       </c>
       <c r="L32" s="3">
         <v>3031435</v>
@@ -4215,7 +4215,7 @@
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>717170</v>
+        <v>717177</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9772097</v>
+        <v>9772104</v>
       </c>
       <c r="L33" s="3">
         <v>3261484</v>
@@ -4274,7 +4274,7 @@
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757683</v>
+        <v>757690</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966348</v>
+        <v>9966355</v>
       </c>
       <c r="L34" s="3">
         <v>3330336</v>
@@ -4333,7 +4333,7 @@
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772969</v>
+        <v>772976</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108451</v>
+        <v>10108458</v>
       </c>
       <c r="L35" s="3">
         <v>3374835</v>
@@ -4392,7 +4392,7 @@
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>786145</v>
+        <v>786152</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460396</v>
+        <v>10460403</v>
       </c>
       <c r="L36" s="3">
         <v>3496927</v>
@@ -4451,7 +4451,7 @@
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823311</v>
+        <v>823318</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886271</v>
+        <v>10886278</v>
       </c>
       <c r="L37" s="3">
         <v>3653388</v>
@@ -4510,7 +4510,7 @@
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867823</v>
+        <v>867830</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016355</v>
+        <v>11016362</v>
       </c>
       <c r="L38" s="3">
         <v>3699332</v>
@@ -4569,7 +4569,7 @@
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879714</v>
+        <v>879721</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088342</v>
+        <v>11088349</v>
       </c>
       <c r="L39" s="3">
         <v>3724575</v>
@@ -4628,7 +4628,7 @@
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886568</v>
+        <v>886575</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192303</v>
+        <v>11192310</v>
       </c>
       <c r="L40" s="3">
         <v>3763217</v>
@@ -4687,7 +4687,7 @@
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>898069</v>
+        <v>898076</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315423</v>
+        <v>11315430</v>
       </c>
       <c r="L41" s="3">
         <v>3810746</v>
@@ -4746,7 +4746,7 @@
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910401</v>
+        <v>910408</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481620</v>
+        <v>11481627</v>
       </c>
       <c r="L42" s="3">
         <v>3872840</v>
@@ -4805,7 +4805,7 @@
         <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925318</v>
+        <v>925325</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559385</v>
+        <v>11559392</v>
       </c>
       <c r="L43" s="3">
         <v>3901024</v>
@@ -4864,7 +4864,7 @@
         <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932534</v>
+        <v>932541</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587574</v>
+        <v>11587581</v>
       </c>
       <c r="L44" s="3">
         <v>3911321</v>
@@ -4923,7 +4923,7 @@
         <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935463</v>
+        <v>935470</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11611000</v>
+        <v>11611007</v>
       </c>
       <c r="L45" s="3">
         <v>3920472</v>
@@ -4982,7 +4982,7 @@
         <v>1376080</v>
       </c>
       <c r="P45" s="3">
-        <v>937913</v>
+        <v>937920</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633111</v>
+        <v>11633118</v>
       </c>
       <c r="L46" s="3">
         <v>3929456</v>
@@ -5041,7 +5041,7 @@
         <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940948</v>
+        <v>940955</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>417</v>
       </c>
       <c r="K47" s="3">
-        <v>11661033</v>
+        <v>11661040</v>
       </c>
       <c r="L47" s="3">
         <v>3937207</v>
@@ -5100,7 +5100,7 @@
         <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>946030</v>
+        <v>946037</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5144,7 +5144,7 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11705132</v>
+        <v>11705139</v>
       </c>
       <c r="L48" s="3">
         <v>3949586</v>
@@ -5159,7 +5159,7 @@
         <v>1382833</v>
       </c>
       <c r="P48" s="3">
-        <v>955376</v>
+        <v>955383</v>
       </c>
       <c r="Q48" s="3">
         <v>311674</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>34529</v>
+        <v>35626</v>
       </c>
       <c r="C49">
-        <v>10801</v>
+        <v>11186</v>
       </c>
       <c r="D49">
         <v>4068</v>
       </c>
       <c r="E49">
-        <v>7443</v>
+        <v>7652</v>
       </c>
       <c r="F49">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G49">
-        <v>6438</v>
+        <v>6723</v>
       </c>
       <c r="H49">
-        <v>3145</v>
+        <v>3303</v>
       </c>
       <c r="I49">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="J49">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="K49">
-        <v>11739661</v>
+        <v>11740765</v>
       </c>
       <c r="L49">
-        <v>3960387</v>
+        <v>3960772</v>
       </c>
       <c r="M49">
         <v>2998344</v>
       </c>
       <c r="N49">
-        <v>1758092</v>
+        <v>1758301</v>
       </c>
       <c r="O49">
-        <v>1384044</v>
+        <v>1384045</v>
       </c>
       <c r="P49">
-        <v>961814</v>
+        <v>962106</v>
       </c>
       <c r="Q49">
-        <v>314819</v>
+        <v>314977</v>
       </c>
       <c r="R49">
-        <v>251648</v>
+        <v>251656</v>
       </c>
       <c r="S49">
-        <v>110513</v>
+        <v>110564</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM49"/>
+  <dimension ref="A1:IM50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38774,6 +38774,749 @@
         <v>201</v>
       </c>
       <c r="IM49">
+        <v>13472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B50">
+        <v>1104</v>
+      </c>
+      <c r="C50">
+        <v>385</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>209</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>292</v>
+      </c>
+      <c r="H50">
+        <v>158</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>51</v>
+      </c>
+      <c r="K50">
+        <v>11740765</v>
+      </c>
+      <c r="L50">
+        <v>3960772</v>
+      </c>
+      <c r="M50">
+        <v>2998344</v>
+      </c>
+      <c r="N50">
+        <v>1758301</v>
+      </c>
+      <c r="O50">
+        <v>1384045</v>
+      </c>
+      <c r="P50">
+        <v>962106</v>
+      </c>
+      <c r="Q50">
+        <v>314977</v>
+      </c>
+      <c r="R50">
+        <v>251656</v>
+      </c>
+      <c r="S50">
+        <v>110564</v>
+      </c>
+      <c r="T50">
+        <v>74</v>
+      </c>
+      <c r="U50">
+        <v>14</v>
+      </c>
+      <c r="V50">
+        <v>16</v>
+      </c>
+      <c r="W50">
+        <v>29</v>
+      </c>
+      <c r="X50">
+        <v>39</v>
+      </c>
+      <c r="Y50">
+        <v>57</v>
+      </c>
+      <c r="Z50">
+        <v>60</v>
+      </c>
+      <c r="AA50">
+        <v>69</v>
+      </c>
+      <c r="AB50">
+        <v>66</v>
+      </c>
+      <c r="AC50">
+        <v>55</v>
+      </c>
+      <c r="AD50">
+        <v>75</v>
+      </c>
+      <c r="AE50">
+        <v>67</v>
+      </c>
+      <c r="AF50">
+        <v>59</v>
+      </c>
+      <c r="AG50">
+        <v>63</v>
+      </c>
+      <c r="AH50">
+        <v>82</v>
+      </c>
+      <c r="AI50">
+        <v>70</v>
+      </c>
+      <c r="AJ50">
+        <v>67</v>
+      </c>
+      <c r="AK50">
+        <v>142</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>505052</v>
+      </c>
+      <c r="AN50">
+        <v>668601</v>
+      </c>
+      <c r="AO50">
+        <v>774259</v>
+      </c>
+      <c r="AP50">
+        <v>760807</v>
+      </c>
+      <c r="AQ50">
+        <v>931907</v>
+      </c>
+      <c r="AR50">
+        <v>1028210</v>
+      </c>
+      <c r="AS50">
+        <v>1036414</v>
+      </c>
+      <c r="AT50">
+        <v>1020972</v>
+      </c>
+      <c r="AU50">
+        <v>910522</v>
+      </c>
+      <c r="AV50">
+        <v>809212</v>
+      </c>
+      <c r="AW50">
+        <v>749397</v>
+      </c>
+      <c r="AX50">
+        <v>624150</v>
+      </c>
+      <c r="AY50">
+        <v>545058</v>
+      </c>
+      <c r="AZ50">
+        <v>409427</v>
+      </c>
+      <c r="BA50">
+        <v>327426</v>
+      </c>
+      <c r="BB50">
+        <v>243313</v>
+      </c>
+      <c r="BC50">
+        <v>164091</v>
+      </c>
+      <c r="BD50">
+        <v>213788</v>
+      </c>
+      <c r="BE50">
+        <v>18159</v>
+      </c>
+      <c r="BF50">
+        <v>36</v>
+      </c>
+      <c r="BG50">
+        <v>38</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>0</v>
+      </c>
+      <c r="BJ50">
+        <v>0</v>
+      </c>
+      <c r="BK50">
+        <v>5</v>
+      </c>
+      <c r="BL50">
+        <v>9</v>
+      </c>
+      <c r="BM50">
+        <v>0</v>
+      </c>
+      <c r="BN50">
+        <v>0</v>
+      </c>
+      <c r="BO50">
+        <v>0</v>
+      </c>
+      <c r="BP50">
+        <v>10</v>
+      </c>
+      <c r="BQ50">
+        <v>6</v>
+      </c>
+      <c r="BR50">
+        <v>0</v>
+      </c>
+      <c r="BS50">
+        <v>0</v>
+      </c>
+      <c r="BT50">
+        <v>0</v>
+      </c>
+      <c r="BU50">
+        <v>11</v>
+      </c>
+      <c r="BV50">
+        <v>18</v>
+      </c>
+      <c r="BW50">
+        <v>0</v>
+      </c>
+      <c r="BX50">
+        <v>0</v>
+      </c>
+      <c r="BY50">
+        <v>0</v>
+      </c>
+      <c r="BZ50">
+        <v>16</v>
+      </c>
+      <c r="CA50">
+        <v>23</v>
+      </c>
+      <c r="CB50">
+        <v>0</v>
+      </c>
+      <c r="CC50">
+        <v>0</v>
+      </c>
+      <c r="CD50">
+        <v>0</v>
+      </c>
+      <c r="CE50">
+        <v>9</v>
+      </c>
+      <c r="CF50">
+        <v>47</v>
+      </c>
+      <c r="CG50">
+        <v>0</v>
+      </c>
+      <c r="CH50">
+        <v>1</v>
+      </c>
+      <c r="CI50">
+        <v>0</v>
+      </c>
+      <c r="CJ50">
+        <v>30</v>
+      </c>
+      <c r="CK50">
+        <v>30</v>
+      </c>
+      <c r="CL50">
+        <v>0</v>
+      </c>
+      <c r="CM50">
+        <v>0</v>
+      </c>
+      <c r="CN50">
+        <v>0</v>
+      </c>
+      <c r="CO50">
+        <v>24</v>
+      </c>
+      <c r="CP50">
+        <v>45</v>
+      </c>
+      <c r="CQ50">
+        <v>0</v>
+      </c>
+      <c r="CR50">
+        <v>0</v>
+      </c>
+      <c r="CS50">
+        <v>0</v>
+      </c>
+      <c r="CT50">
+        <v>19</v>
+      </c>
+      <c r="CU50">
+        <v>47</v>
+      </c>
+      <c r="CV50">
+        <v>0</v>
+      </c>
+      <c r="CW50">
+        <v>0</v>
+      </c>
+      <c r="CX50">
+        <v>0</v>
+      </c>
+      <c r="CY50">
+        <v>22</v>
+      </c>
+      <c r="CZ50">
+        <v>33</v>
+      </c>
+      <c r="DA50">
+        <v>0</v>
+      </c>
+      <c r="DB50">
+        <v>0</v>
+      </c>
+      <c r="DC50">
+        <v>0</v>
+      </c>
+      <c r="DD50">
+        <v>25</v>
+      </c>
+      <c r="DE50">
+        <v>50</v>
+      </c>
+      <c r="DF50">
+        <v>0</v>
+      </c>
+      <c r="DG50">
+        <v>0</v>
+      </c>
+      <c r="DH50">
+        <v>0</v>
+      </c>
+      <c r="DI50">
+        <v>15</v>
+      </c>
+      <c r="DJ50">
+        <v>51</v>
+      </c>
+      <c r="DK50">
+        <v>0</v>
+      </c>
+      <c r="DL50">
+        <v>1</v>
+      </c>
+      <c r="DM50">
+        <v>0</v>
+      </c>
+      <c r="DN50">
+        <v>25</v>
+      </c>
+      <c r="DO50">
+        <v>34</v>
+      </c>
+      <c r="DP50">
+        <v>0</v>
+      </c>
+      <c r="DQ50">
+        <v>0</v>
+      </c>
+      <c r="DR50">
+        <v>0</v>
+      </c>
+      <c r="DS50">
+        <v>26</v>
+      </c>
+      <c r="DT50">
+        <v>36</v>
+      </c>
+      <c r="DU50">
+        <v>0</v>
+      </c>
+      <c r="DV50">
+        <v>1</v>
+      </c>
+      <c r="DW50">
+        <v>0</v>
+      </c>
+      <c r="DX50">
+        <v>40</v>
+      </c>
+      <c r="DY50">
+        <v>42</v>
+      </c>
+      <c r="DZ50">
+        <v>0</v>
+      </c>
+      <c r="EA50">
+        <v>0</v>
+      </c>
+      <c r="EB50">
+        <v>0</v>
+      </c>
+      <c r="EC50">
+        <v>38</v>
+      </c>
+      <c r="ED50">
+        <v>31</v>
+      </c>
+      <c r="EE50">
+        <v>0</v>
+      </c>
+      <c r="EF50">
+        <v>0</v>
+      </c>
+      <c r="EG50">
+        <v>1</v>
+      </c>
+      <c r="EH50">
+        <v>39</v>
+      </c>
+      <c r="EI50">
+        <v>29</v>
+      </c>
+      <c r="EJ50">
+        <v>0</v>
+      </c>
+      <c r="EK50">
+        <v>-1</v>
+      </c>
+      <c r="EL50">
+        <v>0</v>
+      </c>
+      <c r="EM50">
+        <v>59</v>
+      </c>
+      <c r="EN50">
+        <v>81</v>
+      </c>
+      <c r="EO50">
+        <v>0</v>
+      </c>
+      <c r="EP50">
+        <v>1</v>
+      </c>
+      <c r="EQ50">
+        <v>1</v>
+      </c>
+      <c r="ER50">
+        <v>0</v>
+      </c>
+      <c r="ES50">
+        <v>0</v>
+      </c>
+      <c r="ET50">
+        <v>0</v>
+      </c>
+      <c r="EU50">
+        <v>0</v>
+      </c>
+      <c r="EV50">
+        <v>0</v>
+      </c>
+      <c r="EW50">
+        <v>232703</v>
+      </c>
+      <c r="EX50">
+        <v>220846</v>
+      </c>
+      <c r="EY50">
+        <v>410</v>
+      </c>
+      <c r="EZ50">
+        <v>15445</v>
+      </c>
+      <c r="FA50">
+        <v>35648</v>
+      </c>
+      <c r="FB50">
+        <v>308365</v>
+      </c>
+      <c r="FC50">
+        <v>292987</v>
+      </c>
+      <c r="FD50">
+        <v>466</v>
+      </c>
+      <c r="FE50">
+        <v>16750</v>
+      </c>
+      <c r="FF50">
+        <v>50033</v>
+      </c>
+      <c r="FG50">
+        <v>353664</v>
+      </c>
+      <c r="FH50">
+        <v>342946</v>
+      </c>
+      <c r="FI50">
+        <v>632</v>
+      </c>
+      <c r="FJ50">
+        <v>16936</v>
+      </c>
+      <c r="FK50">
+        <v>60081</v>
+      </c>
+      <c r="FL50">
+        <v>326793</v>
+      </c>
+      <c r="FM50">
+        <v>374385</v>
+      </c>
+      <c r="FN50">
+        <v>896</v>
+      </c>
+      <c r="FO50">
+        <v>12913</v>
+      </c>
+      <c r="FP50">
+        <v>45820</v>
+      </c>
+      <c r="FQ50">
+        <v>392562</v>
+      </c>
+      <c r="FR50">
+        <v>480586</v>
+      </c>
+      <c r="FS50">
+        <v>1101</v>
+      </c>
+      <c r="FT50">
+        <v>16247</v>
+      </c>
+      <c r="FU50">
+        <v>41411</v>
+      </c>
+      <c r="FV50">
+        <v>434556</v>
+      </c>
+      <c r="FW50">
+        <v>527271</v>
+      </c>
+      <c r="FX50">
+        <v>1139</v>
+      </c>
+      <c r="FY50">
+        <v>17742</v>
+      </c>
+      <c r="FZ50">
+        <v>47502</v>
+      </c>
+      <c r="GA50">
+        <v>430045</v>
+      </c>
+      <c r="GB50">
+        <v>533503</v>
+      </c>
+      <c r="GC50">
+        <v>923</v>
+      </c>
+      <c r="GD50">
+        <v>17124</v>
+      </c>
+      <c r="GE50">
+        <v>54819</v>
+      </c>
+      <c r="GF50">
+        <v>420547</v>
+      </c>
+      <c r="GG50">
+        <v>525953</v>
+      </c>
+      <c r="GH50">
+        <v>666</v>
+      </c>
+      <c r="GI50">
+        <v>14980</v>
+      </c>
+      <c r="GJ50">
+        <v>58826</v>
+      </c>
+      <c r="GK50">
+        <v>374348</v>
+      </c>
+      <c r="GL50">
+        <v>470184</v>
+      </c>
+      <c r="GM50">
+        <v>498</v>
+      </c>
+      <c r="GN50">
+        <v>12330</v>
+      </c>
+      <c r="GO50">
+        <v>53162</v>
+      </c>
+      <c r="GP50">
+        <v>331071</v>
+      </c>
+      <c r="GQ50">
+        <v>422278</v>
+      </c>
+      <c r="GR50">
+        <v>439</v>
+      </c>
+      <c r="GS50">
+        <v>10106</v>
+      </c>
+      <c r="GT50">
+        <v>45318</v>
+      </c>
+      <c r="GU50">
+        <v>309022</v>
+      </c>
+      <c r="GV50">
+        <v>390782</v>
+      </c>
+      <c r="GW50">
+        <v>402</v>
+      </c>
+      <c r="GX50">
+        <v>8930</v>
+      </c>
+      <c r="GY50">
+        <v>40261</v>
+      </c>
+      <c r="GZ50">
+        <v>264386</v>
+      </c>
+      <c r="HA50">
+        <v>321095</v>
+      </c>
+      <c r="HB50">
+        <v>329</v>
+      </c>
+      <c r="HC50">
+        <v>6595</v>
+      </c>
+      <c r="HD50">
+        <v>31745</v>
+      </c>
+      <c r="HE50">
+        <v>235266</v>
+      </c>
+      <c r="HF50">
+        <v>278292</v>
+      </c>
+      <c r="HG50">
+        <v>234</v>
+      </c>
+      <c r="HH50">
+        <v>5309</v>
+      </c>
+      <c r="HI50">
+        <v>25957</v>
+      </c>
+      <c r="HJ50">
+        <v>181746</v>
+      </c>
+      <c r="HK50">
+        <v>205372</v>
+      </c>
+      <c r="HL50">
+        <v>199</v>
+      </c>
+      <c r="HM50">
+        <v>3591</v>
+      </c>
+      <c r="HN50">
+        <v>18519</v>
+      </c>
+      <c r="HO50">
+        <v>152728</v>
+      </c>
+      <c r="HP50">
+        <v>159566</v>
+      </c>
+      <c r="HQ50">
+        <v>164</v>
+      </c>
+      <c r="HR50">
+        <v>2622</v>
+      </c>
+      <c r="HS50">
+        <v>12346</v>
+      </c>
+      <c r="HT50">
+        <v>117320</v>
+      </c>
+      <c r="HU50">
+        <v>116177</v>
+      </c>
+      <c r="HV50">
+        <v>164</v>
+      </c>
+      <c r="HW50">
+        <v>1840</v>
+      </c>
+      <c r="HX50">
+        <v>7812</v>
+      </c>
+      <c r="HY50">
+        <v>77192</v>
+      </c>
+      <c r="HZ50">
+        <v>80978</v>
+      </c>
+      <c r="IA50">
+        <v>132</v>
+      </c>
+      <c r="IB50">
+        <v>1258</v>
+      </c>
+      <c r="IC50">
+        <v>4531</v>
+      </c>
+      <c r="ID50">
+        <v>82854</v>
+      </c>
+      <c r="IE50">
+        <v>124534</v>
+      </c>
+      <c r="IF50">
+        <v>308</v>
+      </c>
+      <c r="IG50">
+        <v>2250</v>
+      </c>
+      <c r="IH50">
+        <v>3842</v>
+      </c>
+      <c r="II50">
+        <v>2152</v>
+      </c>
+      <c r="IJ50">
+        <v>2309</v>
+      </c>
+      <c r="IK50">
+        <v>25</v>
+      </c>
+      <c r="IL50">
+        <v>201</v>
+      </c>
+      <c r="IM50">
         <v>13472</v>
       </c>
     </row>
@@ -38801,7 +39544,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AEC03A-4104-4167-9FD0-2466C1DF2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E332BD3-D144-47CC-9F43-43E149B2CF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1808,7 +1808,7 @@
         <v>44197</v>
       </c>
       <c r="B3">
-        <v>538967</v>
+        <v>538968</v>
       </c>
       <c r="C3">
         <v>280241</v>
@@ -1823,7 +1823,7 @@
         <v>421</v>
       </c>
       <c r="G3">
-        <v>18559</v>
+        <v>18560</v>
       </c>
       <c r="H3">
         <v>1630</v>
@@ -1835,7 +1835,7 @@
         <v>711</v>
       </c>
       <c r="K3">
-        <v>568083</v>
+        <v>568084</v>
       </c>
       <c r="L3">
         <v>285285</v>
@@ -1850,7 +1850,7 @@
         <v>1367</v>
       </c>
       <c r="P3">
-        <v>19172</v>
+        <v>19173</v>
       </c>
       <c r="Q3">
         <v>1877</v>
@@ -1874,7 +1874,7 @@
         <v>43737</v>
       </c>
       <c r="X3">
-        <v>75259</v>
+        <v>75260</v>
       </c>
       <c r="Y3">
         <v>70916</v>
@@ -1898,10 +1898,10 @@
         <v>22320</v>
       </c>
       <c r="AF3">
-        <v>17076</v>
+        <v>17075</v>
       </c>
       <c r="AG3">
-        <v>11943</v>
+        <v>11944</v>
       </c>
       <c r="AH3">
         <v>8406</v>
@@ -1910,10 +1910,10 @@
         <v>5716</v>
       </c>
       <c r="AJ3">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="AK3">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="AL3">
         <v>350</v>
@@ -1931,7 +1931,7 @@
         <v>45247</v>
       </c>
       <c r="AQ3">
-        <v>78227</v>
+        <v>78228</v>
       </c>
       <c r="AR3">
         <v>74446</v>
@@ -1955,10 +1955,10 @@
         <v>23996</v>
       </c>
       <c r="AY3">
-        <v>18535</v>
+        <v>18534</v>
       </c>
       <c r="AZ3">
-        <v>12979</v>
+        <v>12980</v>
       </c>
       <c r="BA3">
         <v>9316</v>
@@ -1967,10 +1967,10 @@
         <v>6478</v>
       </c>
       <c r="BC3">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="BD3">
-        <v>5366</v>
+        <v>5367</v>
       </c>
       <c r="BE3">
         <v>373</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10318195</v>
+        <v>10318198</v>
       </c>
       <c r="C4">
         <v>3368103</v>
@@ -1996,7 +1996,7 @@
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848658</v>
+        <v>848661</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886278</v>
+        <v>10886282</v>
       </c>
       <c r="L4">
         <v>3653388</v>
@@ -2023,7 +2023,7 @@
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867830</v>
+        <v>867834</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,115 +2035,115 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450501</v>
+        <v>450499</v>
       </c>
       <c r="U4">
-        <v>611248</v>
+        <v>611250</v>
       </c>
       <c r="V4">
-        <v>710191</v>
+        <v>710187</v>
       </c>
       <c r="W4">
-        <v>683296</v>
+        <v>683297</v>
       </c>
       <c r="X4">
-        <v>812051</v>
+        <v>812045</v>
       </c>
       <c r="Y4">
-        <v>899962</v>
+        <v>899971</v>
       </c>
       <c r="Z4">
-        <v>917033</v>
+        <v>917027</v>
       </c>
       <c r="AA4">
-        <v>908878</v>
+        <v>908874</v>
       </c>
       <c r="AB4">
-        <v>810340</v>
+        <v>810345</v>
       </c>
       <c r="AC4">
-        <v>717616</v>
+        <v>717618</v>
       </c>
       <c r="AD4">
-        <v>658717</v>
+        <v>658718</v>
       </c>
       <c r="AE4">
-        <v>544121</v>
+        <v>544122</v>
       </c>
       <c r="AF4">
-        <v>471398</v>
+        <v>471397</v>
       </c>
       <c r="AG4">
-        <v>348974</v>
+        <v>348979</v>
       </c>
       <c r="AH4">
-        <v>274366</v>
+        <v>274364</v>
       </c>
       <c r="AI4">
-        <v>198165</v>
+        <v>198166</v>
       </c>
       <c r="AJ4">
         <v>128297</v>
       </c>
       <c r="AK4">
-        <v>155898</v>
+        <v>155899</v>
       </c>
       <c r="AL4">
         <v>17143</v>
       </c>
       <c r="AM4">
-        <v>473751</v>
+        <v>473749</v>
       </c>
       <c r="AN4">
-        <v>644447</v>
+        <v>644449</v>
       </c>
       <c r="AO4">
-        <v>741705</v>
+        <v>741701</v>
       </c>
       <c r="AP4">
-        <v>728543</v>
+        <v>728544</v>
       </c>
       <c r="AQ4">
-        <v>890278</v>
+        <v>890273</v>
       </c>
       <c r="AR4">
-        <v>974408</v>
+        <v>974417</v>
       </c>
       <c r="AS4">
-        <v>975415</v>
+        <v>975409</v>
       </c>
       <c r="AT4">
-        <v>953871</v>
+        <v>953867</v>
       </c>
       <c r="AU4">
-        <v>845959</v>
+        <v>845964</v>
       </c>
       <c r="AV4">
-        <v>749695</v>
+        <v>749697</v>
       </c>
       <c r="AW4">
-        <v>688408</v>
+        <v>688409</v>
       </c>
       <c r="AX4">
-        <v>568117</v>
+        <v>568118</v>
       </c>
       <c r="AY4">
-        <v>489933</v>
+        <v>489931</v>
       </c>
       <c r="AZ4">
-        <v>361953</v>
+        <v>361959</v>
       </c>
       <c r="BA4">
-        <v>283682</v>
+        <v>283680</v>
       </c>
       <c r="BB4">
-        <v>204643</v>
+        <v>204644</v>
       </c>
       <c r="BC4">
-        <v>132690</v>
+        <v>132689</v>
       </c>
       <c r="BD4">
-        <v>161264</v>
+        <v>161266</v>
       </c>
       <c r="BE4">
         <v>17516</v>
@@ -2154,169 +2154,169 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>854487</v>
+        <v>856230</v>
       </c>
       <c r="C5">
-        <v>307384</v>
+        <v>308233</v>
       </c>
       <c r="D5">
         <v>156862</v>
       </c>
       <c r="E5">
-        <v>138421</v>
+        <v>138790</v>
       </c>
       <c r="F5">
-        <v>94189</v>
+        <v>94192</v>
       </c>
       <c r="G5">
-        <v>94276</v>
+        <v>94620</v>
       </c>
       <c r="H5">
-        <v>33434</v>
+        <v>33585</v>
       </c>
       <c r="I5">
-        <v>23324</v>
+        <v>23340</v>
       </c>
       <c r="J5">
-        <v>6597</v>
+        <v>6608</v>
       </c>
       <c r="K5">
-        <v>11740765</v>
+        <v>11742512</v>
       </c>
       <c r="L5">
-        <v>3960772</v>
+        <v>3961621</v>
       </c>
       <c r="M5">
         <v>2998344</v>
       </c>
       <c r="N5">
-        <v>1758301</v>
+        <v>1758670</v>
       </c>
       <c r="O5">
-        <v>1384045</v>
+        <v>1384048</v>
       </c>
       <c r="P5">
-        <v>962106</v>
+        <v>962454</v>
       </c>
       <c r="Q5">
-        <v>314977</v>
+        <v>315128</v>
       </c>
       <c r="R5">
-        <v>251656</v>
+        <v>251672</v>
       </c>
       <c r="S5">
-        <v>110564</v>
+        <v>110575</v>
       </c>
       <c r="T5">
-        <v>31301</v>
+        <v>31440</v>
       </c>
       <c r="U5">
-        <v>24154</v>
+        <v>24173</v>
       </c>
       <c r="V5">
-        <v>32554</v>
+        <v>32570</v>
       </c>
       <c r="W5">
-        <v>32264</v>
+        <v>32298</v>
       </c>
       <c r="X5">
-        <v>41629</v>
+        <v>41680</v>
       </c>
       <c r="Y5">
-        <v>53802</v>
+        <v>53883</v>
       </c>
       <c r="Z5">
-        <v>60999</v>
+        <v>61075</v>
       </c>
       <c r="AA5">
-        <v>67101</v>
+        <v>67192</v>
       </c>
       <c r="AB5">
-        <v>64563</v>
+        <v>64654</v>
       </c>
       <c r="AC5">
-        <v>59517</v>
+        <v>59603</v>
       </c>
       <c r="AD5">
-        <v>60989</v>
+        <v>61090</v>
       </c>
       <c r="AE5">
-        <v>56033</v>
+        <v>56135</v>
       </c>
       <c r="AF5">
-        <v>55125</v>
+        <v>55238</v>
       </c>
       <c r="AG5">
-        <v>47474</v>
+        <v>47618</v>
       </c>
       <c r="AH5">
-        <v>43744</v>
+        <v>43860</v>
       </c>
       <c r="AI5">
-        <v>38670</v>
+        <v>38805</v>
       </c>
       <c r="AJ5">
-        <v>31401</v>
+        <v>31540</v>
       </c>
       <c r="AK5">
-        <v>52524</v>
+        <v>52733</v>
       </c>
       <c r="AL5">
         <v>643</v>
       </c>
       <c r="AM5">
-        <v>505052</v>
+        <v>505189</v>
       </c>
       <c r="AN5">
-        <v>668601</v>
+        <v>668622</v>
       </c>
       <c r="AO5">
-        <v>774259</v>
+        <v>774271</v>
       </c>
       <c r="AP5">
-        <v>760807</v>
+        <v>760842</v>
       </c>
       <c r="AQ5">
-        <v>931907</v>
+        <v>931953</v>
       </c>
       <c r="AR5">
-        <v>1028210</v>
+        <v>1028300</v>
       </c>
       <c r="AS5">
-        <v>1036414</v>
+        <v>1036484</v>
       </c>
       <c r="AT5">
-        <v>1020972</v>
+        <v>1021059</v>
       </c>
       <c r="AU5">
-        <v>910522</v>
+        <v>910618</v>
       </c>
       <c r="AV5">
-        <v>809212</v>
+        <v>809300</v>
       </c>
       <c r="AW5">
-        <v>749397</v>
+        <v>749499</v>
       </c>
       <c r="AX5">
-        <v>624150</v>
+        <v>624253</v>
       </c>
       <c r="AY5">
-        <v>545058</v>
+        <v>545169</v>
       </c>
       <c r="AZ5">
-        <v>409427</v>
+        <v>409577</v>
       </c>
       <c r="BA5">
-        <v>327426</v>
+        <v>327540</v>
       </c>
       <c r="BB5">
-        <v>243313</v>
+        <v>243449</v>
       </c>
       <c r="BC5">
-        <v>164091</v>
+        <v>164229</v>
       </c>
       <c r="BD5">
-        <v>213788</v>
+        <v>213999</v>
       </c>
       <c r="BE5">
         <v>18159</v>
@@ -3760,7 +3760,7 @@
         <v>44531</v>
       </c>
       <c r="B25" s="3">
-        <v>352137</v>
+        <v>352138</v>
       </c>
       <c r="C25" s="3">
         <v>203050</v>
@@ -3775,7 +3775,7 @@
         <v>73</v>
       </c>
       <c r="G25" s="3">
-        <v>18165</v>
+        <v>18166</v>
       </c>
       <c r="H25" s="3">
         <v>1620</v>
@@ -3787,7 +3787,7 @@
         <v>479</v>
       </c>
       <c r="K25" s="3">
-        <v>568083</v>
+        <v>568084</v>
       </c>
       <c r="L25" s="3">
         <v>285285</v>
@@ -3802,7 +3802,7 @@
         <v>1367</v>
       </c>
       <c r="P25" s="3">
-        <v>19172</v>
+        <v>19173</v>
       </c>
       <c r="Q25" s="3">
         <v>1877</v>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809722</v>
+        <v>1809723</v>
       </c>
       <c r="C26" s="3">
         <v>637164</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90176</v>
+        <v>90177</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377805</v>
+        <v>2377807</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2217</v>
       </c>
       <c r="P26" s="3">
-        <v>109348</v>
+        <v>109350</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3878,7 +3878,7 @@
         <v>44593</v>
       </c>
       <c r="B27" s="3">
-        <v>687566</v>
+        <v>687568</v>
       </c>
       <c r="C27" s="3">
         <v>230227</v>
@@ -3893,7 +3893,7 @@
         <v>11814</v>
       </c>
       <c r="G27" s="3">
-        <v>44448</v>
+        <v>44450</v>
       </c>
       <c r="H27" s="3">
         <v>17719</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065371</v>
+        <v>3065375</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153796</v>
+        <v>153800</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432178</v>
+        <v>4432182</v>
       </c>
       <c r="L28" s="3">
         <v>1689282</v>
@@ -3979,7 +3979,7 @@
         <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274323</v>
+        <v>274327</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772152</v>
+        <v>5772156</v>
       </c>
       <c r="L29" s="3">
         <v>2121662</v>
@@ -4038,7 +4038,7 @@
         <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414240</v>
+        <v>414244</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082562</v>
+        <v>7082566</v>
       </c>
       <c r="L30" s="3">
         <v>2418929</v>
@@ -4097,7 +4097,7 @@
         <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522420</v>
+        <v>522424</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966885</v>
+        <v>7966889</v>
       </c>
       <c r="L31" s="3">
         <v>2652830</v>
@@ -4156,7 +4156,7 @@
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599767</v>
+        <v>599771</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217244</v>
+        <v>9217248</v>
       </c>
       <c r="L32" s="3">
         <v>3031435</v>
@@ -4215,7 +4215,7 @@
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>717177</v>
+        <v>717181</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9772104</v>
+        <v>9772108</v>
       </c>
       <c r="L33" s="3">
         <v>3261484</v>
@@ -4274,7 +4274,7 @@
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757690</v>
+        <v>757694</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966355</v>
+        <v>9966359</v>
       </c>
       <c r="L34" s="3">
         <v>3330336</v>
@@ -4333,7 +4333,7 @@
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772976</v>
+        <v>772980</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108458</v>
+        <v>10108462</v>
       </c>
       <c r="L35" s="3">
         <v>3374835</v>
@@ -4392,7 +4392,7 @@
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>786152</v>
+        <v>786156</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460403</v>
+        <v>10460407</v>
       </c>
       <c r="L36" s="3">
         <v>3496927</v>
@@ -4451,7 +4451,7 @@
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823318</v>
+        <v>823322</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886278</v>
+        <v>10886282</v>
       </c>
       <c r="L37" s="3">
         <v>3653388</v>
@@ -4510,7 +4510,7 @@
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867830</v>
+        <v>867834</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016362</v>
+        <v>11016366</v>
       </c>
       <c r="L38" s="3">
         <v>3699332</v>
@@ -4569,7 +4569,7 @@
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879721</v>
+        <v>879725</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088349</v>
+        <v>11088353</v>
       </c>
       <c r="L39" s="3">
         <v>3724575</v>
@@ -4628,7 +4628,7 @@
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886575</v>
+        <v>886579</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192310</v>
+        <v>11192314</v>
       </c>
       <c r="L40" s="3">
         <v>3763217</v>
@@ -4687,7 +4687,7 @@
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>898076</v>
+        <v>898080</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315430</v>
+        <v>11315434</v>
       </c>
       <c r="L41" s="3">
         <v>3810746</v>
@@ -4746,7 +4746,7 @@
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910408</v>
+        <v>910412</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481627</v>
+        <v>11481631</v>
       </c>
       <c r="L42" s="3">
         <v>3872840</v>
@@ -4805,7 +4805,7 @@
         <v>1361019</v>
       </c>
       <c r="P42" s="3">
-        <v>925325</v>
+        <v>925329</v>
       </c>
       <c r="Q42" s="3">
         <v>299396</v>
@@ -4849,7 +4849,7 @@
         <v>395</v>
       </c>
       <c r="K43" s="3">
-        <v>11559392</v>
+        <v>11559396</v>
       </c>
       <c r="L43" s="3">
         <v>3901024</v>
@@ -4864,7 +4864,7 @@
         <v>1369429</v>
       </c>
       <c r="P43" s="3">
-        <v>932541</v>
+        <v>932545</v>
       </c>
       <c r="Q43" s="3">
         <v>301980</v>
@@ -4908,7 +4908,7 @@
         <v>204</v>
       </c>
       <c r="K44" s="3">
-        <v>11587581</v>
+        <v>11587585</v>
       </c>
       <c r="L44" s="3">
         <v>3911321</v>
@@ -4923,7 +4923,7 @@
         <v>1373081</v>
       </c>
       <c r="P44" s="3">
-        <v>935470</v>
+        <v>935474</v>
       </c>
       <c r="Q44" s="3">
         <v>303252</v>
@@ -4967,7 +4967,7 @@
         <v>216</v>
       </c>
       <c r="K45" s="3">
-        <v>11611007</v>
+        <v>11611011</v>
       </c>
       <c r="L45" s="3">
         <v>3920472</v>
@@ -4982,7 +4982,7 @@
         <v>1376080</v>
       </c>
       <c r="P45" s="3">
-        <v>937920</v>
+        <v>937924</v>
       </c>
       <c r="Q45" s="3">
         <v>304417</v>
@@ -5026,7 +5026,7 @@
         <v>344</v>
       </c>
       <c r="K46" s="3">
-        <v>11633118</v>
+        <v>11633122</v>
       </c>
       <c r="L46" s="3">
         <v>3929456</v>
@@ -5041,7 +5041,7 @@
         <v>1378637</v>
       </c>
       <c r="P46" s="3">
-        <v>940955</v>
+        <v>940959</v>
       </c>
       <c r="Q46" s="3">
         <v>305620</v>
@@ -5085,7 +5085,7 @@
         <v>417</v>
       </c>
       <c r="K47" s="3">
-        <v>11661040</v>
+        <v>11661044</v>
       </c>
       <c r="L47" s="3">
         <v>3937207</v>
@@ -5100,7 +5100,7 @@
         <v>1380635</v>
       </c>
       <c r="P47" s="3">
-        <v>946037</v>
+        <v>946041</v>
       </c>
       <c r="Q47" s="3">
         <v>307521</v>
@@ -5117,7 +5117,7 @@
         <v>45231</v>
       </c>
       <c r="B48" s="3">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="C48" s="3">
         <v>12379</v>
@@ -5135,7 +5135,7 @@
         <v>9346</v>
       </c>
       <c r="H48" s="3">
-        <v>4153</v>
+        <v>4152</v>
       </c>
       <c r="I48" s="3">
         <v>2159</v>
@@ -5144,7 +5144,7 @@
         <v>548</v>
       </c>
       <c r="K48" s="3">
-        <v>11705139</v>
+        <v>11705142</v>
       </c>
       <c r="L48" s="3">
         <v>3949586</v>
@@ -5159,10 +5159,10 @@
         <v>1382833</v>
       </c>
       <c r="P48" s="3">
-        <v>955383</v>
+        <v>955387</v>
       </c>
       <c r="Q48" s="3">
-        <v>311674</v>
+        <v>311673</v>
       </c>
       <c r="R48" s="3">
         <v>250474</v>
@@ -5176,58 +5176,58 @@
         <v>45261</v>
       </c>
       <c r="B49">
-        <v>35626</v>
+        <v>37370</v>
       </c>
       <c r="C49">
-        <v>11186</v>
+        <v>12035</v>
       </c>
       <c r="D49">
         <v>4068</v>
       </c>
       <c r="E49">
-        <v>7652</v>
+        <v>8021</v>
       </c>
       <c r="F49">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="G49">
-        <v>6723</v>
+        <v>7067</v>
       </c>
       <c r="H49">
-        <v>3303</v>
+        <v>3455</v>
       </c>
       <c r="I49">
-        <v>1182</v>
+        <v>1198</v>
       </c>
       <c r="J49">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="K49">
-        <v>11740765</v>
+        <v>11742512</v>
       </c>
       <c r="L49">
-        <v>3960772</v>
+        <v>3961621</v>
       </c>
       <c r="M49">
         <v>2998344</v>
       </c>
       <c r="N49">
-        <v>1758301</v>
+        <v>1758670</v>
       </c>
       <c r="O49">
-        <v>1384045</v>
+        <v>1384048</v>
       </c>
       <c r="P49">
-        <v>962106</v>
+        <v>962454</v>
       </c>
       <c r="Q49">
-        <v>314977</v>
+        <v>315128</v>
       </c>
       <c r="R49">
-        <v>251656</v>
+        <v>251672</v>
       </c>
       <c r="S49">
-        <v>110564</v>
+        <v>110575</v>
       </c>
     </row>
   </sheetData>
@@ -5237,7 +5237,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642F9716-4EC5-462E-BF8D-30B3056F74F9}">
-  <dimension ref="A1:IM50"/>
+  <dimension ref="A1:IM51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39517,6 +39517,749 @@
         <v>201</v>
       </c>
       <c r="IM50">
+        <v>13472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:247" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B51">
+        <v>1747</v>
+      </c>
+      <c r="C51">
+        <v>849</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>369</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>348</v>
+      </c>
+      <c r="H51">
+        <v>151</v>
+      </c>
+      <c r="I51">
+        <v>16</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>11742512</v>
+      </c>
+      <c r="L51">
+        <v>3961621</v>
+      </c>
+      <c r="M51">
+        <v>2998344</v>
+      </c>
+      <c r="N51">
+        <v>1758670</v>
+      </c>
+      <c r="O51">
+        <v>1384048</v>
+      </c>
+      <c r="P51">
+        <v>962454</v>
+      </c>
+      <c r="Q51">
+        <v>315128</v>
+      </c>
+      <c r="R51">
+        <v>251672</v>
+      </c>
+      <c r="S51">
+        <v>110575</v>
+      </c>
+      <c r="T51">
+        <v>137</v>
+      </c>
+      <c r="U51">
+        <v>21</v>
+      </c>
+      <c r="V51">
+        <v>12</v>
+      </c>
+      <c r="W51">
+        <v>35</v>
+      </c>
+      <c r="X51">
+        <v>46</v>
+      </c>
+      <c r="Y51">
+        <v>90</v>
+      </c>
+      <c r="Z51">
+        <v>70</v>
+      </c>
+      <c r="AA51">
+        <v>87</v>
+      </c>
+      <c r="AB51">
+        <v>96</v>
+      </c>
+      <c r="AC51">
+        <v>88</v>
+      </c>
+      <c r="AD51">
+        <v>102</v>
+      </c>
+      <c r="AE51">
+        <v>103</v>
+      </c>
+      <c r="AF51">
+        <v>111</v>
+      </c>
+      <c r="AG51">
+        <v>150</v>
+      </c>
+      <c r="AH51">
+        <v>114</v>
+      </c>
+      <c r="AI51">
+        <v>136</v>
+      </c>
+      <c r="AJ51">
+        <v>138</v>
+      </c>
+      <c r="AK51">
+        <v>211</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>505189</v>
+      </c>
+      <c r="AN51">
+        <v>668622</v>
+      </c>
+      <c r="AO51">
+        <v>774271</v>
+      </c>
+      <c r="AP51">
+        <v>760842</v>
+      </c>
+      <c r="AQ51">
+        <v>931953</v>
+      </c>
+      <c r="AR51">
+        <v>1028300</v>
+      </c>
+      <c r="AS51">
+        <v>1036484</v>
+      </c>
+      <c r="AT51">
+        <v>1021059</v>
+      </c>
+      <c r="AU51">
+        <v>910618</v>
+      </c>
+      <c r="AV51">
+        <v>809300</v>
+      </c>
+      <c r="AW51">
+        <v>749499</v>
+      </c>
+      <c r="AX51">
+        <v>624253</v>
+      </c>
+      <c r="AY51">
+        <v>545169</v>
+      </c>
+      <c r="AZ51">
+        <v>409577</v>
+      </c>
+      <c r="BA51">
+        <v>327540</v>
+      </c>
+      <c r="BB51">
+        <v>243449</v>
+      </c>
+      <c r="BC51">
+        <v>164229</v>
+      </c>
+      <c r="BD51">
+        <v>213999</v>
+      </c>
+      <c r="BE51">
+        <v>18159</v>
+      </c>
+      <c r="BF51">
+        <v>67</v>
+      </c>
+      <c r="BG51">
+        <v>70</v>
+      </c>
+      <c r="BH51">
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <v>13</v>
+      </c>
+      <c r="BL51">
+        <v>8</v>
+      </c>
+      <c r="BM51">
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <v>6</v>
+      </c>
+      <c r="BQ51">
+        <v>6</v>
+      </c>
+      <c r="BR51">
+        <v>0</v>
+      </c>
+      <c r="BS51">
+        <v>0</v>
+      </c>
+      <c r="BT51">
+        <v>0</v>
+      </c>
+      <c r="BU51">
+        <v>11</v>
+      </c>
+      <c r="BV51">
+        <v>24</v>
+      </c>
+      <c r="BW51">
+        <v>0</v>
+      </c>
+      <c r="BX51">
+        <v>0</v>
+      </c>
+      <c r="BY51">
+        <v>0</v>
+      </c>
+      <c r="BZ51">
+        <v>9</v>
+      </c>
+      <c r="CA51">
+        <v>37</v>
+      </c>
+      <c r="CB51">
+        <v>0</v>
+      </c>
+      <c r="CC51">
+        <v>0</v>
+      </c>
+      <c r="CD51">
+        <v>0</v>
+      </c>
+      <c r="CE51">
+        <v>33</v>
+      </c>
+      <c r="CF51">
+        <v>57</v>
+      </c>
+      <c r="CG51">
+        <v>0</v>
+      </c>
+      <c r="CH51">
+        <v>0</v>
+      </c>
+      <c r="CI51">
+        <v>0</v>
+      </c>
+      <c r="CJ51">
+        <v>21</v>
+      </c>
+      <c r="CK51">
+        <v>47</v>
+      </c>
+      <c r="CL51">
+        <v>0</v>
+      </c>
+      <c r="CM51">
+        <v>2</v>
+      </c>
+      <c r="CN51">
+        <v>0</v>
+      </c>
+      <c r="CO51">
+        <v>25</v>
+      </c>
+      <c r="CP51">
+        <v>62</v>
+      </c>
+      <c r="CQ51">
+        <v>0</v>
+      </c>
+      <c r="CR51">
+        <v>0</v>
+      </c>
+      <c r="CS51">
+        <v>0</v>
+      </c>
+      <c r="CT51">
+        <v>33</v>
+      </c>
+      <c r="CU51">
+        <v>63</v>
+      </c>
+      <c r="CV51">
+        <v>0</v>
+      </c>
+      <c r="CW51">
+        <v>0</v>
+      </c>
+      <c r="CX51">
+        <v>0</v>
+      </c>
+      <c r="CY51">
+        <v>33</v>
+      </c>
+      <c r="CZ51">
+        <v>55</v>
+      </c>
+      <c r="DA51">
+        <v>0</v>
+      </c>
+      <c r="DB51">
+        <v>0</v>
+      </c>
+      <c r="DC51">
+        <v>0</v>
+      </c>
+      <c r="DD51">
+        <v>35</v>
+      </c>
+      <c r="DE51">
+        <v>67</v>
+      </c>
+      <c r="DF51">
+        <v>0</v>
+      </c>
+      <c r="DG51">
+        <v>0</v>
+      </c>
+      <c r="DH51">
+        <v>0</v>
+      </c>
+      <c r="DI51">
+        <v>41</v>
+      </c>
+      <c r="DJ51">
+        <v>62</v>
+      </c>
+      <c r="DK51">
+        <v>0</v>
+      </c>
+      <c r="DL51">
+        <v>0</v>
+      </c>
+      <c r="DM51">
+        <v>0</v>
+      </c>
+      <c r="DN51">
+        <v>41</v>
+      </c>
+      <c r="DO51">
+        <v>69</v>
+      </c>
+      <c r="DP51">
+        <v>0</v>
+      </c>
+      <c r="DQ51">
+        <v>1</v>
+      </c>
+      <c r="DR51">
+        <v>0</v>
+      </c>
+      <c r="DS51">
+        <v>68</v>
+      </c>
+      <c r="DT51">
+        <v>82</v>
+      </c>
+      <c r="DU51">
+        <v>0</v>
+      </c>
+      <c r="DV51">
+        <v>0</v>
+      </c>
+      <c r="DW51">
+        <v>0</v>
+      </c>
+      <c r="DX51">
+        <v>49</v>
+      </c>
+      <c r="DY51">
+        <v>64</v>
+      </c>
+      <c r="DZ51">
+        <v>0</v>
+      </c>
+      <c r="EA51">
+        <v>0</v>
+      </c>
+      <c r="EB51">
+        <v>1</v>
+      </c>
+      <c r="EC51">
+        <v>69</v>
+      </c>
+      <c r="ED51">
+        <v>65</v>
+      </c>
+      <c r="EE51">
+        <v>0</v>
+      </c>
+      <c r="EF51">
+        <v>0</v>
+      </c>
+      <c r="EG51">
+        <v>2</v>
+      </c>
+      <c r="EH51">
+        <v>66</v>
+      </c>
+      <c r="EI51">
+        <v>72</v>
+      </c>
+      <c r="EJ51">
+        <v>0</v>
+      </c>
+      <c r="EK51">
+        <v>0</v>
+      </c>
+      <c r="EL51">
+        <v>0</v>
+      </c>
+      <c r="EM51">
+        <v>78</v>
+      </c>
+      <c r="EN51">
+        <v>132</v>
+      </c>
+      <c r="EO51">
+        <v>0</v>
+      </c>
+      <c r="EP51">
+        <v>1</v>
+      </c>
+      <c r="EQ51">
+        <v>0</v>
+      </c>
+      <c r="ER51">
+        <v>0</v>
+      </c>
+      <c r="ES51">
+        <v>0</v>
+      </c>
+      <c r="ET51">
+        <v>0</v>
+      </c>
+      <c r="EU51">
+        <v>0</v>
+      </c>
+      <c r="EV51">
+        <v>0</v>
+      </c>
+      <c r="EW51">
+        <v>232770</v>
+      </c>
+      <c r="EX51">
+        <v>220916</v>
+      </c>
+      <c r="EY51">
+        <v>410</v>
+      </c>
+      <c r="EZ51">
+        <v>15445</v>
+      </c>
+      <c r="FA51">
+        <v>35648</v>
+      </c>
+      <c r="FB51">
+        <v>308378</v>
+      </c>
+      <c r="FC51">
+        <v>292995</v>
+      </c>
+      <c r="FD51">
+        <v>466</v>
+      </c>
+      <c r="FE51">
+        <v>16750</v>
+      </c>
+      <c r="FF51">
+        <v>50033</v>
+      </c>
+      <c r="FG51">
+        <v>353670</v>
+      </c>
+      <c r="FH51">
+        <v>342952</v>
+      </c>
+      <c r="FI51">
+        <v>632</v>
+      </c>
+      <c r="FJ51">
+        <v>16936</v>
+      </c>
+      <c r="FK51">
+        <v>60081</v>
+      </c>
+      <c r="FL51">
+        <v>326804</v>
+      </c>
+      <c r="FM51">
+        <v>374409</v>
+      </c>
+      <c r="FN51">
+        <v>896</v>
+      </c>
+      <c r="FO51">
+        <v>12913</v>
+      </c>
+      <c r="FP51">
+        <v>45820</v>
+      </c>
+      <c r="FQ51">
+        <v>392571</v>
+      </c>
+      <c r="FR51">
+        <v>480623</v>
+      </c>
+      <c r="FS51">
+        <v>1101</v>
+      </c>
+      <c r="FT51">
+        <v>16247</v>
+      </c>
+      <c r="FU51">
+        <v>41411</v>
+      </c>
+      <c r="FV51">
+        <v>434589</v>
+      </c>
+      <c r="FW51">
+        <v>527328</v>
+      </c>
+      <c r="FX51">
+        <v>1139</v>
+      </c>
+      <c r="FY51">
+        <v>17742</v>
+      </c>
+      <c r="FZ51">
+        <v>47502</v>
+      </c>
+      <c r="GA51">
+        <v>430066</v>
+      </c>
+      <c r="GB51">
+        <v>533550</v>
+      </c>
+      <c r="GC51">
+        <v>923</v>
+      </c>
+      <c r="GD51">
+        <v>17126</v>
+      </c>
+      <c r="GE51">
+        <v>54819</v>
+      </c>
+      <c r="GF51">
+        <v>420572</v>
+      </c>
+      <c r="GG51">
+        <v>526015</v>
+      </c>
+      <c r="GH51">
+        <v>666</v>
+      </c>
+      <c r="GI51">
+        <v>14980</v>
+      </c>
+      <c r="GJ51">
+        <v>58826</v>
+      </c>
+      <c r="GK51">
+        <v>374381</v>
+      </c>
+      <c r="GL51">
+        <v>470247</v>
+      </c>
+      <c r="GM51">
+        <v>498</v>
+      </c>
+      <c r="GN51">
+        <v>12330</v>
+      </c>
+      <c r="GO51">
+        <v>53162</v>
+      </c>
+      <c r="GP51">
+        <v>331104</v>
+      </c>
+      <c r="GQ51">
+        <v>422333</v>
+      </c>
+      <c r="GR51">
+        <v>439</v>
+      </c>
+      <c r="GS51">
+        <v>10106</v>
+      </c>
+      <c r="GT51">
+        <v>45318</v>
+      </c>
+      <c r="GU51">
+        <v>309057</v>
+      </c>
+      <c r="GV51">
+        <v>390849</v>
+      </c>
+      <c r="GW51">
+        <v>402</v>
+      </c>
+      <c r="GX51">
+        <v>8930</v>
+      </c>
+      <c r="GY51">
+        <v>40261</v>
+      </c>
+      <c r="GZ51">
+        <v>264427</v>
+      </c>
+      <c r="HA51">
+        <v>321157</v>
+      </c>
+      <c r="HB51">
+        <v>329</v>
+      </c>
+      <c r="HC51">
+        <v>6595</v>
+      </c>
+      <c r="HD51">
+        <v>31745</v>
+      </c>
+      <c r="HE51">
+        <v>235307</v>
+      </c>
+      <c r="HF51">
+        <v>278361</v>
+      </c>
+      <c r="HG51">
+        <v>234</v>
+      </c>
+      <c r="HH51">
+        <v>5310</v>
+      </c>
+      <c r="HI51">
+        <v>25957</v>
+      </c>
+      <c r="HJ51">
+        <v>181814</v>
+      </c>
+      <c r="HK51">
+        <v>205454</v>
+      </c>
+      <c r="HL51">
+        <v>199</v>
+      </c>
+      <c r="HM51">
+        <v>3591</v>
+      </c>
+      <c r="HN51">
+        <v>18519</v>
+      </c>
+      <c r="HO51">
+        <v>152777</v>
+      </c>
+      <c r="HP51">
+        <v>159630</v>
+      </c>
+      <c r="HQ51">
+        <v>164</v>
+      </c>
+      <c r="HR51">
+        <v>2622</v>
+      </c>
+      <c r="HS51">
+        <v>12347</v>
+      </c>
+      <c r="HT51">
+        <v>117389</v>
+      </c>
+      <c r="HU51">
+        <v>116242</v>
+      </c>
+      <c r="HV51">
+        <v>164</v>
+      </c>
+      <c r="HW51">
+        <v>1840</v>
+      </c>
+      <c r="HX51">
+        <v>7814</v>
+      </c>
+      <c r="HY51">
+        <v>77258</v>
+      </c>
+      <c r="HZ51">
+        <v>81050</v>
+      </c>
+      <c r="IA51">
+        <v>132</v>
+      </c>
+      <c r="IB51">
+        <v>1258</v>
+      </c>
+      <c r="IC51">
+        <v>4531</v>
+      </c>
+      <c r="ID51">
+        <v>82932</v>
+      </c>
+      <c r="IE51">
+        <v>124666</v>
+      </c>
+      <c r="IF51">
+        <v>308</v>
+      </c>
+      <c r="IG51">
+        <v>2251</v>
+      </c>
+      <c r="IH51">
+        <v>3842</v>
+      </c>
+      <c r="II51">
+        <v>2152</v>
+      </c>
+      <c r="IJ51">
+        <v>2309</v>
+      </c>
+      <c r="IK51">
+        <v>25</v>
+      </c>
+      <c r="IL51">
+        <v>201</v>
+      </c>
+      <c r="IM51">
         <v>13472</v>
       </c>
     </row>
@@ -39544,7 +40287,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1">
-        <v>45288</v>
+        <v>45289</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pandemic/AUS_COVID19Cases.xlsx
+++ b/pandemic/AUS_COVID19Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\covid19\pandemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E332BD3-D144-47CC-9F43-43E149B2CF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B02AA10-9235-42DF-AEAF-8CE1A6A1B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{A9F7D5F6-3578-4AB1-9647-8C4352B9533E}"/>
   </bookViews>
@@ -1874,10 +1874,10 @@
         <v>43737</v>
       </c>
       <c r="X3">
-        <v>75260</v>
+        <v>75259</v>
       </c>
       <c r="Y3">
-        <v>70916</v>
+        <v>70917</v>
       </c>
       <c r="Z3">
         <v>55519</v>
@@ -1931,10 +1931,10 @@
         <v>45247</v>
       </c>
       <c r="AQ3">
-        <v>78228</v>
+        <v>78227</v>
       </c>
       <c r="AR3">
-        <v>74446</v>
+        <v>74447</v>
       </c>
       <c r="AS3">
         <v>58382</v>
@@ -1981,7 +1981,7 @@
         <v>44562</v>
       </c>
       <c r="B4">
-        <v>10318198</v>
+        <v>10318206</v>
       </c>
       <c r="C4">
         <v>3368103</v>
@@ -1996,7 +1996,7 @@
         <v>1288489</v>
       </c>
       <c r="G4">
-        <v>848661</v>
+        <v>848669</v>
       </c>
       <c r="H4">
         <v>279666</v>
@@ -2008,7 +2008,7 @@
         <v>103176</v>
       </c>
       <c r="K4">
-        <v>10886282</v>
+        <v>10886290</v>
       </c>
       <c r="L4">
         <v>3653388</v>
@@ -2023,7 +2023,7 @@
         <v>1289856</v>
       </c>
       <c r="P4">
-        <v>867834</v>
+        <v>867842</v>
       </c>
       <c r="Q4">
         <v>281543</v>
@@ -2035,55 +2035,55 @@
         <v>103967</v>
       </c>
       <c r="T4">
-        <v>450499</v>
+        <v>450501</v>
       </c>
       <c r="U4">
         <v>611250</v>
       </c>
       <c r="V4">
-        <v>710187</v>
+        <v>710185</v>
       </c>
       <c r="W4">
-        <v>683297</v>
+        <v>683296</v>
       </c>
       <c r="X4">
-        <v>812045</v>
+        <v>812046</v>
       </c>
       <c r="Y4">
         <v>899971</v>
       </c>
       <c r="Z4">
-        <v>917027</v>
+        <v>917029</v>
       </c>
       <c r="AA4">
-        <v>908874</v>
+        <v>908877</v>
       </c>
       <c r="AB4">
-        <v>810345</v>
+        <v>810343</v>
       </c>
       <c r="AC4">
-        <v>717618</v>
+        <v>717619</v>
       </c>
       <c r="AD4">
-        <v>658718</v>
+        <v>658717</v>
       </c>
       <c r="AE4">
-        <v>544122</v>
+        <v>544117</v>
       </c>
       <c r="AF4">
-        <v>471397</v>
+        <v>471404</v>
       </c>
       <c r="AG4">
-        <v>348979</v>
+        <v>348978</v>
       </c>
       <c r="AH4">
-        <v>274364</v>
+        <v>274368</v>
       </c>
       <c r="AI4">
-        <v>198166</v>
+        <v>198165</v>
       </c>
       <c r="AJ4">
-        <v>128297</v>
+        <v>128298</v>
       </c>
       <c r="AK4">
         <v>155899</v>
@@ -2092,55 +2092,55 @@
         <v>17143</v>
       </c>
       <c r="AM4">
-        <v>473749</v>
+        <v>473751</v>
       </c>
       <c r="AN4">
         <v>644449</v>
       </c>
       <c r="AO4">
-        <v>741701</v>
+        <v>741699</v>
       </c>
       <c r="AP4">
-        <v>728544</v>
+        <v>728543</v>
       </c>
       <c r="AQ4">
         <v>890273</v>
       </c>
       <c r="AR4">
-        <v>974417</v>
+        <v>974418</v>
       </c>
       <c r="AS4">
-        <v>975409</v>
+        <v>975411</v>
       </c>
       <c r="AT4">
-        <v>953867</v>
+        <v>953870</v>
       </c>
       <c r="AU4">
-        <v>845964</v>
+        <v>845962</v>
       </c>
       <c r="AV4">
-        <v>749697</v>
+        <v>749698</v>
       </c>
       <c r="AW4">
-        <v>688409</v>
+        <v>688408</v>
       </c>
       <c r="AX4">
-        <v>568118</v>
+        <v>568113</v>
       </c>
       <c r="AY4">
-        <v>489931</v>
+        <v>489938</v>
       </c>
       <c r="AZ4">
-        <v>361959</v>
+        <v>361958</v>
       </c>
       <c r="BA4">
-        <v>283680</v>
+        <v>283684</v>
       </c>
       <c r="BB4">
-        <v>204644</v>
+        <v>204643</v>
       </c>
       <c r="BC4">
-        <v>132689</v>
+        <v>132690</v>
       </c>
       <c r="BD4">
         <v>161266</v>
@@ -2154,172 +2154,172 @@
         <v>44927</v>
       </c>
       <c r="B5">
-        <v>856230</v>
+        <v>857511</v>
       </c>
       <c r="C5">
-        <v>308233</v>
+        <v>308704</v>
       </c>
       <c r="D5">
         <v>156862</v>
       </c>
       <c r="E5">
-        <v>138790</v>
+        <v>139064</v>
       </c>
       <c r="F5">
-        <v>94192</v>
+        <v>94196</v>
       </c>
       <c r="G5">
-        <v>94620</v>
+        <v>94975</v>
       </c>
       <c r="H5">
-        <v>33585</v>
+        <v>33750</v>
       </c>
       <c r="I5">
         <v>23340</v>
       </c>
       <c r="J5">
-        <v>6608</v>
+        <v>6620</v>
       </c>
       <c r="K5">
-        <v>11742512</v>
+        <v>11743801</v>
       </c>
       <c r="L5">
-        <v>3961621</v>
+        <v>3962092</v>
       </c>
       <c r="M5">
         <v>2998344</v>
       </c>
       <c r="N5">
-        <v>1758670</v>
+        <v>1758944</v>
       </c>
       <c r="O5">
-        <v>1384048</v>
+        <v>1384052</v>
       </c>
       <c r="P5">
-        <v>962454</v>
+        <v>962817</v>
       </c>
       <c r="Q5">
-        <v>315128</v>
+        <v>315293</v>
       </c>
       <c r="R5">
         <v>251672</v>
       </c>
       <c r="S5">
-        <v>110575</v>
+        <v>110587</v>
       </c>
       <c r="T5">
-        <v>31440</v>
+        <v>31536</v>
       </c>
       <c r="U5">
-        <v>24173</v>
+        <v>24187</v>
       </c>
       <c r="V5">
-        <v>32570</v>
+        <v>32585</v>
       </c>
       <c r="W5">
-        <v>32298</v>
+        <v>32320</v>
       </c>
       <c r="X5">
-        <v>41680</v>
+        <v>41721</v>
       </c>
       <c r="Y5">
-        <v>53883</v>
+        <v>53946</v>
       </c>
       <c r="Z5">
-        <v>61075</v>
+        <v>61141</v>
       </c>
       <c r="AA5">
-        <v>67192</v>
+        <v>67268</v>
       </c>
       <c r="AB5">
-        <v>64654</v>
+        <v>64713</v>
       </c>
       <c r="AC5">
-        <v>59603</v>
+        <v>59679</v>
       </c>
       <c r="AD5">
-        <v>61090</v>
+        <v>61173</v>
       </c>
       <c r="AE5">
-        <v>56135</v>
+        <v>56199</v>
       </c>
       <c r="AF5">
-        <v>55238</v>
+        <v>55335</v>
       </c>
       <c r="AG5">
-        <v>47618</v>
+        <v>47705</v>
       </c>
       <c r="AH5">
-        <v>43860</v>
+        <v>43967</v>
       </c>
       <c r="AI5">
-        <v>38805</v>
+        <v>38892</v>
       </c>
       <c r="AJ5">
-        <v>31540</v>
+        <v>31631</v>
       </c>
       <c r="AK5">
-        <v>52733</v>
+        <v>52871</v>
       </c>
       <c r="AL5">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AM5">
-        <v>505189</v>
+        <v>505287</v>
       </c>
       <c r="AN5">
-        <v>668622</v>
+        <v>668636</v>
       </c>
       <c r="AO5">
-        <v>774271</v>
+        <v>774284</v>
       </c>
       <c r="AP5">
-        <v>760842</v>
+        <v>760863</v>
       </c>
       <c r="AQ5">
-        <v>931953</v>
+        <v>931994</v>
       </c>
       <c r="AR5">
-        <v>1028300</v>
+        <v>1028364</v>
       </c>
       <c r="AS5">
-        <v>1036484</v>
+        <v>1036552</v>
       </c>
       <c r="AT5">
-        <v>1021059</v>
+        <v>1021138</v>
       </c>
       <c r="AU5">
-        <v>910618</v>
+        <v>910675</v>
       </c>
       <c r="AV5">
-        <v>809300</v>
+        <v>809377</v>
       </c>
       <c r="AW5">
-        <v>749499</v>
+        <v>749581</v>
       </c>
       <c r="AX5">
-        <v>624253</v>
+        <v>624312</v>
       </c>
       <c r="AY5">
-        <v>545169</v>
+        <v>545273</v>
       </c>
       <c r="AZ5">
-        <v>409577</v>
+        <v>409663</v>
       </c>
       <c r="BA5">
-        <v>327540</v>
+        <v>327651</v>
       </c>
       <c r="BB5">
-        <v>243449</v>
+        <v>243535</v>
       </c>
       <c r="BC5">
-        <v>164229</v>
+        <v>164321</v>
       </c>
       <c r="BD5">
-        <v>213999</v>
+        <v>214137</v>
       </c>
       <c r="BE5">
-        <v>18159</v>
+        <v>18158</v>
       </c>
     </row>
   </sheetData>
@@ -3819,7 +3819,7 @@
         <v>44562</v>
       </c>
       <c r="B26" s="3">
-        <v>1809723</v>
+        <v>1809726</v>
       </c>
       <c r="C26" s="3">
         <v>637164</v>
@@ -3834,7 +3834,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="3">
-        <v>90177</v>
+        <v>90180</v>
       </c>
       <c r="H26" s="3">
         <v>27849</v>
@@ -3846,7 +3846,7 @@
         <v>15573</v>
       </c>
       <c r="K26" s="3">
-        <v>2377807</v>
+        <v>2377810</v>
       </c>
       <c r="L26" s="3">
         <v>922449</v>
@@ -3861,7 +3861,7 @@
         <v>2217</v>
       </c>
       <c r="P26" s="3">
-        <v>109350</v>
+        <v>109353</v>
       </c>
       <c r="Q26" s="3">
         <v>29726</v>
@@ -3905,7 +3905,7 @@
         <v>23475</v>
       </c>
       <c r="K27" s="3">
-        <v>3065375</v>
+        <v>3065378</v>
       </c>
       <c r="L27" s="3">
         <v>1152676</v>
@@ -3920,7 +3920,7 @@
         <v>14031</v>
       </c>
       <c r="P27" s="3">
-        <v>153800</v>
+        <v>153803</v>
       </c>
       <c r="Q27" s="3">
         <v>47445</v>
@@ -3937,7 +3937,7 @@
         <v>44621</v>
       </c>
       <c r="B28" s="3">
-        <v>1366807</v>
+        <v>1366809</v>
       </c>
       <c r="C28" s="3">
         <v>536606</v>
@@ -3952,7 +3952,7 @@
         <v>179287</v>
       </c>
       <c r="G28" s="3">
-        <v>120527</v>
+        <v>120529</v>
       </c>
       <c r="H28" s="3">
         <v>46427</v>
@@ -3964,7 +3964,7 @@
         <v>10117</v>
       </c>
       <c r="K28" s="3">
-        <v>4432182</v>
+        <v>4432187</v>
       </c>
       <c r="L28" s="3">
         <v>1689282</v>
@@ -3979,7 +3979,7 @@
         <v>193318</v>
       </c>
       <c r="P28" s="3">
-        <v>274327</v>
+        <v>274332</v>
       </c>
       <c r="Q28" s="3">
         <v>93872</v>
@@ -3996,7 +3996,7 @@
         <v>44652</v>
       </c>
       <c r="B29" s="3">
-        <v>1339974</v>
+        <v>1339977</v>
       </c>
       <c r="C29" s="3">
         <v>432380</v>
@@ -4011,7 +4011,7 @@
         <v>206842</v>
       </c>
       <c r="G29" s="3">
-        <v>139917</v>
+        <v>139920</v>
       </c>
       <c r="H29" s="3">
         <v>44022</v>
@@ -4023,7 +4023,7 @@
         <v>13471</v>
       </c>
       <c r="K29" s="3">
-        <v>5772156</v>
+        <v>5772164</v>
       </c>
       <c r="L29" s="3">
         <v>2121662</v>
@@ -4038,7 +4038,7 @@
         <v>400160</v>
       </c>
       <c r="P29" s="3">
-        <v>414244</v>
+        <v>414252</v>
       </c>
       <c r="Q29" s="3">
         <v>137894</v>
@@ -4082,7 +4082,7 @@
         <v>8656</v>
       </c>
       <c r="K30" s="3">
-        <v>7082566</v>
+        <v>7082574</v>
       </c>
       <c r="L30" s="3">
         <v>2418929</v>
@@ -4097,7 +4097,7 @@
         <v>754248</v>
       </c>
       <c r="P30" s="3">
-        <v>522424</v>
+        <v>522432</v>
       </c>
       <c r="Q30" s="3">
         <v>166167</v>
@@ -4141,7 +4141,7 @@
         <v>6717</v>
       </c>
       <c r="K31" s="3">
-        <v>7966889</v>
+        <v>7966897</v>
       </c>
       <c r="L31" s="3">
         <v>2652830</v>
@@ -4156,7 +4156,7 @@
         <v>936884</v>
       </c>
       <c r="P31" s="3">
-        <v>599771</v>
+        <v>599779</v>
       </c>
       <c r="Q31" s="3">
         <v>190883</v>
@@ -4200,7 +4200,7 @@
         <v>12579</v>
       </c>
       <c r="K32" s="3">
-        <v>9217248</v>
+        <v>9217256</v>
       </c>
       <c r="L32" s="3">
         <v>3031435</v>
@@ -4215,7 +4215,7 @@
         <v>1095148</v>
       </c>
       <c r="P32" s="3">
-        <v>717181</v>
+        <v>717189</v>
       </c>
       <c r="Q32" s="3">
         <v>233155</v>
@@ -4259,7 +4259,7 @@
         <v>4987</v>
       </c>
       <c r="K33" s="3">
-        <v>9772108</v>
+        <v>9772116</v>
       </c>
       <c r="L33" s="3">
         <v>3261484</v>
@@ -4274,7 +4274,7 @@
         <v>1154218</v>
       </c>
       <c r="P33" s="3">
-        <v>757694</v>
+        <v>757702</v>
       </c>
       <c r="Q33" s="3">
         <v>246059</v>
@@ -4318,7 +4318,7 @@
         <v>1762</v>
       </c>
       <c r="K34" s="3">
-        <v>9966359</v>
+        <v>9966367</v>
       </c>
       <c r="L34" s="3">
         <v>3330336</v>
@@ -4333,7 +4333,7 @@
         <v>1178485</v>
       </c>
       <c r="P34" s="3">
-        <v>772980</v>
+        <v>772988</v>
       </c>
       <c r="Q34" s="3">
         <v>249935</v>
@@ -4377,7 +4377,7 @@
         <v>1183</v>
       </c>
       <c r="K35" s="3">
-        <v>10108462</v>
+        <v>10108470</v>
       </c>
       <c r="L35" s="3">
         <v>3374835</v>
@@ -4392,7 +4392,7 @@
         <v>1201909</v>
       </c>
       <c r="P35" s="3">
-        <v>786156</v>
+        <v>786164</v>
       </c>
       <c r="Q35" s="3">
         <v>253589</v>
@@ -4436,7 +4436,7 @@
         <v>1804</v>
       </c>
       <c r="K36" s="3">
-        <v>10460407</v>
+        <v>10460415</v>
       </c>
       <c r="L36" s="3">
         <v>3496927</v>
@@ -4451,7 +4451,7 @@
         <v>1244543</v>
       </c>
       <c r="P36" s="3">
-        <v>823322</v>
+        <v>823330</v>
       </c>
       <c r="Q36" s="3">
         <v>265270</v>
@@ -4495,7 +4495,7 @@
         <v>2852</v>
       </c>
       <c r="K37" s="3">
-        <v>10886282</v>
+        <v>10886290</v>
       </c>
       <c r="L37" s="3">
         <v>3653388</v>
@@ -4510,7 +4510,7 @@
         <v>1289856</v>
       </c>
       <c r="P37" s="3">
-        <v>867834</v>
+        <v>867842</v>
       </c>
       <c r="Q37" s="3">
         <v>281543</v>
@@ -4554,7 +4554,7 @@
         <v>1285</v>
       </c>
       <c r="K38" s="3">
-        <v>11016366</v>
+        <v>11016374</v>
       </c>
       <c r="L38" s="3">
         <v>3699332</v>
@@ -4569,7 +4569,7 @@
         <v>1306712</v>
       </c>
       <c r="P38" s="3">
-        <v>879725</v>
+        <v>879733</v>
       </c>
       <c r="Q38" s="3">
         <v>285180</v>
@@ -4613,7 +4613,7 @@
         <v>460</v>
       </c>
       <c r="K39" s="3">
-        <v>11088353</v>
+        <v>11088361</v>
       </c>
       <c r="L39" s="3">
         <v>3724575</v>
@@ -4628,7 +4628,7 @@
         <v>1315584</v>
       </c>
       <c r="P39" s="3">
-        <v>886579</v>
+        <v>886587</v>
       </c>
       <c r="Q39" s="3">
         <v>287111</v>
@@ -4672,7 +4672,7 @@
         <v>668</v>
       </c>
       <c r="K40" s="3">
-        <v>11192314</v>
+        <v>11192322</v>
       </c>
       <c r="L40" s="3">
         <v>3763217</v>
@@ -4687,7 +4687,7 @@
         <v>1328546</v>
       </c>
       <c r="P40" s="3">
-        <v>898080</v>
+        <v>898088</v>
       </c>
       <c r="Q40" s="3">
         <v>290413</v>
@@ -4731,7 +4731,7 @@
         <v>827</v>
       </c>
       <c r="K41" s="3">
-        <v>11315434</v>
+        <v>11315442</v>
       </c>
       <c r="L41" s="3">
         <v>3810746</v>
@@ -4746,7 +4746,7 @@
         <v>1342933</v>
       </c>
       <c r="P41" s="3">
-        <v>910412</v>
+        <v>910420</v>
       </c>
       <c r="Q41" s="3">
         <v>294193</v>
@@ -4790,7 +4790,7 @@
         <v>933</v>
       </c>
       <c r="K42" s="3">
-        <v>11481631</v>
+        <v>11481639</v>
       </c>
       <c r="L42" s="3">
         <v>3872840</v>
@@ -4805,7 +4805,7